--- a/generated_reports/tradfi_momentum.xlsx
+++ b/generated_reports/tradfi_momentum.xlsx
@@ -1834,10 +1834,10 @@
     <t>MDB</t>
   </si>
   <si>
+    <t>Bull</t>
+  </si>
+  <si>
     <t>Bear</t>
-  </si>
-  <si>
-    <t>Bull</t>
   </si>
   <si>
     <t>10 days</t>
@@ -2235,7 +2235,7 @@
         <v>606</v>
       </c>
       <c r="C2">
-        <v>97.883</v>
+        <v>100.083</v>
       </c>
       <c r="D2" t="s">
         <v>608</v>
@@ -2252,7 +2252,7 @@
         <v>606</v>
       </c>
       <c r="C3">
-        <v>99.355</v>
+        <v>102.631</v>
       </c>
       <c r="D3" t="s">
         <v>608</v>
@@ -2266,10 +2266,10 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C4">
-        <v>109.445</v>
+        <v>114.083</v>
       </c>
       <c r="D4" t="s">
         <v>608</v>
@@ -2283,10 +2283,10 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C5">
-        <v>84.15300000000001</v>
+        <v>92.268</v>
       </c>
       <c r="D5" t="s">
         <v>608</v>
@@ -2300,10 +2300,10 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C6">
-        <v>85.155</v>
+        <v>88.294</v>
       </c>
       <c r="D6" t="s">
         <v>608</v>
@@ -2320,7 +2320,7 @@
         <v>606</v>
       </c>
       <c r="C7">
-        <v>98.438</v>
+        <v>101.547</v>
       </c>
       <c r="D7" t="s">
         <v>608</v>
@@ -2334,10 +2334,10 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C8">
-        <v>109.749</v>
+        <v>111.144</v>
       </c>
       <c r="D8" t="s">
         <v>608</v>
@@ -2351,10 +2351,10 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C9">
-        <v>84.206</v>
+        <v>89.46599999999999</v>
       </c>
       <c r="D9" t="s">
         <v>608</v>
@@ -2368,10 +2368,10 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C10">
-        <v>114.32</v>
+        <v>118.721</v>
       </c>
       <c r="D10" t="s">
         <v>608</v>
@@ -2385,10 +2385,10 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C11">
-        <v>105.568</v>
+        <v>108.198</v>
       </c>
       <c r="D11" t="s">
         <v>608</v>
@@ -2405,7 +2405,7 @@
         <v>606</v>
       </c>
       <c r="C12">
-        <v>98.554</v>
+        <v>100.134</v>
       </c>
       <c r="D12" t="s">
         <v>608</v>
@@ -2422,7 +2422,7 @@
         <v>606</v>
       </c>
       <c r="C13">
-        <v>95.63500000000001</v>
+        <v>108.111</v>
       </c>
       <c r="D13" t="s">
         <v>608</v>
@@ -2436,10 +2436,10 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C14">
-        <v>109.85</v>
+        <v>115.475</v>
       </c>
       <c r="D14" t="s">
         <v>608</v>
@@ -2453,10 +2453,10 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C15">
-        <v>100.516</v>
+        <v>100.476</v>
       </c>
       <c r="D15" t="s">
         <v>608</v>
@@ -2470,10 +2470,10 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C16">
-        <v>105.015</v>
+        <v>106.851</v>
       </c>
       <c r="D16" t="s">
         <v>608</v>
@@ -2487,10 +2487,10 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C17">
-        <v>113.357</v>
+        <v>114.765</v>
       </c>
       <c r="D17" t="s">
         <v>608</v>
@@ -2504,10 +2504,10 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C18">
-        <v>105.865</v>
+        <v>109.118</v>
       </c>
       <c r="D18" t="s">
         <v>608</v>
@@ -2521,10 +2521,10 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C19">
-        <v>103.804</v>
+        <v>108.543</v>
       </c>
       <c r="D19" t="s">
         <v>608</v>
@@ -2538,10 +2538,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C20">
-        <v>108.953</v>
+        <v>104.327</v>
       </c>
       <c r="D20" t="s">
         <v>608</v>
@@ -2555,10 +2555,10 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C21">
-        <v>103.36</v>
+        <v>105.768</v>
       </c>
       <c r="D21" t="s">
         <v>608</v>
@@ -2572,10 +2572,10 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C22">
-        <v>108.878</v>
+        <v>107.175</v>
       </c>
       <c r="D22" t="s">
         <v>608</v>
@@ -2592,7 +2592,7 @@
         <v>606</v>
       </c>
       <c r="C23">
-        <v>95.988</v>
+        <v>101.492</v>
       </c>
       <c r="D23" t="s">
         <v>608</v>
@@ -2606,10 +2606,10 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C24">
-        <v>96.438</v>
+        <v>95.824</v>
       </c>
       <c r="D24" t="s">
         <v>608</v>
@@ -2623,10 +2623,10 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C25">
-        <v>106.906</v>
+        <v>108.439</v>
       </c>
       <c r="D25" t="s">
         <v>608</v>
@@ -2640,10 +2640,10 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C26">
-        <v>107.106</v>
+        <v>110.496</v>
       </c>
       <c r="D26" t="s">
         <v>608</v>
@@ -2657,10 +2657,10 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C27">
-        <v>104.234</v>
+        <v>105.541</v>
       </c>
       <c r="D27" t="s">
         <v>608</v>
@@ -2674,10 +2674,10 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C28">
-        <v>100.399</v>
+        <v>103.957</v>
       </c>
       <c r="D28" t="s">
         <v>608</v>
@@ -2691,10 +2691,10 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C29">
-        <v>102.899</v>
+        <v>108.014</v>
       </c>
       <c r="D29" t="s">
         <v>608</v>
@@ -2708,10 +2708,10 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C30">
-        <v>102.725</v>
+        <v>103.266</v>
       </c>
       <c r="D30" t="s">
         <v>608</v>
@@ -2725,10 +2725,10 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C31">
-        <v>93.459</v>
+        <v>96.43899999999999</v>
       </c>
       <c r="D31" t="s">
         <v>608</v>
@@ -2742,10 +2742,10 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C32">
-        <v>111.684</v>
+        <v>113.115</v>
       </c>
       <c r="D32" t="s">
         <v>608</v>
@@ -2759,10 +2759,10 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C33">
-        <v>111.302</v>
+        <v>108.941</v>
       </c>
       <c r="D33" t="s">
         <v>608</v>
@@ -2776,10 +2776,10 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C34">
-        <v>84.217</v>
+        <v>85.43899999999999</v>
       </c>
       <c r="D34" t="s">
         <v>608</v>
@@ -2793,10 +2793,10 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C35">
-        <v>99.744</v>
+        <v>98.38500000000001</v>
       </c>
       <c r="D35" t="s">
         <v>608</v>
@@ -2810,10 +2810,10 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C36">
-        <v>104.289</v>
+        <v>109.173</v>
       </c>
       <c r="D36" t="s">
         <v>608</v>
@@ -2830,7 +2830,7 @@
         <v>606</v>
       </c>
       <c r="C37">
-        <v>97.248</v>
+        <v>101.67</v>
       </c>
       <c r="D37" t="s">
         <v>608</v>
@@ -2847,7 +2847,7 @@
         <v>606</v>
       </c>
       <c r="C38">
-        <v>96.86</v>
+        <v>100.461</v>
       </c>
       <c r="D38" t="s">
         <v>608</v>
@@ -2861,10 +2861,10 @@
         <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C39">
-        <v>103.453</v>
+        <v>108.307</v>
       </c>
       <c r="D39" t="s">
         <v>608</v>
@@ -2878,10 +2878,10 @@
         <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C40">
-        <v>94.76000000000001</v>
+        <v>98.673</v>
       </c>
       <c r="D40" t="s">
         <v>608</v>
@@ -2895,10 +2895,10 @@
         <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C41">
-        <v>101.41</v>
+        <v>102.366</v>
       </c>
       <c r="D41" t="s">
         <v>608</v>
@@ -2912,10 +2912,10 @@
         <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C42">
-        <v>110.72</v>
+        <v>112.314</v>
       </c>
       <c r="D42" t="s">
         <v>608</v>
@@ -2929,10 +2929,10 @@
         <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C43">
-        <v>102.919</v>
+        <v>103.494</v>
       </c>
       <c r="D43" t="s">
         <v>608</v>
@@ -2946,10 +2946,10 @@
         <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C44">
-        <v>106.979</v>
+        <v>110.339</v>
       </c>
       <c r="D44" t="s">
         <v>608</v>
@@ -2966,7 +2966,7 @@
         <v>606</v>
       </c>
       <c r="C45">
-        <v>99.25</v>
+        <v>102.01</v>
       </c>
       <c r="D45" t="s">
         <v>608</v>
@@ -2980,10 +2980,10 @@
         <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C46">
-        <v>90.128</v>
+        <v>94.339</v>
       </c>
       <c r="D46" t="s">
         <v>608</v>
@@ -2997,10 +2997,10 @@
         <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C47">
-        <v>95.452</v>
+        <v>98.024</v>
       </c>
       <c r="D47" t="s">
         <v>608</v>
@@ -3014,10 +3014,10 @@
         <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C48">
-        <v>102.28</v>
+        <v>104.879</v>
       </c>
       <c r="D48" t="s">
         <v>608</v>
@@ -3034,7 +3034,7 @@
         <v>606</v>
       </c>
       <c r="C49">
-        <v>97.822</v>
+        <v>100.657</v>
       </c>
       <c r="D49" t="s">
         <v>608</v>
@@ -3048,10 +3048,10 @@
         <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C50">
-        <v>101.202</v>
+        <v>104.013</v>
       </c>
       <c r="D50" t="s">
         <v>608</v>
@@ -3065,10 +3065,10 @@
         <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C51">
-        <v>103.266</v>
+        <v>108.425</v>
       </c>
       <c r="D51" t="s">
         <v>608</v>
@@ -3082,10 +3082,10 @@
         <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C52">
-        <v>104.543</v>
+        <v>109.969</v>
       </c>
       <c r="D52" t="s">
         <v>608</v>
@@ -3099,10 +3099,10 @@
         <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C53">
-        <v>87.745</v>
+        <v>91.922</v>
       </c>
       <c r="D53" t="s">
         <v>608</v>
@@ -3116,10 +3116,10 @@
         <v>57</v>
       </c>
       <c r="B54" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C54">
-        <v>100.928</v>
+        <v>101.629</v>
       </c>
       <c r="D54" t="s">
         <v>608</v>
@@ -3136,7 +3136,7 @@
         <v>606</v>
       </c>
       <c r="C55">
-        <v>95.792</v>
+        <v>100.47</v>
       </c>
       <c r="D55" t="s">
         <v>608</v>
@@ -3150,10 +3150,10 @@
         <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C56">
-        <v>108.289</v>
+        <v>113.143</v>
       </c>
       <c r="D56" t="s">
         <v>608</v>
@@ -3170,7 +3170,7 @@
         <v>606</v>
       </c>
       <c r="C57">
-        <v>95.56999999999999</v>
+        <v>101.675</v>
       </c>
       <c r="D57" t="s">
         <v>608</v>
@@ -3184,10 +3184,10 @@
         <v>61</v>
       </c>
       <c r="B58" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C58">
-        <v>94.55</v>
+        <v>99.599</v>
       </c>
       <c r="D58" t="s">
         <v>608</v>
@@ -3201,10 +3201,10 @@
         <v>62</v>
       </c>
       <c r="B59" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C59">
-        <v>106.921</v>
+        <v>107.093</v>
       </c>
       <c r="D59" t="s">
         <v>608</v>
@@ -3218,10 +3218,10 @@
         <v>63</v>
       </c>
       <c r="B60" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C60">
-        <v>102.113</v>
+        <v>103.364</v>
       </c>
       <c r="D60" t="s">
         <v>608</v>
@@ -3235,10 +3235,10 @@
         <v>64</v>
       </c>
       <c r="B61" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C61">
-        <v>96.46899999999999</v>
+        <v>97.246</v>
       </c>
       <c r="D61" t="s">
         <v>608</v>
@@ -3252,10 +3252,10 @@
         <v>65</v>
       </c>
       <c r="B62" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C62">
-        <v>104.083</v>
+        <v>105.573</v>
       </c>
       <c r="D62" t="s">
         <v>608</v>
@@ -3269,10 +3269,10 @@
         <v>66</v>
       </c>
       <c r="B63" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C63">
-        <v>104.946</v>
+        <v>106.332</v>
       </c>
       <c r="D63" t="s">
         <v>608</v>
@@ -3286,10 +3286,10 @@
         <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C64">
-        <v>101.534</v>
+        <v>103.006</v>
       </c>
       <c r="D64" t="s">
         <v>608</v>
@@ -3303,10 +3303,10 @@
         <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C65">
-        <v>88.05500000000001</v>
+        <v>90.845</v>
       </c>
       <c r="D65" t="s">
         <v>608</v>
@@ -3320,10 +3320,10 @@
         <v>69</v>
       </c>
       <c r="B66" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C66">
-        <v>77.623</v>
+        <v>78.006</v>
       </c>
       <c r="D66" t="s">
         <v>608</v>
@@ -3337,10 +3337,10 @@
         <v>70</v>
       </c>
       <c r="B67" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C67">
-        <v>106.809</v>
+        <v>109.599</v>
       </c>
       <c r="D67" t="s">
         <v>608</v>
@@ -3357,7 +3357,7 @@
         <v>606</v>
       </c>
       <c r="C68">
-        <v>98.226</v>
+        <v>108.567</v>
       </c>
       <c r="D68" t="s">
         <v>608</v>
@@ -3371,10 +3371,10 @@
         <v>72</v>
       </c>
       <c r="B69" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C69">
-        <v>104.457</v>
+        <v>106.415</v>
       </c>
       <c r="D69" t="s">
         <v>608</v>
@@ -3388,10 +3388,10 @@
         <v>73</v>
       </c>
       <c r="B70" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C70">
-        <v>115.991</v>
+        <v>105.751</v>
       </c>
       <c r="D70" t="s">
         <v>608</v>
@@ -3405,10 +3405,10 @@
         <v>74</v>
       </c>
       <c r="B71" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C71">
-        <v>113.981</v>
+        <v>114.876</v>
       </c>
       <c r="D71" t="s">
         <v>608</v>
@@ -3425,7 +3425,7 @@
         <v>607</v>
       </c>
       <c r="C72">
-        <v>100.292</v>
+        <v>97.47</v>
       </c>
       <c r="D72" t="s">
         <v>608</v>
@@ -3439,10 +3439,10 @@
         <v>76</v>
       </c>
       <c r="B73" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C73">
-        <v>106.578</v>
+        <v>110.374</v>
       </c>
       <c r="D73" t="s">
         <v>608</v>
@@ -3459,7 +3459,7 @@
         <v>606</v>
       </c>
       <c r="C74">
-        <v>98.041</v>
+        <v>100.679</v>
       </c>
       <c r="D74" t="s">
         <v>608</v>
@@ -3473,10 +3473,10 @@
         <v>78</v>
       </c>
       <c r="B75" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C75">
-        <v>107.797</v>
+        <v>107.123</v>
       </c>
       <c r="D75" t="s">
         <v>608</v>
@@ -3490,10 +3490,10 @@
         <v>79</v>
       </c>
       <c r="B76" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C76">
-        <v>106.242</v>
+        <v>104.21</v>
       </c>
       <c r="D76" t="s">
         <v>608</v>
@@ -3510,7 +3510,7 @@
         <v>606</v>
       </c>
       <c r="C77">
-        <v>97.765</v>
+        <v>109.944</v>
       </c>
       <c r="D77" t="s">
         <v>608</v>
@@ -3524,10 +3524,10 @@
         <v>81</v>
       </c>
       <c r="B78" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C78">
-        <v>110.246</v>
+        <v>112.823</v>
       </c>
       <c r="D78" t="s">
         <v>608</v>
@@ -3541,10 +3541,10 @@
         <v>82</v>
       </c>
       <c r="B79" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C79">
-        <v>94.884</v>
+        <v>99.501</v>
       </c>
       <c r="D79" t="s">
         <v>608</v>
@@ -3558,10 +3558,10 @@
         <v>83</v>
       </c>
       <c r="B80" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C80">
-        <v>106.505</v>
+        <v>110.021</v>
       </c>
       <c r="D80" t="s">
         <v>608</v>
@@ -3575,10 +3575,10 @@
         <v>84</v>
       </c>
       <c r="B81" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C81">
-        <v>103.725</v>
+        <v>102.895</v>
       </c>
       <c r="D81" t="s">
         <v>608</v>
@@ -3592,10 +3592,10 @@
         <v>85</v>
       </c>
       <c r="B82" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C82">
-        <v>91.474</v>
+        <v>92.97499999999999</v>
       </c>
       <c r="D82" t="s">
         <v>608</v>
@@ -3609,10 +3609,10 @@
         <v>86</v>
       </c>
       <c r="B83" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C83">
-        <v>90.59999999999999</v>
+        <v>94.405</v>
       </c>
       <c r="D83" t="s">
         <v>608</v>
@@ -3626,10 +3626,10 @@
         <v>87</v>
       </c>
       <c r="B84" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C84">
-        <v>126.835</v>
+        <v>128.483</v>
       </c>
       <c r="D84" t="s">
         <v>608</v>
@@ -3646,7 +3646,7 @@
         <v>606</v>
       </c>
       <c r="C85">
-        <v>98.351</v>
+        <v>105.006</v>
       </c>
       <c r="D85" t="s">
         <v>608</v>
@@ -3660,10 +3660,10 @@
         <v>89</v>
       </c>
       <c r="B86" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C86">
-        <v>90.72499999999999</v>
+        <v>97.051</v>
       </c>
       <c r="D86" t="s">
         <v>608</v>
@@ -3680,7 +3680,7 @@
         <v>606</v>
       </c>
       <c r="C87">
-        <v>94.67</v>
+        <v>102.398</v>
       </c>
       <c r="D87" t="s">
         <v>608</v>
@@ -3694,10 +3694,10 @@
         <v>91</v>
       </c>
       <c r="B88" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C88">
-        <v>103.373</v>
+        <v>103.659</v>
       </c>
       <c r="D88" t="s">
         <v>608</v>
@@ -3714,7 +3714,7 @@
         <v>606</v>
       </c>
       <c r="C89">
-        <v>94.878</v>
+        <v>102.264</v>
       </c>
       <c r="D89" t="s">
         <v>608</v>
@@ -3731,7 +3731,7 @@
         <v>607</v>
       </c>
       <c r="C90">
-        <v>103.941</v>
+        <v>99.122</v>
       </c>
       <c r="D90" t="s">
         <v>608</v>
@@ -3745,10 +3745,10 @@
         <v>94</v>
       </c>
       <c r="B91" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C91">
-        <v>87.73099999999999</v>
+        <v>91.708</v>
       </c>
       <c r="D91" t="s">
         <v>608</v>
@@ -3762,10 +3762,10 @@
         <v>95</v>
       </c>
       <c r="B92" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C92">
-        <v>107.843</v>
+        <v>110.164</v>
       </c>
       <c r="D92" t="s">
         <v>608</v>
@@ -3779,10 +3779,10 @@
         <v>96</v>
       </c>
       <c r="B93" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C93">
-        <v>103.743</v>
+        <v>105.625</v>
       </c>
       <c r="D93" t="s">
         <v>608</v>
@@ -3796,10 +3796,10 @@
         <v>97</v>
       </c>
       <c r="B94" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C94">
-        <v>131.891</v>
+        <v>137.237</v>
       </c>
       <c r="D94" t="s">
         <v>608</v>
@@ -3813,10 +3813,10 @@
         <v>98</v>
       </c>
       <c r="B95" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C95">
-        <v>107.53</v>
+        <v>109.056</v>
       </c>
       <c r="D95" t="s">
         <v>608</v>
@@ -3830,10 +3830,10 @@
         <v>99</v>
       </c>
       <c r="B96" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C96">
-        <v>100.55</v>
+        <v>112.195</v>
       </c>
       <c r="D96" t="s">
         <v>608</v>
@@ -3847,10 +3847,10 @@
         <v>100</v>
       </c>
       <c r="B97" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C97">
-        <v>87.15000000000001</v>
+        <v>91.57299999999999</v>
       </c>
       <c r="D97" t="s">
         <v>608</v>
@@ -3864,10 +3864,10 @@
         <v>101</v>
       </c>
       <c r="B98" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C98">
-        <v>105.154</v>
+        <v>106.664</v>
       </c>
       <c r="D98" t="s">
         <v>608</v>
@@ -3881,10 +3881,10 @@
         <v>102</v>
       </c>
       <c r="B99" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C99">
-        <v>133.956</v>
+        <v>132.233</v>
       </c>
       <c r="D99" t="s">
         <v>608</v>
@@ -3898,10 +3898,10 @@
         <v>103</v>
       </c>
       <c r="B100" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C100">
-        <v>107.836</v>
+        <v>111.95</v>
       </c>
       <c r="D100" t="s">
         <v>608</v>
@@ -3915,10 +3915,10 @@
         <v>104</v>
       </c>
       <c r="B101" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C101">
-        <v>102.077</v>
+        <v>101.953</v>
       </c>
       <c r="D101" t="s">
         <v>608</v>
@@ -3932,10 +3932,10 @@
         <v>105</v>
       </c>
       <c r="B102" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C102">
-        <v>104.885</v>
+        <v>104.583</v>
       </c>
       <c r="D102" t="s">
         <v>608</v>
@@ -3949,10 +3949,10 @@
         <v>106</v>
       </c>
       <c r="B103" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C103">
-        <v>110.581</v>
+        <v>109.04</v>
       </c>
       <c r="D103" t="s">
         <v>608</v>
@@ -3966,10 +3966,10 @@
         <v>107</v>
       </c>
       <c r="B104" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C104">
-        <v>97.63500000000001</v>
+        <v>97.92400000000001</v>
       </c>
       <c r="D104" t="s">
         <v>608</v>
@@ -3983,10 +3983,10 @@
         <v>108</v>
       </c>
       <c r="B105" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C105">
-        <v>105.55</v>
+        <v>103.472</v>
       </c>
       <c r="D105" t="s">
         <v>608</v>
@@ -4000,10 +4000,10 @@
         <v>109</v>
       </c>
       <c r="B106" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C106">
-        <v>106.629</v>
+        <v>108.095</v>
       </c>
       <c r="D106" t="s">
         <v>608</v>
@@ -4017,10 +4017,10 @@
         <v>110</v>
       </c>
       <c r="B107" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C107">
-        <v>103.504</v>
+        <v>104.017</v>
       </c>
       <c r="D107" t="s">
         <v>608</v>
@@ -4034,10 +4034,10 @@
         <v>111</v>
       </c>
       <c r="B108" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C108">
-        <v>109.317</v>
+        <v>112.827</v>
       </c>
       <c r="D108" t="s">
         <v>608</v>
@@ -4051,10 +4051,10 @@
         <v>112</v>
       </c>
       <c r="B109" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C109">
-        <v>96.004</v>
+        <v>94.416</v>
       </c>
       <c r="D109" t="s">
         <v>608</v>
@@ -4068,10 +4068,10 @@
         <v>113</v>
       </c>
       <c r="B110" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C110">
-        <v>101.101</v>
+        <v>100.309</v>
       </c>
       <c r="D110" t="s">
         <v>608</v>
@@ -4085,10 +4085,10 @@
         <v>114</v>
       </c>
       <c r="B111" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C111">
-        <v>108.242</v>
+        <v>105.745</v>
       </c>
       <c r="D111" t="s">
         <v>608</v>
@@ -4102,10 +4102,10 @@
         <v>115</v>
       </c>
       <c r="B112" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C112">
-        <v>102.665</v>
+        <v>102.671</v>
       </c>
       <c r="D112" t="s">
         <v>608</v>
@@ -4119,10 +4119,10 @@
         <v>116</v>
       </c>
       <c r="B113" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C113">
-        <v>103.042</v>
+        <v>104.196</v>
       </c>
       <c r="D113" t="s">
         <v>608</v>
@@ -4136,10 +4136,10 @@
         <v>117</v>
       </c>
       <c r="B114" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C114">
-        <v>101.224</v>
+        <v>103.225</v>
       </c>
       <c r="D114" t="s">
         <v>608</v>
@@ -4153,10 +4153,10 @@
         <v>118</v>
       </c>
       <c r="B115" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C115">
-        <v>103.44</v>
+        <v>105.214</v>
       </c>
       <c r="D115" t="s">
         <v>608</v>
@@ -4170,10 +4170,10 @@
         <v>119</v>
       </c>
       <c r="B116" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C116">
-        <v>105.084</v>
+        <v>107.591</v>
       </c>
       <c r="D116" t="s">
         <v>608</v>
@@ -4187,10 +4187,10 @@
         <v>120</v>
       </c>
       <c r="B117" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C117">
-        <v>101.322</v>
+        <v>101.351</v>
       </c>
       <c r="D117" t="s">
         <v>608</v>
@@ -4204,10 +4204,10 @@
         <v>121</v>
       </c>
       <c r="B118" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C118">
-        <v>94.997</v>
+        <v>94.581</v>
       </c>
       <c r="D118" t="s">
         <v>608</v>
@@ -4221,10 +4221,10 @@
         <v>122</v>
       </c>
       <c r="B119" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C119">
-        <v>105.274</v>
+        <v>109.069</v>
       </c>
       <c r="D119" t="s">
         <v>608</v>
@@ -4238,10 +4238,10 @@
         <v>123</v>
       </c>
       <c r="B120" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C120">
-        <v>108.681</v>
+        <v>110.9</v>
       </c>
       <c r="D120" t="s">
         <v>608</v>
@@ -4255,10 +4255,10 @@
         <v>124</v>
       </c>
       <c r="B121" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C121">
-        <v>101.213</v>
+        <v>104.297</v>
       </c>
       <c r="D121" t="s">
         <v>608</v>
@@ -4272,10 +4272,10 @@
         <v>125</v>
       </c>
       <c r="B122" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C122">
-        <v>108.915</v>
+        <v>111.011</v>
       </c>
       <c r="D122" t="s">
         <v>608</v>
@@ -4289,10 +4289,10 @@
         <v>126</v>
       </c>
       <c r="B123" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C123">
-        <v>100.214</v>
+        <v>101.392</v>
       </c>
       <c r="D123" t="s">
         <v>608</v>
@@ -4306,10 +4306,10 @@
         <v>127</v>
       </c>
       <c r="B124" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C124">
-        <v>108.849</v>
+        <v>109.433</v>
       </c>
       <c r="D124" t="s">
         <v>608</v>
@@ -4323,10 +4323,10 @@
         <v>128</v>
       </c>
       <c r="B125" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C125">
-        <v>107.112</v>
+        <v>108.851</v>
       </c>
       <c r="D125" t="s">
         <v>608</v>
@@ -4340,10 +4340,10 @@
         <v>129</v>
       </c>
       <c r="B126" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C126">
-        <v>104.2</v>
+        <v>105.383</v>
       </c>
       <c r="D126" t="s">
         <v>608</v>
@@ -4357,10 +4357,10 @@
         <v>130</v>
       </c>
       <c r="B127" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C127">
-        <v>106.808</v>
+        <v>109.024</v>
       </c>
       <c r="D127" t="s">
         <v>608</v>
@@ -4374,10 +4374,10 @@
         <v>131</v>
       </c>
       <c r="B128" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C128">
-        <v>105.313</v>
+        <v>110.461</v>
       </c>
       <c r="D128" t="s">
         <v>608</v>
@@ -4391,10 +4391,10 @@
         <v>132</v>
       </c>
       <c r="B129" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C129">
-        <v>107.189</v>
+        <v>109.209</v>
       </c>
       <c r="D129" t="s">
         <v>608</v>
@@ -4408,10 +4408,10 @@
         <v>133</v>
       </c>
       <c r="B130" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C130">
-        <v>107.133</v>
+        <v>108.081</v>
       </c>
       <c r="D130" t="s">
         <v>608</v>
@@ -4425,10 +4425,10 @@
         <v>134</v>
       </c>
       <c r="B131" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C131">
-        <v>98.509</v>
+        <v>99.971</v>
       </c>
       <c r="D131" t="s">
         <v>608</v>
@@ -4442,10 +4442,10 @@
         <v>135</v>
       </c>
       <c r="B132" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C132">
-        <v>109.889</v>
+        <v>111.664</v>
       </c>
       <c r="D132" t="s">
         <v>608</v>
@@ -4459,10 +4459,10 @@
         <v>136</v>
       </c>
       <c r="B133" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C133">
-        <v>117.92</v>
+        <v>110.776</v>
       </c>
       <c r="D133" t="s">
         <v>608</v>
@@ -4476,10 +4476,10 @@
         <v>137</v>
       </c>
       <c r="B134" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C134">
-        <v>105.318</v>
+        <v>100.35</v>
       </c>
       <c r="D134" t="s">
         <v>608</v>
@@ -4493,10 +4493,10 @@
         <v>138</v>
       </c>
       <c r="B135" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C135">
-        <v>101.215</v>
+        <v>109.907</v>
       </c>
       <c r="D135" t="s">
         <v>608</v>
@@ -4510,10 +4510,10 @@
         <v>139</v>
       </c>
       <c r="B136" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C136">
-        <v>105.068</v>
+        <v>106.254</v>
       </c>
       <c r="D136" t="s">
         <v>608</v>
@@ -4527,10 +4527,10 @@
         <v>140</v>
       </c>
       <c r="B137" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C137">
-        <v>104.027</v>
+        <v>105.626</v>
       </c>
       <c r="D137" t="s">
         <v>608</v>
@@ -4544,10 +4544,10 @@
         <v>141</v>
       </c>
       <c r="B138" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C138">
-        <v>101.501</v>
+        <v>101.038</v>
       </c>
       <c r="D138" t="s">
         <v>608</v>
@@ -4561,10 +4561,10 @@
         <v>142</v>
       </c>
       <c r="B139" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C139">
-        <v>106.456</v>
+        <v>106.341</v>
       </c>
       <c r="D139" t="s">
         <v>608</v>
@@ -4578,10 +4578,10 @@
         <v>143</v>
       </c>
       <c r="B140" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C140">
-        <v>104.765</v>
+        <v>108.066</v>
       </c>
       <c r="D140" t="s">
         <v>608</v>
@@ -4595,10 +4595,10 @@
         <v>144</v>
       </c>
       <c r="B141" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C141">
-        <v>101.075</v>
+        <v>104.496</v>
       </c>
       <c r="D141" t="s">
         <v>608</v>
@@ -4612,10 +4612,10 @@
         <v>145</v>
       </c>
       <c r="B142" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C142">
-        <v>105.351</v>
+        <v>102.696</v>
       </c>
       <c r="D142" t="s">
         <v>608</v>
@@ -4629,10 +4629,10 @@
         <v>146</v>
       </c>
       <c r="B143" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C143">
-        <v>110.121</v>
+        <v>112.059</v>
       </c>
       <c r="D143" t="s">
         <v>608</v>
@@ -4646,10 +4646,10 @@
         <v>147</v>
       </c>
       <c r="B144" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C144">
-        <v>106.867</v>
+        <v>107.234</v>
       </c>
       <c r="D144" t="s">
         <v>608</v>
@@ -4663,10 +4663,10 @@
         <v>148</v>
       </c>
       <c r="B145" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C145">
-        <v>97.681</v>
+        <v>97.453</v>
       </c>
       <c r="D145" t="s">
         <v>608</v>
@@ -4680,10 +4680,10 @@
         <v>149</v>
       </c>
       <c r="B146" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C146">
-        <v>100.859</v>
+        <v>101.725</v>
       </c>
       <c r="D146" t="s">
         <v>608</v>
@@ -4700,7 +4700,7 @@
         <v>607</v>
       </c>
       <c r="C147">
-        <v>100.54</v>
+        <v>98.693</v>
       </c>
       <c r="D147" t="s">
         <v>608</v>
@@ -4717,7 +4717,7 @@
         <v>606</v>
       </c>
       <c r="C148">
-        <v>96.55</v>
+        <v>107.301</v>
       </c>
       <c r="D148" t="s">
         <v>608</v>
@@ -4731,10 +4731,10 @@
         <v>152</v>
       </c>
       <c r="B149" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C149">
-        <v>107.876</v>
+        <v>108.302</v>
       </c>
       <c r="D149" t="s">
         <v>608</v>
@@ -4748,10 +4748,10 @@
         <v>153</v>
       </c>
       <c r="B150" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C150">
-        <v>105.602</v>
+        <v>106.087</v>
       </c>
       <c r="D150" t="s">
         <v>608</v>
@@ -4765,10 +4765,10 @@
         <v>154</v>
       </c>
       <c r="B151" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C151">
-        <v>112.818</v>
+        <v>116.548</v>
       </c>
       <c r="D151" t="s">
         <v>608</v>
@@ -4785,7 +4785,7 @@
         <v>606</v>
       </c>
       <c r="C152">
-        <v>99.358</v>
+        <v>101.085</v>
       </c>
       <c r="D152" t="s">
         <v>608</v>
@@ -4799,10 +4799,10 @@
         <v>156</v>
       </c>
       <c r="B153" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C153">
-        <v>95.004</v>
+        <v>97.012</v>
       </c>
       <c r="D153" t="s">
         <v>608</v>
@@ -4816,10 +4816,10 @@
         <v>157</v>
       </c>
       <c r="B154" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C154">
-        <v>92.729</v>
+        <v>93.965</v>
       </c>
       <c r="D154" t="s">
         <v>608</v>
@@ -4833,10 +4833,10 @@
         <v>158</v>
       </c>
       <c r="B155" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C155">
-        <v>107.805</v>
+        <v>101.881</v>
       </c>
       <c r="D155" t="s">
         <v>608</v>
@@ -4853,7 +4853,7 @@
         <v>606</v>
       </c>
       <c r="C156">
-        <v>99.096</v>
+        <v>100.143</v>
       </c>
       <c r="D156" t="s">
         <v>608</v>
@@ -4867,10 +4867,10 @@
         <v>160</v>
       </c>
       <c r="B157" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C157">
-        <v>92.693</v>
+        <v>93.39400000000001</v>
       </c>
       <c r="D157" t="s">
         <v>608</v>
@@ -4887,7 +4887,7 @@
         <v>606</v>
       </c>
       <c r="C158">
-        <v>98.994</v>
+        <v>101.538</v>
       </c>
       <c r="D158" t="s">
         <v>608</v>
@@ -4901,10 +4901,10 @@
         <v>162</v>
       </c>
       <c r="B159" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C159">
-        <v>105.683</v>
+        <v>108.276</v>
       </c>
       <c r="D159" t="s">
         <v>608</v>
@@ -4918,10 +4918,10 @@
         <v>163</v>
       </c>
       <c r="B160" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C160">
-        <v>107.326</v>
+        <v>110.494</v>
       </c>
       <c r="D160" t="s">
         <v>608</v>
@@ -4935,10 +4935,10 @@
         <v>164</v>
       </c>
       <c r="B161" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C161">
-        <v>95.306</v>
+        <v>95.283</v>
       </c>
       <c r="D161" t="s">
         <v>608</v>
@@ -4952,10 +4952,10 @@
         <v>165</v>
       </c>
       <c r="B162" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C162">
-        <v>107.244</v>
+        <v>109.194</v>
       </c>
       <c r="D162" t="s">
         <v>608</v>
@@ -4972,7 +4972,7 @@
         <v>606</v>
       </c>
       <c r="C163">
-        <v>97.006</v>
+        <v>103.012</v>
       </c>
       <c r="D163" t="s">
         <v>608</v>
@@ -4986,10 +4986,10 @@
         <v>167</v>
       </c>
       <c r="B164" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C164">
-        <v>108.689</v>
+        <v>111.566</v>
       </c>
       <c r="D164" t="s">
         <v>608</v>
@@ -5003,10 +5003,10 @@
         <v>168</v>
       </c>
       <c r="B165" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C165">
-        <v>107.085</v>
+        <v>101.476</v>
       </c>
       <c r="D165" t="s">
         <v>608</v>
@@ -5020,10 +5020,10 @@
         <v>169</v>
       </c>
       <c r="B166" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C166">
-        <v>117.015</v>
+        <v>107.864</v>
       </c>
       <c r="D166" t="s">
         <v>608</v>
@@ -5037,10 +5037,10 @@
         <v>170</v>
       </c>
       <c r="B167" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C167">
-        <v>101.235</v>
+        <v>103.117</v>
       </c>
       <c r="D167" t="s">
         <v>608</v>
@@ -5054,10 +5054,10 @@
         <v>171</v>
       </c>
       <c r="B168" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C168">
-        <v>106.885</v>
+        <v>111.054</v>
       </c>
       <c r="D168" t="s">
         <v>608</v>
@@ -5071,10 +5071,10 @@
         <v>172</v>
       </c>
       <c r="B169" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C169">
-        <v>96.53700000000001</v>
+        <v>95.685</v>
       </c>
       <c r="D169" t="s">
         <v>608</v>
@@ -5088,10 +5088,10 @@
         <v>173</v>
       </c>
       <c r="B170" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C170">
-        <v>107.534</v>
+        <v>109.481</v>
       </c>
       <c r="D170" t="s">
         <v>608</v>
@@ -5105,10 +5105,10 @@
         <v>174</v>
       </c>
       <c r="B171" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C171">
-        <v>104.812</v>
+        <v>105.857</v>
       </c>
       <c r="D171" t="s">
         <v>608</v>
@@ -5122,10 +5122,10 @@
         <v>175</v>
       </c>
       <c r="B172" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C172">
-        <v>105.648</v>
+        <v>108.038</v>
       </c>
       <c r="D172" t="s">
         <v>608</v>
@@ -5139,10 +5139,10 @@
         <v>176</v>
       </c>
       <c r="B173" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C173">
-        <v>101.678</v>
+        <v>103.363</v>
       </c>
       <c r="D173" t="s">
         <v>608</v>
@@ -5156,10 +5156,10 @@
         <v>177</v>
       </c>
       <c r="B174" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C174">
-        <v>103.319</v>
+        <v>103.749</v>
       </c>
       <c r="D174" t="s">
         <v>608</v>
@@ -5173,10 +5173,10 @@
         <v>178</v>
       </c>
       <c r="B175" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C175">
-        <v>95.39400000000001</v>
+        <v>98.914</v>
       </c>
       <c r="D175" t="s">
         <v>608</v>
@@ -5190,10 +5190,10 @@
         <v>179</v>
       </c>
       <c r="B176" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C176">
-        <v>104.337</v>
+        <v>104.037</v>
       </c>
       <c r="D176" t="s">
         <v>608</v>
@@ -5207,10 +5207,10 @@
         <v>180</v>
       </c>
       <c r="B177" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C177">
-        <v>102.16</v>
+        <v>109.039</v>
       </c>
       <c r="D177" t="s">
         <v>608</v>
@@ -5224,10 +5224,10 @@
         <v>181</v>
       </c>
       <c r="B178" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C178">
-        <v>110.415</v>
+        <v>111.301</v>
       </c>
       <c r="D178" t="s">
         <v>608</v>
@@ -5241,10 +5241,10 @@
         <v>182</v>
       </c>
       <c r="B179" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C179">
-        <v>108.253</v>
+        <v>105.467</v>
       </c>
       <c r="D179" t="s">
         <v>608</v>
@@ -5258,10 +5258,10 @@
         <v>183</v>
       </c>
       <c r="B180" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C180">
-        <v>103.37</v>
+        <v>103.453</v>
       </c>
       <c r="D180" t="s">
         <v>608</v>
@@ -5275,10 +5275,10 @@
         <v>184</v>
       </c>
       <c r="B181" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C181">
-        <v>111.236</v>
+        <v>111.75</v>
       </c>
       <c r="D181" t="s">
         <v>608</v>
@@ -5292,10 +5292,10 @@
         <v>185</v>
       </c>
       <c r="B182" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C182">
-        <v>112.074</v>
+        <v>110.355</v>
       </c>
       <c r="D182" t="s">
         <v>608</v>
@@ -5312,7 +5312,7 @@
         <v>607</v>
       </c>
       <c r="C183">
-        <v>103.981</v>
+        <v>95.185</v>
       </c>
       <c r="D183" t="s">
         <v>608</v>
@@ -5326,10 +5326,10 @@
         <v>187</v>
       </c>
       <c r="B184" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C184">
-        <v>106.813</v>
+        <v>105.127</v>
       </c>
       <c r="D184" t="s">
         <v>608</v>
@@ -5346,7 +5346,7 @@
         <v>606</v>
       </c>
       <c r="C185">
-        <v>99.19799999999999</v>
+        <v>103.018</v>
       </c>
       <c r="D185" t="s">
         <v>608</v>
@@ -5360,10 +5360,10 @@
         <v>189</v>
       </c>
       <c r="B186" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C186">
-        <v>102.26</v>
+        <v>101.212</v>
       </c>
       <c r="D186" t="s">
         <v>608</v>
@@ -5377,10 +5377,10 @@
         <v>190</v>
       </c>
       <c r="B187" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C187">
-        <v>90.858</v>
+        <v>94.197</v>
       </c>
       <c r="D187" t="s">
         <v>608</v>
@@ -5394,10 +5394,10 @@
         <v>191</v>
       </c>
       <c r="B188" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C188">
-        <v>104.756</v>
+        <v>106.172</v>
       </c>
       <c r="D188" t="s">
         <v>608</v>
@@ -5411,10 +5411,10 @@
         <v>192</v>
       </c>
       <c r="B189" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C189">
-        <v>97.767</v>
+        <v>91.374</v>
       </c>
       <c r="D189" t="s">
         <v>608</v>
@@ -5428,10 +5428,10 @@
         <v>193</v>
       </c>
       <c r="B190" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C190">
-        <v>102.902</v>
+        <v>104.414</v>
       </c>
       <c r="D190" t="s">
         <v>608</v>
@@ -5445,10 +5445,10 @@
         <v>194</v>
       </c>
       <c r="B191" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C191">
-        <v>108.909</v>
+        <v>104.209</v>
       </c>
       <c r="D191" t="s">
         <v>608</v>
@@ -5462,10 +5462,10 @@
         <v>195</v>
       </c>
       <c r="B192" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C192">
-        <v>96.489</v>
+        <v>96.965</v>
       </c>
       <c r="D192" t="s">
         <v>608</v>
@@ -5479,10 +5479,10 @@
         <v>196</v>
       </c>
       <c r="B193" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C193">
-        <v>97.79300000000001</v>
+        <v>98.64100000000001</v>
       </c>
       <c r="D193" t="s">
         <v>608</v>
@@ -5496,10 +5496,10 @@
         <v>197</v>
       </c>
       <c r="B194" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C194">
-        <v>114.939</v>
+        <v>109.02</v>
       </c>
       <c r="D194" t="s">
         <v>608</v>
@@ -5513,10 +5513,10 @@
         <v>198</v>
       </c>
       <c r="B195" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C195">
-        <v>104.773</v>
+        <v>107.024</v>
       </c>
       <c r="D195" t="s">
         <v>608</v>
@@ -5530,10 +5530,10 @@
         <v>199</v>
       </c>
       <c r="B196" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C196">
-        <v>104.468</v>
+        <v>104.527</v>
       </c>
       <c r="D196" t="s">
         <v>608</v>
@@ -5547,10 +5547,10 @@
         <v>200</v>
       </c>
       <c r="B197" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C197">
-        <v>109.08</v>
+        <v>110.306</v>
       </c>
       <c r="D197" t="s">
         <v>608</v>
@@ -5564,10 +5564,10 @@
         <v>201</v>
       </c>
       <c r="B198" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C198">
-        <v>113.277</v>
+        <v>115.625</v>
       </c>
       <c r="D198" t="s">
         <v>608</v>
@@ -5581,10 +5581,10 @@
         <v>202</v>
       </c>
       <c r="B199" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C199">
-        <v>109.336</v>
+        <v>110.372</v>
       </c>
       <c r="D199" t="s">
         <v>608</v>
@@ -5598,10 +5598,10 @@
         <v>203</v>
       </c>
       <c r="B200" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C200">
-        <v>97.151</v>
+        <v>98.23999999999999</v>
       </c>
       <c r="D200" t="s">
         <v>608</v>
@@ -5615,10 +5615,10 @@
         <v>204</v>
       </c>
       <c r="B201" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C201">
-        <v>101.241</v>
+        <v>102.449</v>
       </c>
       <c r="D201" t="s">
         <v>608</v>
@@ -5635,7 +5635,7 @@
         <v>606</v>
       </c>
       <c r="C202">
-        <v>98.08199999999999</v>
+        <v>101.6</v>
       </c>
       <c r="D202" t="s">
         <v>608</v>
@@ -5649,10 +5649,10 @@
         <v>206</v>
       </c>
       <c r="B203" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C203">
-        <v>103.453</v>
+        <v>100.443</v>
       </c>
       <c r="D203" t="s">
         <v>608</v>
@@ -5666,10 +5666,10 @@
         <v>207</v>
       </c>
       <c r="B204" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C204">
-        <v>101.497</v>
+        <v>101.498</v>
       </c>
       <c r="D204" t="s">
         <v>608</v>
@@ -5683,10 +5683,10 @@
         <v>208</v>
       </c>
       <c r="B205" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C205">
-        <v>101.11</v>
+        <v>101.206</v>
       </c>
       <c r="D205" t="s">
         <v>608</v>
@@ -5700,10 +5700,10 @@
         <v>209</v>
       </c>
       <c r="B206" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C206">
-        <v>105.197</v>
+        <v>106.274</v>
       </c>
       <c r="D206" t="s">
         <v>608</v>
@@ -5717,10 +5717,10 @@
         <v>210</v>
       </c>
       <c r="B207" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C207">
-        <v>106.922</v>
+        <v>108.129</v>
       </c>
       <c r="D207" t="s">
         <v>608</v>
@@ -5734,10 +5734,10 @@
         <v>211</v>
       </c>
       <c r="B208" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C208">
-        <v>109.094</v>
+        <v>107.138</v>
       </c>
       <c r="D208" t="s">
         <v>608</v>
@@ -5751,10 +5751,10 @@
         <v>212</v>
       </c>
       <c r="B209" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C209">
-        <v>121.371</v>
+        <v>122.88</v>
       </c>
       <c r="D209" t="s">
         <v>608</v>
@@ -5768,10 +5768,10 @@
         <v>213</v>
       </c>
       <c r="B210" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C210">
-        <v>100.401</v>
+        <v>101.292</v>
       </c>
       <c r="D210" t="s">
         <v>608</v>
@@ -5785,10 +5785,10 @@
         <v>214</v>
       </c>
       <c r="B211" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C211">
-        <v>107.85</v>
+        <v>107.575</v>
       </c>
       <c r="D211" t="s">
         <v>608</v>
@@ -5802,10 +5802,10 @@
         <v>215</v>
       </c>
       <c r="B212" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C212">
-        <v>105.217</v>
+        <v>106.334</v>
       </c>
       <c r="D212" t="s">
         <v>608</v>
@@ -5822,7 +5822,7 @@
         <v>607</v>
       </c>
       <c r="C213">
-        <v>106.301</v>
+        <v>97.803</v>
       </c>
       <c r="D213" t="s">
         <v>608</v>
@@ -5836,10 +5836,10 @@
         <v>217</v>
       </c>
       <c r="B214" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C214">
-        <v>101.803</v>
+        <v>103.463</v>
       </c>
       <c r="D214" t="s">
         <v>608</v>
@@ -5853,10 +5853,10 @@
         <v>218</v>
       </c>
       <c r="B215" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C215">
-        <v>107.11</v>
+        <v>106.413</v>
       </c>
       <c r="D215" t="s">
         <v>608</v>
@@ -5870,10 +5870,10 @@
         <v>219</v>
       </c>
       <c r="B216" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C216">
-        <v>106.715</v>
+        <v>109.913</v>
       </c>
       <c r="D216" t="s">
         <v>608</v>
@@ -5890,7 +5890,7 @@
         <v>606</v>
       </c>
       <c r="C217">
-        <v>95.351</v>
+        <v>102.041</v>
       </c>
       <c r="D217" t="s">
         <v>608</v>
@@ -5907,7 +5907,7 @@
         <v>606</v>
       </c>
       <c r="C218">
-        <v>99.866</v>
+        <v>101.854</v>
       </c>
       <c r="D218" t="s">
         <v>608</v>
@@ -5921,10 +5921,10 @@
         <v>222</v>
       </c>
       <c r="B219" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C219">
-        <v>103.241</v>
+        <v>100.641</v>
       </c>
       <c r="D219" t="s">
         <v>608</v>
@@ -5938,10 +5938,10 @@
         <v>223</v>
       </c>
       <c r="B220" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C220">
-        <v>109.968</v>
+        <v>115.194</v>
       </c>
       <c r="D220" t="s">
         <v>608</v>
@@ -5955,10 +5955,10 @@
         <v>224</v>
       </c>
       <c r="B221" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C221">
-        <v>103.966</v>
+        <v>104.242</v>
       </c>
       <c r="D221" t="s">
         <v>608</v>
@@ -5972,10 +5972,10 @@
         <v>225</v>
       </c>
       <c r="B222" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C222">
-        <v>100.944</v>
+        <v>102.483</v>
       </c>
       <c r="D222" t="s">
         <v>608</v>
@@ -5989,10 +5989,10 @@
         <v>226</v>
       </c>
       <c r="B223" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C223">
-        <v>101.802</v>
+        <v>107.58</v>
       </c>
       <c r="D223" t="s">
         <v>608</v>
@@ -6006,10 +6006,10 @@
         <v>227</v>
       </c>
       <c r="B224" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C224">
-        <v>111.462</v>
+        <v>109.677</v>
       </c>
       <c r="D224" t="s">
         <v>608</v>
@@ -6023,10 +6023,10 @@
         <v>228</v>
       </c>
       <c r="B225" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C225">
-        <v>104.629</v>
+        <v>103.144</v>
       </c>
       <c r="D225" t="s">
         <v>608</v>
@@ -6040,10 +6040,10 @@
         <v>229</v>
       </c>
       <c r="B226" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C226">
-        <v>104.083</v>
+        <v>105.212</v>
       </c>
       <c r="D226" t="s">
         <v>608</v>
@@ -6057,10 +6057,10 @@
         <v>230</v>
       </c>
       <c r="B227" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C227">
-        <v>110.045</v>
+        <v>110.78</v>
       </c>
       <c r="D227" t="s">
         <v>608</v>
@@ -6074,10 +6074,10 @@
         <v>231</v>
       </c>
       <c r="B228" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C228">
-        <v>98.554</v>
+        <v>98.90900000000001</v>
       </c>
       <c r="D228" t="s">
         <v>608</v>
@@ -6091,10 +6091,10 @@
         <v>232</v>
       </c>
       <c r="B229" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C229">
-        <v>110.922</v>
+        <v>105.017</v>
       </c>
       <c r="D229" t="s">
         <v>608</v>
@@ -6108,10 +6108,10 @@
         <v>233</v>
       </c>
       <c r="B230" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C230">
-        <v>103.496</v>
+        <v>106.322</v>
       </c>
       <c r="D230" t="s">
         <v>608</v>
@@ -6125,10 +6125,10 @@
         <v>234</v>
       </c>
       <c r="B231" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C231">
-        <v>110.639</v>
+        <v>106.347</v>
       </c>
       <c r="D231" t="s">
         <v>608</v>
@@ -6142,10 +6142,10 @@
         <v>235</v>
       </c>
       <c r="B232" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C232">
-        <v>103.876</v>
+        <v>103.769</v>
       </c>
       <c r="D232" t="s">
         <v>608</v>
@@ -6159,10 +6159,10 @@
         <v>236</v>
       </c>
       <c r="B233" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C233">
-        <v>111.477</v>
+        <v>104.628</v>
       </c>
       <c r="D233" t="s">
         <v>608</v>
@@ -6176,10 +6176,10 @@
         <v>237</v>
       </c>
       <c r="B234" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C234">
-        <v>101.719</v>
+        <v>102.747</v>
       </c>
       <c r="D234" t="s">
         <v>608</v>
@@ -6193,10 +6193,10 @@
         <v>238</v>
       </c>
       <c r="B235" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C235">
-        <v>101.793</v>
+        <v>100.192</v>
       </c>
       <c r="D235" t="s">
         <v>608</v>
@@ -6210,10 +6210,10 @@
         <v>239</v>
       </c>
       <c r="B236" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C236">
-        <v>102.115</v>
+        <v>103.274</v>
       </c>
       <c r="D236" t="s">
         <v>608</v>
@@ -6227,10 +6227,10 @@
         <v>240</v>
       </c>
       <c r="B237" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C237">
-        <v>104.94</v>
+        <v>104.312</v>
       </c>
       <c r="D237" t="s">
         <v>608</v>
@@ -6247,7 +6247,7 @@
         <v>606</v>
       </c>
       <c r="C238">
-        <v>99.759</v>
+        <v>100.431</v>
       </c>
       <c r="D238" t="s">
         <v>608</v>
@@ -6261,10 +6261,10 @@
         <v>242</v>
       </c>
       <c r="B239" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C239">
-        <v>102.374</v>
+        <v>102.471</v>
       </c>
       <c r="D239" t="s">
         <v>608</v>
@@ -6278,10 +6278,10 @@
         <v>243</v>
       </c>
       <c r="B240" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C240">
-        <v>97.176</v>
+        <v>99.214</v>
       </c>
       <c r="D240" t="s">
         <v>608</v>
@@ -6295,10 +6295,10 @@
         <v>244</v>
       </c>
       <c r="B241" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C241">
-        <v>103.759</v>
+        <v>103.792</v>
       </c>
       <c r="D241" t="s">
         <v>608</v>
@@ -6312,10 +6312,10 @@
         <v>245</v>
       </c>
       <c r="B242" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C242">
-        <v>88.18899999999999</v>
+        <v>89.127</v>
       </c>
       <c r="D242" t="s">
         <v>608</v>
@@ -6329,10 +6329,10 @@
         <v>246</v>
       </c>
       <c r="B243" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C243">
-        <v>103.151</v>
+        <v>106.717</v>
       </c>
       <c r="D243" t="s">
         <v>608</v>
@@ -6346,7 +6346,7 @@
         <v>247</v>
       </c>
       <c r="B244" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C244">
         <v>106.408</v>
@@ -6363,10 +6363,10 @@
         <v>248</v>
       </c>
       <c r="B245" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C245">
-        <v>105.851</v>
+        <v>109.463</v>
       </c>
       <c r="D245" t="s">
         <v>608</v>
@@ -6380,10 +6380,10 @@
         <v>249</v>
       </c>
       <c r="B246" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C246">
-        <v>118.416</v>
+        <v>122.18</v>
       </c>
       <c r="D246" t="s">
         <v>608</v>
@@ -6397,10 +6397,10 @@
         <v>250</v>
       </c>
       <c r="B247" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C247">
-        <v>102.634</v>
+        <v>102.227</v>
       </c>
       <c r="D247" t="s">
         <v>608</v>
@@ -6414,10 +6414,10 @@
         <v>251</v>
       </c>
       <c r="B248" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C248">
-        <v>107.268</v>
+        <v>106.431</v>
       </c>
       <c r="D248" t="s">
         <v>608</v>
@@ -6431,10 +6431,10 @@
         <v>252</v>
       </c>
       <c r="B249" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C249">
-        <v>94.114</v>
+        <v>97.242</v>
       </c>
       <c r="D249" t="s">
         <v>608</v>
@@ -6448,10 +6448,10 @@
         <v>253</v>
       </c>
       <c r="B250" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C250">
-        <v>98.69799999999999</v>
+        <v>99.084</v>
       </c>
       <c r="D250" t="s">
         <v>608</v>
@@ -6465,10 +6465,10 @@
         <v>254</v>
       </c>
       <c r="B251" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C251">
-        <v>108.614</v>
+        <v>102.901</v>
       </c>
       <c r="D251" t="s">
         <v>608</v>
@@ -6482,10 +6482,10 @@
         <v>255</v>
       </c>
       <c r="B252" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C252">
-        <v>96.812</v>
+        <v>97.02200000000001</v>
       </c>
       <c r="D252" t="s">
         <v>608</v>
@@ -6499,10 +6499,10 @@
         <v>256</v>
       </c>
       <c r="B253" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C253">
-        <v>102.658</v>
+        <v>100.682</v>
       </c>
       <c r="D253" t="s">
         <v>608</v>
@@ -6516,10 +6516,10 @@
         <v>257</v>
       </c>
       <c r="B254" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C254">
-        <v>103.468</v>
+        <v>103.749</v>
       </c>
       <c r="D254" t="s">
         <v>608</v>
@@ -6533,10 +6533,10 @@
         <v>258</v>
       </c>
       <c r="B255" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C255">
-        <v>95.626</v>
+        <v>96.658</v>
       </c>
       <c r="D255" t="s">
         <v>608</v>
@@ -6550,10 +6550,10 @@
         <v>259</v>
       </c>
       <c r="B256" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C256">
-        <v>106.67</v>
+        <v>108.281</v>
       </c>
       <c r="D256" t="s">
         <v>608</v>
@@ -6567,10 +6567,10 @@
         <v>260</v>
       </c>
       <c r="B257" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C257">
-        <v>113.773</v>
+        <v>108.878</v>
       </c>
       <c r="D257" t="s">
         <v>608</v>
@@ -6584,10 +6584,10 @@
         <v>261</v>
       </c>
       <c r="B258" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C258">
-        <v>102.482</v>
+        <v>105.586</v>
       </c>
       <c r="D258" t="s">
         <v>608</v>
@@ -6601,10 +6601,10 @@
         <v>262</v>
       </c>
       <c r="B259" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C259">
-        <v>100.463</v>
+        <v>103.403</v>
       </c>
       <c r="D259" t="s">
         <v>608</v>
@@ -6618,10 +6618,10 @@
         <v>263</v>
       </c>
       <c r="B260" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C260">
-        <v>101.939</v>
+        <v>102.285</v>
       </c>
       <c r="D260" t="s">
         <v>608</v>
@@ -6635,10 +6635,10 @@
         <v>264</v>
       </c>
       <c r="B261" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C261">
-        <v>91.929</v>
+        <v>90.43300000000001</v>
       </c>
       <c r="D261" t="s">
         <v>608</v>
@@ -6652,10 +6652,10 @@
         <v>265</v>
       </c>
       <c r="B262" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C262">
-        <v>95.858</v>
+        <v>96.81</v>
       </c>
       <c r="D262" t="s">
         <v>608</v>
@@ -6672,7 +6672,7 @@
         <v>606</v>
       </c>
       <c r="C263">
-        <v>99.93600000000001</v>
+        <v>101.25</v>
       </c>
       <c r="D263" t="s">
         <v>608</v>
@@ -6686,10 +6686,10 @@
         <v>267</v>
       </c>
       <c r="B264" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C264">
-        <v>94.294</v>
+        <v>95.753</v>
       </c>
       <c r="D264" t="s">
         <v>608</v>
@@ -6703,10 +6703,10 @@
         <v>268</v>
       </c>
       <c r="B265" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C265">
-        <v>101.338</v>
+        <v>102.178</v>
       </c>
       <c r="D265" t="s">
         <v>608</v>
@@ -6720,10 +6720,10 @@
         <v>269</v>
       </c>
       <c r="B266" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C266">
-        <v>96.843</v>
+        <v>99.203</v>
       </c>
       <c r="D266" t="s">
         <v>608</v>
@@ -6737,10 +6737,10 @@
         <v>270</v>
       </c>
       <c r="B267" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C267">
-        <v>91.931</v>
+        <v>94.084</v>
       </c>
       <c r="D267" t="s">
         <v>608</v>
@@ -6754,10 +6754,10 @@
         <v>271</v>
       </c>
       <c r="B268" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C268">
-        <v>117.285</v>
+        <v>113.062</v>
       </c>
       <c r="D268" t="s">
         <v>608</v>
@@ -6771,10 +6771,10 @@
         <v>272</v>
       </c>
       <c r="B269" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C269">
-        <v>98.31100000000001</v>
+        <v>99.98399999999999</v>
       </c>
       <c r="D269" t="s">
         <v>608</v>
@@ -6788,10 +6788,10 @@
         <v>273</v>
       </c>
       <c r="B270" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C270">
-        <v>109.712</v>
+        <v>111.896</v>
       </c>
       <c r="D270" t="s">
         <v>608</v>
@@ -6805,10 +6805,10 @@
         <v>274</v>
       </c>
       <c r="B271" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C271">
-        <v>107.998</v>
+        <v>110.206</v>
       </c>
       <c r="D271" t="s">
         <v>608</v>
@@ -6822,10 +6822,10 @@
         <v>275</v>
       </c>
       <c r="B272" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C272">
-        <v>94.24299999999999</v>
+        <v>95.20399999999999</v>
       </c>
       <c r="D272" t="s">
         <v>608</v>
@@ -6839,10 +6839,10 @@
         <v>276</v>
       </c>
       <c r="B273" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C273">
-        <v>88.07899999999999</v>
+        <v>94.089</v>
       </c>
       <c r="D273" t="s">
         <v>608</v>
@@ -6859,7 +6859,7 @@
         <v>607</v>
       </c>
       <c r="C274">
-        <v>102.034</v>
+        <v>99.658</v>
       </c>
       <c r="D274" t="s">
         <v>608</v>
@@ -6873,10 +6873,10 @@
         <v>278</v>
       </c>
       <c r="B275" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C275">
-        <v>106.012</v>
+        <v>109.622</v>
       </c>
       <c r="D275" t="s">
         <v>608</v>
@@ -6890,10 +6890,10 @@
         <v>279</v>
       </c>
       <c r="B276" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C276">
-        <v>114.721</v>
+        <v>118.148</v>
       </c>
       <c r="D276" t="s">
         <v>608</v>
@@ -6907,10 +6907,10 @@
         <v>280</v>
       </c>
       <c r="B277" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C277">
-        <v>101.982</v>
+        <v>103.583</v>
       </c>
       <c r="D277" t="s">
         <v>608</v>
@@ -6924,10 +6924,10 @@
         <v>281</v>
       </c>
       <c r="B278" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C278">
-        <v>104.223</v>
+        <v>102.559</v>
       </c>
       <c r="D278" t="s">
         <v>608</v>
@@ -6941,10 +6941,10 @@
         <v>282</v>
       </c>
       <c r="B279" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C279">
-        <v>104.063</v>
+        <v>105.078</v>
       </c>
       <c r="D279" t="s">
         <v>608</v>
@@ -6958,10 +6958,10 @@
         <v>283</v>
       </c>
       <c r="B280" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C280">
-        <v>112.122</v>
+        <v>114.238</v>
       </c>
       <c r="D280" t="s">
         <v>608</v>
@@ -6975,10 +6975,10 @@
         <v>284</v>
       </c>
       <c r="B281" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C281">
-        <v>100.435</v>
+        <v>100.924</v>
       </c>
       <c r="D281" t="s">
         <v>608</v>
@@ -6995,7 +6995,7 @@
         <v>606</v>
       </c>
       <c r="C282">
-        <v>98.71299999999999</v>
+        <v>103.5</v>
       </c>
       <c r="D282" t="s">
         <v>608</v>
@@ -7009,10 +7009,10 @@
         <v>286</v>
       </c>
       <c r="B283" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C283">
-        <v>108.461</v>
+        <v>108.968</v>
       </c>
       <c r="D283" t="s">
         <v>608</v>
@@ -7026,10 +7026,10 @@
         <v>287</v>
       </c>
       <c r="B284" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C284">
-        <v>111.476</v>
+        <v>114.826</v>
       </c>
       <c r="D284" t="s">
         <v>608</v>
@@ -7043,10 +7043,10 @@
         <v>288</v>
       </c>
       <c r="B285" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C285">
-        <v>101.325</v>
+        <v>103.789</v>
       </c>
       <c r="D285" t="s">
         <v>608</v>
@@ -7060,10 +7060,10 @@
         <v>289</v>
       </c>
       <c r="B286" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C286">
-        <v>83.77800000000001</v>
+        <v>85.331</v>
       </c>
       <c r="D286" t="s">
         <v>608</v>
@@ -7077,10 +7077,10 @@
         <v>290</v>
       </c>
       <c r="B287" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C287">
-        <v>102.852</v>
+        <v>105.832</v>
       </c>
       <c r="D287" t="s">
         <v>608</v>
@@ -7094,10 +7094,10 @@
         <v>291</v>
       </c>
       <c r="B288" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C288">
-        <v>103.359</v>
+        <v>103.266</v>
       </c>
       <c r="D288" t="s">
         <v>608</v>
@@ -7111,10 +7111,10 @@
         <v>292</v>
       </c>
       <c r="B289" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C289">
-        <v>102.801</v>
+        <v>104.685</v>
       </c>
       <c r="D289" t="s">
         <v>608</v>
@@ -7131,7 +7131,7 @@
         <v>607</v>
       </c>
       <c r="C290">
-        <v>102.055</v>
+        <v>98.637</v>
       </c>
       <c r="D290" t="s">
         <v>608</v>
@@ -7148,7 +7148,7 @@
         <v>606</v>
       </c>
       <c r="C291">
-        <v>99.06699999999999</v>
+        <v>101.467</v>
       </c>
       <c r="D291" t="s">
         <v>608</v>
@@ -7162,10 +7162,10 @@
         <v>295</v>
       </c>
       <c r="B292" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C292">
-        <v>99.14400000000001</v>
+        <v>98.053</v>
       </c>
       <c r="D292" t="s">
         <v>608</v>
@@ -7179,10 +7179,10 @@
         <v>296</v>
       </c>
       <c r="B293" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C293">
-        <v>107.216</v>
+        <v>106.964</v>
       </c>
       <c r="D293" t="s">
         <v>608</v>
@@ -7196,10 +7196,10 @@
         <v>297</v>
       </c>
       <c r="B294" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C294">
-        <v>106.92</v>
+        <v>110.055</v>
       </c>
       <c r="D294" t="s">
         <v>608</v>
@@ -7213,10 +7213,10 @@
         <v>298</v>
       </c>
       <c r="B295" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C295">
-        <v>102.988</v>
+        <v>103.095</v>
       </c>
       <c r="D295" t="s">
         <v>608</v>
@@ -7233,7 +7233,7 @@
         <v>607</v>
       </c>
       <c r="C296">
-        <v>100.729</v>
+        <v>99.682</v>
       </c>
       <c r="D296" t="s">
         <v>608</v>
@@ -7250,7 +7250,7 @@
         <v>606</v>
       </c>
       <c r="C297">
-        <v>97.741</v>
+        <v>101.891</v>
       </c>
       <c r="D297" t="s">
         <v>608</v>
@@ -7264,10 +7264,10 @@
         <v>301</v>
       </c>
       <c r="B298" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C298">
-        <v>96.515</v>
+        <v>97.919</v>
       </c>
       <c r="D298" t="s">
         <v>608</v>
@@ -7281,10 +7281,10 @@
         <v>302</v>
       </c>
       <c r="B299" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C299">
-        <v>97.25700000000001</v>
+        <v>97.163</v>
       </c>
       <c r="D299" t="s">
         <v>608</v>
@@ -7298,10 +7298,10 @@
         <v>303</v>
       </c>
       <c r="B300" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C300">
-        <v>110.176</v>
+        <v>110.511</v>
       </c>
       <c r="D300" t="s">
         <v>608</v>
@@ -7315,10 +7315,10 @@
         <v>304</v>
       </c>
       <c r="B301" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C301">
-        <v>106.805</v>
+        <v>109.565</v>
       </c>
       <c r="D301" t="s">
         <v>608</v>
@@ -7332,10 +7332,10 @@
         <v>305</v>
       </c>
       <c r="B302" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C302">
-        <v>106.071</v>
+        <v>108.731</v>
       </c>
       <c r="D302" t="s">
         <v>608</v>
@@ -7349,10 +7349,10 @@
         <v>306</v>
       </c>
       <c r="B303" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C303">
-        <v>101.944</v>
+        <v>102.767</v>
       </c>
       <c r="D303" t="s">
         <v>608</v>
@@ -7366,10 +7366,10 @@
         <v>307</v>
       </c>
       <c r="B304" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C304">
-        <v>103.732</v>
+        <v>108.018</v>
       </c>
       <c r="D304" t="s">
         <v>608</v>
@@ -7383,10 +7383,10 @@
         <v>308</v>
       </c>
       <c r="B305" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C305">
-        <v>100.457</v>
+        <v>100.143</v>
       </c>
       <c r="D305" t="s">
         <v>608</v>
@@ -7400,10 +7400,10 @@
         <v>309</v>
       </c>
       <c r="B306" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C306">
-        <v>105.259</v>
+        <v>107.681</v>
       </c>
       <c r="D306" t="s">
         <v>608</v>
@@ -7417,10 +7417,10 @@
         <v>310</v>
       </c>
       <c r="B307" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C307">
-        <v>101.863</v>
+        <v>104.262</v>
       </c>
       <c r="D307" t="s">
         <v>608</v>
@@ -7434,10 +7434,10 @@
         <v>311</v>
       </c>
       <c r="B308" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C308">
-        <v>113.257</v>
+        <v>113.86</v>
       </c>
       <c r="D308" t="s">
         <v>608</v>
@@ -7454,7 +7454,7 @@
         <v>606</v>
       </c>
       <c r="C309">
-        <v>99.97199999999999</v>
+        <v>101.63</v>
       </c>
       <c r="D309" t="s">
         <v>608</v>
@@ -7468,10 +7468,10 @@
         <v>313</v>
       </c>
       <c r="B310" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C310">
-        <v>99.502</v>
+        <v>99.60899999999999</v>
       </c>
       <c r="D310" t="s">
         <v>608</v>
@@ -7485,10 +7485,10 @@
         <v>314</v>
       </c>
       <c r="B311" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C311">
-        <v>104.061</v>
+        <v>107.783</v>
       </c>
       <c r="D311" t="s">
         <v>608</v>
@@ -7502,10 +7502,10 @@
         <v>315</v>
       </c>
       <c r="B312" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C312">
-        <v>103.331</v>
+        <v>103.668</v>
       </c>
       <c r="D312" t="s">
         <v>608</v>
@@ -7519,10 +7519,10 @@
         <v>316</v>
       </c>
       <c r="B313" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C313">
-        <v>96.468</v>
+        <v>94.836</v>
       </c>
       <c r="D313" t="s">
         <v>608</v>
@@ -7536,10 +7536,10 @@
         <v>317</v>
       </c>
       <c r="B314" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C314">
-        <v>109.249</v>
+        <v>113.038</v>
       </c>
       <c r="D314" t="s">
         <v>608</v>
@@ -7553,10 +7553,10 @@
         <v>318</v>
       </c>
       <c r="B315" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C315">
-        <v>105.03</v>
+        <v>107.712</v>
       </c>
       <c r="D315" t="s">
         <v>608</v>
@@ -7570,10 +7570,10 @@
         <v>319</v>
       </c>
       <c r="B316" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C316">
-        <v>103.974</v>
+        <v>104.943</v>
       </c>
       <c r="D316" t="s">
         <v>608</v>
@@ -7587,10 +7587,10 @@
         <v>320</v>
       </c>
       <c r="B317" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C317">
-        <v>101.807</v>
+        <v>105.021</v>
       </c>
       <c r="D317" t="s">
         <v>608</v>
@@ -7604,10 +7604,10 @@
         <v>321</v>
       </c>
       <c r="B318" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C318">
-        <v>101.288</v>
+        <v>104.317</v>
       </c>
       <c r="D318" t="s">
         <v>608</v>
@@ -7621,10 +7621,10 @@
         <v>322</v>
       </c>
       <c r="B319" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C319">
-        <v>104.891</v>
+        <v>111.059</v>
       </c>
       <c r="D319" t="s">
         <v>608</v>
@@ -7638,10 +7638,10 @@
         <v>323</v>
       </c>
       <c r="B320" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C320">
-        <v>107.62</v>
+        <v>111.55</v>
       </c>
       <c r="D320" t="s">
         <v>608</v>
@@ -7655,10 +7655,10 @@
         <v>324</v>
       </c>
       <c r="B321" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C321">
-        <v>109.828</v>
+        <v>113.776</v>
       </c>
       <c r="D321" t="s">
         <v>608</v>
@@ -7672,10 +7672,10 @@
         <v>325</v>
       </c>
       <c r="B322" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C322">
-        <v>120.665</v>
+        <v>123.865</v>
       </c>
       <c r="D322" t="s">
         <v>608</v>
@@ -7692,7 +7692,7 @@
         <v>607</v>
       </c>
       <c r="C323">
-        <v>101.242</v>
+        <v>97.759</v>
       </c>
       <c r="D323" t="s">
         <v>608</v>
@@ -7709,7 +7709,7 @@
         <v>606</v>
       </c>
       <c r="C324">
-        <v>98.649</v>
+        <v>100.296</v>
       </c>
       <c r="D324" t="s">
         <v>608</v>
@@ -7723,10 +7723,10 @@
         <v>328</v>
       </c>
       <c r="B325" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C325">
-        <v>103.483</v>
+        <v>102.374</v>
       </c>
       <c r="D325" t="s">
         <v>608</v>
@@ -7740,10 +7740,10 @@
         <v>329</v>
       </c>
       <c r="B326" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C326">
-        <v>105.33</v>
+        <v>105.158</v>
       </c>
       <c r="D326" t="s">
         <v>608</v>
@@ -7757,10 +7757,10 @@
         <v>330</v>
       </c>
       <c r="B327" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C327">
-        <v>103.566</v>
+        <v>106.195</v>
       </c>
       <c r="D327" t="s">
         <v>608</v>
@@ -7774,10 +7774,10 @@
         <v>331</v>
       </c>
       <c r="B328" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C328">
-        <v>109.346</v>
+        <v>110.982</v>
       </c>
       <c r="D328" t="s">
         <v>608</v>
@@ -7791,10 +7791,10 @@
         <v>332</v>
       </c>
       <c r="B329" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C329">
-        <v>110.781</v>
+        <v>112.462</v>
       </c>
       <c r="D329" t="s">
         <v>608</v>
@@ -7808,10 +7808,10 @@
         <v>333</v>
       </c>
       <c r="B330" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C330">
-        <v>103.469</v>
+        <v>105.725</v>
       </c>
       <c r="D330" t="s">
         <v>608</v>
@@ -7825,10 +7825,10 @@
         <v>334</v>
       </c>
       <c r="B331" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C331">
-        <v>100.764</v>
+        <v>104.506</v>
       </c>
       <c r="D331" t="s">
         <v>608</v>
@@ -7842,10 +7842,10 @@
         <v>335</v>
       </c>
       <c r="B332" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C332">
-        <v>103.967</v>
+        <v>107.642</v>
       </c>
       <c r="D332" t="s">
         <v>608</v>
@@ -7862,7 +7862,7 @@
         <v>606</v>
       </c>
       <c r="C333">
-        <v>97.21599999999999</v>
+        <v>100.412</v>
       </c>
       <c r="D333" t="s">
         <v>608</v>
@@ -7876,10 +7876,10 @@
         <v>337</v>
       </c>
       <c r="B334" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C334">
-        <v>102.603</v>
+        <v>103.885</v>
       </c>
       <c r="D334" t="s">
         <v>608</v>
@@ -7893,10 +7893,10 @@
         <v>338</v>
       </c>
       <c r="B335" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C335">
-        <v>97.392</v>
+        <v>97.11199999999999</v>
       </c>
       <c r="D335" t="s">
         <v>608</v>
@@ -7910,10 +7910,10 @@
         <v>339</v>
       </c>
       <c r="B336" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C336">
-        <v>106.495</v>
+        <v>108.666</v>
       </c>
       <c r="D336" t="s">
         <v>608</v>
@@ -7930,7 +7930,7 @@
         <v>607</v>
       </c>
       <c r="C337">
-        <v>100.24</v>
+        <v>97.227</v>
       </c>
       <c r="D337" t="s">
         <v>608</v>
@@ -7944,10 +7944,10 @@
         <v>341</v>
       </c>
       <c r="B338" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C338">
-        <v>94.889</v>
+        <v>98.97799999999999</v>
       </c>
       <c r="D338" t="s">
         <v>608</v>
@@ -7961,10 +7961,10 @@
         <v>342</v>
       </c>
       <c r="B339" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C339">
-        <v>107.317</v>
+        <v>114.247</v>
       </c>
       <c r="D339" t="s">
         <v>608</v>
@@ -7978,10 +7978,10 @@
         <v>343</v>
       </c>
       <c r="B340" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C340">
-        <v>114.368</v>
+        <v>118.484</v>
       </c>
       <c r="D340" t="s">
         <v>608</v>
@@ -7995,10 +7995,10 @@
         <v>344</v>
       </c>
       <c r="B341" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C341">
-        <v>107.367</v>
+        <v>107.111</v>
       </c>
       <c r="D341" t="s">
         <v>608</v>
@@ -8012,10 +8012,10 @@
         <v>345</v>
       </c>
       <c r="B342" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C342">
-        <v>101.883</v>
+        <v>107.082</v>
       </c>
       <c r="D342" t="s">
         <v>608</v>
@@ -8029,10 +8029,10 @@
         <v>346</v>
       </c>
       <c r="B343" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C343">
-        <v>108.267</v>
+        <v>110.015</v>
       </c>
       <c r="D343" t="s">
         <v>608</v>
@@ -8046,10 +8046,10 @@
         <v>347</v>
       </c>
       <c r="B344" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C344">
-        <v>103.611</v>
+        <v>106.915</v>
       </c>
       <c r="D344" t="s">
         <v>608</v>
@@ -8063,10 +8063,10 @@
         <v>348</v>
       </c>
       <c r="B345" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C345">
-        <v>103.433</v>
+        <v>107.857</v>
       </c>
       <c r="D345" t="s">
         <v>608</v>
@@ -8080,10 +8080,10 @@
         <v>349</v>
       </c>
       <c r="B346" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C346">
-        <v>95.663</v>
+        <v>97.057</v>
       </c>
       <c r="D346" t="s">
         <v>608</v>
@@ -8097,10 +8097,10 @@
         <v>350</v>
       </c>
       <c r="B347" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C347">
-        <v>93.084</v>
+        <v>93.354</v>
       </c>
       <c r="D347" t="s">
         <v>608</v>
@@ -8114,10 +8114,10 @@
         <v>351</v>
       </c>
       <c r="B348" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C348">
-        <v>104.441</v>
+        <v>104.267</v>
       </c>
       <c r="D348" t="s">
         <v>608</v>
@@ -8131,10 +8131,10 @@
         <v>352</v>
       </c>
       <c r="B349" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C349">
-        <v>122.521</v>
+        <v>122.628</v>
       </c>
       <c r="D349" t="s">
         <v>608</v>
@@ -8148,10 +8148,10 @@
         <v>353</v>
       </c>
       <c r="B350" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C350">
-        <v>106.522</v>
+        <v>105.884</v>
       </c>
       <c r="D350" t="s">
         <v>608</v>
@@ -8165,10 +8165,10 @@
         <v>354</v>
       </c>
       <c r="B351" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C351">
-        <v>105.69</v>
+        <v>109.306</v>
       </c>
       <c r="D351" t="s">
         <v>608</v>
@@ -8182,10 +8182,10 @@
         <v>355</v>
       </c>
       <c r="B352" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C352">
-        <v>99.021</v>
+        <v>99.477</v>
       </c>
       <c r="D352" t="s">
         <v>608</v>
@@ -8199,10 +8199,10 @@
         <v>356</v>
       </c>
       <c r="B353" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C353">
-        <v>102.662</v>
+        <v>100.598</v>
       </c>
       <c r="D353" t="s">
         <v>608</v>
@@ -8216,10 +8216,10 @@
         <v>357</v>
       </c>
       <c r="B354" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C354">
-        <v>107.156</v>
+        <v>110.28</v>
       </c>
       <c r="D354" t="s">
         <v>608</v>
@@ -8233,10 +8233,10 @@
         <v>358</v>
       </c>
       <c r="B355" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C355">
-        <v>102.024</v>
+        <v>103.338</v>
       </c>
       <c r="D355" t="s">
         <v>608</v>
@@ -8250,10 +8250,10 @@
         <v>359</v>
       </c>
       <c r="B356" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C356">
-        <v>104.193</v>
+        <v>107.626</v>
       </c>
       <c r="D356" t="s">
         <v>608</v>
@@ -8267,10 +8267,10 @@
         <v>360</v>
       </c>
       <c r="B357" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C357">
-        <v>101.076</v>
+        <v>103.632</v>
       </c>
       <c r="D357" t="s">
         <v>608</v>
@@ -8284,10 +8284,10 @@
         <v>361</v>
       </c>
       <c r="B358" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C358">
-        <v>100.473</v>
+        <v>105.111</v>
       </c>
       <c r="D358" t="s">
         <v>608</v>
@@ -8301,10 +8301,10 @@
         <v>362</v>
       </c>
       <c r="B359" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C359">
-        <v>102.172</v>
+        <v>104.705</v>
       </c>
       <c r="D359" t="s">
         <v>608</v>
@@ -8318,10 +8318,10 @@
         <v>363</v>
       </c>
       <c r="B360" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C360">
-        <v>103.339</v>
+        <v>100.932</v>
       </c>
       <c r="D360" t="s">
         <v>608</v>
@@ -8335,10 +8335,10 @@
         <v>364</v>
       </c>
       <c r="B361" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C361">
-        <v>97.569</v>
+        <v>89.745</v>
       </c>
       <c r="D361" t="s">
         <v>608</v>
@@ -8352,10 +8352,10 @@
         <v>365</v>
       </c>
       <c r="B362" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C362">
-        <v>101.784</v>
+        <v>102.468</v>
       </c>
       <c r="D362" t="s">
         <v>608</v>
@@ -8372,7 +8372,7 @@
         <v>606</v>
       </c>
       <c r="C363">
-        <v>98.297</v>
+        <v>101.144</v>
       </c>
       <c r="D363" t="s">
         <v>608</v>
@@ -8386,10 +8386,10 @@
         <v>367</v>
       </c>
       <c r="B364" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C364">
-        <v>106.716</v>
+        <v>110.205</v>
       </c>
       <c r="D364" t="s">
         <v>608</v>
@@ -8403,7 +8403,7 @@
         <v>368</v>
       </c>
       <c r="B365" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C365">
         <v>112.754</v>
@@ -8420,10 +8420,10 @@
         <v>369</v>
       </c>
       <c r="B366" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C366">
-        <v>91.003</v>
+        <v>95.477</v>
       </c>
       <c r="D366" t="s">
         <v>608</v>
@@ -8437,10 +8437,10 @@
         <v>370</v>
       </c>
       <c r="B367" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C367">
-        <v>100.943</v>
+        <v>101.798</v>
       </c>
       <c r="D367" t="s">
         <v>608</v>
@@ -8454,10 +8454,10 @@
         <v>371</v>
       </c>
       <c r="B368" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C368">
-        <v>94.943</v>
+        <v>95.80200000000001</v>
       </c>
       <c r="D368" t="s">
         <v>608</v>
@@ -8471,10 +8471,10 @@
         <v>372</v>
       </c>
       <c r="B369" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C369">
-        <v>93.745</v>
+        <v>95.322</v>
       </c>
       <c r="D369" t="s">
         <v>608</v>
@@ -8488,10 +8488,10 @@
         <v>373</v>
       </c>
       <c r="B370" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C370">
-        <v>103.77</v>
+        <v>105.201</v>
       </c>
       <c r="D370" t="s">
         <v>608</v>
@@ -8505,10 +8505,10 @@
         <v>374</v>
       </c>
       <c r="B371" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C371">
-        <v>104.988</v>
+        <v>109.934</v>
       </c>
       <c r="D371" t="s">
         <v>608</v>
@@ -8525,7 +8525,7 @@
         <v>607</v>
       </c>
       <c r="C372">
-        <v>105.002</v>
+        <v>92.06399999999999</v>
       </c>
       <c r="D372" t="s">
         <v>608</v>
@@ -8539,10 +8539,10 @@
         <v>376</v>
       </c>
       <c r="B373" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C373">
-        <v>103.979</v>
+        <v>105.819</v>
       </c>
       <c r="D373" t="s">
         <v>608</v>
@@ -8556,10 +8556,10 @@
         <v>377</v>
       </c>
       <c r="B374" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C374">
-        <v>106.534</v>
+        <v>101.902</v>
       </c>
       <c r="D374" t="s">
         <v>608</v>
@@ -8573,10 +8573,10 @@
         <v>378</v>
       </c>
       <c r="B375" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C375">
-        <v>108.126</v>
+        <v>115.439</v>
       </c>
       <c r="D375" t="s">
         <v>608</v>
@@ -8590,10 +8590,10 @@
         <v>379</v>
       </c>
       <c r="B376" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C376">
-        <v>114.215</v>
+        <v>113.641</v>
       </c>
       <c r="D376" t="s">
         <v>608</v>
@@ -8607,10 +8607,10 @@
         <v>380</v>
       </c>
       <c r="B377" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C377">
-        <v>104.569</v>
+        <v>107.582</v>
       </c>
       <c r="D377" t="s">
         <v>608</v>
@@ -8624,10 +8624,10 @@
         <v>381</v>
       </c>
       <c r="B378" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C378">
-        <v>107.314</v>
+        <v>106.935</v>
       </c>
       <c r="D378" t="s">
         <v>608</v>
@@ -8641,10 +8641,10 @@
         <v>382</v>
       </c>
       <c r="B379" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C379">
-        <v>100.441</v>
+        <v>101.858</v>
       </c>
       <c r="D379" t="s">
         <v>608</v>
@@ -8658,10 +8658,10 @@
         <v>383</v>
       </c>
       <c r="B380" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C380">
-        <v>110.672</v>
+        <v>113.165</v>
       </c>
       <c r="D380" t="s">
         <v>608</v>
@@ -8678,7 +8678,7 @@
         <v>606</v>
       </c>
       <c r="C381">
-        <v>98.61499999999999</v>
+        <v>100.153</v>
       </c>
       <c r="D381" t="s">
         <v>608</v>
@@ -8692,10 +8692,10 @@
         <v>385</v>
       </c>
       <c r="B382" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C382">
-        <v>104.374</v>
+        <v>102.487</v>
       </c>
       <c r="D382" t="s">
         <v>608</v>
@@ -8709,10 +8709,10 @@
         <v>386</v>
       </c>
       <c r="B383" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C383">
-        <v>101.823</v>
+        <v>101.21</v>
       </c>
       <c r="D383" t="s">
         <v>608</v>
@@ -8729,7 +8729,7 @@
         <v>607</v>
       </c>
       <c r="C384">
-        <v>102.856</v>
+        <v>98.13800000000001</v>
       </c>
       <c r="D384" t="s">
         <v>608</v>
@@ -8743,10 +8743,10 @@
         <v>388</v>
       </c>
       <c r="B385" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C385">
-        <v>104.135</v>
+        <v>108.266</v>
       </c>
       <c r="D385" t="s">
         <v>608</v>
@@ -8760,10 +8760,10 @@
         <v>389</v>
       </c>
       <c r="B386" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C386">
-        <v>100.02</v>
+        <v>101.246</v>
       </c>
       <c r="D386" t="s">
         <v>608</v>
@@ -8777,10 +8777,10 @@
         <v>390</v>
       </c>
       <c r="B387" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C387">
-        <v>110.989</v>
+        <v>109.85</v>
       </c>
       <c r="D387" t="s">
         <v>608</v>
@@ -8794,10 +8794,10 @@
         <v>391</v>
       </c>
       <c r="B388" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C388">
-        <v>109.225</v>
+        <v>103.839</v>
       </c>
       <c r="D388" t="s">
         <v>608</v>
@@ -8811,10 +8811,10 @@
         <v>392</v>
       </c>
       <c r="B389" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C389">
-        <v>105.968</v>
+        <v>102.721</v>
       </c>
       <c r="D389" t="s">
         <v>608</v>
@@ -8831,7 +8831,7 @@
         <v>606</v>
       </c>
       <c r="C390">
-        <v>99.127</v>
+        <v>101.961</v>
       </c>
       <c r="D390" t="s">
         <v>608</v>
@@ -8845,10 +8845,10 @@
         <v>394</v>
       </c>
       <c r="B391" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C391">
-        <v>99.255</v>
+        <v>98.721</v>
       </c>
       <c r="D391" t="s">
         <v>608</v>
@@ -8862,10 +8862,10 @@
         <v>395</v>
       </c>
       <c r="B392" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C392">
-        <v>101.469</v>
+        <v>105.309</v>
       </c>
       <c r="D392" t="s">
         <v>608</v>
@@ -8879,10 +8879,10 @@
         <v>396</v>
       </c>
       <c r="B393" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C393">
-        <v>104.322</v>
+        <v>108.874</v>
       </c>
       <c r="D393" t="s">
         <v>608</v>
@@ -8896,10 +8896,10 @@
         <v>397</v>
       </c>
       <c r="B394" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C394">
-        <v>100.554</v>
+        <v>106.52</v>
       </c>
       <c r="D394" t="s">
         <v>608</v>
@@ -8913,10 +8913,10 @@
         <v>398</v>
       </c>
       <c r="B395" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C395">
-        <v>108.259</v>
+        <v>108.251</v>
       </c>
       <c r="D395" t="s">
         <v>608</v>
@@ -8930,10 +8930,10 @@
         <v>399</v>
       </c>
       <c r="B396" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C396">
-        <v>106.75</v>
+        <v>108.614</v>
       </c>
       <c r="D396" t="s">
         <v>608</v>
@@ -8947,10 +8947,10 @@
         <v>400</v>
       </c>
       <c r="B397" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C397">
-        <v>102.142</v>
+        <v>103.274</v>
       </c>
       <c r="D397" t="s">
         <v>608</v>
@@ -8964,10 +8964,10 @@
         <v>401</v>
       </c>
       <c r="B398" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C398">
-        <v>103.736</v>
+        <v>104.927</v>
       </c>
       <c r="D398" t="s">
         <v>608</v>
@@ -8981,10 +8981,10 @@
         <v>402</v>
       </c>
       <c r="B399" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C399">
-        <v>120.064</v>
+        <v>119.242</v>
       </c>
       <c r="D399" t="s">
         <v>608</v>
@@ -8998,10 +8998,10 @@
         <v>403</v>
       </c>
       <c r="B400" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C400">
-        <v>108.056</v>
+        <v>114.228</v>
       </c>
       <c r="D400" t="s">
         <v>608</v>
@@ -9015,10 +9015,10 @@
         <v>404</v>
       </c>
       <c r="B401" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C401">
-        <v>103.966</v>
+        <v>102.85</v>
       </c>
       <c r="D401" t="s">
         <v>608</v>
@@ -9032,10 +9032,10 @@
         <v>405</v>
       </c>
       <c r="B402" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C402">
-        <v>98.46299999999999</v>
+        <v>94.985</v>
       </c>
       <c r="D402" t="s">
         <v>608</v>
@@ -9049,10 +9049,10 @@
         <v>406</v>
       </c>
       <c r="B403" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C403">
-        <v>94.226</v>
+        <v>95.858</v>
       </c>
       <c r="D403" t="s">
         <v>608</v>
@@ -9066,10 +9066,10 @@
         <v>407</v>
       </c>
       <c r="B404" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C404">
-        <v>105.383</v>
+        <v>108.935</v>
       </c>
       <c r="D404" t="s">
         <v>608</v>
@@ -9083,10 +9083,10 @@
         <v>408</v>
       </c>
       <c r="B405" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C405">
-        <v>110.772</v>
+        <v>112.098</v>
       </c>
       <c r="D405" t="s">
         <v>608</v>
@@ -9100,10 +9100,10 @@
         <v>409</v>
       </c>
       <c r="B406" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C406">
-        <v>112.202</v>
+        <v>110.523</v>
       </c>
       <c r="D406" t="s">
         <v>608</v>
@@ -9117,10 +9117,10 @@
         <v>410</v>
       </c>
       <c r="B407" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C407">
-        <v>114.922</v>
+        <v>111.338</v>
       </c>
       <c r="D407" t="s">
         <v>608</v>
@@ -9134,10 +9134,10 @@
         <v>411</v>
       </c>
       <c r="B408" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C408">
-        <v>104.921</v>
+        <v>107.317</v>
       </c>
       <c r="D408" t="s">
         <v>608</v>
@@ -9151,10 +9151,10 @@
         <v>412</v>
       </c>
       <c r="B409" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C409">
-        <v>108.976</v>
+        <v>109.902</v>
       </c>
       <c r="D409" t="s">
         <v>608</v>
@@ -9168,10 +9168,10 @@
         <v>413</v>
       </c>
       <c r="B410" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C410">
-        <v>103.32</v>
+        <v>104.702</v>
       </c>
       <c r="D410" t="s">
         <v>608</v>
@@ -9185,10 +9185,10 @@
         <v>414</v>
       </c>
       <c r="B411" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C411">
-        <v>111.062</v>
+        <v>108.81</v>
       </c>
       <c r="D411" t="s">
         <v>608</v>
@@ -9202,10 +9202,10 @@
         <v>415</v>
       </c>
       <c r="B412" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C412">
-        <v>102.915</v>
+        <v>101.602</v>
       </c>
       <c r="D412" t="s">
         <v>608</v>
@@ -9219,10 +9219,10 @@
         <v>416</v>
       </c>
       <c r="B413" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C413">
-        <v>105.306</v>
+        <v>108.696</v>
       </c>
       <c r="D413" t="s">
         <v>608</v>
@@ -9236,10 +9236,10 @@
         <v>417</v>
       </c>
       <c r="B414" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C414">
-        <v>111.699</v>
+        <v>112.929</v>
       </c>
       <c r="D414" t="s">
         <v>608</v>
@@ -9253,10 +9253,10 @@
         <v>418</v>
       </c>
       <c r="B415" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C415">
-        <v>102.589</v>
+        <v>104.217</v>
       </c>
       <c r="D415" t="s">
         <v>608</v>
@@ -9270,10 +9270,10 @@
         <v>419</v>
       </c>
       <c r="B416" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C416">
-        <v>109.651</v>
+        <v>110.504</v>
       </c>
       <c r="D416" t="s">
         <v>608</v>
@@ -9287,10 +9287,10 @@
         <v>420</v>
       </c>
       <c r="B417" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C417">
-        <v>106.53</v>
+        <v>108.338</v>
       </c>
       <c r="D417" t="s">
         <v>608</v>
@@ -9304,10 +9304,10 @@
         <v>421</v>
       </c>
       <c r="B418" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C418">
-        <v>93.13800000000001</v>
+        <v>91.89100000000001</v>
       </c>
       <c r="D418" t="s">
         <v>608</v>
@@ -9321,10 +9321,10 @@
         <v>422</v>
       </c>
       <c r="B419" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C419">
-        <v>106.667</v>
+        <v>108.4</v>
       </c>
       <c r="D419" t="s">
         <v>608</v>
@@ -9338,10 +9338,10 @@
         <v>423</v>
       </c>
       <c r="B420" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C420">
-        <v>111.525</v>
+        <v>115.02</v>
       </c>
       <c r="D420" t="s">
         <v>608</v>
@@ -9355,10 +9355,10 @@
         <v>424</v>
       </c>
       <c r="B421" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C421">
-        <v>96.28</v>
+        <v>94.434</v>
       </c>
       <c r="D421" t="s">
         <v>608</v>
@@ -9372,10 +9372,10 @@
         <v>425</v>
       </c>
       <c r="B422" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C422">
-        <v>103.409</v>
+        <v>105.181</v>
       </c>
       <c r="D422" t="s">
         <v>608</v>
@@ -9392,7 +9392,7 @@
         <v>606</v>
       </c>
       <c r="C423">
-        <v>98.85299999999999</v>
+        <v>100.49</v>
       </c>
       <c r="D423" t="s">
         <v>608</v>
@@ -9406,10 +9406,10 @@
         <v>427</v>
       </c>
       <c r="B424" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C424">
-        <v>110.404</v>
+        <v>112.769</v>
       </c>
       <c r="D424" t="s">
         <v>608</v>
@@ -9426,7 +9426,7 @@
         <v>606</v>
       </c>
       <c r="C425">
-        <v>98.999</v>
+        <v>104.082</v>
       </c>
       <c r="D425" t="s">
         <v>608</v>
@@ -9440,10 +9440,10 @@
         <v>429</v>
       </c>
       <c r="B426" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C426">
-        <v>104.361</v>
+        <v>104.785</v>
       </c>
       <c r="D426" t="s">
         <v>608</v>
@@ -9457,10 +9457,10 @@
         <v>430</v>
       </c>
       <c r="B427" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C427">
-        <v>102.179</v>
+        <v>107.07</v>
       </c>
       <c r="D427" t="s">
         <v>608</v>
@@ -9474,10 +9474,10 @@
         <v>431</v>
       </c>
       <c r="B428" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C428">
-        <v>109.664</v>
+        <v>108.504</v>
       </c>
       <c r="D428" t="s">
         <v>608</v>
@@ -9494,7 +9494,7 @@
         <v>606</v>
       </c>
       <c r="C429">
-        <v>99.416</v>
+        <v>102.833</v>
       </c>
       <c r="D429" t="s">
         <v>608</v>
@@ -9508,10 +9508,10 @@
         <v>433</v>
       </c>
       <c r="B430" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C430">
-        <v>102.042</v>
+        <v>110.297</v>
       </c>
       <c r="D430" t="s">
         <v>608</v>
@@ -9525,10 +9525,10 @@
         <v>434</v>
       </c>
       <c r="B431" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C431">
-        <v>101.167</v>
+        <v>103.839</v>
       </c>
       <c r="D431" t="s">
         <v>608</v>
@@ -9542,10 +9542,10 @@
         <v>435</v>
       </c>
       <c r="B432" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C432">
-        <v>115.503</v>
+        <v>109.513</v>
       </c>
       <c r="D432" t="s">
         <v>608</v>
@@ -9559,10 +9559,10 @@
         <v>436</v>
       </c>
       <c r="B433" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C433">
-        <v>124.968</v>
+        <v>107.295</v>
       </c>
       <c r="D433" t="s">
         <v>608</v>
@@ -9576,10 +9576,10 @@
         <v>437</v>
       </c>
       <c r="B434" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C434">
-        <v>110.901</v>
+        <v>111.345</v>
       </c>
       <c r="D434" t="s">
         <v>608</v>
@@ -9593,10 +9593,10 @@
         <v>438</v>
       </c>
       <c r="B435" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C435">
-        <v>114.214</v>
+        <v>115.99</v>
       </c>
       <c r="D435" t="s">
         <v>608</v>
@@ -9613,7 +9613,7 @@
         <v>606</v>
       </c>
       <c r="C436">
-        <v>99.10899999999999</v>
+        <v>105.193</v>
       </c>
       <c r="D436" t="s">
         <v>608</v>
@@ -9627,10 +9627,10 @@
         <v>440</v>
       </c>
       <c r="B437" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C437">
-        <v>107.701</v>
+        <v>113.021</v>
       </c>
       <c r="D437" t="s">
         <v>608</v>
@@ -9644,10 +9644,10 @@
         <v>441</v>
       </c>
       <c r="B438" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C438">
-        <v>110.6</v>
+        <v>109.983</v>
       </c>
       <c r="D438" t="s">
         <v>608</v>
@@ -9661,10 +9661,10 @@
         <v>442</v>
       </c>
       <c r="B439" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C439">
-        <v>103.273</v>
+        <v>104.381</v>
       </c>
       <c r="D439" t="s">
         <v>608</v>
@@ -9678,10 +9678,10 @@
         <v>443</v>
       </c>
       <c r="B440" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C440">
-        <v>103.486</v>
+        <v>103.821</v>
       </c>
       <c r="D440" t="s">
         <v>608</v>
@@ -9695,10 +9695,10 @@
         <v>444</v>
       </c>
       <c r="B441" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C441">
-        <v>107.363</v>
+        <v>110.531</v>
       </c>
       <c r="D441" t="s">
         <v>608</v>
@@ -9712,10 +9712,10 @@
         <v>445</v>
       </c>
       <c r="B442" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C442">
-        <v>102.636</v>
+        <v>104.56</v>
       </c>
       <c r="D442" t="s">
         <v>608</v>
@@ -9729,10 +9729,10 @@
         <v>446</v>
       </c>
       <c r="B443" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C443">
-        <v>113.319</v>
+        <v>118.008</v>
       </c>
       <c r="D443" t="s">
         <v>608</v>
@@ -9746,10 +9746,10 @@
         <v>447</v>
       </c>
       <c r="B444" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C444">
-        <v>100.21</v>
+        <v>102.757</v>
       </c>
       <c r="D444" t="s">
         <v>608</v>
@@ -9763,10 +9763,10 @@
         <v>448</v>
       </c>
       <c r="B445" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C445">
-        <v>106.56</v>
+        <v>108.561</v>
       </c>
       <c r="D445" t="s">
         <v>608</v>
@@ -9780,10 +9780,10 @@
         <v>449</v>
       </c>
       <c r="B446" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C446">
-        <v>102.481</v>
+        <v>101.219</v>
       </c>
       <c r="D446" t="s">
         <v>608</v>
@@ -9797,10 +9797,10 @@
         <v>450</v>
       </c>
       <c r="B447" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C447">
-        <v>103.154</v>
+        <v>104.778</v>
       </c>
       <c r="D447" t="s">
         <v>608</v>
@@ -9814,10 +9814,10 @@
         <v>451</v>
       </c>
       <c r="B448" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C448">
-        <v>104.294</v>
+        <v>106.797</v>
       </c>
       <c r="D448" t="s">
         <v>608</v>
@@ -9831,10 +9831,10 @@
         <v>452</v>
       </c>
       <c r="B449" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C449">
-        <v>110.011</v>
+        <v>111.974</v>
       </c>
       <c r="D449" t="s">
         <v>608</v>
@@ -9848,10 +9848,10 @@
         <v>453</v>
       </c>
       <c r="B450" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C450">
-        <v>102.561</v>
+        <v>104.172</v>
       </c>
       <c r="D450" t="s">
         <v>608</v>
@@ -9865,10 +9865,10 @@
         <v>454</v>
       </c>
       <c r="B451" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C451">
-        <v>104.938</v>
+        <v>101.507</v>
       </c>
       <c r="D451" t="s">
         <v>608</v>
@@ -9882,10 +9882,10 @@
         <v>455</v>
       </c>
       <c r="B452" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C452">
-        <v>112.067</v>
+        <v>119.774</v>
       </c>
       <c r="D452" t="s">
         <v>608</v>
@@ -9899,10 +9899,10 @@
         <v>456</v>
       </c>
       <c r="B453" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C453">
-        <v>102.096</v>
+        <v>103.445</v>
       </c>
       <c r="D453" t="s">
         <v>608</v>
@@ -9916,10 +9916,10 @@
         <v>457</v>
       </c>
       <c r="B454" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C454">
-        <v>113.836</v>
+        <v>114.782</v>
       </c>
       <c r="D454" t="s">
         <v>608</v>
@@ -9933,10 +9933,10 @@
         <v>458</v>
       </c>
       <c r="B455" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C455">
-        <v>130.662</v>
+        <v>123.522</v>
       </c>
       <c r="D455" t="s">
         <v>608</v>
@@ -9950,10 +9950,10 @@
         <v>459</v>
       </c>
       <c r="B456" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C456">
-        <v>101.001</v>
+        <v>104.117</v>
       </c>
       <c r="D456" t="s">
         <v>608</v>
@@ -9967,10 +9967,10 @@
         <v>460</v>
       </c>
       <c r="B457" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C457">
-        <v>104.082</v>
+        <v>104.587</v>
       </c>
       <c r="D457" t="s">
         <v>608</v>
@@ -9984,10 +9984,10 @@
         <v>461</v>
       </c>
       <c r="B458" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C458">
-        <v>104.143</v>
+        <v>105.876</v>
       </c>
       <c r="D458" t="s">
         <v>608</v>
@@ -10001,10 +10001,10 @@
         <v>462</v>
       </c>
       <c r="B459" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C459">
-        <v>112.576</v>
+        <v>121.746</v>
       </c>
       <c r="D459" t="s">
         <v>608</v>
@@ -10018,10 +10018,10 @@
         <v>463</v>
       </c>
       <c r="B460" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C460">
-        <v>110.961</v>
+        <v>115.589</v>
       </c>
       <c r="D460" t="s">
         <v>608</v>
@@ -10035,10 +10035,10 @@
         <v>464</v>
       </c>
       <c r="B461" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C461">
-        <v>98.877</v>
+        <v>99.538</v>
       </c>
       <c r="D461" t="s">
         <v>608</v>
@@ -10052,10 +10052,10 @@
         <v>465</v>
       </c>
       <c r="B462" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C462">
-        <v>101.181</v>
+        <v>104.421</v>
       </c>
       <c r="D462" t="s">
         <v>608</v>
@@ -10069,10 +10069,10 @@
         <v>466</v>
       </c>
       <c r="B463" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C463">
-        <v>118.134</v>
+        <v>122.459</v>
       </c>
       <c r="D463" t="s">
         <v>608</v>
@@ -10086,10 +10086,10 @@
         <v>467</v>
       </c>
       <c r="B464" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C464">
-        <v>95.63500000000001</v>
+        <v>92.95999999999999</v>
       </c>
       <c r="D464" t="s">
         <v>608</v>
@@ -10103,10 +10103,10 @@
         <v>468</v>
       </c>
       <c r="B465" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C465">
-        <v>108.123</v>
+        <v>112.339</v>
       </c>
       <c r="D465" t="s">
         <v>608</v>
@@ -10120,10 +10120,10 @@
         <v>469</v>
       </c>
       <c r="B466" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C466">
-        <v>104.735</v>
+        <v>107.792</v>
       </c>
       <c r="D466" t="s">
         <v>608</v>
@@ -10137,10 +10137,10 @@
         <v>470</v>
       </c>
       <c r="B467" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C467">
-        <v>102.632</v>
+        <v>106.407</v>
       </c>
       <c r="D467" t="s">
         <v>608</v>
@@ -10154,10 +10154,10 @@
         <v>471</v>
       </c>
       <c r="B468" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C468">
-        <v>94.035</v>
+        <v>95.313</v>
       </c>
       <c r="D468" t="s">
         <v>608</v>
@@ -10171,10 +10171,10 @@
         <v>472</v>
       </c>
       <c r="B469" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C469">
-        <v>96.916</v>
+        <v>98.592</v>
       </c>
       <c r="D469" t="s">
         <v>608</v>
@@ -10188,10 +10188,10 @@
         <v>473</v>
       </c>
       <c r="B470" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C470">
-        <v>100.492</v>
+        <v>107.02</v>
       </c>
       <c r="D470" t="s">
         <v>608</v>
@@ -10205,10 +10205,10 @@
         <v>474</v>
       </c>
       <c r="B471" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C471">
-        <v>105.87</v>
+        <v>110</v>
       </c>
       <c r="D471" t="s">
         <v>608</v>
@@ -10222,10 +10222,10 @@
         <v>475</v>
       </c>
       <c r="B472" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C472">
-        <v>104.448</v>
+        <v>105.074</v>
       </c>
       <c r="D472" t="s">
         <v>608</v>
@@ -10239,10 +10239,10 @@
         <v>476</v>
       </c>
       <c r="B473" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C473">
-        <v>103.082</v>
+        <v>103.364</v>
       </c>
       <c r="D473" t="s">
         <v>608</v>
@@ -10256,10 +10256,10 @@
         <v>477</v>
       </c>
       <c r="B474" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C474">
-        <v>104.813</v>
+        <v>107.929</v>
       </c>
       <c r="D474" t="s">
         <v>608</v>
@@ -10276,7 +10276,7 @@
         <v>606</v>
       </c>
       <c r="C475">
-        <v>96.74299999999999</v>
+        <v>100.321</v>
       </c>
       <c r="D475" t="s">
         <v>608</v>
@@ -10290,10 +10290,10 @@
         <v>479</v>
       </c>
       <c r="B476" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C476">
-        <v>78.496</v>
+        <v>79.29300000000001</v>
       </c>
       <c r="D476" t="s">
         <v>608</v>
@@ -10307,10 +10307,10 @@
         <v>480</v>
       </c>
       <c r="B477" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C477">
-        <v>104.579</v>
+        <v>105.192</v>
       </c>
       <c r="D477" t="s">
         <v>608</v>
@@ -10324,10 +10324,10 @@
         <v>481</v>
       </c>
       <c r="B478" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C478">
-        <v>97.828</v>
+        <v>99.581</v>
       </c>
       <c r="D478" t="s">
         <v>608</v>
@@ -10341,10 +10341,10 @@
         <v>482</v>
       </c>
       <c r="B479" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C479">
-        <v>107.562</v>
+        <v>110.573</v>
       </c>
       <c r="D479" t="s">
         <v>608</v>
@@ -10358,10 +10358,10 @@
         <v>483</v>
       </c>
       <c r="B480" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C480">
-        <v>112.763</v>
+        <v>114.593</v>
       </c>
       <c r="D480" t="s">
         <v>608</v>
@@ -10375,10 +10375,10 @@
         <v>484</v>
       </c>
       <c r="B481" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C481">
-        <v>124.658</v>
+        <v>126.106</v>
       </c>
       <c r="D481" t="s">
         <v>608</v>
@@ -10392,10 +10392,10 @@
         <v>485</v>
       </c>
       <c r="B482" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C482">
-        <v>100.158</v>
+        <v>103.012</v>
       </c>
       <c r="D482" t="s">
         <v>608</v>
@@ -10409,10 +10409,10 @@
         <v>486</v>
       </c>
       <c r="B483" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C483">
-        <v>105.018</v>
+        <v>105.849</v>
       </c>
       <c r="D483" t="s">
         <v>608</v>
@@ -10426,10 +10426,10 @@
         <v>487</v>
       </c>
       <c r="B484" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C484">
-        <v>112.629</v>
+        <v>111.979</v>
       </c>
       <c r="D484" t="s">
         <v>608</v>
@@ -10443,10 +10443,10 @@
         <v>488</v>
       </c>
       <c r="B485" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C485">
-        <v>116.733</v>
+        <v>122.026</v>
       </c>
       <c r="D485" t="s">
         <v>608</v>
@@ -10460,10 +10460,10 @@
         <v>489</v>
       </c>
       <c r="B486" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C486">
-        <v>107.338</v>
+        <v>107.507</v>
       </c>
       <c r="D486" t="s">
         <v>608</v>
@@ -10477,10 +10477,10 @@
         <v>490</v>
       </c>
       <c r="B487" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C487">
-        <v>100.381</v>
+        <v>100.079</v>
       </c>
       <c r="D487" t="s">
         <v>608</v>
@@ -10494,10 +10494,10 @@
         <v>491</v>
       </c>
       <c r="B488" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C488">
-        <v>98.295</v>
+        <v>99.90600000000001</v>
       </c>
       <c r="D488" t="s">
         <v>608</v>
@@ -10511,10 +10511,10 @@
         <v>492</v>
       </c>
       <c r="B489" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C489">
-        <v>118.424</v>
+        <v>122.281</v>
       </c>
       <c r="D489" t="s">
         <v>608</v>
@@ -10528,10 +10528,10 @@
         <v>493</v>
       </c>
       <c r="B490" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C490">
-        <v>103.254</v>
+        <v>106.593</v>
       </c>
       <c r="D490" t="s">
         <v>608</v>
@@ -10545,10 +10545,10 @@
         <v>494</v>
       </c>
       <c r="B491" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C491">
-        <v>93.434</v>
+        <v>97.38500000000001</v>
       </c>
       <c r="D491" t="s">
         <v>608</v>
@@ -10562,10 +10562,10 @@
         <v>495</v>
       </c>
       <c r="B492" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C492">
-        <v>99.905</v>
+        <v>99.90600000000001</v>
       </c>
       <c r="D492" t="s">
         <v>608</v>
@@ -10579,10 +10579,10 @@
         <v>496</v>
       </c>
       <c r="B493" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C493">
-        <v>102.813</v>
+        <v>104.67</v>
       </c>
       <c r="D493" t="s">
         <v>608</v>
@@ -10599,7 +10599,7 @@
         <v>606</v>
       </c>
       <c r="C494">
-        <v>97.313</v>
+        <v>101.311</v>
       </c>
       <c r="D494" t="s">
         <v>608</v>
@@ -10613,10 +10613,10 @@
         <v>498</v>
       </c>
       <c r="B495" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C495">
-        <v>97.639</v>
+        <v>99.598</v>
       </c>
       <c r="D495" t="s">
         <v>608</v>
@@ -10630,10 +10630,10 @@
         <v>499</v>
       </c>
       <c r="B496" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C496">
-        <v>105.15</v>
+        <v>103.895</v>
       </c>
       <c r="D496" t="s">
         <v>608</v>
@@ -10647,10 +10647,10 @@
         <v>500</v>
       </c>
       <c r="B497" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C497">
-        <v>97.318</v>
+        <v>96.935</v>
       </c>
       <c r="D497" t="s">
         <v>608</v>
@@ -10664,10 +10664,10 @@
         <v>501</v>
       </c>
       <c r="B498" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C498">
-        <v>96.64700000000001</v>
+        <v>97.68300000000001</v>
       </c>
       <c r="D498" t="s">
         <v>608</v>
@@ -10684,7 +10684,7 @@
         <v>606</v>
       </c>
       <c r="C499">
-        <v>90.956</v>
+        <v>100.295</v>
       </c>
       <c r="D499" t="s">
         <v>608</v>
@@ -10701,7 +10701,7 @@
         <v>606</v>
       </c>
       <c r="C500">
-        <v>95.42100000000001</v>
+        <v>100.78</v>
       </c>
       <c r="D500" t="s">
         <v>608</v>
@@ -10718,7 +10718,7 @@
         <v>606</v>
       </c>
       <c r="C501">
-        <v>84.292</v>
+        <v>110.777</v>
       </c>
       <c r="D501" t="s">
         <v>608</v>
@@ -10732,10 +10732,10 @@
         <v>505</v>
       </c>
       <c r="B502" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C502">
-        <v>105.69</v>
+        <v>107.782</v>
       </c>
       <c r="D502" t="s">
         <v>608</v>
@@ -10749,10 +10749,10 @@
         <v>506</v>
       </c>
       <c r="B503" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C503">
-        <v>113.246</v>
+        <v>116.308</v>
       </c>
       <c r="D503" t="s">
         <v>608</v>
@@ -10766,10 +10766,10 @@
         <v>507</v>
       </c>
       <c r="B504" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C504">
-        <v>112.869</v>
+        <v>115.018</v>
       </c>
       <c r="D504" t="s">
         <v>608</v>
@@ -10783,10 +10783,10 @@
         <v>508</v>
       </c>
       <c r="B505" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C505">
-        <v>101.708</v>
+        <v>105.096</v>
       </c>
       <c r="D505" t="s">
         <v>608</v>
@@ -10800,10 +10800,10 @@
         <v>509</v>
       </c>
       <c r="B506" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C506">
-        <v>97.797</v>
+        <v>98.631</v>
       </c>
       <c r="D506" t="s">
         <v>608</v>
@@ -10817,10 +10817,10 @@
         <v>510</v>
       </c>
       <c r="B507" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C507">
-        <v>86.73999999999999</v>
+        <v>88.36199999999999</v>
       </c>
       <c r="D507" t="s">
         <v>608</v>
@@ -10834,10 +10834,10 @@
         <v>511</v>
       </c>
       <c r="B508" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C508">
-        <v>102.256</v>
+        <v>103.197</v>
       </c>
       <c r="D508" t="s">
         <v>608</v>
@@ -10851,10 +10851,10 @@
         <v>512</v>
       </c>
       <c r="B509" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C509">
-        <v>119.249</v>
+        <v>119.523</v>
       </c>
       <c r="D509" t="s">
         <v>608</v>
@@ -10868,10 +10868,10 @@
         <v>513</v>
       </c>
       <c r="B510" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C510">
-        <v>102.432</v>
+        <v>106.284</v>
       </c>
       <c r="D510" t="s">
         <v>608</v>
@@ -10888,7 +10888,7 @@
         <v>607</v>
       </c>
       <c r="C511">
-        <v>102.145</v>
+        <v>87.13</v>
       </c>
       <c r="D511" t="s">
         <v>608</v>
@@ -10902,10 +10902,10 @@
         <v>515</v>
       </c>
       <c r="B512" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C512">
-        <v>125.323</v>
+        <v>130.39</v>
       </c>
       <c r="D512" t="s">
         <v>608</v>
@@ -10919,10 +10919,10 @@
         <v>516</v>
       </c>
       <c r="B513" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C513">
-        <v>105.945</v>
+        <v>107.802</v>
       </c>
       <c r="D513" t="s">
         <v>608</v>
@@ -10936,10 +10936,10 @@
         <v>517</v>
       </c>
       <c r="B514" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C514">
-        <v>170.968</v>
+        <v>160.15</v>
       </c>
       <c r="D514" t="s">
         <v>608</v>
@@ -10953,10 +10953,10 @@
         <v>518</v>
       </c>
       <c r="B515" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C515">
-        <v>131.636</v>
+        <v>155.859</v>
       </c>
       <c r="D515" t="s">
         <v>608</v>
@@ -10973,7 +10973,7 @@
         <v>606</v>
       </c>
       <c r="C516">
-        <v>99.235</v>
+        <v>106.632</v>
       </c>
       <c r="D516" t="s">
         <v>608</v>
@@ -10990,7 +10990,7 @@
         <v>606</v>
       </c>
       <c r="C517">
-        <v>99.254</v>
+        <v>101.918</v>
       </c>
       <c r="D517" t="s">
         <v>608</v>
@@ -11004,10 +11004,10 @@
         <v>521</v>
       </c>
       <c r="B518" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C518">
-        <v>101.549</v>
+        <v>115.515</v>
       </c>
       <c r="D518" t="s">
         <v>608</v>
@@ -11021,10 +11021,10 @@
         <v>522</v>
       </c>
       <c r="B519" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C519">
-        <v>116.97</v>
+        <v>131.707</v>
       </c>
       <c r="D519" t="s">
         <v>608</v>
@@ -11041,7 +11041,7 @@
         <v>606</v>
       </c>
       <c r="C520">
-        <v>90.205</v>
+        <v>101.593</v>
       </c>
       <c r="D520" t="s">
         <v>608</v>
@@ -11055,10 +11055,10 @@
         <v>524</v>
       </c>
       <c r="B521" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C521">
-        <v>79.48</v>
+        <v>89.956</v>
       </c>
       <c r="D521" t="s">
         <v>608</v>
@@ -11072,10 +11072,10 @@
         <v>525</v>
       </c>
       <c r="B522" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C522">
-        <v>101.556</v>
+        <v>102.028</v>
       </c>
       <c r="D522" t="s">
         <v>608</v>
@@ -11089,10 +11089,10 @@
         <v>234</v>
       </c>
       <c r="B523" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C523">
-        <v>110.639</v>
+        <v>106.347</v>
       </c>
       <c r="D523" t="s">
         <v>608</v>
@@ -11106,10 +11106,10 @@
         <v>526</v>
       </c>
       <c r="B524" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C524">
-        <v>91.82899999999999</v>
+        <v>91.474</v>
       </c>
       <c r="D524" t="s">
         <v>608</v>
@@ -11123,10 +11123,10 @@
         <v>527</v>
       </c>
       <c r="B525" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C525">
-        <v>100.32</v>
+        <v>111.726</v>
       </c>
       <c r="D525" t="s">
         <v>608</v>
@@ -11140,10 +11140,10 @@
         <v>528</v>
       </c>
       <c r="B526" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C526">
-        <v>80.093</v>
+        <v>85.136</v>
       </c>
       <c r="D526" t="s">
         <v>608</v>
@@ -11157,10 +11157,10 @@
         <v>529</v>
       </c>
       <c r="B527" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C527">
-        <v>79.307</v>
+        <v>82.702</v>
       </c>
       <c r="D527" t="s">
         <v>608</v>
@@ -11174,10 +11174,10 @@
         <v>530</v>
       </c>
       <c r="B528" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C528">
-        <v>67.973</v>
+        <v>70.47499999999999</v>
       </c>
       <c r="D528" t="s">
         <v>608</v>
@@ -11191,10 +11191,10 @@
         <v>531</v>
       </c>
       <c r="B529" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C529">
-        <v>86.43600000000001</v>
+        <v>85.075</v>
       </c>
       <c r="D529" t="s">
         <v>608</v>
@@ -11208,10 +11208,10 @@
         <v>532</v>
       </c>
       <c r="B530" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C530">
-        <v>131.279</v>
+        <v>128.556</v>
       </c>
       <c r="D530" t="s">
         <v>608</v>
@@ -11225,10 +11225,10 @@
         <v>533</v>
       </c>
       <c r="B531" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C531">
-        <v>128.039</v>
+        <v>137.471</v>
       </c>
       <c r="D531" t="s">
         <v>608</v>
@@ -11242,10 +11242,10 @@
         <v>534</v>
       </c>
       <c r="B532" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C532">
-        <v>131.739</v>
+        <v>136.889</v>
       </c>
       <c r="D532" t="s">
         <v>608</v>
@@ -11259,10 +11259,10 @@
         <v>535</v>
       </c>
       <c r="B533" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C533">
-        <v>114.488</v>
+        <v>121.091</v>
       </c>
       <c r="D533" t="s">
         <v>608</v>
@@ -11276,10 +11276,10 @@
         <v>536</v>
       </c>
       <c r="B534" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C534">
-        <v>109.803</v>
+        <v>110.738</v>
       </c>
       <c r="D534" t="s">
         <v>608</v>
@@ -11293,10 +11293,10 @@
         <v>537</v>
       </c>
       <c r="B535" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C535">
-        <v>99.40600000000001</v>
+        <v>97.642</v>
       </c>
       <c r="D535" t="s">
         <v>608</v>
@@ -11310,10 +11310,10 @@
         <v>538</v>
       </c>
       <c r="B536" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C536">
-        <v>101.548</v>
+        <v>100.495</v>
       </c>
       <c r="D536" t="s">
         <v>608</v>
@@ -11327,10 +11327,10 @@
         <v>539</v>
       </c>
       <c r="B537" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C537">
-        <v>108.16</v>
+        <v>109.948</v>
       </c>
       <c r="D537" t="s">
         <v>608</v>
@@ -11344,10 +11344,10 @@
         <v>540</v>
       </c>
       <c r="B538" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C538">
-        <v>90.514</v>
+        <v>94.405</v>
       </c>
       <c r="D538" t="s">
         <v>608</v>
@@ -11364,7 +11364,7 @@
         <v>606</v>
       </c>
       <c r="C539">
-        <v>98.61499999999999</v>
+        <v>100.153</v>
       </c>
       <c r="D539" t="s">
         <v>608</v>
@@ -11378,10 +11378,10 @@
         <v>541</v>
       </c>
       <c r="B540" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C540">
-        <v>80.605</v>
+        <v>80.843</v>
       </c>
       <c r="D540" t="s">
         <v>608</v>
@@ -11395,10 +11395,10 @@
         <v>542</v>
       </c>
       <c r="B541" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C541">
-        <v>106.441</v>
+        <v>106.452</v>
       </c>
       <c r="D541" t="s">
         <v>608</v>
@@ -11412,10 +11412,10 @@
         <v>543</v>
       </c>
       <c r="B542" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C542">
-        <v>100.654</v>
+        <v>100.824</v>
       </c>
       <c r="D542" t="s">
         <v>608</v>
@@ -11429,10 +11429,10 @@
         <v>544</v>
       </c>
       <c r="B543" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C543">
-        <v>101.192</v>
+        <v>104.007</v>
       </c>
       <c r="D543" t="s">
         <v>608</v>
@@ -11446,10 +11446,10 @@
         <v>545</v>
       </c>
       <c r="B544" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C544">
-        <v>99.94199999999999</v>
+        <v>98.834</v>
       </c>
       <c r="D544" t="s">
         <v>608</v>
@@ -11463,10 +11463,10 @@
         <v>546</v>
       </c>
       <c r="B545" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C545">
-        <v>106.519</v>
+        <v>104.179</v>
       </c>
       <c r="D545" t="s">
         <v>608</v>
@@ -11480,10 +11480,10 @@
         <v>547</v>
       </c>
       <c r="B546" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C546">
-        <v>101.621</v>
+        <v>101.514</v>
       </c>
       <c r="D546" t="s">
         <v>608</v>
@@ -11497,10 +11497,10 @@
         <v>548</v>
       </c>
       <c r="B547" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C547">
-        <v>102.044</v>
+        <v>106.824</v>
       </c>
       <c r="D547" t="s">
         <v>608</v>
@@ -11514,10 +11514,10 @@
         <v>549</v>
       </c>
       <c r="B548" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C548">
-        <v>92.304</v>
+        <v>93.658</v>
       </c>
       <c r="D548" t="s">
         <v>608</v>
@@ -11531,10 +11531,10 @@
         <v>550</v>
       </c>
       <c r="B549" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C549">
-        <v>98.69</v>
+        <v>99.10599999999999</v>
       </c>
       <c r="D549" t="s">
         <v>608</v>
@@ -11548,10 +11548,10 @@
         <v>551</v>
       </c>
       <c r="B550" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C550">
-        <v>99.947</v>
+        <v>99.28</v>
       </c>
       <c r="D550" t="s">
         <v>608</v>
@@ -11568,7 +11568,7 @@
         <v>607</v>
       </c>
       <c r="C551">
-        <v>100.317</v>
+        <v>99.682</v>
       </c>
       <c r="D551" t="s">
         <v>608</v>
@@ -11582,10 +11582,10 @@
         <v>553</v>
       </c>
       <c r="B552" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C552">
-        <v>98.499</v>
+        <v>99.41</v>
       </c>
       <c r="D552" t="s">
         <v>608</v>
@@ -11599,10 +11599,10 @@
         <v>554</v>
       </c>
       <c r="B553" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C553">
-        <v>93.26600000000001</v>
+        <v>95.014</v>
       </c>
       <c r="D553" t="s">
         <v>608</v>
@@ -11616,10 +11616,10 @@
         <v>555</v>
       </c>
       <c r="B554" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C554">
-        <v>109.115</v>
+        <v>108.131</v>
       </c>
       <c r="D554" t="s">
         <v>608</v>
@@ -11633,10 +11633,10 @@
         <v>556</v>
       </c>
       <c r="B555" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C555">
-        <v>90.90900000000001</v>
+        <v>86.95699999999999</v>
       </c>
       <c r="D555" t="s">
         <v>608</v>
@@ -11650,10 +11650,10 @@
         <v>557</v>
       </c>
       <c r="B556" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C556">
-        <v>100</v>
+        <v>101.638</v>
       </c>
       <c r="D556" t="s">
         <v>608</v>
@@ -11670,7 +11670,7 @@
         <v>607</v>
       </c>
       <c r="C557">
-        <v>100.068</v>
+        <v>99.482</v>
       </c>
       <c r="D557" t="s">
         <v>608</v>
@@ -11684,10 +11684,10 @@
         <v>559</v>
       </c>
       <c r="B558" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C558">
-        <v>103.115</v>
+        <v>100.184</v>
       </c>
       <c r="D558" t="s">
         <v>608</v>
@@ -11701,10 +11701,10 @@
         <v>560</v>
       </c>
       <c r="B559" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C559">
-        <v>97.702</v>
+        <v>98.089</v>
       </c>
       <c r="D559" t="s">
         <v>608</v>
@@ -11718,10 +11718,10 @@
         <v>561</v>
       </c>
       <c r="B560" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C560">
-        <v>94.90300000000001</v>
+        <v>96.232</v>
       </c>
       <c r="D560" t="s">
         <v>608</v>
@@ -11735,10 +11735,10 @@
         <v>562</v>
       </c>
       <c r="B561" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C561">
-        <v>109.417</v>
+        <v>108.81</v>
       </c>
       <c r="D561" t="s">
         <v>608</v>
@@ -11752,10 +11752,10 @@
         <v>563</v>
       </c>
       <c r="B562" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C562">
-        <v>96.346</v>
+        <v>96.745</v>
       </c>
       <c r="D562" t="s">
         <v>608</v>
@@ -11769,10 +11769,10 @@
         <v>564</v>
       </c>
       <c r="B563" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C563">
-        <v>97.11499999999999</v>
+        <v>98.53700000000001</v>
       </c>
       <c r="D563" t="s">
         <v>608</v>
@@ -11786,10 +11786,10 @@
         <v>565</v>
       </c>
       <c r="B564" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C564">
-        <v>95.256</v>
+        <v>93.15900000000001</v>
       </c>
       <c r="D564" t="s">
         <v>608</v>
@@ -11803,10 +11803,10 @@
         <v>566</v>
       </c>
       <c r="B565" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C565">
-        <v>99.5</v>
+        <v>98.414</v>
       </c>
       <c r="D565" t="s">
         <v>608</v>
@@ -11820,10 +11820,10 @@
         <v>567</v>
       </c>
       <c r="B566" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C566">
-        <v>94.685</v>
+        <v>97.446</v>
       </c>
       <c r="D566" t="s">
         <v>608</v>
@@ -11837,10 +11837,10 @@
         <v>568</v>
       </c>
       <c r="B567" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C567">
-        <v>107.747</v>
+        <v>108.847</v>
       </c>
       <c r="D567" t="s">
         <v>608</v>
@@ -11854,10 +11854,10 @@
         <v>569</v>
       </c>
       <c r="B568" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C568">
-        <v>110.598</v>
+        <v>112.065</v>
       </c>
       <c r="D568" t="s">
         <v>608</v>
@@ -11871,10 +11871,10 @@
         <v>570</v>
       </c>
       <c r="B569" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C569">
-        <v>104.669</v>
+        <v>105.743</v>
       </c>
       <c r="D569" t="s">
         <v>608</v>
@@ -11888,10 +11888,10 @@
         <v>571</v>
       </c>
       <c r="B570" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C570">
-        <v>104.309</v>
+        <v>105.822</v>
       </c>
       <c r="D570" t="s">
         <v>608</v>
@@ -11905,10 +11905,10 @@
         <v>572</v>
       </c>
       <c r="B571" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C571">
-        <v>95.006</v>
+        <v>97.837</v>
       </c>
       <c r="D571" t="s">
         <v>608</v>
@@ -11922,10 +11922,10 @@
         <v>573</v>
       </c>
       <c r="B572" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C572">
-        <v>92.995</v>
+        <v>95.453</v>
       </c>
       <c r="D572" t="s">
         <v>608</v>
@@ -11939,10 +11939,10 @@
         <v>574</v>
       </c>
       <c r="B573" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C573">
-        <v>101.794</v>
+        <v>100.388</v>
       </c>
       <c r="D573" t="s">
         <v>608</v>
@@ -11956,10 +11956,10 @@
         <v>575</v>
       </c>
       <c r="B574" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C574">
-        <v>107.721</v>
+        <v>108.146</v>
       </c>
       <c r="D574" t="s">
         <v>608</v>
@@ -11973,10 +11973,10 @@
         <v>576</v>
       </c>
       <c r="B575" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C575">
-        <v>105.681</v>
+        <v>104.987</v>
       </c>
       <c r="D575" t="s">
         <v>608</v>
@@ -11990,10 +11990,10 @@
         <v>577</v>
       </c>
       <c r="B576" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C576">
-        <v>100.86</v>
+        <v>102.079</v>
       </c>
       <c r="D576" t="s">
         <v>608</v>
@@ -12007,10 +12007,10 @@
         <v>578</v>
       </c>
       <c r="B577" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C577">
-        <v>103.018</v>
+        <v>101.262</v>
       </c>
       <c r="D577" t="s">
         <v>608</v>
@@ -12024,10 +12024,10 @@
         <v>579</v>
       </c>
       <c r="B578" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C578">
-        <v>108.412</v>
+        <v>108.495</v>
       </c>
       <c r="D578" t="s">
         <v>608</v>
@@ -12041,10 +12041,10 @@
         <v>580</v>
       </c>
       <c r="B579" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C579">
-        <v>92.65300000000001</v>
+        <v>93.021</v>
       </c>
       <c r="D579" t="s">
         <v>608</v>
@@ -12058,10 +12058,10 @@
         <v>581</v>
       </c>
       <c r="B580" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C580">
-        <v>96.837</v>
+        <v>96.30500000000001</v>
       </c>
       <c r="D580" t="s">
         <v>608</v>
@@ -12075,10 +12075,10 @@
         <v>582</v>
       </c>
       <c r="B581" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C581">
-        <v>106.067</v>
+        <v>106.895</v>
       </c>
       <c r="D581" t="s">
         <v>608</v>
@@ -12092,10 +12092,10 @@
         <v>583</v>
       </c>
       <c r="B582" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C582">
-        <v>111.93</v>
+        <v>111.932</v>
       </c>
       <c r="D582" t="s">
         <v>608</v>
@@ -12112,7 +12112,7 @@
         <v>606</v>
       </c>
       <c r="C583">
-        <v>99.39100000000001</v>
+        <v>100.554</v>
       </c>
       <c r="D583" t="s">
         <v>608</v>
@@ -12126,10 +12126,10 @@
         <v>585</v>
       </c>
       <c r="B584" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C584">
-        <v>101.798</v>
+        <v>101.978</v>
       </c>
       <c r="D584" t="s">
         <v>608</v>
@@ -12143,10 +12143,10 @@
         <v>586</v>
       </c>
       <c r="B585" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C585">
-        <v>96.435</v>
+        <v>95.899</v>
       </c>
       <c r="D585" t="s">
         <v>608</v>
@@ -12160,10 +12160,10 @@
         <v>587</v>
       </c>
       <c r="B586" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C586">
-        <v>107.121</v>
+        <v>113.046</v>
       </c>
       <c r="D586" t="s">
         <v>608</v>
@@ -12177,10 +12177,10 @@
         <v>588</v>
       </c>
       <c r="B587" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C587">
-        <v>114.419</v>
+        <v>115.272</v>
       </c>
       <c r="D587" t="s">
         <v>608</v>
@@ -12194,10 +12194,10 @@
         <v>589</v>
       </c>
       <c r="B588" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C588">
-        <v>103.454</v>
+        <v>104.149</v>
       </c>
       <c r="D588" t="s">
         <v>608</v>
@@ -12211,10 +12211,10 @@
         <v>590</v>
       </c>
       <c r="B589" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C589">
-        <v>114.001</v>
+        <v>114.225</v>
       </c>
       <c r="D589" t="s">
         <v>608</v>
@@ -12228,10 +12228,10 @@
         <v>591</v>
       </c>
       <c r="B590" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C590">
-        <v>101.26</v>
+        <v>100.638</v>
       </c>
       <c r="D590" t="s">
         <v>608</v>
@@ -12245,10 +12245,10 @@
         <v>592</v>
       </c>
       <c r="B591" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C591">
-        <v>94.008</v>
+        <v>95.07899999999999</v>
       </c>
       <c r="D591" t="s">
         <v>608</v>
@@ -12262,10 +12262,10 @@
         <v>593</v>
       </c>
       <c r="B592" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C592">
-        <v>103.389</v>
+        <v>104.85</v>
       </c>
       <c r="D592" t="s">
         <v>608</v>
@@ -12279,10 +12279,10 @@
         <v>594</v>
       </c>
       <c r="B593" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C593">
-        <v>91.072</v>
+        <v>91.17</v>
       </c>
       <c r="D593" t="s">
         <v>608</v>
@@ -12296,10 +12296,10 @@
         <v>595</v>
       </c>
       <c r="B594" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C594">
-        <v>94.70099999999999</v>
+        <v>95.011</v>
       </c>
       <c r="D594" t="s">
         <v>608</v>
@@ -12313,10 +12313,10 @@
         <v>596</v>
       </c>
       <c r="B595" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C595">
-        <v>105.997</v>
+        <v>104.402</v>
       </c>
       <c r="D595" t="s">
         <v>608</v>
@@ -12330,10 +12330,10 @@
         <v>597</v>
       </c>
       <c r="B596" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C596">
-        <v>103.989</v>
+        <v>104.586</v>
       </c>
       <c r="D596" t="s">
         <v>608</v>
@@ -12350,7 +12350,7 @@
         <v>607</v>
       </c>
       <c r="C597">
-        <v>100.638</v>
+        <v>98.84099999999999</v>
       </c>
       <c r="D597" t="s">
         <v>608</v>
@@ -12364,10 +12364,10 @@
         <v>599</v>
       </c>
       <c r="B598" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C598">
-        <v>117.94</v>
+        <v>121.73</v>
       </c>
       <c r="D598" t="s">
         <v>608</v>
@@ -12381,10 +12381,10 @@
         <v>600</v>
       </c>
       <c r="B599" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C599">
-        <v>99.31</v>
+        <v>98.8</v>
       </c>
       <c r="D599" t="s">
         <v>608</v>
@@ -12398,10 +12398,10 @@
         <v>601</v>
       </c>
       <c r="B600" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C600">
-        <v>105.93</v>
+        <v>106.915</v>
       </c>
       <c r="D600" t="s">
         <v>608</v>
@@ -12415,10 +12415,10 @@
         <v>602</v>
       </c>
       <c r="B601" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C601">
-        <v>104.789</v>
+        <v>109.283</v>
       </c>
       <c r="D601" t="s">
         <v>608</v>
@@ -12432,10 +12432,10 @@
         <v>603</v>
       </c>
       <c r="B602" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C602">
-        <v>105.964</v>
+        <v>109.254</v>
       </c>
       <c r="D602" t="s">
         <v>608</v>
@@ -12449,10 +12449,10 @@
         <v>604</v>
       </c>
       <c r="B603" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C603">
-        <v>102.218</v>
+        <v>103.356</v>
       </c>
       <c r="D603" t="s">
         <v>608</v>
@@ -12466,10 +12466,10 @@
         <v>605</v>
       </c>
       <c r="B604" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C604">
-        <v>102.238</v>
+        <v>108.668</v>
       </c>
       <c r="D604" t="s">
         <v>608</v>

--- a/generated_reports/tradfi_momentum.xlsx
+++ b/generated_reports/tradfi_momentum.xlsx
@@ -2235,7 +2235,7 @@
         <v>606</v>
       </c>
       <c r="C2">
-        <v>100.083</v>
+        <v>103.365</v>
       </c>
       <c r="D2" t="s">
         <v>608</v>
@@ -2252,7 +2252,7 @@
         <v>606</v>
       </c>
       <c r="C3">
-        <v>102.631</v>
+        <v>105.372</v>
       </c>
       <c r="D3" t="s">
         <v>608</v>
@@ -2269,7 +2269,7 @@
         <v>606</v>
       </c>
       <c r="C4">
-        <v>114.083</v>
+        <v>122.555</v>
       </c>
       <c r="D4" t="s">
         <v>608</v>
@@ -2286,7 +2286,7 @@
         <v>607</v>
       </c>
       <c r="C5">
-        <v>92.268</v>
+        <v>93.116</v>
       </c>
       <c r="D5" t="s">
         <v>608</v>
@@ -2300,10 +2300,10 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C6">
-        <v>88.294</v>
+        <v>108.159</v>
       </c>
       <c r="D6" t="s">
         <v>608</v>
@@ -2320,7 +2320,7 @@
         <v>606</v>
       </c>
       <c r="C7">
-        <v>101.547</v>
+        <v>101.189</v>
       </c>
       <c r="D7" t="s">
         <v>608</v>
@@ -2337,7 +2337,7 @@
         <v>606</v>
       </c>
       <c r="C8">
-        <v>111.144</v>
+        <v>117.109</v>
       </c>
       <c r="D8" t="s">
         <v>608</v>
@@ -2354,7 +2354,7 @@
         <v>607</v>
       </c>
       <c r="C9">
-        <v>89.46599999999999</v>
+        <v>98.622</v>
       </c>
       <c r="D9" t="s">
         <v>608</v>
@@ -2371,7 +2371,7 @@
         <v>606</v>
       </c>
       <c r="C10">
-        <v>118.721</v>
+        <v>117.61</v>
       </c>
       <c r="D10" t="s">
         <v>608</v>
@@ -2388,7 +2388,7 @@
         <v>606</v>
       </c>
       <c r="C11">
-        <v>108.198</v>
+        <v>107.77</v>
       </c>
       <c r="D11" t="s">
         <v>608</v>
@@ -2402,10 +2402,10 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C12">
-        <v>100.134</v>
+        <v>98.06699999999999</v>
       </c>
       <c r="D12" t="s">
         <v>608</v>
@@ -2422,7 +2422,7 @@
         <v>606</v>
       </c>
       <c r="C13">
-        <v>108.111</v>
+        <v>109.784</v>
       </c>
       <c r="D13" t="s">
         <v>608</v>
@@ -2439,7 +2439,7 @@
         <v>606</v>
       </c>
       <c r="C14">
-        <v>115.475</v>
+        <v>117.638</v>
       </c>
       <c r="D14" t="s">
         <v>608</v>
@@ -2456,7 +2456,7 @@
         <v>606</v>
       </c>
       <c r="C15">
-        <v>100.476</v>
+        <v>101.628</v>
       </c>
       <c r="D15" t="s">
         <v>608</v>
@@ -2473,7 +2473,7 @@
         <v>606</v>
       </c>
       <c r="C16">
-        <v>106.851</v>
+        <v>104.109</v>
       </c>
       <c r="D16" t="s">
         <v>608</v>
@@ -2490,7 +2490,7 @@
         <v>606</v>
       </c>
       <c r="C17">
-        <v>114.765</v>
+        <v>115.229</v>
       </c>
       <c r="D17" t="s">
         <v>608</v>
@@ -2507,7 +2507,7 @@
         <v>606</v>
       </c>
       <c r="C18">
-        <v>109.118</v>
+        <v>111.258</v>
       </c>
       <c r="D18" t="s">
         <v>608</v>
@@ -2524,7 +2524,7 @@
         <v>606</v>
       </c>
       <c r="C19">
-        <v>108.543</v>
+        <v>112.936</v>
       </c>
       <c r="D19" t="s">
         <v>608</v>
@@ -2541,7 +2541,7 @@
         <v>606</v>
       </c>
       <c r="C20">
-        <v>104.327</v>
+        <v>105.023</v>
       </c>
       <c r="D20" t="s">
         <v>608</v>
@@ -2558,7 +2558,7 @@
         <v>606</v>
       </c>
       <c r="C21">
-        <v>105.768</v>
+        <v>106.112</v>
       </c>
       <c r="D21" t="s">
         <v>608</v>
@@ -2575,7 +2575,7 @@
         <v>606</v>
       </c>
       <c r="C22">
-        <v>107.175</v>
+        <v>106.65</v>
       </c>
       <c r="D22" t="s">
         <v>608</v>
@@ -2592,7 +2592,7 @@
         <v>606</v>
       </c>
       <c r="C23">
-        <v>101.492</v>
+        <v>104.905</v>
       </c>
       <c r="D23" t="s">
         <v>608</v>
@@ -2609,7 +2609,7 @@
         <v>607</v>
       </c>
       <c r="C24">
-        <v>95.824</v>
+        <v>95.223</v>
       </c>
       <c r="D24" t="s">
         <v>608</v>
@@ -2626,7 +2626,7 @@
         <v>606</v>
       </c>
       <c r="C25">
-        <v>108.439</v>
+        <v>105.961</v>
       </c>
       <c r="D25" t="s">
         <v>608</v>
@@ -2643,7 +2643,7 @@
         <v>606</v>
       </c>
       <c r="C26">
-        <v>110.496</v>
+        <v>113.98</v>
       </c>
       <c r="D26" t="s">
         <v>608</v>
@@ -2660,7 +2660,7 @@
         <v>606</v>
       </c>
       <c r="C27">
-        <v>105.541</v>
+        <v>102.223</v>
       </c>
       <c r="D27" t="s">
         <v>608</v>
@@ -2677,7 +2677,7 @@
         <v>606</v>
       </c>
       <c r="C28">
-        <v>103.957</v>
+        <v>101.989</v>
       </c>
       <c r="D28" t="s">
         <v>608</v>
@@ -2694,7 +2694,7 @@
         <v>606</v>
       </c>
       <c r="C29">
-        <v>108.014</v>
+        <v>110.421</v>
       </c>
       <c r="D29" t="s">
         <v>608</v>
@@ -2711,7 +2711,7 @@
         <v>606</v>
       </c>
       <c r="C30">
-        <v>103.266</v>
+        <v>102.894</v>
       </c>
       <c r="D30" t="s">
         <v>608</v>
@@ -2728,7 +2728,7 @@
         <v>607</v>
       </c>
       <c r="C31">
-        <v>96.43899999999999</v>
+        <v>97.134</v>
       </c>
       <c r="D31" t="s">
         <v>608</v>
@@ -2745,7 +2745,7 @@
         <v>606</v>
       </c>
       <c r="C32">
-        <v>113.115</v>
+        <v>104.02</v>
       </c>
       <c r="D32" t="s">
         <v>608</v>
@@ -2762,7 +2762,7 @@
         <v>606</v>
       </c>
       <c r="C33">
-        <v>108.941</v>
+        <v>104.478</v>
       </c>
       <c r="D33" t="s">
         <v>608</v>
@@ -2779,7 +2779,7 @@
         <v>607</v>
       </c>
       <c r="C34">
-        <v>85.43899999999999</v>
+        <v>85.62</v>
       </c>
       <c r="D34" t="s">
         <v>608</v>
@@ -2796,7 +2796,7 @@
         <v>607</v>
       </c>
       <c r="C35">
-        <v>98.38500000000001</v>
+        <v>97.69799999999999</v>
       </c>
       <c r="D35" t="s">
         <v>608</v>
@@ -2813,7 +2813,7 @@
         <v>606</v>
       </c>
       <c r="C36">
-        <v>109.173</v>
+        <v>111.944</v>
       </c>
       <c r="D36" t="s">
         <v>608</v>
@@ -2830,7 +2830,7 @@
         <v>606</v>
       </c>
       <c r="C37">
-        <v>101.67</v>
+        <v>101.434</v>
       </c>
       <c r="D37" t="s">
         <v>608</v>
@@ -2847,7 +2847,7 @@
         <v>606</v>
       </c>
       <c r="C38">
-        <v>100.461</v>
+        <v>100.661</v>
       </c>
       <c r="D38" t="s">
         <v>608</v>
@@ -2864,7 +2864,7 @@
         <v>606</v>
       </c>
       <c r="C39">
-        <v>108.307</v>
+        <v>109.503</v>
       </c>
       <c r="D39" t="s">
         <v>608</v>
@@ -2881,7 +2881,7 @@
         <v>607</v>
       </c>
       <c r="C40">
-        <v>98.673</v>
+        <v>98.22499999999999</v>
       </c>
       <c r="D40" t="s">
         <v>608</v>
@@ -2898,7 +2898,7 @@
         <v>606</v>
       </c>
       <c r="C41">
-        <v>102.366</v>
+        <v>104.348</v>
       </c>
       <c r="D41" t="s">
         <v>608</v>
@@ -2915,7 +2915,7 @@
         <v>606</v>
       </c>
       <c r="C42">
-        <v>112.314</v>
+        <v>117.355</v>
       </c>
       <c r="D42" t="s">
         <v>608</v>
@@ -2932,7 +2932,7 @@
         <v>606</v>
       </c>
       <c r="C43">
-        <v>103.494</v>
+        <v>103.084</v>
       </c>
       <c r="D43" t="s">
         <v>608</v>
@@ -2949,7 +2949,7 @@
         <v>606</v>
       </c>
       <c r="C44">
-        <v>110.339</v>
+        <v>111.596</v>
       </c>
       <c r="D44" t="s">
         <v>608</v>
@@ -2966,7 +2966,7 @@
         <v>606</v>
       </c>
       <c r="C45">
-        <v>102.01</v>
+        <v>103.565</v>
       </c>
       <c r="D45" t="s">
         <v>608</v>
@@ -2983,7 +2983,7 @@
         <v>607</v>
       </c>
       <c r="C46">
-        <v>94.339</v>
+        <v>96.846</v>
       </c>
       <c r="D46" t="s">
         <v>608</v>
@@ -3000,7 +3000,7 @@
         <v>607</v>
       </c>
       <c r="C47">
-        <v>98.024</v>
+        <v>95.81</v>
       </c>
       <c r="D47" t="s">
         <v>608</v>
@@ -3017,7 +3017,7 @@
         <v>606</v>
       </c>
       <c r="C48">
-        <v>104.879</v>
+        <v>100.411</v>
       </c>
       <c r="D48" t="s">
         <v>608</v>
@@ -3034,7 +3034,7 @@
         <v>606</v>
       </c>
       <c r="C49">
-        <v>100.657</v>
+        <v>101.493</v>
       </c>
       <c r="D49" t="s">
         <v>608</v>
@@ -3051,7 +3051,7 @@
         <v>606</v>
       </c>
       <c r="C50">
-        <v>104.013</v>
+        <v>102.189</v>
       </c>
       <c r="D50" t="s">
         <v>608</v>
@@ -3068,7 +3068,7 @@
         <v>606</v>
       </c>
       <c r="C51">
-        <v>108.425</v>
+        <v>108.598</v>
       </c>
       <c r="D51" t="s">
         <v>608</v>
@@ -3085,7 +3085,7 @@
         <v>606</v>
       </c>
       <c r="C52">
-        <v>109.969</v>
+        <v>113.539</v>
       </c>
       <c r="D52" t="s">
         <v>608</v>
@@ -3102,7 +3102,7 @@
         <v>607</v>
       </c>
       <c r="C53">
-        <v>91.922</v>
+        <v>93.764</v>
       </c>
       <c r="D53" t="s">
         <v>608</v>
@@ -3116,10 +3116,10 @@
         <v>57</v>
       </c>
       <c r="B54" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C54">
-        <v>101.629</v>
+        <v>99.492</v>
       </c>
       <c r="D54" t="s">
         <v>608</v>
@@ -3136,7 +3136,7 @@
         <v>606</v>
       </c>
       <c r="C55">
-        <v>100.47</v>
+        <v>104.294</v>
       </c>
       <c r="D55" t="s">
         <v>608</v>
@@ -3153,7 +3153,7 @@
         <v>606</v>
       </c>
       <c r="C56">
-        <v>113.143</v>
+        <v>113.469</v>
       </c>
       <c r="D56" t="s">
         <v>608</v>
@@ -3170,7 +3170,7 @@
         <v>606</v>
       </c>
       <c r="C57">
-        <v>101.675</v>
+        <v>105.473</v>
       </c>
       <c r="D57" t="s">
         <v>608</v>
@@ -3187,7 +3187,7 @@
         <v>607</v>
       </c>
       <c r="C58">
-        <v>99.599</v>
+        <v>98.17100000000001</v>
       </c>
       <c r="D58" t="s">
         <v>608</v>
@@ -3204,7 +3204,7 @@
         <v>606</v>
       </c>
       <c r="C59">
-        <v>107.093</v>
+        <v>104.576</v>
       </c>
       <c r="D59" t="s">
         <v>608</v>
@@ -3221,7 +3221,7 @@
         <v>606</v>
       </c>
       <c r="C60">
-        <v>103.364</v>
+        <v>101.822</v>
       </c>
       <c r="D60" t="s">
         <v>608</v>
@@ -3238,7 +3238,7 @@
         <v>607</v>
       </c>
       <c r="C61">
-        <v>97.246</v>
+        <v>89.104</v>
       </c>
       <c r="D61" t="s">
         <v>608</v>
@@ -3255,7 +3255,7 @@
         <v>606</v>
       </c>
       <c r="C62">
-        <v>105.573</v>
+        <v>103.44</v>
       </c>
       <c r="D62" t="s">
         <v>608</v>
@@ -3272,7 +3272,7 @@
         <v>606</v>
       </c>
       <c r="C63">
-        <v>106.332</v>
+        <v>107.583</v>
       </c>
       <c r="D63" t="s">
         <v>608</v>
@@ -3289,7 +3289,7 @@
         <v>606</v>
       </c>
       <c r="C64">
-        <v>103.006</v>
+        <v>105.9</v>
       </c>
       <c r="D64" t="s">
         <v>608</v>
@@ -3306,7 +3306,7 @@
         <v>607</v>
       </c>
       <c r="C65">
-        <v>90.845</v>
+        <v>90.292</v>
       </c>
       <c r="D65" t="s">
         <v>608</v>
@@ -3323,7 +3323,7 @@
         <v>607</v>
       </c>
       <c r="C66">
-        <v>78.006</v>
+        <v>78.038</v>
       </c>
       <c r="D66" t="s">
         <v>608</v>
@@ -3340,7 +3340,7 @@
         <v>606</v>
       </c>
       <c r="C67">
-        <v>109.599</v>
+        <v>107.455</v>
       </c>
       <c r="D67" t="s">
         <v>608</v>
@@ -3357,7 +3357,7 @@
         <v>606</v>
       </c>
       <c r="C68">
-        <v>108.567</v>
+        <v>104.69</v>
       </c>
       <c r="D68" t="s">
         <v>608</v>
@@ -3374,7 +3374,7 @@
         <v>606</v>
       </c>
       <c r="C69">
-        <v>106.415</v>
+        <v>103.739</v>
       </c>
       <c r="D69" t="s">
         <v>608</v>
@@ -3391,7 +3391,7 @@
         <v>606</v>
       </c>
       <c r="C70">
-        <v>105.751</v>
+        <v>103.295</v>
       </c>
       <c r="D70" t="s">
         <v>608</v>
@@ -3408,7 +3408,7 @@
         <v>606</v>
       </c>
       <c r="C71">
-        <v>114.876</v>
+        <v>112.011</v>
       </c>
       <c r="D71" t="s">
         <v>608</v>
@@ -3425,7 +3425,7 @@
         <v>607</v>
       </c>
       <c r="C72">
-        <v>97.47</v>
+        <v>97.005</v>
       </c>
       <c r="D72" t="s">
         <v>608</v>
@@ -3442,7 +3442,7 @@
         <v>606</v>
       </c>
       <c r="C73">
-        <v>110.374</v>
+        <v>113.002</v>
       </c>
       <c r="D73" t="s">
         <v>608</v>
@@ -3459,7 +3459,7 @@
         <v>606</v>
       </c>
       <c r="C74">
-        <v>100.679</v>
+        <v>101.894</v>
       </c>
       <c r="D74" t="s">
         <v>608</v>
@@ -3476,7 +3476,7 @@
         <v>606</v>
       </c>
       <c r="C75">
-        <v>107.123</v>
+        <v>106.984</v>
       </c>
       <c r="D75" t="s">
         <v>608</v>
@@ -3493,7 +3493,7 @@
         <v>606</v>
       </c>
       <c r="C76">
-        <v>104.21</v>
+        <v>102.99</v>
       </c>
       <c r="D76" t="s">
         <v>608</v>
@@ -3510,7 +3510,7 @@
         <v>606</v>
       </c>
       <c r="C77">
-        <v>109.944</v>
+        <v>117.368</v>
       </c>
       <c r="D77" t="s">
         <v>608</v>
@@ -3527,7 +3527,7 @@
         <v>606</v>
       </c>
       <c r="C78">
-        <v>112.823</v>
+        <v>112.342</v>
       </c>
       <c r="D78" t="s">
         <v>608</v>
@@ -3541,10 +3541,10 @@
         <v>82</v>
       </c>
       <c r="B79" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C79">
-        <v>99.501</v>
+        <v>106.997</v>
       </c>
       <c r="D79" t="s">
         <v>608</v>
@@ -3561,7 +3561,7 @@
         <v>606</v>
       </c>
       <c r="C80">
-        <v>110.021</v>
+        <v>108.113</v>
       </c>
       <c r="D80" t="s">
         <v>608</v>
@@ -3575,10 +3575,10 @@
         <v>84</v>
       </c>
       <c r="B81" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C81">
-        <v>102.895</v>
+        <v>98.991</v>
       </c>
       <c r="D81" t="s">
         <v>608</v>
@@ -3595,7 +3595,7 @@
         <v>607</v>
       </c>
       <c r="C82">
-        <v>92.97499999999999</v>
+        <v>94.15000000000001</v>
       </c>
       <c r="D82" t="s">
         <v>608</v>
@@ -3609,10 +3609,10 @@
         <v>86</v>
       </c>
       <c r="B83" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C83">
-        <v>94.405</v>
+        <v>101.099</v>
       </c>
       <c r="D83" t="s">
         <v>608</v>
@@ -3629,7 +3629,7 @@
         <v>606</v>
       </c>
       <c r="C84">
-        <v>128.483</v>
+        <v>127.92</v>
       </c>
       <c r="D84" t="s">
         <v>608</v>
@@ -3646,7 +3646,7 @@
         <v>606</v>
       </c>
       <c r="C85">
-        <v>105.006</v>
+        <v>109.813</v>
       </c>
       <c r="D85" t="s">
         <v>608</v>
@@ -3663,7 +3663,7 @@
         <v>607</v>
       </c>
       <c r="C86">
-        <v>97.051</v>
+        <v>98.85599999999999</v>
       </c>
       <c r="D86" t="s">
         <v>608</v>
@@ -3680,7 +3680,7 @@
         <v>606</v>
       </c>
       <c r="C87">
-        <v>102.398</v>
+        <v>105.383</v>
       </c>
       <c r="D87" t="s">
         <v>608</v>
@@ -3697,7 +3697,7 @@
         <v>606</v>
       </c>
       <c r="C88">
-        <v>103.659</v>
+        <v>107.115</v>
       </c>
       <c r="D88" t="s">
         <v>608</v>
@@ -3714,7 +3714,7 @@
         <v>606</v>
       </c>
       <c r="C89">
-        <v>102.264</v>
+        <v>104.462</v>
       </c>
       <c r="D89" t="s">
         <v>608</v>
@@ -3731,7 +3731,7 @@
         <v>607</v>
       </c>
       <c r="C90">
-        <v>99.122</v>
+        <v>95.429</v>
       </c>
       <c r="D90" t="s">
         <v>608</v>
@@ -3748,7 +3748,7 @@
         <v>607</v>
       </c>
       <c r="C91">
-        <v>91.708</v>
+        <v>91.87</v>
       </c>
       <c r="D91" t="s">
         <v>608</v>
@@ -3765,7 +3765,7 @@
         <v>606</v>
       </c>
       <c r="C92">
-        <v>110.164</v>
+        <v>113.339</v>
       </c>
       <c r="D92" t="s">
         <v>608</v>
@@ -3782,7 +3782,7 @@
         <v>606</v>
       </c>
       <c r="C93">
-        <v>105.625</v>
+        <v>106.586</v>
       </c>
       <c r="D93" t="s">
         <v>608</v>
@@ -3799,7 +3799,7 @@
         <v>606</v>
       </c>
       <c r="C94">
-        <v>137.237</v>
+        <v>123.256</v>
       </c>
       <c r="D94" t="s">
         <v>608</v>
@@ -3816,7 +3816,7 @@
         <v>606</v>
       </c>
       <c r="C95">
-        <v>109.056</v>
+        <v>108.919</v>
       </c>
       <c r="D95" t="s">
         <v>608</v>
@@ -3833,7 +3833,7 @@
         <v>606</v>
       </c>
       <c r="C96">
-        <v>112.195</v>
+        <v>117.287</v>
       </c>
       <c r="D96" t="s">
         <v>608</v>
@@ -3847,10 +3847,10 @@
         <v>100</v>
       </c>
       <c r="B97" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C97">
-        <v>91.57299999999999</v>
+        <v>114.901</v>
       </c>
       <c r="D97" t="s">
         <v>608</v>
@@ -3867,7 +3867,7 @@
         <v>606</v>
       </c>
       <c r="C98">
-        <v>106.664</v>
+        <v>107.629</v>
       </c>
       <c r="D98" t="s">
         <v>608</v>
@@ -3884,7 +3884,7 @@
         <v>606</v>
       </c>
       <c r="C99">
-        <v>132.233</v>
+        <v>126.004</v>
       </c>
       <c r="D99" t="s">
         <v>608</v>
@@ -3901,7 +3901,7 @@
         <v>606</v>
       </c>
       <c r="C100">
-        <v>111.95</v>
+        <v>109.751</v>
       </c>
       <c r="D100" t="s">
         <v>608</v>
@@ -3918,7 +3918,7 @@
         <v>606</v>
       </c>
       <c r="C101">
-        <v>101.953</v>
+        <v>101.335</v>
       </c>
       <c r="D101" t="s">
         <v>608</v>
@@ -3932,10 +3932,10 @@
         <v>105</v>
       </c>
       <c r="B102" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C102">
-        <v>104.583</v>
+        <v>98.562</v>
       </c>
       <c r="D102" t="s">
         <v>608</v>
@@ -3952,7 +3952,7 @@
         <v>606</v>
       </c>
       <c r="C103">
-        <v>109.04</v>
+        <v>104.967</v>
       </c>
       <c r="D103" t="s">
         <v>608</v>
@@ -3969,7 +3969,7 @@
         <v>607</v>
       </c>
       <c r="C104">
-        <v>97.92400000000001</v>
+        <v>98.48999999999999</v>
       </c>
       <c r="D104" t="s">
         <v>608</v>
@@ -3983,10 +3983,10 @@
         <v>108</v>
       </c>
       <c r="B105" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C105">
-        <v>103.472</v>
+        <v>99.776</v>
       </c>
       <c r="D105" t="s">
         <v>608</v>
@@ -4003,7 +4003,7 @@
         <v>606</v>
       </c>
       <c r="C106">
-        <v>108.095</v>
+        <v>108.586</v>
       </c>
       <c r="D106" t="s">
         <v>608</v>
@@ -4020,7 +4020,7 @@
         <v>606</v>
       </c>
       <c r="C107">
-        <v>104.017</v>
+        <v>101.601</v>
       </c>
       <c r="D107" t="s">
         <v>608</v>
@@ -4037,7 +4037,7 @@
         <v>606</v>
       </c>
       <c r="C108">
-        <v>112.827</v>
+        <v>115.961</v>
       </c>
       <c r="D108" t="s">
         <v>608</v>
@@ -4054,7 +4054,7 @@
         <v>607</v>
       </c>
       <c r="C109">
-        <v>94.416</v>
+        <v>93.81999999999999</v>
       </c>
       <c r="D109" t="s">
         <v>608</v>
@@ -4068,10 +4068,10 @@
         <v>113</v>
       </c>
       <c r="B110" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C110">
-        <v>100.309</v>
+        <v>96.68300000000001</v>
       </c>
       <c r="D110" t="s">
         <v>608</v>
@@ -4088,7 +4088,7 @@
         <v>606</v>
       </c>
       <c r="C111">
-        <v>105.745</v>
+        <v>103.968</v>
       </c>
       <c r="D111" t="s">
         <v>608</v>
@@ -4102,10 +4102,10 @@
         <v>115</v>
       </c>
       <c r="B112" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C112">
-        <v>102.671</v>
+        <v>93.596</v>
       </c>
       <c r="D112" t="s">
         <v>608</v>
@@ -4122,7 +4122,7 @@
         <v>606</v>
       </c>
       <c r="C113">
-        <v>104.196</v>
+        <v>100.938</v>
       </c>
       <c r="D113" t="s">
         <v>608</v>
@@ -4139,7 +4139,7 @@
         <v>606</v>
       </c>
       <c r="C114">
-        <v>103.225</v>
+        <v>102.221</v>
       </c>
       <c r="D114" t="s">
         <v>608</v>
@@ -4156,7 +4156,7 @@
         <v>606</v>
       </c>
       <c r="C115">
-        <v>105.214</v>
+        <v>107.883</v>
       </c>
       <c r="D115" t="s">
         <v>608</v>
@@ -4173,7 +4173,7 @@
         <v>606</v>
       </c>
       <c r="C116">
-        <v>107.591</v>
+        <v>110.872</v>
       </c>
       <c r="D116" t="s">
         <v>608</v>
@@ -4187,10 +4187,10 @@
         <v>120</v>
       </c>
       <c r="B117" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C117">
-        <v>101.351</v>
+        <v>98.371</v>
       </c>
       <c r="D117" t="s">
         <v>608</v>
@@ -4207,7 +4207,7 @@
         <v>607</v>
       </c>
       <c r="C118">
-        <v>94.581</v>
+        <v>94.399</v>
       </c>
       <c r="D118" t="s">
         <v>608</v>
@@ -4224,7 +4224,7 @@
         <v>606</v>
       </c>
       <c r="C119">
-        <v>109.069</v>
+        <v>106.983</v>
       </c>
       <c r="D119" t="s">
         <v>608</v>
@@ -4241,7 +4241,7 @@
         <v>606</v>
       </c>
       <c r="C120">
-        <v>110.9</v>
+        <v>109.373</v>
       </c>
       <c r="D120" t="s">
         <v>608</v>
@@ -4258,7 +4258,7 @@
         <v>606</v>
       </c>
       <c r="C121">
-        <v>104.297</v>
+        <v>102.771</v>
       </c>
       <c r="D121" t="s">
         <v>608</v>
@@ -4275,7 +4275,7 @@
         <v>606</v>
       </c>
       <c r="C122">
-        <v>111.011</v>
+        <v>114.446</v>
       </c>
       <c r="D122" t="s">
         <v>608</v>
@@ -4292,7 +4292,7 @@
         <v>606</v>
       </c>
       <c r="C123">
-        <v>101.392</v>
+        <v>103.122</v>
       </c>
       <c r="D123" t="s">
         <v>608</v>
@@ -4309,7 +4309,7 @@
         <v>606</v>
       </c>
       <c r="C124">
-        <v>109.433</v>
+        <v>109.158</v>
       </c>
       <c r="D124" t="s">
         <v>608</v>
@@ -4326,7 +4326,7 @@
         <v>606</v>
       </c>
       <c r="C125">
-        <v>108.851</v>
+        <v>108.904</v>
       </c>
       <c r="D125" t="s">
         <v>608</v>
@@ -4343,7 +4343,7 @@
         <v>606</v>
       </c>
       <c r="C126">
-        <v>105.383</v>
+        <v>105.786</v>
       </c>
       <c r="D126" t="s">
         <v>608</v>
@@ -4360,7 +4360,7 @@
         <v>606</v>
       </c>
       <c r="C127">
-        <v>109.024</v>
+        <v>108.388</v>
       </c>
       <c r="D127" t="s">
         <v>608</v>
@@ -4377,7 +4377,7 @@
         <v>606</v>
       </c>
       <c r="C128">
-        <v>110.461</v>
+        <v>112.666</v>
       </c>
       <c r="D128" t="s">
         <v>608</v>
@@ -4394,7 +4394,7 @@
         <v>606</v>
       </c>
       <c r="C129">
-        <v>109.209</v>
+        <v>107.928</v>
       </c>
       <c r="D129" t="s">
         <v>608</v>
@@ -4411,7 +4411,7 @@
         <v>606</v>
       </c>
       <c r="C130">
-        <v>108.081</v>
+        <v>105.236</v>
       </c>
       <c r="D130" t="s">
         <v>608</v>
@@ -4425,10 +4425,10 @@
         <v>134</v>
       </c>
       <c r="B131" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C131">
-        <v>99.971</v>
+        <v>100.97</v>
       </c>
       <c r="D131" t="s">
         <v>608</v>
@@ -4445,7 +4445,7 @@
         <v>606</v>
       </c>
       <c r="C132">
-        <v>111.664</v>
+        <v>112.731</v>
       </c>
       <c r="D132" t="s">
         <v>608</v>
@@ -4462,7 +4462,7 @@
         <v>606</v>
       </c>
       <c r="C133">
-        <v>110.776</v>
+        <v>102.742</v>
       </c>
       <c r="D133" t="s">
         <v>608</v>
@@ -4476,10 +4476,10 @@
         <v>137</v>
       </c>
       <c r="B134" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C134">
-        <v>100.35</v>
+        <v>97.113</v>
       </c>
       <c r="D134" t="s">
         <v>608</v>
@@ -4496,7 +4496,7 @@
         <v>606</v>
       </c>
       <c r="C135">
-        <v>109.907</v>
+        <v>113.562</v>
       </c>
       <c r="D135" t="s">
         <v>608</v>
@@ -4513,7 +4513,7 @@
         <v>606</v>
       </c>
       <c r="C136">
-        <v>106.254</v>
+        <v>104.695</v>
       </c>
       <c r="D136" t="s">
         <v>608</v>
@@ -4530,7 +4530,7 @@
         <v>606</v>
       </c>
       <c r="C137">
-        <v>105.626</v>
+        <v>105.835</v>
       </c>
       <c r="D137" t="s">
         <v>608</v>
@@ -4547,7 +4547,7 @@
         <v>606</v>
       </c>
       <c r="C138">
-        <v>101.038</v>
+        <v>103.579</v>
       </c>
       <c r="D138" t="s">
         <v>608</v>
@@ -4564,7 +4564,7 @@
         <v>606</v>
       </c>
       <c r="C139">
-        <v>106.341</v>
+        <v>102.481</v>
       </c>
       <c r="D139" t="s">
         <v>608</v>
@@ -4581,7 +4581,7 @@
         <v>606</v>
       </c>
       <c r="C140">
-        <v>108.066</v>
+        <v>107.92</v>
       </c>
       <c r="D140" t="s">
         <v>608</v>
@@ -4598,7 +4598,7 @@
         <v>606</v>
       </c>
       <c r="C141">
-        <v>104.496</v>
+        <v>106.467</v>
       </c>
       <c r="D141" t="s">
         <v>608</v>
@@ -4615,7 +4615,7 @@
         <v>606</v>
       </c>
       <c r="C142">
-        <v>102.696</v>
+        <v>105.174</v>
       </c>
       <c r="D142" t="s">
         <v>608</v>
@@ -4632,7 +4632,7 @@
         <v>606</v>
       </c>
       <c r="C143">
-        <v>112.059</v>
+        <v>112.366</v>
       </c>
       <c r="D143" t="s">
         <v>608</v>
@@ -4649,7 +4649,7 @@
         <v>606</v>
       </c>
       <c r="C144">
-        <v>107.234</v>
+        <v>104.797</v>
       </c>
       <c r="D144" t="s">
         <v>608</v>
@@ -4666,7 +4666,7 @@
         <v>607</v>
       </c>
       <c r="C145">
-        <v>97.453</v>
+        <v>95.584</v>
       </c>
       <c r="D145" t="s">
         <v>608</v>
@@ -4680,10 +4680,10 @@
         <v>149</v>
       </c>
       <c r="B146" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C146">
-        <v>101.725</v>
+        <v>96.48999999999999</v>
       </c>
       <c r="D146" t="s">
         <v>608</v>
@@ -4700,7 +4700,7 @@
         <v>607</v>
       </c>
       <c r="C147">
-        <v>98.693</v>
+        <v>98.73999999999999</v>
       </c>
       <c r="D147" t="s">
         <v>608</v>
@@ -4717,7 +4717,7 @@
         <v>606</v>
       </c>
       <c r="C148">
-        <v>107.301</v>
+        <v>107.78</v>
       </c>
       <c r="D148" t="s">
         <v>608</v>
@@ -4734,7 +4734,7 @@
         <v>606</v>
       </c>
       <c r="C149">
-        <v>108.302</v>
+        <v>108.296</v>
       </c>
       <c r="D149" t="s">
         <v>608</v>
@@ -4751,7 +4751,7 @@
         <v>606</v>
       </c>
       <c r="C150">
-        <v>106.087</v>
+        <v>105.833</v>
       </c>
       <c r="D150" t="s">
         <v>608</v>
@@ -4768,7 +4768,7 @@
         <v>606</v>
       </c>
       <c r="C151">
-        <v>116.548</v>
+        <v>115.117</v>
       </c>
       <c r="D151" t="s">
         <v>608</v>
@@ -4785,7 +4785,7 @@
         <v>606</v>
       </c>
       <c r="C152">
-        <v>101.085</v>
+        <v>100.697</v>
       </c>
       <c r="D152" t="s">
         <v>608</v>
@@ -4802,7 +4802,7 @@
         <v>607</v>
       </c>
       <c r="C153">
-        <v>97.012</v>
+        <v>94.88200000000001</v>
       </c>
       <c r="D153" t="s">
         <v>608</v>
@@ -4819,7 +4819,7 @@
         <v>607</v>
       </c>
       <c r="C154">
-        <v>93.965</v>
+        <v>92.46899999999999</v>
       </c>
       <c r="D154" t="s">
         <v>608</v>
@@ -4836,7 +4836,7 @@
         <v>606</v>
       </c>
       <c r="C155">
-        <v>101.881</v>
+        <v>100.849</v>
       </c>
       <c r="D155" t="s">
         <v>608</v>
@@ -4853,7 +4853,7 @@
         <v>606</v>
       </c>
       <c r="C156">
-        <v>100.143</v>
+        <v>101.436</v>
       </c>
       <c r="D156" t="s">
         <v>608</v>
@@ -4870,7 +4870,7 @@
         <v>607</v>
       </c>
       <c r="C157">
-        <v>93.39400000000001</v>
+        <v>91.919</v>
       </c>
       <c r="D157" t="s">
         <v>608</v>
@@ -4887,7 +4887,7 @@
         <v>606</v>
       </c>
       <c r="C158">
-        <v>101.538</v>
+        <v>101.735</v>
       </c>
       <c r="D158" t="s">
         <v>608</v>
@@ -4904,7 +4904,7 @@
         <v>606</v>
       </c>
       <c r="C159">
-        <v>108.276</v>
+        <v>112.318</v>
       </c>
       <c r="D159" t="s">
         <v>608</v>
@@ -4921,7 +4921,7 @@
         <v>606</v>
       </c>
       <c r="C160">
-        <v>110.494</v>
+        <v>107.774</v>
       </c>
       <c r="D160" t="s">
         <v>608</v>
@@ -4938,7 +4938,7 @@
         <v>607</v>
       </c>
       <c r="C161">
-        <v>95.283</v>
+        <v>94.37</v>
       </c>
       <c r="D161" t="s">
         <v>608</v>
@@ -4955,7 +4955,7 @@
         <v>606</v>
       </c>
       <c r="C162">
-        <v>109.194</v>
+        <v>109.45</v>
       </c>
       <c r="D162" t="s">
         <v>608</v>
@@ -4972,7 +4972,7 @@
         <v>606</v>
       </c>
       <c r="C163">
-        <v>103.012</v>
+        <v>101.098</v>
       </c>
       <c r="D163" t="s">
         <v>608</v>
@@ -4989,7 +4989,7 @@
         <v>606</v>
       </c>
       <c r="C164">
-        <v>111.566</v>
+        <v>108.819</v>
       </c>
       <c r="D164" t="s">
         <v>608</v>
@@ -5003,10 +5003,10 @@
         <v>168</v>
       </c>
       <c r="B165" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C165">
-        <v>101.476</v>
+        <v>94.557</v>
       </c>
       <c r="D165" t="s">
         <v>608</v>
@@ -5023,7 +5023,7 @@
         <v>606</v>
       </c>
       <c r="C166">
-        <v>107.864</v>
+        <v>103.27</v>
       </c>
       <c r="D166" t="s">
         <v>608</v>
@@ -5040,7 +5040,7 @@
         <v>606</v>
       </c>
       <c r="C167">
-        <v>103.117</v>
+        <v>106.184</v>
       </c>
       <c r="D167" t="s">
         <v>608</v>
@@ -5057,7 +5057,7 @@
         <v>606</v>
       </c>
       <c r="C168">
-        <v>111.054</v>
+        <v>109.521</v>
       </c>
       <c r="D168" t="s">
         <v>608</v>
@@ -5074,7 +5074,7 @@
         <v>607</v>
       </c>
       <c r="C169">
-        <v>95.685</v>
+        <v>94.14700000000001</v>
       </c>
       <c r="D169" t="s">
         <v>608</v>
@@ -5091,7 +5091,7 @@
         <v>606</v>
       </c>
       <c r="C170">
-        <v>109.481</v>
+        <v>106.202</v>
       </c>
       <c r="D170" t="s">
         <v>608</v>
@@ -5108,7 +5108,7 @@
         <v>606</v>
       </c>
       <c r="C171">
-        <v>105.857</v>
+        <v>107.028</v>
       </c>
       <c r="D171" t="s">
         <v>608</v>
@@ -5125,7 +5125,7 @@
         <v>606</v>
       </c>
       <c r="C172">
-        <v>108.038</v>
+        <v>105.472</v>
       </c>
       <c r="D172" t="s">
         <v>608</v>
@@ -5139,10 +5139,10 @@
         <v>176</v>
       </c>
       <c r="B173" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C173">
-        <v>103.363</v>
+        <v>99.946</v>
       </c>
       <c r="D173" t="s">
         <v>608</v>
@@ -5159,7 +5159,7 @@
         <v>606</v>
       </c>
       <c r="C174">
-        <v>103.749</v>
+        <v>100.227</v>
       </c>
       <c r="D174" t="s">
         <v>608</v>
@@ -5173,10 +5173,10 @@
         <v>178</v>
       </c>
       <c r="B175" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C175">
-        <v>98.914</v>
+        <v>103.658</v>
       </c>
       <c r="D175" t="s">
         <v>608</v>
@@ -5193,7 +5193,7 @@
         <v>606</v>
       </c>
       <c r="C176">
-        <v>104.037</v>
+        <v>106.133</v>
       </c>
       <c r="D176" t="s">
         <v>608</v>
@@ -5210,7 +5210,7 @@
         <v>606</v>
       </c>
       <c r="C177">
-        <v>109.039</v>
+        <v>109.088</v>
       </c>
       <c r="D177" t="s">
         <v>608</v>
@@ -5227,7 +5227,7 @@
         <v>606</v>
       </c>
       <c r="C178">
-        <v>111.301</v>
+        <v>113.001</v>
       </c>
       <c r="D178" t="s">
         <v>608</v>
@@ -5244,7 +5244,7 @@
         <v>606</v>
       </c>
       <c r="C179">
-        <v>105.467</v>
+        <v>105.51</v>
       </c>
       <c r="D179" t="s">
         <v>608</v>
@@ -5258,10 +5258,10 @@
         <v>183</v>
       </c>
       <c r="B180" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C180">
-        <v>103.453</v>
+        <v>98.792</v>
       </c>
       <c r="D180" t="s">
         <v>608</v>
@@ -5278,7 +5278,7 @@
         <v>606</v>
       </c>
       <c r="C181">
-        <v>111.75</v>
+        <v>113.484</v>
       </c>
       <c r="D181" t="s">
         <v>608</v>
@@ -5295,7 +5295,7 @@
         <v>606</v>
       </c>
       <c r="C182">
-        <v>110.355</v>
+        <v>101.188</v>
       </c>
       <c r="D182" t="s">
         <v>608</v>
@@ -5312,7 +5312,7 @@
         <v>607</v>
       </c>
       <c r="C183">
-        <v>95.185</v>
+        <v>92.494</v>
       </c>
       <c r="D183" t="s">
         <v>608</v>
@@ -5329,7 +5329,7 @@
         <v>606</v>
       </c>
       <c r="C184">
-        <v>105.127</v>
+        <v>109.454</v>
       </c>
       <c r="D184" t="s">
         <v>608</v>
@@ -5346,7 +5346,7 @@
         <v>606</v>
       </c>
       <c r="C185">
-        <v>103.018</v>
+        <v>101.383</v>
       </c>
       <c r="D185" t="s">
         <v>608</v>
@@ -5363,7 +5363,7 @@
         <v>606</v>
       </c>
       <c r="C186">
-        <v>101.212</v>
+        <v>100.504</v>
       </c>
       <c r="D186" t="s">
         <v>608</v>
@@ -5380,7 +5380,7 @@
         <v>607</v>
       </c>
       <c r="C187">
-        <v>94.197</v>
+        <v>97.70099999999999</v>
       </c>
       <c r="D187" t="s">
         <v>608</v>
@@ -5397,7 +5397,7 @@
         <v>606</v>
       </c>
       <c r="C188">
-        <v>106.172</v>
+        <v>110.603</v>
       </c>
       <c r="D188" t="s">
         <v>608</v>
@@ -5414,7 +5414,7 @@
         <v>607</v>
       </c>
       <c r="C189">
-        <v>91.374</v>
+        <v>93.545</v>
       </c>
       <c r="D189" t="s">
         <v>608</v>
@@ -5431,7 +5431,7 @@
         <v>606</v>
       </c>
       <c r="C190">
-        <v>104.414</v>
+        <v>104.76</v>
       </c>
       <c r="D190" t="s">
         <v>608</v>
@@ -5448,7 +5448,7 @@
         <v>606</v>
       </c>
       <c r="C191">
-        <v>104.209</v>
+        <v>102.078</v>
       </c>
       <c r="D191" t="s">
         <v>608</v>
@@ -5465,7 +5465,7 @@
         <v>607</v>
       </c>
       <c r="C192">
-        <v>96.965</v>
+        <v>93.779</v>
       </c>
       <c r="D192" t="s">
         <v>608</v>
@@ -5482,7 +5482,7 @@
         <v>607</v>
       </c>
       <c r="C193">
-        <v>98.64100000000001</v>
+        <v>97.101</v>
       </c>
       <c r="D193" t="s">
         <v>608</v>
@@ -5499,7 +5499,7 @@
         <v>606</v>
       </c>
       <c r="C194">
-        <v>109.02</v>
+        <v>104.862</v>
       </c>
       <c r="D194" t="s">
         <v>608</v>
@@ -5516,7 +5516,7 @@
         <v>606</v>
       </c>
       <c r="C195">
-        <v>107.024</v>
+        <v>105.842</v>
       </c>
       <c r="D195" t="s">
         <v>608</v>
@@ -5533,7 +5533,7 @@
         <v>606</v>
       </c>
       <c r="C196">
-        <v>104.527</v>
+        <v>104.096</v>
       </c>
       <c r="D196" t="s">
         <v>608</v>
@@ -5550,7 +5550,7 @@
         <v>606</v>
       </c>
       <c r="C197">
-        <v>110.306</v>
+        <v>109.165</v>
       </c>
       <c r="D197" t="s">
         <v>608</v>
@@ -5567,7 +5567,7 @@
         <v>606</v>
       </c>
       <c r="C198">
-        <v>115.625</v>
+        <v>117.965</v>
       </c>
       <c r="D198" t="s">
         <v>608</v>
@@ -5584,7 +5584,7 @@
         <v>606</v>
       </c>
       <c r="C199">
-        <v>110.372</v>
+        <v>111.474</v>
       </c>
       <c r="D199" t="s">
         <v>608</v>
@@ -5601,7 +5601,7 @@
         <v>607</v>
       </c>
       <c r="C200">
-        <v>98.23999999999999</v>
+        <v>98.38800000000001</v>
       </c>
       <c r="D200" t="s">
         <v>608</v>
@@ -5618,7 +5618,7 @@
         <v>606</v>
       </c>
       <c r="C201">
-        <v>102.449</v>
+        <v>102.582</v>
       </c>
       <c r="D201" t="s">
         <v>608</v>
@@ -5632,10 +5632,10 @@
         <v>205</v>
       </c>
       <c r="B202" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C202">
-        <v>101.6</v>
+        <v>98.307</v>
       </c>
       <c r="D202" t="s">
         <v>608</v>
@@ -5649,10 +5649,10 @@
         <v>206</v>
       </c>
       <c r="B203" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C203">
-        <v>100.443</v>
+        <v>98.334</v>
       </c>
       <c r="D203" t="s">
         <v>608</v>
@@ -5669,7 +5669,7 @@
         <v>606</v>
       </c>
       <c r="C204">
-        <v>101.498</v>
+        <v>104.984</v>
       </c>
       <c r="D204" t="s">
         <v>608</v>
@@ -5686,7 +5686,7 @@
         <v>606</v>
       </c>
       <c r="C205">
-        <v>101.206</v>
+        <v>102.256</v>
       </c>
       <c r="D205" t="s">
         <v>608</v>
@@ -5703,7 +5703,7 @@
         <v>606</v>
       </c>
       <c r="C206">
-        <v>106.274</v>
+        <v>110.747</v>
       </c>
       <c r="D206" t="s">
         <v>608</v>
@@ -5720,7 +5720,7 @@
         <v>606</v>
       </c>
       <c r="C207">
-        <v>108.129</v>
+        <v>108.366</v>
       </c>
       <c r="D207" t="s">
         <v>608</v>
@@ -5737,7 +5737,7 @@
         <v>606</v>
       </c>
       <c r="C208">
-        <v>107.138</v>
+        <v>112.598</v>
       </c>
       <c r="D208" t="s">
         <v>608</v>
@@ -5754,7 +5754,7 @@
         <v>606</v>
       </c>
       <c r="C209">
-        <v>122.88</v>
+        <v>119.322</v>
       </c>
       <c r="D209" t="s">
         <v>608</v>
@@ -5771,7 +5771,7 @@
         <v>606</v>
       </c>
       <c r="C210">
-        <v>101.292</v>
+        <v>100.616</v>
       </c>
       <c r="D210" t="s">
         <v>608</v>
@@ -5788,7 +5788,7 @@
         <v>606</v>
       </c>
       <c r="C211">
-        <v>107.575</v>
+        <v>101.983</v>
       </c>
       <c r="D211" t="s">
         <v>608</v>
@@ -5805,7 +5805,7 @@
         <v>606</v>
       </c>
       <c r="C212">
-        <v>106.334</v>
+        <v>107.277</v>
       </c>
       <c r="D212" t="s">
         <v>608</v>
@@ -5822,7 +5822,7 @@
         <v>607</v>
       </c>
       <c r="C213">
-        <v>97.803</v>
+        <v>95.56100000000001</v>
       </c>
       <c r="D213" t="s">
         <v>608</v>
@@ -5839,7 +5839,7 @@
         <v>606</v>
       </c>
       <c r="C214">
-        <v>103.463</v>
+        <v>103.396</v>
       </c>
       <c r="D214" t="s">
         <v>608</v>
@@ -5856,7 +5856,7 @@
         <v>606</v>
       </c>
       <c r="C215">
-        <v>106.413</v>
+        <v>105.884</v>
       </c>
       <c r="D215" t="s">
         <v>608</v>
@@ -5873,7 +5873,7 @@
         <v>606</v>
       </c>
       <c r="C216">
-        <v>109.913</v>
+        <v>113.383</v>
       </c>
       <c r="D216" t="s">
         <v>608</v>
@@ -5890,7 +5890,7 @@
         <v>606</v>
       </c>
       <c r="C217">
-        <v>102.041</v>
+        <v>105.335</v>
       </c>
       <c r="D217" t="s">
         <v>608</v>
@@ -5907,7 +5907,7 @@
         <v>606</v>
       </c>
       <c r="C218">
-        <v>101.854</v>
+        <v>104.499</v>
       </c>
       <c r="D218" t="s">
         <v>608</v>
@@ -5921,10 +5921,10 @@
         <v>222</v>
       </c>
       <c r="B219" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C219">
-        <v>100.641</v>
+        <v>99.214</v>
       </c>
       <c r="D219" t="s">
         <v>608</v>
@@ -5941,7 +5941,7 @@
         <v>606</v>
       </c>
       <c r="C220">
-        <v>115.194</v>
+        <v>116.314</v>
       </c>
       <c r="D220" t="s">
         <v>608</v>
@@ -5958,7 +5958,7 @@
         <v>606</v>
       </c>
       <c r="C221">
-        <v>104.242</v>
+        <v>102.771</v>
       </c>
       <c r="D221" t="s">
         <v>608</v>
@@ -5975,7 +5975,7 @@
         <v>606</v>
       </c>
       <c r="C222">
-        <v>102.483</v>
+        <v>100.512</v>
       </c>
       <c r="D222" t="s">
         <v>608</v>
@@ -5992,7 +5992,7 @@
         <v>606</v>
       </c>
       <c r="C223">
-        <v>107.58</v>
+        <v>109.888</v>
       </c>
       <c r="D223" t="s">
         <v>608</v>
@@ -6009,7 +6009,7 @@
         <v>606</v>
       </c>
       <c r="C224">
-        <v>109.677</v>
+        <v>105.803</v>
       </c>
       <c r="D224" t="s">
         <v>608</v>
@@ -6026,7 +6026,7 @@
         <v>606</v>
       </c>
       <c r="C225">
-        <v>103.144</v>
+        <v>103.06</v>
       </c>
       <c r="D225" t="s">
         <v>608</v>
@@ -6043,7 +6043,7 @@
         <v>606</v>
       </c>
       <c r="C226">
-        <v>105.212</v>
+        <v>102.16</v>
       </c>
       <c r="D226" t="s">
         <v>608</v>
@@ -6060,7 +6060,7 @@
         <v>606</v>
       </c>
       <c r="C227">
-        <v>110.78</v>
+        <v>111.5</v>
       </c>
       <c r="D227" t="s">
         <v>608</v>
@@ -6077,7 +6077,7 @@
         <v>607</v>
       </c>
       <c r="C228">
-        <v>98.90900000000001</v>
+        <v>96.137</v>
       </c>
       <c r="D228" t="s">
         <v>608</v>
@@ -6094,7 +6094,7 @@
         <v>606</v>
       </c>
       <c r="C229">
-        <v>105.017</v>
+        <v>101.382</v>
       </c>
       <c r="D229" t="s">
         <v>608</v>
@@ -6111,7 +6111,7 @@
         <v>606</v>
       </c>
       <c r="C230">
-        <v>106.322</v>
+        <v>104.83</v>
       </c>
       <c r="D230" t="s">
         <v>608</v>
@@ -6128,7 +6128,7 @@
         <v>606</v>
       </c>
       <c r="C231">
-        <v>106.347</v>
+        <v>103.65</v>
       </c>
       <c r="D231" t="s">
         <v>608</v>
@@ -6145,7 +6145,7 @@
         <v>606</v>
       </c>
       <c r="C232">
-        <v>103.769</v>
+        <v>102.091</v>
       </c>
       <c r="D232" t="s">
         <v>608</v>
@@ -6159,10 +6159,10 @@
         <v>236</v>
       </c>
       <c r="B233" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C233">
-        <v>104.628</v>
+        <v>98.952</v>
       </c>
       <c r="D233" t="s">
         <v>608</v>
@@ -6176,10 +6176,10 @@
         <v>237</v>
       </c>
       <c r="B234" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C234">
-        <v>102.747</v>
+        <v>99.934</v>
       </c>
       <c r="D234" t="s">
         <v>608</v>
@@ -6193,10 +6193,10 @@
         <v>238</v>
       </c>
       <c r="B235" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C235">
-        <v>100.192</v>
+        <v>98.61199999999999</v>
       </c>
       <c r="D235" t="s">
         <v>608</v>
@@ -6213,7 +6213,7 @@
         <v>606</v>
       </c>
       <c r="C236">
-        <v>103.274</v>
+        <v>101.998</v>
       </c>
       <c r="D236" t="s">
         <v>608</v>
@@ -6230,7 +6230,7 @@
         <v>606</v>
       </c>
       <c r="C237">
-        <v>104.312</v>
+        <v>104.908</v>
       </c>
       <c r="D237" t="s">
         <v>608</v>
@@ -6247,7 +6247,7 @@
         <v>606</v>
       </c>
       <c r="C238">
-        <v>100.431</v>
+        <v>104.443</v>
       </c>
       <c r="D238" t="s">
         <v>608</v>
@@ -6264,7 +6264,7 @@
         <v>606</v>
       </c>
       <c r="C239">
-        <v>102.471</v>
+        <v>101.532</v>
       </c>
       <c r="D239" t="s">
         <v>608</v>
@@ -6281,7 +6281,7 @@
         <v>607</v>
       </c>
       <c r="C240">
-        <v>99.214</v>
+        <v>97.887</v>
       </c>
       <c r="D240" t="s">
         <v>608</v>
@@ -6298,7 +6298,7 @@
         <v>606</v>
       </c>
       <c r="C241">
-        <v>103.792</v>
+        <v>102.584</v>
       </c>
       <c r="D241" t="s">
         <v>608</v>
@@ -6315,7 +6315,7 @@
         <v>607</v>
       </c>
       <c r="C242">
-        <v>89.127</v>
+        <v>98.69499999999999</v>
       </c>
       <c r="D242" t="s">
         <v>608</v>
@@ -6332,7 +6332,7 @@
         <v>606</v>
       </c>
       <c r="C243">
-        <v>106.717</v>
+        <v>105.817</v>
       </c>
       <c r="D243" t="s">
         <v>608</v>
@@ -6366,7 +6366,7 @@
         <v>606</v>
       </c>
       <c r="C245">
-        <v>109.463</v>
+        <v>112.513</v>
       </c>
       <c r="D245" t="s">
         <v>608</v>
@@ -6383,7 +6383,7 @@
         <v>606</v>
       </c>
       <c r="C246">
-        <v>122.18</v>
+        <v>121.787</v>
       </c>
       <c r="D246" t="s">
         <v>608</v>
@@ -6397,10 +6397,10 @@
         <v>250</v>
       </c>
       <c r="B247" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C247">
-        <v>102.227</v>
+        <v>99.63500000000001</v>
       </c>
       <c r="D247" t="s">
         <v>608</v>
@@ -6417,7 +6417,7 @@
         <v>606</v>
       </c>
       <c r="C248">
-        <v>106.431</v>
+        <v>105.67</v>
       </c>
       <c r="D248" t="s">
         <v>608</v>
@@ -6434,7 +6434,7 @@
         <v>607</v>
       </c>
       <c r="C249">
-        <v>97.242</v>
+        <v>96.94</v>
       </c>
       <c r="D249" t="s">
         <v>608</v>
@@ -6451,7 +6451,7 @@
         <v>607</v>
       </c>
       <c r="C250">
-        <v>99.084</v>
+        <v>99.696</v>
       </c>
       <c r="D250" t="s">
         <v>608</v>
@@ -6468,7 +6468,7 @@
         <v>606</v>
       </c>
       <c r="C251">
-        <v>102.901</v>
+        <v>102.305</v>
       </c>
       <c r="D251" t="s">
         <v>608</v>
@@ -6485,7 +6485,7 @@
         <v>607</v>
       </c>
       <c r="C252">
-        <v>97.02200000000001</v>
+        <v>94.89700000000001</v>
       </c>
       <c r="D252" t="s">
         <v>608</v>
@@ -6502,7 +6502,7 @@
         <v>606</v>
       </c>
       <c r="C253">
-        <v>100.682</v>
+        <v>101.439</v>
       </c>
       <c r="D253" t="s">
         <v>608</v>
@@ -6516,10 +6516,10 @@
         <v>257</v>
       </c>
       <c r="B254" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C254">
-        <v>103.749</v>
+        <v>97.56100000000001</v>
       </c>
       <c r="D254" t="s">
         <v>608</v>
@@ -6536,7 +6536,7 @@
         <v>607</v>
       </c>
       <c r="C255">
-        <v>96.658</v>
+        <v>98.18600000000001</v>
       </c>
       <c r="D255" t="s">
         <v>608</v>
@@ -6553,7 +6553,7 @@
         <v>606</v>
       </c>
       <c r="C256">
-        <v>108.281</v>
+        <v>106.194</v>
       </c>
       <c r="D256" t="s">
         <v>608</v>
@@ -6570,7 +6570,7 @@
         <v>606</v>
       </c>
       <c r="C257">
-        <v>108.878</v>
+        <v>100.443</v>
       </c>
       <c r="D257" t="s">
         <v>608</v>
@@ -6587,7 +6587,7 @@
         <v>606</v>
       </c>
       <c r="C258">
-        <v>105.586</v>
+        <v>103.775</v>
       </c>
       <c r="D258" t="s">
         <v>608</v>
@@ -6604,7 +6604,7 @@
         <v>606</v>
       </c>
       <c r="C259">
-        <v>103.403</v>
+        <v>104.904</v>
       </c>
       <c r="D259" t="s">
         <v>608</v>
@@ -6621,7 +6621,7 @@
         <v>606</v>
       </c>
       <c r="C260">
-        <v>102.285</v>
+        <v>102.219</v>
       </c>
       <c r="D260" t="s">
         <v>608</v>
@@ -6638,7 +6638,7 @@
         <v>607</v>
       </c>
       <c r="C261">
-        <v>90.43300000000001</v>
+        <v>86.53</v>
       </c>
       <c r="D261" t="s">
         <v>608</v>
@@ -6655,7 +6655,7 @@
         <v>607</v>
       </c>
       <c r="C262">
-        <v>96.81</v>
+        <v>98.916</v>
       </c>
       <c r="D262" t="s">
         <v>608</v>
@@ -6672,7 +6672,7 @@
         <v>606</v>
       </c>
       <c r="C263">
-        <v>101.25</v>
+        <v>101.86</v>
       </c>
       <c r="D263" t="s">
         <v>608</v>
@@ -6689,7 +6689,7 @@
         <v>607</v>
       </c>
       <c r="C264">
-        <v>95.753</v>
+        <v>94.77</v>
       </c>
       <c r="D264" t="s">
         <v>608</v>
@@ -6706,7 +6706,7 @@
         <v>606</v>
       </c>
       <c r="C265">
-        <v>102.178</v>
+        <v>103.231</v>
       </c>
       <c r="D265" t="s">
         <v>608</v>
@@ -6720,10 +6720,10 @@
         <v>269</v>
       </c>
       <c r="B266" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C266">
-        <v>99.203</v>
+        <v>100.278</v>
       </c>
       <c r="D266" t="s">
         <v>608</v>
@@ -6740,7 +6740,7 @@
         <v>607</v>
       </c>
       <c r="C267">
-        <v>94.084</v>
+        <v>96.346</v>
       </c>
       <c r="D267" t="s">
         <v>608</v>
@@ -6757,7 +6757,7 @@
         <v>606</v>
       </c>
       <c r="C268">
-        <v>113.062</v>
+        <v>109.425</v>
       </c>
       <c r="D268" t="s">
         <v>608</v>
@@ -6771,10 +6771,10 @@
         <v>272</v>
       </c>
       <c r="B269" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C269">
-        <v>99.98399999999999</v>
+        <v>100.407</v>
       </c>
       <c r="D269" t="s">
         <v>608</v>
@@ -6791,7 +6791,7 @@
         <v>606</v>
       </c>
       <c r="C270">
-        <v>111.896</v>
+        <v>114.211</v>
       </c>
       <c r="D270" t="s">
         <v>608</v>
@@ -6808,7 +6808,7 @@
         <v>606</v>
       </c>
       <c r="C271">
-        <v>110.206</v>
+        <v>106.974</v>
       </c>
       <c r="D271" t="s">
         <v>608</v>
@@ -6825,7 +6825,7 @@
         <v>607</v>
       </c>
       <c r="C272">
-        <v>95.20399999999999</v>
+        <v>98.331</v>
       </c>
       <c r="D272" t="s">
         <v>608</v>
@@ -6842,7 +6842,7 @@
         <v>607</v>
       </c>
       <c r="C273">
-        <v>94.089</v>
+        <v>95.994</v>
       </c>
       <c r="D273" t="s">
         <v>608</v>
@@ -6856,10 +6856,10 @@
         <v>277</v>
       </c>
       <c r="B274" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C274">
-        <v>99.658</v>
+        <v>102.101</v>
       </c>
       <c r="D274" t="s">
         <v>608</v>
@@ -6876,7 +6876,7 @@
         <v>606</v>
       </c>
       <c r="C275">
-        <v>109.622</v>
+        <v>107.839</v>
       </c>
       <c r="D275" t="s">
         <v>608</v>
@@ -6893,7 +6893,7 @@
         <v>606</v>
       </c>
       <c r="C276">
-        <v>118.148</v>
+        <v>119.712</v>
       </c>
       <c r="D276" t="s">
         <v>608</v>
@@ -6910,7 +6910,7 @@
         <v>606</v>
       </c>
       <c r="C277">
-        <v>103.583</v>
+        <v>103.852</v>
       </c>
       <c r="D277" t="s">
         <v>608</v>
@@ -6927,7 +6927,7 @@
         <v>606</v>
       </c>
       <c r="C278">
-        <v>102.559</v>
+        <v>104.966</v>
       </c>
       <c r="D278" t="s">
         <v>608</v>
@@ -6944,7 +6944,7 @@
         <v>606</v>
       </c>
       <c r="C279">
-        <v>105.078</v>
+        <v>104.851</v>
       </c>
       <c r="D279" t="s">
         <v>608</v>
@@ -6961,7 +6961,7 @@
         <v>606</v>
       </c>
       <c r="C280">
-        <v>114.238</v>
+        <v>115.421</v>
       </c>
       <c r="D280" t="s">
         <v>608</v>
@@ -6978,7 +6978,7 @@
         <v>606</v>
       </c>
       <c r="C281">
-        <v>100.924</v>
+        <v>105.129</v>
       </c>
       <c r="D281" t="s">
         <v>608</v>
@@ -6995,7 +6995,7 @@
         <v>606</v>
       </c>
       <c r="C282">
-        <v>103.5</v>
+        <v>106.873</v>
       </c>
       <c r="D282" t="s">
         <v>608</v>
@@ -7012,7 +7012,7 @@
         <v>606</v>
       </c>
       <c r="C283">
-        <v>108.968</v>
+        <v>107.213</v>
       </c>
       <c r="D283" t="s">
         <v>608</v>
@@ -7029,7 +7029,7 @@
         <v>606</v>
       </c>
       <c r="C284">
-        <v>114.826</v>
+        <v>115.906</v>
       </c>
       <c r="D284" t="s">
         <v>608</v>
@@ -7046,7 +7046,7 @@
         <v>606</v>
       </c>
       <c r="C285">
-        <v>103.789</v>
+        <v>103.599</v>
       </c>
       <c r="D285" t="s">
         <v>608</v>
@@ -7063,7 +7063,7 @@
         <v>607</v>
       </c>
       <c r="C286">
-        <v>85.331</v>
+        <v>87.34999999999999</v>
       </c>
       <c r="D286" t="s">
         <v>608</v>
@@ -7080,7 +7080,7 @@
         <v>606</v>
       </c>
       <c r="C287">
-        <v>105.832</v>
+        <v>108.728</v>
       </c>
       <c r="D287" t="s">
         <v>608</v>
@@ -7094,10 +7094,10 @@
         <v>291</v>
       </c>
       <c r="B288" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C288">
-        <v>103.266</v>
+        <v>99.514</v>
       </c>
       <c r="D288" t="s">
         <v>608</v>
@@ -7114,7 +7114,7 @@
         <v>606</v>
       </c>
       <c r="C289">
-        <v>104.685</v>
+        <v>103.594</v>
       </c>
       <c r="D289" t="s">
         <v>608</v>
@@ -7128,10 +7128,10 @@
         <v>293</v>
       </c>
       <c r="B290" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C290">
-        <v>98.637</v>
+        <v>100.177</v>
       </c>
       <c r="D290" t="s">
         <v>608</v>
@@ -7145,10 +7145,10 @@
         <v>294</v>
       </c>
       <c r="B291" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C291">
-        <v>101.467</v>
+        <v>99.944</v>
       </c>
       <c r="D291" t="s">
         <v>608</v>
@@ -7165,7 +7165,7 @@
         <v>607</v>
       </c>
       <c r="C292">
-        <v>98.053</v>
+        <v>96.22499999999999</v>
       </c>
       <c r="D292" t="s">
         <v>608</v>
@@ -7182,7 +7182,7 @@
         <v>606</v>
       </c>
       <c r="C293">
-        <v>106.964</v>
+        <v>105.068</v>
       </c>
       <c r="D293" t="s">
         <v>608</v>
@@ -7199,7 +7199,7 @@
         <v>606</v>
       </c>
       <c r="C294">
-        <v>110.055</v>
+        <v>107.056</v>
       </c>
       <c r="D294" t="s">
         <v>608</v>
@@ -7216,7 +7216,7 @@
         <v>606</v>
       </c>
       <c r="C295">
-        <v>103.095</v>
+        <v>104.055</v>
       </c>
       <c r="D295" t="s">
         <v>608</v>
@@ -7233,7 +7233,7 @@
         <v>607</v>
       </c>
       <c r="C296">
-        <v>99.682</v>
+        <v>98.639</v>
       </c>
       <c r="D296" t="s">
         <v>608</v>
@@ -7250,7 +7250,7 @@
         <v>606</v>
       </c>
       <c r="C297">
-        <v>101.891</v>
+        <v>101.055</v>
       </c>
       <c r="D297" t="s">
         <v>608</v>
@@ -7267,7 +7267,7 @@
         <v>607</v>
       </c>
       <c r="C298">
-        <v>97.919</v>
+        <v>94.47199999999999</v>
       </c>
       <c r="D298" t="s">
         <v>608</v>
@@ -7281,10 +7281,10 @@
         <v>302</v>
       </c>
       <c r="B299" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C299">
-        <v>97.163</v>
+        <v>101.497</v>
       </c>
       <c r="D299" t="s">
         <v>608</v>
@@ -7301,7 +7301,7 @@
         <v>606</v>
       </c>
       <c r="C300">
-        <v>110.511</v>
+        <v>113.907</v>
       </c>
       <c r="D300" t="s">
         <v>608</v>
@@ -7318,7 +7318,7 @@
         <v>606</v>
       </c>
       <c r="C301">
-        <v>109.565</v>
+        <v>107.723</v>
       </c>
       <c r="D301" t="s">
         <v>608</v>
@@ -7335,7 +7335,7 @@
         <v>606</v>
       </c>
       <c r="C302">
-        <v>108.731</v>
+        <v>105.86</v>
       </c>
       <c r="D302" t="s">
         <v>608</v>
@@ -7352,7 +7352,7 @@
         <v>606</v>
       </c>
       <c r="C303">
-        <v>102.767</v>
+        <v>105.158</v>
       </c>
       <c r="D303" t="s">
         <v>608</v>
@@ -7369,7 +7369,7 @@
         <v>606</v>
       </c>
       <c r="C304">
-        <v>108.018</v>
+        <v>115.824</v>
       </c>
       <c r="D304" t="s">
         <v>608</v>
@@ -7386,7 +7386,7 @@
         <v>606</v>
       </c>
       <c r="C305">
-        <v>100.143</v>
+        <v>103.106</v>
       </c>
       <c r="D305" t="s">
         <v>608</v>
@@ -7403,7 +7403,7 @@
         <v>606</v>
       </c>
       <c r="C306">
-        <v>107.681</v>
+        <v>106.585</v>
       </c>
       <c r="D306" t="s">
         <v>608</v>
@@ -7420,7 +7420,7 @@
         <v>606</v>
       </c>
       <c r="C307">
-        <v>104.262</v>
+        <v>103.608</v>
       </c>
       <c r="D307" t="s">
         <v>608</v>
@@ -7437,7 +7437,7 @@
         <v>606</v>
       </c>
       <c r="C308">
-        <v>113.86</v>
+        <v>109.56</v>
       </c>
       <c r="D308" t="s">
         <v>608</v>
@@ -7454,7 +7454,7 @@
         <v>606</v>
       </c>
       <c r="C309">
-        <v>101.63</v>
+        <v>106.261</v>
       </c>
       <c r="D309" t="s">
         <v>608</v>
@@ -7471,7 +7471,7 @@
         <v>607</v>
       </c>
       <c r="C310">
-        <v>99.60899999999999</v>
+        <v>99.256</v>
       </c>
       <c r="D310" t="s">
         <v>608</v>
@@ -7488,7 +7488,7 @@
         <v>606</v>
       </c>
       <c r="C311">
-        <v>107.783</v>
+        <v>111.035</v>
       </c>
       <c r="D311" t="s">
         <v>608</v>
@@ -7505,7 +7505,7 @@
         <v>606</v>
       </c>
       <c r="C312">
-        <v>103.668</v>
+        <v>105.871</v>
       </c>
       <c r="D312" t="s">
         <v>608</v>
@@ -7522,7 +7522,7 @@
         <v>607</v>
       </c>
       <c r="C313">
-        <v>94.836</v>
+        <v>92.803</v>
       </c>
       <c r="D313" t="s">
         <v>608</v>
@@ -7539,7 +7539,7 @@
         <v>606</v>
       </c>
       <c r="C314">
-        <v>113.038</v>
+        <v>112.475</v>
       </c>
       <c r="D314" t="s">
         <v>608</v>
@@ -7556,7 +7556,7 @@
         <v>606</v>
       </c>
       <c r="C315">
-        <v>107.712</v>
+        <v>105.293</v>
       </c>
       <c r="D315" t="s">
         <v>608</v>
@@ -7573,7 +7573,7 @@
         <v>606</v>
       </c>
       <c r="C316">
-        <v>104.943</v>
+        <v>102.092</v>
       </c>
       <c r="D316" t="s">
         <v>608</v>
@@ -7590,7 +7590,7 @@
         <v>606</v>
       </c>
       <c r="C317">
-        <v>105.021</v>
+        <v>108.079</v>
       </c>
       <c r="D317" t="s">
         <v>608</v>
@@ -7607,7 +7607,7 @@
         <v>606</v>
       </c>
       <c r="C318">
-        <v>104.317</v>
+        <v>105.099</v>
       </c>
       <c r="D318" t="s">
         <v>608</v>
@@ -7624,7 +7624,7 @@
         <v>606</v>
       </c>
       <c r="C319">
-        <v>111.059</v>
+        <v>114.814</v>
       </c>
       <c r="D319" t="s">
         <v>608</v>
@@ -7641,7 +7641,7 @@
         <v>606</v>
       </c>
       <c r="C320">
-        <v>111.55</v>
+        <v>106.128</v>
       </c>
       <c r="D320" t="s">
         <v>608</v>
@@ -7658,7 +7658,7 @@
         <v>606</v>
       </c>
       <c r="C321">
-        <v>113.776</v>
+        <v>117.242</v>
       </c>
       <c r="D321" t="s">
         <v>608</v>
@@ -7675,7 +7675,7 @@
         <v>606</v>
       </c>
       <c r="C322">
-        <v>123.865</v>
+        <v>125.457</v>
       </c>
       <c r="D322" t="s">
         <v>608</v>
@@ -7692,7 +7692,7 @@
         <v>607</v>
       </c>
       <c r="C323">
-        <v>97.759</v>
+        <v>96.79000000000001</v>
       </c>
       <c r="D323" t="s">
         <v>608</v>
@@ -7709,7 +7709,7 @@
         <v>606</v>
       </c>
       <c r="C324">
-        <v>100.296</v>
+        <v>100.319</v>
       </c>
       <c r="D324" t="s">
         <v>608</v>
@@ -7726,7 +7726,7 @@
         <v>606</v>
       </c>
       <c r="C325">
-        <v>102.374</v>
+        <v>100.53</v>
       </c>
       <c r="D325" t="s">
         <v>608</v>
@@ -7743,7 +7743,7 @@
         <v>606</v>
       </c>
       <c r="C326">
-        <v>105.158</v>
+        <v>106.485</v>
       </c>
       <c r="D326" t="s">
         <v>608</v>
@@ -7760,7 +7760,7 @@
         <v>606</v>
       </c>
       <c r="C327">
-        <v>106.195</v>
+        <v>104.913</v>
       </c>
       <c r="D327" t="s">
         <v>608</v>
@@ -7777,7 +7777,7 @@
         <v>606</v>
       </c>
       <c r="C328">
-        <v>110.982</v>
+        <v>108.37</v>
       </c>
       <c r="D328" t="s">
         <v>608</v>
@@ -7794,7 +7794,7 @@
         <v>606</v>
       </c>
       <c r="C329">
-        <v>112.462</v>
+        <v>112.878</v>
       </c>
       <c r="D329" t="s">
         <v>608</v>
@@ -7811,7 +7811,7 @@
         <v>606</v>
       </c>
       <c r="C330">
-        <v>105.725</v>
+        <v>107.274</v>
       </c>
       <c r="D330" t="s">
         <v>608</v>
@@ -7828,7 +7828,7 @@
         <v>606</v>
       </c>
       <c r="C331">
-        <v>104.506</v>
+        <v>104.9</v>
       </c>
       <c r="D331" t="s">
         <v>608</v>
@@ -7845,7 +7845,7 @@
         <v>606</v>
       </c>
       <c r="C332">
-        <v>107.642</v>
+        <v>110.889</v>
       </c>
       <c r="D332" t="s">
         <v>608</v>
@@ -7862,7 +7862,7 @@
         <v>606</v>
       </c>
       <c r="C333">
-        <v>100.412</v>
+        <v>104.32</v>
       </c>
       <c r="D333" t="s">
         <v>608</v>
@@ -7879,7 +7879,7 @@
         <v>606</v>
       </c>
       <c r="C334">
-        <v>103.885</v>
+        <v>106.002</v>
       </c>
       <c r="D334" t="s">
         <v>608</v>
@@ -7896,7 +7896,7 @@
         <v>607</v>
       </c>
       <c r="C335">
-        <v>97.11199999999999</v>
+        <v>95.752</v>
       </c>
       <c r="D335" t="s">
         <v>608</v>
@@ -7913,7 +7913,7 @@
         <v>606</v>
       </c>
       <c r="C336">
-        <v>108.666</v>
+        <v>110.693</v>
       </c>
       <c r="D336" t="s">
         <v>608</v>
@@ -7930,7 +7930,7 @@
         <v>607</v>
       </c>
       <c r="C337">
-        <v>97.227</v>
+        <v>95.816</v>
       </c>
       <c r="D337" t="s">
         <v>608</v>
@@ -7947,7 +7947,7 @@
         <v>607</v>
       </c>
       <c r="C338">
-        <v>98.97799999999999</v>
+        <v>99.895</v>
       </c>
       <c r="D338" t="s">
         <v>608</v>
@@ -7964,7 +7964,7 @@
         <v>606</v>
       </c>
       <c r="C339">
-        <v>114.247</v>
+        <v>119.313</v>
       </c>
       <c r="D339" t="s">
         <v>608</v>
@@ -7981,7 +7981,7 @@
         <v>606</v>
       </c>
       <c r="C340">
-        <v>118.484</v>
+        <v>118.652</v>
       </c>
       <c r="D340" t="s">
         <v>608</v>
@@ -7998,7 +7998,7 @@
         <v>606</v>
       </c>
       <c r="C341">
-        <v>107.111</v>
+        <v>108.161</v>
       </c>
       <c r="D341" t="s">
         <v>608</v>
@@ -8015,7 +8015,7 @@
         <v>606</v>
       </c>
       <c r="C342">
-        <v>107.082</v>
+        <v>111.896</v>
       </c>
       <c r="D342" t="s">
         <v>608</v>
@@ -8032,7 +8032,7 @@
         <v>606</v>
       </c>
       <c r="C343">
-        <v>110.015</v>
+        <v>106.395</v>
       </c>
       <c r="D343" t="s">
         <v>608</v>
@@ -8049,7 +8049,7 @@
         <v>606</v>
       </c>
       <c r="C344">
-        <v>106.915</v>
+        <v>108.732</v>
       </c>
       <c r="D344" t="s">
         <v>608</v>
@@ -8066,7 +8066,7 @@
         <v>606</v>
       </c>
       <c r="C345">
-        <v>107.857</v>
+        <v>108.113</v>
       </c>
       <c r="D345" t="s">
         <v>608</v>
@@ -8083,7 +8083,7 @@
         <v>607</v>
       </c>
       <c r="C346">
-        <v>97.057</v>
+        <v>94.702</v>
       </c>
       <c r="D346" t="s">
         <v>608</v>
@@ -8100,7 +8100,7 @@
         <v>607</v>
       </c>
       <c r="C347">
-        <v>93.354</v>
+        <v>90.107</v>
       </c>
       <c r="D347" t="s">
         <v>608</v>
@@ -8117,7 +8117,7 @@
         <v>606</v>
       </c>
       <c r="C348">
-        <v>104.267</v>
+        <v>104.47</v>
       </c>
       <c r="D348" t="s">
         <v>608</v>
@@ -8134,7 +8134,7 @@
         <v>606</v>
       </c>
       <c r="C349">
-        <v>122.628</v>
+        <v>124.174</v>
       </c>
       <c r="D349" t="s">
         <v>608</v>
@@ -8151,7 +8151,7 @@
         <v>606</v>
       </c>
       <c r="C350">
-        <v>105.884</v>
+        <v>108.55</v>
       </c>
       <c r="D350" t="s">
         <v>608</v>
@@ -8168,7 +8168,7 @@
         <v>606</v>
       </c>
       <c r="C351">
-        <v>109.306</v>
+        <v>107.12</v>
       </c>
       <c r="D351" t="s">
         <v>608</v>
@@ -8182,10 +8182,10 @@
         <v>355</v>
       </c>
       <c r="B352" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C352">
-        <v>99.477</v>
+        <v>103.54</v>
       </c>
       <c r="D352" t="s">
         <v>608</v>
@@ -8199,10 +8199,10 @@
         <v>356</v>
       </c>
       <c r="B353" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C353">
-        <v>100.598</v>
+        <v>95.396</v>
       </c>
       <c r="D353" t="s">
         <v>608</v>
@@ -8219,7 +8219,7 @@
         <v>606</v>
       </c>
       <c r="C354">
-        <v>110.28</v>
+        <v>108.202</v>
       </c>
       <c r="D354" t="s">
         <v>608</v>
@@ -8236,7 +8236,7 @@
         <v>606</v>
       </c>
       <c r="C355">
-        <v>103.338</v>
+        <v>104.5</v>
       </c>
       <c r="D355" t="s">
         <v>608</v>
@@ -8253,7 +8253,7 @@
         <v>606</v>
       </c>
       <c r="C356">
-        <v>107.626</v>
+        <v>107.229</v>
       </c>
       <c r="D356" t="s">
         <v>608</v>
@@ -8270,7 +8270,7 @@
         <v>606</v>
       </c>
       <c r="C357">
-        <v>103.632</v>
+        <v>102.642</v>
       </c>
       <c r="D357" t="s">
         <v>608</v>
@@ -8287,7 +8287,7 @@
         <v>606</v>
       </c>
       <c r="C358">
-        <v>105.111</v>
+        <v>107.517</v>
       </c>
       <c r="D358" t="s">
         <v>608</v>
@@ -8304,7 +8304,7 @@
         <v>606</v>
       </c>
       <c r="C359">
-        <v>104.705</v>
+        <v>105.445</v>
       </c>
       <c r="D359" t="s">
         <v>608</v>
@@ -8321,7 +8321,7 @@
         <v>606</v>
       </c>
       <c r="C360">
-        <v>100.932</v>
+        <v>107.763</v>
       </c>
       <c r="D360" t="s">
         <v>608</v>
@@ -8338,7 +8338,7 @@
         <v>607</v>
       </c>
       <c r="C361">
-        <v>89.745</v>
+        <v>90.944</v>
       </c>
       <c r="D361" t="s">
         <v>608</v>
@@ -8355,7 +8355,7 @@
         <v>606</v>
       </c>
       <c r="C362">
-        <v>102.468</v>
+        <v>105.53</v>
       </c>
       <c r="D362" t="s">
         <v>608</v>
@@ -8372,7 +8372,7 @@
         <v>606</v>
       </c>
       <c r="C363">
-        <v>101.144</v>
+        <v>101.422</v>
       </c>
       <c r="D363" t="s">
         <v>608</v>
@@ -8389,7 +8389,7 @@
         <v>606</v>
       </c>
       <c r="C364">
-        <v>110.205</v>
+        <v>110.575</v>
       </c>
       <c r="D364" t="s">
         <v>608</v>
@@ -8423,7 +8423,7 @@
         <v>607</v>
       </c>
       <c r="C366">
-        <v>95.477</v>
+        <v>94.935</v>
       </c>
       <c r="D366" t="s">
         <v>608</v>
@@ -8440,7 +8440,7 @@
         <v>606</v>
       </c>
       <c r="C367">
-        <v>101.798</v>
+        <v>104.631</v>
       </c>
       <c r="D367" t="s">
         <v>608</v>
@@ -8454,10 +8454,10 @@
         <v>371</v>
       </c>
       <c r="B368" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C368">
-        <v>95.80200000000001</v>
+        <v>100.011</v>
       </c>
       <c r="D368" t="s">
         <v>608</v>
@@ -8474,7 +8474,7 @@
         <v>607</v>
       </c>
       <c r="C369">
-        <v>95.322</v>
+        <v>96.53700000000001</v>
       </c>
       <c r="D369" t="s">
         <v>608</v>
@@ -8491,7 +8491,7 @@
         <v>606</v>
       </c>
       <c r="C370">
-        <v>105.201</v>
+        <v>101.179</v>
       </c>
       <c r="D370" t="s">
         <v>608</v>
@@ -8508,7 +8508,7 @@
         <v>606</v>
       </c>
       <c r="C371">
-        <v>109.934</v>
+        <v>111.579</v>
       </c>
       <c r="D371" t="s">
         <v>608</v>
@@ -8525,7 +8525,7 @@
         <v>607</v>
       </c>
       <c r="C372">
-        <v>92.06399999999999</v>
+        <v>85.092</v>
       </c>
       <c r="D372" t="s">
         <v>608</v>
@@ -8542,7 +8542,7 @@
         <v>606</v>
       </c>
       <c r="C373">
-        <v>105.819</v>
+        <v>103.85</v>
       </c>
       <c r="D373" t="s">
         <v>608</v>
@@ -8559,7 +8559,7 @@
         <v>606</v>
       </c>
       <c r="C374">
-        <v>101.902</v>
+        <v>100.517</v>
       </c>
       <c r="D374" t="s">
         <v>608</v>
@@ -8576,7 +8576,7 @@
         <v>606</v>
       </c>
       <c r="C375">
-        <v>115.439</v>
+        <v>124.68</v>
       </c>
       <c r="D375" t="s">
         <v>608</v>
@@ -8593,7 +8593,7 @@
         <v>606</v>
       </c>
       <c r="C376">
-        <v>113.641</v>
+        <v>116.154</v>
       </c>
       <c r="D376" t="s">
         <v>608</v>
@@ -8610,7 +8610,7 @@
         <v>606</v>
       </c>
       <c r="C377">
-        <v>107.582</v>
+        <v>106.188</v>
       </c>
       <c r="D377" t="s">
         <v>608</v>
@@ -8627,7 +8627,7 @@
         <v>606</v>
       </c>
       <c r="C378">
-        <v>106.935</v>
+        <v>104.123</v>
       </c>
       <c r="D378" t="s">
         <v>608</v>
@@ -8644,7 +8644,7 @@
         <v>606</v>
       </c>
       <c r="C379">
-        <v>101.858</v>
+        <v>101.678</v>
       </c>
       <c r="D379" t="s">
         <v>608</v>
@@ -8661,7 +8661,7 @@
         <v>606</v>
       </c>
       <c r="C380">
-        <v>113.165</v>
+        <v>115.884</v>
       </c>
       <c r="D380" t="s">
         <v>608</v>
@@ -8675,10 +8675,10 @@
         <v>384</v>
       </c>
       <c r="B381" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C381">
-        <v>100.153</v>
+        <v>97.871</v>
       </c>
       <c r="D381" t="s">
         <v>608</v>
@@ -8695,7 +8695,7 @@
         <v>606</v>
       </c>
       <c r="C382">
-        <v>102.487</v>
+        <v>102.893</v>
       </c>
       <c r="D382" t="s">
         <v>608</v>
@@ -8712,7 +8712,7 @@
         <v>606</v>
       </c>
       <c r="C383">
-        <v>101.21</v>
+        <v>101.011</v>
       </c>
       <c r="D383" t="s">
         <v>608</v>
@@ -8726,10 +8726,10 @@
         <v>387</v>
       </c>
       <c r="B384" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C384">
-        <v>98.13800000000001</v>
+        <v>105.736</v>
       </c>
       <c r="D384" t="s">
         <v>608</v>
@@ -8746,7 +8746,7 @@
         <v>606</v>
       </c>
       <c r="C385">
-        <v>108.266</v>
+        <v>110.997</v>
       </c>
       <c r="D385" t="s">
         <v>608</v>
@@ -8763,7 +8763,7 @@
         <v>606</v>
       </c>
       <c r="C386">
-        <v>101.246</v>
+        <v>103.636</v>
       </c>
       <c r="D386" t="s">
         <v>608</v>
@@ -8780,7 +8780,7 @@
         <v>606</v>
       </c>
       <c r="C387">
-        <v>109.85</v>
+        <v>110.278</v>
       </c>
       <c r="D387" t="s">
         <v>608</v>
@@ -8797,7 +8797,7 @@
         <v>606</v>
       </c>
       <c r="C388">
-        <v>103.839</v>
+        <v>100.345</v>
       </c>
       <c r="D388" t="s">
         <v>608</v>
@@ -8811,10 +8811,10 @@
         <v>392</v>
       </c>
       <c r="B389" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C389">
-        <v>102.721</v>
+        <v>98.886</v>
       </c>
       <c r="D389" t="s">
         <v>608</v>
@@ -8831,7 +8831,7 @@
         <v>606</v>
       </c>
       <c r="C390">
-        <v>101.961</v>
+        <v>104.591</v>
       </c>
       <c r="D390" t="s">
         <v>608</v>
@@ -8848,7 +8848,7 @@
         <v>607</v>
       </c>
       <c r="C391">
-        <v>98.721</v>
+        <v>94.89700000000001</v>
       </c>
       <c r="D391" t="s">
         <v>608</v>
@@ -8865,7 +8865,7 @@
         <v>606</v>
       </c>
       <c r="C392">
-        <v>105.309</v>
+        <v>108.852</v>
       </c>
       <c r="D392" t="s">
         <v>608</v>
@@ -8882,7 +8882,7 @@
         <v>606</v>
       </c>
       <c r="C393">
-        <v>108.874</v>
+        <v>112.178</v>
       </c>
       <c r="D393" t="s">
         <v>608</v>
@@ -8899,7 +8899,7 @@
         <v>606</v>
       </c>
       <c r="C394">
-        <v>106.52</v>
+        <v>109.299</v>
       </c>
       <c r="D394" t="s">
         <v>608</v>
@@ -8916,7 +8916,7 @@
         <v>606</v>
       </c>
       <c r="C395">
-        <v>108.251</v>
+        <v>108.831</v>
       </c>
       <c r="D395" t="s">
         <v>608</v>
@@ -8933,7 +8933,7 @@
         <v>606</v>
       </c>
       <c r="C396">
-        <v>108.614</v>
+        <v>113.158</v>
       </c>
       <c r="D396" t="s">
         <v>608</v>
@@ -8950,7 +8950,7 @@
         <v>606</v>
       </c>
       <c r="C397">
-        <v>103.274</v>
+        <v>101.144</v>
       </c>
       <c r="D397" t="s">
         <v>608</v>
@@ -8967,7 +8967,7 @@
         <v>606</v>
       </c>
       <c r="C398">
-        <v>104.927</v>
+        <v>110.186</v>
       </c>
       <c r="D398" t="s">
         <v>608</v>
@@ -8984,7 +8984,7 @@
         <v>606</v>
       </c>
       <c r="C399">
-        <v>119.242</v>
+        <v>118.063</v>
       </c>
       <c r="D399" t="s">
         <v>608</v>
@@ -9001,7 +9001,7 @@
         <v>606</v>
       </c>
       <c r="C400">
-        <v>114.228</v>
+        <v>119.663</v>
       </c>
       <c r="D400" t="s">
         <v>608</v>
@@ -9018,7 +9018,7 @@
         <v>606</v>
       </c>
       <c r="C401">
-        <v>102.85</v>
+        <v>103.534</v>
       </c>
       <c r="D401" t="s">
         <v>608</v>
@@ -9035,7 +9035,7 @@
         <v>607</v>
       </c>
       <c r="C402">
-        <v>94.985</v>
+        <v>95.444</v>
       </c>
       <c r="D402" t="s">
         <v>608</v>
@@ -9052,7 +9052,7 @@
         <v>607</v>
       </c>
       <c r="C403">
-        <v>95.858</v>
+        <v>99.524</v>
       </c>
       <c r="D403" t="s">
         <v>608</v>
@@ -9069,7 +9069,7 @@
         <v>606</v>
       </c>
       <c r="C404">
-        <v>108.935</v>
+        <v>106.145</v>
       </c>
       <c r="D404" t="s">
         <v>608</v>
@@ -9086,7 +9086,7 @@
         <v>606</v>
       </c>
       <c r="C405">
-        <v>112.098</v>
+        <v>113.622</v>
       </c>
       <c r="D405" t="s">
         <v>608</v>
@@ -9103,7 +9103,7 @@
         <v>606</v>
       </c>
       <c r="C406">
-        <v>110.523</v>
+        <v>113.251</v>
       </c>
       <c r="D406" t="s">
         <v>608</v>
@@ -9120,7 +9120,7 @@
         <v>606</v>
       </c>
       <c r="C407">
-        <v>111.338</v>
+        <v>110.688</v>
       </c>
       <c r="D407" t="s">
         <v>608</v>
@@ -9137,7 +9137,7 @@
         <v>606</v>
       </c>
       <c r="C408">
-        <v>107.317</v>
+        <v>111.824</v>
       </c>
       <c r="D408" t="s">
         <v>608</v>
@@ -9154,7 +9154,7 @@
         <v>606</v>
       </c>
       <c r="C409">
-        <v>109.902</v>
+        <v>112.812</v>
       </c>
       <c r="D409" t="s">
         <v>608</v>
@@ -9171,7 +9171,7 @@
         <v>606</v>
       </c>
       <c r="C410">
-        <v>104.702</v>
+        <v>100.848</v>
       </c>
       <c r="D410" t="s">
         <v>608</v>
@@ -9188,7 +9188,7 @@
         <v>606</v>
       </c>
       <c r="C411">
-        <v>108.81</v>
+        <v>107.63</v>
       </c>
       <c r="D411" t="s">
         <v>608</v>
@@ -9205,7 +9205,7 @@
         <v>606</v>
       </c>
       <c r="C412">
-        <v>101.602</v>
+        <v>100.876</v>
       </c>
       <c r="D412" t="s">
         <v>608</v>
@@ -9222,7 +9222,7 @@
         <v>606</v>
       </c>
       <c r="C413">
-        <v>108.696</v>
+        <v>112.625</v>
       </c>
       <c r="D413" t="s">
         <v>608</v>
@@ -9239,7 +9239,7 @@
         <v>606</v>
       </c>
       <c r="C414">
-        <v>112.929</v>
+        <v>112.503</v>
       </c>
       <c r="D414" t="s">
         <v>608</v>
@@ -9256,7 +9256,7 @@
         <v>606</v>
       </c>
       <c r="C415">
-        <v>104.217</v>
+        <v>108.752</v>
       </c>
       <c r="D415" t="s">
         <v>608</v>
@@ -9273,7 +9273,7 @@
         <v>606</v>
       </c>
       <c r="C416">
-        <v>110.504</v>
+        <v>110.021</v>
       </c>
       <c r="D416" t="s">
         <v>608</v>
@@ -9290,7 +9290,7 @@
         <v>606</v>
       </c>
       <c r="C417">
-        <v>108.338</v>
+        <v>107.533</v>
       </c>
       <c r="D417" t="s">
         <v>608</v>
@@ -9307,7 +9307,7 @@
         <v>607</v>
       </c>
       <c r="C418">
-        <v>91.89100000000001</v>
+        <v>89.211</v>
       </c>
       <c r="D418" t="s">
         <v>608</v>
@@ -9324,7 +9324,7 @@
         <v>606</v>
       </c>
       <c r="C419">
-        <v>108.4</v>
+        <v>109.524</v>
       </c>
       <c r="D419" t="s">
         <v>608</v>
@@ -9341,7 +9341,7 @@
         <v>606</v>
       </c>
       <c r="C420">
-        <v>115.02</v>
+        <v>118.15</v>
       </c>
       <c r="D420" t="s">
         <v>608</v>
@@ -9358,7 +9358,7 @@
         <v>607</v>
       </c>
       <c r="C421">
-        <v>94.434</v>
+        <v>91.429</v>
       </c>
       <c r="D421" t="s">
         <v>608</v>
@@ -9375,7 +9375,7 @@
         <v>606</v>
       </c>
       <c r="C422">
-        <v>105.181</v>
+        <v>103.289</v>
       </c>
       <c r="D422" t="s">
         <v>608</v>
@@ -9392,7 +9392,7 @@
         <v>606</v>
       </c>
       <c r="C423">
-        <v>100.49</v>
+        <v>101.689</v>
       </c>
       <c r="D423" t="s">
         <v>608</v>
@@ -9409,7 +9409,7 @@
         <v>606</v>
       </c>
       <c r="C424">
-        <v>112.769</v>
+        <v>112.621</v>
       </c>
       <c r="D424" t="s">
         <v>608</v>
@@ -9426,7 +9426,7 @@
         <v>606</v>
       </c>
       <c r="C425">
-        <v>104.082</v>
+        <v>108.526</v>
       </c>
       <c r="D425" t="s">
         <v>608</v>
@@ -9443,7 +9443,7 @@
         <v>606</v>
       </c>
       <c r="C426">
-        <v>104.785</v>
+        <v>106.718</v>
       </c>
       <c r="D426" t="s">
         <v>608</v>
@@ -9460,7 +9460,7 @@
         <v>606</v>
       </c>
       <c r="C427">
-        <v>107.07</v>
+        <v>111.266</v>
       </c>
       <c r="D427" t="s">
         <v>608</v>
@@ -9477,7 +9477,7 @@
         <v>606</v>
       </c>
       <c r="C428">
-        <v>108.504</v>
+        <v>104.188</v>
       </c>
       <c r="D428" t="s">
         <v>608</v>
@@ -9494,7 +9494,7 @@
         <v>606</v>
       </c>
       <c r="C429">
-        <v>102.833</v>
+        <v>105.462</v>
       </c>
       <c r="D429" t="s">
         <v>608</v>
@@ -9511,7 +9511,7 @@
         <v>606</v>
       </c>
       <c r="C430">
-        <v>110.297</v>
+        <v>116.888</v>
       </c>
       <c r="D430" t="s">
         <v>608</v>
@@ -9528,7 +9528,7 @@
         <v>606</v>
       </c>
       <c r="C431">
-        <v>103.839</v>
+        <v>101.834</v>
       </c>
       <c r="D431" t="s">
         <v>608</v>
@@ -9545,7 +9545,7 @@
         <v>606</v>
       </c>
       <c r="C432">
-        <v>109.513</v>
+        <v>105.19</v>
       </c>
       <c r="D432" t="s">
         <v>608</v>
@@ -9562,7 +9562,7 @@
         <v>606</v>
       </c>
       <c r="C433">
-        <v>107.295</v>
+        <v>109.746</v>
       </c>
       <c r="D433" t="s">
         <v>608</v>
@@ -9579,7 +9579,7 @@
         <v>606</v>
       </c>
       <c r="C434">
-        <v>111.345</v>
+        <v>114.841</v>
       </c>
       <c r="D434" t="s">
         <v>608</v>
@@ -9596,7 +9596,7 @@
         <v>606</v>
       </c>
       <c r="C435">
-        <v>115.99</v>
+        <v>118.655</v>
       </c>
       <c r="D435" t="s">
         <v>608</v>
@@ -9613,7 +9613,7 @@
         <v>606</v>
       </c>
       <c r="C436">
-        <v>105.193</v>
+        <v>106.573</v>
       </c>
       <c r="D436" t="s">
         <v>608</v>
@@ -9630,7 +9630,7 @@
         <v>606</v>
       </c>
       <c r="C437">
-        <v>113.021</v>
+        <v>105.66</v>
       </c>
       <c r="D437" t="s">
         <v>608</v>
@@ -9647,7 +9647,7 @@
         <v>606</v>
       </c>
       <c r="C438">
-        <v>109.983</v>
+        <v>109.287</v>
       </c>
       <c r="D438" t="s">
         <v>608</v>
@@ -9664,7 +9664,7 @@
         <v>606</v>
       </c>
       <c r="C439">
-        <v>104.381</v>
+        <v>108.639</v>
       </c>
       <c r="D439" t="s">
         <v>608</v>
@@ -9681,7 +9681,7 @@
         <v>606</v>
       </c>
       <c r="C440">
-        <v>103.821</v>
+        <v>105.258</v>
       </c>
       <c r="D440" t="s">
         <v>608</v>
@@ -9698,7 +9698,7 @@
         <v>606</v>
       </c>
       <c r="C441">
-        <v>110.531</v>
+        <v>110.798</v>
       </c>
       <c r="D441" t="s">
         <v>608</v>
@@ -9715,7 +9715,7 @@
         <v>606</v>
       </c>
       <c r="C442">
-        <v>104.56</v>
+        <v>101.534</v>
       </c>
       <c r="D442" t="s">
         <v>608</v>
@@ -9732,7 +9732,7 @@
         <v>606</v>
       </c>
       <c r="C443">
-        <v>118.008</v>
+        <v>125.106</v>
       </c>
       <c r="D443" t="s">
         <v>608</v>
@@ -9749,7 +9749,7 @@
         <v>606</v>
       </c>
       <c r="C444">
-        <v>102.757</v>
+        <v>103.04</v>
       </c>
       <c r="D444" t="s">
         <v>608</v>
@@ -9766,7 +9766,7 @@
         <v>606</v>
       </c>
       <c r="C445">
-        <v>108.561</v>
+        <v>107.092</v>
       </c>
       <c r="D445" t="s">
         <v>608</v>
@@ -9783,7 +9783,7 @@
         <v>606</v>
       </c>
       <c r="C446">
-        <v>101.219</v>
+        <v>100.087</v>
       </c>
       <c r="D446" t="s">
         <v>608</v>
@@ -9800,7 +9800,7 @@
         <v>606</v>
       </c>
       <c r="C447">
-        <v>104.778</v>
+        <v>104.08</v>
       </c>
       <c r="D447" t="s">
         <v>608</v>
@@ -9817,7 +9817,7 @@
         <v>606</v>
       </c>
       <c r="C448">
-        <v>106.797</v>
+        <v>108.204</v>
       </c>
       <c r="D448" t="s">
         <v>608</v>
@@ -9834,7 +9834,7 @@
         <v>606</v>
       </c>
       <c r="C449">
-        <v>111.974</v>
+        <v>114.366</v>
       </c>
       <c r="D449" t="s">
         <v>608</v>
@@ -9851,7 +9851,7 @@
         <v>606</v>
       </c>
       <c r="C450">
-        <v>104.172</v>
+        <v>102.851</v>
       </c>
       <c r="D450" t="s">
         <v>608</v>
@@ -9868,7 +9868,7 @@
         <v>606</v>
       </c>
       <c r="C451">
-        <v>101.507</v>
+        <v>102.343</v>
       </c>
       <c r="D451" t="s">
         <v>608</v>
@@ -9885,7 +9885,7 @@
         <v>606</v>
       </c>
       <c r="C452">
-        <v>119.774</v>
+        <v>122.646</v>
       </c>
       <c r="D452" t="s">
         <v>608</v>
@@ -9902,7 +9902,7 @@
         <v>606</v>
       </c>
       <c r="C453">
-        <v>103.445</v>
+        <v>108.391</v>
       </c>
       <c r="D453" t="s">
         <v>608</v>
@@ -9919,7 +9919,7 @@
         <v>606</v>
       </c>
       <c r="C454">
-        <v>114.782</v>
+        <v>120.329</v>
       </c>
       <c r="D454" t="s">
         <v>608</v>
@@ -9936,7 +9936,7 @@
         <v>606</v>
       </c>
       <c r="C455">
-        <v>123.522</v>
+        <v>126.007</v>
       </c>
       <c r="D455" t="s">
         <v>608</v>
@@ -9953,7 +9953,7 @@
         <v>606</v>
       </c>
       <c r="C456">
-        <v>104.117</v>
+        <v>105.831</v>
       </c>
       <c r="D456" t="s">
         <v>608</v>
@@ -9970,7 +9970,7 @@
         <v>606</v>
       </c>
       <c r="C457">
-        <v>104.587</v>
+        <v>106.176</v>
       </c>
       <c r="D457" t="s">
         <v>608</v>
@@ -9987,7 +9987,7 @@
         <v>606</v>
       </c>
       <c r="C458">
-        <v>105.876</v>
+        <v>110.035</v>
       </c>
       <c r="D458" t="s">
         <v>608</v>
@@ -10004,7 +10004,7 @@
         <v>606</v>
       </c>
       <c r="C459">
-        <v>121.746</v>
+        <v>118.23</v>
       </c>
       <c r="D459" t="s">
         <v>608</v>
@@ -10021,7 +10021,7 @@
         <v>606</v>
       </c>
       <c r="C460">
-        <v>115.589</v>
+        <v>117.975</v>
       </c>
       <c r="D460" t="s">
         <v>608</v>
@@ -10038,7 +10038,7 @@
         <v>607</v>
       </c>
       <c r="C461">
-        <v>99.538</v>
+        <v>96.108</v>
       </c>
       <c r="D461" t="s">
         <v>608</v>
@@ -10055,7 +10055,7 @@
         <v>606</v>
       </c>
       <c r="C462">
-        <v>104.421</v>
+        <v>103.282</v>
       </c>
       <c r="D462" t="s">
         <v>608</v>
@@ -10072,7 +10072,7 @@
         <v>606</v>
       </c>
       <c r="C463">
-        <v>122.459</v>
+        <v>124.392</v>
       </c>
       <c r="D463" t="s">
         <v>608</v>
@@ -10089,7 +10089,7 @@
         <v>607</v>
       </c>
       <c r="C464">
-        <v>92.95999999999999</v>
+        <v>90.786</v>
       </c>
       <c r="D464" t="s">
         <v>608</v>
@@ -10106,7 +10106,7 @@
         <v>606</v>
       </c>
       <c r="C465">
-        <v>112.339</v>
+        <v>112.975</v>
       </c>
       <c r="D465" t="s">
         <v>608</v>
@@ -10123,7 +10123,7 @@
         <v>606</v>
       </c>
       <c r="C466">
-        <v>107.792</v>
+        <v>105.699</v>
       </c>
       <c r="D466" t="s">
         <v>608</v>
@@ -10140,7 +10140,7 @@
         <v>606</v>
       </c>
       <c r="C467">
-        <v>106.407</v>
+        <v>110.032</v>
       </c>
       <c r="D467" t="s">
         <v>608</v>
@@ -10157,7 +10157,7 @@
         <v>607</v>
       </c>
       <c r="C468">
-        <v>95.313</v>
+        <v>95.093</v>
       </c>
       <c r="D468" t="s">
         <v>608</v>
@@ -10174,7 +10174,7 @@
         <v>607</v>
       </c>
       <c r="C469">
-        <v>98.592</v>
+        <v>99.63</v>
       </c>
       <c r="D469" t="s">
         <v>608</v>
@@ -10191,7 +10191,7 @@
         <v>606</v>
       </c>
       <c r="C470">
-        <v>107.02</v>
+        <v>107.353</v>
       </c>
       <c r="D470" t="s">
         <v>608</v>
@@ -10208,7 +10208,7 @@
         <v>606</v>
       </c>
       <c r="C471">
-        <v>110</v>
+        <v>116.38</v>
       </c>
       <c r="D471" t="s">
         <v>608</v>
@@ -10225,7 +10225,7 @@
         <v>606</v>
       </c>
       <c r="C472">
-        <v>105.074</v>
+        <v>107.4</v>
       </c>
       <c r="D472" t="s">
         <v>608</v>
@@ -10239,10 +10239,10 @@
         <v>476</v>
       </c>
       <c r="B473" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C473">
-        <v>103.364</v>
+        <v>99.89100000000001</v>
       </c>
       <c r="D473" t="s">
         <v>608</v>
@@ -10259,7 +10259,7 @@
         <v>606</v>
       </c>
       <c r="C474">
-        <v>107.929</v>
+        <v>115.157</v>
       </c>
       <c r="D474" t="s">
         <v>608</v>
@@ -10276,7 +10276,7 @@
         <v>606</v>
       </c>
       <c r="C475">
-        <v>100.321</v>
+        <v>105.255</v>
       </c>
       <c r="D475" t="s">
         <v>608</v>
@@ -10293,7 +10293,7 @@
         <v>607</v>
       </c>
       <c r="C476">
-        <v>79.29300000000001</v>
+        <v>79.562</v>
       </c>
       <c r="D476" t="s">
         <v>608</v>
@@ -10310,7 +10310,7 @@
         <v>606</v>
       </c>
       <c r="C477">
-        <v>105.192</v>
+        <v>109.73</v>
       </c>
       <c r="D477" t="s">
         <v>608</v>
@@ -10327,7 +10327,7 @@
         <v>607</v>
       </c>
       <c r="C478">
-        <v>99.581</v>
+        <v>95.565</v>
       </c>
       <c r="D478" t="s">
         <v>608</v>
@@ -10344,7 +10344,7 @@
         <v>606</v>
       </c>
       <c r="C479">
-        <v>110.573</v>
+        <v>114.854</v>
       </c>
       <c r="D479" t="s">
         <v>608</v>
@@ -10361,7 +10361,7 @@
         <v>606</v>
       </c>
       <c r="C480">
-        <v>114.593</v>
+        <v>115.625</v>
       </c>
       <c r="D480" t="s">
         <v>608</v>
@@ -10378,7 +10378,7 @@
         <v>606</v>
       </c>
       <c r="C481">
-        <v>126.106</v>
+        <v>118.448</v>
       </c>
       <c r="D481" t="s">
         <v>608</v>
@@ -10395,7 +10395,7 @@
         <v>606</v>
       </c>
       <c r="C482">
-        <v>103.012</v>
+        <v>106.003</v>
       </c>
       <c r="D482" t="s">
         <v>608</v>
@@ -10412,7 +10412,7 @@
         <v>606</v>
       </c>
       <c r="C483">
-        <v>105.849</v>
+        <v>112.378</v>
       </c>
       <c r="D483" t="s">
         <v>608</v>
@@ -10429,7 +10429,7 @@
         <v>606</v>
       </c>
       <c r="C484">
-        <v>111.979</v>
+        <v>115.37</v>
       </c>
       <c r="D484" t="s">
         <v>608</v>
@@ -10446,7 +10446,7 @@
         <v>606</v>
       </c>
       <c r="C485">
-        <v>122.026</v>
+        <v>123.535</v>
       </c>
       <c r="D485" t="s">
         <v>608</v>
@@ -10463,7 +10463,7 @@
         <v>606</v>
       </c>
       <c r="C486">
-        <v>107.507</v>
+        <v>111.672</v>
       </c>
       <c r="D486" t="s">
         <v>608</v>
@@ -10480,7 +10480,7 @@
         <v>606</v>
       </c>
       <c r="C487">
-        <v>100.079</v>
+        <v>101.296</v>
       </c>
       <c r="D487" t="s">
         <v>608</v>
@@ -10494,10 +10494,10 @@
         <v>491</v>
       </c>
       <c r="B488" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C488">
-        <v>99.90600000000001</v>
+        <v>101.269</v>
       </c>
       <c r="D488" t="s">
         <v>608</v>
@@ -10514,7 +10514,7 @@
         <v>606</v>
       </c>
       <c r="C489">
-        <v>122.281</v>
+        <v>124.612</v>
       </c>
       <c r="D489" t="s">
         <v>608</v>
@@ -10531,7 +10531,7 @@
         <v>606</v>
       </c>
       <c r="C490">
-        <v>106.593</v>
+        <v>100.445</v>
       </c>
       <c r="D490" t="s">
         <v>608</v>
@@ -10545,10 +10545,10 @@
         <v>494</v>
       </c>
       <c r="B491" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C491">
-        <v>97.38500000000001</v>
+        <v>104.707</v>
       </c>
       <c r="D491" t="s">
         <v>608</v>
@@ -10565,7 +10565,7 @@
         <v>607</v>
       </c>
       <c r="C492">
-        <v>99.90600000000001</v>
+        <v>99.19</v>
       </c>
       <c r="D492" t="s">
         <v>608</v>
@@ -10582,7 +10582,7 @@
         <v>606</v>
       </c>
       <c r="C493">
-        <v>104.67</v>
+        <v>102.349</v>
       </c>
       <c r="D493" t="s">
         <v>608</v>
@@ -10599,7 +10599,7 @@
         <v>606</v>
       </c>
       <c r="C494">
-        <v>101.311</v>
+        <v>100.69</v>
       </c>
       <c r="D494" t="s">
         <v>608</v>
@@ -10613,10 +10613,10 @@
         <v>498</v>
       </c>
       <c r="B495" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C495">
-        <v>99.598</v>
+        <v>102.374</v>
       </c>
       <c r="D495" t="s">
         <v>608</v>
@@ -10633,7 +10633,7 @@
         <v>606</v>
       </c>
       <c r="C496">
-        <v>103.895</v>
+        <v>102.921</v>
       </c>
       <c r="D496" t="s">
         <v>608</v>
@@ -10650,7 +10650,7 @@
         <v>607</v>
       </c>
       <c r="C497">
-        <v>96.935</v>
+        <v>96.32899999999999</v>
       </c>
       <c r="D497" t="s">
         <v>608</v>
@@ -10667,7 +10667,7 @@
         <v>607</v>
       </c>
       <c r="C498">
-        <v>97.68300000000001</v>
+        <v>97.81</v>
       </c>
       <c r="D498" t="s">
         <v>608</v>
@@ -10684,7 +10684,7 @@
         <v>606</v>
       </c>
       <c r="C499">
-        <v>100.295</v>
+        <v>102.333</v>
       </c>
       <c r="D499" t="s">
         <v>608</v>
@@ -10698,10 +10698,10 @@
         <v>503</v>
       </c>
       <c r="B500" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C500">
-        <v>100.78</v>
+        <v>99.708</v>
       </c>
       <c r="D500" t="s">
         <v>608</v>
@@ -10718,7 +10718,7 @@
         <v>606</v>
       </c>
       <c r="C501">
-        <v>110.777</v>
+        <v>107.09</v>
       </c>
       <c r="D501" t="s">
         <v>608</v>
@@ -10735,7 +10735,7 @@
         <v>606</v>
       </c>
       <c r="C502">
-        <v>107.782</v>
+        <v>111.908</v>
       </c>
       <c r="D502" t="s">
         <v>608</v>
@@ -10752,7 +10752,7 @@
         <v>606</v>
       </c>
       <c r="C503">
-        <v>116.308</v>
+        <v>115.168</v>
       </c>
       <c r="D503" t="s">
         <v>608</v>
@@ -10769,7 +10769,7 @@
         <v>606</v>
       </c>
       <c r="C504">
-        <v>115.018</v>
+        <v>116.321</v>
       </c>
       <c r="D504" t="s">
         <v>608</v>
@@ -10786,7 +10786,7 @@
         <v>606</v>
       </c>
       <c r="C505">
-        <v>105.096</v>
+        <v>106.324</v>
       </c>
       <c r="D505" t="s">
         <v>608</v>
@@ -10800,10 +10800,10 @@
         <v>509</v>
       </c>
       <c r="B506" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C506">
-        <v>98.631</v>
+        <v>101.197</v>
       </c>
       <c r="D506" t="s">
         <v>608</v>
@@ -10820,7 +10820,7 @@
         <v>607</v>
       </c>
       <c r="C507">
-        <v>88.36199999999999</v>
+        <v>88.727</v>
       </c>
       <c r="D507" t="s">
         <v>608</v>
@@ -10837,7 +10837,7 @@
         <v>606</v>
       </c>
       <c r="C508">
-        <v>103.197</v>
+        <v>105.937</v>
       </c>
       <c r="D508" t="s">
         <v>608</v>
@@ -10854,7 +10854,7 @@
         <v>606</v>
       </c>
       <c r="C509">
-        <v>119.523</v>
+        <v>120.801</v>
       </c>
       <c r="D509" t="s">
         <v>608</v>
@@ -10871,7 +10871,7 @@
         <v>606</v>
       </c>
       <c r="C510">
-        <v>106.284</v>
+        <v>104.267</v>
       </c>
       <c r="D510" t="s">
         <v>608</v>
@@ -10888,7 +10888,7 @@
         <v>607</v>
       </c>
       <c r="C511">
-        <v>87.13</v>
+        <v>78.20399999999999</v>
       </c>
       <c r="D511" t="s">
         <v>608</v>
@@ -10905,7 +10905,7 @@
         <v>606</v>
       </c>
       <c r="C512">
-        <v>130.39</v>
+        <v>130.227</v>
       </c>
       <c r="D512" t="s">
         <v>608</v>
@@ -10922,7 +10922,7 @@
         <v>606</v>
       </c>
       <c r="C513">
-        <v>107.802</v>
+        <v>110.821</v>
       </c>
       <c r="D513" t="s">
         <v>608</v>
@@ -10939,7 +10939,7 @@
         <v>606</v>
       </c>
       <c r="C514">
-        <v>160.15</v>
+        <v>180.882</v>
       </c>
       <c r="D514" t="s">
         <v>608</v>
@@ -10956,7 +10956,7 @@
         <v>606</v>
       </c>
       <c r="C515">
-        <v>155.859</v>
+        <v>140.511</v>
       </c>
       <c r="D515" t="s">
         <v>608</v>
@@ -10973,7 +10973,7 @@
         <v>606</v>
       </c>
       <c r="C516">
-        <v>106.632</v>
+        <v>112.798</v>
       </c>
       <c r="D516" t="s">
         <v>608</v>
@@ -10990,7 +10990,7 @@
         <v>606</v>
       </c>
       <c r="C517">
-        <v>101.918</v>
+        <v>101.438</v>
       </c>
       <c r="D517" t="s">
         <v>608</v>
@@ -11007,7 +11007,7 @@
         <v>606</v>
       </c>
       <c r="C518">
-        <v>115.515</v>
+        <v>127.796</v>
       </c>
       <c r="D518" t="s">
         <v>608</v>
@@ -11024,7 +11024,7 @@
         <v>606</v>
       </c>
       <c r="C519">
-        <v>131.707</v>
+        <v>147.853</v>
       </c>
       <c r="D519" t="s">
         <v>608</v>
@@ -11041,7 +11041,7 @@
         <v>606</v>
       </c>
       <c r="C520">
-        <v>101.593</v>
+        <v>127.881</v>
       </c>
       <c r="D520" t="s">
         <v>608</v>
@@ -11058,7 +11058,7 @@
         <v>607</v>
       </c>
       <c r="C521">
-        <v>89.956</v>
+        <v>91.604</v>
       </c>
       <c r="D521" t="s">
         <v>608</v>
@@ -11075,7 +11075,7 @@
         <v>606</v>
       </c>
       <c r="C522">
-        <v>102.028</v>
+        <v>103.186</v>
       </c>
       <c r="D522" t="s">
         <v>608</v>
@@ -11092,7 +11092,7 @@
         <v>606</v>
       </c>
       <c r="C523">
-        <v>106.347</v>
+        <v>103.65</v>
       </c>
       <c r="D523" t="s">
         <v>608</v>
@@ -11109,7 +11109,7 @@
         <v>607</v>
       </c>
       <c r="C524">
-        <v>91.474</v>
+        <v>91.01900000000001</v>
       </c>
       <c r="D524" t="s">
         <v>608</v>
@@ -11126,7 +11126,7 @@
         <v>606</v>
       </c>
       <c r="C525">
-        <v>111.726</v>
+        <v>121.197</v>
       </c>
       <c r="D525" t="s">
         <v>608</v>
@@ -11143,7 +11143,7 @@
         <v>607</v>
       </c>
       <c r="C526">
-        <v>85.136</v>
+        <v>96.959</v>
       </c>
       <c r="D526" t="s">
         <v>608</v>
@@ -11160,7 +11160,7 @@
         <v>607</v>
       </c>
       <c r="C527">
-        <v>82.702</v>
+        <v>83.5</v>
       </c>
       <c r="D527" t="s">
         <v>608</v>
@@ -11177,7 +11177,7 @@
         <v>607</v>
       </c>
       <c r="C528">
-        <v>70.47499999999999</v>
+        <v>66.52</v>
       </c>
       <c r="D528" t="s">
         <v>608</v>
@@ -11194,7 +11194,7 @@
         <v>607</v>
       </c>
       <c r="C529">
-        <v>85.075</v>
+        <v>87.13</v>
       </c>
       <c r="D529" t="s">
         <v>608</v>
@@ -11211,7 +11211,7 @@
         <v>606</v>
       </c>
       <c r="C530">
-        <v>128.556</v>
+        <v>132.429</v>
       </c>
       <c r="D530" t="s">
         <v>608</v>
@@ -11228,7 +11228,7 @@
         <v>606</v>
       </c>
       <c r="C531">
-        <v>137.471</v>
+        <v>141.501</v>
       </c>
       <c r="D531" t="s">
         <v>608</v>
@@ -11245,7 +11245,7 @@
         <v>606</v>
       </c>
       <c r="C532">
-        <v>136.889</v>
+        <v>140.179</v>
       </c>
       <c r="D532" t="s">
         <v>608</v>
@@ -11262,7 +11262,7 @@
         <v>606</v>
       </c>
       <c r="C533">
-        <v>121.091</v>
+        <v>123.616</v>
       </c>
       <c r="D533" t="s">
         <v>608</v>
@@ -11279,7 +11279,7 @@
         <v>606</v>
       </c>
       <c r="C534">
-        <v>110.738</v>
+        <v>109.532</v>
       </c>
       <c r="D534" t="s">
         <v>608</v>
@@ -11296,7 +11296,7 @@
         <v>607</v>
       </c>
       <c r="C535">
-        <v>97.642</v>
+        <v>99.173</v>
       </c>
       <c r="D535" t="s">
         <v>608</v>
@@ -11310,10 +11310,10 @@
         <v>538</v>
       </c>
       <c r="B536" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C536">
-        <v>100.495</v>
+        <v>99.733</v>
       </c>
       <c r="D536" t="s">
         <v>608</v>
@@ -11330,7 +11330,7 @@
         <v>606</v>
       </c>
       <c r="C537">
-        <v>109.948</v>
+        <v>108.419</v>
       </c>
       <c r="D537" t="s">
         <v>608</v>
@@ -11347,7 +11347,7 @@
         <v>607</v>
       </c>
       <c r="C538">
-        <v>94.405</v>
+        <v>94.696</v>
       </c>
       <c r="D538" t="s">
         <v>608</v>
@@ -11361,10 +11361,10 @@
         <v>384</v>
       </c>
       <c r="B539" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C539">
-        <v>100.153</v>
+        <v>97.871</v>
       </c>
       <c r="D539" t="s">
         <v>608</v>
@@ -11381,7 +11381,7 @@
         <v>607</v>
       </c>
       <c r="C540">
-        <v>80.843</v>
+        <v>81.121</v>
       </c>
       <c r="D540" t="s">
         <v>608</v>
@@ -11398,7 +11398,7 @@
         <v>606</v>
       </c>
       <c r="C541">
-        <v>106.452</v>
+        <v>102.362</v>
       </c>
       <c r="D541" t="s">
         <v>608</v>
@@ -11415,7 +11415,7 @@
         <v>606</v>
       </c>
       <c r="C542">
-        <v>100.824</v>
+        <v>102.133</v>
       </c>
       <c r="D542" t="s">
         <v>608</v>
@@ -11432,7 +11432,7 @@
         <v>606</v>
       </c>
       <c r="C543">
-        <v>104.007</v>
+        <v>110.512</v>
       </c>
       <c r="D543" t="s">
         <v>608</v>
@@ -11446,10 +11446,10 @@
         <v>545</v>
       </c>
       <c r="B544" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C544">
-        <v>98.834</v>
+        <v>101.724</v>
       </c>
       <c r="D544" t="s">
         <v>608</v>
@@ -11466,7 +11466,7 @@
         <v>606</v>
       </c>
       <c r="C545">
-        <v>104.179</v>
+        <v>112.111</v>
       </c>
       <c r="D545" t="s">
         <v>608</v>
@@ -11483,7 +11483,7 @@
         <v>606</v>
       </c>
       <c r="C546">
-        <v>101.514</v>
+        <v>105.448</v>
       </c>
       <c r="D546" t="s">
         <v>608</v>
@@ -11500,7 +11500,7 @@
         <v>606</v>
       </c>
       <c r="C547">
-        <v>106.824</v>
+        <v>122.531</v>
       </c>
       <c r="D547" t="s">
         <v>608</v>
@@ -11514,10 +11514,10 @@
         <v>549</v>
       </c>
       <c r="B548" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C548">
-        <v>93.658</v>
+        <v>106.735</v>
       </c>
       <c r="D548" t="s">
         <v>608</v>
@@ -11531,10 +11531,10 @@
         <v>550</v>
       </c>
       <c r="B549" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C549">
-        <v>99.10599999999999</v>
+        <v>100</v>
       </c>
       <c r="D549" t="s">
         <v>608</v>
@@ -11548,10 +11548,10 @@
         <v>551</v>
       </c>
       <c r="B550" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C550">
-        <v>99.28</v>
+        <v>101.452</v>
       </c>
       <c r="D550" t="s">
         <v>608</v>
@@ -11565,10 +11565,10 @@
         <v>552</v>
       </c>
       <c r="B551" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C551">
-        <v>99.682</v>
+        <v>101.014</v>
       </c>
       <c r="D551" t="s">
         <v>608</v>
@@ -11582,10 +11582,10 @@
         <v>553</v>
       </c>
       <c r="B552" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C552">
-        <v>99.41</v>
+        <v>105.607</v>
       </c>
       <c r="D552" t="s">
         <v>608</v>
@@ -11602,7 +11602,7 @@
         <v>607</v>
       </c>
       <c r="C553">
-        <v>95.014</v>
+        <v>94.926</v>
       </c>
       <c r="D553" t="s">
         <v>608</v>
@@ -11619,7 +11619,7 @@
         <v>606</v>
       </c>
       <c r="C554">
-        <v>108.131</v>
+        <v>110.98</v>
       </c>
       <c r="D554" t="s">
         <v>608</v>
@@ -11636,7 +11636,7 @@
         <v>607</v>
       </c>
       <c r="C555">
-        <v>86.95699999999999</v>
+        <v>90.90900000000001</v>
       </c>
       <c r="D555" t="s">
         <v>608</v>
@@ -11653,7 +11653,7 @@
         <v>606</v>
       </c>
       <c r="C556">
-        <v>101.638</v>
+        <v>105.59</v>
       </c>
       <c r="D556" t="s">
         <v>608</v>
@@ -11667,10 +11667,10 @@
         <v>558</v>
       </c>
       <c r="B557" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C557">
-        <v>99.482</v>
+        <v>100.181</v>
       </c>
       <c r="D557" t="s">
         <v>608</v>
@@ -11684,10 +11684,10 @@
         <v>559</v>
       </c>
       <c r="B558" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C558">
-        <v>100.184</v>
+        <v>99.146</v>
       </c>
       <c r="D558" t="s">
         <v>608</v>
@@ -11704,7 +11704,7 @@
         <v>607</v>
       </c>
       <c r="C559">
-        <v>98.089</v>
+        <v>99.015</v>
       </c>
       <c r="D559" t="s">
         <v>608</v>
@@ -11721,7 +11721,7 @@
         <v>607</v>
       </c>
       <c r="C560">
-        <v>96.232</v>
+        <v>97.30200000000001</v>
       </c>
       <c r="D560" t="s">
         <v>608</v>
@@ -11738,7 +11738,7 @@
         <v>606</v>
       </c>
       <c r="C561">
-        <v>108.81</v>
+        <v>111.286</v>
       </c>
       <c r="D561" t="s">
         <v>608</v>
@@ -11755,7 +11755,7 @@
         <v>607</v>
       </c>
       <c r="C562">
-        <v>96.745</v>
+        <v>98.245</v>
       </c>
       <c r="D562" t="s">
         <v>608</v>
@@ -11772,7 +11772,7 @@
         <v>607</v>
       </c>
       <c r="C563">
-        <v>98.53700000000001</v>
+        <v>98.529</v>
       </c>
       <c r="D563" t="s">
         <v>608</v>
@@ -11789,7 +11789,7 @@
         <v>607</v>
       </c>
       <c r="C564">
-        <v>93.15900000000001</v>
+        <v>97.069</v>
       </c>
       <c r="D564" t="s">
         <v>608</v>
@@ -11806,7 +11806,7 @@
         <v>607</v>
       </c>
       <c r="C565">
-        <v>98.414</v>
+        <v>98.01600000000001</v>
       </c>
       <c r="D565" t="s">
         <v>608</v>
@@ -11823,7 +11823,7 @@
         <v>607</v>
       </c>
       <c r="C566">
-        <v>97.446</v>
+        <v>99.562</v>
       </c>
       <c r="D566" t="s">
         <v>608</v>
@@ -11840,7 +11840,7 @@
         <v>606</v>
       </c>
       <c r="C567">
-        <v>108.847</v>
+        <v>126.017</v>
       </c>
       <c r="D567" t="s">
         <v>608</v>
@@ -11857,7 +11857,7 @@
         <v>606</v>
       </c>
       <c r="C568">
-        <v>112.065</v>
+        <v>117.864</v>
       </c>
       <c r="D568" t="s">
         <v>608</v>
@@ -11874,7 +11874,7 @@
         <v>606</v>
       </c>
       <c r="C569">
-        <v>105.743</v>
+        <v>104.793</v>
       </c>
       <c r="D569" t="s">
         <v>608</v>
@@ -11891,7 +11891,7 @@
         <v>606</v>
       </c>
       <c r="C570">
-        <v>105.822</v>
+        <v>105.448</v>
       </c>
       <c r="D570" t="s">
         <v>608</v>
@@ -11908,7 +11908,7 @@
         <v>607</v>
       </c>
       <c r="C571">
-        <v>97.837</v>
+        <v>97.923</v>
       </c>
       <c r="D571" t="s">
         <v>608</v>
@@ -11925,7 +11925,7 @@
         <v>607</v>
       </c>
       <c r="C572">
-        <v>95.453</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="D572" t="s">
         <v>608</v>
@@ -11939,10 +11939,10 @@
         <v>574</v>
       </c>
       <c r="B573" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C573">
-        <v>100.388</v>
+        <v>97.93899999999999</v>
       </c>
       <c r="D573" t="s">
         <v>608</v>
@@ -11959,7 +11959,7 @@
         <v>606</v>
       </c>
       <c r="C574">
-        <v>108.146</v>
+        <v>108.682</v>
       </c>
       <c r="D574" t="s">
         <v>608</v>
@@ -11973,10 +11973,10 @@
         <v>576</v>
       </c>
       <c r="B575" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C575">
-        <v>104.987</v>
+        <v>99.657</v>
       </c>
       <c r="D575" t="s">
         <v>608</v>
@@ -11993,7 +11993,7 @@
         <v>606</v>
       </c>
       <c r="C576">
-        <v>102.079</v>
+        <v>103.258</v>
       </c>
       <c r="D576" t="s">
         <v>608</v>
@@ -12010,7 +12010,7 @@
         <v>606</v>
       </c>
       <c r="C577">
-        <v>101.262</v>
+        <v>101.595</v>
       </c>
       <c r="D577" t="s">
         <v>608</v>
@@ -12027,7 +12027,7 @@
         <v>606</v>
       </c>
       <c r="C578">
-        <v>108.495</v>
+        <v>104.847</v>
       </c>
       <c r="D578" t="s">
         <v>608</v>
@@ -12044,7 +12044,7 @@
         <v>607</v>
       </c>
       <c r="C579">
-        <v>93.021</v>
+        <v>94.95099999999999</v>
       </c>
       <c r="D579" t="s">
         <v>608</v>
@@ -12061,7 +12061,7 @@
         <v>607</v>
       </c>
       <c r="C580">
-        <v>96.30500000000001</v>
+        <v>99.214</v>
       </c>
       <c r="D580" t="s">
         <v>608</v>
@@ -12078,7 +12078,7 @@
         <v>606</v>
       </c>
       <c r="C581">
-        <v>106.895</v>
+        <v>105.882</v>
       </c>
       <c r="D581" t="s">
         <v>608</v>
@@ -12095,7 +12095,7 @@
         <v>606</v>
       </c>
       <c r="C582">
-        <v>111.932</v>
+        <v>114.104</v>
       </c>
       <c r="D582" t="s">
         <v>608</v>
@@ -12109,10 +12109,10 @@
         <v>584</v>
       </c>
       <c r="B583" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C583">
-        <v>100.554</v>
+        <v>99.95999999999999</v>
       </c>
       <c r="D583" t="s">
         <v>608</v>
@@ -12129,7 +12129,7 @@
         <v>606</v>
       </c>
       <c r="C584">
-        <v>101.978</v>
+        <v>100.461</v>
       </c>
       <c r="D584" t="s">
         <v>608</v>
@@ -12146,7 +12146,7 @@
         <v>607</v>
       </c>
       <c r="C585">
-        <v>95.899</v>
+        <v>96.089</v>
       </c>
       <c r="D585" t="s">
         <v>608</v>
@@ -12163,7 +12163,7 @@
         <v>606</v>
       </c>
       <c r="C586">
-        <v>113.046</v>
+        <v>109.762</v>
       </c>
       <c r="D586" t="s">
         <v>608</v>
@@ -12180,7 +12180,7 @@
         <v>606</v>
       </c>
       <c r="C587">
-        <v>115.272</v>
+        <v>112.748</v>
       </c>
       <c r="D587" t="s">
         <v>608</v>
@@ -12194,10 +12194,10 @@
         <v>589</v>
       </c>
       <c r="B588" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C588">
-        <v>104.149</v>
+        <v>98.33799999999999</v>
       </c>
       <c r="D588" t="s">
         <v>608</v>
@@ -12214,7 +12214,7 @@
         <v>606</v>
       </c>
       <c r="C589">
-        <v>114.225</v>
+        <v>107.864</v>
       </c>
       <c r="D589" t="s">
         <v>608</v>
@@ -12228,10 +12228,10 @@
         <v>591</v>
       </c>
       <c r="B590" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C590">
-        <v>100.638</v>
+        <v>99.506</v>
       </c>
       <c r="D590" t="s">
         <v>608</v>
@@ -12248,7 +12248,7 @@
         <v>607</v>
       </c>
       <c r="C591">
-        <v>95.07899999999999</v>
+        <v>97.163</v>
       </c>
       <c r="D591" t="s">
         <v>608</v>
@@ -12265,7 +12265,7 @@
         <v>606</v>
       </c>
       <c r="C592">
-        <v>104.85</v>
+        <v>103.525</v>
       </c>
       <c r="D592" t="s">
         <v>608</v>
@@ -12282,7 +12282,7 @@
         <v>607</v>
       </c>
       <c r="C593">
-        <v>91.17</v>
+        <v>89.05800000000001</v>
       </c>
       <c r="D593" t="s">
         <v>608</v>
@@ -12299,7 +12299,7 @@
         <v>607</v>
       </c>
       <c r="C594">
-        <v>95.011</v>
+        <v>96.684</v>
       </c>
       <c r="D594" t="s">
         <v>608</v>
@@ -12316,7 +12316,7 @@
         <v>606</v>
       </c>
       <c r="C595">
-        <v>104.402</v>
+        <v>102.598</v>
       </c>
       <c r="D595" t="s">
         <v>608</v>
@@ -12333,7 +12333,7 @@
         <v>606</v>
       </c>
       <c r="C596">
-        <v>104.586</v>
+        <v>103.051</v>
       </c>
       <c r="D596" t="s">
         <v>608</v>
@@ -12350,7 +12350,7 @@
         <v>607</v>
       </c>
       <c r="C597">
-        <v>98.84099999999999</v>
+        <v>97.949</v>
       </c>
       <c r="D597" t="s">
         <v>608</v>
@@ -12367,7 +12367,7 @@
         <v>606</v>
       </c>
       <c r="C598">
-        <v>121.73</v>
+        <v>122.124</v>
       </c>
       <c r="D598" t="s">
         <v>608</v>
@@ -12384,7 +12384,7 @@
         <v>607</v>
       </c>
       <c r="C599">
-        <v>98.8</v>
+        <v>96.639</v>
       </c>
       <c r="D599" t="s">
         <v>608</v>
@@ -12401,7 +12401,7 @@
         <v>606</v>
       </c>
       <c r="C600">
-        <v>106.915</v>
+        <v>107.6</v>
       </c>
       <c r="D600" t="s">
         <v>608</v>
@@ -12418,7 +12418,7 @@
         <v>606</v>
       </c>
       <c r="C601">
-        <v>109.283</v>
+        <v>107.188</v>
       </c>
       <c r="D601" t="s">
         <v>608</v>
@@ -12435,7 +12435,7 @@
         <v>606</v>
       </c>
       <c r="C602">
-        <v>109.254</v>
+        <v>115.431</v>
       </c>
       <c r="D602" t="s">
         <v>608</v>
@@ -12452,7 +12452,7 @@
         <v>606</v>
       </c>
       <c r="C603">
-        <v>103.356</v>
+        <v>101.006</v>
       </c>
       <c r="D603" t="s">
         <v>608</v>
@@ -12469,7 +12469,7 @@
         <v>606</v>
       </c>
       <c r="C604">
-        <v>108.668</v>
+        <v>119.745</v>
       </c>
       <c r="D604" t="s">
         <v>608</v>

--- a/generated_reports/tradfi_momentum.xlsx
+++ b/generated_reports/tradfi_momentum.xlsx
@@ -2235,7 +2235,7 @@
         <v>606</v>
       </c>
       <c r="C2">
-        <v>103.365</v>
+        <v>100.186</v>
       </c>
       <c r="D2" t="s">
         <v>608</v>
@@ -2252,7 +2252,7 @@
         <v>606</v>
       </c>
       <c r="C3">
-        <v>105.372</v>
+        <v>104.478</v>
       </c>
       <c r="D3" t="s">
         <v>608</v>
@@ -2269,7 +2269,7 @@
         <v>606</v>
       </c>
       <c r="C4">
-        <v>122.555</v>
+        <v>106.493</v>
       </c>
       <c r="D4" t="s">
         <v>608</v>
@@ -2286,7 +2286,7 @@
         <v>607</v>
       </c>
       <c r="C5">
-        <v>93.116</v>
+        <v>95.31100000000001</v>
       </c>
       <c r="D5" t="s">
         <v>608</v>
@@ -2300,10 +2300,10 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C6">
-        <v>108.159</v>
+        <v>97.925</v>
       </c>
       <c r="D6" t="s">
         <v>608</v>
@@ -2317,10 +2317,10 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C7">
-        <v>101.189</v>
+        <v>96.288</v>
       </c>
       <c r="D7" t="s">
         <v>608</v>
@@ -2337,7 +2337,7 @@
         <v>606</v>
       </c>
       <c r="C8">
-        <v>117.109</v>
+        <v>102.914</v>
       </c>
       <c r="D8" t="s">
         <v>608</v>
@@ -2351,10 +2351,10 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C9">
-        <v>98.622</v>
+        <v>119.894</v>
       </c>
       <c r="D9" t="s">
         <v>608</v>
@@ -2371,7 +2371,7 @@
         <v>606</v>
       </c>
       <c r="C10">
-        <v>117.61</v>
+        <v>111.065</v>
       </c>
       <c r="D10" t="s">
         <v>608</v>
@@ -2388,7 +2388,7 @@
         <v>606</v>
       </c>
       <c r="C11">
-        <v>107.77</v>
+        <v>104.402</v>
       </c>
       <c r="D11" t="s">
         <v>608</v>
@@ -2402,10 +2402,10 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C12">
-        <v>98.06699999999999</v>
+        <v>100.57</v>
       </c>
       <c r="D12" t="s">
         <v>608</v>
@@ -2419,10 +2419,10 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C13">
-        <v>109.784</v>
+        <v>99.024</v>
       </c>
       <c r="D13" t="s">
         <v>608</v>
@@ -2439,7 +2439,7 @@
         <v>606</v>
       </c>
       <c r="C14">
-        <v>117.638</v>
+        <v>121.734</v>
       </c>
       <c r="D14" t="s">
         <v>608</v>
@@ -2453,10 +2453,10 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C15">
-        <v>101.628</v>
+        <v>95.739</v>
       </c>
       <c r="D15" t="s">
         <v>608</v>
@@ -2473,7 +2473,7 @@
         <v>606</v>
       </c>
       <c r="C16">
-        <v>104.109</v>
+        <v>101.247</v>
       </c>
       <c r="D16" t="s">
         <v>608</v>
@@ -2490,7 +2490,7 @@
         <v>606</v>
       </c>
       <c r="C17">
-        <v>115.229</v>
+        <v>104.879</v>
       </c>
       <c r="D17" t="s">
         <v>608</v>
@@ -2507,7 +2507,7 @@
         <v>606</v>
       </c>
       <c r="C18">
-        <v>111.258</v>
+        <v>106.851</v>
       </c>
       <c r="D18" t="s">
         <v>608</v>
@@ -2524,7 +2524,7 @@
         <v>606</v>
       </c>
       <c r="C19">
-        <v>112.936</v>
+        <v>103.747</v>
       </c>
       <c r="D19" t="s">
         <v>608</v>
@@ -2541,7 +2541,7 @@
         <v>606</v>
       </c>
       <c r="C20">
-        <v>105.023</v>
+        <v>106.293</v>
       </c>
       <c r="D20" t="s">
         <v>608</v>
@@ -2558,7 +2558,7 @@
         <v>606</v>
       </c>
       <c r="C21">
-        <v>106.112</v>
+        <v>100.894</v>
       </c>
       <c r="D21" t="s">
         <v>608</v>
@@ -2575,7 +2575,7 @@
         <v>606</v>
       </c>
       <c r="C22">
-        <v>106.65</v>
+        <v>103.287</v>
       </c>
       <c r="D22" t="s">
         <v>608</v>
@@ -2589,10 +2589,10 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C23">
-        <v>104.905</v>
+        <v>99.18000000000001</v>
       </c>
       <c r="D23" t="s">
         <v>608</v>
@@ -2609,7 +2609,7 @@
         <v>607</v>
       </c>
       <c r="C24">
-        <v>95.223</v>
+        <v>97.235</v>
       </c>
       <c r="D24" t="s">
         <v>608</v>
@@ -2626,7 +2626,7 @@
         <v>606</v>
       </c>
       <c r="C25">
-        <v>105.961</v>
+        <v>105.733</v>
       </c>
       <c r="D25" t="s">
         <v>608</v>
@@ -2643,7 +2643,7 @@
         <v>606</v>
       </c>
       <c r="C26">
-        <v>113.98</v>
+        <v>106.829</v>
       </c>
       <c r="D26" t="s">
         <v>608</v>
@@ -2660,7 +2660,7 @@
         <v>606</v>
       </c>
       <c r="C27">
-        <v>102.223</v>
+        <v>108.334</v>
       </c>
       <c r="D27" t="s">
         <v>608</v>
@@ -2674,10 +2674,10 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C28">
-        <v>101.989</v>
+        <v>99.274</v>
       </c>
       <c r="D28" t="s">
         <v>608</v>
@@ -2694,7 +2694,7 @@
         <v>606</v>
       </c>
       <c r="C29">
-        <v>110.421</v>
+        <v>105.148</v>
       </c>
       <c r="D29" t="s">
         <v>608</v>
@@ -2711,7 +2711,7 @@
         <v>606</v>
       </c>
       <c r="C30">
-        <v>102.894</v>
+        <v>102.251</v>
       </c>
       <c r="D30" t="s">
         <v>608</v>
@@ -2728,7 +2728,7 @@
         <v>607</v>
       </c>
       <c r="C31">
-        <v>97.134</v>
+        <v>97.254</v>
       </c>
       <c r="D31" t="s">
         <v>608</v>
@@ -2745,7 +2745,7 @@
         <v>606</v>
       </c>
       <c r="C32">
-        <v>104.02</v>
+        <v>109.609</v>
       </c>
       <c r="D32" t="s">
         <v>608</v>
@@ -2762,7 +2762,7 @@
         <v>606</v>
       </c>
       <c r="C33">
-        <v>104.478</v>
+        <v>101.645</v>
       </c>
       <c r="D33" t="s">
         <v>608</v>
@@ -2779,7 +2779,7 @@
         <v>607</v>
       </c>
       <c r="C34">
-        <v>85.62</v>
+        <v>90.08199999999999</v>
       </c>
       <c r="D34" t="s">
         <v>608</v>
@@ -2793,10 +2793,10 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C35">
-        <v>97.69799999999999</v>
+        <v>100.137</v>
       </c>
       <c r="D35" t="s">
         <v>608</v>
@@ -2813,7 +2813,7 @@
         <v>606</v>
       </c>
       <c r="C36">
-        <v>111.944</v>
+        <v>108.237</v>
       </c>
       <c r="D36" t="s">
         <v>608</v>
@@ -2830,7 +2830,7 @@
         <v>606</v>
       </c>
       <c r="C37">
-        <v>101.434</v>
+        <v>100.495</v>
       </c>
       <c r="D37" t="s">
         <v>608</v>
@@ -2844,10 +2844,10 @@
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C38">
-        <v>100.661</v>
+        <v>95.16200000000001</v>
       </c>
       <c r="D38" t="s">
         <v>608</v>
@@ -2864,7 +2864,7 @@
         <v>606</v>
       </c>
       <c r="C39">
-        <v>109.503</v>
+        <v>106.677</v>
       </c>
       <c r="D39" t="s">
         <v>608</v>
@@ -2881,7 +2881,7 @@
         <v>607</v>
       </c>
       <c r="C40">
-        <v>98.22499999999999</v>
+        <v>94.842</v>
       </c>
       <c r="D40" t="s">
         <v>608</v>
@@ -2898,7 +2898,7 @@
         <v>606</v>
       </c>
       <c r="C41">
-        <v>104.348</v>
+        <v>104.603</v>
       </c>
       <c r="D41" t="s">
         <v>608</v>
@@ -2915,7 +2915,7 @@
         <v>606</v>
       </c>
       <c r="C42">
-        <v>117.355</v>
+        <v>103.279</v>
       </c>
       <c r="D42" t="s">
         <v>608</v>
@@ -2932,7 +2932,7 @@
         <v>606</v>
       </c>
       <c r="C43">
-        <v>103.084</v>
+        <v>104.275</v>
       </c>
       <c r="D43" t="s">
         <v>608</v>
@@ -2949,7 +2949,7 @@
         <v>606</v>
       </c>
       <c r="C44">
-        <v>111.596</v>
+        <v>109.821</v>
       </c>
       <c r="D44" t="s">
         <v>608</v>
@@ -2966,7 +2966,7 @@
         <v>606</v>
       </c>
       <c r="C45">
-        <v>103.565</v>
+        <v>102.866</v>
       </c>
       <c r="D45" t="s">
         <v>608</v>
@@ -2983,7 +2983,7 @@
         <v>607</v>
       </c>
       <c r="C46">
-        <v>96.846</v>
+        <v>95.911</v>
       </c>
       <c r="D46" t="s">
         <v>608</v>
@@ -3000,7 +3000,7 @@
         <v>607</v>
       </c>
       <c r="C47">
-        <v>95.81</v>
+        <v>99.354</v>
       </c>
       <c r="D47" t="s">
         <v>608</v>
@@ -3017,7 +3017,7 @@
         <v>606</v>
       </c>
       <c r="C48">
-        <v>100.411</v>
+        <v>100.824</v>
       </c>
       <c r="D48" t="s">
         <v>608</v>
@@ -3034,7 +3034,7 @@
         <v>606</v>
       </c>
       <c r="C49">
-        <v>101.493</v>
+        <v>104.574</v>
       </c>
       <c r="D49" t="s">
         <v>608</v>
@@ -3051,7 +3051,7 @@
         <v>606</v>
       </c>
       <c r="C50">
-        <v>102.189</v>
+        <v>100.88</v>
       </c>
       <c r="D50" t="s">
         <v>608</v>
@@ -3068,7 +3068,7 @@
         <v>606</v>
       </c>
       <c r="C51">
-        <v>108.598</v>
+        <v>105.572</v>
       </c>
       <c r="D51" t="s">
         <v>608</v>
@@ -3085,7 +3085,7 @@
         <v>606</v>
       </c>
       <c r="C52">
-        <v>113.539</v>
+        <v>114.798</v>
       </c>
       <c r="D52" t="s">
         <v>608</v>
@@ -3102,7 +3102,7 @@
         <v>607</v>
       </c>
       <c r="C53">
-        <v>93.764</v>
+        <v>93.212</v>
       </c>
       <c r="D53" t="s">
         <v>608</v>
@@ -3119,7 +3119,7 @@
         <v>607</v>
       </c>
       <c r="C54">
-        <v>99.492</v>
+        <v>97.88500000000001</v>
       </c>
       <c r="D54" t="s">
         <v>608</v>
@@ -3136,7 +3136,7 @@
         <v>606</v>
       </c>
       <c r="C55">
-        <v>104.294</v>
+        <v>101.958</v>
       </c>
       <c r="D55" t="s">
         <v>608</v>
@@ -3153,7 +3153,7 @@
         <v>606</v>
       </c>
       <c r="C56">
-        <v>113.469</v>
+        <v>112.05</v>
       </c>
       <c r="D56" t="s">
         <v>608</v>
@@ -3170,7 +3170,7 @@
         <v>606</v>
       </c>
       <c r="C57">
-        <v>105.473</v>
+        <v>110.266</v>
       </c>
       <c r="D57" t="s">
         <v>608</v>
@@ -3187,7 +3187,7 @@
         <v>607</v>
       </c>
       <c r="C58">
-        <v>98.17100000000001</v>
+        <v>99.39700000000001</v>
       </c>
       <c r="D58" t="s">
         <v>608</v>
@@ -3204,7 +3204,7 @@
         <v>606</v>
       </c>
       <c r="C59">
-        <v>104.576</v>
+        <v>108.962</v>
       </c>
       <c r="D59" t="s">
         <v>608</v>
@@ -3221,7 +3221,7 @@
         <v>606</v>
       </c>
       <c r="C60">
-        <v>101.822</v>
+        <v>100.897</v>
       </c>
       <c r="D60" t="s">
         <v>608</v>
@@ -3238,7 +3238,7 @@
         <v>607</v>
       </c>
       <c r="C61">
-        <v>89.104</v>
+        <v>95.682</v>
       </c>
       <c r="D61" t="s">
         <v>608</v>
@@ -3255,7 +3255,7 @@
         <v>606</v>
       </c>
       <c r="C62">
-        <v>103.44</v>
+        <v>102.911</v>
       </c>
       <c r="D62" t="s">
         <v>608</v>
@@ -3272,7 +3272,7 @@
         <v>606</v>
       </c>
       <c r="C63">
-        <v>107.583</v>
+        <v>102.172</v>
       </c>
       <c r="D63" t="s">
         <v>608</v>
@@ -3289,7 +3289,7 @@
         <v>606</v>
       </c>
       <c r="C64">
-        <v>105.9</v>
+        <v>103.062</v>
       </c>
       <c r="D64" t="s">
         <v>608</v>
@@ -3306,7 +3306,7 @@
         <v>607</v>
       </c>
       <c r="C65">
-        <v>90.292</v>
+        <v>96.447</v>
       </c>
       <c r="D65" t="s">
         <v>608</v>
@@ -3323,7 +3323,7 @@
         <v>607</v>
       </c>
       <c r="C66">
-        <v>78.038</v>
+        <v>78.06399999999999</v>
       </c>
       <c r="D66" t="s">
         <v>608</v>
@@ -3337,10 +3337,10 @@
         <v>70</v>
       </c>
       <c r="B67" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C67">
-        <v>107.455</v>
+        <v>99.685</v>
       </c>
       <c r="D67" t="s">
         <v>608</v>
@@ -3357,7 +3357,7 @@
         <v>606</v>
       </c>
       <c r="C68">
-        <v>104.69</v>
+        <v>103.508</v>
       </c>
       <c r="D68" t="s">
         <v>608</v>
@@ -3371,10 +3371,10 @@
         <v>72</v>
       </c>
       <c r="B69" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C69">
-        <v>103.739</v>
+        <v>98.52200000000001</v>
       </c>
       <c r="D69" t="s">
         <v>608</v>
@@ -3391,7 +3391,7 @@
         <v>606</v>
       </c>
       <c r="C70">
-        <v>103.295</v>
+        <v>101.204</v>
       </c>
       <c r="D70" t="s">
         <v>608</v>
@@ -3408,7 +3408,7 @@
         <v>606</v>
       </c>
       <c r="C71">
-        <v>112.011</v>
+        <v>107.35</v>
       </c>
       <c r="D71" t="s">
         <v>608</v>
@@ -3422,10 +3422,10 @@
         <v>75</v>
       </c>
       <c r="B72" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C72">
-        <v>97.005</v>
+        <v>105.179</v>
       </c>
       <c r="D72" t="s">
         <v>608</v>
@@ -3442,7 +3442,7 @@
         <v>606</v>
       </c>
       <c r="C73">
-        <v>113.002</v>
+        <v>109.391</v>
       </c>
       <c r="D73" t="s">
         <v>608</v>
@@ -3459,7 +3459,7 @@
         <v>606</v>
       </c>
       <c r="C74">
-        <v>101.894</v>
+        <v>100.115</v>
       </c>
       <c r="D74" t="s">
         <v>608</v>
@@ -3476,7 +3476,7 @@
         <v>606</v>
       </c>
       <c r="C75">
-        <v>106.984</v>
+        <v>110.815</v>
       </c>
       <c r="D75" t="s">
         <v>608</v>
@@ -3490,10 +3490,10 @@
         <v>79</v>
       </c>
       <c r="B76" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C76">
-        <v>102.99</v>
+        <v>96.206</v>
       </c>
       <c r="D76" t="s">
         <v>608</v>
@@ -3510,7 +3510,7 @@
         <v>606</v>
       </c>
       <c r="C77">
-        <v>117.368</v>
+        <v>119.296</v>
       </c>
       <c r="D77" t="s">
         <v>608</v>
@@ -3527,7 +3527,7 @@
         <v>606</v>
       </c>
       <c r="C78">
-        <v>112.342</v>
+        <v>110.048</v>
       </c>
       <c r="D78" t="s">
         <v>608</v>
@@ -3544,7 +3544,7 @@
         <v>606</v>
       </c>
       <c r="C79">
-        <v>106.997</v>
+        <v>104.103</v>
       </c>
       <c r="D79" t="s">
         <v>608</v>
@@ -3561,7 +3561,7 @@
         <v>606</v>
       </c>
       <c r="C80">
-        <v>108.113</v>
+        <v>104.778</v>
       </c>
       <c r="D80" t="s">
         <v>608</v>
@@ -3575,10 +3575,10 @@
         <v>84</v>
       </c>
       <c r="B81" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C81">
-        <v>98.991</v>
+        <v>107.053</v>
       </c>
       <c r="D81" t="s">
         <v>608</v>
@@ -3595,7 +3595,7 @@
         <v>607</v>
       </c>
       <c r="C82">
-        <v>94.15000000000001</v>
+        <v>89.565</v>
       </c>
       <c r="D82" t="s">
         <v>608</v>
@@ -3609,10 +3609,10 @@
         <v>86</v>
       </c>
       <c r="B83" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C83">
-        <v>101.099</v>
+        <v>89.455</v>
       </c>
       <c r="D83" t="s">
         <v>608</v>
@@ -3629,7 +3629,7 @@
         <v>606</v>
       </c>
       <c r="C84">
-        <v>127.92</v>
+        <v>119.744</v>
       </c>
       <c r="D84" t="s">
         <v>608</v>
@@ -3646,7 +3646,7 @@
         <v>606</v>
       </c>
       <c r="C85">
-        <v>109.813</v>
+        <v>100.682</v>
       </c>
       <c r="D85" t="s">
         <v>608</v>
@@ -3663,7 +3663,7 @@
         <v>607</v>
       </c>
       <c r="C86">
-        <v>98.85599999999999</v>
+        <v>97.741</v>
       </c>
       <c r="D86" t="s">
         <v>608</v>
@@ -3680,7 +3680,7 @@
         <v>606</v>
       </c>
       <c r="C87">
-        <v>105.383</v>
+        <v>125.903</v>
       </c>
       <c r="D87" t="s">
         <v>608</v>
@@ -3697,7 +3697,7 @@
         <v>606</v>
       </c>
       <c r="C88">
-        <v>107.115</v>
+        <v>106.746</v>
       </c>
       <c r="D88" t="s">
         <v>608</v>
@@ -3711,10 +3711,10 @@
         <v>92</v>
       </c>
       <c r="B89" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C89">
-        <v>104.462</v>
+        <v>97.292</v>
       </c>
       <c r="D89" t="s">
         <v>608</v>
@@ -3728,10 +3728,10 @@
         <v>93</v>
       </c>
       <c r="B90" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C90">
-        <v>95.429</v>
+        <v>101.093</v>
       </c>
       <c r="D90" t="s">
         <v>608</v>
@@ -3748,7 +3748,7 @@
         <v>607</v>
       </c>
       <c r="C91">
-        <v>91.87</v>
+        <v>90.407</v>
       </c>
       <c r="D91" t="s">
         <v>608</v>
@@ -3765,7 +3765,7 @@
         <v>606</v>
       </c>
       <c r="C92">
-        <v>113.339</v>
+        <v>112.666</v>
       </c>
       <c r="D92" t="s">
         <v>608</v>
@@ -3782,7 +3782,7 @@
         <v>606</v>
       </c>
       <c r="C93">
-        <v>106.586</v>
+        <v>107.57</v>
       </c>
       <c r="D93" t="s">
         <v>608</v>
@@ -3799,7 +3799,7 @@
         <v>606</v>
       </c>
       <c r="C94">
-        <v>123.256</v>
+        <v>126.26</v>
       </c>
       <c r="D94" t="s">
         <v>608</v>
@@ -3813,10 +3813,10 @@
         <v>98</v>
       </c>
       <c r="B95" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C95">
-        <v>108.919</v>
+        <v>96.678</v>
       </c>
       <c r="D95" t="s">
         <v>608</v>
@@ -3833,7 +3833,7 @@
         <v>606</v>
       </c>
       <c r="C96">
-        <v>117.287</v>
+        <v>113.531</v>
       </c>
       <c r="D96" t="s">
         <v>608</v>
@@ -3847,10 +3847,10 @@
         <v>100</v>
       </c>
       <c r="B97" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C97">
-        <v>114.901</v>
+        <v>99.919</v>
       </c>
       <c r="D97" t="s">
         <v>608</v>
@@ -3864,10 +3864,10 @@
         <v>101</v>
       </c>
       <c r="B98" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C98">
-        <v>107.629</v>
+        <v>97.104</v>
       </c>
       <c r="D98" t="s">
         <v>608</v>
@@ -3884,7 +3884,7 @@
         <v>606</v>
       </c>
       <c r="C99">
-        <v>126.004</v>
+        <v>133.037</v>
       </c>
       <c r="D99" t="s">
         <v>608</v>
@@ -3901,7 +3901,7 @@
         <v>606</v>
       </c>
       <c r="C100">
-        <v>109.751</v>
+        <v>111.355</v>
       </c>
       <c r="D100" t="s">
         <v>608</v>
@@ -3918,7 +3918,7 @@
         <v>606</v>
       </c>
       <c r="C101">
-        <v>101.335</v>
+        <v>100.784</v>
       </c>
       <c r="D101" t="s">
         <v>608</v>
@@ -3932,10 +3932,10 @@
         <v>105</v>
       </c>
       <c r="B102" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C102">
-        <v>98.562</v>
+        <v>104.478</v>
       </c>
       <c r="D102" t="s">
         <v>608</v>
@@ -3952,7 +3952,7 @@
         <v>606</v>
       </c>
       <c r="C103">
-        <v>104.967</v>
+        <v>107.871</v>
       </c>
       <c r="D103" t="s">
         <v>608</v>
@@ -3966,10 +3966,10 @@
         <v>107</v>
       </c>
       <c r="B104" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C104">
-        <v>98.48999999999999</v>
+        <v>107.734</v>
       </c>
       <c r="D104" t="s">
         <v>608</v>
@@ -3983,10 +3983,10 @@
         <v>108</v>
       </c>
       <c r="B105" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C105">
-        <v>99.776</v>
+        <v>104.783</v>
       </c>
       <c r="D105" t="s">
         <v>608</v>
@@ -4003,7 +4003,7 @@
         <v>606</v>
       </c>
       <c r="C106">
-        <v>108.586</v>
+        <v>106.718</v>
       </c>
       <c r="D106" t="s">
         <v>608</v>
@@ -4020,7 +4020,7 @@
         <v>606</v>
       </c>
       <c r="C107">
-        <v>101.601</v>
+        <v>100.351</v>
       </c>
       <c r="D107" t="s">
         <v>608</v>
@@ -4037,7 +4037,7 @@
         <v>606</v>
       </c>
       <c r="C108">
-        <v>115.961</v>
+        <v>109.566</v>
       </c>
       <c r="D108" t="s">
         <v>608</v>
@@ -4051,10 +4051,10 @@
         <v>112</v>
       </c>
       <c r="B109" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C109">
-        <v>93.81999999999999</v>
+        <v>100.916</v>
       </c>
       <c r="D109" t="s">
         <v>608</v>
@@ -4071,7 +4071,7 @@
         <v>607</v>
       </c>
       <c r="C110">
-        <v>96.68300000000001</v>
+        <v>99.182</v>
       </c>
       <c r="D110" t="s">
         <v>608</v>
@@ -4088,7 +4088,7 @@
         <v>606</v>
       </c>
       <c r="C111">
-        <v>103.968</v>
+        <v>104.941</v>
       </c>
       <c r="D111" t="s">
         <v>608</v>
@@ -4105,7 +4105,7 @@
         <v>607</v>
       </c>
       <c r="C112">
-        <v>93.596</v>
+        <v>97.169</v>
       </c>
       <c r="D112" t="s">
         <v>608</v>
@@ -4122,7 +4122,7 @@
         <v>606</v>
       </c>
       <c r="C113">
-        <v>100.938</v>
+        <v>100.269</v>
       </c>
       <c r="D113" t="s">
         <v>608</v>
@@ -4139,7 +4139,7 @@
         <v>606</v>
       </c>
       <c r="C114">
-        <v>102.221</v>
+        <v>103.171</v>
       </c>
       <c r="D114" t="s">
         <v>608</v>
@@ -4156,7 +4156,7 @@
         <v>606</v>
       </c>
       <c r="C115">
-        <v>107.883</v>
+        <v>116.961</v>
       </c>
       <c r="D115" t="s">
         <v>608</v>
@@ -4173,7 +4173,7 @@
         <v>606</v>
       </c>
       <c r="C116">
-        <v>110.872</v>
+        <v>109.778</v>
       </c>
       <c r="D116" t="s">
         <v>608</v>
@@ -4190,7 +4190,7 @@
         <v>607</v>
       </c>
       <c r="C117">
-        <v>98.371</v>
+        <v>99.629</v>
       </c>
       <c r="D117" t="s">
         <v>608</v>
@@ -4207,7 +4207,7 @@
         <v>607</v>
       </c>
       <c r="C118">
-        <v>94.399</v>
+        <v>96.14100000000001</v>
       </c>
       <c r="D118" t="s">
         <v>608</v>
@@ -4224,7 +4224,7 @@
         <v>606</v>
       </c>
       <c r="C119">
-        <v>106.983</v>
+        <v>102.842</v>
       </c>
       <c r="D119" t="s">
         <v>608</v>
@@ -4241,7 +4241,7 @@
         <v>606</v>
       </c>
       <c r="C120">
-        <v>109.373</v>
+        <v>110.445</v>
       </c>
       <c r="D120" t="s">
         <v>608</v>
@@ -4255,10 +4255,10 @@
         <v>124</v>
       </c>
       <c r="B121" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C121">
-        <v>102.771</v>
+        <v>99.747</v>
       </c>
       <c r="D121" t="s">
         <v>608</v>
@@ -4275,7 +4275,7 @@
         <v>606</v>
       </c>
       <c r="C122">
-        <v>114.446</v>
+        <v>114.791</v>
       </c>
       <c r="D122" t="s">
         <v>608</v>
@@ -4292,7 +4292,7 @@
         <v>606</v>
       </c>
       <c r="C123">
-        <v>103.122</v>
+        <v>115.658</v>
       </c>
       <c r="D123" t="s">
         <v>608</v>
@@ -4309,7 +4309,7 @@
         <v>606</v>
       </c>
       <c r="C124">
-        <v>109.158</v>
+        <v>109.833</v>
       </c>
       <c r="D124" t="s">
         <v>608</v>
@@ -4326,7 +4326,7 @@
         <v>606</v>
       </c>
       <c r="C125">
-        <v>108.904</v>
+        <v>108.919</v>
       </c>
       <c r="D125" t="s">
         <v>608</v>
@@ -4343,7 +4343,7 @@
         <v>606</v>
       </c>
       <c r="C126">
-        <v>105.786</v>
+        <v>106.016</v>
       </c>
       <c r="D126" t="s">
         <v>608</v>
@@ -4360,7 +4360,7 @@
         <v>606</v>
       </c>
       <c r="C127">
-        <v>108.388</v>
+        <v>104.713</v>
       </c>
       <c r="D127" t="s">
         <v>608</v>
@@ -4377,7 +4377,7 @@
         <v>606</v>
       </c>
       <c r="C128">
-        <v>112.666</v>
+        <v>108.121</v>
       </c>
       <c r="D128" t="s">
         <v>608</v>
@@ -4394,7 +4394,7 @@
         <v>606</v>
       </c>
       <c r="C129">
-        <v>107.928</v>
+        <v>103.657</v>
       </c>
       <c r="D129" t="s">
         <v>608</v>
@@ -4411,7 +4411,7 @@
         <v>606</v>
       </c>
       <c r="C130">
-        <v>105.236</v>
+        <v>103.092</v>
       </c>
       <c r="D130" t="s">
         <v>608</v>
@@ -4428,7 +4428,7 @@
         <v>606</v>
       </c>
       <c r="C131">
-        <v>100.97</v>
+        <v>101.623</v>
       </c>
       <c r="D131" t="s">
         <v>608</v>
@@ -4445,7 +4445,7 @@
         <v>606</v>
       </c>
       <c r="C132">
-        <v>112.731</v>
+        <v>108.9</v>
       </c>
       <c r="D132" t="s">
         <v>608</v>
@@ -4462,7 +4462,7 @@
         <v>606</v>
       </c>
       <c r="C133">
-        <v>102.742</v>
+        <v>103.894</v>
       </c>
       <c r="D133" t="s">
         <v>608</v>
@@ -4476,10 +4476,10 @@
         <v>137</v>
       </c>
       <c r="B134" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C134">
-        <v>97.113</v>
+        <v>102.208</v>
       </c>
       <c r="D134" t="s">
         <v>608</v>
@@ -4496,7 +4496,7 @@
         <v>606</v>
       </c>
       <c r="C135">
-        <v>113.562</v>
+        <v>104.818</v>
       </c>
       <c r="D135" t="s">
         <v>608</v>
@@ -4510,10 +4510,10 @@
         <v>139</v>
       </c>
       <c r="B136" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C136">
-        <v>104.695</v>
+        <v>99.336</v>
       </c>
       <c r="D136" t="s">
         <v>608</v>
@@ -4530,7 +4530,7 @@
         <v>606</v>
       </c>
       <c r="C137">
-        <v>105.835</v>
+        <v>107.571</v>
       </c>
       <c r="D137" t="s">
         <v>608</v>
@@ -4547,7 +4547,7 @@
         <v>606</v>
       </c>
       <c r="C138">
-        <v>103.579</v>
+        <v>101.023</v>
       </c>
       <c r="D138" t="s">
         <v>608</v>
@@ -4564,7 +4564,7 @@
         <v>606</v>
       </c>
       <c r="C139">
-        <v>102.481</v>
+        <v>105.574</v>
       </c>
       <c r="D139" t="s">
         <v>608</v>
@@ -4581,7 +4581,7 @@
         <v>606</v>
       </c>
       <c r="C140">
-        <v>107.92</v>
+        <v>105.556</v>
       </c>
       <c r="D140" t="s">
         <v>608</v>
@@ -4598,7 +4598,7 @@
         <v>606</v>
       </c>
       <c r="C141">
-        <v>106.467</v>
+        <v>107.192</v>
       </c>
       <c r="D141" t="s">
         <v>608</v>
@@ -4615,7 +4615,7 @@
         <v>606</v>
       </c>
       <c r="C142">
-        <v>105.174</v>
+        <v>107.488</v>
       </c>
       <c r="D142" t="s">
         <v>608</v>
@@ -4632,7 +4632,7 @@
         <v>606</v>
       </c>
       <c r="C143">
-        <v>112.366</v>
+        <v>109.933</v>
       </c>
       <c r="D143" t="s">
         <v>608</v>
@@ -4649,7 +4649,7 @@
         <v>606</v>
       </c>
       <c r="C144">
-        <v>104.797</v>
+        <v>108.293</v>
       </c>
       <c r="D144" t="s">
         <v>608</v>
@@ -4666,7 +4666,7 @@
         <v>607</v>
       </c>
       <c r="C145">
-        <v>95.584</v>
+        <v>98.79000000000001</v>
       </c>
       <c r="D145" t="s">
         <v>608</v>
@@ -4683,7 +4683,7 @@
         <v>607</v>
       </c>
       <c r="C146">
-        <v>96.48999999999999</v>
+        <v>96.818</v>
       </c>
       <c r="D146" t="s">
         <v>608</v>
@@ -4697,10 +4697,10 @@
         <v>150</v>
       </c>
       <c r="B147" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C147">
-        <v>98.73999999999999</v>
+        <v>104.212</v>
       </c>
       <c r="D147" t="s">
         <v>608</v>
@@ -4714,10 +4714,10 @@
         <v>151</v>
       </c>
       <c r="B148" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C148">
-        <v>107.78</v>
+        <v>98.51300000000001</v>
       </c>
       <c r="D148" t="s">
         <v>608</v>
@@ -4734,7 +4734,7 @@
         <v>606</v>
       </c>
       <c r="C149">
-        <v>108.296</v>
+        <v>107.92</v>
       </c>
       <c r="D149" t="s">
         <v>608</v>
@@ -4751,7 +4751,7 @@
         <v>606</v>
       </c>
       <c r="C150">
-        <v>105.833</v>
+        <v>116.974</v>
       </c>
       <c r="D150" t="s">
         <v>608</v>
@@ -4768,7 +4768,7 @@
         <v>606</v>
       </c>
       <c r="C151">
-        <v>115.117</v>
+        <v>112.547</v>
       </c>
       <c r="D151" t="s">
         <v>608</v>
@@ -4785,7 +4785,7 @@
         <v>606</v>
       </c>
       <c r="C152">
-        <v>100.697</v>
+        <v>119.723</v>
       </c>
       <c r="D152" t="s">
         <v>608</v>
@@ -4802,7 +4802,7 @@
         <v>607</v>
       </c>
       <c r="C153">
-        <v>94.88200000000001</v>
+        <v>96.565</v>
       </c>
       <c r="D153" t="s">
         <v>608</v>
@@ -4819,7 +4819,7 @@
         <v>607</v>
       </c>
       <c r="C154">
-        <v>92.46899999999999</v>
+        <v>95.928</v>
       </c>
       <c r="D154" t="s">
         <v>608</v>
@@ -4836,7 +4836,7 @@
         <v>606</v>
       </c>
       <c r="C155">
-        <v>100.849</v>
+        <v>107.311</v>
       </c>
       <c r="D155" t="s">
         <v>608</v>
@@ -4850,10 +4850,10 @@
         <v>159</v>
       </c>
       <c r="B156" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C156">
-        <v>101.436</v>
+        <v>96.012</v>
       </c>
       <c r="D156" t="s">
         <v>608</v>
@@ -4867,10 +4867,10 @@
         <v>160</v>
       </c>
       <c r="B157" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C157">
-        <v>91.919</v>
+        <v>100.944</v>
       </c>
       <c r="D157" t="s">
         <v>608</v>
@@ -4887,7 +4887,7 @@
         <v>606</v>
       </c>
       <c r="C158">
-        <v>101.735</v>
+        <v>100</v>
       </c>
       <c r="D158" t="s">
         <v>608</v>
@@ -4904,7 +4904,7 @@
         <v>606</v>
       </c>
       <c r="C159">
-        <v>112.318</v>
+        <v>108.095</v>
       </c>
       <c r="D159" t="s">
         <v>608</v>
@@ -4921,7 +4921,7 @@
         <v>606</v>
       </c>
       <c r="C160">
-        <v>107.774</v>
+        <v>101.905</v>
       </c>
       <c r="D160" t="s">
         <v>608</v>
@@ -4935,10 +4935,10 @@
         <v>164</v>
       </c>
       <c r="B161" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C161">
-        <v>94.37</v>
+        <v>103.071</v>
       </c>
       <c r="D161" t="s">
         <v>608</v>
@@ -4955,7 +4955,7 @@
         <v>606</v>
       </c>
       <c r="C162">
-        <v>109.45</v>
+        <v>107.296</v>
       </c>
       <c r="D162" t="s">
         <v>608</v>
@@ -4969,10 +4969,10 @@
         <v>166</v>
       </c>
       <c r="B163" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C163">
-        <v>101.098</v>
+        <v>99.123</v>
       </c>
       <c r="D163" t="s">
         <v>608</v>
@@ -4989,7 +4989,7 @@
         <v>606</v>
       </c>
       <c r="C164">
-        <v>108.819</v>
+        <v>103.534</v>
       </c>
       <c r="D164" t="s">
         <v>608</v>
@@ -5003,10 +5003,10 @@
         <v>168</v>
       </c>
       <c r="B165" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C165">
-        <v>94.557</v>
+        <v>103.162</v>
       </c>
       <c r="D165" t="s">
         <v>608</v>
@@ -5023,7 +5023,7 @@
         <v>606</v>
       </c>
       <c r="C166">
-        <v>103.27</v>
+        <v>110.574</v>
       </c>
       <c r="D166" t="s">
         <v>608</v>
@@ -5040,7 +5040,7 @@
         <v>606</v>
       </c>
       <c r="C167">
-        <v>106.184</v>
+        <v>100.094</v>
       </c>
       <c r="D167" t="s">
         <v>608</v>
@@ -5057,7 +5057,7 @@
         <v>606</v>
       </c>
       <c r="C168">
-        <v>109.521</v>
+        <v>106.593</v>
       </c>
       <c r="D168" t="s">
         <v>608</v>
@@ -5074,7 +5074,7 @@
         <v>607</v>
       </c>
       <c r="C169">
-        <v>94.14700000000001</v>
+        <v>98.869</v>
       </c>
       <c r="D169" t="s">
         <v>608</v>
@@ -5091,7 +5091,7 @@
         <v>606</v>
       </c>
       <c r="C170">
-        <v>106.202</v>
+        <v>105.598</v>
       </c>
       <c r="D170" t="s">
         <v>608</v>
@@ -5108,7 +5108,7 @@
         <v>606</v>
       </c>
       <c r="C171">
-        <v>107.028</v>
+        <v>106.945</v>
       </c>
       <c r="D171" t="s">
         <v>608</v>
@@ -5125,7 +5125,7 @@
         <v>606</v>
       </c>
       <c r="C172">
-        <v>105.472</v>
+        <v>107.433</v>
       </c>
       <c r="D172" t="s">
         <v>608</v>
@@ -5139,10 +5139,10 @@
         <v>176</v>
       </c>
       <c r="B173" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C173">
-        <v>99.946</v>
+        <v>102.089</v>
       </c>
       <c r="D173" t="s">
         <v>608</v>
@@ -5159,7 +5159,7 @@
         <v>606</v>
       </c>
       <c r="C174">
-        <v>100.227</v>
+        <v>101.102</v>
       </c>
       <c r="D174" t="s">
         <v>608</v>
@@ -5176,7 +5176,7 @@
         <v>606</v>
       </c>
       <c r="C175">
-        <v>103.658</v>
+        <v>100.38</v>
       </c>
       <c r="D175" t="s">
         <v>608</v>
@@ -5193,7 +5193,7 @@
         <v>606</v>
       </c>
       <c r="C176">
-        <v>106.133</v>
+        <v>115.296</v>
       </c>
       <c r="D176" t="s">
         <v>608</v>
@@ -5210,7 +5210,7 @@
         <v>606</v>
       </c>
       <c r="C177">
-        <v>109.088</v>
+        <v>106.68</v>
       </c>
       <c r="D177" t="s">
         <v>608</v>
@@ -5227,7 +5227,7 @@
         <v>606</v>
       </c>
       <c r="C178">
-        <v>113.001</v>
+        <v>103.598</v>
       </c>
       <c r="D178" t="s">
         <v>608</v>
@@ -5244,7 +5244,7 @@
         <v>606</v>
       </c>
       <c r="C179">
-        <v>105.51</v>
+        <v>107.855</v>
       </c>
       <c r="D179" t="s">
         <v>608</v>
@@ -5258,10 +5258,10 @@
         <v>183</v>
       </c>
       <c r="B180" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C180">
-        <v>98.792</v>
+        <v>101.151</v>
       </c>
       <c r="D180" t="s">
         <v>608</v>
@@ -5278,7 +5278,7 @@
         <v>606</v>
       </c>
       <c r="C181">
-        <v>113.484</v>
+        <v>104.054</v>
       </c>
       <c r="D181" t="s">
         <v>608</v>
@@ -5295,7 +5295,7 @@
         <v>606</v>
       </c>
       <c r="C182">
-        <v>101.188</v>
+        <v>100.989</v>
       </c>
       <c r="D182" t="s">
         <v>608</v>
@@ -5312,7 +5312,7 @@
         <v>607</v>
       </c>
       <c r="C183">
-        <v>92.494</v>
+        <v>94.04900000000001</v>
       </c>
       <c r="D183" t="s">
         <v>608</v>
@@ -5329,7 +5329,7 @@
         <v>606</v>
       </c>
       <c r="C184">
-        <v>109.454</v>
+        <v>107.022</v>
       </c>
       <c r="D184" t="s">
         <v>608</v>
@@ -5346,7 +5346,7 @@
         <v>606</v>
       </c>
       <c r="C185">
-        <v>101.383</v>
+        <v>101.386</v>
       </c>
       <c r="D185" t="s">
         <v>608</v>
@@ -5363,7 +5363,7 @@
         <v>606</v>
       </c>
       <c r="C186">
-        <v>100.504</v>
+        <v>102.598</v>
       </c>
       <c r="D186" t="s">
         <v>608</v>
@@ -5380,7 +5380,7 @@
         <v>607</v>
       </c>
       <c r="C187">
-        <v>97.70099999999999</v>
+        <v>91.84</v>
       </c>
       <c r="D187" t="s">
         <v>608</v>
@@ -5397,7 +5397,7 @@
         <v>606</v>
       </c>
       <c r="C188">
-        <v>110.603</v>
+        <v>115.239</v>
       </c>
       <c r="D188" t="s">
         <v>608</v>
@@ -5411,10 +5411,10 @@
         <v>192</v>
       </c>
       <c r="B189" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C189">
-        <v>93.545</v>
+        <v>100.959</v>
       </c>
       <c r="D189" t="s">
         <v>608</v>
@@ -5431,7 +5431,7 @@
         <v>606</v>
       </c>
       <c r="C190">
-        <v>104.76</v>
+        <v>103.04</v>
       </c>
       <c r="D190" t="s">
         <v>608</v>
@@ -5448,7 +5448,7 @@
         <v>606</v>
       </c>
       <c r="C191">
-        <v>102.078</v>
+        <v>109.625</v>
       </c>
       <c r="D191" t="s">
         <v>608</v>
@@ -5462,10 +5462,10 @@
         <v>195</v>
       </c>
       <c r="B192" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C192">
-        <v>93.779</v>
+        <v>100.732</v>
       </c>
       <c r="D192" t="s">
         <v>608</v>
@@ -5482,7 +5482,7 @@
         <v>607</v>
       </c>
       <c r="C193">
-        <v>97.101</v>
+        <v>96.97199999999999</v>
       </c>
       <c r="D193" t="s">
         <v>608</v>
@@ -5499,7 +5499,7 @@
         <v>606</v>
       </c>
       <c r="C194">
-        <v>104.862</v>
+        <v>109.554</v>
       </c>
       <c r="D194" t="s">
         <v>608</v>
@@ -5516,7 +5516,7 @@
         <v>606</v>
       </c>
       <c r="C195">
-        <v>105.842</v>
+        <v>101.614</v>
       </c>
       <c r="D195" t="s">
         <v>608</v>
@@ -5533,7 +5533,7 @@
         <v>606</v>
       </c>
       <c r="C196">
-        <v>104.096</v>
+        <v>104.249</v>
       </c>
       <c r="D196" t="s">
         <v>608</v>
@@ -5550,7 +5550,7 @@
         <v>606</v>
       </c>
       <c r="C197">
-        <v>109.165</v>
+        <v>102.049</v>
       </c>
       <c r="D197" t="s">
         <v>608</v>
@@ -5567,7 +5567,7 @@
         <v>606</v>
       </c>
       <c r="C198">
-        <v>117.965</v>
+        <v>110.277</v>
       </c>
       <c r="D198" t="s">
         <v>608</v>
@@ -5584,7 +5584,7 @@
         <v>606</v>
       </c>
       <c r="C199">
-        <v>111.474</v>
+        <v>112.087</v>
       </c>
       <c r="D199" t="s">
         <v>608</v>
@@ -5601,7 +5601,7 @@
         <v>607</v>
       </c>
       <c r="C200">
-        <v>98.38800000000001</v>
+        <v>92.464</v>
       </c>
       <c r="D200" t="s">
         <v>608</v>
@@ -5618,7 +5618,7 @@
         <v>606</v>
       </c>
       <c r="C201">
-        <v>102.582</v>
+        <v>102.126</v>
       </c>
       <c r="D201" t="s">
         <v>608</v>
@@ -5632,10 +5632,10 @@
         <v>205</v>
       </c>
       <c r="B202" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C202">
-        <v>98.307</v>
+        <v>102.811</v>
       </c>
       <c r="D202" t="s">
         <v>608</v>
@@ -5649,10 +5649,10 @@
         <v>206</v>
       </c>
       <c r="B203" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C203">
-        <v>98.334</v>
+        <v>109.086</v>
       </c>
       <c r="D203" t="s">
         <v>608</v>
@@ -5669,7 +5669,7 @@
         <v>606</v>
       </c>
       <c r="C204">
-        <v>104.984</v>
+        <v>110.074</v>
       </c>
       <c r="D204" t="s">
         <v>608</v>
@@ -5683,10 +5683,10 @@
         <v>208</v>
       </c>
       <c r="B205" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C205">
-        <v>102.256</v>
+        <v>97.33499999999999</v>
       </c>
       <c r="D205" t="s">
         <v>608</v>
@@ -5703,7 +5703,7 @@
         <v>606</v>
       </c>
       <c r="C206">
-        <v>110.747</v>
+        <v>115.161</v>
       </c>
       <c r="D206" t="s">
         <v>608</v>
@@ -5720,7 +5720,7 @@
         <v>606</v>
       </c>
       <c r="C207">
-        <v>108.366</v>
+        <v>103.482</v>
       </c>
       <c r="D207" t="s">
         <v>608</v>
@@ -5737,7 +5737,7 @@
         <v>606</v>
       </c>
       <c r="C208">
-        <v>112.598</v>
+        <v>114.523</v>
       </c>
       <c r="D208" t="s">
         <v>608</v>
@@ -5754,7 +5754,7 @@
         <v>606</v>
       </c>
       <c r="C209">
-        <v>119.322</v>
+        <v>113.991</v>
       </c>
       <c r="D209" t="s">
         <v>608</v>
@@ -5771,7 +5771,7 @@
         <v>606</v>
       </c>
       <c r="C210">
-        <v>100.616</v>
+        <v>105.891</v>
       </c>
       <c r="D210" t="s">
         <v>608</v>
@@ -5788,7 +5788,7 @@
         <v>606</v>
       </c>
       <c r="C211">
-        <v>101.983</v>
+        <v>107.387</v>
       </c>
       <c r="D211" t="s">
         <v>608</v>
@@ -5805,7 +5805,7 @@
         <v>606</v>
       </c>
       <c r="C212">
-        <v>107.277</v>
+        <v>106.061</v>
       </c>
       <c r="D212" t="s">
         <v>608</v>
@@ -5819,10 +5819,10 @@
         <v>216</v>
       </c>
       <c r="B213" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C213">
-        <v>95.56100000000001</v>
+        <v>100.257</v>
       </c>
       <c r="D213" t="s">
         <v>608</v>
@@ -5839,7 +5839,7 @@
         <v>606</v>
       </c>
       <c r="C214">
-        <v>103.396</v>
+        <v>100.957</v>
       </c>
       <c r="D214" t="s">
         <v>608</v>
@@ -5856,7 +5856,7 @@
         <v>606</v>
       </c>
       <c r="C215">
-        <v>105.884</v>
+        <v>104.784</v>
       </c>
       <c r="D215" t="s">
         <v>608</v>
@@ -5873,7 +5873,7 @@
         <v>606</v>
       </c>
       <c r="C216">
-        <v>113.383</v>
+        <v>102.918</v>
       </c>
       <c r="D216" t="s">
         <v>608</v>
@@ -5890,7 +5890,7 @@
         <v>606</v>
       </c>
       <c r="C217">
-        <v>105.335</v>
+        <v>101.644</v>
       </c>
       <c r="D217" t="s">
         <v>608</v>
@@ -5907,7 +5907,7 @@
         <v>606</v>
       </c>
       <c r="C218">
-        <v>104.499</v>
+        <v>102.936</v>
       </c>
       <c r="D218" t="s">
         <v>608</v>
@@ -5921,10 +5921,10 @@
         <v>222</v>
       </c>
       <c r="B219" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C219">
-        <v>99.214</v>
+        <v>106.578</v>
       </c>
       <c r="D219" t="s">
         <v>608</v>
@@ -5941,7 +5941,7 @@
         <v>606</v>
       </c>
       <c r="C220">
-        <v>116.314</v>
+        <v>106.63</v>
       </c>
       <c r="D220" t="s">
         <v>608</v>
@@ -5958,7 +5958,7 @@
         <v>606</v>
       </c>
       <c r="C221">
-        <v>102.771</v>
+        <v>104.6</v>
       </c>
       <c r="D221" t="s">
         <v>608</v>
@@ -5972,10 +5972,10 @@
         <v>225</v>
       </c>
       <c r="B222" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C222">
-        <v>100.512</v>
+        <v>97.462</v>
       </c>
       <c r="D222" t="s">
         <v>608</v>
@@ -5992,7 +5992,7 @@
         <v>606</v>
       </c>
       <c r="C223">
-        <v>109.888</v>
+        <v>103.841</v>
       </c>
       <c r="D223" t="s">
         <v>608</v>
@@ -6009,7 +6009,7 @@
         <v>606</v>
       </c>
       <c r="C224">
-        <v>105.803</v>
+        <v>109.185</v>
       </c>
       <c r="D224" t="s">
         <v>608</v>
@@ -6026,7 +6026,7 @@
         <v>606</v>
       </c>
       <c r="C225">
-        <v>103.06</v>
+        <v>103.55</v>
       </c>
       <c r="D225" t="s">
         <v>608</v>
@@ -6043,7 +6043,7 @@
         <v>606</v>
       </c>
       <c r="C226">
-        <v>102.16</v>
+        <v>103.333</v>
       </c>
       <c r="D226" t="s">
         <v>608</v>
@@ -6060,7 +6060,7 @@
         <v>606</v>
       </c>
       <c r="C227">
-        <v>111.5</v>
+        <v>113.492</v>
       </c>
       <c r="D227" t="s">
         <v>608</v>
@@ -6077,7 +6077,7 @@
         <v>607</v>
       </c>
       <c r="C228">
-        <v>96.137</v>
+        <v>95.651</v>
       </c>
       <c r="D228" t="s">
         <v>608</v>
@@ -6094,7 +6094,7 @@
         <v>606</v>
       </c>
       <c r="C229">
-        <v>101.382</v>
+        <v>102.196</v>
       </c>
       <c r="D229" t="s">
         <v>608</v>
@@ -6111,7 +6111,7 @@
         <v>606</v>
       </c>
       <c r="C230">
-        <v>104.83</v>
+        <v>105.134</v>
       </c>
       <c r="D230" t="s">
         <v>608</v>
@@ -6128,7 +6128,7 @@
         <v>606</v>
       </c>
       <c r="C231">
-        <v>103.65</v>
+        <v>104.359</v>
       </c>
       <c r="D231" t="s">
         <v>608</v>
@@ -6145,7 +6145,7 @@
         <v>606</v>
       </c>
       <c r="C232">
-        <v>102.091</v>
+        <v>102.893</v>
       </c>
       <c r="D232" t="s">
         <v>608</v>
@@ -6159,10 +6159,10 @@
         <v>236</v>
       </c>
       <c r="B233" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C233">
-        <v>98.952</v>
+        <v>105.049</v>
       </c>
       <c r="D233" t="s">
         <v>608</v>
@@ -6176,10 +6176,10 @@
         <v>237</v>
       </c>
       <c r="B234" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C234">
-        <v>99.934</v>
+        <v>102.921</v>
       </c>
       <c r="D234" t="s">
         <v>608</v>
@@ -6196,7 +6196,7 @@
         <v>607</v>
       </c>
       <c r="C235">
-        <v>98.61199999999999</v>
+        <v>95.72799999999999</v>
       </c>
       <c r="D235" t="s">
         <v>608</v>
@@ -6213,7 +6213,7 @@
         <v>606</v>
       </c>
       <c r="C236">
-        <v>101.998</v>
+        <v>110.352</v>
       </c>
       <c r="D236" t="s">
         <v>608</v>
@@ -6230,7 +6230,7 @@
         <v>606</v>
       </c>
       <c r="C237">
-        <v>104.908</v>
+        <v>113.528</v>
       </c>
       <c r="D237" t="s">
         <v>608</v>
@@ -6247,7 +6247,7 @@
         <v>606</v>
       </c>
       <c r="C238">
-        <v>104.443</v>
+        <v>111.859</v>
       </c>
       <c r="D238" t="s">
         <v>608</v>
@@ -6264,7 +6264,7 @@
         <v>606</v>
       </c>
       <c r="C239">
-        <v>101.532</v>
+        <v>103.901</v>
       </c>
       <c r="D239" t="s">
         <v>608</v>
@@ -6281,7 +6281,7 @@
         <v>607</v>
       </c>
       <c r="C240">
-        <v>97.887</v>
+        <v>98.408</v>
       </c>
       <c r="D240" t="s">
         <v>608</v>
@@ -6298,7 +6298,7 @@
         <v>606</v>
       </c>
       <c r="C241">
-        <v>102.584</v>
+        <v>107.223</v>
       </c>
       <c r="D241" t="s">
         <v>608</v>
@@ -6315,7 +6315,7 @@
         <v>607</v>
       </c>
       <c r="C242">
-        <v>98.69499999999999</v>
+        <v>95.39700000000001</v>
       </c>
       <c r="D242" t="s">
         <v>608</v>
@@ -6332,7 +6332,7 @@
         <v>606</v>
       </c>
       <c r="C243">
-        <v>105.817</v>
+        <v>105.63</v>
       </c>
       <c r="D243" t="s">
         <v>608</v>
@@ -6366,7 +6366,7 @@
         <v>606</v>
       </c>
       <c r="C245">
-        <v>112.513</v>
+        <v>102.313</v>
       </c>
       <c r="D245" t="s">
         <v>608</v>
@@ -6383,7 +6383,7 @@
         <v>606</v>
       </c>
       <c r="C246">
-        <v>121.787</v>
+        <v>123.745</v>
       </c>
       <c r="D246" t="s">
         <v>608</v>
@@ -6397,10 +6397,10 @@
         <v>250</v>
       </c>
       <c r="B247" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C247">
-        <v>99.63500000000001</v>
+        <v>104.054</v>
       </c>
       <c r="D247" t="s">
         <v>608</v>
@@ -6417,7 +6417,7 @@
         <v>606</v>
       </c>
       <c r="C248">
-        <v>105.67</v>
+        <v>104.959</v>
       </c>
       <c r="D248" t="s">
         <v>608</v>
@@ -6434,7 +6434,7 @@
         <v>607</v>
       </c>
       <c r="C249">
-        <v>96.94</v>
+        <v>99.191</v>
       </c>
       <c r="D249" t="s">
         <v>608</v>
@@ -6448,10 +6448,10 @@
         <v>253</v>
       </c>
       <c r="B250" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C250">
-        <v>99.696</v>
+        <v>101.146</v>
       </c>
       <c r="D250" t="s">
         <v>608</v>
@@ -6468,7 +6468,7 @@
         <v>606</v>
       </c>
       <c r="C251">
-        <v>102.305</v>
+        <v>103.347</v>
       </c>
       <c r="D251" t="s">
         <v>608</v>
@@ -6485,7 +6485,7 @@
         <v>607</v>
       </c>
       <c r="C252">
-        <v>94.89700000000001</v>
+        <v>97.756</v>
       </c>
       <c r="D252" t="s">
         <v>608</v>
@@ -6499,10 +6499,10 @@
         <v>256</v>
       </c>
       <c r="B253" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C253">
-        <v>101.439</v>
+        <v>98.236</v>
       </c>
       <c r="D253" t="s">
         <v>608</v>
@@ -6516,10 +6516,10 @@
         <v>257</v>
       </c>
       <c r="B254" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C254">
-        <v>97.56100000000001</v>
+        <v>104.473</v>
       </c>
       <c r="D254" t="s">
         <v>608</v>
@@ -6536,7 +6536,7 @@
         <v>607</v>
       </c>
       <c r="C255">
-        <v>98.18600000000001</v>
+        <v>96.246</v>
       </c>
       <c r="D255" t="s">
         <v>608</v>
@@ -6550,10 +6550,10 @@
         <v>259</v>
       </c>
       <c r="B256" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C256">
-        <v>106.194</v>
+        <v>98.795</v>
       </c>
       <c r="D256" t="s">
         <v>608</v>
@@ -6570,7 +6570,7 @@
         <v>606</v>
       </c>
       <c r="C257">
-        <v>100.443</v>
+        <v>105.876</v>
       </c>
       <c r="D257" t="s">
         <v>608</v>
@@ -6587,7 +6587,7 @@
         <v>606</v>
       </c>
       <c r="C258">
-        <v>103.775</v>
+        <v>103.116</v>
       </c>
       <c r="D258" t="s">
         <v>608</v>
@@ -6604,7 +6604,7 @@
         <v>606</v>
       </c>
       <c r="C259">
-        <v>104.904</v>
+        <v>106.112</v>
       </c>
       <c r="D259" t="s">
         <v>608</v>
@@ -6621,7 +6621,7 @@
         <v>606</v>
       </c>
       <c r="C260">
-        <v>102.219</v>
+        <v>103.251</v>
       </c>
       <c r="D260" t="s">
         <v>608</v>
@@ -6638,7 +6638,7 @@
         <v>607</v>
       </c>
       <c r="C261">
-        <v>86.53</v>
+        <v>93.741</v>
       </c>
       <c r="D261" t="s">
         <v>608</v>
@@ -6652,10 +6652,10 @@
         <v>265</v>
       </c>
       <c r="B262" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C262">
-        <v>98.916</v>
+        <v>103.279</v>
       </c>
       <c r="D262" t="s">
         <v>608</v>
@@ -6669,10 +6669,10 @@
         <v>266</v>
       </c>
       <c r="B263" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C263">
-        <v>101.86</v>
+        <v>99.732</v>
       </c>
       <c r="D263" t="s">
         <v>608</v>
@@ -6689,7 +6689,7 @@
         <v>607</v>
       </c>
       <c r="C264">
-        <v>94.77</v>
+        <v>94.961</v>
       </c>
       <c r="D264" t="s">
         <v>608</v>
@@ -6706,7 +6706,7 @@
         <v>606</v>
       </c>
       <c r="C265">
-        <v>103.231</v>
+        <v>106.331</v>
       </c>
       <c r="D265" t="s">
         <v>608</v>
@@ -6723,7 +6723,7 @@
         <v>606</v>
       </c>
       <c r="C266">
-        <v>100.278</v>
+        <v>103.644</v>
       </c>
       <c r="D266" t="s">
         <v>608</v>
@@ -6737,10 +6737,10 @@
         <v>270</v>
       </c>
       <c r="B267" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C267">
-        <v>96.346</v>
+        <v>107.736</v>
       </c>
       <c r="D267" t="s">
         <v>608</v>
@@ -6757,7 +6757,7 @@
         <v>606</v>
       </c>
       <c r="C268">
-        <v>109.425</v>
+        <v>113.817</v>
       </c>
       <c r="D268" t="s">
         <v>608</v>
@@ -6771,10 +6771,10 @@
         <v>272</v>
       </c>
       <c r="B269" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C269">
-        <v>100.407</v>
+        <v>97.316</v>
       </c>
       <c r="D269" t="s">
         <v>608</v>
@@ -6791,7 +6791,7 @@
         <v>606</v>
       </c>
       <c r="C270">
-        <v>114.211</v>
+        <v>104.838</v>
       </c>
       <c r="D270" t="s">
         <v>608</v>
@@ -6808,7 +6808,7 @@
         <v>606</v>
       </c>
       <c r="C271">
-        <v>106.974</v>
+        <v>105.307</v>
       </c>
       <c r="D271" t="s">
         <v>608</v>
@@ -6825,7 +6825,7 @@
         <v>607</v>
       </c>
       <c r="C272">
-        <v>98.331</v>
+        <v>98.54600000000001</v>
       </c>
       <c r="D272" t="s">
         <v>608</v>
@@ -6839,10 +6839,10 @@
         <v>276</v>
       </c>
       <c r="B273" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C273">
-        <v>95.994</v>
+        <v>103.605</v>
       </c>
       <c r="D273" t="s">
         <v>608</v>
@@ -6859,7 +6859,7 @@
         <v>606</v>
       </c>
       <c r="C274">
-        <v>102.101</v>
+        <v>109.777</v>
       </c>
       <c r="D274" t="s">
         <v>608</v>
@@ -6876,7 +6876,7 @@
         <v>606</v>
       </c>
       <c r="C275">
-        <v>107.839</v>
+        <v>102.318</v>
       </c>
       <c r="D275" t="s">
         <v>608</v>
@@ -6893,7 +6893,7 @@
         <v>606</v>
       </c>
       <c r="C276">
-        <v>119.712</v>
+        <v>118.743</v>
       </c>
       <c r="D276" t="s">
         <v>608</v>
@@ -6910,7 +6910,7 @@
         <v>606</v>
       </c>
       <c r="C277">
-        <v>103.852</v>
+        <v>101.351</v>
       </c>
       <c r="D277" t="s">
         <v>608</v>
@@ -6927,7 +6927,7 @@
         <v>606</v>
       </c>
       <c r="C278">
-        <v>104.966</v>
+        <v>108.415</v>
       </c>
       <c r="D278" t="s">
         <v>608</v>
@@ -6941,10 +6941,10 @@
         <v>282</v>
       </c>
       <c r="B279" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C279">
-        <v>104.851</v>
+        <v>98.224</v>
       </c>
       <c r="D279" t="s">
         <v>608</v>
@@ -6961,7 +6961,7 @@
         <v>606</v>
       </c>
       <c r="C280">
-        <v>115.421</v>
+        <v>115.945</v>
       </c>
       <c r="D280" t="s">
         <v>608</v>
@@ -6978,7 +6978,7 @@
         <v>606</v>
       </c>
       <c r="C281">
-        <v>105.129</v>
+        <v>107.558</v>
       </c>
       <c r="D281" t="s">
         <v>608</v>
@@ -6995,7 +6995,7 @@
         <v>606</v>
       </c>
       <c r="C282">
-        <v>106.873</v>
+        <v>106.346</v>
       </c>
       <c r="D282" t="s">
         <v>608</v>
@@ -7012,7 +7012,7 @@
         <v>606</v>
       </c>
       <c r="C283">
-        <v>107.213</v>
+        <v>101.902</v>
       </c>
       <c r="D283" t="s">
         <v>608</v>
@@ -7029,7 +7029,7 @@
         <v>606</v>
       </c>
       <c r="C284">
-        <v>115.906</v>
+        <v>109.708</v>
       </c>
       <c r="D284" t="s">
         <v>608</v>
@@ -7046,7 +7046,7 @@
         <v>606</v>
       </c>
       <c r="C285">
-        <v>103.599</v>
+        <v>105.553</v>
       </c>
       <c r="D285" t="s">
         <v>608</v>
@@ -7063,7 +7063,7 @@
         <v>607</v>
       </c>
       <c r="C286">
-        <v>87.34999999999999</v>
+        <v>84.815</v>
       </c>
       <c r="D286" t="s">
         <v>608</v>
@@ -7080,7 +7080,7 @@
         <v>606</v>
       </c>
       <c r="C287">
-        <v>108.728</v>
+        <v>105.492</v>
       </c>
       <c r="D287" t="s">
         <v>608</v>
@@ -7097,7 +7097,7 @@
         <v>607</v>
       </c>
       <c r="C288">
-        <v>99.514</v>
+        <v>98.15900000000001</v>
       </c>
       <c r="D288" t="s">
         <v>608</v>
@@ -7114,7 +7114,7 @@
         <v>606</v>
       </c>
       <c r="C289">
-        <v>103.594</v>
+        <v>104.855</v>
       </c>
       <c r="D289" t="s">
         <v>608</v>
@@ -7131,7 +7131,7 @@
         <v>606</v>
       </c>
       <c r="C290">
-        <v>100.177</v>
+        <v>103.129</v>
       </c>
       <c r="D290" t="s">
         <v>608</v>
@@ -7145,10 +7145,10 @@
         <v>294</v>
       </c>
       <c r="B291" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C291">
-        <v>99.944</v>
+        <v>100.414</v>
       </c>
       <c r="D291" t="s">
         <v>608</v>
@@ -7162,10 +7162,10 @@
         <v>295</v>
       </c>
       <c r="B292" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C292">
-        <v>96.22499999999999</v>
+        <v>105.882</v>
       </c>
       <c r="D292" t="s">
         <v>608</v>
@@ -7182,7 +7182,7 @@
         <v>606</v>
       </c>
       <c r="C293">
-        <v>105.068</v>
+        <v>101.451</v>
       </c>
       <c r="D293" t="s">
         <v>608</v>
@@ -7199,7 +7199,7 @@
         <v>606</v>
       </c>
       <c r="C294">
-        <v>107.056</v>
+        <v>104.003</v>
       </c>
       <c r="D294" t="s">
         <v>608</v>
@@ -7216,7 +7216,7 @@
         <v>606</v>
       </c>
       <c r="C295">
-        <v>104.055</v>
+        <v>111.697</v>
       </c>
       <c r="D295" t="s">
         <v>608</v>
@@ -7230,10 +7230,10 @@
         <v>299</v>
       </c>
       <c r="B296" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C296">
-        <v>98.639</v>
+        <v>108.205</v>
       </c>
       <c r="D296" t="s">
         <v>608</v>
@@ -7250,7 +7250,7 @@
         <v>606</v>
       </c>
       <c r="C297">
-        <v>101.055</v>
+        <v>103.019</v>
       </c>
       <c r="D297" t="s">
         <v>608</v>
@@ -7267,7 +7267,7 @@
         <v>607</v>
       </c>
       <c r="C298">
-        <v>94.47199999999999</v>
+        <v>98.039</v>
       </c>
       <c r="D298" t="s">
         <v>608</v>
@@ -7284,7 +7284,7 @@
         <v>606</v>
       </c>
       <c r="C299">
-        <v>101.497</v>
+        <v>102.275</v>
       </c>
       <c r="D299" t="s">
         <v>608</v>
@@ -7301,7 +7301,7 @@
         <v>606</v>
       </c>
       <c r="C300">
-        <v>113.907</v>
+        <v>111.107</v>
       </c>
       <c r="D300" t="s">
         <v>608</v>
@@ -7318,7 +7318,7 @@
         <v>606</v>
       </c>
       <c r="C301">
-        <v>107.723</v>
+        <v>103.195</v>
       </c>
       <c r="D301" t="s">
         <v>608</v>
@@ -7335,7 +7335,7 @@
         <v>606</v>
       </c>
       <c r="C302">
-        <v>105.86</v>
+        <v>104.938</v>
       </c>
       <c r="D302" t="s">
         <v>608</v>
@@ -7352,7 +7352,7 @@
         <v>606</v>
       </c>
       <c r="C303">
-        <v>105.158</v>
+        <v>103.093</v>
       </c>
       <c r="D303" t="s">
         <v>608</v>
@@ -7369,7 +7369,7 @@
         <v>606</v>
       </c>
       <c r="C304">
-        <v>115.824</v>
+        <v>105.138</v>
       </c>
       <c r="D304" t="s">
         <v>608</v>
@@ -7386,7 +7386,7 @@
         <v>606</v>
       </c>
       <c r="C305">
-        <v>103.106</v>
+        <v>118.071</v>
       </c>
       <c r="D305" t="s">
         <v>608</v>
@@ -7403,7 +7403,7 @@
         <v>606</v>
       </c>
       <c r="C306">
-        <v>106.585</v>
+        <v>100.535</v>
       </c>
       <c r="D306" t="s">
         <v>608</v>
@@ -7417,10 +7417,10 @@
         <v>310</v>
       </c>
       <c r="B307" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C307">
-        <v>103.608</v>
+        <v>95.146</v>
       </c>
       <c r="D307" t="s">
         <v>608</v>
@@ -7437,7 +7437,7 @@
         <v>606</v>
       </c>
       <c r="C308">
-        <v>109.56</v>
+        <v>114.041</v>
       </c>
       <c r="D308" t="s">
         <v>608</v>
@@ -7454,7 +7454,7 @@
         <v>606</v>
       </c>
       <c r="C309">
-        <v>106.261</v>
+        <v>117.577</v>
       </c>
       <c r="D309" t="s">
         <v>608</v>
@@ -7471,7 +7471,7 @@
         <v>607</v>
       </c>
       <c r="C310">
-        <v>99.256</v>
+        <v>99.94199999999999</v>
       </c>
       <c r="D310" t="s">
         <v>608</v>
@@ -7488,7 +7488,7 @@
         <v>606</v>
       </c>
       <c r="C311">
-        <v>111.035</v>
+        <v>102.076</v>
       </c>
       <c r="D311" t="s">
         <v>608</v>
@@ -7505,7 +7505,7 @@
         <v>606</v>
       </c>
       <c r="C312">
-        <v>105.871</v>
+        <v>110.401</v>
       </c>
       <c r="D312" t="s">
         <v>608</v>
@@ -7522,7 +7522,7 @@
         <v>607</v>
       </c>
       <c r="C313">
-        <v>92.803</v>
+        <v>96.172</v>
       </c>
       <c r="D313" t="s">
         <v>608</v>
@@ -7539,7 +7539,7 @@
         <v>606</v>
       </c>
       <c r="C314">
-        <v>112.475</v>
+        <v>105.278</v>
       </c>
       <c r="D314" t="s">
         <v>608</v>
@@ -7556,7 +7556,7 @@
         <v>606</v>
       </c>
       <c r="C315">
-        <v>105.293</v>
+        <v>101.282</v>
       </c>
       <c r="D315" t="s">
         <v>608</v>
@@ -7573,7 +7573,7 @@
         <v>606</v>
       </c>
       <c r="C316">
-        <v>102.092</v>
+        <v>110.857</v>
       </c>
       <c r="D316" t="s">
         <v>608</v>
@@ -7590,7 +7590,7 @@
         <v>606</v>
       </c>
       <c r="C317">
-        <v>108.079</v>
+        <v>105.718</v>
       </c>
       <c r="D317" t="s">
         <v>608</v>
@@ -7607,7 +7607,7 @@
         <v>606</v>
       </c>
       <c r="C318">
-        <v>105.099</v>
+        <v>101.991</v>
       </c>
       <c r="D318" t="s">
         <v>608</v>
@@ -7624,7 +7624,7 @@
         <v>606</v>
       </c>
       <c r="C319">
-        <v>114.814</v>
+        <v>116.776</v>
       </c>
       <c r="D319" t="s">
         <v>608</v>
@@ -7641,7 +7641,7 @@
         <v>606</v>
       </c>
       <c r="C320">
-        <v>106.128</v>
+        <v>111.994</v>
       </c>
       <c r="D320" t="s">
         <v>608</v>
@@ -7658,7 +7658,7 @@
         <v>606</v>
       </c>
       <c r="C321">
-        <v>117.242</v>
+        <v>105.38</v>
       </c>
       <c r="D321" t="s">
         <v>608</v>
@@ -7675,7 +7675,7 @@
         <v>606</v>
       </c>
       <c r="C322">
-        <v>125.457</v>
+        <v>106.146</v>
       </c>
       <c r="D322" t="s">
         <v>608</v>
@@ -7692,7 +7692,7 @@
         <v>607</v>
       </c>
       <c r="C323">
-        <v>96.79000000000001</v>
+        <v>98.91</v>
       </c>
       <c r="D323" t="s">
         <v>608</v>
@@ -7709,7 +7709,7 @@
         <v>606</v>
       </c>
       <c r="C324">
-        <v>100.319</v>
+        <v>103.534</v>
       </c>
       <c r="D324" t="s">
         <v>608</v>
@@ -7726,7 +7726,7 @@
         <v>606</v>
       </c>
       <c r="C325">
-        <v>100.53</v>
+        <v>102.143</v>
       </c>
       <c r="D325" t="s">
         <v>608</v>
@@ -7743,7 +7743,7 @@
         <v>606</v>
       </c>
       <c r="C326">
-        <v>106.485</v>
+        <v>108.589</v>
       </c>
       <c r="D326" t="s">
         <v>608</v>
@@ -7760,7 +7760,7 @@
         <v>606</v>
       </c>
       <c r="C327">
-        <v>104.913</v>
+        <v>100.511</v>
       </c>
       <c r="D327" t="s">
         <v>608</v>
@@ -7777,7 +7777,7 @@
         <v>606</v>
       </c>
       <c r="C328">
-        <v>108.37</v>
+        <v>105.568</v>
       </c>
       <c r="D328" t="s">
         <v>608</v>
@@ -7794,7 +7794,7 @@
         <v>606</v>
       </c>
       <c r="C329">
-        <v>112.878</v>
+        <v>106.12</v>
       </c>
       <c r="D329" t="s">
         <v>608</v>
@@ -7811,7 +7811,7 @@
         <v>606</v>
       </c>
       <c r="C330">
-        <v>107.274</v>
+        <v>100.417</v>
       </c>
       <c r="D330" t="s">
         <v>608</v>
@@ -7825,10 +7825,10 @@
         <v>334</v>
       </c>
       <c r="B331" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C331">
-        <v>104.9</v>
+        <v>99.44199999999999</v>
       </c>
       <c r="D331" t="s">
         <v>608</v>
@@ -7845,7 +7845,7 @@
         <v>606</v>
       </c>
       <c r="C332">
-        <v>110.889</v>
+        <v>104.349</v>
       </c>
       <c r="D332" t="s">
         <v>608</v>
@@ -7859,10 +7859,10 @@
         <v>336</v>
       </c>
       <c r="B333" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C333">
-        <v>104.32</v>
+        <v>99.663</v>
       </c>
       <c r="D333" t="s">
         <v>608</v>
@@ -7879,7 +7879,7 @@
         <v>606</v>
       </c>
       <c r="C334">
-        <v>106.002</v>
+        <v>104.085</v>
       </c>
       <c r="D334" t="s">
         <v>608</v>
@@ -7893,10 +7893,10 @@
         <v>338</v>
       </c>
       <c r="B335" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C335">
-        <v>95.752</v>
+        <v>103.689</v>
       </c>
       <c r="D335" t="s">
         <v>608</v>
@@ -7913,7 +7913,7 @@
         <v>606</v>
       </c>
       <c r="C336">
-        <v>110.693</v>
+        <v>108.476</v>
       </c>
       <c r="D336" t="s">
         <v>608</v>
@@ -7930,7 +7930,7 @@
         <v>607</v>
       </c>
       <c r="C337">
-        <v>95.816</v>
+        <v>97.01300000000001</v>
       </c>
       <c r="D337" t="s">
         <v>608</v>
@@ -7944,10 +7944,10 @@
         <v>341</v>
       </c>
       <c r="B338" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C338">
-        <v>99.895</v>
+        <v>102.452</v>
       </c>
       <c r="D338" t="s">
         <v>608</v>
@@ -7964,7 +7964,7 @@
         <v>606</v>
       </c>
       <c r="C339">
-        <v>119.313</v>
+        <v>118.907</v>
       </c>
       <c r="D339" t="s">
         <v>608</v>
@@ -7981,7 +7981,7 @@
         <v>606</v>
       </c>
       <c r="C340">
-        <v>118.652</v>
+        <v>102.949</v>
       </c>
       <c r="D340" t="s">
         <v>608</v>
@@ -7998,7 +7998,7 @@
         <v>606</v>
       </c>
       <c r="C341">
-        <v>108.161</v>
+        <v>108.579</v>
       </c>
       <c r="D341" t="s">
         <v>608</v>
@@ -8015,7 +8015,7 @@
         <v>606</v>
       </c>
       <c r="C342">
-        <v>111.896</v>
+        <v>115.415</v>
       </c>
       <c r="D342" t="s">
         <v>608</v>
@@ -8032,7 +8032,7 @@
         <v>606</v>
       </c>
       <c r="C343">
-        <v>106.395</v>
+        <v>102.762</v>
       </c>
       <c r="D343" t="s">
         <v>608</v>
@@ -8049,7 +8049,7 @@
         <v>606</v>
       </c>
       <c r="C344">
-        <v>108.732</v>
+        <v>100.622</v>
       </c>
       <c r="D344" t="s">
         <v>608</v>
@@ -8066,7 +8066,7 @@
         <v>606</v>
       </c>
       <c r="C345">
-        <v>108.113</v>
+        <v>101.432</v>
       </c>
       <c r="D345" t="s">
         <v>608</v>
@@ -8083,7 +8083,7 @@
         <v>607</v>
       </c>
       <c r="C346">
-        <v>94.702</v>
+        <v>94.664</v>
       </c>
       <c r="D346" t="s">
         <v>608</v>
@@ -8097,10 +8097,10 @@
         <v>350</v>
       </c>
       <c r="B347" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C347">
-        <v>90.107</v>
+        <v>100.489</v>
       </c>
       <c r="D347" t="s">
         <v>608</v>
@@ -8117,7 +8117,7 @@
         <v>606</v>
       </c>
       <c r="C348">
-        <v>104.47</v>
+        <v>105.196</v>
       </c>
       <c r="D348" t="s">
         <v>608</v>
@@ -8134,7 +8134,7 @@
         <v>606</v>
       </c>
       <c r="C349">
-        <v>124.174</v>
+        <v>116.296</v>
       </c>
       <c r="D349" t="s">
         <v>608</v>
@@ -8151,7 +8151,7 @@
         <v>606</v>
       </c>
       <c r="C350">
-        <v>108.55</v>
+        <v>105.351</v>
       </c>
       <c r="D350" t="s">
         <v>608</v>
@@ -8168,7 +8168,7 @@
         <v>606</v>
       </c>
       <c r="C351">
-        <v>107.12</v>
+        <v>108.831</v>
       </c>
       <c r="D351" t="s">
         <v>608</v>
@@ -8185,7 +8185,7 @@
         <v>606</v>
       </c>
       <c r="C352">
-        <v>103.54</v>
+        <v>111.063</v>
       </c>
       <c r="D352" t="s">
         <v>608</v>
@@ -8199,10 +8199,10 @@
         <v>356</v>
       </c>
       <c r="B353" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C353">
-        <v>95.396</v>
+        <v>101.769</v>
       </c>
       <c r="D353" t="s">
         <v>608</v>
@@ -8219,7 +8219,7 @@
         <v>606</v>
       </c>
       <c r="C354">
-        <v>108.202</v>
+        <v>102.317</v>
       </c>
       <c r="D354" t="s">
         <v>608</v>
@@ -8236,7 +8236,7 @@
         <v>606</v>
       </c>
       <c r="C355">
-        <v>104.5</v>
+        <v>105.229</v>
       </c>
       <c r="D355" t="s">
         <v>608</v>
@@ -8253,7 +8253,7 @@
         <v>606</v>
       </c>
       <c r="C356">
-        <v>107.229</v>
+        <v>103.682</v>
       </c>
       <c r="D356" t="s">
         <v>608</v>
@@ -8270,7 +8270,7 @@
         <v>606</v>
       </c>
       <c r="C357">
-        <v>102.642</v>
+        <v>101.972</v>
       </c>
       <c r="D357" t="s">
         <v>608</v>
@@ -8287,7 +8287,7 @@
         <v>606</v>
       </c>
       <c r="C358">
-        <v>107.517</v>
+        <v>102.73</v>
       </c>
       <c r="D358" t="s">
         <v>608</v>
@@ -8304,7 +8304,7 @@
         <v>606</v>
       </c>
       <c r="C359">
-        <v>105.445</v>
+        <v>105.032</v>
       </c>
       <c r="D359" t="s">
         <v>608</v>
@@ -8321,7 +8321,7 @@
         <v>606</v>
       </c>
       <c r="C360">
-        <v>107.763</v>
+        <v>113.61</v>
       </c>
       <c r="D360" t="s">
         <v>608</v>
@@ -8338,7 +8338,7 @@
         <v>607</v>
       </c>
       <c r="C361">
-        <v>90.944</v>
+        <v>84.35899999999999</v>
       </c>
       <c r="D361" t="s">
         <v>608</v>
@@ -8355,7 +8355,7 @@
         <v>606</v>
       </c>
       <c r="C362">
-        <v>105.53</v>
+        <v>112.3</v>
       </c>
       <c r="D362" t="s">
         <v>608</v>
@@ -8372,7 +8372,7 @@
         <v>606</v>
       </c>
       <c r="C363">
-        <v>101.422</v>
+        <v>106.616</v>
       </c>
       <c r="D363" t="s">
         <v>608</v>
@@ -8389,7 +8389,7 @@
         <v>606</v>
       </c>
       <c r="C364">
-        <v>110.575</v>
+        <v>100.233</v>
       </c>
       <c r="D364" t="s">
         <v>608</v>
@@ -8423,7 +8423,7 @@
         <v>607</v>
       </c>
       <c r="C366">
-        <v>94.935</v>
+        <v>97.48399999999999</v>
       </c>
       <c r="D366" t="s">
         <v>608</v>
@@ -8440,7 +8440,7 @@
         <v>606</v>
       </c>
       <c r="C367">
-        <v>104.631</v>
+        <v>113.892</v>
       </c>
       <c r="D367" t="s">
         <v>608</v>
@@ -8457,7 +8457,7 @@
         <v>606</v>
       </c>
       <c r="C368">
-        <v>100.011</v>
+        <v>105.99</v>
       </c>
       <c r="D368" t="s">
         <v>608</v>
@@ -8471,10 +8471,10 @@
         <v>372</v>
       </c>
       <c r="B369" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C369">
-        <v>96.53700000000001</v>
+        <v>109.869</v>
       </c>
       <c r="D369" t="s">
         <v>608</v>
@@ -8491,7 +8491,7 @@
         <v>606</v>
       </c>
       <c r="C370">
-        <v>101.179</v>
+        <v>101.254</v>
       </c>
       <c r="D370" t="s">
         <v>608</v>
@@ -8508,7 +8508,7 @@
         <v>606</v>
       </c>
       <c r="C371">
-        <v>111.579</v>
+        <v>110.356</v>
       </c>
       <c r="D371" t="s">
         <v>608</v>
@@ -8525,7 +8525,7 @@
         <v>607</v>
       </c>
       <c r="C372">
-        <v>85.092</v>
+        <v>77.605</v>
       </c>
       <c r="D372" t="s">
         <v>608</v>
@@ -8542,7 +8542,7 @@
         <v>606</v>
       </c>
       <c r="C373">
-        <v>103.85</v>
+        <v>103.377</v>
       </c>
       <c r="D373" t="s">
         <v>608</v>
@@ -8559,7 +8559,7 @@
         <v>606</v>
       </c>
       <c r="C374">
-        <v>100.517</v>
+        <v>100.246</v>
       </c>
       <c r="D374" t="s">
         <v>608</v>
@@ -8576,7 +8576,7 @@
         <v>606</v>
       </c>
       <c r="C375">
-        <v>124.68</v>
+        <v>123.412</v>
       </c>
       <c r="D375" t="s">
         <v>608</v>
@@ -8593,7 +8593,7 @@
         <v>606</v>
       </c>
       <c r="C376">
-        <v>116.154</v>
+        <v>113.303</v>
       </c>
       <c r="D376" t="s">
         <v>608</v>
@@ -8610,7 +8610,7 @@
         <v>606</v>
       </c>
       <c r="C377">
-        <v>106.188</v>
+        <v>106.514</v>
       </c>
       <c r="D377" t="s">
         <v>608</v>
@@ -8627,7 +8627,7 @@
         <v>606</v>
       </c>
       <c r="C378">
-        <v>104.123</v>
+        <v>108.251</v>
       </c>
       <c r="D378" t="s">
         <v>608</v>
@@ -8644,7 +8644,7 @@
         <v>606</v>
       </c>
       <c r="C379">
-        <v>101.678</v>
+        <v>104.042</v>
       </c>
       <c r="D379" t="s">
         <v>608</v>
@@ -8661,7 +8661,7 @@
         <v>606</v>
       </c>
       <c r="C380">
-        <v>115.884</v>
+        <v>112.942</v>
       </c>
       <c r="D380" t="s">
         <v>608</v>
@@ -8675,10 +8675,10 @@
         <v>384</v>
       </c>
       <c r="B381" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C381">
-        <v>97.871</v>
+        <v>107.015</v>
       </c>
       <c r="D381" t="s">
         <v>608</v>
@@ -8695,7 +8695,7 @@
         <v>606</v>
       </c>
       <c r="C382">
-        <v>102.893</v>
+        <v>103.319</v>
       </c>
       <c r="D382" t="s">
         <v>608</v>
@@ -8712,7 +8712,7 @@
         <v>606</v>
       </c>
       <c r="C383">
-        <v>101.011</v>
+        <v>105.618</v>
       </c>
       <c r="D383" t="s">
         <v>608</v>
@@ -8729,7 +8729,7 @@
         <v>606</v>
       </c>
       <c r="C384">
-        <v>105.736</v>
+        <v>109.058</v>
       </c>
       <c r="D384" t="s">
         <v>608</v>
@@ -8746,7 +8746,7 @@
         <v>606</v>
       </c>
       <c r="C385">
-        <v>110.997</v>
+        <v>112.184</v>
       </c>
       <c r="D385" t="s">
         <v>608</v>
@@ -8763,7 +8763,7 @@
         <v>606</v>
       </c>
       <c r="C386">
-        <v>103.636</v>
+        <v>100.944</v>
       </c>
       <c r="D386" t="s">
         <v>608</v>
@@ -8780,7 +8780,7 @@
         <v>606</v>
       </c>
       <c r="C387">
-        <v>110.278</v>
+        <v>105.205</v>
       </c>
       <c r="D387" t="s">
         <v>608</v>
@@ -8797,7 +8797,7 @@
         <v>606</v>
       </c>
       <c r="C388">
-        <v>100.345</v>
+        <v>106.306</v>
       </c>
       <c r="D388" t="s">
         <v>608</v>
@@ -8811,10 +8811,10 @@
         <v>392</v>
       </c>
       <c r="B389" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C389">
-        <v>98.886</v>
+        <v>107.229</v>
       </c>
       <c r="D389" t="s">
         <v>608</v>
@@ -8831,7 +8831,7 @@
         <v>606</v>
       </c>
       <c r="C390">
-        <v>104.591</v>
+        <v>104.361</v>
       </c>
       <c r="D390" t="s">
         <v>608</v>
@@ -8848,7 +8848,7 @@
         <v>607</v>
       </c>
       <c r="C391">
-        <v>94.89700000000001</v>
+        <v>98.911</v>
       </c>
       <c r="D391" t="s">
         <v>608</v>
@@ -8865,7 +8865,7 @@
         <v>606</v>
       </c>
       <c r="C392">
-        <v>108.852</v>
+        <v>105.779</v>
       </c>
       <c r="D392" t="s">
         <v>608</v>
@@ -8882,7 +8882,7 @@
         <v>606</v>
       </c>
       <c r="C393">
-        <v>112.178</v>
+        <v>102.727</v>
       </c>
       <c r="D393" t="s">
         <v>608</v>
@@ -8899,7 +8899,7 @@
         <v>606</v>
       </c>
       <c r="C394">
-        <v>109.299</v>
+        <v>105.404</v>
       </c>
       <c r="D394" t="s">
         <v>608</v>
@@ -8916,7 +8916,7 @@
         <v>606</v>
       </c>
       <c r="C395">
-        <v>108.831</v>
+        <v>103.41</v>
       </c>
       <c r="D395" t="s">
         <v>608</v>
@@ -8933,7 +8933,7 @@
         <v>606</v>
       </c>
       <c r="C396">
-        <v>113.158</v>
+        <v>107.544</v>
       </c>
       <c r="D396" t="s">
         <v>608</v>
@@ -8950,7 +8950,7 @@
         <v>606</v>
       </c>
       <c r="C397">
-        <v>101.144</v>
+        <v>102.509</v>
       </c>
       <c r="D397" t="s">
         <v>608</v>
@@ -8967,7 +8967,7 @@
         <v>606</v>
       </c>
       <c r="C398">
-        <v>110.186</v>
+        <v>120.755</v>
       </c>
       <c r="D398" t="s">
         <v>608</v>
@@ -8984,7 +8984,7 @@
         <v>606</v>
       </c>
       <c r="C399">
-        <v>118.063</v>
+        <v>114.832</v>
       </c>
       <c r="D399" t="s">
         <v>608</v>
@@ -9001,7 +9001,7 @@
         <v>606</v>
       </c>
       <c r="C400">
-        <v>119.663</v>
+        <v>107.996</v>
       </c>
       <c r="D400" t="s">
         <v>608</v>
@@ -9018,7 +9018,7 @@
         <v>606</v>
       </c>
       <c r="C401">
-        <v>103.534</v>
+        <v>101.208</v>
       </c>
       <c r="D401" t="s">
         <v>608</v>
@@ -9035,7 +9035,7 @@
         <v>607</v>
       </c>
       <c r="C402">
-        <v>95.444</v>
+        <v>97.31999999999999</v>
       </c>
       <c r="D402" t="s">
         <v>608</v>
@@ -9052,7 +9052,7 @@
         <v>607</v>
       </c>
       <c r="C403">
-        <v>99.524</v>
+        <v>95.587</v>
       </c>
       <c r="D403" t="s">
         <v>608</v>
@@ -9069,7 +9069,7 @@
         <v>606</v>
       </c>
       <c r="C404">
-        <v>106.145</v>
+        <v>101.561</v>
       </c>
       <c r="D404" t="s">
         <v>608</v>
@@ -9086,7 +9086,7 @@
         <v>606</v>
       </c>
       <c r="C405">
-        <v>113.622</v>
+        <v>110.881</v>
       </c>
       <c r="D405" t="s">
         <v>608</v>
@@ -9103,7 +9103,7 @@
         <v>606</v>
       </c>
       <c r="C406">
-        <v>113.251</v>
+        <v>114.596</v>
       </c>
       <c r="D406" t="s">
         <v>608</v>
@@ -9120,7 +9120,7 @@
         <v>606</v>
       </c>
       <c r="C407">
-        <v>110.688</v>
+        <v>105.994</v>
       </c>
       <c r="D407" t="s">
         <v>608</v>
@@ -9137,7 +9137,7 @@
         <v>606</v>
       </c>
       <c r="C408">
-        <v>111.824</v>
+        <v>121.655</v>
       </c>
       <c r="D408" t="s">
         <v>608</v>
@@ -9154,7 +9154,7 @@
         <v>606</v>
       </c>
       <c r="C409">
-        <v>112.812</v>
+        <v>109.346</v>
       </c>
       <c r="D409" t="s">
         <v>608</v>
@@ -9168,10 +9168,10 @@
         <v>413</v>
       </c>
       <c r="B410" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C410">
-        <v>100.848</v>
+        <v>98.45</v>
       </c>
       <c r="D410" t="s">
         <v>608</v>
@@ -9188,7 +9188,7 @@
         <v>606</v>
       </c>
       <c r="C411">
-        <v>107.63</v>
+        <v>105.311</v>
       </c>
       <c r="D411" t="s">
         <v>608</v>
@@ -9205,7 +9205,7 @@
         <v>606</v>
       </c>
       <c r="C412">
-        <v>100.876</v>
+        <v>100.089</v>
       </c>
       <c r="D412" t="s">
         <v>608</v>
@@ -9222,7 +9222,7 @@
         <v>606</v>
       </c>
       <c r="C413">
-        <v>112.625</v>
+        <v>106.618</v>
       </c>
       <c r="D413" t="s">
         <v>608</v>
@@ -9239,7 +9239,7 @@
         <v>606</v>
       </c>
       <c r="C414">
-        <v>112.503</v>
+        <v>117.623</v>
       </c>
       <c r="D414" t="s">
         <v>608</v>
@@ -9256,7 +9256,7 @@
         <v>606</v>
       </c>
       <c r="C415">
-        <v>108.752</v>
+        <v>108.38</v>
       </c>
       <c r="D415" t="s">
         <v>608</v>
@@ -9273,7 +9273,7 @@
         <v>606</v>
       </c>
       <c r="C416">
-        <v>110.021</v>
+        <v>102.911</v>
       </c>
       <c r="D416" t="s">
         <v>608</v>
@@ -9290,7 +9290,7 @@
         <v>606</v>
       </c>
       <c r="C417">
-        <v>107.533</v>
+        <v>102.348</v>
       </c>
       <c r="D417" t="s">
         <v>608</v>
@@ -9307,7 +9307,7 @@
         <v>607</v>
       </c>
       <c r="C418">
-        <v>89.211</v>
+        <v>95.166</v>
       </c>
       <c r="D418" t="s">
         <v>608</v>
@@ -9324,7 +9324,7 @@
         <v>606</v>
       </c>
       <c r="C419">
-        <v>109.524</v>
+        <v>115.696</v>
       </c>
       <c r="D419" t="s">
         <v>608</v>
@@ -9341,7 +9341,7 @@
         <v>606</v>
       </c>
       <c r="C420">
-        <v>118.15</v>
+        <v>115.454</v>
       </c>
       <c r="D420" t="s">
         <v>608</v>
@@ -9355,10 +9355,10 @@
         <v>424</v>
       </c>
       <c r="B421" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C421">
-        <v>91.429</v>
+        <v>102.131</v>
       </c>
       <c r="D421" t="s">
         <v>608</v>
@@ -9375,7 +9375,7 @@
         <v>606</v>
       </c>
       <c r="C422">
-        <v>103.289</v>
+        <v>101.724</v>
       </c>
       <c r="D422" t="s">
         <v>608</v>
@@ -9389,10 +9389,10 @@
         <v>426</v>
       </c>
       <c r="B423" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C423">
-        <v>101.689</v>
+        <v>96.532</v>
       </c>
       <c r="D423" t="s">
         <v>608</v>
@@ -9409,7 +9409,7 @@
         <v>606</v>
       </c>
       <c r="C424">
-        <v>112.621</v>
+        <v>110.729</v>
       </c>
       <c r="D424" t="s">
         <v>608</v>
@@ -9426,7 +9426,7 @@
         <v>606</v>
       </c>
       <c r="C425">
-        <v>108.526</v>
+        <v>102.758</v>
       </c>
       <c r="D425" t="s">
         <v>608</v>
@@ -9443,7 +9443,7 @@
         <v>606</v>
       </c>
       <c r="C426">
-        <v>106.718</v>
+        <v>104.181</v>
       </c>
       <c r="D426" t="s">
         <v>608</v>
@@ -9460,7 +9460,7 @@
         <v>606</v>
       </c>
       <c r="C427">
-        <v>111.266</v>
+        <v>108.573</v>
       </c>
       <c r="D427" t="s">
         <v>608</v>
@@ -9477,7 +9477,7 @@
         <v>606</v>
       </c>
       <c r="C428">
-        <v>104.188</v>
+        <v>102.43</v>
       </c>
       <c r="D428" t="s">
         <v>608</v>
@@ -9494,7 +9494,7 @@
         <v>606</v>
       </c>
       <c r="C429">
-        <v>105.462</v>
+        <v>106.473</v>
       </c>
       <c r="D429" t="s">
         <v>608</v>
@@ -9511,7 +9511,7 @@
         <v>606</v>
       </c>
       <c r="C430">
-        <v>116.888</v>
+        <v>112.219</v>
       </c>
       <c r="D430" t="s">
         <v>608</v>
@@ -9525,10 +9525,10 @@
         <v>434</v>
       </c>
       <c r="B431" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C431">
-        <v>101.834</v>
+        <v>96.16500000000001</v>
       </c>
       <c r="D431" t="s">
         <v>608</v>
@@ -9545,7 +9545,7 @@
         <v>606</v>
       </c>
       <c r="C432">
-        <v>105.19</v>
+        <v>110.916</v>
       </c>
       <c r="D432" t="s">
         <v>608</v>
@@ -9562,7 +9562,7 @@
         <v>606</v>
       </c>
       <c r="C433">
-        <v>109.746</v>
+        <v>106.285</v>
       </c>
       <c r="D433" t="s">
         <v>608</v>
@@ -9579,7 +9579,7 @@
         <v>606</v>
       </c>
       <c r="C434">
-        <v>114.841</v>
+        <v>116.239</v>
       </c>
       <c r="D434" t="s">
         <v>608</v>
@@ -9596,7 +9596,7 @@
         <v>606</v>
       </c>
       <c r="C435">
-        <v>118.655</v>
+        <v>114.548</v>
       </c>
       <c r="D435" t="s">
         <v>608</v>
@@ -9613,7 +9613,7 @@
         <v>606</v>
       </c>
       <c r="C436">
-        <v>106.573</v>
+        <v>109.366</v>
       </c>
       <c r="D436" t="s">
         <v>608</v>
@@ -9630,7 +9630,7 @@
         <v>606</v>
       </c>
       <c r="C437">
-        <v>105.66</v>
+        <v>108.622</v>
       </c>
       <c r="D437" t="s">
         <v>608</v>
@@ -9647,7 +9647,7 @@
         <v>606</v>
       </c>
       <c r="C438">
-        <v>109.287</v>
+        <v>111.502</v>
       </c>
       <c r="D438" t="s">
         <v>608</v>
@@ -9664,7 +9664,7 @@
         <v>606</v>
       </c>
       <c r="C439">
-        <v>108.639</v>
+        <v>102.994</v>
       </c>
       <c r="D439" t="s">
         <v>608</v>
@@ -9681,7 +9681,7 @@
         <v>606</v>
       </c>
       <c r="C440">
-        <v>105.258</v>
+        <v>105.303</v>
       </c>
       <c r="D440" t="s">
         <v>608</v>
@@ -9698,7 +9698,7 @@
         <v>606</v>
       </c>
       <c r="C441">
-        <v>110.798</v>
+        <v>110.199</v>
       </c>
       <c r="D441" t="s">
         <v>608</v>
@@ -9715,7 +9715,7 @@
         <v>606</v>
       </c>
       <c r="C442">
-        <v>101.534</v>
+        <v>103.628</v>
       </c>
       <c r="D442" t="s">
         <v>608</v>
@@ -9732,7 +9732,7 @@
         <v>606</v>
       </c>
       <c r="C443">
-        <v>125.106</v>
+        <v>127.678</v>
       </c>
       <c r="D443" t="s">
         <v>608</v>
@@ -9746,10 +9746,10 @@
         <v>447</v>
       </c>
       <c r="B444" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C444">
-        <v>103.04</v>
+        <v>98.374</v>
       </c>
       <c r="D444" t="s">
         <v>608</v>
@@ -9763,10 +9763,10 @@
         <v>448</v>
       </c>
       <c r="B445" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C445">
-        <v>107.092</v>
+        <v>99.706</v>
       </c>
       <c r="D445" t="s">
         <v>608</v>
@@ -9783,7 +9783,7 @@
         <v>606</v>
       </c>
       <c r="C446">
-        <v>100.087</v>
+        <v>104.971</v>
       </c>
       <c r="D446" t="s">
         <v>608</v>
@@ -9797,10 +9797,10 @@
         <v>450</v>
       </c>
       <c r="B447" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C447">
-        <v>104.08</v>
+        <v>97.598</v>
       </c>
       <c r="D447" t="s">
         <v>608</v>
@@ -9817,7 +9817,7 @@
         <v>606</v>
       </c>
       <c r="C448">
-        <v>108.204</v>
+        <v>106.35</v>
       </c>
       <c r="D448" t="s">
         <v>608</v>
@@ -9834,7 +9834,7 @@
         <v>606</v>
       </c>
       <c r="C449">
-        <v>114.366</v>
+        <v>111.016</v>
       </c>
       <c r="D449" t="s">
         <v>608</v>
@@ -9851,7 +9851,7 @@
         <v>606</v>
       </c>
       <c r="C450">
-        <v>102.851</v>
+        <v>108.741</v>
       </c>
       <c r="D450" t="s">
         <v>608</v>
@@ -9865,10 +9865,10 @@
         <v>454</v>
       </c>
       <c r="B451" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C451">
-        <v>102.343</v>
+        <v>99.70999999999999</v>
       </c>
       <c r="D451" t="s">
         <v>608</v>
@@ -9885,7 +9885,7 @@
         <v>606</v>
       </c>
       <c r="C452">
-        <v>122.646</v>
+        <v>112.854</v>
       </c>
       <c r="D452" t="s">
         <v>608</v>
@@ -9902,7 +9902,7 @@
         <v>606</v>
       </c>
       <c r="C453">
-        <v>108.391</v>
+        <v>112.11</v>
       </c>
       <c r="D453" t="s">
         <v>608</v>
@@ -9919,7 +9919,7 @@
         <v>606</v>
       </c>
       <c r="C454">
-        <v>120.329</v>
+        <v>115.886</v>
       </c>
       <c r="D454" t="s">
         <v>608</v>
@@ -9936,7 +9936,7 @@
         <v>606</v>
       </c>
       <c r="C455">
-        <v>126.007</v>
+        <v>128.868</v>
       </c>
       <c r="D455" t="s">
         <v>608</v>
@@ -9953,7 +9953,7 @@
         <v>606</v>
       </c>
       <c r="C456">
-        <v>105.831</v>
+        <v>104.912</v>
       </c>
       <c r="D456" t="s">
         <v>608</v>
@@ -9970,7 +9970,7 @@
         <v>606</v>
       </c>
       <c r="C457">
-        <v>106.176</v>
+        <v>110.227</v>
       </c>
       <c r="D457" t="s">
         <v>608</v>
@@ -9987,7 +9987,7 @@
         <v>606</v>
       </c>
       <c r="C458">
-        <v>110.035</v>
+        <v>104.896</v>
       </c>
       <c r="D458" t="s">
         <v>608</v>
@@ -10004,7 +10004,7 @@
         <v>606</v>
       </c>
       <c r="C459">
-        <v>118.23</v>
+        <v>117.921</v>
       </c>
       <c r="D459" t="s">
         <v>608</v>
@@ -10021,7 +10021,7 @@
         <v>606</v>
       </c>
       <c r="C460">
-        <v>117.975</v>
+        <v>121.91</v>
       </c>
       <c r="D460" t="s">
         <v>608</v>
@@ -10038,7 +10038,7 @@
         <v>607</v>
       </c>
       <c r="C461">
-        <v>96.108</v>
+        <v>96.52200000000001</v>
       </c>
       <c r="D461" t="s">
         <v>608</v>
@@ -10052,10 +10052,10 @@
         <v>465</v>
       </c>
       <c r="B462" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C462">
-        <v>103.282</v>
+        <v>95.321</v>
       </c>
       <c r="D462" t="s">
         <v>608</v>
@@ -10072,7 +10072,7 @@
         <v>606</v>
       </c>
       <c r="C463">
-        <v>124.392</v>
+        <v>126.397</v>
       </c>
       <c r="D463" t="s">
         <v>608</v>
@@ -10089,7 +10089,7 @@
         <v>607</v>
       </c>
       <c r="C464">
-        <v>90.786</v>
+        <v>99.051</v>
       </c>
       <c r="D464" t="s">
         <v>608</v>
@@ -10106,7 +10106,7 @@
         <v>606</v>
       </c>
       <c r="C465">
-        <v>112.975</v>
+        <v>104.458</v>
       </c>
       <c r="D465" t="s">
         <v>608</v>
@@ -10123,7 +10123,7 @@
         <v>606</v>
       </c>
       <c r="C466">
-        <v>105.699</v>
+        <v>107.476</v>
       </c>
       <c r="D466" t="s">
         <v>608</v>
@@ -10140,7 +10140,7 @@
         <v>606</v>
       </c>
       <c r="C467">
-        <v>110.032</v>
+        <v>117.663</v>
       </c>
       <c r="D467" t="s">
         <v>608</v>
@@ -10157,7 +10157,7 @@
         <v>607</v>
       </c>
       <c r="C468">
-        <v>95.093</v>
+        <v>97.89</v>
       </c>
       <c r="D468" t="s">
         <v>608</v>
@@ -10171,10 +10171,10 @@
         <v>472</v>
       </c>
       <c r="B469" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C469">
-        <v>99.63</v>
+        <v>107.424</v>
       </c>
       <c r="D469" t="s">
         <v>608</v>
@@ -10191,7 +10191,7 @@
         <v>606</v>
       </c>
       <c r="C470">
-        <v>107.353</v>
+        <v>100.102</v>
       </c>
       <c r="D470" t="s">
         <v>608</v>
@@ -10208,7 +10208,7 @@
         <v>606</v>
       </c>
       <c r="C471">
-        <v>116.38</v>
+        <v>110.78</v>
       </c>
       <c r="D471" t="s">
         <v>608</v>
@@ -10225,7 +10225,7 @@
         <v>606</v>
       </c>
       <c r="C472">
-        <v>107.4</v>
+        <v>106.074</v>
       </c>
       <c r="D472" t="s">
         <v>608</v>
@@ -10239,10 +10239,10 @@
         <v>476</v>
       </c>
       <c r="B473" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C473">
-        <v>99.89100000000001</v>
+        <v>104.738</v>
       </c>
       <c r="D473" t="s">
         <v>608</v>
@@ -10259,7 +10259,7 @@
         <v>606</v>
       </c>
       <c r="C474">
-        <v>115.157</v>
+        <v>108.573</v>
       </c>
       <c r="D474" t="s">
         <v>608</v>
@@ -10273,10 +10273,10 @@
         <v>478</v>
       </c>
       <c r="B475" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C475">
-        <v>105.255</v>
+        <v>98.706</v>
       </c>
       <c r="D475" t="s">
         <v>608</v>
@@ -10290,10 +10290,10 @@
         <v>479</v>
       </c>
       <c r="B476" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C476">
-        <v>79.562</v>
+        <v>102.945</v>
       </c>
       <c r="D476" t="s">
         <v>608</v>
@@ -10310,7 +10310,7 @@
         <v>606</v>
       </c>
       <c r="C477">
-        <v>109.73</v>
+        <v>122.452</v>
       </c>
       <c r="D477" t="s">
         <v>608</v>
@@ -10327,7 +10327,7 @@
         <v>607</v>
       </c>
       <c r="C478">
-        <v>95.565</v>
+        <v>95.55200000000001</v>
       </c>
       <c r="D478" t="s">
         <v>608</v>
@@ -10344,7 +10344,7 @@
         <v>606</v>
       </c>
       <c r="C479">
-        <v>114.854</v>
+        <v>110.974</v>
       </c>
       <c r="D479" t="s">
         <v>608</v>
@@ -10361,7 +10361,7 @@
         <v>606</v>
       </c>
       <c r="C480">
-        <v>115.625</v>
+        <v>105.117</v>
       </c>
       <c r="D480" t="s">
         <v>608</v>
@@ -10378,7 +10378,7 @@
         <v>606</v>
       </c>
       <c r="C481">
-        <v>118.448</v>
+        <v>113.125</v>
       </c>
       <c r="D481" t="s">
         <v>608</v>
@@ -10395,7 +10395,7 @@
         <v>606</v>
       </c>
       <c r="C482">
-        <v>106.003</v>
+        <v>110.471</v>
       </c>
       <c r="D482" t="s">
         <v>608</v>
@@ -10412,7 +10412,7 @@
         <v>606</v>
       </c>
       <c r="C483">
-        <v>112.378</v>
+        <v>127.273</v>
       </c>
       <c r="D483" t="s">
         <v>608</v>
@@ -10429,7 +10429,7 @@
         <v>606</v>
       </c>
       <c r="C484">
-        <v>115.37</v>
+        <v>106.107</v>
       </c>
       <c r="D484" t="s">
         <v>608</v>
@@ -10446,7 +10446,7 @@
         <v>606</v>
       </c>
       <c r="C485">
-        <v>123.535</v>
+        <v>121.228</v>
       </c>
       <c r="D485" t="s">
         <v>608</v>
@@ -10463,7 +10463,7 @@
         <v>606</v>
       </c>
       <c r="C486">
-        <v>111.672</v>
+        <v>106.818</v>
       </c>
       <c r="D486" t="s">
         <v>608</v>
@@ -10477,10 +10477,10 @@
         <v>490</v>
       </c>
       <c r="B487" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C487">
-        <v>101.296</v>
+        <v>94.367</v>
       </c>
       <c r="D487" t="s">
         <v>608</v>
@@ -10497,7 +10497,7 @@
         <v>606</v>
       </c>
       <c r="C488">
-        <v>101.269</v>
+        <v>108.423</v>
       </c>
       <c r="D488" t="s">
         <v>608</v>
@@ -10514,7 +10514,7 @@
         <v>606</v>
       </c>
       <c r="C489">
-        <v>124.612</v>
+        <v>126.902</v>
       </c>
       <c r="D489" t="s">
         <v>608</v>
@@ -10528,10 +10528,10 @@
         <v>493</v>
       </c>
       <c r="B490" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C490">
-        <v>100.445</v>
+        <v>92.241</v>
       </c>
       <c r="D490" t="s">
         <v>608</v>
@@ -10548,7 +10548,7 @@
         <v>606</v>
       </c>
       <c r="C491">
-        <v>104.707</v>
+        <v>113.932</v>
       </c>
       <c r="D491" t="s">
         <v>608</v>
@@ -10562,10 +10562,10 @@
         <v>495</v>
       </c>
       <c r="B492" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C492">
-        <v>99.19</v>
+        <v>104.371</v>
       </c>
       <c r="D492" t="s">
         <v>608</v>
@@ -10582,7 +10582,7 @@
         <v>606</v>
       </c>
       <c r="C493">
-        <v>102.349</v>
+        <v>101.548</v>
       </c>
       <c r="D493" t="s">
         <v>608</v>
@@ -10599,7 +10599,7 @@
         <v>606</v>
       </c>
       <c r="C494">
-        <v>100.69</v>
+        <v>101.078</v>
       </c>
       <c r="D494" t="s">
         <v>608</v>
@@ -10616,7 +10616,7 @@
         <v>606</v>
       </c>
       <c r="C495">
-        <v>102.374</v>
+        <v>102.491</v>
       </c>
       <c r="D495" t="s">
         <v>608</v>
@@ -10633,7 +10633,7 @@
         <v>606</v>
       </c>
       <c r="C496">
-        <v>102.921</v>
+        <v>104.184</v>
       </c>
       <c r="D496" t="s">
         <v>608</v>
@@ -10650,7 +10650,7 @@
         <v>607</v>
       </c>
       <c r="C497">
-        <v>96.32899999999999</v>
+        <v>99.895</v>
       </c>
       <c r="D497" t="s">
         <v>608</v>
@@ -10664,10 +10664,10 @@
         <v>501</v>
       </c>
       <c r="B498" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C498">
-        <v>97.81</v>
+        <v>101.787</v>
       </c>
       <c r="D498" t="s">
         <v>608</v>
@@ -10684,7 +10684,7 @@
         <v>606</v>
       </c>
       <c r="C499">
-        <v>102.333</v>
+        <v>103.058</v>
       </c>
       <c r="D499" t="s">
         <v>608</v>
@@ -10698,10 +10698,10 @@
         <v>503</v>
       </c>
       <c r="B500" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C500">
-        <v>99.708</v>
+        <v>110.22</v>
       </c>
       <c r="D500" t="s">
         <v>608</v>
@@ -10718,7 +10718,7 @@
         <v>606</v>
       </c>
       <c r="C501">
-        <v>107.09</v>
+        <v>111.08</v>
       </c>
       <c r="D501" t="s">
         <v>608</v>
@@ -10735,7 +10735,7 @@
         <v>606</v>
       </c>
       <c r="C502">
-        <v>111.908</v>
+        <v>113.063</v>
       </c>
       <c r="D502" t="s">
         <v>608</v>
@@ -10752,7 +10752,7 @@
         <v>606</v>
       </c>
       <c r="C503">
-        <v>115.168</v>
+        <v>116.59</v>
       </c>
       <c r="D503" t="s">
         <v>608</v>
@@ -10769,7 +10769,7 @@
         <v>606</v>
       </c>
       <c r="C504">
-        <v>116.321</v>
+        <v>109.556</v>
       </c>
       <c r="D504" t="s">
         <v>608</v>
@@ -10783,10 +10783,10 @@
         <v>508</v>
       </c>
       <c r="B505" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C505">
-        <v>106.324</v>
+        <v>99.396</v>
       </c>
       <c r="D505" t="s">
         <v>608</v>
@@ -10803,7 +10803,7 @@
         <v>606</v>
       </c>
       <c r="C506">
-        <v>101.197</v>
+        <v>104.983</v>
       </c>
       <c r="D506" t="s">
         <v>608</v>
@@ -10820,7 +10820,7 @@
         <v>607</v>
       </c>
       <c r="C507">
-        <v>88.727</v>
+        <v>86.818</v>
       </c>
       <c r="D507" t="s">
         <v>608</v>
@@ -10837,7 +10837,7 @@
         <v>606</v>
       </c>
       <c r="C508">
-        <v>105.937</v>
+        <v>101.832</v>
       </c>
       <c r="D508" t="s">
         <v>608</v>
@@ -10854,7 +10854,7 @@
         <v>606</v>
       </c>
       <c r="C509">
-        <v>120.801</v>
+        <v>114.553</v>
       </c>
       <c r="D509" t="s">
         <v>608</v>
@@ -10871,7 +10871,7 @@
         <v>606</v>
       </c>
       <c r="C510">
-        <v>104.267</v>
+        <v>113.235</v>
       </c>
       <c r="D510" t="s">
         <v>608</v>
@@ -10888,7 +10888,7 @@
         <v>607</v>
       </c>
       <c r="C511">
-        <v>78.20399999999999</v>
+        <v>82.669</v>
       </c>
       <c r="D511" t="s">
         <v>608</v>
@@ -10905,7 +10905,7 @@
         <v>606</v>
       </c>
       <c r="C512">
-        <v>130.227</v>
+        <v>121.448</v>
       </c>
       <c r="D512" t="s">
         <v>608</v>
@@ -10922,7 +10922,7 @@
         <v>606</v>
       </c>
       <c r="C513">
-        <v>110.821</v>
+        <v>113.816</v>
       </c>
       <c r="D513" t="s">
         <v>608</v>
@@ -10939,7 +10939,7 @@
         <v>606</v>
       </c>
       <c r="C514">
-        <v>180.882</v>
+        <v>205.738</v>
       </c>
       <c r="D514" t="s">
         <v>608</v>
@@ -10956,7 +10956,7 @@
         <v>606</v>
       </c>
       <c r="C515">
-        <v>140.511</v>
+        <v>101.961</v>
       </c>
       <c r="D515" t="s">
         <v>608</v>
@@ -10973,7 +10973,7 @@
         <v>606</v>
       </c>
       <c r="C516">
-        <v>112.798</v>
+        <v>103.381</v>
       </c>
       <c r="D516" t="s">
         <v>608</v>
@@ -10990,7 +10990,7 @@
         <v>606</v>
       </c>
       <c r="C517">
-        <v>101.438</v>
+        <v>100.396</v>
       </c>
       <c r="D517" t="s">
         <v>608</v>
@@ -11007,7 +11007,7 @@
         <v>606</v>
       </c>
       <c r="C518">
-        <v>127.796</v>
+        <v>107.985</v>
       </c>
       <c r="D518" t="s">
         <v>608</v>
@@ -11024,7 +11024,7 @@
         <v>606</v>
       </c>
       <c r="C519">
-        <v>147.853</v>
+        <v>144.094</v>
       </c>
       <c r="D519" t="s">
         <v>608</v>
@@ -11041,7 +11041,7 @@
         <v>606</v>
       </c>
       <c r="C520">
-        <v>127.881</v>
+        <v>102.651</v>
       </c>
       <c r="D520" t="s">
         <v>608</v>
@@ -11058,7 +11058,7 @@
         <v>607</v>
       </c>
       <c r="C521">
-        <v>91.604</v>
+        <v>88.20699999999999</v>
       </c>
       <c r="D521" t="s">
         <v>608</v>
@@ -11072,10 +11072,10 @@
         <v>525</v>
       </c>
       <c r="B522" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C522">
-        <v>103.186</v>
+        <v>91.137</v>
       </c>
       <c r="D522" t="s">
         <v>608</v>
@@ -11092,7 +11092,7 @@
         <v>606</v>
       </c>
       <c r="C523">
-        <v>103.65</v>
+        <v>104.359</v>
       </c>
       <c r="D523" t="s">
         <v>608</v>
@@ -11109,7 +11109,7 @@
         <v>607</v>
       </c>
       <c r="C524">
-        <v>91.01900000000001</v>
+        <v>91.39400000000001</v>
       </c>
       <c r="D524" t="s">
         <v>608</v>
@@ -11126,7 +11126,7 @@
         <v>606</v>
       </c>
       <c r="C525">
-        <v>121.197</v>
+        <v>102.17</v>
       </c>
       <c r="D525" t="s">
         <v>608</v>
@@ -11140,10 +11140,10 @@
         <v>528</v>
       </c>
       <c r="B526" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C526">
-        <v>96.959</v>
+        <v>112.803</v>
       </c>
       <c r="D526" t="s">
         <v>608</v>
@@ -11160,7 +11160,7 @@
         <v>607</v>
       </c>
       <c r="C527">
-        <v>83.5</v>
+        <v>95.72499999999999</v>
       </c>
       <c r="D527" t="s">
         <v>608</v>
@@ -11177,7 +11177,7 @@
         <v>607</v>
       </c>
       <c r="C528">
-        <v>66.52</v>
+        <v>81</v>
       </c>
       <c r="D528" t="s">
         <v>608</v>
@@ -11194,7 +11194,7 @@
         <v>607</v>
       </c>
       <c r="C529">
-        <v>87.13</v>
+        <v>89.595</v>
       </c>
       <c r="D529" t="s">
         <v>608</v>
@@ -11211,7 +11211,7 @@
         <v>606</v>
       </c>
       <c r="C530">
-        <v>132.429</v>
+        <v>141.315</v>
       </c>
       <c r="D530" t="s">
         <v>608</v>
@@ -11228,7 +11228,7 @@
         <v>606</v>
       </c>
       <c r="C531">
-        <v>141.501</v>
+        <v>128.875</v>
       </c>
       <c r="D531" t="s">
         <v>608</v>
@@ -11245,7 +11245,7 @@
         <v>606</v>
       </c>
       <c r="C532">
-        <v>140.179</v>
+        <v>106.573</v>
       </c>
       <c r="D532" t="s">
         <v>608</v>
@@ -11262,7 +11262,7 @@
         <v>606</v>
       </c>
       <c r="C533">
-        <v>123.616</v>
+        <v>113.043</v>
       </c>
       <c r="D533" t="s">
         <v>608</v>
@@ -11279,7 +11279,7 @@
         <v>606</v>
       </c>
       <c r="C534">
-        <v>109.532</v>
+        <v>107.632</v>
       </c>
       <c r="D534" t="s">
         <v>608</v>
@@ -11296,7 +11296,7 @@
         <v>607</v>
       </c>
       <c r="C535">
-        <v>99.173</v>
+        <v>98.346</v>
       </c>
       <c r="D535" t="s">
         <v>608</v>
@@ -11310,10 +11310,10 @@
         <v>538</v>
       </c>
       <c r="B536" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C536">
-        <v>99.733</v>
+        <v>106.546</v>
       </c>
       <c r="D536" t="s">
         <v>608</v>
@@ -11330,7 +11330,7 @@
         <v>606</v>
       </c>
       <c r="C537">
-        <v>108.419</v>
+        <v>113.912</v>
       </c>
       <c r="D537" t="s">
         <v>608</v>
@@ -11347,7 +11347,7 @@
         <v>607</v>
       </c>
       <c r="C538">
-        <v>94.696</v>
+        <v>86.491</v>
       </c>
       <c r="D538" t="s">
         <v>608</v>
@@ -11361,10 +11361,10 @@
         <v>384</v>
       </c>
       <c r="B539" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C539">
-        <v>97.871</v>
+        <v>107.015</v>
       </c>
       <c r="D539" t="s">
         <v>608</v>
@@ -11381,7 +11381,7 @@
         <v>607</v>
       </c>
       <c r="C540">
-        <v>81.121</v>
+        <v>85.78700000000001</v>
       </c>
       <c r="D540" t="s">
         <v>608</v>
@@ -11395,10 +11395,10 @@
         <v>542</v>
       </c>
       <c r="B541" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C541">
-        <v>102.362</v>
+        <v>99.708</v>
       </c>
       <c r="D541" t="s">
         <v>608</v>
@@ -11412,10 +11412,10 @@
         <v>543</v>
       </c>
       <c r="B542" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C542">
-        <v>102.133</v>
+        <v>99.852</v>
       </c>
       <c r="D542" t="s">
         <v>608</v>
@@ -11432,7 +11432,7 @@
         <v>606</v>
       </c>
       <c r="C543">
-        <v>110.512</v>
+        <v>107.766</v>
       </c>
       <c r="D543" t="s">
         <v>608</v>
@@ -11446,10 +11446,10 @@
         <v>545</v>
       </c>
       <c r="B544" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C544">
-        <v>101.724</v>
+        <v>98.26600000000001</v>
       </c>
       <c r="D544" t="s">
         <v>608</v>
@@ -11466,7 +11466,7 @@
         <v>606</v>
       </c>
       <c r="C545">
-        <v>112.111</v>
+        <v>105.939</v>
       </c>
       <c r="D545" t="s">
         <v>608</v>
@@ -11480,10 +11480,10 @@
         <v>547</v>
       </c>
       <c r="B546" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C546">
-        <v>105.448</v>
+        <v>99.879</v>
       </c>
       <c r="D546" t="s">
         <v>608</v>
@@ -11497,10 +11497,10 @@
         <v>548</v>
       </c>
       <c r="B547" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C547">
-        <v>122.531</v>
+        <v>98.462</v>
       </c>
       <c r="D547" t="s">
         <v>608</v>
@@ -11517,7 +11517,7 @@
         <v>606</v>
       </c>
       <c r="C548">
-        <v>106.735</v>
+        <v>101.924</v>
       </c>
       <c r="D548" t="s">
         <v>608</v>
@@ -11531,10 +11531,10 @@
         <v>550</v>
       </c>
       <c r="B549" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C549">
-        <v>100</v>
+        <v>99.623</v>
       </c>
       <c r="D549" t="s">
         <v>608</v>
@@ -11551,7 +11551,7 @@
         <v>606</v>
       </c>
       <c r="C550">
-        <v>101.452</v>
+        <v>100.678</v>
       </c>
       <c r="D550" t="s">
         <v>608</v>
@@ -11565,10 +11565,10 @@
         <v>552</v>
       </c>
       <c r="B551" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C551">
-        <v>101.014</v>
+        <v>99.002</v>
       </c>
       <c r="D551" t="s">
         <v>608</v>
@@ -11585,7 +11585,7 @@
         <v>606</v>
       </c>
       <c r="C552">
-        <v>105.607</v>
+        <v>104.341</v>
       </c>
       <c r="D552" t="s">
         <v>608</v>
@@ -11602,7 +11602,7 @@
         <v>607</v>
       </c>
       <c r="C553">
-        <v>94.926</v>
+        <v>92.569</v>
       </c>
       <c r="D553" t="s">
         <v>608</v>
@@ -11619,7 +11619,7 @@
         <v>606</v>
       </c>
       <c r="C554">
-        <v>110.98</v>
+        <v>109.908</v>
       </c>
       <c r="D554" t="s">
         <v>608</v>
@@ -11636,7 +11636,7 @@
         <v>607</v>
       </c>
       <c r="C555">
-        <v>90.90900000000001</v>
+        <v>91.304</v>
       </c>
       <c r="D555" t="s">
         <v>608</v>
@@ -11653,7 +11653,7 @@
         <v>606</v>
       </c>
       <c r="C556">
-        <v>105.59</v>
+        <v>100.469</v>
       </c>
       <c r="D556" t="s">
         <v>608</v>
@@ -11667,10 +11667,10 @@
         <v>558</v>
       </c>
       <c r="B557" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C557">
-        <v>100.181</v>
+        <v>99.81999999999999</v>
       </c>
       <c r="D557" t="s">
         <v>608</v>
@@ -11687,7 +11687,7 @@
         <v>607</v>
       </c>
       <c r="C558">
-        <v>99.146</v>
+        <v>99.544</v>
       </c>
       <c r="D558" t="s">
         <v>608</v>
@@ -11704,7 +11704,7 @@
         <v>607</v>
       </c>
       <c r="C559">
-        <v>99.015</v>
+        <v>97.367</v>
       </c>
       <c r="D559" t="s">
         <v>608</v>
@@ -11721,7 +11721,7 @@
         <v>607</v>
       </c>
       <c r="C560">
-        <v>97.30200000000001</v>
+        <v>94.071</v>
       </c>
       <c r="D560" t="s">
         <v>608</v>
@@ -11738,7 +11738,7 @@
         <v>606</v>
       </c>
       <c r="C561">
-        <v>111.286</v>
+        <v>109.466</v>
       </c>
       <c r="D561" t="s">
         <v>608</v>
@@ -11755,7 +11755,7 @@
         <v>607</v>
       </c>
       <c r="C562">
-        <v>98.245</v>
+        <v>97.45</v>
       </c>
       <c r="D562" t="s">
         <v>608</v>
@@ -11769,10 +11769,10 @@
         <v>564</v>
       </c>
       <c r="B563" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C563">
-        <v>98.529</v>
+        <v>100</v>
       </c>
       <c r="D563" t="s">
         <v>608</v>
@@ -11789,7 +11789,7 @@
         <v>607</v>
       </c>
       <c r="C564">
-        <v>97.069</v>
+        <v>91.846</v>
       </c>
       <c r="D564" t="s">
         <v>608</v>
@@ -11806,7 +11806,7 @@
         <v>607</v>
       </c>
       <c r="C565">
-        <v>98.01600000000001</v>
+        <v>99.693</v>
       </c>
       <c r="D565" t="s">
         <v>608</v>
@@ -11823,7 +11823,7 @@
         <v>607</v>
       </c>
       <c r="C566">
-        <v>99.562</v>
+        <v>99.26900000000001</v>
       </c>
       <c r="D566" t="s">
         <v>608</v>
@@ -11840,7 +11840,7 @@
         <v>606</v>
       </c>
       <c r="C567">
-        <v>126.017</v>
+        <v>120.126</v>
       </c>
       <c r="D567" t="s">
         <v>608</v>
@@ -11857,7 +11857,7 @@
         <v>606</v>
       </c>
       <c r="C568">
-        <v>117.864</v>
+        <v>103.022</v>
       </c>
       <c r="D568" t="s">
         <v>608</v>
@@ -11874,7 +11874,7 @@
         <v>606</v>
       </c>
       <c r="C569">
-        <v>104.793</v>
+        <v>104.245</v>
       </c>
       <c r="D569" t="s">
         <v>608</v>
@@ -11891,7 +11891,7 @@
         <v>606</v>
       </c>
       <c r="C570">
-        <v>105.448</v>
+        <v>104.509</v>
       </c>
       <c r="D570" t="s">
         <v>608</v>
@@ -11908,7 +11908,7 @@
         <v>607</v>
       </c>
       <c r="C571">
-        <v>97.923</v>
+        <v>88.23699999999999</v>
       </c>
       <c r="D571" t="s">
         <v>608</v>
@@ -11922,10 +11922,10 @@
         <v>573</v>
       </c>
       <c r="B572" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C572">
-        <v>98.09999999999999</v>
+        <v>111.046</v>
       </c>
       <c r="D572" t="s">
         <v>608</v>
@@ -11939,10 +11939,10 @@
         <v>574</v>
       </c>
       <c r="B573" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C573">
-        <v>97.93899999999999</v>
+        <v>102.001</v>
       </c>
       <c r="D573" t="s">
         <v>608</v>
@@ -11959,7 +11959,7 @@
         <v>606</v>
       </c>
       <c r="C574">
-        <v>108.682</v>
+        <v>103.548</v>
       </c>
       <c r="D574" t="s">
         <v>608</v>
@@ -11973,10 +11973,10 @@
         <v>576</v>
       </c>
       <c r="B575" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C575">
-        <v>99.657</v>
+        <v>105.342</v>
       </c>
       <c r="D575" t="s">
         <v>608</v>
@@ -11993,7 +11993,7 @@
         <v>606</v>
       </c>
       <c r="C576">
-        <v>103.258</v>
+        <v>106.345</v>
       </c>
       <c r="D576" t="s">
         <v>608</v>
@@ -12010,7 +12010,7 @@
         <v>606</v>
       </c>
       <c r="C577">
-        <v>101.595</v>
+        <v>102.84</v>
       </c>
       <c r="D577" t="s">
         <v>608</v>
@@ -12027,7 +12027,7 @@
         <v>606</v>
       </c>
       <c r="C578">
-        <v>104.847</v>
+        <v>107.2</v>
       </c>
       <c r="D578" t="s">
         <v>608</v>
@@ -12041,10 +12041,10 @@
         <v>580</v>
       </c>
       <c r="B579" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C579">
-        <v>94.95099999999999</v>
+        <v>100.197</v>
       </c>
       <c r="D579" t="s">
         <v>608</v>
@@ -12061,7 +12061,7 @@
         <v>607</v>
       </c>
       <c r="C580">
-        <v>99.214</v>
+        <v>96.023</v>
       </c>
       <c r="D580" t="s">
         <v>608</v>
@@ -12078,7 +12078,7 @@
         <v>606</v>
       </c>
       <c r="C581">
-        <v>105.882</v>
+        <v>104.398</v>
       </c>
       <c r="D581" t="s">
         <v>608</v>
@@ -12095,7 +12095,7 @@
         <v>606</v>
       </c>
       <c r="C582">
-        <v>114.104</v>
+        <v>108.353</v>
       </c>
       <c r="D582" t="s">
         <v>608</v>
@@ -12109,10 +12109,10 @@
         <v>584</v>
       </c>
       <c r="B583" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C583">
-        <v>99.95999999999999</v>
+        <v>107.438</v>
       </c>
       <c r="D583" t="s">
         <v>608</v>
@@ -12129,7 +12129,7 @@
         <v>606</v>
       </c>
       <c r="C584">
-        <v>100.461</v>
+        <v>109.463</v>
       </c>
       <c r="D584" t="s">
         <v>608</v>
@@ -12146,7 +12146,7 @@
         <v>607</v>
       </c>
       <c r="C585">
-        <v>96.089</v>
+        <v>97.07599999999999</v>
       </c>
       <c r="D585" t="s">
         <v>608</v>
@@ -12163,7 +12163,7 @@
         <v>606</v>
       </c>
       <c r="C586">
-        <v>109.762</v>
+        <v>109.681</v>
       </c>
       <c r="D586" t="s">
         <v>608</v>
@@ -12180,7 +12180,7 @@
         <v>606</v>
       </c>
       <c r="C587">
-        <v>112.748</v>
+        <v>106.376</v>
       </c>
       <c r="D587" t="s">
         <v>608</v>
@@ -12197,7 +12197,7 @@
         <v>607</v>
       </c>
       <c r="C588">
-        <v>98.33799999999999</v>
+        <v>93.312</v>
       </c>
       <c r="D588" t="s">
         <v>608</v>
@@ -12214,7 +12214,7 @@
         <v>606</v>
       </c>
       <c r="C589">
-        <v>107.864</v>
+        <v>103.709</v>
       </c>
       <c r="D589" t="s">
         <v>608</v>
@@ -12228,10 +12228,10 @@
         <v>591</v>
       </c>
       <c r="B590" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C590">
-        <v>99.506</v>
+        <v>106.975</v>
       </c>
       <c r="D590" t="s">
         <v>608</v>
@@ -12248,7 +12248,7 @@
         <v>607</v>
       </c>
       <c r="C591">
-        <v>97.163</v>
+        <v>95.824</v>
       </c>
       <c r="D591" t="s">
         <v>608</v>
@@ -12265,7 +12265,7 @@
         <v>606</v>
       </c>
       <c r="C592">
-        <v>103.525</v>
+        <v>103.306</v>
       </c>
       <c r="D592" t="s">
         <v>608</v>
@@ -12279,10 +12279,10 @@
         <v>594</v>
       </c>
       <c r="B593" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C593">
-        <v>89.05800000000001</v>
+        <v>102.798</v>
       </c>
       <c r="D593" t="s">
         <v>608</v>
@@ -12299,7 +12299,7 @@
         <v>607</v>
       </c>
       <c r="C594">
-        <v>96.684</v>
+        <v>97.913</v>
       </c>
       <c r="D594" t="s">
         <v>608</v>
@@ -12316,7 +12316,7 @@
         <v>606</v>
       </c>
       <c r="C595">
-        <v>102.598</v>
+        <v>105.779</v>
       </c>
       <c r="D595" t="s">
         <v>608</v>
@@ -12333,7 +12333,7 @@
         <v>606</v>
       </c>
       <c r="C596">
-        <v>103.051</v>
+        <v>104.684</v>
       </c>
       <c r="D596" t="s">
         <v>608</v>
@@ -12347,10 +12347,10 @@
         <v>598</v>
       </c>
       <c r="B597" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C597">
-        <v>97.949</v>
+        <v>106.154</v>
       </c>
       <c r="D597" t="s">
         <v>608</v>
@@ -12367,7 +12367,7 @@
         <v>606</v>
       </c>
       <c r="C598">
-        <v>122.124</v>
+        <v>120.068</v>
       </c>
       <c r="D598" t="s">
         <v>608</v>
@@ -12381,10 +12381,10 @@
         <v>600</v>
       </c>
       <c r="B599" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C599">
-        <v>96.639</v>
+        <v>103.39</v>
       </c>
       <c r="D599" t="s">
         <v>608</v>
@@ -12401,7 +12401,7 @@
         <v>606</v>
       </c>
       <c r="C600">
-        <v>107.6</v>
+        <v>104.851</v>
       </c>
       <c r="D600" t="s">
         <v>608</v>
@@ -12418,7 +12418,7 @@
         <v>606</v>
       </c>
       <c r="C601">
-        <v>107.188</v>
+        <v>102.546</v>
       </c>
       <c r="D601" t="s">
         <v>608</v>
@@ -12435,7 +12435,7 @@
         <v>606</v>
       </c>
       <c r="C602">
-        <v>115.431</v>
+        <v>111.885</v>
       </c>
       <c r="D602" t="s">
         <v>608</v>
@@ -12452,7 +12452,7 @@
         <v>606</v>
       </c>
       <c r="C603">
-        <v>101.006</v>
+        <v>101.719</v>
       </c>
       <c r="D603" t="s">
         <v>608</v>
@@ -12469,7 +12469,7 @@
         <v>606</v>
       </c>
       <c r="C604">
-        <v>119.745</v>
+        <v>105.359</v>
       </c>
       <c r="D604" t="s">
         <v>608</v>

--- a/generated_reports/tradfi_momentum.xlsx
+++ b/generated_reports/tradfi_momentum.xlsx
@@ -2235,7 +2235,7 @@
         <v>606</v>
       </c>
       <c r="C2">
-        <v>100.186</v>
+        <v>101.69</v>
       </c>
       <c r="D2" t="s">
         <v>608</v>
@@ -2252,7 +2252,7 @@
         <v>606</v>
       </c>
       <c r="C3">
-        <v>104.478</v>
+        <v>105.837</v>
       </c>
       <c r="D3" t="s">
         <v>608</v>
@@ -2269,7 +2269,7 @@
         <v>606</v>
       </c>
       <c r="C4">
-        <v>106.493</v>
+        <v>107.583</v>
       </c>
       <c r="D4" t="s">
         <v>608</v>
@@ -2286,7 +2286,7 @@
         <v>607</v>
       </c>
       <c r="C5">
-        <v>95.31100000000001</v>
+        <v>92.59699999999999</v>
       </c>
       <c r="D5" t="s">
         <v>608</v>
@@ -2303,7 +2303,7 @@
         <v>607</v>
       </c>
       <c r="C6">
-        <v>97.925</v>
+        <v>97.014</v>
       </c>
       <c r="D6" t="s">
         <v>608</v>
@@ -2320,7 +2320,7 @@
         <v>607</v>
       </c>
       <c r="C7">
-        <v>96.288</v>
+        <v>96.48999999999999</v>
       </c>
       <c r="D7" t="s">
         <v>608</v>
@@ -2337,7 +2337,7 @@
         <v>606</v>
       </c>
       <c r="C8">
-        <v>102.914</v>
+        <v>104.347</v>
       </c>
       <c r="D8" t="s">
         <v>608</v>
@@ -2354,7 +2354,7 @@
         <v>606</v>
       </c>
       <c r="C9">
-        <v>119.894</v>
+        <v>113.521</v>
       </c>
       <c r="D9" t="s">
         <v>608</v>
@@ -2371,7 +2371,7 @@
         <v>606</v>
       </c>
       <c r="C10">
-        <v>111.065</v>
+        <v>112.66</v>
       </c>
       <c r="D10" t="s">
         <v>608</v>
@@ -2388,7 +2388,7 @@
         <v>606</v>
       </c>
       <c r="C11">
-        <v>104.402</v>
+        <v>106.123</v>
       </c>
       <c r="D11" t="s">
         <v>608</v>
@@ -2405,7 +2405,7 @@
         <v>606</v>
       </c>
       <c r="C12">
-        <v>100.57</v>
+        <v>102.424</v>
       </c>
       <c r="D12" t="s">
         <v>608</v>
@@ -2422,7 +2422,7 @@
         <v>607</v>
       </c>
       <c r="C13">
-        <v>99.024</v>
+        <v>98.56100000000001</v>
       </c>
       <c r="D13" t="s">
         <v>608</v>
@@ -2439,7 +2439,7 @@
         <v>606</v>
       </c>
       <c r="C14">
-        <v>121.734</v>
+        <v>118.65</v>
       </c>
       <c r="D14" t="s">
         <v>608</v>
@@ -2456,7 +2456,7 @@
         <v>607</v>
       </c>
       <c r="C15">
-        <v>95.739</v>
+        <v>97.32299999999999</v>
       </c>
       <c r="D15" t="s">
         <v>608</v>
@@ -2473,7 +2473,7 @@
         <v>606</v>
       </c>
       <c r="C16">
-        <v>101.247</v>
+        <v>103.003</v>
       </c>
       <c r="D16" t="s">
         <v>608</v>
@@ -2490,7 +2490,7 @@
         <v>606</v>
       </c>
       <c r="C17">
-        <v>104.879</v>
+        <v>102.131</v>
       </c>
       <c r="D17" t="s">
         <v>608</v>
@@ -2507,7 +2507,7 @@
         <v>606</v>
       </c>
       <c r="C18">
-        <v>106.851</v>
+        <v>108.638</v>
       </c>
       <c r="D18" t="s">
         <v>608</v>
@@ -2524,7 +2524,7 @@
         <v>606</v>
       </c>
       <c r="C19">
-        <v>103.747</v>
+        <v>105.326</v>
       </c>
       <c r="D19" t="s">
         <v>608</v>
@@ -2541,7 +2541,7 @@
         <v>606</v>
       </c>
       <c r="C20">
-        <v>106.293</v>
+        <v>106.42</v>
       </c>
       <c r="D20" t="s">
         <v>608</v>
@@ -2558,7 +2558,7 @@
         <v>606</v>
       </c>
       <c r="C21">
-        <v>100.894</v>
+        <v>102.418</v>
       </c>
       <c r="D21" t="s">
         <v>608</v>
@@ -2575,7 +2575,7 @@
         <v>606</v>
       </c>
       <c r="C22">
-        <v>103.287</v>
+        <v>103.693</v>
       </c>
       <c r="D22" t="s">
         <v>608</v>
@@ -2589,10 +2589,10 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C23">
-        <v>99.18000000000001</v>
+        <v>100.332</v>
       </c>
       <c r="D23" t="s">
         <v>608</v>
@@ -2609,7 +2609,7 @@
         <v>607</v>
       </c>
       <c r="C24">
-        <v>97.235</v>
+        <v>94.67400000000001</v>
       </c>
       <c r="D24" t="s">
         <v>608</v>
@@ -2626,7 +2626,7 @@
         <v>606</v>
       </c>
       <c r="C25">
-        <v>105.733</v>
+        <v>106.503</v>
       </c>
       <c r="D25" t="s">
         <v>608</v>
@@ -2643,7 +2643,7 @@
         <v>606</v>
       </c>
       <c r="C26">
-        <v>106.829</v>
+        <v>109.13</v>
       </c>
       <c r="D26" t="s">
         <v>608</v>
@@ -2660,7 +2660,7 @@
         <v>606</v>
       </c>
       <c r="C27">
-        <v>108.334</v>
+        <v>109.057</v>
       </c>
       <c r="D27" t="s">
         <v>608</v>
@@ -2674,10 +2674,10 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C28">
-        <v>99.274</v>
+        <v>100.924</v>
       </c>
       <c r="D28" t="s">
         <v>608</v>
@@ -2694,7 +2694,7 @@
         <v>606</v>
       </c>
       <c r="C29">
-        <v>105.148</v>
+        <v>105.468</v>
       </c>
       <c r="D29" t="s">
         <v>608</v>
@@ -2711,7 +2711,7 @@
         <v>606</v>
       </c>
       <c r="C30">
-        <v>102.251</v>
+        <v>105.741</v>
       </c>
       <c r="D30" t="s">
         <v>608</v>
@@ -2728,7 +2728,7 @@
         <v>607</v>
       </c>
       <c r="C31">
-        <v>97.254</v>
+        <v>98.184</v>
       </c>
       <c r="D31" t="s">
         <v>608</v>
@@ -2745,7 +2745,7 @@
         <v>606</v>
       </c>
       <c r="C32">
-        <v>109.609</v>
+        <v>107.839</v>
       </c>
       <c r="D32" t="s">
         <v>608</v>
@@ -2762,7 +2762,7 @@
         <v>606</v>
       </c>
       <c r="C33">
-        <v>101.645</v>
+        <v>103.537</v>
       </c>
       <c r="D33" t="s">
         <v>608</v>
@@ -2779,7 +2779,7 @@
         <v>607</v>
       </c>
       <c r="C34">
-        <v>90.08199999999999</v>
+        <v>88.983</v>
       </c>
       <c r="D34" t="s">
         <v>608</v>
@@ -2796,7 +2796,7 @@
         <v>606</v>
       </c>
       <c r="C35">
-        <v>100.137</v>
+        <v>101.42</v>
       </c>
       <c r="D35" t="s">
         <v>608</v>
@@ -2813,7 +2813,7 @@
         <v>606</v>
       </c>
       <c r="C36">
-        <v>108.237</v>
+        <v>108.902</v>
       </c>
       <c r="D36" t="s">
         <v>608</v>
@@ -2830,7 +2830,7 @@
         <v>606</v>
       </c>
       <c r="C37">
-        <v>100.495</v>
+        <v>101.092</v>
       </c>
       <c r="D37" t="s">
         <v>608</v>
@@ -2847,7 +2847,7 @@
         <v>607</v>
       </c>
       <c r="C38">
-        <v>95.16200000000001</v>
+        <v>94.599</v>
       </c>
       <c r="D38" t="s">
         <v>608</v>
@@ -2864,7 +2864,7 @@
         <v>606</v>
       </c>
       <c r="C39">
-        <v>106.677</v>
+        <v>107.665</v>
       </c>
       <c r="D39" t="s">
         <v>608</v>
@@ -2881,7 +2881,7 @@
         <v>607</v>
       </c>
       <c r="C40">
-        <v>94.842</v>
+        <v>93.934</v>
       </c>
       <c r="D40" t="s">
         <v>608</v>
@@ -2898,7 +2898,7 @@
         <v>606</v>
       </c>
       <c r="C41">
-        <v>104.603</v>
+        <v>107.053</v>
       </c>
       <c r="D41" t="s">
         <v>608</v>
@@ -2915,7 +2915,7 @@
         <v>606</v>
       </c>
       <c r="C42">
-        <v>103.279</v>
+        <v>110.037</v>
       </c>
       <c r="D42" t="s">
         <v>608</v>
@@ -2932,7 +2932,7 @@
         <v>606</v>
       </c>
       <c r="C43">
-        <v>104.275</v>
+        <v>104.157</v>
       </c>
       <c r="D43" t="s">
         <v>608</v>
@@ -2949,7 +2949,7 @@
         <v>606</v>
       </c>
       <c r="C44">
-        <v>109.821</v>
+        <v>109.172</v>
       </c>
       <c r="D44" t="s">
         <v>608</v>
@@ -2966,7 +2966,7 @@
         <v>606</v>
       </c>
       <c r="C45">
-        <v>102.866</v>
+        <v>104.435</v>
       </c>
       <c r="D45" t="s">
         <v>608</v>
@@ -2983,7 +2983,7 @@
         <v>607</v>
       </c>
       <c r="C46">
-        <v>95.911</v>
+        <v>92.029</v>
       </c>
       <c r="D46" t="s">
         <v>608</v>
@@ -2997,10 +2997,10 @@
         <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C47">
-        <v>99.354</v>
+        <v>100.659</v>
       </c>
       <c r="D47" t="s">
         <v>608</v>
@@ -3017,7 +3017,7 @@
         <v>606</v>
       </c>
       <c r="C48">
-        <v>100.824</v>
+        <v>102.636</v>
       </c>
       <c r="D48" t="s">
         <v>608</v>
@@ -3034,7 +3034,7 @@
         <v>606</v>
       </c>
       <c r="C49">
-        <v>104.574</v>
+        <v>104.813</v>
       </c>
       <c r="D49" t="s">
         <v>608</v>
@@ -3051,7 +3051,7 @@
         <v>606</v>
       </c>
       <c r="C50">
-        <v>100.88</v>
+        <v>103.399</v>
       </c>
       <c r="D50" t="s">
         <v>608</v>
@@ -3068,7 +3068,7 @@
         <v>606</v>
       </c>
       <c r="C51">
-        <v>105.572</v>
+        <v>106.524</v>
       </c>
       <c r="D51" t="s">
         <v>608</v>
@@ -3085,7 +3085,7 @@
         <v>606</v>
       </c>
       <c r="C52">
-        <v>114.798</v>
+        <v>120.471</v>
       </c>
       <c r="D52" t="s">
         <v>608</v>
@@ -3102,7 +3102,7 @@
         <v>607</v>
       </c>
       <c r="C53">
-        <v>93.212</v>
+        <v>91.012</v>
       </c>
       <c r="D53" t="s">
         <v>608</v>
@@ -3116,10 +3116,10 @@
         <v>57</v>
       </c>
       <c r="B54" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C54">
-        <v>97.88500000000001</v>
+        <v>100.926</v>
       </c>
       <c r="D54" t="s">
         <v>608</v>
@@ -3136,7 +3136,7 @@
         <v>606</v>
       </c>
       <c r="C55">
-        <v>101.958</v>
+        <v>101.263</v>
       </c>
       <c r="D55" t="s">
         <v>608</v>
@@ -3153,7 +3153,7 @@
         <v>606</v>
       </c>
       <c r="C56">
-        <v>112.05</v>
+        <v>114.834</v>
       </c>
       <c r="D56" t="s">
         <v>608</v>
@@ -3170,7 +3170,7 @@
         <v>606</v>
       </c>
       <c r="C57">
-        <v>110.266</v>
+        <v>115.176</v>
       </c>
       <c r="D57" t="s">
         <v>608</v>
@@ -3187,7 +3187,7 @@
         <v>607</v>
       </c>
       <c r="C58">
-        <v>99.39700000000001</v>
+        <v>99.26900000000001</v>
       </c>
       <c r="D58" t="s">
         <v>608</v>
@@ -3204,7 +3204,7 @@
         <v>606</v>
       </c>
       <c r="C59">
-        <v>108.962</v>
+        <v>110.569</v>
       </c>
       <c r="D59" t="s">
         <v>608</v>
@@ -3221,7 +3221,7 @@
         <v>606</v>
       </c>
       <c r="C60">
-        <v>100.897</v>
+        <v>102.797</v>
       </c>
       <c r="D60" t="s">
         <v>608</v>
@@ -3235,10 +3235,10 @@
         <v>64</v>
       </c>
       <c r="B61" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C61">
-        <v>95.682</v>
+        <v>109.39</v>
       </c>
       <c r="D61" t="s">
         <v>608</v>
@@ -3255,7 +3255,7 @@
         <v>606</v>
       </c>
       <c r="C62">
-        <v>102.911</v>
+        <v>104.454</v>
       </c>
       <c r="D62" t="s">
         <v>608</v>
@@ -3272,7 +3272,7 @@
         <v>606</v>
       </c>
       <c r="C63">
-        <v>102.172</v>
+        <v>105.926</v>
       </c>
       <c r="D63" t="s">
         <v>608</v>
@@ -3289,7 +3289,7 @@
         <v>606</v>
       </c>
       <c r="C64">
-        <v>103.062</v>
+        <v>106.787</v>
       </c>
       <c r="D64" t="s">
         <v>608</v>
@@ -3303,10 +3303,10 @@
         <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C65">
-        <v>96.447</v>
+        <v>101.447</v>
       </c>
       <c r="D65" t="s">
         <v>608</v>
@@ -3323,7 +3323,7 @@
         <v>607</v>
       </c>
       <c r="C66">
-        <v>78.06399999999999</v>
+        <v>78.449</v>
       </c>
       <c r="D66" t="s">
         <v>608</v>
@@ -3337,10 +3337,10 @@
         <v>70</v>
       </c>
       <c r="B67" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C67">
-        <v>99.685</v>
+        <v>101.885</v>
       </c>
       <c r="D67" t="s">
         <v>608</v>
@@ -3357,7 +3357,7 @@
         <v>606</v>
       </c>
       <c r="C68">
-        <v>103.508</v>
+        <v>103.755</v>
       </c>
       <c r="D68" t="s">
         <v>608</v>
@@ -3371,10 +3371,10 @@
         <v>72</v>
       </c>
       <c r="B69" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C69">
-        <v>98.52200000000001</v>
+        <v>101.319</v>
       </c>
       <c r="D69" t="s">
         <v>608</v>
@@ -3391,7 +3391,7 @@
         <v>606</v>
       </c>
       <c r="C70">
-        <v>101.204</v>
+        <v>102.39</v>
       </c>
       <c r="D70" t="s">
         <v>608</v>
@@ -3408,7 +3408,7 @@
         <v>606</v>
       </c>
       <c r="C71">
-        <v>107.35</v>
+        <v>111.941</v>
       </c>
       <c r="D71" t="s">
         <v>608</v>
@@ -3425,7 +3425,7 @@
         <v>606</v>
       </c>
       <c r="C72">
-        <v>105.179</v>
+        <v>107.306</v>
       </c>
       <c r="D72" t="s">
         <v>608</v>
@@ -3442,7 +3442,7 @@
         <v>606</v>
       </c>
       <c r="C73">
-        <v>109.391</v>
+        <v>110.5</v>
       </c>
       <c r="D73" t="s">
         <v>608</v>
@@ -3459,7 +3459,7 @@
         <v>606</v>
       </c>
       <c r="C74">
-        <v>100.115</v>
+        <v>101.145</v>
       </c>
       <c r="D74" t="s">
         <v>608</v>
@@ -3476,7 +3476,7 @@
         <v>606</v>
       </c>
       <c r="C75">
-        <v>110.815</v>
+        <v>111.592</v>
       </c>
       <c r="D75" t="s">
         <v>608</v>
@@ -3493,7 +3493,7 @@
         <v>607</v>
       </c>
       <c r="C76">
-        <v>96.206</v>
+        <v>98.13500000000001</v>
       </c>
       <c r="D76" t="s">
         <v>608</v>
@@ -3510,7 +3510,7 @@
         <v>606</v>
       </c>
       <c r="C77">
-        <v>119.296</v>
+        <v>123.611</v>
       </c>
       <c r="D77" t="s">
         <v>608</v>
@@ -3527,7 +3527,7 @@
         <v>606</v>
       </c>
       <c r="C78">
-        <v>110.048</v>
+        <v>113.238</v>
       </c>
       <c r="D78" t="s">
         <v>608</v>
@@ -3544,7 +3544,7 @@
         <v>606</v>
       </c>
       <c r="C79">
-        <v>104.103</v>
+        <v>106.915</v>
       </c>
       <c r="D79" t="s">
         <v>608</v>
@@ -3561,7 +3561,7 @@
         <v>606</v>
       </c>
       <c r="C80">
-        <v>104.778</v>
+        <v>108.32</v>
       </c>
       <c r="D80" t="s">
         <v>608</v>
@@ -3578,7 +3578,7 @@
         <v>606</v>
       </c>
       <c r="C81">
-        <v>107.053</v>
+        <v>113.244</v>
       </c>
       <c r="D81" t="s">
         <v>608</v>
@@ -3595,7 +3595,7 @@
         <v>607</v>
       </c>
       <c r="C82">
-        <v>89.565</v>
+        <v>92.357</v>
       </c>
       <c r="D82" t="s">
         <v>608</v>
@@ -3612,7 +3612,7 @@
         <v>607</v>
       </c>
       <c r="C83">
-        <v>89.455</v>
+        <v>91.265</v>
       </c>
       <c r="D83" t="s">
         <v>608</v>
@@ -3629,7 +3629,7 @@
         <v>606</v>
       </c>
       <c r="C84">
-        <v>119.744</v>
+        <v>122.409</v>
       </c>
       <c r="D84" t="s">
         <v>608</v>
@@ -3646,7 +3646,7 @@
         <v>606</v>
       </c>
       <c r="C85">
-        <v>100.682</v>
+        <v>110.56</v>
       </c>
       <c r="D85" t="s">
         <v>608</v>
@@ -3660,10 +3660,10 @@
         <v>89</v>
       </c>
       <c r="B86" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C86">
-        <v>97.741</v>
+        <v>100.607</v>
       </c>
       <c r="D86" t="s">
         <v>608</v>
@@ -3680,7 +3680,7 @@
         <v>606</v>
       </c>
       <c r="C87">
-        <v>125.903</v>
+        <v>126.951</v>
       </c>
       <c r="D87" t="s">
         <v>608</v>
@@ -3697,7 +3697,7 @@
         <v>606</v>
       </c>
       <c r="C88">
-        <v>106.746</v>
+        <v>104.811</v>
       </c>
       <c r="D88" t="s">
         <v>608</v>
@@ -3714,7 +3714,7 @@
         <v>607</v>
       </c>
       <c r="C89">
-        <v>97.292</v>
+        <v>99.09399999999999</v>
       </c>
       <c r="D89" t="s">
         <v>608</v>
@@ -3731,7 +3731,7 @@
         <v>606</v>
       </c>
       <c r="C90">
-        <v>101.093</v>
+        <v>109.845</v>
       </c>
       <c r="D90" t="s">
         <v>608</v>
@@ -3748,7 +3748,7 @@
         <v>607</v>
       </c>
       <c r="C91">
-        <v>90.407</v>
+        <v>90.20699999999999</v>
       </c>
       <c r="D91" t="s">
         <v>608</v>
@@ -3765,7 +3765,7 @@
         <v>606</v>
       </c>
       <c r="C92">
-        <v>112.666</v>
+        <v>114.367</v>
       </c>
       <c r="D92" t="s">
         <v>608</v>
@@ -3782,7 +3782,7 @@
         <v>606</v>
       </c>
       <c r="C93">
-        <v>107.57</v>
+        <v>109.892</v>
       </c>
       <c r="D93" t="s">
         <v>608</v>
@@ -3799,7 +3799,7 @@
         <v>606</v>
       </c>
       <c r="C94">
-        <v>126.26</v>
+        <v>128.61</v>
       </c>
       <c r="D94" t="s">
         <v>608</v>
@@ -3813,10 +3813,10 @@
         <v>98</v>
       </c>
       <c r="B95" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C95">
-        <v>96.678</v>
+        <v>101.325</v>
       </c>
       <c r="D95" t="s">
         <v>608</v>
@@ -3833,7 +3833,7 @@
         <v>606</v>
       </c>
       <c r="C96">
-        <v>113.531</v>
+        <v>110.563</v>
       </c>
       <c r="D96" t="s">
         <v>608</v>
@@ -3847,10 +3847,10 @@
         <v>100</v>
       </c>
       <c r="B97" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C97">
-        <v>99.919</v>
+        <v>100.966</v>
       </c>
       <c r="D97" t="s">
         <v>608</v>
@@ -3864,10 +3864,10 @@
         <v>101</v>
       </c>
       <c r="B98" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C98">
-        <v>97.104</v>
+        <v>100.88</v>
       </c>
       <c r="D98" t="s">
         <v>608</v>
@@ -3884,7 +3884,7 @@
         <v>606</v>
       </c>
       <c r="C99">
-        <v>133.037</v>
+        <v>129.207</v>
       </c>
       <c r="D99" t="s">
         <v>608</v>
@@ -3901,7 +3901,7 @@
         <v>606</v>
       </c>
       <c r="C100">
-        <v>111.355</v>
+        <v>111.98</v>
       </c>
       <c r="D100" t="s">
         <v>608</v>
@@ -3918,7 +3918,7 @@
         <v>606</v>
       </c>
       <c r="C101">
-        <v>100.784</v>
+        <v>102.062</v>
       </c>
       <c r="D101" t="s">
         <v>608</v>
@@ -3935,7 +3935,7 @@
         <v>606</v>
       </c>
       <c r="C102">
-        <v>104.478</v>
+        <v>107.369</v>
       </c>
       <c r="D102" t="s">
         <v>608</v>
@@ -3952,7 +3952,7 @@
         <v>606</v>
       </c>
       <c r="C103">
-        <v>107.871</v>
+        <v>109.555</v>
       </c>
       <c r="D103" t="s">
         <v>608</v>
@@ -3969,7 +3969,7 @@
         <v>606</v>
       </c>
       <c r="C104">
-        <v>107.734</v>
+        <v>105.529</v>
       </c>
       <c r="D104" t="s">
         <v>608</v>
@@ -3986,7 +3986,7 @@
         <v>606</v>
       </c>
       <c r="C105">
-        <v>104.783</v>
+        <v>110.568</v>
       </c>
       <c r="D105" t="s">
         <v>608</v>
@@ -4003,7 +4003,7 @@
         <v>606</v>
       </c>
       <c r="C106">
-        <v>106.718</v>
+        <v>106.952</v>
       </c>
       <c r="D106" t="s">
         <v>608</v>
@@ -4020,7 +4020,7 @@
         <v>606</v>
       </c>
       <c r="C107">
-        <v>100.351</v>
+        <v>100.78</v>
       </c>
       <c r="D107" t="s">
         <v>608</v>
@@ -4037,7 +4037,7 @@
         <v>606</v>
       </c>
       <c r="C108">
-        <v>109.566</v>
+        <v>110.558</v>
       </c>
       <c r="D108" t="s">
         <v>608</v>
@@ -4054,7 +4054,7 @@
         <v>606</v>
       </c>
       <c r="C109">
-        <v>100.916</v>
+        <v>101.563</v>
       </c>
       <c r="D109" t="s">
         <v>608</v>
@@ -4068,10 +4068,10 @@
         <v>113</v>
       </c>
       <c r="B110" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C110">
-        <v>99.182</v>
+        <v>100.817</v>
       </c>
       <c r="D110" t="s">
         <v>608</v>
@@ -4088,7 +4088,7 @@
         <v>606</v>
       </c>
       <c r="C111">
-        <v>104.941</v>
+        <v>107.703</v>
       </c>
       <c r="D111" t="s">
         <v>608</v>
@@ -4105,7 +4105,7 @@
         <v>607</v>
       </c>
       <c r="C112">
-        <v>97.169</v>
+        <v>96.449</v>
       </c>
       <c r="D112" t="s">
         <v>608</v>
@@ -4122,7 +4122,7 @@
         <v>606</v>
       </c>
       <c r="C113">
-        <v>100.269</v>
+        <v>100.692</v>
       </c>
       <c r="D113" t="s">
         <v>608</v>
@@ -4139,7 +4139,7 @@
         <v>606</v>
       </c>
       <c r="C114">
-        <v>103.171</v>
+        <v>104.928</v>
       </c>
       <c r="D114" t="s">
         <v>608</v>
@@ -4156,7 +4156,7 @@
         <v>606</v>
       </c>
       <c r="C115">
-        <v>116.961</v>
+        <v>117.542</v>
       </c>
       <c r="D115" t="s">
         <v>608</v>
@@ -4173,7 +4173,7 @@
         <v>606</v>
       </c>
       <c r="C116">
-        <v>109.778</v>
+        <v>112.259</v>
       </c>
       <c r="D116" t="s">
         <v>608</v>
@@ -4187,10 +4187,10 @@
         <v>120</v>
       </c>
       <c r="B117" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C117">
-        <v>99.629</v>
+        <v>100.149</v>
       </c>
       <c r="D117" t="s">
         <v>608</v>
@@ -4207,7 +4207,7 @@
         <v>607</v>
       </c>
       <c r="C118">
-        <v>96.14100000000001</v>
+        <v>97.218</v>
       </c>
       <c r="D118" t="s">
         <v>608</v>
@@ -4224,7 +4224,7 @@
         <v>606</v>
       </c>
       <c r="C119">
-        <v>102.842</v>
+        <v>105.071</v>
       </c>
       <c r="D119" t="s">
         <v>608</v>
@@ -4241,7 +4241,7 @@
         <v>606</v>
       </c>
       <c r="C120">
-        <v>110.445</v>
+        <v>111.551</v>
       </c>
       <c r="D120" t="s">
         <v>608</v>
@@ -4255,10 +4255,10 @@
         <v>124</v>
       </c>
       <c r="B121" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C121">
-        <v>99.747</v>
+        <v>103.652</v>
       </c>
       <c r="D121" t="s">
         <v>608</v>
@@ -4275,7 +4275,7 @@
         <v>606</v>
       </c>
       <c r="C122">
-        <v>114.791</v>
+        <v>115.486</v>
       </c>
       <c r="D122" t="s">
         <v>608</v>
@@ -4292,7 +4292,7 @@
         <v>606</v>
       </c>
       <c r="C123">
-        <v>115.658</v>
+        <v>114.869</v>
       </c>
       <c r="D123" t="s">
         <v>608</v>
@@ -4309,7 +4309,7 @@
         <v>606</v>
       </c>
       <c r="C124">
-        <v>109.833</v>
+        <v>111.399</v>
       </c>
       <c r="D124" t="s">
         <v>608</v>
@@ -4326,7 +4326,7 @@
         <v>606</v>
       </c>
       <c r="C125">
-        <v>108.919</v>
+        <v>109.079</v>
       </c>
       <c r="D125" t="s">
         <v>608</v>
@@ -4343,7 +4343,7 @@
         <v>606</v>
       </c>
       <c r="C126">
-        <v>106.016</v>
+        <v>106.689</v>
       </c>
       <c r="D126" t="s">
         <v>608</v>
@@ -4360,7 +4360,7 @@
         <v>606</v>
       </c>
       <c r="C127">
-        <v>104.713</v>
+        <v>107.966</v>
       </c>
       <c r="D127" t="s">
         <v>608</v>
@@ -4377,7 +4377,7 @@
         <v>606</v>
       </c>
       <c r="C128">
-        <v>108.121</v>
+        <v>110.427</v>
       </c>
       <c r="D128" t="s">
         <v>608</v>
@@ -4394,7 +4394,7 @@
         <v>606</v>
       </c>
       <c r="C129">
-        <v>103.657</v>
+        <v>104.034</v>
       </c>
       <c r="D129" t="s">
         <v>608</v>
@@ -4411,7 +4411,7 @@
         <v>606</v>
       </c>
       <c r="C130">
-        <v>103.092</v>
+        <v>104.077</v>
       </c>
       <c r="D130" t="s">
         <v>608</v>
@@ -4428,7 +4428,7 @@
         <v>606</v>
       </c>
       <c r="C131">
-        <v>101.623</v>
+        <v>104.815</v>
       </c>
       <c r="D131" t="s">
         <v>608</v>
@@ -4445,7 +4445,7 @@
         <v>606</v>
       </c>
       <c r="C132">
-        <v>108.9</v>
+        <v>111.429</v>
       </c>
       <c r="D132" t="s">
         <v>608</v>
@@ -4462,7 +4462,7 @@
         <v>606</v>
       </c>
       <c r="C133">
-        <v>103.894</v>
+        <v>110.401</v>
       </c>
       <c r="D133" t="s">
         <v>608</v>
@@ -4479,7 +4479,7 @@
         <v>606</v>
       </c>
       <c r="C134">
-        <v>102.208</v>
+        <v>109.101</v>
       </c>
       <c r="D134" t="s">
         <v>608</v>
@@ -4496,7 +4496,7 @@
         <v>606</v>
       </c>
       <c r="C135">
-        <v>104.818</v>
+        <v>106.163</v>
       </c>
       <c r="D135" t="s">
         <v>608</v>
@@ -4510,10 +4510,10 @@
         <v>139</v>
       </c>
       <c r="B136" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C136">
-        <v>99.336</v>
+        <v>102.37</v>
       </c>
       <c r="D136" t="s">
         <v>608</v>
@@ -4530,7 +4530,7 @@
         <v>606</v>
       </c>
       <c r="C137">
-        <v>107.571</v>
+        <v>113.309</v>
       </c>
       <c r="D137" t="s">
         <v>608</v>
@@ -4547,7 +4547,7 @@
         <v>606</v>
       </c>
       <c r="C138">
-        <v>101.023</v>
+        <v>102.027</v>
       </c>
       <c r="D138" t="s">
         <v>608</v>
@@ -4564,7 +4564,7 @@
         <v>606</v>
       </c>
       <c r="C139">
-        <v>105.574</v>
+        <v>107.968</v>
       </c>
       <c r="D139" t="s">
         <v>608</v>
@@ -4581,7 +4581,7 @@
         <v>606</v>
       </c>
       <c r="C140">
-        <v>105.556</v>
+        <v>109.497</v>
       </c>
       <c r="D140" t="s">
         <v>608</v>
@@ -4598,7 +4598,7 @@
         <v>606</v>
       </c>
       <c r="C141">
-        <v>107.192</v>
+        <v>109.085</v>
       </c>
       <c r="D141" t="s">
         <v>608</v>
@@ -4615,7 +4615,7 @@
         <v>606</v>
       </c>
       <c r="C142">
-        <v>107.488</v>
+        <v>109.877</v>
       </c>
       <c r="D142" t="s">
         <v>608</v>
@@ -4632,7 +4632,7 @@
         <v>606</v>
       </c>
       <c r="C143">
-        <v>109.933</v>
+        <v>113.933</v>
       </c>
       <c r="D143" t="s">
         <v>608</v>
@@ -4649,7 +4649,7 @@
         <v>606</v>
       </c>
       <c r="C144">
-        <v>108.293</v>
+        <v>108.008</v>
       </c>
       <c r="D144" t="s">
         <v>608</v>
@@ -4663,10 +4663,10 @@
         <v>148</v>
       </c>
       <c r="B145" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C145">
-        <v>98.79000000000001</v>
+        <v>101.121</v>
       </c>
       <c r="D145" t="s">
         <v>608</v>
@@ -4680,10 +4680,10 @@
         <v>149</v>
       </c>
       <c r="B146" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C146">
-        <v>96.818</v>
+        <v>105.521</v>
       </c>
       <c r="D146" t="s">
         <v>608</v>
@@ -4700,7 +4700,7 @@
         <v>606</v>
       </c>
       <c r="C147">
-        <v>104.212</v>
+        <v>108.177</v>
       </c>
       <c r="D147" t="s">
         <v>608</v>
@@ -4717,7 +4717,7 @@
         <v>607</v>
       </c>
       <c r="C148">
-        <v>98.51300000000001</v>
+        <v>99.86799999999999</v>
       </c>
       <c r="D148" t="s">
         <v>608</v>
@@ -4734,7 +4734,7 @@
         <v>606</v>
       </c>
       <c r="C149">
-        <v>107.92</v>
+        <v>109.447</v>
       </c>
       <c r="D149" t="s">
         <v>608</v>
@@ -4751,7 +4751,7 @@
         <v>606</v>
       </c>
       <c r="C150">
-        <v>116.974</v>
+        <v>116.291</v>
       </c>
       <c r="D150" t="s">
         <v>608</v>
@@ -4768,7 +4768,7 @@
         <v>606</v>
       </c>
       <c r="C151">
-        <v>112.547</v>
+        <v>113.306</v>
       </c>
       <c r="D151" t="s">
         <v>608</v>
@@ -4785,7 +4785,7 @@
         <v>606</v>
       </c>
       <c r="C152">
-        <v>119.723</v>
+        <v>138.58</v>
       </c>
       <c r="D152" t="s">
         <v>608</v>
@@ -4802,7 +4802,7 @@
         <v>607</v>
       </c>
       <c r="C153">
-        <v>96.565</v>
+        <v>98.63500000000001</v>
       </c>
       <c r="D153" t="s">
         <v>608</v>
@@ -4816,10 +4816,10 @@
         <v>157</v>
       </c>
       <c r="B154" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C154">
-        <v>95.928</v>
+        <v>100.358</v>
       </c>
       <c r="D154" t="s">
         <v>608</v>
@@ -4836,7 +4836,7 @@
         <v>606</v>
       </c>
       <c r="C155">
-        <v>107.311</v>
+        <v>108.211</v>
       </c>
       <c r="D155" t="s">
         <v>608</v>
@@ -4853,7 +4853,7 @@
         <v>607</v>
       </c>
       <c r="C156">
-        <v>96.012</v>
+        <v>98.01900000000001</v>
       </c>
       <c r="D156" t="s">
         <v>608</v>
@@ -4870,7 +4870,7 @@
         <v>606</v>
       </c>
       <c r="C157">
-        <v>100.944</v>
+        <v>103.407</v>
       </c>
       <c r="D157" t="s">
         <v>608</v>
@@ -4887,7 +4887,7 @@
         <v>606</v>
       </c>
       <c r="C158">
-        <v>100</v>
+        <v>101.614</v>
       </c>
       <c r="D158" t="s">
         <v>608</v>
@@ -4904,7 +4904,7 @@
         <v>606</v>
       </c>
       <c r="C159">
-        <v>108.095</v>
+        <v>116.093</v>
       </c>
       <c r="D159" t="s">
         <v>608</v>
@@ -4921,7 +4921,7 @@
         <v>606</v>
       </c>
       <c r="C160">
-        <v>101.905</v>
+        <v>104.598</v>
       </c>
       <c r="D160" t="s">
         <v>608</v>
@@ -4938,7 +4938,7 @@
         <v>606</v>
       </c>
       <c r="C161">
-        <v>103.071</v>
+        <v>105.399</v>
       </c>
       <c r="D161" t="s">
         <v>608</v>
@@ -4955,7 +4955,7 @@
         <v>606</v>
       </c>
       <c r="C162">
-        <v>107.296</v>
+        <v>109.633</v>
       </c>
       <c r="D162" t="s">
         <v>608</v>
@@ -4969,10 +4969,10 @@
         <v>166</v>
       </c>
       <c r="B163" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C163">
-        <v>99.123</v>
+        <v>101.352</v>
       </c>
       <c r="D163" t="s">
         <v>608</v>
@@ -4989,7 +4989,7 @@
         <v>606</v>
       </c>
       <c r="C164">
-        <v>103.534</v>
+        <v>106.765</v>
       </c>
       <c r="D164" t="s">
         <v>608</v>
@@ -5006,7 +5006,7 @@
         <v>606</v>
       </c>
       <c r="C165">
-        <v>103.162</v>
+        <v>110.51</v>
       </c>
       <c r="D165" t="s">
         <v>608</v>
@@ -5023,7 +5023,7 @@
         <v>606</v>
       </c>
       <c r="C166">
-        <v>110.574</v>
+        <v>119.576</v>
       </c>
       <c r="D166" t="s">
         <v>608</v>
@@ -5040,7 +5040,7 @@
         <v>606</v>
       </c>
       <c r="C167">
-        <v>100.094</v>
+        <v>102.28</v>
       </c>
       <c r="D167" t="s">
         <v>608</v>
@@ -5057,7 +5057,7 @@
         <v>606</v>
       </c>
       <c r="C168">
-        <v>106.593</v>
+        <v>107.655</v>
       </c>
       <c r="D168" t="s">
         <v>608</v>
@@ -5071,10 +5071,10 @@
         <v>172</v>
       </c>
       <c r="B169" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C169">
-        <v>98.869</v>
+        <v>100.887</v>
       </c>
       <c r="D169" t="s">
         <v>608</v>
@@ -5091,7 +5091,7 @@
         <v>606</v>
       </c>
       <c r="C170">
-        <v>105.598</v>
+        <v>107.888</v>
       </c>
       <c r="D170" t="s">
         <v>608</v>
@@ -5108,7 +5108,7 @@
         <v>606</v>
       </c>
       <c r="C171">
-        <v>106.945</v>
+        <v>108.014</v>
       </c>
       <c r="D171" t="s">
         <v>608</v>
@@ -5125,7 +5125,7 @@
         <v>606</v>
       </c>
       <c r="C172">
-        <v>107.433</v>
+        <v>113.964</v>
       </c>
       <c r="D172" t="s">
         <v>608</v>
@@ -5142,7 +5142,7 @@
         <v>606</v>
       </c>
       <c r="C173">
-        <v>102.089</v>
+        <v>103.141</v>
       </c>
       <c r="D173" t="s">
         <v>608</v>
@@ -5159,7 +5159,7 @@
         <v>606</v>
       </c>
       <c r="C174">
-        <v>101.102</v>
+        <v>103.174</v>
       </c>
       <c r="D174" t="s">
         <v>608</v>
@@ -5176,7 +5176,7 @@
         <v>606</v>
       </c>
       <c r="C175">
-        <v>100.38</v>
+        <v>104.066</v>
       </c>
       <c r="D175" t="s">
         <v>608</v>
@@ -5193,7 +5193,7 @@
         <v>606</v>
       </c>
       <c r="C176">
-        <v>115.296</v>
+        <v>119.892</v>
       </c>
       <c r="D176" t="s">
         <v>608</v>
@@ -5210,7 +5210,7 @@
         <v>606</v>
       </c>
       <c r="C177">
-        <v>106.68</v>
+        <v>107.485</v>
       </c>
       <c r="D177" t="s">
         <v>608</v>
@@ -5227,7 +5227,7 @@
         <v>606</v>
       </c>
       <c r="C178">
-        <v>103.598</v>
+        <v>102.14</v>
       </c>
       <c r="D178" t="s">
         <v>608</v>
@@ -5244,7 +5244,7 @@
         <v>606</v>
       </c>
       <c r="C179">
-        <v>107.855</v>
+        <v>109.479</v>
       </c>
       <c r="D179" t="s">
         <v>608</v>
@@ -5261,7 +5261,7 @@
         <v>606</v>
       </c>
       <c r="C180">
-        <v>101.151</v>
+        <v>103.953</v>
       </c>
       <c r="D180" t="s">
         <v>608</v>
@@ -5278,7 +5278,7 @@
         <v>606</v>
       </c>
       <c r="C181">
-        <v>104.054</v>
+        <v>107.605</v>
       </c>
       <c r="D181" t="s">
         <v>608</v>
@@ -5295,7 +5295,7 @@
         <v>606</v>
       </c>
       <c r="C182">
-        <v>100.989</v>
+        <v>102.329</v>
       </c>
       <c r="D182" t="s">
         <v>608</v>
@@ -5312,7 +5312,7 @@
         <v>607</v>
       </c>
       <c r="C183">
-        <v>94.04900000000001</v>
+        <v>98.631</v>
       </c>
       <c r="D183" t="s">
         <v>608</v>
@@ -5329,7 +5329,7 @@
         <v>606</v>
       </c>
       <c r="C184">
-        <v>107.022</v>
+        <v>109.437</v>
       </c>
       <c r="D184" t="s">
         <v>608</v>
@@ -5346,7 +5346,7 @@
         <v>606</v>
       </c>
       <c r="C185">
-        <v>101.386</v>
+        <v>101.682</v>
       </c>
       <c r="D185" t="s">
         <v>608</v>
@@ -5363,7 +5363,7 @@
         <v>606</v>
       </c>
       <c r="C186">
-        <v>102.598</v>
+        <v>105.563</v>
       </c>
       <c r="D186" t="s">
         <v>608</v>
@@ -5380,7 +5380,7 @@
         <v>607</v>
       </c>
       <c r="C187">
-        <v>91.84</v>
+        <v>90.994</v>
       </c>
       <c r="D187" t="s">
         <v>608</v>
@@ -5397,7 +5397,7 @@
         <v>606</v>
       </c>
       <c r="C188">
-        <v>115.239</v>
+        <v>116.171</v>
       </c>
       <c r="D188" t="s">
         <v>608</v>
@@ -5414,7 +5414,7 @@
         <v>606</v>
       </c>
       <c r="C189">
-        <v>100.959</v>
+        <v>106.086</v>
       </c>
       <c r="D189" t="s">
         <v>608</v>
@@ -5431,7 +5431,7 @@
         <v>606</v>
       </c>
       <c r="C190">
-        <v>103.04</v>
+        <v>104.392</v>
       </c>
       <c r="D190" t="s">
         <v>608</v>
@@ -5448,7 +5448,7 @@
         <v>606</v>
       </c>
       <c r="C191">
-        <v>109.625</v>
+        <v>111.827</v>
       </c>
       <c r="D191" t="s">
         <v>608</v>
@@ -5465,7 +5465,7 @@
         <v>606</v>
       </c>
       <c r="C192">
-        <v>100.732</v>
+        <v>101.862</v>
       </c>
       <c r="D192" t="s">
         <v>608</v>
@@ -5479,10 +5479,10 @@
         <v>196</v>
       </c>
       <c r="B193" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C193">
-        <v>96.97199999999999</v>
+        <v>103.84</v>
       </c>
       <c r="D193" t="s">
         <v>608</v>
@@ -5499,7 +5499,7 @@
         <v>606</v>
       </c>
       <c r="C194">
-        <v>109.554</v>
+        <v>116.405</v>
       </c>
       <c r="D194" t="s">
         <v>608</v>
@@ -5516,7 +5516,7 @@
         <v>606</v>
       </c>
       <c r="C195">
-        <v>101.614</v>
+        <v>104.063</v>
       </c>
       <c r="D195" t="s">
         <v>608</v>
@@ -5533,7 +5533,7 @@
         <v>606</v>
       </c>
       <c r="C196">
-        <v>104.249</v>
+        <v>106.73</v>
       </c>
       <c r="D196" t="s">
         <v>608</v>
@@ -5550,7 +5550,7 @@
         <v>606</v>
       </c>
       <c r="C197">
-        <v>102.049</v>
+        <v>104.479</v>
       </c>
       <c r="D197" t="s">
         <v>608</v>
@@ -5567,7 +5567,7 @@
         <v>606</v>
       </c>
       <c r="C198">
-        <v>110.277</v>
+        <v>111.523</v>
       </c>
       <c r="D198" t="s">
         <v>608</v>
@@ -5584,7 +5584,7 @@
         <v>606</v>
       </c>
       <c r="C199">
-        <v>112.087</v>
+        <v>115.282</v>
       </c>
       <c r="D199" t="s">
         <v>608</v>
@@ -5601,7 +5601,7 @@
         <v>607</v>
       </c>
       <c r="C200">
-        <v>92.464</v>
+        <v>92.377</v>
       </c>
       <c r="D200" t="s">
         <v>608</v>
@@ -5618,7 +5618,7 @@
         <v>606</v>
       </c>
       <c r="C201">
-        <v>102.126</v>
+        <v>110.983</v>
       </c>
       <c r="D201" t="s">
         <v>608</v>
@@ -5635,7 +5635,7 @@
         <v>606</v>
       </c>
       <c r="C202">
-        <v>102.811</v>
+        <v>103.812</v>
       </c>
       <c r="D202" t="s">
         <v>608</v>
@@ -5652,7 +5652,7 @@
         <v>606</v>
       </c>
       <c r="C203">
-        <v>109.086</v>
+        <v>115.372</v>
       </c>
       <c r="D203" t="s">
         <v>608</v>
@@ -5669,7 +5669,7 @@
         <v>606</v>
       </c>
       <c r="C204">
-        <v>110.074</v>
+        <v>113.226</v>
       </c>
       <c r="D204" t="s">
         <v>608</v>
@@ -5686,7 +5686,7 @@
         <v>607</v>
       </c>
       <c r="C205">
-        <v>97.33499999999999</v>
+        <v>98.22499999999999</v>
       </c>
       <c r="D205" t="s">
         <v>608</v>
@@ -5703,7 +5703,7 @@
         <v>606</v>
       </c>
       <c r="C206">
-        <v>115.161</v>
+        <v>126.103</v>
       </c>
       <c r="D206" t="s">
         <v>608</v>
@@ -5720,7 +5720,7 @@
         <v>606</v>
       </c>
       <c r="C207">
-        <v>103.482</v>
+        <v>109.034</v>
       </c>
       <c r="D207" t="s">
         <v>608</v>
@@ -5737,7 +5737,7 @@
         <v>606</v>
       </c>
       <c r="C208">
-        <v>114.523</v>
+        <v>117.517</v>
       </c>
       <c r="D208" t="s">
         <v>608</v>
@@ -5754,7 +5754,7 @@
         <v>606</v>
       </c>
       <c r="C209">
-        <v>113.991</v>
+        <v>113.805</v>
       </c>
       <c r="D209" t="s">
         <v>608</v>
@@ -5771,7 +5771,7 @@
         <v>606</v>
       </c>
       <c r="C210">
-        <v>105.891</v>
+        <v>104.71</v>
       </c>
       <c r="D210" t="s">
         <v>608</v>
@@ -5788,7 +5788,7 @@
         <v>606</v>
       </c>
       <c r="C211">
-        <v>107.387</v>
+        <v>109.136</v>
       </c>
       <c r="D211" t="s">
         <v>608</v>
@@ -5805,7 +5805,7 @@
         <v>606</v>
       </c>
       <c r="C212">
-        <v>106.061</v>
+        <v>111.525</v>
       </c>
       <c r="D212" t="s">
         <v>608</v>
@@ -5822,7 +5822,7 @@
         <v>606</v>
       </c>
       <c r="C213">
-        <v>100.257</v>
+        <v>106.485</v>
       </c>
       <c r="D213" t="s">
         <v>608</v>
@@ -5839,7 +5839,7 @@
         <v>606</v>
       </c>
       <c r="C214">
-        <v>100.957</v>
+        <v>106.555</v>
       </c>
       <c r="D214" t="s">
         <v>608</v>
@@ -5856,7 +5856,7 @@
         <v>606</v>
       </c>
       <c r="C215">
-        <v>104.784</v>
+        <v>110.104</v>
       </c>
       <c r="D215" t="s">
         <v>608</v>
@@ -5873,7 +5873,7 @@
         <v>606</v>
       </c>
       <c r="C216">
-        <v>102.918</v>
+        <v>104.772</v>
       </c>
       <c r="D216" t="s">
         <v>608</v>
@@ -5890,7 +5890,7 @@
         <v>606</v>
       </c>
       <c r="C217">
-        <v>101.644</v>
+        <v>103.847</v>
       </c>
       <c r="D217" t="s">
         <v>608</v>
@@ -5907,7 +5907,7 @@
         <v>606</v>
       </c>
       <c r="C218">
-        <v>102.936</v>
+        <v>104.224</v>
       </c>
       <c r="D218" t="s">
         <v>608</v>
@@ -5924,7 +5924,7 @@
         <v>606</v>
       </c>
       <c r="C219">
-        <v>106.578</v>
+        <v>106.301</v>
       </c>
       <c r="D219" t="s">
         <v>608</v>
@@ -5941,7 +5941,7 @@
         <v>606</v>
       </c>
       <c r="C220">
-        <v>106.63</v>
+        <v>108.699</v>
       </c>
       <c r="D220" t="s">
         <v>608</v>
@@ -5958,7 +5958,7 @@
         <v>606</v>
       </c>
       <c r="C221">
-        <v>104.6</v>
+        <v>105.387</v>
       </c>
       <c r="D221" t="s">
         <v>608</v>
@@ -5972,10 +5972,10 @@
         <v>225</v>
       </c>
       <c r="B222" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C222">
-        <v>97.462</v>
+        <v>103.292</v>
       </c>
       <c r="D222" t="s">
         <v>608</v>
@@ -5992,7 +5992,7 @@
         <v>606</v>
       </c>
       <c r="C223">
-        <v>103.841</v>
+        <v>105.181</v>
       </c>
       <c r="D223" t="s">
         <v>608</v>
@@ -6009,7 +6009,7 @@
         <v>606</v>
       </c>
       <c r="C224">
-        <v>109.185</v>
+        <v>111.736</v>
       </c>
       <c r="D224" t="s">
         <v>608</v>
@@ -6026,7 +6026,7 @@
         <v>606</v>
       </c>
       <c r="C225">
-        <v>103.55</v>
+        <v>107.842</v>
       </c>
       <c r="D225" t="s">
         <v>608</v>
@@ -6043,7 +6043,7 @@
         <v>606</v>
       </c>
       <c r="C226">
-        <v>103.333</v>
+        <v>107.083</v>
       </c>
       <c r="D226" t="s">
         <v>608</v>
@@ -6060,7 +6060,7 @@
         <v>606</v>
       </c>
       <c r="C227">
-        <v>113.492</v>
+        <v>112.968</v>
       </c>
       <c r="D227" t="s">
         <v>608</v>
@@ -6077,7 +6077,7 @@
         <v>607</v>
       </c>
       <c r="C228">
-        <v>95.651</v>
+        <v>96.905</v>
       </c>
       <c r="D228" t="s">
         <v>608</v>
@@ -6094,7 +6094,7 @@
         <v>606</v>
       </c>
       <c r="C229">
-        <v>102.196</v>
+        <v>105.093</v>
       </c>
       <c r="D229" t="s">
         <v>608</v>
@@ -6111,7 +6111,7 @@
         <v>606</v>
       </c>
       <c r="C230">
-        <v>105.134</v>
+        <v>107.689</v>
       </c>
       <c r="D230" t="s">
         <v>608</v>
@@ -6128,7 +6128,7 @@
         <v>606</v>
       </c>
       <c r="C231">
-        <v>104.359</v>
+        <v>109.639</v>
       </c>
       <c r="D231" t="s">
         <v>608</v>
@@ -6145,7 +6145,7 @@
         <v>606</v>
       </c>
       <c r="C232">
-        <v>102.893</v>
+        <v>106.085</v>
       </c>
       <c r="D232" t="s">
         <v>608</v>
@@ -6162,7 +6162,7 @@
         <v>606</v>
       </c>
       <c r="C233">
-        <v>105.049</v>
+        <v>113.083</v>
       </c>
       <c r="D233" t="s">
         <v>608</v>
@@ -6179,7 +6179,7 @@
         <v>606</v>
       </c>
       <c r="C234">
-        <v>102.921</v>
+        <v>106.043</v>
       </c>
       <c r="D234" t="s">
         <v>608</v>
@@ -6196,7 +6196,7 @@
         <v>607</v>
       </c>
       <c r="C235">
-        <v>95.72799999999999</v>
+        <v>98.16800000000001</v>
       </c>
       <c r="D235" t="s">
         <v>608</v>
@@ -6213,7 +6213,7 @@
         <v>606</v>
       </c>
       <c r="C236">
-        <v>110.352</v>
+        <v>114.814</v>
       </c>
       <c r="D236" t="s">
         <v>608</v>
@@ -6230,7 +6230,7 @@
         <v>606</v>
       </c>
       <c r="C237">
-        <v>113.528</v>
+        <v>116.392</v>
       </c>
       <c r="D237" t="s">
         <v>608</v>
@@ -6247,7 +6247,7 @@
         <v>606</v>
       </c>
       <c r="C238">
-        <v>111.859</v>
+        <v>114.56</v>
       </c>
       <c r="D238" t="s">
         <v>608</v>
@@ -6264,7 +6264,7 @@
         <v>606</v>
       </c>
       <c r="C239">
-        <v>103.901</v>
+        <v>106.609</v>
       </c>
       <c r="D239" t="s">
         <v>608</v>
@@ -6278,10 +6278,10 @@
         <v>243</v>
       </c>
       <c r="B240" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C240">
-        <v>98.408</v>
+        <v>101.302</v>
       </c>
       <c r="D240" t="s">
         <v>608</v>
@@ -6298,7 +6298,7 @@
         <v>606</v>
       </c>
       <c r="C241">
-        <v>107.223</v>
+        <v>111.024</v>
       </c>
       <c r="D241" t="s">
         <v>608</v>
@@ -6315,7 +6315,7 @@
         <v>607</v>
       </c>
       <c r="C242">
-        <v>95.39700000000001</v>
+        <v>96.845</v>
       </c>
       <c r="D242" t="s">
         <v>608</v>
@@ -6332,7 +6332,7 @@
         <v>606</v>
       </c>
       <c r="C243">
-        <v>105.63</v>
+        <v>110.591</v>
       </c>
       <c r="D243" t="s">
         <v>608</v>
@@ -6366,7 +6366,7 @@
         <v>606</v>
       </c>
       <c r="C245">
-        <v>102.313</v>
+        <v>104.642</v>
       </c>
       <c r="D245" t="s">
         <v>608</v>
@@ -6383,7 +6383,7 @@
         <v>606</v>
       </c>
       <c r="C246">
-        <v>123.745</v>
+        <v>131.825</v>
       </c>
       <c r="D246" t="s">
         <v>608</v>
@@ -6400,7 +6400,7 @@
         <v>606</v>
       </c>
       <c r="C247">
-        <v>104.054</v>
+        <v>105.402</v>
       </c>
       <c r="D247" t="s">
         <v>608</v>
@@ -6417,7 +6417,7 @@
         <v>606</v>
       </c>
       <c r="C248">
-        <v>104.959</v>
+        <v>109.481</v>
       </c>
       <c r="D248" t="s">
         <v>608</v>
@@ -6431,10 +6431,10 @@
         <v>252</v>
       </c>
       <c r="B249" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C249">
-        <v>99.191</v>
+        <v>104.512</v>
       </c>
       <c r="D249" t="s">
         <v>608</v>
@@ -6451,7 +6451,7 @@
         <v>606</v>
       </c>
       <c r="C250">
-        <v>101.146</v>
+        <v>100.183</v>
       </c>
       <c r="D250" t="s">
         <v>608</v>
@@ -6468,7 +6468,7 @@
         <v>606</v>
       </c>
       <c r="C251">
-        <v>103.347</v>
+        <v>104.266</v>
       </c>
       <c r="D251" t="s">
         <v>608</v>
@@ -6482,10 +6482,10 @@
         <v>255</v>
       </c>
       <c r="B252" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C252">
-        <v>97.756</v>
+        <v>100.244</v>
       </c>
       <c r="D252" t="s">
         <v>608</v>
@@ -6499,10 +6499,10 @@
         <v>256</v>
       </c>
       <c r="B253" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C253">
-        <v>98.236</v>
+        <v>102.109</v>
       </c>
       <c r="D253" t="s">
         <v>608</v>
@@ -6519,7 +6519,7 @@
         <v>606</v>
       </c>
       <c r="C254">
-        <v>104.473</v>
+        <v>109.475</v>
       </c>
       <c r="D254" t="s">
         <v>608</v>
@@ -6536,7 +6536,7 @@
         <v>607</v>
       </c>
       <c r="C255">
-        <v>96.246</v>
+        <v>98.654</v>
       </c>
       <c r="D255" t="s">
         <v>608</v>
@@ -6550,10 +6550,10 @@
         <v>259</v>
       </c>
       <c r="B256" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C256">
-        <v>98.795</v>
+        <v>101.92</v>
       </c>
       <c r="D256" t="s">
         <v>608</v>
@@ -6570,7 +6570,7 @@
         <v>606</v>
       </c>
       <c r="C257">
-        <v>105.876</v>
+        <v>113.003</v>
       </c>
       <c r="D257" t="s">
         <v>608</v>
@@ -6587,7 +6587,7 @@
         <v>606</v>
       </c>
       <c r="C258">
-        <v>103.116</v>
+        <v>107.612</v>
       </c>
       <c r="D258" t="s">
         <v>608</v>
@@ -6604,7 +6604,7 @@
         <v>606</v>
       </c>
       <c r="C259">
-        <v>106.112</v>
+        <v>117.88</v>
       </c>
       <c r="D259" t="s">
         <v>608</v>
@@ -6621,7 +6621,7 @@
         <v>606</v>
       </c>
       <c r="C260">
-        <v>103.251</v>
+        <v>108.156</v>
       </c>
       <c r="D260" t="s">
         <v>608</v>
@@ -6638,7 +6638,7 @@
         <v>607</v>
       </c>
       <c r="C261">
-        <v>93.741</v>
+        <v>96.41200000000001</v>
       </c>
       <c r="D261" t="s">
         <v>608</v>
@@ -6655,7 +6655,7 @@
         <v>606</v>
       </c>
       <c r="C262">
-        <v>103.279</v>
+        <v>105.34</v>
       </c>
       <c r="D262" t="s">
         <v>608</v>
@@ -6669,10 +6669,10 @@
         <v>266</v>
       </c>
       <c r="B263" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C263">
-        <v>99.732</v>
+        <v>102.997</v>
       </c>
       <c r="D263" t="s">
         <v>608</v>
@@ -6689,7 +6689,7 @@
         <v>607</v>
       </c>
       <c r="C264">
-        <v>94.961</v>
+        <v>96.18000000000001</v>
       </c>
       <c r="D264" t="s">
         <v>608</v>
@@ -6706,7 +6706,7 @@
         <v>606</v>
       </c>
       <c r="C265">
-        <v>106.331</v>
+        <v>108.766</v>
       </c>
       <c r="D265" t="s">
         <v>608</v>
@@ -6723,7 +6723,7 @@
         <v>606</v>
       </c>
       <c r="C266">
-        <v>103.644</v>
+        <v>107.965</v>
       </c>
       <c r="D266" t="s">
         <v>608</v>
@@ -6740,7 +6740,7 @@
         <v>606</v>
       </c>
       <c r="C267">
-        <v>107.736</v>
+        <v>107.149</v>
       </c>
       <c r="D267" t="s">
         <v>608</v>
@@ -6757,7 +6757,7 @@
         <v>606</v>
       </c>
       <c r="C268">
-        <v>113.817</v>
+        <v>122.759</v>
       </c>
       <c r="D268" t="s">
         <v>608</v>
@@ -6774,7 +6774,7 @@
         <v>607</v>
       </c>
       <c r="C269">
-        <v>97.316</v>
+        <v>97.696</v>
       </c>
       <c r="D269" t="s">
         <v>608</v>
@@ -6791,7 +6791,7 @@
         <v>606</v>
       </c>
       <c r="C270">
-        <v>104.838</v>
+        <v>106.741</v>
       </c>
       <c r="D270" t="s">
         <v>608</v>
@@ -6808,7 +6808,7 @@
         <v>606</v>
       </c>
       <c r="C271">
-        <v>105.307</v>
+        <v>106.247</v>
       </c>
       <c r="D271" t="s">
         <v>608</v>
@@ -6822,10 +6822,10 @@
         <v>275</v>
       </c>
       <c r="B272" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C272">
-        <v>98.54600000000001</v>
+        <v>100.572</v>
       </c>
       <c r="D272" t="s">
         <v>608</v>
@@ -6842,7 +6842,7 @@
         <v>606</v>
       </c>
       <c r="C273">
-        <v>103.605</v>
+        <v>102.729</v>
       </c>
       <c r="D273" t="s">
         <v>608</v>
@@ -6859,7 +6859,7 @@
         <v>606</v>
       </c>
       <c r="C274">
-        <v>109.777</v>
+        <v>112.137</v>
       </c>
       <c r="D274" t="s">
         <v>608</v>
@@ -6876,7 +6876,7 @@
         <v>606</v>
       </c>
       <c r="C275">
-        <v>102.318</v>
+        <v>106.509</v>
       </c>
       <c r="D275" t="s">
         <v>608</v>
@@ -6893,7 +6893,7 @@
         <v>606</v>
       </c>
       <c r="C276">
-        <v>118.743</v>
+        <v>120.561</v>
       </c>
       <c r="D276" t="s">
         <v>608</v>
@@ -6910,7 +6910,7 @@
         <v>606</v>
       </c>
       <c r="C277">
-        <v>101.351</v>
+        <v>102.47</v>
       </c>
       <c r="D277" t="s">
         <v>608</v>
@@ -6927,7 +6927,7 @@
         <v>606</v>
       </c>
       <c r="C278">
-        <v>108.415</v>
+        <v>112.591</v>
       </c>
       <c r="D278" t="s">
         <v>608</v>
@@ -6941,10 +6941,10 @@
         <v>282</v>
       </c>
       <c r="B279" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C279">
-        <v>98.224</v>
+        <v>101.178</v>
       </c>
       <c r="D279" t="s">
         <v>608</v>
@@ -6961,7 +6961,7 @@
         <v>606</v>
       </c>
       <c r="C280">
-        <v>115.945</v>
+        <v>116.983</v>
       </c>
       <c r="D280" t="s">
         <v>608</v>
@@ -6978,7 +6978,7 @@
         <v>606</v>
       </c>
       <c r="C281">
-        <v>107.558</v>
+        <v>111.366</v>
       </c>
       <c r="D281" t="s">
         <v>608</v>
@@ -6995,7 +6995,7 @@
         <v>606</v>
       </c>
       <c r="C282">
-        <v>106.346</v>
+        <v>109.18</v>
       </c>
       <c r="D282" t="s">
         <v>608</v>
@@ -7012,7 +7012,7 @@
         <v>606</v>
       </c>
       <c r="C283">
-        <v>101.902</v>
+        <v>105.972</v>
       </c>
       <c r="D283" t="s">
         <v>608</v>
@@ -7029,7 +7029,7 @@
         <v>606</v>
       </c>
       <c r="C284">
-        <v>109.708</v>
+        <v>112.57</v>
       </c>
       <c r="D284" t="s">
         <v>608</v>
@@ -7046,7 +7046,7 @@
         <v>606</v>
       </c>
       <c r="C285">
-        <v>105.553</v>
+        <v>107.264</v>
       </c>
       <c r="D285" t="s">
         <v>608</v>
@@ -7063,7 +7063,7 @@
         <v>607</v>
       </c>
       <c r="C286">
-        <v>84.815</v>
+        <v>86.199</v>
       </c>
       <c r="D286" t="s">
         <v>608</v>
@@ -7080,7 +7080,7 @@
         <v>606</v>
       </c>
       <c r="C287">
-        <v>105.492</v>
+        <v>108.911</v>
       </c>
       <c r="D287" t="s">
         <v>608</v>
@@ -7094,10 +7094,10 @@
         <v>291</v>
       </c>
       <c r="B288" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C288">
-        <v>98.15900000000001</v>
+        <v>100.47</v>
       </c>
       <c r="D288" t="s">
         <v>608</v>
@@ -7114,7 +7114,7 @@
         <v>606</v>
       </c>
       <c r="C289">
-        <v>104.855</v>
+        <v>103.546</v>
       </c>
       <c r="D289" t="s">
         <v>608</v>
@@ -7131,7 +7131,7 @@
         <v>606</v>
       </c>
       <c r="C290">
-        <v>103.129</v>
+        <v>105.759</v>
       </c>
       <c r="D290" t="s">
         <v>608</v>
@@ -7145,10 +7145,10 @@
         <v>294</v>
       </c>
       <c r="B291" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C291">
-        <v>100.414</v>
+        <v>98.958</v>
       </c>
       <c r="D291" t="s">
         <v>608</v>
@@ -7165,7 +7165,7 @@
         <v>606</v>
       </c>
       <c r="C292">
-        <v>105.882</v>
+        <v>109.986</v>
       </c>
       <c r="D292" t="s">
         <v>608</v>
@@ -7182,7 +7182,7 @@
         <v>606</v>
       </c>
       <c r="C293">
-        <v>101.451</v>
+        <v>103.532</v>
       </c>
       <c r="D293" t="s">
         <v>608</v>
@@ -7199,7 +7199,7 @@
         <v>606</v>
       </c>
       <c r="C294">
-        <v>104.003</v>
+        <v>105.586</v>
       </c>
       <c r="D294" t="s">
         <v>608</v>
@@ -7216,7 +7216,7 @@
         <v>606</v>
       </c>
       <c r="C295">
-        <v>111.697</v>
+        <v>115.913</v>
       </c>
       <c r="D295" t="s">
         <v>608</v>
@@ -7233,7 +7233,7 @@
         <v>606</v>
       </c>
       <c r="C296">
-        <v>108.205</v>
+        <v>111.852</v>
       </c>
       <c r="D296" t="s">
         <v>608</v>
@@ -7250,7 +7250,7 @@
         <v>606</v>
       </c>
       <c r="C297">
-        <v>103.019</v>
+        <v>102.535</v>
       </c>
       <c r="D297" t="s">
         <v>608</v>
@@ -7267,7 +7267,7 @@
         <v>607</v>
       </c>
       <c r="C298">
-        <v>98.039</v>
+        <v>98.81999999999999</v>
       </c>
       <c r="D298" t="s">
         <v>608</v>
@@ -7284,7 +7284,7 @@
         <v>606</v>
       </c>
       <c r="C299">
-        <v>102.275</v>
+        <v>101.548</v>
       </c>
       <c r="D299" t="s">
         <v>608</v>
@@ -7301,7 +7301,7 @@
         <v>606</v>
       </c>
       <c r="C300">
-        <v>111.107</v>
+        <v>112.659</v>
       </c>
       <c r="D300" t="s">
         <v>608</v>
@@ -7318,7 +7318,7 @@
         <v>606</v>
       </c>
       <c r="C301">
-        <v>103.195</v>
+        <v>106.614</v>
       </c>
       <c r="D301" t="s">
         <v>608</v>
@@ -7335,7 +7335,7 @@
         <v>606</v>
       </c>
       <c r="C302">
-        <v>104.938</v>
+        <v>108.806</v>
       </c>
       <c r="D302" t="s">
         <v>608</v>
@@ -7352,7 +7352,7 @@
         <v>606</v>
       </c>
       <c r="C303">
-        <v>103.093</v>
+        <v>105.983</v>
       </c>
       <c r="D303" t="s">
         <v>608</v>
@@ -7369,7 +7369,7 @@
         <v>606</v>
       </c>
       <c r="C304">
-        <v>105.138</v>
+        <v>111.987</v>
       </c>
       <c r="D304" t="s">
         <v>608</v>
@@ -7386,7 +7386,7 @@
         <v>606</v>
       </c>
       <c r="C305">
-        <v>118.071</v>
+        <v>120.726</v>
       </c>
       <c r="D305" t="s">
         <v>608</v>
@@ -7403,7 +7403,7 @@
         <v>606</v>
       </c>
       <c r="C306">
-        <v>100.535</v>
+        <v>103.312</v>
       </c>
       <c r="D306" t="s">
         <v>608</v>
@@ -7420,7 +7420,7 @@
         <v>607</v>
       </c>
       <c r="C307">
-        <v>95.146</v>
+        <v>96.997</v>
       </c>
       <c r="D307" t="s">
         <v>608</v>
@@ -7437,7 +7437,7 @@
         <v>606</v>
       </c>
       <c r="C308">
-        <v>114.041</v>
+        <v>116.438</v>
       </c>
       <c r="D308" t="s">
         <v>608</v>
@@ -7454,7 +7454,7 @@
         <v>606</v>
       </c>
       <c r="C309">
-        <v>117.577</v>
+        <v>122.391</v>
       </c>
       <c r="D309" t="s">
         <v>608</v>
@@ -7468,10 +7468,10 @@
         <v>313</v>
       </c>
       <c r="B310" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C310">
-        <v>99.94199999999999</v>
+        <v>103.351</v>
       </c>
       <c r="D310" t="s">
         <v>608</v>
@@ -7488,7 +7488,7 @@
         <v>606</v>
       </c>
       <c r="C311">
-        <v>102.076</v>
+        <v>104.694</v>
       </c>
       <c r="D311" t="s">
         <v>608</v>
@@ -7505,7 +7505,7 @@
         <v>606</v>
       </c>
       <c r="C312">
-        <v>110.401</v>
+        <v>114.724</v>
       </c>
       <c r="D312" t="s">
         <v>608</v>
@@ -7522,7 +7522,7 @@
         <v>607</v>
       </c>
       <c r="C313">
-        <v>96.172</v>
+        <v>99.206</v>
       </c>
       <c r="D313" t="s">
         <v>608</v>
@@ -7539,7 +7539,7 @@
         <v>606</v>
       </c>
       <c r="C314">
-        <v>105.278</v>
+        <v>109.866</v>
       </c>
       <c r="D314" t="s">
         <v>608</v>
@@ -7556,7 +7556,7 @@
         <v>606</v>
       </c>
       <c r="C315">
-        <v>101.282</v>
+        <v>105.49</v>
       </c>
       <c r="D315" t="s">
         <v>608</v>
@@ -7573,7 +7573,7 @@
         <v>606</v>
       </c>
       <c r="C316">
-        <v>110.857</v>
+        <v>117.364</v>
       </c>
       <c r="D316" t="s">
         <v>608</v>
@@ -7590,7 +7590,7 @@
         <v>606</v>
       </c>
       <c r="C317">
-        <v>105.718</v>
+        <v>110.86</v>
       </c>
       <c r="D317" t="s">
         <v>608</v>
@@ -7607,7 +7607,7 @@
         <v>606</v>
       </c>
       <c r="C318">
-        <v>101.991</v>
+        <v>105.11</v>
       </c>
       <c r="D318" t="s">
         <v>608</v>
@@ -7624,7 +7624,7 @@
         <v>606</v>
       </c>
       <c r="C319">
-        <v>116.776</v>
+        <v>109.513</v>
       </c>
       <c r="D319" t="s">
         <v>608</v>
@@ -7641,7 +7641,7 @@
         <v>606</v>
       </c>
       <c r="C320">
-        <v>111.994</v>
+        <v>112.164</v>
       </c>
       <c r="D320" t="s">
         <v>608</v>
@@ -7658,7 +7658,7 @@
         <v>606</v>
       </c>
       <c r="C321">
-        <v>105.38</v>
+        <v>108.659</v>
       </c>
       <c r="D321" t="s">
         <v>608</v>
@@ -7675,7 +7675,7 @@
         <v>606</v>
       </c>
       <c r="C322">
-        <v>106.146</v>
+        <v>112.027</v>
       </c>
       <c r="D322" t="s">
         <v>608</v>
@@ -7689,10 +7689,10 @@
         <v>326</v>
       </c>
       <c r="B323" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C323">
-        <v>98.91</v>
+        <v>104.351</v>
       </c>
       <c r="D323" t="s">
         <v>608</v>
@@ -7709,7 +7709,7 @@
         <v>606</v>
       </c>
       <c r="C324">
-        <v>103.534</v>
+        <v>106.256</v>
       </c>
       <c r="D324" t="s">
         <v>608</v>
@@ -7726,7 +7726,7 @@
         <v>606</v>
       </c>
       <c r="C325">
-        <v>102.143</v>
+        <v>102.118</v>
       </c>
       <c r="D325" t="s">
         <v>608</v>
@@ -7743,7 +7743,7 @@
         <v>606</v>
       </c>
       <c r="C326">
-        <v>108.589</v>
+        <v>110.475</v>
       </c>
       <c r="D326" t="s">
         <v>608</v>
@@ -7760,7 +7760,7 @@
         <v>606</v>
       </c>
       <c r="C327">
-        <v>100.511</v>
+        <v>104.752</v>
       </c>
       <c r="D327" t="s">
         <v>608</v>
@@ -7777,7 +7777,7 @@
         <v>606</v>
       </c>
       <c r="C328">
-        <v>105.568</v>
+        <v>109.181</v>
       </c>
       <c r="D328" t="s">
         <v>608</v>
@@ -7794,7 +7794,7 @@
         <v>606</v>
       </c>
       <c r="C329">
-        <v>106.12</v>
+        <v>109.927</v>
       </c>
       <c r="D329" t="s">
         <v>608</v>
@@ -7811,7 +7811,7 @@
         <v>606</v>
       </c>
       <c r="C330">
-        <v>100.417</v>
+        <v>103.741</v>
       </c>
       <c r="D330" t="s">
         <v>608</v>
@@ -7825,10 +7825,10 @@
         <v>334</v>
       </c>
       <c r="B331" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C331">
-        <v>99.44199999999999</v>
+        <v>100.915</v>
       </c>
       <c r="D331" t="s">
         <v>608</v>
@@ -7845,7 +7845,7 @@
         <v>606</v>
       </c>
       <c r="C332">
-        <v>104.349</v>
+        <v>107.964</v>
       </c>
       <c r="D332" t="s">
         <v>608</v>
@@ -7859,10 +7859,10 @@
         <v>336</v>
       </c>
       <c r="B333" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C333">
-        <v>99.663</v>
+        <v>105.708</v>
       </c>
       <c r="D333" t="s">
         <v>608</v>
@@ -7879,7 +7879,7 @@
         <v>606</v>
       </c>
       <c r="C334">
-        <v>104.085</v>
+        <v>106.622</v>
       </c>
       <c r="D334" t="s">
         <v>608</v>
@@ -7896,7 +7896,7 @@
         <v>606</v>
       </c>
       <c r="C335">
-        <v>103.689</v>
+        <v>106.363</v>
       </c>
       <c r="D335" t="s">
         <v>608</v>
@@ -7913,7 +7913,7 @@
         <v>606</v>
       </c>
       <c r="C336">
-        <v>108.476</v>
+        <v>114.174</v>
       </c>
       <c r="D336" t="s">
         <v>608</v>
@@ -7927,10 +7927,10 @@
         <v>340</v>
       </c>
       <c r="B337" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C337">
-        <v>97.01300000000001</v>
+        <v>101.952</v>
       </c>
       <c r="D337" t="s">
         <v>608</v>
@@ -7947,7 +7947,7 @@
         <v>606</v>
       </c>
       <c r="C338">
-        <v>102.452</v>
+        <v>106.166</v>
       </c>
       <c r="D338" t="s">
         <v>608</v>
@@ -7964,7 +7964,7 @@
         <v>606</v>
       </c>
       <c r="C339">
-        <v>118.907</v>
+        <v>130.662</v>
       </c>
       <c r="D339" t="s">
         <v>608</v>
@@ -7981,7 +7981,7 @@
         <v>606</v>
       </c>
       <c r="C340">
-        <v>102.949</v>
+        <v>107.706</v>
       </c>
       <c r="D340" t="s">
         <v>608</v>
@@ -7998,7 +7998,7 @@
         <v>606</v>
       </c>
       <c r="C341">
-        <v>108.579</v>
+        <v>113.346</v>
       </c>
       <c r="D341" t="s">
         <v>608</v>
@@ -8015,7 +8015,7 @@
         <v>606</v>
       </c>
       <c r="C342">
-        <v>115.415</v>
+        <v>115.17</v>
       </c>
       <c r="D342" t="s">
         <v>608</v>
@@ -8032,7 +8032,7 @@
         <v>606</v>
       </c>
       <c r="C343">
-        <v>102.762</v>
+        <v>106.35</v>
       </c>
       <c r="D343" t="s">
         <v>608</v>
@@ -8049,7 +8049,7 @@
         <v>606</v>
       </c>
       <c r="C344">
-        <v>100.622</v>
+        <v>103.94</v>
       </c>
       <c r="D344" t="s">
         <v>608</v>
@@ -8066,7 +8066,7 @@
         <v>606</v>
       </c>
       <c r="C345">
-        <v>101.432</v>
+        <v>104.256</v>
       </c>
       <c r="D345" t="s">
         <v>608</v>
@@ -8080,10 +8080,10 @@
         <v>349</v>
       </c>
       <c r="B346" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C346">
-        <v>94.664</v>
+        <v>101.628</v>
       </c>
       <c r="D346" t="s">
         <v>608</v>
@@ -8100,7 +8100,7 @@
         <v>606</v>
       </c>
       <c r="C347">
-        <v>100.489</v>
+        <v>100.253</v>
       </c>
       <c r="D347" t="s">
         <v>608</v>
@@ -8117,7 +8117,7 @@
         <v>606</v>
       </c>
       <c r="C348">
-        <v>105.196</v>
+        <v>106.063</v>
       </c>
       <c r="D348" t="s">
         <v>608</v>
@@ -8134,7 +8134,7 @@
         <v>606</v>
       </c>
       <c r="C349">
-        <v>116.296</v>
+        <v>118.816</v>
       </c>
       <c r="D349" t="s">
         <v>608</v>
@@ -8151,7 +8151,7 @@
         <v>606</v>
       </c>
       <c r="C350">
-        <v>105.351</v>
+        <v>105.493</v>
       </c>
       <c r="D350" t="s">
         <v>608</v>
@@ -8168,7 +8168,7 @@
         <v>606</v>
       </c>
       <c r="C351">
-        <v>108.831</v>
+        <v>109.45</v>
       </c>
       <c r="D351" t="s">
         <v>608</v>
@@ -8185,7 +8185,7 @@
         <v>606</v>
       </c>
       <c r="C352">
-        <v>111.063</v>
+        <v>113.912</v>
       </c>
       <c r="D352" t="s">
         <v>608</v>
@@ -8202,7 +8202,7 @@
         <v>606</v>
       </c>
       <c r="C353">
-        <v>101.769</v>
+        <v>101.067</v>
       </c>
       <c r="D353" t="s">
         <v>608</v>
@@ -8219,7 +8219,7 @@
         <v>606</v>
       </c>
       <c r="C354">
-        <v>102.317</v>
+        <v>105.733</v>
       </c>
       <c r="D354" t="s">
         <v>608</v>
@@ -8236,7 +8236,7 @@
         <v>606</v>
       </c>
       <c r="C355">
-        <v>105.229</v>
+        <v>108.26</v>
       </c>
       <c r="D355" t="s">
         <v>608</v>
@@ -8253,7 +8253,7 @@
         <v>606</v>
       </c>
       <c r="C356">
-        <v>103.682</v>
+        <v>106.495</v>
       </c>
       <c r="D356" t="s">
         <v>608</v>
@@ -8270,7 +8270,7 @@
         <v>606</v>
       </c>
       <c r="C357">
-        <v>101.972</v>
+        <v>105.004</v>
       </c>
       <c r="D357" t="s">
         <v>608</v>
@@ -8287,7 +8287,7 @@
         <v>606</v>
       </c>
       <c r="C358">
-        <v>102.73</v>
+        <v>104.112</v>
       </c>
       <c r="D358" t="s">
         <v>608</v>
@@ -8304,7 +8304,7 @@
         <v>606</v>
       </c>
       <c r="C359">
-        <v>105.032</v>
+        <v>105.381</v>
       </c>
       <c r="D359" t="s">
         <v>608</v>
@@ -8321,7 +8321,7 @@
         <v>606</v>
       </c>
       <c r="C360">
-        <v>113.61</v>
+        <v>117.361</v>
       </c>
       <c r="D360" t="s">
         <v>608</v>
@@ -8338,7 +8338,7 @@
         <v>607</v>
       </c>
       <c r="C361">
-        <v>84.35899999999999</v>
+        <v>86.643</v>
       </c>
       <c r="D361" t="s">
         <v>608</v>
@@ -8355,7 +8355,7 @@
         <v>606</v>
       </c>
       <c r="C362">
-        <v>112.3</v>
+        <v>115.191</v>
       </c>
       <c r="D362" t="s">
         <v>608</v>
@@ -8372,7 +8372,7 @@
         <v>606</v>
       </c>
       <c r="C363">
-        <v>106.616</v>
+        <v>107.476</v>
       </c>
       <c r="D363" t="s">
         <v>608</v>
@@ -8389,7 +8389,7 @@
         <v>606</v>
       </c>
       <c r="C364">
-        <v>100.233</v>
+        <v>103.19</v>
       </c>
       <c r="D364" t="s">
         <v>608</v>
@@ -8420,10 +8420,10 @@
         <v>369</v>
       </c>
       <c r="B366" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C366">
-        <v>97.48399999999999</v>
+        <v>101.475</v>
       </c>
       <c r="D366" t="s">
         <v>608</v>
@@ -8440,7 +8440,7 @@
         <v>606</v>
       </c>
       <c r="C367">
-        <v>113.892</v>
+        <v>116.716</v>
       </c>
       <c r="D367" t="s">
         <v>608</v>
@@ -8457,7 +8457,7 @@
         <v>606</v>
       </c>
       <c r="C368">
-        <v>105.99</v>
+        <v>104.208</v>
       </c>
       <c r="D368" t="s">
         <v>608</v>
@@ -8474,7 +8474,7 @@
         <v>606</v>
       </c>
       <c r="C369">
-        <v>109.869</v>
+        <v>111.193</v>
       </c>
       <c r="D369" t="s">
         <v>608</v>
@@ -8491,7 +8491,7 @@
         <v>606</v>
       </c>
       <c r="C370">
-        <v>101.254</v>
+        <v>106.85</v>
       </c>
       <c r="D370" t="s">
         <v>608</v>
@@ -8508,7 +8508,7 @@
         <v>606</v>
       </c>
       <c r="C371">
-        <v>110.356</v>
+        <v>115.433</v>
       </c>
       <c r="D371" t="s">
         <v>608</v>
@@ -8525,7 +8525,7 @@
         <v>607</v>
       </c>
       <c r="C372">
-        <v>77.605</v>
+        <v>78.65000000000001</v>
       </c>
       <c r="D372" t="s">
         <v>608</v>
@@ -8542,7 +8542,7 @@
         <v>606</v>
       </c>
       <c r="C373">
-        <v>103.377</v>
+        <v>106.238</v>
       </c>
       <c r="D373" t="s">
         <v>608</v>
@@ -8559,7 +8559,7 @@
         <v>606</v>
       </c>
       <c r="C374">
-        <v>100.246</v>
+        <v>102.724</v>
       </c>
       <c r="D374" t="s">
         <v>608</v>
@@ -8576,7 +8576,7 @@
         <v>606</v>
       </c>
       <c r="C375">
-        <v>123.412</v>
+        <v>126.084</v>
       </c>
       <c r="D375" t="s">
         <v>608</v>
@@ -8593,7 +8593,7 @@
         <v>606</v>
       </c>
       <c r="C376">
-        <v>113.303</v>
+        <v>119.273</v>
       </c>
       <c r="D376" t="s">
         <v>608</v>
@@ -8610,7 +8610,7 @@
         <v>606</v>
       </c>
       <c r="C377">
-        <v>106.514</v>
+        <v>107.861</v>
       </c>
       <c r="D377" t="s">
         <v>608</v>
@@ -8627,7 +8627,7 @@
         <v>606</v>
       </c>
       <c r="C378">
-        <v>108.251</v>
+        <v>107.81</v>
       </c>
       <c r="D378" t="s">
         <v>608</v>
@@ -8644,7 +8644,7 @@
         <v>606</v>
       </c>
       <c r="C379">
-        <v>104.042</v>
+        <v>106.526</v>
       </c>
       <c r="D379" t="s">
         <v>608</v>
@@ -8661,7 +8661,7 @@
         <v>606</v>
       </c>
       <c r="C380">
-        <v>112.942</v>
+        <v>119.171</v>
       </c>
       <c r="D380" t="s">
         <v>608</v>
@@ -8678,7 +8678,7 @@
         <v>606</v>
       </c>
       <c r="C381">
-        <v>107.015</v>
+        <v>115.318</v>
       </c>
       <c r="D381" t="s">
         <v>608</v>
@@ -8695,7 +8695,7 @@
         <v>606</v>
       </c>
       <c r="C382">
-        <v>103.319</v>
+        <v>105.664</v>
       </c>
       <c r="D382" t="s">
         <v>608</v>
@@ -8712,7 +8712,7 @@
         <v>606</v>
       </c>
       <c r="C383">
-        <v>105.618</v>
+        <v>108.995</v>
       </c>
       <c r="D383" t="s">
         <v>608</v>
@@ -8729,7 +8729,7 @@
         <v>606</v>
       </c>
       <c r="C384">
-        <v>109.058</v>
+        <v>113.352</v>
       </c>
       <c r="D384" t="s">
         <v>608</v>
@@ -8746,7 +8746,7 @@
         <v>606</v>
       </c>
       <c r="C385">
-        <v>112.184</v>
+        <v>114.975</v>
       </c>
       <c r="D385" t="s">
         <v>608</v>
@@ -8763,7 +8763,7 @@
         <v>606</v>
       </c>
       <c r="C386">
-        <v>100.944</v>
+        <v>104.651</v>
       </c>
       <c r="D386" t="s">
         <v>608</v>
@@ -8780,7 +8780,7 @@
         <v>606</v>
       </c>
       <c r="C387">
-        <v>105.205</v>
+        <v>105.985</v>
       </c>
       <c r="D387" t="s">
         <v>608</v>
@@ -8797,7 +8797,7 @@
         <v>606</v>
       </c>
       <c r="C388">
-        <v>106.306</v>
+        <v>115.77</v>
       </c>
       <c r="D388" t="s">
         <v>608</v>
@@ -8814,7 +8814,7 @@
         <v>606</v>
       </c>
       <c r="C389">
-        <v>107.229</v>
+        <v>108.825</v>
       </c>
       <c r="D389" t="s">
         <v>608</v>
@@ -8831,7 +8831,7 @@
         <v>606</v>
       </c>
       <c r="C390">
-        <v>104.361</v>
+        <v>110.598</v>
       </c>
       <c r="D390" t="s">
         <v>608</v>
@@ -8845,10 +8845,10 @@
         <v>394</v>
       </c>
       <c r="B391" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C391">
-        <v>98.911</v>
+        <v>101.68</v>
       </c>
       <c r="D391" t="s">
         <v>608</v>
@@ -8865,7 +8865,7 @@
         <v>606</v>
       </c>
       <c r="C392">
-        <v>105.779</v>
+        <v>109.9</v>
       </c>
       <c r="D392" t="s">
         <v>608</v>
@@ -8882,7 +8882,7 @@
         <v>606</v>
       </c>
       <c r="C393">
-        <v>102.727</v>
+        <v>106.331</v>
       </c>
       <c r="D393" t="s">
         <v>608</v>
@@ -8899,7 +8899,7 @@
         <v>606</v>
       </c>
       <c r="C394">
-        <v>105.404</v>
+        <v>104.216</v>
       </c>
       <c r="D394" t="s">
         <v>608</v>
@@ -8916,7 +8916,7 @@
         <v>606</v>
       </c>
       <c r="C395">
-        <v>103.41</v>
+        <v>105.493</v>
       </c>
       <c r="D395" t="s">
         <v>608</v>
@@ -8933,7 +8933,7 @@
         <v>606</v>
       </c>
       <c r="C396">
-        <v>107.544</v>
+        <v>108.79</v>
       </c>
       <c r="D396" t="s">
         <v>608</v>
@@ -8950,7 +8950,7 @@
         <v>606</v>
       </c>
       <c r="C397">
-        <v>102.509</v>
+        <v>103.885</v>
       </c>
       <c r="D397" t="s">
         <v>608</v>
@@ -8967,7 +8967,7 @@
         <v>606</v>
       </c>
       <c r="C398">
-        <v>120.755</v>
+        <v>125.203</v>
       </c>
       <c r="D398" t="s">
         <v>608</v>
@@ -8984,7 +8984,7 @@
         <v>606</v>
       </c>
       <c r="C399">
-        <v>114.832</v>
+        <v>117.957</v>
       </c>
       <c r="D399" t="s">
         <v>608</v>
@@ -9001,7 +9001,7 @@
         <v>606</v>
       </c>
       <c r="C400">
-        <v>107.996</v>
+        <v>105.979</v>
       </c>
       <c r="D400" t="s">
         <v>608</v>
@@ -9018,7 +9018,7 @@
         <v>606</v>
       </c>
       <c r="C401">
-        <v>101.208</v>
+        <v>105.161</v>
       </c>
       <c r="D401" t="s">
         <v>608</v>
@@ -9032,10 +9032,10 @@
         <v>405</v>
       </c>
       <c r="B402" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C402">
-        <v>97.31999999999999</v>
+        <v>104.143</v>
       </c>
       <c r="D402" t="s">
         <v>608</v>
@@ -9052,7 +9052,7 @@
         <v>607</v>
       </c>
       <c r="C403">
-        <v>95.587</v>
+        <v>95.86</v>
       </c>
       <c r="D403" t="s">
         <v>608</v>
@@ -9069,7 +9069,7 @@
         <v>606</v>
       </c>
       <c r="C404">
-        <v>101.561</v>
+        <v>106.057</v>
       </c>
       <c r="D404" t="s">
         <v>608</v>
@@ -9086,7 +9086,7 @@
         <v>606</v>
       </c>
       <c r="C405">
-        <v>110.881</v>
+        <v>113.437</v>
       </c>
       <c r="D405" t="s">
         <v>608</v>
@@ -9103,7 +9103,7 @@
         <v>606</v>
       </c>
       <c r="C406">
-        <v>114.596</v>
+        <v>114.34</v>
       </c>
       <c r="D406" t="s">
         <v>608</v>
@@ -9120,7 +9120,7 @@
         <v>606</v>
       </c>
       <c r="C407">
-        <v>105.994</v>
+        <v>108.756</v>
       </c>
       <c r="D407" t="s">
         <v>608</v>
@@ -9137,7 +9137,7 @@
         <v>606</v>
       </c>
       <c r="C408">
-        <v>121.655</v>
+        <v>124.138</v>
       </c>
       <c r="D408" t="s">
         <v>608</v>
@@ -9154,7 +9154,7 @@
         <v>606</v>
       </c>
       <c r="C409">
-        <v>109.346</v>
+        <v>115.389</v>
       </c>
       <c r="D409" t="s">
         <v>608</v>
@@ -9171,7 +9171,7 @@
         <v>607</v>
       </c>
       <c r="C410">
-        <v>98.45</v>
+        <v>99.54600000000001</v>
       </c>
       <c r="D410" t="s">
         <v>608</v>
@@ -9188,7 +9188,7 @@
         <v>606</v>
       </c>
       <c r="C411">
-        <v>105.311</v>
+        <v>112.253</v>
       </c>
       <c r="D411" t="s">
         <v>608</v>
@@ -9205,7 +9205,7 @@
         <v>606</v>
       </c>
       <c r="C412">
-        <v>100.089</v>
+        <v>102.875</v>
       </c>
       <c r="D412" t="s">
         <v>608</v>
@@ -9222,7 +9222,7 @@
         <v>606</v>
       </c>
       <c r="C413">
-        <v>106.618</v>
+        <v>108.769</v>
       </c>
       <c r="D413" t="s">
         <v>608</v>
@@ -9239,7 +9239,7 @@
         <v>606</v>
       </c>
       <c r="C414">
-        <v>117.623</v>
+        <v>114.644</v>
       </c>
       <c r="D414" t="s">
         <v>608</v>
@@ -9256,7 +9256,7 @@
         <v>606</v>
       </c>
       <c r="C415">
-        <v>108.38</v>
+        <v>109.95</v>
       </c>
       <c r="D415" t="s">
         <v>608</v>
@@ -9273,7 +9273,7 @@
         <v>606</v>
       </c>
       <c r="C416">
-        <v>102.911</v>
+        <v>107.8</v>
       </c>
       <c r="D416" t="s">
         <v>608</v>
@@ -9290,7 +9290,7 @@
         <v>606</v>
       </c>
       <c r="C417">
-        <v>102.348</v>
+        <v>106.098</v>
       </c>
       <c r="D417" t="s">
         <v>608</v>
@@ -9304,10 +9304,10 @@
         <v>421</v>
       </c>
       <c r="B418" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C418">
-        <v>95.166</v>
+        <v>104.523</v>
       </c>
       <c r="D418" t="s">
         <v>608</v>
@@ -9324,7 +9324,7 @@
         <v>606</v>
       </c>
       <c r="C419">
-        <v>115.696</v>
+        <v>118.4</v>
       </c>
       <c r="D419" t="s">
         <v>608</v>
@@ -9341,7 +9341,7 @@
         <v>606</v>
       </c>
       <c r="C420">
-        <v>115.454</v>
+        <v>115.327</v>
       </c>
       <c r="D420" t="s">
         <v>608</v>
@@ -9358,7 +9358,7 @@
         <v>606</v>
       </c>
       <c r="C421">
-        <v>102.131</v>
+        <v>102.694</v>
       </c>
       <c r="D421" t="s">
         <v>608</v>
@@ -9375,7 +9375,7 @@
         <v>606</v>
       </c>
       <c r="C422">
-        <v>101.724</v>
+        <v>102.344</v>
       </c>
       <c r="D422" t="s">
         <v>608</v>
@@ -9392,7 +9392,7 @@
         <v>607</v>
       </c>
       <c r="C423">
-        <v>96.532</v>
+        <v>98.337</v>
       </c>
       <c r="D423" t="s">
         <v>608</v>
@@ -9409,7 +9409,7 @@
         <v>606</v>
       </c>
       <c r="C424">
-        <v>110.729</v>
+        <v>112.892</v>
       </c>
       <c r="D424" t="s">
         <v>608</v>
@@ -9426,7 +9426,7 @@
         <v>606</v>
       </c>
       <c r="C425">
-        <v>102.758</v>
+        <v>104.803</v>
       </c>
       <c r="D425" t="s">
         <v>608</v>
@@ -9443,7 +9443,7 @@
         <v>606</v>
       </c>
       <c r="C426">
-        <v>104.181</v>
+        <v>110.212</v>
       </c>
       <c r="D426" t="s">
         <v>608</v>
@@ -9460,7 +9460,7 @@
         <v>606</v>
       </c>
       <c r="C427">
-        <v>108.573</v>
+        <v>110.14</v>
       </c>
       <c r="D427" t="s">
         <v>608</v>
@@ -9477,7 +9477,7 @@
         <v>606</v>
       </c>
       <c r="C428">
-        <v>102.43</v>
+        <v>106.003</v>
       </c>
       <c r="D428" t="s">
         <v>608</v>
@@ -9494,7 +9494,7 @@
         <v>606</v>
       </c>
       <c r="C429">
-        <v>106.473</v>
+        <v>110.446</v>
       </c>
       <c r="D429" t="s">
         <v>608</v>
@@ -9511,7 +9511,7 @@
         <v>606</v>
       </c>
       <c r="C430">
-        <v>112.219</v>
+        <v>115.44</v>
       </c>
       <c r="D430" t="s">
         <v>608</v>
@@ -9525,10 +9525,10 @@
         <v>434</v>
       </c>
       <c r="B431" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C431">
-        <v>96.16500000000001</v>
+        <v>100.636</v>
       </c>
       <c r="D431" t="s">
         <v>608</v>
@@ -9545,7 +9545,7 @@
         <v>606</v>
       </c>
       <c r="C432">
-        <v>110.916</v>
+        <v>121.168</v>
       </c>
       <c r="D432" t="s">
         <v>608</v>
@@ -9562,7 +9562,7 @@
         <v>606</v>
       </c>
       <c r="C433">
-        <v>106.285</v>
+        <v>109.729</v>
       </c>
       <c r="D433" t="s">
         <v>608</v>
@@ -9579,7 +9579,7 @@
         <v>606</v>
       </c>
       <c r="C434">
-        <v>116.239</v>
+        <v>121.181</v>
       </c>
       <c r="D434" t="s">
         <v>608</v>
@@ -9596,7 +9596,7 @@
         <v>606</v>
       </c>
       <c r="C435">
-        <v>114.548</v>
+        <v>124.463</v>
       </c>
       <c r="D435" t="s">
         <v>608</v>
@@ -9613,7 +9613,7 @@
         <v>606</v>
       </c>
       <c r="C436">
-        <v>109.366</v>
+        <v>113.64</v>
       </c>
       <c r="D436" t="s">
         <v>608</v>
@@ -9630,7 +9630,7 @@
         <v>606</v>
       </c>
       <c r="C437">
-        <v>108.622</v>
+        <v>108.371</v>
       </c>
       <c r="D437" t="s">
         <v>608</v>
@@ -9647,7 +9647,7 @@
         <v>606</v>
       </c>
       <c r="C438">
-        <v>111.502</v>
+        <v>110.068</v>
       </c>
       <c r="D438" t="s">
         <v>608</v>
@@ -9664,7 +9664,7 @@
         <v>606</v>
       </c>
       <c r="C439">
-        <v>102.994</v>
+        <v>104.686</v>
       </c>
       <c r="D439" t="s">
         <v>608</v>
@@ -9681,7 +9681,7 @@
         <v>606</v>
       </c>
       <c r="C440">
-        <v>105.303</v>
+        <v>107.628</v>
       </c>
       <c r="D440" t="s">
         <v>608</v>
@@ -9698,7 +9698,7 @@
         <v>606</v>
       </c>
       <c r="C441">
-        <v>110.199</v>
+        <v>114.882</v>
       </c>
       <c r="D441" t="s">
         <v>608</v>
@@ -9715,7 +9715,7 @@
         <v>606</v>
       </c>
       <c r="C442">
-        <v>103.628</v>
+        <v>105.673</v>
       </c>
       <c r="D442" t="s">
         <v>608</v>
@@ -9732,7 +9732,7 @@
         <v>606</v>
       </c>
       <c r="C443">
-        <v>127.678</v>
+        <v>124.674</v>
       </c>
       <c r="D443" t="s">
         <v>608</v>
@@ -9746,10 +9746,10 @@
         <v>447</v>
       </c>
       <c r="B444" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C444">
-        <v>98.374</v>
+        <v>100.782</v>
       </c>
       <c r="D444" t="s">
         <v>608</v>
@@ -9763,10 +9763,10 @@
         <v>448</v>
       </c>
       <c r="B445" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C445">
-        <v>99.706</v>
+        <v>100.998</v>
       </c>
       <c r="D445" t="s">
         <v>608</v>
@@ -9783,7 +9783,7 @@
         <v>606</v>
       </c>
       <c r="C446">
-        <v>104.971</v>
+        <v>106.429</v>
       </c>
       <c r="D446" t="s">
         <v>608</v>
@@ -9797,10 +9797,10 @@
         <v>450</v>
       </c>
       <c r="B447" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C447">
-        <v>97.598</v>
+        <v>100.015</v>
       </c>
       <c r="D447" t="s">
         <v>608</v>
@@ -9817,7 +9817,7 @@
         <v>606</v>
       </c>
       <c r="C448">
-        <v>106.35</v>
+        <v>109.852</v>
       </c>
       <c r="D448" t="s">
         <v>608</v>
@@ -9834,7 +9834,7 @@
         <v>606</v>
       </c>
       <c r="C449">
-        <v>111.016</v>
+        <v>111.734</v>
       </c>
       <c r="D449" t="s">
         <v>608</v>
@@ -9851,7 +9851,7 @@
         <v>606</v>
       </c>
       <c r="C450">
-        <v>108.741</v>
+        <v>110.273</v>
       </c>
       <c r="D450" t="s">
         <v>608</v>
@@ -9865,10 +9865,10 @@
         <v>454</v>
       </c>
       <c r="B451" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C451">
-        <v>99.70999999999999</v>
+        <v>101.071</v>
       </c>
       <c r="D451" t="s">
         <v>608</v>
@@ -9885,7 +9885,7 @@
         <v>606</v>
       </c>
       <c r="C452">
-        <v>112.854</v>
+        <v>116.031</v>
       </c>
       <c r="D452" t="s">
         <v>608</v>
@@ -9902,7 +9902,7 @@
         <v>606</v>
       </c>
       <c r="C453">
-        <v>112.11</v>
+        <v>114.727</v>
       </c>
       <c r="D453" t="s">
         <v>608</v>
@@ -9919,7 +9919,7 @@
         <v>606</v>
       </c>
       <c r="C454">
-        <v>115.886</v>
+        <v>126.288</v>
       </c>
       <c r="D454" t="s">
         <v>608</v>
@@ -9936,7 +9936,7 @@
         <v>606</v>
       </c>
       <c r="C455">
-        <v>128.868</v>
+        <v>127.022</v>
       </c>
       <c r="D455" t="s">
         <v>608</v>
@@ -9953,7 +9953,7 @@
         <v>606</v>
       </c>
       <c r="C456">
-        <v>104.912</v>
+        <v>105.304</v>
       </c>
       <c r="D456" t="s">
         <v>608</v>
@@ -9970,7 +9970,7 @@
         <v>606</v>
       </c>
       <c r="C457">
-        <v>110.227</v>
+        <v>114.27</v>
       </c>
       <c r="D457" t="s">
         <v>608</v>
@@ -9987,7 +9987,7 @@
         <v>606</v>
       </c>
       <c r="C458">
-        <v>104.896</v>
+        <v>109.379</v>
       </c>
       <c r="D458" t="s">
         <v>608</v>
@@ -10004,7 +10004,7 @@
         <v>606</v>
       </c>
       <c r="C459">
-        <v>117.921</v>
+        <v>118.884</v>
       </c>
       <c r="D459" t="s">
         <v>608</v>
@@ -10021,7 +10021,7 @@
         <v>606</v>
       </c>
       <c r="C460">
-        <v>121.91</v>
+        <v>124.949</v>
       </c>
       <c r="D460" t="s">
         <v>608</v>
@@ -10038,7 +10038,7 @@
         <v>607</v>
       </c>
       <c r="C461">
-        <v>96.52200000000001</v>
+        <v>97.943</v>
       </c>
       <c r="D461" t="s">
         <v>608</v>
@@ -10052,10 +10052,10 @@
         <v>465</v>
       </c>
       <c r="B462" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C462">
-        <v>95.321</v>
+        <v>100.108</v>
       </c>
       <c r="D462" t="s">
         <v>608</v>
@@ -10072,7 +10072,7 @@
         <v>606</v>
       </c>
       <c r="C463">
-        <v>126.397</v>
+        <v>116.552</v>
       </c>
       <c r="D463" t="s">
         <v>608</v>
@@ -10086,10 +10086,10 @@
         <v>467</v>
       </c>
       <c r="B464" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C464">
-        <v>99.051</v>
+        <v>100.277</v>
       </c>
       <c r="D464" t="s">
         <v>608</v>
@@ -10106,7 +10106,7 @@
         <v>606</v>
       </c>
       <c r="C465">
-        <v>104.458</v>
+        <v>108.547</v>
       </c>
       <c r="D465" t="s">
         <v>608</v>
@@ -10123,7 +10123,7 @@
         <v>606</v>
       </c>
       <c r="C466">
-        <v>107.476</v>
+        <v>107.447</v>
       </c>
       <c r="D466" t="s">
         <v>608</v>
@@ -10140,7 +10140,7 @@
         <v>606</v>
       </c>
       <c r="C467">
-        <v>117.663</v>
+        <v>115.505</v>
       </c>
       <c r="D467" t="s">
         <v>608</v>
@@ -10154,10 +10154,10 @@
         <v>471</v>
       </c>
       <c r="B468" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C468">
-        <v>97.89</v>
+        <v>100.806</v>
       </c>
       <c r="D468" t="s">
         <v>608</v>
@@ -10174,7 +10174,7 @@
         <v>606</v>
       </c>
       <c r="C469">
-        <v>107.424</v>
+        <v>108.057</v>
       </c>
       <c r="D469" t="s">
         <v>608</v>
@@ -10191,7 +10191,7 @@
         <v>606</v>
       </c>
       <c r="C470">
-        <v>100.102</v>
+        <v>103.093</v>
       </c>
       <c r="D470" t="s">
         <v>608</v>
@@ -10208,7 +10208,7 @@
         <v>606</v>
       </c>
       <c r="C471">
-        <v>110.78</v>
+        <v>112.151</v>
       </c>
       <c r="D471" t="s">
         <v>608</v>
@@ -10225,7 +10225,7 @@
         <v>606</v>
       </c>
       <c r="C472">
-        <v>106.074</v>
+        <v>113.959</v>
       </c>
       <c r="D472" t="s">
         <v>608</v>
@@ -10242,7 +10242,7 @@
         <v>606</v>
       </c>
       <c r="C473">
-        <v>104.738</v>
+        <v>108.825</v>
       </c>
       <c r="D473" t="s">
         <v>608</v>
@@ -10259,7 +10259,7 @@
         <v>606</v>
       </c>
       <c r="C474">
-        <v>108.573</v>
+        <v>114.199</v>
       </c>
       <c r="D474" t="s">
         <v>608</v>
@@ -10276,7 +10276,7 @@
         <v>607</v>
       </c>
       <c r="C475">
-        <v>98.706</v>
+        <v>97.184</v>
       </c>
       <c r="D475" t="s">
         <v>608</v>
@@ -10293,7 +10293,7 @@
         <v>606</v>
       </c>
       <c r="C476">
-        <v>102.945</v>
+        <v>103.74</v>
       </c>
       <c r="D476" t="s">
         <v>608</v>
@@ -10310,7 +10310,7 @@
         <v>606</v>
       </c>
       <c r="C477">
-        <v>122.452</v>
+        <v>127.665</v>
       </c>
       <c r="D477" t="s">
         <v>608</v>
@@ -10327,7 +10327,7 @@
         <v>607</v>
       </c>
       <c r="C478">
-        <v>95.55200000000001</v>
+        <v>98.524</v>
       </c>
       <c r="D478" t="s">
         <v>608</v>
@@ -10344,7 +10344,7 @@
         <v>606</v>
       </c>
       <c r="C479">
-        <v>110.974</v>
+        <v>116.602</v>
       </c>
       <c r="D479" t="s">
         <v>608</v>
@@ -10361,7 +10361,7 @@
         <v>606</v>
       </c>
       <c r="C480">
-        <v>105.117</v>
+        <v>107.71</v>
       </c>
       <c r="D480" t="s">
         <v>608</v>
@@ -10378,7 +10378,7 @@
         <v>606</v>
       </c>
       <c r="C481">
-        <v>113.125</v>
+        <v>120.615</v>
       </c>
       <c r="D481" t="s">
         <v>608</v>
@@ -10395,7 +10395,7 @@
         <v>606</v>
       </c>
       <c r="C482">
-        <v>110.471</v>
+        <v>111.248</v>
       </c>
       <c r="D482" t="s">
         <v>608</v>
@@ -10412,7 +10412,7 @@
         <v>606</v>
       </c>
       <c r="C483">
-        <v>127.273</v>
+        <v>130.136</v>
       </c>
       <c r="D483" t="s">
         <v>608</v>
@@ -10429,7 +10429,7 @@
         <v>606</v>
       </c>
       <c r="C484">
-        <v>106.107</v>
+        <v>108.902</v>
       </c>
       <c r="D484" t="s">
         <v>608</v>
@@ -10446,7 +10446,7 @@
         <v>606</v>
       </c>
       <c r="C485">
-        <v>121.228</v>
+        <v>118.29</v>
       </c>
       <c r="D485" t="s">
         <v>608</v>
@@ -10463,7 +10463,7 @@
         <v>606</v>
       </c>
       <c r="C486">
-        <v>106.818</v>
+        <v>107.549</v>
       </c>
       <c r="D486" t="s">
         <v>608</v>
@@ -10480,7 +10480,7 @@
         <v>607</v>
       </c>
       <c r="C487">
-        <v>94.367</v>
+        <v>98.81399999999999</v>
       </c>
       <c r="D487" t="s">
         <v>608</v>
@@ -10497,7 +10497,7 @@
         <v>606</v>
       </c>
       <c r="C488">
-        <v>108.423</v>
+        <v>108.817</v>
       </c>
       <c r="D488" t="s">
         <v>608</v>
@@ -10514,7 +10514,7 @@
         <v>606</v>
       </c>
       <c r="C489">
-        <v>126.902</v>
+        <v>116.255</v>
       </c>
       <c r="D489" t="s">
         <v>608</v>
@@ -10531,7 +10531,7 @@
         <v>607</v>
       </c>
       <c r="C490">
-        <v>92.241</v>
+        <v>94.274</v>
       </c>
       <c r="D490" t="s">
         <v>608</v>
@@ -10548,7 +10548,7 @@
         <v>606</v>
       </c>
       <c r="C491">
-        <v>113.932</v>
+        <v>115.515</v>
       </c>
       <c r="D491" t="s">
         <v>608</v>
@@ -10565,7 +10565,7 @@
         <v>606</v>
       </c>
       <c r="C492">
-        <v>104.371</v>
+        <v>105.934</v>
       </c>
       <c r="D492" t="s">
         <v>608</v>
@@ -10582,7 +10582,7 @@
         <v>606</v>
       </c>
       <c r="C493">
-        <v>101.548</v>
+        <v>101.704</v>
       </c>
       <c r="D493" t="s">
         <v>608</v>
@@ -10599,7 +10599,7 @@
         <v>606</v>
       </c>
       <c r="C494">
-        <v>101.078</v>
+        <v>103.821</v>
       </c>
       <c r="D494" t="s">
         <v>608</v>
@@ -10616,7 +10616,7 @@
         <v>606</v>
       </c>
       <c r="C495">
-        <v>102.491</v>
+        <v>103.14</v>
       </c>
       <c r="D495" t="s">
         <v>608</v>
@@ -10633,7 +10633,7 @@
         <v>606</v>
       </c>
       <c r="C496">
-        <v>104.184</v>
+        <v>107.282</v>
       </c>
       <c r="D496" t="s">
         <v>608</v>
@@ -10647,10 +10647,10 @@
         <v>500</v>
       </c>
       <c r="B497" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C497">
-        <v>99.895</v>
+        <v>103.142</v>
       </c>
       <c r="D497" t="s">
         <v>608</v>
@@ -10667,7 +10667,7 @@
         <v>606</v>
       </c>
       <c r="C498">
-        <v>101.787</v>
+        <v>105.21</v>
       </c>
       <c r="D498" t="s">
         <v>608</v>
@@ -10684,7 +10684,7 @@
         <v>606</v>
       </c>
       <c r="C499">
-        <v>103.058</v>
+        <v>106.454</v>
       </c>
       <c r="D499" t="s">
         <v>608</v>
@@ -10701,7 +10701,7 @@
         <v>606</v>
       </c>
       <c r="C500">
-        <v>110.22</v>
+        <v>113.086</v>
       </c>
       <c r="D500" t="s">
         <v>608</v>
@@ -10718,7 +10718,7 @@
         <v>606</v>
       </c>
       <c r="C501">
-        <v>111.08</v>
+        <v>119.857</v>
       </c>
       <c r="D501" t="s">
         <v>608</v>
@@ -10735,7 +10735,7 @@
         <v>606</v>
       </c>
       <c r="C502">
-        <v>113.063</v>
+        <v>115.303</v>
       </c>
       <c r="D502" t="s">
         <v>608</v>
@@ -10752,7 +10752,7 @@
         <v>606</v>
       </c>
       <c r="C503">
-        <v>116.59</v>
+        <v>116.557</v>
       </c>
       <c r="D503" t="s">
         <v>608</v>
@@ -10769,7 +10769,7 @@
         <v>606</v>
       </c>
       <c r="C504">
-        <v>109.556</v>
+        <v>108.609</v>
       </c>
       <c r="D504" t="s">
         <v>608</v>
@@ -10783,10 +10783,10 @@
         <v>508</v>
       </c>
       <c r="B505" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C505">
-        <v>99.396</v>
+        <v>104.279</v>
       </c>
       <c r="D505" t="s">
         <v>608</v>
@@ -10803,7 +10803,7 @@
         <v>606</v>
       </c>
       <c r="C506">
-        <v>104.983</v>
+        <v>106.462</v>
       </c>
       <c r="D506" t="s">
         <v>608</v>
@@ -10820,7 +10820,7 @@
         <v>607</v>
       </c>
       <c r="C507">
-        <v>86.818</v>
+        <v>87.855</v>
       </c>
       <c r="D507" t="s">
         <v>608</v>
@@ -10837,7 +10837,7 @@
         <v>606</v>
       </c>
       <c r="C508">
-        <v>101.832</v>
+        <v>103.039</v>
       </c>
       <c r="D508" t="s">
         <v>608</v>
@@ -10854,7 +10854,7 @@
         <v>606</v>
       </c>
       <c r="C509">
-        <v>114.553</v>
+        <v>115.155</v>
       </c>
       <c r="D509" t="s">
         <v>608</v>
@@ -10871,7 +10871,7 @@
         <v>606</v>
       </c>
       <c r="C510">
-        <v>113.235</v>
+        <v>113.783</v>
       </c>
       <c r="D510" t="s">
         <v>608</v>
@@ -10888,7 +10888,7 @@
         <v>607</v>
       </c>
       <c r="C511">
-        <v>82.669</v>
+        <v>84.217</v>
       </c>
       <c r="D511" t="s">
         <v>608</v>
@@ -10905,7 +10905,7 @@
         <v>606</v>
       </c>
       <c r="C512">
-        <v>121.448</v>
+        <v>127.168</v>
       </c>
       <c r="D512" t="s">
         <v>608</v>
@@ -10922,7 +10922,7 @@
         <v>606</v>
       </c>
       <c r="C513">
-        <v>113.816</v>
+        <v>118.793</v>
       </c>
       <c r="D513" t="s">
         <v>608</v>
@@ -10939,7 +10939,7 @@
         <v>606</v>
       </c>
       <c r="C514">
-        <v>205.738</v>
+        <v>204.237</v>
       </c>
       <c r="D514" t="s">
         <v>608</v>
@@ -10956,7 +10956,7 @@
         <v>606</v>
       </c>
       <c r="C515">
-        <v>101.961</v>
+        <v>103.614</v>
       </c>
       <c r="D515" t="s">
         <v>608</v>
@@ -10973,7 +10973,7 @@
         <v>606</v>
       </c>
       <c r="C516">
-        <v>103.381</v>
+        <v>102.177</v>
       </c>
       <c r="D516" t="s">
         <v>608</v>
@@ -10990,7 +10990,7 @@
         <v>606</v>
       </c>
       <c r="C517">
-        <v>100.396</v>
+        <v>102.281</v>
       </c>
       <c r="D517" t="s">
         <v>608</v>
@@ -11007,7 +11007,7 @@
         <v>606</v>
       </c>
       <c r="C518">
-        <v>107.985</v>
+        <v>111.069</v>
       </c>
       <c r="D518" t="s">
         <v>608</v>
@@ -11024,7 +11024,7 @@
         <v>606</v>
       </c>
       <c r="C519">
-        <v>144.094</v>
+        <v>133.333</v>
       </c>
       <c r="D519" t="s">
         <v>608</v>
@@ -11041,7 +11041,7 @@
         <v>606</v>
       </c>
       <c r="C520">
-        <v>102.651</v>
+        <v>106.83</v>
       </c>
       <c r="D520" t="s">
         <v>608</v>
@@ -11058,7 +11058,7 @@
         <v>607</v>
       </c>
       <c r="C521">
-        <v>88.20699999999999</v>
+        <v>86.199</v>
       </c>
       <c r="D521" t="s">
         <v>608</v>
@@ -11075,7 +11075,7 @@
         <v>607</v>
       </c>
       <c r="C522">
-        <v>91.137</v>
+        <v>86.941</v>
       </c>
       <c r="D522" t="s">
         <v>608</v>
@@ -11092,7 +11092,7 @@
         <v>606</v>
       </c>
       <c r="C523">
-        <v>104.359</v>
+        <v>109.639</v>
       </c>
       <c r="D523" t="s">
         <v>608</v>
@@ -11109,7 +11109,7 @@
         <v>607</v>
       </c>
       <c r="C524">
-        <v>91.39400000000001</v>
+        <v>91.727</v>
       </c>
       <c r="D524" t="s">
         <v>608</v>
@@ -11126,7 +11126,7 @@
         <v>606</v>
       </c>
       <c r="C525">
-        <v>102.17</v>
+        <v>103.962</v>
       </c>
       <c r="D525" t="s">
         <v>608</v>
@@ -11143,7 +11143,7 @@
         <v>606</v>
       </c>
       <c r="C526">
-        <v>112.803</v>
+        <v>114.768</v>
       </c>
       <c r="D526" t="s">
         <v>608</v>
@@ -11160,7 +11160,7 @@
         <v>607</v>
       </c>
       <c r="C527">
-        <v>95.72499999999999</v>
+        <v>97.166</v>
       </c>
       <c r="D527" t="s">
         <v>608</v>
@@ -11177,7 +11177,7 @@
         <v>607</v>
       </c>
       <c r="C528">
-        <v>81</v>
+        <v>80.42100000000001</v>
       </c>
       <c r="D528" t="s">
         <v>608</v>
@@ -11194,7 +11194,7 @@
         <v>607</v>
       </c>
       <c r="C529">
-        <v>89.595</v>
+        <v>87.014</v>
       </c>
       <c r="D529" t="s">
         <v>608</v>
@@ -11211,7 +11211,7 @@
         <v>606</v>
       </c>
       <c r="C530">
-        <v>141.315</v>
+        <v>146.365</v>
       </c>
       <c r="D530" t="s">
         <v>608</v>
@@ -11228,7 +11228,7 @@
         <v>606</v>
       </c>
       <c r="C531">
-        <v>128.875</v>
+        <v>127.446</v>
       </c>
       <c r="D531" t="s">
         <v>608</v>
@@ -11245,7 +11245,7 @@
         <v>606</v>
       </c>
       <c r="C532">
-        <v>106.573</v>
+        <v>111.22</v>
       </c>
       <c r="D532" t="s">
         <v>608</v>
@@ -11262,7 +11262,7 @@
         <v>606</v>
       </c>
       <c r="C533">
-        <v>113.043</v>
+        <v>117.355</v>
       </c>
       <c r="D533" t="s">
         <v>608</v>
@@ -11279,7 +11279,7 @@
         <v>606</v>
       </c>
       <c r="C534">
-        <v>107.632</v>
+        <v>110.212</v>
       </c>
       <c r="D534" t="s">
         <v>608</v>
@@ -11293,10 +11293,10 @@
         <v>537</v>
       </c>
       <c r="B535" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C535">
-        <v>98.346</v>
+        <v>100.132</v>
       </c>
       <c r="D535" t="s">
         <v>608</v>
@@ -11313,7 +11313,7 @@
         <v>606</v>
       </c>
       <c r="C536">
-        <v>106.546</v>
+        <v>106.849</v>
       </c>
       <c r="D536" t="s">
         <v>608</v>
@@ -11330,7 +11330,7 @@
         <v>606</v>
       </c>
       <c r="C537">
-        <v>113.912</v>
+        <v>115.067</v>
       </c>
       <c r="D537" t="s">
         <v>608</v>
@@ -11347,7 +11347,7 @@
         <v>607</v>
       </c>
       <c r="C538">
-        <v>86.491</v>
+        <v>86.501</v>
       </c>
       <c r="D538" t="s">
         <v>608</v>
@@ -11364,7 +11364,7 @@
         <v>606</v>
       </c>
       <c r="C539">
-        <v>107.015</v>
+        <v>115.318</v>
       </c>
       <c r="D539" t="s">
         <v>608</v>
@@ -11381,7 +11381,7 @@
         <v>607</v>
       </c>
       <c r="C540">
-        <v>85.78700000000001</v>
+        <v>91.227</v>
       </c>
       <c r="D540" t="s">
         <v>608</v>
@@ -11395,10 +11395,10 @@
         <v>542</v>
       </c>
       <c r="B541" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C541">
-        <v>99.708</v>
+        <v>105.662</v>
       </c>
       <c r="D541" t="s">
         <v>608</v>
@@ -11857,7 +11857,7 @@
         <v>606</v>
       </c>
       <c r="C568">
-        <v>103.022</v>
+        <v>104.23</v>
       </c>
       <c r="D568" t="s">
         <v>608</v>
@@ -11874,7 +11874,7 @@
         <v>606</v>
       </c>
       <c r="C569">
-        <v>104.245</v>
+        <v>104.956</v>
       </c>
       <c r="D569" t="s">
         <v>608</v>
@@ -11891,7 +11891,7 @@
         <v>606</v>
       </c>
       <c r="C570">
-        <v>104.509</v>
+        <v>105.681</v>
       </c>
       <c r="D570" t="s">
         <v>608</v>
@@ -11908,7 +11908,7 @@
         <v>607</v>
       </c>
       <c r="C571">
-        <v>88.23699999999999</v>
+        <v>89.33</v>
       </c>
       <c r="D571" t="s">
         <v>608</v>
@@ -11925,7 +11925,7 @@
         <v>606</v>
       </c>
       <c r="C572">
-        <v>111.046</v>
+        <v>110.254</v>
       </c>
       <c r="D572" t="s">
         <v>608</v>
@@ -11942,7 +11942,7 @@
         <v>606</v>
       </c>
       <c r="C573">
-        <v>102.001</v>
+        <v>104.802</v>
       </c>
       <c r="D573" t="s">
         <v>608</v>
@@ -11959,7 +11959,7 @@
         <v>606</v>
       </c>
       <c r="C574">
-        <v>103.548</v>
+        <v>103.473</v>
       </c>
       <c r="D574" t="s">
         <v>608</v>
@@ -11976,7 +11976,7 @@
         <v>606</v>
       </c>
       <c r="C575">
-        <v>105.342</v>
+        <v>104.836</v>
       </c>
       <c r="D575" t="s">
         <v>608</v>
@@ -11993,7 +11993,7 @@
         <v>606</v>
       </c>
       <c r="C576">
-        <v>106.345</v>
+        <v>109.317</v>
       </c>
       <c r="D576" t="s">
         <v>608</v>
@@ -12010,7 +12010,7 @@
         <v>606</v>
       </c>
       <c r="C577">
-        <v>102.84</v>
+        <v>103.662</v>
       </c>
       <c r="D577" t="s">
         <v>608</v>
@@ -12027,7 +12027,7 @@
         <v>606</v>
       </c>
       <c r="C578">
-        <v>107.2</v>
+        <v>107.571</v>
       </c>
       <c r="D578" t="s">
         <v>608</v>
@@ -12044,7 +12044,7 @@
         <v>606</v>
       </c>
       <c r="C579">
-        <v>100.197</v>
+        <v>103.059</v>
       </c>
       <c r="D579" t="s">
         <v>608</v>
@@ -12061,7 +12061,7 @@
         <v>607</v>
       </c>
       <c r="C580">
-        <v>96.023</v>
+        <v>98.367</v>
       </c>
       <c r="D580" t="s">
         <v>608</v>
@@ -12078,7 +12078,7 @@
         <v>606</v>
       </c>
       <c r="C581">
-        <v>104.398</v>
+        <v>108.912</v>
       </c>
       <c r="D581" t="s">
         <v>608</v>
@@ -12095,7 +12095,7 @@
         <v>606</v>
       </c>
       <c r="C582">
-        <v>108.353</v>
+        <v>105.207</v>
       </c>
       <c r="D582" t="s">
         <v>608</v>
@@ -12112,7 +12112,7 @@
         <v>606</v>
       </c>
       <c r="C583">
-        <v>107.438</v>
+        <v>108.645</v>
       </c>
       <c r="D583" t="s">
         <v>608</v>
@@ -12129,7 +12129,7 @@
         <v>606</v>
       </c>
       <c r="C584">
-        <v>109.463</v>
+        <v>114.46</v>
       </c>
       <c r="D584" t="s">
         <v>608</v>
@@ -12143,10 +12143,10 @@
         <v>586</v>
       </c>
       <c r="B585" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C585">
-        <v>97.07599999999999</v>
+        <v>101.704</v>
       </c>
       <c r="D585" t="s">
         <v>608</v>
@@ -12163,7 +12163,7 @@
         <v>606</v>
       </c>
       <c r="C586">
-        <v>109.681</v>
+        <v>112.401</v>
       </c>
       <c r="D586" t="s">
         <v>608</v>
@@ -12180,7 +12180,7 @@
         <v>606</v>
       </c>
       <c r="C587">
-        <v>106.376</v>
+        <v>111.896</v>
       </c>
       <c r="D587" t="s">
         <v>608</v>
@@ -12197,7 +12197,7 @@
         <v>607</v>
       </c>
       <c r="C588">
-        <v>93.312</v>
+        <v>95.117</v>
       </c>
       <c r="D588" t="s">
         <v>608</v>
@@ -12214,7 +12214,7 @@
         <v>606</v>
       </c>
       <c r="C589">
-        <v>103.709</v>
+        <v>105.944</v>
       </c>
       <c r="D589" t="s">
         <v>608</v>
@@ -12231,7 +12231,7 @@
         <v>606</v>
       </c>
       <c r="C590">
-        <v>106.975</v>
+        <v>107.777</v>
       </c>
       <c r="D590" t="s">
         <v>608</v>
@@ -12248,7 +12248,7 @@
         <v>607</v>
       </c>
       <c r="C591">
-        <v>95.824</v>
+        <v>98.383</v>
       </c>
       <c r="D591" t="s">
         <v>608</v>
@@ -12265,7 +12265,7 @@
         <v>606</v>
       </c>
       <c r="C592">
-        <v>103.306</v>
+        <v>105.725</v>
       </c>
       <c r="D592" t="s">
         <v>608</v>
@@ -12282,7 +12282,7 @@
         <v>606</v>
       </c>
       <c r="C593">
-        <v>102.798</v>
+        <v>106.327</v>
       </c>
       <c r="D593" t="s">
         <v>608</v>
@@ -12296,10 +12296,10 @@
         <v>595</v>
       </c>
       <c r="B594" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C594">
-        <v>97.913</v>
+        <v>100.903</v>
       </c>
       <c r="D594" t="s">
         <v>608</v>
@@ -12316,7 +12316,7 @@
         <v>606</v>
       </c>
       <c r="C595">
-        <v>105.779</v>
+        <v>109.841</v>
       </c>
       <c r="D595" t="s">
         <v>608</v>
@@ -12333,7 +12333,7 @@
         <v>606</v>
       </c>
       <c r="C596">
-        <v>104.684</v>
+        <v>105.951</v>
       </c>
       <c r="D596" t="s">
         <v>608</v>
@@ -12350,7 +12350,7 @@
         <v>606</v>
       </c>
       <c r="C597">
-        <v>106.154</v>
+        <v>108.405</v>
       </c>
       <c r="D597" t="s">
         <v>608</v>
@@ -12367,7 +12367,7 @@
         <v>606</v>
       </c>
       <c r="C598">
-        <v>120.068</v>
+        <v>128.898</v>
       </c>
       <c r="D598" t="s">
         <v>608</v>
@@ -12384,7 +12384,7 @@
         <v>606</v>
       </c>
       <c r="C599">
-        <v>103.39</v>
+        <v>106.633</v>
       </c>
       <c r="D599" t="s">
         <v>608</v>
@@ -12401,7 +12401,7 @@
         <v>606</v>
       </c>
       <c r="C600">
-        <v>104.851</v>
+        <v>112.103</v>
       </c>
       <c r="D600" t="s">
         <v>608</v>
@@ -12418,7 +12418,7 @@
         <v>606</v>
       </c>
       <c r="C601">
-        <v>102.546</v>
+        <v>104.306</v>
       </c>
       <c r="D601" t="s">
         <v>608</v>
@@ -12435,7 +12435,7 @@
         <v>606</v>
       </c>
       <c r="C602">
-        <v>111.885</v>
+        <v>108.435</v>
       </c>
       <c r="D602" t="s">
         <v>608</v>
@@ -12452,7 +12452,7 @@
         <v>606</v>
       </c>
       <c r="C603">
-        <v>101.719</v>
+        <v>101.036</v>
       </c>
       <c r="D603" t="s">
         <v>608</v>
@@ -12469,7 +12469,7 @@
         <v>606</v>
       </c>
       <c r="C604">
-        <v>105.359</v>
+        <v>108.563</v>
       </c>
       <c r="D604" t="s">
         <v>608</v>

--- a/generated_reports/tradfi_momentum.xlsx
+++ b/generated_reports/tradfi_momentum.xlsx
@@ -2235,7 +2235,7 @@
         <v>606</v>
       </c>
       <c r="C2">
-        <v>101.69</v>
+        <v>102.246</v>
       </c>
       <c r="D2" t="s">
         <v>608</v>
@@ -2252,7 +2252,7 @@
         <v>606</v>
       </c>
       <c r="C3">
-        <v>105.837</v>
+        <v>106.853</v>
       </c>
       <c r="D3" t="s">
         <v>608</v>
@@ -2269,7 +2269,7 @@
         <v>606</v>
       </c>
       <c r="C4">
-        <v>107.583</v>
+        <v>107.692</v>
       </c>
       <c r="D4" t="s">
         <v>608</v>
@@ -2286,7 +2286,7 @@
         <v>607</v>
       </c>
       <c r="C5">
-        <v>92.59699999999999</v>
+        <v>94.871</v>
       </c>
       <c r="D5" t="s">
         <v>608</v>
@@ -2303,7 +2303,7 @@
         <v>607</v>
       </c>
       <c r="C6">
-        <v>97.014</v>
+        <v>99.187</v>
       </c>
       <c r="D6" t="s">
         <v>608</v>
@@ -2320,7 +2320,7 @@
         <v>607</v>
       </c>
       <c r="C7">
-        <v>96.48999999999999</v>
+        <v>97.51000000000001</v>
       </c>
       <c r="D7" t="s">
         <v>608</v>
@@ -2337,7 +2337,7 @@
         <v>606</v>
       </c>
       <c r="C8">
-        <v>104.347</v>
+        <v>103.842</v>
       </c>
       <c r="D8" t="s">
         <v>608</v>
@@ -2354,7 +2354,7 @@
         <v>606</v>
       </c>
       <c r="C9">
-        <v>113.521</v>
+        <v>111.554</v>
       </c>
       <c r="D9" t="s">
         <v>608</v>
@@ -2371,7 +2371,7 @@
         <v>606</v>
       </c>
       <c r="C10">
-        <v>112.66</v>
+        <v>115.644</v>
       </c>
       <c r="D10" t="s">
         <v>608</v>
@@ -2388,7 +2388,7 @@
         <v>606</v>
       </c>
       <c r="C11">
-        <v>106.123</v>
+        <v>107.299</v>
       </c>
       <c r="D11" t="s">
         <v>608</v>
@@ -2405,7 +2405,7 @@
         <v>606</v>
       </c>
       <c r="C12">
-        <v>102.424</v>
+        <v>102.337</v>
       </c>
       <c r="D12" t="s">
         <v>608</v>
@@ -2419,10 +2419,10 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C13">
-        <v>98.56100000000001</v>
+        <v>101.366</v>
       </c>
       <c r="D13" t="s">
         <v>608</v>
@@ -2439,7 +2439,7 @@
         <v>606</v>
       </c>
       <c r="C14">
-        <v>118.65</v>
+        <v>122.166</v>
       </c>
       <c r="D14" t="s">
         <v>608</v>
@@ -2456,7 +2456,7 @@
         <v>607</v>
       </c>
       <c r="C15">
-        <v>97.32299999999999</v>
+        <v>98.864</v>
       </c>
       <c r="D15" t="s">
         <v>608</v>
@@ -2473,7 +2473,7 @@
         <v>606</v>
       </c>
       <c r="C16">
-        <v>103.003</v>
+        <v>104.902</v>
       </c>
       <c r="D16" t="s">
         <v>608</v>
@@ -2490,7 +2490,7 @@
         <v>606</v>
       </c>
       <c r="C17">
-        <v>102.131</v>
+        <v>105.937</v>
       </c>
       <c r="D17" t="s">
         <v>608</v>
@@ -2507,7 +2507,7 @@
         <v>606</v>
       </c>
       <c r="C18">
-        <v>108.638</v>
+        <v>110.082</v>
       </c>
       <c r="D18" t="s">
         <v>608</v>
@@ -2524,7 +2524,7 @@
         <v>606</v>
       </c>
       <c r="C19">
-        <v>105.326</v>
+        <v>106.775</v>
       </c>
       <c r="D19" t="s">
         <v>608</v>
@@ -2541,7 +2541,7 @@
         <v>606</v>
       </c>
       <c r="C20">
-        <v>106.42</v>
+        <v>104.494</v>
       </c>
       <c r="D20" t="s">
         <v>608</v>
@@ -2558,7 +2558,7 @@
         <v>606</v>
       </c>
       <c r="C21">
-        <v>102.418</v>
+        <v>101.622</v>
       </c>
       <c r="D21" t="s">
         <v>608</v>
@@ -2575,7 +2575,7 @@
         <v>606</v>
       </c>
       <c r="C22">
-        <v>103.693</v>
+        <v>105.318</v>
       </c>
       <c r="D22" t="s">
         <v>608</v>
@@ -2592,7 +2592,7 @@
         <v>606</v>
       </c>
       <c r="C23">
-        <v>100.332</v>
+        <v>100.596</v>
       </c>
       <c r="D23" t="s">
         <v>608</v>
@@ -2609,7 +2609,7 @@
         <v>607</v>
       </c>
       <c r="C24">
-        <v>94.67400000000001</v>
+        <v>99.34999999999999</v>
       </c>
       <c r="D24" t="s">
         <v>608</v>
@@ -2626,7 +2626,7 @@
         <v>606</v>
       </c>
       <c r="C25">
-        <v>106.503</v>
+        <v>109.528</v>
       </c>
       <c r="D25" t="s">
         <v>608</v>
@@ -2643,7 +2643,7 @@
         <v>606</v>
       </c>
       <c r="C26">
-        <v>109.13</v>
+        <v>107.617</v>
       </c>
       <c r="D26" t="s">
         <v>608</v>
@@ -2660,7 +2660,7 @@
         <v>606</v>
       </c>
       <c r="C27">
-        <v>109.057</v>
+        <v>110.036</v>
       </c>
       <c r="D27" t="s">
         <v>608</v>
@@ -2677,7 +2677,7 @@
         <v>606</v>
       </c>
       <c r="C28">
-        <v>100.924</v>
+        <v>101.114</v>
       </c>
       <c r="D28" t="s">
         <v>608</v>
@@ -2694,7 +2694,7 @@
         <v>606</v>
       </c>
       <c r="C29">
-        <v>105.468</v>
+        <v>106.979</v>
       </c>
       <c r="D29" t="s">
         <v>608</v>
@@ -2711,7 +2711,7 @@
         <v>606</v>
       </c>
       <c r="C30">
-        <v>105.741</v>
+        <v>106.467</v>
       </c>
       <c r="D30" t="s">
         <v>608</v>
@@ -2728,7 +2728,7 @@
         <v>607</v>
       </c>
       <c r="C31">
-        <v>98.184</v>
+        <v>98.84999999999999</v>
       </c>
       <c r="D31" t="s">
         <v>608</v>
@@ -2745,7 +2745,7 @@
         <v>606</v>
       </c>
       <c r="C32">
-        <v>107.839</v>
+        <v>105.407</v>
       </c>
       <c r="D32" t="s">
         <v>608</v>
@@ -2762,7 +2762,7 @@
         <v>606</v>
       </c>
       <c r="C33">
-        <v>103.537</v>
+        <v>101.949</v>
       </c>
       <c r="D33" t="s">
         <v>608</v>
@@ -2779,7 +2779,7 @@
         <v>607</v>
       </c>
       <c r="C34">
-        <v>88.983</v>
+        <v>89.462</v>
       </c>
       <c r="D34" t="s">
         <v>608</v>
@@ -2796,7 +2796,7 @@
         <v>606</v>
       </c>
       <c r="C35">
-        <v>101.42</v>
+        <v>101.547</v>
       </c>
       <c r="D35" t="s">
         <v>608</v>
@@ -2813,7 +2813,7 @@
         <v>606</v>
       </c>
       <c r="C36">
-        <v>108.902</v>
+        <v>111.54</v>
       </c>
       <c r="D36" t="s">
         <v>608</v>
@@ -2830,7 +2830,7 @@
         <v>606</v>
       </c>
       <c r="C37">
-        <v>101.092</v>
+        <v>101.251</v>
       </c>
       <c r="D37" t="s">
         <v>608</v>
@@ -2847,7 +2847,7 @@
         <v>607</v>
       </c>
       <c r="C38">
-        <v>94.599</v>
+        <v>95.697</v>
       </c>
       <c r="D38" t="s">
         <v>608</v>
@@ -2864,7 +2864,7 @@
         <v>606</v>
       </c>
       <c r="C39">
-        <v>107.665</v>
+        <v>110.383</v>
       </c>
       <c r="D39" t="s">
         <v>608</v>
@@ -2881,7 +2881,7 @@
         <v>607</v>
       </c>
       <c r="C40">
-        <v>93.934</v>
+        <v>94.61499999999999</v>
       </c>
       <c r="D40" t="s">
         <v>608</v>
@@ -2898,7 +2898,7 @@
         <v>606</v>
       </c>
       <c r="C41">
-        <v>107.053</v>
+        <v>108.844</v>
       </c>
       <c r="D41" t="s">
         <v>608</v>
@@ -2915,7 +2915,7 @@
         <v>606</v>
       </c>
       <c r="C42">
-        <v>110.037</v>
+        <v>109.42</v>
       </c>
       <c r="D42" t="s">
         <v>608</v>
@@ -2932,7 +2932,7 @@
         <v>606</v>
       </c>
       <c r="C43">
-        <v>104.157</v>
+        <v>108.601</v>
       </c>
       <c r="D43" t="s">
         <v>608</v>
@@ -2949,7 +2949,7 @@
         <v>606</v>
       </c>
       <c r="C44">
-        <v>109.172</v>
+        <v>110.576</v>
       </c>
       <c r="D44" t="s">
         <v>608</v>
@@ -2966,7 +2966,7 @@
         <v>606</v>
       </c>
       <c r="C45">
-        <v>104.435</v>
+        <v>108.255</v>
       </c>
       <c r="D45" t="s">
         <v>608</v>
@@ -2980,10 +2980,10 @@
         <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C46">
-        <v>92.029</v>
+        <v>100.397</v>
       </c>
       <c r="D46" t="s">
         <v>608</v>
@@ -3000,7 +3000,7 @@
         <v>606</v>
       </c>
       <c r="C47">
-        <v>100.659</v>
+        <v>103.82</v>
       </c>
       <c r="D47" t="s">
         <v>608</v>
@@ -3017,7 +3017,7 @@
         <v>606</v>
       </c>
       <c r="C48">
-        <v>102.636</v>
+        <v>103.888</v>
       </c>
       <c r="D48" t="s">
         <v>608</v>
@@ -3034,7 +3034,7 @@
         <v>606</v>
       </c>
       <c r="C49">
-        <v>104.813</v>
+        <v>103.862</v>
       </c>
       <c r="D49" t="s">
         <v>608</v>
@@ -3051,7 +3051,7 @@
         <v>606</v>
       </c>
       <c r="C50">
-        <v>103.399</v>
+        <v>103.976</v>
       </c>
       <c r="D50" t="s">
         <v>608</v>
@@ -3068,7 +3068,7 @@
         <v>606</v>
       </c>
       <c r="C51">
-        <v>106.524</v>
+        <v>107.689</v>
       </c>
       <c r="D51" t="s">
         <v>608</v>
@@ -3085,7 +3085,7 @@
         <v>606</v>
       </c>
       <c r="C52">
-        <v>120.471</v>
+        <v>119.349</v>
       </c>
       <c r="D52" t="s">
         <v>608</v>
@@ -3102,7 +3102,7 @@
         <v>607</v>
       </c>
       <c r="C53">
-        <v>91.012</v>
+        <v>92.389</v>
       </c>
       <c r="D53" t="s">
         <v>608</v>
@@ -3119,7 +3119,7 @@
         <v>606</v>
       </c>
       <c r="C54">
-        <v>100.926</v>
+        <v>102.212</v>
       </c>
       <c r="D54" t="s">
         <v>608</v>
@@ -3136,7 +3136,7 @@
         <v>606</v>
       </c>
       <c r="C55">
-        <v>101.263</v>
+        <v>103.752</v>
       </c>
       <c r="D55" t="s">
         <v>608</v>
@@ -3153,7 +3153,7 @@
         <v>606</v>
       </c>
       <c r="C56">
-        <v>114.834</v>
+        <v>113.206</v>
       </c>
       <c r="D56" t="s">
         <v>608</v>
@@ -3170,7 +3170,7 @@
         <v>606</v>
       </c>
       <c r="C57">
-        <v>115.176</v>
+        <v>120.032</v>
       </c>
       <c r="D57" t="s">
         <v>608</v>
@@ -3184,10 +3184,10 @@
         <v>61</v>
       </c>
       <c r="B58" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C58">
-        <v>99.26900000000001</v>
+        <v>101.355</v>
       </c>
       <c r="D58" t="s">
         <v>608</v>
@@ -3204,7 +3204,7 @@
         <v>606</v>
       </c>
       <c r="C59">
-        <v>110.569</v>
+        <v>112.951</v>
       </c>
       <c r="D59" t="s">
         <v>608</v>
@@ -3221,7 +3221,7 @@
         <v>606</v>
       </c>
       <c r="C60">
-        <v>102.797</v>
+        <v>104.117</v>
       </c>
       <c r="D60" t="s">
         <v>608</v>
@@ -3238,7 +3238,7 @@
         <v>606</v>
       </c>
       <c r="C61">
-        <v>109.39</v>
+        <v>106.886</v>
       </c>
       <c r="D61" t="s">
         <v>608</v>
@@ -3255,7 +3255,7 @@
         <v>606</v>
       </c>
       <c r="C62">
-        <v>104.454</v>
+        <v>105.797</v>
       </c>
       <c r="D62" t="s">
         <v>608</v>
@@ -3272,7 +3272,7 @@
         <v>606</v>
       </c>
       <c r="C63">
-        <v>105.926</v>
+        <v>106.628</v>
       </c>
       <c r="D63" t="s">
         <v>608</v>
@@ -3289,7 +3289,7 @@
         <v>606</v>
       </c>
       <c r="C64">
-        <v>106.787</v>
+        <v>107.758</v>
       </c>
       <c r="D64" t="s">
         <v>608</v>
@@ -3306,7 +3306,7 @@
         <v>606</v>
       </c>
       <c r="C65">
-        <v>101.447</v>
+        <v>101.485</v>
       </c>
       <c r="D65" t="s">
         <v>608</v>
@@ -3323,7 +3323,7 @@
         <v>607</v>
       </c>
       <c r="C66">
-        <v>78.449</v>
+        <v>70.276</v>
       </c>
       <c r="D66" t="s">
         <v>608</v>
@@ -3340,7 +3340,7 @@
         <v>606</v>
       </c>
       <c r="C67">
-        <v>101.885</v>
+        <v>101.913</v>
       </c>
       <c r="D67" t="s">
         <v>608</v>
@@ -3357,7 +3357,7 @@
         <v>606</v>
       </c>
       <c r="C68">
-        <v>103.755</v>
+        <v>108.122</v>
       </c>
       <c r="D68" t="s">
         <v>608</v>
@@ -3371,10 +3371,10 @@
         <v>72</v>
       </c>
       <c r="B69" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C69">
-        <v>101.319</v>
+        <v>99.517</v>
       </c>
       <c r="D69" t="s">
         <v>608</v>
@@ -3391,7 +3391,7 @@
         <v>606</v>
       </c>
       <c r="C70">
-        <v>102.39</v>
+        <v>102.844</v>
       </c>
       <c r="D70" t="s">
         <v>608</v>
@@ -3408,7 +3408,7 @@
         <v>606</v>
       </c>
       <c r="C71">
-        <v>111.941</v>
+        <v>112.049</v>
       </c>
       <c r="D71" t="s">
         <v>608</v>
@@ -3425,7 +3425,7 @@
         <v>606</v>
       </c>
       <c r="C72">
-        <v>107.306</v>
+        <v>106.95</v>
       </c>
       <c r="D72" t="s">
         <v>608</v>
@@ -3442,7 +3442,7 @@
         <v>606</v>
       </c>
       <c r="C73">
-        <v>110.5</v>
+        <v>116.989</v>
       </c>
       <c r="D73" t="s">
         <v>608</v>
@@ -3459,7 +3459,7 @@
         <v>606</v>
       </c>
       <c r="C74">
-        <v>101.145</v>
+        <v>102.573</v>
       </c>
       <c r="D74" t="s">
         <v>608</v>
@@ -3476,7 +3476,7 @@
         <v>606</v>
       </c>
       <c r="C75">
-        <v>111.592</v>
+        <v>112.342</v>
       </c>
       <c r="D75" t="s">
         <v>608</v>
@@ -3493,7 +3493,7 @@
         <v>607</v>
       </c>
       <c r="C76">
-        <v>98.13500000000001</v>
+        <v>98.956</v>
       </c>
       <c r="D76" t="s">
         <v>608</v>
@@ -3510,7 +3510,7 @@
         <v>606</v>
       </c>
       <c r="C77">
-        <v>123.611</v>
+        <v>124.155</v>
       </c>
       <c r="D77" t="s">
         <v>608</v>
@@ -3527,7 +3527,7 @@
         <v>606</v>
       </c>
       <c r="C78">
-        <v>113.238</v>
+        <v>115.32</v>
       </c>
       <c r="D78" t="s">
         <v>608</v>
@@ -3544,7 +3544,7 @@
         <v>606</v>
       </c>
       <c r="C79">
-        <v>106.915</v>
+        <v>108.527</v>
       </c>
       <c r="D79" t="s">
         <v>608</v>
@@ -3561,7 +3561,7 @@
         <v>606</v>
       </c>
       <c r="C80">
-        <v>108.32</v>
+        <v>105.222</v>
       </c>
       <c r="D80" t="s">
         <v>608</v>
@@ -3578,7 +3578,7 @@
         <v>606</v>
       </c>
       <c r="C81">
-        <v>113.244</v>
+        <v>116.489</v>
       </c>
       <c r="D81" t="s">
         <v>608</v>
@@ -3595,7 +3595,7 @@
         <v>607</v>
       </c>
       <c r="C82">
-        <v>92.357</v>
+        <v>91.068</v>
       </c>
       <c r="D82" t="s">
         <v>608</v>
@@ -3612,7 +3612,7 @@
         <v>607</v>
       </c>
       <c r="C83">
-        <v>91.265</v>
+        <v>89.64100000000001</v>
       </c>
       <c r="D83" t="s">
         <v>608</v>
@@ -3629,7 +3629,7 @@
         <v>606</v>
       </c>
       <c r="C84">
-        <v>122.409</v>
+        <v>115.943</v>
       </c>
       <c r="D84" t="s">
         <v>608</v>
@@ -3646,7 +3646,7 @@
         <v>606</v>
       </c>
       <c r="C85">
-        <v>110.56</v>
+        <v>110.889</v>
       </c>
       <c r="D85" t="s">
         <v>608</v>
@@ -3663,7 +3663,7 @@
         <v>606</v>
       </c>
       <c r="C86">
-        <v>100.607</v>
+        <v>103.279</v>
       </c>
       <c r="D86" t="s">
         <v>608</v>
@@ -3680,7 +3680,7 @@
         <v>606</v>
       </c>
       <c r="C87">
-        <v>126.951</v>
+        <v>121.855</v>
       </c>
       <c r="D87" t="s">
         <v>608</v>
@@ -3697,7 +3697,7 @@
         <v>606</v>
       </c>
       <c r="C88">
-        <v>104.811</v>
+        <v>104.329</v>
       </c>
       <c r="D88" t="s">
         <v>608</v>
@@ -3711,10 +3711,10 @@
         <v>92</v>
       </c>
       <c r="B89" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C89">
-        <v>99.09399999999999</v>
+        <v>106.419</v>
       </c>
       <c r="D89" t="s">
         <v>608</v>
@@ -3731,7 +3731,7 @@
         <v>606</v>
       </c>
       <c r="C90">
-        <v>109.845</v>
+        <v>112.688</v>
       </c>
       <c r="D90" t="s">
         <v>608</v>
@@ -3748,7 +3748,7 @@
         <v>607</v>
       </c>
       <c r="C91">
-        <v>90.20699999999999</v>
+        <v>90.09399999999999</v>
       </c>
       <c r="D91" t="s">
         <v>608</v>
@@ -3765,7 +3765,7 @@
         <v>606</v>
       </c>
       <c r="C92">
-        <v>114.367</v>
+        <v>119.08</v>
       </c>
       <c r="D92" t="s">
         <v>608</v>
@@ -3782,7 +3782,7 @@
         <v>606</v>
       </c>
       <c r="C93">
-        <v>109.892</v>
+        <v>110.545</v>
       </c>
       <c r="D93" t="s">
         <v>608</v>
@@ -3799,7 +3799,7 @@
         <v>606</v>
       </c>
       <c r="C94">
-        <v>128.61</v>
+        <v>129.752</v>
       </c>
       <c r="D94" t="s">
         <v>608</v>
@@ -3813,10 +3813,10 @@
         <v>98</v>
       </c>
       <c r="B95" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C95">
-        <v>101.325</v>
+        <v>95.15300000000001</v>
       </c>
       <c r="D95" t="s">
         <v>608</v>
@@ -3833,7 +3833,7 @@
         <v>606</v>
       </c>
       <c r="C96">
-        <v>110.563</v>
+        <v>111.373</v>
       </c>
       <c r="D96" t="s">
         <v>608</v>
@@ -3850,7 +3850,7 @@
         <v>606</v>
       </c>
       <c r="C97">
-        <v>100.966</v>
+        <v>103.123</v>
       </c>
       <c r="D97" t="s">
         <v>608</v>
@@ -3867,7 +3867,7 @@
         <v>606</v>
       </c>
       <c r="C98">
-        <v>100.88</v>
+        <v>100.492</v>
       </c>
       <c r="D98" t="s">
         <v>608</v>
@@ -3884,7 +3884,7 @@
         <v>606</v>
       </c>
       <c r="C99">
-        <v>129.207</v>
+        <v>130.716</v>
       </c>
       <c r="D99" t="s">
         <v>608</v>
@@ -3901,7 +3901,7 @@
         <v>606</v>
       </c>
       <c r="C100">
-        <v>111.98</v>
+        <v>114.341</v>
       </c>
       <c r="D100" t="s">
         <v>608</v>
@@ -3918,7 +3918,7 @@
         <v>606</v>
       </c>
       <c r="C101">
-        <v>102.062</v>
+        <v>103.586</v>
       </c>
       <c r="D101" t="s">
         <v>608</v>
@@ -3935,7 +3935,7 @@
         <v>606</v>
       </c>
       <c r="C102">
-        <v>107.369</v>
+        <v>106.83</v>
       </c>
       <c r="D102" t="s">
         <v>608</v>
@@ -3952,7 +3952,7 @@
         <v>606</v>
       </c>
       <c r="C103">
-        <v>109.555</v>
+        <v>107.985</v>
       </c>
       <c r="D103" t="s">
         <v>608</v>
@@ -3969,7 +3969,7 @@
         <v>606</v>
       </c>
       <c r="C104">
-        <v>105.529</v>
+        <v>108.625</v>
       </c>
       <c r="D104" t="s">
         <v>608</v>
@@ -3986,7 +3986,7 @@
         <v>606</v>
       </c>
       <c r="C105">
-        <v>110.568</v>
+        <v>110.569</v>
       </c>
       <c r="D105" t="s">
         <v>608</v>
@@ -4003,7 +4003,7 @@
         <v>606</v>
       </c>
       <c r="C106">
-        <v>106.952</v>
+        <v>106.331</v>
       </c>
       <c r="D106" t="s">
         <v>608</v>
@@ -4020,7 +4020,7 @@
         <v>606</v>
       </c>
       <c r="C107">
-        <v>100.78</v>
+        <v>101.397</v>
       </c>
       <c r="D107" t="s">
         <v>608</v>
@@ -4037,7 +4037,7 @@
         <v>606</v>
       </c>
       <c r="C108">
-        <v>110.558</v>
+        <v>112.917</v>
       </c>
       <c r="D108" t="s">
         <v>608</v>
@@ -4054,7 +4054,7 @@
         <v>606</v>
       </c>
       <c r="C109">
-        <v>101.563</v>
+        <v>101.171</v>
       </c>
       <c r="D109" t="s">
         <v>608</v>
@@ -4071,7 +4071,7 @@
         <v>606</v>
       </c>
       <c r="C110">
-        <v>100.817</v>
+        <v>103.613</v>
       </c>
       <c r="D110" t="s">
         <v>608</v>
@@ -4088,7 +4088,7 @@
         <v>606</v>
       </c>
       <c r="C111">
-        <v>107.703</v>
+        <v>107.75</v>
       </c>
       <c r="D111" t="s">
         <v>608</v>
@@ -4105,7 +4105,7 @@
         <v>607</v>
       </c>
       <c r="C112">
-        <v>96.449</v>
+        <v>97.476</v>
       </c>
       <c r="D112" t="s">
         <v>608</v>
@@ -4122,7 +4122,7 @@
         <v>606</v>
       </c>
       <c r="C113">
-        <v>100.692</v>
+        <v>101.321</v>
       </c>
       <c r="D113" t="s">
         <v>608</v>
@@ -4139,7 +4139,7 @@
         <v>606</v>
       </c>
       <c r="C114">
-        <v>104.928</v>
+        <v>106.217</v>
       </c>
       <c r="D114" t="s">
         <v>608</v>
@@ -4156,7 +4156,7 @@
         <v>606</v>
       </c>
       <c r="C115">
-        <v>117.542</v>
+        <v>125.044</v>
       </c>
       <c r="D115" t="s">
         <v>608</v>
@@ -4173,7 +4173,7 @@
         <v>606</v>
       </c>
       <c r="C116">
-        <v>112.259</v>
+        <v>114.739</v>
       </c>
       <c r="D116" t="s">
         <v>608</v>
@@ -4190,7 +4190,7 @@
         <v>606</v>
       </c>
       <c r="C117">
-        <v>100.149</v>
+        <v>101.186</v>
       </c>
       <c r="D117" t="s">
         <v>608</v>
@@ -4207,7 +4207,7 @@
         <v>607</v>
       </c>
       <c r="C118">
-        <v>97.218</v>
+        <v>99.77</v>
       </c>
       <c r="D118" t="s">
         <v>608</v>
@@ -4224,7 +4224,7 @@
         <v>606</v>
       </c>
       <c r="C119">
-        <v>105.071</v>
+        <v>106.175</v>
       </c>
       <c r="D119" t="s">
         <v>608</v>
@@ -4241,7 +4241,7 @@
         <v>606</v>
       </c>
       <c r="C120">
-        <v>111.551</v>
+        <v>110.52</v>
       </c>
       <c r="D120" t="s">
         <v>608</v>
@@ -4258,7 +4258,7 @@
         <v>606</v>
       </c>
       <c r="C121">
-        <v>103.652</v>
+        <v>105.287</v>
       </c>
       <c r="D121" t="s">
         <v>608</v>
@@ -4275,7 +4275,7 @@
         <v>606</v>
       </c>
       <c r="C122">
-        <v>115.486</v>
+        <v>116.263</v>
       </c>
       <c r="D122" t="s">
         <v>608</v>
@@ -4292,7 +4292,7 @@
         <v>606</v>
       </c>
       <c r="C123">
-        <v>114.869</v>
+        <v>125.306</v>
       </c>
       <c r="D123" t="s">
         <v>608</v>
@@ -4309,7 +4309,7 @@
         <v>606</v>
       </c>
       <c r="C124">
-        <v>111.399</v>
+        <v>110.361</v>
       </c>
       <c r="D124" t="s">
         <v>608</v>
@@ -4326,7 +4326,7 @@
         <v>606</v>
       </c>
       <c r="C125">
-        <v>109.079</v>
+        <v>110.345</v>
       </c>
       <c r="D125" t="s">
         <v>608</v>
@@ -4343,7 +4343,7 @@
         <v>606</v>
       </c>
       <c r="C126">
-        <v>106.689</v>
+        <v>109.373</v>
       </c>
       <c r="D126" t="s">
         <v>608</v>
@@ -4360,7 +4360,7 @@
         <v>606</v>
       </c>
       <c r="C127">
-        <v>107.966</v>
+        <v>108.108</v>
       </c>
       <c r="D127" t="s">
         <v>608</v>
@@ -4377,7 +4377,7 @@
         <v>606</v>
       </c>
       <c r="C128">
-        <v>110.427</v>
+        <v>111.113</v>
       </c>
       <c r="D128" t="s">
         <v>608</v>
@@ -4394,7 +4394,7 @@
         <v>606</v>
       </c>
       <c r="C129">
-        <v>104.034</v>
+        <v>107.094</v>
       </c>
       <c r="D129" t="s">
         <v>608</v>
@@ -4411,7 +4411,7 @@
         <v>606</v>
       </c>
       <c r="C130">
-        <v>104.077</v>
+        <v>106.511</v>
       </c>
       <c r="D130" t="s">
         <v>608</v>
@@ -4428,7 +4428,7 @@
         <v>606</v>
       </c>
       <c r="C131">
-        <v>104.815</v>
+        <v>105.613</v>
       </c>
       <c r="D131" t="s">
         <v>608</v>
@@ -4445,7 +4445,7 @@
         <v>606</v>
       </c>
       <c r="C132">
-        <v>111.429</v>
+        <v>114.104</v>
       </c>
       <c r="D132" t="s">
         <v>608</v>
@@ -4462,7 +4462,7 @@
         <v>606</v>
       </c>
       <c r="C133">
-        <v>110.401</v>
+        <v>111.551</v>
       </c>
       <c r="D133" t="s">
         <v>608</v>
@@ -4479,7 +4479,7 @@
         <v>606</v>
       </c>
       <c r="C134">
-        <v>109.101</v>
+        <v>110.436</v>
       </c>
       <c r="D134" t="s">
         <v>608</v>
@@ -4496,7 +4496,7 @@
         <v>606</v>
       </c>
       <c r="C135">
-        <v>106.163</v>
+        <v>108.398</v>
       </c>
       <c r="D135" t="s">
         <v>608</v>
@@ -4513,7 +4513,7 @@
         <v>606</v>
       </c>
       <c r="C136">
-        <v>102.37</v>
+        <v>103.179</v>
       </c>
       <c r="D136" t="s">
         <v>608</v>
@@ -4530,7 +4530,7 @@
         <v>606</v>
       </c>
       <c r="C137">
-        <v>113.309</v>
+        <v>118.545</v>
       </c>
       <c r="D137" t="s">
         <v>608</v>
@@ -4547,7 +4547,7 @@
         <v>606</v>
       </c>
       <c r="C138">
-        <v>102.027</v>
+        <v>102.843</v>
       </c>
       <c r="D138" t="s">
         <v>608</v>
@@ -4564,7 +4564,7 @@
         <v>606</v>
       </c>
       <c r="C139">
-        <v>107.968</v>
+        <v>107.901</v>
       </c>
       <c r="D139" t="s">
         <v>608</v>
@@ -4581,7 +4581,7 @@
         <v>606</v>
       </c>
       <c r="C140">
-        <v>109.497</v>
+        <v>109.225</v>
       </c>
       <c r="D140" t="s">
         <v>608</v>
@@ -4598,7 +4598,7 @@
         <v>606</v>
       </c>
       <c r="C141">
-        <v>109.085</v>
+        <v>108.22</v>
       </c>
       <c r="D141" t="s">
         <v>608</v>
@@ -4615,7 +4615,7 @@
         <v>606</v>
       </c>
       <c r="C142">
-        <v>109.877</v>
+        <v>110.864</v>
       </c>
       <c r="D142" t="s">
         <v>608</v>
@@ -4632,7 +4632,7 @@
         <v>606</v>
       </c>
       <c r="C143">
-        <v>113.933</v>
+        <v>117.761</v>
       </c>
       <c r="D143" t="s">
         <v>608</v>
@@ -4649,7 +4649,7 @@
         <v>606</v>
       </c>
       <c r="C144">
-        <v>108.008</v>
+        <v>109.546</v>
       </c>
       <c r="D144" t="s">
         <v>608</v>
@@ -4666,7 +4666,7 @@
         <v>606</v>
       </c>
       <c r="C145">
-        <v>101.121</v>
+        <v>100.972</v>
       </c>
       <c r="D145" t="s">
         <v>608</v>
@@ -4683,7 +4683,7 @@
         <v>606</v>
       </c>
       <c r="C146">
-        <v>105.521</v>
+        <v>104.297</v>
       </c>
       <c r="D146" t="s">
         <v>608</v>
@@ -4700,7 +4700,7 @@
         <v>606</v>
       </c>
       <c r="C147">
-        <v>108.177</v>
+        <v>115.035</v>
       </c>
       <c r="D147" t="s">
         <v>608</v>
@@ -4714,10 +4714,10 @@
         <v>151</v>
       </c>
       <c r="B148" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C148">
-        <v>99.86799999999999</v>
+        <v>100.105</v>
       </c>
       <c r="D148" t="s">
         <v>608</v>
@@ -4734,7 +4734,7 @@
         <v>606</v>
       </c>
       <c r="C149">
-        <v>109.447</v>
+        <v>112.07</v>
       </c>
       <c r="D149" t="s">
         <v>608</v>
@@ -4751,7 +4751,7 @@
         <v>606</v>
       </c>
       <c r="C150">
-        <v>116.291</v>
+        <v>117.816</v>
       </c>
       <c r="D150" t="s">
         <v>608</v>
@@ -4768,7 +4768,7 @@
         <v>606</v>
       </c>
       <c r="C151">
-        <v>113.306</v>
+        <v>110.661</v>
       </c>
       <c r="D151" t="s">
         <v>608</v>
@@ -4785,7 +4785,7 @@
         <v>606</v>
       </c>
       <c r="C152">
-        <v>138.58</v>
+        <v>154.922</v>
       </c>
       <c r="D152" t="s">
         <v>608</v>
@@ -4799,10 +4799,10 @@
         <v>156</v>
       </c>
       <c r="B153" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C153">
-        <v>98.63500000000001</v>
+        <v>100.129</v>
       </c>
       <c r="D153" t="s">
         <v>608</v>
@@ -4819,7 +4819,7 @@
         <v>606</v>
       </c>
       <c r="C154">
-        <v>100.358</v>
+        <v>103.044</v>
       </c>
       <c r="D154" t="s">
         <v>608</v>
@@ -4836,7 +4836,7 @@
         <v>606</v>
       </c>
       <c r="C155">
-        <v>108.211</v>
+        <v>112.251</v>
       </c>
       <c r="D155" t="s">
         <v>608</v>
@@ -4853,7 +4853,7 @@
         <v>607</v>
       </c>
       <c r="C156">
-        <v>98.01900000000001</v>
+        <v>99.83499999999999</v>
       </c>
       <c r="D156" t="s">
         <v>608</v>
@@ -4870,7 +4870,7 @@
         <v>606</v>
       </c>
       <c r="C157">
-        <v>103.407</v>
+        <v>111.703</v>
       </c>
       <c r="D157" t="s">
         <v>608</v>
@@ -4887,7 +4887,7 @@
         <v>606</v>
       </c>
       <c r="C158">
-        <v>101.614</v>
+        <v>100.189</v>
       </c>
       <c r="D158" t="s">
         <v>608</v>
@@ -4904,7 +4904,7 @@
         <v>606</v>
       </c>
       <c r="C159">
-        <v>116.093</v>
+        <v>115.525</v>
       </c>
       <c r="D159" t="s">
         <v>608</v>
@@ -4921,7 +4921,7 @@
         <v>606</v>
       </c>
       <c r="C160">
-        <v>104.598</v>
+        <v>103.039</v>
       </c>
       <c r="D160" t="s">
         <v>608</v>
@@ -4938,7 +4938,7 @@
         <v>606</v>
       </c>
       <c r="C161">
-        <v>105.399</v>
+        <v>103.06</v>
       </c>
       <c r="D161" t="s">
         <v>608</v>
@@ -4955,7 +4955,7 @@
         <v>606</v>
       </c>
       <c r="C162">
-        <v>109.633</v>
+        <v>108.228</v>
       </c>
       <c r="D162" t="s">
         <v>608</v>
@@ -4972,7 +4972,7 @@
         <v>606</v>
       </c>
       <c r="C163">
-        <v>101.352</v>
+        <v>102.506</v>
       </c>
       <c r="D163" t="s">
         <v>608</v>
@@ -4989,7 +4989,7 @@
         <v>606</v>
       </c>
       <c r="C164">
-        <v>106.765</v>
+        <v>106.233</v>
       </c>
       <c r="D164" t="s">
         <v>608</v>
@@ -5006,7 +5006,7 @@
         <v>606</v>
       </c>
       <c r="C165">
-        <v>110.51</v>
+        <v>117.342</v>
       </c>
       <c r="D165" t="s">
         <v>608</v>
@@ -5023,7 +5023,7 @@
         <v>606</v>
       </c>
       <c r="C166">
-        <v>119.576</v>
+        <v>122.163</v>
       </c>
       <c r="D166" t="s">
         <v>608</v>
@@ -5040,7 +5040,7 @@
         <v>606</v>
       </c>
       <c r="C167">
-        <v>102.28</v>
+        <v>104</v>
       </c>
       <c r="D167" t="s">
         <v>608</v>
@@ -5057,7 +5057,7 @@
         <v>606</v>
       </c>
       <c r="C168">
-        <v>107.655</v>
+        <v>109.12</v>
       </c>
       <c r="D168" t="s">
         <v>608</v>
@@ -5074,7 +5074,7 @@
         <v>606</v>
       </c>
       <c r="C169">
-        <v>100.887</v>
+        <v>101.429</v>
       </c>
       <c r="D169" t="s">
         <v>608</v>
@@ -5091,7 +5091,7 @@
         <v>606</v>
       </c>
       <c r="C170">
-        <v>107.888</v>
+        <v>106.854</v>
       </c>
       <c r="D170" t="s">
         <v>608</v>
@@ -5108,7 +5108,7 @@
         <v>606</v>
       </c>
       <c r="C171">
-        <v>108.014</v>
+        <v>109.539</v>
       </c>
       <c r="D171" t="s">
         <v>608</v>
@@ -5125,7 +5125,7 @@
         <v>606</v>
       </c>
       <c r="C172">
-        <v>113.964</v>
+        <v>111.795</v>
       </c>
       <c r="D172" t="s">
         <v>608</v>
@@ -5142,7 +5142,7 @@
         <v>606</v>
       </c>
       <c r="C173">
-        <v>103.141</v>
+        <v>103.175</v>
       </c>
       <c r="D173" t="s">
         <v>608</v>
@@ -5159,7 +5159,7 @@
         <v>606</v>
       </c>
       <c r="C174">
-        <v>103.174</v>
+        <v>101.018</v>
       </c>
       <c r="D174" t="s">
         <v>608</v>
@@ -5176,7 +5176,7 @@
         <v>606</v>
       </c>
       <c r="C175">
-        <v>104.066</v>
+        <v>107.229</v>
       </c>
       <c r="D175" t="s">
         <v>608</v>
@@ -5193,7 +5193,7 @@
         <v>606</v>
       </c>
       <c r="C176">
-        <v>119.892</v>
+        <v>134.346</v>
       </c>
       <c r="D176" t="s">
         <v>608</v>
@@ -5210,7 +5210,7 @@
         <v>606</v>
       </c>
       <c r="C177">
-        <v>107.485</v>
+        <v>109.752</v>
       </c>
       <c r="D177" t="s">
         <v>608</v>
@@ -5227,7 +5227,7 @@
         <v>606</v>
       </c>
       <c r="C178">
-        <v>102.14</v>
+        <v>103.063</v>
       </c>
       <c r="D178" t="s">
         <v>608</v>
@@ -5244,7 +5244,7 @@
         <v>606</v>
       </c>
       <c r="C179">
-        <v>109.479</v>
+        <v>109.41</v>
       </c>
       <c r="D179" t="s">
         <v>608</v>
@@ -5261,7 +5261,7 @@
         <v>606</v>
       </c>
       <c r="C180">
-        <v>103.953</v>
+        <v>104.033</v>
       </c>
       <c r="D180" t="s">
         <v>608</v>
@@ -5278,7 +5278,7 @@
         <v>606</v>
       </c>
       <c r="C181">
-        <v>107.605</v>
+        <v>109.898</v>
       </c>
       <c r="D181" t="s">
         <v>608</v>
@@ -5295,7 +5295,7 @@
         <v>606</v>
       </c>
       <c r="C182">
-        <v>102.329</v>
+        <v>102.032</v>
       </c>
       <c r="D182" t="s">
         <v>608</v>
@@ -5309,10 +5309,10 @@
         <v>186</v>
       </c>
       <c r="B183" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C183">
-        <v>98.631</v>
+        <v>103.256</v>
       </c>
       <c r="D183" t="s">
         <v>608</v>
@@ -5329,7 +5329,7 @@
         <v>606</v>
       </c>
       <c r="C184">
-        <v>109.437</v>
+        <v>111.382</v>
       </c>
       <c r="D184" t="s">
         <v>608</v>
@@ -5346,7 +5346,7 @@
         <v>606</v>
       </c>
       <c r="C185">
-        <v>101.682</v>
+        <v>101.946</v>
       </c>
       <c r="D185" t="s">
         <v>608</v>
@@ -5363,7 +5363,7 @@
         <v>606</v>
       </c>
       <c r="C186">
-        <v>105.563</v>
+        <v>106.44</v>
       </c>
       <c r="D186" t="s">
         <v>608</v>
@@ -5380,7 +5380,7 @@
         <v>607</v>
       </c>
       <c r="C187">
-        <v>90.994</v>
+        <v>92.599</v>
       </c>
       <c r="D187" t="s">
         <v>608</v>
@@ -5397,7 +5397,7 @@
         <v>606</v>
       </c>
       <c r="C188">
-        <v>116.171</v>
+        <v>123.774</v>
       </c>
       <c r="D188" t="s">
         <v>608</v>
@@ -5414,7 +5414,7 @@
         <v>606</v>
       </c>
       <c r="C189">
-        <v>106.086</v>
+        <v>113.338</v>
       </c>
       <c r="D189" t="s">
         <v>608</v>
@@ -5431,7 +5431,7 @@
         <v>606</v>
       </c>
       <c r="C190">
-        <v>104.392</v>
+        <v>106.374</v>
       </c>
       <c r="D190" t="s">
         <v>608</v>
@@ -5448,7 +5448,7 @@
         <v>606</v>
       </c>
       <c r="C191">
-        <v>111.827</v>
+        <v>111.965</v>
       </c>
       <c r="D191" t="s">
         <v>608</v>
@@ -5465,7 +5465,7 @@
         <v>606</v>
       </c>
       <c r="C192">
-        <v>101.862</v>
+        <v>105.387</v>
       </c>
       <c r="D192" t="s">
         <v>608</v>
@@ -5482,7 +5482,7 @@
         <v>606</v>
       </c>
       <c r="C193">
-        <v>103.84</v>
+        <v>103.99</v>
       </c>
       <c r="D193" t="s">
         <v>608</v>
@@ -5499,7 +5499,7 @@
         <v>606</v>
       </c>
       <c r="C194">
-        <v>116.405</v>
+        <v>118.985</v>
       </c>
       <c r="D194" t="s">
         <v>608</v>
@@ -5516,7 +5516,7 @@
         <v>606</v>
       </c>
       <c r="C195">
-        <v>104.063</v>
+        <v>105.282</v>
       </c>
       <c r="D195" t="s">
         <v>608</v>
@@ -5533,7 +5533,7 @@
         <v>606</v>
       </c>
       <c r="C196">
-        <v>106.73</v>
+        <v>108.474</v>
       </c>
       <c r="D196" t="s">
         <v>608</v>
@@ -5550,7 +5550,7 @@
         <v>606</v>
       </c>
       <c r="C197">
-        <v>104.479</v>
+        <v>106.117</v>
       </c>
       <c r="D197" t="s">
         <v>608</v>
@@ -5567,7 +5567,7 @@
         <v>606</v>
       </c>
       <c r="C198">
-        <v>111.523</v>
+        <v>108.546</v>
       </c>
       <c r="D198" t="s">
         <v>608</v>
@@ -5584,7 +5584,7 @@
         <v>606</v>
       </c>
       <c r="C199">
-        <v>115.282</v>
+        <v>115.451</v>
       </c>
       <c r="D199" t="s">
         <v>608</v>
@@ -5601,7 +5601,7 @@
         <v>607</v>
       </c>
       <c r="C200">
-        <v>92.377</v>
+        <v>93.72</v>
       </c>
       <c r="D200" t="s">
         <v>608</v>
@@ -5618,7 +5618,7 @@
         <v>606</v>
       </c>
       <c r="C201">
-        <v>110.983</v>
+        <v>109.652</v>
       </c>
       <c r="D201" t="s">
         <v>608</v>
@@ -5635,7 +5635,7 @@
         <v>606</v>
       </c>
       <c r="C202">
-        <v>103.812</v>
+        <v>104.677</v>
       </c>
       <c r="D202" t="s">
         <v>608</v>
@@ -5652,7 +5652,7 @@
         <v>606</v>
       </c>
       <c r="C203">
-        <v>115.372</v>
+        <v>123.747</v>
       </c>
       <c r="D203" t="s">
         <v>608</v>
@@ -5669,7 +5669,7 @@
         <v>606</v>
       </c>
       <c r="C204">
-        <v>113.226</v>
+        <v>117.506</v>
       </c>
       <c r="D204" t="s">
         <v>608</v>
@@ -5683,10 +5683,10 @@
         <v>208</v>
       </c>
       <c r="B205" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C205">
-        <v>98.22499999999999</v>
+        <v>101.542</v>
       </c>
       <c r="D205" t="s">
         <v>608</v>
@@ -5703,7 +5703,7 @@
         <v>606</v>
       </c>
       <c r="C206">
-        <v>126.103</v>
+        <v>152.295</v>
       </c>
       <c r="D206" t="s">
         <v>608</v>
@@ -5720,7 +5720,7 @@
         <v>606</v>
       </c>
       <c r="C207">
-        <v>109.034</v>
+        <v>109.585</v>
       </c>
       <c r="D207" t="s">
         <v>608</v>
@@ -5737,7 +5737,7 @@
         <v>606</v>
       </c>
       <c r="C208">
-        <v>117.517</v>
+        <v>125.772</v>
       </c>
       <c r="D208" t="s">
         <v>608</v>
@@ -5754,7 +5754,7 @@
         <v>606</v>
       </c>
       <c r="C209">
-        <v>113.805</v>
+        <v>107.048</v>
       </c>
       <c r="D209" t="s">
         <v>608</v>
@@ -5771,7 +5771,7 @@
         <v>606</v>
       </c>
       <c r="C210">
-        <v>104.71</v>
+        <v>108.332</v>
       </c>
       <c r="D210" t="s">
         <v>608</v>
@@ -5788,7 +5788,7 @@
         <v>606</v>
       </c>
       <c r="C211">
-        <v>109.136</v>
+        <v>114.237</v>
       </c>
       <c r="D211" t="s">
         <v>608</v>
@@ -5805,7 +5805,7 @@
         <v>606</v>
       </c>
       <c r="C212">
-        <v>111.525</v>
+        <v>112.888</v>
       </c>
       <c r="D212" t="s">
         <v>608</v>
@@ -5822,7 +5822,7 @@
         <v>606</v>
       </c>
       <c r="C213">
-        <v>106.485</v>
+        <v>109.125</v>
       </c>
       <c r="D213" t="s">
         <v>608</v>
@@ -5839,7 +5839,7 @@
         <v>606</v>
       </c>
       <c r="C214">
-        <v>106.555</v>
+        <v>104.458</v>
       </c>
       <c r="D214" t="s">
         <v>608</v>
@@ -5856,7 +5856,7 @@
         <v>606</v>
       </c>
       <c r="C215">
-        <v>110.104</v>
+        <v>109.652</v>
       </c>
       <c r="D215" t="s">
         <v>608</v>
@@ -5873,7 +5873,7 @@
         <v>606</v>
       </c>
       <c r="C216">
-        <v>104.772</v>
+        <v>105.157</v>
       </c>
       <c r="D216" t="s">
         <v>608</v>
@@ -5890,7 +5890,7 @@
         <v>606</v>
       </c>
       <c r="C217">
-        <v>103.847</v>
+        <v>101.292</v>
       </c>
       <c r="D217" t="s">
         <v>608</v>
@@ -5907,7 +5907,7 @@
         <v>606</v>
       </c>
       <c r="C218">
-        <v>104.224</v>
+        <v>106.604</v>
       </c>
       <c r="D218" t="s">
         <v>608</v>
@@ -5924,7 +5924,7 @@
         <v>606</v>
       </c>
       <c r="C219">
-        <v>106.301</v>
+        <v>108.93</v>
       </c>
       <c r="D219" t="s">
         <v>608</v>
@@ -5941,7 +5941,7 @@
         <v>606</v>
       </c>
       <c r="C220">
-        <v>108.699</v>
+        <v>106.646</v>
       </c>
       <c r="D220" t="s">
         <v>608</v>
@@ -5958,7 +5958,7 @@
         <v>606</v>
       </c>
       <c r="C221">
-        <v>105.387</v>
+        <v>105.704</v>
       </c>
       <c r="D221" t="s">
         <v>608</v>
@@ -5975,7 +5975,7 @@
         <v>606</v>
       </c>
       <c r="C222">
-        <v>103.292</v>
+        <v>107.836</v>
       </c>
       <c r="D222" t="s">
         <v>608</v>
@@ -5992,7 +5992,7 @@
         <v>606</v>
       </c>
       <c r="C223">
-        <v>105.181</v>
+        <v>106.402</v>
       </c>
       <c r="D223" t="s">
         <v>608</v>
@@ -6009,7 +6009,7 @@
         <v>606</v>
       </c>
       <c r="C224">
-        <v>111.736</v>
+        <v>113.885</v>
       </c>
       <c r="D224" t="s">
         <v>608</v>
@@ -6026,7 +6026,7 @@
         <v>606</v>
       </c>
       <c r="C225">
-        <v>107.842</v>
+        <v>109.837</v>
       </c>
       <c r="D225" t="s">
         <v>608</v>
@@ -6043,7 +6043,7 @@
         <v>606</v>
       </c>
       <c r="C226">
-        <v>107.083</v>
+        <v>106.061</v>
       </c>
       <c r="D226" t="s">
         <v>608</v>
@@ -6060,7 +6060,7 @@
         <v>606</v>
       </c>
       <c r="C227">
-        <v>112.968</v>
+        <v>117.156</v>
       </c>
       <c r="D227" t="s">
         <v>608</v>
@@ -6077,7 +6077,7 @@
         <v>607</v>
       </c>
       <c r="C228">
-        <v>96.905</v>
+        <v>96.002</v>
       </c>
       <c r="D228" t="s">
         <v>608</v>
@@ -6094,7 +6094,7 @@
         <v>606</v>
       </c>
       <c r="C229">
-        <v>105.093</v>
+        <v>108.541</v>
       </c>
       <c r="D229" t="s">
         <v>608</v>
@@ -6111,7 +6111,7 @@
         <v>606</v>
       </c>
       <c r="C230">
-        <v>107.689</v>
+        <v>108.313</v>
       </c>
       <c r="D230" t="s">
         <v>608</v>
@@ -6128,7 +6128,7 @@
         <v>606</v>
       </c>
       <c r="C231">
-        <v>109.639</v>
+        <v>109.484</v>
       </c>
       <c r="D231" t="s">
         <v>608</v>
@@ -6145,7 +6145,7 @@
         <v>606</v>
       </c>
       <c r="C232">
-        <v>106.085</v>
+        <v>105.931</v>
       </c>
       <c r="D232" t="s">
         <v>608</v>
@@ -6162,7 +6162,7 @@
         <v>606</v>
       </c>
       <c r="C233">
-        <v>113.083</v>
+        <v>117.776</v>
       </c>
       <c r="D233" t="s">
         <v>608</v>
@@ -6179,7 +6179,7 @@
         <v>606</v>
       </c>
       <c r="C234">
-        <v>106.043</v>
+        <v>106.521</v>
       </c>
       <c r="D234" t="s">
         <v>608</v>
@@ -6196,7 +6196,7 @@
         <v>607</v>
       </c>
       <c r="C235">
-        <v>98.16800000000001</v>
+        <v>99.36499999999999</v>
       </c>
       <c r="D235" t="s">
         <v>608</v>
@@ -6213,7 +6213,7 @@
         <v>606</v>
       </c>
       <c r="C236">
-        <v>114.814</v>
+        <v>123.886</v>
       </c>
       <c r="D236" t="s">
         <v>608</v>
@@ -6230,7 +6230,7 @@
         <v>606</v>
       </c>
       <c r="C237">
-        <v>116.392</v>
+        <v>127.075</v>
       </c>
       <c r="D237" t="s">
         <v>608</v>
@@ -6247,7 +6247,7 @@
         <v>606</v>
       </c>
       <c r="C238">
-        <v>114.56</v>
+        <v>119.557</v>
       </c>
       <c r="D238" t="s">
         <v>608</v>
@@ -6264,7 +6264,7 @@
         <v>606</v>
       </c>
       <c r="C239">
-        <v>106.609</v>
+        <v>107.743</v>
       </c>
       <c r="D239" t="s">
         <v>608</v>
@@ -6281,7 +6281,7 @@
         <v>606</v>
       </c>
       <c r="C240">
-        <v>101.302</v>
+        <v>102.978</v>
       </c>
       <c r="D240" t="s">
         <v>608</v>
@@ -6298,7 +6298,7 @@
         <v>606</v>
       </c>
       <c r="C241">
-        <v>111.024</v>
+        <v>115.115</v>
       </c>
       <c r="D241" t="s">
         <v>608</v>
@@ -6315,7 +6315,7 @@
         <v>607</v>
       </c>
       <c r="C242">
-        <v>96.845</v>
+        <v>99.068</v>
       </c>
       <c r="D242" t="s">
         <v>608</v>
@@ -6332,7 +6332,7 @@
         <v>606</v>
       </c>
       <c r="C243">
-        <v>110.591</v>
+        <v>112.187</v>
       </c>
       <c r="D243" t="s">
         <v>608</v>
@@ -6366,7 +6366,7 @@
         <v>606</v>
       </c>
       <c r="C245">
-        <v>104.642</v>
+        <v>105.649</v>
       </c>
       <c r="D245" t="s">
         <v>608</v>
@@ -6383,7 +6383,7 @@
         <v>606</v>
       </c>
       <c r="C246">
-        <v>131.825</v>
+        <v>132.477</v>
       </c>
       <c r="D246" t="s">
         <v>608</v>
@@ -6400,7 +6400,7 @@
         <v>606</v>
       </c>
       <c r="C247">
-        <v>105.402</v>
+        <v>106.109</v>
       </c>
       <c r="D247" t="s">
         <v>608</v>
@@ -6417,7 +6417,7 @@
         <v>606</v>
       </c>
       <c r="C248">
-        <v>109.481</v>
+        <v>109.139</v>
       </c>
       <c r="D248" t="s">
         <v>608</v>
@@ -6434,7 +6434,7 @@
         <v>606</v>
       </c>
       <c r="C249">
-        <v>104.512</v>
+        <v>112.581</v>
       </c>
       <c r="D249" t="s">
         <v>608</v>
@@ -6451,7 +6451,7 @@
         <v>606</v>
       </c>
       <c r="C250">
-        <v>100.183</v>
+        <v>103.231</v>
       </c>
       <c r="D250" t="s">
         <v>608</v>
@@ -6468,7 +6468,7 @@
         <v>606</v>
       </c>
       <c r="C251">
-        <v>104.266</v>
+        <v>106.902</v>
       </c>
       <c r="D251" t="s">
         <v>608</v>
@@ -6482,10 +6482,10 @@
         <v>255</v>
       </c>
       <c r="B252" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C252">
-        <v>100.244</v>
+        <v>98.16200000000001</v>
       </c>
       <c r="D252" t="s">
         <v>608</v>
@@ -6502,7 +6502,7 @@
         <v>606</v>
       </c>
       <c r="C253">
-        <v>102.109</v>
+        <v>105.325</v>
       </c>
       <c r="D253" t="s">
         <v>608</v>
@@ -6519,7 +6519,7 @@
         <v>606</v>
       </c>
       <c r="C254">
-        <v>109.475</v>
+        <v>106.568</v>
       </c>
       <c r="D254" t="s">
         <v>608</v>
@@ -6533,10 +6533,10 @@
         <v>258</v>
       </c>
       <c r="B255" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C255">
-        <v>98.654</v>
+        <v>102.72</v>
       </c>
       <c r="D255" t="s">
         <v>608</v>
@@ -6553,7 +6553,7 @@
         <v>606</v>
       </c>
       <c r="C256">
-        <v>101.92</v>
+        <v>100.011</v>
       </c>
       <c r="D256" t="s">
         <v>608</v>
@@ -6570,7 +6570,7 @@
         <v>606</v>
       </c>
       <c r="C257">
-        <v>113.003</v>
+        <v>117.645</v>
       </c>
       <c r="D257" t="s">
         <v>608</v>
@@ -6587,7 +6587,7 @@
         <v>606</v>
       </c>
       <c r="C258">
-        <v>107.612</v>
+        <v>107.429</v>
       </c>
       <c r="D258" t="s">
         <v>608</v>
@@ -6604,7 +6604,7 @@
         <v>606</v>
       </c>
       <c r="C259">
-        <v>117.88</v>
+        <v>119.587</v>
       </c>
       <c r="D259" t="s">
         <v>608</v>
@@ -6621,7 +6621,7 @@
         <v>606</v>
       </c>
       <c r="C260">
-        <v>108.156</v>
+        <v>108.143</v>
       </c>
       <c r="D260" t="s">
         <v>608</v>
@@ -6635,10 +6635,10 @@
         <v>264</v>
       </c>
       <c r="B261" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C261">
-        <v>96.41200000000001</v>
+        <v>100.107</v>
       </c>
       <c r="D261" t="s">
         <v>608</v>
@@ -6655,7 +6655,7 @@
         <v>606</v>
       </c>
       <c r="C262">
-        <v>105.34</v>
+        <v>103.389</v>
       </c>
       <c r="D262" t="s">
         <v>608</v>
@@ -6672,7 +6672,7 @@
         <v>606</v>
       </c>
       <c r="C263">
-        <v>102.997</v>
+        <v>106.789</v>
       </c>
       <c r="D263" t="s">
         <v>608</v>
@@ -6689,7 +6689,7 @@
         <v>607</v>
       </c>
       <c r="C264">
-        <v>96.18000000000001</v>
+        <v>98.986</v>
       </c>
       <c r="D264" t="s">
         <v>608</v>
@@ -6706,7 +6706,7 @@
         <v>606</v>
       </c>
       <c r="C265">
-        <v>108.766</v>
+        <v>112.098</v>
       </c>
       <c r="D265" t="s">
         <v>608</v>
@@ -6723,7 +6723,7 @@
         <v>606</v>
       </c>
       <c r="C266">
-        <v>107.965</v>
+        <v>112.09</v>
       </c>
       <c r="D266" t="s">
         <v>608</v>
@@ -6740,7 +6740,7 @@
         <v>606</v>
       </c>
       <c r="C267">
-        <v>107.149</v>
+        <v>115.231</v>
       </c>
       <c r="D267" t="s">
         <v>608</v>
@@ -6757,7 +6757,7 @@
         <v>606</v>
       </c>
       <c r="C268">
-        <v>122.759</v>
+        <v>127.171</v>
       </c>
       <c r="D268" t="s">
         <v>608</v>
@@ -6771,10 +6771,10 @@
         <v>272</v>
       </c>
       <c r="B269" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C269">
-        <v>97.696</v>
+        <v>101.662</v>
       </c>
       <c r="D269" t="s">
         <v>608</v>
@@ -6791,7 +6791,7 @@
         <v>606</v>
       </c>
       <c r="C270">
-        <v>106.741</v>
+        <v>109.692</v>
       </c>
       <c r="D270" t="s">
         <v>608</v>
@@ -6808,7 +6808,7 @@
         <v>606</v>
       </c>
       <c r="C271">
-        <v>106.247</v>
+        <v>107.708</v>
       </c>
       <c r="D271" t="s">
         <v>608</v>
@@ -6822,10 +6822,10 @@
         <v>275</v>
       </c>
       <c r="B272" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C272">
-        <v>100.572</v>
+        <v>99.726</v>
       </c>
       <c r="D272" t="s">
         <v>608</v>
@@ -6842,7 +6842,7 @@
         <v>606</v>
       </c>
       <c r="C273">
-        <v>102.729</v>
+        <v>103.109</v>
       </c>
       <c r="D273" t="s">
         <v>608</v>
@@ -6859,7 +6859,7 @@
         <v>606</v>
       </c>
       <c r="C274">
-        <v>112.137</v>
+        <v>113.352</v>
       </c>
       <c r="D274" t="s">
         <v>608</v>
@@ -6876,7 +6876,7 @@
         <v>606</v>
       </c>
       <c r="C275">
-        <v>106.509</v>
+        <v>102.084</v>
       </c>
       <c r="D275" t="s">
         <v>608</v>
@@ -6893,7 +6893,7 @@
         <v>606</v>
       </c>
       <c r="C276">
-        <v>120.561</v>
+        <v>117.057</v>
       </c>
       <c r="D276" t="s">
         <v>608</v>
@@ -6910,7 +6910,7 @@
         <v>606</v>
       </c>
       <c r="C277">
-        <v>102.47</v>
+        <v>108.184</v>
       </c>
       <c r="D277" t="s">
         <v>608</v>
@@ -6927,7 +6927,7 @@
         <v>606</v>
       </c>
       <c r="C278">
-        <v>112.591</v>
+        <v>119.104</v>
       </c>
       <c r="D278" t="s">
         <v>608</v>
@@ -6944,7 +6944,7 @@
         <v>606</v>
       </c>
       <c r="C279">
-        <v>101.178</v>
+        <v>100.935</v>
       </c>
       <c r="D279" t="s">
         <v>608</v>
@@ -6961,7 +6961,7 @@
         <v>606</v>
       </c>
       <c r="C280">
-        <v>116.983</v>
+        <v>119.333</v>
       </c>
       <c r="D280" t="s">
         <v>608</v>
@@ -6978,7 +6978,7 @@
         <v>606</v>
       </c>
       <c r="C281">
-        <v>111.366</v>
+        <v>117.951</v>
       </c>
       <c r="D281" t="s">
         <v>608</v>
@@ -6995,7 +6995,7 @@
         <v>606</v>
       </c>
       <c r="C282">
-        <v>109.18</v>
+        <v>110.973</v>
       </c>
       <c r="D282" t="s">
         <v>608</v>
@@ -7012,7 +7012,7 @@
         <v>606</v>
       </c>
       <c r="C283">
-        <v>105.972</v>
+        <v>108.893</v>
       </c>
       <c r="D283" t="s">
         <v>608</v>
@@ -7029,7 +7029,7 @@
         <v>606</v>
       </c>
       <c r="C284">
-        <v>112.57</v>
+        <v>111.249</v>
       </c>
       <c r="D284" t="s">
         <v>608</v>
@@ -7046,7 +7046,7 @@
         <v>606</v>
       </c>
       <c r="C285">
-        <v>107.264</v>
+        <v>109.448</v>
       </c>
       <c r="D285" t="s">
         <v>608</v>
@@ -7063,7 +7063,7 @@
         <v>607</v>
       </c>
       <c r="C286">
-        <v>86.199</v>
+        <v>85.08499999999999</v>
       </c>
       <c r="D286" t="s">
         <v>608</v>
@@ -7080,7 +7080,7 @@
         <v>606</v>
       </c>
       <c r="C287">
-        <v>108.911</v>
+        <v>107.608</v>
       </c>
       <c r="D287" t="s">
         <v>608</v>
@@ -7097,7 +7097,7 @@
         <v>606</v>
       </c>
       <c r="C288">
-        <v>100.47</v>
+        <v>100.045</v>
       </c>
       <c r="D288" t="s">
         <v>608</v>
@@ -7114,7 +7114,7 @@
         <v>606</v>
       </c>
       <c r="C289">
-        <v>103.546</v>
+        <v>103.058</v>
       </c>
       <c r="D289" t="s">
         <v>608</v>
@@ -7131,7 +7131,7 @@
         <v>606</v>
       </c>
       <c r="C290">
-        <v>105.759</v>
+        <v>108.161</v>
       </c>
       <c r="D290" t="s">
         <v>608</v>
@@ -7145,10 +7145,10 @@
         <v>294</v>
       </c>
       <c r="B291" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C291">
-        <v>98.958</v>
+        <v>101.265</v>
       </c>
       <c r="D291" t="s">
         <v>608</v>
@@ -7165,7 +7165,7 @@
         <v>606</v>
       </c>
       <c r="C292">
-        <v>109.986</v>
+        <v>117.134</v>
       </c>
       <c r="D292" t="s">
         <v>608</v>
@@ -7182,7 +7182,7 @@
         <v>606</v>
       </c>
       <c r="C293">
-        <v>103.532</v>
+        <v>104.309</v>
       </c>
       <c r="D293" t="s">
         <v>608</v>
@@ -7199,7 +7199,7 @@
         <v>606</v>
       </c>
       <c r="C294">
-        <v>105.586</v>
+        <v>107.966</v>
       </c>
       <c r="D294" t="s">
         <v>608</v>
@@ -7216,7 +7216,7 @@
         <v>606</v>
       </c>
       <c r="C295">
-        <v>115.913</v>
+        <v>127.119</v>
       </c>
       <c r="D295" t="s">
         <v>608</v>
@@ -7233,7 +7233,7 @@
         <v>606</v>
       </c>
       <c r="C296">
-        <v>111.852</v>
+        <v>116.398</v>
       </c>
       <c r="D296" t="s">
         <v>608</v>
@@ -7250,7 +7250,7 @@
         <v>606</v>
       </c>
       <c r="C297">
-        <v>102.535</v>
+        <v>104.054</v>
       </c>
       <c r="D297" t="s">
         <v>608</v>
@@ -7267,7 +7267,7 @@
         <v>607</v>
       </c>
       <c r="C298">
-        <v>98.81999999999999</v>
+        <v>98.792</v>
       </c>
       <c r="D298" t="s">
         <v>608</v>
@@ -7284,7 +7284,7 @@
         <v>606</v>
       </c>
       <c r="C299">
-        <v>101.548</v>
+        <v>102.304</v>
       </c>
       <c r="D299" t="s">
         <v>608</v>
@@ -7301,7 +7301,7 @@
         <v>606</v>
       </c>
       <c r="C300">
-        <v>112.659</v>
+        <v>113.395</v>
       </c>
       <c r="D300" t="s">
         <v>608</v>
@@ -7318,7 +7318,7 @@
         <v>606</v>
       </c>
       <c r="C301">
-        <v>106.614</v>
+        <v>107.67</v>
       </c>
       <c r="D301" t="s">
         <v>608</v>
@@ -7335,7 +7335,7 @@
         <v>606</v>
       </c>
       <c r="C302">
-        <v>108.806</v>
+        <v>106.709</v>
       </c>
       <c r="D302" t="s">
         <v>608</v>
@@ -7352,7 +7352,7 @@
         <v>606</v>
       </c>
       <c r="C303">
-        <v>105.983</v>
+        <v>107.862</v>
       </c>
       <c r="D303" t="s">
         <v>608</v>
@@ -7369,7 +7369,7 @@
         <v>606</v>
       </c>
       <c r="C304">
-        <v>111.987</v>
+        <v>113.803</v>
       </c>
       <c r="D304" t="s">
         <v>608</v>
@@ -7386,7 +7386,7 @@
         <v>606</v>
       </c>
       <c r="C305">
-        <v>120.726</v>
+        <v>126.922</v>
       </c>
       <c r="D305" t="s">
         <v>608</v>
@@ -7403,7 +7403,7 @@
         <v>606</v>
       </c>
       <c r="C306">
-        <v>103.312</v>
+        <v>103.908</v>
       </c>
       <c r="D306" t="s">
         <v>608</v>
@@ -7420,7 +7420,7 @@
         <v>607</v>
       </c>
       <c r="C307">
-        <v>96.997</v>
+        <v>98.73399999999999</v>
       </c>
       <c r="D307" t="s">
         <v>608</v>
@@ -7437,7 +7437,7 @@
         <v>606</v>
       </c>
       <c r="C308">
-        <v>116.438</v>
+        <v>113.535</v>
       </c>
       <c r="D308" t="s">
         <v>608</v>
@@ -7454,7 +7454,7 @@
         <v>606</v>
       </c>
       <c r="C309">
-        <v>122.391</v>
+        <v>142.667</v>
       </c>
       <c r="D309" t="s">
         <v>608</v>
@@ -7471,7 +7471,7 @@
         <v>606</v>
       </c>
       <c r="C310">
-        <v>103.351</v>
+        <v>105.222</v>
       </c>
       <c r="D310" t="s">
         <v>608</v>
@@ -7488,7 +7488,7 @@
         <v>606</v>
       </c>
       <c r="C311">
-        <v>104.694</v>
+        <v>105.866</v>
       </c>
       <c r="D311" t="s">
         <v>608</v>
@@ -7505,7 +7505,7 @@
         <v>606</v>
       </c>
       <c r="C312">
-        <v>114.724</v>
+        <v>118.915</v>
       </c>
       <c r="D312" t="s">
         <v>608</v>
@@ -7519,10 +7519,10 @@
         <v>316</v>
       </c>
       <c r="B313" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C313">
-        <v>99.206</v>
+        <v>102.623</v>
       </c>
       <c r="D313" t="s">
         <v>608</v>
@@ -7539,7 +7539,7 @@
         <v>606</v>
       </c>
       <c r="C314">
-        <v>109.866</v>
+        <v>107.34</v>
       </c>
       <c r="D314" t="s">
         <v>608</v>
@@ -7556,7 +7556,7 @@
         <v>606</v>
       </c>
       <c r="C315">
-        <v>105.49</v>
+        <v>103.037</v>
       </c>
       <c r="D315" t="s">
         <v>608</v>
@@ -7573,7 +7573,7 @@
         <v>606</v>
       </c>
       <c r="C316">
-        <v>117.364</v>
+        <v>126.996</v>
       </c>
       <c r="D316" t="s">
         <v>608</v>
@@ -7590,7 +7590,7 @@
         <v>606</v>
       </c>
       <c r="C317">
-        <v>110.86</v>
+        <v>111.631</v>
       </c>
       <c r="D317" t="s">
         <v>608</v>
@@ -7607,7 +7607,7 @@
         <v>606</v>
       </c>
       <c r="C318">
-        <v>105.11</v>
+        <v>108.54</v>
       </c>
       <c r="D318" t="s">
         <v>608</v>
@@ -7624,7 +7624,7 @@
         <v>606</v>
       </c>
       <c r="C319">
-        <v>109.513</v>
+        <v>117.211</v>
       </c>
       <c r="D319" t="s">
         <v>608</v>
@@ -7641,7 +7641,7 @@
         <v>606</v>
       </c>
       <c r="C320">
-        <v>112.164</v>
+        <v>114.029</v>
       </c>
       <c r="D320" t="s">
         <v>608</v>
@@ -7658,7 +7658,7 @@
         <v>606</v>
       </c>
       <c r="C321">
-        <v>108.659</v>
+        <v>109.922</v>
       </c>
       <c r="D321" t="s">
         <v>608</v>
@@ -7675,7 +7675,7 @@
         <v>606</v>
       </c>
       <c r="C322">
-        <v>112.027</v>
+        <v>115.169</v>
       </c>
       <c r="D322" t="s">
         <v>608</v>
@@ -7692,7 +7692,7 @@
         <v>606</v>
       </c>
       <c r="C323">
-        <v>104.351</v>
+        <v>106.135</v>
       </c>
       <c r="D323" t="s">
         <v>608</v>
@@ -7709,7 +7709,7 @@
         <v>606</v>
       </c>
       <c r="C324">
-        <v>106.256</v>
+        <v>109.085</v>
       </c>
       <c r="D324" t="s">
         <v>608</v>
@@ -7726,7 +7726,7 @@
         <v>606</v>
       </c>
       <c r="C325">
-        <v>102.118</v>
+        <v>101.246</v>
       </c>
       <c r="D325" t="s">
         <v>608</v>
@@ -7743,7 +7743,7 @@
         <v>606</v>
       </c>
       <c r="C326">
-        <v>110.475</v>
+        <v>113.172</v>
       </c>
       <c r="D326" t="s">
         <v>608</v>
@@ -7760,7 +7760,7 @@
         <v>606</v>
       </c>
       <c r="C327">
-        <v>104.752</v>
+        <v>104.098</v>
       </c>
       <c r="D327" t="s">
         <v>608</v>
@@ -7777,7 +7777,7 @@
         <v>606</v>
       </c>
       <c r="C328">
-        <v>109.181</v>
+        <v>107.661</v>
       </c>
       <c r="D328" t="s">
         <v>608</v>
@@ -7794,7 +7794,7 @@
         <v>606</v>
       </c>
       <c r="C329">
-        <v>109.927</v>
+        <v>111.299</v>
       </c>
       <c r="D329" t="s">
         <v>608</v>
@@ -7811,7 +7811,7 @@
         <v>606</v>
       </c>
       <c r="C330">
-        <v>103.741</v>
+        <v>102.069</v>
       </c>
       <c r="D330" t="s">
         <v>608</v>
@@ -7828,7 +7828,7 @@
         <v>606</v>
       </c>
       <c r="C331">
-        <v>100.915</v>
+        <v>101.897</v>
       </c>
       <c r="D331" t="s">
         <v>608</v>
@@ -7845,7 +7845,7 @@
         <v>606</v>
       </c>
       <c r="C332">
-        <v>107.964</v>
+        <v>106.232</v>
       </c>
       <c r="D332" t="s">
         <v>608</v>
@@ -7862,7 +7862,7 @@
         <v>606</v>
       </c>
       <c r="C333">
-        <v>105.708</v>
+        <v>110.502</v>
       </c>
       <c r="D333" t="s">
         <v>608</v>
@@ -7879,7 +7879,7 @@
         <v>606</v>
       </c>
       <c r="C334">
-        <v>106.622</v>
+        <v>110.383</v>
       </c>
       <c r="D334" t="s">
         <v>608</v>
@@ -7896,7 +7896,7 @@
         <v>606</v>
       </c>
       <c r="C335">
-        <v>106.363</v>
+        <v>105.169</v>
       </c>
       <c r="D335" t="s">
         <v>608</v>
@@ -7913,7 +7913,7 @@
         <v>606</v>
       </c>
       <c r="C336">
-        <v>114.174</v>
+        <v>114.003</v>
       </c>
       <c r="D336" t="s">
         <v>608</v>
@@ -7930,7 +7930,7 @@
         <v>606</v>
       </c>
       <c r="C337">
-        <v>101.952</v>
+        <v>102.207</v>
       </c>
       <c r="D337" t="s">
         <v>608</v>
@@ -7947,7 +7947,7 @@
         <v>606</v>
       </c>
       <c r="C338">
-        <v>106.166</v>
+        <v>108.178</v>
       </c>
       <c r="D338" t="s">
         <v>608</v>
@@ -7964,7 +7964,7 @@
         <v>606</v>
       </c>
       <c r="C339">
-        <v>130.662</v>
+        <v>132.414</v>
       </c>
       <c r="D339" t="s">
         <v>608</v>
@@ -7981,7 +7981,7 @@
         <v>606</v>
       </c>
       <c r="C340">
-        <v>107.706</v>
+        <v>104.113</v>
       </c>
       <c r="D340" t="s">
         <v>608</v>
@@ -7998,7 +7998,7 @@
         <v>606</v>
       </c>
       <c r="C341">
-        <v>113.346</v>
+        <v>114.662</v>
       </c>
       <c r="D341" t="s">
         <v>608</v>
@@ -8015,7 +8015,7 @@
         <v>606</v>
       </c>
       <c r="C342">
-        <v>115.17</v>
+        <v>125.974</v>
       </c>
       <c r="D342" t="s">
         <v>608</v>
@@ -8032,7 +8032,7 @@
         <v>606</v>
       </c>
       <c r="C343">
-        <v>106.35</v>
+        <v>104.467</v>
       </c>
       <c r="D343" t="s">
         <v>608</v>
@@ -8049,7 +8049,7 @@
         <v>606</v>
       </c>
       <c r="C344">
-        <v>103.94</v>
+        <v>106.677</v>
       </c>
       <c r="D344" t="s">
         <v>608</v>
@@ -8066,7 +8066,7 @@
         <v>606</v>
       </c>
       <c r="C345">
-        <v>104.256</v>
+        <v>104.724</v>
       </c>
       <c r="D345" t="s">
         <v>608</v>
@@ -8083,7 +8083,7 @@
         <v>606</v>
       </c>
       <c r="C346">
-        <v>101.628</v>
+        <v>105.697</v>
       </c>
       <c r="D346" t="s">
         <v>608</v>
@@ -8100,7 +8100,7 @@
         <v>606</v>
       </c>
       <c r="C347">
-        <v>100.253</v>
+        <v>101.064</v>
       </c>
       <c r="D347" t="s">
         <v>608</v>
@@ -8117,7 +8117,7 @@
         <v>606</v>
       </c>
       <c r="C348">
-        <v>106.063</v>
+        <v>108.138</v>
       </c>
       <c r="D348" t="s">
         <v>608</v>
@@ -8134,7 +8134,7 @@
         <v>606</v>
       </c>
       <c r="C349">
-        <v>118.816</v>
+        <v>124.339</v>
       </c>
       <c r="D349" t="s">
         <v>608</v>
@@ -8151,7 +8151,7 @@
         <v>606</v>
       </c>
       <c r="C350">
-        <v>105.493</v>
+        <v>112.91</v>
       </c>
       <c r="D350" t="s">
         <v>608</v>
@@ -8168,7 +8168,7 @@
         <v>606</v>
       </c>
       <c r="C351">
-        <v>109.45</v>
+        <v>110.678</v>
       </c>
       <c r="D351" t="s">
         <v>608</v>
@@ -8185,7 +8185,7 @@
         <v>606</v>
       </c>
       <c r="C352">
-        <v>113.912</v>
+        <v>138.309</v>
       </c>
       <c r="D352" t="s">
         <v>608</v>
@@ -8202,7 +8202,7 @@
         <v>606</v>
       </c>
       <c r="C353">
-        <v>101.067</v>
+        <v>102.824</v>
       </c>
       <c r="D353" t="s">
         <v>608</v>
@@ -8219,7 +8219,7 @@
         <v>606</v>
       </c>
       <c r="C354">
-        <v>105.733</v>
+        <v>103.493</v>
       </c>
       <c r="D354" t="s">
         <v>608</v>
@@ -8236,7 +8236,7 @@
         <v>606</v>
       </c>
       <c r="C355">
-        <v>108.26</v>
+        <v>109.296</v>
       </c>
       <c r="D355" t="s">
         <v>608</v>
@@ -8253,7 +8253,7 @@
         <v>606</v>
       </c>
       <c r="C356">
-        <v>106.495</v>
+        <v>105.682</v>
       </c>
       <c r="D356" t="s">
         <v>608</v>
@@ -8270,7 +8270,7 @@
         <v>606</v>
       </c>
       <c r="C357">
-        <v>105.004</v>
+        <v>104.811</v>
       </c>
       <c r="D357" t="s">
         <v>608</v>
@@ -8287,7 +8287,7 @@
         <v>606</v>
       </c>
       <c r="C358">
-        <v>104.112</v>
+        <v>101.199</v>
       </c>
       <c r="D358" t="s">
         <v>608</v>
@@ -8304,7 +8304,7 @@
         <v>606</v>
       </c>
       <c r="C359">
-        <v>105.381</v>
+        <v>106.59</v>
       </c>
       <c r="D359" t="s">
         <v>608</v>
@@ -8321,7 +8321,7 @@
         <v>606</v>
       </c>
       <c r="C360">
-        <v>117.361</v>
+        <v>128.934</v>
       </c>
       <c r="D360" t="s">
         <v>608</v>
@@ -8338,7 +8338,7 @@
         <v>607</v>
       </c>
       <c r="C361">
-        <v>86.643</v>
+        <v>90.199</v>
       </c>
       <c r="D361" t="s">
         <v>608</v>
@@ -8355,7 +8355,7 @@
         <v>606</v>
       </c>
       <c r="C362">
-        <v>115.191</v>
+        <v>120.484</v>
       </c>
       <c r="D362" t="s">
         <v>608</v>
@@ -8372,7 +8372,7 @@
         <v>606</v>
       </c>
       <c r="C363">
-        <v>107.476</v>
+        <v>108.565</v>
       </c>
       <c r="D363" t="s">
         <v>608</v>
@@ -8389,7 +8389,7 @@
         <v>606</v>
       </c>
       <c r="C364">
-        <v>103.19</v>
+        <v>101.327</v>
       </c>
       <c r="D364" t="s">
         <v>608</v>
@@ -8423,7 +8423,7 @@
         <v>606</v>
       </c>
       <c r="C366">
-        <v>101.475</v>
+        <v>103.532</v>
       </c>
       <c r="D366" t="s">
         <v>608</v>
@@ -8440,7 +8440,7 @@
         <v>606</v>
       </c>
       <c r="C367">
-        <v>116.716</v>
+        <v>126.79</v>
       </c>
       <c r="D367" t="s">
         <v>608</v>
@@ -8457,7 +8457,7 @@
         <v>606</v>
       </c>
       <c r="C368">
-        <v>104.208</v>
+        <v>108.571</v>
       </c>
       <c r="D368" t="s">
         <v>608</v>
@@ -8474,7 +8474,7 @@
         <v>606</v>
       </c>
       <c r="C369">
-        <v>111.193</v>
+        <v>116.872</v>
       </c>
       <c r="D369" t="s">
         <v>608</v>
@@ -8491,7 +8491,7 @@
         <v>606</v>
       </c>
       <c r="C370">
-        <v>106.85</v>
+        <v>107.495</v>
       </c>
       <c r="D370" t="s">
         <v>608</v>
@@ -8508,7 +8508,7 @@
         <v>606</v>
       </c>
       <c r="C371">
-        <v>115.433</v>
+        <v>118.213</v>
       </c>
       <c r="D371" t="s">
         <v>608</v>
@@ -8525,7 +8525,7 @@
         <v>607</v>
       </c>
       <c r="C372">
-        <v>78.65000000000001</v>
+        <v>82.15900000000001</v>
       </c>
       <c r="D372" t="s">
         <v>608</v>
@@ -8542,7 +8542,7 @@
         <v>606</v>
       </c>
       <c r="C373">
-        <v>106.238</v>
+        <v>108.041</v>
       </c>
       <c r="D373" t="s">
         <v>608</v>
@@ -8559,7 +8559,7 @@
         <v>606</v>
       </c>
       <c r="C374">
-        <v>102.724</v>
+        <v>103.493</v>
       </c>
       <c r="D374" t="s">
         <v>608</v>
@@ -8576,7 +8576,7 @@
         <v>606</v>
       </c>
       <c r="C375">
-        <v>126.084</v>
+        <v>127.73</v>
       </c>
       <c r="D375" t="s">
         <v>608</v>
@@ -8593,7 +8593,7 @@
         <v>606</v>
       </c>
       <c r="C376">
-        <v>119.273</v>
+        <v>121.857</v>
       </c>
       <c r="D376" t="s">
         <v>608</v>
@@ -8610,7 +8610,7 @@
         <v>606</v>
       </c>
       <c r="C377">
-        <v>107.861</v>
+        <v>110.55</v>
       </c>
       <c r="D377" t="s">
         <v>608</v>
@@ -8627,7 +8627,7 @@
         <v>606</v>
       </c>
       <c r="C378">
-        <v>107.81</v>
+        <v>109.928</v>
       </c>
       <c r="D378" t="s">
         <v>608</v>
@@ -8644,7 +8644,7 @@
         <v>606</v>
       </c>
       <c r="C379">
-        <v>106.526</v>
+        <v>111.455</v>
       </c>
       <c r="D379" t="s">
         <v>608</v>
@@ -8661,7 +8661,7 @@
         <v>606</v>
       </c>
       <c r="C380">
-        <v>119.171</v>
+        <v>121.05</v>
       </c>
       <c r="D380" t="s">
         <v>608</v>
@@ -8678,7 +8678,7 @@
         <v>606</v>
       </c>
       <c r="C381">
-        <v>115.318</v>
+        <v>115.431</v>
       </c>
       <c r="D381" t="s">
         <v>608</v>
@@ -8695,7 +8695,7 @@
         <v>606</v>
       </c>
       <c r="C382">
-        <v>105.664</v>
+        <v>108.715</v>
       </c>
       <c r="D382" t="s">
         <v>608</v>
@@ -8712,7 +8712,7 @@
         <v>606</v>
       </c>
       <c r="C383">
-        <v>108.995</v>
+        <v>109.194</v>
       </c>
       <c r="D383" t="s">
         <v>608</v>
@@ -8729,7 +8729,7 @@
         <v>606</v>
       </c>
       <c r="C384">
-        <v>113.352</v>
+        <v>126.598</v>
       </c>
       <c r="D384" t="s">
         <v>608</v>
@@ -8746,7 +8746,7 @@
         <v>606</v>
       </c>
       <c r="C385">
-        <v>114.975</v>
+        <v>113.67</v>
       </c>
       <c r="D385" t="s">
         <v>608</v>
@@ -8763,7 +8763,7 @@
         <v>606</v>
       </c>
       <c r="C386">
-        <v>104.651</v>
+        <v>107.404</v>
       </c>
       <c r="D386" t="s">
         <v>608</v>
@@ -8780,7 +8780,7 @@
         <v>606</v>
       </c>
       <c r="C387">
-        <v>105.985</v>
+        <v>106.555</v>
       </c>
       <c r="D387" t="s">
         <v>608</v>
@@ -8797,7 +8797,7 @@
         <v>606</v>
       </c>
       <c r="C388">
-        <v>115.77</v>
+        <v>119.085</v>
       </c>
       <c r="D388" t="s">
         <v>608</v>
@@ -8814,7 +8814,7 @@
         <v>606</v>
       </c>
       <c r="C389">
-        <v>108.825</v>
+        <v>113.664</v>
       </c>
       <c r="D389" t="s">
         <v>608</v>
@@ -8831,7 +8831,7 @@
         <v>606</v>
       </c>
       <c r="C390">
-        <v>110.598</v>
+        <v>110.136</v>
       </c>
       <c r="D390" t="s">
         <v>608</v>
@@ -8848,7 +8848,7 @@
         <v>606</v>
       </c>
       <c r="C391">
-        <v>101.68</v>
+        <v>103.406</v>
       </c>
       <c r="D391" t="s">
         <v>608</v>
@@ -8865,7 +8865,7 @@
         <v>606</v>
       </c>
       <c r="C392">
-        <v>109.9</v>
+        <v>112.557</v>
       </c>
       <c r="D392" t="s">
         <v>608</v>
@@ -8882,7 +8882,7 @@
         <v>606</v>
       </c>
       <c r="C393">
-        <v>106.331</v>
+        <v>111.2</v>
       </c>
       <c r="D393" t="s">
         <v>608</v>
@@ -8899,7 +8899,7 @@
         <v>606</v>
       </c>
       <c r="C394">
-        <v>104.216</v>
+        <v>103.913</v>
       </c>
       <c r="D394" t="s">
         <v>608</v>
@@ -8916,7 +8916,7 @@
         <v>606</v>
       </c>
       <c r="C395">
-        <v>105.493</v>
+        <v>106.512</v>
       </c>
       <c r="D395" t="s">
         <v>608</v>
@@ -8933,7 +8933,7 @@
         <v>606</v>
       </c>
       <c r="C396">
-        <v>108.79</v>
+        <v>115.164</v>
       </c>
       <c r="D396" t="s">
         <v>608</v>
@@ -8950,7 +8950,7 @@
         <v>606</v>
       </c>
       <c r="C397">
-        <v>103.885</v>
+        <v>104.786</v>
       </c>
       <c r="D397" t="s">
         <v>608</v>
@@ -8967,7 +8967,7 @@
         <v>606</v>
       </c>
       <c r="C398">
-        <v>125.203</v>
+        <v>141.827</v>
       </c>
       <c r="D398" t="s">
         <v>608</v>
@@ -8984,7 +8984,7 @@
         <v>606</v>
       </c>
       <c r="C399">
-        <v>117.957</v>
+        <v>117.337</v>
       </c>
       <c r="D399" t="s">
         <v>608</v>
@@ -9001,7 +9001,7 @@
         <v>606</v>
       </c>
       <c r="C400">
-        <v>105.979</v>
+        <v>108.254</v>
       </c>
       <c r="D400" t="s">
         <v>608</v>
@@ -9015,10 +9015,10 @@
         <v>404</v>
       </c>
       <c r="B401" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C401">
-        <v>105.161</v>
+        <v>98.408</v>
       </c>
       <c r="D401" t="s">
         <v>608</v>
@@ -9035,7 +9035,7 @@
         <v>606</v>
       </c>
       <c r="C402">
-        <v>104.143</v>
+        <v>101.915</v>
       </c>
       <c r="D402" t="s">
         <v>608</v>
@@ -9049,10 +9049,10 @@
         <v>406</v>
       </c>
       <c r="B403" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C403">
-        <v>95.86</v>
+        <v>100.737</v>
       </c>
       <c r="D403" t="s">
         <v>608</v>
@@ -9069,7 +9069,7 @@
         <v>606</v>
       </c>
       <c r="C404">
-        <v>106.057</v>
+        <v>104.487</v>
       </c>
       <c r="D404" t="s">
         <v>608</v>
@@ -9086,7 +9086,7 @@
         <v>606</v>
       </c>
       <c r="C405">
-        <v>113.437</v>
+        <v>115.855</v>
       </c>
       <c r="D405" t="s">
         <v>608</v>
@@ -9103,7 +9103,7 @@
         <v>606</v>
       </c>
       <c r="C406">
-        <v>114.34</v>
+        <v>117.058</v>
       </c>
       <c r="D406" t="s">
         <v>608</v>
@@ -9120,7 +9120,7 @@
         <v>606</v>
       </c>
       <c r="C407">
-        <v>108.756</v>
+        <v>112.453</v>
       </c>
       <c r="D407" t="s">
         <v>608</v>
@@ -9137,7 +9137,7 @@
         <v>606</v>
       </c>
       <c r="C408">
-        <v>124.138</v>
+        <v>172.671</v>
       </c>
       <c r="D408" t="s">
         <v>608</v>
@@ -9154,7 +9154,7 @@
         <v>606</v>
       </c>
       <c r="C409">
-        <v>115.389</v>
+        <v>114.979</v>
       </c>
       <c r="D409" t="s">
         <v>608</v>
@@ -9171,7 +9171,7 @@
         <v>607</v>
       </c>
       <c r="C410">
-        <v>99.54600000000001</v>
+        <v>99.693</v>
       </c>
       <c r="D410" t="s">
         <v>608</v>
@@ -9188,7 +9188,7 @@
         <v>606</v>
       </c>
       <c r="C411">
-        <v>112.253</v>
+        <v>115.066</v>
       </c>
       <c r="D411" t="s">
         <v>608</v>
@@ -9205,7 +9205,7 @@
         <v>606</v>
       </c>
       <c r="C412">
-        <v>102.875</v>
+        <v>107.059</v>
       </c>
       <c r="D412" t="s">
         <v>608</v>
@@ -9222,7 +9222,7 @@
         <v>606</v>
       </c>
       <c r="C413">
-        <v>108.769</v>
+        <v>111.944</v>
       </c>
       <c r="D413" t="s">
         <v>608</v>
@@ -9239,7 +9239,7 @@
         <v>606</v>
       </c>
       <c r="C414">
-        <v>114.644</v>
+        <v>114.977</v>
       </c>
       <c r="D414" t="s">
         <v>608</v>
@@ -9256,7 +9256,7 @@
         <v>606</v>
       </c>
       <c r="C415">
-        <v>109.95</v>
+        <v>113.038</v>
       </c>
       <c r="D415" t="s">
         <v>608</v>
@@ -9273,7 +9273,7 @@
         <v>606</v>
       </c>
       <c r="C416">
-        <v>107.8</v>
+        <v>120.719</v>
       </c>
       <c r="D416" t="s">
         <v>608</v>
@@ -9290,7 +9290,7 @@
         <v>606</v>
       </c>
       <c r="C417">
-        <v>106.098</v>
+        <v>104.177</v>
       </c>
       <c r="D417" t="s">
         <v>608</v>
@@ -9307,7 +9307,7 @@
         <v>606</v>
       </c>
       <c r="C418">
-        <v>104.523</v>
+        <v>105.57</v>
       </c>
       <c r="D418" t="s">
         <v>608</v>
@@ -9324,7 +9324,7 @@
         <v>606</v>
       </c>
       <c r="C419">
-        <v>118.4</v>
+        <v>121.872</v>
       </c>
       <c r="D419" t="s">
         <v>608</v>
@@ -9341,7 +9341,7 @@
         <v>606</v>
       </c>
       <c r="C420">
-        <v>115.327</v>
+        <v>117.576</v>
       </c>
       <c r="D420" t="s">
         <v>608</v>
@@ -9358,7 +9358,7 @@
         <v>606</v>
       </c>
       <c r="C421">
-        <v>102.694</v>
+        <v>105.702</v>
       </c>
       <c r="D421" t="s">
         <v>608</v>
@@ -9375,7 +9375,7 @@
         <v>606</v>
       </c>
       <c r="C422">
-        <v>102.344</v>
+        <v>102.597</v>
       </c>
       <c r="D422" t="s">
         <v>608</v>
@@ -9392,7 +9392,7 @@
         <v>607</v>
       </c>
       <c r="C423">
-        <v>98.337</v>
+        <v>99.789</v>
       </c>
       <c r="D423" t="s">
         <v>608</v>
@@ -9409,7 +9409,7 @@
         <v>606</v>
       </c>
       <c r="C424">
-        <v>112.892</v>
+        <v>115.429</v>
       </c>
       <c r="D424" t="s">
         <v>608</v>
@@ -9426,7 +9426,7 @@
         <v>606</v>
       </c>
       <c r="C425">
-        <v>104.803</v>
+        <v>108.252</v>
       </c>
       <c r="D425" t="s">
         <v>608</v>
@@ -9443,7 +9443,7 @@
         <v>606</v>
       </c>
       <c r="C426">
-        <v>110.212</v>
+        <v>115.155</v>
       </c>
       <c r="D426" t="s">
         <v>608</v>
@@ -9460,7 +9460,7 @@
         <v>606</v>
       </c>
       <c r="C427">
-        <v>110.14</v>
+        <v>110.254</v>
       </c>
       <c r="D427" t="s">
         <v>608</v>
@@ -9477,7 +9477,7 @@
         <v>606</v>
       </c>
       <c r="C428">
-        <v>106.003</v>
+        <v>107.338</v>
       </c>
       <c r="D428" t="s">
         <v>608</v>
@@ -9494,7 +9494,7 @@
         <v>606</v>
       </c>
       <c r="C429">
-        <v>110.446</v>
+        <v>110.432</v>
       </c>
       <c r="D429" t="s">
         <v>608</v>
@@ -9511,7 +9511,7 @@
         <v>606</v>
       </c>
       <c r="C430">
-        <v>115.44</v>
+        <v>122.692</v>
       </c>
       <c r="D430" t="s">
         <v>608</v>
@@ -9525,10 +9525,10 @@
         <v>434</v>
       </c>
       <c r="B431" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C431">
-        <v>100.636</v>
+        <v>99.30500000000001</v>
       </c>
       <c r="D431" t="s">
         <v>608</v>
@@ -9545,7 +9545,7 @@
         <v>606</v>
       </c>
       <c r="C432">
-        <v>121.168</v>
+        <v>123.146</v>
       </c>
       <c r="D432" t="s">
         <v>608</v>
@@ -9562,7 +9562,7 @@
         <v>606</v>
       </c>
       <c r="C433">
-        <v>109.729</v>
+        <v>116.215</v>
       </c>
       <c r="D433" t="s">
         <v>608</v>
@@ -9579,7 +9579,7 @@
         <v>606</v>
       </c>
       <c r="C434">
-        <v>121.181</v>
+        <v>125.483</v>
       </c>
       <c r="D434" t="s">
         <v>608</v>
@@ -9596,7 +9596,7 @@
         <v>606</v>
       </c>
       <c r="C435">
-        <v>124.463</v>
+        <v>123.381</v>
       </c>
       <c r="D435" t="s">
         <v>608</v>
@@ -9613,7 +9613,7 @@
         <v>606</v>
       </c>
       <c r="C436">
-        <v>113.64</v>
+        <v>113.194</v>
       </c>
       <c r="D436" t="s">
         <v>608</v>
@@ -9630,7 +9630,7 @@
         <v>606</v>
       </c>
       <c r="C437">
-        <v>108.371</v>
+        <v>111.355</v>
       </c>
       <c r="D437" t="s">
         <v>608</v>
@@ -9647,7 +9647,7 @@
         <v>606</v>
       </c>
       <c r="C438">
-        <v>110.068</v>
+        <v>109.429</v>
       </c>
       <c r="D438" t="s">
         <v>608</v>
@@ -9664,7 +9664,7 @@
         <v>606</v>
       </c>
       <c r="C439">
-        <v>104.686</v>
+        <v>107.395</v>
       </c>
       <c r="D439" t="s">
         <v>608</v>
@@ -9681,7 +9681,7 @@
         <v>606</v>
       </c>
       <c r="C440">
-        <v>107.628</v>
+        <v>111.068</v>
       </c>
       <c r="D440" t="s">
         <v>608</v>
@@ -9698,7 +9698,7 @@
         <v>606</v>
       </c>
       <c r="C441">
-        <v>114.882</v>
+        <v>113.476</v>
       </c>
       <c r="D441" t="s">
         <v>608</v>
@@ -9715,7 +9715,7 @@
         <v>606</v>
       </c>
       <c r="C442">
-        <v>105.673</v>
+        <v>105.796</v>
       </c>
       <c r="D442" t="s">
         <v>608</v>
@@ -9732,7 +9732,7 @@
         <v>606</v>
       </c>
       <c r="C443">
-        <v>124.674</v>
+        <v>129.93</v>
       </c>
       <c r="D443" t="s">
         <v>608</v>
@@ -9749,7 +9749,7 @@
         <v>606</v>
       </c>
       <c r="C444">
-        <v>100.782</v>
+        <v>102.547</v>
       </c>
       <c r="D444" t="s">
         <v>608</v>
@@ -9763,10 +9763,10 @@
         <v>448</v>
       </c>
       <c r="B445" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C445">
-        <v>100.998</v>
+        <v>97.129</v>
       </c>
       <c r="D445" t="s">
         <v>608</v>
@@ -9783,7 +9783,7 @@
         <v>606</v>
       </c>
       <c r="C446">
-        <v>106.429</v>
+        <v>104.676</v>
       </c>
       <c r="D446" t="s">
         <v>608</v>
@@ -9800,7 +9800,7 @@
         <v>606</v>
       </c>
       <c r="C447">
-        <v>100.015</v>
+        <v>103.42</v>
       </c>
       <c r="D447" t="s">
         <v>608</v>
@@ -9817,7 +9817,7 @@
         <v>606</v>
       </c>
       <c r="C448">
-        <v>109.852</v>
+        <v>113.153</v>
       </c>
       <c r="D448" t="s">
         <v>608</v>
@@ -9834,7 +9834,7 @@
         <v>606</v>
       </c>
       <c r="C449">
-        <v>111.734</v>
+        <v>114.518</v>
       </c>
       <c r="D449" t="s">
         <v>608</v>
@@ -9851,7 +9851,7 @@
         <v>606</v>
       </c>
       <c r="C450">
-        <v>110.273</v>
+        <v>116.078</v>
       </c>
       <c r="D450" t="s">
         <v>608</v>
@@ -9868,7 +9868,7 @@
         <v>606</v>
       </c>
       <c r="C451">
-        <v>101.071</v>
+        <v>101.955</v>
       </c>
       <c r="D451" t="s">
         <v>608</v>
@@ -9885,7 +9885,7 @@
         <v>606</v>
       </c>
       <c r="C452">
-        <v>116.031</v>
+        <v>117.56</v>
       </c>
       <c r="D452" t="s">
         <v>608</v>
@@ -9902,7 +9902,7 @@
         <v>606</v>
       </c>
       <c r="C453">
-        <v>114.727</v>
+        <v>115.357</v>
       </c>
       <c r="D453" t="s">
         <v>608</v>
@@ -9919,7 +9919,7 @@
         <v>606</v>
       </c>
       <c r="C454">
-        <v>126.288</v>
+        <v>131.143</v>
       </c>
       <c r="D454" t="s">
         <v>608</v>
@@ -9936,7 +9936,7 @@
         <v>606</v>
       </c>
       <c r="C455">
-        <v>127.022</v>
+        <v>131.158</v>
       </c>
       <c r="D455" t="s">
         <v>608</v>
@@ -9953,7 +9953,7 @@
         <v>606</v>
       </c>
       <c r="C456">
-        <v>105.304</v>
+        <v>111.178</v>
       </c>
       <c r="D456" t="s">
         <v>608</v>
@@ -9970,7 +9970,7 @@
         <v>606</v>
       </c>
       <c r="C457">
-        <v>114.27</v>
+        <v>118.204</v>
       </c>
       <c r="D457" t="s">
         <v>608</v>
@@ -9987,7 +9987,7 @@
         <v>606</v>
       </c>
       <c r="C458">
-        <v>109.379</v>
+        <v>109.143</v>
       </c>
       <c r="D458" t="s">
         <v>608</v>
@@ -10004,7 +10004,7 @@
         <v>606</v>
       </c>
       <c r="C459">
-        <v>118.884</v>
+        <v>122.213</v>
       </c>
       <c r="D459" t="s">
         <v>608</v>
@@ -10021,7 +10021,7 @@
         <v>606</v>
       </c>
       <c r="C460">
-        <v>124.949</v>
+        <v>127.33</v>
       </c>
       <c r="D460" t="s">
         <v>608</v>
@@ -10038,7 +10038,7 @@
         <v>607</v>
       </c>
       <c r="C461">
-        <v>97.943</v>
+        <v>97.22199999999999</v>
       </c>
       <c r="D461" t="s">
         <v>608</v>
@@ -10052,10 +10052,10 @@
         <v>465</v>
       </c>
       <c r="B462" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C462">
-        <v>100.108</v>
+        <v>98.94</v>
       </c>
       <c r="D462" t="s">
         <v>608</v>
@@ -10072,7 +10072,7 @@
         <v>606</v>
       </c>
       <c r="C463">
-        <v>116.552</v>
+        <v>120.962</v>
       </c>
       <c r="D463" t="s">
         <v>608</v>
@@ -10089,7 +10089,7 @@
         <v>606</v>
       </c>
       <c r="C464">
-        <v>100.277</v>
+        <v>102.852</v>
       </c>
       <c r="D464" t="s">
         <v>608</v>
@@ -10106,7 +10106,7 @@
         <v>606</v>
       </c>
       <c r="C465">
-        <v>108.547</v>
+        <v>115</v>
       </c>
       <c r="D465" t="s">
         <v>608</v>
@@ -10123,7 +10123,7 @@
         <v>606</v>
       </c>
       <c r="C466">
-        <v>107.447</v>
+        <v>110.619</v>
       </c>
       <c r="D466" t="s">
         <v>608</v>
@@ -10140,7 +10140,7 @@
         <v>606</v>
       </c>
       <c r="C467">
-        <v>115.505</v>
+        <v>125.5</v>
       </c>
       <c r="D467" t="s">
         <v>608</v>
@@ -10157,7 +10157,7 @@
         <v>606</v>
       </c>
       <c r="C468">
-        <v>100.806</v>
+        <v>107.547</v>
       </c>
       <c r="D468" t="s">
         <v>608</v>
@@ -10174,7 +10174,7 @@
         <v>606</v>
       </c>
       <c r="C469">
-        <v>108.057</v>
+        <v>110.564</v>
       </c>
       <c r="D469" t="s">
         <v>608</v>
@@ -10191,7 +10191,7 @@
         <v>606</v>
       </c>
       <c r="C470">
-        <v>103.093</v>
+        <v>107.568</v>
       </c>
       <c r="D470" t="s">
         <v>608</v>
@@ -10208,7 +10208,7 @@
         <v>606</v>
       </c>
       <c r="C471">
-        <v>112.151</v>
+        <v>117.412</v>
       </c>
       <c r="D471" t="s">
         <v>608</v>
@@ -10225,7 +10225,7 @@
         <v>606</v>
       </c>
       <c r="C472">
-        <v>113.959</v>
+        <v>115.957</v>
       </c>
       <c r="D472" t="s">
         <v>608</v>
@@ -10242,7 +10242,7 @@
         <v>606</v>
       </c>
       <c r="C473">
-        <v>108.825</v>
+        <v>107.954</v>
       </c>
       <c r="D473" t="s">
         <v>608</v>
@@ -10259,7 +10259,7 @@
         <v>606</v>
       </c>
       <c r="C474">
-        <v>114.199</v>
+        <v>119.838</v>
       </c>
       <c r="D474" t="s">
         <v>608</v>
@@ -10276,7 +10276,7 @@
         <v>607</v>
       </c>
       <c r="C475">
-        <v>97.184</v>
+        <v>98.242</v>
       </c>
       <c r="D475" t="s">
         <v>608</v>
@@ -10293,7 +10293,7 @@
         <v>606</v>
       </c>
       <c r="C476">
-        <v>103.74</v>
+        <v>107.431</v>
       </c>
       <c r="D476" t="s">
         <v>608</v>
@@ -10310,7 +10310,7 @@
         <v>606</v>
       </c>
       <c r="C477">
-        <v>127.665</v>
+        <v>178.632</v>
       </c>
       <c r="D477" t="s">
         <v>608</v>
@@ -10327,7 +10327,7 @@
         <v>607</v>
       </c>
       <c r="C478">
-        <v>98.524</v>
+        <v>96.56399999999999</v>
       </c>
       <c r="D478" t="s">
         <v>608</v>
@@ -10344,7 +10344,7 @@
         <v>606</v>
       </c>
       <c r="C479">
-        <v>116.602</v>
+        <v>123.263</v>
       </c>
       <c r="D479" t="s">
         <v>608</v>
@@ -10361,7 +10361,7 @@
         <v>606</v>
       </c>
       <c r="C480">
-        <v>107.71</v>
+        <v>111.988</v>
       </c>
       <c r="D480" t="s">
         <v>608</v>
@@ -10378,7 +10378,7 @@
         <v>606</v>
       </c>
       <c r="C481">
-        <v>120.615</v>
+        <v>130.086</v>
       </c>
       <c r="D481" t="s">
         <v>608</v>
@@ -10395,7 +10395,7 @@
         <v>606</v>
       </c>
       <c r="C482">
-        <v>111.248</v>
+        <v>111.564</v>
       </c>
       <c r="D482" t="s">
         <v>608</v>
@@ -10412,7 +10412,7 @@
         <v>606</v>
       </c>
       <c r="C483">
-        <v>130.136</v>
+        <v>176.51</v>
       </c>
       <c r="D483" t="s">
         <v>608</v>
@@ -10429,7 +10429,7 @@
         <v>606</v>
       </c>
       <c r="C484">
-        <v>108.902</v>
+        <v>112.589</v>
       </c>
       <c r="D484" t="s">
         <v>608</v>
@@ -10446,7 +10446,7 @@
         <v>606</v>
       </c>
       <c r="C485">
-        <v>118.29</v>
+        <v>123.454</v>
       </c>
       <c r="D485" t="s">
         <v>608</v>
@@ -10463,7 +10463,7 @@
         <v>606</v>
       </c>
       <c r="C486">
-        <v>107.549</v>
+        <v>113.793</v>
       </c>
       <c r="D486" t="s">
         <v>608</v>
@@ -10480,7 +10480,7 @@
         <v>607</v>
       </c>
       <c r="C487">
-        <v>98.81399999999999</v>
+        <v>98.261</v>
       </c>
       <c r="D487" t="s">
         <v>608</v>
@@ -10497,7 +10497,7 @@
         <v>606</v>
       </c>
       <c r="C488">
-        <v>108.817</v>
+        <v>111.268</v>
       </c>
       <c r="D488" t="s">
         <v>608</v>
@@ -10514,7 +10514,7 @@
         <v>606</v>
       </c>
       <c r="C489">
-        <v>116.255</v>
+        <v>120.749</v>
       </c>
       <c r="D489" t="s">
         <v>608</v>
@@ -10531,7 +10531,7 @@
         <v>607</v>
       </c>
       <c r="C490">
-        <v>94.274</v>
+        <v>94.462</v>
       </c>
       <c r="D490" t="s">
         <v>608</v>
@@ -10548,7 +10548,7 @@
         <v>606</v>
       </c>
       <c r="C491">
-        <v>115.515</v>
+        <v>119.515</v>
       </c>
       <c r="D491" t="s">
         <v>608</v>
@@ -10565,7 +10565,7 @@
         <v>606</v>
       </c>
       <c r="C492">
-        <v>105.934</v>
+        <v>106.797</v>
       </c>
       <c r="D492" t="s">
         <v>608</v>
@@ -10582,7 +10582,7 @@
         <v>606</v>
       </c>
       <c r="C493">
-        <v>101.704</v>
+        <v>103.619</v>
       </c>
       <c r="D493" t="s">
         <v>608</v>
@@ -10599,7 +10599,7 @@
         <v>606</v>
       </c>
       <c r="C494">
-        <v>103.821</v>
+        <v>106.826</v>
       </c>
       <c r="D494" t="s">
         <v>608</v>
@@ -10616,7 +10616,7 @@
         <v>606</v>
       </c>
       <c r="C495">
-        <v>103.14</v>
+        <v>102.502</v>
       </c>
       <c r="D495" t="s">
         <v>608</v>
@@ -10633,7 +10633,7 @@
         <v>606</v>
       </c>
       <c r="C496">
-        <v>107.282</v>
+        <v>108.198</v>
       </c>
       <c r="D496" t="s">
         <v>608</v>
@@ -10650,7 +10650,7 @@
         <v>606</v>
       </c>
       <c r="C497">
-        <v>103.142</v>
+        <v>103.003</v>
       </c>
       <c r="D497" t="s">
         <v>608</v>
@@ -10667,7 +10667,7 @@
         <v>606</v>
       </c>
       <c r="C498">
-        <v>105.21</v>
+        <v>106.603</v>
       </c>
       <c r="D498" t="s">
         <v>608</v>
@@ -10684,7 +10684,7 @@
         <v>606</v>
       </c>
       <c r="C499">
-        <v>106.454</v>
+        <v>108.403</v>
       </c>
       <c r="D499" t="s">
         <v>608</v>
@@ -10701,7 +10701,7 @@
         <v>606</v>
       </c>
       <c r="C500">
-        <v>113.086</v>
+        <v>117.295</v>
       </c>
       <c r="D500" t="s">
         <v>608</v>
@@ -10718,7 +10718,7 @@
         <v>606</v>
       </c>
       <c r="C501">
-        <v>119.857</v>
+        <v>126.419</v>
       </c>
       <c r="D501" t="s">
         <v>608</v>
@@ -10735,7 +10735,7 @@
         <v>606</v>
       </c>
       <c r="C502">
-        <v>115.303</v>
+        <v>117.979</v>
       </c>
       <c r="D502" t="s">
         <v>608</v>
@@ -10752,7 +10752,7 @@
         <v>606</v>
       </c>
       <c r="C503">
-        <v>116.557</v>
+        <v>120.742</v>
       </c>
       <c r="D503" t="s">
         <v>608</v>
@@ -10769,7 +10769,7 @@
         <v>606</v>
       </c>
       <c r="C504">
-        <v>108.609</v>
+        <v>111.906</v>
       </c>
       <c r="D504" t="s">
         <v>608</v>
@@ -10786,7 +10786,7 @@
         <v>606</v>
       </c>
       <c r="C505">
-        <v>104.279</v>
+        <v>106.746</v>
       </c>
       <c r="D505" t="s">
         <v>608</v>
@@ -10803,7 +10803,7 @@
         <v>606</v>
       </c>
       <c r="C506">
-        <v>106.462</v>
+        <v>102.739</v>
       </c>
       <c r="D506" t="s">
         <v>608</v>
@@ -10820,7 +10820,7 @@
         <v>607</v>
       </c>
       <c r="C507">
-        <v>87.855</v>
+        <v>87.43600000000001</v>
       </c>
       <c r="D507" t="s">
         <v>608</v>
@@ -10837,7 +10837,7 @@
         <v>606</v>
       </c>
       <c r="C508">
-        <v>103.039</v>
+        <v>110.366</v>
       </c>
       <c r="D508" t="s">
         <v>608</v>
@@ -10854,7 +10854,7 @@
         <v>606</v>
       </c>
       <c r="C509">
-        <v>115.155</v>
+        <v>121.321</v>
       </c>
       <c r="D509" t="s">
         <v>608</v>
@@ -10871,7 +10871,7 @@
         <v>606</v>
       </c>
       <c r="C510">
-        <v>113.783</v>
+        <v>118.237</v>
       </c>
       <c r="D510" t="s">
         <v>608</v>
@@ -10888,7 +10888,7 @@
         <v>607</v>
       </c>
       <c r="C511">
-        <v>84.217</v>
+        <v>79.771</v>
       </c>
       <c r="D511" t="s">
         <v>608</v>
@@ -10905,7 +10905,7 @@
         <v>606</v>
       </c>
       <c r="C512">
-        <v>127.168</v>
+        <v>144.156</v>
       </c>
       <c r="D512" t="s">
         <v>608</v>
@@ -10922,7 +10922,7 @@
         <v>606</v>
       </c>
       <c r="C513">
-        <v>118.793</v>
+        <v>114.58</v>
       </c>
       <c r="D513" t="s">
         <v>608</v>
@@ -10939,7 +10939,7 @@
         <v>606</v>
       </c>
       <c r="C514">
-        <v>204.237</v>
+        <v>239.216</v>
       </c>
       <c r="D514" t="s">
         <v>608</v>
@@ -10956,7 +10956,7 @@
         <v>606</v>
       </c>
       <c r="C515">
-        <v>103.614</v>
+        <v>112.832</v>
       </c>
       <c r="D515" t="s">
         <v>608</v>
@@ -10970,10 +10970,10 @@
         <v>519</v>
       </c>
       <c r="B516" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C516">
-        <v>102.177</v>
+        <v>96.696</v>
       </c>
       <c r="D516" t="s">
         <v>608</v>
@@ -10990,7 +10990,7 @@
         <v>606</v>
       </c>
       <c r="C517">
-        <v>102.281</v>
+        <v>103.55</v>
       </c>
       <c r="D517" t="s">
         <v>608</v>
@@ -11004,10 +11004,10 @@
         <v>521</v>
       </c>
       <c r="B518" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C518">
-        <v>111.069</v>
+        <v>87.313</v>
       </c>
       <c r="D518" t="s">
         <v>608</v>
@@ -11024,7 +11024,7 @@
         <v>606</v>
       </c>
       <c r="C519">
-        <v>133.333</v>
+        <v>108</v>
       </c>
       <c r="D519" t="s">
         <v>608</v>
@@ -11038,10 +11038,10 @@
         <v>523</v>
       </c>
       <c r="B520" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C520">
-        <v>106.83</v>
+        <v>95.319</v>
       </c>
       <c r="D520" t="s">
         <v>608</v>
@@ -11058,7 +11058,7 @@
         <v>607</v>
       </c>
       <c r="C521">
-        <v>86.199</v>
+        <v>88.584</v>
       </c>
       <c r="D521" t="s">
         <v>608</v>
@@ -11075,7 +11075,7 @@
         <v>607</v>
       </c>
       <c r="C522">
-        <v>86.941</v>
+        <v>83.14400000000001</v>
       </c>
       <c r="D522" t="s">
         <v>608</v>
@@ -11092,7 +11092,7 @@
         <v>606</v>
       </c>
       <c r="C523">
-        <v>109.639</v>
+        <v>109.484</v>
       </c>
       <c r="D523" t="s">
         <v>608</v>
@@ -11109,7 +11109,7 @@
         <v>607</v>
       </c>
       <c r="C524">
-        <v>91.727</v>
+        <v>91.60599999999999</v>
       </c>
       <c r="D524" t="s">
         <v>608</v>
@@ -11123,10 +11123,10 @@
         <v>527</v>
       </c>
       <c r="B525" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C525">
-        <v>103.962</v>
+        <v>87.52</v>
       </c>
       <c r="D525" t="s">
         <v>608</v>
@@ -11143,7 +11143,7 @@
         <v>606</v>
       </c>
       <c r="C526">
-        <v>114.768</v>
+        <v>100.527</v>
       </c>
       <c r="D526" t="s">
         <v>608</v>
@@ -11157,10 +11157,10 @@
         <v>529</v>
       </c>
       <c r="B527" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C527">
-        <v>97.166</v>
+        <v>102.175</v>
       </c>
       <c r="D527" t="s">
         <v>608</v>
@@ -11177,7 +11177,7 @@
         <v>607</v>
       </c>
       <c r="C528">
-        <v>80.42100000000001</v>
+        <v>86.46299999999999</v>
       </c>
       <c r="D528" t="s">
         <v>608</v>
@@ -11194,7 +11194,7 @@
         <v>607</v>
       </c>
       <c r="C529">
-        <v>87.014</v>
+        <v>96.562</v>
       </c>
       <c r="D529" t="s">
         <v>608</v>
@@ -11211,7 +11211,7 @@
         <v>606</v>
       </c>
       <c r="C530">
-        <v>146.365</v>
+        <v>149.937</v>
       </c>
       <c r="D530" t="s">
         <v>608</v>
@@ -11228,7 +11228,7 @@
         <v>606</v>
       </c>
       <c r="C531">
-        <v>127.446</v>
+        <v>130.102</v>
       </c>
       <c r="D531" t="s">
         <v>608</v>
@@ -11245,7 +11245,7 @@
         <v>606</v>
       </c>
       <c r="C532">
-        <v>111.22</v>
+        <v>112.808</v>
       </c>
       <c r="D532" t="s">
         <v>608</v>
@@ -11262,7 +11262,7 @@
         <v>606</v>
       </c>
       <c r="C533">
-        <v>117.355</v>
+        <v>117.623</v>
       </c>
       <c r="D533" t="s">
         <v>608</v>
@@ -11279,7 +11279,7 @@
         <v>606</v>
       </c>
       <c r="C534">
-        <v>110.212</v>
+        <v>113.131</v>
       </c>
       <c r="D534" t="s">
         <v>608</v>
@@ -11296,7 +11296,7 @@
         <v>606</v>
       </c>
       <c r="C535">
-        <v>100.132</v>
+        <v>104.367</v>
       </c>
       <c r="D535" t="s">
         <v>608</v>
@@ -11313,7 +11313,7 @@
         <v>606</v>
       </c>
       <c r="C536">
-        <v>106.849</v>
+        <v>110.915</v>
       </c>
       <c r="D536" t="s">
         <v>608</v>
@@ -11330,7 +11330,7 @@
         <v>606</v>
       </c>
       <c r="C537">
-        <v>115.067</v>
+        <v>113.662</v>
       </c>
       <c r="D537" t="s">
         <v>608</v>
@@ -11347,7 +11347,7 @@
         <v>607</v>
       </c>
       <c r="C538">
-        <v>86.501</v>
+        <v>90.974</v>
       </c>
       <c r="D538" t="s">
         <v>608</v>
@@ -11364,7 +11364,7 @@
         <v>606</v>
       </c>
       <c r="C539">
-        <v>115.318</v>
+        <v>115.431</v>
       </c>
       <c r="D539" t="s">
         <v>608</v>
@@ -11381,7 +11381,7 @@
         <v>607</v>
       </c>
       <c r="C540">
-        <v>91.227</v>
+        <v>95.777</v>
       </c>
       <c r="D540" t="s">
         <v>608</v>
@@ -11398,7 +11398,7 @@
         <v>606</v>
       </c>
       <c r="C541">
-        <v>105.662</v>
+        <v>106.156</v>
       </c>
       <c r="D541" t="s">
         <v>608</v>
@@ -11412,10 +11412,10 @@
         <v>543</v>
       </c>
       <c r="B542" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C542">
-        <v>99.852</v>
+        <v>100.959</v>
       </c>
       <c r="D542" t="s">
         <v>608</v>
@@ -11432,7 +11432,7 @@
         <v>606</v>
       </c>
       <c r="C543">
-        <v>107.766</v>
+        <v>107.445</v>
       </c>
       <c r="D543" t="s">
         <v>608</v>
@@ -11449,7 +11449,7 @@
         <v>607</v>
       </c>
       <c r="C544">
-        <v>98.26600000000001</v>
+        <v>99.506</v>
       </c>
       <c r="D544" t="s">
         <v>608</v>
@@ -11463,10 +11463,10 @@
         <v>546</v>
       </c>
       <c r="B545" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C545">
-        <v>105.939</v>
+        <v>93.557</v>
       </c>
       <c r="D545" t="s">
         <v>608</v>
@@ -11483,7 +11483,7 @@
         <v>607</v>
       </c>
       <c r="C546">
-        <v>99.879</v>
+        <v>98.78</v>
       </c>
       <c r="D546" t="s">
         <v>608</v>
@@ -11497,10 +11497,10 @@
         <v>548</v>
       </c>
       <c r="B547" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C547">
-        <v>98.462</v>
+        <v>101.609</v>
       </c>
       <c r="D547" t="s">
         <v>608</v>
@@ -11517,7 +11517,7 @@
         <v>606</v>
       </c>
       <c r="C548">
-        <v>101.924</v>
+        <v>103.366</v>
       </c>
       <c r="D548" t="s">
         <v>608</v>
@@ -11534,7 +11534,7 @@
         <v>607</v>
       </c>
       <c r="C549">
-        <v>99.623</v>
+        <v>96.105</v>
       </c>
       <c r="D549" t="s">
         <v>608</v>
@@ -11551,7 +11551,7 @@
         <v>606</v>
       </c>
       <c r="C550">
-        <v>100.678</v>
+        <v>104.24</v>
       </c>
       <c r="D550" t="s">
         <v>608</v>
@@ -11565,10 +11565,10 @@
         <v>552</v>
       </c>
       <c r="B551" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C551">
-        <v>99.002</v>
+        <v>100.315</v>
       </c>
       <c r="D551" t="s">
         <v>608</v>
@@ -11585,7 +11585,7 @@
         <v>606</v>
       </c>
       <c r="C552">
-        <v>104.341</v>
+        <v>104.387</v>
       </c>
       <c r="D552" t="s">
         <v>608</v>
@@ -11602,7 +11602,7 @@
         <v>607</v>
       </c>
       <c r="C553">
-        <v>92.569</v>
+        <v>93.121</v>
       </c>
       <c r="D553" t="s">
         <v>608</v>
@@ -11619,7 +11619,7 @@
         <v>606</v>
       </c>
       <c r="C554">
-        <v>109.908</v>
+        <v>109.401</v>
       </c>
       <c r="D554" t="s">
         <v>608</v>
@@ -11636,7 +11636,7 @@
         <v>607</v>
       </c>
       <c r="C555">
-        <v>91.304</v>
+        <v>90.90900000000001</v>
       </c>
       <c r="D555" t="s">
         <v>608</v>
@@ -11650,10 +11650,10 @@
         <v>557</v>
       </c>
       <c r="B556" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C556">
-        <v>100.469</v>
+        <v>99.67400000000001</v>
       </c>
       <c r="D556" t="s">
         <v>608</v>
@@ -11670,7 +11670,7 @@
         <v>607</v>
       </c>
       <c r="C557">
-        <v>99.81999999999999</v>
+        <v>99.79600000000001</v>
       </c>
       <c r="D557" t="s">
         <v>608</v>
@@ -11684,10 +11684,10 @@
         <v>559</v>
       </c>
       <c r="B558" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C558">
-        <v>99.544</v>
+        <v>100.061</v>
       </c>
       <c r="D558" t="s">
         <v>608</v>
@@ -11704,7 +11704,7 @@
         <v>607</v>
       </c>
       <c r="C559">
-        <v>97.367</v>
+        <v>99.34099999999999</v>
       </c>
       <c r="D559" t="s">
         <v>608</v>
@@ -11721,7 +11721,7 @@
         <v>607</v>
       </c>
       <c r="C560">
-        <v>94.071</v>
+        <v>94.303</v>
       </c>
       <c r="D560" t="s">
         <v>608</v>
@@ -11738,7 +11738,7 @@
         <v>606</v>
       </c>
       <c r="C561">
-        <v>109.466</v>
+        <v>108.687</v>
       </c>
       <c r="D561" t="s">
         <v>608</v>
@@ -11755,7 +11755,7 @@
         <v>607</v>
       </c>
       <c r="C562">
-        <v>97.45</v>
+        <v>97.21899999999999</v>
       </c>
       <c r="D562" t="s">
         <v>608</v>
@@ -11772,7 +11772,7 @@
         <v>606</v>
       </c>
       <c r="C563">
-        <v>100</v>
+        <v>100.495</v>
       </c>
       <c r="D563" t="s">
         <v>608</v>
@@ -11789,7 +11789,7 @@
         <v>607</v>
       </c>
       <c r="C564">
-        <v>91.846</v>
+        <v>87.351</v>
       </c>
       <c r="D564" t="s">
         <v>608</v>
@@ -11806,7 +11806,7 @@
         <v>607</v>
       </c>
       <c r="C565">
-        <v>99.693</v>
+        <v>98.98</v>
       </c>
       <c r="D565" t="s">
         <v>608</v>
@@ -11823,7 +11823,7 @@
         <v>607</v>
       </c>
       <c r="C566">
-        <v>99.26900000000001</v>
+        <v>98.098</v>
       </c>
       <c r="D566" t="s">
         <v>608</v>
@@ -11840,7 +11840,7 @@
         <v>606</v>
       </c>
       <c r="C567">
-        <v>120.126</v>
+        <v>127.783</v>
       </c>
       <c r="D567" t="s">
         <v>608</v>
@@ -11857,7 +11857,7 @@
         <v>606</v>
       </c>
       <c r="C568">
-        <v>104.23</v>
+        <v>103.644</v>
       </c>
       <c r="D568" t="s">
         <v>608</v>
@@ -11874,7 +11874,7 @@
         <v>606</v>
       </c>
       <c r="C569">
-        <v>104.956</v>
+        <v>106.719</v>
       </c>
       <c r="D569" t="s">
         <v>608</v>
@@ -11891,7 +11891,7 @@
         <v>606</v>
       </c>
       <c r="C570">
-        <v>105.681</v>
+        <v>107.577</v>
       </c>
       <c r="D570" t="s">
         <v>608</v>
@@ -11908,7 +11908,7 @@
         <v>607</v>
       </c>
       <c r="C571">
-        <v>89.33</v>
+        <v>92.93000000000001</v>
       </c>
       <c r="D571" t="s">
         <v>608</v>
@@ -11925,7 +11925,7 @@
         <v>606</v>
       </c>
       <c r="C572">
-        <v>110.254</v>
+        <v>108.501</v>
       </c>
       <c r="D572" t="s">
         <v>608</v>
@@ -11942,7 +11942,7 @@
         <v>606</v>
       </c>
       <c r="C573">
-        <v>104.802</v>
+        <v>103.181</v>
       </c>
       <c r="D573" t="s">
         <v>608</v>
@@ -11959,7 +11959,7 @@
         <v>606</v>
       </c>
       <c r="C574">
-        <v>103.473</v>
+        <v>105.246</v>
       </c>
       <c r="D574" t="s">
         <v>608</v>
@@ -11976,7 +11976,7 @@
         <v>606</v>
       </c>
       <c r="C575">
-        <v>104.836</v>
+        <v>106.038</v>
       </c>
       <c r="D575" t="s">
         <v>608</v>
@@ -11993,7 +11993,7 @@
         <v>606</v>
       </c>
       <c r="C576">
-        <v>109.317</v>
+        <v>113.001</v>
       </c>
       <c r="D576" t="s">
         <v>608</v>
@@ -12010,7 +12010,7 @@
         <v>606</v>
       </c>
       <c r="C577">
-        <v>103.662</v>
+        <v>113.992</v>
       </c>
       <c r="D577" t="s">
         <v>608</v>
@@ -12027,7 +12027,7 @@
         <v>606</v>
       </c>
       <c r="C578">
-        <v>107.571</v>
+        <v>109.343</v>
       </c>
       <c r="D578" t="s">
         <v>608</v>
@@ -12044,7 +12044,7 @@
         <v>606</v>
       </c>
       <c r="C579">
-        <v>103.059</v>
+        <v>106.007</v>
       </c>
       <c r="D579" t="s">
         <v>608</v>
@@ -12058,10 +12058,10 @@
         <v>581</v>
       </c>
       <c r="B580" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C580">
-        <v>98.367</v>
+        <v>100.848</v>
       </c>
       <c r="D580" t="s">
         <v>608</v>
@@ -12078,7 +12078,7 @@
         <v>606</v>
       </c>
       <c r="C581">
-        <v>108.912</v>
+        <v>106.944</v>
       </c>
       <c r="D581" t="s">
         <v>608</v>
@@ -12095,7 +12095,7 @@
         <v>606</v>
       </c>
       <c r="C582">
-        <v>105.207</v>
+        <v>108.811</v>
       </c>
       <c r="D582" t="s">
         <v>608</v>
@@ -12112,7 +12112,7 @@
         <v>606</v>
       </c>
       <c r="C583">
-        <v>108.645</v>
+        <v>117.679</v>
       </c>
       <c r="D583" t="s">
         <v>608</v>
@@ -12129,7 +12129,7 @@
         <v>606</v>
       </c>
       <c r="C584">
-        <v>114.46</v>
+        <v>122.778</v>
       </c>
       <c r="D584" t="s">
         <v>608</v>
@@ -12146,7 +12146,7 @@
         <v>606</v>
       </c>
       <c r="C585">
-        <v>101.704</v>
+        <v>104.953</v>
       </c>
       <c r="D585" t="s">
         <v>608</v>
@@ -12163,7 +12163,7 @@
         <v>606</v>
       </c>
       <c r="C586">
-        <v>112.401</v>
+        <v>113.103</v>
       </c>
       <c r="D586" t="s">
         <v>608</v>
@@ -12180,7 +12180,7 @@
         <v>606</v>
       </c>
       <c r="C587">
-        <v>111.896</v>
+        <v>108.192</v>
       </c>
       <c r="D587" t="s">
         <v>608</v>
@@ -12197,7 +12197,7 @@
         <v>607</v>
       </c>
       <c r="C588">
-        <v>95.117</v>
+        <v>95.816</v>
       </c>
       <c r="D588" t="s">
         <v>608</v>
@@ -12214,7 +12214,7 @@
         <v>606</v>
       </c>
       <c r="C589">
-        <v>105.944</v>
+        <v>108.653</v>
       </c>
       <c r="D589" t="s">
         <v>608</v>
@@ -12231,7 +12231,7 @@
         <v>606</v>
       </c>
       <c r="C590">
-        <v>107.777</v>
+        <v>110.282</v>
       </c>
       <c r="D590" t="s">
         <v>608</v>
@@ -12245,10 +12245,10 @@
         <v>592</v>
       </c>
       <c r="B591" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C591">
-        <v>98.383</v>
+        <v>102.355</v>
       </c>
       <c r="D591" t="s">
         <v>608</v>
@@ -12265,7 +12265,7 @@
         <v>606</v>
       </c>
       <c r="C592">
-        <v>105.725</v>
+        <v>105.531</v>
       </c>
       <c r="D592" t="s">
         <v>608</v>
@@ -12282,7 +12282,7 @@
         <v>606</v>
       </c>
       <c r="C593">
-        <v>106.327</v>
+        <v>110.36</v>
       </c>
       <c r="D593" t="s">
         <v>608</v>
@@ -12299,7 +12299,7 @@
         <v>606</v>
       </c>
       <c r="C594">
-        <v>100.903</v>
+        <v>103.258</v>
       </c>
       <c r="D594" t="s">
         <v>608</v>
@@ -12316,7 +12316,7 @@
         <v>606</v>
       </c>
       <c r="C595">
-        <v>109.841</v>
+        <v>115.878</v>
       </c>
       <c r="D595" t="s">
         <v>608</v>
@@ -12333,7 +12333,7 @@
         <v>606</v>
       </c>
       <c r="C596">
-        <v>105.951</v>
+        <v>106.414</v>
       </c>
       <c r="D596" t="s">
         <v>608</v>
@@ -12350,7 +12350,7 @@
         <v>606</v>
       </c>
       <c r="C597">
-        <v>108.405</v>
+        <v>112.658</v>
       </c>
       <c r="D597" t="s">
         <v>608</v>
@@ -12367,7 +12367,7 @@
         <v>606</v>
       </c>
       <c r="C598">
-        <v>128.898</v>
+        <v>130.633</v>
       </c>
       <c r="D598" t="s">
         <v>608</v>
@@ -12384,7 +12384,7 @@
         <v>606</v>
       </c>
       <c r="C599">
-        <v>106.633</v>
+        <v>114.956</v>
       </c>
       <c r="D599" t="s">
         <v>608</v>
@@ -12401,7 +12401,7 @@
         <v>606</v>
       </c>
       <c r="C600">
-        <v>112.103</v>
+        <v>113.601</v>
       </c>
       <c r="D600" t="s">
         <v>608</v>
@@ -12418,7 +12418,7 @@
         <v>606</v>
       </c>
       <c r="C601">
-        <v>104.306</v>
+        <v>110.983</v>
       </c>
       <c r="D601" t="s">
         <v>608</v>
@@ -12435,7 +12435,7 @@
         <v>606</v>
       </c>
       <c r="C602">
-        <v>108.435</v>
+        <v>110.204</v>
       </c>
       <c r="D602" t="s">
         <v>608</v>
@@ -12452,7 +12452,7 @@
         <v>606</v>
       </c>
       <c r="C603">
-        <v>101.036</v>
+        <v>101.178</v>
       </c>
       <c r="D603" t="s">
         <v>608</v>
@@ -12469,7 +12469,7 @@
         <v>606</v>
       </c>
       <c r="C604">
-        <v>108.563</v>
+        <v>107.713</v>
       </c>
       <c r="D604" t="s">
         <v>608</v>

--- a/generated_reports/tradfi_momentum.xlsx
+++ b/generated_reports/tradfi_momentum.xlsx
@@ -2235,7 +2235,7 @@
         <v>606</v>
       </c>
       <c r="C2">
-        <v>102.246</v>
+        <v>101.53</v>
       </c>
       <c r="D2" t="s">
         <v>608</v>
@@ -2252,7 +2252,7 @@
         <v>606</v>
       </c>
       <c r="C3">
-        <v>106.853</v>
+        <v>101.462</v>
       </c>
       <c r="D3" t="s">
         <v>608</v>
@@ -2269,7 +2269,7 @@
         <v>606</v>
       </c>
       <c r="C4">
-        <v>107.692</v>
+        <v>105.156</v>
       </c>
       <c r="D4" t="s">
         <v>608</v>
@@ -2286,7 +2286,7 @@
         <v>607</v>
       </c>
       <c r="C5">
-        <v>94.871</v>
+        <v>93.95699999999999</v>
       </c>
       <c r="D5" t="s">
         <v>608</v>
@@ -2303,7 +2303,7 @@
         <v>607</v>
       </c>
       <c r="C6">
-        <v>99.187</v>
+        <v>89.58799999999999</v>
       </c>
       <c r="D6" t="s">
         <v>608</v>
@@ -2320,7 +2320,7 @@
         <v>607</v>
       </c>
       <c r="C7">
-        <v>97.51000000000001</v>
+        <v>97.069</v>
       </c>
       <c r="D7" t="s">
         <v>608</v>
@@ -2337,7 +2337,7 @@
         <v>606</v>
       </c>
       <c r="C8">
-        <v>103.842</v>
+        <v>100.864</v>
       </c>
       <c r="D8" t="s">
         <v>608</v>
@@ -2354,7 +2354,7 @@
         <v>606</v>
       </c>
       <c r="C9">
-        <v>111.554</v>
+        <v>118.725</v>
       </c>
       <c r="D9" t="s">
         <v>608</v>
@@ -2371,7 +2371,7 @@
         <v>606</v>
       </c>
       <c r="C10">
-        <v>115.644</v>
+        <v>112.688</v>
       </c>
       <c r="D10" t="s">
         <v>608</v>
@@ -2388,7 +2388,7 @@
         <v>606</v>
       </c>
       <c r="C11">
-        <v>107.299</v>
+        <v>105.275</v>
       </c>
       <c r="D11" t="s">
         <v>608</v>
@@ -2402,10 +2402,10 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C12">
-        <v>102.337</v>
+        <v>99.649</v>
       </c>
       <c r="D12" t="s">
         <v>608</v>
@@ -2419,10 +2419,10 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C13">
-        <v>101.366</v>
+        <v>94.982</v>
       </c>
       <c r="D13" t="s">
         <v>608</v>
@@ -2439,7 +2439,7 @@
         <v>606</v>
       </c>
       <c r="C14">
-        <v>122.166</v>
+        <v>118.97</v>
       </c>
       <c r="D14" t="s">
         <v>608</v>
@@ -2456,7 +2456,7 @@
         <v>607</v>
       </c>
       <c r="C15">
-        <v>98.864</v>
+        <v>98.75700000000001</v>
       </c>
       <c r="D15" t="s">
         <v>608</v>
@@ -2473,7 +2473,7 @@
         <v>606</v>
       </c>
       <c r="C16">
-        <v>104.902</v>
+        <v>102.167</v>
       </c>
       <c r="D16" t="s">
         <v>608</v>
@@ -2490,7 +2490,7 @@
         <v>606</v>
       </c>
       <c r="C17">
-        <v>105.937</v>
+        <v>101.549</v>
       </c>
       <c r="D17" t="s">
         <v>608</v>
@@ -2507,7 +2507,7 @@
         <v>606</v>
       </c>
       <c r="C18">
-        <v>110.082</v>
+        <v>109.836</v>
       </c>
       <c r="D18" t="s">
         <v>608</v>
@@ -2524,7 +2524,7 @@
         <v>606</v>
       </c>
       <c r="C19">
-        <v>106.775</v>
+        <v>103.672</v>
       </c>
       <c r="D19" t="s">
         <v>608</v>
@@ -2541,7 +2541,7 @@
         <v>606</v>
       </c>
       <c r="C20">
-        <v>104.494</v>
+        <v>104.454</v>
       </c>
       <c r="D20" t="s">
         <v>608</v>
@@ -2558,7 +2558,7 @@
         <v>606</v>
       </c>
       <c r="C21">
-        <v>101.622</v>
+        <v>102.357</v>
       </c>
       <c r="D21" t="s">
         <v>608</v>
@@ -2575,7 +2575,7 @@
         <v>606</v>
       </c>
       <c r="C22">
-        <v>105.318</v>
+        <v>107.224</v>
       </c>
       <c r="D22" t="s">
         <v>608</v>
@@ -2592,7 +2592,7 @@
         <v>606</v>
       </c>
       <c r="C23">
-        <v>100.596</v>
+        <v>100.827</v>
       </c>
       <c r="D23" t="s">
         <v>608</v>
@@ -2606,10 +2606,10 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C24">
-        <v>99.34999999999999</v>
+        <v>104.175</v>
       </c>
       <c r="D24" t="s">
         <v>608</v>
@@ -2626,7 +2626,7 @@
         <v>606</v>
       </c>
       <c r="C25">
-        <v>109.528</v>
+        <v>109.724</v>
       </c>
       <c r="D25" t="s">
         <v>608</v>
@@ -2643,7 +2643,7 @@
         <v>606</v>
       </c>
       <c r="C26">
-        <v>107.617</v>
+        <v>104.522</v>
       </c>
       <c r="D26" t="s">
         <v>608</v>
@@ -2660,7 +2660,7 @@
         <v>606</v>
       </c>
       <c r="C27">
-        <v>110.036</v>
+        <v>106.78</v>
       </c>
       <c r="D27" t="s">
         <v>608</v>
@@ -2674,10 +2674,10 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C28">
-        <v>101.114</v>
+        <v>98.931</v>
       </c>
       <c r="D28" t="s">
         <v>608</v>
@@ -2694,7 +2694,7 @@
         <v>606</v>
       </c>
       <c r="C29">
-        <v>106.979</v>
+        <v>106.825</v>
       </c>
       <c r="D29" t="s">
         <v>608</v>
@@ -2711,7 +2711,7 @@
         <v>606</v>
       </c>
       <c r="C30">
-        <v>106.467</v>
+        <v>106.846</v>
       </c>
       <c r="D30" t="s">
         <v>608</v>
@@ -2725,10 +2725,10 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C31">
-        <v>98.84999999999999</v>
+        <v>107.243</v>
       </c>
       <c r="D31" t="s">
         <v>608</v>
@@ -2745,7 +2745,7 @@
         <v>606</v>
       </c>
       <c r="C32">
-        <v>105.407</v>
+        <v>103.563</v>
       </c>
       <c r="D32" t="s">
         <v>608</v>
@@ -2762,7 +2762,7 @@
         <v>606</v>
       </c>
       <c r="C33">
-        <v>101.949</v>
+        <v>101.522</v>
       </c>
       <c r="D33" t="s">
         <v>608</v>
@@ -2779,7 +2779,7 @@
         <v>607</v>
       </c>
       <c r="C34">
-        <v>89.462</v>
+        <v>96.44199999999999</v>
       </c>
       <c r="D34" t="s">
         <v>608</v>
@@ -2793,10 +2793,10 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C35">
-        <v>101.547</v>
+        <v>98.961</v>
       </c>
       <c r="D35" t="s">
         <v>608</v>
@@ -2813,7 +2813,7 @@
         <v>606</v>
       </c>
       <c r="C36">
-        <v>111.54</v>
+        <v>114.243</v>
       </c>
       <c r="D36" t="s">
         <v>608</v>
@@ -2830,7 +2830,7 @@
         <v>606</v>
       </c>
       <c r="C37">
-        <v>101.251</v>
+        <v>103.451</v>
       </c>
       <c r="D37" t="s">
         <v>608</v>
@@ -2847,7 +2847,7 @@
         <v>607</v>
       </c>
       <c r="C38">
-        <v>95.697</v>
+        <v>97.53100000000001</v>
       </c>
       <c r="D38" t="s">
         <v>608</v>
@@ -2864,7 +2864,7 @@
         <v>606</v>
       </c>
       <c r="C39">
-        <v>110.383</v>
+        <v>109.222</v>
       </c>
       <c r="D39" t="s">
         <v>608</v>
@@ -2881,7 +2881,7 @@
         <v>607</v>
       </c>
       <c r="C40">
-        <v>94.61499999999999</v>
+        <v>99.66500000000001</v>
       </c>
       <c r="D40" t="s">
         <v>608</v>
@@ -2898,7 +2898,7 @@
         <v>606</v>
       </c>
       <c r="C41">
-        <v>108.844</v>
+        <v>109.282</v>
       </c>
       <c r="D41" t="s">
         <v>608</v>
@@ -2915,7 +2915,7 @@
         <v>606</v>
       </c>
       <c r="C42">
-        <v>109.42</v>
+        <v>105.412</v>
       </c>
       <c r="D42" t="s">
         <v>608</v>
@@ -2932,7 +2932,7 @@
         <v>606</v>
       </c>
       <c r="C43">
-        <v>108.601</v>
+        <v>114.059</v>
       </c>
       <c r="D43" t="s">
         <v>608</v>
@@ -2949,7 +2949,7 @@
         <v>606</v>
       </c>
       <c r="C44">
-        <v>110.576</v>
+        <v>111.558</v>
       </c>
       <c r="D44" t="s">
         <v>608</v>
@@ -2966,7 +2966,7 @@
         <v>606</v>
       </c>
       <c r="C45">
-        <v>108.255</v>
+        <v>110.913</v>
       </c>
       <c r="D45" t="s">
         <v>608</v>
@@ -2983,7 +2983,7 @@
         <v>606</v>
       </c>
       <c r="C46">
-        <v>100.397</v>
+        <v>120.629</v>
       </c>
       <c r="D46" t="s">
         <v>608</v>
@@ -3000,7 +3000,7 @@
         <v>606</v>
       </c>
       <c r="C47">
-        <v>103.82</v>
+        <v>105.251</v>
       </c>
       <c r="D47" t="s">
         <v>608</v>
@@ -3017,7 +3017,7 @@
         <v>606</v>
       </c>
       <c r="C48">
-        <v>103.888</v>
+        <v>102.697</v>
       </c>
       <c r="D48" t="s">
         <v>608</v>
@@ -3034,7 +3034,7 @@
         <v>606</v>
       </c>
       <c r="C49">
-        <v>103.862</v>
+        <v>103.564</v>
       </c>
       <c r="D49" t="s">
         <v>608</v>
@@ -3051,7 +3051,7 @@
         <v>606</v>
       </c>
       <c r="C50">
-        <v>103.976</v>
+        <v>102.715</v>
       </c>
       <c r="D50" t="s">
         <v>608</v>
@@ -3068,7 +3068,7 @@
         <v>606</v>
       </c>
       <c r="C51">
-        <v>107.689</v>
+        <v>110.704</v>
       </c>
       <c r="D51" t="s">
         <v>608</v>
@@ -3085,7 +3085,7 @@
         <v>606</v>
       </c>
       <c r="C52">
-        <v>119.349</v>
+        <v>118.035</v>
       </c>
       <c r="D52" t="s">
         <v>608</v>
@@ -3102,7 +3102,7 @@
         <v>607</v>
       </c>
       <c r="C53">
-        <v>92.389</v>
+        <v>93.19499999999999</v>
       </c>
       <c r="D53" t="s">
         <v>608</v>
@@ -3119,7 +3119,7 @@
         <v>606</v>
       </c>
       <c r="C54">
-        <v>102.212</v>
+        <v>105.97</v>
       </c>
       <c r="D54" t="s">
         <v>608</v>
@@ -3136,7 +3136,7 @@
         <v>606</v>
       </c>
       <c r="C55">
-        <v>103.752</v>
+        <v>106.707</v>
       </c>
       <c r="D55" t="s">
         <v>608</v>
@@ -3153,7 +3153,7 @@
         <v>606</v>
       </c>
       <c r="C56">
-        <v>113.206</v>
+        <v>117.105</v>
       </c>
       <c r="D56" t="s">
         <v>608</v>
@@ -3170,7 +3170,7 @@
         <v>606</v>
       </c>
       <c r="C57">
-        <v>120.032</v>
+        <v>124.242</v>
       </c>
       <c r="D57" t="s">
         <v>608</v>
@@ -3187,7 +3187,7 @@
         <v>606</v>
       </c>
       <c r="C58">
-        <v>101.355</v>
+        <v>102.38</v>
       </c>
       <c r="D58" t="s">
         <v>608</v>
@@ -3204,7 +3204,7 @@
         <v>606</v>
       </c>
       <c r="C59">
-        <v>112.951</v>
+        <v>114.018</v>
       </c>
       <c r="D59" t="s">
         <v>608</v>
@@ -3221,7 +3221,7 @@
         <v>606</v>
       </c>
       <c r="C60">
-        <v>104.117</v>
+        <v>102.234</v>
       </c>
       <c r="D60" t="s">
         <v>608</v>
@@ -3238,7 +3238,7 @@
         <v>606</v>
       </c>
       <c r="C61">
-        <v>106.886</v>
+        <v>105.672</v>
       </c>
       <c r="D61" t="s">
         <v>608</v>
@@ -3255,7 +3255,7 @@
         <v>606</v>
       </c>
       <c r="C62">
-        <v>105.797</v>
+        <v>105.3</v>
       </c>
       <c r="D62" t="s">
         <v>608</v>
@@ -3272,7 +3272,7 @@
         <v>606</v>
       </c>
       <c r="C63">
-        <v>106.628</v>
+        <v>107.692</v>
       </c>
       <c r="D63" t="s">
         <v>608</v>
@@ -3289,7 +3289,7 @@
         <v>606</v>
       </c>
       <c r="C64">
-        <v>107.758</v>
+        <v>110.672</v>
       </c>
       <c r="D64" t="s">
         <v>608</v>
@@ -3306,7 +3306,7 @@
         <v>606</v>
       </c>
       <c r="C65">
-        <v>101.485</v>
+        <v>104.007</v>
       </c>
       <c r="D65" t="s">
         <v>608</v>
@@ -3323,7 +3323,7 @@
         <v>607</v>
       </c>
       <c r="C66">
-        <v>70.276</v>
+        <v>71.04600000000001</v>
       </c>
       <c r="D66" t="s">
         <v>608</v>
@@ -3337,10 +3337,10 @@
         <v>70</v>
       </c>
       <c r="B67" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C67">
-        <v>101.913</v>
+        <v>98.196</v>
       </c>
       <c r="D67" t="s">
         <v>608</v>
@@ -3357,7 +3357,7 @@
         <v>606</v>
       </c>
       <c r="C68">
-        <v>108.122</v>
+        <v>107.441</v>
       </c>
       <c r="D68" t="s">
         <v>608</v>
@@ -3371,10 +3371,10 @@
         <v>72</v>
       </c>
       <c r="B69" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C69">
-        <v>99.517</v>
+        <v>101.984</v>
       </c>
       <c r="D69" t="s">
         <v>608</v>
@@ -3391,7 +3391,7 @@
         <v>606</v>
       </c>
       <c r="C70">
-        <v>102.844</v>
+        <v>101.76</v>
       </c>
       <c r="D70" t="s">
         <v>608</v>
@@ -3408,7 +3408,7 @@
         <v>606</v>
       </c>
       <c r="C71">
-        <v>112.049</v>
+        <v>111.225</v>
       </c>
       <c r="D71" t="s">
         <v>608</v>
@@ -3425,7 +3425,7 @@
         <v>606</v>
       </c>
       <c r="C72">
-        <v>106.95</v>
+        <v>107.913</v>
       </c>
       <c r="D72" t="s">
         <v>608</v>
@@ -3442,7 +3442,7 @@
         <v>606</v>
       </c>
       <c r="C73">
-        <v>116.989</v>
+        <v>117.627</v>
       </c>
       <c r="D73" t="s">
         <v>608</v>
@@ -3459,7 +3459,7 @@
         <v>606</v>
       </c>
       <c r="C74">
-        <v>102.573</v>
+        <v>102.948</v>
       </c>
       <c r="D74" t="s">
         <v>608</v>
@@ -3476,7 +3476,7 @@
         <v>606</v>
       </c>
       <c r="C75">
-        <v>112.342</v>
+        <v>106.331</v>
       </c>
       <c r="D75" t="s">
         <v>608</v>
@@ -3493,7 +3493,7 @@
         <v>607</v>
       </c>
       <c r="C76">
-        <v>98.956</v>
+        <v>98.583</v>
       </c>
       <c r="D76" t="s">
         <v>608</v>
@@ -3510,7 +3510,7 @@
         <v>606</v>
       </c>
       <c r="C77">
-        <v>124.155</v>
+        <v>131.359</v>
       </c>
       <c r="D77" t="s">
         <v>608</v>
@@ -3527,7 +3527,7 @@
         <v>606</v>
       </c>
       <c r="C78">
-        <v>115.32</v>
+        <v>117.149</v>
       </c>
       <c r="D78" t="s">
         <v>608</v>
@@ -3544,7 +3544,7 @@
         <v>606</v>
       </c>
       <c r="C79">
-        <v>108.527</v>
+        <v>111.167</v>
       </c>
       <c r="D79" t="s">
         <v>608</v>
@@ -3561,7 +3561,7 @@
         <v>606</v>
       </c>
       <c r="C80">
-        <v>105.222</v>
+        <v>100.877</v>
       </c>
       <c r="D80" t="s">
         <v>608</v>
@@ -3578,7 +3578,7 @@
         <v>606</v>
       </c>
       <c r="C81">
-        <v>116.489</v>
+        <v>119.739</v>
       </c>
       <c r="D81" t="s">
         <v>608</v>
@@ -3595,7 +3595,7 @@
         <v>607</v>
       </c>
       <c r="C82">
-        <v>91.068</v>
+        <v>94.21599999999999</v>
       </c>
       <c r="D82" t="s">
         <v>608</v>
@@ -3609,10 +3609,10 @@
         <v>86</v>
       </c>
       <c r="B83" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C83">
-        <v>89.64100000000001</v>
+        <v>120.349</v>
       </c>
       <c r="D83" t="s">
         <v>608</v>
@@ -3629,7 +3629,7 @@
         <v>606</v>
       </c>
       <c r="C84">
-        <v>115.943</v>
+        <v>118.503</v>
       </c>
       <c r="D84" t="s">
         <v>608</v>
@@ -3646,7 +3646,7 @@
         <v>606</v>
       </c>
       <c r="C85">
-        <v>110.889</v>
+        <v>118.582</v>
       </c>
       <c r="D85" t="s">
         <v>608</v>
@@ -3663,7 +3663,7 @@
         <v>606</v>
       </c>
       <c r="C86">
-        <v>103.279</v>
+        <v>107.985</v>
       </c>
       <c r="D86" t="s">
         <v>608</v>
@@ -3680,7 +3680,7 @@
         <v>606</v>
       </c>
       <c r="C87">
-        <v>121.855</v>
+        <v>132.6</v>
       </c>
       <c r="D87" t="s">
         <v>608</v>
@@ -3697,7 +3697,7 @@
         <v>606</v>
       </c>
       <c r="C88">
-        <v>104.329</v>
+        <v>106.293</v>
       </c>
       <c r="D88" t="s">
         <v>608</v>
@@ -3714,7 +3714,7 @@
         <v>606</v>
       </c>
       <c r="C89">
-        <v>106.419</v>
+        <v>113.117</v>
       </c>
       <c r="D89" t="s">
         <v>608</v>
@@ -3731,7 +3731,7 @@
         <v>606</v>
       </c>
       <c r="C90">
-        <v>112.688</v>
+        <v>118.657</v>
       </c>
       <c r="D90" t="s">
         <v>608</v>
@@ -3748,7 +3748,7 @@
         <v>607</v>
       </c>
       <c r="C91">
-        <v>90.09399999999999</v>
+        <v>89.947</v>
       </c>
       <c r="D91" t="s">
         <v>608</v>
@@ -3765,7 +3765,7 @@
         <v>606</v>
       </c>
       <c r="C92">
-        <v>119.08</v>
+        <v>121.661</v>
       </c>
       <c r="D92" t="s">
         <v>608</v>
@@ -3782,7 +3782,7 @@
         <v>606</v>
       </c>
       <c r="C93">
-        <v>110.545</v>
+        <v>108.885</v>
       </c>
       <c r="D93" t="s">
         <v>608</v>
@@ -3799,7 +3799,7 @@
         <v>606</v>
       </c>
       <c r="C94">
-        <v>129.752</v>
+        <v>128.846</v>
       </c>
       <c r="D94" t="s">
         <v>608</v>
@@ -3816,7 +3816,7 @@
         <v>607</v>
       </c>
       <c r="C95">
-        <v>95.15300000000001</v>
+        <v>93.81999999999999</v>
       </c>
       <c r="D95" t="s">
         <v>608</v>
@@ -3833,7 +3833,7 @@
         <v>606</v>
       </c>
       <c r="C96">
-        <v>111.373</v>
+        <v>113.713</v>
       </c>
       <c r="D96" t="s">
         <v>608</v>
@@ -3850,7 +3850,7 @@
         <v>606</v>
       </c>
       <c r="C97">
-        <v>103.123</v>
+        <v>106.355</v>
       </c>
       <c r="D97" t="s">
         <v>608</v>
@@ -3867,7 +3867,7 @@
         <v>606</v>
       </c>
       <c r="C98">
-        <v>100.492</v>
+        <v>105.885</v>
       </c>
       <c r="D98" t="s">
         <v>608</v>
@@ -3884,7 +3884,7 @@
         <v>606</v>
       </c>
       <c r="C99">
-        <v>130.716</v>
+        <v>132.766</v>
       </c>
       <c r="D99" t="s">
         <v>608</v>
@@ -3901,7 +3901,7 @@
         <v>606</v>
       </c>
       <c r="C100">
-        <v>114.341</v>
+        <v>115.222</v>
       </c>
       <c r="D100" t="s">
         <v>608</v>
@@ -3918,7 +3918,7 @@
         <v>606</v>
       </c>
       <c r="C101">
-        <v>103.586</v>
+        <v>103.945</v>
       </c>
       <c r="D101" t="s">
         <v>608</v>
@@ -3935,7 +3935,7 @@
         <v>606</v>
       </c>
       <c r="C102">
-        <v>106.83</v>
+        <v>105.548</v>
       </c>
       <c r="D102" t="s">
         <v>608</v>
@@ -3952,7 +3952,7 @@
         <v>606</v>
       </c>
       <c r="C103">
-        <v>107.985</v>
+        <v>103.035</v>
       </c>
       <c r="D103" t="s">
         <v>608</v>
@@ -3969,7 +3969,7 @@
         <v>606</v>
       </c>
       <c r="C104">
-        <v>108.625</v>
+        <v>112.116</v>
       </c>
       <c r="D104" t="s">
         <v>608</v>
@@ -3986,7 +3986,7 @@
         <v>606</v>
       </c>
       <c r="C105">
-        <v>110.569</v>
+        <v>114.22</v>
       </c>
       <c r="D105" t="s">
         <v>608</v>
@@ -4003,7 +4003,7 @@
         <v>606</v>
       </c>
       <c r="C106">
-        <v>106.331</v>
+        <v>103.252</v>
       </c>
       <c r="D106" t="s">
         <v>608</v>
@@ -4017,10 +4017,10 @@
         <v>110</v>
       </c>
       <c r="B107" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C107">
-        <v>101.397</v>
+        <v>97.976</v>
       </c>
       <c r="D107" t="s">
         <v>608</v>
@@ -4037,7 +4037,7 @@
         <v>606</v>
       </c>
       <c r="C108">
-        <v>112.917</v>
+        <v>111.362</v>
       </c>
       <c r="D108" t="s">
         <v>608</v>
@@ -4051,10 +4051,10 @@
         <v>112</v>
       </c>
       <c r="B109" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C109">
-        <v>101.171</v>
+        <v>98.053</v>
       </c>
       <c r="D109" t="s">
         <v>608</v>
@@ -4071,7 +4071,7 @@
         <v>606</v>
       </c>
       <c r="C110">
-        <v>103.613</v>
+        <v>100.046</v>
       </c>
       <c r="D110" t="s">
         <v>608</v>
@@ -4088,7 +4088,7 @@
         <v>606</v>
       </c>
       <c r="C111">
-        <v>107.75</v>
+        <v>109.889</v>
       </c>
       <c r="D111" t="s">
         <v>608</v>
@@ -4105,7 +4105,7 @@
         <v>607</v>
       </c>
       <c r="C112">
-        <v>97.476</v>
+        <v>93.54300000000001</v>
       </c>
       <c r="D112" t="s">
         <v>608</v>
@@ -4119,10 +4119,10 @@
         <v>116</v>
       </c>
       <c r="B113" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C113">
-        <v>101.321</v>
+        <v>98.61</v>
       </c>
       <c r="D113" t="s">
         <v>608</v>
@@ -4139,7 +4139,7 @@
         <v>606</v>
       </c>
       <c r="C114">
-        <v>106.217</v>
+        <v>104.963</v>
       </c>
       <c r="D114" t="s">
         <v>608</v>
@@ -4156,7 +4156,7 @@
         <v>606</v>
       </c>
       <c r="C115">
-        <v>125.044</v>
+        <v>124.816</v>
       </c>
       <c r="D115" t="s">
         <v>608</v>
@@ -4173,7 +4173,7 @@
         <v>606</v>
       </c>
       <c r="C116">
-        <v>114.739</v>
+        <v>116.85</v>
       </c>
       <c r="D116" t="s">
         <v>608</v>
@@ -4190,7 +4190,7 @@
         <v>606</v>
       </c>
       <c r="C117">
-        <v>101.186</v>
+        <v>100.083</v>
       </c>
       <c r="D117" t="s">
         <v>608</v>
@@ -4204,10 +4204,10 @@
         <v>121</v>
       </c>
       <c r="B118" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C118">
-        <v>99.77</v>
+        <v>100.483</v>
       </c>
       <c r="D118" t="s">
         <v>608</v>
@@ -4224,7 +4224,7 @@
         <v>606</v>
       </c>
       <c r="C119">
-        <v>106.175</v>
+        <v>104.446</v>
       </c>
       <c r="D119" t="s">
         <v>608</v>
@@ -4241,7 +4241,7 @@
         <v>606</v>
       </c>
       <c r="C120">
-        <v>110.52</v>
+        <v>109.693</v>
       </c>
       <c r="D120" t="s">
         <v>608</v>
@@ -4258,7 +4258,7 @@
         <v>606</v>
       </c>
       <c r="C121">
-        <v>105.287</v>
+        <v>106.459</v>
       </c>
       <c r="D121" t="s">
         <v>608</v>
@@ -4275,7 +4275,7 @@
         <v>606</v>
       </c>
       <c r="C122">
-        <v>116.263</v>
+        <v>117.336</v>
       </c>
       <c r="D122" t="s">
         <v>608</v>
@@ -4292,7 +4292,7 @@
         <v>606</v>
       </c>
       <c r="C123">
-        <v>125.306</v>
+        <v>123.475</v>
       </c>
       <c r="D123" t="s">
         <v>608</v>
@@ -4309,7 +4309,7 @@
         <v>606</v>
       </c>
       <c r="C124">
-        <v>110.361</v>
+        <v>107.547</v>
       </c>
       <c r="D124" t="s">
         <v>608</v>
@@ -4326,7 +4326,7 @@
         <v>606</v>
       </c>
       <c r="C125">
-        <v>110.345</v>
+        <v>108.958</v>
       </c>
       <c r="D125" t="s">
         <v>608</v>
@@ -4343,7 +4343,7 @@
         <v>606</v>
       </c>
       <c r="C126">
-        <v>109.373</v>
+        <v>110.642</v>
       </c>
       <c r="D126" t="s">
         <v>608</v>
@@ -4360,7 +4360,7 @@
         <v>606</v>
       </c>
       <c r="C127">
-        <v>108.108</v>
+        <v>106.192</v>
       </c>
       <c r="D127" t="s">
         <v>608</v>
@@ -4377,7 +4377,7 @@
         <v>606</v>
       </c>
       <c r="C128">
-        <v>111.113</v>
+        <v>109.864</v>
       </c>
       <c r="D128" t="s">
         <v>608</v>
@@ -4394,7 +4394,7 @@
         <v>606</v>
       </c>
       <c r="C129">
-        <v>107.094</v>
+        <v>107.878</v>
       </c>
       <c r="D129" t="s">
         <v>608</v>
@@ -4411,7 +4411,7 @@
         <v>606</v>
       </c>
       <c r="C130">
-        <v>106.511</v>
+        <v>105.126</v>
       </c>
       <c r="D130" t="s">
         <v>608</v>
@@ -4428,7 +4428,7 @@
         <v>606</v>
       </c>
       <c r="C131">
-        <v>105.613</v>
+        <v>105.764</v>
       </c>
       <c r="D131" t="s">
         <v>608</v>
@@ -4445,7 +4445,7 @@
         <v>606</v>
       </c>
       <c r="C132">
-        <v>114.104</v>
+        <v>110.057</v>
       </c>
       <c r="D132" t="s">
         <v>608</v>
@@ -4462,7 +4462,7 @@
         <v>606</v>
       </c>
       <c r="C133">
-        <v>111.551</v>
+        <v>117.23</v>
       </c>
       <c r="D133" t="s">
         <v>608</v>
@@ -4479,7 +4479,7 @@
         <v>606</v>
       </c>
       <c r="C134">
-        <v>110.436</v>
+        <v>114.471</v>
       </c>
       <c r="D134" t="s">
         <v>608</v>
@@ -4496,7 +4496,7 @@
         <v>606</v>
       </c>
       <c r="C135">
-        <v>108.398</v>
+        <v>108.278</v>
       </c>
       <c r="D135" t="s">
         <v>608</v>
@@ -4513,7 +4513,7 @@
         <v>606</v>
       </c>
       <c r="C136">
-        <v>103.179</v>
+        <v>101.88</v>
       </c>
       <c r="D136" t="s">
         <v>608</v>
@@ -4530,7 +4530,7 @@
         <v>606</v>
       </c>
       <c r="C137">
-        <v>118.545</v>
+        <v>119.908</v>
       </c>
       <c r="D137" t="s">
         <v>608</v>
@@ -4547,7 +4547,7 @@
         <v>606</v>
       </c>
       <c r="C138">
-        <v>102.843</v>
+        <v>101.345</v>
       </c>
       <c r="D138" t="s">
         <v>608</v>
@@ -4564,7 +4564,7 @@
         <v>606</v>
       </c>
       <c r="C139">
-        <v>107.901</v>
+        <v>106.714</v>
       </c>
       <c r="D139" t="s">
         <v>608</v>
@@ -4581,7 +4581,7 @@
         <v>606</v>
       </c>
       <c r="C140">
-        <v>109.225</v>
+        <v>106.266</v>
       </c>
       <c r="D140" t="s">
         <v>608</v>
@@ -4598,7 +4598,7 @@
         <v>606</v>
       </c>
       <c r="C141">
-        <v>108.22</v>
+        <v>107.754</v>
       </c>
       <c r="D141" t="s">
         <v>608</v>
@@ -4615,7 +4615,7 @@
         <v>606</v>
       </c>
       <c r="C142">
-        <v>110.864</v>
+        <v>105.913</v>
       </c>
       <c r="D142" t="s">
         <v>608</v>
@@ -4632,7 +4632,7 @@
         <v>606</v>
       </c>
       <c r="C143">
-        <v>117.761</v>
+        <v>114.634</v>
       </c>
       <c r="D143" t="s">
         <v>608</v>
@@ -4649,7 +4649,7 @@
         <v>606</v>
       </c>
       <c r="C144">
-        <v>109.546</v>
+        <v>108.751</v>
       </c>
       <c r="D144" t="s">
         <v>608</v>
@@ -4666,7 +4666,7 @@
         <v>606</v>
       </c>
       <c r="C145">
-        <v>100.972</v>
+        <v>101.521</v>
       </c>
       <c r="D145" t="s">
         <v>608</v>
@@ -4683,7 +4683,7 @@
         <v>606</v>
       </c>
       <c r="C146">
-        <v>104.297</v>
+        <v>105.009</v>
       </c>
       <c r="D146" t="s">
         <v>608</v>
@@ -4700,7 +4700,7 @@
         <v>606</v>
       </c>
       <c r="C147">
-        <v>115.035</v>
+        <v>113.053</v>
       </c>
       <c r="D147" t="s">
         <v>608</v>
@@ -4714,10 +4714,10 @@
         <v>151</v>
       </c>
       <c r="B148" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C148">
-        <v>100.105</v>
+        <v>97.161</v>
       </c>
       <c r="D148" t="s">
         <v>608</v>
@@ -4734,7 +4734,7 @@
         <v>606</v>
       </c>
       <c r="C149">
-        <v>112.07</v>
+        <v>109.08</v>
       </c>
       <c r="D149" t="s">
         <v>608</v>
@@ -4751,7 +4751,7 @@
         <v>606</v>
       </c>
       <c r="C150">
-        <v>117.816</v>
+        <v>117.175</v>
       </c>
       <c r="D150" t="s">
         <v>608</v>
@@ -4768,7 +4768,7 @@
         <v>606</v>
       </c>
       <c r="C151">
-        <v>110.661</v>
+        <v>107.058</v>
       </c>
       <c r="D151" t="s">
         <v>608</v>
@@ -4785,7 +4785,7 @@
         <v>606</v>
       </c>
       <c r="C152">
-        <v>154.922</v>
+        <v>135.147</v>
       </c>
       <c r="D152" t="s">
         <v>608</v>
@@ -4802,7 +4802,7 @@
         <v>606</v>
       </c>
       <c r="C153">
-        <v>100.129</v>
+        <v>105.109</v>
       </c>
       <c r="D153" t="s">
         <v>608</v>
@@ -4819,7 +4819,7 @@
         <v>606</v>
       </c>
       <c r="C154">
-        <v>103.044</v>
+        <v>109.091</v>
       </c>
       <c r="D154" t="s">
         <v>608</v>
@@ -4836,7 +4836,7 @@
         <v>606</v>
       </c>
       <c r="C155">
-        <v>112.251</v>
+        <v>113.634</v>
       </c>
       <c r="D155" t="s">
         <v>608</v>
@@ -4850,10 +4850,10 @@
         <v>159</v>
       </c>
       <c r="B156" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C156">
-        <v>99.83499999999999</v>
+        <v>107</v>
       </c>
       <c r="D156" t="s">
         <v>608</v>
@@ -4870,7 +4870,7 @@
         <v>606</v>
       </c>
       <c r="C157">
-        <v>111.703</v>
+        <v>107.761</v>
       </c>
       <c r="D157" t="s">
         <v>608</v>
@@ -4884,10 +4884,10 @@
         <v>161</v>
       </c>
       <c r="B158" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C158">
-        <v>100.189</v>
+        <v>98.58199999999999</v>
       </c>
       <c r="D158" t="s">
         <v>608</v>
@@ -4904,7 +4904,7 @@
         <v>606</v>
       </c>
       <c r="C159">
-        <v>115.525</v>
+        <v>111.492</v>
       </c>
       <c r="D159" t="s">
         <v>608</v>
@@ -4918,10 +4918,10 @@
         <v>163</v>
       </c>
       <c r="B160" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C160">
-        <v>103.039</v>
+        <v>98.699</v>
       </c>
       <c r="D160" t="s">
         <v>608</v>
@@ -4938,7 +4938,7 @@
         <v>606</v>
       </c>
       <c r="C161">
-        <v>103.06</v>
+        <v>103.077</v>
       </c>
       <c r="D161" t="s">
         <v>608</v>
@@ -4955,7 +4955,7 @@
         <v>606</v>
       </c>
       <c r="C162">
-        <v>108.228</v>
+        <v>104.642</v>
       </c>
       <c r="D162" t="s">
         <v>608</v>
@@ -4972,7 +4972,7 @@
         <v>606</v>
       </c>
       <c r="C163">
-        <v>102.506</v>
+        <v>101.664</v>
       </c>
       <c r="D163" t="s">
         <v>608</v>
@@ -4989,7 +4989,7 @@
         <v>606</v>
       </c>
       <c r="C164">
-        <v>106.233</v>
+        <v>102.51</v>
       </c>
       <c r="D164" t="s">
         <v>608</v>
@@ -5006,7 +5006,7 @@
         <v>606</v>
       </c>
       <c r="C165">
-        <v>117.342</v>
+        <v>123.544</v>
       </c>
       <c r="D165" t="s">
         <v>608</v>
@@ -5023,7 +5023,7 @@
         <v>606</v>
       </c>
       <c r="C166">
-        <v>122.163</v>
+        <v>126.655</v>
       </c>
       <c r="D166" t="s">
         <v>608</v>
@@ -5040,7 +5040,7 @@
         <v>606</v>
       </c>
       <c r="C167">
-        <v>104</v>
+        <v>105.032</v>
       </c>
       <c r="D167" t="s">
         <v>608</v>
@@ -5057,7 +5057,7 @@
         <v>606</v>
       </c>
       <c r="C168">
-        <v>109.12</v>
+        <v>107.435</v>
       </c>
       <c r="D168" t="s">
         <v>608</v>
@@ -5074,7 +5074,7 @@
         <v>606</v>
       </c>
       <c r="C169">
-        <v>101.429</v>
+        <v>102.682</v>
       </c>
       <c r="D169" t="s">
         <v>608</v>
@@ -5091,7 +5091,7 @@
         <v>606</v>
       </c>
       <c r="C170">
-        <v>106.854</v>
+        <v>103.868</v>
       </c>
       <c r="D170" t="s">
         <v>608</v>
@@ -5108,7 +5108,7 @@
         <v>606</v>
       </c>
       <c r="C171">
-        <v>109.539</v>
+        <v>110.222</v>
       </c>
       <c r="D171" t="s">
         <v>608</v>
@@ -5125,7 +5125,7 @@
         <v>606</v>
       </c>
       <c r="C172">
-        <v>111.795</v>
+        <v>111.403</v>
       </c>
       <c r="D172" t="s">
         <v>608</v>
@@ -5139,10 +5139,10 @@
         <v>176</v>
       </c>
       <c r="B173" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C173">
-        <v>103.175</v>
+        <v>99.685</v>
       </c>
       <c r="D173" t="s">
         <v>608</v>
@@ -5156,10 +5156,10 @@
         <v>177</v>
       </c>
       <c r="B174" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C174">
-        <v>101.018</v>
+        <v>98.117</v>
       </c>
       <c r="D174" t="s">
         <v>608</v>
@@ -5176,7 +5176,7 @@
         <v>606</v>
       </c>
       <c r="C175">
-        <v>107.229</v>
+        <v>109.083</v>
       </c>
       <c r="D175" t="s">
         <v>608</v>
@@ -5193,7 +5193,7 @@
         <v>606</v>
       </c>
       <c r="C176">
-        <v>134.346</v>
+        <v>138.488</v>
       </c>
       <c r="D176" t="s">
         <v>608</v>
@@ -5210,7 +5210,7 @@
         <v>606</v>
       </c>
       <c r="C177">
-        <v>109.752</v>
+        <v>108.873</v>
       </c>
       <c r="D177" t="s">
         <v>608</v>
@@ -5227,7 +5227,7 @@
         <v>606</v>
       </c>
       <c r="C178">
-        <v>103.063</v>
+        <v>104.128</v>
       </c>
       <c r="D178" t="s">
         <v>608</v>
@@ -5244,7 +5244,7 @@
         <v>606</v>
       </c>
       <c r="C179">
-        <v>109.41</v>
+        <v>108.436</v>
       </c>
       <c r="D179" t="s">
         <v>608</v>
@@ -5261,7 +5261,7 @@
         <v>606</v>
       </c>
       <c r="C180">
-        <v>104.033</v>
+        <v>102.986</v>
       </c>
       <c r="D180" t="s">
         <v>608</v>
@@ -5278,7 +5278,7 @@
         <v>606</v>
       </c>
       <c r="C181">
-        <v>109.898</v>
+        <v>106.035</v>
       </c>
       <c r="D181" t="s">
         <v>608</v>
@@ -5295,7 +5295,7 @@
         <v>606</v>
       </c>
       <c r="C182">
-        <v>102.032</v>
+        <v>102.678</v>
       </c>
       <c r="D182" t="s">
         <v>608</v>
@@ -5312,7 +5312,7 @@
         <v>606</v>
       </c>
       <c r="C183">
-        <v>103.256</v>
+        <v>103.603</v>
       </c>
       <c r="D183" t="s">
         <v>608</v>
@@ -5329,7 +5329,7 @@
         <v>606</v>
       </c>
       <c r="C184">
-        <v>111.382</v>
+        <v>111.685</v>
       </c>
       <c r="D184" t="s">
         <v>608</v>
@@ -5346,7 +5346,7 @@
         <v>606</v>
       </c>
       <c r="C185">
-        <v>101.946</v>
+        <v>100.157</v>
       </c>
       <c r="D185" t="s">
         <v>608</v>
@@ -5363,7 +5363,7 @@
         <v>606</v>
       </c>
       <c r="C186">
-        <v>106.44</v>
+        <v>107.253</v>
       </c>
       <c r="D186" t="s">
         <v>608</v>
@@ -5380,7 +5380,7 @@
         <v>607</v>
       </c>
       <c r="C187">
-        <v>92.599</v>
+        <v>92.02200000000001</v>
       </c>
       <c r="D187" t="s">
         <v>608</v>
@@ -5397,7 +5397,7 @@
         <v>606</v>
       </c>
       <c r="C188">
-        <v>123.774</v>
+        <v>127.949</v>
       </c>
       <c r="D188" t="s">
         <v>608</v>
@@ -5414,7 +5414,7 @@
         <v>606</v>
       </c>
       <c r="C189">
-        <v>113.338</v>
+        <v>113.881</v>
       </c>
       <c r="D189" t="s">
         <v>608</v>
@@ -5431,7 +5431,7 @@
         <v>606</v>
       </c>
       <c r="C190">
-        <v>106.374</v>
+        <v>107.128</v>
       </c>
       <c r="D190" t="s">
         <v>608</v>
@@ -5448,7 +5448,7 @@
         <v>606</v>
       </c>
       <c r="C191">
-        <v>111.965</v>
+        <v>119.15</v>
       </c>
       <c r="D191" t="s">
         <v>608</v>
@@ -5465,7 +5465,7 @@
         <v>606</v>
       </c>
       <c r="C192">
-        <v>105.387</v>
+        <v>110.189</v>
       </c>
       <c r="D192" t="s">
         <v>608</v>
@@ -5482,7 +5482,7 @@
         <v>606</v>
       </c>
       <c r="C193">
-        <v>103.99</v>
+        <v>105.137</v>
       </c>
       <c r="D193" t="s">
         <v>608</v>
@@ -5499,7 +5499,7 @@
         <v>606</v>
       </c>
       <c r="C194">
-        <v>118.985</v>
+        <v>121.474</v>
       </c>
       <c r="D194" t="s">
         <v>608</v>
@@ -5516,7 +5516,7 @@
         <v>606</v>
       </c>
       <c r="C195">
-        <v>105.282</v>
+        <v>104.675</v>
       </c>
       <c r="D195" t="s">
         <v>608</v>
@@ -5533,7 +5533,7 @@
         <v>606</v>
       </c>
       <c r="C196">
-        <v>108.474</v>
+        <v>107.476</v>
       </c>
       <c r="D196" t="s">
         <v>608</v>
@@ -5550,7 +5550,7 @@
         <v>606</v>
       </c>
       <c r="C197">
-        <v>106.117</v>
+        <v>107.935</v>
       </c>
       <c r="D197" t="s">
         <v>608</v>
@@ -5567,7 +5567,7 @@
         <v>606</v>
       </c>
       <c r="C198">
-        <v>108.546</v>
+        <v>105.607</v>
       </c>
       <c r="D198" t="s">
         <v>608</v>
@@ -5584,7 +5584,7 @@
         <v>606</v>
       </c>
       <c r="C199">
-        <v>115.451</v>
+        <v>116.137</v>
       </c>
       <c r="D199" t="s">
         <v>608</v>
@@ -5598,10 +5598,10 @@
         <v>203</v>
       </c>
       <c r="B200" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C200">
-        <v>93.72</v>
+        <v>102.964</v>
       </c>
       <c r="D200" t="s">
         <v>608</v>
@@ -5618,7 +5618,7 @@
         <v>606</v>
       </c>
       <c r="C201">
-        <v>109.652</v>
+        <v>106.274</v>
       </c>
       <c r="D201" t="s">
         <v>608</v>
@@ -5635,7 +5635,7 @@
         <v>606</v>
       </c>
       <c r="C202">
-        <v>104.677</v>
+        <v>106.813</v>
       </c>
       <c r="D202" t="s">
         <v>608</v>
@@ -5652,7 +5652,7 @@
         <v>606</v>
       </c>
       <c r="C203">
-        <v>123.747</v>
+        <v>128.92</v>
       </c>
       <c r="D203" t="s">
         <v>608</v>
@@ -5669,7 +5669,7 @@
         <v>606</v>
       </c>
       <c r="C204">
-        <v>117.506</v>
+        <v>125.109</v>
       </c>
       <c r="D204" t="s">
         <v>608</v>
@@ -5686,7 +5686,7 @@
         <v>606</v>
       </c>
       <c r="C205">
-        <v>101.542</v>
+        <v>105.01</v>
       </c>
       <c r="D205" t="s">
         <v>608</v>
@@ -5703,7 +5703,7 @@
         <v>606</v>
       </c>
       <c r="C206">
-        <v>152.295</v>
+        <v>152.336</v>
       </c>
       <c r="D206" t="s">
         <v>608</v>
@@ -5720,7 +5720,7 @@
         <v>606</v>
       </c>
       <c r="C207">
-        <v>109.585</v>
+        <v>108.213</v>
       </c>
       <c r="D207" t="s">
         <v>608</v>
@@ -5737,7 +5737,7 @@
         <v>606</v>
       </c>
       <c r="C208">
-        <v>125.772</v>
+        <v>123.351</v>
       </c>
       <c r="D208" t="s">
         <v>608</v>
@@ -5754,7 +5754,7 @@
         <v>606</v>
       </c>
       <c r="C209">
-        <v>107.048</v>
+        <v>100.412</v>
       </c>
       <c r="D209" t="s">
         <v>608</v>
@@ -5771,7 +5771,7 @@
         <v>606</v>
       </c>
       <c r="C210">
-        <v>108.332</v>
+        <v>112.464</v>
       </c>
       <c r="D210" t="s">
         <v>608</v>
@@ -5788,7 +5788,7 @@
         <v>606</v>
       </c>
       <c r="C211">
-        <v>114.237</v>
+        <v>113.97</v>
       </c>
       <c r="D211" t="s">
         <v>608</v>
@@ -5805,7 +5805,7 @@
         <v>606</v>
       </c>
       <c r="C212">
-        <v>112.888</v>
+        <v>114.432</v>
       </c>
       <c r="D212" t="s">
         <v>608</v>
@@ -5822,7 +5822,7 @@
         <v>606</v>
       </c>
       <c r="C213">
-        <v>109.125</v>
+        <v>109.684</v>
       </c>
       <c r="D213" t="s">
         <v>608</v>
@@ -5839,7 +5839,7 @@
         <v>606</v>
       </c>
       <c r="C214">
-        <v>104.458</v>
+        <v>104.28</v>
       </c>
       <c r="D214" t="s">
         <v>608</v>
@@ -5856,7 +5856,7 @@
         <v>606</v>
       </c>
       <c r="C215">
-        <v>109.652</v>
+        <v>111.536</v>
       </c>
       <c r="D215" t="s">
         <v>608</v>
@@ -5873,7 +5873,7 @@
         <v>606</v>
       </c>
       <c r="C216">
-        <v>105.157</v>
+        <v>103.074</v>
       </c>
       <c r="D216" t="s">
         <v>608</v>
@@ -5887,10 +5887,10 @@
         <v>220</v>
       </c>
       <c r="B217" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C217">
-        <v>101.292</v>
+        <v>98.03700000000001</v>
       </c>
       <c r="D217" t="s">
         <v>608</v>
@@ -5907,7 +5907,7 @@
         <v>606</v>
       </c>
       <c r="C218">
-        <v>106.604</v>
+        <v>107.383</v>
       </c>
       <c r="D218" t="s">
         <v>608</v>
@@ -5924,7 +5924,7 @@
         <v>606</v>
       </c>
       <c r="C219">
-        <v>108.93</v>
+        <v>111.25</v>
       </c>
       <c r="D219" t="s">
         <v>608</v>
@@ -5941,7 +5941,7 @@
         <v>606</v>
       </c>
       <c r="C220">
-        <v>106.646</v>
+        <v>107.952</v>
       </c>
       <c r="D220" t="s">
         <v>608</v>
@@ -5958,7 +5958,7 @@
         <v>606</v>
       </c>
       <c r="C221">
-        <v>105.704</v>
+        <v>101.55</v>
       </c>
       <c r="D221" t="s">
         <v>608</v>
@@ -5975,7 +5975,7 @@
         <v>606</v>
       </c>
       <c r="C222">
-        <v>107.836</v>
+        <v>117.45</v>
       </c>
       <c r="D222" t="s">
         <v>608</v>
@@ -5992,7 +5992,7 @@
         <v>606</v>
       </c>
       <c r="C223">
-        <v>106.402</v>
+        <v>105.643</v>
       </c>
       <c r="D223" t="s">
         <v>608</v>
@@ -6009,7 +6009,7 @@
         <v>606</v>
       </c>
       <c r="C224">
-        <v>113.885</v>
+        <v>115.046</v>
       </c>
       <c r="D224" t="s">
         <v>608</v>
@@ -6026,7 +6026,7 @@
         <v>606</v>
       </c>
       <c r="C225">
-        <v>109.837</v>
+        <v>114.438</v>
       </c>
       <c r="D225" t="s">
         <v>608</v>
@@ -6043,7 +6043,7 @@
         <v>606</v>
       </c>
       <c r="C226">
-        <v>106.061</v>
+        <v>106.418</v>
       </c>
       <c r="D226" t="s">
         <v>608</v>
@@ -6060,7 +6060,7 @@
         <v>606</v>
       </c>
       <c r="C227">
-        <v>117.156</v>
+        <v>116.265</v>
       </c>
       <c r="D227" t="s">
         <v>608</v>
@@ -6077,7 +6077,7 @@
         <v>607</v>
       </c>
       <c r="C228">
-        <v>96.002</v>
+        <v>92.786</v>
       </c>
       <c r="D228" t="s">
         <v>608</v>
@@ -6094,7 +6094,7 @@
         <v>606</v>
       </c>
       <c r="C229">
-        <v>108.541</v>
+        <v>110.527</v>
       </c>
       <c r="D229" t="s">
         <v>608</v>
@@ -6111,7 +6111,7 @@
         <v>606</v>
       </c>
       <c r="C230">
-        <v>108.313</v>
+        <v>104.097</v>
       </c>
       <c r="D230" t="s">
         <v>608</v>
@@ -6128,7 +6128,7 @@
         <v>606</v>
       </c>
       <c r="C231">
-        <v>109.484</v>
+        <v>110.739</v>
       </c>
       <c r="D231" t="s">
         <v>608</v>
@@ -6145,7 +6145,7 @@
         <v>606</v>
       </c>
       <c r="C232">
-        <v>105.931</v>
+        <v>103.201</v>
       </c>
       <c r="D232" t="s">
         <v>608</v>
@@ -6162,7 +6162,7 @@
         <v>606</v>
       </c>
       <c r="C233">
-        <v>117.776</v>
+        <v>125.009</v>
       </c>
       <c r="D233" t="s">
         <v>608</v>
@@ -6179,7 +6179,7 @@
         <v>606</v>
       </c>
       <c r="C234">
-        <v>106.521</v>
+        <v>106.221</v>
       </c>
       <c r="D234" t="s">
         <v>608</v>
@@ -6196,7 +6196,7 @@
         <v>607</v>
       </c>
       <c r="C235">
-        <v>99.36499999999999</v>
+        <v>99.81100000000001</v>
       </c>
       <c r="D235" t="s">
         <v>608</v>
@@ -6213,7 +6213,7 @@
         <v>606</v>
       </c>
       <c r="C236">
-        <v>123.886</v>
+        <v>123.545</v>
       </c>
       <c r="D236" t="s">
         <v>608</v>
@@ -6230,7 +6230,7 @@
         <v>606</v>
       </c>
       <c r="C237">
-        <v>127.075</v>
+        <v>129.691</v>
       </c>
       <c r="D237" t="s">
         <v>608</v>
@@ -6247,7 +6247,7 @@
         <v>606</v>
       </c>
       <c r="C238">
-        <v>119.557</v>
+        <v>123.994</v>
       </c>
       <c r="D238" t="s">
         <v>608</v>
@@ -6264,7 +6264,7 @@
         <v>606</v>
       </c>
       <c r="C239">
-        <v>107.743</v>
+        <v>109.104</v>
       </c>
       <c r="D239" t="s">
         <v>608</v>
@@ -6281,7 +6281,7 @@
         <v>606</v>
       </c>
       <c r="C240">
-        <v>102.978</v>
+        <v>104.202</v>
       </c>
       <c r="D240" t="s">
         <v>608</v>
@@ -6298,7 +6298,7 @@
         <v>606</v>
       </c>
       <c r="C241">
-        <v>115.115</v>
+        <v>118.384</v>
       </c>
       <c r="D241" t="s">
         <v>608</v>
@@ -6312,10 +6312,10 @@
         <v>245</v>
       </c>
       <c r="B242" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C242">
-        <v>99.068</v>
+        <v>100.738</v>
       </c>
       <c r="D242" t="s">
         <v>608</v>
@@ -6332,7 +6332,7 @@
         <v>606</v>
       </c>
       <c r="C243">
-        <v>112.187</v>
+        <v>110.881</v>
       </c>
       <c r="D243" t="s">
         <v>608</v>
@@ -6366,7 +6366,7 @@
         <v>606</v>
       </c>
       <c r="C245">
-        <v>105.649</v>
+        <v>103.304</v>
       </c>
       <c r="D245" t="s">
         <v>608</v>
@@ -6383,7 +6383,7 @@
         <v>606</v>
       </c>
       <c r="C246">
-        <v>132.477</v>
+        <v>130.793</v>
       </c>
       <c r="D246" t="s">
         <v>608</v>
@@ -6400,7 +6400,7 @@
         <v>606</v>
       </c>
       <c r="C247">
-        <v>106.109</v>
+        <v>103.571</v>
       </c>
       <c r="D247" t="s">
         <v>608</v>
@@ -6417,7 +6417,7 @@
         <v>606</v>
       </c>
       <c r="C248">
-        <v>109.139</v>
+        <v>109.71</v>
       </c>
       <c r="D248" t="s">
         <v>608</v>
@@ -6434,7 +6434,7 @@
         <v>606</v>
       </c>
       <c r="C249">
-        <v>112.581</v>
+        <v>119.509</v>
       </c>
       <c r="D249" t="s">
         <v>608</v>
@@ -6451,7 +6451,7 @@
         <v>606</v>
       </c>
       <c r="C250">
-        <v>103.231</v>
+        <v>104.473</v>
       </c>
       <c r="D250" t="s">
         <v>608</v>
@@ -6468,7 +6468,7 @@
         <v>606</v>
       </c>
       <c r="C251">
-        <v>106.902</v>
+        <v>106.149</v>
       </c>
       <c r="D251" t="s">
         <v>608</v>
@@ -6485,7 +6485,7 @@
         <v>607</v>
       </c>
       <c r="C252">
-        <v>98.16200000000001</v>
+        <v>94.736</v>
       </c>
       <c r="D252" t="s">
         <v>608</v>
@@ -6502,7 +6502,7 @@
         <v>606</v>
       </c>
       <c r="C253">
-        <v>105.325</v>
+        <v>110.131</v>
       </c>
       <c r="D253" t="s">
         <v>608</v>
@@ -6519,7 +6519,7 @@
         <v>606</v>
       </c>
       <c r="C254">
-        <v>106.568</v>
+        <v>109.252</v>
       </c>
       <c r="D254" t="s">
         <v>608</v>
@@ -6536,7 +6536,7 @@
         <v>606</v>
       </c>
       <c r="C255">
-        <v>102.72</v>
+        <v>107.732</v>
       </c>
       <c r="D255" t="s">
         <v>608</v>
@@ -6550,10 +6550,10 @@
         <v>259</v>
       </c>
       <c r="B256" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C256">
-        <v>100.011</v>
+        <v>96.69499999999999</v>
       </c>
       <c r="D256" t="s">
         <v>608</v>
@@ -6570,7 +6570,7 @@
         <v>606</v>
       </c>
       <c r="C257">
-        <v>117.645</v>
+        <v>124.794</v>
       </c>
       <c r="D257" t="s">
         <v>608</v>
@@ -6587,7 +6587,7 @@
         <v>606</v>
       </c>
       <c r="C258">
-        <v>107.429</v>
+        <v>105.357</v>
       </c>
       <c r="D258" t="s">
         <v>608</v>
@@ -6604,7 +6604,7 @@
         <v>606</v>
       </c>
       <c r="C259">
-        <v>119.587</v>
+        <v>118.577</v>
       </c>
       <c r="D259" t="s">
         <v>608</v>
@@ -6621,7 +6621,7 @@
         <v>606</v>
       </c>
       <c r="C260">
-        <v>108.143</v>
+        <v>108.505</v>
       </c>
       <c r="D260" t="s">
         <v>608</v>
@@ -6638,7 +6638,7 @@
         <v>606</v>
       </c>
       <c r="C261">
-        <v>100.107</v>
+        <v>108.352</v>
       </c>
       <c r="D261" t="s">
         <v>608</v>
@@ -6655,7 +6655,7 @@
         <v>606</v>
       </c>
       <c r="C262">
-        <v>103.389</v>
+        <v>102.919</v>
       </c>
       <c r="D262" t="s">
         <v>608</v>
@@ -6672,7 +6672,7 @@
         <v>606</v>
       </c>
       <c r="C263">
-        <v>106.789</v>
+        <v>117.709</v>
       </c>
       <c r="D263" t="s">
         <v>608</v>
@@ -6686,10 +6686,10 @@
         <v>267</v>
       </c>
       <c r="B264" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C264">
-        <v>98.986</v>
+        <v>100.425</v>
       </c>
       <c r="D264" t="s">
         <v>608</v>
@@ -6706,7 +6706,7 @@
         <v>606</v>
       </c>
       <c r="C265">
-        <v>112.098</v>
+        <v>120.048</v>
       </c>
       <c r="D265" t="s">
         <v>608</v>
@@ -6723,7 +6723,7 @@
         <v>606</v>
       </c>
       <c r="C266">
-        <v>112.09</v>
+        <v>112.706</v>
       </c>
       <c r="D266" t="s">
         <v>608</v>
@@ -6740,7 +6740,7 @@
         <v>606</v>
       </c>
       <c r="C267">
-        <v>115.231</v>
+        <v>122.059</v>
       </c>
       <c r="D267" t="s">
         <v>608</v>
@@ -6757,7 +6757,7 @@
         <v>606</v>
       </c>
       <c r="C268">
-        <v>127.171</v>
+        <v>126.84</v>
       </c>
       <c r="D268" t="s">
         <v>608</v>
@@ -6774,7 +6774,7 @@
         <v>606</v>
       </c>
       <c r="C269">
-        <v>101.662</v>
+        <v>104.585</v>
       </c>
       <c r="D269" t="s">
         <v>608</v>
@@ -6791,7 +6791,7 @@
         <v>606</v>
       </c>
       <c r="C270">
-        <v>109.692</v>
+        <v>109.671</v>
       </c>
       <c r="D270" t="s">
         <v>608</v>
@@ -6808,7 +6808,7 @@
         <v>606</v>
       </c>
       <c r="C271">
-        <v>107.708</v>
+        <v>106.218</v>
       </c>
       <c r="D271" t="s">
         <v>608</v>
@@ -6825,7 +6825,7 @@
         <v>607</v>
       </c>
       <c r="C272">
-        <v>99.726</v>
+        <v>97.157</v>
       </c>
       <c r="D272" t="s">
         <v>608</v>
@@ -6842,7 +6842,7 @@
         <v>606</v>
       </c>
       <c r="C273">
-        <v>103.109</v>
+        <v>111.221</v>
       </c>
       <c r="D273" t="s">
         <v>608</v>
@@ -6859,7 +6859,7 @@
         <v>606</v>
       </c>
       <c r="C274">
-        <v>113.352</v>
+        <v>112.547</v>
       </c>
       <c r="D274" t="s">
         <v>608</v>
@@ -6873,10 +6873,10 @@
         <v>278</v>
       </c>
       <c r="B275" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C275">
-        <v>102.084</v>
+        <v>97.27500000000001</v>
       </c>
       <c r="D275" t="s">
         <v>608</v>
@@ -6893,7 +6893,7 @@
         <v>606</v>
       </c>
       <c r="C276">
-        <v>117.057</v>
+        <v>112.612</v>
       </c>
       <c r="D276" t="s">
         <v>608</v>
@@ -6910,7 +6910,7 @@
         <v>606</v>
       </c>
       <c r="C277">
-        <v>108.184</v>
+        <v>117.424</v>
       </c>
       <c r="D277" t="s">
         <v>608</v>
@@ -6927,7 +6927,7 @@
         <v>606</v>
       </c>
       <c r="C278">
-        <v>119.104</v>
+        <v>119.74</v>
       </c>
       <c r="D278" t="s">
         <v>608</v>
@@ -6941,10 +6941,10 @@
         <v>282</v>
       </c>
       <c r="B279" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C279">
-        <v>100.935</v>
+        <v>99.383</v>
       </c>
       <c r="D279" t="s">
         <v>608</v>
@@ -6961,7 +6961,7 @@
         <v>606</v>
       </c>
       <c r="C280">
-        <v>119.333</v>
+        <v>122.052</v>
       </c>
       <c r="D280" t="s">
         <v>608</v>
@@ -6978,7 +6978,7 @@
         <v>606</v>
       </c>
       <c r="C281">
-        <v>117.951</v>
+        <v>121.107</v>
       </c>
       <c r="D281" t="s">
         <v>608</v>
@@ -6995,7 +6995,7 @@
         <v>606</v>
       </c>
       <c r="C282">
-        <v>110.973</v>
+        <v>109.192</v>
       </c>
       <c r="D282" t="s">
         <v>608</v>
@@ -7012,7 +7012,7 @@
         <v>606</v>
       </c>
       <c r="C283">
-        <v>108.893</v>
+        <v>110.327</v>
       </c>
       <c r="D283" t="s">
         <v>608</v>
@@ -7029,7 +7029,7 @@
         <v>606</v>
       </c>
       <c r="C284">
-        <v>111.249</v>
+        <v>106.13</v>
       </c>
       <c r="D284" t="s">
         <v>608</v>
@@ -7046,7 +7046,7 @@
         <v>606</v>
       </c>
       <c r="C285">
-        <v>109.448</v>
+        <v>111.735</v>
       </c>
       <c r="D285" t="s">
         <v>608</v>
@@ -7063,7 +7063,7 @@
         <v>607</v>
       </c>
       <c r="C286">
-        <v>85.08499999999999</v>
+        <v>85.746</v>
       </c>
       <c r="D286" t="s">
         <v>608</v>
@@ -7080,7 +7080,7 @@
         <v>606</v>
       </c>
       <c r="C287">
-        <v>107.608</v>
+        <v>106.597</v>
       </c>
       <c r="D287" t="s">
         <v>608</v>
@@ -7097,7 +7097,7 @@
         <v>606</v>
       </c>
       <c r="C288">
-        <v>100.045</v>
+        <v>102.33</v>
       </c>
       <c r="D288" t="s">
         <v>608</v>
@@ -7114,7 +7114,7 @@
         <v>606</v>
       </c>
       <c r="C289">
-        <v>103.058</v>
+        <v>100.998</v>
       </c>
       <c r="D289" t="s">
         <v>608</v>
@@ -7131,7 +7131,7 @@
         <v>606</v>
       </c>
       <c r="C290">
-        <v>108.161</v>
+        <v>108.015</v>
       </c>
       <c r="D290" t="s">
         <v>608</v>
@@ -7148,7 +7148,7 @@
         <v>606</v>
       </c>
       <c r="C291">
-        <v>101.265</v>
+        <v>100.454</v>
       </c>
       <c r="D291" t="s">
         <v>608</v>
@@ -7165,7 +7165,7 @@
         <v>606</v>
       </c>
       <c r="C292">
-        <v>117.134</v>
+        <v>119.088</v>
       </c>
       <c r="D292" t="s">
         <v>608</v>
@@ -7182,7 +7182,7 @@
         <v>606</v>
       </c>
       <c r="C293">
-        <v>104.309</v>
+        <v>103.313</v>
       </c>
       <c r="D293" t="s">
         <v>608</v>
@@ -7199,7 +7199,7 @@
         <v>606</v>
       </c>
       <c r="C294">
-        <v>107.966</v>
+        <v>108.543</v>
       </c>
       <c r="D294" t="s">
         <v>608</v>
@@ -7216,7 +7216,7 @@
         <v>606</v>
       </c>
       <c r="C295">
-        <v>127.119</v>
+        <v>127.693</v>
       </c>
       <c r="D295" t="s">
         <v>608</v>
@@ -7233,7 +7233,7 @@
         <v>606</v>
       </c>
       <c r="C296">
-        <v>116.398</v>
+        <v>118.952</v>
       </c>
       <c r="D296" t="s">
         <v>608</v>
@@ -7250,7 +7250,7 @@
         <v>606</v>
       </c>
       <c r="C297">
-        <v>104.054</v>
+        <v>103.543</v>
       </c>
       <c r="D297" t="s">
         <v>608</v>
@@ -7267,7 +7267,7 @@
         <v>607</v>
       </c>
       <c r="C298">
-        <v>98.792</v>
+        <v>97.395</v>
       </c>
       <c r="D298" t="s">
         <v>608</v>
@@ -7284,7 +7284,7 @@
         <v>606</v>
       </c>
       <c r="C299">
-        <v>102.304</v>
+        <v>113.157</v>
       </c>
       <c r="D299" t="s">
         <v>608</v>
@@ -7301,7 +7301,7 @@
         <v>606</v>
       </c>
       <c r="C300">
-        <v>113.395</v>
+        <v>110.948</v>
       </c>
       <c r="D300" t="s">
         <v>608</v>
@@ -7318,7 +7318,7 @@
         <v>606</v>
       </c>
       <c r="C301">
-        <v>107.67</v>
+        <v>106.258</v>
       </c>
       <c r="D301" t="s">
         <v>608</v>
@@ -7335,7 +7335,7 @@
         <v>606</v>
       </c>
       <c r="C302">
-        <v>106.709</v>
+        <v>104.809</v>
       </c>
       <c r="D302" t="s">
         <v>608</v>
@@ -7352,7 +7352,7 @@
         <v>606</v>
       </c>
       <c r="C303">
-        <v>107.862</v>
+        <v>108.595</v>
       </c>
       <c r="D303" t="s">
         <v>608</v>
@@ -7369,7 +7369,7 @@
         <v>606</v>
       </c>
       <c r="C304">
-        <v>113.803</v>
+        <v>114.41</v>
       </c>
       <c r="D304" t="s">
         <v>608</v>
@@ -7386,7 +7386,7 @@
         <v>606</v>
       </c>
       <c r="C305">
-        <v>126.922</v>
+        <v>128.313</v>
       </c>
       <c r="D305" t="s">
         <v>608</v>
@@ -7403,7 +7403,7 @@
         <v>606</v>
       </c>
       <c r="C306">
-        <v>103.908</v>
+        <v>102.341</v>
       </c>
       <c r="D306" t="s">
         <v>608</v>
@@ -7420,7 +7420,7 @@
         <v>607</v>
       </c>
       <c r="C307">
-        <v>98.73399999999999</v>
+        <v>96.958</v>
       </c>
       <c r="D307" t="s">
         <v>608</v>
@@ -7437,7 +7437,7 @@
         <v>606</v>
       </c>
       <c r="C308">
-        <v>113.535</v>
+        <v>112.769</v>
       </c>
       <c r="D308" t="s">
         <v>608</v>
@@ -7454,7 +7454,7 @@
         <v>606</v>
       </c>
       <c r="C309">
-        <v>142.667</v>
+        <v>146.006</v>
       </c>
       <c r="D309" t="s">
         <v>608</v>
@@ -7471,7 +7471,7 @@
         <v>606</v>
       </c>
       <c r="C310">
-        <v>105.222</v>
+        <v>109.737</v>
       </c>
       <c r="D310" t="s">
         <v>608</v>
@@ -7488,7 +7488,7 @@
         <v>606</v>
       </c>
       <c r="C311">
-        <v>105.866</v>
+        <v>103.881</v>
       </c>
       <c r="D311" t="s">
         <v>608</v>
@@ -7505,7 +7505,7 @@
         <v>606</v>
       </c>
       <c r="C312">
-        <v>118.915</v>
+        <v>119.123</v>
       </c>
       <c r="D312" t="s">
         <v>608</v>
@@ -7522,7 +7522,7 @@
         <v>606</v>
       </c>
       <c r="C313">
-        <v>102.623</v>
+        <v>110.234</v>
       </c>
       <c r="D313" t="s">
         <v>608</v>
@@ -7539,7 +7539,7 @@
         <v>606</v>
       </c>
       <c r="C314">
-        <v>107.34</v>
+        <v>103.983</v>
       </c>
       <c r="D314" t="s">
         <v>608</v>
@@ -7556,7 +7556,7 @@
         <v>606</v>
       </c>
       <c r="C315">
-        <v>103.037</v>
+        <v>100.692</v>
       </c>
       <c r="D315" t="s">
         <v>608</v>
@@ -7573,7 +7573,7 @@
         <v>606</v>
       </c>
       <c r="C316">
-        <v>126.996</v>
+        <v>130.645</v>
       </c>
       <c r="D316" t="s">
         <v>608</v>
@@ -7590,7 +7590,7 @@
         <v>606</v>
       </c>
       <c r="C317">
-        <v>111.631</v>
+        <v>111.039</v>
       </c>
       <c r="D317" t="s">
         <v>608</v>
@@ -7607,7 +7607,7 @@
         <v>606</v>
       </c>
       <c r="C318">
-        <v>108.54</v>
+        <v>111.53</v>
       </c>
       <c r="D318" t="s">
         <v>608</v>
@@ -7624,7 +7624,7 @@
         <v>606</v>
       </c>
       <c r="C319">
-        <v>117.211</v>
+        <v>126.414</v>
       </c>
       <c r="D319" t="s">
         <v>608</v>
@@ -7641,7 +7641,7 @@
         <v>606</v>
       </c>
       <c r="C320">
-        <v>114.029</v>
+        <v>113.504</v>
       </c>
       <c r="D320" t="s">
         <v>608</v>
@@ -7658,7 +7658,7 @@
         <v>606</v>
       </c>
       <c r="C321">
-        <v>109.922</v>
+        <v>112.325</v>
       </c>
       <c r="D321" t="s">
         <v>608</v>
@@ -7675,7 +7675,7 @@
         <v>606</v>
       </c>
       <c r="C322">
-        <v>115.169</v>
+        <v>117.082</v>
       </c>
       <c r="D322" t="s">
         <v>608</v>
@@ -7692,7 +7692,7 @@
         <v>606</v>
       </c>
       <c r="C323">
-        <v>106.135</v>
+        <v>112.252</v>
       </c>
       <c r="D323" t="s">
         <v>608</v>
@@ -7709,7 +7709,7 @@
         <v>606</v>
       </c>
       <c r="C324">
-        <v>109.085</v>
+        <v>110.091</v>
       </c>
       <c r="D324" t="s">
         <v>608</v>
@@ -7723,10 +7723,10 @@
         <v>328</v>
       </c>
       <c r="B325" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C325">
-        <v>101.246</v>
+        <v>99.256</v>
       </c>
       <c r="D325" t="s">
         <v>608</v>
@@ -7743,7 +7743,7 @@
         <v>606</v>
       </c>
       <c r="C326">
-        <v>113.172</v>
+        <v>113.237</v>
       </c>
       <c r="D326" t="s">
         <v>608</v>
@@ -7760,7 +7760,7 @@
         <v>606</v>
       </c>
       <c r="C327">
-        <v>104.098</v>
+        <v>102.618</v>
       </c>
       <c r="D327" t="s">
         <v>608</v>
@@ -7777,7 +7777,7 @@
         <v>606</v>
       </c>
       <c r="C328">
-        <v>107.661</v>
+        <v>105.286</v>
       </c>
       <c r="D328" t="s">
         <v>608</v>
@@ -7794,7 +7794,7 @@
         <v>606</v>
       </c>
       <c r="C329">
-        <v>111.299</v>
+        <v>111.298</v>
       </c>
       <c r="D329" t="s">
         <v>608</v>
@@ -7811,7 +7811,7 @@
         <v>606</v>
       </c>
       <c r="C330">
-        <v>102.069</v>
+        <v>102.285</v>
       </c>
       <c r="D330" t="s">
         <v>608</v>
@@ -7828,7 +7828,7 @@
         <v>606</v>
       </c>
       <c r="C331">
-        <v>101.897</v>
+        <v>102.388</v>
       </c>
       <c r="D331" t="s">
         <v>608</v>
@@ -7845,7 +7845,7 @@
         <v>606</v>
       </c>
       <c r="C332">
-        <v>106.232</v>
+        <v>104.609</v>
       </c>
       <c r="D332" t="s">
         <v>608</v>
@@ -7862,7 +7862,7 @@
         <v>606</v>
       </c>
       <c r="C333">
-        <v>110.502</v>
+        <v>111.606</v>
       </c>
       <c r="D333" t="s">
         <v>608</v>
@@ -7879,7 +7879,7 @@
         <v>606</v>
       </c>
       <c r="C334">
-        <v>110.383</v>
+        <v>112.547</v>
       </c>
       <c r="D334" t="s">
         <v>608</v>
@@ -7896,7 +7896,7 @@
         <v>606</v>
       </c>
       <c r="C335">
-        <v>105.169</v>
+        <v>105.145</v>
       </c>
       <c r="D335" t="s">
         <v>608</v>
@@ -7913,7 +7913,7 @@
         <v>606</v>
       </c>
       <c r="C336">
-        <v>114.003</v>
+        <v>109.491</v>
       </c>
       <c r="D336" t="s">
         <v>608</v>
@@ -7930,7 +7930,7 @@
         <v>606</v>
       </c>
       <c r="C337">
-        <v>102.207</v>
+        <v>109.394</v>
       </c>
       <c r="D337" t="s">
         <v>608</v>
@@ -7947,7 +7947,7 @@
         <v>606</v>
       </c>
       <c r="C338">
-        <v>108.178</v>
+        <v>110.145</v>
       </c>
       <c r="D338" t="s">
         <v>608</v>
@@ -7964,7 +7964,7 @@
         <v>606</v>
       </c>
       <c r="C339">
-        <v>132.414</v>
+        <v>130.288</v>
       </c>
       <c r="D339" t="s">
         <v>608</v>
@@ -7981,7 +7981,7 @@
         <v>606</v>
       </c>
       <c r="C340">
-        <v>104.113</v>
+        <v>104.787</v>
       </c>
       <c r="D340" t="s">
         <v>608</v>
@@ -7998,7 +7998,7 @@
         <v>606</v>
       </c>
       <c r="C341">
-        <v>114.662</v>
+        <v>113.966</v>
       </c>
       <c r="D341" t="s">
         <v>608</v>
@@ -8015,7 +8015,7 @@
         <v>606</v>
       </c>
       <c r="C342">
-        <v>125.974</v>
+        <v>139.633</v>
       </c>
       <c r="D342" t="s">
         <v>608</v>
@@ -8032,7 +8032,7 @@
         <v>606</v>
       </c>
       <c r="C343">
-        <v>104.467</v>
+        <v>100.138</v>
       </c>
       <c r="D343" t="s">
         <v>608</v>
@@ -8049,7 +8049,7 @@
         <v>606</v>
       </c>
       <c r="C344">
-        <v>106.677</v>
+        <v>113.205</v>
       </c>
       <c r="D344" t="s">
         <v>608</v>
@@ -8066,7 +8066,7 @@
         <v>606</v>
       </c>
       <c r="C345">
-        <v>104.724</v>
+        <v>107.456</v>
       </c>
       <c r="D345" t="s">
         <v>608</v>
@@ -8083,7 +8083,7 @@
         <v>606</v>
       </c>
       <c r="C346">
-        <v>105.697</v>
+        <v>123.518</v>
       </c>
       <c r="D346" t="s">
         <v>608</v>
@@ -8097,10 +8097,10 @@
         <v>350</v>
       </c>
       <c r="B347" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C347">
-        <v>101.064</v>
+        <v>98.331</v>
       </c>
       <c r="D347" t="s">
         <v>608</v>
@@ -8117,7 +8117,7 @@
         <v>606</v>
       </c>
       <c r="C348">
-        <v>108.138</v>
+        <v>108.404</v>
       </c>
       <c r="D348" t="s">
         <v>608</v>
@@ -8134,7 +8134,7 @@
         <v>606</v>
       </c>
       <c r="C349">
-        <v>124.339</v>
+        <v>109.341</v>
       </c>
       <c r="D349" t="s">
         <v>608</v>
@@ -8151,7 +8151,7 @@
         <v>606</v>
       </c>
       <c r="C350">
-        <v>112.91</v>
+        <v>120.148</v>
       </c>
       <c r="D350" t="s">
         <v>608</v>
@@ -8168,7 +8168,7 @@
         <v>606</v>
       </c>
       <c r="C351">
-        <v>110.678</v>
+        <v>111.612</v>
       </c>
       <c r="D351" t="s">
         <v>608</v>
@@ -8185,7 +8185,7 @@
         <v>606</v>
       </c>
       <c r="C352">
-        <v>138.309</v>
+        <v>142.028</v>
       </c>
       <c r="D352" t="s">
         <v>608</v>
@@ -8202,7 +8202,7 @@
         <v>606</v>
       </c>
       <c r="C353">
-        <v>102.824</v>
+        <v>106.477</v>
       </c>
       <c r="D353" t="s">
         <v>608</v>
@@ -8216,10 +8216,10 @@
         <v>357</v>
       </c>
       <c r="B354" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C354">
-        <v>103.493</v>
+        <v>99.22199999999999</v>
       </c>
       <c r="D354" t="s">
         <v>608</v>
@@ -8236,7 +8236,7 @@
         <v>606</v>
       </c>
       <c r="C355">
-        <v>109.296</v>
+        <v>107.556</v>
       </c>
       <c r="D355" t="s">
         <v>608</v>
@@ -8253,7 +8253,7 @@
         <v>606</v>
       </c>
       <c r="C356">
-        <v>105.682</v>
+        <v>102.751</v>
       </c>
       <c r="D356" t="s">
         <v>608</v>
@@ -8270,7 +8270,7 @@
         <v>606</v>
       </c>
       <c r="C357">
-        <v>104.811</v>
+        <v>102.578</v>
       </c>
       <c r="D357" t="s">
         <v>608</v>
@@ -8287,7 +8287,7 @@
         <v>606</v>
       </c>
       <c r="C358">
-        <v>101.199</v>
+        <v>101.42</v>
       </c>
       <c r="D358" t="s">
         <v>608</v>
@@ -8304,7 +8304,7 @@
         <v>606</v>
       </c>
       <c r="C359">
-        <v>106.59</v>
+        <v>106.753</v>
       </c>
       <c r="D359" t="s">
         <v>608</v>
@@ -8321,7 +8321,7 @@
         <v>606</v>
       </c>
       <c r="C360">
-        <v>128.934</v>
+        <v>132.028</v>
       </c>
       <c r="D360" t="s">
         <v>608</v>
@@ -8338,7 +8338,7 @@
         <v>607</v>
       </c>
       <c r="C361">
-        <v>90.199</v>
+        <v>94.214</v>
       </c>
       <c r="D361" t="s">
         <v>608</v>
@@ -8355,7 +8355,7 @@
         <v>606</v>
       </c>
       <c r="C362">
-        <v>120.484</v>
+        <v>114.703</v>
       </c>
       <c r="D362" t="s">
         <v>608</v>
@@ -8372,7 +8372,7 @@
         <v>606</v>
       </c>
       <c r="C363">
-        <v>108.565</v>
+        <v>108.979</v>
       </c>
       <c r="D363" t="s">
         <v>608</v>
@@ -8389,7 +8389,7 @@
         <v>606</v>
       </c>
       <c r="C364">
-        <v>101.327</v>
+        <v>102.2</v>
       </c>
       <c r="D364" t="s">
         <v>608</v>
@@ -8423,7 +8423,7 @@
         <v>606</v>
       </c>
       <c r="C366">
-        <v>103.532</v>
+        <v>107.104</v>
       </c>
       <c r="D366" t="s">
         <v>608</v>
@@ -8440,7 +8440,7 @@
         <v>606</v>
       </c>
       <c r="C367">
-        <v>126.79</v>
+        <v>135.411</v>
       </c>
       <c r="D367" t="s">
         <v>608</v>
@@ -8457,7 +8457,7 @@
         <v>606</v>
       </c>
       <c r="C368">
-        <v>108.571</v>
+        <v>108.825</v>
       </c>
       <c r="D368" t="s">
         <v>608</v>
@@ -8474,7 +8474,7 @@
         <v>606</v>
       </c>
       <c r="C369">
-        <v>116.872</v>
+        <v>117.868</v>
       </c>
       <c r="D369" t="s">
         <v>608</v>
@@ -8491,7 +8491,7 @@
         <v>606</v>
       </c>
       <c r="C370">
-        <v>107.495</v>
+        <v>102.697</v>
       </c>
       <c r="D370" t="s">
         <v>608</v>
@@ -8508,7 +8508,7 @@
         <v>606</v>
       </c>
       <c r="C371">
-        <v>118.213</v>
+        <v>120.251</v>
       </c>
       <c r="D371" t="s">
         <v>608</v>
@@ -8525,7 +8525,7 @@
         <v>607</v>
       </c>
       <c r="C372">
-        <v>82.15900000000001</v>
+        <v>84.81399999999999</v>
       </c>
       <c r="D372" t="s">
         <v>608</v>
@@ -8542,7 +8542,7 @@
         <v>606</v>
       </c>
       <c r="C373">
-        <v>108.041</v>
+        <v>108.416</v>
       </c>
       <c r="D373" t="s">
         <v>608</v>
@@ -8559,7 +8559,7 @@
         <v>606</v>
       </c>
       <c r="C374">
-        <v>103.493</v>
+        <v>105.385</v>
       </c>
       <c r="D374" t="s">
         <v>608</v>
@@ -8576,7 +8576,7 @@
         <v>606</v>
       </c>
       <c r="C375">
-        <v>127.73</v>
+        <v>132.671</v>
       </c>
       <c r="D375" t="s">
         <v>608</v>
@@ -8593,7 +8593,7 @@
         <v>606</v>
       </c>
       <c r="C376">
-        <v>121.857</v>
+        <v>126.985</v>
       </c>
       <c r="D376" t="s">
         <v>608</v>
@@ -8610,7 +8610,7 @@
         <v>606</v>
       </c>
       <c r="C377">
-        <v>110.55</v>
+        <v>114.001</v>
       </c>
       <c r="D377" t="s">
         <v>608</v>
@@ -8627,7 +8627,7 @@
         <v>606</v>
       </c>
       <c r="C378">
-        <v>109.928</v>
+        <v>110.365</v>
       </c>
       <c r="D378" t="s">
         <v>608</v>
@@ -8644,7 +8644,7 @@
         <v>606</v>
       </c>
       <c r="C379">
-        <v>111.455</v>
+        <v>112.908</v>
       </c>
       <c r="D379" t="s">
         <v>608</v>
@@ -8661,7 +8661,7 @@
         <v>606</v>
       </c>
       <c r="C380">
-        <v>121.05</v>
+        <v>127.234</v>
       </c>
       <c r="D380" t="s">
         <v>608</v>
@@ -8678,7 +8678,7 @@
         <v>606</v>
       </c>
       <c r="C381">
-        <v>115.431</v>
+        <v>118.079</v>
       </c>
       <c r="D381" t="s">
         <v>608</v>
@@ -8695,7 +8695,7 @@
         <v>606</v>
       </c>
       <c r="C382">
-        <v>108.715</v>
+        <v>110.973</v>
       </c>
       <c r="D382" t="s">
         <v>608</v>
@@ -8712,7 +8712,7 @@
         <v>606</v>
       </c>
       <c r="C383">
-        <v>109.194</v>
+        <v>106.099</v>
       </c>
       <c r="D383" t="s">
         <v>608</v>
@@ -8729,7 +8729,7 @@
         <v>606</v>
       </c>
       <c r="C384">
-        <v>126.598</v>
+        <v>126.332</v>
       </c>
       <c r="D384" t="s">
         <v>608</v>
@@ -8746,7 +8746,7 @@
         <v>606</v>
       </c>
       <c r="C385">
-        <v>113.67</v>
+        <v>112.922</v>
       </c>
       <c r="D385" t="s">
         <v>608</v>
@@ -8763,7 +8763,7 @@
         <v>606</v>
       </c>
       <c r="C386">
-        <v>107.404</v>
+        <v>107.383</v>
       </c>
       <c r="D386" t="s">
         <v>608</v>
@@ -8780,7 +8780,7 @@
         <v>606</v>
       </c>
       <c r="C387">
-        <v>106.555</v>
+        <v>105.349</v>
       </c>
       <c r="D387" t="s">
         <v>608</v>
@@ -8797,7 +8797,7 @@
         <v>606</v>
       </c>
       <c r="C388">
-        <v>119.085</v>
+        <v>123.088</v>
       </c>
       <c r="D388" t="s">
         <v>608</v>
@@ -8814,7 +8814,7 @@
         <v>606</v>
       </c>
       <c r="C389">
-        <v>113.664</v>
+        <v>111.675</v>
       </c>
       <c r="D389" t="s">
         <v>608</v>
@@ -8831,7 +8831,7 @@
         <v>606</v>
       </c>
       <c r="C390">
-        <v>110.136</v>
+        <v>110.346</v>
       </c>
       <c r="D390" t="s">
         <v>608</v>
@@ -8848,7 +8848,7 @@
         <v>606</v>
       </c>
       <c r="C391">
-        <v>103.406</v>
+        <v>102.163</v>
       </c>
       <c r="D391" t="s">
         <v>608</v>
@@ -8865,7 +8865,7 @@
         <v>606</v>
       </c>
       <c r="C392">
-        <v>112.557</v>
+        <v>111.982</v>
       </c>
       <c r="D392" t="s">
         <v>608</v>
@@ -8882,7 +8882,7 @@
         <v>606</v>
       </c>
       <c r="C393">
-        <v>111.2</v>
+        <v>115.213</v>
       </c>
       <c r="D393" t="s">
         <v>608</v>
@@ -8899,7 +8899,7 @@
         <v>606</v>
       </c>
       <c r="C394">
-        <v>103.913</v>
+        <v>105.681</v>
       </c>
       <c r="D394" t="s">
         <v>608</v>
@@ -8916,7 +8916,7 @@
         <v>606</v>
       </c>
       <c r="C395">
-        <v>106.512</v>
+        <v>107.169</v>
       </c>
       <c r="D395" t="s">
         <v>608</v>
@@ -8933,7 +8933,7 @@
         <v>606</v>
       </c>
       <c r="C396">
-        <v>115.164</v>
+        <v>117.737</v>
       </c>
       <c r="D396" t="s">
         <v>608</v>
@@ -8950,7 +8950,7 @@
         <v>606</v>
       </c>
       <c r="C397">
-        <v>104.786</v>
+        <v>100.589</v>
       </c>
       <c r="D397" t="s">
         <v>608</v>
@@ -8967,7 +8967,7 @@
         <v>606</v>
       </c>
       <c r="C398">
-        <v>141.827</v>
+        <v>137.829</v>
       </c>
       <c r="D398" t="s">
         <v>608</v>
@@ -8984,7 +8984,7 @@
         <v>606</v>
       </c>
       <c r="C399">
-        <v>117.337</v>
+        <v>115.195</v>
       </c>
       <c r="D399" t="s">
         <v>608</v>
@@ -9001,7 +9001,7 @@
         <v>606</v>
       </c>
       <c r="C400">
-        <v>108.254</v>
+        <v>111.151</v>
       </c>
       <c r="D400" t="s">
         <v>608</v>
@@ -9018,7 +9018,7 @@
         <v>607</v>
       </c>
       <c r="C401">
-        <v>98.408</v>
+        <v>96.703</v>
       </c>
       <c r="D401" t="s">
         <v>608</v>
@@ -9035,7 +9035,7 @@
         <v>606</v>
       </c>
       <c r="C402">
-        <v>101.915</v>
+        <v>106.209</v>
       </c>
       <c r="D402" t="s">
         <v>608</v>
@@ -9052,7 +9052,7 @@
         <v>606</v>
       </c>
       <c r="C403">
-        <v>100.737</v>
+        <v>115.693</v>
       </c>
       <c r="D403" t="s">
         <v>608</v>
@@ -9069,7 +9069,7 @@
         <v>606</v>
       </c>
       <c r="C404">
-        <v>104.487</v>
+        <v>100.64</v>
       </c>
       <c r="D404" t="s">
         <v>608</v>
@@ -9086,7 +9086,7 @@
         <v>606</v>
       </c>
       <c r="C405">
-        <v>115.855</v>
+        <v>118.964</v>
       </c>
       <c r="D405" t="s">
         <v>608</v>
@@ -9103,7 +9103,7 @@
         <v>606</v>
       </c>
       <c r="C406">
-        <v>117.058</v>
+        <v>116.942</v>
       </c>
       <c r="D406" t="s">
         <v>608</v>
@@ -9120,7 +9120,7 @@
         <v>606</v>
       </c>
       <c r="C407">
-        <v>112.453</v>
+        <v>113.921</v>
       </c>
       <c r="D407" t="s">
         <v>608</v>
@@ -9137,7 +9137,7 @@
         <v>606</v>
       </c>
       <c r="C408">
-        <v>172.671</v>
+        <v>163.915</v>
       </c>
       <c r="D408" t="s">
         <v>608</v>
@@ -9154,7 +9154,7 @@
         <v>606</v>
       </c>
       <c r="C409">
-        <v>114.979</v>
+        <v>114.087</v>
       </c>
       <c r="D409" t="s">
         <v>608</v>
@@ -9171,7 +9171,7 @@
         <v>607</v>
       </c>
       <c r="C410">
-        <v>99.693</v>
+        <v>95.545</v>
       </c>
       <c r="D410" t="s">
         <v>608</v>
@@ -9188,7 +9188,7 @@
         <v>606</v>
       </c>
       <c r="C411">
-        <v>115.066</v>
+        <v>115.792</v>
       </c>
       <c r="D411" t="s">
         <v>608</v>
@@ -9205,7 +9205,7 @@
         <v>606</v>
       </c>
       <c r="C412">
-        <v>107.059</v>
+        <v>108.507</v>
       </c>
       <c r="D412" t="s">
         <v>608</v>
@@ -9222,7 +9222,7 @@
         <v>606</v>
       </c>
       <c r="C413">
-        <v>111.944</v>
+        <v>113.651</v>
       </c>
       <c r="D413" t="s">
         <v>608</v>
@@ -9239,7 +9239,7 @@
         <v>606</v>
       </c>
       <c r="C414">
-        <v>114.977</v>
+        <v>117.813</v>
       </c>
       <c r="D414" t="s">
         <v>608</v>
@@ -9256,7 +9256,7 @@
         <v>606</v>
       </c>
       <c r="C415">
-        <v>113.038</v>
+        <v>112.824</v>
       </c>
       <c r="D415" t="s">
         <v>608</v>
@@ -9273,7 +9273,7 @@
         <v>606</v>
       </c>
       <c r="C416">
-        <v>120.719</v>
+        <v>115.791</v>
       </c>
       <c r="D416" t="s">
         <v>608</v>
@@ -9290,7 +9290,7 @@
         <v>606</v>
       </c>
       <c r="C417">
-        <v>104.177</v>
+        <v>101.758</v>
       </c>
       <c r="D417" t="s">
         <v>608</v>
@@ -9307,7 +9307,7 @@
         <v>606</v>
       </c>
       <c r="C418">
-        <v>105.57</v>
+        <v>110.907</v>
       </c>
       <c r="D418" t="s">
         <v>608</v>
@@ -9324,7 +9324,7 @@
         <v>606</v>
       </c>
       <c r="C419">
-        <v>121.872</v>
+        <v>124.737</v>
       </c>
       <c r="D419" t="s">
         <v>608</v>
@@ -9341,7 +9341,7 @@
         <v>606</v>
       </c>
       <c r="C420">
-        <v>117.576</v>
+        <v>114.855</v>
       </c>
       <c r="D420" t="s">
         <v>608</v>
@@ -9358,7 +9358,7 @@
         <v>606</v>
       </c>
       <c r="C421">
-        <v>105.702</v>
+        <v>107.651</v>
       </c>
       <c r="D421" t="s">
         <v>608</v>
@@ -9372,10 +9372,10 @@
         <v>425</v>
       </c>
       <c r="B422" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C422">
-        <v>102.597</v>
+        <v>99.336</v>
       </c>
       <c r="D422" t="s">
         <v>608</v>
@@ -9389,10 +9389,10 @@
         <v>426</v>
       </c>
       <c r="B423" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C423">
-        <v>99.789</v>
+        <v>100.48</v>
       </c>
       <c r="D423" t="s">
         <v>608</v>
@@ -9409,7 +9409,7 @@
         <v>606</v>
       </c>
       <c r="C424">
-        <v>115.429</v>
+        <v>110.437</v>
       </c>
       <c r="D424" t="s">
         <v>608</v>
@@ -9426,7 +9426,7 @@
         <v>606</v>
       </c>
       <c r="C425">
-        <v>108.252</v>
+        <v>110.159</v>
       </c>
       <c r="D425" t="s">
         <v>608</v>
@@ -9443,7 +9443,7 @@
         <v>606</v>
       </c>
       <c r="C426">
-        <v>115.155</v>
+        <v>116.256</v>
       </c>
       <c r="D426" t="s">
         <v>608</v>
@@ -9460,7 +9460,7 @@
         <v>606</v>
       </c>
       <c r="C427">
-        <v>110.254</v>
+        <v>109.615</v>
       </c>
       <c r="D427" t="s">
         <v>608</v>
@@ -9477,7 +9477,7 @@
         <v>606</v>
       </c>
       <c r="C428">
-        <v>107.338</v>
+        <v>105.538</v>
       </c>
       <c r="D428" t="s">
         <v>608</v>
@@ -9494,7 +9494,7 @@
         <v>606</v>
       </c>
       <c r="C429">
-        <v>110.432</v>
+        <v>110.996</v>
       </c>
       <c r="D429" t="s">
         <v>608</v>
@@ -9511,7 +9511,7 @@
         <v>606</v>
       </c>
       <c r="C430">
-        <v>122.692</v>
+        <v>127.769</v>
       </c>
       <c r="D430" t="s">
         <v>608</v>
@@ -9528,7 +9528,7 @@
         <v>607</v>
       </c>
       <c r="C431">
-        <v>99.30500000000001</v>
+        <v>96.94799999999999</v>
       </c>
       <c r="D431" t="s">
         <v>608</v>
@@ -9545,7 +9545,7 @@
         <v>606</v>
       </c>
       <c r="C432">
-        <v>123.146</v>
+        <v>128.892</v>
       </c>
       <c r="D432" t="s">
         <v>608</v>
@@ -9562,7 +9562,7 @@
         <v>606</v>
       </c>
       <c r="C433">
-        <v>116.215</v>
+        <v>121.286</v>
       </c>
       <c r="D433" t="s">
         <v>608</v>
@@ -9579,7 +9579,7 @@
         <v>606</v>
       </c>
       <c r="C434">
-        <v>125.483</v>
+        <v>129.056</v>
       </c>
       <c r="D434" t="s">
         <v>608</v>
@@ -9596,7 +9596,7 @@
         <v>606</v>
       </c>
       <c r="C435">
-        <v>123.381</v>
+        <v>120.994</v>
       </c>
       <c r="D435" t="s">
         <v>608</v>
@@ -9613,7 +9613,7 @@
         <v>606</v>
       </c>
       <c r="C436">
-        <v>113.194</v>
+        <v>112.742</v>
       </c>
       <c r="D436" t="s">
         <v>608</v>
@@ -9630,7 +9630,7 @@
         <v>606</v>
       </c>
       <c r="C437">
-        <v>111.355</v>
+        <v>111.906</v>
       </c>
       <c r="D437" t="s">
         <v>608</v>
@@ -9647,7 +9647,7 @@
         <v>606</v>
       </c>
       <c r="C438">
-        <v>109.429</v>
+        <v>109.494</v>
       </c>
       <c r="D438" t="s">
         <v>608</v>
@@ -9664,7 +9664,7 @@
         <v>606</v>
       </c>
       <c r="C439">
-        <v>107.395</v>
+        <v>106.504</v>
       </c>
       <c r="D439" t="s">
         <v>608</v>
@@ -9681,7 +9681,7 @@
         <v>606</v>
       </c>
       <c r="C440">
-        <v>111.068</v>
+        <v>111.126</v>
       </c>
       <c r="D440" t="s">
         <v>608</v>
@@ -9698,7 +9698,7 @@
         <v>606</v>
       </c>
       <c r="C441">
-        <v>113.476</v>
+        <v>113.343</v>
       </c>
       <c r="D441" t="s">
         <v>608</v>
@@ -9715,7 +9715,7 @@
         <v>606</v>
       </c>
       <c r="C442">
-        <v>105.796</v>
+        <v>106.099</v>
       </c>
       <c r="D442" t="s">
         <v>608</v>
@@ -9732,7 +9732,7 @@
         <v>606</v>
       </c>
       <c r="C443">
-        <v>129.93</v>
+        <v>135.822</v>
       </c>
       <c r="D443" t="s">
         <v>608</v>
@@ -9749,7 +9749,7 @@
         <v>606</v>
       </c>
       <c r="C444">
-        <v>102.547</v>
+        <v>107.766</v>
       </c>
       <c r="D444" t="s">
         <v>608</v>
@@ -9766,7 +9766,7 @@
         <v>607</v>
       </c>
       <c r="C445">
-        <v>97.129</v>
+        <v>94.38200000000001</v>
       </c>
       <c r="D445" t="s">
         <v>608</v>
@@ -9783,7 +9783,7 @@
         <v>606</v>
       </c>
       <c r="C446">
-        <v>104.676</v>
+        <v>106.318</v>
       </c>
       <c r="D446" t="s">
         <v>608</v>
@@ -9800,7 +9800,7 @@
         <v>606</v>
       </c>
       <c r="C447">
-        <v>103.42</v>
+        <v>102.04</v>
       </c>
       <c r="D447" t="s">
         <v>608</v>
@@ -9817,7 +9817,7 @@
         <v>606</v>
       </c>
       <c r="C448">
-        <v>113.153</v>
+        <v>117.084</v>
       </c>
       <c r="D448" t="s">
         <v>608</v>
@@ -9834,7 +9834,7 @@
         <v>606</v>
       </c>
       <c r="C449">
-        <v>114.518</v>
+        <v>114.389</v>
       </c>
       <c r="D449" t="s">
         <v>608</v>
@@ -9851,7 +9851,7 @@
         <v>606</v>
       </c>
       <c r="C450">
-        <v>116.078</v>
+        <v>121.566</v>
       </c>
       <c r="D450" t="s">
         <v>608</v>
@@ -9868,7 +9868,7 @@
         <v>606</v>
       </c>
       <c r="C451">
-        <v>101.955</v>
+        <v>102.671</v>
       </c>
       <c r="D451" t="s">
         <v>608</v>
@@ -9885,7 +9885,7 @@
         <v>606</v>
       </c>
       <c r="C452">
-        <v>117.56</v>
+        <v>115.158</v>
       </c>
       <c r="D452" t="s">
         <v>608</v>
@@ -9902,7 +9902,7 @@
         <v>606</v>
       </c>
       <c r="C453">
-        <v>115.357</v>
+        <v>114.452</v>
       </c>
       <c r="D453" t="s">
         <v>608</v>
@@ -9919,7 +9919,7 @@
         <v>606</v>
       </c>
       <c r="C454">
-        <v>131.143</v>
+        <v>133.242</v>
       </c>
       <c r="D454" t="s">
         <v>608</v>
@@ -9936,7 +9936,7 @@
         <v>606</v>
       </c>
       <c r="C455">
-        <v>131.158</v>
+        <v>124.849</v>
       </c>
       <c r="D455" t="s">
         <v>608</v>
@@ -9953,7 +9953,7 @@
         <v>606</v>
       </c>
       <c r="C456">
-        <v>111.178</v>
+        <v>121.212</v>
       </c>
       <c r="D456" t="s">
         <v>608</v>
@@ -9970,7 +9970,7 @@
         <v>606</v>
       </c>
       <c r="C457">
-        <v>118.204</v>
+        <v>118.639</v>
       </c>
       <c r="D457" t="s">
         <v>608</v>
@@ -9987,7 +9987,7 @@
         <v>606</v>
       </c>
       <c r="C458">
-        <v>109.143</v>
+        <v>112.065</v>
       </c>
       <c r="D458" t="s">
         <v>608</v>
@@ -10004,7 +10004,7 @@
         <v>606</v>
       </c>
       <c r="C459">
-        <v>122.213</v>
+        <v>123.156</v>
       </c>
       <c r="D459" t="s">
         <v>608</v>
@@ -10021,7 +10021,7 @@
         <v>606</v>
       </c>
       <c r="C460">
-        <v>127.33</v>
+        <v>125.916</v>
       </c>
       <c r="D460" t="s">
         <v>608</v>
@@ -10038,7 +10038,7 @@
         <v>607</v>
       </c>
       <c r="C461">
-        <v>97.22199999999999</v>
+        <v>93.762</v>
       </c>
       <c r="D461" t="s">
         <v>608</v>
@@ -10055,7 +10055,7 @@
         <v>607</v>
       </c>
       <c r="C462">
-        <v>98.94</v>
+        <v>95.44799999999999</v>
       </c>
       <c r="D462" t="s">
         <v>608</v>
@@ -10072,7 +10072,7 @@
         <v>606</v>
       </c>
       <c r="C463">
-        <v>120.962</v>
+        <v>120.226</v>
       </c>
       <c r="D463" t="s">
         <v>608</v>
@@ -10089,7 +10089,7 @@
         <v>606</v>
       </c>
       <c r="C464">
-        <v>102.852</v>
+        <v>103.433</v>
       </c>
       <c r="D464" t="s">
         <v>608</v>
@@ -10106,7 +10106,7 @@
         <v>606</v>
       </c>
       <c r="C465">
-        <v>115</v>
+        <v>123.939</v>
       </c>
       <c r="D465" t="s">
         <v>608</v>
@@ -10123,7 +10123,7 @@
         <v>606</v>
       </c>
       <c r="C466">
-        <v>110.619</v>
+        <v>111.887</v>
       </c>
       <c r="D466" t="s">
         <v>608</v>
@@ -10140,7 +10140,7 @@
         <v>606</v>
       </c>
       <c r="C467">
-        <v>125.5</v>
+        <v>140.279</v>
       </c>
       <c r="D467" t="s">
         <v>608</v>
@@ -10157,7 +10157,7 @@
         <v>606</v>
       </c>
       <c r="C468">
-        <v>107.547</v>
+        <v>107.572</v>
       </c>
       <c r="D468" t="s">
         <v>608</v>
@@ -10174,7 +10174,7 @@
         <v>606</v>
       </c>
       <c r="C469">
-        <v>110.564</v>
+        <v>114.145</v>
       </c>
       <c r="D469" t="s">
         <v>608</v>
@@ -10191,7 +10191,7 @@
         <v>606</v>
       </c>
       <c r="C470">
-        <v>107.568</v>
+        <v>119.166</v>
       </c>
       <c r="D470" t="s">
         <v>608</v>
@@ -10208,7 +10208,7 @@
         <v>606</v>
       </c>
       <c r="C471">
-        <v>117.412</v>
+        <v>117.993</v>
       </c>
       <c r="D471" t="s">
         <v>608</v>
@@ -10225,7 +10225,7 @@
         <v>606</v>
       </c>
       <c r="C472">
-        <v>115.957</v>
+        <v>113.067</v>
       </c>
       <c r="D472" t="s">
         <v>608</v>
@@ -10242,7 +10242,7 @@
         <v>606</v>
       </c>
       <c r="C473">
-        <v>107.954</v>
+        <v>111.193</v>
       </c>
       <c r="D473" t="s">
         <v>608</v>
@@ -10259,7 +10259,7 @@
         <v>606</v>
       </c>
       <c r="C474">
-        <v>119.838</v>
+        <v>117.228</v>
       </c>
       <c r="D474" t="s">
         <v>608</v>
@@ -10276,7 +10276,7 @@
         <v>607</v>
       </c>
       <c r="C475">
-        <v>98.242</v>
+        <v>98.334</v>
       </c>
       <c r="D475" t="s">
         <v>608</v>
@@ -10290,10 +10290,10 @@
         <v>479</v>
       </c>
       <c r="B476" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C476">
-        <v>107.431</v>
+        <v>98.926</v>
       </c>
       <c r="D476" t="s">
         <v>608</v>
@@ -10310,7 +10310,7 @@
         <v>606</v>
       </c>
       <c r="C477">
-        <v>178.632</v>
+        <v>168.369</v>
       </c>
       <c r="D477" t="s">
         <v>608</v>
@@ -10327,7 +10327,7 @@
         <v>607</v>
       </c>
       <c r="C478">
-        <v>96.56399999999999</v>
+        <v>96.343</v>
       </c>
       <c r="D478" t="s">
         <v>608</v>
@@ -10344,7 +10344,7 @@
         <v>606</v>
       </c>
       <c r="C479">
-        <v>123.263</v>
+        <v>123.321</v>
       </c>
       <c r="D479" t="s">
         <v>608</v>
@@ -10361,7 +10361,7 @@
         <v>606</v>
       </c>
       <c r="C480">
-        <v>111.988</v>
+        <v>114.8</v>
       </c>
       <c r="D480" t="s">
         <v>608</v>
@@ -10378,7 +10378,7 @@
         <v>606</v>
       </c>
       <c r="C481">
-        <v>130.086</v>
+        <v>130.582</v>
       </c>
       <c r="D481" t="s">
         <v>608</v>
@@ -10395,7 +10395,7 @@
         <v>606</v>
       </c>
       <c r="C482">
-        <v>111.564</v>
+        <v>109.311</v>
       </c>
       <c r="D482" t="s">
         <v>608</v>
@@ -10412,7 +10412,7 @@
         <v>606</v>
       </c>
       <c r="C483">
-        <v>176.51</v>
+        <v>169.912</v>
       </c>
       <c r="D483" t="s">
         <v>608</v>
@@ -10429,7 +10429,7 @@
         <v>606</v>
       </c>
       <c r="C484">
-        <v>112.589</v>
+        <v>113.223</v>
       </c>
       <c r="D484" t="s">
         <v>608</v>
@@ -10446,7 +10446,7 @@
         <v>606</v>
       </c>
       <c r="C485">
-        <v>123.454</v>
+        <v>125.037</v>
       </c>
       <c r="D485" t="s">
         <v>608</v>
@@ -10463,7 +10463,7 @@
         <v>606</v>
       </c>
       <c r="C486">
-        <v>113.793</v>
+        <v>124.492</v>
       </c>
       <c r="D486" t="s">
         <v>608</v>
@@ -10477,10 +10477,10 @@
         <v>490</v>
       </c>
       <c r="B487" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C487">
-        <v>98.261</v>
+        <v>112.254</v>
       </c>
       <c r="D487" t="s">
         <v>608</v>
@@ -10497,7 +10497,7 @@
         <v>606</v>
       </c>
       <c r="C488">
-        <v>111.268</v>
+        <v>115.186</v>
       </c>
       <c r="D488" t="s">
         <v>608</v>
@@ -10514,7 +10514,7 @@
         <v>606</v>
       </c>
       <c r="C489">
-        <v>120.749</v>
+        <v>120.826</v>
       </c>
       <c r="D489" t="s">
         <v>608</v>
@@ -10531,7 +10531,7 @@
         <v>607</v>
       </c>
       <c r="C490">
-        <v>94.462</v>
+        <v>94.292</v>
       </c>
       <c r="D490" t="s">
         <v>608</v>
@@ -10548,7 +10548,7 @@
         <v>606</v>
       </c>
       <c r="C491">
-        <v>119.515</v>
+        <v>124.767</v>
       </c>
       <c r="D491" t="s">
         <v>608</v>
@@ -10565,7 +10565,7 @@
         <v>606</v>
       </c>
       <c r="C492">
-        <v>106.797</v>
+        <v>106.848</v>
       </c>
       <c r="D492" t="s">
         <v>608</v>
@@ -10582,7 +10582,7 @@
         <v>606</v>
       </c>
       <c r="C493">
-        <v>103.619</v>
+        <v>101.722</v>
       </c>
       <c r="D493" t="s">
         <v>608</v>
@@ -10599,7 +10599,7 @@
         <v>606</v>
       </c>
       <c r="C494">
-        <v>106.826</v>
+        <v>108.618</v>
       </c>
       <c r="D494" t="s">
         <v>608</v>
@@ -10613,10 +10613,10 @@
         <v>498</v>
       </c>
       <c r="B495" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C495">
-        <v>102.502</v>
+        <v>98.864</v>
       </c>
       <c r="D495" t="s">
         <v>608</v>
@@ -10633,7 +10633,7 @@
         <v>606</v>
       </c>
       <c r="C496">
-        <v>108.198</v>
+        <v>105.504</v>
       </c>
       <c r="D496" t="s">
         <v>608</v>
@@ -10650,7 +10650,7 @@
         <v>606</v>
       </c>
       <c r="C497">
-        <v>103.003</v>
+        <v>103.465</v>
       </c>
       <c r="D497" t="s">
         <v>608</v>
@@ -10667,7 +10667,7 @@
         <v>606</v>
       </c>
       <c r="C498">
-        <v>106.603</v>
+        <v>105.231</v>
       </c>
       <c r="D498" t="s">
         <v>608</v>
@@ -10684,7 +10684,7 @@
         <v>606</v>
       </c>
       <c r="C499">
-        <v>108.403</v>
+        <v>102.771</v>
       </c>
       <c r="D499" t="s">
         <v>608</v>
@@ -10701,7 +10701,7 @@
         <v>606</v>
       </c>
       <c r="C500">
-        <v>117.295</v>
+        <v>110.175</v>
       </c>
       <c r="D500" t="s">
         <v>608</v>
@@ -10718,7 +10718,7 @@
         <v>606</v>
       </c>
       <c r="C501">
-        <v>126.419</v>
+        <v>123.359</v>
       </c>
       <c r="D501" t="s">
         <v>608</v>
@@ -10735,7 +10735,7 @@
         <v>606</v>
       </c>
       <c r="C502">
-        <v>117.979</v>
+        <v>116.358</v>
       </c>
       <c r="D502" t="s">
         <v>608</v>
@@ -10752,7 +10752,7 @@
         <v>606</v>
       </c>
       <c r="C503">
-        <v>120.742</v>
+        <v>124.761</v>
       </c>
       <c r="D503" t="s">
         <v>608</v>
@@ -10769,7 +10769,7 @@
         <v>606</v>
       </c>
       <c r="C504">
-        <v>111.906</v>
+        <v>110.423</v>
       </c>
       <c r="D504" t="s">
         <v>608</v>
@@ -10786,7 +10786,7 @@
         <v>606</v>
       </c>
       <c r="C505">
-        <v>106.746</v>
+        <v>104.109</v>
       </c>
       <c r="D505" t="s">
         <v>608</v>
@@ -10803,7 +10803,7 @@
         <v>606</v>
       </c>
       <c r="C506">
-        <v>102.739</v>
+        <v>106.756</v>
       </c>
       <c r="D506" t="s">
         <v>608</v>
@@ -10820,7 +10820,7 @@
         <v>607</v>
       </c>
       <c r="C507">
-        <v>87.43600000000001</v>
+        <v>86.572</v>
       </c>
       <c r="D507" t="s">
         <v>608</v>
@@ -10837,7 +10837,7 @@
         <v>606</v>
       </c>
       <c r="C508">
-        <v>110.366</v>
+        <v>110.746</v>
       </c>
       <c r="D508" t="s">
         <v>608</v>
@@ -10854,7 +10854,7 @@
         <v>606</v>
       </c>
       <c r="C509">
-        <v>121.321</v>
+        <v>118.764</v>
       </c>
       <c r="D509" t="s">
         <v>608</v>
@@ -10871,7 +10871,7 @@
         <v>606</v>
       </c>
       <c r="C510">
-        <v>118.237</v>
+        <v>121.212</v>
       </c>
       <c r="D510" t="s">
         <v>608</v>
@@ -10888,7 +10888,7 @@
         <v>607</v>
       </c>
       <c r="C511">
-        <v>79.771</v>
+        <v>78.294</v>
       </c>
       <c r="D511" t="s">
         <v>608</v>
@@ -10905,7 +10905,7 @@
         <v>606</v>
       </c>
       <c r="C512">
-        <v>144.156</v>
+        <v>139.062</v>
       </c>
       <c r="D512" t="s">
         <v>608</v>
@@ -10922,7 +10922,7 @@
         <v>606</v>
       </c>
       <c r="C513">
-        <v>114.58</v>
+        <v>109.043</v>
       </c>
       <c r="D513" t="s">
         <v>608</v>
@@ -10939,7 +10939,7 @@
         <v>606</v>
       </c>
       <c r="C514">
-        <v>239.216</v>
+        <v>291.919</v>
       </c>
       <c r="D514" t="s">
         <v>608</v>
@@ -10956,7 +10956,7 @@
         <v>606</v>
       </c>
       <c r="C515">
-        <v>112.832</v>
+        <v>117.621</v>
       </c>
       <c r="D515" t="s">
         <v>608</v>
@@ -10970,10 +10970,10 @@
         <v>519</v>
       </c>
       <c r="B516" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C516">
-        <v>96.696</v>
+        <v>127.975</v>
       </c>
       <c r="D516" t="s">
         <v>608</v>
@@ -10990,7 +10990,7 @@
         <v>606</v>
       </c>
       <c r="C517">
-        <v>103.55</v>
+        <v>102.578</v>
       </c>
       <c r="D517" t="s">
         <v>608</v>
@@ -11004,10 +11004,10 @@
         <v>521</v>
       </c>
       <c r="B518" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C518">
-        <v>87.313</v>
+        <v>112.13</v>
       </c>
       <c r="D518" t="s">
         <v>608</v>
@@ -11024,7 +11024,7 @@
         <v>606</v>
       </c>
       <c r="C519">
-        <v>108</v>
+        <v>123.636</v>
       </c>
       <c r="D519" t="s">
         <v>608</v>
@@ -11038,10 +11038,10 @@
         <v>523</v>
       </c>
       <c r="B520" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C520">
-        <v>95.319</v>
+        <v>107.554</v>
       </c>
       <c r="D520" t="s">
         <v>608</v>
@@ -11058,7 +11058,7 @@
         <v>607</v>
       </c>
       <c r="C521">
-        <v>88.584</v>
+        <v>98.833</v>
       </c>
       <c r="D521" t="s">
         <v>608</v>
@@ -11072,10 +11072,10 @@
         <v>525</v>
       </c>
       <c r="B522" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C522">
-        <v>83.14400000000001</v>
+        <v>105.524</v>
       </c>
       <c r="D522" t="s">
         <v>608</v>
@@ -11092,7 +11092,7 @@
         <v>606</v>
       </c>
       <c r="C523">
-        <v>109.484</v>
+        <v>110.739</v>
       </c>
       <c r="D523" t="s">
         <v>608</v>
@@ -11109,7 +11109,7 @@
         <v>607</v>
       </c>
       <c r="C524">
-        <v>91.60599999999999</v>
+        <v>91.932</v>
       </c>
       <c r="D524" t="s">
         <v>608</v>
@@ -11126,7 +11126,7 @@
         <v>607</v>
       </c>
       <c r="C525">
-        <v>87.52</v>
+        <v>99.55200000000001</v>
       </c>
       <c r="D525" t="s">
         <v>608</v>
@@ -11140,10 +11140,10 @@
         <v>528</v>
       </c>
       <c r="B526" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C526">
-        <v>100.527</v>
+        <v>89.157</v>
       </c>
       <c r="D526" t="s">
         <v>608</v>
@@ -11160,7 +11160,7 @@
         <v>606</v>
       </c>
       <c r="C527">
-        <v>102.175</v>
+        <v>110.662</v>
       </c>
       <c r="D527" t="s">
         <v>608</v>
@@ -11177,7 +11177,7 @@
         <v>607</v>
       </c>
       <c r="C528">
-        <v>86.46299999999999</v>
+        <v>91.04000000000001</v>
       </c>
       <c r="D528" t="s">
         <v>608</v>
@@ -11191,10 +11191,10 @@
         <v>531</v>
       </c>
       <c r="B529" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C529">
-        <v>96.562</v>
+        <v>100.479</v>
       </c>
       <c r="D529" t="s">
         <v>608</v>
@@ -11211,7 +11211,7 @@
         <v>606</v>
       </c>
       <c r="C530">
-        <v>149.937</v>
+        <v>125.158</v>
       </c>
       <c r="D530" t="s">
         <v>608</v>
@@ -11228,7 +11228,7 @@
         <v>606</v>
       </c>
       <c r="C531">
-        <v>130.102</v>
+        <v>148.784</v>
       </c>
       <c r="D531" t="s">
         <v>608</v>
@@ -11245,7 +11245,7 @@
         <v>606</v>
       </c>
       <c r="C532">
-        <v>112.808</v>
+        <v>119.704</v>
       </c>
       <c r="D532" t="s">
         <v>608</v>
@@ -11262,7 +11262,7 @@
         <v>606</v>
       </c>
       <c r="C533">
-        <v>117.623</v>
+        <v>130.932</v>
       </c>
       <c r="D533" t="s">
         <v>608</v>
@@ -11279,7 +11279,7 @@
         <v>606</v>
       </c>
       <c r="C534">
-        <v>113.131</v>
+        <v>107.016</v>
       </c>
       <c r="D534" t="s">
         <v>608</v>
@@ -11296,7 +11296,7 @@
         <v>606</v>
       </c>
       <c r="C535">
-        <v>104.367</v>
+        <v>106.633</v>
       </c>
       <c r="D535" t="s">
         <v>608</v>
@@ -11313,7 +11313,7 @@
         <v>606</v>
       </c>
       <c r="C536">
-        <v>110.915</v>
+        <v>110.971</v>
       </c>
       <c r="D536" t="s">
         <v>608</v>
@@ -11330,7 +11330,7 @@
         <v>606</v>
       </c>
       <c r="C537">
-        <v>113.662</v>
+        <v>115.966</v>
       </c>
       <c r="D537" t="s">
         <v>608</v>
@@ -11347,7 +11347,7 @@
         <v>607</v>
       </c>
       <c r="C538">
-        <v>90.974</v>
+        <v>92.59</v>
       </c>
       <c r="D538" t="s">
         <v>608</v>
@@ -11364,7 +11364,7 @@
         <v>606</v>
       </c>
       <c r="C539">
-        <v>115.431</v>
+        <v>118.079</v>
       </c>
       <c r="D539" t="s">
         <v>608</v>
@@ -11378,10 +11378,10 @@
         <v>541</v>
       </c>
       <c r="B540" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C540">
-        <v>95.777</v>
+        <v>110.078</v>
       </c>
       <c r="D540" t="s">
         <v>608</v>
@@ -11398,7 +11398,7 @@
         <v>606</v>
       </c>
       <c r="C541">
-        <v>106.156</v>
+        <v>105.577</v>
       </c>
       <c r="D541" t="s">
         <v>608</v>
@@ -11415,7 +11415,7 @@
         <v>606</v>
       </c>
       <c r="C542">
-        <v>100.959</v>
+        <v>102.761</v>
       </c>
       <c r="D542" t="s">
         <v>608</v>
@@ -11432,7 +11432,7 @@
         <v>606</v>
       </c>
       <c r="C543">
-        <v>107.445</v>
+        <v>108.558</v>
       </c>
       <c r="D543" t="s">
         <v>608</v>
@@ -11449,7 +11449,7 @@
         <v>607</v>
       </c>
       <c r="C544">
-        <v>99.506</v>
+        <v>99.85599999999999</v>
       </c>
       <c r="D544" t="s">
         <v>608</v>
@@ -11466,7 +11466,7 @@
         <v>607</v>
       </c>
       <c r="C545">
-        <v>93.557</v>
+        <v>95.134</v>
       </c>
       <c r="D545" t="s">
         <v>608</v>
@@ -11480,10 +11480,10 @@
         <v>547</v>
       </c>
       <c r="B546" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C546">
-        <v>98.78</v>
+        <v>102.335</v>
       </c>
       <c r="D546" t="s">
         <v>608</v>
@@ -11500,7 +11500,7 @@
         <v>606</v>
       </c>
       <c r="C547">
-        <v>101.609</v>
+        <v>104.513</v>
       </c>
       <c r="D547" t="s">
         <v>608</v>
@@ -11517,7 +11517,7 @@
         <v>606</v>
       </c>
       <c r="C548">
-        <v>103.366</v>
+        <v>103.26</v>
       </c>
       <c r="D548" t="s">
         <v>608</v>
@@ -11534,7 +11534,7 @@
         <v>607</v>
       </c>
       <c r="C549">
-        <v>96.105</v>
+        <v>97.943</v>
       </c>
       <c r="D549" t="s">
         <v>608</v>
@@ -11551,7 +11551,7 @@
         <v>606</v>
       </c>
       <c r="C550">
-        <v>104.24</v>
+        <v>103.284</v>
       </c>
       <c r="D550" t="s">
         <v>608</v>
@@ -11568,7 +11568,7 @@
         <v>606</v>
       </c>
       <c r="C551">
-        <v>100.315</v>
+        <v>103.382</v>
       </c>
       <c r="D551" t="s">
         <v>608</v>
@@ -11585,7 +11585,7 @@
         <v>606</v>
       </c>
       <c r="C552">
-        <v>104.387</v>
+        <v>109.094</v>
       </c>
       <c r="D552" t="s">
         <v>608</v>
@@ -11602,7 +11602,7 @@
         <v>607</v>
       </c>
       <c r="C553">
-        <v>93.121</v>
+        <v>94.456</v>
       </c>
       <c r="D553" t="s">
         <v>608</v>
@@ -11619,7 +11619,7 @@
         <v>606</v>
       </c>
       <c r="C554">
-        <v>109.401</v>
+        <v>111.535</v>
       </c>
       <c r="D554" t="s">
         <v>608</v>
@@ -11633,10 +11633,10 @@
         <v>556</v>
       </c>
       <c r="B555" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C555">
-        <v>90.90900000000001</v>
+        <v>100</v>
       </c>
       <c r="D555" t="s">
         <v>608</v>
@@ -11650,10 +11650,10 @@
         <v>557</v>
       </c>
       <c r="B556" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C556">
-        <v>99.67400000000001</v>
+        <v>100.672</v>
       </c>
       <c r="D556" t="s">
         <v>608</v>
@@ -11667,10 +11667,10 @@
         <v>558</v>
       </c>
       <c r="B557" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C557">
-        <v>99.79600000000001</v>
+        <v>103.119</v>
       </c>
       <c r="D557" t="s">
         <v>608</v>
@@ -11687,7 +11687,7 @@
         <v>606</v>
       </c>
       <c r="C558">
-        <v>100.061</v>
+        <v>103.614</v>
       </c>
       <c r="D558" t="s">
         <v>608</v>
@@ -11704,7 +11704,7 @@
         <v>607</v>
       </c>
       <c r="C559">
-        <v>99.34099999999999</v>
+        <v>99.384</v>
       </c>
       <c r="D559" t="s">
         <v>608</v>
@@ -11721,7 +11721,7 @@
         <v>607</v>
       </c>
       <c r="C560">
-        <v>94.303</v>
+        <v>94.77</v>
       </c>
       <c r="D560" t="s">
         <v>608</v>
@@ -11738,7 +11738,7 @@
         <v>606</v>
       </c>
       <c r="C561">
-        <v>108.687</v>
+        <v>111.422</v>
       </c>
       <c r="D561" t="s">
         <v>608</v>
@@ -11755,7 +11755,7 @@
         <v>607</v>
       </c>
       <c r="C562">
-        <v>97.21899999999999</v>
+        <v>97.577</v>
       </c>
       <c r="D562" t="s">
         <v>608</v>
@@ -11772,7 +11772,7 @@
         <v>606</v>
       </c>
       <c r="C563">
-        <v>100.495</v>
+        <v>100.99</v>
       </c>
       <c r="D563" t="s">
         <v>608</v>
@@ -11789,7 +11789,7 @@
         <v>607</v>
       </c>
       <c r="C564">
-        <v>87.351</v>
+        <v>97.271</v>
       </c>
       <c r="D564" t="s">
         <v>608</v>
@@ -11803,10 +11803,10 @@
         <v>566</v>
       </c>
       <c r="B565" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C565">
-        <v>98.98</v>
+        <v>102.103</v>
       </c>
       <c r="D565" t="s">
         <v>608</v>
@@ -11820,10 +11820,10 @@
         <v>567</v>
       </c>
       <c r="B566" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C566">
-        <v>98.098</v>
+        <v>100.654</v>
       </c>
       <c r="D566" t="s">
         <v>608</v>
@@ -11840,7 +11840,7 @@
         <v>606</v>
       </c>
       <c r="C567">
-        <v>127.783</v>
+        <v>127.858</v>
       </c>
       <c r="D567" t="s">
         <v>608</v>
@@ -11857,7 +11857,7 @@
         <v>606</v>
       </c>
       <c r="C568">
-        <v>103.644</v>
+        <v>100.57</v>
       </c>
       <c r="D568" t="s">
         <v>608</v>
@@ -11874,7 +11874,7 @@
         <v>606</v>
       </c>
       <c r="C569">
-        <v>106.719</v>
+        <v>105.8</v>
       </c>
       <c r="D569" t="s">
         <v>608</v>
@@ -11891,7 +11891,7 @@
         <v>606</v>
       </c>
       <c r="C570">
-        <v>107.577</v>
+        <v>106.194</v>
       </c>
       <c r="D570" t="s">
         <v>608</v>
@@ -11908,7 +11908,7 @@
         <v>607</v>
       </c>
       <c r="C571">
-        <v>92.93000000000001</v>
+        <v>94.441</v>
       </c>
       <c r="D571" t="s">
         <v>608</v>
@@ -11925,7 +11925,7 @@
         <v>606</v>
       </c>
       <c r="C572">
-        <v>108.501</v>
+        <v>113.325</v>
       </c>
       <c r="D572" t="s">
         <v>608</v>
@@ -11942,7 +11942,7 @@
         <v>606</v>
       </c>
       <c r="C573">
-        <v>103.181</v>
+        <v>105.875</v>
       </c>
       <c r="D573" t="s">
         <v>608</v>
@@ -11959,7 +11959,7 @@
         <v>606</v>
       </c>
       <c r="C574">
-        <v>105.246</v>
+        <v>105.134</v>
       </c>
       <c r="D574" t="s">
         <v>608</v>
@@ -11976,7 +11976,7 @@
         <v>606</v>
       </c>
       <c r="C575">
-        <v>106.038</v>
+        <v>109.702</v>
       </c>
       <c r="D575" t="s">
         <v>608</v>
@@ -11993,7 +11993,7 @@
         <v>606</v>
       </c>
       <c r="C576">
-        <v>113.001</v>
+        <v>118.082</v>
       </c>
       <c r="D576" t="s">
         <v>608</v>
@@ -12010,7 +12010,7 @@
         <v>606</v>
       </c>
       <c r="C577">
-        <v>113.992</v>
+        <v>115.618</v>
       </c>
       <c r="D577" t="s">
         <v>608</v>
@@ -12027,7 +12027,7 @@
         <v>606</v>
       </c>
       <c r="C578">
-        <v>109.343</v>
+        <v>110.438</v>
       </c>
       <c r="D578" t="s">
         <v>608</v>
@@ -12044,7 +12044,7 @@
         <v>606</v>
       </c>
       <c r="C579">
-        <v>106.007</v>
+        <v>115.188</v>
       </c>
       <c r="D579" t="s">
         <v>608</v>
@@ -12061,7 +12061,7 @@
         <v>606</v>
       </c>
       <c r="C580">
-        <v>100.848</v>
+        <v>104.816</v>
       </c>
       <c r="D580" t="s">
         <v>608</v>
@@ -12078,7 +12078,7 @@
         <v>606</v>
       </c>
       <c r="C581">
-        <v>106.944</v>
+        <v>105.297</v>
       </c>
       <c r="D581" t="s">
         <v>608</v>
@@ -12095,7 +12095,7 @@
         <v>606</v>
       </c>
       <c r="C582">
-        <v>108.811</v>
+        <v>110.418</v>
       </c>
       <c r="D582" t="s">
         <v>608</v>
@@ -12112,7 +12112,7 @@
         <v>606</v>
       </c>
       <c r="C583">
-        <v>117.679</v>
+        <v>117.632</v>
       </c>
       <c r="D583" t="s">
         <v>608</v>
@@ -12129,7 +12129,7 @@
         <v>606</v>
       </c>
       <c r="C584">
-        <v>122.778</v>
+        <v>128.668</v>
       </c>
       <c r="D584" t="s">
         <v>608</v>
@@ -12146,7 +12146,7 @@
         <v>606</v>
       </c>
       <c r="C585">
-        <v>104.953</v>
+        <v>110.108</v>
       </c>
       <c r="D585" t="s">
         <v>608</v>
@@ -12163,7 +12163,7 @@
         <v>606</v>
       </c>
       <c r="C586">
-        <v>113.103</v>
+        <v>113.221</v>
       </c>
       <c r="D586" t="s">
         <v>608</v>
@@ -12180,7 +12180,7 @@
         <v>606</v>
       </c>
       <c r="C587">
-        <v>108.192</v>
+        <v>104.185</v>
       </c>
       <c r="D587" t="s">
         <v>608</v>
@@ -12197,7 +12197,7 @@
         <v>607</v>
       </c>
       <c r="C588">
-        <v>95.816</v>
+        <v>93.27200000000001</v>
       </c>
       <c r="D588" t="s">
         <v>608</v>
@@ -12214,7 +12214,7 @@
         <v>606</v>
       </c>
       <c r="C589">
-        <v>108.653</v>
+        <v>107.538</v>
       </c>
       <c r="D589" t="s">
         <v>608</v>
@@ -12231,7 +12231,7 @@
         <v>606</v>
       </c>
       <c r="C590">
-        <v>110.282</v>
+        <v>112.529</v>
       </c>
       <c r="D590" t="s">
         <v>608</v>
@@ -12248,7 +12248,7 @@
         <v>606</v>
       </c>
       <c r="C591">
-        <v>102.355</v>
+        <v>105.344</v>
       </c>
       <c r="D591" t="s">
         <v>608</v>
@@ -12265,7 +12265,7 @@
         <v>606</v>
       </c>
       <c r="C592">
-        <v>105.531</v>
+        <v>106.395</v>
       </c>
       <c r="D592" t="s">
         <v>608</v>
@@ -12282,7 +12282,7 @@
         <v>606</v>
       </c>
       <c r="C593">
-        <v>110.36</v>
+        <v>113.621</v>
       </c>
       <c r="D593" t="s">
         <v>608</v>
@@ -12299,7 +12299,7 @@
         <v>606</v>
       </c>
       <c r="C594">
-        <v>103.258</v>
+        <v>106.265</v>
       </c>
       <c r="D594" t="s">
         <v>608</v>
@@ -12316,7 +12316,7 @@
         <v>606</v>
       </c>
       <c r="C595">
-        <v>115.878</v>
+        <v>120.115</v>
       </c>
       <c r="D595" t="s">
         <v>608</v>
@@ -12333,7 +12333,7 @@
         <v>606</v>
       </c>
       <c r="C596">
-        <v>106.414</v>
+        <v>102.937</v>
       </c>
       <c r="D596" t="s">
         <v>608</v>
@@ -12350,7 +12350,7 @@
         <v>606</v>
       </c>
       <c r="C597">
-        <v>112.658</v>
+        <v>114.436</v>
       </c>
       <c r="D597" t="s">
         <v>608</v>
@@ -12367,7 +12367,7 @@
         <v>606</v>
       </c>
       <c r="C598">
-        <v>130.633</v>
+        <v>134.9</v>
       </c>
       <c r="D598" t="s">
         <v>608</v>
@@ -12384,7 +12384,7 @@
         <v>606</v>
       </c>
       <c r="C599">
-        <v>114.956</v>
+        <v>112.47</v>
       </c>
       <c r="D599" t="s">
         <v>608</v>
@@ -12401,7 +12401,7 @@
         <v>606</v>
       </c>
       <c r="C600">
-        <v>113.601</v>
+        <v>108.903</v>
       </c>
       <c r="D600" t="s">
         <v>608</v>
@@ -12418,7 +12418,7 @@
         <v>606</v>
       </c>
       <c r="C601">
-        <v>110.983</v>
+        <v>110.74</v>
       </c>
       <c r="D601" t="s">
         <v>608</v>
@@ -12435,7 +12435,7 @@
         <v>606</v>
       </c>
       <c r="C602">
-        <v>110.204</v>
+        <v>116.607</v>
       </c>
       <c r="D602" t="s">
         <v>608</v>
@@ -12452,7 +12452,7 @@
         <v>606</v>
       </c>
       <c r="C603">
-        <v>101.178</v>
+        <v>100.627</v>
       </c>
       <c r="D603" t="s">
         <v>608</v>
@@ -12469,7 +12469,7 @@
         <v>606</v>
       </c>
       <c r="C604">
-        <v>107.713</v>
+        <v>110.088</v>
       </c>
       <c r="D604" t="s">
         <v>608</v>

--- a/generated_reports/tradfi_momentum.xlsx
+++ b/generated_reports/tradfi_momentum.xlsx
@@ -2232,7 +2232,7 @@
         <v>605</v>
       </c>
       <c r="C2">
-        <v>98.419</v>
+        <v>93.489</v>
       </c>
       <c r="D2" t="s">
         <v>607</v>
@@ -2249,7 +2249,7 @@
         <v>605</v>
       </c>
       <c r="C3">
-        <v>92.352</v>
+        <v>91.866</v>
       </c>
       <c r="D3" t="s">
         <v>607</v>
@@ -2266,7 +2266,7 @@
         <v>605</v>
       </c>
       <c r="C4">
-        <v>98.23099999999999</v>
+        <v>95.209</v>
       </c>
       <c r="D4" t="s">
         <v>607</v>
@@ -2283,7 +2283,7 @@
         <v>605</v>
       </c>
       <c r="C5">
-        <v>83.14100000000001</v>
+        <v>79.217</v>
       </c>
       <c r="D5" t="s">
         <v>607</v>
@@ -2300,7 +2300,7 @@
         <v>605</v>
       </c>
       <c r="C6">
-        <v>88.38</v>
+        <v>84.646</v>
       </c>
       <c r="D6" t="s">
         <v>607</v>
@@ -2317,7 +2317,7 @@
         <v>605</v>
       </c>
       <c r="C7">
-        <v>94.393</v>
+        <v>90.486</v>
       </c>
       <c r="D7" t="s">
         <v>607</v>
@@ -2334,7 +2334,7 @@
         <v>605</v>
       </c>
       <c r="C8">
-        <v>92.846</v>
+        <v>87.352</v>
       </c>
       <c r="D8" t="s">
         <v>607</v>
@@ -2351,7 +2351,7 @@
         <v>606</v>
       </c>
       <c r="C9">
-        <v>115.644</v>
+        <v>101.66</v>
       </c>
       <c r="D9" t="s">
         <v>607</v>
@@ -2368,7 +2368,7 @@
         <v>605</v>
       </c>
       <c r="C10">
-        <v>99.64</v>
+        <v>93.18600000000001</v>
       </c>
       <c r="D10" t="s">
         <v>607</v>
@@ -2385,7 +2385,7 @@
         <v>606</v>
       </c>
       <c r="C11">
-        <v>104.195</v>
+        <v>101.332</v>
       </c>
       <c r="D11" t="s">
         <v>607</v>
@@ -2399,10 +2399,10 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C12">
-        <v>100.657</v>
+        <v>98.938</v>
       </c>
       <c r="D12" t="s">
         <v>607</v>
@@ -2419,7 +2419,7 @@
         <v>605</v>
       </c>
       <c r="C13">
-        <v>80.233</v>
+        <v>79.86</v>
       </c>
       <c r="D13" t="s">
         <v>607</v>
@@ -2436,7 +2436,7 @@
         <v>606</v>
       </c>
       <c r="C14">
-        <v>114.649</v>
+        <v>109.513</v>
       </c>
       <c r="D14" t="s">
         <v>607</v>
@@ -2450,10 +2450,10 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C15">
-        <v>101.156</v>
+        <v>97.316</v>
       </c>
       <c r="D15" t="s">
         <v>607</v>
@@ -2470,7 +2470,7 @@
         <v>606</v>
       </c>
       <c r="C16">
-        <v>104.844</v>
+        <v>101.839</v>
       </c>
       <c r="D16" t="s">
         <v>607</v>
@@ -2487,7 +2487,7 @@
         <v>605</v>
       </c>
       <c r="C17">
-        <v>92.62</v>
+        <v>89.494</v>
       </c>
       <c r="D17" t="s">
         <v>607</v>
@@ -2504,7 +2504,7 @@
         <v>606</v>
       </c>
       <c r="C18">
-        <v>108.576</v>
+        <v>102.758</v>
       </c>
       <c r="D18" t="s">
         <v>607</v>
@@ -2521,7 +2521,7 @@
         <v>605</v>
       </c>
       <c r="C19">
-        <v>97.75</v>
+        <v>96.292</v>
       </c>
       <c r="D19" t="s">
         <v>607</v>
@@ -2538,7 +2538,7 @@
         <v>606</v>
       </c>
       <c r="C20">
-        <v>104.674</v>
+        <v>101.378</v>
       </c>
       <c r="D20" t="s">
         <v>607</v>
@@ -2555,7 +2555,7 @@
         <v>605</v>
       </c>
       <c r="C21">
-        <v>99.77800000000001</v>
+        <v>95.17400000000001</v>
       </c>
       <c r="D21" t="s">
         <v>607</v>
@@ -2572,7 +2572,7 @@
         <v>606</v>
       </c>
       <c r="C22">
-        <v>109.088</v>
+        <v>102.265</v>
       </c>
       <c r="D22" t="s">
         <v>607</v>
@@ -2589,7 +2589,7 @@
         <v>605</v>
       </c>
       <c r="C23">
-        <v>94.16</v>
+        <v>91.703</v>
       </c>
       <c r="D23" t="s">
         <v>607</v>
@@ -2603,10 +2603,10 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C24">
-        <v>100.867</v>
+        <v>94.376</v>
       </c>
       <c r="D24" t="s">
         <v>607</v>
@@ -2623,7 +2623,7 @@
         <v>606</v>
       </c>
       <c r="C25">
-        <v>108.511</v>
+        <v>104.207</v>
       </c>
       <c r="D25" t="s">
         <v>607</v>
@@ -2637,10 +2637,10 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C26">
-        <v>100.467</v>
+        <v>94.67700000000001</v>
       </c>
       <c r="D26" t="s">
         <v>607</v>
@@ -2657,7 +2657,7 @@
         <v>606</v>
       </c>
       <c r="C27">
-        <v>109.637</v>
+        <v>105.509</v>
       </c>
       <c r="D27" t="s">
         <v>607</v>
@@ -2671,10 +2671,10 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C28">
-        <v>100.678</v>
+        <v>97.64100000000001</v>
       </c>
       <c r="D28" t="s">
         <v>607</v>
@@ -2691,7 +2691,7 @@
         <v>605</v>
       </c>
       <c r="C29">
-        <v>97.502</v>
+        <v>94.063</v>
       </c>
       <c r="D29" t="s">
         <v>607</v>
@@ -2708,7 +2708,7 @@
         <v>606</v>
       </c>
       <c r="C30">
-        <v>107.26</v>
+        <v>102.215</v>
       </c>
       <c r="D30" t="s">
         <v>607</v>
@@ -2722,10 +2722,10 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C31">
-        <v>103.691</v>
+        <v>97.53700000000001</v>
       </c>
       <c r="D31" t="s">
         <v>607</v>
@@ -2742,7 +2742,7 @@
         <v>606</v>
       </c>
       <c r="C32">
-        <v>101.61</v>
+        <v>105.689</v>
       </c>
       <c r="D32" t="s">
         <v>607</v>
@@ -2759,7 +2759,7 @@
         <v>605</v>
       </c>
       <c r="C33">
-        <v>99.28700000000001</v>
+        <v>97.258</v>
       </c>
       <c r="D33" t="s">
         <v>607</v>
@@ -2776,7 +2776,7 @@
         <v>605</v>
       </c>
       <c r="C34">
-        <v>89.509</v>
+        <v>96.535</v>
       </c>
       <c r="D34" t="s">
         <v>607</v>
@@ -2790,10 +2790,10 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C35">
-        <v>100.146</v>
+        <v>98.46299999999999</v>
       </c>
       <c r="D35" t="s">
         <v>607</v>
@@ -2807,10 +2807,10 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C36">
-        <v>104.148</v>
+        <v>97.18600000000001</v>
       </c>
       <c r="D36" t="s">
         <v>607</v>
@@ -2827,7 +2827,7 @@
         <v>605</v>
       </c>
       <c r="C37">
-        <v>95.14700000000001</v>
+        <v>94.845</v>
       </c>
       <c r="D37" t="s">
         <v>607</v>
@@ -2844,7 +2844,7 @@
         <v>605</v>
       </c>
       <c r="C38">
-        <v>91.651</v>
+        <v>91.629</v>
       </c>
       <c r="D38" t="s">
         <v>607</v>
@@ -2858,10 +2858,10 @@
         <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C39">
-        <v>100.044</v>
+        <v>98.102</v>
       </c>
       <c r="D39" t="s">
         <v>607</v>
@@ -2878,7 +2878,7 @@
         <v>605</v>
       </c>
       <c r="C40">
-        <v>93.98699999999999</v>
+        <v>93.318</v>
       </c>
       <c r="D40" t="s">
         <v>607</v>
@@ -2895,7 +2895,7 @@
         <v>606</v>
       </c>
       <c r="C41">
-        <v>107.956</v>
+        <v>102.285</v>
       </c>
       <c r="D41" t="s">
         <v>607</v>
@@ -2909,10 +2909,10 @@
         <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C42">
-        <v>102.288</v>
+        <v>98.384</v>
       </c>
       <c r="D42" t="s">
         <v>607</v>
@@ -2929,7 +2929,7 @@
         <v>606</v>
       </c>
       <c r="C43">
-        <v>108.66</v>
+        <v>101.687</v>
       </c>
       <c r="D43" t="s">
         <v>607</v>
@@ -2943,10 +2943,10 @@
         <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C44">
-        <v>102.878</v>
+        <v>97.209</v>
       </c>
       <c r="D44" t="s">
         <v>607</v>
@@ -2963,7 +2963,7 @@
         <v>606</v>
       </c>
       <c r="C45">
-        <v>108.692</v>
+        <v>105.927</v>
       </c>
       <c r="D45" t="s">
         <v>607</v>
@@ -2980,7 +2980,7 @@
         <v>606</v>
       </c>
       <c r="C46">
-        <v>111.384</v>
+        <v>102.846</v>
       </c>
       <c r="D46" t="s">
         <v>607</v>
@@ -2997,7 +2997,7 @@
         <v>606</v>
       </c>
       <c r="C47">
-        <v>109.418</v>
+        <v>102.792</v>
       </c>
       <c r="D47" t="s">
         <v>607</v>
@@ -3011,10 +3011,10 @@
         <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C48">
-        <v>101.165</v>
+        <v>98.593</v>
       </c>
       <c r="D48" t="s">
         <v>607</v>
@@ -3031,7 +3031,7 @@
         <v>605</v>
       </c>
       <c r="C49">
-        <v>98.42700000000001</v>
+        <v>96.681</v>
       </c>
       <c r="D49" t="s">
         <v>607</v>
@@ -3045,10 +3045,10 @@
         <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C50">
-        <v>102.628</v>
+        <v>98.748</v>
       </c>
       <c r="D50" t="s">
         <v>607</v>
@@ -3062,10 +3062,10 @@
         <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C51">
-        <v>106.3</v>
+        <v>98.465</v>
       </c>
       <c r="D51" t="s">
         <v>607</v>
@@ -3082,7 +3082,7 @@
         <v>606</v>
       </c>
       <c r="C52">
-        <v>113.031</v>
+        <v>108.618</v>
       </c>
       <c r="D52" t="s">
         <v>607</v>
@@ -3099,7 +3099,7 @@
         <v>605</v>
       </c>
       <c r="C53">
-        <v>85.825</v>
+        <v>86.48</v>
       </c>
       <c r="D53" t="s">
         <v>607</v>
@@ -3116,7 +3116,7 @@
         <v>606</v>
       </c>
       <c r="C54">
-        <v>110.191</v>
+        <v>102.324</v>
       </c>
       <c r="D54" t="s">
         <v>607</v>
@@ -3130,10 +3130,10 @@
         <v>58</v>
       </c>
       <c r="B55" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C55">
-        <v>103.172</v>
+        <v>96.95</v>
       </c>
       <c r="D55" t="s">
         <v>607</v>
@@ -3150,7 +3150,7 @@
         <v>606</v>
       </c>
       <c r="C56">
-        <v>110.482</v>
+        <v>104.61</v>
       </c>
       <c r="D56" t="s">
         <v>607</v>
@@ -3167,7 +3167,7 @@
         <v>606</v>
       </c>
       <c r="C57">
-        <v>110.433</v>
+        <v>104.474</v>
       </c>
       <c r="D57" t="s">
         <v>607</v>
@@ -3184,7 +3184,7 @@
         <v>605</v>
       </c>
       <c r="C58">
-        <v>98.107</v>
+        <v>97.44199999999999</v>
       </c>
       <c r="D58" t="s">
         <v>607</v>
@@ -3201,7 +3201,7 @@
         <v>606</v>
       </c>
       <c r="C59">
-        <v>113.355</v>
+        <v>108.181</v>
       </c>
       <c r="D59" t="s">
         <v>607</v>
@@ -3218,7 +3218,7 @@
         <v>606</v>
       </c>
       <c r="C60">
-        <v>102.324</v>
+        <v>101.792</v>
       </c>
       <c r="D60" t="s">
         <v>607</v>
@@ -3232,10 +3232,10 @@
         <v>64</v>
       </c>
       <c r="B61" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C61">
-        <v>100.729</v>
+        <v>93.839</v>
       </c>
       <c r="D61" t="s">
         <v>607</v>
@@ -3252,7 +3252,7 @@
         <v>606</v>
       </c>
       <c r="C62">
-        <v>106.298</v>
+        <v>104.048</v>
       </c>
       <c r="D62" t="s">
         <v>607</v>
@@ -3269,7 +3269,7 @@
         <v>606</v>
       </c>
       <c r="C63">
-        <v>106.714</v>
+        <v>100.354</v>
       </c>
       <c r="D63" t="s">
         <v>607</v>
@@ -3283,10 +3283,10 @@
         <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C64">
-        <v>105.325</v>
+        <v>96.143</v>
       </c>
       <c r="D64" t="s">
         <v>607</v>
@@ -3303,7 +3303,7 @@
         <v>605</v>
       </c>
       <c r="C65">
-        <v>99.053</v>
+        <v>96.398</v>
       </c>
       <c r="D65" t="s">
         <v>607</v>
@@ -3320,7 +3320,7 @@
         <v>606</v>
       </c>
       <c r="C66">
-        <v>101.885</v>
+        <v>102.16</v>
       </c>
       <c r="D66" t="s">
         <v>607</v>
@@ -3337,7 +3337,7 @@
         <v>606</v>
       </c>
       <c r="C67">
-        <v>107.021</v>
+        <v>101.743</v>
       </c>
       <c r="D67" t="s">
         <v>607</v>
@@ -3354,7 +3354,7 @@
         <v>606</v>
       </c>
       <c r="C68">
-        <v>102.159</v>
+        <v>102.852</v>
       </c>
       <c r="D68" t="s">
         <v>607</v>
@@ -3371,7 +3371,7 @@
         <v>605</v>
       </c>
       <c r="C69">
-        <v>98.809</v>
+        <v>97.21599999999999</v>
       </c>
       <c r="D69" t="s">
         <v>607</v>
@@ -3388,7 +3388,7 @@
         <v>606</v>
       </c>
       <c r="C70">
-        <v>110.134</v>
+        <v>101.673</v>
       </c>
       <c r="D70" t="s">
         <v>607</v>
@@ -3405,7 +3405,7 @@
         <v>606</v>
       </c>
       <c r="C71">
-        <v>105.121</v>
+        <v>102.777</v>
       </c>
       <c r="D71" t="s">
         <v>607</v>
@@ -3422,7 +3422,7 @@
         <v>606</v>
       </c>
       <c r="C72">
-        <v>112.969</v>
+        <v>108.888</v>
       </c>
       <c r="D72" t="s">
         <v>607</v>
@@ -3436,10 +3436,10 @@
         <v>76</v>
       </c>
       <c r="B73" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C73">
-        <v>102.493</v>
+        <v>97.102</v>
       </c>
       <c r="D73" t="s">
         <v>607</v>
@@ -3456,7 +3456,7 @@
         <v>606</v>
       </c>
       <c r="C74">
-        <v>105.784</v>
+        <v>102.405</v>
       </c>
       <c r="D74" t="s">
         <v>607</v>
@@ -3473,7 +3473,7 @@
         <v>605</v>
       </c>
       <c r="C75">
-        <v>98.367</v>
+        <v>93.767</v>
       </c>
       <c r="D75" t="s">
         <v>607</v>
@@ -3490,7 +3490,7 @@
         <v>606</v>
       </c>
       <c r="C76">
-        <v>116.57</v>
+        <v>114.77</v>
       </c>
       <c r="D76" t="s">
         <v>607</v>
@@ -3507,7 +3507,7 @@
         <v>606</v>
       </c>
       <c r="C77">
-        <v>115.882</v>
+        <v>106.292</v>
       </c>
       <c r="D77" t="s">
         <v>607</v>
@@ -3521,10 +3521,10 @@
         <v>81</v>
       </c>
       <c r="B78" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C78">
-        <v>104.573</v>
+        <v>96.56999999999999</v>
       </c>
       <c r="D78" t="s">
         <v>607</v>
@@ -3541,7 +3541,7 @@
         <v>606</v>
       </c>
       <c r="C79">
-        <v>101.69</v>
+        <v>101.817</v>
       </c>
       <c r="D79" t="s">
         <v>607</v>
@@ -3558,7 +3558,7 @@
         <v>606</v>
       </c>
       <c r="C80">
-        <v>113.633</v>
+        <v>107.168</v>
       </c>
       <c r="D80" t="s">
         <v>607</v>
@@ -3575,7 +3575,7 @@
         <v>605</v>
       </c>
       <c r="C81">
-        <v>96.479</v>
+        <v>94.015</v>
       </c>
       <c r="D81" t="s">
         <v>607</v>
@@ -3589,10 +3589,10 @@
         <v>85</v>
       </c>
       <c r="B82" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C82">
-        <v>103.059</v>
+        <v>95.223</v>
       </c>
       <c r="D82" t="s">
         <v>607</v>
@@ -3609,7 +3609,7 @@
         <v>606</v>
       </c>
       <c r="C83">
-        <v>111.052</v>
+        <v>103.991</v>
       </c>
       <c r="D83" t="s">
         <v>607</v>
@@ -3626,7 +3626,7 @@
         <v>606</v>
       </c>
       <c r="C84">
-        <v>106.515</v>
+        <v>109.844</v>
       </c>
       <c r="D84" t="s">
         <v>607</v>
@@ -3640,10 +3640,10 @@
         <v>88</v>
       </c>
       <c r="B85" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C85">
-        <v>101.053</v>
+        <v>91.836</v>
       </c>
       <c r="D85" t="s">
         <v>607</v>
@@ -3660,7 +3660,7 @@
         <v>606</v>
       </c>
       <c r="C86">
-        <v>125.462</v>
+        <v>116.935</v>
       </c>
       <c r="D86" t="s">
         <v>607</v>
@@ -3677,7 +3677,7 @@
         <v>606</v>
       </c>
       <c r="C87">
-        <v>107.94</v>
+        <v>102.277</v>
       </c>
       <c r="D87" t="s">
         <v>607</v>
@@ -3694,7 +3694,7 @@
         <v>606</v>
       </c>
       <c r="C88">
-        <v>107.601</v>
+        <v>102.187</v>
       </c>
       <c r="D88" t="s">
         <v>607</v>
@@ -3711,7 +3711,7 @@
         <v>606</v>
       </c>
       <c r="C89">
-        <v>109.389</v>
+        <v>105.106</v>
       </c>
       <c r="D89" t="s">
         <v>607</v>
@@ -3728,7 +3728,7 @@
         <v>605</v>
       </c>
       <c r="C90">
-        <v>87.036</v>
+        <v>84.848</v>
       </c>
       <c r="D90" t="s">
         <v>607</v>
@@ -3745,7 +3745,7 @@
         <v>606</v>
       </c>
       <c r="C91">
-        <v>114.693</v>
+        <v>109.371</v>
       </c>
       <c r="D91" t="s">
         <v>607</v>
@@ -3762,7 +3762,7 @@
         <v>606</v>
       </c>
       <c r="C92">
-        <v>111.699</v>
+        <v>107.573</v>
       </c>
       <c r="D92" t="s">
         <v>607</v>
@@ -3779,7 +3779,7 @@
         <v>606</v>
       </c>
       <c r="C93">
-        <v>126.374</v>
+        <v>115.789</v>
       </c>
       <c r="D93" t="s">
         <v>607</v>
@@ -3796,7 +3796,7 @@
         <v>605</v>
       </c>
       <c r="C94">
-        <v>94.33499999999999</v>
+        <v>91.02</v>
       </c>
       <c r="D94" t="s">
         <v>607</v>
@@ -3813,7 +3813,7 @@
         <v>606</v>
       </c>
       <c r="C95">
-        <v>110.001</v>
+        <v>102.143</v>
       </c>
       <c r="D95" t="s">
         <v>607</v>
@@ -3830,7 +3830,7 @@
         <v>605</v>
       </c>
       <c r="C96">
-        <v>98.70399999999999</v>
+        <v>92.39400000000001</v>
       </c>
       <c r="D96" t="s">
         <v>607</v>
@@ -3844,10 +3844,10 @@
         <v>100</v>
       </c>
       <c r="B97" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C97">
-        <v>111.626</v>
+        <v>98.045</v>
       </c>
       <c r="D97" t="s">
         <v>607</v>
@@ -3864,7 +3864,7 @@
         <v>606</v>
       </c>
       <c r="C98">
-        <v>136.544</v>
+        <v>117.678</v>
       </c>
       <c r="D98" t="s">
         <v>607</v>
@@ -3881,7 +3881,7 @@
         <v>606</v>
       </c>
       <c r="C99">
-        <v>105.79</v>
+        <v>100.121</v>
       </c>
       <c r="D99" t="s">
         <v>607</v>
@@ -3895,10 +3895,10 @@
         <v>103</v>
       </c>
       <c r="B100" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C100">
-        <v>105.019</v>
+        <v>99.773</v>
       </c>
       <c r="D100" t="s">
         <v>607</v>
@@ -3915,7 +3915,7 @@
         <v>606</v>
       </c>
       <c r="C101">
-        <v>106.3</v>
+        <v>101.831</v>
       </c>
       <c r="D101" t="s">
         <v>607</v>
@@ -3932,7 +3932,7 @@
         <v>605</v>
       </c>
       <c r="C102">
-        <v>99.76300000000001</v>
+        <v>99.393</v>
       </c>
       <c r="D102" t="s">
         <v>607</v>
@@ -3949,7 +3949,7 @@
         <v>606</v>
       </c>
       <c r="C103">
-        <v>113.059</v>
+        <v>106.136</v>
       </c>
       <c r="D103" t="s">
         <v>607</v>
@@ -3966,7 +3966,7 @@
         <v>606</v>
       </c>
       <c r="C104">
-        <v>111.458</v>
+        <v>102.513</v>
       </c>
       <c r="D104" t="s">
         <v>607</v>
@@ -3983,7 +3983,7 @@
         <v>606</v>
       </c>
       <c r="C105">
-        <v>105.257</v>
+        <v>102.528</v>
       </c>
       <c r="D105" t="s">
         <v>607</v>
@@ -4000,7 +4000,7 @@
         <v>605</v>
       </c>
       <c r="C106">
-        <v>97.95699999999999</v>
+        <v>97.515</v>
       </c>
       <c r="D106" t="s">
         <v>607</v>
@@ -4017,7 +4017,7 @@
         <v>606</v>
       </c>
       <c r="C107">
-        <v>110.25</v>
+        <v>102.374</v>
       </c>
       <c r="D107" t="s">
         <v>607</v>
@@ -4034,7 +4034,7 @@
         <v>605</v>
       </c>
       <c r="C108">
-        <v>98.113</v>
+        <v>96.10899999999999</v>
       </c>
       <c r="D108" t="s">
         <v>607</v>
@@ -4051,7 +4051,7 @@
         <v>606</v>
       </c>
       <c r="C109">
-        <v>105.207</v>
+        <v>103.43</v>
       </c>
       <c r="D109" t="s">
         <v>607</v>
@@ -4068,7 +4068,7 @@
         <v>606</v>
       </c>
       <c r="C110">
-        <v>106.899</v>
+        <v>100.653</v>
       </c>
       <c r="D110" t="s">
         <v>607</v>
@@ -4085,7 +4085,7 @@
         <v>605</v>
       </c>
       <c r="C111">
-        <v>89.354</v>
+        <v>86.58</v>
       </c>
       <c r="D111" t="s">
         <v>607</v>
@@ -4099,10 +4099,10 @@
         <v>115</v>
       </c>
       <c r="B112" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C112">
-        <v>100.167</v>
+        <v>99.43600000000001</v>
       </c>
       <c r="D112" t="s">
         <v>607</v>
@@ -4119,7 +4119,7 @@
         <v>606</v>
       </c>
       <c r="C113">
-        <v>105.05</v>
+        <v>102.72</v>
       </c>
       <c r="D113" t="s">
         <v>607</v>
@@ -4136,7 +4136,7 @@
         <v>606</v>
       </c>
       <c r="C114">
-        <v>127.067</v>
+        <v>119.937</v>
       </c>
       <c r="D114" t="s">
         <v>607</v>
@@ -4153,7 +4153,7 @@
         <v>606</v>
       </c>
       <c r="C115">
-        <v>110.82</v>
+        <v>104.662</v>
       </c>
       <c r="D115" t="s">
         <v>607</v>
@@ -4167,10 +4167,10 @@
         <v>119</v>
       </c>
       <c r="B116" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C116">
-        <v>101.044</v>
+        <v>99.419</v>
       </c>
       <c r="D116" t="s">
         <v>607</v>
@@ -4187,7 +4187,7 @@
         <v>605</v>
       </c>
       <c r="C117">
-        <v>97.286</v>
+        <v>96.69799999999999</v>
       </c>
       <c r="D117" t="s">
         <v>607</v>
@@ -4201,10 +4201,10 @@
         <v>121</v>
       </c>
       <c r="B118" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C118">
-        <v>102.258</v>
+        <v>98.509</v>
       </c>
       <c r="D118" t="s">
         <v>607</v>
@@ -4221,7 +4221,7 @@
         <v>606</v>
       </c>
       <c r="C119">
-        <v>110.03</v>
+        <v>104.434</v>
       </c>
       <c r="D119" t="s">
         <v>607</v>
@@ -4235,10 +4235,10 @@
         <v>123</v>
       </c>
       <c r="B120" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C120">
-        <v>102.369</v>
+        <v>98.56100000000001</v>
       </c>
       <c r="D120" t="s">
         <v>607</v>
@@ -4255,7 +4255,7 @@
         <v>606</v>
       </c>
       <c r="C121">
-        <v>112.897</v>
+        <v>105.324</v>
       </c>
       <c r="D121" t="s">
         <v>607</v>
@@ -4272,7 +4272,7 @@
         <v>606</v>
       </c>
       <c r="C122">
-        <v>125.768</v>
+        <v>119.569</v>
       </c>
       <c r="D122" t="s">
         <v>607</v>
@@ -4289,7 +4289,7 @@
         <v>606</v>
       </c>
       <c r="C123">
-        <v>107.756</v>
+        <v>104.23</v>
       </c>
       <c r="D123" t="s">
         <v>607</v>
@@ -4306,7 +4306,7 @@
         <v>606</v>
       </c>
       <c r="C124">
-        <v>109.323</v>
+        <v>104.081</v>
       </c>
       <c r="D124" t="s">
         <v>607</v>
@@ -4323,7 +4323,7 @@
         <v>606</v>
       </c>
       <c r="C125">
-        <v>109.16</v>
+        <v>103.476</v>
       </c>
       <c r="D125" t="s">
         <v>607</v>
@@ -4340,7 +4340,7 @@
         <v>606</v>
       </c>
       <c r="C126">
-        <v>105.488</v>
+        <v>100.695</v>
       </c>
       <c r="D126" t="s">
         <v>607</v>
@@ -4357,7 +4357,7 @@
         <v>605</v>
       </c>
       <c r="C127">
-        <v>99.54900000000001</v>
+        <v>98.738</v>
       </c>
       <c r="D127" t="s">
         <v>607</v>
@@ -4371,10 +4371,10 @@
         <v>131</v>
       </c>
       <c r="B128" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C128">
-        <v>103.696</v>
+        <v>95.45399999999999</v>
       </c>
       <c r="D128" t="s">
         <v>607</v>
@@ -4391,7 +4391,7 @@
         <v>606</v>
       </c>
       <c r="C129">
-        <v>107.416</v>
+        <v>104.065</v>
       </c>
       <c r="D129" t="s">
         <v>607</v>
@@ -4408,7 +4408,7 @@
         <v>606</v>
       </c>
       <c r="C130">
-        <v>106.094</v>
+        <v>100.971</v>
       </c>
       <c r="D130" t="s">
         <v>607</v>
@@ -4425,7 +4425,7 @@
         <v>606</v>
       </c>
       <c r="C131">
-        <v>107.875</v>
+        <v>101.347</v>
       </c>
       <c r="D131" t="s">
         <v>607</v>
@@ -4442,7 +4442,7 @@
         <v>606</v>
       </c>
       <c r="C132">
-        <v>110.308</v>
+        <v>104.383</v>
       </c>
       <c r="D132" t="s">
         <v>607</v>
@@ -4459,7 +4459,7 @@
         <v>606</v>
       </c>
       <c r="C133">
-        <v>115.246</v>
+        <v>105.766</v>
       </c>
       <c r="D133" t="s">
         <v>607</v>
@@ -4476,7 +4476,7 @@
         <v>606</v>
       </c>
       <c r="C134">
-        <v>107.798</v>
+        <v>102.968</v>
       </c>
       <c r="D134" t="s">
         <v>607</v>
@@ -4490,10 +4490,10 @@
         <v>138</v>
       </c>
       <c r="B135" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C135">
-        <v>100.529</v>
+        <v>97.771</v>
       </c>
       <c r="D135" t="s">
         <v>607</v>
@@ -4510,7 +4510,7 @@
         <v>606</v>
       </c>
       <c r="C136">
-        <v>121.401</v>
+        <v>113.745</v>
       </c>
       <c r="D136" t="s">
         <v>607</v>
@@ -4527,7 +4527,7 @@
         <v>605</v>
       </c>
       <c r="C137">
-        <v>98.083</v>
+        <v>94.55</v>
       </c>
       <c r="D137" t="s">
         <v>607</v>
@@ -4544,7 +4544,7 @@
         <v>606</v>
       </c>
       <c r="C138">
-        <v>106.881</v>
+        <v>103.006</v>
       </c>
       <c r="D138" t="s">
         <v>607</v>
@@ -4561,7 +4561,7 @@
         <v>606</v>
       </c>
       <c r="C139">
-        <v>108.007</v>
+        <v>103.836</v>
       </c>
       <c r="D139" t="s">
         <v>607</v>
@@ -4578,7 +4578,7 @@
         <v>606</v>
       </c>
       <c r="C140">
-        <v>108.315</v>
+        <v>104.764</v>
       </c>
       <c r="D140" t="s">
         <v>607</v>
@@ -4595,7 +4595,7 @@
         <v>606</v>
       </c>
       <c r="C141">
-        <v>106.884</v>
+        <v>105.629</v>
       </c>
       <c r="D141" t="s">
         <v>607</v>
@@ -4612,7 +4612,7 @@
         <v>606</v>
       </c>
       <c r="C142">
-        <v>112.478</v>
+        <v>103.815</v>
       </c>
       <c r="D142" t="s">
         <v>607</v>
@@ -4629,7 +4629,7 @@
         <v>606</v>
       </c>
       <c r="C143">
-        <v>107.183</v>
+        <v>101.441</v>
       </c>
       <c r="D143" t="s">
         <v>607</v>
@@ -4646,7 +4646,7 @@
         <v>606</v>
       </c>
       <c r="C144">
-        <v>102.095</v>
+        <v>101.005</v>
       </c>
       <c r="D144" t="s">
         <v>607</v>
@@ -4663,7 +4663,7 @@
         <v>606</v>
       </c>
       <c r="C145">
-        <v>112.402</v>
+        <v>105.917</v>
       </c>
       <c r="D145" t="s">
         <v>607</v>
@@ -4680,7 +4680,7 @@
         <v>606</v>
       </c>
       <c r="C146">
-        <v>113.276</v>
+        <v>106.162</v>
       </c>
       <c r="D146" t="s">
         <v>607</v>
@@ -4697,7 +4697,7 @@
         <v>605</v>
       </c>
       <c r="C147">
-        <v>95.89</v>
+        <v>94.078</v>
       </c>
       <c r="D147" t="s">
         <v>607</v>
@@ -4714,7 +4714,7 @@
         <v>606</v>
       </c>
       <c r="C148">
-        <v>106.829</v>
+        <v>102.269</v>
       </c>
       <c r="D148" t="s">
         <v>607</v>
@@ -4731,7 +4731,7 @@
         <v>606</v>
       </c>
       <c r="C149">
-        <v>119.107</v>
+        <v>115.418</v>
       </c>
       <c r="D149" t="s">
         <v>607</v>
@@ -4748,7 +4748,7 @@
         <v>606</v>
       </c>
       <c r="C150">
-        <v>104.425</v>
+        <v>100.55</v>
       </c>
       <c r="D150" t="s">
         <v>607</v>
@@ -4765,7 +4765,7 @@
         <v>606</v>
       </c>
       <c r="C151">
-        <v>142.386</v>
+        <v>134.522</v>
       </c>
       <c r="D151" t="s">
         <v>607</v>
@@ -4782,7 +4782,7 @@
         <v>606</v>
       </c>
       <c r="C152">
-        <v>103.815</v>
+        <v>101.612</v>
       </c>
       <c r="D152" t="s">
         <v>607</v>
@@ -4799,7 +4799,7 @@
         <v>606</v>
       </c>
       <c r="C153">
-        <v>109.422</v>
+        <v>102.618</v>
       </c>
       <c r="D153" t="s">
         <v>607</v>
@@ -4816,7 +4816,7 @@
         <v>606</v>
       </c>
       <c r="C154">
-        <v>112.746</v>
+        <v>108.014</v>
       </c>
       <c r="D154" t="s">
         <v>607</v>
@@ -4833,7 +4833,7 @@
         <v>606</v>
       </c>
       <c r="C155">
-        <v>104.597</v>
+        <v>100.114</v>
       </c>
       <c r="D155" t="s">
         <v>607</v>
@@ -4850,7 +4850,7 @@
         <v>606</v>
       </c>
       <c r="C156">
-        <v>106.656</v>
+        <v>100.053</v>
       </c>
       <c r="D156" t="s">
         <v>607</v>
@@ -4867,7 +4867,7 @@
         <v>605</v>
       </c>
       <c r="C157">
-        <v>97.059</v>
+        <v>95.434</v>
       </c>
       <c r="D157" t="s">
         <v>607</v>
@@ -4884,7 +4884,7 @@
         <v>606</v>
       </c>
       <c r="C158">
-        <v>110.166</v>
+        <v>104.627</v>
       </c>
       <c r="D158" t="s">
         <v>607</v>
@@ -4901,7 +4901,7 @@
         <v>605</v>
       </c>
       <c r="C159">
-        <v>98.13</v>
+        <v>97.185</v>
       </c>
       <c r="D159" t="s">
         <v>607</v>
@@ -4918,7 +4918,7 @@
         <v>606</v>
       </c>
       <c r="C160">
-        <v>101.43</v>
+        <v>102.348</v>
       </c>
       <c r="D160" t="s">
         <v>607</v>
@@ -4935,7 +4935,7 @@
         <v>606</v>
       </c>
       <c r="C161">
-        <v>103.75</v>
+        <v>101.531</v>
       </c>
       <c r="D161" t="s">
         <v>607</v>
@@ -4952,7 +4952,7 @@
         <v>606</v>
       </c>
       <c r="C162">
-        <v>106.068</v>
+        <v>102.035</v>
       </c>
       <c r="D162" t="s">
         <v>607</v>
@@ -4969,7 +4969,7 @@
         <v>606</v>
       </c>
       <c r="C163">
-        <v>102.267</v>
+        <v>102.849</v>
       </c>
       <c r="D163" t="s">
         <v>607</v>
@@ -4986,7 +4986,7 @@
         <v>606</v>
       </c>
       <c r="C164">
-        <v>119.382</v>
+        <v>108.554</v>
       </c>
       <c r="D164" t="s">
         <v>607</v>
@@ -5003,7 +5003,7 @@
         <v>606</v>
       </c>
       <c r="C165">
-        <v>115.251</v>
+        <v>108.24</v>
       </c>
       <c r="D165" t="s">
         <v>607</v>
@@ -5017,10 +5017,10 @@
         <v>169</v>
       </c>
       <c r="B166" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C166">
-        <v>104.582</v>
+        <v>99.315</v>
       </c>
       <c r="D166" t="s">
         <v>607</v>
@@ -5037,7 +5037,7 @@
         <v>606</v>
       </c>
       <c r="C167">
-        <v>104.905</v>
+        <v>100.829</v>
       </c>
       <c r="D167" t="s">
         <v>607</v>
@@ -5054,7 +5054,7 @@
         <v>606</v>
       </c>
       <c r="C168">
-        <v>106.093</v>
+        <v>106.389</v>
       </c>
       <c r="D168" t="s">
         <v>607</v>
@@ -5071,7 +5071,7 @@
         <v>606</v>
       </c>
       <c r="C169">
-        <v>103.795</v>
+        <v>100.062</v>
       </c>
       <c r="D169" t="s">
         <v>607</v>
@@ -5088,7 +5088,7 @@
         <v>606</v>
       </c>
       <c r="C170">
-        <v>104.612</v>
+        <v>100.013</v>
       </c>
       <c r="D170" t="s">
         <v>607</v>
@@ -5105,7 +5105,7 @@
         <v>606</v>
       </c>
       <c r="C171">
-        <v>110.423</v>
+        <v>104.583</v>
       </c>
       <c r="D171" t="s">
         <v>607</v>
@@ -5122,7 +5122,7 @@
         <v>606</v>
       </c>
       <c r="C172">
-        <v>103.213</v>
+        <v>102.805</v>
       </c>
       <c r="D172" t="s">
         <v>607</v>
@@ -5136,10 +5136,10 @@
         <v>176</v>
       </c>
       <c r="B173" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C173">
-        <v>101.156</v>
+        <v>98.473</v>
       </c>
       <c r="D173" t="s">
         <v>607</v>
@@ -5156,7 +5156,7 @@
         <v>605</v>
       </c>
       <c r="C174">
-        <v>95.456</v>
+        <v>92.267</v>
       </c>
       <c r="D174" t="s">
         <v>607</v>
@@ -5173,7 +5173,7 @@
         <v>606</v>
       </c>
       <c r="C175">
-        <v>147.496</v>
+        <v>126.706</v>
       </c>
       <c r="D175" t="s">
         <v>607</v>
@@ -5190,7 +5190,7 @@
         <v>606</v>
       </c>
       <c r="C176">
-        <v>108.697</v>
+        <v>101.85</v>
       </c>
       <c r="D176" t="s">
         <v>607</v>
@@ -5204,10 +5204,10 @@
         <v>180</v>
       </c>
       <c r="B177" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C177">
-        <v>100.549</v>
+        <v>95.357</v>
       </c>
       <c r="D177" t="s">
         <v>607</v>
@@ -5224,7 +5224,7 @@
         <v>606</v>
       </c>
       <c r="C178">
-        <v>108.107</v>
+        <v>103.808</v>
       </c>
       <c r="D178" t="s">
         <v>607</v>
@@ -5241,7 +5241,7 @@
         <v>606</v>
       </c>
       <c r="C179">
-        <v>102.944</v>
+        <v>100.543</v>
       </c>
       <c r="D179" t="s">
         <v>607</v>
@@ -5255,10 +5255,10 @@
         <v>183</v>
       </c>
       <c r="B180" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C180">
-        <v>102.447</v>
+        <v>99.098</v>
       </c>
       <c r="D180" t="s">
         <v>607</v>
@@ -5272,10 +5272,10 @@
         <v>184</v>
       </c>
       <c r="B181" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C181">
-        <v>101.809</v>
+        <v>99.813</v>
       </c>
       <c r="D181" t="s">
         <v>607</v>
@@ -5292,7 +5292,7 @@
         <v>605</v>
       </c>
       <c r="C182">
-        <v>99.062</v>
+        <v>95.705</v>
       </c>
       <c r="D182" t="s">
         <v>607</v>
@@ -5309,7 +5309,7 @@
         <v>606</v>
       </c>
       <c r="C183">
-        <v>108.542</v>
+        <v>104.459</v>
       </c>
       <c r="D183" t="s">
         <v>607</v>
@@ -5323,10 +5323,10 @@
         <v>187</v>
       </c>
       <c r="B184" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C184">
-        <v>100.475</v>
+        <v>97.946</v>
       </c>
       <c r="D184" t="s">
         <v>607</v>
@@ -5343,7 +5343,7 @@
         <v>606</v>
       </c>
       <c r="C185">
-        <v>107.843</v>
+        <v>105.073</v>
       </c>
       <c r="D185" t="s">
         <v>607</v>
@@ -5360,7 +5360,7 @@
         <v>605</v>
       </c>
       <c r="C186">
-        <v>84.669</v>
+        <v>80.444</v>
       </c>
       <c r="D186" t="s">
         <v>607</v>
@@ -5377,7 +5377,7 @@
         <v>606</v>
       </c>
       <c r="C187">
-        <v>128.185</v>
+        <v>118.751</v>
       </c>
       <c r="D187" t="s">
         <v>607</v>
@@ -5394,7 +5394,7 @@
         <v>606</v>
       </c>
       <c r="C188">
-        <v>105.089</v>
+        <v>104.103</v>
       </c>
       <c r="D188" t="s">
         <v>607</v>
@@ -5408,10 +5408,10 @@
         <v>192</v>
       </c>
       <c r="B189" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C189">
-        <v>105.522</v>
+        <v>98.494</v>
       </c>
       <c r="D189" t="s">
         <v>607</v>
@@ -5428,7 +5428,7 @@
         <v>606</v>
       </c>
       <c r="C190">
-        <v>115.208</v>
+        <v>109.226</v>
       </c>
       <c r="D190" t="s">
         <v>607</v>
@@ -5445,7 +5445,7 @@
         <v>606</v>
       </c>
       <c r="C191">
-        <v>107.681</v>
+        <v>103.424</v>
       </c>
       <c r="D191" t="s">
         <v>607</v>
@@ -5459,10 +5459,10 @@
         <v>195</v>
       </c>
       <c r="B192" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C192">
-        <v>101.96</v>
+        <v>97.221</v>
       </c>
       <c r="D192" t="s">
         <v>607</v>
@@ -5479,7 +5479,7 @@
         <v>606</v>
       </c>
       <c r="C193">
-        <v>114.782</v>
+        <v>105.083</v>
       </c>
       <c r="D193" t="s">
         <v>607</v>
@@ -5493,10 +5493,10 @@
         <v>197</v>
       </c>
       <c r="B194" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C194">
-        <v>104.859</v>
+        <v>98.226</v>
       </c>
       <c r="D194" t="s">
         <v>607</v>
@@ -5513,7 +5513,7 @@
         <v>606</v>
       </c>
       <c r="C195">
-        <v>104.778</v>
+        <v>101.311</v>
       </c>
       <c r="D195" t="s">
         <v>607</v>
@@ -5527,10 +5527,10 @@
         <v>199</v>
       </c>
       <c r="B196" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C196">
-        <v>105.683</v>
+        <v>97.988</v>
       </c>
       <c r="D196" t="s">
         <v>607</v>
@@ -5547,7 +5547,7 @@
         <v>606</v>
       </c>
       <c r="C197">
-        <v>107.999</v>
+        <v>103.653</v>
       </c>
       <c r="D197" t="s">
         <v>607</v>
@@ -5564,7 +5564,7 @@
         <v>606</v>
       </c>
       <c r="C198">
-        <v>111.893</v>
+        <v>108.082</v>
       </c>
       <c r="D198" t="s">
         <v>607</v>
@@ -5581,7 +5581,7 @@
         <v>606</v>
       </c>
       <c r="C199">
-        <v>105.065</v>
+        <v>100.919</v>
       </c>
       <c r="D199" t="s">
         <v>607</v>
@@ -5598,7 +5598,7 @@
         <v>606</v>
       </c>
       <c r="C200">
-        <v>112.582</v>
+        <v>108.978</v>
       </c>
       <c r="D200" t="s">
         <v>607</v>
@@ -5615,7 +5615,7 @@
         <v>606</v>
       </c>
       <c r="C201">
-        <v>110.174</v>
+        <v>107.199</v>
       </c>
       <c r="D201" t="s">
         <v>607</v>
@@ -5632,7 +5632,7 @@
         <v>606</v>
       </c>
       <c r="C202">
-        <v>128.747</v>
+        <v>118.361</v>
       </c>
       <c r="D202" t="s">
         <v>607</v>
@@ -5649,7 +5649,7 @@
         <v>606</v>
       </c>
       <c r="C203">
-        <v>129.329</v>
+        <v>116.496</v>
       </c>
       <c r="D203" t="s">
         <v>607</v>
@@ -5663,10 +5663,10 @@
         <v>207</v>
       </c>
       <c r="B204" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C204">
-        <v>103.36</v>
+        <v>96.45999999999999</v>
       </c>
       <c r="D204" t="s">
         <v>607</v>
@@ -5683,7 +5683,7 @@
         <v>606</v>
       </c>
       <c r="C205">
-        <v>158.671</v>
+        <v>139.703</v>
       </c>
       <c r="D205" t="s">
         <v>607</v>
@@ -5700,7 +5700,7 @@
         <v>606</v>
       </c>
       <c r="C206">
-        <v>109.055</v>
+        <v>106.581</v>
       </c>
       <c r="D206" t="s">
         <v>607</v>
@@ -5717,7 +5717,7 @@
         <v>606</v>
       </c>
       <c r="C207">
-        <v>123.922</v>
+        <v>114.837</v>
       </c>
       <c r="D207" t="s">
         <v>607</v>
@@ -5734,7 +5734,7 @@
         <v>605</v>
       </c>
       <c r="C208">
-        <v>94.291</v>
+        <v>94.914</v>
       </c>
       <c r="D208" t="s">
         <v>607</v>
@@ -5751,7 +5751,7 @@
         <v>606</v>
       </c>
       <c r="C209">
-        <v>107.177</v>
+        <v>102.165</v>
       </c>
       <c r="D209" t="s">
         <v>607</v>
@@ -5768,7 +5768,7 @@
         <v>606</v>
       </c>
       <c r="C210">
-        <v>113.183</v>
+        <v>105.657</v>
       </c>
       <c r="D210" t="s">
         <v>607</v>
@@ -5785,7 +5785,7 @@
         <v>606</v>
       </c>
       <c r="C211">
-        <v>118.55</v>
+        <v>110.979</v>
       </c>
       <c r="D211" t="s">
         <v>607</v>
@@ -5799,10 +5799,10 @@
         <v>215</v>
       </c>
       <c r="B212" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C212">
-        <v>102.564</v>
+        <v>98.86499999999999</v>
       </c>
       <c r="D212" t="s">
         <v>607</v>
@@ -5816,10 +5816,10 @@
         <v>216</v>
       </c>
       <c r="B213" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C213">
-        <v>101.13</v>
+        <v>99.788</v>
       </c>
       <c r="D213" t="s">
         <v>607</v>
@@ -5836,7 +5836,7 @@
         <v>606</v>
       </c>
       <c r="C214">
-        <v>110.459</v>
+        <v>105.929</v>
       </c>
       <c r="D214" t="s">
         <v>607</v>
@@ -5853,7 +5853,7 @@
         <v>605</v>
       </c>
       <c r="C215">
-        <v>96.86</v>
+        <v>94.114</v>
       </c>
       <c r="D215" t="s">
         <v>607</v>
@@ -5870,7 +5870,7 @@
         <v>605</v>
       </c>
       <c r="C216">
-        <v>97.238</v>
+        <v>92.292</v>
       </c>
       <c r="D216" t="s">
         <v>607</v>
@@ -5887,7 +5887,7 @@
         <v>606</v>
       </c>
       <c r="C217">
-        <v>106.381</v>
+        <v>101.037</v>
       </c>
       <c r="D217" t="s">
         <v>607</v>
@@ -5904,7 +5904,7 @@
         <v>606</v>
       </c>
       <c r="C218">
-        <v>112.555</v>
+        <v>108.367</v>
       </c>
       <c r="D218" t="s">
         <v>607</v>
@@ -5921,7 +5921,7 @@
         <v>606</v>
       </c>
       <c r="C219">
-        <v>109.99</v>
+        <v>109.005</v>
       </c>
       <c r="D219" t="s">
         <v>607</v>
@@ -5938,7 +5938,7 @@
         <v>606</v>
       </c>
       <c r="C220">
-        <v>101.484</v>
+        <v>100.398</v>
       </c>
       <c r="D220" t="s">
         <v>607</v>
@@ -5955,7 +5955,7 @@
         <v>606</v>
       </c>
       <c r="C221">
-        <v>116.618</v>
+        <v>107.475</v>
       </c>
       <c r="D221" t="s">
         <v>607</v>
@@ -5969,10 +5969,10 @@
         <v>225</v>
       </c>
       <c r="B222" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C222">
-        <v>101.123</v>
+        <v>94.538</v>
       </c>
       <c r="D222" t="s">
         <v>607</v>
@@ -5989,7 +5989,7 @@
         <v>606</v>
       </c>
       <c r="C223">
-        <v>117.282</v>
+        <v>110.706</v>
       </c>
       <c r="D223" t="s">
         <v>607</v>
@@ -6006,7 +6006,7 @@
         <v>606</v>
       </c>
       <c r="C224">
-        <v>113.061</v>
+        <v>107.289</v>
       </c>
       <c r="D224" t="s">
         <v>607</v>
@@ -6023,7 +6023,7 @@
         <v>606</v>
       </c>
       <c r="C225">
-        <v>109.871</v>
+        <v>105.046</v>
       </c>
       <c r="D225" t="s">
         <v>607</v>
@@ -6040,7 +6040,7 @@
         <v>606</v>
       </c>
       <c r="C226">
-        <v>115.108</v>
+        <v>107.232</v>
       </c>
       <c r="D226" t="s">
         <v>607</v>
@@ -6057,7 +6057,7 @@
         <v>605</v>
       </c>
       <c r="C227">
-        <v>96.215</v>
+        <v>99.41800000000001</v>
       </c>
       <c r="D227" t="s">
         <v>607</v>
@@ -6074,7 +6074,7 @@
         <v>606</v>
       </c>
       <c r="C228">
-        <v>112.932</v>
+        <v>104.726</v>
       </c>
       <c r="D228" t="s">
         <v>607</v>
@@ -6091,7 +6091,7 @@
         <v>606</v>
       </c>
       <c r="C229">
-        <v>107.539</v>
+        <v>102.752</v>
       </c>
       <c r="D229" t="s">
         <v>607</v>
@@ -6105,10 +6105,10 @@
         <v>233</v>
       </c>
       <c r="B230" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C230">
-        <v>103.847</v>
+        <v>96.979</v>
       </c>
       <c r="D230" t="s">
         <v>607</v>
@@ -6125,7 +6125,7 @@
         <v>606</v>
       </c>
       <c r="C231">
-        <v>107.911</v>
+        <v>103.019</v>
       </c>
       <c r="D231" t="s">
         <v>607</v>
@@ -6142,7 +6142,7 @@
         <v>606</v>
       </c>
       <c r="C232">
-        <v>114.527</v>
+        <v>106.773</v>
       </c>
       <c r="D232" t="s">
         <v>607</v>
@@ -6159,7 +6159,7 @@
         <v>606</v>
       </c>
       <c r="C233">
-        <v>109.613</v>
+        <v>107.209</v>
       </c>
       <c r="D233" t="s">
         <v>607</v>
@@ -6176,7 +6176,7 @@
         <v>605</v>
       </c>
       <c r="C234">
-        <v>96.708</v>
+        <v>97.182</v>
       </c>
       <c r="D234" t="s">
         <v>607</v>
@@ -6193,7 +6193,7 @@
         <v>606</v>
       </c>
       <c r="C235">
-        <v>124.891</v>
+        <v>112.375</v>
       </c>
       <c r="D235" t="s">
         <v>607</v>
@@ -6210,7 +6210,7 @@
         <v>606</v>
       </c>
       <c r="C236">
-        <v>130.133</v>
+        <v>119.284</v>
       </c>
       <c r="D236" t="s">
         <v>607</v>
@@ -6227,7 +6227,7 @@
         <v>606</v>
       </c>
       <c r="C237">
-        <v>128.484</v>
+        <v>118.429</v>
       </c>
       <c r="D237" t="s">
         <v>607</v>
@@ -6244,7 +6244,7 @@
         <v>606</v>
       </c>
       <c r="C238">
-        <v>108.519</v>
+        <v>101.621</v>
       </c>
       <c r="D238" t="s">
         <v>607</v>
@@ -6261,7 +6261,7 @@
         <v>606</v>
       </c>
       <c r="C239">
-        <v>104.723</v>
+        <v>101.288</v>
       </c>
       <c r="D239" t="s">
         <v>607</v>
@@ -6278,7 +6278,7 @@
         <v>606</v>
       </c>
       <c r="C240">
-        <v>116.214</v>
+        <v>109.508</v>
       </c>
       <c r="D240" t="s">
         <v>607</v>
@@ -6292,10 +6292,10 @@
         <v>244</v>
       </c>
       <c r="B241" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C241">
-        <v>102.087</v>
+        <v>96.604</v>
       </c>
       <c r="D241" t="s">
         <v>607</v>
@@ -6312,7 +6312,7 @@
         <v>606</v>
       </c>
       <c r="C242">
-        <v>114.391</v>
+        <v>106.397</v>
       </c>
       <c r="D242" t="s">
         <v>607</v>
@@ -6346,7 +6346,7 @@
         <v>605</v>
       </c>
       <c r="C244">
-        <v>95.739</v>
+        <v>93.128</v>
       </c>
       <c r="D244" t="s">
         <v>607</v>
@@ -6363,7 +6363,7 @@
         <v>606</v>
       </c>
       <c r="C245">
-        <v>134.586</v>
+        <v>126.257</v>
       </c>
       <c r="D245" t="s">
         <v>607</v>
@@ -6380,7 +6380,7 @@
         <v>606</v>
       </c>
       <c r="C246">
-        <v>104.091</v>
+        <v>101.034</v>
       </c>
       <c r="D246" t="s">
         <v>607</v>
@@ -6397,7 +6397,7 @@
         <v>606</v>
       </c>
       <c r="C247">
-        <v>108.907</v>
+        <v>102.973</v>
       </c>
       <c r="D247" t="s">
         <v>607</v>
@@ -6414,7 +6414,7 @@
         <v>606</v>
       </c>
       <c r="C248">
-        <v>124.632</v>
+        <v>110.995</v>
       </c>
       <c r="D248" t="s">
         <v>607</v>
@@ -6431,7 +6431,7 @@
         <v>606</v>
       </c>
       <c r="C249">
-        <v>105.022</v>
+        <v>101.635</v>
       </c>
       <c r="D249" t="s">
         <v>607</v>
@@ -6448,7 +6448,7 @@
         <v>606</v>
       </c>
       <c r="C250">
-        <v>106.229</v>
+        <v>102.621</v>
       </c>
       <c r="D250" t="s">
         <v>607</v>
@@ -6462,10 +6462,10 @@
         <v>254</v>
       </c>
       <c r="B251" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C251">
-        <v>100.941</v>
+        <v>98.95099999999999</v>
       </c>
       <c r="D251" t="s">
         <v>607</v>
@@ -6482,7 +6482,7 @@
         <v>606</v>
       </c>
       <c r="C252">
-        <v>114.324</v>
+        <v>106.686</v>
       </c>
       <c r="D252" t="s">
         <v>607</v>
@@ -6499,7 +6499,7 @@
         <v>606</v>
       </c>
       <c r="C253">
-        <v>109.186</v>
+        <v>105.862</v>
       </c>
       <c r="D253" t="s">
         <v>607</v>
@@ -6516,7 +6516,7 @@
         <v>606</v>
       </c>
       <c r="C254">
-        <v>109.171</v>
+        <v>102.041</v>
       </c>
       <c r="D254" t="s">
         <v>607</v>
@@ -6533,7 +6533,7 @@
         <v>605</v>
       </c>
       <c r="C255">
-        <v>97.511</v>
+        <v>99.163</v>
       </c>
       <c r="D255" t="s">
         <v>607</v>
@@ -6550,7 +6550,7 @@
         <v>606</v>
       </c>
       <c r="C256">
-        <v>121.87</v>
+        <v>111.803</v>
       </c>
       <c r="D256" t="s">
         <v>607</v>
@@ -6567,7 +6567,7 @@
         <v>606</v>
       </c>
       <c r="C257">
-        <v>106.322</v>
+        <v>103.878</v>
       </c>
       <c r="D257" t="s">
         <v>607</v>
@@ -6584,7 +6584,7 @@
         <v>606</v>
       </c>
       <c r="C258">
-        <v>118.021</v>
+        <v>111.215</v>
       </c>
       <c r="D258" t="s">
         <v>607</v>
@@ -6601,7 +6601,7 @@
         <v>606</v>
       </c>
       <c r="C259">
-        <v>108.726</v>
+        <v>106.121</v>
       </c>
       <c r="D259" t="s">
         <v>607</v>
@@ -6618,7 +6618,7 @@
         <v>606</v>
       </c>
       <c r="C260">
-        <v>107.379</v>
+        <v>101.086</v>
       </c>
       <c r="D260" t="s">
         <v>607</v>
@@ -6635,7 +6635,7 @@
         <v>605</v>
       </c>
       <c r="C261">
-        <v>99.66800000000001</v>
+        <v>97.252</v>
       </c>
       <c r="D261" t="s">
         <v>607</v>
@@ -6652,7 +6652,7 @@
         <v>606</v>
       </c>
       <c r="C262">
-        <v>115.933</v>
+        <v>107.781</v>
       </c>
       <c r="D262" t="s">
         <v>607</v>
@@ -6669,7 +6669,7 @@
         <v>605</v>
       </c>
       <c r="C263">
-        <v>99.871</v>
+        <v>91.81999999999999</v>
       </c>
       <c r="D263" t="s">
         <v>607</v>
@@ -6686,7 +6686,7 @@
         <v>606</v>
       </c>
       <c r="C264">
-        <v>115.296</v>
+        <v>108.878</v>
       </c>
       <c r="D264" t="s">
         <v>607</v>
@@ -6703,7 +6703,7 @@
         <v>606</v>
       </c>
       <c r="C265">
-        <v>113.762</v>
+        <v>104.885</v>
       </c>
       <c r="D265" t="s">
         <v>607</v>
@@ -6720,7 +6720,7 @@
         <v>606</v>
       </c>
       <c r="C266">
-        <v>118.019</v>
+        <v>112.81</v>
       </c>
       <c r="D266" t="s">
         <v>607</v>
@@ -6737,7 +6737,7 @@
         <v>606</v>
       </c>
       <c r="C267">
-        <v>115.558</v>
+        <v>109.234</v>
       </c>
       <c r="D267" t="s">
         <v>607</v>
@@ -6751,10 +6751,10 @@
         <v>271</v>
       </c>
       <c r="B268" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C268">
-        <v>104.161</v>
+        <v>95.20699999999999</v>
       </c>
       <c r="D268" t="s">
         <v>607</v>
@@ -6771,7 +6771,7 @@
         <v>606</v>
       </c>
       <c r="C269">
-        <v>105.391</v>
+        <v>100.701</v>
       </c>
       <c r="D269" t="s">
         <v>607</v>
@@ -6788,7 +6788,7 @@
         <v>606</v>
       </c>
       <c r="C270">
-        <v>109.094</v>
+        <v>107.225</v>
       </c>
       <c r="D270" t="s">
         <v>607</v>
@@ -6805,7 +6805,7 @@
         <v>605</v>
       </c>
       <c r="C271">
-        <v>96.87</v>
+        <v>98.631</v>
       </c>
       <c r="D271" t="s">
         <v>607</v>
@@ -6819,10 +6819,10 @@
         <v>275</v>
       </c>
       <c r="B272" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C272">
-        <v>102.822</v>
+        <v>96.84399999999999</v>
       </c>
       <c r="D272" t="s">
         <v>607</v>
@@ -6839,7 +6839,7 @@
         <v>606</v>
       </c>
       <c r="C273">
-        <v>113.157</v>
+        <v>107.279</v>
       </c>
       <c r="D273" t="s">
         <v>607</v>
@@ -6856,7 +6856,7 @@
         <v>605</v>
       </c>
       <c r="C274">
-        <v>98.536</v>
+        <v>99.16200000000001</v>
       </c>
       <c r="D274" t="s">
         <v>607</v>
@@ -6873,7 +6873,7 @@
         <v>606</v>
       </c>
       <c r="C275">
-        <v>109.868</v>
+        <v>101.632</v>
       </c>
       <c r="D275" t="s">
         <v>607</v>
@@ -6890,7 +6890,7 @@
         <v>606</v>
       </c>
       <c r="C276">
-        <v>116.383</v>
+        <v>109.206</v>
       </c>
       <c r="D276" t="s">
         <v>607</v>
@@ -6907,7 +6907,7 @@
         <v>606</v>
       </c>
       <c r="C277">
-        <v>120.533</v>
+        <v>111.43</v>
       </c>
       <c r="D277" t="s">
         <v>607</v>
@@ -6924,7 +6924,7 @@
         <v>605</v>
       </c>
       <c r="C278">
-        <v>99.749</v>
+        <v>97.626</v>
       </c>
       <c r="D278" t="s">
         <v>607</v>
@@ -6941,7 +6941,7 @@
         <v>606</v>
       </c>
       <c r="C279">
-        <v>119.734</v>
+        <v>101.571</v>
       </c>
       <c r="D279" t="s">
         <v>607</v>
@@ -6958,7 +6958,7 @@
         <v>606</v>
       </c>
       <c r="C280">
-        <v>120.157</v>
+        <v>114.328</v>
       </c>
       <c r="D280" t="s">
         <v>607</v>
@@ -6975,7 +6975,7 @@
         <v>606</v>
       </c>
       <c r="C281">
-        <v>107.561</v>
+        <v>101.643</v>
       </c>
       <c r="D281" t="s">
         <v>607</v>
@@ -6992,7 +6992,7 @@
         <v>606</v>
       </c>
       <c r="C282">
-        <v>107.858</v>
+        <v>102.946</v>
       </c>
       <c r="D282" t="s">
         <v>607</v>
@@ -7009,7 +7009,7 @@
         <v>606</v>
       </c>
       <c r="C283">
-        <v>105.5</v>
+        <v>105.632</v>
       </c>
       <c r="D283" t="s">
         <v>607</v>
@@ -7026,7 +7026,7 @@
         <v>606</v>
       </c>
       <c r="C284">
-        <v>113.259</v>
+        <v>104.987</v>
       </c>
       <c r="D284" t="s">
         <v>607</v>
@@ -7043,7 +7043,7 @@
         <v>605</v>
       </c>
       <c r="C285">
-        <v>95.14700000000001</v>
+        <v>91.20099999999999</v>
       </c>
       <c r="D285" t="s">
         <v>607</v>
@@ -7060,7 +7060,7 @@
         <v>606</v>
       </c>
       <c r="C286">
-        <v>110.996</v>
+        <v>109.623</v>
       </c>
       <c r="D286" t="s">
         <v>607</v>
@@ -7077,7 +7077,7 @@
         <v>605</v>
       </c>
       <c r="C287">
-        <v>96.758</v>
+        <v>93.80200000000001</v>
       </c>
       <c r="D287" t="s">
         <v>607</v>
@@ -7091,10 +7091,10 @@
         <v>291</v>
       </c>
       <c r="B288" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C288">
-        <v>101.335</v>
+        <v>96.73699999999999</v>
       </c>
       <c r="D288" t="s">
         <v>607</v>
@@ -7111,7 +7111,7 @@
         <v>606</v>
       </c>
       <c r="C289">
-        <v>108.494</v>
+        <v>100.288</v>
       </c>
       <c r="D289" t="s">
         <v>607</v>
@@ -7128,7 +7128,7 @@
         <v>606</v>
       </c>
       <c r="C290">
-        <v>104.648</v>
+        <v>102.946</v>
       </c>
       <c r="D290" t="s">
         <v>607</v>
@@ -7145,7 +7145,7 @@
         <v>606</v>
       </c>
       <c r="C291">
-        <v>119.37</v>
+        <v>110.911</v>
       </c>
       <c r="D291" t="s">
         <v>607</v>
@@ -7162,7 +7162,7 @@
         <v>606</v>
       </c>
       <c r="C292">
-        <v>104.365</v>
+        <v>100.056</v>
       </c>
       <c r="D292" t="s">
         <v>607</v>
@@ -7176,10 +7176,10 @@
         <v>296</v>
       </c>
       <c r="B293" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C293">
-        <v>104.042</v>
+        <v>97.01300000000001</v>
       </c>
       <c r="D293" t="s">
         <v>607</v>
@@ -7196,7 +7196,7 @@
         <v>606</v>
       </c>
       <c r="C294">
-        <v>128.187</v>
+        <v>114.833</v>
       </c>
       <c r="D294" t="s">
         <v>607</v>
@@ -7213,7 +7213,7 @@
         <v>606</v>
       </c>
       <c r="C295">
-        <v>114.927</v>
+        <v>107.245</v>
       </c>
       <c r="D295" t="s">
         <v>607</v>
@@ -7227,10 +7227,10 @@
         <v>299</v>
       </c>
       <c r="B296" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C296">
-        <v>102.822</v>
+        <v>98.786</v>
       </c>
       <c r="D296" t="s">
         <v>607</v>
@@ -7247,7 +7247,7 @@
         <v>605</v>
       </c>
       <c r="C297">
-        <v>98.03400000000001</v>
+        <v>99.456</v>
       </c>
       <c r="D297" t="s">
         <v>607</v>
@@ -7264,7 +7264,7 @@
         <v>606</v>
       </c>
       <c r="C298">
-        <v>111.604</v>
+        <v>104.613</v>
       </c>
       <c r="D298" t="s">
         <v>607</v>
@@ -7281,7 +7281,7 @@
         <v>606</v>
       </c>
       <c r="C299">
-        <v>110.236</v>
+        <v>103.351</v>
       </c>
       <c r="D299" t="s">
         <v>607</v>
@@ -7298,7 +7298,7 @@
         <v>606</v>
       </c>
       <c r="C300">
-        <v>106.437</v>
+        <v>104.331</v>
       </c>
       <c r="D300" t="s">
         <v>607</v>
@@ -7315,7 +7315,7 @@
         <v>606</v>
       </c>
       <c r="C301">
-        <v>107.717</v>
+        <v>106.134</v>
       </c>
       <c r="D301" t="s">
         <v>607</v>
@@ -7332,7 +7332,7 @@
         <v>606</v>
       </c>
       <c r="C302">
-        <v>108.41</v>
+        <v>102.228</v>
       </c>
       <c r="D302" t="s">
         <v>607</v>
@@ -7349,7 +7349,7 @@
         <v>606</v>
       </c>
       <c r="C303">
-        <v>109.762</v>
+        <v>101.584</v>
       </c>
       <c r="D303" t="s">
         <v>607</v>
@@ -7366,7 +7366,7 @@
         <v>606</v>
       </c>
       <c r="C304">
-        <v>130.547</v>
+        <v>120.894</v>
       </c>
       <c r="D304" t="s">
         <v>607</v>
@@ -7383,7 +7383,7 @@
         <v>606</v>
       </c>
       <c r="C305">
-        <v>104.648</v>
+        <v>104.217</v>
       </c>
       <c r="D305" t="s">
         <v>607</v>
@@ -7400,7 +7400,7 @@
         <v>605</v>
       </c>
       <c r="C306">
-        <v>92.643</v>
+        <v>92.25700000000001</v>
       </c>
       <c r="D306" t="s">
         <v>607</v>
@@ -7417,7 +7417,7 @@
         <v>606</v>
       </c>
       <c r="C307">
-        <v>112.271</v>
+        <v>110.483</v>
       </c>
       <c r="D307" t="s">
         <v>607</v>
@@ -7434,7 +7434,7 @@
         <v>606</v>
       </c>
       <c r="C308">
-        <v>148.096</v>
+        <v>131.179</v>
       </c>
       <c r="D308" t="s">
         <v>607</v>
@@ -7451,7 +7451,7 @@
         <v>606</v>
       </c>
       <c r="C309">
-        <v>113.114</v>
+        <v>106.106</v>
       </c>
       <c r="D309" t="s">
         <v>607</v>
@@ -7468,7 +7468,7 @@
         <v>605</v>
       </c>
       <c r="C310">
-        <v>97.979</v>
+        <v>95.163</v>
       </c>
       <c r="D310" t="s">
         <v>607</v>
@@ -7485,7 +7485,7 @@
         <v>606</v>
       </c>
       <c r="C311">
-        <v>116.028</v>
+        <v>106.78</v>
       </c>
       <c r="D311" t="s">
         <v>607</v>
@@ -7502,7 +7502,7 @@
         <v>606</v>
       </c>
       <c r="C312">
-        <v>109.717</v>
+        <v>103.551</v>
       </c>
       <c r="D312" t="s">
         <v>607</v>
@@ -7519,7 +7519,7 @@
         <v>606</v>
       </c>
       <c r="C313">
-        <v>105.744</v>
+        <v>104.685</v>
       </c>
       <c r="D313" t="s">
         <v>607</v>
@@ -7536,7 +7536,7 @@
         <v>606</v>
       </c>
       <c r="C314">
-        <v>102.635</v>
+        <v>102.102</v>
       </c>
       <c r="D314" t="s">
         <v>607</v>
@@ -7553,7 +7553,7 @@
         <v>606</v>
       </c>
       <c r="C315">
-        <v>127.437</v>
+        <v>115.127</v>
       </c>
       <c r="D315" t="s">
         <v>607</v>
@@ -7570,7 +7570,7 @@
         <v>606</v>
       </c>
       <c r="C316">
-        <v>114.415</v>
+        <v>111.928</v>
       </c>
       <c r="D316" t="s">
         <v>607</v>
@@ -7587,7 +7587,7 @@
         <v>606</v>
       </c>
       <c r="C317">
-        <v>113.759</v>
+        <v>104.564</v>
       </c>
       <c r="D317" t="s">
         <v>607</v>
@@ -7604,7 +7604,7 @@
         <v>606</v>
       </c>
       <c r="C318">
-        <v>116.635</v>
+        <v>111.597</v>
       </c>
       <c r="D318" t="s">
         <v>607</v>
@@ -7621,7 +7621,7 @@
         <v>606</v>
       </c>
       <c r="C319">
-        <v>109.755</v>
+        <v>106.703</v>
       </c>
       <c r="D319" t="s">
         <v>607</v>
@@ -7638,7 +7638,7 @@
         <v>606</v>
       </c>
       <c r="C320">
-        <v>107.42</v>
+        <v>100.428</v>
       </c>
       <c r="D320" t="s">
         <v>607</v>
@@ -7655,7 +7655,7 @@
         <v>606</v>
       </c>
       <c r="C321">
-        <v>116.602</v>
+        <v>112.639</v>
       </c>
       <c r="D321" t="s">
         <v>607</v>
@@ -7672,7 +7672,7 @@
         <v>606</v>
       </c>
       <c r="C322">
-        <v>109.589</v>
+        <v>106.498</v>
       </c>
       <c r="D322" t="s">
         <v>607</v>
@@ -7689,7 +7689,7 @@
         <v>606</v>
       </c>
       <c r="C323">
-        <v>107.517</v>
+        <v>101.032</v>
       </c>
       <c r="D323" t="s">
         <v>607</v>
@@ -7706,7 +7706,7 @@
         <v>605</v>
       </c>
       <c r="C324">
-        <v>98.377</v>
+        <v>97.691</v>
       </c>
       <c r="D324" t="s">
         <v>607</v>
@@ -7723,7 +7723,7 @@
         <v>606</v>
       </c>
       <c r="C325">
-        <v>120.13</v>
+        <v>109.525</v>
       </c>
       <c r="D325" t="s">
         <v>607</v>
@@ -7740,7 +7740,7 @@
         <v>606</v>
       </c>
       <c r="C326">
-        <v>103.142</v>
+        <v>101.295</v>
       </c>
       <c r="D326" t="s">
         <v>607</v>
@@ -7757,7 +7757,7 @@
         <v>606</v>
       </c>
       <c r="C327">
-        <v>107.38</v>
+        <v>103.473</v>
       </c>
       <c r="D327" t="s">
         <v>607</v>
@@ -7774,7 +7774,7 @@
         <v>606</v>
       </c>
       <c r="C328">
-        <v>105.875</v>
+        <v>101.206</v>
       </c>
       <c r="D328" t="s">
         <v>607</v>
@@ -7788,10 +7788,10 @@
         <v>332</v>
       </c>
       <c r="B329" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C329">
-        <v>104.593</v>
+        <v>98.867</v>
       </c>
       <c r="D329" t="s">
         <v>607</v>
@@ -7808,7 +7808,7 @@
         <v>606</v>
       </c>
       <c r="C330">
-        <v>101.031</v>
+        <v>100.452</v>
       </c>
       <c r="D330" t="s">
         <v>607</v>
@@ -7825,7 +7825,7 @@
         <v>606</v>
       </c>
       <c r="C331">
-        <v>107.019</v>
+        <v>106.327</v>
       </c>
       <c r="D331" t="s">
         <v>607</v>
@@ -7839,10 +7839,10 @@
         <v>335</v>
       </c>
       <c r="B332" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C332">
-        <v>114.092</v>
+        <v>99.426</v>
       </c>
       <c r="D332" t="s">
         <v>607</v>
@@ -7859,7 +7859,7 @@
         <v>606</v>
       </c>
       <c r="C333">
-        <v>109.663</v>
+        <v>102.555</v>
       </c>
       <c r="D333" t="s">
         <v>607</v>
@@ -7873,10 +7873,10 @@
         <v>337</v>
       </c>
       <c r="B334" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C334">
-        <v>102.82</v>
+        <v>99.914</v>
       </c>
       <c r="D334" t="s">
         <v>607</v>
@@ -7893,7 +7893,7 @@
         <v>606</v>
       </c>
       <c r="C335">
-        <v>114.06</v>
+        <v>112.847</v>
       </c>
       <c r="D335" t="s">
         <v>607</v>
@@ -7907,10 +7907,10 @@
         <v>339</v>
       </c>
       <c r="B336" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C336">
-        <v>100.906</v>
+        <v>96.395</v>
       </c>
       <c r="D336" t="s">
         <v>607</v>
@@ -7927,7 +7927,7 @@
         <v>606</v>
       </c>
       <c r="C337">
-        <v>111.15</v>
+        <v>104.816</v>
       </c>
       <c r="D337" t="s">
         <v>607</v>
@@ -7944,7 +7944,7 @@
         <v>606</v>
       </c>
       <c r="C338">
-        <v>133.681</v>
+        <v>126.738</v>
       </c>
       <c r="D338" t="s">
         <v>607</v>
@@ -7961,7 +7961,7 @@
         <v>606</v>
       </c>
       <c r="C339">
-        <v>109.101</v>
+        <v>103.534</v>
       </c>
       <c r="D339" t="s">
         <v>607</v>
@@ -7978,7 +7978,7 @@
         <v>606</v>
       </c>
       <c r="C340">
-        <v>111.014</v>
+        <v>105.721</v>
       </c>
       <c r="D340" t="s">
         <v>607</v>
@@ -7995,7 +7995,7 @@
         <v>606</v>
       </c>
       <c r="C341">
-        <v>132.047</v>
+        <v>121.053</v>
       </c>
       <c r="D341" t="s">
         <v>607</v>
@@ -8012,7 +8012,7 @@
         <v>606</v>
       </c>
       <c r="C342">
-        <v>100.551</v>
+        <v>102.16</v>
       </c>
       <c r="D342" t="s">
         <v>607</v>
@@ -8029,7 +8029,7 @@
         <v>606</v>
       </c>
       <c r="C343">
-        <v>111.772</v>
+        <v>109.265</v>
       </c>
       <c r="D343" t="s">
         <v>607</v>
@@ -8043,10 +8043,10 @@
         <v>347</v>
       </c>
       <c r="B344" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C344">
-        <v>104.67</v>
+        <v>99.339</v>
       </c>
       <c r="D344" t="s">
         <v>607</v>
@@ -8063,7 +8063,7 @@
         <v>606</v>
       </c>
       <c r="C345">
-        <v>120.268</v>
+        <v>108.456</v>
       </c>
       <c r="D345" t="s">
         <v>607</v>
@@ -8080,7 +8080,7 @@
         <v>605</v>
       </c>
       <c r="C346">
-        <v>99.76600000000001</v>
+        <v>98.55200000000001</v>
       </c>
       <c r="D346" t="s">
         <v>607</v>
@@ -8097,7 +8097,7 @@
         <v>606</v>
       </c>
       <c r="C347">
-        <v>107.193</v>
+        <v>101.237</v>
       </c>
       <c r="D347" t="s">
         <v>607</v>
@@ -8114,7 +8114,7 @@
         <v>606</v>
       </c>
       <c r="C348">
-        <v>105.013</v>
+        <v>101.519</v>
       </c>
       <c r="D348" t="s">
         <v>607</v>
@@ -8131,7 +8131,7 @@
         <v>606</v>
       </c>
       <c r="C349">
-        <v>117.749</v>
+        <v>108.247</v>
       </c>
       <c r="D349" t="s">
         <v>607</v>
@@ -8148,7 +8148,7 @@
         <v>606</v>
       </c>
       <c r="C350">
-        <v>109.954</v>
+        <v>104.04</v>
       </c>
       <c r="D350" t="s">
         <v>607</v>
@@ -8165,7 +8165,7 @@
         <v>606</v>
       </c>
       <c r="C351">
-        <v>148.936</v>
+        <v>132.829</v>
       </c>
       <c r="D351" t="s">
         <v>607</v>
@@ -8182,7 +8182,7 @@
         <v>606</v>
       </c>
       <c r="C352">
-        <v>102.432</v>
+        <v>103.97</v>
       </c>
       <c r="D352" t="s">
         <v>607</v>
@@ -8199,7 +8199,7 @@
         <v>606</v>
       </c>
       <c r="C353">
-        <v>101.027</v>
+        <v>101.435</v>
       </c>
       <c r="D353" t="s">
         <v>607</v>
@@ -8216,7 +8216,7 @@
         <v>606</v>
       </c>
       <c r="C354">
-        <v>106.264</v>
+        <v>100.754</v>
       </c>
       <c r="D354" t="s">
         <v>607</v>
@@ -8233,7 +8233,7 @@
         <v>606</v>
       </c>
       <c r="C355">
-        <v>101.858</v>
+        <v>104.927</v>
       </c>
       <c r="D355" t="s">
         <v>607</v>
@@ -8250,7 +8250,7 @@
         <v>606</v>
       </c>
       <c r="C356">
-        <v>104.31</v>
+        <v>104.19</v>
       </c>
       <c r="D356" t="s">
         <v>607</v>
@@ -8267,7 +8267,7 @@
         <v>606</v>
       </c>
       <c r="C357">
-        <v>105.202</v>
+        <v>101.523</v>
       </c>
       <c r="D357" t="s">
         <v>607</v>
@@ -8284,7 +8284,7 @@
         <v>606</v>
       </c>
       <c r="C358">
-        <v>107.344</v>
+        <v>101.83</v>
       </c>
       <c r="D358" t="s">
         <v>607</v>
@@ -8301,7 +8301,7 @@
         <v>606</v>
       </c>
       <c r="C359">
-        <v>130.061</v>
+        <v>117.314</v>
       </c>
       <c r="D359" t="s">
         <v>607</v>
@@ -8318,7 +8318,7 @@
         <v>605</v>
       </c>
       <c r="C360">
-        <v>88.804</v>
+        <v>88.124</v>
       </c>
       <c r="D360" t="s">
         <v>607</v>
@@ -8335,7 +8335,7 @@
         <v>606</v>
       </c>
       <c r="C361">
-        <v>118.329</v>
+        <v>107.702</v>
       </c>
       <c r="D361" t="s">
         <v>607</v>
@@ -8349,10 +8349,10 @@
         <v>365</v>
       </c>
       <c r="B362" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C362">
-        <v>101.552</v>
+        <v>95.196</v>
       </c>
       <c r="D362" t="s">
         <v>607</v>
@@ -8366,10 +8366,10 @@
         <v>366</v>
       </c>
       <c r="B363" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C363">
-        <v>101.054</v>
+        <v>96.46599999999999</v>
       </c>
       <c r="D363" t="s">
         <v>607</v>
@@ -8403,7 +8403,7 @@
         <v>606</v>
       </c>
       <c r="C365">
-        <v>107.273</v>
+        <v>102.219</v>
       </c>
       <c r="D365" t="s">
         <v>607</v>
@@ -8420,7 +8420,7 @@
         <v>606</v>
       </c>
       <c r="C366">
-        <v>133.371</v>
+        <v>121.391</v>
       </c>
       <c r="D366" t="s">
         <v>607</v>
@@ -8437,7 +8437,7 @@
         <v>606</v>
       </c>
       <c r="C367">
-        <v>108.762</v>
+        <v>102.169</v>
       </c>
       <c r="D367" t="s">
         <v>607</v>
@@ -8454,7 +8454,7 @@
         <v>606</v>
       </c>
       <c r="C368">
-        <v>121.085</v>
+        <v>112.079</v>
       </c>
       <c r="D368" t="s">
         <v>607</v>
@@ -8471,7 +8471,7 @@
         <v>606</v>
       </c>
       <c r="C369">
-        <v>105.928</v>
+        <v>100.669</v>
       </c>
       <c r="D369" t="s">
         <v>607</v>
@@ -8488,7 +8488,7 @@
         <v>606</v>
       </c>
       <c r="C370">
-        <v>115.086</v>
+        <v>106.908</v>
       </c>
       <c r="D370" t="s">
         <v>607</v>
@@ -8505,7 +8505,7 @@
         <v>605</v>
       </c>
       <c r="C371">
-        <v>82.29600000000001</v>
+        <v>78.18899999999999</v>
       </c>
       <c r="D371" t="s">
         <v>607</v>
@@ -8522,7 +8522,7 @@
         <v>606</v>
       </c>
       <c r="C372">
-        <v>109.629</v>
+        <v>105.842</v>
       </c>
       <c r="D372" t="s">
         <v>607</v>
@@ -8539,7 +8539,7 @@
         <v>606</v>
       </c>
       <c r="C373">
-        <v>107.073</v>
+        <v>101.052</v>
       </c>
       <c r="D373" t="s">
         <v>607</v>
@@ -8556,7 +8556,7 @@
         <v>606</v>
       </c>
       <c r="C374">
-        <v>120.88</v>
+        <v>111.235</v>
       </c>
       <c r="D374" t="s">
         <v>607</v>
@@ -8573,7 +8573,7 @@
         <v>606</v>
       </c>
       <c r="C375">
-        <v>118.529</v>
+        <v>111.559</v>
       </c>
       <c r="D375" t="s">
         <v>607</v>
@@ -8590,7 +8590,7 @@
         <v>606</v>
       </c>
       <c r="C376">
-        <v>112.448</v>
+        <v>107.16</v>
       </c>
       <c r="D376" t="s">
         <v>607</v>
@@ -8607,7 +8607,7 @@
         <v>606</v>
       </c>
       <c r="C377">
-        <v>112.689</v>
+        <v>105.791</v>
       </c>
       <c r="D377" t="s">
         <v>607</v>
@@ -8624,7 +8624,7 @@
         <v>606</v>
       </c>
       <c r="C378">
-        <v>113.023</v>
+        <v>107.234</v>
       </c>
       <c r="D378" t="s">
         <v>607</v>
@@ -8641,7 +8641,7 @@
         <v>606</v>
       </c>
       <c r="C379">
-        <v>123.752</v>
+        <v>110.55</v>
       </c>
       <c r="D379" t="s">
         <v>607</v>
@@ -8658,7 +8658,7 @@
         <v>606</v>
       </c>
       <c r="C380">
-        <v>116.1</v>
+        <v>114.339</v>
       </c>
       <c r="D380" t="s">
         <v>607</v>
@@ -8675,7 +8675,7 @@
         <v>606</v>
       </c>
       <c r="C381">
-        <v>110.752</v>
+        <v>101.324</v>
       </c>
       <c r="D381" t="s">
         <v>607</v>
@@ -8692,7 +8692,7 @@
         <v>606</v>
       </c>
       <c r="C382">
-        <v>111.917</v>
+        <v>108.096</v>
       </c>
       <c r="D382" t="s">
         <v>607</v>
@@ -8709,7 +8709,7 @@
         <v>606</v>
       </c>
       <c r="C383">
-        <v>125.553</v>
+        <v>118.562</v>
       </c>
       <c r="D383" t="s">
         <v>607</v>
@@ -8726,7 +8726,7 @@
         <v>606</v>
       </c>
       <c r="C384">
-        <v>115.865</v>
+        <v>113.735</v>
       </c>
       <c r="D384" t="s">
         <v>607</v>
@@ -8743,7 +8743,7 @@
         <v>606</v>
       </c>
       <c r="C385">
-        <v>108.863</v>
+        <v>102.162</v>
       </c>
       <c r="D385" t="s">
         <v>607</v>
@@ -8760,7 +8760,7 @@
         <v>606</v>
       </c>
       <c r="C386">
-        <v>104.834</v>
+        <v>106.028</v>
       </c>
       <c r="D386" t="s">
         <v>607</v>
@@ -8777,7 +8777,7 @@
         <v>606</v>
       </c>
       <c r="C387">
-        <v>121.981</v>
+        <v>109.364</v>
       </c>
       <c r="D387" t="s">
         <v>607</v>
@@ -8794,7 +8794,7 @@
         <v>606</v>
       </c>
       <c r="C388">
-        <v>110.066</v>
+        <v>106.56</v>
       </c>
       <c r="D388" t="s">
         <v>607</v>
@@ -8811,7 +8811,7 @@
         <v>606</v>
       </c>
       <c r="C389">
-        <v>114.306</v>
+        <v>112.205</v>
       </c>
       <c r="D389" t="s">
         <v>607</v>
@@ -8828,7 +8828,7 @@
         <v>606</v>
       </c>
       <c r="C390">
-        <v>103.258</v>
+        <v>101.656</v>
       </c>
       <c r="D390" t="s">
         <v>607</v>
@@ -8845,7 +8845,7 @@
         <v>606</v>
       </c>
       <c r="C391">
-        <v>111.577</v>
+        <v>103.411</v>
       </c>
       <c r="D391" t="s">
         <v>607</v>
@@ -8862,7 +8862,7 @@
         <v>606</v>
       </c>
       <c r="C392">
-        <v>114.79</v>
+        <v>106.414</v>
       </c>
       <c r="D392" t="s">
         <v>607</v>
@@ -8879,7 +8879,7 @@
         <v>605</v>
       </c>
       <c r="C393">
-        <v>99.149</v>
+        <v>94.744</v>
       </c>
       <c r="D393" t="s">
         <v>607</v>
@@ -8896,7 +8896,7 @@
         <v>606</v>
       </c>
       <c r="C394">
-        <v>106.729</v>
+        <v>101.365</v>
       </c>
       <c r="D394" t="s">
         <v>607</v>
@@ -8913,7 +8913,7 @@
         <v>606</v>
       </c>
       <c r="C395">
-        <v>113.306</v>
+        <v>106.956</v>
       </c>
       <c r="D395" t="s">
         <v>607</v>
@@ -8927,10 +8927,10 @@
         <v>399</v>
       </c>
       <c r="B396" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C396">
-        <v>102.506</v>
+        <v>99.533</v>
       </c>
       <c r="D396" t="s">
         <v>607</v>
@@ -8947,7 +8947,7 @@
         <v>606</v>
       </c>
       <c r="C397">
-        <v>139.922</v>
+        <v>126.711</v>
       </c>
       <c r="D397" t="s">
         <v>607</v>
@@ -8964,7 +8964,7 @@
         <v>606</v>
       </c>
       <c r="C398">
-        <v>115.029</v>
+        <v>109.703</v>
       </c>
       <c r="D398" t="s">
         <v>607</v>
@@ -8981,7 +8981,7 @@
         <v>606</v>
       </c>
       <c r="C399">
-        <v>110.166</v>
+        <v>103.164</v>
       </c>
       <c r="D399" t="s">
         <v>607</v>
@@ -8998,7 +8998,7 @@
         <v>605</v>
       </c>
       <c r="C400">
-        <v>95.765</v>
+        <v>88.265</v>
       </c>
       <c r="D400" t="s">
         <v>607</v>
@@ -9015,7 +9015,7 @@
         <v>606</v>
       </c>
       <c r="C401">
-        <v>106.401</v>
+        <v>103.161</v>
       </c>
       <c r="D401" t="s">
         <v>607</v>
@@ -9032,7 +9032,7 @@
         <v>606</v>
       </c>
       <c r="C402">
-        <v>115.311</v>
+        <v>110.212</v>
       </c>
       <c r="D402" t="s">
         <v>607</v>
@@ -9049,7 +9049,7 @@
         <v>606</v>
       </c>
       <c r="C403">
-        <v>101.505</v>
+        <v>102.403</v>
       </c>
       <c r="D403" t="s">
         <v>607</v>
@@ -9066,7 +9066,7 @@
         <v>606</v>
       </c>
       <c r="C404">
-        <v>120.684</v>
+        <v>105.867</v>
       </c>
       <c r="D404" t="s">
         <v>607</v>
@@ -9083,7 +9083,7 @@
         <v>606</v>
       </c>
       <c r="C405">
-        <v>110.43</v>
+        <v>107.76</v>
       </c>
       <c r="D405" t="s">
         <v>607</v>
@@ -9100,7 +9100,7 @@
         <v>606</v>
       </c>
       <c r="C406">
-        <v>113.854</v>
+        <v>102.951</v>
       </c>
       <c r="D406" t="s">
         <v>607</v>
@@ -9117,7 +9117,7 @@
         <v>606</v>
       </c>
       <c r="C407">
-        <v>166.088</v>
+        <v>142.555</v>
       </c>
       <c r="D407" t="s">
         <v>607</v>
@@ -9134,7 +9134,7 @@
         <v>606</v>
       </c>
       <c r="C408">
-        <v>119.694</v>
+        <v>111.855</v>
       </c>
       <c r="D408" t="s">
         <v>607</v>
@@ -9151,7 +9151,7 @@
         <v>605</v>
       </c>
       <c r="C409">
-        <v>98.723</v>
+        <v>96.84</v>
       </c>
       <c r="D409" t="s">
         <v>607</v>
@@ -9168,7 +9168,7 @@
         <v>606</v>
       </c>
       <c r="C410">
-        <v>117.151</v>
+        <v>110.535</v>
       </c>
       <c r="D410" t="s">
         <v>607</v>
@@ -9185,7 +9185,7 @@
         <v>606</v>
       </c>
       <c r="C411">
-        <v>108.882</v>
+        <v>102.68</v>
       </c>
       <c r="D411" t="s">
         <v>607</v>
@@ -9202,7 +9202,7 @@
         <v>606</v>
       </c>
       <c r="C412">
-        <v>111.731</v>
+        <v>103.546</v>
       </c>
       <c r="D412" t="s">
         <v>607</v>
@@ -9219,7 +9219,7 @@
         <v>606</v>
       </c>
       <c r="C413">
-        <v>115.149</v>
+        <v>108.97</v>
       </c>
       <c r="D413" t="s">
         <v>607</v>
@@ -9236,7 +9236,7 @@
         <v>606</v>
       </c>
       <c r="C414">
-        <v>110.762</v>
+        <v>103.193</v>
       </c>
       <c r="D414" t="s">
         <v>607</v>
@@ -9253,7 +9253,7 @@
         <v>606</v>
       </c>
       <c r="C415">
-        <v>115.39</v>
+        <v>109.174</v>
       </c>
       <c r="D415" t="s">
         <v>607</v>
@@ -9270,7 +9270,7 @@
         <v>606</v>
       </c>
       <c r="C416">
-        <v>103.725</v>
+        <v>103.359</v>
       </c>
       <c r="D416" t="s">
         <v>607</v>
@@ -9287,7 +9287,7 @@
         <v>606</v>
       </c>
       <c r="C417">
-        <v>115.688</v>
+        <v>110.646</v>
       </c>
       <c r="D417" t="s">
         <v>607</v>
@@ -9304,7 +9304,7 @@
         <v>606</v>
       </c>
       <c r="C418">
-        <v>123.966</v>
+        <v>119.067</v>
       </c>
       <c r="D418" t="s">
         <v>607</v>
@@ -9321,7 +9321,7 @@
         <v>606</v>
       </c>
       <c r="C419">
-        <v>113.231</v>
+        <v>106.172</v>
       </c>
       <c r="D419" t="s">
         <v>607</v>
@@ -9338,7 +9338,7 @@
         <v>606</v>
       </c>
       <c r="C420">
-        <v>105.6</v>
+        <v>101.382</v>
       </c>
       <c r="D420" t="s">
         <v>607</v>
@@ -9352,10 +9352,10 @@
         <v>424</v>
       </c>
       <c r="B421" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C421">
-        <v>100.638</v>
+        <v>96.32899999999999</v>
       </c>
       <c r="D421" t="s">
         <v>607</v>
@@ -9372,7 +9372,7 @@
         <v>606</v>
       </c>
       <c r="C422">
-        <v>104.228</v>
+        <v>104.046</v>
       </c>
       <c r="D422" t="s">
         <v>607</v>
@@ -9389,7 +9389,7 @@
         <v>606</v>
       </c>
       <c r="C423">
-        <v>108.877</v>
+        <v>102.628</v>
       </c>
       <c r="D423" t="s">
         <v>607</v>
@@ -9406,7 +9406,7 @@
         <v>606</v>
       </c>
       <c r="C424">
-        <v>111.606</v>
+        <v>103.485</v>
       </c>
       <c r="D424" t="s">
         <v>607</v>
@@ -9420,10 +9420,10 @@
         <v>428</v>
       </c>
       <c r="B425" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C425">
-        <v>108.704</v>
+        <v>99.879</v>
       </c>
       <c r="D425" t="s">
         <v>607</v>
@@ -9437,10 +9437,10 @@
         <v>429</v>
       </c>
       <c r="B426" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C426">
-        <v>104.931</v>
+        <v>98.31699999999999</v>
       </c>
       <c r="D426" t="s">
         <v>607</v>
@@ -9457,7 +9457,7 @@
         <v>606</v>
       </c>
       <c r="C427">
-        <v>105.048</v>
+        <v>100.528</v>
       </c>
       <c r="D427" t="s">
         <v>607</v>
@@ -9474,7 +9474,7 @@
         <v>606</v>
       </c>
       <c r="C428">
-        <v>115.009</v>
+        <v>112.363</v>
       </c>
       <c r="D428" t="s">
         <v>607</v>
@@ -9491,7 +9491,7 @@
         <v>606</v>
       </c>
       <c r="C429">
-        <v>129.666</v>
+        <v>117.541</v>
       </c>
       <c r="D429" t="s">
         <v>607</v>
@@ -9505,10 +9505,10 @@
         <v>433</v>
       </c>
       <c r="B430" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C430">
-        <v>98.79900000000001</v>
+        <v>102.335</v>
       </c>
       <c r="D430" t="s">
         <v>607</v>
@@ -9525,7 +9525,7 @@
         <v>606</v>
       </c>
       <c r="C431">
-        <v>120.006</v>
+        <v>108.048</v>
       </c>
       <c r="D431" t="s">
         <v>607</v>
@@ -9542,7 +9542,7 @@
         <v>606</v>
       </c>
       <c r="C432">
-        <v>120.244</v>
+        <v>110.469</v>
       </c>
       <c r="D432" t="s">
         <v>607</v>
@@ -9559,7 +9559,7 @@
         <v>606</v>
       </c>
       <c r="C433">
-        <v>129.463</v>
+        <v>110.278</v>
       </c>
       <c r="D433" t="s">
         <v>607</v>
@@ -9576,7 +9576,7 @@
         <v>606</v>
       </c>
       <c r="C434">
-        <v>125.988</v>
+        <v>120.048</v>
       </c>
       <c r="D434" t="s">
         <v>607</v>
@@ -9593,7 +9593,7 @@
         <v>606</v>
       </c>
       <c r="C435">
-        <v>107.763</v>
+        <v>105.504</v>
       </c>
       <c r="D435" t="s">
         <v>607</v>
@@ -9607,10 +9607,10 @@
         <v>439</v>
       </c>
       <c r="B436" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C436">
-        <v>106.653</v>
+        <v>99.29600000000001</v>
       </c>
       <c r="D436" t="s">
         <v>607</v>
@@ -9627,7 +9627,7 @@
         <v>606</v>
       </c>
       <c r="C437">
-        <v>107.308</v>
+        <v>106.831</v>
       </c>
       <c r="D437" t="s">
         <v>607</v>
@@ -9641,10 +9641,10 @@
         <v>441</v>
       </c>
       <c r="B438" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C438">
-        <v>104.37</v>
+        <v>98.66</v>
       </c>
       <c r="D438" t="s">
         <v>607</v>
@@ -9661,7 +9661,7 @@
         <v>606</v>
       </c>
       <c r="C439">
-        <v>109.884</v>
+        <v>102.206</v>
       </c>
       <c r="D439" t="s">
         <v>607</v>
@@ -9678,7 +9678,7 @@
         <v>606</v>
       </c>
       <c r="C440">
-        <v>118.02</v>
+        <v>115.041</v>
       </c>
       <c r="D440" t="s">
         <v>607</v>
@@ -9695,7 +9695,7 @@
         <v>606</v>
       </c>
       <c r="C441">
-        <v>106.471</v>
+        <v>104.296</v>
       </c>
       <c r="D441" t="s">
         <v>607</v>
@@ -9712,7 +9712,7 @@
         <v>606</v>
       </c>
       <c r="C442">
-        <v>123.106</v>
+        <v>113.965</v>
       </c>
       <c r="D442" t="s">
         <v>607</v>
@@ -9729,7 +9729,7 @@
         <v>606</v>
       </c>
       <c r="C443">
-        <v>105.484</v>
+        <v>103.374</v>
       </c>
       <c r="D443" t="s">
         <v>607</v>
@@ -9746,7 +9746,7 @@
         <v>605</v>
       </c>
       <c r="C444">
-        <v>91.123</v>
+        <v>91.402</v>
       </c>
       <c r="D444" t="s">
         <v>607</v>
@@ -9763,7 +9763,7 @@
         <v>606</v>
       </c>
       <c r="C445">
-        <v>112.625</v>
+        <v>107.405</v>
       </c>
       <c r="D445" t="s">
         <v>607</v>
@@ -9777,10 +9777,10 @@
         <v>449</v>
       </c>
       <c r="B446" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C446">
-        <v>102.704</v>
+        <v>97.833</v>
       </c>
       <c r="D446" t="s">
         <v>607</v>
@@ -9797,7 +9797,7 @@
         <v>606</v>
       </c>
       <c r="C447">
-        <v>114.789</v>
+        <v>105.817</v>
       </c>
       <c r="D447" t="s">
         <v>607</v>
@@ -9814,7 +9814,7 @@
         <v>606</v>
       </c>
       <c r="C448">
-        <v>107.597</v>
+        <v>101.932</v>
       </c>
       <c r="D448" t="s">
         <v>607</v>
@@ -9831,7 +9831,7 @@
         <v>606</v>
       </c>
       <c r="C449">
-        <v>122.251</v>
+        <v>121.462</v>
       </c>
       <c r="D449" t="s">
         <v>607</v>
@@ -9845,10 +9845,10 @@
         <v>453</v>
       </c>
       <c r="B450" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C450">
-        <v>100.734</v>
+        <v>97.324</v>
       </c>
       <c r="D450" t="s">
         <v>607</v>
@@ -9865,7 +9865,7 @@
         <v>606</v>
       </c>
       <c r="C451">
-        <v>109.731</v>
+        <v>107.784</v>
       </c>
       <c r="D451" t="s">
         <v>607</v>
@@ -9882,7 +9882,7 @@
         <v>606</v>
       </c>
       <c r="C452">
-        <v>119.27</v>
+        <v>117.917</v>
       </c>
       <c r="D452" t="s">
         <v>607</v>
@@ -9899,7 +9899,7 @@
         <v>606</v>
       </c>
       <c r="C453">
-        <v>137.847</v>
+        <v>127.188</v>
       </c>
       <c r="D453" t="s">
         <v>607</v>
@@ -9916,7 +9916,7 @@
         <v>606</v>
       </c>
       <c r="C454">
-        <v>118.818</v>
+        <v>114.316</v>
       </c>
       <c r="D454" t="s">
         <v>607</v>
@@ -9933,7 +9933,7 @@
         <v>606</v>
       </c>
       <c r="C455">
-        <v>117.024</v>
+        <v>108.281</v>
       </c>
       <c r="D455" t="s">
         <v>607</v>
@@ -9950,7 +9950,7 @@
         <v>606</v>
       </c>
       <c r="C456">
-        <v>126.201</v>
+        <v>112.041</v>
       </c>
       <c r="D456" t="s">
         <v>607</v>
@@ -9967,7 +9967,7 @@
         <v>606</v>
       </c>
       <c r="C457">
-        <v>112.319</v>
+        <v>104.155</v>
       </c>
       <c r="D457" t="s">
         <v>607</v>
@@ -9984,7 +9984,7 @@
         <v>606</v>
       </c>
       <c r="C458">
-        <v>125.643</v>
+        <v>117.109</v>
       </c>
       <c r="D458" t="s">
         <v>607</v>
@@ -10001,7 +10001,7 @@
         <v>606</v>
       </c>
       <c r="C459">
-        <v>126.383</v>
+        <v>117.096</v>
       </c>
       <c r="D459" t="s">
         <v>607</v>
@@ -10018,7 +10018,7 @@
         <v>605</v>
       </c>
       <c r="C460">
-        <v>98.06999999999999</v>
+        <v>97.96599999999999</v>
       </c>
       <c r="D460" t="s">
         <v>607</v>
@@ -10035,7 +10035,7 @@
         <v>605</v>
       </c>
       <c r="C461">
-        <v>96.72799999999999</v>
+        <v>95.09</v>
       </c>
       <c r="D461" t="s">
         <v>607</v>
@@ -10052,7 +10052,7 @@
         <v>606</v>
       </c>
       <c r="C462">
-        <v>119.422</v>
+        <v>109.068</v>
       </c>
       <c r="D462" t="s">
         <v>607</v>
@@ -10066,10 +10066,10 @@
         <v>466</v>
       </c>
       <c r="B463" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C463">
-        <v>101.84</v>
+        <v>99.51900000000001</v>
       </c>
       <c r="D463" t="s">
         <v>607</v>
@@ -10086,7 +10086,7 @@
         <v>606</v>
       </c>
       <c r="C464">
-        <v>120.254</v>
+        <v>109.647</v>
       </c>
       <c r="D464" t="s">
         <v>607</v>
@@ -10103,7 +10103,7 @@
         <v>606</v>
       </c>
       <c r="C465">
-        <v>107.848</v>
+        <v>103.571</v>
       </c>
       <c r="D465" t="s">
         <v>607</v>
@@ -10120,7 +10120,7 @@
         <v>606</v>
       </c>
       <c r="C466">
-        <v>140.143</v>
+        <v>130.745</v>
       </c>
       <c r="D466" t="s">
         <v>607</v>
@@ -10137,7 +10137,7 @@
         <v>606</v>
       </c>
       <c r="C467">
-        <v>110.258</v>
+        <v>105.366</v>
       </c>
       <c r="D467" t="s">
         <v>607</v>
@@ -10154,7 +10154,7 @@
         <v>606</v>
       </c>
       <c r="C468">
-        <v>113.138</v>
+        <v>108.242</v>
       </c>
       <c r="D468" t="s">
         <v>607</v>
@@ -10171,7 +10171,7 @@
         <v>606</v>
       </c>
       <c r="C469">
-        <v>112.057</v>
+        <v>103.46</v>
       </c>
       <c r="D469" t="s">
         <v>607</v>
@@ -10188,7 +10188,7 @@
         <v>606</v>
       </c>
       <c r="C470">
-        <v>119.262</v>
+        <v>110.505</v>
       </c>
       <c r="D470" t="s">
         <v>607</v>
@@ -10205,7 +10205,7 @@
         <v>606</v>
       </c>
       <c r="C471">
-        <v>118.731</v>
+        <v>111.948</v>
       </c>
       <c r="D471" t="s">
         <v>607</v>
@@ -10222,7 +10222,7 @@
         <v>606</v>
       </c>
       <c r="C472">
-        <v>110.451</v>
+        <v>105.924</v>
       </c>
       <c r="D472" t="s">
         <v>607</v>
@@ -10239,7 +10239,7 @@
         <v>606</v>
       </c>
       <c r="C473">
-        <v>120.244</v>
+        <v>109.925</v>
       </c>
       <c r="D473" t="s">
         <v>607</v>
@@ -10256,7 +10256,7 @@
         <v>605</v>
       </c>
       <c r="C474">
-        <v>97.18000000000001</v>
+        <v>93.185</v>
       </c>
       <c r="D474" t="s">
         <v>607</v>
@@ -10273,7 +10273,7 @@
         <v>606</v>
       </c>
       <c r="C475">
-        <v>106.348</v>
+        <v>101.318</v>
       </c>
       <c r="D475" t="s">
         <v>607</v>
@@ -10290,7 +10290,7 @@
         <v>606</v>
       </c>
       <c r="C476">
-        <v>167.194</v>
+        <v>142.957</v>
       </c>
       <c r="D476" t="s">
         <v>607</v>
@@ -10304,10 +10304,10 @@
         <v>480</v>
       </c>
       <c r="B477" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C477">
-        <v>102.843</v>
+        <v>99.107</v>
       </c>
       <c r="D477" t="s">
         <v>607</v>
@@ -10324,7 +10324,7 @@
         <v>606</v>
       </c>
       <c r="C478">
-        <v>123.667</v>
+        <v>115.825</v>
       </c>
       <c r="D478" t="s">
         <v>607</v>
@@ -10341,7 +10341,7 @@
         <v>606</v>
       </c>
       <c r="C479">
-        <v>112.884</v>
+        <v>107.184</v>
       </c>
       <c r="D479" t="s">
         <v>607</v>
@@ -10358,7 +10358,7 @@
         <v>606</v>
       </c>
       <c r="C480">
-        <v>126.004</v>
+        <v>116.25</v>
       </c>
       <c r="D480" t="s">
         <v>607</v>
@@ -10375,7 +10375,7 @@
         <v>606</v>
       </c>
       <c r="C481">
-        <v>109.327</v>
+        <v>109.169</v>
       </c>
       <c r="D481" t="s">
         <v>607</v>
@@ -10392,7 +10392,7 @@
         <v>606</v>
       </c>
       <c r="C482">
-        <v>171.777</v>
+        <v>152.741</v>
       </c>
       <c r="D482" t="s">
         <v>607</v>
@@ -10409,7 +10409,7 @@
         <v>606</v>
       </c>
       <c r="C483">
-        <v>113.968</v>
+        <v>109.139</v>
       </c>
       <c r="D483" t="s">
         <v>607</v>
@@ -10426,7 +10426,7 @@
         <v>606</v>
       </c>
       <c r="C484">
-        <v>120.753</v>
+        <v>109.084</v>
       </c>
       <c r="D484" t="s">
         <v>607</v>
@@ -10443,7 +10443,7 @@
         <v>606</v>
       </c>
       <c r="C485">
-        <v>124.943</v>
+        <v>117.16</v>
       </c>
       <c r="D485" t="s">
         <v>607</v>
@@ -10457,10 +10457,10 @@
         <v>489</v>
       </c>
       <c r="B486" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C486">
-        <v>114.157</v>
+        <v>99.73</v>
       </c>
       <c r="D486" t="s">
         <v>607</v>
@@ -10477,7 +10477,7 @@
         <v>606</v>
       </c>
       <c r="C487">
-        <v>113.688</v>
+        <v>108.54</v>
       </c>
       <c r="D487" t="s">
         <v>607</v>
@@ -10494,7 +10494,7 @@
         <v>606</v>
       </c>
       <c r="C488">
-        <v>118.991</v>
+        <v>109.509</v>
       </c>
       <c r="D488" t="s">
         <v>607</v>
@@ -10511,7 +10511,7 @@
         <v>605</v>
       </c>
       <c r="C489">
-        <v>88.286</v>
+        <v>85.89</v>
       </c>
       <c r="D489" t="s">
         <v>607</v>
@@ -10528,7 +10528,7 @@
         <v>606</v>
       </c>
       <c r="C490">
-        <v>117.779</v>
+        <v>109.393</v>
       </c>
       <c r="D490" t="s">
         <v>607</v>
@@ -10545,7 +10545,7 @@
         <v>606</v>
       </c>
       <c r="C491">
-        <v>109.502</v>
+        <v>105.645</v>
       </c>
       <c r="D491" t="s">
         <v>607</v>
@@ -10562,7 +10562,7 @@
         <v>605</v>
       </c>
       <c r="C492">
-        <v>96.741</v>
+        <v>97.02</v>
       </c>
       <c r="D492" t="s">
         <v>607</v>
@@ -10579,7 +10579,7 @@
         <v>606</v>
       </c>
       <c r="C493">
-        <v>104.111</v>
+        <v>102.746</v>
       </c>
       <c r="D493" t="s">
         <v>607</v>
@@ -10596,7 +10596,7 @@
         <v>605</v>
       </c>
       <c r="C494">
-        <v>97.774</v>
+        <v>96.727</v>
       </c>
       <c r="D494" t="s">
         <v>607</v>
@@ -10613,7 +10613,7 @@
         <v>606</v>
       </c>
       <c r="C495">
-        <v>108.731</v>
+        <v>104.67</v>
       </c>
       <c r="D495" t="s">
         <v>607</v>
@@ -10630,7 +10630,7 @@
         <v>606</v>
       </c>
       <c r="C496">
-        <v>106.201</v>
+        <v>102.357</v>
       </c>
       <c r="D496" t="s">
         <v>607</v>
@@ -10647,7 +10647,7 @@
         <v>606</v>
       </c>
       <c r="C497">
-        <v>109.709</v>
+        <v>109.555</v>
       </c>
       <c r="D497" t="s">
         <v>607</v>
@@ -10664,7 +10664,7 @@
         <v>605</v>
       </c>
       <c r="C498">
-        <v>98.849</v>
+        <v>94</v>
       </c>
       <c r="D498" t="s">
         <v>607</v>
@@ -10681,7 +10681,7 @@
         <v>606</v>
       </c>
       <c r="C499">
-        <v>107.726</v>
+        <v>101.899</v>
       </c>
       <c r="D499" t="s">
         <v>607</v>
@@ -10698,7 +10698,7 @@
         <v>606</v>
       </c>
       <c r="C500">
-        <v>128.159</v>
+        <v>115.994</v>
       </c>
       <c r="D500" t="s">
         <v>607</v>
@@ -10715,7 +10715,7 @@
         <v>606</v>
       </c>
       <c r="C501">
-        <v>113.845</v>
+        <v>108.693</v>
       </c>
       <c r="D501" t="s">
         <v>607</v>
@@ -10732,7 +10732,7 @@
         <v>606</v>
       </c>
       <c r="C502">
-        <v>118.25</v>
+        <v>106.395</v>
       </c>
       <c r="D502" t="s">
         <v>607</v>
@@ -10749,7 +10749,7 @@
         <v>606</v>
       </c>
       <c r="C503">
-        <v>108</v>
+        <v>102.77</v>
       </c>
       <c r="D503" t="s">
         <v>607</v>
@@ -10763,10 +10763,10 @@
         <v>507</v>
       </c>
       <c r="B504" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C504">
-        <v>103.833</v>
+        <v>98.26300000000001</v>
       </c>
       <c r="D504" t="s">
         <v>607</v>
@@ -10783,7 +10783,7 @@
         <v>606</v>
       </c>
       <c r="C505">
-        <v>105.656</v>
+        <v>100.93</v>
       </c>
       <c r="D505" t="s">
         <v>607</v>
@@ -10800,7 +10800,7 @@
         <v>605</v>
       </c>
       <c r="C506">
-        <v>83.92700000000001</v>
+        <v>84.65300000000001</v>
       </c>
       <c r="D506" t="s">
         <v>607</v>
@@ -10817,7 +10817,7 @@
         <v>606</v>
       </c>
       <c r="C507">
-        <v>103.542</v>
+        <v>102.964</v>
       </c>
       <c r="D507" t="s">
         <v>607</v>
@@ -10834,7 +10834,7 @@
         <v>606</v>
       </c>
       <c r="C508">
-        <v>102.411</v>
+        <v>100.806</v>
       </c>
       <c r="D508" t="s">
         <v>607</v>
@@ -10851,7 +10851,7 @@
         <v>606</v>
       </c>
       <c r="C509">
-        <v>109.61</v>
+        <v>106.706</v>
       </c>
       <c r="D509" t="s">
         <v>607</v>
@@ -10868,7 +10868,7 @@
         <v>605</v>
       </c>
       <c r="C510">
-        <v>76.068</v>
+        <v>79.676</v>
       </c>
       <c r="D510" t="s">
         <v>607</v>
@@ -10885,7 +10885,7 @@
         <v>606</v>
       </c>
       <c r="C511">
-        <v>186.364</v>
+        <v>169.88</v>
       </c>
       <c r="D511" t="s">
         <v>607</v>
@@ -10899,10 +10899,10 @@
         <v>515</v>
       </c>
       <c r="B512" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C512">
-        <v>104.111</v>
+        <v>98.02500000000001</v>
       </c>
       <c r="D512" t="s">
         <v>607</v>
@@ -10919,7 +10919,7 @@
         <v>606</v>
       </c>
       <c r="C513">
-        <v>147</v>
+        <v>125.455</v>
       </c>
       <c r="D513" t="s">
         <v>607</v>
@@ -10936,7 +10936,7 @@
         <v>606</v>
       </c>
       <c r="C514">
-        <v>213.6</v>
+        <v>244.86</v>
       </c>
       <c r="D514" t="s">
         <v>607</v>
@@ -10950,10 +10950,10 @@
         <v>518</v>
       </c>
       <c r="B515" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C515">
-        <v>116.751</v>
+        <v>98.935</v>
       </c>
       <c r="D515" t="s">
         <v>607</v>
@@ -10970,7 +10970,7 @@
         <v>606</v>
       </c>
       <c r="C516">
-        <v>105.286</v>
+        <v>104.031</v>
       </c>
       <c r="D516" t="s">
         <v>607</v>
@@ -10987,7 +10987,7 @@
         <v>605</v>
       </c>
       <c r="C517">
-        <v>94.247</v>
+        <v>81.06</v>
       </c>
       <c r="D517" t="s">
         <v>607</v>
@@ -11001,10 +11001,10 @@
         <v>521</v>
       </c>
       <c r="B518" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C518">
-        <v>106.915</v>
+        <v>90</v>
       </c>
       <c r="D518" t="s">
         <v>607</v>
@@ -11021,7 +11021,7 @@
         <v>605</v>
       </c>
       <c r="C519">
-        <v>86.95699999999999</v>
+        <v>72.842</v>
       </c>
       <c r="D519" t="s">
         <v>607</v>
@@ -11038,7 +11038,7 @@
         <v>606</v>
       </c>
       <c r="C520">
-        <v>114.941</v>
+        <v>106.663</v>
       </c>
       <c r="D520" t="s">
         <v>607</v>
@@ -11055,7 +11055,7 @@
         <v>605</v>
       </c>
       <c r="C521">
-        <v>93.568</v>
+        <v>83.929</v>
       </c>
       <c r="D521" t="s">
         <v>607</v>
@@ -11069,10 +11069,10 @@
         <v>233</v>
       </c>
       <c r="B522" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C522">
-        <v>103.847</v>
+        <v>96.979</v>
       </c>
       <c r="D522" t="s">
         <v>607</v>
@@ -11089,7 +11089,7 @@
         <v>605</v>
       </c>
       <c r="C523">
-        <v>92.14700000000001</v>
+        <v>93.34999999999999</v>
       </c>
       <c r="D523" t="s">
         <v>607</v>
@@ -11106,7 +11106,7 @@
         <v>605</v>
       </c>
       <c r="C524">
-        <v>81.358</v>
+        <v>70.011</v>
       </c>
       <c r="D524" t="s">
         <v>607</v>
@@ -11123,7 +11123,7 @@
         <v>605</v>
       </c>
       <c r="C525">
-        <v>92.41</v>
+        <v>93.239</v>
       </c>
       <c r="D525" t="s">
         <v>607</v>
@@ -11140,7 +11140,7 @@
         <v>606</v>
       </c>
       <c r="C526">
-        <v>115.111</v>
+        <v>102.352</v>
       </c>
       <c r="D526" t="s">
         <v>607</v>
@@ -11157,7 +11157,7 @@
         <v>605</v>
       </c>
       <c r="C527">
-        <v>91.842</v>
+        <v>85.453</v>
       </c>
       <c r="D527" t="s">
         <v>607</v>
@@ -11171,10 +11171,10 @@
         <v>530</v>
       </c>
       <c r="B528" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C528">
-        <v>100.244</v>
+        <v>92.101</v>
       </c>
       <c r="D528" t="s">
         <v>607</v>
@@ -11191,7 +11191,7 @@
         <v>606</v>
       </c>
       <c r="C529">
-        <v>126.024</v>
+        <v>117.899</v>
       </c>
       <c r="D529" t="s">
         <v>607</v>
@@ -11208,7 +11208,7 @@
         <v>606</v>
       </c>
       <c r="C530">
-        <v>142.133</v>
+        <v>121.856</v>
       </c>
       <c r="D530" t="s">
         <v>607</v>
@@ -11225,7 +11225,7 @@
         <v>606</v>
       </c>
       <c r="C531">
-        <v>125.5</v>
+        <v>121.32</v>
       </c>
       <c r="D531" t="s">
         <v>607</v>
@@ -11242,7 +11242,7 @@
         <v>606</v>
       </c>
       <c r="C532">
-        <v>115.326</v>
+        <v>106.767</v>
       </c>
       <c r="D532" t="s">
         <v>607</v>
@@ -11259,7 +11259,7 @@
         <v>606</v>
       </c>
       <c r="C533">
-        <v>109.622</v>
+        <v>106.887</v>
       </c>
       <c r="D533" t="s">
         <v>607</v>
@@ -11276,7 +11276,7 @@
         <v>606</v>
       </c>
       <c r="C534">
-        <v>108.999</v>
+        <v>101.125</v>
       </c>
       <c r="D534" t="s">
         <v>607</v>
@@ -11293,7 +11293,7 @@
         <v>606</v>
       </c>
       <c r="C535">
-        <v>111.219</v>
+        <v>105.61</v>
       </c>
       <c r="D535" t="s">
         <v>607</v>
@@ -11310,7 +11310,7 @@
         <v>606</v>
       </c>
       <c r="C536">
-        <v>115.883</v>
+        <v>109.917</v>
       </c>
       <c r="D536" t="s">
         <v>607</v>
@@ -11327,7 +11327,7 @@
         <v>605</v>
       </c>
       <c r="C537">
-        <v>92.42400000000001</v>
+        <v>86.14700000000001</v>
       </c>
       <c r="D537" t="s">
         <v>607</v>
@@ -11344,7 +11344,7 @@
         <v>606</v>
       </c>
       <c r="C538">
-        <v>116.1</v>
+        <v>114.339</v>
       </c>
       <c r="D538" t="s">
         <v>607</v>
@@ -11361,7 +11361,7 @@
         <v>606</v>
       </c>
       <c r="C539">
-        <v>118.506</v>
+        <v>109.605</v>
       </c>
       <c r="D539" t="s">
         <v>607</v>
@@ -11378,7 +11378,7 @@
         <v>606</v>
       </c>
       <c r="C540">
-        <v>102.751</v>
+        <v>103.151</v>
       </c>
       <c r="D540" t="s">
         <v>607</v>
@@ -11395,7 +11395,7 @@
         <v>606</v>
       </c>
       <c r="C541">
-        <v>103.341</v>
+        <v>100.347</v>
       </c>
       <c r="D541" t="s">
         <v>607</v>
@@ -11409,10 +11409,10 @@
         <v>543</v>
       </c>
       <c r="B542" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C542">
-        <v>101.258</v>
+        <v>99.63</v>
       </c>
       <c r="D542" t="s">
         <v>607</v>
@@ -11429,7 +11429,7 @@
         <v>605</v>
       </c>
       <c r="C543">
-        <v>99.075</v>
+        <v>98.09</v>
       </c>
       <c r="D543" t="s">
         <v>607</v>
@@ -11446,7 +11446,7 @@
         <v>605</v>
       </c>
       <c r="C544">
-        <v>99.816</v>
+        <v>98.036</v>
       </c>
       <c r="D544" t="s">
         <v>607</v>
@@ -11463,7 +11463,7 @@
         <v>606</v>
       </c>
       <c r="C545">
-        <v>108.042</v>
+        <v>101.567</v>
       </c>
       <c r="D545" t="s">
         <v>607</v>
@@ -11477,10 +11477,10 @@
         <v>547</v>
       </c>
       <c r="B546" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C546">
-        <v>106.209</v>
+        <v>98.455</v>
       </c>
       <c r="D546" t="s">
         <v>607</v>
@@ -11494,10 +11494,10 @@
         <v>548</v>
       </c>
       <c r="B547" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C547">
-        <v>99.41500000000001</v>
+        <v>100.507</v>
       </c>
       <c r="D547" t="s">
         <v>607</v>
@@ -11514,7 +11514,7 @@
         <v>605</v>
       </c>
       <c r="C548">
-        <v>99.86</v>
+        <v>97.837</v>
       </c>
       <c r="D548" t="s">
         <v>607</v>
@@ -11531,7 +11531,7 @@
         <v>606</v>
       </c>
       <c r="C549">
-        <v>100.184</v>
+        <v>100.169</v>
       </c>
       <c r="D549" t="s">
         <v>607</v>
@@ -11548,7 +11548,7 @@
         <v>606</v>
       </c>
       <c r="C550">
-        <v>104.889</v>
+        <v>101.967</v>
       </c>
       <c r="D550" t="s">
         <v>607</v>
@@ -11565,7 +11565,7 @@
         <v>606</v>
       </c>
       <c r="C551">
-        <v>111.995</v>
+        <v>105.484</v>
       </c>
       <c r="D551" t="s">
         <v>607</v>
@@ -11582,7 +11582,7 @@
         <v>606</v>
       </c>
       <c r="C552">
-        <v>101.191</v>
+        <v>101.733</v>
       </c>
       <c r="D552" t="s">
         <v>607</v>
@@ -11599,7 +11599,7 @@
         <v>606</v>
       </c>
       <c r="C553">
-        <v>118.402</v>
+        <v>115.005</v>
       </c>
       <c r="D553" t="s">
         <v>607</v>
@@ -11616,7 +11616,7 @@
         <v>606</v>
       </c>
       <c r="C554">
-        <v>116.667</v>
+        <v>115.789</v>
       </c>
       <c r="D554" t="s">
         <v>607</v>
@@ -11633,7 +11633,7 @@
         <v>605</v>
       </c>
       <c r="C555">
-        <v>97.93899999999999</v>
+        <v>95.502</v>
       </c>
       <c r="D555" t="s">
         <v>607</v>
@@ -11650,7 +11650,7 @@
         <v>606</v>
       </c>
       <c r="C556">
-        <v>109.148</v>
+        <v>104.177</v>
       </c>
       <c r="D556" t="s">
         <v>607</v>
@@ -11667,7 +11667,7 @@
         <v>606</v>
       </c>
       <c r="C557">
-        <v>110.24</v>
+        <v>101.949</v>
       </c>
       <c r="D557" t="s">
         <v>607</v>
@@ -11684,7 +11684,7 @@
         <v>606</v>
       </c>
       <c r="C558">
-        <v>104.985</v>
+        <v>100</v>
       </c>
       <c r="D558" t="s">
         <v>607</v>
@@ -11701,7 +11701,7 @@
         <v>605</v>
       </c>
       <c r="C559">
-        <v>99.498</v>
+        <v>99.16</v>
       </c>
       <c r="D559" t="s">
         <v>607</v>
@@ -11718,7 +11718,7 @@
         <v>606</v>
       </c>
       <c r="C560">
-        <v>118.232</v>
+        <v>113.407</v>
       </c>
       <c r="D560" t="s">
         <v>607</v>
@@ -11732,10 +11732,10 @@
         <v>562</v>
       </c>
       <c r="B561" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C561">
-        <v>103.301</v>
+        <v>99.733</v>
       </c>
       <c r="D561" t="s">
         <v>607</v>
@@ -11752,7 +11752,7 @@
         <v>606</v>
       </c>
       <c r="C562">
-        <v>101.98</v>
+        <v>102.463</v>
       </c>
       <c r="D562" t="s">
         <v>607</v>
@@ -11769,7 +11769,7 @@
         <v>606</v>
       </c>
       <c r="C563">
-        <v>105.199</v>
+        <v>101.014</v>
       </c>
       <c r="D563" t="s">
         <v>607</v>
@@ -11786,7 +11786,7 @@
         <v>606</v>
       </c>
       <c r="C564">
-        <v>104.999</v>
+        <v>100.809</v>
       </c>
       <c r="D564" t="s">
         <v>607</v>
@@ -11803,7 +11803,7 @@
         <v>605</v>
       </c>
       <c r="C565">
-        <v>99.91200000000001</v>
+        <v>97.274</v>
       </c>
       <c r="D565" t="s">
         <v>607</v>
@@ -11820,7 +11820,7 @@
         <v>606</v>
       </c>
       <c r="C566">
-        <v>135.42</v>
+        <v>132.791</v>
       </c>
       <c r="D566" t="s">
         <v>607</v>
@@ -11837,7 +11837,7 @@
         <v>605</v>
       </c>
       <c r="C567">
-        <v>92.319</v>
+        <v>86.735</v>
       </c>
       <c r="D567" t="s">
         <v>607</v>
@@ -11851,10 +11851,10 @@
         <v>569</v>
       </c>
       <c r="B568" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C568">
-        <v>102.838</v>
+        <v>99.13</v>
       </c>
       <c r="D568" t="s">
         <v>607</v>
@@ -11871,7 +11871,7 @@
         <v>606</v>
       </c>
       <c r="C569">
-        <v>103.28</v>
+        <v>100.113</v>
       </c>
       <c r="D569" t="s">
         <v>607</v>
@@ -11888,7 +11888,7 @@
         <v>605</v>
       </c>
       <c r="C570">
-        <v>91.97</v>
+        <v>90.247</v>
       </c>
       <c r="D570" t="s">
         <v>607</v>
@@ -11905,7 +11905,7 @@
         <v>606</v>
       </c>
       <c r="C571">
-        <v>109.408</v>
+        <v>105.113</v>
       </c>
       <c r="D571" t="s">
         <v>607</v>
@@ -11922,7 +11922,7 @@
         <v>606</v>
       </c>
       <c r="C572">
-        <v>106.016</v>
+        <v>102.551</v>
       </c>
       <c r="D572" t="s">
         <v>607</v>
@@ -11939,7 +11939,7 @@
         <v>606</v>
       </c>
       <c r="C573">
-        <v>107.226</v>
+        <v>104.531</v>
       </c>
       <c r="D573" t="s">
         <v>607</v>
@@ -11956,7 +11956,7 @@
         <v>606</v>
       </c>
       <c r="C574">
-        <v>105.277</v>
+        <v>100.518</v>
       </c>
       <c r="D574" t="s">
         <v>607</v>
@@ -11973,7 +11973,7 @@
         <v>606</v>
       </c>
       <c r="C575">
-        <v>118.211</v>
+        <v>109.588</v>
       </c>
       <c r="D575" t="s">
         <v>607</v>
@@ -11990,7 +11990,7 @@
         <v>606</v>
       </c>
       <c r="C576">
-        <v>116.203</v>
+        <v>111.027</v>
       </c>
       <c r="D576" t="s">
         <v>607</v>
@@ -12007,7 +12007,7 @@
         <v>606</v>
       </c>
       <c r="C577">
-        <v>111.731</v>
+        <v>106.616</v>
       </c>
       <c r="D577" t="s">
         <v>607</v>
@@ -12024,7 +12024,7 @@
         <v>606</v>
       </c>
       <c r="C578">
-        <v>116.581</v>
+        <v>105.858</v>
       </c>
       <c r="D578" t="s">
         <v>607</v>
@@ -12038,10 +12038,10 @@
         <v>580</v>
       </c>
       <c r="B579" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C579">
-        <v>103.746</v>
+        <v>98.48099999999999</v>
       </c>
       <c r="D579" t="s">
         <v>607</v>
@@ -12058,7 +12058,7 @@
         <v>606</v>
       </c>
       <c r="C580">
-        <v>107.722</v>
+        <v>106.937</v>
       </c>
       <c r="D580" t="s">
         <v>607</v>
@@ -12075,7 +12075,7 @@
         <v>606</v>
       </c>
       <c r="C581">
-        <v>114.071</v>
+        <v>104.181</v>
       </c>
       <c r="D581" t="s">
         <v>607</v>
@@ -12092,7 +12092,7 @@
         <v>606</v>
       </c>
       <c r="C582">
-        <v>120.949</v>
+        <v>111.121</v>
       </c>
       <c r="D582" t="s">
         <v>607</v>
@@ -12109,7 +12109,7 @@
         <v>606</v>
       </c>
       <c r="C583">
-        <v>132.203</v>
+        <v>121.066</v>
       </c>
       <c r="D583" t="s">
         <v>607</v>
@@ -12126,7 +12126,7 @@
         <v>606</v>
       </c>
       <c r="C584">
-        <v>109.76</v>
+        <v>102.791</v>
       </c>
       <c r="D584" t="s">
         <v>607</v>
@@ -12143,7 +12143,7 @@
         <v>606</v>
       </c>
       <c r="C585">
-        <v>111.323</v>
+        <v>103.7</v>
       </c>
       <c r="D585" t="s">
         <v>607</v>
@@ -12160,7 +12160,7 @@
         <v>606</v>
       </c>
       <c r="C586">
-        <v>105.957</v>
+        <v>106.693</v>
       </c>
       <c r="D586" t="s">
         <v>607</v>
@@ -12177,7 +12177,7 @@
         <v>605</v>
       </c>
       <c r="C587">
-        <v>94.057</v>
+        <v>93.425</v>
       </c>
       <c r="D587" t="s">
         <v>607</v>
@@ -12194,7 +12194,7 @@
         <v>606</v>
       </c>
       <c r="C588">
-        <v>107.81</v>
+        <v>104.507</v>
       </c>
       <c r="D588" t="s">
         <v>607</v>
@@ -12211,7 +12211,7 @@
         <v>606</v>
       </c>
       <c r="C589">
-        <v>111.147</v>
+        <v>104.65</v>
       </c>
       <c r="D589" t="s">
         <v>607</v>
@@ -12225,10 +12225,10 @@
         <v>591</v>
       </c>
       <c r="B590" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C590">
-        <v>101.736</v>
+        <v>93.245</v>
       </c>
       <c r="D590" t="s">
         <v>607</v>
@@ -12245,7 +12245,7 @@
         <v>606</v>
       </c>
       <c r="C591">
-        <v>107.81</v>
+        <v>104.335</v>
       </c>
       <c r="D591" t="s">
         <v>607</v>
@@ -12262,7 +12262,7 @@
         <v>606</v>
       </c>
       <c r="C592">
-        <v>115.735</v>
+        <v>107.358</v>
       </c>
       <c r="D592" t="s">
         <v>607</v>
@@ -12276,10 +12276,10 @@
         <v>594</v>
       </c>
       <c r="B593" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C593">
-        <v>106.18</v>
+        <v>99.855</v>
       </c>
       <c r="D593" t="s">
         <v>607</v>
@@ -12296,7 +12296,7 @@
         <v>606</v>
       </c>
       <c r="C594">
-        <v>115.437</v>
+        <v>108.605</v>
       </c>
       <c r="D594" t="s">
         <v>607</v>
@@ -12313,7 +12313,7 @@
         <v>606</v>
       </c>
       <c r="C595">
-        <v>105.626</v>
+        <v>104.692</v>
       </c>
       <c r="D595" t="s">
         <v>607</v>
@@ -12330,7 +12330,7 @@
         <v>606</v>
       </c>
       <c r="C596">
-        <v>114.779</v>
+        <v>108.046</v>
       </c>
       <c r="D596" t="s">
         <v>607</v>
@@ -12347,7 +12347,7 @@
         <v>606</v>
       </c>
       <c r="C597">
-        <v>129.5</v>
+        <v>120.633</v>
       </c>
       <c r="D597" t="s">
         <v>607</v>
@@ -12364,7 +12364,7 @@
         <v>606</v>
       </c>
       <c r="C598">
-        <v>117.02</v>
+        <v>109.646</v>
       </c>
       <c r="D598" t="s">
         <v>607</v>
@@ -12381,7 +12381,7 @@
         <v>606</v>
       </c>
       <c r="C599">
-        <v>113.557</v>
+        <v>108.194</v>
       </c>
       <c r="D599" t="s">
         <v>607</v>
@@ -12398,7 +12398,7 @@
         <v>606</v>
       </c>
       <c r="C600">
-        <v>110.683</v>
+        <v>103.973</v>
       </c>
       <c r="D600" t="s">
         <v>607</v>
@@ -12412,10 +12412,10 @@
         <v>602</v>
       </c>
       <c r="B601" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C601">
-        <v>103.638</v>
+        <v>95.892</v>
       </c>
       <c r="D601" t="s">
         <v>607</v>
@@ -12429,10 +12429,10 @@
         <v>603</v>
       </c>
       <c r="B602" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C602">
-        <v>102.069</v>
+        <v>96.86</v>
       </c>
       <c r="D602" t="s">
         <v>607</v>
@@ -12449,7 +12449,7 @@
         <v>605</v>
       </c>
       <c r="C603">
-        <v>96.979</v>
+        <v>97.726</v>
       </c>
       <c r="D603" t="s">
         <v>607</v>

--- a/generated_reports/tradfi_momentum.xlsx
+++ b/generated_reports/tradfi_momentum.xlsx
@@ -2232,7 +2232,7 @@
         <v>605</v>
       </c>
       <c r="C2">
-        <v>93.489</v>
+        <v>94.65900000000001</v>
       </c>
       <c r="D2" t="s">
         <v>607</v>
@@ -2249,7 +2249,7 @@
         <v>605</v>
       </c>
       <c r="C3">
-        <v>91.866</v>
+        <v>93.566</v>
       </c>
       <c r="D3" t="s">
         <v>607</v>
@@ -2266,7 +2266,7 @@
         <v>605</v>
       </c>
       <c r="C4">
-        <v>95.209</v>
+        <v>97.08199999999999</v>
       </c>
       <c r="D4" t="s">
         <v>607</v>
@@ -2283,7 +2283,7 @@
         <v>605</v>
       </c>
       <c r="C5">
-        <v>79.217</v>
+        <v>89.40600000000001</v>
       </c>
       <c r="D5" t="s">
         <v>607</v>
@@ -2300,7 +2300,7 @@
         <v>605</v>
       </c>
       <c r="C6">
-        <v>84.646</v>
+        <v>86.102</v>
       </c>
       <c r="D6" t="s">
         <v>607</v>
@@ -2317,7 +2317,7 @@
         <v>605</v>
       </c>
       <c r="C7">
-        <v>90.486</v>
+        <v>92.532</v>
       </c>
       <c r="D7" t="s">
         <v>607</v>
@@ -2334,7 +2334,7 @@
         <v>605</v>
       </c>
       <c r="C8">
-        <v>87.352</v>
+        <v>87.92700000000001</v>
       </c>
       <c r="D8" t="s">
         <v>607</v>
@@ -2351,7 +2351,7 @@
         <v>606</v>
       </c>
       <c r="C9">
-        <v>101.66</v>
+        <v>105.713</v>
       </c>
       <c r="D9" t="s">
         <v>607</v>
@@ -2368,7 +2368,7 @@
         <v>605</v>
       </c>
       <c r="C10">
-        <v>93.18600000000001</v>
+        <v>95.93899999999999</v>
       </c>
       <c r="D10" t="s">
         <v>607</v>
@@ -2385,7 +2385,7 @@
         <v>606</v>
       </c>
       <c r="C11">
-        <v>101.332</v>
+        <v>101.153</v>
       </c>
       <c r="D11" t="s">
         <v>607</v>
@@ -2402,7 +2402,7 @@
         <v>605</v>
       </c>
       <c r="C12">
-        <v>98.938</v>
+        <v>99.887</v>
       </c>
       <c r="D12" t="s">
         <v>607</v>
@@ -2419,7 +2419,7 @@
         <v>605</v>
       </c>
       <c r="C13">
-        <v>79.86</v>
+        <v>81.72799999999999</v>
       </c>
       <c r="D13" t="s">
         <v>607</v>
@@ -2436,7 +2436,7 @@
         <v>606</v>
       </c>
       <c r="C14">
-        <v>109.513</v>
+        <v>110.122</v>
       </c>
       <c r="D14" t="s">
         <v>607</v>
@@ -2453,7 +2453,7 @@
         <v>605</v>
       </c>
       <c r="C15">
-        <v>97.316</v>
+        <v>99.495</v>
       </c>
       <c r="D15" t="s">
         <v>607</v>
@@ -2470,7 +2470,7 @@
         <v>606</v>
       </c>
       <c r="C16">
-        <v>101.839</v>
+        <v>100.885</v>
       </c>
       <c r="D16" t="s">
         <v>607</v>
@@ -2487,7 +2487,7 @@
         <v>605</v>
       </c>
       <c r="C17">
-        <v>89.494</v>
+        <v>91.042</v>
       </c>
       <c r="D17" t="s">
         <v>607</v>
@@ -2504,7 +2504,7 @@
         <v>606</v>
       </c>
       <c r="C18">
-        <v>102.758</v>
+        <v>104.116</v>
       </c>
       <c r="D18" t="s">
         <v>607</v>
@@ -2521,7 +2521,7 @@
         <v>605</v>
       </c>
       <c r="C19">
-        <v>96.292</v>
+        <v>99.437</v>
       </c>
       <c r="D19" t="s">
         <v>607</v>
@@ -2538,7 +2538,7 @@
         <v>606</v>
       </c>
       <c r="C20">
-        <v>101.378</v>
+        <v>103.389</v>
       </c>
       <c r="D20" t="s">
         <v>607</v>
@@ -2555,7 +2555,7 @@
         <v>605</v>
       </c>
       <c r="C21">
-        <v>95.17400000000001</v>
+        <v>97.44799999999999</v>
       </c>
       <c r="D21" t="s">
         <v>607</v>
@@ -2572,7 +2572,7 @@
         <v>606</v>
       </c>
       <c r="C22">
-        <v>102.265</v>
+        <v>104.2</v>
       </c>
       <c r="D22" t="s">
         <v>607</v>
@@ -2589,7 +2589,7 @@
         <v>605</v>
       </c>
       <c r="C23">
-        <v>91.703</v>
+        <v>92.60299999999999</v>
       </c>
       <c r="D23" t="s">
         <v>607</v>
@@ -2606,7 +2606,7 @@
         <v>605</v>
       </c>
       <c r="C24">
-        <v>94.376</v>
+        <v>94.84999999999999</v>
       </c>
       <c r="D24" t="s">
         <v>607</v>
@@ -2623,7 +2623,7 @@
         <v>606</v>
       </c>
       <c r="C25">
-        <v>104.207</v>
+        <v>104.429</v>
       </c>
       <c r="D25" t="s">
         <v>607</v>
@@ -2640,7 +2640,7 @@
         <v>605</v>
       </c>
       <c r="C26">
-        <v>94.67700000000001</v>
+        <v>97.54600000000001</v>
       </c>
       <c r="D26" t="s">
         <v>607</v>
@@ -2657,7 +2657,7 @@
         <v>606</v>
       </c>
       <c r="C27">
-        <v>105.509</v>
+        <v>106.079</v>
       </c>
       <c r="D27" t="s">
         <v>607</v>
@@ -2674,7 +2674,7 @@
         <v>605</v>
       </c>
       <c r="C28">
-        <v>97.64100000000001</v>
+        <v>98.08499999999999</v>
       </c>
       <c r="D28" t="s">
         <v>607</v>
@@ -2691,7 +2691,7 @@
         <v>605</v>
       </c>
       <c r="C29">
-        <v>94.063</v>
+        <v>95.86799999999999</v>
       </c>
       <c r="D29" t="s">
         <v>607</v>
@@ -2708,7 +2708,7 @@
         <v>606</v>
       </c>
       <c r="C30">
-        <v>102.215</v>
+        <v>104.464</v>
       </c>
       <c r="D30" t="s">
         <v>607</v>
@@ -2725,7 +2725,7 @@
         <v>605</v>
       </c>
       <c r="C31">
-        <v>97.53700000000001</v>
+        <v>99.486</v>
       </c>
       <c r="D31" t="s">
         <v>607</v>
@@ -2742,7 +2742,7 @@
         <v>606</v>
       </c>
       <c r="C32">
-        <v>105.689</v>
+        <v>113.932</v>
       </c>
       <c r="D32" t="s">
         <v>607</v>
@@ -2759,7 +2759,7 @@
         <v>605</v>
       </c>
       <c r="C33">
-        <v>97.258</v>
+        <v>98.221</v>
       </c>
       <c r="D33" t="s">
         <v>607</v>
@@ -2776,7 +2776,7 @@
         <v>605</v>
       </c>
       <c r="C34">
-        <v>96.535</v>
+        <v>98.874</v>
       </c>
       <c r="D34" t="s">
         <v>607</v>
@@ -2790,10 +2790,10 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C35">
-        <v>98.46299999999999</v>
+        <v>101.113</v>
       </c>
       <c r="D35" t="s">
         <v>607</v>
@@ -2807,10 +2807,10 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C36">
-        <v>97.18600000000001</v>
+        <v>100.997</v>
       </c>
       <c r="D36" t="s">
         <v>607</v>
@@ -2827,7 +2827,7 @@
         <v>605</v>
       </c>
       <c r="C37">
-        <v>94.845</v>
+        <v>98.419</v>
       </c>
       <c r="D37" t="s">
         <v>607</v>
@@ -2844,7 +2844,7 @@
         <v>605</v>
       </c>
       <c r="C38">
-        <v>91.629</v>
+        <v>95.755</v>
       </c>
       <c r="D38" t="s">
         <v>607</v>
@@ -2858,10 +2858,10 @@
         <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C39">
-        <v>98.102</v>
+        <v>101.705</v>
       </c>
       <c r="D39" t="s">
         <v>607</v>
@@ -2878,7 +2878,7 @@
         <v>605</v>
       </c>
       <c r="C40">
-        <v>93.318</v>
+        <v>96.38200000000001</v>
       </c>
       <c r="D40" t="s">
         <v>607</v>
@@ -2895,7 +2895,7 @@
         <v>606</v>
       </c>
       <c r="C41">
-        <v>102.285</v>
+        <v>108.342</v>
       </c>
       <c r="D41" t="s">
         <v>607</v>
@@ -2909,10 +2909,10 @@
         <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C42">
-        <v>98.384</v>
+        <v>101.143</v>
       </c>
       <c r="D42" t="s">
         <v>607</v>
@@ -2929,7 +2929,7 @@
         <v>606</v>
       </c>
       <c r="C43">
-        <v>101.687</v>
+        <v>105.349</v>
       </c>
       <c r="D43" t="s">
         <v>607</v>
@@ -2946,7 +2946,7 @@
         <v>605</v>
       </c>
       <c r="C44">
-        <v>97.209</v>
+        <v>99.64400000000001</v>
       </c>
       <c r="D44" t="s">
         <v>607</v>
@@ -2963,7 +2963,7 @@
         <v>606</v>
       </c>
       <c r="C45">
-        <v>105.927</v>
+        <v>104.632</v>
       </c>
       <c r="D45" t="s">
         <v>607</v>
@@ -2980,7 +2980,7 @@
         <v>606</v>
       </c>
       <c r="C46">
-        <v>102.846</v>
+        <v>103.59</v>
       </c>
       <c r="D46" t="s">
         <v>607</v>
@@ -2997,7 +2997,7 @@
         <v>606</v>
       </c>
       <c r="C47">
-        <v>102.792</v>
+        <v>103.979</v>
       </c>
       <c r="D47" t="s">
         <v>607</v>
@@ -3011,10 +3011,10 @@
         <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C48">
-        <v>98.593</v>
+        <v>100.352</v>
       </c>
       <c r="D48" t="s">
         <v>607</v>
@@ -3028,10 +3028,10 @@
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C49">
-        <v>96.681</v>
+        <v>101.584</v>
       </c>
       <c r="D49" t="s">
         <v>607</v>
@@ -3045,10 +3045,10 @@
         <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C50">
-        <v>98.748</v>
+        <v>100.257</v>
       </c>
       <c r="D50" t="s">
         <v>607</v>
@@ -3062,10 +3062,10 @@
         <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C51">
-        <v>98.465</v>
+        <v>102.474</v>
       </c>
       <c r="D51" t="s">
         <v>607</v>
@@ -3082,7 +3082,7 @@
         <v>606</v>
       </c>
       <c r="C52">
-        <v>108.618</v>
+        <v>112.111</v>
       </c>
       <c r="D52" t="s">
         <v>607</v>
@@ -3099,7 +3099,7 @@
         <v>605</v>
       </c>
       <c r="C53">
-        <v>86.48</v>
+        <v>88.128</v>
       </c>
       <c r="D53" t="s">
         <v>607</v>
@@ -3116,7 +3116,7 @@
         <v>606</v>
       </c>
       <c r="C54">
-        <v>102.324</v>
+        <v>104.407</v>
       </c>
       <c r="D54" t="s">
         <v>607</v>
@@ -3130,10 +3130,10 @@
         <v>58</v>
       </c>
       <c r="B55" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C55">
-        <v>96.95</v>
+        <v>100.782</v>
       </c>
       <c r="D55" t="s">
         <v>607</v>
@@ -3150,7 +3150,7 @@
         <v>606</v>
       </c>
       <c r="C56">
-        <v>104.61</v>
+        <v>111.483</v>
       </c>
       <c r="D56" t="s">
         <v>607</v>
@@ -3167,7 +3167,7 @@
         <v>606</v>
       </c>
       <c r="C57">
-        <v>104.474</v>
+        <v>112.674</v>
       </c>
       <c r="D57" t="s">
         <v>607</v>
@@ -3184,7 +3184,7 @@
         <v>605</v>
       </c>
       <c r="C58">
-        <v>97.44199999999999</v>
+        <v>98.751</v>
       </c>
       <c r="D58" t="s">
         <v>607</v>
@@ -3201,7 +3201,7 @@
         <v>606</v>
       </c>
       <c r="C59">
-        <v>108.181</v>
+        <v>108.654</v>
       </c>
       <c r="D59" t="s">
         <v>607</v>
@@ -3218,7 +3218,7 @@
         <v>606</v>
       </c>
       <c r="C60">
-        <v>101.792</v>
+        <v>104.153</v>
       </c>
       <c r="D60" t="s">
         <v>607</v>
@@ -3235,7 +3235,7 @@
         <v>605</v>
       </c>
       <c r="C61">
-        <v>93.839</v>
+        <v>97.27800000000001</v>
       </c>
       <c r="D61" t="s">
         <v>607</v>
@@ -3252,7 +3252,7 @@
         <v>606</v>
       </c>
       <c r="C62">
-        <v>104.048</v>
+        <v>105.803</v>
       </c>
       <c r="D62" t="s">
         <v>607</v>
@@ -3269,7 +3269,7 @@
         <v>606</v>
       </c>
       <c r="C63">
-        <v>100.354</v>
+        <v>103.969</v>
       </c>
       <c r="D63" t="s">
         <v>607</v>
@@ -3283,10 +3283,10 @@
         <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C64">
-        <v>96.143</v>
+        <v>100.699</v>
       </c>
       <c r="D64" t="s">
         <v>607</v>
@@ -3303,7 +3303,7 @@
         <v>605</v>
       </c>
       <c r="C65">
-        <v>96.398</v>
+        <v>98.971</v>
       </c>
       <c r="D65" t="s">
         <v>607</v>
@@ -3320,7 +3320,7 @@
         <v>606</v>
       </c>
       <c r="C66">
-        <v>102.16</v>
+        <v>104.444</v>
       </c>
       <c r="D66" t="s">
         <v>607</v>
@@ -3337,7 +3337,7 @@
         <v>606</v>
       </c>
       <c r="C67">
-        <v>101.743</v>
+        <v>104.371</v>
       </c>
       <c r="D67" t="s">
         <v>607</v>
@@ -3354,7 +3354,7 @@
         <v>606</v>
       </c>
       <c r="C68">
-        <v>102.852</v>
+        <v>105.444</v>
       </c>
       <c r="D68" t="s">
         <v>607</v>
@@ -3371,7 +3371,7 @@
         <v>605</v>
       </c>
       <c r="C69">
-        <v>97.21599999999999</v>
+        <v>97.84399999999999</v>
       </c>
       <c r="D69" t="s">
         <v>607</v>
@@ -3388,7 +3388,7 @@
         <v>606</v>
       </c>
       <c r="C70">
-        <v>101.673</v>
+        <v>106.45</v>
       </c>
       <c r="D70" t="s">
         <v>607</v>
@@ -3405,7 +3405,7 @@
         <v>606</v>
       </c>
       <c r="C71">
-        <v>102.777</v>
+        <v>101.247</v>
       </c>
       <c r="D71" t="s">
         <v>607</v>
@@ -3422,7 +3422,7 @@
         <v>606</v>
       </c>
       <c r="C72">
-        <v>108.888</v>
+        <v>111.925</v>
       </c>
       <c r="D72" t="s">
         <v>607</v>
@@ -3439,7 +3439,7 @@
         <v>605</v>
       </c>
       <c r="C73">
-        <v>97.102</v>
+        <v>99.17</v>
       </c>
       <c r="D73" t="s">
         <v>607</v>
@@ -3456,7 +3456,7 @@
         <v>606</v>
       </c>
       <c r="C74">
-        <v>102.405</v>
+        <v>104.108</v>
       </c>
       <c r="D74" t="s">
         <v>607</v>
@@ -3473,7 +3473,7 @@
         <v>605</v>
       </c>
       <c r="C75">
-        <v>93.767</v>
+        <v>95.05800000000001</v>
       </c>
       <c r="D75" t="s">
         <v>607</v>
@@ -3490,7 +3490,7 @@
         <v>606</v>
       </c>
       <c r="C76">
-        <v>114.77</v>
+        <v>118.9</v>
       </c>
       <c r="D76" t="s">
         <v>607</v>
@@ -3507,7 +3507,7 @@
         <v>606</v>
       </c>
       <c r="C77">
-        <v>106.292</v>
+        <v>107.198</v>
       </c>
       <c r="D77" t="s">
         <v>607</v>
@@ -3524,7 +3524,7 @@
         <v>605</v>
       </c>
       <c r="C78">
-        <v>96.56999999999999</v>
+        <v>99.45399999999999</v>
       </c>
       <c r="D78" t="s">
         <v>607</v>
@@ -3541,7 +3541,7 @@
         <v>606</v>
       </c>
       <c r="C79">
-        <v>101.817</v>
+        <v>103.398</v>
       </c>
       <c r="D79" t="s">
         <v>607</v>
@@ -3558,7 +3558,7 @@
         <v>606</v>
       </c>
       <c r="C80">
-        <v>107.168</v>
+        <v>112.685</v>
       </c>
       <c r="D80" t="s">
         <v>607</v>
@@ -3572,10 +3572,10 @@
         <v>84</v>
       </c>
       <c r="B81" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C81">
-        <v>94.015</v>
+        <v>101.511</v>
       </c>
       <c r="D81" t="s">
         <v>607</v>
@@ -3592,7 +3592,7 @@
         <v>605</v>
       </c>
       <c r="C82">
-        <v>95.223</v>
+        <v>97.167</v>
       </c>
       <c r="D82" t="s">
         <v>607</v>
@@ -3606,10 +3606,10 @@
         <v>86</v>
       </c>
       <c r="B83" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C83">
-        <v>103.991</v>
+        <v>99.58799999999999</v>
       </c>
       <c r="D83" t="s">
         <v>607</v>
@@ -3626,7 +3626,7 @@
         <v>606</v>
       </c>
       <c r="C84">
-        <v>109.844</v>
+        <v>114.494</v>
       </c>
       <c r="D84" t="s">
         <v>607</v>
@@ -3643,7 +3643,7 @@
         <v>605</v>
       </c>
       <c r="C85">
-        <v>91.836</v>
+        <v>94.389</v>
       </c>
       <c r="D85" t="s">
         <v>607</v>
@@ -3660,7 +3660,7 @@
         <v>606</v>
       </c>
       <c r="C86">
-        <v>116.935</v>
+        <v>122.635</v>
       </c>
       <c r="D86" t="s">
         <v>607</v>
@@ -3677,7 +3677,7 @@
         <v>606</v>
       </c>
       <c r="C87">
-        <v>102.277</v>
+        <v>101.969</v>
       </c>
       <c r="D87" t="s">
         <v>607</v>
@@ -3694,7 +3694,7 @@
         <v>606</v>
       </c>
       <c r="C88">
-        <v>102.187</v>
+        <v>108.408</v>
       </c>
       <c r="D88" t="s">
         <v>607</v>
@@ -3711,7 +3711,7 @@
         <v>606</v>
       </c>
       <c r="C89">
-        <v>105.106</v>
+        <v>110.66</v>
       </c>
       <c r="D89" t="s">
         <v>607</v>
@@ -3728,7 +3728,7 @@
         <v>605</v>
       </c>
       <c r="C90">
-        <v>84.848</v>
+        <v>95.348</v>
       </c>
       <c r="D90" t="s">
         <v>607</v>
@@ -3745,7 +3745,7 @@
         <v>606</v>
       </c>
       <c r="C91">
-        <v>109.371</v>
+        <v>105.81</v>
       </c>
       <c r="D91" t="s">
         <v>607</v>
@@ -3762,7 +3762,7 @@
         <v>606</v>
       </c>
       <c r="C92">
-        <v>107.573</v>
+        <v>111.415</v>
       </c>
       <c r="D92" t="s">
         <v>607</v>
@@ -3779,7 +3779,7 @@
         <v>606</v>
       </c>
       <c r="C93">
-        <v>115.789</v>
+        <v>119.293</v>
       </c>
       <c r="D93" t="s">
         <v>607</v>
@@ -3796,7 +3796,7 @@
         <v>605</v>
       </c>
       <c r="C94">
-        <v>91.02</v>
+        <v>93.102</v>
       </c>
       <c r="D94" t="s">
         <v>607</v>
@@ -3813,7 +3813,7 @@
         <v>606</v>
       </c>
       <c r="C95">
-        <v>102.143</v>
+        <v>108.465</v>
       </c>
       <c r="D95" t="s">
         <v>607</v>
@@ -3830,7 +3830,7 @@
         <v>605</v>
       </c>
       <c r="C96">
-        <v>92.39400000000001</v>
+        <v>97.807</v>
       </c>
       <c r="D96" t="s">
         <v>607</v>
@@ -3844,10 +3844,10 @@
         <v>100</v>
       </c>
       <c r="B97" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C97">
-        <v>98.045</v>
+        <v>101.266</v>
       </c>
       <c r="D97" t="s">
         <v>607</v>
@@ -3864,7 +3864,7 @@
         <v>606</v>
       </c>
       <c r="C98">
-        <v>117.678</v>
+        <v>121.169</v>
       </c>
       <c r="D98" t="s">
         <v>607</v>
@@ -3881,7 +3881,7 @@
         <v>606</v>
       </c>
       <c r="C99">
-        <v>100.121</v>
+        <v>103.468</v>
       </c>
       <c r="D99" t="s">
         <v>607</v>
@@ -3895,10 +3895,10 @@
         <v>103</v>
       </c>
       <c r="B100" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C100">
-        <v>99.773</v>
+        <v>101.114</v>
       </c>
       <c r="D100" t="s">
         <v>607</v>
@@ -3915,7 +3915,7 @@
         <v>606</v>
       </c>
       <c r="C101">
-        <v>101.831</v>
+        <v>103.4</v>
       </c>
       <c r="D101" t="s">
         <v>607</v>
@@ -3932,7 +3932,7 @@
         <v>605</v>
       </c>
       <c r="C102">
-        <v>99.393</v>
+        <v>98.958</v>
       </c>
       <c r="D102" t="s">
         <v>607</v>
@@ -3949,7 +3949,7 @@
         <v>606</v>
       </c>
       <c r="C103">
-        <v>106.136</v>
+        <v>109.821</v>
       </c>
       <c r="D103" t="s">
         <v>607</v>
@@ -3966,7 +3966,7 @@
         <v>606</v>
       </c>
       <c r="C104">
-        <v>102.513</v>
+        <v>105.88</v>
       </c>
       <c r="D104" t="s">
         <v>607</v>
@@ -3983,7 +3983,7 @@
         <v>606</v>
       </c>
       <c r="C105">
-        <v>102.528</v>
+        <v>104.422</v>
       </c>
       <c r="D105" t="s">
         <v>607</v>
@@ -4000,7 +4000,7 @@
         <v>605</v>
       </c>
       <c r="C106">
-        <v>97.515</v>
+        <v>97.264</v>
       </c>
       <c r="D106" t="s">
         <v>607</v>
@@ -4017,7 +4017,7 @@
         <v>606</v>
       </c>
       <c r="C107">
-        <v>102.374</v>
+        <v>105.909</v>
       </c>
       <c r="D107" t="s">
         <v>607</v>
@@ -4034,7 +4034,7 @@
         <v>605</v>
       </c>
       <c r="C108">
-        <v>96.10899999999999</v>
+        <v>98.959</v>
       </c>
       <c r="D108" t="s">
         <v>607</v>
@@ -4051,7 +4051,7 @@
         <v>606</v>
       </c>
       <c r="C109">
-        <v>103.43</v>
+        <v>105.929</v>
       </c>
       <c r="D109" t="s">
         <v>607</v>
@@ -4068,7 +4068,7 @@
         <v>606</v>
       </c>
       <c r="C110">
-        <v>100.653</v>
+        <v>103.755</v>
       </c>
       <c r="D110" t="s">
         <v>607</v>
@@ -4085,7 +4085,7 @@
         <v>605</v>
       </c>
       <c r="C111">
-        <v>86.58</v>
+        <v>87.995</v>
       </c>
       <c r="D111" t="s">
         <v>607</v>
@@ -4099,10 +4099,10 @@
         <v>115</v>
       </c>
       <c r="B112" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C112">
-        <v>99.43600000000001</v>
+        <v>100.067</v>
       </c>
       <c r="D112" t="s">
         <v>607</v>
@@ -4119,7 +4119,7 @@
         <v>606</v>
       </c>
       <c r="C113">
-        <v>102.72</v>
+        <v>101.842</v>
       </c>
       <c r="D113" t="s">
         <v>607</v>
@@ -4136,7 +4136,7 @@
         <v>606</v>
       </c>
       <c r="C114">
-        <v>119.937</v>
+        <v>123.951</v>
       </c>
       <c r="D114" t="s">
         <v>607</v>
@@ -4153,7 +4153,7 @@
         <v>606</v>
       </c>
       <c r="C115">
-        <v>104.662</v>
+        <v>107.091</v>
       </c>
       <c r="D115" t="s">
         <v>607</v>
@@ -4170,7 +4170,7 @@
         <v>605</v>
       </c>
       <c r="C116">
-        <v>99.419</v>
+        <v>99.593</v>
       </c>
       <c r="D116" t="s">
         <v>607</v>
@@ -4187,7 +4187,7 @@
         <v>605</v>
       </c>
       <c r="C117">
-        <v>96.69799999999999</v>
+        <v>97.85899999999999</v>
       </c>
       <c r="D117" t="s">
         <v>607</v>
@@ -4204,7 +4204,7 @@
         <v>605</v>
       </c>
       <c r="C118">
-        <v>98.509</v>
+        <v>99.392</v>
       </c>
       <c r="D118" t="s">
         <v>607</v>
@@ -4221,7 +4221,7 @@
         <v>606</v>
       </c>
       <c r="C119">
-        <v>104.434</v>
+        <v>105.874</v>
       </c>
       <c r="D119" t="s">
         <v>607</v>
@@ -4235,10 +4235,10 @@
         <v>123</v>
       </c>
       <c r="B120" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C120">
-        <v>98.56100000000001</v>
+        <v>100.774</v>
       </c>
       <c r="D120" t="s">
         <v>607</v>
@@ -4255,7 +4255,7 @@
         <v>606</v>
       </c>
       <c r="C121">
-        <v>105.324</v>
+        <v>107.197</v>
       </c>
       <c r="D121" t="s">
         <v>607</v>
@@ -4272,7 +4272,7 @@
         <v>606</v>
       </c>
       <c r="C122">
-        <v>119.569</v>
+        <v>124.328</v>
       </c>
       <c r="D122" t="s">
         <v>607</v>
@@ -4289,7 +4289,7 @@
         <v>606</v>
       </c>
       <c r="C123">
-        <v>104.23</v>
+        <v>105.724</v>
       </c>
       <c r="D123" t="s">
         <v>607</v>
@@ -4306,7 +4306,7 @@
         <v>606</v>
       </c>
       <c r="C124">
-        <v>104.081</v>
+        <v>103.27</v>
       </c>
       <c r="D124" t="s">
         <v>607</v>
@@ -4323,7 +4323,7 @@
         <v>606</v>
       </c>
       <c r="C125">
-        <v>103.476</v>
+        <v>105.433</v>
       </c>
       <c r="D125" t="s">
         <v>607</v>
@@ -4340,7 +4340,7 @@
         <v>606</v>
       </c>
       <c r="C126">
-        <v>100.695</v>
+        <v>102.519</v>
       </c>
       <c r="D126" t="s">
         <v>607</v>
@@ -4354,10 +4354,10 @@
         <v>130</v>
       </c>
       <c r="B127" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C127">
-        <v>98.738</v>
+        <v>101.892</v>
       </c>
       <c r="D127" t="s">
         <v>607</v>
@@ -4371,10 +4371,10 @@
         <v>131</v>
       </c>
       <c r="B128" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C128">
-        <v>95.45399999999999</v>
+        <v>100.385</v>
       </c>
       <c r="D128" t="s">
         <v>607</v>
@@ -4391,7 +4391,7 @@
         <v>606</v>
       </c>
       <c r="C129">
-        <v>104.065</v>
+        <v>108.076</v>
       </c>
       <c r="D129" t="s">
         <v>607</v>
@@ -4408,7 +4408,7 @@
         <v>606</v>
       </c>
       <c r="C130">
-        <v>100.971</v>
+        <v>104.092</v>
       </c>
       <c r="D130" t="s">
         <v>607</v>
@@ -4425,7 +4425,7 @@
         <v>606</v>
       </c>
       <c r="C131">
-        <v>101.347</v>
+        <v>103.697</v>
       </c>
       <c r="D131" t="s">
         <v>607</v>
@@ -4442,7 +4442,7 @@
         <v>606</v>
       </c>
       <c r="C132">
-        <v>104.383</v>
+        <v>107.177</v>
       </c>
       <c r="D132" t="s">
         <v>607</v>
@@ -4459,7 +4459,7 @@
         <v>606</v>
       </c>
       <c r="C133">
-        <v>105.766</v>
+        <v>108.184</v>
       </c>
       <c r="D133" t="s">
         <v>607</v>
@@ -4476,7 +4476,7 @@
         <v>606</v>
       </c>
       <c r="C134">
-        <v>102.968</v>
+        <v>105.554</v>
       </c>
       <c r="D134" t="s">
         <v>607</v>
@@ -4493,7 +4493,7 @@
         <v>605</v>
       </c>
       <c r="C135">
-        <v>97.771</v>
+        <v>98.3</v>
       </c>
       <c r="D135" t="s">
         <v>607</v>
@@ -4510,7 +4510,7 @@
         <v>606</v>
       </c>
       <c r="C136">
-        <v>113.745</v>
+        <v>115.899</v>
       </c>
       <c r="D136" t="s">
         <v>607</v>
@@ -4527,7 +4527,7 @@
         <v>605</v>
       </c>
       <c r="C137">
-        <v>94.55</v>
+        <v>96.982</v>
       </c>
       <c r="D137" t="s">
         <v>607</v>
@@ -4544,7 +4544,7 @@
         <v>606</v>
       </c>
       <c r="C138">
-        <v>103.006</v>
+        <v>104.454</v>
       </c>
       <c r="D138" t="s">
         <v>607</v>
@@ -4561,7 +4561,7 @@
         <v>606</v>
       </c>
       <c r="C139">
-        <v>103.836</v>
+        <v>108.666</v>
       </c>
       <c r="D139" t="s">
         <v>607</v>
@@ -4578,7 +4578,7 @@
         <v>606</v>
       </c>
       <c r="C140">
-        <v>104.764</v>
+        <v>105.066</v>
       </c>
       <c r="D140" t="s">
         <v>607</v>
@@ -4595,7 +4595,7 @@
         <v>606</v>
       </c>
       <c r="C141">
-        <v>105.629</v>
+        <v>106.187</v>
       </c>
       <c r="D141" t="s">
         <v>607</v>
@@ -4612,7 +4612,7 @@
         <v>606</v>
       </c>
       <c r="C142">
-        <v>103.815</v>
+        <v>106.713</v>
       </c>
       <c r="D142" t="s">
         <v>607</v>
@@ -4629,7 +4629,7 @@
         <v>606</v>
       </c>
       <c r="C143">
-        <v>101.441</v>
+        <v>103.487</v>
       </c>
       <c r="D143" t="s">
         <v>607</v>
@@ -4646,7 +4646,7 @@
         <v>606</v>
       </c>
       <c r="C144">
-        <v>101.005</v>
+        <v>102.171</v>
       </c>
       <c r="D144" t="s">
         <v>607</v>
@@ -4663,7 +4663,7 @@
         <v>606</v>
       </c>
       <c r="C145">
-        <v>105.917</v>
+        <v>107.616</v>
       </c>
       <c r="D145" t="s">
         <v>607</v>
@@ -4680,7 +4680,7 @@
         <v>606</v>
       </c>
       <c r="C146">
-        <v>106.162</v>
+        <v>107.613</v>
       </c>
       <c r="D146" t="s">
         <v>607</v>
@@ -4697,7 +4697,7 @@
         <v>605</v>
       </c>
       <c r="C147">
-        <v>94.078</v>
+        <v>96.699</v>
       </c>
       <c r="D147" t="s">
         <v>607</v>
@@ -4714,7 +4714,7 @@
         <v>606</v>
       </c>
       <c r="C148">
-        <v>102.269</v>
+        <v>103.781</v>
       </c>
       <c r="D148" t="s">
         <v>607</v>
@@ -4731,7 +4731,7 @@
         <v>606</v>
       </c>
       <c r="C149">
-        <v>115.418</v>
+        <v>116.745</v>
       </c>
       <c r="D149" t="s">
         <v>607</v>
@@ -4748,7 +4748,7 @@
         <v>606</v>
       </c>
       <c r="C150">
-        <v>100.55</v>
+        <v>105.122</v>
       </c>
       <c r="D150" t="s">
         <v>607</v>
@@ -4765,7 +4765,7 @@
         <v>606</v>
       </c>
       <c r="C151">
-        <v>134.522</v>
+        <v>140.366</v>
       </c>
       <c r="D151" t="s">
         <v>607</v>
@@ -4782,7 +4782,7 @@
         <v>606</v>
       </c>
       <c r="C152">
-        <v>101.612</v>
+        <v>104.148</v>
       </c>
       <c r="D152" t="s">
         <v>607</v>
@@ -4799,7 +4799,7 @@
         <v>606</v>
       </c>
       <c r="C153">
-        <v>102.618</v>
+        <v>103.984</v>
       </c>
       <c r="D153" t="s">
         <v>607</v>
@@ -4816,7 +4816,7 @@
         <v>606</v>
       </c>
       <c r="C154">
-        <v>108.014</v>
+        <v>109.766</v>
       </c>
       <c r="D154" t="s">
         <v>607</v>
@@ -4833,7 +4833,7 @@
         <v>606</v>
       </c>
       <c r="C155">
-        <v>100.114</v>
+        <v>105.032</v>
       </c>
       <c r="D155" t="s">
         <v>607</v>
@@ -4850,7 +4850,7 @@
         <v>606</v>
       </c>
       <c r="C156">
-        <v>100.053</v>
+        <v>104.661</v>
       </c>
       <c r="D156" t="s">
         <v>607</v>
@@ -4867,7 +4867,7 @@
         <v>605</v>
       </c>
       <c r="C157">
-        <v>95.434</v>
+        <v>98.149</v>
       </c>
       <c r="D157" t="s">
         <v>607</v>
@@ -4884,7 +4884,7 @@
         <v>606</v>
       </c>
       <c r="C158">
-        <v>104.627</v>
+        <v>108.383</v>
       </c>
       <c r="D158" t="s">
         <v>607</v>
@@ -4901,7 +4901,7 @@
         <v>605</v>
       </c>
       <c r="C159">
-        <v>97.185</v>
+        <v>97.047</v>
       </c>
       <c r="D159" t="s">
         <v>607</v>
@@ -4918,7 +4918,7 @@
         <v>606</v>
       </c>
       <c r="C160">
-        <v>102.348</v>
+        <v>104.246</v>
       </c>
       <c r="D160" t="s">
         <v>607</v>
@@ -4935,7 +4935,7 @@
         <v>606</v>
       </c>
       <c r="C161">
-        <v>101.531</v>
+        <v>106.529</v>
       </c>
       <c r="D161" t="s">
         <v>607</v>
@@ -4952,7 +4952,7 @@
         <v>606</v>
       </c>
       <c r="C162">
-        <v>102.035</v>
+        <v>105.227</v>
       </c>
       <c r="D162" t="s">
         <v>607</v>
@@ -4969,7 +4969,7 @@
         <v>606</v>
       </c>
       <c r="C163">
-        <v>102.849</v>
+        <v>104.185</v>
       </c>
       <c r="D163" t="s">
         <v>607</v>
@@ -4986,7 +4986,7 @@
         <v>606</v>
       </c>
       <c r="C164">
-        <v>108.554</v>
+        <v>112.489</v>
       </c>
       <c r="D164" t="s">
         <v>607</v>
@@ -5003,7 +5003,7 @@
         <v>606</v>
       </c>
       <c r="C165">
-        <v>108.24</v>
+        <v>113.052</v>
       </c>
       <c r="D165" t="s">
         <v>607</v>
@@ -5017,10 +5017,10 @@
         <v>169</v>
       </c>
       <c r="B166" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C166">
-        <v>99.315</v>
+        <v>101.199</v>
       </c>
       <c r="D166" t="s">
         <v>607</v>
@@ -5037,7 +5037,7 @@
         <v>606</v>
       </c>
       <c r="C167">
-        <v>100.829</v>
+        <v>105.541</v>
       </c>
       <c r="D167" t="s">
         <v>607</v>
@@ -5054,7 +5054,7 @@
         <v>606</v>
       </c>
       <c r="C168">
-        <v>106.389</v>
+        <v>107.362</v>
       </c>
       <c r="D168" t="s">
         <v>607</v>
@@ -5071,7 +5071,7 @@
         <v>606</v>
       </c>
       <c r="C169">
-        <v>100.062</v>
+        <v>100.335</v>
       </c>
       <c r="D169" t="s">
         <v>607</v>
@@ -5088,7 +5088,7 @@
         <v>606</v>
       </c>
       <c r="C170">
-        <v>100.013</v>
+        <v>100.985</v>
       </c>
       <c r="D170" t="s">
         <v>607</v>
@@ -5105,7 +5105,7 @@
         <v>606</v>
       </c>
       <c r="C171">
-        <v>104.583</v>
+        <v>106.53</v>
       </c>
       <c r="D171" t="s">
         <v>607</v>
@@ -5122,7 +5122,7 @@
         <v>606</v>
       </c>
       <c r="C172">
-        <v>102.805</v>
+        <v>102.121</v>
       </c>
       <c r="D172" t="s">
         <v>607</v>
@@ -5139,7 +5139,7 @@
         <v>605</v>
       </c>
       <c r="C173">
-        <v>98.473</v>
+        <v>99.27</v>
       </c>
       <c r="D173" t="s">
         <v>607</v>
@@ -5156,7 +5156,7 @@
         <v>605</v>
       </c>
       <c r="C174">
-        <v>92.267</v>
+        <v>94.527</v>
       </c>
       <c r="D174" t="s">
         <v>607</v>
@@ -5173,7 +5173,7 @@
         <v>606</v>
       </c>
       <c r="C175">
-        <v>126.706</v>
+        <v>137.166</v>
       </c>
       <c r="D175" t="s">
         <v>607</v>
@@ -5190,7 +5190,7 @@
         <v>606</v>
       </c>
       <c r="C176">
-        <v>101.85</v>
+        <v>105.099</v>
       </c>
       <c r="D176" t="s">
         <v>607</v>
@@ -5207,7 +5207,7 @@
         <v>605</v>
       </c>
       <c r="C177">
-        <v>95.357</v>
+        <v>93.83799999999999</v>
       </c>
       <c r="D177" t="s">
         <v>607</v>
@@ -5224,7 +5224,7 @@
         <v>606</v>
       </c>
       <c r="C178">
-        <v>103.808</v>
+        <v>105.415</v>
       </c>
       <c r="D178" t="s">
         <v>607</v>
@@ -5241,7 +5241,7 @@
         <v>606</v>
       </c>
       <c r="C179">
-        <v>100.543</v>
+        <v>102.472</v>
       </c>
       <c r="D179" t="s">
         <v>607</v>
@@ -5255,10 +5255,10 @@
         <v>183</v>
       </c>
       <c r="B180" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C180">
-        <v>99.098</v>
+        <v>101.241</v>
       </c>
       <c r="D180" t="s">
         <v>607</v>
@@ -5272,10 +5272,10 @@
         <v>184</v>
       </c>
       <c r="B181" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C181">
-        <v>99.813</v>
+        <v>101.583</v>
       </c>
       <c r="D181" t="s">
         <v>607</v>
@@ -5292,7 +5292,7 @@
         <v>605</v>
       </c>
       <c r="C182">
-        <v>95.705</v>
+        <v>98.84999999999999</v>
       </c>
       <c r="D182" t="s">
         <v>607</v>
@@ -5309,7 +5309,7 @@
         <v>606</v>
       </c>
       <c r="C183">
-        <v>104.459</v>
+        <v>107.258</v>
       </c>
       <c r="D183" t="s">
         <v>607</v>
@@ -5323,10 +5323,10 @@
         <v>187</v>
       </c>
       <c r="B184" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C184">
-        <v>97.946</v>
+        <v>100.574</v>
       </c>
       <c r="D184" t="s">
         <v>607</v>
@@ -5343,7 +5343,7 @@
         <v>606</v>
       </c>
       <c r="C185">
-        <v>105.073</v>
+        <v>105.538</v>
       </c>
       <c r="D185" t="s">
         <v>607</v>
@@ -5360,7 +5360,7 @@
         <v>605</v>
       </c>
       <c r="C186">
-        <v>80.444</v>
+        <v>82.404</v>
       </c>
       <c r="D186" t="s">
         <v>607</v>
@@ -5377,7 +5377,7 @@
         <v>606</v>
       </c>
       <c r="C187">
-        <v>118.751</v>
+        <v>127.09</v>
       </c>
       <c r="D187" t="s">
         <v>607</v>
@@ -5394,7 +5394,7 @@
         <v>606</v>
       </c>
       <c r="C188">
-        <v>104.103</v>
+        <v>105.977</v>
       </c>
       <c r="D188" t="s">
         <v>607</v>
@@ -5408,10 +5408,10 @@
         <v>192</v>
       </c>
       <c r="B189" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C189">
-        <v>98.494</v>
+        <v>100.013</v>
       </c>
       <c r="D189" t="s">
         <v>607</v>
@@ -5428,7 +5428,7 @@
         <v>606</v>
       </c>
       <c r="C190">
-        <v>109.226</v>
+        <v>107.267</v>
       </c>
       <c r="D190" t="s">
         <v>607</v>
@@ -5445,7 +5445,7 @@
         <v>606</v>
       </c>
       <c r="C191">
-        <v>103.424</v>
+        <v>105.876</v>
       </c>
       <c r="D191" t="s">
         <v>607</v>
@@ -5462,7 +5462,7 @@
         <v>605</v>
       </c>
       <c r="C192">
-        <v>97.221</v>
+        <v>98.67700000000001</v>
       </c>
       <c r="D192" t="s">
         <v>607</v>
@@ -5479,7 +5479,7 @@
         <v>606</v>
       </c>
       <c r="C193">
-        <v>105.083</v>
+        <v>108.034</v>
       </c>
       <c r="D193" t="s">
         <v>607</v>
@@ -5496,7 +5496,7 @@
         <v>605</v>
       </c>
       <c r="C194">
-        <v>98.226</v>
+        <v>99.057</v>
       </c>
       <c r="D194" t="s">
         <v>607</v>
@@ -5513,7 +5513,7 @@
         <v>606</v>
       </c>
       <c r="C195">
-        <v>101.311</v>
+        <v>102.725</v>
       </c>
       <c r="D195" t="s">
         <v>607</v>
@@ -5530,7 +5530,7 @@
         <v>605</v>
       </c>
       <c r="C196">
-        <v>97.988</v>
+        <v>98.693</v>
       </c>
       <c r="D196" t="s">
         <v>607</v>
@@ -5547,7 +5547,7 @@
         <v>606</v>
       </c>
       <c r="C197">
-        <v>103.653</v>
+        <v>106.488</v>
       </c>
       <c r="D197" t="s">
         <v>607</v>
@@ -5564,7 +5564,7 @@
         <v>606</v>
       </c>
       <c r="C198">
-        <v>108.082</v>
+        <v>111.606</v>
       </c>
       <c r="D198" t="s">
         <v>607</v>
@@ -5581,7 +5581,7 @@
         <v>606</v>
       </c>
       <c r="C199">
-        <v>100.919</v>
+        <v>102.05</v>
       </c>
       <c r="D199" t="s">
         <v>607</v>
@@ -5598,7 +5598,7 @@
         <v>606</v>
       </c>
       <c r="C200">
-        <v>108.978</v>
+        <v>115.113</v>
       </c>
       <c r="D200" t="s">
         <v>607</v>
@@ -5615,7 +5615,7 @@
         <v>606</v>
       </c>
       <c r="C201">
-        <v>107.199</v>
+        <v>109.456</v>
       </c>
       <c r="D201" t="s">
         <v>607</v>
@@ -5632,7 +5632,7 @@
         <v>606</v>
       </c>
       <c r="C202">
-        <v>118.361</v>
+        <v>123.713</v>
       </c>
       <c r="D202" t="s">
         <v>607</v>
@@ -5649,7 +5649,7 @@
         <v>606</v>
       </c>
       <c r="C203">
-        <v>116.496</v>
+        <v>115.272</v>
       </c>
       <c r="D203" t="s">
         <v>607</v>
@@ -5663,10 +5663,10 @@
         <v>207</v>
       </c>
       <c r="B204" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C204">
-        <v>96.45999999999999</v>
+        <v>100.611</v>
       </c>
       <c r="D204" t="s">
         <v>607</v>
@@ -5683,7 +5683,7 @@
         <v>606</v>
       </c>
       <c r="C205">
-        <v>139.703</v>
+        <v>143.675</v>
       </c>
       <c r="D205" t="s">
         <v>607</v>
@@ -5700,7 +5700,7 @@
         <v>606</v>
       </c>
       <c r="C206">
-        <v>106.581</v>
+        <v>109.62</v>
       </c>
       <c r="D206" t="s">
         <v>607</v>
@@ -5717,7 +5717,7 @@
         <v>606</v>
       </c>
       <c r="C207">
-        <v>114.837</v>
+        <v>120.327</v>
       </c>
       <c r="D207" t="s">
         <v>607</v>
@@ -5734,7 +5734,7 @@
         <v>605</v>
       </c>
       <c r="C208">
-        <v>94.914</v>
+        <v>94.89700000000001</v>
       </c>
       <c r="D208" t="s">
         <v>607</v>
@@ -5751,7 +5751,7 @@
         <v>606</v>
       </c>
       <c r="C209">
-        <v>102.165</v>
+        <v>105.631</v>
       </c>
       <c r="D209" t="s">
         <v>607</v>
@@ -5768,7 +5768,7 @@
         <v>606</v>
       </c>
       <c r="C210">
-        <v>105.657</v>
+        <v>107.714</v>
       </c>
       <c r="D210" t="s">
         <v>607</v>
@@ -5785,7 +5785,7 @@
         <v>606</v>
       </c>
       <c r="C211">
-        <v>110.979</v>
+        <v>117.247</v>
       </c>
       <c r="D211" t="s">
         <v>607</v>
@@ -5799,10 +5799,10 @@
         <v>215</v>
       </c>
       <c r="B212" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C212">
-        <v>98.86499999999999</v>
+        <v>100.501</v>
       </c>
       <c r="D212" t="s">
         <v>607</v>
@@ -5816,10 +5816,10 @@
         <v>216</v>
       </c>
       <c r="B213" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C213">
-        <v>99.788</v>
+        <v>103.274</v>
       </c>
       <c r="D213" t="s">
         <v>607</v>
@@ -5836,7 +5836,7 @@
         <v>606</v>
       </c>
       <c r="C214">
-        <v>105.929</v>
+        <v>108.415</v>
       </c>
       <c r="D214" t="s">
         <v>607</v>
@@ -5853,7 +5853,7 @@
         <v>605</v>
       </c>
       <c r="C215">
-        <v>94.114</v>
+        <v>96.395</v>
       </c>
       <c r="D215" t="s">
         <v>607</v>
@@ -5870,7 +5870,7 @@
         <v>605</v>
       </c>
       <c r="C216">
-        <v>92.292</v>
+        <v>97.696</v>
       </c>
       <c r="D216" t="s">
         <v>607</v>
@@ -5887,7 +5887,7 @@
         <v>606</v>
       </c>
       <c r="C217">
-        <v>101.037</v>
+        <v>103.013</v>
       </c>
       <c r="D217" t="s">
         <v>607</v>
@@ -5904,7 +5904,7 @@
         <v>606</v>
       </c>
       <c r="C218">
-        <v>108.367</v>
+        <v>111.306</v>
       </c>
       <c r="D218" t="s">
         <v>607</v>
@@ -5921,7 +5921,7 @@
         <v>606</v>
       </c>
       <c r="C219">
-        <v>109.005</v>
+        <v>117.846</v>
       </c>
       <c r="D219" t="s">
         <v>607</v>
@@ -5935,10 +5935,10 @@
         <v>223</v>
       </c>
       <c r="B220" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C220">
-        <v>100.398</v>
+        <v>99.851</v>
       </c>
       <c r="D220" t="s">
         <v>607</v>
@@ -5955,7 +5955,7 @@
         <v>606</v>
       </c>
       <c r="C221">
-        <v>107.475</v>
+        <v>110.668</v>
       </c>
       <c r="D221" t="s">
         <v>607</v>
@@ -5972,7 +5972,7 @@
         <v>605</v>
       </c>
       <c r="C222">
-        <v>94.538</v>
+        <v>96.455</v>
       </c>
       <c r="D222" t="s">
         <v>607</v>
@@ -5989,7 +5989,7 @@
         <v>606</v>
       </c>
       <c r="C223">
-        <v>110.706</v>
+        <v>112.689</v>
       </c>
       <c r="D223" t="s">
         <v>607</v>
@@ -6006,7 +6006,7 @@
         <v>606</v>
       </c>
       <c r="C224">
-        <v>107.289</v>
+        <v>112.886</v>
       </c>
       <c r="D224" t="s">
         <v>607</v>
@@ -6023,7 +6023,7 @@
         <v>606</v>
       </c>
       <c r="C225">
-        <v>105.046</v>
+        <v>106.6</v>
       </c>
       <c r="D225" t="s">
         <v>607</v>
@@ -6040,7 +6040,7 @@
         <v>606</v>
       </c>
       <c r="C226">
-        <v>107.232</v>
+        <v>112.294</v>
       </c>
       <c r="D226" t="s">
         <v>607</v>
@@ -6054,10 +6054,10 @@
         <v>230</v>
       </c>
       <c r="B227" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C227">
-        <v>99.41800000000001</v>
+        <v>100.538</v>
       </c>
       <c r="D227" t="s">
         <v>607</v>
@@ -6074,7 +6074,7 @@
         <v>606</v>
       </c>
       <c r="C228">
-        <v>104.726</v>
+        <v>107.201</v>
       </c>
       <c r="D228" t="s">
         <v>607</v>
@@ -6091,7 +6091,7 @@
         <v>606</v>
       </c>
       <c r="C229">
-        <v>102.752</v>
+        <v>105.352</v>
       </c>
       <c r="D229" t="s">
         <v>607</v>
@@ -6105,10 +6105,10 @@
         <v>233</v>
       </c>
       <c r="B230" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C230">
-        <v>96.979</v>
+        <v>100.92</v>
       </c>
       <c r="D230" t="s">
         <v>607</v>
@@ -6125,7 +6125,7 @@
         <v>606</v>
       </c>
       <c r="C231">
-        <v>103.019</v>
+        <v>103.362</v>
       </c>
       <c r="D231" t="s">
         <v>607</v>
@@ -6142,7 +6142,7 @@
         <v>606</v>
       </c>
       <c r="C232">
-        <v>106.773</v>
+        <v>109.817</v>
       </c>
       <c r="D232" t="s">
         <v>607</v>
@@ -6159,7 +6159,7 @@
         <v>606</v>
       </c>
       <c r="C233">
-        <v>107.209</v>
+        <v>109.033</v>
       </c>
       <c r="D233" t="s">
         <v>607</v>
@@ -6176,7 +6176,7 @@
         <v>605</v>
       </c>
       <c r="C234">
-        <v>97.182</v>
+        <v>98.327</v>
       </c>
       <c r="D234" t="s">
         <v>607</v>
@@ -6193,7 +6193,7 @@
         <v>606</v>
       </c>
       <c r="C235">
-        <v>112.375</v>
+        <v>114.465</v>
       </c>
       <c r="D235" t="s">
         <v>607</v>
@@ -6210,7 +6210,7 @@
         <v>606</v>
       </c>
       <c r="C236">
-        <v>119.284</v>
+        <v>125.216</v>
       </c>
       <c r="D236" t="s">
         <v>607</v>
@@ -6227,7 +6227,7 @@
         <v>606</v>
       </c>
       <c r="C237">
-        <v>118.429</v>
+        <v>121.487</v>
       </c>
       <c r="D237" t="s">
         <v>607</v>
@@ -6244,7 +6244,7 @@
         <v>606</v>
       </c>
       <c r="C238">
-        <v>101.621</v>
+        <v>103.113</v>
       </c>
       <c r="D238" t="s">
         <v>607</v>
@@ -6261,7 +6261,7 @@
         <v>606</v>
       </c>
       <c r="C239">
-        <v>101.288</v>
+        <v>104.129</v>
       </c>
       <c r="D239" t="s">
         <v>607</v>
@@ -6278,7 +6278,7 @@
         <v>606</v>
       </c>
       <c r="C240">
-        <v>109.508</v>
+        <v>111.308</v>
       </c>
       <c r="D240" t="s">
         <v>607</v>
@@ -6295,7 +6295,7 @@
         <v>605</v>
       </c>
       <c r="C241">
-        <v>96.604</v>
+        <v>98.404</v>
       </c>
       <c r="D241" t="s">
         <v>607</v>
@@ -6312,7 +6312,7 @@
         <v>606</v>
       </c>
       <c r="C242">
-        <v>106.397</v>
+        <v>107.574</v>
       </c>
       <c r="D242" t="s">
         <v>607</v>
@@ -6346,7 +6346,7 @@
         <v>605</v>
       </c>
       <c r="C244">
-        <v>93.128</v>
+        <v>94.697</v>
       </c>
       <c r="D244" t="s">
         <v>607</v>
@@ -6363,7 +6363,7 @@
         <v>606</v>
       </c>
       <c r="C245">
-        <v>126.257</v>
+        <v>129.081</v>
       </c>
       <c r="D245" t="s">
         <v>607</v>
@@ -6380,7 +6380,7 @@
         <v>606</v>
       </c>
       <c r="C246">
-        <v>101.034</v>
+        <v>100.807</v>
       </c>
       <c r="D246" t="s">
         <v>607</v>
@@ -6397,7 +6397,7 @@
         <v>606</v>
       </c>
       <c r="C247">
-        <v>102.973</v>
+        <v>105.174</v>
       </c>
       <c r="D247" t="s">
         <v>607</v>
@@ -6414,7 +6414,7 @@
         <v>606</v>
       </c>
       <c r="C248">
-        <v>110.995</v>
+        <v>114.75</v>
       </c>
       <c r="D248" t="s">
         <v>607</v>
@@ -6431,7 +6431,7 @@
         <v>606</v>
       </c>
       <c r="C249">
-        <v>101.635</v>
+        <v>103.689</v>
       </c>
       <c r="D249" t="s">
         <v>607</v>
@@ -6448,7 +6448,7 @@
         <v>606</v>
       </c>
       <c r="C250">
-        <v>102.621</v>
+        <v>103.949</v>
       </c>
       <c r="D250" t="s">
         <v>607</v>
@@ -6465,7 +6465,7 @@
         <v>605</v>
       </c>
       <c r="C251">
-        <v>98.95099999999999</v>
+        <v>99.42100000000001</v>
       </c>
       <c r="D251" t="s">
         <v>607</v>
@@ -6482,7 +6482,7 @@
         <v>606</v>
       </c>
       <c r="C252">
-        <v>106.686</v>
+        <v>107.946</v>
       </c>
       <c r="D252" t="s">
         <v>607</v>
@@ -6499,7 +6499,7 @@
         <v>606</v>
       </c>
       <c r="C253">
-        <v>105.862</v>
+        <v>107.939</v>
       </c>
       <c r="D253" t="s">
         <v>607</v>
@@ -6516,7 +6516,7 @@
         <v>606</v>
       </c>
       <c r="C254">
-        <v>102.041</v>
+        <v>105.158</v>
       </c>
       <c r="D254" t="s">
         <v>607</v>
@@ -6533,7 +6533,7 @@
         <v>605</v>
       </c>
       <c r="C255">
-        <v>99.163</v>
+        <v>99.435</v>
       </c>
       <c r="D255" t="s">
         <v>607</v>
@@ -6550,7 +6550,7 @@
         <v>606</v>
       </c>
       <c r="C256">
-        <v>111.803</v>
+        <v>118.943</v>
       </c>
       <c r="D256" t="s">
         <v>607</v>
@@ -6567,7 +6567,7 @@
         <v>606</v>
       </c>
       <c r="C257">
-        <v>103.878</v>
+        <v>105.969</v>
       </c>
       <c r="D257" t="s">
         <v>607</v>
@@ -6584,7 +6584,7 @@
         <v>606</v>
       </c>
       <c r="C258">
-        <v>111.215</v>
+        <v>114.992</v>
       </c>
       <c r="D258" t="s">
         <v>607</v>
@@ -6601,7 +6601,7 @@
         <v>606</v>
       </c>
       <c r="C259">
-        <v>106.121</v>
+        <v>110.349</v>
       </c>
       <c r="D259" t="s">
         <v>607</v>
@@ -6618,7 +6618,7 @@
         <v>606</v>
       </c>
       <c r="C260">
-        <v>101.086</v>
+        <v>103.811</v>
       </c>
       <c r="D260" t="s">
         <v>607</v>
@@ -6632,10 +6632,10 @@
         <v>264</v>
       </c>
       <c r="B261" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C261">
-        <v>97.252</v>
+        <v>106.085</v>
       </c>
       <c r="D261" t="s">
         <v>607</v>
@@ -6652,7 +6652,7 @@
         <v>606</v>
       </c>
       <c r="C262">
-        <v>107.781</v>
+        <v>110.54</v>
       </c>
       <c r="D262" t="s">
         <v>607</v>
@@ -6666,10 +6666,10 @@
         <v>266</v>
       </c>
       <c r="B263" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C263">
-        <v>91.81999999999999</v>
+        <v>100.669</v>
       </c>
       <c r="D263" t="s">
         <v>607</v>
@@ -6686,7 +6686,7 @@
         <v>606</v>
       </c>
       <c r="C264">
-        <v>108.878</v>
+        <v>111.52</v>
       </c>
       <c r="D264" t="s">
         <v>607</v>
@@ -6703,7 +6703,7 @@
         <v>606</v>
       </c>
       <c r="C265">
-        <v>104.885</v>
+        <v>107.311</v>
       </c>
       <c r="D265" t="s">
         <v>607</v>
@@ -6720,7 +6720,7 @@
         <v>606</v>
       </c>
       <c r="C266">
-        <v>112.81</v>
+        <v>118.041</v>
       </c>
       <c r="D266" t="s">
         <v>607</v>
@@ -6737,7 +6737,7 @@
         <v>606</v>
       </c>
       <c r="C267">
-        <v>109.234</v>
+        <v>115.159</v>
       </c>
       <c r="D267" t="s">
         <v>607</v>
@@ -6754,7 +6754,7 @@
         <v>605</v>
       </c>
       <c r="C268">
-        <v>95.20699999999999</v>
+        <v>98.964</v>
       </c>
       <c r="D268" t="s">
         <v>607</v>
@@ -6771,7 +6771,7 @@
         <v>606</v>
       </c>
       <c r="C269">
-        <v>100.701</v>
+        <v>103.806</v>
       </c>
       <c r="D269" t="s">
         <v>607</v>
@@ -6788,7 +6788,7 @@
         <v>606</v>
       </c>
       <c r="C270">
-        <v>107.225</v>
+        <v>105.169</v>
       </c>
       <c r="D270" t="s">
         <v>607</v>
@@ -6805,7 +6805,7 @@
         <v>605</v>
       </c>
       <c r="C271">
-        <v>98.631</v>
+        <v>99.065</v>
       </c>
       <c r="D271" t="s">
         <v>607</v>
@@ -6819,10 +6819,10 @@
         <v>275</v>
       </c>
       <c r="B272" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C272">
-        <v>96.84399999999999</v>
+        <v>101.039</v>
       </c>
       <c r="D272" t="s">
         <v>607</v>
@@ -6839,7 +6839,7 @@
         <v>606</v>
       </c>
       <c r="C273">
-        <v>107.279</v>
+        <v>111.095</v>
       </c>
       <c r="D273" t="s">
         <v>607</v>
@@ -6853,10 +6853,10 @@
         <v>277</v>
       </c>
       <c r="B274" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C274">
-        <v>99.16200000000001</v>
+        <v>100.519</v>
       </c>
       <c r="D274" t="s">
         <v>607</v>
@@ -6873,7 +6873,7 @@
         <v>606</v>
       </c>
       <c r="C275">
-        <v>101.632</v>
+        <v>107.847</v>
       </c>
       <c r="D275" t="s">
         <v>607</v>
@@ -6890,7 +6890,7 @@
         <v>606</v>
       </c>
       <c r="C276">
-        <v>109.206</v>
+        <v>114.525</v>
       </c>
       <c r="D276" t="s">
         <v>607</v>
@@ -6907,7 +6907,7 @@
         <v>606</v>
       </c>
       <c r="C277">
-        <v>111.43</v>
+        <v>115.064</v>
       </c>
       <c r="D277" t="s">
         <v>607</v>
@@ -6924,7 +6924,7 @@
         <v>605</v>
       </c>
       <c r="C278">
-        <v>97.626</v>
+        <v>99.321</v>
       </c>
       <c r="D278" t="s">
         <v>607</v>
@@ -6941,7 +6941,7 @@
         <v>606</v>
       </c>
       <c r="C279">
-        <v>101.571</v>
+        <v>103.895</v>
       </c>
       <c r="D279" t="s">
         <v>607</v>
@@ -6958,7 +6958,7 @@
         <v>606</v>
       </c>
       <c r="C280">
-        <v>114.328</v>
+        <v>121.963</v>
       </c>
       <c r="D280" t="s">
         <v>607</v>
@@ -6975,7 +6975,7 @@
         <v>606</v>
       </c>
       <c r="C281">
-        <v>101.643</v>
+        <v>106.104</v>
       </c>
       <c r="D281" t="s">
         <v>607</v>
@@ -6992,7 +6992,7 @@
         <v>606</v>
       </c>
       <c r="C282">
-        <v>102.946</v>
+        <v>104.998</v>
       </c>
       <c r="D282" t="s">
         <v>607</v>
@@ -7009,7 +7009,7 @@
         <v>606</v>
       </c>
       <c r="C283">
-        <v>105.632</v>
+        <v>105.485</v>
       </c>
       <c r="D283" t="s">
         <v>607</v>
@@ -7026,7 +7026,7 @@
         <v>606</v>
       </c>
       <c r="C284">
-        <v>104.987</v>
+        <v>105.883</v>
       </c>
       <c r="D284" t="s">
         <v>607</v>
@@ -7043,7 +7043,7 @@
         <v>605</v>
       </c>
       <c r="C285">
-        <v>91.20099999999999</v>
+        <v>94.85899999999999</v>
       </c>
       <c r="D285" t="s">
         <v>607</v>
@@ -7060,7 +7060,7 @@
         <v>606</v>
       </c>
       <c r="C286">
-        <v>109.623</v>
+        <v>114.147</v>
       </c>
       <c r="D286" t="s">
         <v>607</v>
@@ -7077,7 +7077,7 @@
         <v>605</v>
       </c>
       <c r="C287">
-        <v>93.80200000000001</v>
+        <v>97.191</v>
       </c>
       <c r="D287" t="s">
         <v>607</v>
@@ -7094,7 +7094,7 @@
         <v>605</v>
       </c>
       <c r="C288">
-        <v>96.73699999999999</v>
+        <v>98.23</v>
       </c>
       <c r="D288" t="s">
         <v>607</v>
@@ -7111,7 +7111,7 @@
         <v>606</v>
       </c>
       <c r="C289">
-        <v>100.288</v>
+        <v>103.104</v>
       </c>
       <c r="D289" t="s">
         <v>607</v>
@@ -7128,7 +7128,7 @@
         <v>606</v>
       </c>
       <c r="C290">
-        <v>102.946</v>
+        <v>104.21</v>
       </c>
       <c r="D290" t="s">
         <v>607</v>
@@ -7145,7 +7145,7 @@
         <v>606</v>
       </c>
       <c r="C291">
-        <v>110.911</v>
+        <v>114.964</v>
       </c>
       <c r="D291" t="s">
         <v>607</v>
@@ -7162,7 +7162,7 @@
         <v>606</v>
       </c>
       <c r="C292">
-        <v>100.056</v>
+        <v>102.002</v>
       </c>
       <c r="D292" t="s">
         <v>607</v>
@@ -7176,10 +7176,10 @@
         <v>296</v>
       </c>
       <c r="B293" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C293">
-        <v>97.01300000000001</v>
+        <v>101.06</v>
       </c>
       <c r="D293" t="s">
         <v>607</v>
@@ -7196,7 +7196,7 @@
         <v>606</v>
       </c>
       <c r="C294">
-        <v>114.833</v>
+        <v>118.115</v>
       </c>
       <c r="D294" t="s">
         <v>607</v>
@@ -7213,7 +7213,7 @@
         <v>606</v>
       </c>
       <c r="C295">
-        <v>107.245</v>
+        <v>109.081</v>
       </c>
       <c r="D295" t="s">
         <v>607</v>
@@ -7227,10 +7227,10 @@
         <v>299</v>
       </c>
       <c r="B296" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C296">
-        <v>98.786</v>
+        <v>101.818</v>
       </c>
       <c r="D296" t="s">
         <v>607</v>
@@ -7247,7 +7247,7 @@
         <v>605</v>
       </c>
       <c r="C297">
-        <v>99.456</v>
+        <v>99.751</v>
       </c>
       <c r="D297" t="s">
         <v>607</v>
@@ -7264,7 +7264,7 @@
         <v>606</v>
       </c>
       <c r="C298">
-        <v>104.613</v>
+        <v>108.055</v>
       </c>
       <c r="D298" t="s">
         <v>607</v>
@@ -7281,7 +7281,7 @@
         <v>606</v>
       </c>
       <c r="C299">
-        <v>103.351</v>
+        <v>107.81</v>
       </c>
       <c r="D299" t="s">
         <v>607</v>
@@ -7298,7 +7298,7 @@
         <v>606</v>
       </c>
       <c r="C300">
-        <v>104.331</v>
+        <v>105.273</v>
       </c>
       <c r="D300" t="s">
         <v>607</v>
@@ -7315,7 +7315,7 @@
         <v>606</v>
       </c>
       <c r="C301">
-        <v>106.134</v>
+        <v>108.021</v>
       </c>
       <c r="D301" t="s">
         <v>607</v>
@@ -7332,7 +7332,7 @@
         <v>606</v>
       </c>
       <c r="C302">
-        <v>102.228</v>
+        <v>105.89</v>
       </c>
       <c r="D302" t="s">
         <v>607</v>
@@ -7349,7 +7349,7 @@
         <v>606</v>
       </c>
       <c r="C303">
-        <v>101.584</v>
+        <v>104.189</v>
       </c>
       <c r="D303" t="s">
         <v>607</v>
@@ -7366,7 +7366,7 @@
         <v>606</v>
       </c>
       <c r="C304">
-        <v>120.894</v>
+        <v>131.498</v>
       </c>
       <c r="D304" t="s">
         <v>607</v>
@@ -7383,7 +7383,7 @@
         <v>606</v>
       </c>
       <c r="C305">
-        <v>104.217</v>
+        <v>106.761</v>
       </c>
       <c r="D305" t="s">
         <v>607</v>
@@ -7400,7 +7400,7 @@
         <v>605</v>
       </c>
       <c r="C306">
-        <v>92.25700000000001</v>
+        <v>94.536</v>
       </c>
       <c r="D306" t="s">
         <v>607</v>
@@ -7417,7 +7417,7 @@
         <v>606</v>
       </c>
       <c r="C307">
-        <v>110.483</v>
+        <v>110.789</v>
       </c>
       <c r="D307" t="s">
         <v>607</v>
@@ -7434,7 +7434,7 @@
         <v>606</v>
       </c>
       <c r="C308">
-        <v>131.179</v>
+        <v>139.189</v>
       </c>
       <c r="D308" t="s">
         <v>607</v>
@@ -7451,7 +7451,7 @@
         <v>606</v>
       </c>
       <c r="C309">
-        <v>106.106</v>
+        <v>109.083</v>
       </c>
       <c r="D309" t="s">
         <v>607</v>
@@ -7468,7 +7468,7 @@
         <v>605</v>
       </c>
       <c r="C310">
-        <v>95.163</v>
+        <v>96.54900000000001</v>
       </c>
       <c r="D310" t="s">
         <v>607</v>
@@ -7485,7 +7485,7 @@
         <v>606</v>
       </c>
       <c r="C311">
-        <v>106.78</v>
+        <v>109.078</v>
       </c>
       <c r="D311" t="s">
         <v>607</v>
@@ -7502,7 +7502,7 @@
         <v>606</v>
       </c>
       <c r="C312">
-        <v>103.551</v>
+        <v>103.752</v>
       </c>
       <c r="D312" t="s">
         <v>607</v>
@@ -7519,7 +7519,7 @@
         <v>606</v>
       </c>
       <c r="C313">
-        <v>104.685</v>
+        <v>106.148</v>
       </c>
       <c r="D313" t="s">
         <v>607</v>
@@ -7536,7 +7536,7 @@
         <v>606</v>
       </c>
       <c r="C314">
-        <v>102.102</v>
+        <v>103.85</v>
       </c>
       <c r="D314" t="s">
         <v>607</v>
@@ -7553,7 +7553,7 @@
         <v>606</v>
       </c>
       <c r="C315">
-        <v>115.127</v>
+        <v>116.906</v>
       </c>
       <c r="D315" t="s">
         <v>607</v>
@@ -7570,7 +7570,7 @@
         <v>606</v>
       </c>
       <c r="C316">
-        <v>111.928</v>
+        <v>115.529</v>
       </c>
       <c r="D316" t="s">
         <v>607</v>
@@ -7587,7 +7587,7 @@
         <v>606</v>
       </c>
       <c r="C317">
-        <v>104.564</v>
+        <v>105.963</v>
       </c>
       <c r="D317" t="s">
         <v>607</v>
@@ -7604,7 +7604,7 @@
         <v>606</v>
       </c>
       <c r="C318">
-        <v>111.597</v>
+        <v>114.171</v>
       </c>
       <c r="D318" t="s">
         <v>607</v>
@@ -7621,7 +7621,7 @@
         <v>606</v>
       </c>
       <c r="C319">
-        <v>106.703</v>
+        <v>109.775</v>
       </c>
       <c r="D319" t="s">
         <v>607</v>
@@ -7638,7 +7638,7 @@
         <v>606</v>
       </c>
       <c r="C320">
-        <v>100.428</v>
+        <v>103.533</v>
       </c>
       <c r="D320" t="s">
         <v>607</v>
@@ -7655,7 +7655,7 @@
         <v>606</v>
       </c>
       <c r="C321">
-        <v>112.639</v>
+        <v>114.236</v>
       </c>
       <c r="D321" t="s">
         <v>607</v>
@@ -7672,7 +7672,7 @@
         <v>606</v>
       </c>
       <c r="C322">
-        <v>106.498</v>
+        <v>112.126</v>
       </c>
       <c r="D322" t="s">
         <v>607</v>
@@ -7689,7 +7689,7 @@
         <v>606</v>
       </c>
       <c r="C323">
-        <v>101.032</v>
+        <v>102.406</v>
       </c>
       <c r="D323" t="s">
         <v>607</v>
@@ -7706,7 +7706,7 @@
         <v>605</v>
       </c>
       <c r="C324">
-        <v>97.691</v>
+        <v>98.166</v>
       </c>
       <c r="D324" t="s">
         <v>607</v>
@@ -7723,7 +7723,7 @@
         <v>606</v>
       </c>
       <c r="C325">
-        <v>109.525</v>
+        <v>111.432</v>
       </c>
       <c r="D325" t="s">
         <v>607</v>
@@ -7740,7 +7740,7 @@
         <v>606</v>
       </c>
       <c r="C326">
-        <v>101.295</v>
+        <v>102.92</v>
       </c>
       <c r="D326" t="s">
         <v>607</v>
@@ -7757,7 +7757,7 @@
         <v>606</v>
       </c>
       <c r="C327">
-        <v>103.473</v>
+        <v>106.093</v>
       </c>
       <c r="D327" t="s">
         <v>607</v>
@@ -7774,7 +7774,7 @@
         <v>606</v>
       </c>
       <c r="C328">
-        <v>101.206</v>
+        <v>102.455</v>
       </c>
       <c r="D328" t="s">
         <v>607</v>
@@ -7788,10 +7788,10 @@
         <v>332</v>
       </c>
       <c r="B329" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C329">
-        <v>98.867</v>
+        <v>105.182</v>
       </c>
       <c r="D329" t="s">
         <v>607</v>
@@ -7808,7 +7808,7 @@
         <v>606</v>
       </c>
       <c r="C330">
-        <v>100.452</v>
+        <v>105.876</v>
       </c>
       <c r="D330" t="s">
         <v>607</v>
@@ -7825,7 +7825,7 @@
         <v>606</v>
       </c>
       <c r="C331">
-        <v>106.327</v>
+        <v>111.81</v>
       </c>
       <c r="D331" t="s">
         <v>607</v>
@@ -7839,10 +7839,10 @@
         <v>335</v>
       </c>
       <c r="B332" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C332">
-        <v>99.426</v>
+        <v>103.562</v>
       </c>
       <c r="D332" t="s">
         <v>607</v>
@@ -7859,7 +7859,7 @@
         <v>606</v>
       </c>
       <c r="C333">
-        <v>102.555</v>
+        <v>107.587</v>
       </c>
       <c r="D333" t="s">
         <v>607</v>
@@ -7873,10 +7873,10 @@
         <v>337</v>
       </c>
       <c r="B334" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C334">
-        <v>99.914</v>
+        <v>101.314</v>
       </c>
       <c r="D334" t="s">
         <v>607</v>
@@ -7893,7 +7893,7 @@
         <v>606</v>
       </c>
       <c r="C335">
-        <v>112.847</v>
+        <v>120.669</v>
       </c>
       <c r="D335" t="s">
         <v>607</v>
@@ -7907,10 +7907,10 @@
         <v>339</v>
       </c>
       <c r="B336" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C336">
-        <v>96.395</v>
+        <v>104.979</v>
       </c>
       <c r="D336" t="s">
         <v>607</v>
@@ -7927,7 +7927,7 @@
         <v>606</v>
       </c>
       <c r="C337">
-        <v>104.816</v>
+        <v>110.533</v>
       </c>
       <c r="D337" t="s">
         <v>607</v>
@@ -7944,7 +7944,7 @@
         <v>606</v>
       </c>
       <c r="C338">
-        <v>126.738</v>
+        <v>133.08</v>
       </c>
       <c r="D338" t="s">
         <v>607</v>
@@ -7961,7 +7961,7 @@
         <v>606</v>
       </c>
       <c r="C339">
-        <v>103.534</v>
+        <v>103.447</v>
       </c>
       <c r="D339" t="s">
         <v>607</v>
@@ -7978,7 +7978,7 @@
         <v>606</v>
       </c>
       <c r="C340">
-        <v>105.721</v>
+        <v>108.047</v>
       </c>
       <c r="D340" t="s">
         <v>607</v>
@@ -7995,7 +7995,7 @@
         <v>606</v>
       </c>
       <c r="C341">
-        <v>121.053</v>
+        <v>121.135</v>
       </c>
       <c r="D341" t="s">
         <v>607</v>
@@ -8012,7 +8012,7 @@
         <v>606</v>
       </c>
       <c r="C342">
-        <v>102.16</v>
+        <v>104.123</v>
       </c>
       <c r="D342" t="s">
         <v>607</v>
@@ -8029,7 +8029,7 @@
         <v>606</v>
       </c>
       <c r="C343">
-        <v>109.265</v>
+        <v>109.189</v>
       </c>
       <c r="D343" t="s">
         <v>607</v>
@@ -8043,10 +8043,10 @@
         <v>347</v>
       </c>
       <c r="B344" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C344">
-        <v>99.339</v>
+        <v>102.933</v>
       </c>
       <c r="D344" t="s">
         <v>607</v>
@@ -8063,7 +8063,7 @@
         <v>606</v>
       </c>
       <c r="C345">
-        <v>108.456</v>
+        <v>110.944</v>
       </c>
       <c r="D345" t="s">
         <v>607</v>
@@ -8080,7 +8080,7 @@
         <v>605</v>
       </c>
       <c r="C346">
-        <v>98.55200000000001</v>
+        <v>99.114</v>
       </c>
       <c r="D346" t="s">
         <v>607</v>
@@ -8097,7 +8097,7 @@
         <v>606</v>
       </c>
       <c r="C347">
-        <v>101.237</v>
+        <v>102.879</v>
       </c>
       <c r="D347" t="s">
         <v>607</v>
@@ -8114,7 +8114,7 @@
         <v>606</v>
       </c>
       <c r="C348">
-        <v>101.519</v>
+        <v>101.349</v>
       </c>
       <c r="D348" t="s">
         <v>607</v>
@@ -8131,7 +8131,7 @@
         <v>606</v>
       </c>
       <c r="C349">
-        <v>108.247</v>
+        <v>111.835</v>
       </c>
       <c r="D349" t="s">
         <v>607</v>
@@ -8148,7 +8148,7 @@
         <v>606</v>
       </c>
       <c r="C350">
-        <v>104.04</v>
+        <v>106.881</v>
       </c>
       <c r="D350" t="s">
         <v>607</v>
@@ -8165,7 +8165,7 @@
         <v>606</v>
       </c>
       <c r="C351">
-        <v>132.829</v>
+        <v>141.557</v>
       </c>
       <c r="D351" t="s">
         <v>607</v>
@@ -8182,7 +8182,7 @@
         <v>606</v>
       </c>
       <c r="C352">
-        <v>103.97</v>
+        <v>103.711</v>
       </c>
       <c r="D352" t="s">
         <v>607</v>
@@ -8199,7 +8199,7 @@
         <v>606</v>
       </c>
       <c r="C353">
-        <v>101.435</v>
+        <v>102.606</v>
       </c>
       <c r="D353" t="s">
         <v>607</v>
@@ -8216,7 +8216,7 @@
         <v>606</v>
       </c>
       <c r="C354">
-        <v>100.754</v>
+        <v>102.606</v>
       </c>
       <c r="D354" t="s">
         <v>607</v>
@@ -8233,7 +8233,7 @@
         <v>606</v>
       </c>
       <c r="C355">
-        <v>104.927</v>
+        <v>108.258</v>
       </c>
       <c r="D355" t="s">
         <v>607</v>
@@ -8250,7 +8250,7 @@
         <v>606</v>
       </c>
       <c r="C356">
-        <v>104.19</v>
+        <v>104.562</v>
       </c>
       <c r="D356" t="s">
         <v>607</v>
@@ -8267,7 +8267,7 @@
         <v>606</v>
       </c>
       <c r="C357">
-        <v>101.523</v>
+        <v>105.89</v>
       </c>
       <c r="D357" t="s">
         <v>607</v>
@@ -8284,7 +8284,7 @@
         <v>606</v>
       </c>
       <c r="C358">
-        <v>101.83</v>
+        <v>103.357</v>
       </c>
       <c r="D358" t="s">
         <v>607</v>
@@ -8301,7 +8301,7 @@
         <v>606</v>
       </c>
       <c r="C359">
-        <v>117.314</v>
+        <v>122.91</v>
       </c>
       <c r="D359" t="s">
         <v>607</v>
@@ -8318,7 +8318,7 @@
         <v>605</v>
       </c>
       <c r="C360">
-        <v>88.124</v>
+        <v>91.349</v>
       </c>
       <c r="D360" t="s">
         <v>607</v>
@@ -8335,7 +8335,7 @@
         <v>606</v>
       </c>
       <c r="C361">
-        <v>107.702</v>
+        <v>111.554</v>
       </c>
       <c r="D361" t="s">
         <v>607</v>
@@ -8352,7 +8352,7 @@
         <v>605</v>
       </c>
       <c r="C362">
-        <v>95.196</v>
+        <v>98.898</v>
       </c>
       <c r="D362" t="s">
         <v>607</v>
@@ -8369,7 +8369,7 @@
         <v>605</v>
       </c>
       <c r="C363">
-        <v>96.46599999999999</v>
+        <v>98.7</v>
       </c>
       <c r="D363" t="s">
         <v>607</v>
@@ -8403,7 +8403,7 @@
         <v>606</v>
       </c>
       <c r="C365">
-        <v>102.219</v>
+        <v>105.9</v>
       </c>
       <c r="D365" t="s">
         <v>607</v>
@@ -8420,7 +8420,7 @@
         <v>606</v>
       </c>
       <c r="C366">
-        <v>121.391</v>
+        <v>129.125</v>
       </c>
       <c r="D366" t="s">
         <v>607</v>
@@ -8437,7 +8437,7 @@
         <v>606</v>
       </c>
       <c r="C367">
-        <v>102.169</v>
+        <v>104.895</v>
       </c>
       <c r="D367" t="s">
         <v>607</v>
@@ -8454,7 +8454,7 @@
         <v>606</v>
       </c>
       <c r="C368">
-        <v>112.079</v>
+        <v>114.146</v>
       </c>
       <c r="D368" t="s">
         <v>607</v>
@@ -8471,7 +8471,7 @@
         <v>606</v>
       </c>
       <c r="C369">
-        <v>100.669</v>
+        <v>102.907</v>
       </c>
       <c r="D369" t="s">
         <v>607</v>
@@ -8488,7 +8488,7 @@
         <v>606</v>
       </c>
       <c r="C370">
-        <v>106.908</v>
+        <v>110.839</v>
       </c>
       <c r="D370" t="s">
         <v>607</v>
@@ -8505,7 +8505,7 @@
         <v>605</v>
       </c>
       <c r="C371">
-        <v>78.18899999999999</v>
+        <v>80.767</v>
       </c>
       <c r="D371" t="s">
         <v>607</v>
@@ -8522,7 +8522,7 @@
         <v>606</v>
       </c>
       <c r="C372">
-        <v>105.842</v>
+        <v>106.492</v>
       </c>
       <c r="D372" t="s">
         <v>607</v>
@@ -8539,7 +8539,7 @@
         <v>606</v>
       </c>
       <c r="C373">
-        <v>101.052</v>
+        <v>103.125</v>
       </c>
       <c r="D373" t="s">
         <v>607</v>
@@ -8556,7 +8556,7 @@
         <v>606</v>
       </c>
       <c r="C374">
-        <v>111.235</v>
+        <v>113.306</v>
       </c>
       <c r="D374" t="s">
         <v>607</v>
@@ -8573,7 +8573,7 @@
         <v>606</v>
       </c>
       <c r="C375">
-        <v>111.559</v>
+        <v>114.669</v>
       </c>
       <c r="D375" t="s">
         <v>607</v>
@@ -8590,7 +8590,7 @@
         <v>606</v>
       </c>
       <c r="C376">
-        <v>107.16</v>
+        <v>110.749</v>
       </c>
       <c r="D376" t="s">
         <v>607</v>
@@ -8607,7 +8607,7 @@
         <v>606</v>
       </c>
       <c r="C377">
-        <v>105.791</v>
+        <v>106.045</v>
       </c>
       <c r="D377" t="s">
         <v>607</v>
@@ -8624,7 +8624,7 @@
         <v>606</v>
       </c>
       <c r="C378">
-        <v>107.234</v>
+        <v>109.293</v>
       </c>
       <c r="D378" t="s">
         <v>607</v>
@@ -8641,7 +8641,7 @@
         <v>606</v>
       </c>
       <c r="C379">
-        <v>110.55</v>
+        <v>117.463</v>
       </c>
       <c r="D379" t="s">
         <v>607</v>
@@ -8658,7 +8658,7 @@
         <v>606</v>
       </c>
       <c r="C380">
-        <v>114.339</v>
+        <v>121.197</v>
       </c>
       <c r="D380" t="s">
         <v>607</v>
@@ -8675,7 +8675,7 @@
         <v>606</v>
       </c>
       <c r="C381">
-        <v>101.324</v>
+        <v>105.11</v>
       </c>
       <c r="D381" t="s">
         <v>607</v>
@@ -8692,7 +8692,7 @@
         <v>606</v>
       </c>
       <c r="C382">
-        <v>108.096</v>
+        <v>109.046</v>
       </c>
       <c r="D382" t="s">
         <v>607</v>
@@ -8709,7 +8709,7 @@
         <v>606</v>
       </c>
       <c r="C383">
-        <v>118.562</v>
+        <v>124.119</v>
       </c>
       <c r="D383" t="s">
         <v>607</v>
@@ -8726,7 +8726,7 @@
         <v>606</v>
       </c>
       <c r="C384">
-        <v>113.735</v>
+        <v>117.492</v>
       </c>
       <c r="D384" t="s">
         <v>607</v>
@@ -8743,7 +8743,7 @@
         <v>606</v>
       </c>
       <c r="C385">
-        <v>102.162</v>
+        <v>104.021</v>
       </c>
       <c r="D385" t="s">
         <v>607</v>
@@ -8760,7 +8760,7 @@
         <v>606</v>
       </c>
       <c r="C386">
-        <v>106.028</v>
+        <v>109.021</v>
       </c>
       <c r="D386" t="s">
         <v>607</v>
@@ -8777,7 +8777,7 @@
         <v>606</v>
       </c>
       <c r="C387">
-        <v>109.364</v>
+        <v>114.363</v>
       </c>
       <c r="D387" t="s">
         <v>607</v>
@@ -8794,7 +8794,7 @@
         <v>606</v>
       </c>
       <c r="C388">
-        <v>106.56</v>
+        <v>108.55</v>
       </c>
       <c r="D388" t="s">
         <v>607</v>
@@ -8811,7 +8811,7 @@
         <v>606</v>
       </c>
       <c r="C389">
-        <v>112.205</v>
+        <v>116.575</v>
       </c>
       <c r="D389" t="s">
         <v>607</v>
@@ -8828,7 +8828,7 @@
         <v>606</v>
       </c>
       <c r="C390">
-        <v>101.656</v>
+        <v>100.622</v>
       </c>
       <c r="D390" t="s">
         <v>607</v>
@@ -8845,7 +8845,7 @@
         <v>606</v>
       </c>
       <c r="C391">
-        <v>103.411</v>
+        <v>106.264</v>
       </c>
       <c r="D391" t="s">
         <v>607</v>
@@ -8862,7 +8862,7 @@
         <v>606</v>
       </c>
       <c r="C392">
-        <v>106.414</v>
+        <v>113.442</v>
       </c>
       <c r="D392" t="s">
         <v>607</v>
@@ -8879,7 +8879,7 @@
         <v>605</v>
       </c>
       <c r="C393">
-        <v>94.744</v>
+        <v>98.678</v>
       </c>
       <c r="D393" t="s">
         <v>607</v>
@@ -8896,7 +8896,7 @@
         <v>606</v>
       </c>
       <c r="C394">
-        <v>101.365</v>
+        <v>104.533</v>
       </c>
       <c r="D394" t="s">
         <v>607</v>
@@ -8913,7 +8913,7 @@
         <v>606</v>
       </c>
       <c r="C395">
-        <v>106.956</v>
+        <v>109.297</v>
       </c>
       <c r="D395" t="s">
         <v>607</v>
@@ -8927,10 +8927,10 @@
         <v>399</v>
       </c>
       <c r="B396" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C396">
-        <v>99.533</v>
+        <v>100.193</v>
       </c>
       <c r="D396" t="s">
         <v>607</v>
@@ -8947,7 +8947,7 @@
         <v>606</v>
       </c>
       <c r="C397">
-        <v>126.711</v>
+        <v>135.433</v>
       </c>
       <c r="D397" t="s">
         <v>607</v>
@@ -8961,10 +8961,10 @@
         <v>401</v>
       </c>
       <c r="B398" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C398">
-        <v>109.703</v>
+        <v>98.58499999999999</v>
       </c>
       <c r="D398" t="s">
         <v>607</v>
@@ -8981,7 +8981,7 @@
         <v>606</v>
       </c>
       <c r="C399">
-        <v>103.164</v>
+        <v>107.823</v>
       </c>
       <c r="D399" t="s">
         <v>607</v>
@@ -8998,7 +8998,7 @@
         <v>605</v>
       </c>
       <c r="C400">
-        <v>88.265</v>
+        <v>94.422</v>
       </c>
       <c r="D400" t="s">
         <v>607</v>
@@ -9015,7 +9015,7 @@
         <v>606</v>
       </c>
       <c r="C401">
-        <v>103.161</v>
+        <v>110.098</v>
       </c>
       <c r="D401" t="s">
         <v>607</v>
@@ -9032,7 +9032,7 @@
         <v>606</v>
       </c>
       <c r="C402">
-        <v>110.212</v>
+        <v>118.122</v>
       </c>
       <c r="D402" t="s">
         <v>607</v>
@@ -9049,7 +9049,7 @@
         <v>606</v>
       </c>
       <c r="C403">
-        <v>102.403</v>
+        <v>104.62</v>
       </c>
       <c r="D403" t="s">
         <v>607</v>
@@ -9066,7 +9066,7 @@
         <v>606</v>
       </c>
       <c r="C404">
-        <v>105.867</v>
+        <v>107.158</v>
       </c>
       <c r="D404" t="s">
         <v>607</v>
@@ -9083,7 +9083,7 @@
         <v>606</v>
       </c>
       <c r="C405">
-        <v>107.76</v>
+        <v>115.053</v>
       </c>
       <c r="D405" t="s">
         <v>607</v>
@@ -9100,7 +9100,7 @@
         <v>606</v>
       </c>
       <c r="C406">
-        <v>102.951</v>
+        <v>106.25</v>
       </c>
       <c r="D406" t="s">
         <v>607</v>
@@ -9117,7 +9117,7 @@
         <v>606</v>
       </c>
       <c r="C407">
-        <v>142.555</v>
+        <v>150.456</v>
       </c>
       <c r="D407" t="s">
         <v>607</v>
@@ -9134,7 +9134,7 @@
         <v>606</v>
       </c>
       <c r="C408">
-        <v>111.855</v>
+        <v>117.245</v>
       </c>
       <c r="D408" t="s">
         <v>607</v>
@@ -9151,7 +9151,7 @@
         <v>605</v>
       </c>
       <c r="C409">
-        <v>96.84</v>
+        <v>98.20399999999999</v>
       </c>
       <c r="D409" t="s">
         <v>607</v>
@@ -9168,7 +9168,7 @@
         <v>606</v>
       </c>
       <c r="C410">
-        <v>110.535</v>
+        <v>114.215</v>
       </c>
       <c r="D410" t="s">
         <v>607</v>
@@ -9185,7 +9185,7 @@
         <v>606</v>
       </c>
       <c r="C411">
-        <v>102.68</v>
+        <v>103.19</v>
       </c>
       <c r="D411" t="s">
         <v>607</v>
@@ -9202,7 +9202,7 @@
         <v>606</v>
       </c>
       <c r="C412">
-        <v>103.546</v>
+        <v>104.474</v>
       </c>
       <c r="D412" t="s">
         <v>607</v>
@@ -9219,7 +9219,7 @@
         <v>606</v>
       </c>
       <c r="C413">
-        <v>108.97</v>
+        <v>115.474</v>
       </c>
       <c r="D413" t="s">
         <v>607</v>
@@ -9236,7 +9236,7 @@
         <v>606</v>
       </c>
       <c r="C414">
-        <v>103.193</v>
+        <v>106.294</v>
       </c>
       <c r="D414" t="s">
         <v>607</v>
@@ -9253,7 +9253,7 @@
         <v>606</v>
       </c>
       <c r="C415">
-        <v>109.174</v>
+        <v>112.876</v>
       </c>
       <c r="D415" t="s">
         <v>607</v>
@@ -9270,7 +9270,7 @@
         <v>606</v>
       </c>
       <c r="C416">
-        <v>103.359</v>
+        <v>105.578</v>
       </c>
       <c r="D416" t="s">
         <v>607</v>
@@ -9287,7 +9287,7 @@
         <v>606</v>
       </c>
       <c r="C417">
-        <v>110.646</v>
+        <v>117.125</v>
       </c>
       <c r="D417" t="s">
         <v>607</v>
@@ -9304,7 +9304,7 @@
         <v>606</v>
       </c>
       <c r="C418">
-        <v>119.067</v>
+        <v>122.766</v>
       </c>
       <c r="D418" t="s">
         <v>607</v>
@@ -9321,7 +9321,7 @@
         <v>606</v>
       </c>
       <c r="C419">
-        <v>106.172</v>
+        <v>109.067</v>
       </c>
       <c r="D419" t="s">
         <v>607</v>
@@ -9338,7 +9338,7 @@
         <v>606</v>
       </c>
       <c r="C420">
-        <v>101.382</v>
+        <v>103.751</v>
       </c>
       <c r="D420" t="s">
         <v>607</v>
@@ -9355,7 +9355,7 @@
         <v>605</v>
       </c>
       <c r="C421">
-        <v>96.32899999999999</v>
+        <v>97.004</v>
       </c>
       <c r="D421" t="s">
         <v>607</v>
@@ -9372,7 +9372,7 @@
         <v>606</v>
       </c>
       <c r="C422">
-        <v>104.046</v>
+        <v>107.021</v>
       </c>
       <c r="D422" t="s">
         <v>607</v>
@@ -9389,7 +9389,7 @@
         <v>606</v>
       </c>
       <c r="C423">
-        <v>102.628</v>
+        <v>102.334</v>
       </c>
       <c r="D423" t="s">
         <v>607</v>
@@ -9406,7 +9406,7 @@
         <v>606</v>
       </c>
       <c r="C424">
-        <v>103.485</v>
+        <v>107.342</v>
       </c>
       <c r="D424" t="s">
         <v>607</v>
@@ -9420,10 +9420,10 @@
         <v>428</v>
       </c>
       <c r="B425" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C425">
-        <v>99.879</v>
+        <v>104.85</v>
       </c>
       <c r="D425" t="s">
         <v>607</v>
@@ -9440,7 +9440,7 @@
         <v>605</v>
       </c>
       <c r="C426">
-        <v>98.31699999999999</v>
+        <v>97.911</v>
       </c>
       <c r="D426" t="s">
         <v>607</v>
@@ -9457,7 +9457,7 @@
         <v>606</v>
       </c>
       <c r="C427">
-        <v>100.528</v>
+        <v>102.512</v>
       </c>
       <c r="D427" t="s">
         <v>607</v>
@@ -9474,7 +9474,7 @@
         <v>606</v>
       </c>
       <c r="C428">
-        <v>112.363</v>
+        <v>115.767</v>
       </c>
       <c r="D428" t="s">
         <v>607</v>
@@ -9491,7 +9491,7 @@
         <v>606</v>
       </c>
       <c r="C429">
-        <v>117.541</v>
+        <v>120.275</v>
       </c>
       <c r="D429" t="s">
         <v>607</v>
@@ -9508,7 +9508,7 @@
         <v>606</v>
       </c>
       <c r="C430">
-        <v>102.335</v>
+        <v>105.802</v>
       </c>
       <c r="D430" t="s">
         <v>607</v>
@@ -9525,7 +9525,7 @@
         <v>606</v>
       </c>
       <c r="C431">
-        <v>108.048</v>
+        <v>113.886</v>
       </c>
       <c r="D431" t="s">
         <v>607</v>
@@ -9542,7 +9542,7 @@
         <v>606</v>
       </c>
       <c r="C432">
-        <v>110.469</v>
+        <v>111.321</v>
       </c>
       <c r="D432" t="s">
         <v>607</v>
@@ -9559,7 +9559,7 @@
         <v>606</v>
       </c>
       <c r="C433">
-        <v>110.278</v>
+        <v>115.788</v>
       </c>
       <c r="D433" t="s">
         <v>607</v>
@@ -9576,7 +9576,7 @@
         <v>606</v>
       </c>
       <c r="C434">
-        <v>120.048</v>
+        <v>123.826</v>
       </c>
       <c r="D434" t="s">
         <v>607</v>
@@ -9593,7 +9593,7 @@
         <v>606</v>
       </c>
       <c r="C435">
-        <v>105.504</v>
+        <v>110.45</v>
       </c>
       <c r="D435" t="s">
         <v>607</v>
@@ -9607,10 +9607,10 @@
         <v>439</v>
       </c>
       <c r="B436" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C436">
-        <v>99.29600000000001</v>
+        <v>103.629</v>
       </c>
       <c r="D436" t="s">
         <v>607</v>
@@ -9627,7 +9627,7 @@
         <v>606</v>
       </c>
       <c r="C437">
-        <v>106.831</v>
+        <v>107.473</v>
       </c>
       <c r="D437" t="s">
         <v>607</v>
@@ -9641,10 +9641,10 @@
         <v>441</v>
       </c>
       <c r="B438" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C438">
-        <v>98.66</v>
+        <v>102.133</v>
       </c>
       <c r="D438" t="s">
         <v>607</v>
@@ -9661,7 +9661,7 @@
         <v>606</v>
       </c>
       <c r="C439">
-        <v>102.206</v>
+        <v>105.521</v>
       </c>
       <c r="D439" t="s">
         <v>607</v>
@@ -9678,7 +9678,7 @@
         <v>606</v>
       </c>
       <c r="C440">
-        <v>115.041</v>
+        <v>118.532</v>
       </c>
       <c r="D440" t="s">
         <v>607</v>
@@ -9695,7 +9695,7 @@
         <v>606</v>
       </c>
       <c r="C441">
-        <v>104.296</v>
+        <v>104.357</v>
       </c>
       <c r="D441" t="s">
         <v>607</v>
@@ -9712,7 +9712,7 @@
         <v>606</v>
       </c>
       <c r="C442">
-        <v>113.965</v>
+        <v>118.583</v>
       </c>
       <c r="D442" t="s">
         <v>607</v>
@@ -9729,7 +9729,7 @@
         <v>606</v>
       </c>
       <c r="C443">
-        <v>103.374</v>
+        <v>106.308</v>
       </c>
       <c r="D443" t="s">
         <v>607</v>
@@ -9746,7 +9746,7 @@
         <v>605</v>
       </c>
       <c r="C444">
-        <v>91.402</v>
+        <v>92.158</v>
       </c>
       <c r="D444" t="s">
         <v>607</v>
@@ -9763,7 +9763,7 @@
         <v>606</v>
       </c>
       <c r="C445">
-        <v>107.405</v>
+        <v>108.976</v>
       </c>
       <c r="D445" t="s">
         <v>607</v>
@@ -9780,7 +9780,7 @@
         <v>605</v>
       </c>
       <c r="C446">
-        <v>97.833</v>
+        <v>98.977</v>
       </c>
       <c r="D446" t="s">
         <v>607</v>
@@ -9797,7 +9797,7 @@
         <v>606</v>
       </c>
       <c r="C447">
-        <v>105.817</v>
+        <v>109.551</v>
       </c>
       <c r="D447" t="s">
         <v>607</v>
@@ -9814,7 +9814,7 @@
         <v>606</v>
       </c>
       <c r="C448">
-        <v>101.932</v>
+        <v>103.913</v>
       </c>
       <c r="D448" t="s">
         <v>607</v>
@@ -9831,7 +9831,7 @@
         <v>606</v>
       </c>
       <c r="C449">
-        <v>121.462</v>
+        <v>122.476</v>
       </c>
       <c r="D449" t="s">
         <v>607</v>
@@ -9845,10 +9845,10 @@
         <v>453</v>
       </c>
       <c r="B450" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C450">
-        <v>97.324</v>
+        <v>100.191</v>
       </c>
       <c r="D450" t="s">
         <v>607</v>
@@ -9865,7 +9865,7 @@
         <v>606</v>
       </c>
       <c r="C451">
-        <v>107.784</v>
+        <v>112.396</v>
       </c>
       <c r="D451" t="s">
         <v>607</v>
@@ -9882,7 +9882,7 @@
         <v>606</v>
       </c>
       <c r="C452">
-        <v>117.917</v>
+        <v>118.544</v>
       </c>
       <c r="D452" t="s">
         <v>607</v>
@@ -9899,7 +9899,7 @@
         <v>606</v>
       </c>
       <c r="C453">
-        <v>127.188</v>
+        <v>137.277</v>
       </c>
       <c r="D453" t="s">
         <v>607</v>
@@ -9916,7 +9916,7 @@
         <v>606</v>
       </c>
       <c r="C454">
-        <v>114.316</v>
+        <v>111.27</v>
       </c>
       <c r="D454" t="s">
         <v>607</v>
@@ -9933,7 +9933,7 @@
         <v>606</v>
       </c>
       <c r="C455">
-        <v>108.281</v>
+        <v>114.834</v>
       </c>
       <c r="D455" t="s">
         <v>607</v>
@@ -9950,7 +9950,7 @@
         <v>606</v>
       </c>
       <c r="C456">
-        <v>112.041</v>
+        <v>112.96</v>
       </c>
       <c r="D456" t="s">
         <v>607</v>
@@ -9967,7 +9967,7 @@
         <v>606</v>
       </c>
       <c r="C457">
-        <v>104.155</v>
+        <v>106.579</v>
       </c>
       <c r="D457" t="s">
         <v>607</v>
@@ -9984,7 +9984,7 @@
         <v>606</v>
       </c>
       <c r="C458">
-        <v>117.109</v>
+        <v>124.707</v>
       </c>
       <c r="D458" t="s">
         <v>607</v>
@@ -10001,7 +10001,7 @@
         <v>606</v>
       </c>
       <c r="C459">
-        <v>117.096</v>
+        <v>120.296</v>
       </c>
       <c r="D459" t="s">
         <v>607</v>
@@ -10018,7 +10018,7 @@
         <v>605</v>
       </c>
       <c r="C460">
-        <v>97.96599999999999</v>
+        <v>98.992</v>
       </c>
       <c r="D460" t="s">
         <v>607</v>
@@ -10035,7 +10035,7 @@
         <v>605</v>
       </c>
       <c r="C461">
-        <v>95.09</v>
+        <v>97.398</v>
       </c>
       <c r="D461" t="s">
         <v>607</v>
@@ -10052,7 +10052,7 @@
         <v>606</v>
       </c>
       <c r="C462">
-        <v>109.068</v>
+        <v>110.55</v>
       </c>
       <c r="D462" t="s">
         <v>607</v>
@@ -10066,10 +10066,10 @@
         <v>466</v>
       </c>
       <c r="B463" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C463">
-        <v>99.51900000000001</v>
+        <v>100.085</v>
       </c>
       <c r="D463" t="s">
         <v>607</v>
@@ -10086,7 +10086,7 @@
         <v>606</v>
       </c>
       <c r="C464">
-        <v>109.647</v>
+        <v>113.291</v>
       </c>
       <c r="D464" t="s">
         <v>607</v>
@@ -10103,7 +10103,7 @@
         <v>606</v>
       </c>
       <c r="C465">
-        <v>103.571</v>
+        <v>105.895</v>
       </c>
       <c r="D465" t="s">
         <v>607</v>
@@ -10120,7 +10120,7 @@
         <v>606</v>
       </c>
       <c r="C466">
-        <v>130.745</v>
+        <v>134.322</v>
       </c>
       <c r="D466" t="s">
         <v>607</v>
@@ -10137,7 +10137,7 @@
         <v>606</v>
       </c>
       <c r="C467">
-        <v>105.366</v>
+        <v>106.724</v>
       </c>
       <c r="D467" t="s">
         <v>607</v>
@@ -10154,7 +10154,7 @@
         <v>606</v>
       </c>
       <c r="C468">
-        <v>108.242</v>
+        <v>109.064</v>
       </c>
       <c r="D468" t="s">
         <v>607</v>
@@ -10171,7 +10171,7 @@
         <v>606</v>
       </c>
       <c r="C469">
-        <v>103.46</v>
+        <v>109.667</v>
       </c>
       <c r="D469" t="s">
         <v>607</v>
@@ -10188,7 +10188,7 @@
         <v>606</v>
       </c>
       <c r="C470">
-        <v>110.505</v>
+        <v>113.156</v>
       </c>
       <c r="D470" t="s">
         <v>607</v>
@@ -10205,7 +10205,7 @@
         <v>606</v>
       </c>
       <c r="C471">
-        <v>111.948</v>
+        <v>117.746</v>
       </c>
       <c r="D471" t="s">
         <v>607</v>
@@ -10222,7 +10222,7 @@
         <v>606</v>
       </c>
       <c r="C472">
-        <v>105.924</v>
+        <v>109.334</v>
       </c>
       <c r="D472" t="s">
         <v>607</v>
@@ -10239,7 +10239,7 @@
         <v>606</v>
       </c>
       <c r="C473">
-        <v>109.925</v>
+        <v>114.748</v>
       </c>
       <c r="D473" t="s">
         <v>607</v>
@@ -10256,7 +10256,7 @@
         <v>605</v>
       </c>
       <c r="C474">
-        <v>93.185</v>
+        <v>96.81100000000001</v>
       </c>
       <c r="D474" t="s">
         <v>607</v>
@@ -10273,7 +10273,7 @@
         <v>606</v>
       </c>
       <c r="C475">
-        <v>101.318</v>
+        <v>104.64</v>
       </c>
       <c r="D475" t="s">
         <v>607</v>
@@ -10290,7 +10290,7 @@
         <v>606</v>
       </c>
       <c r="C476">
-        <v>142.957</v>
+        <v>157.255</v>
       </c>
       <c r="D476" t="s">
         <v>607</v>
@@ -10304,10 +10304,10 @@
         <v>480</v>
       </c>
       <c r="B477" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C477">
-        <v>99.107</v>
+        <v>104.459</v>
       </c>
       <c r="D477" t="s">
         <v>607</v>
@@ -10324,7 +10324,7 @@
         <v>606</v>
       </c>
       <c r="C478">
-        <v>115.825</v>
+        <v>116.636</v>
       </c>
       <c r="D478" t="s">
         <v>607</v>
@@ -10341,7 +10341,7 @@
         <v>606</v>
       </c>
       <c r="C479">
-        <v>107.184</v>
+        <v>110.986</v>
       </c>
       <c r="D479" t="s">
         <v>607</v>
@@ -10358,7 +10358,7 @@
         <v>606</v>
       </c>
       <c r="C480">
-        <v>116.25</v>
+        <v>119.186</v>
       </c>
       <c r="D480" t="s">
         <v>607</v>
@@ -10375,7 +10375,7 @@
         <v>606</v>
       </c>
       <c r="C481">
-        <v>109.169</v>
+        <v>107.974</v>
       </c>
       <c r="D481" t="s">
         <v>607</v>
@@ -10392,7 +10392,7 @@
         <v>606</v>
       </c>
       <c r="C482">
-        <v>152.741</v>
+        <v>163.878</v>
       </c>
       <c r="D482" t="s">
         <v>607</v>
@@ -10409,7 +10409,7 @@
         <v>606</v>
       </c>
       <c r="C483">
-        <v>109.139</v>
+        <v>113.772</v>
       </c>
       <c r="D483" t="s">
         <v>607</v>
@@ -10426,7 +10426,7 @@
         <v>606</v>
       </c>
       <c r="C484">
-        <v>109.084</v>
+        <v>113.206</v>
       </c>
       <c r="D484" t="s">
         <v>607</v>
@@ -10443,7 +10443,7 @@
         <v>606</v>
       </c>
       <c r="C485">
-        <v>117.16</v>
+        <v>121.091</v>
       </c>
       <c r="D485" t="s">
         <v>607</v>
@@ -10457,10 +10457,10 @@
         <v>489</v>
       </c>
       <c r="B486" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C486">
-        <v>99.73</v>
+        <v>104.262</v>
       </c>
       <c r="D486" t="s">
         <v>607</v>
@@ -10477,7 +10477,7 @@
         <v>606</v>
       </c>
       <c r="C487">
-        <v>108.54</v>
+        <v>109.814</v>
       </c>
       <c r="D487" t="s">
         <v>607</v>
@@ -10494,7 +10494,7 @@
         <v>606</v>
       </c>
       <c r="C488">
-        <v>109.509</v>
+        <v>111.251</v>
       </c>
       <c r="D488" t="s">
         <v>607</v>
@@ -10511,7 +10511,7 @@
         <v>605</v>
       </c>
       <c r="C489">
-        <v>85.89</v>
+        <v>89.221</v>
       </c>
       <c r="D489" t="s">
         <v>607</v>
@@ -10528,7 +10528,7 @@
         <v>606</v>
       </c>
       <c r="C490">
-        <v>109.393</v>
+        <v>114.617</v>
       </c>
       <c r="D490" t="s">
         <v>607</v>
@@ -10545,7 +10545,7 @@
         <v>606</v>
       </c>
       <c r="C491">
-        <v>105.645</v>
+        <v>106.365</v>
       </c>
       <c r="D491" t="s">
         <v>607</v>
@@ -10562,7 +10562,7 @@
         <v>605</v>
       </c>
       <c r="C492">
-        <v>97.02</v>
+        <v>99.43000000000001</v>
       </c>
       <c r="D492" t="s">
         <v>607</v>
@@ -10579,7 +10579,7 @@
         <v>606</v>
       </c>
       <c r="C493">
-        <v>102.746</v>
+        <v>104.969</v>
       </c>
       <c r="D493" t="s">
         <v>607</v>
@@ -10596,7 +10596,7 @@
         <v>605</v>
       </c>
       <c r="C494">
-        <v>96.727</v>
+        <v>99.992</v>
       </c>
       <c r="D494" t="s">
         <v>607</v>
@@ -10613,7 +10613,7 @@
         <v>606</v>
       </c>
       <c r="C495">
-        <v>104.67</v>
+        <v>105.448</v>
       </c>
       <c r="D495" t="s">
         <v>607</v>
@@ -10630,7 +10630,7 @@
         <v>606</v>
       </c>
       <c r="C496">
-        <v>102.357</v>
+        <v>103.989</v>
       </c>
       <c r="D496" t="s">
         <v>607</v>
@@ -10647,7 +10647,7 @@
         <v>606</v>
       </c>
       <c r="C497">
-        <v>109.555</v>
+        <v>112.313</v>
       </c>
       <c r="D497" t="s">
         <v>607</v>
@@ -10664,7 +10664,7 @@
         <v>605</v>
       </c>
       <c r="C498">
-        <v>94</v>
+        <v>99.613</v>
       </c>
       <c r="D498" t="s">
         <v>607</v>
@@ -10681,7 +10681,7 @@
         <v>606</v>
       </c>
       <c r="C499">
-        <v>101.899</v>
+        <v>105.658</v>
       </c>
       <c r="D499" t="s">
         <v>607</v>
@@ -10698,7 +10698,7 @@
         <v>606</v>
       </c>
       <c r="C500">
-        <v>115.994</v>
+        <v>120.792</v>
       </c>
       <c r="D500" t="s">
         <v>607</v>
@@ -10715,7 +10715,7 @@
         <v>606</v>
       </c>
       <c r="C501">
-        <v>108.693</v>
+        <v>109.112</v>
       </c>
       <c r="D501" t="s">
         <v>607</v>
@@ -10732,7 +10732,7 @@
         <v>606</v>
       </c>
       <c r="C502">
-        <v>106.395</v>
+        <v>112.724</v>
       </c>
       <c r="D502" t="s">
         <v>607</v>
@@ -10749,7 +10749,7 @@
         <v>606</v>
       </c>
       <c r="C503">
-        <v>102.77</v>
+        <v>105.074</v>
       </c>
       <c r="D503" t="s">
         <v>607</v>
@@ -10763,10 +10763,10 @@
         <v>507</v>
       </c>
       <c r="B504" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C504">
-        <v>98.26300000000001</v>
+        <v>101.437</v>
       </c>
       <c r="D504" t="s">
         <v>607</v>
@@ -10783,7 +10783,7 @@
         <v>606</v>
       </c>
       <c r="C505">
-        <v>100.93</v>
+        <v>104.692</v>
       </c>
       <c r="D505" t="s">
         <v>607</v>
@@ -10800,7 +10800,7 @@
         <v>605</v>
       </c>
       <c r="C506">
-        <v>84.65300000000001</v>
+        <v>99.077</v>
       </c>
       <c r="D506" t="s">
         <v>607</v>
@@ -10817,7 +10817,7 @@
         <v>606</v>
       </c>
       <c r="C507">
-        <v>102.964</v>
+        <v>105.793</v>
       </c>
       <c r="D507" t="s">
         <v>607</v>
@@ -10834,7 +10834,7 @@
         <v>606</v>
       </c>
       <c r="C508">
-        <v>100.806</v>
+        <v>102.361</v>
       </c>
       <c r="D508" t="s">
         <v>607</v>
@@ -10851,7 +10851,7 @@
         <v>606</v>
       </c>
       <c r="C509">
-        <v>106.706</v>
+        <v>112.424</v>
       </c>
       <c r="D509" t="s">
         <v>607</v>
@@ -10868,7 +10868,7 @@
         <v>605</v>
       </c>
       <c r="C510">
-        <v>79.676</v>
+        <v>77.73399999999999</v>
       </c>
       <c r="D510" t="s">
         <v>607</v>
@@ -10885,7 +10885,7 @@
         <v>606</v>
       </c>
       <c r="C511">
-        <v>169.88</v>
+        <v>181.579</v>
       </c>
       <c r="D511" t="s">
         <v>607</v>
@@ -10902,7 +10902,7 @@
         <v>605</v>
       </c>
       <c r="C512">
-        <v>98.02500000000001</v>
+        <v>96.65000000000001</v>
       </c>
       <c r="D512" t="s">
         <v>607</v>
@@ -10919,7 +10919,7 @@
         <v>606</v>
       </c>
       <c r="C513">
-        <v>125.455</v>
+        <v>129.126</v>
       </c>
       <c r="D513" t="s">
         <v>607</v>
@@ -10936,7 +10936,7 @@
         <v>606</v>
       </c>
       <c r="C514">
-        <v>244.86</v>
+        <v>235.455</v>
       </c>
       <c r="D514" t="s">
         <v>607</v>
@@ -10953,7 +10953,7 @@
         <v>605</v>
       </c>
       <c r="C515">
-        <v>98.935</v>
+        <v>99.51300000000001</v>
       </c>
       <c r="D515" t="s">
         <v>607</v>
@@ -10970,7 +10970,7 @@
         <v>606</v>
       </c>
       <c r="C516">
-        <v>104.031</v>
+        <v>106.666</v>
       </c>
       <c r="D516" t="s">
         <v>607</v>
@@ -10987,7 +10987,7 @@
         <v>605</v>
       </c>
       <c r="C517">
-        <v>81.06</v>
+        <v>93.57299999999999</v>
       </c>
       <c r="D517" t="s">
         <v>607</v>
@@ -11001,10 +11001,10 @@
         <v>521</v>
       </c>
       <c r="B518" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C518">
-        <v>90</v>
+        <v>101.714</v>
       </c>
       <c r="D518" t="s">
         <v>607</v>
@@ -11021,7 +11021,7 @@
         <v>605</v>
       </c>
       <c r="C519">
-        <v>72.842</v>
+        <v>80.84</v>
       </c>
       <c r="D519" t="s">
         <v>607</v>
@@ -11038,7 +11038,7 @@
         <v>606</v>
       </c>
       <c r="C520">
-        <v>106.663</v>
+        <v>108.12</v>
       </c>
       <c r="D520" t="s">
         <v>607</v>
@@ -11055,7 +11055,7 @@
         <v>605</v>
       </c>
       <c r="C521">
-        <v>83.929</v>
+        <v>87.235</v>
       </c>
       <c r="D521" t="s">
         <v>607</v>
@@ -11069,10 +11069,10 @@
         <v>233</v>
       </c>
       <c r="B522" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C522">
-        <v>96.979</v>
+        <v>100.92</v>
       </c>
       <c r="D522" t="s">
         <v>607</v>
@@ -11089,7 +11089,7 @@
         <v>605</v>
       </c>
       <c r="C523">
-        <v>93.34999999999999</v>
+        <v>93.928</v>
       </c>
       <c r="D523" t="s">
         <v>607</v>
@@ -11106,7 +11106,7 @@
         <v>605</v>
       </c>
       <c r="C524">
-        <v>70.011</v>
+        <v>78.642</v>
       </c>
       <c r="D524" t="s">
         <v>607</v>
@@ -11123,7 +11123,7 @@
         <v>605</v>
       </c>
       <c r="C525">
-        <v>93.239</v>
+        <v>95.282</v>
       </c>
       <c r="D525" t="s">
         <v>607</v>
@@ -11140,7 +11140,7 @@
         <v>606</v>
       </c>
       <c r="C526">
-        <v>102.352</v>
+        <v>107.565</v>
       </c>
       <c r="D526" t="s">
         <v>607</v>
@@ -11157,7 +11157,7 @@
         <v>605</v>
       </c>
       <c r="C527">
-        <v>85.453</v>
+        <v>94.003</v>
       </c>
       <c r="D527" t="s">
         <v>607</v>
@@ -11171,10 +11171,10 @@
         <v>530</v>
       </c>
       <c r="B528" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C528">
-        <v>92.101</v>
+        <v>100.398</v>
       </c>
       <c r="D528" t="s">
         <v>607</v>
@@ -11191,7 +11191,7 @@
         <v>606</v>
       </c>
       <c r="C529">
-        <v>117.899</v>
+        <v>122.032</v>
       </c>
       <c r="D529" t="s">
         <v>607</v>
@@ -11208,7 +11208,7 @@
         <v>606</v>
       </c>
       <c r="C530">
-        <v>121.856</v>
+        <v>110.845</v>
       </c>
       <c r="D530" t="s">
         <v>607</v>
@@ -11225,7 +11225,7 @@
         <v>606</v>
       </c>
       <c r="C531">
-        <v>121.32</v>
+        <v>126.596</v>
       </c>
       <c r="D531" t="s">
         <v>607</v>
@@ -11242,7 +11242,7 @@
         <v>606</v>
       </c>
       <c r="C532">
-        <v>106.767</v>
+        <v>111.673</v>
       </c>
       <c r="D532" t="s">
         <v>607</v>
@@ -11259,7 +11259,7 @@
         <v>606</v>
       </c>
       <c r="C533">
-        <v>106.887</v>
+        <v>107.307</v>
       </c>
       <c r="D533" t="s">
         <v>607</v>
@@ -11276,7 +11276,7 @@
         <v>606</v>
       </c>
       <c r="C534">
-        <v>101.125</v>
+        <v>105.305</v>
       </c>
       <c r="D534" t="s">
         <v>607</v>
@@ -11293,7 +11293,7 @@
         <v>606</v>
       </c>
       <c r="C535">
-        <v>105.61</v>
+        <v>108.61</v>
       </c>
       <c r="D535" t="s">
         <v>607</v>
@@ -11310,7 +11310,7 @@
         <v>606</v>
       </c>
       <c r="C536">
-        <v>109.917</v>
+        <v>110.695</v>
       </c>
       <c r="D536" t="s">
         <v>607</v>
@@ -11327,7 +11327,7 @@
         <v>605</v>
       </c>
       <c r="C537">
-        <v>86.14700000000001</v>
+        <v>87.691</v>
       </c>
       <c r="D537" t="s">
         <v>607</v>
@@ -11344,7 +11344,7 @@
         <v>606</v>
       </c>
       <c r="C538">
-        <v>114.339</v>
+        <v>121.197</v>
       </c>
       <c r="D538" t="s">
         <v>607</v>
@@ -11361,7 +11361,7 @@
         <v>606</v>
       </c>
       <c r="C539">
-        <v>109.605</v>
+        <v>111.745</v>
       </c>
       <c r="D539" t="s">
         <v>607</v>
@@ -11378,7 +11378,7 @@
         <v>606</v>
       </c>
       <c r="C540">
-        <v>103.151</v>
+        <v>104.491</v>
       </c>
       <c r="D540" t="s">
         <v>607</v>
@@ -11392,10 +11392,10 @@
         <v>542</v>
       </c>
       <c r="B541" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C541">
-        <v>100.347</v>
+        <v>99.276</v>
       </c>
       <c r="D541" t="s">
         <v>607</v>
@@ -11412,7 +11412,7 @@
         <v>605</v>
       </c>
       <c r="C542">
-        <v>99.63</v>
+        <v>98.985</v>
       </c>
       <c r="D542" t="s">
         <v>607</v>
@@ -11429,7 +11429,7 @@
         <v>605</v>
       </c>
       <c r="C543">
-        <v>98.09</v>
+        <v>97.09699999999999</v>
       </c>
       <c r="D543" t="s">
         <v>607</v>
@@ -11446,7 +11446,7 @@
         <v>605</v>
       </c>
       <c r="C544">
-        <v>98.036</v>
+        <v>98.69499999999999</v>
       </c>
       <c r="D544" t="s">
         <v>607</v>
@@ -11463,7 +11463,7 @@
         <v>606</v>
       </c>
       <c r="C545">
-        <v>101.567</v>
+        <v>101.154</v>
       </c>
       <c r="D545" t="s">
         <v>607</v>
@@ -11480,7 +11480,7 @@
         <v>605</v>
       </c>
       <c r="C546">
-        <v>98.455</v>
+        <v>97.336</v>
       </c>
       <c r="D546" t="s">
         <v>607</v>
@@ -11497,7 +11497,7 @@
         <v>606</v>
       </c>
       <c r="C547">
-        <v>100.507</v>
+        <v>100.08</v>
       </c>
       <c r="D547" t="s">
         <v>607</v>
@@ -11514,7 +11514,7 @@
         <v>605</v>
       </c>
       <c r="C548">
-        <v>97.837</v>
+        <v>97.40300000000001</v>
       </c>
       <c r="D548" t="s">
         <v>607</v>
@@ -11528,10 +11528,10 @@
         <v>550</v>
       </c>
       <c r="B549" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C549">
-        <v>100.169</v>
+        <v>97.613</v>
       </c>
       <c r="D549" t="s">
         <v>607</v>
@@ -11548,7 +11548,7 @@
         <v>606</v>
       </c>
       <c r="C550">
-        <v>101.967</v>
+        <v>101.261</v>
       </c>
       <c r="D550" t="s">
         <v>607</v>
@@ -11565,7 +11565,7 @@
         <v>606</v>
       </c>
       <c r="C551">
-        <v>105.484</v>
+        <v>108.092</v>
       </c>
       <c r="D551" t="s">
         <v>607</v>
@@ -11582,7 +11582,7 @@
         <v>606</v>
       </c>
       <c r="C552">
-        <v>101.733</v>
+        <v>101.873</v>
       </c>
       <c r="D552" t="s">
         <v>607</v>
@@ -11599,7 +11599,7 @@
         <v>606</v>
       </c>
       <c r="C553">
-        <v>115.005</v>
+        <v>114.441</v>
       </c>
       <c r="D553" t="s">
         <v>607</v>
@@ -11633,7 +11633,7 @@
         <v>605</v>
       </c>
       <c r="C555">
-        <v>95.502</v>
+        <v>95.623</v>
       </c>
       <c r="D555" t="s">
         <v>607</v>
@@ -11650,7 +11650,7 @@
         <v>606</v>
       </c>
       <c r="C556">
-        <v>104.177</v>
+        <v>104.637</v>
       </c>
       <c r="D556" t="s">
         <v>607</v>
@@ -11667,7 +11667,7 @@
         <v>606</v>
       </c>
       <c r="C557">
-        <v>101.949</v>
+        <v>100.157</v>
       </c>
       <c r="D557" t="s">
         <v>607</v>
@@ -11701,7 +11701,7 @@
         <v>605</v>
       </c>
       <c r="C559">
-        <v>99.16</v>
+        <v>98.111</v>
       </c>
       <c r="D559" t="s">
         <v>607</v>
@@ -11718,7 +11718,7 @@
         <v>606</v>
       </c>
       <c r="C560">
-        <v>113.407</v>
+        <v>112.049</v>
       </c>
       <c r="D560" t="s">
         <v>607</v>
@@ -11735,7 +11735,7 @@
         <v>605</v>
       </c>
       <c r="C561">
-        <v>99.733</v>
+        <v>98.28</v>
       </c>
       <c r="D561" t="s">
         <v>607</v>
@@ -11749,10 +11749,10 @@
         <v>563</v>
       </c>
       <c r="B562" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C562">
-        <v>102.463</v>
+        <v>99.51900000000001</v>
       </c>
       <c r="D562" t="s">
         <v>607</v>
@@ -11766,10 +11766,10 @@
         <v>564</v>
       </c>
       <c r="B563" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C563">
-        <v>101.014</v>
+        <v>99.218</v>
       </c>
       <c r="D563" t="s">
         <v>607</v>
@@ -11786,7 +11786,7 @@
         <v>606</v>
       </c>
       <c r="C564">
-        <v>100.809</v>
+        <v>100.758</v>
       </c>
       <c r="D564" t="s">
         <v>607</v>
@@ -11803,7 +11803,7 @@
         <v>605</v>
       </c>
       <c r="C565">
-        <v>97.274</v>
+        <v>97.499</v>
       </c>
       <c r="D565" t="s">
         <v>607</v>
@@ -11820,7 +11820,7 @@
         <v>606</v>
       </c>
       <c r="C566">
-        <v>132.791</v>
+        <v>141.534</v>
       </c>
       <c r="D566" t="s">
         <v>607</v>
@@ -11837,7 +11837,7 @@
         <v>605</v>
       </c>
       <c r="C567">
-        <v>86.735</v>
+        <v>87.38200000000001</v>
       </c>
       <c r="D567" t="s">
         <v>607</v>
@@ -11851,10 +11851,10 @@
         <v>569</v>
       </c>
       <c r="B568" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C568">
-        <v>99.13</v>
+        <v>100.495</v>
       </c>
       <c r="D568" t="s">
         <v>607</v>
@@ -11871,7 +11871,7 @@
         <v>606</v>
       </c>
       <c r="C569">
-        <v>100.113</v>
+        <v>101.282</v>
       </c>
       <c r="D569" t="s">
         <v>607</v>
@@ -11888,7 +11888,7 @@
         <v>605</v>
       </c>
       <c r="C570">
-        <v>90.247</v>
+        <v>92.577</v>
       </c>
       <c r="D570" t="s">
         <v>607</v>
@@ -11905,7 +11905,7 @@
         <v>606</v>
       </c>
       <c r="C571">
-        <v>105.113</v>
+        <v>109.359</v>
       </c>
       <c r="D571" t="s">
         <v>607</v>
@@ -11922,7 +11922,7 @@
         <v>606</v>
       </c>
       <c r="C572">
-        <v>102.551</v>
+        <v>103.04</v>
       </c>
       <c r="D572" t="s">
         <v>607</v>
@@ -11939,7 +11939,7 @@
         <v>606</v>
       </c>
       <c r="C573">
-        <v>104.531</v>
+        <v>105.22</v>
       </c>
       <c r="D573" t="s">
         <v>607</v>
@@ -11956,7 +11956,7 @@
         <v>606</v>
       </c>
       <c r="C574">
-        <v>100.518</v>
+        <v>106.102</v>
       </c>
       <c r="D574" t="s">
         <v>607</v>
@@ -11973,7 +11973,7 @@
         <v>606</v>
       </c>
       <c r="C575">
-        <v>109.588</v>
+        <v>111.868</v>
       </c>
       <c r="D575" t="s">
         <v>607</v>
@@ -11990,7 +11990,7 @@
         <v>606</v>
       </c>
       <c r="C576">
-        <v>111.027</v>
+        <v>115.26</v>
       </c>
       <c r="D576" t="s">
         <v>607</v>
@@ -12007,7 +12007,7 @@
         <v>606</v>
       </c>
       <c r="C577">
-        <v>106.616</v>
+        <v>108.952</v>
       </c>
       <c r="D577" t="s">
         <v>607</v>
@@ -12024,7 +12024,7 @@
         <v>606</v>
       </c>
       <c r="C578">
-        <v>105.858</v>
+        <v>108.348</v>
       </c>
       <c r="D578" t="s">
         <v>607</v>
@@ -12038,10 +12038,10 @@
         <v>580</v>
       </c>
       <c r="B579" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C579">
-        <v>98.48099999999999</v>
+        <v>100.022</v>
       </c>
       <c r="D579" t="s">
         <v>607</v>
@@ -12058,7 +12058,7 @@
         <v>606</v>
       </c>
       <c r="C580">
-        <v>106.937</v>
+        <v>111.246</v>
       </c>
       <c r="D580" t="s">
         <v>607</v>
@@ -12075,7 +12075,7 @@
         <v>606</v>
       </c>
       <c r="C581">
-        <v>104.181</v>
+        <v>105.139</v>
       </c>
       <c r="D581" t="s">
         <v>607</v>
@@ -12092,7 +12092,7 @@
         <v>606</v>
       </c>
       <c r="C582">
-        <v>111.121</v>
+        <v>114.425</v>
       </c>
       <c r="D582" t="s">
         <v>607</v>
@@ -12109,7 +12109,7 @@
         <v>606</v>
       </c>
       <c r="C583">
-        <v>121.066</v>
+        <v>125.789</v>
       </c>
       <c r="D583" t="s">
         <v>607</v>
@@ -12126,7 +12126,7 @@
         <v>606</v>
       </c>
       <c r="C584">
-        <v>102.791</v>
+        <v>105.331</v>
       </c>
       <c r="D584" t="s">
         <v>607</v>
@@ -12143,7 +12143,7 @@
         <v>606</v>
       </c>
       <c r="C585">
-        <v>103.7</v>
+        <v>107.081</v>
       </c>
       <c r="D585" t="s">
         <v>607</v>
@@ -12160,7 +12160,7 @@
         <v>606</v>
       </c>
       <c r="C586">
-        <v>106.693</v>
+        <v>107.668</v>
       </c>
       <c r="D586" t="s">
         <v>607</v>
@@ -12177,7 +12177,7 @@
         <v>605</v>
       </c>
       <c r="C587">
-        <v>93.425</v>
+        <v>91.40300000000001</v>
       </c>
       <c r="D587" t="s">
         <v>607</v>
@@ -12194,7 +12194,7 @@
         <v>606</v>
       </c>
       <c r="C588">
-        <v>104.507</v>
+        <v>105.209</v>
       </c>
       <c r="D588" t="s">
         <v>607</v>
@@ -12211,7 +12211,7 @@
         <v>606</v>
       </c>
       <c r="C589">
-        <v>104.65</v>
+        <v>106.804</v>
       </c>
       <c r="D589" t="s">
         <v>607</v>
@@ -12228,7 +12228,7 @@
         <v>605</v>
       </c>
       <c r="C590">
-        <v>93.245</v>
+        <v>95.455</v>
       </c>
       <c r="D590" t="s">
         <v>607</v>
@@ -12245,7 +12245,7 @@
         <v>606</v>
       </c>
       <c r="C591">
-        <v>104.335</v>
+        <v>106.243</v>
       </c>
       <c r="D591" t="s">
         <v>607</v>
@@ -12262,7 +12262,7 @@
         <v>606</v>
       </c>
       <c r="C592">
-        <v>107.358</v>
+        <v>110.088</v>
       </c>
       <c r="D592" t="s">
         <v>607</v>
@@ -12276,10 +12276,10 @@
         <v>594</v>
       </c>
       <c r="B593" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C593">
-        <v>99.855</v>
+        <v>100.911</v>
       </c>
       <c r="D593" t="s">
         <v>607</v>
@@ -12296,7 +12296,7 @@
         <v>606</v>
       </c>
       <c r="C594">
-        <v>108.605</v>
+        <v>113.734</v>
       </c>
       <c r="D594" t="s">
         <v>607</v>
@@ -12313,7 +12313,7 @@
         <v>606</v>
       </c>
       <c r="C595">
-        <v>104.692</v>
+        <v>105.78</v>
       </c>
       <c r="D595" t="s">
         <v>607</v>
@@ -12330,7 +12330,7 @@
         <v>606</v>
       </c>
       <c r="C596">
-        <v>108.046</v>
+        <v>111.499</v>
       </c>
       <c r="D596" t="s">
         <v>607</v>
@@ -12347,7 +12347,7 @@
         <v>606</v>
       </c>
       <c r="C597">
-        <v>120.633</v>
+        <v>125.243</v>
       </c>
       <c r="D597" t="s">
         <v>607</v>
@@ -12364,7 +12364,7 @@
         <v>606</v>
       </c>
       <c r="C598">
-        <v>109.646</v>
+        <v>112.556</v>
       </c>
       <c r="D598" t="s">
         <v>607</v>
@@ -12381,7 +12381,7 @@
         <v>606</v>
       </c>
       <c r="C599">
-        <v>108.194</v>
+        <v>112.751</v>
       </c>
       <c r="D599" t="s">
         <v>607</v>
@@ -12398,7 +12398,7 @@
         <v>606</v>
       </c>
       <c r="C600">
-        <v>103.973</v>
+        <v>106.015</v>
       </c>
       <c r="D600" t="s">
         <v>607</v>
@@ -12415,7 +12415,7 @@
         <v>605</v>
       </c>
       <c r="C601">
-        <v>95.892</v>
+        <v>95.687</v>
       </c>
       <c r="D601" t="s">
         <v>607</v>
@@ -12432,7 +12432,7 @@
         <v>605</v>
       </c>
       <c r="C602">
-        <v>96.86</v>
+        <v>98.782</v>
       </c>
       <c r="D602" t="s">
         <v>607</v>
@@ -12446,10 +12446,10 @@
         <v>604</v>
       </c>
       <c r="B603" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C603">
-        <v>97.726</v>
+        <v>101.104</v>
       </c>
       <c r="D603" t="s">
         <v>607</v>

--- a/generated_reports/tradfi_momentum.xlsx
+++ b/generated_reports/tradfi_momentum.xlsx
@@ -2232,7 +2232,7 @@
         <v>605</v>
       </c>
       <c r="C2">
-        <v>94.65900000000001</v>
+        <v>92.306</v>
       </c>
       <c r="D2" t="s">
         <v>607</v>
@@ -2249,7 +2249,7 @@
         <v>605</v>
       </c>
       <c r="C3">
-        <v>93.566</v>
+        <v>89.161</v>
       </c>
       <c r="D3" t="s">
         <v>607</v>
@@ -2266,7 +2266,7 @@
         <v>605</v>
       </c>
       <c r="C4">
-        <v>97.08199999999999</v>
+        <v>95.547</v>
       </c>
       <c r="D4" t="s">
         <v>607</v>
@@ -2283,7 +2283,7 @@
         <v>605</v>
       </c>
       <c r="C5">
-        <v>89.40600000000001</v>
+        <v>87.759</v>
       </c>
       <c r="D5" t="s">
         <v>607</v>
@@ -2300,7 +2300,7 @@
         <v>605</v>
       </c>
       <c r="C6">
-        <v>86.102</v>
+        <v>82.297</v>
       </c>
       <c r="D6" t="s">
         <v>607</v>
@@ -2317,7 +2317,7 @@
         <v>605</v>
       </c>
       <c r="C7">
-        <v>92.532</v>
+        <v>92.027</v>
       </c>
       <c r="D7" t="s">
         <v>607</v>
@@ -2334,7 +2334,7 @@
         <v>605</v>
       </c>
       <c r="C8">
-        <v>87.92700000000001</v>
+        <v>85.233</v>
       </c>
       <c r="D8" t="s">
         <v>607</v>
@@ -2351,7 +2351,7 @@
         <v>606</v>
       </c>
       <c r="C9">
-        <v>105.713</v>
+        <v>109.044</v>
       </c>
       <c r="D9" t="s">
         <v>607</v>
@@ -2368,7 +2368,7 @@
         <v>605</v>
       </c>
       <c r="C10">
-        <v>95.93899999999999</v>
+        <v>85.961</v>
       </c>
       <c r="D10" t="s">
         <v>607</v>
@@ -2382,10 +2382,10 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C11">
-        <v>101.153</v>
+        <v>98.336</v>
       </c>
       <c r="D11" t="s">
         <v>607</v>
@@ -2402,7 +2402,7 @@
         <v>605</v>
       </c>
       <c r="C12">
-        <v>99.887</v>
+        <v>98.224</v>
       </c>
       <c r="D12" t="s">
         <v>607</v>
@@ -2419,7 +2419,7 @@
         <v>605</v>
       </c>
       <c r="C13">
-        <v>81.72799999999999</v>
+        <v>80.419</v>
       </c>
       <c r="D13" t="s">
         <v>607</v>
@@ -2433,10 +2433,10 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C14">
-        <v>110.122</v>
+        <v>98.36799999999999</v>
       </c>
       <c r="D14" t="s">
         <v>607</v>
@@ -2453,7 +2453,7 @@
         <v>605</v>
       </c>
       <c r="C15">
-        <v>99.495</v>
+        <v>96.476</v>
       </c>
       <c r="D15" t="s">
         <v>607</v>
@@ -2470,7 +2470,7 @@
         <v>606</v>
       </c>
       <c r="C16">
-        <v>100.885</v>
+        <v>101.115</v>
       </c>
       <c r="D16" t="s">
         <v>607</v>
@@ -2487,7 +2487,7 @@
         <v>605</v>
       </c>
       <c r="C17">
-        <v>91.042</v>
+        <v>84.809</v>
       </c>
       <c r="D17" t="s">
         <v>607</v>
@@ -2504,7 +2504,7 @@
         <v>606</v>
       </c>
       <c r="C18">
-        <v>104.116</v>
+        <v>103.981</v>
       </c>
       <c r="D18" t="s">
         <v>607</v>
@@ -2521,7 +2521,7 @@
         <v>605</v>
       </c>
       <c r="C19">
-        <v>99.437</v>
+        <v>96.054</v>
       </c>
       <c r="D19" t="s">
         <v>607</v>
@@ -2535,10 +2535,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C20">
-        <v>103.389</v>
+        <v>98.496</v>
       </c>
       <c r="D20" t="s">
         <v>607</v>
@@ -2555,7 +2555,7 @@
         <v>605</v>
       </c>
       <c r="C21">
-        <v>97.44799999999999</v>
+        <v>95.114</v>
       </c>
       <c r="D21" t="s">
         <v>607</v>
@@ -2572,7 +2572,7 @@
         <v>606</v>
       </c>
       <c r="C22">
-        <v>104.2</v>
+        <v>102.28</v>
       </c>
       <c r="D22" t="s">
         <v>607</v>
@@ -2589,7 +2589,7 @@
         <v>605</v>
       </c>
       <c r="C23">
-        <v>92.60299999999999</v>
+        <v>93.759</v>
       </c>
       <c r="D23" t="s">
         <v>607</v>
@@ -2603,10 +2603,10 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C24">
-        <v>94.84999999999999</v>
+        <v>100.87</v>
       </c>
       <c r="D24" t="s">
         <v>607</v>
@@ -2623,7 +2623,7 @@
         <v>606</v>
       </c>
       <c r="C25">
-        <v>104.429</v>
+        <v>104.169</v>
       </c>
       <c r="D25" t="s">
         <v>607</v>
@@ -2640,7 +2640,7 @@
         <v>605</v>
       </c>
       <c r="C26">
-        <v>97.54600000000001</v>
+        <v>90.375</v>
       </c>
       <c r="D26" t="s">
         <v>607</v>
@@ -2657,7 +2657,7 @@
         <v>606</v>
       </c>
       <c r="C27">
-        <v>106.079</v>
+        <v>101.113</v>
       </c>
       <c r="D27" t="s">
         <v>607</v>
@@ -2674,7 +2674,7 @@
         <v>605</v>
       </c>
       <c r="C28">
-        <v>98.08499999999999</v>
+        <v>95.075</v>
       </c>
       <c r="D28" t="s">
         <v>607</v>
@@ -2691,7 +2691,7 @@
         <v>605</v>
       </c>
       <c r="C29">
-        <v>95.86799999999999</v>
+        <v>96.146</v>
       </c>
       <c r="D29" t="s">
         <v>607</v>
@@ -2708,7 +2708,7 @@
         <v>606</v>
       </c>
       <c r="C30">
-        <v>104.464</v>
+        <v>103.489</v>
       </c>
       <c r="D30" t="s">
         <v>607</v>
@@ -2725,7 +2725,7 @@
         <v>605</v>
       </c>
       <c r="C31">
-        <v>99.486</v>
+        <v>97.592</v>
       </c>
       <c r="D31" t="s">
         <v>607</v>
@@ -2742,7 +2742,7 @@
         <v>606</v>
       </c>
       <c r="C32">
-        <v>113.932</v>
+        <v>116.279</v>
       </c>
       <c r="D32" t="s">
         <v>607</v>
@@ -2759,7 +2759,7 @@
         <v>605</v>
       </c>
       <c r="C33">
-        <v>98.221</v>
+        <v>91.41500000000001</v>
       </c>
       <c r="D33" t="s">
         <v>607</v>
@@ -2776,7 +2776,7 @@
         <v>605</v>
       </c>
       <c r="C34">
-        <v>98.874</v>
+        <v>98.413</v>
       </c>
       <c r="D34" t="s">
         <v>607</v>
@@ -2790,10 +2790,10 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C35">
-        <v>101.113</v>
+        <v>92.413</v>
       </c>
       <c r="D35" t="s">
         <v>607</v>
@@ -2807,10 +2807,10 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C36">
-        <v>100.997</v>
+        <v>94.67</v>
       </c>
       <c r="D36" t="s">
         <v>607</v>
@@ -2827,7 +2827,7 @@
         <v>605</v>
       </c>
       <c r="C37">
-        <v>98.419</v>
+        <v>96.495</v>
       </c>
       <c r="D37" t="s">
         <v>607</v>
@@ -2844,7 +2844,7 @@
         <v>605</v>
       </c>
       <c r="C38">
-        <v>95.755</v>
+        <v>99.639</v>
       </c>
       <c r="D38" t="s">
         <v>607</v>
@@ -2861,7 +2861,7 @@
         <v>606</v>
       </c>
       <c r="C39">
-        <v>101.705</v>
+        <v>101.072</v>
       </c>
       <c r="D39" t="s">
         <v>607</v>
@@ -2878,7 +2878,7 @@
         <v>605</v>
       </c>
       <c r="C40">
-        <v>96.38200000000001</v>
+        <v>94.474</v>
       </c>
       <c r="D40" t="s">
         <v>607</v>
@@ -2895,7 +2895,7 @@
         <v>606</v>
       </c>
       <c r="C41">
-        <v>108.342</v>
+        <v>108.92</v>
       </c>
       <c r="D41" t="s">
         <v>607</v>
@@ -2909,10 +2909,10 @@
         <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C42">
-        <v>101.143</v>
+        <v>99.851</v>
       </c>
       <c r="D42" t="s">
         <v>607</v>
@@ -2929,7 +2929,7 @@
         <v>606</v>
       </c>
       <c r="C43">
-        <v>105.349</v>
+        <v>108.335</v>
       </c>
       <c r="D43" t="s">
         <v>607</v>
@@ -2946,7 +2946,7 @@
         <v>605</v>
       </c>
       <c r="C44">
-        <v>99.64400000000001</v>
+        <v>97.614</v>
       </c>
       <c r="D44" t="s">
         <v>607</v>
@@ -2960,10 +2960,10 @@
         <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C45">
-        <v>104.632</v>
+        <v>98.995</v>
       </c>
       <c r="D45" t="s">
         <v>607</v>
@@ -2980,7 +2980,7 @@
         <v>606</v>
       </c>
       <c r="C46">
-        <v>103.59</v>
+        <v>105.653</v>
       </c>
       <c r="D46" t="s">
         <v>607</v>
@@ -2997,7 +2997,7 @@
         <v>606</v>
       </c>
       <c r="C47">
-        <v>103.979</v>
+        <v>104.342</v>
       </c>
       <c r="D47" t="s">
         <v>607</v>
@@ -3011,10 +3011,10 @@
         <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C48">
-        <v>100.352</v>
+        <v>98.309</v>
       </c>
       <c r="D48" t="s">
         <v>607</v>
@@ -3028,10 +3028,10 @@
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C49">
-        <v>101.584</v>
+        <v>97.11199999999999</v>
       </c>
       <c r="D49" t="s">
         <v>607</v>
@@ -3048,7 +3048,7 @@
         <v>606</v>
       </c>
       <c r="C50">
-        <v>100.257</v>
+        <v>100.041</v>
       </c>
       <c r="D50" t="s">
         <v>607</v>
@@ -3065,7 +3065,7 @@
         <v>606</v>
       </c>
       <c r="C51">
-        <v>102.474</v>
+        <v>100.674</v>
       </c>
       <c r="D51" t="s">
         <v>607</v>
@@ -3082,7 +3082,7 @@
         <v>606</v>
       </c>
       <c r="C52">
-        <v>112.111</v>
+        <v>109.042</v>
       </c>
       <c r="D52" t="s">
         <v>607</v>
@@ -3099,7 +3099,7 @@
         <v>605</v>
       </c>
       <c r="C53">
-        <v>88.128</v>
+        <v>91.721</v>
       </c>
       <c r="D53" t="s">
         <v>607</v>
@@ -3116,7 +3116,7 @@
         <v>606</v>
       </c>
       <c r="C54">
-        <v>104.407</v>
+        <v>103.162</v>
       </c>
       <c r="D54" t="s">
         <v>607</v>
@@ -3133,7 +3133,7 @@
         <v>606</v>
       </c>
       <c r="C55">
-        <v>100.782</v>
+        <v>101.498</v>
       </c>
       <c r="D55" t="s">
         <v>607</v>
@@ -3147,10 +3147,10 @@
         <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C56">
-        <v>111.483</v>
+        <v>98.232</v>
       </c>
       <c r="D56" t="s">
         <v>607</v>
@@ -3167,7 +3167,7 @@
         <v>606</v>
       </c>
       <c r="C57">
-        <v>112.674</v>
+        <v>107.889</v>
       </c>
       <c r="D57" t="s">
         <v>607</v>
@@ -3184,7 +3184,7 @@
         <v>605</v>
       </c>
       <c r="C58">
-        <v>98.751</v>
+        <v>97.928</v>
       </c>
       <c r="D58" t="s">
         <v>607</v>
@@ -3201,7 +3201,7 @@
         <v>606</v>
       </c>
       <c r="C59">
-        <v>108.654</v>
+        <v>109.464</v>
       </c>
       <c r="D59" t="s">
         <v>607</v>
@@ -3218,7 +3218,7 @@
         <v>606</v>
       </c>
       <c r="C60">
-        <v>104.153</v>
+        <v>101.434</v>
       </c>
       <c r="D60" t="s">
         <v>607</v>
@@ -3235,7 +3235,7 @@
         <v>605</v>
       </c>
       <c r="C61">
-        <v>97.27800000000001</v>
+        <v>96.923</v>
       </c>
       <c r="D61" t="s">
         <v>607</v>
@@ -3252,7 +3252,7 @@
         <v>606</v>
       </c>
       <c r="C62">
-        <v>105.803</v>
+        <v>103.876</v>
       </c>
       <c r="D62" t="s">
         <v>607</v>
@@ -3269,7 +3269,7 @@
         <v>606</v>
       </c>
       <c r="C63">
-        <v>103.969</v>
+        <v>101.975</v>
       </c>
       <c r="D63" t="s">
         <v>607</v>
@@ -3283,10 +3283,10 @@
         <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C64">
-        <v>100.699</v>
+        <v>96.431</v>
       </c>
       <c r="D64" t="s">
         <v>607</v>
@@ -3303,7 +3303,7 @@
         <v>605</v>
       </c>
       <c r="C65">
-        <v>98.971</v>
+        <v>94.65000000000001</v>
       </c>
       <c r="D65" t="s">
         <v>607</v>
@@ -3320,7 +3320,7 @@
         <v>606</v>
       </c>
       <c r="C66">
-        <v>104.444</v>
+        <v>101.1</v>
       </c>
       <c r="D66" t="s">
         <v>607</v>
@@ -3337,7 +3337,7 @@
         <v>606</v>
       </c>
       <c r="C67">
-        <v>104.371</v>
+        <v>103.912</v>
       </c>
       <c r="D67" t="s">
         <v>607</v>
@@ -3354,7 +3354,7 @@
         <v>606</v>
       </c>
       <c r="C68">
-        <v>105.444</v>
+        <v>102.957</v>
       </c>
       <c r="D68" t="s">
         <v>607</v>
@@ -3371,7 +3371,7 @@
         <v>605</v>
       </c>
       <c r="C69">
-        <v>97.84399999999999</v>
+        <v>93.32899999999999</v>
       </c>
       <c r="D69" t="s">
         <v>607</v>
@@ -3388,7 +3388,7 @@
         <v>606</v>
       </c>
       <c r="C70">
-        <v>106.45</v>
+        <v>106.713</v>
       </c>
       <c r="D70" t="s">
         <v>607</v>
@@ -3402,10 +3402,10 @@
         <v>74</v>
       </c>
       <c r="B71" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C71">
-        <v>101.247</v>
+        <v>98.36499999999999</v>
       </c>
       <c r="D71" t="s">
         <v>607</v>
@@ -3422,7 +3422,7 @@
         <v>606</v>
       </c>
       <c r="C72">
-        <v>111.925</v>
+        <v>108.269</v>
       </c>
       <c r="D72" t="s">
         <v>607</v>
@@ -3439,7 +3439,7 @@
         <v>605</v>
       </c>
       <c r="C73">
-        <v>99.17</v>
+        <v>98.604</v>
       </c>
       <c r="D73" t="s">
         <v>607</v>
@@ -3453,10 +3453,10 @@
         <v>77</v>
       </c>
       <c r="B74" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C74">
-        <v>104.108</v>
+        <v>99.693</v>
       </c>
       <c r="D74" t="s">
         <v>607</v>
@@ -3473,7 +3473,7 @@
         <v>605</v>
       </c>
       <c r="C75">
-        <v>95.05800000000001</v>
+        <v>92.126</v>
       </c>
       <c r="D75" t="s">
         <v>607</v>
@@ -3490,7 +3490,7 @@
         <v>606</v>
       </c>
       <c r="C76">
-        <v>118.9</v>
+        <v>118.945</v>
       </c>
       <c r="D76" t="s">
         <v>607</v>
@@ -3507,7 +3507,7 @@
         <v>606</v>
       </c>
       <c r="C77">
-        <v>107.198</v>
+        <v>105.585</v>
       </c>
       <c r="D77" t="s">
         <v>607</v>
@@ -3524,7 +3524,7 @@
         <v>605</v>
       </c>
       <c r="C78">
-        <v>99.45399999999999</v>
+        <v>99.89700000000001</v>
       </c>
       <c r="D78" t="s">
         <v>607</v>
@@ -3538,10 +3538,10 @@
         <v>82</v>
       </c>
       <c r="B79" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C79">
-        <v>103.398</v>
+        <v>99.771</v>
       </c>
       <c r="D79" t="s">
         <v>607</v>
@@ -3558,7 +3558,7 @@
         <v>606</v>
       </c>
       <c r="C80">
-        <v>112.685</v>
+        <v>114.878</v>
       </c>
       <c r="D80" t="s">
         <v>607</v>
@@ -3572,10 +3572,10 @@
         <v>84</v>
       </c>
       <c r="B81" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C81">
-        <v>101.511</v>
+        <v>99.45099999999999</v>
       </c>
       <c r="D81" t="s">
         <v>607</v>
@@ -3592,7 +3592,7 @@
         <v>605</v>
       </c>
       <c r="C82">
-        <v>97.167</v>
+        <v>91.117</v>
       </c>
       <c r="D82" t="s">
         <v>607</v>
@@ -3609,7 +3609,7 @@
         <v>605</v>
       </c>
       <c r="C83">
-        <v>99.58799999999999</v>
+        <v>91.642</v>
       </c>
       <c r="D83" t="s">
         <v>607</v>
@@ -3626,7 +3626,7 @@
         <v>606</v>
       </c>
       <c r="C84">
-        <v>114.494</v>
+        <v>107.792</v>
       </c>
       <c r="D84" t="s">
         <v>607</v>
@@ -3643,7 +3643,7 @@
         <v>605</v>
       </c>
       <c r="C85">
-        <v>94.389</v>
+        <v>93.97499999999999</v>
       </c>
       <c r="D85" t="s">
         <v>607</v>
@@ -3660,7 +3660,7 @@
         <v>606</v>
       </c>
       <c r="C86">
-        <v>122.635</v>
+        <v>117.788</v>
       </c>
       <c r="D86" t="s">
         <v>607</v>
@@ -3677,7 +3677,7 @@
         <v>606</v>
       </c>
       <c r="C87">
-        <v>101.969</v>
+        <v>104.68</v>
       </c>
       <c r="D87" t="s">
         <v>607</v>
@@ -3694,7 +3694,7 @@
         <v>606</v>
       </c>
       <c r="C88">
-        <v>108.408</v>
+        <v>113.857</v>
       </c>
       <c r="D88" t="s">
         <v>607</v>
@@ -3711,7 +3711,7 @@
         <v>606</v>
       </c>
       <c r="C89">
-        <v>110.66</v>
+        <v>115.101</v>
       </c>
       <c r="D89" t="s">
         <v>607</v>
@@ -3728,7 +3728,7 @@
         <v>605</v>
       </c>
       <c r="C90">
-        <v>95.348</v>
+        <v>93.65900000000001</v>
       </c>
       <c r="D90" t="s">
         <v>607</v>
@@ -3745,7 +3745,7 @@
         <v>606</v>
       </c>
       <c r="C91">
-        <v>105.81</v>
+        <v>107.361</v>
       </c>
       <c r="D91" t="s">
         <v>607</v>
@@ -3762,7 +3762,7 @@
         <v>606</v>
       </c>
       <c r="C92">
-        <v>111.415</v>
+        <v>108.226</v>
       </c>
       <c r="D92" t="s">
         <v>607</v>
@@ -3779,7 +3779,7 @@
         <v>606</v>
       </c>
       <c r="C93">
-        <v>119.293</v>
+        <v>118.302</v>
       </c>
       <c r="D93" t="s">
         <v>607</v>
@@ -3796,7 +3796,7 @@
         <v>605</v>
       </c>
       <c r="C94">
-        <v>93.102</v>
+        <v>89.5</v>
       </c>
       <c r="D94" t="s">
         <v>607</v>
@@ -3813,7 +3813,7 @@
         <v>606</v>
       </c>
       <c r="C95">
-        <v>108.465</v>
+        <v>106.779</v>
       </c>
       <c r="D95" t="s">
         <v>607</v>
@@ -3830,7 +3830,7 @@
         <v>605</v>
       </c>
       <c r="C96">
-        <v>97.807</v>
+        <v>99.328</v>
       </c>
       <c r="D96" t="s">
         <v>607</v>
@@ -3847,7 +3847,7 @@
         <v>606</v>
       </c>
       <c r="C97">
-        <v>101.266</v>
+        <v>107.546</v>
       </c>
       <c r="D97" t="s">
         <v>607</v>
@@ -3864,7 +3864,7 @@
         <v>606</v>
       </c>
       <c r="C98">
-        <v>121.169</v>
+        <v>111.045</v>
       </c>
       <c r="D98" t="s">
         <v>607</v>
@@ -3878,10 +3878,10 @@
         <v>102</v>
       </c>
       <c r="B99" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C99">
-        <v>103.468</v>
+        <v>98.926</v>
       </c>
       <c r="D99" t="s">
         <v>607</v>
@@ -3898,7 +3898,7 @@
         <v>606</v>
       </c>
       <c r="C100">
-        <v>101.114</v>
+        <v>101.92</v>
       </c>
       <c r="D100" t="s">
         <v>607</v>
@@ -3915,7 +3915,7 @@
         <v>606</v>
       </c>
       <c r="C101">
-        <v>103.4</v>
+        <v>101.54</v>
       </c>
       <c r="D101" t="s">
         <v>607</v>
@@ -3932,7 +3932,7 @@
         <v>605</v>
       </c>
       <c r="C102">
-        <v>98.958</v>
+        <v>94.196</v>
       </c>
       <c r="D102" t="s">
         <v>607</v>
@@ -3949,7 +3949,7 @@
         <v>606</v>
       </c>
       <c r="C103">
-        <v>109.821</v>
+        <v>113.81</v>
       </c>
       <c r="D103" t="s">
         <v>607</v>
@@ -3966,7 +3966,7 @@
         <v>606</v>
       </c>
       <c r="C104">
-        <v>105.88</v>
+        <v>106.781</v>
       </c>
       <c r="D104" t="s">
         <v>607</v>
@@ -3983,7 +3983,7 @@
         <v>606</v>
       </c>
       <c r="C105">
-        <v>104.422</v>
+        <v>101.952</v>
       </c>
       <c r="D105" t="s">
         <v>607</v>
@@ -4000,7 +4000,7 @@
         <v>605</v>
       </c>
       <c r="C106">
-        <v>97.264</v>
+        <v>94.834</v>
       </c>
       <c r="D106" t="s">
         <v>607</v>
@@ -4017,7 +4017,7 @@
         <v>606</v>
       </c>
       <c r="C107">
-        <v>105.909</v>
+        <v>104.59</v>
       </c>
       <c r="D107" t="s">
         <v>607</v>
@@ -4034,7 +4034,7 @@
         <v>605</v>
       </c>
       <c r="C108">
-        <v>98.959</v>
+        <v>97.633</v>
       </c>
       <c r="D108" t="s">
         <v>607</v>
@@ -4051,7 +4051,7 @@
         <v>606</v>
       </c>
       <c r="C109">
-        <v>105.929</v>
+        <v>104.351</v>
       </c>
       <c r="D109" t="s">
         <v>607</v>
@@ -4068,7 +4068,7 @@
         <v>606</v>
       </c>
       <c r="C110">
-        <v>103.755</v>
+        <v>104.332</v>
       </c>
       <c r="D110" t="s">
         <v>607</v>
@@ -4085,7 +4085,7 @@
         <v>605</v>
       </c>
       <c r="C111">
-        <v>87.995</v>
+        <v>85.836</v>
       </c>
       <c r="D111" t="s">
         <v>607</v>
@@ -4099,10 +4099,10 @@
         <v>115</v>
       </c>
       <c r="B112" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C112">
-        <v>100.067</v>
+        <v>98.227</v>
       </c>
       <c r="D112" t="s">
         <v>607</v>
@@ -4116,10 +4116,10 @@
         <v>116</v>
       </c>
       <c r="B113" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C113">
-        <v>101.842</v>
+        <v>99.746</v>
       </c>
       <c r="D113" t="s">
         <v>607</v>
@@ -4136,7 +4136,7 @@
         <v>606</v>
       </c>
       <c r="C114">
-        <v>123.951</v>
+        <v>126.05</v>
       </c>
       <c r="D114" t="s">
         <v>607</v>
@@ -4150,10 +4150,10 @@
         <v>118</v>
       </c>
       <c r="B115" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C115">
-        <v>107.091</v>
+        <v>97.886</v>
       </c>
       <c r="D115" t="s">
         <v>607</v>
@@ -4170,7 +4170,7 @@
         <v>605</v>
       </c>
       <c r="C116">
-        <v>99.593</v>
+        <v>97.586</v>
       </c>
       <c r="D116" t="s">
         <v>607</v>
@@ -4187,7 +4187,7 @@
         <v>605</v>
       </c>
       <c r="C117">
-        <v>97.85899999999999</v>
+        <v>99.922</v>
       </c>
       <c r="D117" t="s">
         <v>607</v>
@@ -4204,7 +4204,7 @@
         <v>605</v>
       </c>
       <c r="C118">
-        <v>99.392</v>
+        <v>96.971</v>
       </c>
       <c r="D118" t="s">
         <v>607</v>
@@ -4221,7 +4221,7 @@
         <v>606</v>
       </c>
       <c r="C119">
-        <v>105.874</v>
+        <v>101.754</v>
       </c>
       <c r="D119" t="s">
         <v>607</v>
@@ -4235,10 +4235,10 @@
         <v>123</v>
       </c>
       <c r="B120" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C120">
-        <v>100.774</v>
+        <v>99.943</v>
       </c>
       <c r="D120" t="s">
         <v>607</v>
@@ -4255,7 +4255,7 @@
         <v>606</v>
       </c>
       <c r="C121">
-        <v>107.197</v>
+        <v>106.771</v>
       </c>
       <c r="D121" t="s">
         <v>607</v>
@@ -4272,7 +4272,7 @@
         <v>606</v>
       </c>
       <c r="C122">
-        <v>124.328</v>
+        <v>129.12</v>
       </c>
       <c r="D122" t="s">
         <v>607</v>
@@ -4289,7 +4289,7 @@
         <v>606</v>
       </c>
       <c r="C123">
-        <v>105.724</v>
+        <v>100.966</v>
       </c>
       <c r="D123" t="s">
         <v>607</v>
@@ -4306,7 +4306,7 @@
         <v>606</v>
       </c>
       <c r="C124">
-        <v>103.27</v>
+        <v>103.24</v>
       </c>
       <c r="D124" t="s">
         <v>607</v>
@@ -4323,7 +4323,7 @@
         <v>606</v>
       </c>
       <c r="C125">
-        <v>105.433</v>
+        <v>104.15</v>
       </c>
       <c r="D125" t="s">
         <v>607</v>
@@ -4337,10 +4337,10 @@
         <v>129</v>
       </c>
       <c r="B126" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C126">
-        <v>102.519</v>
+        <v>99.90900000000001</v>
       </c>
       <c r="D126" t="s">
         <v>607</v>
@@ -4354,10 +4354,10 @@
         <v>130</v>
       </c>
       <c r="B127" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C127">
-        <v>101.892</v>
+        <v>99</v>
       </c>
       <c r="D127" t="s">
         <v>607</v>
@@ -4371,10 +4371,10 @@
         <v>131</v>
       </c>
       <c r="B128" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C128">
-        <v>100.385</v>
+        <v>98.194</v>
       </c>
       <c r="D128" t="s">
         <v>607</v>
@@ -4391,7 +4391,7 @@
         <v>606</v>
       </c>
       <c r="C129">
-        <v>108.076</v>
+        <v>108.176</v>
       </c>
       <c r="D129" t="s">
         <v>607</v>
@@ -4408,7 +4408,7 @@
         <v>606</v>
       </c>
       <c r="C130">
-        <v>104.092</v>
+        <v>112.551</v>
       </c>
       <c r="D130" t="s">
         <v>607</v>
@@ -4425,7 +4425,7 @@
         <v>606</v>
       </c>
       <c r="C131">
-        <v>103.697</v>
+        <v>102.09</v>
       </c>
       <c r="D131" t="s">
         <v>607</v>
@@ -4442,7 +4442,7 @@
         <v>606</v>
       </c>
       <c r="C132">
-        <v>107.177</v>
+        <v>110.929</v>
       </c>
       <c r="D132" t="s">
         <v>607</v>
@@ -4459,7 +4459,7 @@
         <v>606</v>
       </c>
       <c r="C133">
-        <v>108.184</v>
+        <v>110.585</v>
       </c>
       <c r="D133" t="s">
         <v>607</v>
@@ -4476,7 +4476,7 @@
         <v>606</v>
       </c>
       <c r="C134">
-        <v>105.554</v>
+        <v>107.801</v>
       </c>
       <c r="D134" t="s">
         <v>607</v>
@@ -4493,7 +4493,7 @@
         <v>605</v>
       </c>
       <c r="C135">
-        <v>98.3</v>
+        <v>94.94</v>
       </c>
       <c r="D135" t="s">
         <v>607</v>
@@ -4510,7 +4510,7 @@
         <v>606</v>
       </c>
       <c r="C136">
-        <v>115.899</v>
+        <v>116.943</v>
       </c>
       <c r="D136" t="s">
         <v>607</v>
@@ -4527,7 +4527,7 @@
         <v>605</v>
       </c>
       <c r="C137">
-        <v>96.982</v>
+        <v>97.93600000000001</v>
       </c>
       <c r="D137" t="s">
         <v>607</v>
@@ -4544,7 +4544,7 @@
         <v>606</v>
       </c>
       <c r="C138">
-        <v>104.454</v>
+        <v>104.294</v>
       </c>
       <c r="D138" t="s">
         <v>607</v>
@@ -4561,7 +4561,7 @@
         <v>606</v>
       </c>
       <c r="C139">
-        <v>108.666</v>
+        <v>105.024</v>
       </c>
       <c r="D139" t="s">
         <v>607</v>
@@ -4578,7 +4578,7 @@
         <v>606</v>
       </c>
       <c r="C140">
-        <v>105.066</v>
+        <v>105.065</v>
       </c>
       <c r="D140" t="s">
         <v>607</v>
@@ -4595,7 +4595,7 @@
         <v>606</v>
       </c>
       <c r="C141">
-        <v>106.187</v>
+        <v>103.413</v>
       </c>
       <c r="D141" t="s">
         <v>607</v>
@@ -4612,7 +4612,7 @@
         <v>606</v>
       </c>
       <c r="C142">
-        <v>106.713</v>
+        <v>105.92</v>
       </c>
       <c r="D142" t="s">
         <v>607</v>
@@ -4629,7 +4629,7 @@
         <v>606</v>
       </c>
       <c r="C143">
-        <v>103.487</v>
+        <v>102.711</v>
       </c>
       <c r="D143" t="s">
         <v>607</v>
@@ -4646,7 +4646,7 @@
         <v>606</v>
       </c>
       <c r="C144">
-        <v>102.171</v>
+        <v>101.043</v>
       </c>
       <c r="D144" t="s">
         <v>607</v>
@@ -4663,7 +4663,7 @@
         <v>606</v>
       </c>
       <c r="C145">
-        <v>107.616</v>
+        <v>109.089</v>
       </c>
       <c r="D145" t="s">
         <v>607</v>
@@ -4680,7 +4680,7 @@
         <v>606</v>
       </c>
       <c r="C146">
-        <v>107.613</v>
+        <v>108.462</v>
       </c>
       <c r="D146" t="s">
         <v>607</v>
@@ -4697,7 +4697,7 @@
         <v>605</v>
       </c>
       <c r="C147">
-        <v>96.699</v>
+        <v>94.91500000000001</v>
       </c>
       <c r="D147" t="s">
         <v>607</v>
@@ -4714,7 +4714,7 @@
         <v>606</v>
       </c>
       <c r="C148">
-        <v>103.781</v>
+        <v>101.059</v>
       </c>
       <c r="D148" t="s">
         <v>607</v>
@@ -4731,7 +4731,7 @@
         <v>606</v>
       </c>
       <c r="C149">
-        <v>116.745</v>
+        <v>115.807</v>
       </c>
       <c r="D149" t="s">
         <v>607</v>
@@ -4745,10 +4745,10 @@
         <v>153</v>
       </c>
       <c r="B150" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C150">
-        <v>105.122</v>
+        <v>97.726</v>
       </c>
       <c r="D150" t="s">
         <v>607</v>
@@ -4765,7 +4765,7 @@
         <v>606</v>
       </c>
       <c r="C151">
-        <v>140.366</v>
+        <v>146.226</v>
       </c>
       <c r="D151" t="s">
         <v>607</v>
@@ -4782,7 +4782,7 @@
         <v>606</v>
       </c>
       <c r="C152">
-        <v>104.148</v>
+        <v>100.897</v>
       </c>
       <c r="D152" t="s">
         <v>607</v>
@@ -4799,7 +4799,7 @@
         <v>606</v>
       </c>
       <c r="C153">
-        <v>103.984</v>
+        <v>106.563</v>
       </c>
       <c r="D153" t="s">
         <v>607</v>
@@ -4816,7 +4816,7 @@
         <v>606</v>
       </c>
       <c r="C154">
-        <v>109.766</v>
+        <v>113.471</v>
       </c>
       <c r="D154" t="s">
         <v>607</v>
@@ -4833,7 +4833,7 @@
         <v>606</v>
       </c>
       <c r="C155">
-        <v>105.032</v>
+        <v>100.786</v>
       </c>
       <c r="D155" t="s">
         <v>607</v>
@@ -4850,7 +4850,7 @@
         <v>606</v>
       </c>
       <c r="C156">
-        <v>104.661</v>
+        <v>101.946</v>
       </c>
       <c r="D156" t="s">
         <v>607</v>
@@ -4867,7 +4867,7 @@
         <v>605</v>
       </c>
       <c r="C157">
-        <v>98.149</v>
+        <v>97.09699999999999</v>
       </c>
       <c r="D157" t="s">
         <v>607</v>
@@ -4884,7 +4884,7 @@
         <v>606</v>
       </c>
       <c r="C158">
-        <v>108.383</v>
+        <v>107.136</v>
       </c>
       <c r="D158" t="s">
         <v>607</v>
@@ -4901,7 +4901,7 @@
         <v>605</v>
       </c>
       <c r="C159">
-        <v>97.047</v>
+        <v>93.84699999999999</v>
       </c>
       <c r="D159" t="s">
         <v>607</v>
@@ -4918,7 +4918,7 @@
         <v>606</v>
       </c>
       <c r="C160">
-        <v>104.246</v>
+        <v>100.321</v>
       </c>
       <c r="D160" t="s">
         <v>607</v>
@@ -4935,7 +4935,7 @@
         <v>606</v>
       </c>
       <c r="C161">
-        <v>106.529</v>
+        <v>101.687</v>
       </c>
       <c r="D161" t="s">
         <v>607</v>
@@ -4952,7 +4952,7 @@
         <v>606</v>
       </c>
       <c r="C162">
-        <v>105.227</v>
+        <v>105.845</v>
       </c>
       <c r="D162" t="s">
         <v>607</v>
@@ -4969,7 +4969,7 @@
         <v>606</v>
       </c>
       <c r="C163">
-        <v>104.185</v>
+        <v>101.526</v>
       </c>
       <c r="D163" t="s">
         <v>607</v>
@@ -4986,7 +4986,7 @@
         <v>606</v>
       </c>
       <c r="C164">
-        <v>112.489</v>
+        <v>122.055</v>
       </c>
       <c r="D164" t="s">
         <v>607</v>
@@ -5003,7 +5003,7 @@
         <v>606</v>
       </c>
       <c r="C165">
-        <v>113.052</v>
+        <v>108.778</v>
       </c>
       <c r="D165" t="s">
         <v>607</v>
@@ -5020,7 +5020,7 @@
         <v>606</v>
       </c>
       <c r="C166">
-        <v>101.199</v>
+        <v>100.509</v>
       </c>
       <c r="D166" t="s">
         <v>607</v>
@@ -5037,7 +5037,7 @@
         <v>606</v>
       </c>
       <c r="C167">
-        <v>105.541</v>
+        <v>105.045</v>
       </c>
       <c r="D167" t="s">
         <v>607</v>
@@ -5054,7 +5054,7 @@
         <v>606</v>
       </c>
       <c r="C168">
-        <v>107.362</v>
+        <v>103.255</v>
       </c>
       <c r="D168" t="s">
         <v>607</v>
@@ -5068,10 +5068,10 @@
         <v>172</v>
       </c>
       <c r="B169" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C169">
-        <v>100.335</v>
+        <v>98.499</v>
       </c>
       <c r="D169" t="s">
         <v>607</v>
@@ -5085,10 +5085,10 @@
         <v>173</v>
       </c>
       <c r="B170" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C170">
-        <v>100.985</v>
+        <v>97.875</v>
       </c>
       <c r="D170" t="s">
         <v>607</v>
@@ -5105,7 +5105,7 @@
         <v>606</v>
       </c>
       <c r="C171">
-        <v>106.53</v>
+        <v>104.123</v>
       </c>
       <c r="D171" t="s">
         <v>607</v>
@@ -5122,7 +5122,7 @@
         <v>606</v>
       </c>
       <c r="C172">
-        <v>102.121</v>
+        <v>100.245</v>
       </c>
       <c r="D172" t="s">
         <v>607</v>
@@ -5139,7 +5139,7 @@
         <v>605</v>
       </c>
       <c r="C173">
-        <v>99.27</v>
+        <v>97.80500000000001</v>
       </c>
       <c r="D173" t="s">
         <v>607</v>
@@ -5156,7 +5156,7 @@
         <v>605</v>
       </c>
       <c r="C174">
-        <v>94.527</v>
+        <v>93.77800000000001</v>
       </c>
       <c r="D174" t="s">
         <v>607</v>
@@ -5173,7 +5173,7 @@
         <v>606</v>
       </c>
       <c r="C175">
-        <v>137.166</v>
+        <v>136.332</v>
       </c>
       <c r="D175" t="s">
         <v>607</v>
@@ -5190,7 +5190,7 @@
         <v>606</v>
       </c>
       <c r="C176">
-        <v>105.099</v>
+        <v>106.779</v>
       </c>
       <c r="D176" t="s">
         <v>607</v>
@@ -5207,7 +5207,7 @@
         <v>605</v>
       </c>
       <c r="C177">
-        <v>93.83799999999999</v>
+        <v>92.027</v>
       </c>
       <c r="D177" t="s">
         <v>607</v>
@@ -5224,7 +5224,7 @@
         <v>606</v>
       </c>
       <c r="C178">
-        <v>105.415</v>
+        <v>102.536</v>
       </c>
       <c r="D178" t="s">
         <v>607</v>
@@ -5241,7 +5241,7 @@
         <v>606</v>
       </c>
       <c r="C179">
-        <v>102.472</v>
+        <v>100.812</v>
       </c>
       <c r="D179" t="s">
         <v>607</v>
@@ -5255,10 +5255,10 @@
         <v>183</v>
       </c>
       <c r="B180" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C180">
-        <v>101.241</v>
+        <v>98.968</v>
       </c>
       <c r="D180" t="s">
         <v>607</v>
@@ -5275,7 +5275,7 @@
         <v>606</v>
       </c>
       <c r="C181">
-        <v>101.583</v>
+        <v>106.631</v>
       </c>
       <c r="D181" t="s">
         <v>607</v>
@@ -5289,10 +5289,10 @@
         <v>185</v>
       </c>
       <c r="B182" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C182">
-        <v>98.84999999999999</v>
+        <v>101.508</v>
       </c>
       <c r="D182" t="s">
         <v>607</v>
@@ -5309,7 +5309,7 @@
         <v>606</v>
       </c>
       <c r="C183">
-        <v>107.258</v>
+        <v>107.05</v>
       </c>
       <c r="D183" t="s">
         <v>607</v>
@@ -5323,10 +5323,10 @@
         <v>187</v>
       </c>
       <c r="B184" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C184">
-        <v>100.574</v>
+        <v>99.86</v>
       </c>
       <c r="D184" t="s">
         <v>607</v>
@@ -5343,7 +5343,7 @@
         <v>606</v>
       </c>
       <c r="C185">
-        <v>105.538</v>
+        <v>103.186</v>
       </c>
       <c r="D185" t="s">
         <v>607</v>
@@ -5360,7 +5360,7 @@
         <v>605</v>
       </c>
       <c r="C186">
-        <v>82.404</v>
+        <v>81.68600000000001</v>
       </c>
       <c r="D186" t="s">
         <v>607</v>
@@ -5377,7 +5377,7 @@
         <v>606</v>
       </c>
       <c r="C187">
-        <v>127.09</v>
+        <v>127.024</v>
       </c>
       <c r="D187" t="s">
         <v>607</v>
@@ -5394,7 +5394,7 @@
         <v>606</v>
       </c>
       <c r="C188">
-        <v>105.977</v>
+        <v>110.584</v>
       </c>
       <c r="D188" t="s">
         <v>607</v>
@@ -5408,10 +5408,10 @@
         <v>192</v>
       </c>
       <c r="B189" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C189">
-        <v>100.013</v>
+        <v>97.901</v>
       </c>
       <c r="D189" t="s">
         <v>607</v>
@@ -5428,7 +5428,7 @@
         <v>606</v>
       </c>
       <c r="C190">
-        <v>107.267</v>
+        <v>105.525</v>
       </c>
       <c r="D190" t="s">
         <v>607</v>
@@ -5445,7 +5445,7 @@
         <v>606</v>
       </c>
       <c r="C191">
-        <v>105.876</v>
+        <v>106.181</v>
       </c>
       <c r="D191" t="s">
         <v>607</v>
@@ -5462,7 +5462,7 @@
         <v>605</v>
       </c>
       <c r="C192">
-        <v>98.67700000000001</v>
+        <v>96.783</v>
       </c>
       <c r="D192" t="s">
         <v>607</v>
@@ -5479,7 +5479,7 @@
         <v>606</v>
       </c>
       <c r="C193">
-        <v>108.034</v>
+        <v>105.072</v>
       </c>
       <c r="D193" t="s">
         <v>607</v>
@@ -5496,7 +5496,7 @@
         <v>605</v>
       </c>
       <c r="C194">
-        <v>99.057</v>
+        <v>97.569</v>
       </c>
       <c r="D194" t="s">
         <v>607</v>
@@ -5510,10 +5510,10 @@
         <v>198</v>
       </c>
       <c r="B195" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C195">
-        <v>102.725</v>
+        <v>99.59099999999999</v>
       </c>
       <c r="D195" t="s">
         <v>607</v>
@@ -5530,7 +5530,7 @@
         <v>605</v>
       </c>
       <c r="C196">
-        <v>98.693</v>
+        <v>99.047</v>
       </c>
       <c r="D196" t="s">
         <v>607</v>
@@ -5547,7 +5547,7 @@
         <v>606</v>
       </c>
       <c r="C197">
-        <v>106.488</v>
+        <v>101.692</v>
       </c>
       <c r="D197" t="s">
         <v>607</v>
@@ -5564,7 +5564,7 @@
         <v>606</v>
       </c>
       <c r="C198">
-        <v>111.606</v>
+        <v>112.509</v>
       </c>
       <c r="D198" t="s">
         <v>607</v>
@@ -5578,10 +5578,10 @@
         <v>202</v>
       </c>
       <c r="B199" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C199">
-        <v>102.05</v>
+        <v>99.626</v>
       </c>
       <c r="D199" t="s">
         <v>607</v>
@@ -5598,7 +5598,7 @@
         <v>606</v>
       </c>
       <c r="C200">
-        <v>115.113</v>
+        <v>110.062</v>
       </c>
       <c r="D200" t="s">
         <v>607</v>
@@ -5615,7 +5615,7 @@
         <v>606</v>
       </c>
       <c r="C201">
-        <v>109.456</v>
+        <v>110.425</v>
       </c>
       <c r="D201" t="s">
         <v>607</v>
@@ -5632,7 +5632,7 @@
         <v>606</v>
       </c>
       <c r="C202">
-        <v>123.713</v>
+        <v>128.116</v>
       </c>
       <c r="D202" t="s">
         <v>607</v>
@@ -5649,7 +5649,7 @@
         <v>606</v>
       </c>
       <c r="C203">
-        <v>115.272</v>
+        <v>116.612</v>
       </c>
       <c r="D203" t="s">
         <v>607</v>
@@ -5666,7 +5666,7 @@
         <v>606</v>
       </c>
       <c r="C204">
-        <v>100.611</v>
+        <v>102.368</v>
       </c>
       <c r="D204" t="s">
         <v>607</v>
@@ -5683,7 +5683,7 @@
         <v>606</v>
       </c>
       <c r="C205">
-        <v>143.675</v>
+        <v>143.326</v>
       </c>
       <c r="D205" t="s">
         <v>607</v>
@@ -5700,7 +5700,7 @@
         <v>606</v>
       </c>
       <c r="C206">
-        <v>109.62</v>
+        <v>108.475</v>
       </c>
       <c r="D206" t="s">
         <v>607</v>
@@ -5717,7 +5717,7 @@
         <v>606</v>
       </c>
       <c r="C207">
-        <v>120.327</v>
+        <v>120.542</v>
       </c>
       <c r="D207" t="s">
         <v>607</v>
@@ -5734,7 +5734,7 @@
         <v>605</v>
       </c>
       <c r="C208">
-        <v>94.89700000000001</v>
+        <v>89.26900000000001</v>
       </c>
       <c r="D208" t="s">
         <v>607</v>
@@ -5751,7 +5751,7 @@
         <v>606</v>
       </c>
       <c r="C209">
-        <v>105.631</v>
+        <v>110.058</v>
       </c>
       <c r="D209" t="s">
         <v>607</v>
@@ -5768,7 +5768,7 @@
         <v>606</v>
       </c>
       <c r="C210">
-        <v>107.714</v>
+        <v>108.508</v>
       </c>
       <c r="D210" t="s">
         <v>607</v>
@@ -5785,7 +5785,7 @@
         <v>606</v>
       </c>
       <c r="C211">
-        <v>117.247</v>
+        <v>118.39</v>
       </c>
       <c r="D211" t="s">
         <v>607</v>
@@ -5802,7 +5802,7 @@
         <v>606</v>
       </c>
       <c r="C212">
-        <v>100.501</v>
+        <v>104.479</v>
       </c>
       <c r="D212" t="s">
         <v>607</v>
@@ -5819,7 +5819,7 @@
         <v>606</v>
       </c>
       <c r="C213">
-        <v>103.274</v>
+        <v>103.008</v>
       </c>
       <c r="D213" t="s">
         <v>607</v>
@@ -5836,7 +5836,7 @@
         <v>606</v>
       </c>
       <c r="C214">
-        <v>108.415</v>
+        <v>106.82</v>
       </c>
       <c r="D214" t="s">
         <v>607</v>
@@ -5853,7 +5853,7 @@
         <v>605</v>
       </c>
       <c r="C215">
-        <v>96.395</v>
+        <v>94.38800000000001</v>
       </c>
       <c r="D215" t="s">
         <v>607</v>
@@ -5870,7 +5870,7 @@
         <v>605</v>
       </c>
       <c r="C216">
-        <v>97.696</v>
+        <v>95.765</v>
       </c>
       <c r="D216" t="s">
         <v>607</v>
@@ -5887,7 +5887,7 @@
         <v>606</v>
       </c>
       <c r="C217">
-        <v>103.013</v>
+        <v>102.021</v>
       </c>
       <c r="D217" t="s">
         <v>607</v>
@@ -5904,7 +5904,7 @@
         <v>606</v>
       </c>
       <c r="C218">
-        <v>111.306</v>
+        <v>112.383</v>
       </c>
       <c r="D218" t="s">
         <v>607</v>
@@ -5921,7 +5921,7 @@
         <v>606</v>
       </c>
       <c r="C219">
-        <v>117.846</v>
+        <v>111.137</v>
       </c>
       <c r="D219" t="s">
         <v>607</v>
@@ -5938,7 +5938,7 @@
         <v>605</v>
       </c>
       <c r="C220">
-        <v>99.851</v>
+        <v>96.758</v>
       </c>
       <c r="D220" t="s">
         <v>607</v>
@@ -5955,7 +5955,7 @@
         <v>606</v>
       </c>
       <c r="C221">
-        <v>110.668</v>
+        <v>110.515</v>
       </c>
       <c r="D221" t="s">
         <v>607</v>
@@ -5972,7 +5972,7 @@
         <v>605</v>
       </c>
       <c r="C222">
-        <v>96.455</v>
+        <v>96.813</v>
       </c>
       <c r="D222" t="s">
         <v>607</v>
@@ -5989,7 +5989,7 @@
         <v>606</v>
       </c>
       <c r="C223">
-        <v>112.689</v>
+        <v>109.43</v>
       </c>
       <c r="D223" t="s">
         <v>607</v>
@@ -6006,7 +6006,7 @@
         <v>606</v>
       </c>
       <c r="C224">
-        <v>112.886</v>
+        <v>114.223</v>
       </c>
       <c r="D224" t="s">
         <v>607</v>
@@ -6023,7 +6023,7 @@
         <v>606</v>
       </c>
       <c r="C225">
-        <v>106.6</v>
+        <v>105.978</v>
       </c>
       <c r="D225" t="s">
         <v>607</v>
@@ -6040,7 +6040,7 @@
         <v>606</v>
       </c>
       <c r="C226">
-        <v>112.294</v>
+        <v>110.9</v>
       </c>
       <c r="D226" t="s">
         <v>607</v>
@@ -6054,10 +6054,10 @@
         <v>230</v>
       </c>
       <c r="B227" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C227">
-        <v>100.538</v>
+        <v>95.495</v>
       </c>
       <c r="D227" t="s">
         <v>607</v>
@@ -6074,7 +6074,7 @@
         <v>606</v>
       </c>
       <c r="C228">
-        <v>107.201</v>
+        <v>107.745</v>
       </c>
       <c r="D228" t="s">
         <v>607</v>
@@ -6091,7 +6091,7 @@
         <v>606</v>
       </c>
       <c r="C229">
-        <v>105.352</v>
+        <v>103.092</v>
       </c>
       <c r="D229" t="s">
         <v>607</v>
@@ -6108,7 +6108,7 @@
         <v>606</v>
       </c>
       <c r="C230">
-        <v>100.92</v>
+        <v>101.341</v>
       </c>
       <c r="D230" t="s">
         <v>607</v>
@@ -6125,7 +6125,7 @@
         <v>606</v>
       </c>
       <c r="C231">
-        <v>103.362</v>
+        <v>101.42</v>
       </c>
       <c r="D231" t="s">
         <v>607</v>
@@ -6142,7 +6142,7 @@
         <v>606</v>
       </c>
       <c r="C232">
-        <v>109.817</v>
+        <v>113.381</v>
       </c>
       <c r="D232" t="s">
         <v>607</v>
@@ -6159,7 +6159,7 @@
         <v>606</v>
       </c>
       <c r="C233">
-        <v>109.033</v>
+        <v>109.097</v>
       </c>
       <c r="D233" t="s">
         <v>607</v>
@@ -6173,10 +6173,10 @@
         <v>237</v>
       </c>
       <c r="B234" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C234">
-        <v>98.327</v>
+        <v>100.703</v>
       </c>
       <c r="D234" t="s">
         <v>607</v>
@@ -6193,7 +6193,7 @@
         <v>606</v>
       </c>
       <c r="C235">
-        <v>114.465</v>
+        <v>116.607</v>
       </c>
       <c r="D235" t="s">
         <v>607</v>
@@ -6210,7 +6210,7 @@
         <v>606</v>
       </c>
       <c r="C236">
-        <v>125.216</v>
+        <v>127.649</v>
       </c>
       <c r="D236" t="s">
         <v>607</v>
@@ -6227,7 +6227,7 @@
         <v>606</v>
       </c>
       <c r="C237">
-        <v>121.487</v>
+        <v>122.123</v>
       </c>
       <c r="D237" t="s">
         <v>607</v>
@@ -6244,7 +6244,7 @@
         <v>606</v>
       </c>
       <c r="C238">
-        <v>103.113</v>
+        <v>101.457</v>
       </c>
       <c r="D238" t="s">
         <v>607</v>
@@ -6261,7 +6261,7 @@
         <v>606</v>
       </c>
       <c r="C239">
-        <v>104.129</v>
+        <v>104.348</v>
       </c>
       <c r="D239" t="s">
         <v>607</v>
@@ -6278,7 +6278,7 @@
         <v>606</v>
       </c>
       <c r="C240">
-        <v>111.308</v>
+        <v>110.062</v>
       </c>
       <c r="D240" t="s">
         <v>607</v>
@@ -6292,10 +6292,10 @@
         <v>244</v>
       </c>
       <c r="B241" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C241">
-        <v>98.404</v>
+        <v>101.721</v>
       </c>
       <c r="D241" t="s">
         <v>607</v>
@@ -6312,7 +6312,7 @@
         <v>606</v>
       </c>
       <c r="C242">
-        <v>107.574</v>
+        <v>104.896</v>
       </c>
       <c r="D242" t="s">
         <v>607</v>
@@ -6346,7 +6346,7 @@
         <v>605</v>
       </c>
       <c r="C244">
-        <v>94.697</v>
+        <v>92.443</v>
       </c>
       <c r="D244" t="s">
         <v>607</v>
@@ -6363,7 +6363,7 @@
         <v>606</v>
       </c>
       <c r="C245">
-        <v>129.081</v>
+        <v>129.819</v>
       </c>
       <c r="D245" t="s">
         <v>607</v>
@@ -6377,10 +6377,10 @@
         <v>249</v>
       </c>
       <c r="B246" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C246">
-        <v>100.807</v>
+        <v>99.014</v>
       </c>
       <c r="D246" t="s">
         <v>607</v>
@@ -6397,7 +6397,7 @@
         <v>606</v>
       </c>
       <c r="C247">
-        <v>105.174</v>
+        <v>103.395</v>
       </c>
       <c r="D247" t="s">
         <v>607</v>
@@ -6414,7 +6414,7 @@
         <v>606</v>
       </c>
       <c r="C248">
-        <v>114.75</v>
+        <v>124.942</v>
       </c>
       <c r="D248" t="s">
         <v>607</v>
@@ -6431,7 +6431,7 @@
         <v>606</v>
       </c>
       <c r="C249">
-        <v>103.689</v>
+        <v>104.919</v>
       </c>
       <c r="D249" t="s">
         <v>607</v>
@@ -6448,7 +6448,7 @@
         <v>606</v>
       </c>
       <c r="C250">
-        <v>103.949</v>
+        <v>100.141</v>
       </c>
       <c r="D250" t="s">
         <v>607</v>
@@ -6465,7 +6465,7 @@
         <v>605</v>
       </c>
       <c r="C251">
-        <v>99.42100000000001</v>
+        <v>98.724</v>
       </c>
       <c r="D251" t="s">
         <v>607</v>
@@ -6482,7 +6482,7 @@
         <v>606</v>
       </c>
       <c r="C252">
-        <v>107.946</v>
+        <v>108.62</v>
       </c>
       <c r="D252" t="s">
         <v>607</v>
@@ -6499,7 +6499,7 @@
         <v>606</v>
       </c>
       <c r="C253">
-        <v>107.939</v>
+        <v>109.272</v>
       </c>
       <c r="D253" t="s">
         <v>607</v>
@@ -6516,7 +6516,7 @@
         <v>606</v>
       </c>
       <c r="C254">
-        <v>105.158</v>
+        <v>106.048</v>
       </c>
       <c r="D254" t="s">
         <v>607</v>
@@ -6533,7 +6533,7 @@
         <v>605</v>
       </c>
       <c r="C255">
-        <v>99.435</v>
+        <v>95.56100000000001</v>
       </c>
       <c r="D255" t="s">
         <v>607</v>
@@ -6550,7 +6550,7 @@
         <v>606</v>
       </c>
       <c r="C256">
-        <v>118.943</v>
+        <v>125.608</v>
       </c>
       <c r="D256" t="s">
         <v>607</v>
@@ -6567,7 +6567,7 @@
         <v>606</v>
       </c>
       <c r="C257">
-        <v>105.969</v>
+        <v>104.661</v>
       </c>
       <c r="D257" t="s">
         <v>607</v>
@@ -6584,7 +6584,7 @@
         <v>606</v>
       </c>
       <c r="C258">
-        <v>114.992</v>
+        <v>115.351</v>
       </c>
       <c r="D258" t="s">
         <v>607</v>
@@ -6601,7 +6601,7 @@
         <v>606</v>
       </c>
       <c r="C259">
-        <v>110.349</v>
+        <v>108.435</v>
       </c>
       <c r="D259" t="s">
         <v>607</v>
@@ -6618,7 +6618,7 @@
         <v>606</v>
       </c>
       <c r="C260">
-        <v>103.811</v>
+        <v>104.784</v>
       </c>
       <c r="D260" t="s">
         <v>607</v>
@@ -6635,7 +6635,7 @@
         <v>606</v>
       </c>
       <c r="C261">
-        <v>106.085</v>
+        <v>105.666</v>
       </c>
       <c r="D261" t="s">
         <v>607</v>
@@ -6652,7 +6652,7 @@
         <v>606</v>
       </c>
       <c r="C262">
-        <v>110.54</v>
+        <v>106.861</v>
       </c>
       <c r="D262" t="s">
         <v>607</v>
@@ -6669,7 +6669,7 @@
         <v>606</v>
       </c>
       <c r="C263">
-        <v>100.669</v>
+        <v>101.319</v>
       </c>
       <c r="D263" t="s">
         <v>607</v>
@@ -6686,7 +6686,7 @@
         <v>606</v>
       </c>
       <c r="C264">
-        <v>111.52</v>
+        <v>109.26</v>
       </c>
       <c r="D264" t="s">
         <v>607</v>
@@ -6703,7 +6703,7 @@
         <v>606</v>
       </c>
       <c r="C265">
-        <v>107.311</v>
+        <v>105.639</v>
       </c>
       <c r="D265" t="s">
         <v>607</v>
@@ -6720,7 +6720,7 @@
         <v>606</v>
       </c>
       <c r="C266">
-        <v>118.041</v>
+        <v>118.389</v>
       </c>
       <c r="D266" t="s">
         <v>607</v>
@@ -6737,7 +6737,7 @@
         <v>606</v>
       </c>
       <c r="C267">
-        <v>115.159</v>
+        <v>117.071</v>
       </c>
       <c r="D267" t="s">
         <v>607</v>
@@ -6754,7 +6754,7 @@
         <v>605</v>
       </c>
       <c r="C268">
-        <v>98.964</v>
+        <v>97.029</v>
       </c>
       <c r="D268" t="s">
         <v>607</v>
@@ -6771,7 +6771,7 @@
         <v>606</v>
       </c>
       <c r="C269">
-        <v>103.806</v>
+        <v>101.068</v>
       </c>
       <c r="D269" t="s">
         <v>607</v>
@@ -6788,7 +6788,7 @@
         <v>606</v>
       </c>
       <c r="C270">
-        <v>105.169</v>
+        <v>105</v>
       </c>
       <c r="D270" t="s">
         <v>607</v>
@@ -6805,7 +6805,7 @@
         <v>605</v>
       </c>
       <c r="C271">
-        <v>99.065</v>
+        <v>96.514</v>
       </c>
       <c r="D271" t="s">
         <v>607</v>
@@ -6822,7 +6822,7 @@
         <v>606</v>
       </c>
       <c r="C272">
-        <v>101.039</v>
+        <v>100.177</v>
       </c>
       <c r="D272" t="s">
         <v>607</v>
@@ -6839,7 +6839,7 @@
         <v>606</v>
       </c>
       <c r="C273">
-        <v>111.095</v>
+        <v>110.004</v>
       </c>
       <c r="D273" t="s">
         <v>607</v>
@@ -6853,10 +6853,10 @@
         <v>277</v>
       </c>
       <c r="B274" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C274">
-        <v>100.519</v>
+        <v>96.589</v>
       </c>
       <c r="D274" t="s">
         <v>607</v>
@@ -6873,7 +6873,7 @@
         <v>606</v>
       </c>
       <c r="C275">
-        <v>107.847</v>
+        <v>101.361</v>
       </c>
       <c r="D275" t="s">
         <v>607</v>
@@ -6890,7 +6890,7 @@
         <v>606</v>
       </c>
       <c r="C276">
-        <v>114.525</v>
+        <v>119.785</v>
       </c>
       <c r="D276" t="s">
         <v>607</v>
@@ -6907,7 +6907,7 @@
         <v>606</v>
       </c>
       <c r="C277">
-        <v>115.064</v>
+        <v>120.032</v>
       </c>
       <c r="D277" t="s">
         <v>607</v>
@@ -6924,7 +6924,7 @@
         <v>605</v>
       </c>
       <c r="C278">
-        <v>99.321</v>
+        <v>99.634</v>
       </c>
       <c r="D278" t="s">
         <v>607</v>
@@ -6941,7 +6941,7 @@
         <v>606</v>
       </c>
       <c r="C279">
-        <v>103.895</v>
+        <v>102.891</v>
       </c>
       <c r="D279" t="s">
         <v>607</v>
@@ -6958,7 +6958,7 @@
         <v>606</v>
       </c>
       <c r="C280">
-        <v>121.963</v>
+        <v>123.715</v>
       </c>
       <c r="D280" t="s">
         <v>607</v>
@@ -6975,7 +6975,7 @@
         <v>606</v>
       </c>
       <c r="C281">
-        <v>106.104</v>
+        <v>106.025</v>
       </c>
       <c r="D281" t="s">
         <v>607</v>
@@ -6992,7 +6992,7 @@
         <v>606</v>
       </c>
       <c r="C282">
-        <v>104.998</v>
+        <v>104.597</v>
       </c>
       <c r="D282" t="s">
         <v>607</v>
@@ -7006,10 +7006,10 @@
         <v>286</v>
       </c>
       <c r="B283" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C283">
-        <v>105.485</v>
+        <v>98.548</v>
       </c>
       <c r="D283" t="s">
         <v>607</v>
@@ -7026,7 +7026,7 @@
         <v>606</v>
       </c>
       <c r="C284">
-        <v>105.883</v>
+        <v>104.017</v>
       </c>
       <c r="D284" t="s">
         <v>607</v>
@@ -7043,7 +7043,7 @@
         <v>605</v>
       </c>
       <c r="C285">
-        <v>94.85899999999999</v>
+        <v>93.617</v>
       </c>
       <c r="D285" t="s">
         <v>607</v>
@@ -7060,7 +7060,7 @@
         <v>606</v>
       </c>
       <c r="C286">
-        <v>114.147</v>
+        <v>109.833</v>
       </c>
       <c r="D286" t="s">
         <v>607</v>
@@ -7077,7 +7077,7 @@
         <v>605</v>
       </c>
       <c r="C287">
-        <v>97.191</v>
+        <v>93.193</v>
       </c>
       <c r="D287" t="s">
         <v>607</v>
@@ -7094,7 +7094,7 @@
         <v>605</v>
       </c>
       <c r="C288">
-        <v>98.23</v>
+        <v>97.82599999999999</v>
       </c>
       <c r="D288" t="s">
         <v>607</v>
@@ -7111,7 +7111,7 @@
         <v>606</v>
       </c>
       <c r="C289">
-        <v>103.104</v>
+        <v>102.084</v>
       </c>
       <c r="D289" t="s">
         <v>607</v>
@@ -7128,7 +7128,7 @@
         <v>606</v>
       </c>
       <c r="C290">
-        <v>104.21</v>
+        <v>101.784</v>
       </c>
       <c r="D290" t="s">
         <v>607</v>
@@ -7145,7 +7145,7 @@
         <v>606</v>
       </c>
       <c r="C291">
-        <v>114.964</v>
+        <v>117.725</v>
       </c>
       <c r="D291" t="s">
         <v>607</v>
@@ -7159,10 +7159,10 @@
         <v>295</v>
       </c>
       <c r="B292" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C292">
-        <v>102.002</v>
+        <v>99.675</v>
       </c>
       <c r="D292" t="s">
         <v>607</v>
@@ -7176,10 +7176,10 @@
         <v>296</v>
       </c>
       <c r="B293" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C293">
-        <v>101.06</v>
+        <v>98.071</v>
       </c>
       <c r="D293" t="s">
         <v>607</v>
@@ -7196,7 +7196,7 @@
         <v>606</v>
       </c>
       <c r="C294">
-        <v>118.115</v>
+        <v>123.95</v>
       </c>
       <c r="D294" t="s">
         <v>607</v>
@@ -7213,7 +7213,7 @@
         <v>606</v>
       </c>
       <c r="C295">
-        <v>109.081</v>
+        <v>110.673</v>
       </c>
       <c r="D295" t="s">
         <v>607</v>
@@ -7230,7 +7230,7 @@
         <v>606</v>
       </c>
       <c r="C296">
-        <v>101.818</v>
+        <v>103.178</v>
       </c>
       <c r="D296" t="s">
         <v>607</v>
@@ -7247,7 +7247,7 @@
         <v>605</v>
       </c>
       <c r="C297">
-        <v>99.751</v>
+        <v>97.55800000000001</v>
       </c>
       <c r="D297" t="s">
         <v>607</v>
@@ -7264,7 +7264,7 @@
         <v>606</v>
       </c>
       <c r="C298">
-        <v>108.055</v>
+        <v>108.5</v>
       </c>
       <c r="D298" t="s">
         <v>607</v>
@@ -7281,7 +7281,7 @@
         <v>606</v>
       </c>
       <c r="C299">
-        <v>107.81</v>
+        <v>108.269</v>
       </c>
       <c r="D299" t="s">
         <v>607</v>
@@ -7295,10 +7295,10 @@
         <v>303</v>
       </c>
       <c r="B300" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C300">
-        <v>105.273</v>
+        <v>99.964</v>
       </c>
       <c r="D300" t="s">
         <v>607</v>
@@ -7315,7 +7315,7 @@
         <v>606</v>
       </c>
       <c r="C301">
-        <v>108.021</v>
+        <v>104.487</v>
       </c>
       <c r="D301" t="s">
         <v>607</v>
@@ -7332,7 +7332,7 @@
         <v>606</v>
       </c>
       <c r="C302">
-        <v>105.89</v>
+        <v>104.444</v>
       </c>
       <c r="D302" t="s">
         <v>607</v>
@@ -7349,7 +7349,7 @@
         <v>606</v>
       </c>
       <c r="C303">
-        <v>104.189</v>
+        <v>101.733</v>
       </c>
       <c r="D303" t="s">
         <v>607</v>
@@ -7366,7 +7366,7 @@
         <v>606</v>
       </c>
       <c r="C304">
-        <v>131.498</v>
+        <v>134.926</v>
       </c>
       <c r="D304" t="s">
         <v>607</v>
@@ -7383,7 +7383,7 @@
         <v>606</v>
       </c>
       <c r="C305">
-        <v>106.761</v>
+        <v>102.305</v>
       </c>
       <c r="D305" t="s">
         <v>607</v>
@@ -7400,7 +7400,7 @@
         <v>605</v>
       </c>
       <c r="C306">
-        <v>94.536</v>
+        <v>95.45399999999999</v>
       </c>
       <c r="D306" t="s">
         <v>607</v>
@@ -7417,7 +7417,7 @@
         <v>606</v>
       </c>
       <c r="C307">
-        <v>110.789</v>
+        <v>106.787</v>
       </c>
       <c r="D307" t="s">
         <v>607</v>
@@ -7434,7 +7434,7 @@
         <v>606</v>
       </c>
       <c r="C308">
-        <v>139.189</v>
+        <v>141.562</v>
       </c>
       <c r="D308" t="s">
         <v>607</v>
@@ -7451,7 +7451,7 @@
         <v>606</v>
       </c>
       <c r="C309">
-        <v>109.083</v>
+        <v>109.131</v>
       </c>
       <c r="D309" t="s">
         <v>607</v>
@@ -7468,7 +7468,7 @@
         <v>605</v>
       </c>
       <c r="C310">
-        <v>96.54900000000001</v>
+        <v>94.776</v>
       </c>
       <c r="D310" t="s">
         <v>607</v>
@@ -7485,7 +7485,7 @@
         <v>606</v>
       </c>
       <c r="C311">
-        <v>109.078</v>
+        <v>109.909</v>
       </c>
       <c r="D311" t="s">
         <v>607</v>
@@ -7502,7 +7502,7 @@
         <v>606</v>
       </c>
       <c r="C312">
-        <v>103.752</v>
+        <v>105.143</v>
       </c>
       <c r="D312" t="s">
         <v>607</v>
@@ -7519,7 +7519,7 @@
         <v>606</v>
       </c>
       <c r="C313">
-        <v>106.148</v>
+        <v>101.796</v>
       </c>
       <c r="D313" t="s">
         <v>607</v>
@@ -7533,10 +7533,10 @@
         <v>317</v>
       </c>
       <c r="B314" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C314">
-        <v>103.85</v>
+        <v>99.833</v>
       </c>
       <c r="D314" t="s">
         <v>607</v>
@@ -7553,7 +7553,7 @@
         <v>606</v>
       </c>
       <c r="C315">
-        <v>116.906</v>
+        <v>120.81</v>
       </c>
       <c r="D315" t="s">
         <v>607</v>
@@ -7570,7 +7570,7 @@
         <v>606</v>
       </c>
       <c r="C316">
-        <v>115.529</v>
+        <v>112.181</v>
       </c>
       <c r="D316" t="s">
         <v>607</v>
@@ -7587,7 +7587,7 @@
         <v>606</v>
       </c>
       <c r="C317">
-        <v>105.963</v>
+        <v>106.052</v>
       </c>
       <c r="D317" t="s">
         <v>607</v>
@@ -7604,7 +7604,7 @@
         <v>606</v>
       </c>
       <c r="C318">
-        <v>114.171</v>
+        <v>118.003</v>
       </c>
       <c r="D318" t="s">
         <v>607</v>
@@ -7621,7 +7621,7 @@
         <v>606</v>
       </c>
       <c r="C319">
-        <v>109.775</v>
+        <v>103.78</v>
       </c>
       <c r="D319" t="s">
         <v>607</v>
@@ -7638,7 +7638,7 @@
         <v>606</v>
       </c>
       <c r="C320">
-        <v>103.533</v>
+        <v>101.69</v>
       </c>
       <c r="D320" t="s">
         <v>607</v>
@@ -7655,7 +7655,7 @@
         <v>606</v>
       </c>
       <c r="C321">
-        <v>114.236</v>
+        <v>112.175</v>
       </c>
       <c r="D321" t="s">
         <v>607</v>
@@ -7672,7 +7672,7 @@
         <v>606</v>
       </c>
       <c r="C322">
-        <v>112.126</v>
+        <v>111.463</v>
       </c>
       <c r="D322" t="s">
         <v>607</v>
@@ -7689,7 +7689,7 @@
         <v>606</v>
       </c>
       <c r="C323">
-        <v>102.406</v>
+        <v>101.219</v>
       </c>
       <c r="D323" t="s">
         <v>607</v>
@@ -7706,7 +7706,7 @@
         <v>605</v>
       </c>
       <c r="C324">
-        <v>98.166</v>
+        <v>93.505</v>
       </c>
       <c r="D324" t="s">
         <v>607</v>
@@ -7723,7 +7723,7 @@
         <v>606</v>
       </c>
       <c r="C325">
-        <v>111.432</v>
+        <v>110.179</v>
       </c>
       <c r="D325" t="s">
         <v>607</v>
@@ -7740,7 +7740,7 @@
         <v>606</v>
       </c>
       <c r="C326">
-        <v>102.92</v>
+        <v>101.889</v>
       </c>
       <c r="D326" t="s">
         <v>607</v>
@@ -7757,7 +7757,7 @@
         <v>606</v>
       </c>
       <c r="C327">
-        <v>106.093</v>
+        <v>102.875</v>
       </c>
       <c r="D327" t="s">
         <v>607</v>
@@ -7771,10 +7771,10 @@
         <v>331</v>
       </c>
       <c r="B328" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C328">
-        <v>102.455</v>
+        <v>98.217</v>
       </c>
       <c r="D328" t="s">
         <v>607</v>
@@ -7791,7 +7791,7 @@
         <v>606</v>
       </c>
       <c r="C329">
-        <v>105.182</v>
+        <v>104.202</v>
       </c>
       <c r="D329" t="s">
         <v>607</v>
@@ -7808,7 +7808,7 @@
         <v>606</v>
       </c>
       <c r="C330">
-        <v>105.876</v>
+        <v>102.565</v>
       </c>
       <c r="D330" t="s">
         <v>607</v>
@@ -7825,7 +7825,7 @@
         <v>606</v>
       </c>
       <c r="C331">
-        <v>111.81</v>
+        <v>106.42</v>
       </c>
       <c r="D331" t="s">
         <v>607</v>
@@ -7842,7 +7842,7 @@
         <v>606</v>
       </c>
       <c r="C332">
-        <v>103.562</v>
+        <v>104.561</v>
       </c>
       <c r="D332" t="s">
         <v>607</v>
@@ -7859,7 +7859,7 @@
         <v>606</v>
       </c>
       <c r="C333">
-        <v>107.587</v>
+        <v>106.076</v>
       </c>
       <c r="D333" t="s">
         <v>607</v>
@@ -7873,10 +7873,10 @@
         <v>337</v>
       </c>
       <c r="B334" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C334">
-        <v>101.314</v>
+        <v>98.685</v>
       </c>
       <c r="D334" t="s">
         <v>607</v>
@@ -7893,7 +7893,7 @@
         <v>606</v>
       </c>
       <c r="C335">
-        <v>120.669</v>
+        <v>116.427</v>
       </c>
       <c r="D335" t="s">
         <v>607</v>
@@ -7910,7 +7910,7 @@
         <v>606</v>
       </c>
       <c r="C336">
-        <v>104.979</v>
+        <v>107.179</v>
       </c>
       <c r="D336" t="s">
         <v>607</v>
@@ -7927,7 +7927,7 @@
         <v>606</v>
       </c>
       <c r="C337">
-        <v>110.533</v>
+        <v>113.679</v>
       </c>
       <c r="D337" t="s">
         <v>607</v>
@@ -7944,7 +7944,7 @@
         <v>606</v>
       </c>
       <c r="C338">
-        <v>133.08</v>
+        <v>126.422</v>
       </c>
       <c r="D338" t="s">
         <v>607</v>
@@ -7961,7 +7961,7 @@
         <v>606</v>
       </c>
       <c r="C339">
-        <v>103.447</v>
+        <v>101.504</v>
       </c>
       <c r="D339" t="s">
         <v>607</v>
@@ -7978,7 +7978,7 @@
         <v>606</v>
       </c>
       <c r="C340">
-        <v>108.047</v>
+        <v>106.181</v>
       </c>
       <c r="D340" t="s">
         <v>607</v>
@@ -7995,7 +7995,7 @@
         <v>606</v>
       </c>
       <c r="C341">
-        <v>121.135</v>
+        <v>117.335</v>
       </c>
       <c r="D341" t="s">
         <v>607</v>
@@ -8012,7 +8012,7 @@
         <v>606</v>
       </c>
       <c r="C342">
-        <v>104.123</v>
+        <v>100.459</v>
       </c>
       <c r="D342" t="s">
         <v>607</v>
@@ -8029,7 +8029,7 @@
         <v>606</v>
       </c>
       <c r="C343">
-        <v>109.189</v>
+        <v>105.909</v>
       </c>
       <c r="D343" t="s">
         <v>607</v>
@@ -8046,7 +8046,7 @@
         <v>606</v>
       </c>
       <c r="C344">
-        <v>102.933</v>
+        <v>101.235</v>
       </c>
       <c r="D344" t="s">
         <v>607</v>
@@ -8063,7 +8063,7 @@
         <v>606</v>
       </c>
       <c r="C345">
-        <v>110.944</v>
+        <v>111.948</v>
       </c>
       <c r="D345" t="s">
         <v>607</v>
@@ -8080,7 +8080,7 @@
         <v>605</v>
       </c>
       <c r="C346">
-        <v>99.114</v>
+        <v>98.45099999999999</v>
       </c>
       <c r="D346" t="s">
         <v>607</v>
@@ -8097,7 +8097,7 @@
         <v>606</v>
       </c>
       <c r="C347">
-        <v>102.879</v>
+        <v>101.084</v>
       </c>
       <c r="D347" t="s">
         <v>607</v>
@@ -8111,10 +8111,10 @@
         <v>351</v>
       </c>
       <c r="B348" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C348">
-        <v>101.349</v>
+        <v>96.384</v>
       </c>
       <c r="D348" t="s">
         <v>607</v>
@@ -8131,7 +8131,7 @@
         <v>606</v>
       </c>
       <c r="C349">
-        <v>111.835</v>
+        <v>113.196</v>
       </c>
       <c r="D349" t="s">
         <v>607</v>
@@ -8148,7 +8148,7 @@
         <v>606</v>
       </c>
       <c r="C350">
-        <v>106.881</v>
+        <v>103.36</v>
       </c>
       <c r="D350" t="s">
         <v>607</v>
@@ -8165,7 +8165,7 @@
         <v>606</v>
       </c>
       <c r="C351">
-        <v>141.557</v>
+        <v>142.022</v>
       </c>
       <c r="D351" t="s">
         <v>607</v>
@@ -8182,7 +8182,7 @@
         <v>606</v>
       </c>
       <c r="C352">
-        <v>103.711</v>
+        <v>103.073</v>
       </c>
       <c r="D352" t="s">
         <v>607</v>
@@ -8196,10 +8196,10 @@
         <v>356</v>
       </c>
       <c r="B353" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C353">
-        <v>102.606</v>
+        <v>98.792</v>
       </c>
       <c r="D353" t="s">
         <v>607</v>
@@ -8216,7 +8216,7 @@
         <v>606</v>
       </c>
       <c r="C354">
-        <v>102.606</v>
+        <v>105.28</v>
       </c>
       <c r="D354" t="s">
         <v>607</v>
@@ -8233,7 +8233,7 @@
         <v>606</v>
       </c>
       <c r="C355">
-        <v>108.258</v>
+        <v>105.047</v>
       </c>
       <c r="D355" t="s">
         <v>607</v>
@@ -8250,7 +8250,7 @@
         <v>606</v>
       </c>
       <c r="C356">
-        <v>104.562</v>
+        <v>102.937</v>
       </c>
       <c r="D356" t="s">
         <v>607</v>
@@ -8264,10 +8264,10 @@
         <v>360</v>
       </c>
       <c r="B357" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C357">
-        <v>105.89</v>
+        <v>98.53100000000001</v>
       </c>
       <c r="D357" t="s">
         <v>607</v>
@@ -8284,7 +8284,7 @@
         <v>606</v>
       </c>
       <c r="C358">
-        <v>103.357</v>
+        <v>101.351</v>
       </c>
       <c r="D358" t="s">
         <v>607</v>
@@ -8301,7 +8301,7 @@
         <v>606</v>
       </c>
       <c r="C359">
-        <v>122.91</v>
+        <v>123.872</v>
       </c>
       <c r="D359" t="s">
         <v>607</v>
@@ -8318,7 +8318,7 @@
         <v>605</v>
       </c>
       <c r="C360">
-        <v>91.349</v>
+        <v>90.02200000000001</v>
       </c>
       <c r="D360" t="s">
         <v>607</v>
@@ -8335,7 +8335,7 @@
         <v>606</v>
       </c>
       <c r="C361">
-        <v>111.554</v>
+        <v>112.969</v>
       </c>
       <c r="D361" t="s">
         <v>607</v>
@@ -8352,7 +8352,7 @@
         <v>605</v>
       </c>
       <c r="C362">
-        <v>98.898</v>
+        <v>96.851</v>
       </c>
       <c r="D362" t="s">
         <v>607</v>
@@ -8369,7 +8369,7 @@
         <v>605</v>
       </c>
       <c r="C363">
-        <v>98.7</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="D363" t="s">
         <v>607</v>
@@ -8403,7 +8403,7 @@
         <v>606</v>
       </c>
       <c r="C365">
-        <v>105.9</v>
+        <v>109.358</v>
       </c>
       <c r="D365" t="s">
         <v>607</v>
@@ -8420,7 +8420,7 @@
         <v>606</v>
       </c>
       <c r="C366">
-        <v>129.125</v>
+        <v>130.145</v>
       </c>
       <c r="D366" t="s">
         <v>607</v>
@@ -8437,7 +8437,7 @@
         <v>606</v>
       </c>
       <c r="C367">
-        <v>104.895</v>
+        <v>103.869</v>
       </c>
       <c r="D367" t="s">
         <v>607</v>
@@ -8454,7 +8454,7 @@
         <v>606</v>
       </c>
       <c r="C368">
-        <v>114.146</v>
+        <v>113.49</v>
       </c>
       <c r="D368" t="s">
         <v>607</v>
@@ -8471,7 +8471,7 @@
         <v>606</v>
       </c>
       <c r="C369">
-        <v>102.907</v>
+        <v>103.471</v>
       </c>
       <c r="D369" t="s">
         <v>607</v>
@@ -8488,7 +8488,7 @@
         <v>606</v>
       </c>
       <c r="C370">
-        <v>110.839</v>
+        <v>104.234</v>
       </c>
       <c r="D370" t="s">
         <v>607</v>
@@ -8505,7 +8505,7 @@
         <v>605</v>
       </c>
       <c r="C371">
-        <v>80.767</v>
+        <v>78.688</v>
       </c>
       <c r="D371" t="s">
         <v>607</v>
@@ -8522,7 +8522,7 @@
         <v>606</v>
       </c>
       <c r="C372">
-        <v>106.492</v>
+        <v>107.146</v>
       </c>
       <c r="D372" t="s">
         <v>607</v>
@@ -8539,7 +8539,7 @@
         <v>606</v>
       </c>
       <c r="C373">
-        <v>103.125</v>
+        <v>102.634</v>
       </c>
       <c r="D373" t="s">
         <v>607</v>
@@ -8556,7 +8556,7 @@
         <v>606</v>
       </c>
       <c r="C374">
-        <v>113.306</v>
+        <v>112.338</v>
       </c>
       <c r="D374" t="s">
         <v>607</v>
@@ -8573,7 +8573,7 @@
         <v>606</v>
       </c>
       <c r="C375">
-        <v>114.669</v>
+        <v>109.217</v>
       </c>
       <c r="D375" t="s">
         <v>607</v>
@@ -8590,7 +8590,7 @@
         <v>606</v>
       </c>
       <c r="C376">
-        <v>110.749</v>
+        <v>110.795</v>
       </c>
       <c r="D376" t="s">
         <v>607</v>
@@ -8604,10 +8604,10 @@
         <v>380</v>
       </c>
       <c r="B377" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C377">
-        <v>106.045</v>
+        <v>99</v>
       </c>
       <c r="D377" t="s">
         <v>607</v>
@@ -8624,7 +8624,7 @@
         <v>606</v>
       </c>
       <c r="C378">
-        <v>109.293</v>
+        <v>107.854</v>
       </c>
       <c r="D378" t="s">
         <v>607</v>
@@ -8641,7 +8641,7 @@
         <v>606</v>
       </c>
       <c r="C379">
-        <v>117.463</v>
+        <v>118.013</v>
       </c>
       <c r="D379" t="s">
         <v>607</v>
@@ -8658,7 +8658,7 @@
         <v>606</v>
       </c>
       <c r="C380">
-        <v>121.197</v>
+        <v>123.074</v>
       </c>
       <c r="D380" t="s">
         <v>607</v>
@@ -8675,7 +8675,7 @@
         <v>606</v>
       </c>
       <c r="C381">
-        <v>105.11</v>
+        <v>102.794</v>
       </c>
       <c r="D381" t="s">
         <v>607</v>
@@ -8692,7 +8692,7 @@
         <v>606</v>
       </c>
       <c r="C382">
-        <v>109.046</v>
+        <v>106.686</v>
       </c>
       <c r="D382" t="s">
         <v>607</v>
@@ -8709,7 +8709,7 @@
         <v>606</v>
       </c>
       <c r="C383">
-        <v>124.119</v>
+        <v>126.605</v>
       </c>
       <c r="D383" t="s">
         <v>607</v>
@@ -8726,7 +8726,7 @@
         <v>606</v>
       </c>
       <c r="C384">
-        <v>117.492</v>
+        <v>112.648</v>
       </c>
       <c r="D384" t="s">
         <v>607</v>
@@ -8743,7 +8743,7 @@
         <v>606</v>
       </c>
       <c r="C385">
-        <v>104.021</v>
+        <v>105.316</v>
       </c>
       <c r="D385" t="s">
         <v>607</v>
@@ -8760,7 +8760,7 @@
         <v>606</v>
       </c>
       <c r="C386">
-        <v>109.021</v>
+        <v>105.871</v>
       </c>
       <c r="D386" t="s">
         <v>607</v>
@@ -8777,7 +8777,7 @@
         <v>606</v>
       </c>
       <c r="C387">
-        <v>114.363</v>
+        <v>116.561</v>
       </c>
       <c r="D387" t="s">
         <v>607</v>
@@ -8794,7 +8794,7 @@
         <v>606</v>
       </c>
       <c r="C388">
-        <v>108.55</v>
+        <v>110.428</v>
       </c>
       <c r="D388" t="s">
         <v>607</v>
@@ -8811,7 +8811,7 @@
         <v>606</v>
       </c>
       <c r="C389">
-        <v>116.575</v>
+        <v>113.354</v>
       </c>
       <c r="D389" t="s">
         <v>607</v>
@@ -8828,7 +8828,7 @@
         <v>606</v>
       </c>
       <c r="C390">
-        <v>100.622</v>
+        <v>100.838</v>
       </c>
       <c r="D390" t="s">
         <v>607</v>
@@ -8845,7 +8845,7 @@
         <v>606</v>
       </c>
       <c r="C391">
-        <v>106.264</v>
+        <v>109.114</v>
       </c>
       <c r="D391" t="s">
         <v>607</v>
@@ -8862,7 +8862,7 @@
         <v>606</v>
       </c>
       <c r="C392">
-        <v>113.442</v>
+        <v>113.926</v>
       </c>
       <c r="D392" t="s">
         <v>607</v>
@@ -8879,7 +8879,7 @@
         <v>605</v>
       </c>
       <c r="C393">
-        <v>98.678</v>
+        <v>94.95</v>
       </c>
       <c r="D393" t="s">
         <v>607</v>
@@ -8896,7 +8896,7 @@
         <v>606</v>
       </c>
       <c r="C394">
-        <v>104.533</v>
+        <v>103.66</v>
       </c>
       <c r="D394" t="s">
         <v>607</v>
@@ -8913,7 +8913,7 @@
         <v>606</v>
       </c>
       <c r="C395">
-        <v>109.297</v>
+        <v>111.181</v>
       </c>
       <c r="D395" t="s">
         <v>607</v>
@@ -8927,10 +8927,10 @@
         <v>399</v>
       </c>
       <c r="B396" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C396">
-        <v>100.193</v>
+        <v>98.791</v>
       </c>
       <c r="D396" t="s">
         <v>607</v>
@@ -8947,7 +8947,7 @@
         <v>606</v>
       </c>
       <c r="C397">
-        <v>135.433</v>
+        <v>134.244</v>
       </c>
       <c r="D397" t="s">
         <v>607</v>
@@ -8964,7 +8964,7 @@
         <v>605</v>
       </c>
       <c r="C398">
-        <v>98.58499999999999</v>
+        <v>94.902</v>
       </c>
       <c r="D398" t="s">
         <v>607</v>
@@ -8981,7 +8981,7 @@
         <v>606</v>
       </c>
       <c r="C399">
-        <v>107.823</v>
+        <v>109.489</v>
       </c>
       <c r="D399" t="s">
         <v>607</v>
@@ -8998,7 +8998,7 @@
         <v>605</v>
       </c>
       <c r="C400">
-        <v>94.422</v>
+        <v>90.899</v>
       </c>
       <c r="D400" t="s">
         <v>607</v>
@@ -9015,7 +9015,7 @@
         <v>606</v>
       </c>
       <c r="C401">
-        <v>110.098</v>
+        <v>109.719</v>
       </c>
       <c r="D401" t="s">
         <v>607</v>
@@ -9032,7 +9032,7 @@
         <v>606</v>
       </c>
       <c r="C402">
-        <v>118.122</v>
+        <v>122.582</v>
       </c>
       <c r="D402" t="s">
         <v>607</v>
@@ -9046,10 +9046,10 @@
         <v>406</v>
       </c>
       <c r="B403" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C403">
-        <v>104.62</v>
+        <v>99.286</v>
       </c>
       <c r="D403" t="s">
         <v>607</v>
@@ -9066,7 +9066,7 @@
         <v>606</v>
       </c>
       <c r="C404">
-        <v>107.158</v>
+        <v>104.854</v>
       </c>
       <c r="D404" t="s">
         <v>607</v>
@@ -9083,7 +9083,7 @@
         <v>606</v>
       </c>
       <c r="C405">
-        <v>115.053</v>
+        <v>113.413</v>
       </c>
       <c r="D405" t="s">
         <v>607</v>
@@ -9100,7 +9100,7 @@
         <v>606</v>
       </c>
       <c r="C406">
-        <v>106.25</v>
+        <v>106.09</v>
       </c>
       <c r="D406" t="s">
         <v>607</v>
@@ -9117,7 +9117,7 @@
         <v>606</v>
       </c>
       <c r="C407">
-        <v>150.456</v>
+        <v>152.614</v>
       </c>
       <c r="D407" t="s">
         <v>607</v>
@@ -9134,7 +9134,7 @@
         <v>606</v>
       </c>
       <c r="C408">
-        <v>117.245</v>
+        <v>114.547</v>
       </c>
       <c r="D408" t="s">
         <v>607</v>
@@ -9151,7 +9151,7 @@
         <v>605</v>
       </c>
       <c r="C409">
-        <v>98.20399999999999</v>
+        <v>95.714</v>
       </c>
       <c r="D409" t="s">
         <v>607</v>
@@ -9168,7 +9168,7 @@
         <v>606</v>
       </c>
       <c r="C410">
-        <v>114.215</v>
+        <v>112.022</v>
       </c>
       <c r="D410" t="s">
         <v>607</v>
@@ -9185,7 +9185,7 @@
         <v>606</v>
       </c>
       <c r="C411">
-        <v>103.19</v>
+        <v>106.766</v>
       </c>
       <c r="D411" t="s">
         <v>607</v>
@@ -9202,7 +9202,7 @@
         <v>606</v>
       </c>
       <c r="C412">
-        <v>104.474</v>
+        <v>102.598</v>
       </c>
       <c r="D412" t="s">
         <v>607</v>
@@ -9219,7 +9219,7 @@
         <v>606</v>
       </c>
       <c r="C413">
-        <v>115.474</v>
+        <v>108.916</v>
       </c>
       <c r="D413" t="s">
         <v>607</v>
@@ -9236,7 +9236,7 @@
         <v>606</v>
       </c>
       <c r="C414">
-        <v>106.294</v>
+        <v>102.597</v>
       </c>
       <c r="D414" t="s">
         <v>607</v>
@@ -9253,7 +9253,7 @@
         <v>606</v>
       </c>
       <c r="C415">
-        <v>112.876</v>
+        <v>112.571</v>
       </c>
       <c r="D415" t="s">
         <v>607</v>
@@ -9270,7 +9270,7 @@
         <v>606</v>
       </c>
       <c r="C416">
-        <v>105.578</v>
+        <v>101.245</v>
       </c>
       <c r="D416" t="s">
         <v>607</v>
@@ -9287,7 +9287,7 @@
         <v>606</v>
       </c>
       <c r="C417">
-        <v>117.125</v>
+        <v>125.053</v>
       </c>
       <c r="D417" t="s">
         <v>607</v>
@@ -9304,7 +9304,7 @@
         <v>606</v>
       </c>
       <c r="C418">
-        <v>122.766</v>
+        <v>120.043</v>
       </c>
       <c r="D418" t="s">
         <v>607</v>
@@ -9321,7 +9321,7 @@
         <v>606</v>
       </c>
       <c r="C419">
-        <v>109.067</v>
+        <v>104.511</v>
       </c>
       <c r="D419" t="s">
         <v>607</v>
@@ -9338,7 +9338,7 @@
         <v>606</v>
       </c>
       <c r="C420">
-        <v>103.751</v>
+        <v>104.208</v>
       </c>
       <c r="D420" t="s">
         <v>607</v>
@@ -9355,7 +9355,7 @@
         <v>605</v>
       </c>
       <c r="C421">
-        <v>97.004</v>
+        <v>95.849</v>
       </c>
       <c r="D421" t="s">
         <v>607</v>
@@ -9372,7 +9372,7 @@
         <v>606</v>
       </c>
       <c r="C422">
-        <v>107.021</v>
+        <v>106.016</v>
       </c>
       <c r="D422" t="s">
         <v>607</v>
@@ -9386,10 +9386,10 @@
         <v>426</v>
       </c>
       <c r="B423" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C423">
-        <v>102.334</v>
+        <v>96.575</v>
       </c>
       <c r="D423" t="s">
         <v>607</v>
@@ -9406,7 +9406,7 @@
         <v>606</v>
       </c>
       <c r="C424">
-        <v>107.342</v>
+        <v>107.339</v>
       </c>
       <c r="D424" t="s">
         <v>607</v>
@@ -9423,7 +9423,7 @@
         <v>606</v>
       </c>
       <c r="C425">
-        <v>104.85</v>
+        <v>104.859</v>
       </c>
       <c r="D425" t="s">
         <v>607</v>
@@ -9440,7 +9440,7 @@
         <v>605</v>
       </c>
       <c r="C426">
-        <v>97.911</v>
+        <v>95.983</v>
       </c>
       <c r="D426" t="s">
         <v>607</v>
@@ -9457,7 +9457,7 @@
         <v>606</v>
       </c>
       <c r="C427">
-        <v>102.512</v>
+        <v>100.193</v>
       </c>
       <c r="D427" t="s">
         <v>607</v>
@@ -9474,7 +9474,7 @@
         <v>606</v>
       </c>
       <c r="C428">
-        <v>115.767</v>
+        <v>111.266</v>
       </c>
       <c r="D428" t="s">
         <v>607</v>
@@ -9491,7 +9491,7 @@
         <v>606</v>
       </c>
       <c r="C429">
-        <v>120.275</v>
+        <v>116.182</v>
       </c>
       <c r="D429" t="s">
         <v>607</v>
@@ -9508,7 +9508,7 @@
         <v>606</v>
       </c>
       <c r="C430">
-        <v>105.802</v>
+        <v>102.766</v>
       </c>
       <c r="D430" t="s">
         <v>607</v>
@@ -9525,7 +9525,7 @@
         <v>606</v>
       </c>
       <c r="C431">
-        <v>113.886</v>
+        <v>113.677</v>
       </c>
       <c r="D431" t="s">
         <v>607</v>
@@ -9542,7 +9542,7 @@
         <v>606</v>
       </c>
       <c r="C432">
-        <v>111.321</v>
+        <v>110.591</v>
       </c>
       <c r="D432" t="s">
         <v>607</v>
@@ -9559,7 +9559,7 @@
         <v>606</v>
       </c>
       <c r="C433">
-        <v>115.788</v>
+        <v>114.382</v>
       </c>
       <c r="D433" t="s">
         <v>607</v>
@@ -9576,7 +9576,7 @@
         <v>606</v>
       </c>
       <c r="C434">
-        <v>123.826</v>
+        <v>116.356</v>
       </c>
       <c r="D434" t="s">
         <v>607</v>
@@ -9593,7 +9593,7 @@
         <v>606</v>
       </c>
       <c r="C435">
-        <v>110.45</v>
+        <v>106.349</v>
       </c>
       <c r="D435" t="s">
         <v>607</v>
@@ -9607,10 +9607,10 @@
         <v>439</v>
       </c>
       <c r="B436" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C436">
-        <v>103.629</v>
+        <v>99.11799999999999</v>
       </c>
       <c r="D436" t="s">
         <v>607</v>
@@ -9627,7 +9627,7 @@
         <v>606</v>
       </c>
       <c r="C437">
-        <v>107.473</v>
+        <v>109.084</v>
       </c>
       <c r="D437" t="s">
         <v>607</v>
@@ -9641,10 +9641,10 @@
         <v>441</v>
       </c>
       <c r="B438" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C438">
-        <v>102.133</v>
+        <v>99.69499999999999</v>
       </c>
       <c r="D438" t="s">
         <v>607</v>
@@ -9661,7 +9661,7 @@
         <v>606</v>
       </c>
       <c r="C439">
-        <v>105.521</v>
+        <v>106.622</v>
       </c>
       <c r="D439" t="s">
         <v>607</v>
@@ -9678,7 +9678,7 @@
         <v>606</v>
       </c>
       <c r="C440">
-        <v>118.532</v>
+        <v>114.956</v>
       </c>
       <c r="D440" t="s">
         <v>607</v>
@@ -9695,7 +9695,7 @@
         <v>606</v>
       </c>
       <c r="C441">
-        <v>104.357</v>
+        <v>103.638</v>
       </c>
       <c r="D441" t="s">
         <v>607</v>
@@ -9712,7 +9712,7 @@
         <v>606</v>
       </c>
       <c r="C442">
-        <v>118.583</v>
+        <v>112.869</v>
       </c>
       <c r="D442" t="s">
         <v>607</v>
@@ -9729,7 +9729,7 @@
         <v>606</v>
       </c>
       <c r="C443">
-        <v>106.308</v>
+        <v>105.739</v>
       </c>
       <c r="D443" t="s">
         <v>607</v>
@@ -9746,7 +9746,7 @@
         <v>605</v>
       </c>
       <c r="C444">
-        <v>92.158</v>
+        <v>88.699</v>
       </c>
       <c r="D444" t="s">
         <v>607</v>
@@ -9763,7 +9763,7 @@
         <v>606</v>
       </c>
       <c r="C445">
-        <v>108.976</v>
+        <v>108.674</v>
       </c>
       <c r="D445" t="s">
         <v>607</v>
@@ -9780,7 +9780,7 @@
         <v>605</v>
       </c>
       <c r="C446">
-        <v>98.977</v>
+        <v>97.872</v>
       </c>
       <c r="D446" t="s">
         <v>607</v>
@@ -9797,7 +9797,7 @@
         <v>606</v>
       </c>
       <c r="C447">
-        <v>109.551</v>
+        <v>112.326</v>
       </c>
       <c r="D447" t="s">
         <v>607</v>
@@ -9811,10 +9811,10 @@
         <v>451</v>
       </c>
       <c r="B448" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C448">
-        <v>103.913</v>
+        <v>98.977</v>
       </c>
       <c r="D448" t="s">
         <v>607</v>
@@ -9831,7 +9831,7 @@
         <v>606</v>
       </c>
       <c r="C449">
-        <v>122.476</v>
+        <v>119.033</v>
       </c>
       <c r="D449" t="s">
         <v>607</v>
@@ -9845,10 +9845,10 @@
         <v>453</v>
       </c>
       <c r="B450" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C450">
-        <v>100.191</v>
+        <v>94.553</v>
       </c>
       <c r="D450" t="s">
         <v>607</v>
@@ -9865,7 +9865,7 @@
         <v>606</v>
       </c>
       <c r="C451">
-        <v>112.396</v>
+        <v>108.308</v>
       </c>
       <c r="D451" t="s">
         <v>607</v>
@@ -9882,7 +9882,7 @@
         <v>606</v>
       </c>
       <c r="C452">
-        <v>118.544</v>
+        <v>115.912</v>
       </c>
       <c r="D452" t="s">
         <v>607</v>
@@ -9899,7 +9899,7 @@
         <v>606</v>
       </c>
       <c r="C453">
-        <v>137.277</v>
+        <v>133.671</v>
       </c>
       <c r="D453" t="s">
         <v>607</v>
@@ -9916,7 +9916,7 @@
         <v>606</v>
       </c>
       <c r="C454">
-        <v>111.27</v>
+        <v>102.935</v>
       </c>
       <c r="D454" t="s">
         <v>607</v>
@@ -9933,7 +9933,7 @@
         <v>606</v>
       </c>
       <c r="C455">
-        <v>114.834</v>
+        <v>113.921</v>
       </c>
       <c r="D455" t="s">
         <v>607</v>
@@ -9950,7 +9950,7 @@
         <v>606</v>
       </c>
       <c r="C456">
-        <v>112.96</v>
+        <v>112.938</v>
       </c>
       <c r="D456" t="s">
         <v>607</v>
@@ -9967,7 +9967,7 @@
         <v>606</v>
       </c>
       <c r="C457">
-        <v>106.579</v>
+        <v>106.667</v>
       </c>
       <c r="D457" t="s">
         <v>607</v>
@@ -9984,7 +9984,7 @@
         <v>606</v>
       </c>
       <c r="C458">
-        <v>124.707</v>
+        <v>116.344</v>
       </c>
       <c r="D458" t="s">
         <v>607</v>
@@ -10001,7 +10001,7 @@
         <v>606</v>
       </c>
       <c r="C459">
-        <v>120.296</v>
+        <v>119.09</v>
       </c>
       <c r="D459" t="s">
         <v>607</v>
@@ -10018,7 +10018,7 @@
         <v>605</v>
       </c>
       <c r="C460">
-        <v>98.992</v>
+        <v>97.396</v>
       </c>
       <c r="D460" t="s">
         <v>607</v>
@@ -10035,7 +10035,7 @@
         <v>605</v>
       </c>
       <c r="C461">
-        <v>97.398</v>
+        <v>95.973</v>
       </c>
       <c r="D461" t="s">
         <v>607</v>
@@ -10052,7 +10052,7 @@
         <v>606</v>
       </c>
       <c r="C462">
-        <v>110.55</v>
+        <v>106.473</v>
       </c>
       <c r="D462" t="s">
         <v>607</v>
@@ -10066,10 +10066,10 @@
         <v>466</v>
       </c>
       <c r="B463" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C463">
-        <v>100.085</v>
+        <v>98.649</v>
       </c>
       <c r="D463" t="s">
         <v>607</v>
@@ -10086,7 +10086,7 @@
         <v>606</v>
       </c>
       <c r="C464">
-        <v>113.291</v>
+        <v>109.194</v>
       </c>
       <c r="D464" t="s">
         <v>607</v>
@@ -10103,7 +10103,7 @@
         <v>606</v>
       </c>
       <c r="C465">
-        <v>105.895</v>
+        <v>107.304</v>
       </c>
       <c r="D465" t="s">
         <v>607</v>
@@ -10120,7 +10120,7 @@
         <v>606</v>
       </c>
       <c r="C466">
-        <v>134.322</v>
+        <v>131.789</v>
       </c>
       <c r="D466" t="s">
         <v>607</v>
@@ -10137,7 +10137,7 @@
         <v>606</v>
       </c>
       <c r="C467">
-        <v>106.724</v>
+        <v>105.85</v>
       </c>
       <c r="D467" t="s">
         <v>607</v>
@@ -10154,7 +10154,7 @@
         <v>606</v>
       </c>
       <c r="C468">
-        <v>109.064</v>
+        <v>107.925</v>
       </c>
       <c r="D468" t="s">
         <v>607</v>
@@ -10171,7 +10171,7 @@
         <v>606</v>
       </c>
       <c r="C469">
-        <v>109.667</v>
+        <v>107.544</v>
       </c>
       <c r="D469" t="s">
         <v>607</v>
@@ -10188,7 +10188,7 @@
         <v>606</v>
       </c>
       <c r="C470">
-        <v>113.156</v>
+        <v>112.096</v>
       </c>
       <c r="D470" t="s">
         <v>607</v>
@@ -10205,7 +10205,7 @@
         <v>606</v>
       </c>
       <c r="C471">
-        <v>117.746</v>
+        <v>115.361</v>
       </c>
       <c r="D471" t="s">
         <v>607</v>
@@ -10222,7 +10222,7 @@
         <v>606</v>
       </c>
       <c r="C472">
-        <v>109.334</v>
+        <v>109.797</v>
       </c>
       <c r="D472" t="s">
         <v>607</v>
@@ -10239,7 +10239,7 @@
         <v>606</v>
       </c>
       <c r="C473">
-        <v>114.748</v>
+        <v>116.08</v>
       </c>
       <c r="D473" t="s">
         <v>607</v>
@@ -10256,7 +10256,7 @@
         <v>605</v>
       </c>
       <c r="C474">
-        <v>96.81100000000001</v>
+        <v>92.752</v>
       </c>
       <c r="D474" t="s">
         <v>607</v>
@@ -10273,7 +10273,7 @@
         <v>606</v>
       </c>
       <c r="C475">
-        <v>104.64</v>
+        <v>104.621</v>
       </c>
       <c r="D475" t="s">
         <v>607</v>
@@ -10290,7 +10290,7 @@
         <v>606</v>
       </c>
       <c r="C476">
-        <v>157.255</v>
+        <v>173.366</v>
       </c>
       <c r="D476" t="s">
         <v>607</v>
@@ -10307,7 +10307,7 @@
         <v>606</v>
       </c>
       <c r="C477">
-        <v>104.459</v>
+        <v>104.822</v>
       </c>
       <c r="D477" t="s">
         <v>607</v>
@@ -10324,7 +10324,7 @@
         <v>606</v>
       </c>
       <c r="C478">
-        <v>116.636</v>
+        <v>112.745</v>
       </c>
       <c r="D478" t="s">
         <v>607</v>
@@ -10341,7 +10341,7 @@
         <v>606</v>
       </c>
       <c r="C479">
-        <v>110.986</v>
+        <v>109.255</v>
       </c>
       <c r="D479" t="s">
         <v>607</v>
@@ -10358,7 +10358,7 @@
         <v>606</v>
       </c>
       <c r="C480">
-        <v>119.186</v>
+        <v>119.862</v>
       </c>
       <c r="D480" t="s">
         <v>607</v>
@@ -10375,7 +10375,7 @@
         <v>606</v>
       </c>
       <c r="C481">
-        <v>107.974</v>
+        <v>108.828</v>
       </c>
       <c r="D481" t="s">
         <v>607</v>
@@ -10392,7 +10392,7 @@
         <v>606</v>
       </c>
       <c r="C482">
-        <v>163.878</v>
+        <v>178.372</v>
       </c>
       <c r="D482" t="s">
         <v>607</v>
@@ -10409,7 +10409,7 @@
         <v>606</v>
       </c>
       <c r="C483">
-        <v>113.772</v>
+        <v>115.654</v>
       </c>
       <c r="D483" t="s">
         <v>607</v>
@@ -10426,7 +10426,7 @@
         <v>606</v>
       </c>
       <c r="C484">
-        <v>113.206</v>
+        <v>107.883</v>
       </c>
       <c r="D484" t="s">
         <v>607</v>
@@ -10443,7 +10443,7 @@
         <v>606</v>
       </c>
       <c r="C485">
-        <v>121.091</v>
+        <v>125.675</v>
       </c>
       <c r="D485" t="s">
         <v>607</v>
@@ -10460,7 +10460,7 @@
         <v>606</v>
       </c>
       <c r="C486">
-        <v>104.262</v>
+        <v>110.231</v>
       </c>
       <c r="D486" t="s">
         <v>607</v>
@@ -10477,7 +10477,7 @@
         <v>606</v>
       </c>
       <c r="C487">
-        <v>109.814</v>
+        <v>108.13</v>
       </c>
       <c r="D487" t="s">
         <v>607</v>
@@ -10494,7 +10494,7 @@
         <v>606</v>
       </c>
       <c r="C488">
-        <v>111.251</v>
+        <v>106.793</v>
       </c>
       <c r="D488" t="s">
         <v>607</v>
@@ -10511,7 +10511,7 @@
         <v>605</v>
       </c>
       <c r="C489">
-        <v>89.221</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="D489" t="s">
         <v>607</v>
@@ -10528,7 +10528,7 @@
         <v>606</v>
       </c>
       <c r="C490">
-        <v>114.617</v>
+        <v>112.365</v>
       </c>
       <c r="D490" t="s">
         <v>607</v>
@@ -10545,7 +10545,7 @@
         <v>606</v>
       </c>
       <c r="C491">
-        <v>106.365</v>
+        <v>104.918</v>
       </c>
       <c r="D491" t="s">
         <v>607</v>
@@ -10562,7 +10562,7 @@
         <v>605</v>
       </c>
       <c r="C492">
-        <v>99.43000000000001</v>
+        <v>96.916</v>
       </c>
       <c r="D492" t="s">
         <v>607</v>
@@ -10579,7 +10579,7 @@
         <v>606</v>
       </c>
       <c r="C493">
-        <v>104.969</v>
+        <v>101.168</v>
       </c>
       <c r="D493" t="s">
         <v>607</v>
@@ -10596,7 +10596,7 @@
         <v>605</v>
       </c>
       <c r="C494">
-        <v>99.992</v>
+        <v>94.49299999999999</v>
       </c>
       <c r="D494" t="s">
         <v>607</v>
@@ -10613,7 +10613,7 @@
         <v>606</v>
       </c>
       <c r="C495">
-        <v>105.448</v>
+        <v>102.642</v>
       </c>
       <c r="D495" t="s">
         <v>607</v>
@@ -10630,7 +10630,7 @@
         <v>606</v>
       </c>
       <c r="C496">
-        <v>103.989</v>
+        <v>103.309</v>
       </c>
       <c r="D496" t="s">
         <v>607</v>
@@ -10647,7 +10647,7 @@
         <v>606</v>
       </c>
       <c r="C497">
-        <v>112.313</v>
+        <v>106.042</v>
       </c>
       <c r="D497" t="s">
         <v>607</v>
@@ -10664,7 +10664,7 @@
         <v>605</v>
       </c>
       <c r="C498">
-        <v>99.613</v>
+        <v>97.919</v>
       </c>
       <c r="D498" t="s">
         <v>607</v>
@@ -10681,7 +10681,7 @@
         <v>606</v>
       </c>
       <c r="C499">
-        <v>105.658</v>
+        <v>105.325</v>
       </c>
       <c r="D499" t="s">
         <v>607</v>
@@ -10698,7 +10698,7 @@
         <v>606</v>
       </c>
       <c r="C500">
-        <v>120.792</v>
+        <v>116.927</v>
       </c>
       <c r="D500" t="s">
         <v>607</v>
@@ -10715,7 +10715,7 @@
         <v>606</v>
       </c>
       <c r="C501">
-        <v>109.112</v>
+        <v>108.723</v>
       </c>
       <c r="D501" t="s">
         <v>607</v>
@@ -10732,7 +10732,7 @@
         <v>606</v>
       </c>
       <c r="C502">
-        <v>112.724</v>
+        <v>113.43</v>
       </c>
       <c r="D502" t="s">
         <v>607</v>
@@ -10749,7 +10749,7 @@
         <v>606</v>
       </c>
       <c r="C503">
-        <v>105.074</v>
+        <v>100.461</v>
       </c>
       <c r="D503" t="s">
         <v>607</v>
@@ -10763,10 +10763,10 @@
         <v>507</v>
       </c>
       <c r="B504" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C504">
-        <v>101.437</v>
+        <v>99.666</v>
       </c>
       <c r="D504" t="s">
         <v>607</v>
@@ -10783,7 +10783,7 @@
         <v>606</v>
       </c>
       <c r="C505">
-        <v>104.692</v>
+        <v>100</v>
       </c>
       <c r="D505" t="s">
         <v>607</v>
@@ -10800,7 +10800,7 @@
         <v>605</v>
       </c>
       <c r="C506">
-        <v>99.077</v>
+        <v>96.661</v>
       </c>
       <c r="D506" t="s">
         <v>607</v>
@@ -10817,7 +10817,7 @@
         <v>606</v>
       </c>
       <c r="C507">
-        <v>105.793</v>
+        <v>101.848</v>
       </c>
       <c r="D507" t="s">
         <v>607</v>
@@ -10834,7 +10834,7 @@
         <v>606</v>
       </c>
       <c r="C508">
-        <v>102.361</v>
+        <v>102.27</v>
       </c>
       <c r="D508" t="s">
         <v>607</v>
@@ -10851,7 +10851,7 @@
         <v>606</v>
       </c>
       <c r="C509">
-        <v>112.424</v>
+        <v>110.574</v>
       </c>
       <c r="D509" t="s">
         <v>607</v>
@@ -10868,7 +10868,7 @@
         <v>605</v>
       </c>
       <c r="C510">
-        <v>77.73399999999999</v>
+        <v>76.48399999999999</v>
       </c>
       <c r="D510" t="s">
         <v>607</v>
@@ -10885,7 +10885,7 @@
         <v>606</v>
       </c>
       <c r="C511">
-        <v>181.579</v>
+        <v>163.713</v>
       </c>
       <c r="D511" t="s">
         <v>607</v>
@@ -10902,7 +10902,7 @@
         <v>605</v>
       </c>
       <c r="C512">
-        <v>96.65000000000001</v>
+        <v>94.289</v>
       </c>
       <c r="D512" t="s">
         <v>607</v>
@@ -10919,7 +10919,7 @@
         <v>606</v>
       </c>
       <c r="C513">
-        <v>129.126</v>
+        <v>110.345</v>
       </c>
       <c r="D513" t="s">
         <v>607</v>
@@ -10936,7 +10936,7 @@
         <v>606</v>
       </c>
       <c r="C514">
-        <v>235.455</v>
+        <v>187.248</v>
       </c>
       <c r="D514" t="s">
         <v>607</v>
@@ -10953,7 +10953,7 @@
         <v>605</v>
       </c>
       <c r="C515">
-        <v>99.51300000000001</v>
+        <v>97.92700000000001</v>
       </c>
       <c r="D515" t="s">
         <v>607</v>
@@ -10970,7 +10970,7 @@
         <v>606</v>
       </c>
       <c r="C516">
-        <v>106.666</v>
+        <v>103.87</v>
       </c>
       <c r="D516" t="s">
         <v>607</v>
@@ -10987,7 +10987,7 @@
         <v>605</v>
       </c>
       <c r="C517">
-        <v>93.57299999999999</v>
+        <v>91.03700000000001</v>
       </c>
       <c r="D517" t="s">
         <v>607</v>
@@ -11001,10 +11001,10 @@
         <v>521</v>
       </c>
       <c r="B518" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C518">
-        <v>101.714</v>
+        <v>95.977</v>
       </c>
       <c r="D518" t="s">
         <v>607</v>
@@ -11021,7 +11021,7 @@
         <v>605</v>
       </c>
       <c r="C519">
-        <v>80.84</v>
+        <v>86.923</v>
       </c>
       <c r="D519" t="s">
         <v>607</v>
@@ -11038,7 +11038,7 @@
         <v>606</v>
       </c>
       <c r="C520">
-        <v>108.12</v>
+        <v>106.035</v>
       </c>
       <c r="D520" t="s">
         <v>607</v>
@@ -11055,7 +11055,7 @@
         <v>605</v>
       </c>
       <c r="C521">
-        <v>87.235</v>
+        <v>84.389</v>
       </c>
       <c r="D521" t="s">
         <v>607</v>
@@ -11072,7 +11072,7 @@
         <v>606</v>
       </c>
       <c r="C522">
-        <v>100.92</v>
+        <v>101.341</v>
       </c>
       <c r="D522" t="s">
         <v>607</v>
@@ -11089,7 +11089,7 @@
         <v>605</v>
       </c>
       <c r="C523">
-        <v>93.928</v>
+        <v>98.411</v>
       </c>
       <c r="D523" t="s">
         <v>607</v>
@@ -11106,7 +11106,7 @@
         <v>605</v>
       </c>
       <c r="C524">
-        <v>78.642</v>
+        <v>69.64100000000001</v>
       </c>
       <c r="D524" t="s">
         <v>607</v>
@@ -11120,10 +11120,10 @@
         <v>527</v>
       </c>
       <c r="B525" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C525">
-        <v>95.282</v>
+        <v>105.959</v>
       </c>
       <c r="D525" t="s">
         <v>607</v>
@@ -11140,7 +11140,7 @@
         <v>606</v>
       </c>
       <c r="C526">
-        <v>107.565</v>
+        <v>113.369</v>
       </c>
       <c r="D526" t="s">
         <v>607</v>
@@ -11154,10 +11154,10 @@
         <v>529</v>
       </c>
       <c r="B527" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C527">
-        <v>94.003</v>
+        <v>101.267</v>
       </c>
       <c r="D527" t="s">
         <v>607</v>
@@ -11174,7 +11174,7 @@
         <v>606</v>
       </c>
       <c r="C528">
-        <v>100.398</v>
+        <v>109.161</v>
       </c>
       <c r="D528" t="s">
         <v>607</v>
@@ -11191,7 +11191,7 @@
         <v>606</v>
       </c>
       <c r="C529">
-        <v>122.032</v>
+        <v>117.493</v>
       </c>
       <c r="D529" t="s">
         <v>607</v>
@@ -11208,7 +11208,7 @@
         <v>606</v>
       </c>
       <c r="C530">
-        <v>110.845</v>
+        <v>106.96</v>
       </c>
       <c r="D530" t="s">
         <v>607</v>
@@ -11225,7 +11225,7 @@
         <v>606</v>
       </c>
       <c r="C531">
-        <v>126.596</v>
+        <v>121.053</v>
       </c>
       <c r="D531" t="s">
         <v>607</v>
@@ -11242,7 +11242,7 @@
         <v>606</v>
       </c>
       <c r="C532">
-        <v>111.673</v>
+        <v>105.344</v>
       </c>
       <c r="D532" t="s">
         <v>607</v>
@@ -11259,7 +11259,7 @@
         <v>606</v>
       </c>
       <c r="C533">
-        <v>107.307</v>
+        <v>102.711</v>
       </c>
       <c r="D533" t="s">
         <v>607</v>
@@ -11276,7 +11276,7 @@
         <v>606</v>
       </c>
       <c r="C534">
-        <v>105.305</v>
+        <v>106.001</v>
       </c>
       <c r="D534" t="s">
         <v>607</v>
@@ -11293,7 +11293,7 @@
         <v>606</v>
       </c>
       <c r="C535">
-        <v>108.61</v>
+        <v>105.899</v>
       </c>
       <c r="D535" t="s">
         <v>607</v>
@@ -11310,7 +11310,7 @@
         <v>606</v>
       </c>
       <c r="C536">
-        <v>110.695</v>
+        <v>108.295</v>
       </c>
       <c r="D536" t="s">
         <v>607</v>
@@ -11327,7 +11327,7 @@
         <v>605</v>
       </c>
       <c r="C537">
-        <v>87.691</v>
+        <v>95.10899999999999</v>
       </c>
       <c r="D537" t="s">
         <v>607</v>
@@ -11344,7 +11344,7 @@
         <v>606</v>
       </c>
       <c r="C538">
-        <v>121.197</v>
+        <v>123.074</v>
       </c>
       <c r="D538" t="s">
         <v>607</v>
@@ -11361,7 +11361,7 @@
         <v>606</v>
       </c>
       <c r="C539">
-        <v>111.745</v>
+        <v>113.115</v>
       </c>
       <c r="D539" t="s">
         <v>607</v>
@@ -11378,7 +11378,7 @@
         <v>606</v>
       </c>
       <c r="C540">
-        <v>104.491</v>
+        <v>108.332</v>
       </c>
       <c r="D540" t="s">
         <v>607</v>
@@ -11395,7 +11395,7 @@
         <v>605</v>
       </c>
       <c r="C541">
-        <v>99.276</v>
+        <v>97.71299999999999</v>
       </c>
       <c r="D541" t="s">
         <v>607</v>
@@ -11412,7 +11412,7 @@
         <v>605</v>
       </c>
       <c r="C542">
-        <v>98.985</v>
+        <v>99.46599999999999</v>
       </c>
       <c r="D542" t="s">
         <v>607</v>
@@ -11429,7 +11429,7 @@
         <v>605</v>
       </c>
       <c r="C543">
-        <v>97.09699999999999</v>
+        <v>95.999</v>
       </c>
       <c r="D543" t="s">
         <v>607</v>
@@ -11446,7 +11446,7 @@
         <v>605</v>
       </c>
       <c r="C544">
-        <v>98.69499999999999</v>
+        <v>98.044</v>
       </c>
       <c r="D544" t="s">
         <v>607</v>
@@ -11460,10 +11460,10 @@
         <v>546</v>
       </c>
       <c r="B545" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C545">
-        <v>101.154</v>
+        <v>96.70999999999999</v>
       </c>
       <c r="D545" t="s">
         <v>607</v>
@@ -11480,7 +11480,7 @@
         <v>605</v>
       </c>
       <c r="C546">
-        <v>97.336</v>
+        <v>95.43300000000001</v>
       </c>
       <c r="D546" t="s">
         <v>607</v>
@@ -11494,10 +11494,10 @@
         <v>548</v>
       </c>
       <c r="B547" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C547">
-        <v>100.08</v>
+        <v>99.194</v>
       </c>
       <c r="D547" t="s">
         <v>607</v>
@@ -11514,7 +11514,7 @@
         <v>605</v>
       </c>
       <c r="C548">
-        <v>97.40300000000001</v>
+        <v>99.45099999999999</v>
       </c>
       <c r="D548" t="s">
         <v>607</v>
@@ -11531,7 +11531,7 @@
         <v>605</v>
       </c>
       <c r="C549">
-        <v>97.613</v>
+        <v>95.026</v>
       </c>
       <c r="D549" t="s">
         <v>607</v>
@@ -11545,10 +11545,10 @@
         <v>551</v>
       </c>
       <c r="B550" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C550">
-        <v>101.261</v>
+        <v>99.873</v>
       </c>
       <c r="D550" t="s">
         <v>607</v>
@@ -11565,7 +11565,7 @@
         <v>606</v>
       </c>
       <c r="C551">
-        <v>108.092</v>
+        <v>106.548</v>
       </c>
       <c r="D551" t="s">
         <v>607</v>
@@ -11582,7 +11582,7 @@
         <v>606</v>
       </c>
       <c r="C552">
-        <v>101.873</v>
+        <v>102.874</v>
       </c>
       <c r="D552" t="s">
         <v>607</v>
@@ -11599,7 +11599,7 @@
         <v>606</v>
       </c>
       <c r="C553">
-        <v>114.441</v>
+        <v>116.129</v>
       </c>
       <c r="D553" t="s">
         <v>607</v>
@@ -11633,7 +11633,7 @@
         <v>605</v>
       </c>
       <c r="C555">
-        <v>95.623</v>
+        <v>95.087</v>
       </c>
       <c r="D555" t="s">
         <v>607</v>
@@ -11650,7 +11650,7 @@
         <v>606</v>
       </c>
       <c r="C556">
-        <v>104.637</v>
+        <v>106.776</v>
       </c>
       <c r="D556" t="s">
         <v>607</v>
@@ -11667,7 +11667,7 @@
         <v>606</v>
       </c>
       <c r="C557">
-        <v>100.157</v>
+        <v>102.034</v>
       </c>
       <c r="D557" t="s">
         <v>607</v>
@@ -11684,7 +11684,7 @@
         <v>606</v>
       </c>
       <c r="C558">
-        <v>100</v>
+        <v>101.2</v>
       </c>
       <c r="D558" t="s">
         <v>607</v>
@@ -11701,7 +11701,7 @@
         <v>605</v>
       </c>
       <c r="C559">
-        <v>98.111</v>
+        <v>96.34099999999999</v>
       </c>
       <c r="D559" t="s">
         <v>607</v>
@@ -11718,7 +11718,7 @@
         <v>606</v>
       </c>
       <c r="C560">
-        <v>112.049</v>
+        <v>104.29</v>
       </c>
       <c r="D560" t="s">
         <v>607</v>
@@ -11732,10 +11732,10 @@
         <v>562</v>
       </c>
       <c r="B561" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C561">
-        <v>98.28</v>
+        <v>101.337</v>
       </c>
       <c r="D561" t="s">
         <v>607</v>
@@ -11749,10 +11749,10 @@
         <v>563</v>
       </c>
       <c r="B562" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C562">
-        <v>99.51900000000001</v>
+        <v>100</v>
       </c>
       <c r="D562" t="s">
         <v>607</v>
@@ -11766,10 +11766,10 @@
         <v>564</v>
       </c>
       <c r="B563" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C563">
-        <v>99.218</v>
+        <v>104.86</v>
       </c>
       <c r="D563" t="s">
         <v>607</v>
@@ -11786,7 +11786,7 @@
         <v>606</v>
       </c>
       <c r="C564">
-        <v>100.758</v>
+        <v>103.031</v>
       </c>
       <c r="D564" t="s">
         <v>607</v>
@@ -11800,10 +11800,10 @@
         <v>566</v>
       </c>
       <c r="B565" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C565">
-        <v>97.499</v>
+        <v>100.286</v>
       </c>
       <c r="D565" t="s">
         <v>607</v>
@@ -11820,7 +11820,7 @@
         <v>606</v>
       </c>
       <c r="C566">
-        <v>141.534</v>
+        <v>143.882</v>
       </c>
       <c r="D566" t="s">
         <v>607</v>
@@ -11837,7 +11837,7 @@
         <v>605</v>
       </c>
       <c r="C567">
-        <v>87.38200000000001</v>
+        <v>84.952</v>
       </c>
       <c r="D567" t="s">
         <v>607</v>
@@ -11851,10 +11851,10 @@
         <v>569</v>
       </c>
       <c r="B568" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C568">
-        <v>100.495</v>
+        <v>99.688</v>
       </c>
       <c r="D568" t="s">
         <v>607</v>
@@ -11871,7 +11871,7 @@
         <v>606</v>
       </c>
       <c r="C569">
-        <v>101.282</v>
+        <v>101.095</v>
       </c>
       <c r="D569" t="s">
         <v>607</v>
@@ -11888,7 +11888,7 @@
         <v>605</v>
       </c>
       <c r="C570">
-        <v>92.577</v>
+        <v>91.759</v>
       </c>
       <c r="D570" t="s">
         <v>607</v>
@@ -11905,7 +11905,7 @@
         <v>606</v>
       </c>
       <c r="C571">
-        <v>109.359</v>
+        <v>109.106</v>
       </c>
       <c r="D571" t="s">
         <v>607</v>
@@ -11922,7 +11922,7 @@
         <v>606</v>
       </c>
       <c r="C572">
-        <v>103.04</v>
+        <v>102.82</v>
       </c>
       <c r="D572" t="s">
         <v>607</v>
@@ -11939,7 +11939,7 @@
         <v>606</v>
       </c>
       <c r="C573">
-        <v>105.22</v>
+        <v>102.257</v>
       </c>
       <c r="D573" t="s">
         <v>607</v>
@@ -11956,7 +11956,7 @@
         <v>606</v>
       </c>
       <c r="C574">
-        <v>106.102</v>
+        <v>101.483</v>
       </c>
       <c r="D574" t="s">
         <v>607</v>
@@ -11973,7 +11973,7 @@
         <v>606</v>
       </c>
       <c r="C575">
-        <v>111.868</v>
+        <v>115.188</v>
       </c>
       <c r="D575" t="s">
         <v>607</v>
@@ -11990,7 +11990,7 @@
         <v>606</v>
       </c>
       <c r="C576">
-        <v>115.26</v>
+        <v>117.073</v>
       </c>
       <c r="D576" t="s">
         <v>607</v>
@@ -12007,7 +12007,7 @@
         <v>606</v>
       </c>
       <c r="C577">
-        <v>108.952</v>
+        <v>113.893</v>
       </c>
       <c r="D577" t="s">
         <v>607</v>
@@ -12024,7 +12024,7 @@
         <v>606</v>
       </c>
       <c r="C578">
-        <v>108.348</v>
+        <v>109.228</v>
       </c>
       <c r="D578" t="s">
         <v>607</v>
@@ -12041,7 +12041,7 @@
         <v>606</v>
       </c>
       <c r="C579">
-        <v>100.022</v>
+        <v>101.219</v>
       </c>
       <c r="D579" t="s">
         <v>607</v>
@@ -12058,7 +12058,7 @@
         <v>606</v>
       </c>
       <c r="C580">
-        <v>111.246</v>
+        <v>106.094</v>
       </c>
       <c r="D580" t="s">
         <v>607</v>
@@ -12075,7 +12075,7 @@
         <v>606</v>
       </c>
       <c r="C581">
-        <v>105.139</v>
+        <v>104.778</v>
       </c>
       <c r="D581" t="s">
         <v>607</v>
@@ -12092,7 +12092,7 @@
         <v>606</v>
       </c>
       <c r="C582">
-        <v>114.425</v>
+        <v>118.924</v>
       </c>
       <c r="D582" t="s">
         <v>607</v>
@@ -12109,7 +12109,7 @@
         <v>606</v>
       </c>
       <c r="C583">
-        <v>125.789</v>
+        <v>132.07</v>
       </c>
       <c r="D583" t="s">
         <v>607</v>
@@ -12126,7 +12126,7 @@
         <v>606</v>
       </c>
       <c r="C584">
-        <v>105.331</v>
+        <v>106.088</v>
       </c>
       <c r="D584" t="s">
         <v>607</v>
@@ -12143,7 +12143,7 @@
         <v>606</v>
       </c>
       <c r="C585">
-        <v>107.081</v>
+        <v>107.745</v>
       </c>
       <c r="D585" t="s">
         <v>607</v>
@@ -12160,7 +12160,7 @@
         <v>606</v>
       </c>
       <c r="C586">
-        <v>107.668</v>
+        <v>104.644</v>
       </c>
       <c r="D586" t="s">
         <v>607</v>
@@ -12177,7 +12177,7 @@
         <v>605</v>
       </c>
       <c r="C587">
-        <v>91.40300000000001</v>
+        <v>88.502</v>
       </c>
       <c r="D587" t="s">
         <v>607</v>
@@ -12194,7 +12194,7 @@
         <v>606</v>
       </c>
       <c r="C588">
-        <v>105.209</v>
+        <v>100.186</v>
       </c>
       <c r="D588" t="s">
         <v>607</v>
@@ -12211,7 +12211,7 @@
         <v>606</v>
       </c>
       <c r="C589">
-        <v>106.804</v>
+        <v>106.458</v>
       </c>
       <c r="D589" t="s">
         <v>607</v>
@@ -12228,7 +12228,7 @@
         <v>605</v>
       </c>
       <c r="C590">
-        <v>95.455</v>
+        <v>96.48399999999999</v>
       </c>
       <c r="D590" t="s">
         <v>607</v>
@@ -12245,7 +12245,7 @@
         <v>606</v>
       </c>
       <c r="C591">
-        <v>106.243</v>
+        <v>108.029</v>
       </c>
       <c r="D591" t="s">
         <v>607</v>
@@ -12262,7 +12262,7 @@
         <v>606</v>
       </c>
       <c r="C592">
-        <v>110.088</v>
+        <v>110.524</v>
       </c>
       <c r="D592" t="s">
         <v>607</v>
@@ -12279,7 +12279,7 @@
         <v>606</v>
       </c>
       <c r="C593">
-        <v>100.911</v>
+        <v>100.168</v>
       </c>
       <c r="D593" t="s">
         <v>607</v>
@@ -12296,7 +12296,7 @@
         <v>606</v>
       </c>
       <c r="C594">
-        <v>113.734</v>
+        <v>115.633</v>
       </c>
       <c r="D594" t="s">
         <v>607</v>
@@ -12313,7 +12313,7 @@
         <v>606</v>
       </c>
       <c r="C595">
-        <v>105.78</v>
+        <v>103.123</v>
       </c>
       <c r="D595" t="s">
         <v>607</v>
@@ -12330,7 +12330,7 @@
         <v>606</v>
       </c>
       <c r="C596">
-        <v>111.499</v>
+        <v>111.62</v>
       </c>
       <c r="D596" t="s">
         <v>607</v>
@@ -12347,7 +12347,7 @@
         <v>606</v>
       </c>
       <c r="C597">
-        <v>125.243</v>
+        <v>121.89</v>
       </c>
       <c r="D597" t="s">
         <v>607</v>
@@ -12364,7 +12364,7 @@
         <v>606</v>
       </c>
       <c r="C598">
-        <v>112.556</v>
+        <v>113.328</v>
       </c>
       <c r="D598" t="s">
         <v>607</v>
@@ -12381,7 +12381,7 @@
         <v>606</v>
       </c>
       <c r="C599">
-        <v>112.751</v>
+        <v>108.108</v>
       </c>
       <c r="D599" t="s">
         <v>607</v>
@@ -12398,7 +12398,7 @@
         <v>606</v>
       </c>
       <c r="C600">
-        <v>106.015</v>
+        <v>107.21</v>
       </c>
       <c r="D600" t="s">
         <v>607</v>
@@ -12415,7 +12415,7 @@
         <v>605</v>
       </c>
       <c r="C601">
-        <v>95.687</v>
+        <v>89.319</v>
       </c>
       <c r="D601" t="s">
         <v>607</v>
@@ -12432,7 +12432,7 @@
         <v>605</v>
       </c>
       <c r="C602">
-        <v>98.782</v>
+        <v>98.39700000000001</v>
       </c>
       <c r="D602" t="s">
         <v>607</v>
@@ -12446,10 +12446,10 @@
         <v>604</v>
       </c>
       <c r="B603" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C603">
-        <v>101.104</v>
+        <v>95.42400000000001</v>
       </c>
       <c r="D603" t="s">
         <v>607</v>

--- a/generated_reports/tradfi_momentum.xlsx
+++ b/generated_reports/tradfi_momentum.xlsx
@@ -2232,7 +2232,7 @@
         <v>605</v>
       </c>
       <c r="C2">
-        <v>92.306</v>
+        <v>97.779</v>
       </c>
       <c r="D2" t="s">
         <v>607</v>
@@ -2249,7 +2249,7 @@
         <v>605</v>
       </c>
       <c r="C3">
-        <v>89.161</v>
+        <v>99.99299999999999</v>
       </c>
       <c r="D3" t="s">
         <v>607</v>
@@ -2263,10 +2263,10 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C4">
-        <v>95.547</v>
+        <v>103.273</v>
       </c>
       <c r="D4" t="s">
         <v>607</v>
@@ -2280,10 +2280,10 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C5">
-        <v>87.759</v>
+        <v>108.969</v>
       </c>
       <c r="D5" t="s">
         <v>607</v>
@@ -2297,10 +2297,10 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C6">
-        <v>82.297</v>
+        <v>105.381</v>
       </c>
       <c r="D6" t="s">
         <v>607</v>
@@ -2314,10 +2314,10 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C7">
-        <v>92.027</v>
+        <v>104.212</v>
       </c>
       <c r="D7" t="s">
         <v>607</v>
@@ -2334,7 +2334,7 @@
         <v>605</v>
       </c>
       <c r="C8">
-        <v>85.233</v>
+        <v>95.342</v>
       </c>
       <c r="D8" t="s">
         <v>607</v>
@@ -2351,7 +2351,7 @@
         <v>606</v>
       </c>
       <c r="C9">
-        <v>109.044</v>
+        <v>110.358</v>
       </c>
       <c r="D9" t="s">
         <v>607</v>
@@ -2368,7 +2368,7 @@
         <v>605</v>
       </c>
       <c r="C10">
-        <v>85.961</v>
+        <v>91.736</v>
       </c>
       <c r="D10" t="s">
         <v>607</v>
@@ -2382,10 +2382,10 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C11">
-        <v>98.336</v>
+        <v>103.959</v>
       </c>
       <c r="D11" t="s">
         <v>607</v>
@@ -2402,7 +2402,7 @@
         <v>605</v>
       </c>
       <c r="C12">
-        <v>98.224</v>
+        <v>99.319</v>
       </c>
       <c r="D12" t="s">
         <v>607</v>
@@ -2416,10 +2416,10 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C13">
-        <v>80.419</v>
+        <v>103.078</v>
       </c>
       <c r="D13" t="s">
         <v>607</v>
@@ -2433,10 +2433,10 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C14">
-        <v>98.36799999999999</v>
+        <v>107.464</v>
       </c>
       <c r="D14" t="s">
         <v>607</v>
@@ -2453,7 +2453,7 @@
         <v>605</v>
       </c>
       <c r="C15">
-        <v>96.476</v>
+        <v>97.139</v>
       </c>
       <c r="D15" t="s">
         <v>607</v>
@@ -2470,7 +2470,7 @@
         <v>606</v>
       </c>
       <c r="C16">
-        <v>101.115</v>
+        <v>101.09</v>
       </c>
       <c r="D16" t="s">
         <v>607</v>
@@ -2487,7 +2487,7 @@
         <v>605</v>
       </c>
       <c r="C17">
-        <v>84.809</v>
+        <v>99.42100000000001</v>
       </c>
       <c r="D17" t="s">
         <v>607</v>
@@ -2504,7 +2504,7 @@
         <v>606</v>
       </c>
       <c r="C18">
-        <v>103.981</v>
+        <v>100.597</v>
       </c>
       <c r="D18" t="s">
         <v>607</v>
@@ -2518,10 +2518,10 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C19">
-        <v>96.054</v>
+        <v>104.056</v>
       </c>
       <c r="D19" t="s">
         <v>607</v>
@@ -2538,7 +2538,7 @@
         <v>605</v>
       </c>
       <c r="C20">
-        <v>98.496</v>
+        <v>95.90300000000001</v>
       </c>
       <c r="D20" t="s">
         <v>607</v>
@@ -2552,10 +2552,10 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C21">
-        <v>95.114</v>
+        <v>105.324</v>
       </c>
       <c r="D21" t="s">
         <v>607</v>
@@ -2572,7 +2572,7 @@
         <v>606</v>
       </c>
       <c r="C22">
-        <v>102.28</v>
+        <v>101.897</v>
       </c>
       <c r="D22" t="s">
         <v>607</v>
@@ -2586,10 +2586,10 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C23">
-        <v>93.759</v>
+        <v>112.512</v>
       </c>
       <c r="D23" t="s">
         <v>607</v>
@@ -2603,10 +2603,10 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C24">
-        <v>100.87</v>
+        <v>92.925</v>
       </c>
       <c r="D24" t="s">
         <v>607</v>
@@ -2623,7 +2623,7 @@
         <v>606</v>
       </c>
       <c r="C25">
-        <v>104.169</v>
+        <v>100.181</v>
       </c>
       <c r="D25" t="s">
         <v>607</v>
@@ -2637,10 +2637,10 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C26">
-        <v>90.375</v>
+        <v>102.338</v>
       </c>
       <c r="D26" t="s">
         <v>607</v>
@@ -2654,10 +2654,10 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C27">
-        <v>101.113</v>
+        <v>99.075</v>
       </c>
       <c r="D27" t="s">
         <v>607</v>
@@ -2671,10 +2671,10 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C28">
-        <v>95.075</v>
+        <v>102.056</v>
       </c>
       <c r="D28" t="s">
         <v>607</v>
@@ -2688,10 +2688,10 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C29">
-        <v>96.146</v>
+        <v>104.783</v>
       </c>
       <c r="D29" t="s">
         <v>607</v>
@@ -2708,7 +2708,7 @@
         <v>606</v>
       </c>
       <c r="C30">
-        <v>103.489</v>
+        <v>100.709</v>
       </c>
       <c r="D30" t="s">
         <v>607</v>
@@ -2722,10 +2722,10 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C31">
-        <v>97.592</v>
+        <v>102.572</v>
       </c>
       <c r="D31" t="s">
         <v>607</v>
@@ -2742,7 +2742,7 @@
         <v>606</v>
       </c>
       <c r="C32">
-        <v>116.279</v>
+        <v>100.868</v>
       </c>
       <c r="D32" t="s">
         <v>607</v>
@@ -2756,10 +2756,10 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C33">
-        <v>91.41500000000001</v>
+        <v>104.05</v>
       </c>
       <c r="D33" t="s">
         <v>607</v>
@@ -2776,7 +2776,7 @@
         <v>605</v>
       </c>
       <c r="C34">
-        <v>98.413</v>
+        <v>85.871</v>
       </c>
       <c r="D34" t="s">
         <v>607</v>
@@ -2790,10 +2790,10 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C35">
-        <v>92.413</v>
+        <v>104.723</v>
       </c>
       <c r="D35" t="s">
         <v>607</v>
@@ -2807,10 +2807,10 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C36">
-        <v>94.67</v>
+        <v>111.186</v>
       </c>
       <c r="D36" t="s">
         <v>607</v>
@@ -2824,10 +2824,10 @@
         <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C37">
-        <v>96.495</v>
+        <v>104.589</v>
       </c>
       <c r="D37" t="s">
         <v>607</v>
@@ -2844,7 +2844,7 @@
         <v>605</v>
       </c>
       <c r="C38">
-        <v>99.639</v>
+        <v>95.206</v>
       </c>
       <c r="D38" t="s">
         <v>607</v>
@@ -2861,7 +2861,7 @@
         <v>606</v>
       </c>
       <c r="C39">
-        <v>101.072</v>
+        <v>106.219</v>
       </c>
       <c r="D39" t="s">
         <v>607</v>
@@ -2875,10 +2875,10 @@
         <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C40">
-        <v>94.474</v>
+        <v>102.45</v>
       </c>
       <c r="D40" t="s">
         <v>607</v>
@@ -2895,7 +2895,7 @@
         <v>606</v>
       </c>
       <c r="C41">
-        <v>108.92</v>
+        <v>104.125</v>
       </c>
       <c r="D41" t="s">
         <v>607</v>
@@ -2909,10 +2909,10 @@
         <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C42">
-        <v>99.851</v>
+        <v>102.455</v>
       </c>
       <c r="D42" t="s">
         <v>607</v>
@@ -2929,7 +2929,7 @@
         <v>606</v>
       </c>
       <c r="C43">
-        <v>108.335</v>
+        <v>105.878</v>
       </c>
       <c r="D43" t="s">
         <v>607</v>
@@ -2943,10 +2943,10 @@
         <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C44">
-        <v>97.614</v>
+        <v>105.552</v>
       </c>
       <c r="D44" t="s">
         <v>607</v>
@@ -2960,10 +2960,10 @@
         <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C45">
-        <v>98.995</v>
+        <v>102.703</v>
       </c>
       <c r="D45" t="s">
         <v>607</v>
@@ -2980,7 +2980,7 @@
         <v>606</v>
       </c>
       <c r="C46">
-        <v>105.653</v>
+        <v>100.358</v>
       </c>
       <c r="D46" t="s">
         <v>607</v>
@@ -2997,7 +2997,7 @@
         <v>606</v>
       </c>
       <c r="C47">
-        <v>104.342</v>
+        <v>103.197</v>
       </c>
       <c r="D47" t="s">
         <v>607</v>
@@ -3014,7 +3014,7 @@
         <v>605</v>
       </c>
       <c r="C48">
-        <v>98.309</v>
+        <v>98.7</v>
       </c>
       <c r="D48" t="s">
         <v>607</v>
@@ -3028,10 +3028,10 @@
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C49">
-        <v>97.11199999999999</v>
+        <v>101.126</v>
       </c>
       <c r="D49" t="s">
         <v>607</v>
@@ -3048,7 +3048,7 @@
         <v>606</v>
       </c>
       <c r="C50">
-        <v>100.041</v>
+        <v>103.834</v>
       </c>
       <c r="D50" t="s">
         <v>607</v>
@@ -3065,7 +3065,7 @@
         <v>606</v>
       </c>
       <c r="C51">
-        <v>100.674</v>
+        <v>108.226</v>
       </c>
       <c r="D51" t="s">
         <v>607</v>
@@ -3082,7 +3082,7 @@
         <v>606</v>
       </c>
       <c r="C52">
-        <v>109.042</v>
+        <v>100.038</v>
       </c>
       <c r="D52" t="s">
         <v>607</v>
@@ -3096,10 +3096,10 @@
         <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C53">
-        <v>91.721</v>
+        <v>100.996</v>
       </c>
       <c r="D53" t="s">
         <v>607</v>
@@ -3116,7 +3116,7 @@
         <v>606</v>
       </c>
       <c r="C54">
-        <v>103.162</v>
+        <v>105.942</v>
       </c>
       <c r="D54" t="s">
         <v>607</v>
@@ -3133,7 +3133,7 @@
         <v>606</v>
       </c>
       <c r="C55">
-        <v>101.498</v>
+        <v>104.178</v>
       </c>
       <c r="D55" t="s">
         <v>607</v>
@@ -3147,10 +3147,10 @@
         <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C56">
-        <v>98.232</v>
+        <v>100.331</v>
       </c>
       <c r="D56" t="s">
         <v>607</v>
@@ -3167,7 +3167,7 @@
         <v>606</v>
       </c>
       <c r="C57">
-        <v>107.889</v>
+        <v>103.875</v>
       </c>
       <c r="D57" t="s">
         <v>607</v>
@@ -3181,10 +3181,10 @@
         <v>61</v>
       </c>
       <c r="B58" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C58">
-        <v>97.928</v>
+        <v>106.5</v>
       </c>
       <c r="D58" t="s">
         <v>607</v>
@@ -3201,7 +3201,7 @@
         <v>606</v>
       </c>
       <c r="C59">
-        <v>109.464</v>
+        <v>102.794</v>
       </c>
       <c r="D59" t="s">
         <v>607</v>
@@ -3215,10 +3215,10 @@
         <v>63</v>
       </c>
       <c r="B60" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C60">
-        <v>101.434</v>
+        <v>95.47199999999999</v>
       </c>
       <c r="D60" t="s">
         <v>607</v>
@@ -3235,7 +3235,7 @@
         <v>605</v>
       </c>
       <c r="C61">
-        <v>96.923</v>
+        <v>98.57299999999999</v>
       </c>
       <c r="D61" t="s">
         <v>607</v>
@@ -3249,10 +3249,10 @@
         <v>65</v>
       </c>
       <c r="B62" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C62">
-        <v>103.876</v>
+        <v>99.28</v>
       </c>
       <c r="D62" t="s">
         <v>607</v>
@@ -3269,7 +3269,7 @@
         <v>606</v>
       </c>
       <c r="C63">
-        <v>101.975</v>
+        <v>100.997</v>
       </c>
       <c r="D63" t="s">
         <v>607</v>
@@ -3283,10 +3283,10 @@
         <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C64">
-        <v>96.431</v>
+        <v>102.867</v>
       </c>
       <c r="D64" t="s">
         <v>607</v>
@@ -3300,10 +3300,10 @@
         <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C65">
-        <v>94.65000000000001</v>
+        <v>100.965</v>
       </c>
       <c r="D65" t="s">
         <v>607</v>
@@ -3320,7 +3320,7 @@
         <v>606</v>
       </c>
       <c r="C66">
-        <v>101.1</v>
+        <v>104.773</v>
       </c>
       <c r="D66" t="s">
         <v>607</v>
@@ -3337,7 +3337,7 @@
         <v>606</v>
       </c>
       <c r="C67">
-        <v>103.912</v>
+        <v>103.975</v>
       </c>
       <c r="D67" t="s">
         <v>607</v>
@@ -3354,7 +3354,7 @@
         <v>606</v>
       </c>
       <c r="C68">
-        <v>102.957</v>
+        <v>105.206</v>
       </c>
       <c r="D68" t="s">
         <v>607</v>
@@ -3368,10 +3368,10 @@
         <v>72</v>
       </c>
       <c r="B69" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C69">
-        <v>93.32899999999999</v>
+        <v>100.129</v>
       </c>
       <c r="D69" t="s">
         <v>607</v>
@@ -3388,7 +3388,7 @@
         <v>606</v>
       </c>
       <c r="C70">
-        <v>106.713</v>
+        <v>115.652</v>
       </c>
       <c r="D70" t="s">
         <v>607</v>
@@ -3402,10 +3402,10 @@
         <v>74</v>
       </c>
       <c r="B71" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C71">
-        <v>98.36499999999999</v>
+        <v>108.471</v>
       </c>
       <c r="D71" t="s">
         <v>607</v>
@@ -3422,7 +3422,7 @@
         <v>606</v>
       </c>
       <c r="C72">
-        <v>108.269</v>
+        <v>105.126</v>
       </c>
       <c r="D72" t="s">
         <v>607</v>
@@ -3436,10 +3436,10 @@
         <v>76</v>
       </c>
       <c r="B73" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C73">
-        <v>98.604</v>
+        <v>106.08</v>
       </c>
       <c r="D73" t="s">
         <v>607</v>
@@ -3456,7 +3456,7 @@
         <v>605</v>
       </c>
       <c r="C74">
-        <v>99.693</v>
+        <v>98.16500000000001</v>
       </c>
       <c r="D74" t="s">
         <v>607</v>
@@ -3473,7 +3473,7 @@
         <v>605</v>
       </c>
       <c r="C75">
-        <v>92.126</v>
+        <v>98.694</v>
       </c>
       <c r="D75" t="s">
         <v>607</v>
@@ -3487,10 +3487,10 @@
         <v>79</v>
       </c>
       <c r="B76" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C76">
-        <v>118.945</v>
+        <v>98.899</v>
       </c>
       <c r="D76" t="s">
         <v>607</v>
@@ -3507,7 +3507,7 @@
         <v>606</v>
       </c>
       <c r="C77">
-        <v>105.585</v>
+        <v>103.662</v>
       </c>
       <c r="D77" t="s">
         <v>607</v>
@@ -3521,10 +3521,10 @@
         <v>81</v>
       </c>
       <c r="B78" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C78">
-        <v>99.89700000000001</v>
+        <v>101.4</v>
       </c>
       <c r="D78" t="s">
         <v>607</v>
@@ -3538,10 +3538,10 @@
         <v>82</v>
       </c>
       <c r="B79" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C79">
-        <v>99.771</v>
+        <v>100.395</v>
       </c>
       <c r="D79" t="s">
         <v>607</v>
@@ -3558,7 +3558,7 @@
         <v>606</v>
       </c>
       <c r="C80">
-        <v>114.878</v>
+        <v>101.965</v>
       </c>
       <c r="D80" t="s">
         <v>607</v>
@@ -3572,10 +3572,10 @@
         <v>84</v>
       </c>
       <c r="B81" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C81">
-        <v>99.45099999999999</v>
+        <v>110.861</v>
       </c>
       <c r="D81" t="s">
         <v>607</v>
@@ -3589,10 +3589,10 @@
         <v>85</v>
       </c>
       <c r="B82" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C82">
-        <v>91.117</v>
+        <v>115.862</v>
       </c>
       <c r="D82" t="s">
         <v>607</v>
@@ -3606,10 +3606,10 @@
         <v>86</v>
       </c>
       <c r="B83" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C83">
-        <v>91.642</v>
+        <v>111.96</v>
       </c>
       <c r="D83" t="s">
         <v>607</v>
@@ -3623,10 +3623,10 @@
         <v>87</v>
       </c>
       <c r="B84" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C84">
-        <v>107.792</v>
+        <v>98.51000000000001</v>
       </c>
       <c r="D84" t="s">
         <v>607</v>
@@ -3640,10 +3640,10 @@
         <v>88</v>
       </c>
       <c r="B85" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C85">
-        <v>93.97499999999999</v>
+        <v>100.146</v>
       </c>
       <c r="D85" t="s">
         <v>607</v>
@@ -3660,7 +3660,7 @@
         <v>606</v>
       </c>
       <c r="C86">
-        <v>117.788</v>
+        <v>101.425</v>
       </c>
       <c r="D86" t="s">
         <v>607</v>
@@ -3677,7 +3677,7 @@
         <v>606</v>
       </c>
       <c r="C87">
-        <v>104.68</v>
+        <v>105.078</v>
       </c>
       <c r="D87" t="s">
         <v>607</v>
@@ -3691,10 +3691,10 @@
         <v>91</v>
       </c>
       <c r="B88" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C88">
-        <v>113.857</v>
+        <v>89.30800000000001</v>
       </c>
       <c r="D88" t="s">
         <v>607</v>
@@ -3711,7 +3711,7 @@
         <v>606</v>
       </c>
       <c r="C89">
-        <v>115.101</v>
+        <v>106.479</v>
       </c>
       <c r="D89" t="s">
         <v>607</v>
@@ -3725,10 +3725,10 @@
         <v>93</v>
       </c>
       <c r="B90" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C90">
-        <v>93.65900000000001</v>
+        <v>103.096</v>
       </c>
       <c r="D90" t="s">
         <v>607</v>
@@ -3745,7 +3745,7 @@
         <v>606</v>
       </c>
       <c r="C91">
-        <v>107.361</v>
+        <v>108.096</v>
       </c>
       <c r="D91" t="s">
         <v>607</v>
@@ -3759,10 +3759,10 @@
         <v>95</v>
       </c>
       <c r="B92" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C92">
-        <v>108.226</v>
+        <v>99.211</v>
       </c>
       <c r="D92" t="s">
         <v>607</v>
@@ -3776,10 +3776,10 @@
         <v>96</v>
       </c>
       <c r="B93" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C93">
-        <v>118.302</v>
+        <v>98.952</v>
       </c>
       <c r="D93" t="s">
         <v>607</v>
@@ -3793,10 +3793,10 @@
         <v>97</v>
       </c>
       <c r="B94" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C94">
-        <v>89.5</v>
+        <v>102.849</v>
       </c>
       <c r="D94" t="s">
         <v>607</v>
@@ -3813,7 +3813,7 @@
         <v>606</v>
       </c>
       <c r="C95">
-        <v>106.779</v>
+        <v>103.739</v>
       </c>
       <c r="D95" t="s">
         <v>607</v>
@@ -3827,10 +3827,10 @@
         <v>99</v>
       </c>
       <c r="B96" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C96">
-        <v>99.328</v>
+        <v>105.614</v>
       </c>
       <c r="D96" t="s">
         <v>607</v>
@@ -3844,10 +3844,10 @@
         <v>100</v>
       </c>
       <c r="B97" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C97">
-        <v>107.546</v>
+        <v>96.989</v>
       </c>
       <c r="D97" t="s">
         <v>607</v>
@@ -3864,7 +3864,7 @@
         <v>606</v>
       </c>
       <c r="C98">
-        <v>111.045</v>
+        <v>109.58</v>
       </c>
       <c r="D98" t="s">
         <v>607</v>
@@ -3878,10 +3878,10 @@
         <v>102</v>
       </c>
       <c r="B99" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C99">
-        <v>98.926</v>
+        <v>105.892</v>
       </c>
       <c r="D99" t="s">
         <v>607</v>
@@ -3898,7 +3898,7 @@
         <v>606</v>
       </c>
       <c r="C100">
-        <v>101.92</v>
+        <v>102.077</v>
       </c>
       <c r="D100" t="s">
         <v>607</v>
@@ -3915,7 +3915,7 @@
         <v>606</v>
       </c>
       <c r="C101">
-        <v>101.54</v>
+        <v>101.202</v>
       </c>
       <c r="D101" t="s">
         <v>607</v>
@@ -3929,10 +3929,10 @@
         <v>105</v>
       </c>
       <c r="B102" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C102">
-        <v>94.196</v>
+        <v>103.338</v>
       </c>
       <c r="D102" t="s">
         <v>607</v>
@@ -3949,7 +3949,7 @@
         <v>606</v>
       </c>
       <c r="C103">
-        <v>113.81</v>
+        <v>104.694</v>
       </c>
       <c r="D103" t="s">
         <v>607</v>
@@ -3966,7 +3966,7 @@
         <v>606</v>
       </c>
       <c r="C104">
-        <v>106.781</v>
+        <v>102.773</v>
       </c>
       <c r="D104" t="s">
         <v>607</v>
@@ -3983,7 +3983,7 @@
         <v>606</v>
       </c>
       <c r="C105">
-        <v>101.952</v>
+        <v>102.742</v>
       </c>
       <c r="D105" t="s">
         <v>607</v>
@@ -3997,10 +3997,10 @@
         <v>109</v>
       </c>
       <c r="B106" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C106">
-        <v>94.834</v>
+        <v>102.003</v>
       </c>
       <c r="D106" t="s">
         <v>607</v>
@@ -4017,7 +4017,7 @@
         <v>606</v>
       </c>
       <c r="C107">
-        <v>104.59</v>
+        <v>104.841</v>
       </c>
       <c r="D107" t="s">
         <v>607</v>
@@ -4031,10 +4031,10 @@
         <v>111</v>
       </c>
       <c r="B108" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C108">
-        <v>97.633</v>
+        <v>102.724</v>
       </c>
       <c r="D108" t="s">
         <v>607</v>
@@ -4051,7 +4051,7 @@
         <v>606</v>
       </c>
       <c r="C109">
-        <v>104.351</v>
+        <v>102.743</v>
       </c>
       <c r="D109" t="s">
         <v>607</v>
@@ -4068,7 +4068,7 @@
         <v>606</v>
       </c>
       <c r="C110">
-        <v>104.332</v>
+        <v>100.066</v>
       </c>
       <c r="D110" t="s">
         <v>607</v>
@@ -4082,10 +4082,10 @@
         <v>114</v>
       </c>
       <c r="B111" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C111">
-        <v>85.836</v>
+        <v>106.189</v>
       </c>
       <c r="D111" t="s">
         <v>607</v>
@@ -4099,10 +4099,10 @@
         <v>115</v>
       </c>
       <c r="B112" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C112">
-        <v>98.227</v>
+        <v>101.955</v>
       </c>
       <c r="D112" t="s">
         <v>607</v>
@@ -4116,10 +4116,10 @@
         <v>116</v>
       </c>
       <c r="B113" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C113">
-        <v>99.746</v>
+        <v>105.41</v>
       </c>
       <c r="D113" t="s">
         <v>607</v>
@@ -4136,7 +4136,7 @@
         <v>606</v>
       </c>
       <c r="C114">
-        <v>126.05</v>
+        <v>104.305</v>
       </c>
       <c r="D114" t="s">
         <v>607</v>
@@ -4150,10 +4150,10 @@
         <v>118</v>
       </c>
       <c r="B115" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C115">
-        <v>97.886</v>
+        <v>104.088</v>
       </c>
       <c r="D115" t="s">
         <v>607</v>
@@ -4167,10 +4167,10 @@
         <v>119</v>
       </c>
       <c r="B116" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C116">
-        <v>97.586</v>
+        <v>102.598</v>
       </c>
       <c r="D116" t="s">
         <v>607</v>
@@ -4184,10 +4184,10 @@
         <v>120</v>
       </c>
       <c r="B117" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C117">
-        <v>99.922</v>
+        <v>106.371</v>
       </c>
       <c r="D117" t="s">
         <v>607</v>
@@ -4201,10 +4201,10 @@
         <v>121</v>
       </c>
       <c r="B118" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C118">
-        <v>96.971</v>
+        <v>104.961</v>
       </c>
       <c r="D118" t="s">
         <v>607</v>
@@ -4221,7 +4221,7 @@
         <v>606</v>
       </c>
       <c r="C119">
-        <v>101.754</v>
+        <v>106.646</v>
       </c>
       <c r="D119" t="s">
         <v>607</v>
@@ -4238,7 +4238,7 @@
         <v>605</v>
       </c>
       <c r="C120">
-        <v>99.943</v>
+        <v>96.72799999999999</v>
       </c>
       <c r="D120" t="s">
         <v>607</v>
@@ -4252,10 +4252,10 @@
         <v>124</v>
       </c>
       <c r="B121" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C121">
-        <v>106.771</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="D121" t="s">
         <v>607</v>
@@ -4272,7 +4272,7 @@
         <v>606</v>
       </c>
       <c r="C122">
-        <v>129.12</v>
+        <v>113.516</v>
       </c>
       <c r="D122" t="s">
         <v>607</v>
@@ -4286,10 +4286,10 @@
         <v>126</v>
       </c>
       <c r="B123" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C123">
-        <v>100.966</v>
+        <v>99.926</v>
       </c>
       <c r="D123" t="s">
         <v>607</v>
@@ -4303,10 +4303,10 @@
         <v>127</v>
       </c>
       <c r="B124" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C124">
-        <v>103.24</v>
+        <v>98.629</v>
       </c>
       <c r="D124" t="s">
         <v>607</v>
@@ -4320,10 +4320,10 @@
         <v>128</v>
       </c>
       <c r="B125" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C125">
-        <v>104.15</v>
+        <v>99.995</v>
       </c>
       <c r="D125" t="s">
         <v>607</v>
@@ -4337,10 +4337,10 @@
         <v>129</v>
       </c>
       <c r="B126" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C126">
-        <v>99.90900000000001</v>
+        <v>105.072</v>
       </c>
       <c r="D126" t="s">
         <v>607</v>
@@ -4354,10 +4354,10 @@
         <v>130</v>
       </c>
       <c r="B127" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C127">
-        <v>99</v>
+        <v>100.302</v>
       </c>
       <c r="D127" t="s">
         <v>607</v>
@@ -4374,7 +4374,7 @@
         <v>605</v>
       </c>
       <c r="C128">
-        <v>98.194</v>
+        <v>99.248</v>
       </c>
       <c r="D128" t="s">
         <v>607</v>
@@ -4391,7 +4391,7 @@
         <v>606</v>
       </c>
       <c r="C129">
-        <v>108.176</v>
+        <v>101.357</v>
       </c>
       <c r="D129" t="s">
         <v>607</v>
@@ -4408,7 +4408,7 @@
         <v>606</v>
       </c>
       <c r="C130">
-        <v>112.551</v>
+        <v>103.848</v>
       </c>
       <c r="D130" t="s">
         <v>607</v>
@@ -4425,7 +4425,7 @@
         <v>606</v>
       </c>
       <c r="C131">
-        <v>102.09</v>
+        <v>101.063</v>
       </c>
       <c r="D131" t="s">
         <v>607</v>
@@ -4442,7 +4442,7 @@
         <v>606</v>
       </c>
       <c r="C132">
-        <v>110.929</v>
+        <v>101.448</v>
       </c>
       <c r="D132" t="s">
         <v>607</v>
@@ -4459,7 +4459,7 @@
         <v>606</v>
       </c>
       <c r="C133">
-        <v>110.585</v>
+        <v>103.845</v>
       </c>
       <c r="D133" t="s">
         <v>607</v>
@@ -4476,7 +4476,7 @@
         <v>606</v>
       </c>
       <c r="C134">
-        <v>107.801</v>
+        <v>105.474</v>
       </c>
       <c r="D134" t="s">
         <v>607</v>
@@ -4490,10 +4490,10 @@
         <v>138</v>
       </c>
       <c r="B135" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C135">
-        <v>94.94</v>
+        <v>100.525</v>
       </c>
       <c r="D135" t="s">
         <v>607</v>
@@ -4510,7 +4510,7 @@
         <v>606</v>
       </c>
       <c r="C136">
-        <v>116.943</v>
+        <v>103.097</v>
       </c>
       <c r="D136" t="s">
         <v>607</v>
@@ -4524,10 +4524,10 @@
         <v>140</v>
       </c>
       <c r="B137" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C137">
-        <v>97.93600000000001</v>
+        <v>102.478</v>
       </c>
       <c r="D137" t="s">
         <v>607</v>
@@ -4544,7 +4544,7 @@
         <v>606</v>
       </c>
       <c r="C138">
-        <v>104.294</v>
+        <v>100.332</v>
       </c>
       <c r="D138" t="s">
         <v>607</v>
@@ -4561,7 +4561,7 @@
         <v>606</v>
       </c>
       <c r="C139">
-        <v>105.024</v>
+        <v>102.101</v>
       </c>
       <c r="D139" t="s">
         <v>607</v>
@@ -4578,7 +4578,7 @@
         <v>606</v>
       </c>
       <c r="C140">
-        <v>105.065</v>
+        <v>100.574</v>
       </c>
       <c r="D140" t="s">
         <v>607</v>
@@ -4595,7 +4595,7 @@
         <v>606</v>
       </c>
       <c r="C141">
-        <v>103.413</v>
+        <v>103.141</v>
       </c>
       <c r="D141" t="s">
         <v>607</v>
@@ -4612,7 +4612,7 @@
         <v>606</v>
       </c>
       <c r="C142">
-        <v>105.92</v>
+        <v>102.833</v>
       </c>
       <c r="D142" t="s">
         <v>607</v>
@@ -4629,7 +4629,7 @@
         <v>606</v>
       </c>
       <c r="C143">
-        <v>102.711</v>
+        <v>102.215</v>
       </c>
       <c r="D143" t="s">
         <v>607</v>
@@ -4646,7 +4646,7 @@
         <v>606</v>
       </c>
       <c r="C144">
-        <v>101.043</v>
+        <v>100.832</v>
       </c>
       <c r="D144" t="s">
         <v>607</v>
@@ -4660,10 +4660,10 @@
         <v>148</v>
       </c>
       <c r="B145" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C145">
-        <v>109.089</v>
+        <v>94.946</v>
       </c>
       <c r="D145" t="s">
         <v>607</v>
@@ -4680,7 +4680,7 @@
         <v>606</v>
       </c>
       <c r="C146">
-        <v>108.462</v>
+        <v>103.634</v>
       </c>
       <c r="D146" t="s">
         <v>607</v>
@@ -4694,10 +4694,10 @@
         <v>150</v>
       </c>
       <c r="B147" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C147">
-        <v>94.91500000000001</v>
+        <v>104.058</v>
       </c>
       <c r="D147" t="s">
         <v>607</v>
@@ -4714,7 +4714,7 @@
         <v>606</v>
       </c>
       <c r="C148">
-        <v>101.059</v>
+        <v>103.446</v>
       </c>
       <c r="D148" t="s">
         <v>607</v>
@@ -4731,7 +4731,7 @@
         <v>606</v>
       </c>
       <c r="C149">
-        <v>115.807</v>
+        <v>100.287</v>
       </c>
       <c r="D149" t="s">
         <v>607</v>
@@ -4748,7 +4748,7 @@
         <v>605</v>
       </c>
       <c r="C150">
-        <v>97.726</v>
+        <v>96.68300000000001</v>
       </c>
       <c r="D150" t="s">
         <v>607</v>
@@ -4765,7 +4765,7 @@
         <v>606</v>
       </c>
       <c r="C151">
-        <v>146.226</v>
+        <v>103.508</v>
       </c>
       <c r="D151" t="s">
         <v>607</v>
@@ -4782,7 +4782,7 @@
         <v>606</v>
       </c>
       <c r="C152">
-        <v>100.897</v>
+        <v>104.344</v>
       </c>
       <c r="D152" t="s">
         <v>607</v>
@@ -4799,7 +4799,7 @@
         <v>606</v>
       </c>
       <c r="C153">
-        <v>106.563</v>
+        <v>104.273</v>
       </c>
       <c r="D153" t="s">
         <v>607</v>
@@ -4816,7 +4816,7 @@
         <v>606</v>
       </c>
       <c r="C154">
-        <v>113.471</v>
+        <v>102.633</v>
       </c>
       <c r="D154" t="s">
         <v>607</v>
@@ -4833,7 +4833,7 @@
         <v>606</v>
       </c>
       <c r="C155">
-        <v>100.786</v>
+        <v>107.908</v>
       </c>
       <c r="D155" t="s">
         <v>607</v>
@@ -4850,7 +4850,7 @@
         <v>606</v>
       </c>
       <c r="C156">
-        <v>101.946</v>
+        <v>104.548</v>
       </c>
       <c r="D156" t="s">
         <v>607</v>
@@ -4864,10 +4864,10 @@
         <v>160</v>
       </c>
       <c r="B157" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C157">
-        <v>97.09699999999999</v>
+        <v>102.493</v>
       </c>
       <c r="D157" t="s">
         <v>607</v>
@@ -4884,7 +4884,7 @@
         <v>606</v>
       </c>
       <c r="C158">
-        <v>107.136</v>
+        <v>100.832</v>
       </c>
       <c r="D158" t="s">
         <v>607</v>
@@ -4901,7 +4901,7 @@
         <v>605</v>
       </c>
       <c r="C159">
-        <v>93.84699999999999</v>
+        <v>98.83</v>
       </c>
       <c r="D159" t="s">
         <v>607</v>
@@ -4918,7 +4918,7 @@
         <v>606</v>
       </c>
       <c r="C160">
-        <v>100.321</v>
+        <v>105.115</v>
       </c>
       <c r="D160" t="s">
         <v>607</v>
@@ -4935,7 +4935,7 @@
         <v>606</v>
       </c>
       <c r="C161">
-        <v>101.687</v>
+        <v>104.812</v>
       </c>
       <c r="D161" t="s">
         <v>607</v>
@@ -4952,7 +4952,7 @@
         <v>606</v>
       </c>
       <c r="C162">
-        <v>105.845</v>
+        <v>101.342</v>
       </c>
       <c r="D162" t="s">
         <v>607</v>
@@ -4966,10 +4966,10 @@
         <v>166</v>
       </c>
       <c r="B163" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C163">
-        <v>101.526</v>
+        <v>99.236</v>
       </c>
       <c r="D163" t="s">
         <v>607</v>
@@ -4986,7 +4986,7 @@
         <v>606</v>
       </c>
       <c r="C164">
-        <v>122.055</v>
+        <v>101.324</v>
       </c>
       <c r="D164" t="s">
         <v>607</v>
@@ -5003,7 +5003,7 @@
         <v>606</v>
       </c>
       <c r="C165">
-        <v>108.778</v>
+        <v>101.558</v>
       </c>
       <c r="D165" t="s">
         <v>607</v>
@@ -5020,7 +5020,7 @@
         <v>606</v>
       </c>
       <c r="C166">
-        <v>100.509</v>
+        <v>103.134</v>
       </c>
       <c r="D166" t="s">
         <v>607</v>
@@ -5037,7 +5037,7 @@
         <v>606</v>
       </c>
       <c r="C167">
-        <v>105.045</v>
+        <v>105.589</v>
       </c>
       <c r="D167" t="s">
         <v>607</v>
@@ -5054,7 +5054,7 @@
         <v>606</v>
       </c>
       <c r="C168">
-        <v>103.255</v>
+        <v>102.107</v>
       </c>
       <c r="D168" t="s">
         <v>607</v>
@@ -5068,10 +5068,10 @@
         <v>172</v>
       </c>
       <c r="B169" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C169">
-        <v>98.499</v>
+        <v>101.431</v>
       </c>
       <c r="D169" t="s">
         <v>607</v>
@@ -5085,10 +5085,10 @@
         <v>173</v>
       </c>
       <c r="B170" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C170">
-        <v>97.875</v>
+        <v>100.707</v>
       </c>
       <c r="D170" t="s">
         <v>607</v>
@@ -5105,7 +5105,7 @@
         <v>606</v>
       </c>
       <c r="C171">
-        <v>104.123</v>
+        <v>102.641</v>
       </c>
       <c r="D171" t="s">
         <v>607</v>
@@ -5122,7 +5122,7 @@
         <v>606</v>
       </c>
       <c r="C172">
-        <v>100.245</v>
+        <v>103.211</v>
       </c>
       <c r="D172" t="s">
         <v>607</v>
@@ -5136,10 +5136,10 @@
         <v>176</v>
       </c>
       <c r="B173" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C173">
-        <v>97.80500000000001</v>
+        <v>103.489</v>
       </c>
       <c r="D173" t="s">
         <v>607</v>
@@ -5153,10 +5153,10 @@
         <v>177</v>
       </c>
       <c r="B174" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C174">
-        <v>93.77800000000001</v>
+        <v>102.39</v>
       </c>
       <c r="D174" t="s">
         <v>607</v>
@@ -5173,7 +5173,7 @@
         <v>606</v>
       </c>
       <c r="C175">
-        <v>136.332</v>
+        <v>104.408</v>
       </c>
       <c r="D175" t="s">
         <v>607</v>
@@ -5190,7 +5190,7 @@
         <v>606</v>
       </c>
       <c r="C176">
-        <v>106.779</v>
+        <v>103.436</v>
       </c>
       <c r="D176" t="s">
         <v>607</v>
@@ -5204,10 +5204,10 @@
         <v>180</v>
       </c>
       <c r="B177" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C177">
-        <v>92.027</v>
+        <v>101.804</v>
       </c>
       <c r="D177" t="s">
         <v>607</v>
@@ -5224,7 +5224,7 @@
         <v>606</v>
       </c>
       <c r="C178">
-        <v>102.536</v>
+        <v>103.021</v>
       </c>
       <c r="D178" t="s">
         <v>607</v>
@@ -5238,10 +5238,10 @@
         <v>182</v>
       </c>
       <c r="B179" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C179">
-        <v>100.812</v>
+        <v>98.571</v>
       </c>
       <c r="D179" t="s">
         <v>607</v>
@@ -5255,10 +5255,10 @@
         <v>183</v>
       </c>
       <c r="B180" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C180">
-        <v>98.968</v>
+        <v>101.877</v>
       </c>
       <c r="D180" t="s">
         <v>607</v>
@@ -5275,7 +5275,7 @@
         <v>606</v>
       </c>
       <c r="C181">
-        <v>106.631</v>
+        <v>107.026</v>
       </c>
       <c r="D181" t="s">
         <v>607</v>
@@ -5292,7 +5292,7 @@
         <v>606</v>
       </c>
       <c r="C182">
-        <v>101.508</v>
+        <v>101.277</v>
       </c>
       <c r="D182" t="s">
         <v>607</v>
@@ -5306,10 +5306,10 @@
         <v>186</v>
       </c>
       <c r="B183" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C183">
-        <v>107.05</v>
+        <v>99.05</v>
       </c>
       <c r="D183" t="s">
         <v>607</v>
@@ -5323,10 +5323,10 @@
         <v>187</v>
       </c>
       <c r="B184" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C184">
-        <v>99.86</v>
+        <v>102.17</v>
       </c>
       <c r="D184" t="s">
         <v>607</v>
@@ -5343,7 +5343,7 @@
         <v>606</v>
       </c>
       <c r="C185">
-        <v>103.186</v>
+        <v>101.912</v>
       </c>
       <c r="D185" t="s">
         <v>607</v>
@@ -5357,10 +5357,10 @@
         <v>189</v>
       </c>
       <c r="B186" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C186">
-        <v>81.68600000000001</v>
+        <v>103.341</v>
       </c>
       <c r="D186" t="s">
         <v>607</v>
@@ -5377,7 +5377,7 @@
         <v>606</v>
       </c>
       <c r="C187">
-        <v>127.024</v>
+        <v>100.771</v>
       </c>
       <c r="D187" t="s">
         <v>607</v>
@@ -5394,7 +5394,7 @@
         <v>606</v>
       </c>
       <c r="C188">
-        <v>110.584</v>
+        <v>100.93</v>
       </c>
       <c r="D188" t="s">
         <v>607</v>
@@ -5408,10 +5408,10 @@
         <v>192</v>
       </c>
       <c r="B189" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C189">
-        <v>97.901</v>
+        <v>104.53</v>
       </c>
       <c r="D189" t="s">
         <v>607</v>
@@ -5428,7 +5428,7 @@
         <v>606</v>
       </c>
       <c r="C190">
-        <v>105.525</v>
+        <v>103.764</v>
       </c>
       <c r="D190" t="s">
         <v>607</v>
@@ -5445,7 +5445,7 @@
         <v>606</v>
       </c>
       <c r="C191">
-        <v>106.181</v>
+        <v>104.809</v>
       </c>
       <c r="D191" t="s">
         <v>607</v>
@@ -5459,10 +5459,10 @@
         <v>195</v>
       </c>
       <c r="B192" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C192">
-        <v>96.783</v>
+        <v>102.328</v>
       </c>
       <c r="D192" t="s">
         <v>607</v>
@@ -5479,7 +5479,7 @@
         <v>606</v>
       </c>
       <c r="C193">
-        <v>105.072</v>
+        <v>102.989</v>
       </c>
       <c r="D193" t="s">
         <v>607</v>
@@ -5493,10 +5493,10 @@
         <v>197</v>
       </c>
       <c r="B194" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C194">
-        <v>97.569</v>
+        <v>102.597</v>
       </c>
       <c r="D194" t="s">
         <v>607</v>
@@ -5510,10 +5510,10 @@
         <v>198</v>
       </c>
       <c r="B195" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C195">
-        <v>99.59099999999999</v>
+        <v>102.471</v>
       </c>
       <c r="D195" t="s">
         <v>607</v>
@@ -5527,10 +5527,10 @@
         <v>199</v>
       </c>
       <c r="B196" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C196">
-        <v>99.047</v>
+        <v>101.194</v>
       </c>
       <c r="D196" t="s">
         <v>607</v>
@@ -5544,10 +5544,10 @@
         <v>200</v>
       </c>
       <c r="B197" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C197">
-        <v>101.692</v>
+        <v>99.107</v>
       </c>
       <c r="D197" t="s">
         <v>607</v>
@@ -5564,7 +5564,7 @@
         <v>606</v>
       </c>
       <c r="C198">
-        <v>112.509</v>
+        <v>101.93</v>
       </c>
       <c r="D198" t="s">
         <v>607</v>
@@ -5578,10 +5578,10 @@
         <v>202</v>
       </c>
       <c r="B199" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C199">
-        <v>99.626</v>
+        <v>100.149</v>
       </c>
       <c r="D199" t="s">
         <v>607</v>
@@ -5598,7 +5598,7 @@
         <v>606</v>
       </c>
       <c r="C200">
-        <v>110.062</v>
+        <v>105.626</v>
       </c>
       <c r="D200" t="s">
         <v>607</v>
@@ -5615,7 +5615,7 @@
         <v>606</v>
       </c>
       <c r="C201">
-        <v>110.425</v>
+        <v>107.529</v>
       </c>
       <c r="D201" t="s">
         <v>607</v>
@@ -5632,7 +5632,7 @@
         <v>606</v>
       </c>
       <c r="C202">
-        <v>128.116</v>
+        <v>102.112</v>
       </c>
       <c r="D202" t="s">
         <v>607</v>
@@ -5649,7 +5649,7 @@
         <v>606</v>
       </c>
       <c r="C203">
-        <v>116.612</v>
+        <v>104.437</v>
       </c>
       <c r="D203" t="s">
         <v>607</v>
@@ -5666,7 +5666,7 @@
         <v>606</v>
       </c>
       <c r="C204">
-        <v>102.368</v>
+        <v>101.149</v>
       </c>
       <c r="D204" t="s">
         <v>607</v>
@@ -5683,7 +5683,7 @@
         <v>606</v>
       </c>
       <c r="C205">
-        <v>143.326</v>
+        <v>100.143</v>
       </c>
       <c r="D205" t="s">
         <v>607</v>
@@ -5700,7 +5700,7 @@
         <v>606</v>
       </c>
       <c r="C206">
-        <v>108.475</v>
+        <v>102.12</v>
       </c>
       <c r="D206" t="s">
         <v>607</v>
@@ -5717,7 +5717,7 @@
         <v>606</v>
       </c>
       <c r="C207">
-        <v>120.542</v>
+        <v>101.093</v>
       </c>
       <c r="D207" t="s">
         <v>607</v>
@@ -5734,7 +5734,7 @@
         <v>605</v>
       </c>
       <c r="C208">
-        <v>89.26900000000001</v>
+        <v>93.727</v>
       </c>
       <c r="D208" t="s">
         <v>607</v>
@@ -5751,7 +5751,7 @@
         <v>606</v>
       </c>
       <c r="C209">
-        <v>110.058</v>
+        <v>106.801</v>
       </c>
       <c r="D209" t="s">
         <v>607</v>
@@ -5768,7 +5768,7 @@
         <v>606</v>
       </c>
       <c r="C210">
-        <v>108.508</v>
+        <v>102.293</v>
       </c>
       <c r="D210" t="s">
         <v>607</v>
@@ -5785,7 +5785,7 @@
         <v>606</v>
       </c>
       <c r="C211">
-        <v>118.39</v>
+        <v>105.316</v>
       </c>
       <c r="D211" t="s">
         <v>607</v>
@@ -5802,7 +5802,7 @@
         <v>606</v>
       </c>
       <c r="C212">
-        <v>104.479</v>
+        <v>101.731</v>
       </c>
       <c r="D212" t="s">
         <v>607</v>
@@ -5819,7 +5819,7 @@
         <v>606</v>
       </c>
       <c r="C213">
-        <v>103.008</v>
+        <v>101.11</v>
       </c>
       <c r="D213" t="s">
         <v>607</v>
@@ -5836,7 +5836,7 @@
         <v>606</v>
       </c>
       <c r="C214">
-        <v>106.82</v>
+        <v>101.821</v>
       </c>
       <c r="D214" t="s">
         <v>607</v>
@@ -5850,10 +5850,10 @@
         <v>218</v>
       </c>
       <c r="B215" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C215">
-        <v>94.38800000000001</v>
+        <v>102.852</v>
       </c>
       <c r="D215" t="s">
         <v>607</v>
@@ -5867,10 +5867,10 @@
         <v>219</v>
       </c>
       <c r="B216" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C216">
-        <v>95.765</v>
+        <v>100.278</v>
       </c>
       <c r="D216" t="s">
         <v>607</v>
@@ -5887,7 +5887,7 @@
         <v>606</v>
       </c>
       <c r="C217">
-        <v>102.021</v>
+        <v>102.288</v>
       </c>
       <c r="D217" t="s">
         <v>607</v>
@@ -5904,7 +5904,7 @@
         <v>606</v>
       </c>
       <c r="C218">
-        <v>112.383</v>
+        <v>101.746</v>
       </c>
       <c r="D218" t="s">
         <v>607</v>
@@ -5918,10 +5918,10 @@
         <v>222</v>
       </c>
       <c r="B219" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C219">
-        <v>111.137</v>
+        <v>96.589</v>
       </c>
       <c r="D219" t="s">
         <v>607</v>
@@ -5935,10 +5935,10 @@
         <v>223</v>
       </c>
       <c r="B220" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C220">
-        <v>96.758</v>
+        <v>101.881</v>
       </c>
       <c r="D220" t="s">
         <v>607</v>
@@ -5955,7 +5955,7 @@
         <v>606</v>
       </c>
       <c r="C221">
-        <v>110.515</v>
+        <v>107.232</v>
       </c>
       <c r="D221" t="s">
         <v>607</v>
@@ -5972,7 +5972,7 @@
         <v>605</v>
       </c>
       <c r="C222">
-        <v>96.813</v>
+        <v>97.849</v>
       </c>
       <c r="D222" t="s">
         <v>607</v>
@@ -5989,7 +5989,7 @@
         <v>606</v>
       </c>
       <c r="C223">
-        <v>109.43</v>
+        <v>104.394</v>
       </c>
       <c r="D223" t="s">
         <v>607</v>
@@ -6006,7 +6006,7 @@
         <v>606</v>
       </c>
       <c r="C224">
-        <v>114.223</v>
+        <v>106.606</v>
       </c>
       <c r="D224" t="s">
         <v>607</v>
@@ -6023,7 +6023,7 @@
         <v>606</v>
       </c>
       <c r="C225">
-        <v>105.978</v>
+        <v>101.62</v>
       </c>
       <c r="D225" t="s">
         <v>607</v>
@@ -6040,7 +6040,7 @@
         <v>606</v>
       </c>
       <c r="C226">
-        <v>110.9</v>
+        <v>115.766</v>
       </c>
       <c r="D226" t="s">
         <v>607</v>
@@ -6054,10 +6054,10 @@
         <v>230</v>
       </c>
       <c r="B227" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C227">
-        <v>95.495</v>
+        <v>102.368</v>
       </c>
       <c r="D227" t="s">
         <v>607</v>
@@ -6074,7 +6074,7 @@
         <v>606</v>
       </c>
       <c r="C228">
-        <v>107.745</v>
+        <v>107.801</v>
       </c>
       <c r="D228" t="s">
         <v>607</v>
@@ -6091,7 +6091,7 @@
         <v>606</v>
       </c>
       <c r="C229">
-        <v>103.092</v>
+        <v>101.137</v>
       </c>
       <c r="D229" t="s">
         <v>607</v>
@@ -6108,7 +6108,7 @@
         <v>606</v>
       </c>
       <c r="C230">
-        <v>101.341</v>
+        <v>104.652</v>
       </c>
       <c r="D230" t="s">
         <v>607</v>
@@ -6125,7 +6125,7 @@
         <v>606</v>
       </c>
       <c r="C231">
-        <v>101.42</v>
+        <v>101.984</v>
       </c>
       <c r="D231" t="s">
         <v>607</v>
@@ -6142,7 +6142,7 @@
         <v>606</v>
       </c>
       <c r="C232">
-        <v>113.381</v>
+        <v>101.315</v>
       </c>
       <c r="D232" t="s">
         <v>607</v>
@@ -6159,7 +6159,7 @@
         <v>606</v>
       </c>
       <c r="C233">
-        <v>109.097</v>
+        <v>101.26</v>
       </c>
       <c r="D233" t="s">
         <v>607</v>
@@ -6176,7 +6176,7 @@
         <v>606</v>
       </c>
       <c r="C234">
-        <v>100.703</v>
+        <v>101.842</v>
       </c>
       <c r="D234" t="s">
         <v>607</v>
@@ -6193,7 +6193,7 @@
         <v>606</v>
       </c>
       <c r="C235">
-        <v>116.607</v>
+        <v>104.278</v>
       </c>
       <c r="D235" t="s">
         <v>607</v>
@@ -6210,7 +6210,7 @@
         <v>606</v>
       </c>
       <c r="C236">
-        <v>127.649</v>
+        <v>102.376</v>
       </c>
       <c r="D236" t="s">
         <v>607</v>
@@ -6227,7 +6227,7 @@
         <v>606</v>
       </c>
       <c r="C237">
-        <v>122.123</v>
+        <v>100.151</v>
       </c>
       <c r="D237" t="s">
         <v>607</v>
@@ -6244,7 +6244,7 @@
         <v>606</v>
       </c>
       <c r="C238">
-        <v>101.457</v>
+        <v>105.749</v>
       </c>
       <c r="D238" t="s">
         <v>607</v>
@@ -6261,7 +6261,7 @@
         <v>606</v>
       </c>
       <c r="C239">
-        <v>104.348</v>
+        <v>103.685</v>
       </c>
       <c r="D239" t="s">
         <v>607</v>
@@ -6278,7 +6278,7 @@
         <v>606</v>
       </c>
       <c r="C240">
-        <v>110.062</v>
+        <v>105.378</v>
       </c>
       <c r="D240" t="s">
         <v>607</v>
@@ -6295,7 +6295,7 @@
         <v>606</v>
       </c>
       <c r="C241">
-        <v>101.721</v>
+        <v>103.153</v>
       </c>
       <c r="D241" t="s">
         <v>607</v>
@@ -6312,7 +6312,7 @@
         <v>606</v>
       </c>
       <c r="C242">
-        <v>104.896</v>
+        <v>102.721</v>
       </c>
       <c r="D242" t="s">
         <v>607</v>
@@ -6326,10 +6326,10 @@
         <v>246</v>
       </c>
       <c r="B243" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C243">
-        <v>106.408</v>
+        <v>98.13</v>
       </c>
       <c r="D243" t="s">
         <v>607</v>
@@ -6343,10 +6343,10 @@
         <v>247</v>
       </c>
       <c r="B244" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C244">
-        <v>92.443</v>
+        <v>102.004</v>
       </c>
       <c r="D244" t="s">
         <v>607</v>
@@ -6363,7 +6363,7 @@
         <v>606</v>
       </c>
       <c r="C245">
-        <v>129.819</v>
+        <v>109.112</v>
       </c>
       <c r="D245" t="s">
         <v>607</v>
@@ -6377,10 +6377,10 @@
         <v>249</v>
       </c>
       <c r="B246" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C246">
-        <v>99.014</v>
+        <v>105.061</v>
       </c>
       <c r="D246" t="s">
         <v>607</v>
@@ -6397,7 +6397,7 @@
         <v>606</v>
       </c>
       <c r="C247">
-        <v>103.395</v>
+        <v>103.018</v>
       </c>
       <c r="D247" t="s">
         <v>607</v>
@@ -6414,7 +6414,7 @@
         <v>606</v>
       </c>
       <c r="C248">
-        <v>124.942</v>
+        <v>106.76</v>
       </c>
       <c r="D248" t="s">
         <v>607</v>
@@ -6431,7 +6431,7 @@
         <v>606</v>
       </c>
       <c r="C249">
-        <v>104.919</v>
+        <v>102.278</v>
       </c>
       <c r="D249" t="s">
         <v>607</v>
@@ -6448,7 +6448,7 @@
         <v>606</v>
       </c>
       <c r="C250">
-        <v>100.141</v>
+        <v>101.765</v>
       </c>
       <c r="D250" t="s">
         <v>607</v>
@@ -6462,10 +6462,10 @@
         <v>254</v>
       </c>
       <c r="B251" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C251">
-        <v>98.724</v>
+        <v>104.88</v>
       </c>
       <c r="D251" t="s">
         <v>607</v>
@@ -6482,7 +6482,7 @@
         <v>606</v>
       </c>
       <c r="C252">
-        <v>108.62</v>
+        <v>104.939</v>
       </c>
       <c r="D252" t="s">
         <v>607</v>
@@ -6499,7 +6499,7 @@
         <v>606</v>
       </c>
       <c r="C253">
-        <v>109.272</v>
+        <v>102.797</v>
       </c>
       <c r="D253" t="s">
         <v>607</v>
@@ -6516,7 +6516,7 @@
         <v>606</v>
       </c>
       <c r="C254">
-        <v>106.048</v>
+        <v>100.938</v>
       </c>
       <c r="D254" t="s">
         <v>607</v>
@@ -6530,10 +6530,10 @@
         <v>258</v>
       </c>
       <c r="B255" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C255">
-        <v>95.56100000000001</v>
+        <v>100.185</v>
       </c>
       <c r="D255" t="s">
         <v>607</v>
@@ -6550,7 +6550,7 @@
         <v>606</v>
       </c>
       <c r="C256">
-        <v>125.608</v>
+        <v>102.29</v>
       </c>
       <c r="D256" t="s">
         <v>607</v>
@@ -6567,7 +6567,7 @@
         <v>606</v>
       </c>
       <c r="C257">
-        <v>104.661</v>
+        <v>103.535</v>
       </c>
       <c r="D257" t="s">
         <v>607</v>
@@ -6581,10 +6581,10 @@
         <v>261</v>
       </c>
       <c r="B258" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C258">
-        <v>115.351</v>
+        <v>97.34699999999999</v>
       </c>
       <c r="D258" t="s">
         <v>607</v>
@@ -6601,7 +6601,7 @@
         <v>606</v>
       </c>
       <c r="C259">
-        <v>108.435</v>
+        <v>101.266</v>
       </c>
       <c r="D259" t="s">
         <v>607</v>
@@ -6618,7 +6618,7 @@
         <v>606</v>
       </c>
       <c r="C260">
-        <v>104.784</v>
+        <v>103.105</v>
       </c>
       <c r="D260" t="s">
         <v>607</v>
@@ -6635,7 +6635,7 @@
         <v>606</v>
       </c>
       <c r="C261">
-        <v>105.666</v>
+        <v>101.761</v>
       </c>
       <c r="D261" t="s">
         <v>607</v>
@@ -6652,7 +6652,7 @@
         <v>606</v>
       </c>
       <c r="C262">
-        <v>106.861</v>
+        <v>105.33</v>
       </c>
       <c r="D262" t="s">
         <v>607</v>
@@ -6669,7 +6669,7 @@
         <v>606</v>
       </c>
       <c r="C263">
-        <v>101.319</v>
+        <v>115.563</v>
       </c>
       <c r="D263" t="s">
         <v>607</v>
@@ -6686,7 +6686,7 @@
         <v>606</v>
       </c>
       <c r="C264">
-        <v>109.26</v>
+        <v>110.269</v>
       </c>
       <c r="D264" t="s">
         <v>607</v>
@@ -6703,7 +6703,7 @@
         <v>606</v>
       </c>
       <c r="C265">
-        <v>105.639</v>
+        <v>103.331</v>
       </c>
       <c r="D265" t="s">
         <v>607</v>
@@ -6720,7 +6720,7 @@
         <v>606</v>
       </c>
       <c r="C266">
-        <v>118.389</v>
+        <v>106.245</v>
       </c>
       <c r="D266" t="s">
         <v>607</v>
@@ -6737,7 +6737,7 @@
         <v>606</v>
       </c>
       <c r="C267">
-        <v>117.071</v>
+        <v>105.346</v>
       </c>
       <c r="D267" t="s">
         <v>607</v>
@@ -6751,10 +6751,10 @@
         <v>271</v>
       </c>
       <c r="B268" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C268">
-        <v>97.029</v>
+        <v>100.403</v>
       </c>
       <c r="D268" t="s">
         <v>607</v>
@@ -6771,7 +6771,7 @@
         <v>606</v>
       </c>
       <c r="C269">
-        <v>101.068</v>
+        <v>107.687</v>
       </c>
       <c r="D269" t="s">
         <v>607</v>
@@ -6788,7 +6788,7 @@
         <v>606</v>
       </c>
       <c r="C270">
-        <v>105</v>
+        <v>109.418</v>
       </c>
       <c r="D270" t="s">
         <v>607</v>
@@ -6805,7 +6805,7 @@
         <v>605</v>
       </c>
       <c r="C271">
-        <v>96.514</v>
+        <v>96.515</v>
       </c>
       <c r="D271" t="s">
         <v>607</v>
@@ -6822,7 +6822,7 @@
         <v>606</v>
       </c>
       <c r="C272">
-        <v>100.177</v>
+        <v>102.08</v>
       </c>
       <c r="D272" t="s">
         <v>607</v>
@@ -6839,7 +6839,7 @@
         <v>606</v>
       </c>
       <c r="C273">
-        <v>110.004</v>
+        <v>104.686</v>
       </c>
       <c r="D273" t="s">
         <v>607</v>
@@ -6853,10 +6853,10 @@
         <v>277</v>
       </c>
       <c r="B274" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C274">
-        <v>96.589</v>
+        <v>100.824</v>
       </c>
       <c r="D274" t="s">
         <v>607</v>
@@ -6870,10 +6870,10 @@
         <v>278</v>
       </c>
       <c r="B275" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C275">
-        <v>101.361</v>
+        <v>95.265</v>
       </c>
       <c r="D275" t="s">
         <v>607</v>
@@ -6890,7 +6890,7 @@
         <v>606</v>
       </c>
       <c r="C276">
-        <v>119.785</v>
+        <v>105.424</v>
       </c>
       <c r="D276" t="s">
         <v>607</v>
@@ -6907,7 +6907,7 @@
         <v>606</v>
       </c>
       <c r="C277">
-        <v>120.032</v>
+        <v>113.193</v>
       </c>
       <c r="D277" t="s">
         <v>607</v>
@@ -6921,10 +6921,10 @@
         <v>281</v>
       </c>
       <c r="B278" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C278">
-        <v>99.634</v>
+        <v>104.44</v>
       </c>
       <c r="D278" t="s">
         <v>607</v>
@@ -6938,10 +6938,10 @@
         <v>282</v>
       </c>
       <c r="B279" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C279">
-        <v>102.891</v>
+        <v>99.863</v>
       </c>
       <c r="D279" t="s">
         <v>607</v>
@@ -6958,7 +6958,7 @@
         <v>606</v>
       </c>
       <c r="C280">
-        <v>123.715</v>
+        <v>106.166</v>
       </c>
       <c r="D280" t="s">
         <v>607</v>
@@ -6975,7 +6975,7 @@
         <v>606</v>
       </c>
       <c r="C281">
-        <v>106.025</v>
+        <v>102.594</v>
       </c>
       <c r="D281" t="s">
         <v>607</v>
@@ -6992,7 +6992,7 @@
         <v>606</v>
       </c>
       <c r="C282">
-        <v>104.597</v>
+        <v>101.167</v>
       </c>
       <c r="D282" t="s">
         <v>607</v>
@@ -7009,7 +7009,7 @@
         <v>605</v>
       </c>
       <c r="C283">
-        <v>98.548</v>
+        <v>98.021</v>
       </c>
       <c r="D283" t="s">
         <v>607</v>
@@ -7026,7 +7026,7 @@
         <v>606</v>
       </c>
       <c r="C284">
-        <v>104.017</v>
+        <v>103.031</v>
       </c>
       <c r="D284" t="s">
         <v>607</v>
@@ -7043,7 +7043,7 @@
         <v>605</v>
       </c>
       <c r="C285">
-        <v>93.617</v>
+        <v>90.45099999999999</v>
       </c>
       <c r="D285" t="s">
         <v>607</v>
@@ -7060,7 +7060,7 @@
         <v>606</v>
       </c>
       <c r="C286">
-        <v>109.833</v>
+        <v>101.278</v>
       </c>
       <c r="D286" t="s">
         <v>607</v>
@@ -7077,7 +7077,7 @@
         <v>605</v>
       </c>
       <c r="C287">
-        <v>93.193</v>
+        <v>96.33199999999999</v>
       </c>
       <c r="D287" t="s">
         <v>607</v>
@@ -7091,10 +7091,10 @@
         <v>291</v>
       </c>
       <c r="B288" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C288">
-        <v>97.82599999999999</v>
+        <v>102.923</v>
       </c>
       <c r="D288" t="s">
         <v>607</v>
@@ -7111,7 +7111,7 @@
         <v>606</v>
       </c>
       <c r="C289">
-        <v>102.084</v>
+        <v>104.241</v>
       </c>
       <c r="D289" t="s">
         <v>607</v>
@@ -7128,7 +7128,7 @@
         <v>606</v>
       </c>
       <c r="C290">
-        <v>101.784</v>
+        <v>105.263</v>
       </c>
       <c r="D290" t="s">
         <v>607</v>
@@ -7145,7 +7145,7 @@
         <v>606</v>
       </c>
       <c r="C291">
-        <v>117.725</v>
+        <v>105.002</v>
       </c>
       <c r="D291" t="s">
         <v>607</v>
@@ -7159,10 +7159,10 @@
         <v>295</v>
       </c>
       <c r="B292" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C292">
-        <v>99.675</v>
+        <v>102.344</v>
       </c>
       <c r="D292" t="s">
         <v>607</v>
@@ -7176,10 +7176,10 @@
         <v>296</v>
       </c>
       <c r="B293" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C293">
-        <v>98.071</v>
+        <v>104.547</v>
       </c>
       <c r="D293" t="s">
         <v>607</v>
@@ -7196,7 +7196,7 @@
         <v>606</v>
       </c>
       <c r="C294">
-        <v>123.95</v>
+        <v>102.658</v>
       </c>
       <c r="D294" t="s">
         <v>607</v>
@@ -7213,7 +7213,7 @@
         <v>606</v>
       </c>
       <c r="C295">
-        <v>110.673</v>
+        <v>103.61</v>
       </c>
       <c r="D295" t="s">
         <v>607</v>
@@ -7230,7 +7230,7 @@
         <v>606</v>
       </c>
       <c r="C296">
-        <v>103.178</v>
+        <v>105.567</v>
       </c>
       <c r="D296" t="s">
         <v>607</v>
@@ -7244,10 +7244,10 @@
         <v>300</v>
       </c>
       <c r="B297" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C297">
-        <v>97.55800000000001</v>
+        <v>101.778</v>
       </c>
       <c r="D297" t="s">
         <v>607</v>
@@ -7261,10 +7261,10 @@
         <v>301</v>
       </c>
       <c r="B298" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C298">
-        <v>108.5</v>
+        <v>99.73399999999999</v>
       </c>
       <c r="D298" t="s">
         <v>607</v>
@@ -7278,10 +7278,10 @@
         <v>302</v>
       </c>
       <c r="B299" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C299">
-        <v>108.269</v>
+        <v>99.54300000000001</v>
       </c>
       <c r="D299" t="s">
         <v>607</v>
@@ -7295,10 +7295,10 @@
         <v>303</v>
       </c>
       <c r="B300" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C300">
-        <v>99.964</v>
+        <v>103.115</v>
       </c>
       <c r="D300" t="s">
         <v>607</v>
@@ -7315,7 +7315,7 @@
         <v>606</v>
       </c>
       <c r="C301">
-        <v>104.487</v>
+        <v>102.338</v>
       </c>
       <c r="D301" t="s">
         <v>607</v>
@@ -7332,7 +7332,7 @@
         <v>606</v>
       </c>
       <c r="C302">
-        <v>104.444</v>
+        <v>103.868</v>
       </c>
       <c r="D302" t="s">
         <v>607</v>
@@ -7349,7 +7349,7 @@
         <v>606</v>
       </c>
       <c r="C303">
-        <v>101.733</v>
+        <v>105.194</v>
       </c>
       <c r="D303" t="s">
         <v>607</v>
@@ -7366,7 +7366,7 @@
         <v>606</v>
       </c>
       <c r="C304">
-        <v>134.926</v>
+        <v>104.099</v>
       </c>
       <c r="D304" t="s">
         <v>607</v>
@@ -7383,7 +7383,7 @@
         <v>606</v>
       </c>
       <c r="C305">
-        <v>102.305</v>
+        <v>102.463</v>
       </c>
       <c r="D305" t="s">
         <v>607</v>
@@ -7397,10 +7397,10 @@
         <v>309</v>
       </c>
       <c r="B306" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C306">
-        <v>95.45399999999999</v>
+        <v>103.64</v>
       </c>
       <c r="D306" t="s">
         <v>607</v>
@@ -7417,7 +7417,7 @@
         <v>606</v>
       </c>
       <c r="C307">
-        <v>106.787</v>
+        <v>101.884</v>
       </c>
       <c r="D307" t="s">
         <v>607</v>
@@ -7434,7 +7434,7 @@
         <v>606</v>
       </c>
       <c r="C308">
-        <v>141.562</v>
+        <v>102.895</v>
       </c>
       <c r="D308" t="s">
         <v>607</v>
@@ -7451,7 +7451,7 @@
         <v>606</v>
       </c>
       <c r="C309">
-        <v>109.131</v>
+        <v>100.623</v>
       </c>
       <c r="D309" t="s">
         <v>607</v>
@@ -7465,10 +7465,10 @@
         <v>313</v>
       </c>
       <c r="B310" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C310">
-        <v>94.776</v>
+        <v>105.275</v>
       </c>
       <c r="D310" t="s">
         <v>607</v>
@@ -7482,10 +7482,10 @@
         <v>314</v>
       </c>
       <c r="B311" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C311">
-        <v>109.909</v>
+        <v>98.35899999999999</v>
       </c>
       <c r="D311" t="s">
         <v>607</v>
@@ -7502,7 +7502,7 @@
         <v>606</v>
       </c>
       <c r="C312">
-        <v>105.143</v>
+        <v>105.921</v>
       </c>
       <c r="D312" t="s">
         <v>607</v>
@@ -7519,7 +7519,7 @@
         <v>606</v>
       </c>
       <c r="C313">
-        <v>101.796</v>
+        <v>107.596</v>
       </c>
       <c r="D313" t="s">
         <v>607</v>
@@ -7533,10 +7533,10 @@
         <v>317</v>
       </c>
       <c r="B314" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C314">
-        <v>99.833</v>
+        <v>104.438</v>
       </c>
       <c r="D314" t="s">
         <v>607</v>
@@ -7553,7 +7553,7 @@
         <v>606</v>
       </c>
       <c r="C315">
-        <v>120.81</v>
+        <v>103.115</v>
       </c>
       <c r="D315" t="s">
         <v>607</v>
@@ -7570,7 +7570,7 @@
         <v>606</v>
       </c>
       <c r="C316">
-        <v>112.181</v>
+        <v>101.686</v>
       </c>
       <c r="D316" t="s">
         <v>607</v>
@@ -7587,7 +7587,7 @@
         <v>606</v>
       </c>
       <c r="C317">
-        <v>106.052</v>
+        <v>103.579</v>
       </c>
       <c r="D317" t="s">
         <v>607</v>
@@ -7604,7 +7604,7 @@
         <v>606</v>
       </c>
       <c r="C318">
-        <v>118.003</v>
+        <v>101.038</v>
       </c>
       <c r="D318" t="s">
         <v>607</v>
@@ -7621,7 +7621,7 @@
         <v>606</v>
       </c>
       <c r="C319">
-        <v>103.78</v>
+        <v>102.221</v>
       </c>
       <c r="D319" t="s">
         <v>607</v>
@@ -7638,7 +7638,7 @@
         <v>606</v>
       </c>
       <c r="C320">
-        <v>101.69</v>
+        <v>103.256</v>
       </c>
       <c r="D320" t="s">
         <v>607</v>
@@ -7652,10 +7652,10 @@
         <v>324</v>
       </c>
       <c r="B321" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C321">
-        <v>112.175</v>
+        <v>93.676</v>
       </c>
       <c r="D321" t="s">
         <v>607</v>
@@ -7672,7 +7672,7 @@
         <v>606</v>
       </c>
       <c r="C322">
-        <v>111.463</v>
+        <v>109.882</v>
       </c>
       <c r="D322" t="s">
         <v>607</v>
@@ -7689,7 +7689,7 @@
         <v>606</v>
       </c>
       <c r="C323">
-        <v>101.219</v>
+        <v>101.616</v>
       </c>
       <c r="D323" t="s">
         <v>607</v>
@@ -7703,10 +7703,10 @@
         <v>327</v>
       </c>
       <c r="B324" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C324">
-        <v>93.505</v>
+        <v>104.363</v>
       </c>
       <c r="D324" t="s">
         <v>607</v>
@@ -7720,10 +7720,10 @@
         <v>328</v>
       </c>
       <c r="B325" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C325">
-        <v>110.179</v>
+        <v>96.852</v>
       </c>
       <c r="D325" t="s">
         <v>607</v>
@@ -7737,10 +7737,10 @@
         <v>329</v>
       </c>
       <c r="B326" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C326">
-        <v>101.889</v>
+        <v>99.34999999999999</v>
       </c>
       <c r="D326" t="s">
         <v>607</v>
@@ -7757,7 +7757,7 @@
         <v>606</v>
       </c>
       <c r="C327">
-        <v>102.875</v>
+        <v>100.883</v>
       </c>
       <c r="D327" t="s">
         <v>607</v>
@@ -7774,7 +7774,7 @@
         <v>605</v>
       </c>
       <c r="C328">
-        <v>98.217</v>
+        <v>99.378</v>
       </c>
       <c r="D328" t="s">
         <v>607</v>
@@ -7791,7 +7791,7 @@
         <v>606</v>
       </c>
       <c r="C329">
-        <v>104.202</v>
+        <v>111.668</v>
       </c>
       <c r="D329" t="s">
         <v>607</v>
@@ -7808,7 +7808,7 @@
         <v>606</v>
       </c>
       <c r="C330">
-        <v>102.565</v>
+        <v>111.105</v>
       </c>
       <c r="D330" t="s">
         <v>607</v>
@@ -7825,7 +7825,7 @@
         <v>606</v>
       </c>
       <c r="C331">
-        <v>106.42</v>
+        <v>104.092</v>
       </c>
       <c r="D331" t="s">
         <v>607</v>
@@ -7842,7 +7842,7 @@
         <v>606</v>
       </c>
       <c r="C332">
-        <v>104.561</v>
+        <v>103.297</v>
       </c>
       <c r="D332" t="s">
         <v>607</v>
@@ -7859,7 +7859,7 @@
         <v>606</v>
       </c>
       <c r="C333">
-        <v>106.076</v>
+        <v>100.309</v>
       </c>
       <c r="D333" t="s">
         <v>607</v>
@@ -7873,10 +7873,10 @@
         <v>337</v>
       </c>
       <c r="B334" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C334">
-        <v>98.685</v>
+        <v>104.374</v>
       </c>
       <c r="D334" t="s">
         <v>607</v>
@@ -7890,10 +7890,10 @@
         <v>338</v>
       </c>
       <c r="B335" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C335">
-        <v>116.427</v>
+        <v>95.997</v>
       </c>
       <c r="D335" t="s">
         <v>607</v>
@@ -7910,7 +7910,7 @@
         <v>606</v>
       </c>
       <c r="C336">
-        <v>107.179</v>
+        <v>107.558</v>
       </c>
       <c r="D336" t="s">
         <v>607</v>
@@ -7927,7 +7927,7 @@
         <v>606</v>
       </c>
       <c r="C337">
-        <v>113.679</v>
+        <v>105.295</v>
       </c>
       <c r="D337" t="s">
         <v>607</v>
@@ -7944,7 +7944,7 @@
         <v>606</v>
       </c>
       <c r="C338">
-        <v>126.422</v>
+        <v>107.076</v>
       </c>
       <c r="D338" t="s">
         <v>607</v>
@@ -7961,7 +7961,7 @@
         <v>606</v>
       </c>
       <c r="C339">
-        <v>101.504</v>
+        <v>105.376</v>
       </c>
       <c r="D339" t="s">
         <v>607</v>
@@ -7978,7 +7978,7 @@
         <v>606</v>
       </c>
       <c r="C340">
-        <v>106.181</v>
+        <v>100.754</v>
       </c>
       <c r="D340" t="s">
         <v>607</v>
@@ -7995,7 +7995,7 @@
         <v>606</v>
       </c>
       <c r="C341">
-        <v>117.335</v>
+        <v>104.233</v>
       </c>
       <c r="D341" t="s">
         <v>607</v>
@@ -8012,7 +8012,7 @@
         <v>606</v>
       </c>
       <c r="C342">
-        <v>100.459</v>
+        <v>100.474</v>
       </c>
       <c r="D342" t="s">
         <v>607</v>
@@ -8029,7 +8029,7 @@
         <v>606</v>
       </c>
       <c r="C343">
-        <v>105.909</v>
+        <v>104.58</v>
       </c>
       <c r="D343" t="s">
         <v>607</v>
@@ -8043,10 +8043,10 @@
         <v>347</v>
       </c>
       <c r="B344" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C344">
-        <v>101.235</v>
+        <v>94.372</v>
       </c>
       <c r="D344" t="s">
         <v>607</v>
@@ -8063,7 +8063,7 @@
         <v>606</v>
       </c>
       <c r="C345">
-        <v>111.948</v>
+        <v>111.675</v>
       </c>
       <c r="D345" t="s">
         <v>607</v>
@@ -8080,7 +8080,7 @@
         <v>605</v>
       </c>
       <c r="C346">
-        <v>98.45099999999999</v>
+        <v>97.98099999999999</v>
       </c>
       <c r="D346" t="s">
         <v>607</v>
@@ -8097,7 +8097,7 @@
         <v>606</v>
       </c>
       <c r="C347">
-        <v>101.084</v>
+        <v>103.422</v>
       </c>
       <c r="D347" t="s">
         <v>607</v>
@@ -8114,7 +8114,7 @@
         <v>605</v>
       </c>
       <c r="C348">
-        <v>96.384</v>
+        <v>85.96599999999999</v>
       </c>
       <c r="D348" t="s">
         <v>607</v>
@@ -8131,7 +8131,7 @@
         <v>606</v>
       </c>
       <c r="C349">
-        <v>113.196</v>
+        <v>105.595</v>
       </c>
       <c r="D349" t="s">
         <v>607</v>
@@ -8148,7 +8148,7 @@
         <v>606</v>
       </c>
       <c r="C350">
-        <v>103.36</v>
+        <v>105.822</v>
       </c>
       <c r="D350" t="s">
         <v>607</v>
@@ -8165,7 +8165,7 @@
         <v>606</v>
       </c>
       <c r="C351">
-        <v>142.022</v>
+        <v>104.943</v>
       </c>
       <c r="D351" t="s">
         <v>607</v>
@@ -8179,10 +8179,10 @@
         <v>355</v>
       </c>
       <c r="B352" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C352">
-        <v>103.073</v>
+        <v>99.684</v>
       </c>
       <c r="D352" t="s">
         <v>607</v>
@@ -8196,10 +8196,10 @@
         <v>356</v>
       </c>
       <c r="B353" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C353">
-        <v>98.792</v>
+        <v>101.746</v>
       </c>
       <c r="D353" t="s">
         <v>607</v>
@@ -8213,10 +8213,10 @@
         <v>357</v>
       </c>
       <c r="B354" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C354">
-        <v>105.28</v>
+        <v>98.608</v>
       </c>
       <c r="D354" t="s">
         <v>607</v>
@@ -8233,7 +8233,7 @@
         <v>606</v>
       </c>
       <c r="C355">
-        <v>105.047</v>
+        <v>100.555</v>
       </c>
       <c r="D355" t="s">
         <v>607</v>
@@ -8250,7 +8250,7 @@
         <v>606</v>
       </c>
       <c r="C356">
-        <v>102.937</v>
+        <v>103.596</v>
       </c>
       <c r="D356" t="s">
         <v>607</v>
@@ -8264,10 +8264,10 @@
         <v>360</v>
       </c>
       <c r="B357" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C357">
-        <v>98.53100000000001</v>
+        <v>101.58</v>
       </c>
       <c r="D357" t="s">
         <v>607</v>
@@ -8284,7 +8284,7 @@
         <v>606</v>
       </c>
       <c r="C358">
-        <v>101.351</v>
+        <v>102.225</v>
       </c>
       <c r="D358" t="s">
         <v>607</v>
@@ -8301,7 +8301,7 @@
         <v>606</v>
       </c>
       <c r="C359">
-        <v>123.872</v>
+        <v>100.971</v>
       </c>
       <c r="D359" t="s">
         <v>607</v>
@@ -8315,10 +8315,10 @@
         <v>363</v>
       </c>
       <c r="B360" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C360">
-        <v>90.02200000000001</v>
+        <v>102.231</v>
       </c>
       <c r="D360" t="s">
         <v>607</v>
@@ -8335,7 +8335,7 @@
         <v>606</v>
       </c>
       <c r="C361">
-        <v>112.969</v>
+        <v>105.021</v>
       </c>
       <c r="D361" t="s">
         <v>607</v>
@@ -8349,10 +8349,10 @@
         <v>365</v>
       </c>
       <c r="B362" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C362">
-        <v>96.851</v>
+        <v>101.209</v>
       </c>
       <c r="D362" t="s">
         <v>607</v>
@@ -8366,10 +8366,10 @@
         <v>366</v>
       </c>
       <c r="B363" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C363">
-        <v>93.59999999999999</v>
+        <v>102.622</v>
       </c>
       <c r="D363" t="s">
         <v>607</v>
@@ -8386,7 +8386,7 @@
         <v>606</v>
       </c>
       <c r="C364">
-        <v>112.754</v>
+        <v>105.901</v>
       </c>
       <c r="D364" t="s">
         <v>607</v>
@@ -8403,7 +8403,7 @@
         <v>606</v>
       </c>
       <c r="C365">
-        <v>109.358</v>
+        <v>104.379</v>
       </c>
       <c r="D365" t="s">
         <v>607</v>
@@ -8420,7 +8420,7 @@
         <v>606</v>
       </c>
       <c r="C366">
-        <v>130.145</v>
+        <v>103.242</v>
       </c>
       <c r="D366" t="s">
         <v>607</v>
@@ -8437,7 +8437,7 @@
         <v>606</v>
       </c>
       <c r="C367">
-        <v>103.869</v>
+        <v>104.04</v>
       </c>
       <c r="D367" t="s">
         <v>607</v>
@@ -8454,7 +8454,7 @@
         <v>606</v>
       </c>
       <c r="C368">
-        <v>113.49</v>
+        <v>102.344</v>
       </c>
       <c r="D368" t="s">
         <v>607</v>
@@ -8471,7 +8471,7 @@
         <v>606</v>
       </c>
       <c r="C369">
-        <v>103.471</v>
+        <v>105.89</v>
       </c>
       <c r="D369" t="s">
         <v>607</v>
@@ -8488,7 +8488,7 @@
         <v>606</v>
       </c>
       <c r="C370">
-        <v>104.234</v>
+        <v>104.325</v>
       </c>
       <c r="D370" t="s">
         <v>607</v>
@@ -8505,7 +8505,7 @@
         <v>605</v>
       </c>
       <c r="C371">
-        <v>78.688</v>
+        <v>95.819</v>
       </c>
       <c r="D371" t="s">
         <v>607</v>
@@ -8522,7 +8522,7 @@
         <v>606</v>
       </c>
       <c r="C372">
-        <v>107.146</v>
+        <v>105.033</v>
       </c>
       <c r="D372" t="s">
         <v>607</v>
@@ -8539,7 +8539,7 @@
         <v>606</v>
       </c>
       <c r="C373">
-        <v>102.634</v>
+        <v>105.395</v>
       </c>
       <c r="D373" t="s">
         <v>607</v>
@@ -8556,7 +8556,7 @@
         <v>606</v>
       </c>
       <c r="C374">
-        <v>112.338</v>
+        <v>112.084</v>
       </c>
       <c r="D374" t="s">
         <v>607</v>
@@ -8573,7 +8573,7 @@
         <v>606</v>
       </c>
       <c r="C375">
-        <v>109.217</v>
+        <v>104.283</v>
       </c>
       <c r="D375" t="s">
         <v>607</v>
@@ -8587,10 +8587,10 @@
         <v>379</v>
       </c>
       <c r="B376" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C376">
-        <v>110.795</v>
+        <v>95.876</v>
       </c>
       <c r="D376" t="s">
         <v>607</v>
@@ -8607,7 +8607,7 @@
         <v>605</v>
       </c>
       <c r="C377">
-        <v>99</v>
+        <v>99.249</v>
       </c>
       <c r="D377" t="s">
         <v>607</v>
@@ -8624,7 +8624,7 @@
         <v>606</v>
       </c>
       <c r="C378">
-        <v>107.854</v>
+        <v>101.407</v>
       </c>
       <c r="D378" t="s">
         <v>607</v>
@@ -8641,7 +8641,7 @@
         <v>606</v>
       </c>
       <c r="C379">
-        <v>118.013</v>
+        <v>115.303</v>
       </c>
       <c r="D379" t="s">
         <v>607</v>
@@ -8658,7 +8658,7 @@
         <v>606</v>
       </c>
       <c r="C380">
-        <v>123.074</v>
+        <v>103.687</v>
       </c>
       <c r="D380" t="s">
         <v>607</v>
@@ -8675,7 +8675,7 @@
         <v>606</v>
       </c>
       <c r="C381">
-        <v>102.794</v>
+        <v>105.933</v>
       </c>
       <c r="D381" t="s">
         <v>607</v>
@@ -8692,7 +8692,7 @@
         <v>606</v>
       </c>
       <c r="C382">
-        <v>106.686</v>
+        <v>104.337</v>
       </c>
       <c r="D382" t="s">
         <v>607</v>
@@ -8709,7 +8709,7 @@
         <v>606</v>
       </c>
       <c r="C383">
-        <v>126.605</v>
+        <v>104.683</v>
       </c>
       <c r="D383" t="s">
         <v>607</v>
@@ -8726,7 +8726,7 @@
         <v>606</v>
       </c>
       <c r="C384">
-        <v>112.648</v>
+        <v>101.321</v>
       </c>
       <c r="D384" t="s">
         <v>607</v>
@@ -8743,7 +8743,7 @@
         <v>606</v>
       </c>
       <c r="C385">
-        <v>105.316</v>
+        <v>103.949</v>
       </c>
       <c r="D385" t="s">
         <v>607</v>
@@ -8760,7 +8760,7 @@
         <v>606</v>
       </c>
       <c r="C386">
-        <v>105.871</v>
+        <v>104.612</v>
       </c>
       <c r="D386" t="s">
         <v>607</v>
@@ -8777,7 +8777,7 @@
         <v>606</v>
       </c>
       <c r="C387">
-        <v>116.561</v>
+        <v>108.822</v>
       </c>
       <c r="D387" t="s">
         <v>607</v>
@@ -8794,7 +8794,7 @@
         <v>606</v>
       </c>
       <c r="C388">
-        <v>110.428</v>
+        <v>104.707</v>
       </c>
       <c r="D388" t="s">
         <v>607</v>
@@ -8811,7 +8811,7 @@
         <v>606</v>
       </c>
       <c r="C389">
-        <v>113.354</v>
+        <v>100.319</v>
       </c>
       <c r="D389" t="s">
         <v>607</v>
@@ -8825,10 +8825,10 @@
         <v>393</v>
       </c>
       <c r="B390" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C390">
-        <v>100.838</v>
+        <v>97.79000000000001</v>
       </c>
       <c r="D390" t="s">
         <v>607</v>
@@ -8845,7 +8845,7 @@
         <v>606</v>
       </c>
       <c r="C391">
-        <v>109.114</v>
+        <v>104.678</v>
       </c>
       <c r="D391" t="s">
         <v>607</v>
@@ -8862,7 +8862,7 @@
         <v>606</v>
       </c>
       <c r="C392">
-        <v>113.926</v>
+        <v>100.241</v>
       </c>
       <c r="D392" t="s">
         <v>607</v>
@@ -8876,10 +8876,10 @@
         <v>396</v>
       </c>
       <c r="B393" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C393">
-        <v>94.95</v>
+        <v>102.629</v>
       </c>
       <c r="D393" t="s">
         <v>607</v>
@@ -8896,7 +8896,7 @@
         <v>606</v>
       </c>
       <c r="C394">
-        <v>103.66</v>
+        <v>101.014</v>
       </c>
       <c r="D394" t="s">
         <v>607</v>
@@ -8913,7 +8913,7 @@
         <v>606</v>
       </c>
       <c r="C395">
-        <v>111.181</v>
+        <v>107.558</v>
       </c>
       <c r="D395" t="s">
         <v>607</v>
@@ -8927,10 +8927,10 @@
         <v>399</v>
       </c>
       <c r="B396" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C396">
-        <v>98.791</v>
+        <v>102.638</v>
       </c>
       <c r="D396" t="s">
         <v>607</v>
@@ -8947,7 +8947,7 @@
         <v>606</v>
       </c>
       <c r="C397">
-        <v>134.244</v>
+        <v>100.195</v>
       </c>
       <c r="D397" t="s">
         <v>607</v>
@@ -8961,10 +8961,10 @@
         <v>401</v>
       </c>
       <c r="B398" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C398">
-        <v>94.902</v>
+        <v>106.38</v>
       </c>
       <c r="D398" t="s">
         <v>607</v>
@@ -8981,7 +8981,7 @@
         <v>606</v>
       </c>
       <c r="C399">
-        <v>109.489</v>
+        <v>103.504</v>
       </c>
       <c r="D399" t="s">
         <v>607</v>
@@ -8998,7 +8998,7 @@
         <v>605</v>
       </c>
       <c r="C400">
-        <v>90.899</v>
+        <v>87.28400000000001</v>
       </c>
       <c r="D400" t="s">
         <v>607</v>
@@ -9015,7 +9015,7 @@
         <v>606</v>
       </c>
       <c r="C401">
-        <v>109.719</v>
+        <v>107.097</v>
       </c>
       <c r="D401" t="s">
         <v>607</v>
@@ -9032,7 +9032,7 @@
         <v>606</v>
       </c>
       <c r="C402">
-        <v>122.582</v>
+        <v>108.337</v>
       </c>
       <c r="D402" t="s">
         <v>607</v>
@@ -9046,10 +9046,10 @@
         <v>406</v>
       </c>
       <c r="B403" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C403">
-        <v>99.286</v>
+        <v>100.126</v>
       </c>
       <c r="D403" t="s">
         <v>607</v>
@@ -9066,7 +9066,7 @@
         <v>606</v>
       </c>
       <c r="C404">
-        <v>104.854</v>
+        <v>102.8</v>
       </c>
       <c r="D404" t="s">
         <v>607</v>
@@ -9083,7 +9083,7 @@
         <v>606</v>
       </c>
       <c r="C405">
-        <v>113.413</v>
+        <v>105.79</v>
       </c>
       <c r="D405" t="s">
         <v>607</v>
@@ -9097,10 +9097,10 @@
         <v>409</v>
       </c>
       <c r="B406" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C406">
-        <v>106.09</v>
+        <v>98.209</v>
       </c>
       <c r="D406" t="s">
         <v>607</v>
@@ -9117,7 +9117,7 @@
         <v>606</v>
       </c>
       <c r="C407">
-        <v>152.614</v>
+        <v>103.843</v>
       </c>
       <c r="D407" t="s">
         <v>607</v>
@@ -9134,7 +9134,7 @@
         <v>606</v>
       </c>
       <c r="C408">
-        <v>114.547</v>
+        <v>100.667</v>
       </c>
       <c r="D408" t="s">
         <v>607</v>
@@ -9151,7 +9151,7 @@
         <v>605</v>
       </c>
       <c r="C409">
-        <v>95.714</v>
+        <v>95.902</v>
       </c>
       <c r="D409" t="s">
         <v>607</v>
@@ -9165,10 +9165,10 @@
         <v>413</v>
       </c>
       <c r="B410" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C410">
-        <v>112.022</v>
+        <v>98.562</v>
       </c>
       <c r="D410" t="s">
         <v>607</v>
@@ -9185,7 +9185,7 @@
         <v>606</v>
       </c>
       <c r="C411">
-        <v>106.766</v>
+        <v>109.981</v>
       </c>
       <c r="D411" t="s">
         <v>607</v>
@@ -9202,7 +9202,7 @@
         <v>606</v>
       </c>
       <c r="C412">
-        <v>102.598</v>
+        <v>112.746</v>
       </c>
       <c r="D412" t="s">
         <v>607</v>
@@ -9219,7 +9219,7 @@
         <v>606</v>
       </c>
       <c r="C413">
-        <v>108.916</v>
+        <v>106.382</v>
       </c>
       <c r="D413" t="s">
         <v>607</v>
@@ -9236,7 +9236,7 @@
         <v>606</v>
       </c>
       <c r="C414">
-        <v>102.597</v>
+        <v>101.546</v>
       </c>
       <c r="D414" t="s">
         <v>607</v>
@@ -9253,7 +9253,7 @@
         <v>606</v>
       </c>
       <c r="C415">
-        <v>112.571</v>
+        <v>101.089</v>
       </c>
       <c r="D415" t="s">
         <v>607</v>
@@ -9270,7 +9270,7 @@
         <v>606</v>
       </c>
       <c r="C416">
-        <v>101.245</v>
+        <v>101.403</v>
       </c>
       <c r="D416" t="s">
         <v>607</v>
@@ -9287,7 +9287,7 @@
         <v>606</v>
       </c>
       <c r="C417">
-        <v>125.053</v>
+        <v>106.574</v>
       </c>
       <c r="D417" t="s">
         <v>607</v>
@@ -9304,7 +9304,7 @@
         <v>606</v>
       </c>
       <c r="C418">
-        <v>120.043</v>
+        <v>111.696</v>
       </c>
       <c r="D418" t="s">
         <v>607</v>
@@ -9321,7 +9321,7 @@
         <v>606</v>
       </c>
       <c r="C419">
-        <v>104.511</v>
+        <v>110.811</v>
       </c>
       <c r="D419" t="s">
         <v>607</v>
@@ -9335,10 +9335,10 @@
         <v>423</v>
       </c>
       <c r="B420" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C420">
-        <v>104.208</v>
+        <v>92.006</v>
       </c>
       <c r="D420" t="s">
         <v>607</v>
@@ -9355,7 +9355,7 @@
         <v>605</v>
       </c>
       <c r="C421">
-        <v>95.849</v>
+        <v>97.081</v>
       </c>
       <c r="D421" t="s">
         <v>607</v>
@@ -9372,7 +9372,7 @@
         <v>606</v>
       </c>
       <c r="C422">
-        <v>106.016</v>
+        <v>102.301</v>
       </c>
       <c r="D422" t="s">
         <v>607</v>
@@ -9386,10 +9386,10 @@
         <v>426</v>
       </c>
       <c r="B423" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C423">
-        <v>96.575</v>
+        <v>103.601</v>
       </c>
       <c r="D423" t="s">
         <v>607</v>
@@ -9406,7 +9406,7 @@
         <v>606</v>
       </c>
       <c r="C424">
-        <v>107.339</v>
+        <v>103.127</v>
       </c>
       <c r="D424" t="s">
         <v>607</v>
@@ -9423,7 +9423,7 @@
         <v>606</v>
       </c>
       <c r="C425">
-        <v>104.859</v>
+        <v>103.043</v>
       </c>
       <c r="D425" t="s">
         <v>607</v>
@@ -9440,7 +9440,7 @@
         <v>605</v>
       </c>
       <c r="C426">
-        <v>95.983</v>
+        <v>91.7</v>
       </c>
       <c r="D426" t="s">
         <v>607</v>
@@ -9457,7 +9457,7 @@
         <v>606</v>
       </c>
       <c r="C427">
-        <v>100.193</v>
+        <v>107.109</v>
       </c>
       <c r="D427" t="s">
         <v>607</v>
@@ -9474,7 +9474,7 @@
         <v>606</v>
       </c>
       <c r="C428">
-        <v>111.266</v>
+        <v>101.271</v>
       </c>
       <c r="D428" t="s">
         <v>607</v>
@@ -9491,7 +9491,7 @@
         <v>606</v>
       </c>
       <c r="C429">
-        <v>116.182</v>
+        <v>104.894</v>
       </c>
       <c r="D429" t="s">
         <v>607</v>
@@ -9508,7 +9508,7 @@
         <v>606</v>
       </c>
       <c r="C430">
-        <v>102.766</v>
+        <v>102.532</v>
       </c>
       <c r="D430" t="s">
         <v>607</v>
@@ -9525,7 +9525,7 @@
         <v>606</v>
       </c>
       <c r="C431">
-        <v>113.677</v>
+        <v>101.249</v>
       </c>
       <c r="D431" t="s">
         <v>607</v>
@@ -9542,7 +9542,7 @@
         <v>606</v>
       </c>
       <c r="C432">
-        <v>110.591</v>
+        <v>103.949</v>
       </c>
       <c r="D432" t="s">
         <v>607</v>
@@ -9559,7 +9559,7 @@
         <v>606</v>
       </c>
       <c r="C433">
-        <v>114.382</v>
+        <v>114.334</v>
       </c>
       <c r="D433" t="s">
         <v>607</v>
@@ -9573,10 +9573,10 @@
         <v>437</v>
       </c>
       <c r="B434" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C434">
-        <v>116.356</v>
+        <v>96.36499999999999</v>
       </c>
       <c r="D434" t="s">
         <v>607</v>
@@ -9590,10 +9590,10 @@
         <v>438</v>
       </c>
       <c r="B435" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C435">
-        <v>106.349</v>
+        <v>97.965</v>
       </c>
       <c r="D435" t="s">
         <v>607</v>
@@ -9607,10 +9607,10 @@
         <v>439</v>
       </c>
       <c r="B436" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C436">
-        <v>99.11799999999999</v>
+        <v>102.408</v>
       </c>
       <c r="D436" t="s">
         <v>607</v>
@@ -9627,7 +9627,7 @@
         <v>606</v>
       </c>
       <c r="C437">
-        <v>109.084</v>
+        <v>100.775</v>
       </c>
       <c r="D437" t="s">
         <v>607</v>
@@ -9641,10 +9641,10 @@
         <v>441</v>
       </c>
       <c r="B438" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C438">
-        <v>99.69499999999999</v>
+        <v>101.661</v>
       </c>
       <c r="D438" t="s">
         <v>607</v>
@@ -9661,7 +9661,7 @@
         <v>606</v>
       </c>
       <c r="C439">
-        <v>106.622</v>
+        <v>105.066</v>
       </c>
       <c r="D439" t="s">
         <v>607</v>
@@ -9678,7 +9678,7 @@
         <v>606</v>
       </c>
       <c r="C440">
-        <v>114.956</v>
+        <v>101.524</v>
       </c>
       <c r="D440" t="s">
         <v>607</v>
@@ -9695,7 +9695,7 @@
         <v>606</v>
       </c>
       <c r="C441">
-        <v>103.638</v>
+        <v>101.182</v>
       </c>
       <c r="D441" t="s">
         <v>607</v>
@@ -9709,10 +9709,10 @@
         <v>445</v>
       </c>
       <c r="B442" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C442">
-        <v>112.869</v>
+        <v>96.76000000000001</v>
       </c>
       <c r="D442" t="s">
         <v>607</v>
@@ -9726,10 +9726,10 @@
         <v>446</v>
       </c>
       <c r="B443" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C443">
-        <v>105.739</v>
+        <v>98.691</v>
       </c>
       <c r="D443" t="s">
         <v>607</v>
@@ -9746,7 +9746,7 @@
         <v>605</v>
       </c>
       <c r="C444">
-        <v>88.699</v>
+        <v>96.339</v>
       </c>
       <c r="D444" t="s">
         <v>607</v>
@@ -9763,7 +9763,7 @@
         <v>606</v>
       </c>
       <c r="C445">
-        <v>108.674</v>
+        <v>104.195</v>
       </c>
       <c r="D445" t="s">
         <v>607</v>
@@ -9777,10 +9777,10 @@
         <v>449</v>
       </c>
       <c r="B446" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C446">
-        <v>97.872</v>
+        <v>102.826</v>
       </c>
       <c r="D446" t="s">
         <v>607</v>
@@ -9794,10 +9794,10 @@
         <v>450</v>
       </c>
       <c r="B447" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C447">
-        <v>112.326</v>
+        <v>99.79900000000001</v>
       </c>
       <c r="D447" t="s">
         <v>607</v>
@@ -9811,10 +9811,10 @@
         <v>451</v>
       </c>
       <c r="B448" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C448">
-        <v>98.977</v>
+        <v>105.925</v>
       </c>
       <c r="D448" t="s">
         <v>607</v>
@@ -9828,10 +9828,10 @@
         <v>452</v>
       </c>
       <c r="B449" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C449">
-        <v>119.033</v>
+        <v>99.34</v>
       </c>
       <c r="D449" t="s">
         <v>607</v>
@@ -9845,10 +9845,10 @@
         <v>453</v>
       </c>
       <c r="B450" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C450">
-        <v>94.553</v>
+        <v>100.243</v>
       </c>
       <c r="D450" t="s">
         <v>607</v>
@@ -9862,10 +9862,10 @@
         <v>454</v>
       </c>
       <c r="B451" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C451">
-        <v>108.308</v>
+        <v>99.11199999999999</v>
       </c>
       <c r="D451" t="s">
         <v>607</v>
@@ -9882,7 +9882,7 @@
         <v>606</v>
       </c>
       <c r="C452">
-        <v>115.912</v>
+        <v>107.66</v>
       </c>
       <c r="D452" t="s">
         <v>607</v>
@@ -9899,7 +9899,7 @@
         <v>606</v>
       </c>
       <c r="C453">
-        <v>133.671</v>
+        <v>103.662</v>
       </c>
       <c r="D453" t="s">
         <v>607</v>
@@ -9916,7 +9916,7 @@
         <v>606</v>
       </c>
       <c r="C454">
-        <v>102.935</v>
+        <v>104.913</v>
       </c>
       <c r="D454" t="s">
         <v>607</v>
@@ -9933,7 +9933,7 @@
         <v>606</v>
       </c>
       <c r="C455">
-        <v>113.921</v>
+        <v>106.708</v>
       </c>
       <c r="D455" t="s">
         <v>607</v>
@@ -9950,7 +9950,7 @@
         <v>606</v>
       </c>
       <c r="C456">
-        <v>112.938</v>
+        <v>105.216</v>
       </c>
       <c r="D456" t="s">
         <v>607</v>
@@ -9967,7 +9967,7 @@
         <v>606</v>
       </c>
       <c r="C457">
-        <v>106.667</v>
+        <v>100.878</v>
       </c>
       <c r="D457" t="s">
         <v>607</v>
@@ -9984,7 +9984,7 @@
         <v>606</v>
       </c>
       <c r="C458">
-        <v>116.344</v>
+        <v>108.875</v>
       </c>
       <c r="D458" t="s">
         <v>607</v>
@@ -10001,7 +10001,7 @@
         <v>606</v>
       </c>
       <c r="C459">
-        <v>119.09</v>
+        <v>101.887</v>
       </c>
       <c r="D459" t="s">
         <v>607</v>
@@ -10015,10 +10015,10 @@
         <v>463</v>
       </c>
       <c r="B460" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C460">
-        <v>97.396</v>
+        <v>101.03</v>
       </c>
       <c r="D460" t="s">
         <v>607</v>
@@ -10032,10 +10032,10 @@
         <v>464</v>
       </c>
       <c r="B461" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C461">
-        <v>95.973</v>
+        <v>102.68</v>
       </c>
       <c r="D461" t="s">
         <v>607</v>
@@ -10052,7 +10052,7 @@
         <v>606</v>
       </c>
       <c r="C462">
-        <v>106.473</v>
+        <v>101.98</v>
       </c>
       <c r="D462" t="s">
         <v>607</v>
@@ -10069,7 +10069,7 @@
         <v>605</v>
       </c>
       <c r="C463">
-        <v>98.649</v>
+        <v>99.098</v>
       </c>
       <c r="D463" t="s">
         <v>607</v>
@@ -10083,10 +10083,10 @@
         <v>467</v>
       </c>
       <c r="B464" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C464">
-        <v>109.194</v>
+        <v>85.76900000000001</v>
       </c>
       <c r="D464" t="s">
         <v>607</v>
@@ -10103,7 +10103,7 @@
         <v>606</v>
       </c>
       <c r="C465">
-        <v>107.304</v>
+        <v>111.712</v>
       </c>
       <c r="D465" t="s">
         <v>607</v>
@@ -10120,7 +10120,7 @@
         <v>606</v>
       </c>
       <c r="C466">
-        <v>131.789</v>
+        <v>114.487</v>
       </c>
       <c r="D466" t="s">
         <v>607</v>
@@ -10134,10 +10134,10 @@
         <v>470</v>
       </c>
       <c r="B467" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C467">
-        <v>105.85</v>
+        <v>98.261</v>
       </c>
       <c r="D467" t="s">
         <v>607</v>
@@ -10151,10 +10151,10 @@
         <v>471</v>
       </c>
       <c r="B468" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C468">
-        <v>107.925</v>
+        <v>99.63</v>
       </c>
       <c r="D468" t="s">
         <v>607</v>
@@ -10168,10 +10168,10 @@
         <v>472</v>
       </c>
       <c r="B469" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C469">
-        <v>107.544</v>
+        <v>89.062</v>
       </c>
       <c r="D469" t="s">
         <v>607</v>
@@ -10188,7 +10188,7 @@
         <v>606</v>
       </c>
       <c r="C470">
-        <v>112.096</v>
+        <v>101.938</v>
       </c>
       <c r="D470" t="s">
         <v>607</v>
@@ -10202,10 +10202,10 @@
         <v>474</v>
       </c>
       <c r="B471" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C471">
-        <v>115.361</v>
+        <v>97.645</v>
       </c>
       <c r="D471" t="s">
         <v>607</v>
@@ -10222,7 +10222,7 @@
         <v>606</v>
       </c>
       <c r="C472">
-        <v>109.797</v>
+        <v>102.991</v>
       </c>
       <c r="D472" t="s">
         <v>607</v>
@@ -10236,10 +10236,10 @@
         <v>476</v>
       </c>
       <c r="B473" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C473">
-        <v>116.08</v>
+        <v>99.60599999999999</v>
       </c>
       <c r="D473" t="s">
         <v>607</v>
@@ -10253,10 +10253,10 @@
         <v>477</v>
       </c>
       <c r="B474" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C474">
-        <v>92.752</v>
+        <v>103.852</v>
       </c>
       <c r="D474" t="s">
         <v>607</v>
@@ -10273,7 +10273,7 @@
         <v>606</v>
       </c>
       <c r="C475">
-        <v>104.621</v>
+        <v>103.983</v>
       </c>
       <c r="D475" t="s">
         <v>607</v>
@@ -10290,7 +10290,7 @@
         <v>606</v>
       </c>
       <c r="C476">
-        <v>173.366</v>
+        <v>100.02</v>
       </c>
       <c r="D476" t="s">
         <v>607</v>
@@ -10307,7 +10307,7 @@
         <v>606</v>
       </c>
       <c r="C477">
-        <v>104.822</v>
+        <v>106.925</v>
       </c>
       <c r="D477" t="s">
         <v>607</v>
@@ -10321,10 +10321,10 @@
         <v>481</v>
       </c>
       <c r="B478" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C478">
-        <v>112.745</v>
+        <v>97.767</v>
       </c>
       <c r="D478" t="s">
         <v>607</v>
@@ -10341,7 +10341,7 @@
         <v>606</v>
       </c>
       <c r="C479">
-        <v>109.255</v>
+        <v>101.664</v>
       </c>
       <c r="D479" t="s">
         <v>607</v>
@@ -10355,10 +10355,10 @@
         <v>483</v>
       </c>
       <c r="B480" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C480">
-        <v>119.862</v>
+        <v>96.776</v>
       </c>
       <c r="D480" t="s">
         <v>607</v>
@@ -10375,7 +10375,7 @@
         <v>606</v>
       </c>
       <c r="C481">
-        <v>108.828</v>
+        <v>112.069</v>
       </c>
       <c r="D481" t="s">
         <v>607</v>
@@ -10389,10 +10389,10 @@
         <v>485</v>
       </c>
       <c r="B482" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C482">
-        <v>178.372</v>
+        <v>98.65300000000001</v>
       </c>
       <c r="D482" t="s">
         <v>607</v>
@@ -10406,10 +10406,10 @@
         <v>486</v>
       </c>
       <c r="B483" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C483">
-        <v>115.654</v>
+        <v>99.27200000000001</v>
       </c>
       <c r="D483" t="s">
         <v>607</v>
@@ -10423,10 +10423,10 @@
         <v>487</v>
       </c>
       <c r="B484" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C484">
-        <v>107.883</v>
+        <v>99.983</v>
       </c>
       <c r="D484" t="s">
         <v>607</v>
@@ -10443,7 +10443,7 @@
         <v>606</v>
       </c>
       <c r="C485">
-        <v>125.675</v>
+        <v>104.785</v>
       </c>
       <c r="D485" t="s">
         <v>607</v>
@@ -10457,10 +10457,10 @@
         <v>489</v>
       </c>
       <c r="B486" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C486">
-        <v>110.231</v>
+        <v>89.223</v>
       </c>
       <c r="D486" t="s">
         <v>607</v>
@@ -10474,10 +10474,10 @@
         <v>490</v>
       </c>
       <c r="B487" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C487">
-        <v>108.13</v>
+        <v>99.26900000000001</v>
       </c>
       <c r="D487" t="s">
         <v>607</v>
@@ -10494,7 +10494,7 @@
         <v>606</v>
       </c>
       <c r="C488">
-        <v>106.793</v>
+        <v>101.818</v>
       </c>
       <c r="D488" t="s">
         <v>607</v>
@@ -10508,10 +10508,10 @@
         <v>492</v>
       </c>
       <c r="B489" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C489">
-        <v>87.09999999999999</v>
+        <v>104.029</v>
       </c>
       <c r="D489" t="s">
         <v>607</v>
@@ -10528,7 +10528,7 @@
         <v>606</v>
       </c>
       <c r="C490">
-        <v>112.365</v>
+        <v>100.693</v>
       </c>
       <c r="D490" t="s">
         <v>607</v>
@@ -10545,7 +10545,7 @@
         <v>606</v>
       </c>
       <c r="C491">
-        <v>104.918</v>
+        <v>101.572</v>
       </c>
       <c r="D491" t="s">
         <v>607</v>
@@ -10562,7 +10562,7 @@
         <v>605</v>
       </c>
       <c r="C492">
-        <v>96.916</v>
+        <v>97.916</v>
       </c>
       <c r="D492" t="s">
         <v>607</v>
@@ -10576,10 +10576,10 @@
         <v>496</v>
       </c>
       <c r="B493" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C493">
-        <v>101.168</v>
+        <v>98.43899999999999</v>
       </c>
       <c r="D493" t="s">
         <v>607</v>
@@ -10596,7 +10596,7 @@
         <v>605</v>
       </c>
       <c r="C494">
-        <v>94.49299999999999</v>
+        <v>98.19199999999999</v>
       </c>
       <c r="D494" t="s">
         <v>607</v>
@@ -10613,7 +10613,7 @@
         <v>606</v>
       </c>
       <c r="C495">
-        <v>102.642</v>
+        <v>103.611</v>
       </c>
       <c r="D495" t="s">
         <v>607</v>
@@ -10630,7 +10630,7 @@
         <v>606</v>
       </c>
       <c r="C496">
-        <v>103.309</v>
+        <v>107.206</v>
       </c>
       <c r="D496" t="s">
         <v>607</v>
@@ -10647,7 +10647,7 @@
         <v>606</v>
       </c>
       <c r="C497">
-        <v>106.042</v>
+        <v>120.341</v>
       </c>
       <c r="D497" t="s">
         <v>607</v>
@@ -10664,7 +10664,7 @@
         <v>605</v>
       </c>
       <c r="C498">
-        <v>97.919</v>
+        <v>96.696</v>
       </c>
       <c r="D498" t="s">
         <v>607</v>
@@ -10681,7 +10681,7 @@
         <v>606</v>
       </c>
       <c r="C499">
-        <v>105.325</v>
+        <v>105.001</v>
       </c>
       <c r="D499" t="s">
         <v>607</v>
@@ -10695,10 +10695,10 @@
         <v>503</v>
       </c>
       <c r="B500" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C500">
-        <v>116.927</v>
+        <v>96.03400000000001</v>
       </c>
       <c r="D500" t="s">
         <v>607</v>
@@ -10715,7 +10715,7 @@
         <v>606</v>
       </c>
       <c r="C501">
-        <v>108.723</v>
+        <v>103.923</v>
       </c>
       <c r="D501" t="s">
         <v>607</v>
@@ -10729,10 +10729,10 @@
         <v>505</v>
       </c>
       <c r="B502" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C502">
-        <v>113.43</v>
+        <v>98.292</v>
       </c>
       <c r="D502" t="s">
         <v>607</v>
@@ -10749,7 +10749,7 @@
         <v>606</v>
       </c>
       <c r="C503">
-        <v>100.461</v>
+        <v>108.58</v>
       </c>
       <c r="D503" t="s">
         <v>607</v>
@@ -10763,10 +10763,10 @@
         <v>507</v>
       </c>
       <c r="B504" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C504">
-        <v>99.666</v>
+        <v>104.977</v>
       </c>
       <c r="D504" t="s">
         <v>607</v>
@@ -10783,7 +10783,7 @@
         <v>606</v>
       </c>
       <c r="C505">
-        <v>100</v>
+        <v>100.461</v>
       </c>
       <c r="D505" t="s">
         <v>607</v>
@@ -10797,10 +10797,10 @@
         <v>509</v>
       </c>
       <c r="B506" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C506">
-        <v>96.661</v>
+        <v>102.219</v>
       </c>
       <c r="D506" t="s">
         <v>607</v>
@@ -10814,10 +10814,10 @@
         <v>510</v>
       </c>
       <c r="B507" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C507">
-        <v>101.848</v>
+        <v>97.578</v>
       </c>
       <c r="D507" t="s">
         <v>607</v>
@@ -10831,10 +10831,10 @@
         <v>511</v>
       </c>
       <c r="B508" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C508">
-        <v>102.27</v>
+        <v>93.84399999999999</v>
       </c>
       <c r="D508" t="s">
         <v>607</v>
@@ -10851,7 +10851,7 @@
         <v>606</v>
       </c>
       <c r="C509">
-        <v>110.574</v>
+        <v>101.642</v>
       </c>
       <c r="D509" t="s">
         <v>607</v>
@@ -10865,10 +10865,10 @@
         <v>513</v>
       </c>
       <c r="B510" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C510">
-        <v>76.48399999999999</v>
+        <v>101.259</v>
       </c>
       <c r="D510" t="s">
         <v>607</v>
@@ -10882,10 +10882,10 @@
         <v>514</v>
       </c>
       <c r="B511" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C511">
-        <v>163.713</v>
+        <v>94.61499999999999</v>
       </c>
       <c r="D511" t="s">
         <v>607</v>
@@ -10899,10 +10899,10 @@
         <v>515</v>
       </c>
       <c r="B512" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C512">
-        <v>94.289</v>
+        <v>103.782</v>
       </c>
       <c r="D512" t="s">
         <v>607</v>
@@ -10919,7 +10919,7 @@
         <v>606</v>
       </c>
       <c r="C513">
-        <v>110.345</v>
+        <v>112.281</v>
       </c>
       <c r="D513" t="s">
         <v>607</v>
@@ -10936,7 +10936,7 @@
         <v>606</v>
       </c>
       <c r="C514">
-        <v>187.248</v>
+        <v>100.901</v>
       </c>
       <c r="D514" t="s">
         <v>607</v>
@@ -10950,10 +10950,10 @@
         <v>518</v>
       </c>
       <c r="B515" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C515">
-        <v>97.92700000000001</v>
+        <v>100.916</v>
       </c>
       <c r="D515" t="s">
         <v>607</v>
@@ -10967,10 +10967,10 @@
         <v>519</v>
       </c>
       <c r="B516" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C516">
-        <v>103.87</v>
+        <v>99.334</v>
       </c>
       <c r="D516" t="s">
         <v>607</v>
@@ -10984,10 +10984,10 @@
         <v>520</v>
       </c>
       <c r="B517" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C517">
-        <v>91.03700000000001</v>
+        <v>115.98</v>
       </c>
       <c r="D517" t="s">
         <v>607</v>
@@ -11001,10 +11001,10 @@
         <v>521</v>
       </c>
       <c r="B518" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C518">
-        <v>95.977</v>
+        <v>110.551</v>
       </c>
       <c r="D518" t="s">
         <v>607</v>
@@ -11018,10 +11018,10 @@
         <v>522</v>
       </c>
       <c r="B519" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C519">
-        <v>86.923</v>
+        <v>142.033</v>
       </c>
       <c r="D519" t="s">
         <v>607</v>
@@ -11035,10 +11035,10 @@
         <v>523</v>
       </c>
       <c r="B520" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C520">
-        <v>106.035</v>
+        <v>98.407</v>
       </c>
       <c r="D520" t="s">
         <v>607</v>
@@ -11055,7 +11055,7 @@
         <v>605</v>
       </c>
       <c r="C521">
-        <v>84.389</v>
+        <v>96.55</v>
       </c>
       <c r="D521" t="s">
         <v>607</v>
@@ -11072,7 +11072,7 @@
         <v>606</v>
       </c>
       <c r="C522">
-        <v>101.341</v>
+        <v>104.6</v>
       </c>
       <c r="D522" t="s">
         <v>607</v>
@@ -11086,10 +11086,10 @@
         <v>525</v>
       </c>
       <c r="B523" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C523">
-        <v>98.411</v>
+        <v>100.529</v>
       </c>
       <c r="D523" t="s">
         <v>607</v>
@@ -11103,10 +11103,10 @@
         <v>526</v>
       </c>
       <c r="B524" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C524">
-        <v>69.64100000000001</v>
+        <v>110.363</v>
       </c>
       <c r="D524" t="s">
         <v>607</v>
@@ -11123,7 +11123,7 @@
         <v>606</v>
       </c>
       <c r="C525">
-        <v>105.959</v>
+        <v>106.271</v>
       </c>
       <c r="D525" t="s">
         <v>607</v>
@@ -11137,10 +11137,10 @@
         <v>528</v>
       </c>
       <c r="B526" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C526">
-        <v>113.369</v>
+        <v>99.45099999999999</v>
       </c>
       <c r="D526" t="s">
         <v>607</v>
@@ -11154,10 +11154,10 @@
         <v>529</v>
       </c>
       <c r="B527" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C527">
-        <v>101.267</v>
+        <v>94.711</v>
       </c>
       <c r="D527" t="s">
         <v>607</v>
@@ -11171,10 +11171,10 @@
         <v>530</v>
       </c>
       <c r="B528" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C528">
-        <v>109.161</v>
+        <v>99.43899999999999</v>
       </c>
       <c r="D528" t="s">
         <v>607</v>
@@ -11191,7 +11191,7 @@
         <v>606</v>
       </c>
       <c r="C529">
-        <v>117.493</v>
+        <v>107.27</v>
       </c>
       <c r="D529" t="s">
         <v>607</v>
@@ -11205,10 +11205,10 @@
         <v>532</v>
       </c>
       <c r="B530" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C530">
-        <v>106.96</v>
+        <v>95.482</v>
       </c>
       <c r="D530" t="s">
         <v>607</v>
@@ -11225,7 +11225,7 @@
         <v>606</v>
       </c>
       <c r="C531">
-        <v>121.053</v>
+        <v>101.433</v>
       </c>
       <c r="D531" t="s">
         <v>607</v>
@@ -11242,7 +11242,7 @@
         <v>606</v>
       </c>
       <c r="C532">
-        <v>105.344</v>
+        <v>100</v>
       </c>
       <c r="D532" t="s">
         <v>607</v>
@@ -11259,7 +11259,7 @@
         <v>606</v>
       </c>
       <c r="C533">
-        <v>102.711</v>
+        <v>102.294</v>
       </c>
       <c r="D533" t="s">
         <v>607</v>
@@ -11276,7 +11276,7 @@
         <v>606</v>
       </c>
       <c r="C534">
-        <v>106.001</v>
+        <v>102.266</v>
       </c>
       <c r="D534" t="s">
         <v>607</v>
@@ -11290,10 +11290,10 @@
         <v>537</v>
       </c>
       <c r="B535" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C535">
-        <v>105.899</v>
+        <v>93.93300000000001</v>
       </c>
       <c r="D535" t="s">
         <v>607</v>
@@ -11310,7 +11310,7 @@
         <v>606</v>
       </c>
       <c r="C536">
-        <v>108.295</v>
+        <v>104.433</v>
       </c>
       <c r="D536" t="s">
         <v>607</v>
@@ -11324,10 +11324,10 @@
         <v>539</v>
       </c>
       <c r="B537" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C537">
-        <v>95.10899999999999</v>
+        <v>105.225</v>
       </c>
       <c r="D537" t="s">
         <v>607</v>
@@ -11344,7 +11344,7 @@
         <v>606</v>
       </c>
       <c r="C538">
-        <v>123.074</v>
+        <v>103.635</v>
       </c>
       <c r="D538" t="s">
         <v>607</v>
@@ -11361,7 +11361,7 @@
         <v>606</v>
       </c>
       <c r="C539">
-        <v>113.115</v>
+        <v>103.333</v>
       </c>
       <c r="D539" t="s">
         <v>607</v>
@@ -11378,7 +11378,7 @@
         <v>606</v>
       </c>
       <c r="C540">
-        <v>108.332</v>
+        <v>108.113</v>
       </c>
       <c r="D540" t="s">
         <v>607</v>
@@ -11392,10 +11392,10 @@
         <v>542</v>
       </c>
       <c r="B541" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C541">
-        <v>97.71299999999999</v>
+        <v>105.544</v>
       </c>
       <c r="D541" t="s">
         <v>607</v>
@@ -11409,10 +11409,10 @@
         <v>543</v>
       </c>
       <c r="B542" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C542">
-        <v>99.46599999999999</v>
+        <v>103.211</v>
       </c>
       <c r="D542" t="s">
         <v>607</v>
@@ -11426,10 +11426,10 @@
         <v>544</v>
       </c>
       <c r="B543" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C543">
-        <v>95.999</v>
+        <v>107.368</v>
       </c>
       <c r="D543" t="s">
         <v>607</v>
@@ -11443,10 +11443,10 @@
         <v>545</v>
       </c>
       <c r="B544" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C544">
-        <v>98.044</v>
+        <v>107.663</v>
       </c>
       <c r="D544" t="s">
         <v>607</v>
@@ -11460,10 +11460,10 @@
         <v>546</v>
       </c>
       <c r="B545" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C545">
-        <v>96.70999999999999</v>
+        <v>104.037</v>
       </c>
       <c r="D545" t="s">
         <v>607</v>
@@ -11477,10 +11477,10 @@
         <v>547</v>
       </c>
       <c r="B546" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C546">
-        <v>95.43300000000001</v>
+        <v>100.428</v>
       </c>
       <c r="D546" t="s">
         <v>607</v>
@@ -11494,10 +11494,10 @@
         <v>548</v>
       </c>
       <c r="B547" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C547">
-        <v>99.194</v>
+        <v>101.12</v>
       </c>
       <c r="D547" t="s">
         <v>607</v>
@@ -11511,10 +11511,10 @@
         <v>549</v>
       </c>
       <c r="B548" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C548">
-        <v>99.45099999999999</v>
+        <v>104.591</v>
       </c>
       <c r="D548" t="s">
         <v>607</v>
@@ -11528,10 +11528,10 @@
         <v>550</v>
       </c>
       <c r="B549" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C549">
-        <v>95.026</v>
+        <v>104.51</v>
       </c>
       <c r="D549" t="s">
         <v>607</v>
@@ -11545,10 +11545,10 @@
         <v>551</v>
       </c>
       <c r="B550" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C550">
-        <v>99.873</v>
+        <v>102.922</v>
       </c>
       <c r="D550" t="s">
         <v>607</v>
@@ -11565,7 +11565,7 @@
         <v>606</v>
       </c>
       <c r="C551">
-        <v>106.548</v>
+        <v>101.818</v>
       </c>
       <c r="D551" t="s">
         <v>607</v>
@@ -11582,7 +11582,7 @@
         <v>606</v>
       </c>
       <c r="C552">
-        <v>102.874</v>
+        <v>102.503</v>
       </c>
       <c r="D552" t="s">
         <v>607</v>
@@ -11599,7 +11599,7 @@
         <v>606</v>
       </c>
       <c r="C553">
-        <v>116.129</v>
+        <v>102.902</v>
       </c>
       <c r="D553" t="s">
         <v>607</v>
@@ -11616,7 +11616,7 @@
         <v>606</v>
       </c>
       <c r="C554">
-        <v>115.789</v>
+        <v>103.846</v>
       </c>
       <c r="D554" t="s">
         <v>607</v>
@@ -11630,10 +11630,10 @@
         <v>556</v>
       </c>
       <c r="B555" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C555">
-        <v>95.087</v>
+        <v>105.992</v>
       </c>
       <c r="D555" t="s">
         <v>607</v>
@@ -11650,7 +11650,7 @@
         <v>606</v>
       </c>
       <c r="C556">
-        <v>106.776</v>
+        <v>101.043</v>
       </c>
       <c r="D556" t="s">
         <v>607</v>
@@ -11667,7 +11667,7 @@
         <v>606</v>
       </c>
       <c r="C557">
-        <v>102.034</v>
+        <v>102.684</v>
       </c>
       <c r="D557" t="s">
         <v>607</v>
@@ -11684,7 +11684,7 @@
         <v>606</v>
       </c>
       <c r="C558">
-        <v>101.2</v>
+        <v>109.607</v>
       </c>
       <c r="D558" t="s">
         <v>607</v>
@@ -11698,10 +11698,10 @@
         <v>560</v>
       </c>
       <c r="B559" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C559">
-        <v>96.34099999999999</v>
+        <v>103.102</v>
       </c>
       <c r="D559" t="s">
         <v>607</v>
@@ -11718,7 +11718,7 @@
         <v>606</v>
       </c>
       <c r="C560">
-        <v>104.29</v>
+        <v>103.665</v>
       </c>
       <c r="D560" t="s">
         <v>607</v>
@@ -11735,7 +11735,7 @@
         <v>606</v>
       </c>
       <c r="C561">
-        <v>101.337</v>
+        <v>111.668</v>
       </c>
       <c r="D561" t="s">
         <v>607</v>
@@ -11752,7 +11752,7 @@
         <v>606</v>
       </c>
       <c r="C562">
-        <v>100</v>
+        <v>105.725</v>
       </c>
       <c r="D562" t="s">
         <v>607</v>
@@ -11769,7 +11769,7 @@
         <v>606</v>
       </c>
       <c r="C563">
-        <v>104.86</v>
+        <v>106.079</v>
       </c>
       <c r="D563" t="s">
         <v>607</v>
@@ -11786,7 +11786,7 @@
         <v>606</v>
       </c>
       <c r="C564">
-        <v>103.031</v>
+        <v>106.974</v>
       </c>
       <c r="D564" t="s">
         <v>607</v>
@@ -11803,7 +11803,7 @@
         <v>606</v>
       </c>
       <c r="C565">
-        <v>100.286</v>
+        <v>102.639</v>
       </c>
       <c r="D565" t="s">
         <v>607</v>
@@ -11820,7 +11820,7 @@
         <v>606</v>
       </c>
       <c r="C566">
-        <v>143.882</v>
+        <v>101.979</v>
       </c>
       <c r="D566" t="s">
         <v>607</v>
@@ -11837,7 +11837,7 @@
         <v>605</v>
       </c>
       <c r="C567">
-        <v>84.952</v>
+        <v>95.402</v>
       </c>
       <c r="D567" t="s">
         <v>607</v>
@@ -11851,10 +11851,10 @@
         <v>569</v>
       </c>
       <c r="B568" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C568">
-        <v>99.688</v>
+        <v>102.339</v>
       </c>
       <c r="D568" t="s">
         <v>607</v>
@@ -11871,7 +11871,7 @@
         <v>606</v>
       </c>
       <c r="C569">
-        <v>101.095</v>
+        <v>102.304</v>
       </c>
       <c r="D569" t="s">
         <v>607</v>
@@ -11885,10 +11885,10 @@
         <v>571</v>
       </c>
       <c r="B570" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C570">
-        <v>91.759</v>
+        <v>108.359</v>
       </c>
       <c r="D570" t="s">
         <v>607</v>
@@ -11905,7 +11905,7 @@
         <v>606</v>
       </c>
       <c r="C571">
-        <v>109.106</v>
+        <v>114.683</v>
       </c>
       <c r="D571" t="s">
         <v>607</v>
@@ -11919,10 +11919,10 @@
         <v>573</v>
       </c>
       <c r="B572" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C572">
-        <v>102.82</v>
+        <v>99.161</v>
       </c>
       <c r="D572" t="s">
         <v>607</v>
@@ -11936,10 +11936,10 @@
         <v>574</v>
       </c>
       <c r="B573" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C573">
-        <v>102.257</v>
+        <v>98.166</v>
       </c>
       <c r="D573" t="s">
         <v>607</v>
@@ -11953,10 +11953,10 @@
         <v>575</v>
       </c>
       <c r="B574" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C574">
-        <v>101.483</v>
+        <v>97.91200000000001</v>
       </c>
       <c r="D574" t="s">
         <v>607</v>
@@ -11973,7 +11973,7 @@
         <v>606</v>
       </c>
       <c r="C575">
-        <v>115.188</v>
+        <v>101.524</v>
       </c>
       <c r="D575" t="s">
         <v>607</v>
@@ -11990,7 +11990,7 @@
         <v>606</v>
       </c>
       <c r="C576">
-        <v>117.073</v>
+        <v>105.364</v>
       </c>
       <c r="D576" t="s">
         <v>607</v>
@@ -12007,7 +12007,7 @@
         <v>606</v>
       </c>
       <c r="C577">
-        <v>113.893</v>
+        <v>102.054</v>
       </c>
       <c r="D577" t="s">
         <v>607</v>
@@ -12024,7 +12024,7 @@
         <v>606</v>
       </c>
       <c r="C578">
-        <v>109.228</v>
+        <v>103.682</v>
       </c>
       <c r="D578" t="s">
         <v>607</v>
@@ -12041,7 +12041,7 @@
         <v>606</v>
       </c>
       <c r="C579">
-        <v>101.219</v>
+        <v>105.773</v>
       </c>
       <c r="D579" t="s">
         <v>607</v>
@@ -12058,7 +12058,7 @@
         <v>606</v>
       </c>
       <c r="C580">
-        <v>106.094</v>
+        <v>101.922</v>
       </c>
       <c r="D580" t="s">
         <v>607</v>
@@ -12072,10 +12072,10 @@
         <v>582</v>
       </c>
       <c r="B581" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C581">
-        <v>104.778</v>
+        <v>94.71599999999999</v>
       </c>
       <c r="D581" t="s">
         <v>607</v>
@@ -12092,7 +12092,7 @@
         <v>606</v>
       </c>
       <c r="C582">
-        <v>118.924</v>
+        <v>102.468</v>
       </c>
       <c r="D582" t="s">
         <v>607</v>
@@ -12109,7 +12109,7 @@
         <v>606</v>
       </c>
       <c r="C583">
-        <v>132.07</v>
+        <v>101.695</v>
       </c>
       <c r="D583" t="s">
         <v>607</v>
@@ -12126,7 +12126,7 @@
         <v>606</v>
       </c>
       <c r="C584">
-        <v>106.088</v>
+        <v>105.945</v>
       </c>
       <c r="D584" t="s">
         <v>607</v>
@@ -12143,7 +12143,7 @@
         <v>606</v>
       </c>
       <c r="C585">
-        <v>107.745</v>
+        <v>102.081</v>
       </c>
       <c r="D585" t="s">
         <v>607</v>
@@ -12160,7 +12160,7 @@
         <v>606</v>
       </c>
       <c r="C586">
-        <v>104.644</v>
+        <v>106.876</v>
       </c>
       <c r="D586" t="s">
         <v>607</v>
@@ -12174,10 +12174,10 @@
         <v>588</v>
       </c>
       <c r="B587" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C587">
-        <v>88.502</v>
+        <v>105.793</v>
       </c>
       <c r="D587" t="s">
         <v>607</v>
@@ -12194,7 +12194,7 @@
         <v>606</v>
       </c>
       <c r="C588">
-        <v>100.186</v>
+        <v>104.101</v>
       </c>
       <c r="D588" t="s">
         <v>607</v>
@@ -12211,7 +12211,7 @@
         <v>606</v>
       </c>
       <c r="C589">
-        <v>106.458</v>
+        <v>104.189</v>
       </c>
       <c r="D589" t="s">
         <v>607</v>
@@ -12225,10 +12225,10 @@
         <v>591</v>
       </c>
       <c r="B590" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C590">
-        <v>96.48399999999999</v>
+        <v>106.433</v>
       </c>
       <c r="D590" t="s">
         <v>607</v>
@@ -12245,7 +12245,7 @@
         <v>606</v>
       </c>
       <c r="C591">
-        <v>108.029</v>
+        <v>102.67</v>
       </c>
       <c r="D591" t="s">
         <v>607</v>
@@ -12259,10 +12259,10 @@
         <v>593</v>
       </c>
       <c r="B592" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C592">
-        <v>110.524</v>
+        <v>99.256</v>
       </c>
       <c r="D592" t="s">
         <v>607</v>
@@ -12279,7 +12279,7 @@
         <v>606</v>
       </c>
       <c r="C593">
-        <v>100.168</v>
+        <v>103.737</v>
       </c>
       <c r="D593" t="s">
         <v>607</v>
@@ -12296,7 +12296,7 @@
         <v>606</v>
       </c>
       <c r="C594">
-        <v>115.633</v>
+        <v>102.976</v>
       </c>
       <c r="D594" t="s">
         <v>607</v>
@@ -12313,7 +12313,7 @@
         <v>606</v>
       </c>
       <c r="C595">
-        <v>103.123</v>
+        <v>103.652</v>
       </c>
       <c r="D595" t="s">
         <v>607</v>
@@ -12330,7 +12330,7 @@
         <v>606</v>
       </c>
       <c r="C596">
-        <v>111.62</v>
+        <v>101.657</v>
       </c>
       <c r="D596" t="s">
         <v>607</v>
@@ -12347,7 +12347,7 @@
         <v>606</v>
       </c>
       <c r="C597">
-        <v>121.89</v>
+        <v>100.655</v>
       </c>
       <c r="D597" t="s">
         <v>607</v>
@@ -12364,7 +12364,7 @@
         <v>606</v>
       </c>
       <c r="C598">
-        <v>113.328</v>
+        <v>101.243</v>
       </c>
       <c r="D598" t="s">
         <v>607</v>
@@ -12381,7 +12381,7 @@
         <v>606</v>
       </c>
       <c r="C599">
-        <v>108.108</v>
+        <v>100.761</v>
       </c>
       <c r="D599" t="s">
         <v>607</v>
@@ -12398,7 +12398,7 @@
         <v>606</v>
       </c>
       <c r="C600">
-        <v>107.21</v>
+        <v>105.264</v>
       </c>
       <c r="D600" t="s">
         <v>607</v>
@@ -12412,10 +12412,10 @@
         <v>602</v>
       </c>
       <c r="B601" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C601">
-        <v>89.319</v>
+        <v>105.868</v>
       </c>
       <c r="D601" t="s">
         <v>607</v>
@@ -12429,10 +12429,10 @@
         <v>603</v>
       </c>
       <c r="B602" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C602">
-        <v>98.39700000000001</v>
+        <v>107.741</v>
       </c>
       <c r="D602" t="s">
         <v>607</v>
@@ -12449,7 +12449,7 @@
         <v>605</v>
       </c>
       <c r="C603">
-        <v>95.42400000000001</v>
+        <v>96.73399999999999</v>
       </c>
       <c r="D603" t="s">
         <v>607</v>

--- a/generated_reports/tradfi_momentum.xlsx
+++ b/generated_reports/tradfi_momentum.xlsx
@@ -1831,10 +1831,10 @@
     <t>MDB</t>
   </si>
   <si>
-    <t>Bear</t>
-  </si>
-  <si>
-    <t>Bull</t>
+    <t>Down</t>
+  </si>
+  <si>
+    <t>Up</t>
   </si>
   <si>
     <t>10 days</t>
@@ -2232,7 +2232,7 @@
         <v>605</v>
       </c>
       <c r="C2">
-        <v>97.779</v>
+        <v>98.518</v>
       </c>
       <c r="D2" t="s">
         <v>607</v>
@@ -2249,7 +2249,7 @@
         <v>605</v>
       </c>
       <c r="C3">
-        <v>99.99299999999999</v>
+        <v>99.568</v>
       </c>
       <c r="D3" t="s">
         <v>607</v>
@@ -2266,7 +2266,7 @@
         <v>606</v>
       </c>
       <c r="C4">
-        <v>103.273</v>
+        <v>101.275</v>
       </c>
       <c r="D4" t="s">
         <v>607</v>
@@ -2283,7 +2283,7 @@
         <v>606</v>
       </c>
       <c r="C5">
-        <v>108.969</v>
+        <v>105.092</v>
       </c>
       <c r="D5" t="s">
         <v>607</v>
@@ -2300,7 +2300,7 @@
         <v>606</v>
       </c>
       <c r="C6">
-        <v>105.381</v>
+        <v>102.269</v>
       </c>
       <c r="D6" t="s">
         <v>607</v>
@@ -2317,7 +2317,7 @@
         <v>606</v>
       </c>
       <c r="C7">
-        <v>104.212</v>
+        <v>102.155</v>
       </c>
       <c r="D7" t="s">
         <v>607</v>
@@ -2334,7 +2334,7 @@
         <v>605</v>
       </c>
       <c r="C8">
-        <v>95.342</v>
+        <v>93.449</v>
       </c>
       <c r="D8" t="s">
         <v>607</v>
@@ -2351,7 +2351,7 @@
         <v>606</v>
       </c>
       <c r="C9">
-        <v>110.358</v>
+        <v>107.064</v>
       </c>
       <c r="D9" t="s">
         <v>607</v>
@@ -2368,7 +2368,7 @@
         <v>605</v>
       </c>
       <c r="C10">
-        <v>91.736</v>
+        <v>91.261</v>
       </c>
       <c r="D10" t="s">
         <v>607</v>
@@ -2385,7 +2385,7 @@
         <v>606</v>
       </c>
       <c r="C11">
-        <v>103.959</v>
+        <v>103.57</v>
       </c>
       <c r="D11" t="s">
         <v>607</v>
@@ -2402,7 +2402,7 @@
         <v>605</v>
       </c>
       <c r="C12">
-        <v>99.319</v>
+        <v>99.70699999999999</v>
       </c>
       <c r="D12" t="s">
         <v>607</v>
@@ -2416,10 +2416,10 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C13">
-        <v>103.078</v>
+        <v>98.791</v>
       </c>
       <c r="D13" t="s">
         <v>607</v>
@@ -2436,7 +2436,7 @@
         <v>606</v>
       </c>
       <c r="C14">
-        <v>107.464</v>
+        <v>102.96</v>
       </c>
       <c r="D14" t="s">
         <v>607</v>
@@ -2453,7 +2453,7 @@
         <v>605</v>
       </c>
       <c r="C15">
-        <v>97.139</v>
+        <v>95.58499999999999</v>
       </c>
       <c r="D15" t="s">
         <v>607</v>
@@ -2470,7 +2470,7 @@
         <v>606</v>
       </c>
       <c r="C16">
-        <v>101.09</v>
+        <v>101.474</v>
       </c>
       <c r="D16" t="s">
         <v>607</v>
@@ -2487,7 +2487,7 @@
         <v>605</v>
       </c>
       <c r="C17">
-        <v>99.42100000000001</v>
+        <v>95.021</v>
       </c>
       <c r="D17" t="s">
         <v>607</v>
@@ -2504,7 +2504,7 @@
         <v>606</v>
       </c>
       <c r="C18">
-        <v>100.597</v>
+        <v>100.309</v>
       </c>
       <c r="D18" t="s">
         <v>607</v>
@@ -2521,7 +2521,7 @@
         <v>606</v>
       </c>
       <c r="C19">
-        <v>104.056</v>
+        <v>100.309</v>
       </c>
       <c r="D19" t="s">
         <v>607</v>
@@ -2538,7 +2538,7 @@
         <v>605</v>
       </c>
       <c r="C20">
-        <v>95.90300000000001</v>
+        <v>95.65300000000001</v>
       </c>
       <c r="D20" t="s">
         <v>607</v>
@@ -2555,7 +2555,7 @@
         <v>606</v>
       </c>
       <c r="C21">
-        <v>105.324</v>
+        <v>103.275</v>
       </c>
       <c r="D21" t="s">
         <v>607</v>
@@ -2572,7 +2572,7 @@
         <v>606</v>
       </c>
       <c r="C22">
-        <v>101.897</v>
+        <v>101.386</v>
       </c>
       <c r="D22" t="s">
         <v>607</v>
@@ -2589,7 +2589,7 @@
         <v>606</v>
       </c>
       <c r="C23">
-        <v>112.512</v>
+        <v>106.096</v>
       </c>
       <c r="D23" t="s">
         <v>607</v>
@@ -2606,7 +2606,7 @@
         <v>605</v>
       </c>
       <c r="C24">
-        <v>92.925</v>
+        <v>93.508</v>
       </c>
       <c r="D24" t="s">
         <v>607</v>
@@ -2620,10 +2620,10 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C25">
-        <v>100.181</v>
+        <v>98.863</v>
       </c>
       <c r="D25" t="s">
         <v>607</v>
@@ -2640,7 +2640,7 @@
         <v>606</v>
       </c>
       <c r="C26">
-        <v>102.338</v>
+        <v>101.265</v>
       </c>
       <c r="D26" t="s">
         <v>607</v>
@@ -2657,7 +2657,7 @@
         <v>605</v>
       </c>
       <c r="C27">
-        <v>99.075</v>
+        <v>99.535</v>
       </c>
       <c r="D27" t="s">
         <v>607</v>
@@ -2674,7 +2674,7 @@
         <v>606</v>
       </c>
       <c r="C28">
-        <v>102.056</v>
+        <v>102.493</v>
       </c>
       <c r="D28" t="s">
         <v>607</v>
@@ -2691,7 +2691,7 @@
         <v>606</v>
       </c>
       <c r="C29">
-        <v>104.783</v>
+        <v>100.761</v>
       </c>
       <c r="D29" t="s">
         <v>607</v>
@@ -2708,7 +2708,7 @@
         <v>606</v>
       </c>
       <c r="C30">
-        <v>100.709</v>
+        <v>100.263</v>
       </c>
       <c r="D30" t="s">
         <v>607</v>
@@ -2725,7 +2725,7 @@
         <v>606</v>
       </c>
       <c r="C31">
-        <v>102.572</v>
+        <v>100.773</v>
       </c>
       <c r="D31" t="s">
         <v>607</v>
@@ -2739,10 +2739,10 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C32">
-        <v>100.868</v>
+        <v>94.697</v>
       </c>
       <c r="D32" t="s">
         <v>607</v>
@@ -2759,7 +2759,7 @@
         <v>606</v>
       </c>
       <c r="C33">
-        <v>104.05</v>
+        <v>102.175</v>
       </c>
       <c r="D33" t="s">
         <v>607</v>
@@ -2776,7 +2776,7 @@
         <v>605</v>
       </c>
       <c r="C34">
-        <v>85.871</v>
+        <v>85.833</v>
       </c>
       <c r="D34" t="s">
         <v>607</v>
@@ -2793,7 +2793,7 @@
         <v>606</v>
       </c>
       <c r="C35">
-        <v>104.723</v>
+        <v>104.198</v>
       </c>
       <c r="D35" t="s">
         <v>607</v>
@@ -2810,7 +2810,7 @@
         <v>606</v>
       </c>
       <c r="C36">
-        <v>111.186</v>
+        <v>109.63</v>
       </c>
       <c r="D36" t="s">
         <v>607</v>
@@ -2827,7 +2827,7 @@
         <v>606</v>
       </c>
       <c r="C37">
-        <v>104.589</v>
+        <v>101.342</v>
       </c>
       <c r="D37" t="s">
         <v>607</v>
@@ -2844,7 +2844,7 @@
         <v>605</v>
       </c>
       <c r="C38">
-        <v>95.206</v>
+        <v>90.444</v>
       </c>
       <c r="D38" t="s">
         <v>607</v>
@@ -2861,7 +2861,7 @@
         <v>606</v>
       </c>
       <c r="C39">
-        <v>106.219</v>
+        <v>102.93</v>
       </c>
       <c r="D39" t="s">
         <v>607</v>
@@ -2875,10 +2875,10 @@
         <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C40">
-        <v>102.45</v>
+        <v>99.947</v>
       </c>
       <c r="D40" t="s">
         <v>607</v>
@@ -2895,7 +2895,7 @@
         <v>606</v>
       </c>
       <c r="C41">
-        <v>104.125</v>
+        <v>102.897</v>
       </c>
       <c r="D41" t="s">
         <v>607</v>
@@ -2912,7 +2912,7 @@
         <v>606</v>
       </c>
       <c r="C42">
-        <v>102.455</v>
+        <v>102.344</v>
       </c>
       <c r="D42" t="s">
         <v>607</v>
@@ -2929,7 +2929,7 @@
         <v>606</v>
       </c>
       <c r="C43">
-        <v>105.878</v>
+        <v>105.778</v>
       </c>
       <c r="D43" t="s">
         <v>607</v>
@@ -2946,7 +2946,7 @@
         <v>606</v>
       </c>
       <c r="C44">
-        <v>105.552</v>
+        <v>101.629</v>
       </c>
       <c r="D44" t="s">
         <v>607</v>
@@ -2963,7 +2963,7 @@
         <v>606</v>
       </c>
       <c r="C45">
-        <v>102.703</v>
+        <v>100.745</v>
       </c>
       <c r="D45" t="s">
         <v>607</v>
@@ -2980,7 +2980,7 @@
         <v>606</v>
       </c>
       <c r="C46">
-        <v>100.358</v>
+        <v>103.529</v>
       </c>
       <c r="D46" t="s">
         <v>607</v>
@@ -2997,7 +2997,7 @@
         <v>606</v>
       </c>
       <c r="C47">
-        <v>103.197</v>
+        <v>104.161</v>
       </c>
       <c r="D47" t="s">
         <v>607</v>
@@ -3014,7 +3014,7 @@
         <v>605</v>
       </c>
       <c r="C48">
-        <v>98.7</v>
+        <v>99.964</v>
       </c>
       <c r="D48" t="s">
         <v>607</v>
@@ -3028,10 +3028,10 @@
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C49">
-        <v>101.126</v>
+        <v>97.657</v>
       </c>
       <c r="D49" t="s">
         <v>607</v>
@@ -3048,7 +3048,7 @@
         <v>606</v>
       </c>
       <c r="C50">
-        <v>103.834</v>
+        <v>102.946</v>
       </c>
       <c r="D50" t="s">
         <v>607</v>
@@ -3065,7 +3065,7 @@
         <v>606</v>
       </c>
       <c r="C51">
-        <v>108.226</v>
+        <v>104.283</v>
       </c>
       <c r="D51" t="s">
         <v>607</v>
@@ -3082,7 +3082,7 @@
         <v>606</v>
       </c>
       <c r="C52">
-        <v>100.038</v>
+        <v>100.369</v>
       </c>
       <c r="D52" t="s">
         <v>607</v>
@@ -3096,10 +3096,10 @@
         <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C53">
-        <v>100.996</v>
+        <v>95.932</v>
       </c>
       <c r="D53" t="s">
         <v>607</v>
@@ -3116,7 +3116,7 @@
         <v>606</v>
       </c>
       <c r="C54">
-        <v>105.942</v>
+        <v>104.406</v>
       </c>
       <c r="D54" t="s">
         <v>607</v>
@@ -3133,7 +3133,7 @@
         <v>606</v>
       </c>
       <c r="C55">
-        <v>104.178</v>
+        <v>101.986</v>
       </c>
       <c r="D55" t="s">
         <v>607</v>
@@ -3147,10 +3147,10 @@
         <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C56">
-        <v>100.331</v>
+        <v>97.36</v>
       </c>
       <c r="D56" t="s">
         <v>607</v>
@@ -3164,10 +3164,10 @@
         <v>60</v>
       </c>
       <c r="B57" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C57">
-        <v>103.875</v>
+        <v>97.941</v>
       </c>
       <c r="D57" t="s">
         <v>607</v>
@@ -3184,7 +3184,7 @@
         <v>606</v>
       </c>
       <c r="C58">
-        <v>106.5</v>
+        <v>107.842</v>
       </c>
       <c r="D58" t="s">
         <v>607</v>
@@ -3201,7 +3201,7 @@
         <v>606</v>
       </c>
       <c r="C59">
-        <v>102.794</v>
+        <v>104.125</v>
       </c>
       <c r="D59" t="s">
         <v>607</v>
@@ -3218,7 +3218,7 @@
         <v>605</v>
       </c>
       <c r="C60">
-        <v>95.47199999999999</v>
+        <v>96.559</v>
       </c>
       <c r="D60" t="s">
         <v>607</v>
@@ -3235,7 +3235,7 @@
         <v>605</v>
       </c>
       <c r="C61">
-        <v>98.57299999999999</v>
+        <v>97.833</v>
       </c>
       <c r="D61" t="s">
         <v>607</v>
@@ -3249,10 +3249,10 @@
         <v>65</v>
       </c>
       <c r="B62" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C62">
-        <v>99.28</v>
+        <v>104.04</v>
       </c>
       <c r="D62" t="s">
         <v>607</v>
@@ -3269,7 +3269,7 @@
         <v>606</v>
       </c>
       <c r="C63">
-        <v>100.997</v>
+        <v>100.155</v>
       </c>
       <c r="D63" t="s">
         <v>607</v>
@@ -3286,7 +3286,7 @@
         <v>606</v>
       </c>
       <c r="C64">
-        <v>102.867</v>
+        <v>101.984</v>
       </c>
       <c r="D64" t="s">
         <v>607</v>
@@ -3300,10 +3300,10 @@
         <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C65">
-        <v>100.965</v>
+        <v>98.06699999999999</v>
       </c>
       <c r="D65" t="s">
         <v>607</v>
@@ -3320,7 +3320,7 @@
         <v>606</v>
       </c>
       <c r="C66">
-        <v>104.773</v>
+        <v>105.736</v>
       </c>
       <c r="D66" t="s">
         <v>607</v>
@@ -3337,7 +3337,7 @@
         <v>606</v>
       </c>
       <c r="C67">
-        <v>103.975</v>
+        <v>100.411</v>
       </c>
       <c r="D67" t="s">
         <v>607</v>
@@ -3354,7 +3354,7 @@
         <v>606</v>
       </c>
       <c r="C68">
-        <v>105.206</v>
+        <v>104.924</v>
       </c>
       <c r="D68" t="s">
         <v>607</v>
@@ -3368,10 +3368,10 @@
         <v>72</v>
       </c>
       <c r="B69" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C69">
-        <v>100.129</v>
+        <v>97.90300000000001</v>
       </c>
       <c r="D69" t="s">
         <v>607</v>
@@ -3388,7 +3388,7 @@
         <v>606</v>
       </c>
       <c r="C70">
-        <v>115.652</v>
+        <v>132.766</v>
       </c>
       <c r="D70" t="s">
         <v>607</v>
@@ -3405,7 +3405,7 @@
         <v>606</v>
       </c>
       <c r="C71">
-        <v>108.471</v>
+        <v>105.984</v>
       </c>
       <c r="D71" t="s">
         <v>607</v>
@@ -3422,7 +3422,7 @@
         <v>606</v>
       </c>
       <c r="C72">
-        <v>105.126</v>
+        <v>102.267</v>
       </c>
       <c r="D72" t="s">
         <v>607</v>
@@ -3439,7 +3439,7 @@
         <v>606</v>
       </c>
       <c r="C73">
-        <v>106.08</v>
+        <v>104.891</v>
       </c>
       <c r="D73" t="s">
         <v>607</v>
@@ -3453,10 +3453,10 @@
         <v>77</v>
       </c>
       <c r="B74" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C74">
-        <v>98.16500000000001</v>
+        <v>100.453</v>
       </c>
       <c r="D74" t="s">
         <v>607</v>
@@ -3473,7 +3473,7 @@
         <v>605</v>
       </c>
       <c r="C75">
-        <v>98.694</v>
+        <v>98.318</v>
       </c>
       <c r="D75" t="s">
         <v>607</v>
@@ -3490,7 +3490,7 @@
         <v>605</v>
       </c>
       <c r="C76">
-        <v>98.899</v>
+        <v>95.828</v>
       </c>
       <c r="D76" t="s">
         <v>607</v>
@@ -3507,7 +3507,7 @@
         <v>606</v>
       </c>
       <c r="C77">
-        <v>103.662</v>
+        <v>104.896</v>
       </c>
       <c r="D77" t="s">
         <v>607</v>
@@ -3521,10 +3521,10 @@
         <v>81</v>
       </c>
       <c r="B78" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C78">
-        <v>101.4</v>
+        <v>93.633</v>
       </c>
       <c r="D78" t="s">
         <v>607</v>
@@ -3538,10 +3538,10 @@
         <v>82</v>
       </c>
       <c r="B79" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C79">
-        <v>100.395</v>
+        <v>98.279</v>
       </c>
       <c r="D79" t="s">
         <v>607</v>
@@ -3558,7 +3558,7 @@
         <v>606</v>
       </c>
       <c r="C80">
-        <v>101.965</v>
+        <v>102.184</v>
       </c>
       <c r="D80" t="s">
         <v>607</v>
@@ -3575,7 +3575,7 @@
         <v>606</v>
       </c>
       <c r="C81">
-        <v>110.861</v>
+        <v>111.843</v>
       </c>
       <c r="D81" t="s">
         <v>607</v>
@@ -3592,7 +3592,7 @@
         <v>606</v>
       </c>
       <c r="C82">
-        <v>115.862</v>
+        <v>114.251</v>
       </c>
       <c r="D82" t="s">
         <v>607</v>
@@ -3609,7 +3609,7 @@
         <v>606</v>
       </c>
       <c r="C83">
-        <v>111.96</v>
+        <v>113.415</v>
       </c>
       <c r="D83" t="s">
         <v>607</v>
@@ -3626,7 +3626,7 @@
         <v>605</v>
       </c>
       <c r="C84">
-        <v>98.51000000000001</v>
+        <v>95.905</v>
       </c>
       <c r="D84" t="s">
         <v>607</v>
@@ -3640,10 +3640,10 @@
         <v>88</v>
       </c>
       <c r="B85" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C85">
-        <v>100.146</v>
+        <v>95.761</v>
       </c>
       <c r="D85" t="s">
         <v>607</v>
@@ -3657,10 +3657,10 @@
         <v>89</v>
       </c>
       <c r="B86" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C86">
-        <v>101.425</v>
+        <v>93.691</v>
       </c>
       <c r="D86" t="s">
         <v>607</v>
@@ -3677,7 +3677,7 @@
         <v>606</v>
       </c>
       <c r="C87">
-        <v>105.078</v>
+        <v>104.475</v>
       </c>
       <c r="D87" t="s">
         <v>607</v>
@@ -3694,7 +3694,7 @@
         <v>605</v>
       </c>
       <c r="C88">
-        <v>89.30800000000001</v>
+        <v>89.517</v>
       </c>
       <c r="D88" t="s">
         <v>607</v>
@@ -3711,7 +3711,7 @@
         <v>606</v>
       </c>
       <c r="C89">
-        <v>106.479</v>
+        <v>105.828</v>
       </c>
       <c r="D89" t="s">
         <v>607</v>
@@ -3728,7 +3728,7 @@
         <v>606</v>
       </c>
       <c r="C90">
-        <v>103.096</v>
+        <v>100.936</v>
       </c>
       <c r="D90" t="s">
         <v>607</v>
@@ -3745,7 +3745,7 @@
         <v>606</v>
       </c>
       <c r="C91">
-        <v>108.096</v>
+        <v>113.537</v>
       </c>
       <c r="D91" t="s">
         <v>607</v>
@@ -3762,7 +3762,7 @@
         <v>605</v>
       </c>
       <c r="C92">
-        <v>99.211</v>
+        <v>98.236</v>
       </c>
       <c r="D92" t="s">
         <v>607</v>
@@ -3779,7 +3779,7 @@
         <v>605</v>
       </c>
       <c r="C93">
-        <v>98.952</v>
+        <v>92.09999999999999</v>
       </c>
       <c r="D93" t="s">
         <v>607</v>
@@ -3796,7 +3796,7 @@
         <v>606</v>
       </c>
       <c r="C94">
-        <v>102.849</v>
+        <v>100.171</v>
       </c>
       <c r="D94" t="s">
         <v>607</v>
@@ -3813,7 +3813,7 @@
         <v>606</v>
       </c>
       <c r="C95">
-        <v>103.739</v>
+        <v>108.544</v>
       </c>
       <c r="D95" t="s">
         <v>607</v>
@@ -3827,10 +3827,10 @@
         <v>99</v>
       </c>
       <c r="B96" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C96">
-        <v>105.614</v>
+        <v>99.881</v>
       </c>
       <c r="D96" t="s">
         <v>607</v>
@@ -3847,7 +3847,7 @@
         <v>605</v>
       </c>
       <c r="C97">
-        <v>96.989</v>
+        <v>90.488</v>
       </c>
       <c r="D97" t="s">
         <v>607</v>
@@ -3861,10 +3861,10 @@
         <v>101</v>
       </c>
       <c r="B98" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C98">
-        <v>109.58</v>
+        <v>98.574</v>
       </c>
       <c r="D98" t="s">
         <v>607</v>
@@ -3881,7 +3881,7 @@
         <v>606</v>
       </c>
       <c r="C99">
-        <v>105.892</v>
+        <v>101.241</v>
       </c>
       <c r="D99" t="s">
         <v>607</v>
@@ -3898,7 +3898,7 @@
         <v>606</v>
       </c>
       <c r="C100">
-        <v>102.077</v>
+        <v>103.376</v>
       </c>
       <c r="D100" t="s">
         <v>607</v>
@@ -3912,10 +3912,10 @@
         <v>104</v>
       </c>
       <c r="B101" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C101">
-        <v>101.202</v>
+        <v>96.39</v>
       </c>
       <c r="D101" t="s">
         <v>607</v>
@@ -3932,7 +3932,7 @@
         <v>606</v>
       </c>
       <c r="C102">
-        <v>103.338</v>
+        <v>100.044</v>
       </c>
       <c r="D102" t="s">
         <v>607</v>
@@ -3949,7 +3949,7 @@
         <v>606</v>
       </c>
       <c r="C103">
-        <v>104.694</v>
+        <v>104.744</v>
       </c>
       <c r="D103" t="s">
         <v>607</v>
@@ -3966,7 +3966,7 @@
         <v>606</v>
       </c>
       <c r="C104">
-        <v>102.773</v>
+        <v>103.451</v>
       </c>
       <c r="D104" t="s">
         <v>607</v>
@@ -3983,7 +3983,7 @@
         <v>606</v>
       </c>
       <c r="C105">
-        <v>102.742</v>
+        <v>103.731</v>
       </c>
       <c r="D105" t="s">
         <v>607</v>
@@ -4000,7 +4000,7 @@
         <v>606</v>
       </c>
       <c r="C106">
-        <v>102.003</v>
+        <v>102.84</v>
       </c>
       <c r="D106" t="s">
         <v>607</v>
@@ -4017,7 +4017,7 @@
         <v>606</v>
       </c>
       <c r="C107">
-        <v>104.841</v>
+        <v>105.41</v>
       </c>
       <c r="D107" t="s">
         <v>607</v>
@@ -4034,7 +4034,7 @@
         <v>606</v>
       </c>
       <c r="C108">
-        <v>102.724</v>
+        <v>102.053</v>
       </c>
       <c r="D108" t="s">
         <v>607</v>
@@ -4051,7 +4051,7 @@
         <v>606</v>
       </c>
       <c r="C109">
-        <v>102.743</v>
+        <v>101.884</v>
       </c>
       <c r="D109" t="s">
         <v>607</v>
@@ -4068,7 +4068,7 @@
         <v>606</v>
       </c>
       <c r="C110">
-        <v>100.066</v>
+        <v>100.881</v>
       </c>
       <c r="D110" t="s">
         <v>607</v>
@@ -4085,7 +4085,7 @@
         <v>606</v>
       </c>
       <c r="C111">
-        <v>106.189</v>
+        <v>103.673</v>
       </c>
       <c r="D111" t="s">
         <v>607</v>
@@ -4102,7 +4102,7 @@
         <v>606</v>
       </c>
       <c r="C112">
-        <v>101.955</v>
+        <v>101.872</v>
       </c>
       <c r="D112" t="s">
         <v>607</v>
@@ -4119,7 +4119,7 @@
         <v>606</v>
       </c>
       <c r="C113">
-        <v>105.41</v>
+        <v>106.085</v>
       </c>
       <c r="D113" t="s">
         <v>607</v>
@@ -4136,7 +4136,7 @@
         <v>606</v>
       </c>
       <c r="C114">
-        <v>104.305</v>
+        <v>103.562</v>
       </c>
       <c r="D114" t="s">
         <v>607</v>
@@ -4153,7 +4153,7 @@
         <v>606</v>
       </c>
       <c r="C115">
-        <v>104.088</v>
+        <v>101.9</v>
       </c>
       <c r="D115" t="s">
         <v>607</v>
@@ -4170,7 +4170,7 @@
         <v>606</v>
       </c>
       <c r="C116">
-        <v>102.598</v>
+        <v>102.436</v>
       </c>
       <c r="D116" t="s">
         <v>607</v>
@@ -4187,7 +4187,7 @@
         <v>606</v>
       </c>
       <c r="C117">
-        <v>106.371</v>
+        <v>107.839</v>
       </c>
       <c r="D117" t="s">
         <v>607</v>
@@ -4204,7 +4204,7 @@
         <v>606</v>
       </c>
       <c r="C118">
-        <v>104.961</v>
+        <v>104.334</v>
       </c>
       <c r="D118" t="s">
         <v>607</v>
@@ -4221,7 +4221,7 @@
         <v>606</v>
       </c>
       <c r="C119">
-        <v>106.646</v>
+        <v>107.13</v>
       </c>
       <c r="D119" t="s">
         <v>607</v>
@@ -4238,7 +4238,7 @@
         <v>605</v>
       </c>
       <c r="C120">
-        <v>96.72799999999999</v>
+        <v>97.742</v>
       </c>
       <c r="D120" t="s">
         <v>607</v>
@@ -4255,7 +4255,7 @@
         <v>605</v>
       </c>
       <c r="C121">
-        <v>97.90000000000001</v>
+        <v>99.319</v>
       </c>
       <c r="D121" t="s">
         <v>607</v>
@@ -4272,7 +4272,7 @@
         <v>606</v>
       </c>
       <c r="C122">
-        <v>113.516</v>
+        <v>112.755</v>
       </c>
       <c r="D122" t="s">
         <v>607</v>
@@ -4289,7 +4289,7 @@
         <v>605</v>
       </c>
       <c r="C123">
-        <v>99.926</v>
+        <v>99.742</v>
       </c>
       <c r="D123" t="s">
         <v>607</v>
@@ -4306,7 +4306,7 @@
         <v>605</v>
       </c>
       <c r="C124">
-        <v>98.629</v>
+        <v>99.875</v>
       </c>
       <c r="D124" t="s">
         <v>607</v>
@@ -4320,10 +4320,10 @@
         <v>128</v>
       </c>
       <c r="B125" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C125">
-        <v>99.995</v>
+        <v>100.942</v>
       </c>
       <c r="D125" t="s">
         <v>607</v>
@@ -4340,7 +4340,7 @@
         <v>606</v>
       </c>
       <c r="C126">
-        <v>105.072</v>
+        <v>103.113</v>
       </c>
       <c r="D126" t="s">
         <v>607</v>
@@ -4354,10 +4354,10 @@
         <v>130</v>
       </c>
       <c r="B127" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C127">
-        <v>100.302</v>
+        <v>95.93300000000001</v>
       </c>
       <c r="D127" t="s">
         <v>607</v>
@@ -4374,7 +4374,7 @@
         <v>605</v>
       </c>
       <c r="C128">
-        <v>99.248</v>
+        <v>98.13800000000001</v>
       </c>
       <c r="D128" t="s">
         <v>607</v>
@@ -4391,7 +4391,7 @@
         <v>606</v>
       </c>
       <c r="C129">
-        <v>101.357</v>
+        <v>101.345</v>
       </c>
       <c r="D129" t="s">
         <v>607</v>
@@ -4408,7 +4408,7 @@
         <v>606</v>
       </c>
       <c r="C130">
-        <v>103.848</v>
+        <v>102.55</v>
       </c>
       <c r="D130" t="s">
         <v>607</v>
@@ -4425,7 +4425,7 @@
         <v>606</v>
       </c>
       <c r="C131">
-        <v>101.063</v>
+        <v>101.942</v>
       </c>
       <c r="D131" t="s">
         <v>607</v>
@@ -4442,7 +4442,7 @@
         <v>606</v>
       </c>
       <c r="C132">
-        <v>101.448</v>
+        <v>101.744</v>
       </c>
       <c r="D132" t="s">
         <v>607</v>
@@ -4459,7 +4459,7 @@
         <v>606</v>
       </c>
       <c r="C133">
-        <v>103.845</v>
+        <v>104.057</v>
       </c>
       <c r="D133" t="s">
         <v>607</v>
@@ -4476,7 +4476,7 @@
         <v>606</v>
       </c>
       <c r="C134">
-        <v>105.474</v>
+        <v>105.231</v>
       </c>
       <c r="D134" t="s">
         <v>607</v>
@@ -4490,10 +4490,10 @@
         <v>138</v>
       </c>
       <c r="B135" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C135">
-        <v>100.525</v>
+        <v>99.31</v>
       </c>
       <c r="D135" t="s">
         <v>607</v>
@@ -4510,7 +4510,7 @@
         <v>606</v>
       </c>
       <c r="C136">
-        <v>103.097</v>
+        <v>104.005</v>
       </c>
       <c r="D136" t="s">
         <v>607</v>
@@ -4527,7 +4527,7 @@
         <v>606</v>
       </c>
       <c r="C137">
-        <v>102.478</v>
+        <v>102.462</v>
       </c>
       <c r="D137" t="s">
         <v>607</v>
@@ -4541,10 +4541,10 @@
         <v>141</v>
       </c>
       <c r="B138" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C138">
-        <v>100.332</v>
+        <v>99.407</v>
       </c>
       <c r="D138" t="s">
         <v>607</v>
@@ -4561,7 +4561,7 @@
         <v>606</v>
       </c>
       <c r="C139">
-        <v>102.101</v>
+        <v>102.674</v>
       </c>
       <c r="D139" t="s">
         <v>607</v>
@@ -4575,10 +4575,10 @@
         <v>143</v>
       </c>
       <c r="B140" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C140">
-        <v>100.574</v>
+        <v>99.61799999999999</v>
       </c>
       <c r="D140" t="s">
         <v>607</v>
@@ -4595,7 +4595,7 @@
         <v>606</v>
       </c>
       <c r="C141">
-        <v>103.141</v>
+        <v>104.152</v>
       </c>
       <c r="D141" t="s">
         <v>607</v>
@@ -4612,7 +4612,7 @@
         <v>606</v>
       </c>
       <c r="C142">
-        <v>102.833</v>
+        <v>103.089</v>
       </c>
       <c r="D142" t="s">
         <v>607</v>
@@ -4629,7 +4629,7 @@
         <v>606</v>
       </c>
       <c r="C143">
-        <v>102.215</v>
+        <v>104.044</v>
       </c>
       <c r="D143" t="s">
         <v>607</v>
@@ -4646,7 +4646,7 @@
         <v>606</v>
       </c>
       <c r="C144">
-        <v>100.832</v>
+        <v>103.417</v>
       </c>
       <c r="D144" t="s">
         <v>607</v>
@@ -4663,7 +4663,7 @@
         <v>605</v>
       </c>
       <c r="C145">
-        <v>94.946</v>
+        <v>94.81</v>
       </c>
       <c r="D145" t="s">
         <v>607</v>
@@ -4680,7 +4680,7 @@
         <v>606</v>
       </c>
       <c r="C146">
-        <v>103.634</v>
+        <v>103.381</v>
       </c>
       <c r="D146" t="s">
         <v>607</v>
@@ -4697,7 +4697,7 @@
         <v>606</v>
       </c>
       <c r="C147">
-        <v>104.058</v>
+        <v>100.681</v>
       </c>
       <c r="D147" t="s">
         <v>607</v>
@@ -4714,7 +4714,7 @@
         <v>606</v>
       </c>
       <c r="C148">
-        <v>103.446</v>
+        <v>104.228</v>
       </c>
       <c r="D148" t="s">
         <v>607</v>
@@ -4728,10 +4728,10 @@
         <v>152</v>
       </c>
       <c r="B149" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C149">
-        <v>100.287</v>
+        <v>98.40300000000001</v>
       </c>
       <c r="D149" t="s">
         <v>607</v>
@@ -4745,10 +4745,10 @@
         <v>153</v>
       </c>
       <c r="B150" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C150">
-        <v>96.68300000000001</v>
+        <v>102.796</v>
       </c>
       <c r="D150" t="s">
         <v>607</v>
@@ -4765,7 +4765,7 @@
         <v>606</v>
       </c>
       <c r="C151">
-        <v>103.508</v>
+        <v>104.157</v>
       </c>
       <c r="D151" t="s">
         <v>607</v>
@@ -4782,7 +4782,7 @@
         <v>606</v>
       </c>
       <c r="C152">
-        <v>104.344</v>
+        <v>102.171</v>
       </c>
       <c r="D152" t="s">
         <v>607</v>
@@ -4799,7 +4799,7 @@
         <v>606</v>
       </c>
       <c r="C153">
-        <v>104.273</v>
+        <v>104.114</v>
       </c>
       <c r="D153" t="s">
         <v>607</v>
@@ -4816,7 +4816,7 @@
         <v>606</v>
       </c>
       <c r="C154">
-        <v>102.633</v>
+        <v>102.201</v>
       </c>
       <c r="D154" t="s">
         <v>607</v>
@@ -4833,7 +4833,7 @@
         <v>606</v>
       </c>
       <c r="C155">
-        <v>107.908</v>
+        <v>108.616</v>
       </c>
       <c r="D155" t="s">
         <v>607</v>
@@ -4850,7 +4850,7 @@
         <v>606</v>
       </c>
       <c r="C156">
-        <v>104.548</v>
+        <v>102.049</v>
       </c>
       <c r="D156" t="s">
         <v>607</v>
@@ -4867,7 +4867,7 @@
         <v>606</v>
       </c>
       <c r="C157">
-        <v>102.493</v>
+        <v>101.577</v>
       </c>
       <c r="D157" t="s">
         <v>607</v>
@@ -4881,10 +4881,10 @@
         <v>161</v>
       </c>
       <c r="B158" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C158">
-        <v>100.832</v>
+        <v>98.726</v>
       </c>
       <c r="D158" t="s">
         <v>607</v>
@@ -4901,7 +4901,7 @@
         <v>605</v>
       </c>
       <c r="C159">
-        <v>98.83</v>
+        <v>98.52500000000001</v>
       </c>
       <c r="D159" t="s">
         <v>607</v>
@@ -4918,7 +4918,7 @@
         <v>606</v>
       </c>
       <c r="C160">
-        <v>105.115</v>
+        <v>102.63</v>
       </c>
       <c r="D160" t="s">
         <v>607</v>
@@ -4935,7 +4935,7 @@
         <v>606</v>
       </c>
       <c r="C161">
-        <v>104.812</v>
+        <v>107.092</v>
       </c>
       <c r="D161" t="s">
         <v>607</v>
@@ -4952,7 +4952,7 @@
         <v>606</v>
       </c>
       <c r="C162">
-        <v>101.342</v>
+        <v>101.46</v>
       </c>
       <c r="D162" t="s">
         <v>607</v>
@@ -4969,7 +4969,7 @@
         <v>605</v>
       </c>
       <c r="C163">
-        <v>99.236</v>
+        <v>99.343</v>
       </c>
       <c r="D163" t="s">
         <v>607</v>
@@ -4986,7 +4986,7 @@
         <v>606</v>
       </c>
       <c r="C164">
-        <v>101.324</v>
+        <v>100.859</v>
       </c>
       <c r="D164" t="s">
         <v>607</v>
@@ -5003,7 +5003,7 @@
         <v>606</v>
       </c>
       <c r="C165">
-        <v>101.558</v>
+        <v>102.847</v>
       </c>
       <c r="D165" t="s">
         <v>607</v>
@@ -5020,7 +5020,7 @@
         <v>606</v>
       </c>
       <c r="C166">
-        <v>103.134</v>
+        <v>103.365</v>
       </c>
       <c r="D166" t="s">
         <v>607</v>
@@ -5037,7 +5037,7 @@
         <v>606</v>
       </c>
       <c r="C167">
-        <v>105.589</v>
+        <v>105.996</v>
       </c>
       <c r="D167" t="s">
         <v>607</v>
@@ -5054,7 +5054,7 @@
         <v>606</v>
       </c>
       <c r="C168">
-        <v>102.107</v>
+        <v>102.818</v>
       </c>
       <c r="D168" t="s">
         <v>607</v>
@@ -5071,7 +5071,7 @@
         <v>606</v>
       </c>
       <c r="C169">
-        <v>101.431</v>
+        <v>100.226</v>
       </c>
       <c r="D169" t="s">
         <v>607</v>
@@ -5088,7 +5088,7 @@
         <v>606</v>
       </c>
       <c r="C170">
-        <v>100.707</v>
+        <v>102.979</v>
       </c>
       <c r="D170" t="s">
         <v>607</v>
@@ -5105,7 +5105,7 @@
         <v>606</v>
       </c>
       <c r="C171">
-        <v>102.641</v>
+        <v>101.595</v>
       </c>
       <c r="D171" t="s">
         <v>607</v>
@@ -5122,7 +5122,7 @@
         <v>606</v>
       </c>
       <c r="C172">
-        <v>103.211</v>
+        <v>103.703</v>
       </c>
       <c r="D172" t="s">
         <v>607</v>
@@ -5139,7 +5139,7 @@
         <v>606</v>
       </c>
       <c r="C173">
-        <v>103.489</v>
+        <v>104.067</v>
       </c>
       <c r="D173" t="s">
         <v>607</v>
@@ -5156,7 +5156,7 @@
         <v>606</v>
       </c>
       <c r="C174">
-        <v>102.39</v>
+        <v>103.184</v>
       </c>
       <c r="D174" t="s">
         <v>607</v>
@@ -5173,7 +5173,7 @@
         <v>606</v>
       </c>
       <c r="C175">
-        <v>104.408</v>
+        <v>101.778</v>
       </c>
       <c r="D175" t="s">
         <v>607</v>
@@ -5190,7 +5190,7 @@
         <v>606</v>
       </c>
       <c r="C176">
-        <v>103.436</v>
+        <v>104.42</v>
       </c>
       <c r="D176" t="s">
         <v>607</v>
@@ -5207,7 +5207,7 @@
         <v>606</v>
       </c>
       <c r="C177">
-        <v>101.804</v>
+        <v>101.967</v>
       </c>
       <c r="D177" t="s">
         <v>607</v>
@@ -5224,7 +5224,7 @@
         <v>606</v>
       </c>
       <c r="C178">
-        <v>103.021</v>
+        <v>104.485</v>
       </c>
       <c r="D178" t="s">
         <v>607</v>
@@ -5241,7 +5241,7 @@
         <v>605</v>
       </c>
       <c r="C179">
-        <v>98.571</v>
+        <v>96.928</v>
       </c>
       <c r="D179" t="s">
         <v>607</v>
@@ -5258,7 +5258,7 @@
         <v>606</v>
       </c>
       <c r="C180">
-        <v>101.877</v>
+        <v>103.651</v>
       </c>
       <c r="D180" t="s">
         <v>607</v>
@@ -5275,7 +5275,7 @@
         <v>606</v>
       </c>
       <c r="C181">
-        <v>107.026</v>
+        <v>107.096</v>
       </c>
       <c r="D181" t="s">
         <v>607</v>
@@ -5289,10 +5289,10 @@
         <v>185</v>
       </c>
       <c r="B182" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C182">
-        <v>101.277</v>
+        <v>98.399</v>
       </c>
       <c r="D182" t="s">
         <v>607</v>
@@ -5309,7 +5309,7 @@
         <v>605</v>
       </c>
       <c r="C183">
-        <v>99.05</v>
+        <v>98.961</v>
       </c>
       <c r="D183" t="s">
         <v>607</v>
@@ -5326,7 +5326,7 @@
         <v>606</v>
       </c>
       <c r="C184">
-        <v>102.17</v>
+        <v>100.321</v>
       </c>
       <c r="D184" t="s">
         <v>607</v>
@@ -5343,7 +5343,7 @@
         <v>606</v>
       </c>
       <c r="C185">
-        <v>101.912</v>
+        <v>101.936</v>
       </c>
       <c r="D185" t="s">
         <v>607</v>
@@ -5360,7 +5360,7 @@
         <v>606</v>
       </c>
       <c r="C186">
-        <v>103.341</v>
+        <v>102.823</v>
       </c>
       <c r="D186" t="s">
         <v>607</v>
@@ -5374,10 +5374,10 @@
         <v>190</v>
       </c>
       <c r="B187" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C187">
-        <v>100.771</v>
+        <v>98.526</v>
       </c>
       <c r="D187" t="s">
         <v>607</v>
@@ -5391,10 +5391,10 @@
         <v>191</v>
       </c>
       <c r="B188" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C188">
-        <v>100.93</v>
+        <v>97.26600000000001</v>
       </c>
       <c r="D188" t="s">
         <v>607</v>
@@ -5411,7 +5411,7 @@
         <v>606</v>
       </c>
       <c r="C189">
-        <v>104.53</v>
+        <v>104.073</v>
       </c>
       <c r="D189" t="s">
         <v>607</v>
@@ -5428,7 +5428,7 @@
         <v>606</v>
       </c>
       <c r="C190">
-        <v>103.764</v>
+        <v>100.565</v>
       </c>
       <c r="D190" t="s">
         <v>607</v>
@@ -5445,7 +5445,7 @@
         <v>606</v>
       </c>
       <c r="C191">
-        <v>104.809</v>
+        <v>102.168</v>
       </c>
       <c r="D191" t="s">
         <v>607</v>
@@ -5462,7 +5462,7 @@
         <v>606</v>
       </c>
       <c r="C192">
-        <v>102.328</v>
+        <v>103.713</v>
       </c>
       <c r="D192" t="s">
         <v>607</v>
@@ -5479,7 +5479,7 @@
         <v>606</v>
       </c>
       <c r="C193">
-        <v>102.989</v>
+        <v>104.198</v>
       </c>
       <c r="D193" t="s">
         <v>607</v>
@@ -5496,7 +5496,7 @@
         <v>606</v>
       </c>
       <c r="C194">
-        <v>102.597</v>
+        <v>102.171</v>
       </c>
       <c r="D194" t="s">
         <v>607</v>
@@ -5513,7 +5513,7 @@
         <v>606</v>
       </c>
       <c r="C195">
-        <v>102.471</v>
+        <v>102.845</v>
       </c>
       <c r="D195" t="s">
         <v>607</v>
@@ -5527,10 +5527,10 @@
         <v>199</v>
       </c>
       <c r="B196" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C196">
-        <v>101.194</v>
+        <v>99.36</v>
       </c>
       <c r="D196" t="s">
         <v>607</v>
@@ -5544,10 +5544,10 @@
         <v>200</v>
       </c>
       <c r="B197" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C197">
-        <v>99.107</v>
+        <v>102.618</v>
       </c>
       <c r="D197" t="s">
         <v>607</v>
@@ -5564,7 +5564,7 @@
         <v>606</v>
       </c>
       <c r="C198">
-        <v>101.93</v>
+        <v>100.511</v>
       </c>
       <c r="D198" t="s">
         <v>607</v>
@@ -5581,7 +5581,7 @@
         <v>606</v>
       </c>
       <c r="C199">
-        <v>100.149</v>
+        <v>103.706</v>
       </c>
       <c r="D199" t="s">
         <v>607</v>
@@ -5598,7 +5598,7 @@
         <v>606</v>
       </c>
       <c r="C200">
-        <v>105.626</v>
+        <v>102.489</v>
       </c>
       <c r="D200" t="s">
         <v>607</v>
@@ -5615,7 +5615,7 @@
         <v>606</v>
       </c>
       <c r="C201">
-        <v>107.529</v>
+        <v>110.442</v>
       </c>
       <c r="D201" t="s">
         <v>607</v>
@@ -5632,7 +5632,7 @@
         <v>606</v>
       </c>
       <c r="C202">
-        <v>102.112</v>
+        <v>104.713</v>
       </c>
       <c r="D202" t="s">
         <v>607</v>
@@ -5649,7 +5649,7 @@
         <v>606</v>
       </c>
       <c r="C203">
-        <v>104.437</v>
+        <v>105.89</v>
       </c>
       <c r="D203" t="s">
         <v>607</v>
@@ -5663,10 +5663,10 @@
         <v>207</v>
       </c>
       <c r="B204" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C204">
-        <v>101.149</v>
+        <v>99.56399999999999</v>
       </c>
       <c r="D204" t="s">
         <v>607</v>
@@ -5680,10 +5680,10 @@
         <v>208</v>
       </c>
       <c r="B205" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C205">
-        <v>100.143</v>
+        <v>98.306</v>
       </c>
       <c r="D205" t="s">
         <v>607</v>
@@ -5700,7 +5700,7 @@
         <v>606</v>
       </c>
       <c r="C206">
-        <v>102.12</v>
+        <v>101.742</v>
       </c>
       <c r="D206" t="s">
         <v>607</v>
@@ -5717,7 +5717,7 @@
         <v>606</v>
       </c>
       <c r="C207">
-        <v>101.093</v>
+        <v>101.858</v>
       </c>
       <c r="D207" t="s">
         <v>607</v>
@@ -5734,7 +5734,7 @@
         <v>605</v>
       </c>
       <c r="C208">
-        <v>93.727</v>
+        <v>92.995</v>
       </c>
       <c r="D208" t="s">
         <v>607</v>
@@ -5751,7 +5751,7 @@
         <v>606</v>
       </c>
       <c r="C209">
-        <v>106.801</v>
+        <v>106.919</v>
       </c>
       <c r="D209" t="s">
         <v>607</v>
@@ -5768,7 +5768,7 @@
         <v>606</v>
       </c>
       <c r="C210">
-        <v>102.293</v>
+        <v>102.078</v>
       </c>
       <c r="D210" t="s">
         <v>607</v>
@@ -5785,7 +5785,7 @@
         <v>606</v>
       </c>
       <c r="C211">
-        <v>105.316</v>
+        <v>104.9</v>
       </c>
       <c r="D211" t="s">
         <v>607</v>
@@ -5799,10 +5799,10 @@
         <v>215</v>
       </c>
       <c r="B212" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C212">
-        <v>101.731</v>
+        <v>98.702</v>
       </c>
       <c r="D212" t="s">
         <v>607</v>
@@ -5816,10 +5816,10 @@
         <v>216</v>
       </c>
       <c r="B213" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C213">
-        <v>101.11</v>
+        <v>99.932</v>
       </c>
       <c r="D213" t="s">
         <v>607</v>
@@ -5836,7 +5836,7 @@
         <v>606</v>
       </c>
       <c r="C214">
-        <v>101.821</v>
+        <v>106.687</v>
       </c>
       <c r="D214" t="s">
         <v>607</v>
@@ -5853,7 +5853,7 @@
         <v>606</v>
       </c>
       <c r="C215">
-        <v>102.852</v>
+        <v>100.33</v>
       </c>
       <c r="D215" t="s">
         <v>607</v>
@@ -5867,10 +5867,10 @@
         <v>219</v>
       </c>
       <c r="B216" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C216">
-        <v>100.278</v>
+        <v>99.95399999999999</v>
       </c>
       <c r="D216" t="s">
         <v>607</v>
@@ -5887,7 +5887,7 @@
         <v>606</v>
       </c>
       <c r="C217">
-        <v>102.288</v>
+        <v>100.21</v>
       </c>
       <c r="D217" t="s">
         <v>607</v>
@@ -5904,7 +5904,7 @@
         <v>606</v>
       </c>
       <c r="C218">
-        <v>101.746</v>
+        <v>101.754</v>
       </c>
       <c r="D218" t="s">
         <v>607</v>
@@ -5918,10 +5918,10 @@
         <v>222</v>
       </c>
       <c r="B219" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C219">
-        <v>96.589</v>
+        <v>100.352</v>
       </c>
       <c r="D219" t="s">
         <v>607</v>
@@ -5938,7 +5938,7 @@
         <v>606</v>
       </c>
       <c r="C220">
-        <v>101.881</v>
+        <v>102.39</v>
       </c>
       <c r="D220" t="s">
         <v>607</v>
@@ -5955,7 +5955,7 @@
         <v>606</v>
       </c>
       <c r="C221">
-        <v>107.232</v>
+        <v>106.147</v>
       </c>
       <c r="D221" t="s">
         <v>607</v>
@@ -5972,7 +5972,7 @@
         <v>605</v>
       </c>
       <c r="C222">
-        <v>97.849</v>
+        <v>99.146</v>
       </c>
       <c r="D222" t="s">
         <v>607</v>
@@ -5989,7 +5989,7 @@
         <v>606</v>
       </c>
       <c r="C223">
-        <v>104.394</v>
+        <v>101.161</v>
       </c>
       <c r="D223" t="s">
         <v>607</v>
@@ -6006,7 +6006,7 @@
         <v>606</v>
       </c>
       <c r="C224">
-        <v>106.606</v>
+        <v>107.611</v>
       </c>
       <c r="D224" t="s">
         <v>607</v>
@@ -6020,10 +6020,10 @@
         <v>228</v>
       </c>
       <c r="B225" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C225">
-        <v>101.62</v>
+        <v>99.512</v>
       </c>
       <c r="D225" t="s">
         <v>607</v>
@@ -6040,7 +6040,7 @@
         <v>606</v>
       </c>
       <c r="C226">
-        <v>115.766</v>
+        <v>102.809</v>
       </c>
       <c r="D226" t="s">
         <v>607</v>
@@ -6057,7 +6057,7 @@
         <v>606</v>
       </c>
       <c r="C227">
-        <v>102.368</v>
+        <v>103.094</v>
       </c>
       <c r="D227" t="s">
         <v>607</v>
@@ -6074,7 +6074,7 @@
         <v>606</v>
       </c>
       <c r="C228">
-        <v>107.801</v>
+        <v>104.275</v>
       </c>
       <c r="D228" t="s">
         <v>607</v>
@@ -6091,7 +6091,7 @@
         <v>606</v>
       </c>
       <c r="C229">
-        <v>101.137</v>
+        <v>101.576</v>
       </c>
       <c r="D229" t="s">
         <v>607</v>
@@ -6108,7 +6108,7 @@
         <v>606</v>
       </c>
       <c r="C230">
-        <v>104.652</v>
+        <v>105.166</v>
       </c>
       <c r="D230" t="s">
         <v>607</v>
@@ -6125,7 +6125,7 @@
         <v>606</v>
       </c>
       <c r="C231">
-        <v>101.984</v>
+        <v>102.114</v>
       </c>
       <c r="D231" t="s">
         <v>607</v>
@@ -6142,7 +6142,7 @@
         <v>606</v>
       </c>
       <c r="C232">
-        <v>101.315</v>
+        <v>101.871</v>
       </c>
       <c r="D232" t="s">
         <v>607</v>
@@ -6159,7 +6159,7 @@
         <v>606</v>
       </c>
       <c r="C233">
-        <v>101.26</v>
+        <v>101.432</v>
       </c>
       <c r="D233" t="s">
         <v>607</v>
@@ -6176,7 +6176,7 @@
         <v>606</v>
       </c>
       <c r="C234">
-        <v>101.842</v>
+        <v>101.468</v>
       </c>
       <c r="D234" t="s">
         <v>607</v>
@@ -6193,7 +6193,7 @@
         <v>606</v>
       </c>
       <c r="C235">
-        <v>104.278</v>
+        <v>104.926</v>
       </c>
       <c r="D235" t="s">
         <v>607</v>
@@ -6210,7 +6210,7 @@
         <v>606</v>
       </c>
       <c r="C236">
-        <v>102.376</v>
+        <v>101.513</v>
       </c>
       <c r="D236" t="s">
         <v>607</v>
@@ -6227,7 +6227,7 @@
         <v>606</v>
       </c>
       <c r="C237">
-        <v>100.151</v>
+        <v>101.019</v>
       </c>
       <c r="D237" t="s">
         <v>607</v>
@@ -6244,7 +6244,7 @@
         <v>606</v>
       </c>
       <c r="C238">
-        <v>105.749</v>
+        <v>103.062</v>
       </c>
       <c r="D238" t="s">
         <v>607</v>
@@ -6261,7 +6261,7 @@
         <v>606</v>
       </c>
       <c r="C239">
-        <v>103.685</v>
+        <v>104.503</v>
       </c>
       <c r="D239" t="s">
         <v>607</v>
@@ -6278,7 +6278,7 @@
         <v>606</v>
       </c>
       <c r="C240">
-        <v>105.378</v>
+        <v>103.344</v>
       </c>
       <c r="D240" t="s">
         <v>607</v>
@@ -6295,7 +6295,7 @@
         <v>606</v>
       </c>
       <c r="C241">
-        <v>103.153</v>
+        <v>103.208</v>
       </c>
       <c r="D241" t="s">
         <v>607</v>
@@ -6312,7 +6312,7 @@
         <v>606</v>
       </c>
       <c r="C242">
-        <v>102.721</v>
+        <v>103.519</v>
       </c>
       <c r="D242" t="s">
         <v>607</v>
@@ -6326,10 +6326,10 @@
         <v>246</v>
       </c>
       <c r="B243" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C243">
-        <v>98.13</v>
+        <v>100.262</v>
       </c>
       <c r="D243" t="s">
         <v>607</v>
@@ -6343,10 +6343,10 @@
         <v>247</v>
       </c>
       <c r="B244" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C244">
-        <v>102.004</v>
+        <v>99.955</v>
       </c>
       <c r="D244" t="s">
         <v>607</v>
@@ -6363,7 +6363,7 @@
         <v>606</v>
       </c>
       <c r="C245">
-        <v>109.112</v>
+        <v>106.753</v>
       </c>
       <c r="D245" t="s">
         <v>607</v>
@@ -6380,7 +6380,7 @@
         <v>606</v>
       </c>
       <c r="C246">
-        <v>105.061</v>
+        <v>103.425</v>
       </c>
       <c r="D246" t="s">
         <v>607</v>
@@ -6397,7 +6397,7 @@
         <v>606</v>
       </c>
       <c r="C247">
-        <v>103.018</v>
+        <v>103.5</v>
       </c>
       <c r="D247" t="s">
         <v>607</v>
@@ -6414,7 +6414,7 @@
         <v>606</v>
       </c>
       <c r="C248">
-        <v>106.76</v>
+        <v>104.916</v>
       </c>
       <c r="D248" t="s">
         <v>607</v>
@@ -6431,7 +6431,7 @@
         <v>606</v>
       </c>
       <c r="C249">
-        <v>102.278</v>
+        <v>100.271</v>
       </c>
       <c r="D249" t="s">
         <v>607</v>
@@ -6448,7 +6448,7 @@
         <v>606</v>
       </c>
       <c r="C250">
-        <v>101.765</v>
+        <v>101.965</v>
       </c>
       <c r="D250" t="s">
         <v>607</v>
@@ -6465,7 +6465,7 @@
         <v>606</v>
       </c>
       <c r="C251">
-        <v>104.88</v>
+        <v>104.034</v>
       </c>
       <c r="D251" t="s">
         <v>607</v>
@@ -6482,7 +6482,7 @@
         <v>606</v>
       </c>
       <c r="C252">
-        <v>104.939</v>
+        <v>103.797</v>
       </c>
       <c r="D252" t="s">
         <v>607</v>
@@ -6499,7 +6499,7 @@
         <v>606</v>
       </c>
       <c r="C253">
-        <v>102.797</v>
+        <v>100.851</v>
       </c>
       <c r="D253" t="s">
         <v>607</v>
@@ -6516,7 +6516,7 @@
         <v>606</v>
       </c>
       <c r="C254">
-        <v>100.938</v>
+        <v>102.315</v>
       </c>
       <c r="D254" t="s">
         <v>607</v>
@@ -6530,10 +6530,10 @@
         <v>258</v>
       </c>
       <c r="B255" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C255">
-        <v>100.185</v>
+        <v>99.78100000000001</v>
       </c>
       <c r="D255" t="s">
         <v>607</v>
@@ -6550,7 +6550,7 @@
         <v>606</v>
       </c>
       <c r="C256">
-        <v>102.29</v>
+        <v>102.193</v>
       </c>
       <c r="D256" t="s">
         <v>607</v>
@@ -6567,7 +6567,7 @@
         <v>606</v>
       </c>
       <c r="C257">
-        <v>103.535</v>
+        <v>106.568</v>
       </c>
       <c r="D257" t="s">
         <v>607</v>
@@ -6584,7 +6584,7 @@
         <v>605</v>
       </c>
       <c r="C258">
-        <v>97.34699999999999</v>
+        <v>93.58199999999999</v>
       </c>
       <c r="D258" t="s">
         <v>607</v>
@@ -6601,7 +6601,7 @@
         <v>606</v>
       </c>
       <c r="C259">
-        <v>101.266</v>
+        <v>101.233</v>
       </c>
       <c r="D259" t="s">
         <v>607</v>
@@ -6618,7 +6618,7 @@
         <v>606</v>
       </c>
       <c r="C260">
-        <v>103.105</v>
+        <v>104.018</v>
       </c>
       <c r="D260" t="s">
         <v>607</v>
@@ -6632,10 +6632,10 @@
         <v>264</v>
       </c>
       <c r="B261" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C261">
-        <v>101.761</v>
+        <v>99.062</v>
       </c>
       <c r="D261" t="s">
         <v>607</v>
@@ -6652,7 +6652,7 @@
         <v>606</v>
       </c>
       <c r="C262">
-        <v>105.33</v>
+        <v>104.938</v>
       </c>
       <c r="D262" t="s">
         <v>607</v>
@@ -6669,7 +6669,7 @@
         <v>606</v>
       </c>
       <c r="C263">
-        <v>115.563</v>
+        <v>112.223</v>
       </c>
       <c r="D263" t="s">
         <v>607</v>
@@ -6686,7 +6686,7 @@
         <v>606</v>
       </c>
       <c r="C264">
-        <v>110.269</v>
+        <v>108.793</v>
       </c>
       <c r="D264" t="s">
         <v>607</v>
@@ -6703,7 +6703,7 @@
         <v>606</v>
       </c>
       <c r="C265">
-        <v>103.331</v>
+        <v>102.267</v>
       </c>
       <c r="D265" t="s">
         <v>607</v>
@@ -6720,7 +6720,7 @@
         <v>606</v>
       </c>
       <c r="C266">
-        <v>106.245</v>
+        <v>104.681</v>
       </c>
       <c r="D266" t="s">
         <v>607</v>
@@ -6737,7 +6737,7 @@
         <v>606</v>
       </c>
       <c r="C267">
-        <v>105.346</v>
+        <v>105.234</v>
       </c>
       <c r="D267" t="s">
         <v>607</v>
@@ -6751,10 +6751,10 @@
         <v>271</v>
       </c>
       <c r="B268" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C268">
-        <v>100.403</v>
+        <v>98.515</v>
       </c>
       <c r="D268" t="s">
         <v>607</v>
@@ -6771,7 +6771,7 @@
         <v>606</v>
       </c>
       <c r="C269">
-        <v>107.687</v>
+        <v>106.779</v>
       </c>
       <c r="D269" t="s">
         <v>607</v>
@@ -6788,7 +6788,7 @@
         <v>606</v>
       </c>
       <c r="C270">
-        <v>109.418</v>
+        <v>108.538</v>
       </c>
       <c r="D270" t="s">
         <v>607</v>
@@ -6805,7 +6805,7 @@
         <v>605</v>
       </c>
       <c r="C271">
-        <v>96.515</v>
+        <v>97.36499999999999</v>
       </c>
       <c r="D271" t="s">
         <v>607</v>
@@ -6819,10 +6819,10 @@
         <v>275</v>
       </c>
       <c r="B272" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C272">
-        <v>102.08</v>
+        <v>95.355</v>
       </c>
       <c r="D272" t="s">
         <v>607</v>
@@ -6839,7 +6839,7 @@
         <v>606</v>
       </c>
       <c r="C273">
-        <v>104.686</v>
+        <v>107.832</v>
       </c>
       <c r="D273" t="s">
         <v>607</v>
@@ -6856,7 +6856,7 @@
         <v>606</v>
       </c>
       <c r="C274">
-        <v>100.824</v>
+        <v>100.718</v>
       </c>
       <c r="D274" t="s">
         <v>607</v>
@@ -6873,7 +6873,7 @@
         <v>605</v>
       </c>
       <c r="C275">
-        <v>95.265</v>
+        <v>98.13</v>
       </c>
       <c r="D275" t="s">
         <v>607</v>
@@ -6890,7 +6890,7 @@
         <v>606</v>
       </c>
       <c r="C276">
-        <v>105.424</v>
+        <v>102.865</v>
       </c>
       <c r="D276" t="s">
         <v>607</v>
@@ -6907,7 +6907,7 @@
         <v>606</v>
       </c>
       <c r="C277">
-        <v>113.193</v>
+        <v>112.959</v>
       </c>
       <c r="D277" t="s">
         <v>607</v>
@@ -6924,7 +6924,7 @@
         <v>606</v>
       </c>
       <c r="C278">
-        <v>104.44</v>
+        <v>104.336</v>
       </c>
       <c r="D278" t="s">
         <v>607</v>
@@ -6941,7 +6941,7 @@
         <v>605</v>
       </c>
       <c r="C279">
-        <v>99.863</v>
+        <v>99.264</v>
       </c>
       <c r="D279" t="s">
         <v>607</v>
@@ -6958,7 +6958,7 @@
         <v>606</v>
       </c>
       <c r="C280">
-        <v>106.166</v>
+        <v>104.96</v>
       </c>
       <c r="D280" t="s">
         <v>607</v>
@@ -6975,7 +6975,7 @@
         <v>606</v>
       </c>
       <c r="C281">
-        <v>102.594</v>
+        <v>100.49</v>
       </c>
       <c r="D281" t="s">
         <v>607</v>
@@ -6992,7 +6992,7 @@
         <v>606</v>
       </c>
       <c r="C282">
-        <v>101.167</v>
+        <v>100.007</v>
       </c>
       <c r="D282" t="s">
         <v>607</v>
@@ -7009,7 +7009,7 @@
         <v>605</v>
       </c>
       <c r="C283">
-        <v>98.021</v>
+        <v>97.867</v>
       </c>
       <c r="D283" t="s">
         <v>607</v>
@@ -7026,7 +7026,7 @@
         <v>606</v>
       </c>
       <c r="C284">
-        <v>103.031</v>
+        <v>101.184</v>
       </c>
       <c r="D284" t="s">
         <v>607</v>
@@ -7043,7 +7043,7 @@
         <v>605</v>
       </c>
       <c r="C285">
-        <v>90.45099999999999</v>
+        <v>87.535</v>
       </c>
       <c r="D285" t="s">
         <v>607</v>
@@ -7060,7 +7060,7 @@
         <v>606</v>
       </c>
       <c r="C286">
-        <v>101.278</v>
+        <v>101.824</v>
       </c>
       <c r="D286" t="s">
         <v>607</v>
@@ -7077,7 +7077,7 @@
         <v>605</v>
       </c>
       <c r="C287">
-        <v>96.33199999999999</v>
+        <v>94.708</v>
       </c>
       <c r="D287" t="s">
         <v>607</v>
@@ -7094,7 +7094,7 @@
         <v>606</v>
       </c>
       <c r="C288">
-        <v>102.923</v>
+        <v>101.88</v>
       </c>
       <c r="D288" t="s">
         <v>607</v>
@@ -7111,7 +7111,7 @@
         <v>606</v>
       </c>
       <c r="C289">
-        <v>104.241</v>
+        <v>103.242</v>
       </c>
       <c r="D289" t="s">
         <v>607</v>
@@ -7128,7 +7128,7 @@
         <v>606</v>
       </c>
       <c r="C290">
-        <v>105.263</v>
+        <v>106.185</v>
       </c>
       <c r="D290" t="s">
         <v>607</v>
@@ -7145,7 +7145,7 @@
         <v>606</v>
       </c>
       <c r="C291">
-        <v>105.002</v>
+        <v>104.538</v>
       </c>
       <c r="D291" t="s">
         <v>607</v>
@@ -7159,10 +7159,10 @@
         <v>295</v>
       </c>
       <c r="B292" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C292">
-        <v>102.344</v>
+        <v>96.34999999999999</v>
       </c>
       <c r="D292" t="s">
         <v>607</v>
@@ -7179,7 +7179,7 @@
         <v>606</v>
       </c>
       <c r="C293">
-        <v>104.547</v>
+        <v>105.282</v>
       </c>
       <c r="D293" t="s">
         <v>607</v>
@@ -7196,7 +7196,7 @@
         <v>606</v>
       </c>
       <c r="C294">
-        <v>102.658</v>
+        <v>102.615</v>
       </c>
       <c r="D294" t="s">
         <v>607</v>
@@ -7213,7 +7213,7 @@
         <v>606</v>
       </c>
       <c r="C295">
-        <v>103.61</v>
+        <v>104.385</v>
       </c>
       <c r="D295" t="s">
         <v>607</v>
@@ -7230,7 +7230,7 @@
         <v>606</v>
       </c>
       <c r="C296">
-        <v>105.567</v>
+        <v>107.266</v>
       </c>
       <c r="D296" t="s">
         <v>607</v>
@@ -7247,7 +7247,7 @@
         <v>606</v>
       </c>
       <c r="C297">
-        <v>101.778</v>
+        <v>103.216</v>
       </c>
       <c r="D297" t="s">
         <v>607</v>
@@ -7264,7 +7264,7 @@
         <v>605</v>
       </c>
       <c r="C298">
-        <v>99.73399999999999</v>
+        <v>99.532</v>
       </c>
       <c r="D298" t="s">
         <v>607</v>
@@ -7278,10 +7278,10 @@
         <v>302</v>
       </c>
       <c r="B299" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C299">
-        <v>99.54300000000001</v>
+        <v>103.633</v>
       </c>
       <c r="D299" t="s">
         <v>607</v>
@@ -7298,7 +7298,7 @@
         <v>606</v>
       </c>
       <c r="C300">
-        <v>103.115</v>
+        <v>102.535</v>
       </c>
       <c r="D300" t="s">
         <v>607</v>
@@ -7315,7 +7315,7 @@
         <v>606</v>
       </c>
       <c r="C301">
-        <v>102.338</v>
+        <v>102.63</v>
       </c>
       <c r="D301" t="s">
         <v>607</v>
@@ -7332,7 +7332,7 @@
         <v>606</v>
       </c>
       <c r="C302">
-        <v>103.868</v>
+        <v>101.273</v>
       </c>
       <c r="D302" t="s">
         <v>607</v>
@@ -7349,7 +7349,7 @@
         <v>606</v>
       </c>
       <c r="C303">
-        <v>105.194</v>
+        <v>105.632</v>
       </c>
       <c r="D303" t="s">
         <v>607</v>
@@ -7366,7 +7366,7 @@
         <v>606</v>
       </c>
       <c r="C304">
-        <v>104.099</v>
+        <v>101.447</v>
       </c>
       <c r="D304" t="s">
         <v>607</v>
@@ -7383,7 +7383,7 @@
         <v>606</v>
       </c>
       <c r="C305">
-        <v>102.463</v>
+        <v>102.539</v>
       </c>
       <c r="D305" t="s">
         <v>607</v>
@@ -7400,7 +7400,7 @@
         <v>606</v>
       </c>
       <c r="C306">
-        <v>103.64</v>
+        <v>101.11</v>
       </c>
       <c r="D306" t="s">
         <v>607</v>
@@ -7417,7 +7417,7 @@
         <v>606</v>
       </c>
       <c r="C307">
-        <v>101.884</v>
+        <v>100.455</v>
       </c>
       <c r="D307" t="s">
         <v>607</v>
@@ -7434,7 +7434,7 @@
         <v>606</v>
       </c>
       <c r="C308">
-        <v>102.895</v>
+        <v>100.209</v>
       </c>
       <c r="D308" t="s">
         <v>607</v>
@@ -7451,7 +7451,7 @@
         <v>606</v>
       </c>
       <c r="C309">
-        <v>100.623</v>
+        <v>103.257</v>
       </c>
       <c r="D309" t="s">
         <v>607</v>
@@ -7468,7 +7468,7 @@
         <v>606</v>
       </c>
       <c r="C310">
-        <v>105.275</v>
+        <v>102.514</v>
       </c>
       <c r="D310" t="s">
         <v>607</v>
@@ -7485,7 +7485,7 @@
         <v>605</v>
       </c>
       <c r="C311">
-        <v>98.35899999999999</v>
+        <v>97.571</v>
       </c>
       <c r="D311" t="s">
         <v>607</v>
@@ -7502,7 +7502,7 @@
         <v>606</v>
       </c>
       <c r="C312">
-        <v>105.921</v>
+        <v>105.333</v>
       </c>
       <c r="D312" t="s">
         <v>607</v>
@@ -7519,7 +7519,7 @@
         <v>606</v>
       </c>
       <c r="C313">
-        <v>107.596</v>
+        <v>102.716</v>
       </c>
       <c r="D313" t="s">
         <v>607</v>
@@ -7536,7 +7536,7 @@
         <v>606</v>
       </c>
       <c r="C314">
-        <v>104.438</v>
+        <v>104.198</v>
       </c>
       <c r="D314" t="s">
         <v>607</v>
@@ -7553,7 +7553,7 @@
         <v>606</v>
       </c>
       <c r="C315">
-        <v>103.115</v>
+        <v>103.205</v>
       </c>
       <c r="D315" t="s">
         <v>607</v>
@@ -7570,7 +7570,7 @@
         <v>606</v>
       </c>
       <c r="C316">
-        <v>101.686</v>
+        <v>101.824</v>
       </c>
       <c r="D316" t="s">
         <v>607</v>
@@ -7587,7 +7587,7 @@
         <v>606</v>
       </c>
       <c r="C317">
-        <v>103.579</v>
+        <v>102.569</v>
       </c>
       <c r="D317" t="s">
         <v>607</v>
@@ -7604,7 +7604,7 @@
         <v>606</v>
       </c>
       <c r="C318">
-        <v>101.038</v>
+        <v>100.527</v>
       </c>
       <c r="D318" t="s">
         <v>607</v>
@@ -7621,7 +7621,7 @@
         <v>606</v>
       </c>
       <c r="C319">
-        <v>102.221</v>
+        <v>101.959</v>
       </c>
       <c r="D319" t="s">
         <v>607</v>
@@ -7638,7 +7638,7 @@
         <v>606</v>
       </c>
       <c r="C320">
-        <v>103.256</v>
+        <v>101.639</v>
       </c>
       <c r="D320" t="s">
         <v>607</v>
@@ -7655,7 +7655,7 @@
         <v>605</v>
       </c>
       <c r="C321">
-        <v>93.676</v>
+        <v>92.227</v>
       </c>
       <c r="D321" t="s">
         <v>607</v>
@@ -7672,7 +7672,7 @@
         <v>606</v>
       </c>
       <c r="C322">
-        <v>109.882</v>
+        <v>110.256</v>
       </c>
       <c r="D322" t="s">
         <v>607</v>
@@ -7686,10 +7686,10 @@
         <v>326</v>
       </c>
       <c r="B323" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C323">
-        <v>101.616</v>
+        <v>99.509</v>
       </c>
       <c r="D323" t="s">
         <v>607</v>
@@ -7706,7 +7706,7 @@
         <v>606</v>
       </c>
       <c r="C324">
-        <v>104.363</v>
+        <v>105.771</v>
       </c>
       <c r="D324" t="s">
         <v>607</v>
@@ -7723,7 +7723,7 @@
         <v>605</v>
       </c>
       <c r="C325">
-        <v>96.852</v>
+        <v>94.16500000000001</v>
       </c>
       <c r="D325" t="s">
         <v>607</v>
@@ -7740,7 +7740,7 @@
         <v>605</v>
       </c>
       <c r="C326">
-        <v>99.34999999999999</v>
+        <v>99.756</v>
       </c>
       <c r="D326" t="s">
         <v>607</v>
@@ -7757,7 +7757,7 @@
         <v>606</v>
       </c>
       <c r="C327">
-        <v>100.883</v>
+        <v>100.729</v>
       </c>
       <c r="D327" t="s">
         <v>607</v>
@@ -7774,7 +7774,7 @@
         <v>605</v>
       </c>
       <c r="C328">
-        <v>99.378</v>
+        <v>99.529</v>
       </c>
       <c r="D328" t="s">
         <v>607</v>
@@ -7791,7 +7791,7 @@
         <v>606</v>
       </c>
       <c r="C329">
-        <v>111.668</v>
+        <v>111.562</v>
       </c>
       <c r="D329" t="s">
         <v>607</v>
@@ -7808,7 +7808,7 @@
         <v>606</v>
       </c>
       <c r="C330">
-        <v>111.105</v>
+        <v>111.781</v>
       </c>
       <c r="D330" t="s">
         <v>607</v>
@@ -7825,7 +7825,7 @@
         <v>606</v>
       </c>
       <c r="C331">
-        <v>104.092</v>
+        <v>104.083</v>
       </c>
       <c r="D331" t="s">
         <v>607</v>
@@ -7842,7 +7842,7 @@
         <v>606</v>
       </c>
       <c r="C332">
-        <v>103.297</v>
+        <v>101.204</v>
       </c>
       <c r="D332" t="s">
         <v>607</v>
@@ -7859,7 +7859,7 @@
         <v>606</v>
       </c>
       <c r="C333">
-        <v>100.309</v>
+        <v>100.308</v>
       </c>
       <c r="D333" t="s">
         <v>607</v>
@@ -7876,7 +7876,7 @@
         <v>606</v>
       </c>
       <c r="C334">
-        <v>104.374</v>
+        <v>105.591</v>
       </c>
       <c r="D334" t="s">
         <v>607</v>
@@ -7893,7 +7893,7 @@
         <v>605</v>
       </c>
       <c r="C335">
-        <v>95.997</v>
+        <v>93.137</v>
       </c>
       <c r="D335" t="s">
         <v>607</v>
@@ -7910,7 +7910,7 @@
         <v>606</v>
       </c>
       <c r="C336">
-        <v>107.558</v>
+        <v>106.817</v>
       </c>
       <c r="D336" t="s">
         <v>607</v>
@@ -7927,7 +7927,7 @@
         <v>606</v>
       </c>
       <c r="C337">
-        <v>105.295</v>
+        <v>105.353</v>
       </c>
       <c r="D337" t="s">
         <v>607</v>
@@ -7944,7 +7944,7 @@
         <v>606</v>
       </c>
       <c r="C338">
-        <v>107.076</v>
+        <v>107.111</v>
       </c>
       <c r="D338" t="s">
         <v>607</v>
@@ -7961,7 +7961,7 @@
         <v>606</v>
       </c>
       <c r="C339">
-        <v>105.376</v>
+        <v>104.844</v>
       </c>
       <c r="D339" t="s">
         <v>607</v>
@@ -7978,7 +7978,7 @@
         <v>606</v>
       </c>
       <c r="C340">
-        <v>100.754</v>
+        <v>100.914</v>
       </c>
       <c r="D340" t="s">
         <v>607</v>
@@ -7995,7 +7995,7 @@
         <v>606</v>
       </c>
       <c r="C341">
-        <v>104.233</v>
+        <v>101.31</v>
       </c>
       <c r="D341" t="s">
         <v>607</v>
@@ -8012,7 +8012,7 @@
         <v>606</v>
       </c>
       <c r="C342">
-        <v>100.474</v>
+        <v>100.475</v>
       </c>
       <c r="D342" t="s">
         <v>607</v>
@@ -8029,7 +8029,7 @@
         <v>606</v>
       </c>
       <c r="C343">
-        <v>104.58</v>
+        <v>101.323</v>
       </c>
       <c r="D343" t="s">
         <v>607</v>
@@ -8046,7 +8046,7 @@
         <v>605</v>
       </c>
       <c r="C344">
-        <v>94.372</v>
+        <v>94.45699999999999</v>
       </c>
       <c r="D344" t="s">
         <v>607</v>
@@ -8063,7 +8063,7 @@
         <v>606</v>
       </c>
       <c r="C345">
-        <v>111.675</v>
+        <v>110.648</v>
       </c>
       <c r="D345" t="s">
         <v>607</v>
@@ -8077,10 +8077,10 @@
         <v>349</v>
       </c>
       <c r="B346" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C346">
-        <v>97.98099999999999</v>
+        <v>100.834</v>
       </c>
       <c r="D346" t="s">
         <v>607</v>
@@ -8097,7 +8097,7 @@
         <v>606</v>
       </c>
       <c r="C347">
-        <v>103.422</v>
+        <v>103.139</v>
       </c>
       <c r="D347" t="s">
         <v>607</v>
@@ -8114,7 +8114,7 @@
         <v>605</v>
       </c>
       <c r="C348">
-        <v>85.96599999999999</v>
+        <v>94.199</v>
       </c>
       <c r="D348" t="s">
         <v>607</v>
@@ -8131,7 +8131,7 @@
         <v>606</v>
       </c>
       <c r="C349">
-        <v>105.595</v>
+        <v>102.133</v>
       </c>
       <c r="D349" t="s">
         <v>607</v>
@@ -8148,7 +8148,7 @@
         <v>606</v>
       </c>
       <c r="C350">
-        <v>105.822</v>
+        <v>106.349</v>
       </c>
       <c r="D350" t="s">
         <v>607</v>
@@ -8165,7 +8165,7 @@
         <v>606</v>
       </c>
       <c r="C351">
-        <v>104.943</v>
+        <v>101.415</v>
       </c>
       <c r="D351" t="s">
         <v>607</v>
@@ -8182,7 +8182,7 @@
         <v>605</v>
       </c>
       <c r="C352">
-        <v>99.684</v>
+        <v>98.42100000000001</v>
       </c>
       <c r="D352" t="s">
         <v>607</v>
@@ -8199,7 +8199,7 @@
         <v>606</v>
       </c>
       <c r="C353">
-        <v>101.746</v>
+        <v>101.063</v>
       </c>
       <c r="D353" t="s">
         <v>607</v>
@@ -8213,10 +8213,10 @@
         <v>357</v>
       </c>
       <c r="B354" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C354">
-        <v>98.608</v>
+        <v>100.783</v>
       </c>
       <c r="D354" t="s">
         <v>607</v>
@@ -8230,10 +8230,10 @@
         <v>358</v>
       </c>
       <c r="B355" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C355">
-        <v>100.555</v>
+        <v>99.54000000000001</v>
       </c>
       <c r="D355" t="s">
         <v>607</v>
@@ -8250,7 +8250,7 @@
         <v>606</v>
       </c>
       <c r="C356">
-        <v>103.596</v>
+        <v>104.216</v>
       </c>
       <c r="D356" t="s">
         <v>607</v>
@@ -8264,10 +8264,10 @@
         <v>360</v>
       </c>
       <c r="B357" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C357">
-        <v>101.58</v>
+        <v>99.67700000000001</v>
       </c>
       <c r="D357" t="s">
         <v>607</v>
@@ -8284,7 +8284,7 @@
         <v>606</v>
       </c>
       <c r="C358">
-        <v>102.225</v>
+        <v>101.326</v>
       </c>
       <c r="D358" t="s">
         <v>607</v>
@@ -8301,7 +8301,7 @@
         <v>606</v>
       </c>
       <c r="C359">
-        <v>100.971</v>
+        <v>102.376</v>
       </c>
       <c r="D359" t="s">
         <v>607</v>
@@ -8318,7 +8318,7 @@
         <v>606</v>
       </c>
       <c r="C360">
-        <v>102.231</v>
+        <v>114.171</v>
       </c>
       <c r="D360" t="s">
         <v>607</v>
@@ -8335,7 +8335,7 @@
         <v>606</v>
       </c>
       <c r="C361">
-        <v>105.021</v>
+        <v>103.036</v>
       </c>
       <c r="D361" t="s">
         <v>607</v>
@@ -8349,10 +8349,10 @@
         <v>365</v>
       </c>
       <c r="B362" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C362">
-        <v>101.209</v>
+        <v>97.339</v>
       </c>
       <c r="D362" t="s">
         <v>607</v>
@@ -8369,7 +8369,7 @@
         <v>606</v>
       </c>
       <c r="C363">
-        <v>102.622</v>
+        <v>101.493</v>
       </c>
       <c r="D363" t="s">
         <v>607</v>
@@ -8386,7 +8386,7 @@
         <v>606</v>
       </c>
       <c r="C364">
-        <v>105.901</v>
+        <v>103.978</v>
       </c>
       <c r="D364" t="s">
         <v>607</v>
@@ -8403,7 +8403,7 @@
         <v>606</v>
       </c>
       <c r="C365">
-        <v>104.379</v>
+        <v>103.338</v>
       </c>
       <c r="D365" t="s">
         <v>607</v>
@@ -8420,7 +8420,7 @@
         <v>606</v>
       </c>
       <c r="C366">
-        <v>103.242</v>
+        <v>101.531</v>
       </c>
       <c r="D366" t="s">
         <v>607</v>
@@ -8437,7 +8437,7 @@
         <v>606</v>
       </c>
       <c r="C367">
-        <v>104.04</v>
+        <v>102.693</v>
       </c>
       <c r="D367" t="s">
         <v>607</v>
@@ -8454,7 +8454,7 @@
         <v>606</v>
       </c>
       <c r="C368">
-        <v>102.344</v>
+        <v>102.488</v>
       </c>
       <c r="D368" t="s">
         <v>607</v>
@@ -8471,7 +8471,7 @@
         <v>606</v>
       </c>
       <c r="C369">
-        <v>105.89</v>
+        <v>104.714</v>
       </c>
       <c r="D369" t="s">
         <v>607</v>
@@ -8488,7 +8488,7 @@
         <v>606</v>
       </c>
       <c r="C370">
-        <v>104.325</v>
+        <v>105.529</v>
       </c>
       <c r="D370" t="s">
         <v>607</v>
@@ -8505,7 +8505,7 @@
         <v>605</v>
       </c>
       <c r="C371">
-        <v>95.819</v>
+        <v>94.319</v>
       </c>
       <c r="D371" t="s">
         <v>607</v>
@@ -8522,7 +8522,7 @@
         <v>606</v>
       </c>
       <c r="C372">
-        <v>105.033</v>
+        <v>103.765</v>
       </c>
       <c r="D372" t="s">
         <v>607</v>
@@ -8539,7 +8539,7 @@
         <v>606</v>
       </c>
       <c r="C373">
-        <v>105.395</v>
+        <v>104.255</v>
       </c>
       <c r="D373" t="s">
         <v>607</v>
@@ -8556,7 +8556,7 @@
         <v>606</v>
       </c>
       <c r="C374">
-        <v>112.084</v>
+        <v>109.84</v>
       </c>
       <c r="D374" t="s">
         <v>607</v>
@@ -8573,7 +8573,7 @@
         <v>606</v>
       </c>
       <c r="C375">
-        <v>104.283</v>
+        <v>102.461</v>
       </c>
       <c r="D375" t="s">
         <v>607</v>
@@ -8590,7 +8590,7 @@
         <v>605</v>
       </c>
       <c r="C376">
-        <v>95.876</v>
+        <v>94.319</v>
       </c>
       <c r="D376" t="s">
         <v>607</v>
@@ -8607,7 +8607,7 @@
         <v>605</v>
       </c>
       <c r="C377">
-        <v>99.249</v>
+        <v>98.387</v>
       </c>
       <c r="D377" t="s">
         <v>607</v>
@@ -8624,7 +8624,7 @@
         <v>606</v>
       </c>
       <c r="C378">
-        <v>101.407</v>
+        <v>101.483</v>
       </c>
       <c r="D378" t="s">
         <v>607</v>
@@ -8641,7 +8641,7 @@
         <v>606</v>
       </c>
       <c r="C379">
-        <v>115.303</v>
+        <v>115.447</v>
       </c>
       <c r="D379" t="s">
         <v>607</v>
@@ -8658,7 +8658,7 @@
         <v>606</v>
       </c>
       <c r="C380">
-        <v>103.687</v>
+        <v>102.99</v>
       </c>
       <c r="D380" t="s">
         <v>607</v>
@@ -8675,7 +8675,7 @@
         <v>606</v>
       </c>
       <c r="C381">
-        <v>105.933</v>
+        <v>106.626</v>
       </c>
       <c r="D381" t="s">
         <v>607</v>
@@ -8692,7 +8692,7 @@
         <v>606</v>
       </c>
       <c r="C382">
-        <v>104.337</v>
+        <v>104.165</v>
       </c>
       <c r="D382" t="s">
         <v>607</v>
@@ -8709,7 +8709,7 @@
         <v>606</v>
       </c>
       <c r="C383">
-        <v>104.683</v>
+        <v>103.916</v>
       </c>
       <c r="D383" t="s">
         <v>607</v>
@@ -8726,7 +8726,7 @@
         <v>606</v>
       </c>
       <c r="C384">
-        <v>101.321</v>
+        <v>100.592</v>
       </c>
       <c r="D384" t="s">
         <v>607</v>
@@ -8743,7 +8743,7 @@
         <v>606</v>
       </c>
       <c r="C385">
-        <v>103.949</v>
+        <v>104.579</v>
       </c>
       <c r="D385" t="s">
         <v>607</v>
@@ -8760,7 +8760,7 @@
         <v>606</v>
       </c>
       <c r="C386">
-        <v>104.612</v>
+        <v>103.674</v>
       </c>
       <c r="D386" t="s">
         <v>607</v>
@@ -8777,7 +8777,7 @@
         <v>606</v>
       </c>
       <c r="C387">
-        <v>108.822</v>
+        <v>107.727</v>
       </c>
       <c r="D387" t="s">
         <v>607</v>
@@ -8794,7 +8794,7 @@
         <v>606</v>
       </c>
       <c r="C388">
-        <v>104.707</v>
+        <v>103.223</v>
       </c>
       <c r="D388" t="s">
         <v>607</v>
@@ -8811,7 +8811,7 @@
         <v>606</v>
       </c>
       <c r="C389">
-        <v>100.319</v>
+        <v>101.043</v>
       </c>
       <c r="D389" t="s">
         <v>607</v>
@@ -8828,7 +8828,7 @@
         <v>605</v>
       </c>
       <c r="C390">
-        <v>97.79000000000001</v>
+        <v>98.182</v>
       </c>
       <c r="D390" t="s">
         <v>607</v>
@@ -8845,7 +8845,7 @@
         <v>606</v>
       </c>
       <c r="C391">
-        <v>104.678</v>
+        <v>104.396</v>
       </c>
       <c r="D391" t="s">
         <v>607</v>
@@ -8859,10 +8859,10 @@
         <v>395</v>
       </c>
       <c r="B392" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C392">
-        <v>100.241</v>
+        <v>99.233</v>
       </c>
       <c r="D392" t="s">
         <v>607</v>
@@ -8876,10 +8876,10 @@
         <v>396</v>
       </c>
       <c r="B393" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C393">
-        <v>102.629</v>
+        <v>98.79900000000001</v>
       </c>
       <c r="D393" t="s">
         <v>607</v>
@@ -8893,10 +8893,10 @@
         <v>397</v>
       </c>
       <c r="B394" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C394">
-        <v>101.014</v>
+        <v>99.10599999999999</v>
       </c>
       <c r="D394" t="s">
         <v>607</v>
@@ -8913,7 +8913,7 @@
         <v>606</v>
       </c>
       <c r="C395">
-        <v>107.558</v>
+        <v>106.81</v>
       </c>
       <c r="D395" t="s">
         <v>607</v>
@@ -8930,7 +8930,7 @@
         <v>606</v>
       </c>
       <c r="C396">
-        <v>102.638</v>
+        <v>105.238</v>
       </c>
       <c r="D396" t="s">
         <v>607</v>
@@ -8944,10 +8944,10 @@
         <v>400</v>
       </c>
       <c r="B397" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C397">
-        <v>100.195</v>
+        <v>98.179</v>
       </c>
       <c r="D397" t="s">
         <v>607</v>
@@ -8964,7 +8964,7 @@
         <v>606</v>
       </c>
       <c r="C398">
-        <v>106.38</v>
+        <v>105.157</v>
       </c>
       <c r="D398" t="s">
         <v>607</v>
@@ -8981,7 +8981,7 @@
         <v>606</v>
       </c>
       <c r="C399">
-        <v>103.504</v>
+        <v>102.693</v>
       </c>
       <c r="D399" t="s">
         <v>607</v>
@@ -8998,7 +8998,7 @@
         <v>605</v>
       </c>
       <c r="C400">
-        <v>87.28400000000001</v>
+        <v>86.657</v>
       </c>
       <c r="D400" t="s">
         <v>607</v>
@@ -9015,7 +9015,7 @@
         <v>606</v>
       </c>
       <c r="C401">
-        <v>107.097</v>
+        <v>110.983</v>
       </c>
       <c r="D401" t="s">
         <v>607</v>
@@ -9032,7 +9032,7 @@
         <v>606</v>
       </c>
       <c r="C402">
-        <v>108.337</v>
+        <v>104.506</v>
       </c>
       <c r="D402" t="s">
         <v>607</v>
@@ -9046,10 +9046,10 @@
         <v>406</v>
       </c>
       <c r="B403" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C403">
-        <v>100.126</v>
+        <v>99.85299999999999</v>
       </c>
       <c r="D403" t="s">
         <v>607</v>
@@ -9066,7 +9066,7 @@
         <v>606</v>
       </c>
       <c r="C404">
-        <v>102.8</v>
+        <v>101.229</v>
       </c>
       <c r="D404" t="s">
         <v>607</v>
@@ -9083,7 +9083,7 @@
         <v>606</v>
       </c>
       <c r="C405">
-        <v>105.79</v>
+        <v>106.231</v>
       </c>
       <c r="D405" t="s">
         <v>607</v>
@@ -9097,10 +9097,10 @@
         <v>409</v>
       </c>
       <c r="B406" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C406">
-        <v>98.209</v>
+        <v>100.261</v>
       </c>
       <c r="D406" t="s">
         <v>607</v>
@@ -9117,7 +9117,7 @@
         <v>606</v>
       </c>
       <c r="C407">
-        <v>103.843</v>
+        <v>102.887</v>
       </c>
       <c r="D407" t="s">
         <v>607</v>
@@ -9134,7 +9134,7 @@
         <v>606</v>
       </c>
       <c r="C408">
-        <v>100.667</v>
+        <v>100.822</v>
       </c>
       <c r="D408" t="s">
         <v>607</v>
@@ -9151,7 +9151,7 @@
         <v>605</v>
       </c>
       <c r="C409">
-        <v>95.902</v>
+        <v>97.26900000000001</v>
       </c>
       <c r="D409" t="s">
         <v>607</v>
@@ -9168,7 +9168,7 @@
         <v>605</v>
       </c>
       <c r="C410">
-        <v>98.562</v>
+        <v>93.309</v>
       </c>
       <c r="D410" t="s">
         <v>607</v>
@@ -9185,7 +9185,7 @@
         <v>606</v>
       </c>
       <c r="C411">
-        <v>109.981</v>
+        <v>108.025</v>
       </c>
       <c r="D411" t="s">
         <v>607</v>
@@ -9202,7 +9202,7 @@
         <v>606</v>
       </c>
       <c r="C412">
-        <v>112.746</v>
+        <v>107.843</v>
       </c>
       <c r="D412" t="s">
         <v>607</v>
@@ -9219,7 +9219,7 @@
         <v>606</v>
       </c>
       <c r="C413">
-        <v>106.382</v>
+        <v>105.459</v>
       </c>
       <c r="D413" t="s">
         <v>607</v>
@@ -9236,7 +9236,7 @@
         <v>606</v>
       </c>
       <c r="C414">
-        <v>101.546</v>
+        <v>100.063</v>
       </c>
       <c r="D414" t="s">
         <v>607</v>
@@ -9250,10 +9250,10 @@
         <v>418</v>
       </c>
       <c r="B415" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C415">
-        <v>101.089</v>
+        <v>98.899</v>
       </c>
       <c r="D415" t="s">
         <v>607</v>
@@ -9270,7 +9270,7 @@
         <v>606</v>
       </c>
       <c r="C416">
-        <v>101.403</v>
+        <v>101.22</v>
       </c>
       <c r="D416" t="s">
         <v>607</v>
@@ -9287,7 +9287,7 @@
         <v>606</v>
       </c>
       <c r="C417">
-        <v>106.574</v>
+        <v>104.535</v>
       </c>
       <c r="D417" t="s">
         <v>607</v>
@@ -9304,7 +9304,7 @@
         <v>606</v>
       </c>
       <c r="C418">
-        <v>111.696</v>
+        <v>101.823</v>
       </c>
       <c r="D418" t="s">
         <v>607</v>
@@ -9321,7 +9321,7 @@
         <v>606</v>
       </c>
       <c r="C419">
-        <v>110.811</v>
+        <v>104.638</v>
       </c>
       <c r="D419" t="s">
         <v>607</v>
@@ -9338,7 +9338,7 @@
         <v>605</v>
       </c>
       <c r="C420">
-        <v>92.006</v>
+        <v>98.575</v>
       </c>
       <c r="D420" t="s">
         <v>607</v>
@@ -9355,7 +9355,7 @@
         <v>605</v>
       </c>
       <c r="C421">
-        <v>97.081</v>
+        <v>98.23699999999999</v>
       </c>
       <c r="D421" t="s">
         <v>607</v>
@@ -9372,7 +9372,7 @@
         <v>606</v>
       </c>
       <c r="C422">
-        <v>102.301</v>
+        <v>102.36</v>
       </c>
       <c r="D422" t="s">
         <v>607</v>
@@ -9389,7 +9389,7 @@
         <v>606</v>
       </c>
       <c r="C423">
-        <v>103.601</v>
+        <v>103.66</v>
       </c>
       <c r="D423" t="s">
         <v>607</v>
@@ -9406,7 +9406,7 @@
         <v>606</v>
       </c>
       <c r="C424">
-        <v>103.127</v>
+        <v>102.254</v>
       </c>
       <c r="D424" t="s">
         <v>607</v>
@@ -9423,7 +9423,7 @@
         <v>606</v>
       </c>
       <c r="C425">
-        <v>103.043</v>
+        <v>105.071</v>
       </c>
       <c r="D425" t="s">
         <v>607</v>
@@ -9440,7 +9440,7 @@
         <v>605</v>
       </c>
       <c r="C426">
-        <v>91.7</v>
+        <v>90.252</v>
       </c>
       <c r="D426" t="s">
         <v>607</v>
@@ -9457,7 +9457,7 @@
         <v>606</v>
       </c>
       <c r="C427">
-        <v>107.109</v>
+        <v>106.09</v>
       </c>
       <c r="D427" t="s">
         <v>607</v>
@@ -9474,7 +9474,7 @@
         <v>606</v>
       </c>
       <c r="C428">
-        <v>101.271</v>
+        <v>101.549</v>
       </c>
       <c r="D428" t="s">
         <v>607</v>
@@ -9491,7 +9491,7 @@
         <v>606</v>
       </c>
       <c r="C429">
-        <v>104.894</v>
+        <v>105.429</v>
       </c>
       <c r="D429" t="s">
         <v>607</v>
@@ -9508,7 +9508,7 @@
         <v>606</v>
       </c>
       <c r="C430">
-        <v>102.532</v>
+        <v>101.852</v>
       </c>
       <c r="D430" t="s">
         <v>607</v>
@@ -9525,7 +9525,7 @@
         <v>606</v>
       </c>
       <c r="C431">
-        <v>101.249</v>
+        <v>100.503</v>
       </c>
       <c r="D431" t="s">
         <v>607</v>
@@ -9542,7 +9542,7 @@
         <v>606</v>
       </c>
       <c r="C432">
-        <v>103.949</v>
+        <v>105.655</v>
       </c>
       <c r="D432" t="s">
         <v>607</v>
@@ -9559,7 +9559,7 @@
         <v>606</v>
       </c>
       <c r="C433">
-        <v>114.334</v>
+        <v>104.736</v>
       </c>
       <c r="D433" t="s">
         <v>607</v>
@@ -9576,7 +9576,7 @@
         <v>605</v>
       </c>
       <c r="C434">
-        <v>96.36499999999999</v>
+        <v>98.161</v>
       </c>
       <c r="D434" t="s">
         <v>607</v>
@@ -9590,10 +9590,10 @@
         <v>438</v>
       </c>
       <c r="B435" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C435">
-        <v>97.965</v>
+        <v>102.421</v>
       </c>
       <c r="D435" t="s">
         <v>607</v>
@@ -9607,10 +9607,10 @@
         <v>439</v>
       </c>
       <c r="B436" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C436">
-        <v>102.408</v>
+        <v>98.64400000000001</v>
       </c>
       <c r="D436" t="s">
         <v>607</v>
@@ -9627,7 +9627,7 @@
         <v>606</v>
       </c>
       <c r="C437">
-        <v>100.775</v>
+        <v>103.61</v>
       </c>
       <c r="D437" t="s">
         <v>607</v>
@@ -9644,7 +9644,7 @@
         <v>606</v>
       </c>
       <c r="C438">
-        <v>101.661</v>
+        <v>100.792</v>
       </c>
       <c r="D438" t="s">
         <v>607</v>
@@ -9661,7 +9661,7 @@
         <v>606</v>
       </c>
       <c r="C439">
-        <v>105.066</v>
+        <v>105.321</v>
       </c>
       <c r="D439" t="s">
         <v>607</v>
@@ -9675,10 +9675,10 @@
         <v>443</v>
       </c>
       <c r="B440" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C440">
-        <v>101.524</v>
+        <v>99.925</v>
       </c>
       <c r="D440" t="s">
         <v>607</v>
@@ -9695,7 +9695,7 @@
         <v>606</v>
       </c>
       <c r="C441">
-        <v>101.182</v>
+        <v>101.988</v>
       </c>
       <c r="D441" t="s">
         <v>607</v>
@@ -9712,7 +9712,7 @@
         <v>605</v>
       </c>
       <c r="C442">
-        <v>96.76000000000001</v>
+        <v>93.188</v>
       </c>
       <c r="D442" t="s">
         <v>607</v>
@@ -9726,10 +9726,10 @@
         <v>446</v>
       </c>
       <c r="B443" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C443">
-        <v>98.691</v>
+        <v>100.745</v>
       </c>
       <c r="D443" t="s">
         <v>607</v>
@@ -9746,7 +9746,7 @@
         <v>605</v>
       </c>
       <c r="C444">
-        <v>96.339</v>
+        <v>98.32599999999999</v>
       </c>
       <c r="D444" t="s">
         <v>607</v>
@@ -9763,7 +9763,7 @@
         <v>606</v>
       </c>
       <c r="C445">
-        <v>104.195</v>
+        <v>104.117</v>
       </c>
       <c r="D445" t="s">
         <v>607</v>
@@ -9780,7 +9780,7 @@
         <v>606</v>
       </c>
       <c r="C446">
-        <v>102.826</v>
+        <v>102.119</v>
       </c>
       <c r="D446" t="s">
         <v>607</v>
@@ -9797,7 +9797,7 @@
         <v>605</v>
       </c>
       <c r="C447">
-        <v>99.79900000000001</v>
+        <v>97.69799999999999</v>
       </c>
       <c r="D447" t="s">
         <v>607</v>
@@ -9814,7 +9814,7 @@
         <v>606</v>
       </c>
       <c r="C448">
-        <v>105.925</v>
+        <v>103.814</v>
       </c>
       <c r="D448" t="s">
         <v>607</v>
@@ -9831,7 +9831,7 @@
         <v>605</v>
       </c>
       <c r="C449">
-        <v>99.34</v>
+        <v>96.98099999999999</v>
       </c>
       <c r="D449" t="s">
         <v>607</v>
@@ -9848,7 +9848,7 @@
         <v>606</v>
       </c>
       <c r="C450">
-        <v>100.243</v>
+        <v>100.054</v>
       </c>
       <c r="D450" t="s">
         <v>607</v>
@@ -9865,7 +9865,7 @@
         <v>605</v>
       </c>
       <c r="C451">
-        <v>99.11199999999999</v>
+        <v>97.015</v>
       </c>
       <c r="D451" t="s">
         <v>607</v>
@@ -9882,7 +9882,7 @@
         <v>606</v>
       </c>
       <c r="C452">
-        <v>107.66</v>
+        <v>107.049</v>
       </c>
       <c r="D452" t="s">
         <v>607</v>
@@ -9899,7 +9899,7 @@
         <v>606</v>
       </c>
       <c r="C453">
-        <v>103.662</v>
+        <v>100.949</v>
       </c>
       <c r="D453" t="s">
         <v>607</v>
@@ -9913,10 +9913,10 @@
         <v>457</v>
       </c>
       <c r="B454" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C454">
-        <v>104.913</v>
+        <v>98.79000000000001</v>
       </c>
       <c r="D454" t="s">
         <v>607</v>
@@ -9933,7 +9933,7 @@
         <v>606</v>
       </c>
       <c r="C455">
-        <v>106.708</v>
+        <v>104.038</v>
       </c>
       <c r="D455" t="s">
         <v>607</v>
@@ -9950,7 +9950,7 @@
         <v>606</v>
       </c>
       <c r="C456">
-        <v>105.216</v>
+        <v>106.095</v>
       </c>
       <c r="D456" t="s">
         <v>607</v>
@@ -9964,10 +9964,10 @@
         <v>460</v>
       </c>
       <c r="B457" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C457">
-        <v>100.878</v>
+        <v>99.467</v>
       </c>
       <c r="D457" t="s">
         <v>607</v>
@@ -9984,7 +9984,7 @@
         <v>606</v>
       </c>
       <c r="C458">
-        <v>108.875</v>
+        <v>110.141</v>
       </c>
       <c r="D458" t="s">
         <v>607</v>
@@ -10001,7 +10001,7 @@
         <v>606</v>
       </c>
       <c r="C459">
-        <v>101.887</v>
+        <v>100.012</v>
       </c>
       <c r="D459" t="s">
         <v>607</v>
@@ -10018,7 +10018,7 @@
         <v>606</v>
       </c>
       <c r="C460">
-        <v>101.03</v>
+        <v>103.006</v>
       </c>
       <c r="D460" t="s">
         <v>607</v>
@@ -10035,7 +10035,7 @@
         <v>606</v>
       </c>
       <c r="C461">
-        <v>102.68</v>
+        <v>100.075</v>
       </c>
       <c r="D461" t="s">
         <v>607</v>
@@ -10052,7 +10052,7 @@
         <v>606</v>
       </c>
       <c r="C462">
-        <v>101.98</v>
+        <v>101.23</v>
       </c>
       <c r="D462" t="s">
         <v>607</v>
@@ -10069,7 +10069,7 @@
         <v>605</v>
       </c>
       <c r="C463">
-        <v>99.098</v>
+        <v>97.76600000000001</v>
       </c>
       <c r="D463" t="s">
         <v>607</v>
@@ -10086,7 +10086,7 @@
         <v>605</v>
       </c>
       <c r="C464">
-        <v>85.76900000000001</v>
+        <v>83.851</v>
       </c>
       <c r="D464" t="s">
         <v>607</v>
@@ -10103,7 +10103,7 @@
         <v>606</v>
       </c>
       <c r="C465">
-        <v>111.712</v>
+        <v>107.842</v>
       </c>
       <c r="D465" t="s">
         <v>607</v>
@@ -10120,7 +10120,7 @@
         <v>606</v>
       </c>
       <c r="C466">
-        <v>114.487</v>
+        <v>112.991</v>
       </c>
       <c r="D466" t="s">
         <v>607</v>
@@ -10137,7 +10137,7 @@
         <v>605</v>
       </c>
       <c r="C467">
-        <v>98.261</v>
+        <v>98.84399999999999</v>
       </c>
       <c r="D467" t="s">
         <v>607</v>
@@ -10154,7 +10154,7 @@
         <v>605</v>
       </c>
       <c r="C468">
-        <v>99.63</v>
+        <v>97.322</v>
       </c>
       <c r="D468" t="s">
         <v>607</v>
@@ -10171,7 +10171,7 @@
         <v>605</v>
       </c>
       <c r="C469">
-        <v>89.062</v>
+        <v>89.971</v>
       </c>
       <c r="D469" t="s">
         <v>607</v>
@@ -10188,7 +10188,7 @@
         <v>606</v>
       </c>
       <c r="C470">
-        <v>101.938</v>
+        <v>100.897</v>
       </c>
       <c r="D470" t="s">
         <v>607</v>
@@ -10205,7 +10205,7 @@
         <v>605</v>
       </c>
       <c r="C471">
-        <v>97.645</v>
+        <v>97.8</v>
       </c>
       <c r="D471" t="s">
         <v>607</v>
@@ -10222,7 +10222,7 @@
         <v>606</v>
       </c>
       <c r="C472">
-        <v>102.991</v>
+        <v>100.313</v>
       </c>
       <c r="D472" t="s">
         <v>607</v>
@@ -10239,7 +10239,7 @@
         <v>605</v>
       </c>
       <c r="C473">
-        <v>99.60599999999999</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="D473" t="s">
         <v>607</v>
@@ -10256,7 +10256,7 @@
         <v>606</v>
       </c>
       <c r="C474">
-        <v>103.852</v>
+        <v>101.928</v>
       </c>
       <c r="D474" t="s">
         <v>607</v>
@@ -10273,7 +10273,7 @@
         <v>606</v>
       </c>
       <c r="C475">
-        <v>103.983</v>
+        <v>101.756</v>
       </c>
       <c r="D475" t="s">
         <v>607</v>
@@ -10287,10 +10287,10 @@
         <v>479</v>
       </c>
       <c r="B476" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C476">
-        <v>100.02</v>
+        <v>96.232</v>
       </c>
       <c r="D476" t="s">
         <v>607</v>
@@ -10307,7 +10307,7 @@
         <v>606</v>
       </c>
       <c r="C477">
-        <v>106.925</v>
+        <v>100.744</v>
       </c>
       <c r="D477" t="s">
         <v>607</v>
@@ -10324,7 +10324,7 @@
         <v>605</v>
       </c>
       <c r="C478">
-        <v>97.767</v>
+        <v>95.69199999999999</v>
       </c>
       <c r="D478" t="s">
         <v>607</v>
@@ -10338,10 +10338,10 @@
         <v>482</v>
       </c>
       <c r="B479" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C479">
-        <v>101.664</v>
+        <v>98.916</v>
       </c>
       <c r="D479" t="s">
         <v>607</v>
@@ -10358,7 +10358,7 @@
         <v>605</v>
       </c>
       <c r="C480">
-        <v>96.776</v>
+        <v>94.012</v>
       </c>
       <c r="D480" t="s">
         <v>607</v>
@@ -10375,7 +10375,7 @@
         <v>606</v>
       </c>
       <c r="C481">
-        <v>112.069</v>
+        <v>102.885</v>
       </c>
       <c r="D481" t="s">
         <v>607</v>
@@ -10392,7 +10392,7 @@
         <v>605</v>
       </c>
       <c r="C482">
-        <v>98.65300000000001</v>
+        <v>94.211</v>
       </c>
       <c r="D482" t="s">
         <v>607</v>
@@ -10409,7 +10409,7 @@
         <v>605</v>
       </c>
       <c r="C483">
-        <v>99.27200000000001</v>
+        <v>94.904</v>
       </c>
       <c r="D483" t="s">
         <v>607</v>
@@ -10426,7 +10426,7 @@
         <v>605</v>
       </c>
       <c r="C484">
-        <v>99.983</v>
+        <v>99.503</v>
       </c>
       <c r="D484" t="s">
         <v>607</v>
@@ -10443,7 +10443,7 @@
         <v>606</v>
       </c>
       <c r="C485">
-        <v>104.785</v>
+        <v>102.091</v>
       </c>
       <c r="D485" t="s">
         <v>607</v>
@@ -10460,7 +10460,7 @@
         <v>605</v>
       </c>
       <c r="C486">
-        <v>89.223</v>
+        <v>79.361</v>
       </c>
       <c r="D486" t="s">
         <v>607</v>
@@ -10477,7 +10477,7 @@
         <v>605</v>
       </c>
       <c r="C487">
-        <v>99.26900000000001</v>
+        <v>97.188</v>
       </c>
       <c r="D487" t="s">
         <v>607</v>
@@ -10494,7 +10494,7 @@
         <v>606</v>
       </c>
       <c r="C488">
-        <v>101.818</v>
+        <v>100.992</v>
       </c>
       <c r="D488" t="s">
         <v>607</v>
@@ -10508,10 +10508,10 @@
         <v>492</v>
       </c>
       <c r="B489" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C489">
-        <v>104.029</v>
+        <v>99.658</v>
       </c>
       <c r="D489" t="s">
         <v>607</v>
@@ -10528,7 +10528,7 @@
         <v>606</v>
       </c>
       <c r="C490">
-        <v>100.693</v>
+        <v>101.074</v>
       </c>
       <c r="D490" t="s">
         <v>607</v>
@@ -10545,7 +10545,7 @@
         <v>606</v>
       </c>
       <c r="C491">
-        <v>101.572</v>
+        <v>101.502</v>
       </c>
       <c r="D491" t="s">
         <v>607</v>
@@ -10562,7 +10562,7 @@
         <v>605</v>
       </c>
       <c r="C492">
-        <v>97.916</v>
+        <v>98.06999999999999</v>
       </c>
       <c r="D492" t="s">
         <v>607</v>
@@ -10579,7 +10579,7 @@
         <v>605</v>
       </c>
       <c r="C493">
-        <v>98.43899999999999</v>
+        <v>98.55500000000001</v>
       </c>
       <c r="D493" t="s">
         <v>607</v>
@@ -10596,7 +10596,7 @@
         <v>605</v>
       </c>
       <c r="C494">
-        <v>98.19199999999999</v>
+        <v>98.095</v>
       </c>
       <c r="D494" t="s">
         <v>607</v>
@@ -10613,7 +10613,7 @@
         <v>606</v>
       </c>
       <c r="C495">
-        <v>103.611</v>
+        <v>103.416</v>
       </c>
       <c r="D495" t="s">
         <v>607</v>
@@ -10630,7 +10630,7 @@
         <v>606</v>
       </c>
       <c r="C496">
-        <v>107.206</v>
+        <v>105.326</v>
       </c>
       <c r="D496" t="s">
         <v>607</v>
@@ -10647,7 +10647,7 @@
         <v>606</v>
       </c>
       <c r="C497">
-        <v>120.341</v>
+        <v>112.098</v>
       </c>
       <c r="D497" t="s">
         <v>607</v>
@@ -10664,7 +10664,7 @@
         <v>605</v>
       </c>
       <c r="C498">
-        <v>96.696</v>
+        <v>93.006</v>
       </c>
       <c r="D498" t="s">
         <v>607</v>
@@ -10681,7 +10681,7 @@
         <v>606</v>
       </c>
       <c r="C499">
-        <v>105.001</v>
+        <v>100.861</v>
       </c>
       <c r="D499" t="s">
         <v>607</v>
@@ -10698,7 +10698,7 @@
         <v>605</v>
       </c>
       <c r="C500">
-        <v>96.03400000000001</v>
+        <v>93.89400000000001</v>
       </c>
       <c r="D500" t="s">
         <v>607</v>
@@ -10715,7 +10715,7 @@
         <v>606</v>
       </c>
       <c r="C501">
-        <v>103.923</v>
+        <v>100.847</v>
       </c>
       <c r="D501" t="s">
         <v>607</v>
@@ -10732,7 +10732,7 @@
         <v>605</v>
       </c>
       <c r="C502">
-        <v>98.292</v>
+        <v>95.09</v>
       </c>
       <c r="D502" t="s">
         <v>607</v>
@@ -10749,7 +10749,7 @@
         <v>606</v>
       </c>
       <c r="C503">
-        <v>108.58</v>
+        <v>102.995</v>
       </c>
       <c r="D503" t="s">
         <v>607</v>
@@ -10766,7 +10766,7 @@
         <v>606</v>
       </c>
       <c r="C504">
-        <v>104.977</v>
+        <v>101.614</v>
       </c>
       <c r="D504" t="s">
         <v>607</v>
@@ -10783,7 +10783,7 @@
         <v>606</v>
       </c>
       <c r="C505">
-        <v>100.461</v>
+        <v>100.177</v>
       </c>
       <c r="D505" t="s">
         <v>607</v>
@@ -10797,10 +10797,10 @@
         <v>509</v>
       </c>
       <c r="B506" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C506">
-        <v>102.219</v>
+        <v>96.354</v>
       </c>
       <c r="D506" t="s">
         <v>607</v>
@@ -10817,7 +10817,7 @@
         <v>605</v>
       </c>
       <c r="C507">
-        <v>97.578</v>
+        <v>95.29000000000001</v>
       </c>
       <c r="D507" t="s">
         <v>607</v>
@@ -10834,7 +10834,7 @@
         <v>605</v>
       </c>
       <c r="C508">
-        <v>93.84399999999999</v>
+        <v>91.46599999999999</v>
       </c>
       <c r="D508" t="s">
         <v>607</v>
@@ -10848,10 +10848,10 @@
         <v>512</v>
       </c>
       <c r="B509" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C509">
-        <v>101.642</v>
+        <v>98.133</v>
       </c>
       <c r="D509" t="s">
         <v>607</v>
@@ -10865,10 +10865,10 @@
         <v>513</v>
       </c>
       <c r="B510" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C510">
-        <v>101.259</v>
+        <v>94.795</v>
       </c>
       <c r="D510" t="s">
         <v>607</v>
@@ -10885,7 +10885,7 @@
         <v>605</v>
       </c>
       <c r="C511">
-        <v>94.61499999999999</v>
+        <v>90.34699999999999</v>
       </c>
       <c r="D511" t="s">
         <v>607</v>
@@ -10902,7 +10902,7 @@
         <v>606</v>
       </c>
       <c r="C512">
-        <v>103.782</v>
+        <v>104.217</v>
       </c>
       <c r="D512" t="s">
         <v>607</v>
@@ -10919,7 +10919,7 @@
         <v>606</v>
       </c>
       <c r="C513">
-        <v>112.281</v>
+        <v>116.667</v>
       </c>
       <c r="D513" t="s">
         <v>607</v>
@@ -10936,7 +10936,7 @@
         <v>606</v>
       </c>
       <c r="C514">
-        <v>100.901</v>
+        <v>100</v>
       </c>
       <c r="D514" t="s">
         <v>607</v>
@@ -10950,10 +10950,10 @@
         <v>518</v>
       </c>
       <c r="B515" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C515">
-        <v>100.916</v>
+        <v>96.943</v>
       </c>
       <c r="D515" t="s">
         <v>607</v>
@@ -10970,7 +10970,7 @@
         <v>605</v>
       </c>
       <c r="C516">
-        <v>99.334</v>
+        <v>96.23</v>
       </c>
       <c r="D516" t="s">
         <v>607</v>
@@ -10987,7 +10987,7 @@
         <v>606</v>
       </c>
       <c r="C517">
-        <v>115.98</v>
+        <v>105.508</v>
       </c>
       <c r="D517" t="s">
         <v>607</v>
@@ -11001,10 +11001,10 @@
         <v>521</v>
       </c>
       <c r="B518" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C518">
-        <v>110.551</v>
+        <v>85.337</v>
       </c>
       <c r="D518" t="s">
         <v>607</v>
@@ -11021,7 +11021,7 @@
         <v>606</v>
       </c>
       <c r="C519">
-        <v>142.033</v>
+        <v>125.203</v>
       </c>
       <c r="D519" t="s">
         <v>607</v>
@@ -11038,7 +11038,7 @@
         <v>605</v>
       </c>
       <c r="C520">
-        <v>98.407</v>
+        <v>96.468</v>
       </c>
       <c r="D520" t="s">
         <v>607</v>
@@ -11055,7 +11055,7 @@
         <v>605</v>
       </c>
       <c r="C521">
-        <v>96.55</v>
+        <v>90.983</v>
       </c>
       <c r="D521" t="s">
         <v>607</v>
@@ -11072,7 +11072,7 @@
         <v>606</v>
       </c>
       <c r="C522">
-        <v>104.6</v>
+        <v>105.166</v>
       </c>
       <c r="D522" t="s">
         <v>607</v>
@@ -11086,10 +11086,10 @@
         <v>525</v>
       </c>
       <c r="B523" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C523">
-        <v>100.529</v>
+        <v>97.15000000000001</v>
       </c>
       <c r="D523" t="s">
         <v>607</v>
@@ -11103,10 +11103,10 @@
         <v>526</v>
       </c>
       <c r="B524" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C524">
-        <v>110.363</v>
+        <v>88.81999999999999</v>
       </c>
       <c r="D524" t="s">
         <v>607</v>
@@ -11123,7 +11123,7 @@
         <v>606</v>
       </c>
       <c r="C525">
-        <v>106.271</v>
+        <v>103.32</v>
       </c>
       <c r="D525" t="s">
         <v>607</v>
@@ -11137,10 +11137,10 @@
         <v>528</v>
       </c>
       <c r="B526" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C526">
-        <v>99.45099999999999</v>
+        <v>100.815</v>
       </c>
       <c r="D526" t="s">
         <v>607</v>
@@ -11157,7 +11157,7 @@
         <v>605</v>
       </c>
       <c r="C527">
-        <v>94.711</v>
+        <v>95.527</v>
       </c>
       <c r="D527" t="s">
         <v>607</v>
@@ -11174,7 +11174,7 @@
         <v>605</v>
       </c>
       <c r="C528">
-        <v>99.43899999999999</v>
+        <v>99.831</v>
       </c>
       <c r="D528" t="s">
         <v>607</v>
@@ -11191,7 +11191,7 @@
         <v>606</v>
       </c>
       <c r="C529">
-        <v>107.27</v>
+        <v>109.181</v>
       </c>
       <c r="D529" t="s">
         <v>607</v>
@@ -11208,7 +11208,7 @@
         <v>605</v>
       </c>
       <c r="C530">
-        <v>95.482</v>
+        <v>93.623</v>
       </c>
       <c r="D530" t="s">
         <v>607</v>
@@ -11222,10 +11222,10 @@
         <v>533</v>
       </c>
       <c r="B531" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C531">
-        <v>101.433</v>
+        <v>95.455</v>
       </c>
       <c r="D531" t="s">
         <v>607</v>
@@ -11239,10 +11239,10 @@
         <v>534</v>
       </c>
       <c r="B532" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C532">
-        <v>100</v>
+        <v>95.10899999999999</v>
       </c>
       <c r="D532" t="s">
         <v>607</v>
@@ -11259,7 +11259,7 @@
         <v>606</v>
       </c>
       <c r="C533">
-        <v>102.294</v>
+        <v>102.621</v>
       </c>
       <c r="D533" t="s">
         <v>607</v>
@@ -11273,10 +11273,10 @@
         <v>536</v>
       </c>
       <c r="B534" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C534">
-        <v>102.266</v>
+        <v>99.95699999999999</v>
       </c>
       <c r="D534" t="s">
         <v>607</v>
@@ -11293,7 +11293,7 @@
         <v>605</v>
       </c>
       <c r="C535">
-        <v>93.93300000000001</v>
+        <v>95.69499999999999</v>
       </c>
       <c r="D535" t="s">
         <v>607</v>
@@ -11310,7 +11310,7 @@
         <v>606</v>
       </c>
       <c r="C536">
-        <v>104.433</v>
+        <v>101.549</v>
       </c>
       <c r="D536" t="s">
         <v>607</v>
@@ -11324,10 +11324,10 @@
         <v>539</v>
       </c>
       <c r="B537" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C537">
-        <v>105.225</v>
+        <v>88.08799999999999</v>
       </c>
       <c r="D537" t="s">
         <v>607</v>
@@ -11344,7 +11344,7 @@
         <v>606</v>
       </c>
       <c r="C538">
-        <v>103.635</v>
+        <v>102.99</v>
       </c>
       <c r="D538" t="s">
         <v>607</v>
@@ -11361,7 +11361,7 @@
         <v>606</v>
       </c>
       <c r="C539">
-        <v>103.333</v>
+        <v>103.544</v>
       </c>
       <c r="D539" t="s">
         <v>607</v>
@@ -11378,7 +11378,7 @@
         <v>606</v>
       </c>
       <c r="C540">
-        <v>108.113</v>
+        <v>108.004</v>
       </c>
       <c r="D540" t="s">
         <v>607</v>
@@ -11395,7 +11395,7 @@
         <v>606</v>
       </c>
       <c r="C541">
-        <v>105.544</v>
+        <v>103.936</v>
       </c>
       <c r="D541" t="s">
         <v>607</v>
@@ -11412,7 +11412,7 @@
         <v>606</v>
       </c>
       <c r="C542">
-        <v>103.211</v>
+        <v>100.999</v>
       </c>
       <c r="D542" t="s">
         <v>607</v>
@@ -11429,7 +11429,7 @@
         <v>606</v>
       </c>
       <c r="C543">
-        <v>107.368</v>
+        <v>105.873</v>
       </c>
       <c r="D543" t="s">
         <v>607</v>
@@ -11446,7 +11446,7 @@
         <v>606</v>
       </c>
       <c r="C544">
-        <v>107.663</v>
+        <v>109.028</v>
       </c>
       <c r="D544" t="s">
         <v>607</v>
@@ -11463,7 +11463,7 @@
         <v>606</v>
       </c>
       <c r="C545">
-        <v>104.037</v>
+        <v>100.626</v>
       </c>
       <c r="D545" t="s">
         <v>607</v>
@@ -11477,10 +11477,10 @@
         <v>547</v>
       </c>
       <c r="B546" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C546">
-        <v>100.428</v>
+        <v>98.565</v>
       </c>
       <c r="D546" t="s">
         <v>607</v>
@@ -11497,7 +11497,7 @@
         <v>606</v>
       </c>
       <c r="C547">
-        <v>101.12</v>
+        <v>100.746</v>
       </c>
       <c r="D547" t="s">
         <v>607</v>
@@ -11514,7 +11514,7 @@
         <v>606</v>
       </c>
       <c r="C548">
-        <v>104.591</v>
+        <v>104.113</v>
       </c>
       <c r="D548" t="s">
         <v>607</v>
@@ -11531,7 +11531,7 @@
         <v>606</v>
       </c>
       <c r="C549">
-        <v>104.51</v>
+        <v>102.01</v>
       </c>
       <c r="D549" t="s">
         <v>607</v>
@@ -11548,7 +11548,7 @@
         <v>606</v>
       </c>
       <c r="C550">
-        <v>102.922</v>
+        <v>102.692</v>
       </c>
       <c r="D550" t="s">
         <v>607</v>
@@ -11565,7 +11565,7 @@
         <v>606</v>
       </c>
       <c r="C551">
-        <v>101.818</v>
+        <v>101.639</v>
       </c>
       <c r="D551" t="s">
         <v>607</v>
@@ -11582,7 +11582,7 @@
         <v>606</v>
       </c>
       <c r="C552">
-        <v>102.503</v>
+        <v>102.557</v>
       </c>
       <c r="D552" t="s">
         <v>607</v>
@@ -11599,7 +11599,7 @@
         <v>606</v>
       </c>
       <c r="C553">
-        <v>102.902</v>
+        <v>103.854</v>
       </c>
       <c r="D553" t="s">
         <v>607</v>
@@ -11616,7 +11616,7 @@
         <v>606</v>
       </c>
       <c r="C554">
-        <v>103.846</v>
+        <v>107.692</v>
       </c>
       <c r="D554" t="s">
         <v>607</v>
@@ -11633,7 +11633,7 @@
         <v>606</v>
       </c>
       <c r="C555">
-        <v>105.992</v>
+        <v>104.709</v>
       </c>
       <c r="D555" t="s">
         <v>607</v>
@@ -11650,7 +11650,7 @@
         <v>606</v>
       </c>
       <c r="C556">
-        <v>101.043</v>
+        <v>101.037</v>
       </c>
       <c r="D556" t="s">
         <v>607</v>
@@ -11667,7 +11667,7 @@
         <v>606</v>
       </c>
       <c r="C557">
-        <v>102.684</v>
+        <v>102.758</v>
       </c>
       <c r="D557" t="s">
         <v>607</v>
@@ -11684,7 +11684,7 @@
         <v>606</v>
       </c>
       <c r="C558">
-        <v>109.607</v>
+        <v>105.492</v>
       </c>
       <c r="D558" t="s">
         <v>607</v>
@@ -11698,10 +11698,10 @@
         <v>560</v>
       </c>
       <c r="B559" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C559">
-        <v>103.102</v>
+        <v>99.524</v>
       </c>
       <c r="D559" t="s">
         <v>607</v>
@@ -11718,7 +11718,7 @@
         <v>606</v>
       </c>
       <c r="C560">
-        <v>103.665</v>
+        <v>101.931</v>
       </c>
       <c r="D560" t="s">
         <v>607</v>
@@ -11735,7 +11735,7 @@
         <v>606</v>
       </c>
       <c r="C561">
-        <v>111.668</v>
+        <v>111.523</v>
       </c>
       <c r="D561" t="s">
         <v>607</v>
@@ -11752,7 +11752,7 @@
         <v>606</v>
       </c>
       <c r="C562">
-        <v>105.725</v>
+        <v>103.712</v>
       </c>
       <c r="D562" t="s">
         <v>607</v>
@@ -11769,7 +11769,7 @@
         <v>606</v>
       </c>
       <c r="C563">
-        <v>106.079</v>
+        <v>103.841</v>
       </c>
       <c r="D563" t="s">
         <v>607</v>
@@ -11786,7 +11786,7 @@
         <v>606</v>
       </c>
       <c r="C564">
-        <v>106.974</v>
+        <v>107.913</v>
       </c>
       <c r="D564" t="s">
         <v>607</v>
@@ -11800,10 +11800,10 @@
         <v>566</v>
       </c>
       <c r="B565" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C565">
-        <v>102.639</v>
+        <v>98.932</v>
       </c>
       <c r="D565" t="s">
         <v>607</v>
@@ -11817,10 +11817,10 @@
         <v>567</v>
       </c>
       <c r="B566" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C566">
-        <v>101.979</v>
+        <v>96.569</v>
       </c>
       <c r="D566" t="s">
         <v>607</v>
@@ -11837,7 +11837,7 @@
         <v>605</v>
       </c>
       <c r="C567">
-        <v>95.402</v>
+        <v>93.401</v>
       </c>
       <c r="D567" t="s">
         <v>607</v>
@@ -11854,7 +11854,7 @@
         <v>606</v>
       </c>
       <c r="C568">
-        <v>102.339</v>
+        <v>102.907</v>
       </c>
       <c r="D568" t="s">
         <v>607</v>
@@ -11871,7 +11871,7 @@
         <v>606</v>
       </c>
       <c r="C569">
-        <v>102.304</v>
+        <v>102.936</v>
       </c>
       <c r="D569" t="s">
         <v>607</v>
@@ -11888,7 +11888,7 @@
         <v>606</v>
       </c>
       <c r="C570">
-        <v>108.359</v>
+        <v>106.218</v>
       </c>
       <c r="D570" t="s">
         <v>607</v>
@@ -11902,10 +11902,10 @@
         <v>572</v>
       </c>
       <c r="B571" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C571">
-        <v>114.683</v>
+        <v>98.206</v>
       </c>
       <c r="D571" t="s">
         <v>607</v>
@@ -11922,7 +11922,7 @@
         <v>605</v>
       </c>
       <c r="C572">
-        <v>99.161</v>
+        <v>98.392</v>
       </c>
       <c r="D572" t="s">
         <v>607</v>
@@ -11936,10 +11936,10 @@
         <v>574</v>
       </c>
       <c r="B573" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C573">
-        <v>98.166</v>
+        <v>100.296</v>
       </c>
       <c r="D573" t="s">
         <v>607</v>
@@ -11953,10 +11953,10 @@
         <v>575</v>
       </c>
       <c r="B574" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C574">
-        <v>97.91200000000001</v>
+        <v>101.78</v>
       </c>
       <c r="D574" t="s">
         <v>607</v>
@@ -11973,7 +11973,7 @@
         <v>606</v>
       </c>
       <c r="C575">
-        <v>101.524</v>
+        <v>102.44</v>
       </c>
       <c r="D575" t="s">
         <v>607</v>
@@ -11990,7 +11990,7 @@
         <v>606</v>
       </c>
       <c r="C576">
-        <v>105.364</v>
+        <v>101.982</v>
       </c>
       <c r="D576" t="s">
         <v>607</v>
@@ -12004,10 +12004,10 @@
         <v>578</v>
       </c>
       <c r="B577" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C577">
-        <v>102.054</v>
+        <v>98.97199999999999</v>
       </c>
       <c r="D577" t="s">
         <v>607</v>
@@ -12024,7 +12024,7 @@
         <v>606</v>
       </c>
       <c r="C578">
-        <v>103.682</v>
+        <v>101.761</v>
       </c>
       <c r="D578" t="s">
         <v>607</v>
@@ -12041,7 +12041,7 @@
         <v>606</v>
       </c>
       <c r="C579">
-        <v>105.773</v>
+        <v>103.97</v>
       </c>
       <c r="D579" t="s">
         <v>607</v>
@@ -12058,7 +12058,7 @@
         <v>606</v>
       </c>
       <c r="C580">
-        <v>101.922</v>
+        <v>101.226</v>
       </c>
       <c r="D580" t="s">
         <v>607</v>
@@ -12075,7 +12075,7 @@
         <v>605</v>
       </c>
       <c r="C581">
-        <v>94.71599999999999</v>
+        <v>97.93000000000001</v>
       </c>
       <c r="D581" t="s">
         <v>607</v>
@@ -12092,7 +12092,7 @@
         <v>606</v>
       </c>
       <c r="C582">
-        <v>102.468</v>
+        <v>102.129</v>
       </c>
       <c r="D582" t="s">
         <v>607</v>
@@ -12109,7 +12109,7 @@
         <v>606</v>
       </c>
       <c r="C583">
-        <v>101.695</v>
+        <v>101.448</v>
       </c>
       <c r="D583" t="s">
         <v>607</v>
@@ -12126,7 +12126,7 @@
         <v>606</v>
       </c>
       <c r="C584">
-        <v>105.945</v>
+        <v>103.885</v>
       </c>
       <c r="D584" t="s">
         <v>607</v>
@@ -12143,7 +12143,7 @@
         <v>606</v>
       </c>
       <c r="C585">
-        <v>102.081</v>
+        <v>103.607</v>
       </c>
       <c r="D585" t="s">
         <v>607</v>
@@ -12160,7 +12160,7 @@
         <v>606</v>
       </c>
       <c r="C586">
-        <v>106.876</v>
+        <v>107.78</v>
       </c>
       <c r="D586" t="s">
         <v>607</v>
@@ -12177,7 +12177,7 @@
         <v>606</v>
       </c>
       <c r="C587">
-        <v>105.793</v>
+        <v>106.216</v>
       </c>
       <c r="D587" t="s">
         <v>607</v>
@@ -12194,7 +12194,7 @@
         <v>606</v>
       </c>
       <c r="C588">
-        <v>104.101</v>
+        <v>102.703</v>
       </c>
       <c r="D588" t="s">
         <v>607</v>
@@ -12211,7 +12211,7 @@
         <v>606</v>
       </c>
       <c r="C589">
-        <v>104.189</v>
+        <v>103.228</v>
       </c>
       <c r="D589" t="s">
         <v>607</v>
@@ -12228,7 +12228,7 @@
         <v>606</v>
       </c>
       <c r="C590">
-        <v>106.433</v>
+        <v>103.502</v>
       </c>
       <c r="D590" t="s">
         <v>607</v>
@@ -12245,7 +12245,7 @@
         <v>606</v>
       </c>
       <c r="C591">
-        <v>102.67</v>
+        <v>101.968</v>
       </c>
       <c r="D591" t="s">
         <v>607</v>
@@ -12262,7 +12262,7 @@
         <v>605</v>
       </c>
       <c r="C592">
-        <v>99.256</v>
+        <v>99.81399999999999</v>
       </c>
       <c r="D592" t="s">
         <v>607</v>
@@ -12279,7 +12279,7 @@
         <v>606</v>
       </c>
       <c r="C593">
-        <v>103.737</v>
+        <v>100.545</v>
       </c>
       <c r="D593" t="s">
         <v>607</v>
@@ -12296,7 +12296,7 @@
         <v>606</v>
       </c>
       <c r="C594">
-        <v>102.976</v>
+        <v>100.857</v>
       </c>
       <c r="D594" t="s">
         <v>607</v>
@@ -12313,7 +12313,7 @@
         <v>606</v>
       </c>
       <c r="C595">
-        <v>103.652</v>
+        <v>103.927</v>
       </c>
       <c r="D595" t="s">
         <v>607</v>
@@ -12330,7 +12330,7 @@
         <v>606</v>
       </c>
       <c r="C596">
-        <v>101.657</v>
+        <v>102.095</v>
       </c>
       <c r="D596" t="s">
         <v>607</v>
@@ -12347,7 +12347,7 @@
         <v>606</v>
       </c>
       <c r="C597">
-        <v>100.655</v>
+        <v>100.375</v>
       </c>
       <c r="D597" t="s">
         <v>607</v>
@@ -12364,7 +12364,7 @@
         <v>606</v>
       </c>
       <c r="C598">
-        <v>101.243</v>
+        <v>102.433</v>
       </c>
       <c r="D598" t="s">
         <v>607</v>
@@ -12381,7 +12381,7 @@
         <v>606</v>
       </c>
       <c r="C599">
-        <v>100.761</v>
+        <v>101.296</v>
       </c>
       <c r="D599" t="s">
         <v>607</v>
@@ -12398,7 +12398,7 @@
         <v>606</v>
       </c>
       <c r="C600">
-        <v>105.264</v>
+        <v>103.376</v>
       </c>
       <c r="D600" t="s">
         <v>607</v>
@@ -12415,7 +12415,7 @@
         <v>606</v>
       </c>
       <c r="C601">
-        <v>105.868</v>
+        <v>102.025</v>
       </c>
       <c r="D601" t="s">
         <v>607</v>
@@ -12432,7 +12432,7 @@
         <v>606</v>
       </c>
       <c r="C602">
-        <v>107.741</v>
+        <v>105.184</v>
       </c>
       <c r="D602" t="s">
         <v>607</v>
@@ -12449,7 +12449,7 @@
         <v>605</v>
       </c>
       <c r="C603">
-        <v>96.73399999999999</v>
+        <v>91.149</v>
       </c>
       <c r="D603" t="s">
         <v>607</v>

--- a/generated_reports/tradfi_momentum.xlsx
+++ b/generated_reports/tradfi_momentum.xlsx
@@ -2232,7 +2232,7 @@
         <v>605</v>
       </c>
       <c r="C2">
-        <v>98.518</v>
+        <v>98.30800000000001</v>
       </c>
       <c r="D2" t="s">
         <v>607</v>
@@ -2246,10 +2246,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C3">
-        <v>99.568</v>
+        <v>101.741</v>
       </c>
       <c r="D3" t="s">
         <v>607</v>
@@ -2266,7 +2266,7 @@
         <v>606</v>
       </c>
       <c r="C4">
-        <v>101.275</v>
+        <v>104.099</v>
       </c>
       <c r="D4" t="s">
         <v>607</v>
@@ -2283,7 +2283,7 @@
         <v>606</v>
       </c>
       <c r="C5">
-        <v>105.092</v>
+        <v>108.883</v>
       </c>
       <c r="D5" t="s">
         <v>607</v>
@@ -2300,7 +2300,7 @@
         <v>606</v>
       </c>
       <c r="C6">
-        <v>102.269</v>
+        <v>101.26</v>
       </c>
       <c r="D6" t="s">
         <v>607</v>
@@ -2317,7 +2317,7 @@
         <v>606</v>
       </c>
       <c r="C7">
-        <v>102.155</v>
+        <v>102.8</v>
       </c>
       <c r="D7" t="s">
         <v>607</v>
@@ -2334,7 +2334,7 @@
         <v>605</v>
       </c>
       <c r="C8">
-        <v>93.449</v>
+        <v>96.98099999999999</v>
       </c>
       <c r="D8" t="s">
         <v>607</v>
@@ -2351,7 +2351,7 @@
         <v>606</v>
       </c>
       <c r="C9">
-        <v>107.064</v>
+        <v>100.713</v>
       </c>
       <c r="D9" t="s">
         <v>607</v>
@@ -2368,7 +2368,7 @@
         <v>605</v>
       </c>
       <c r="C10">
-        <v>91.261</v>
+        <v>94.892</v>
       </c>
       <c r="D10" t="s">
         <v>607</v>
@@ -2385,7 +2385,7 @@
         <v>606</v>
       </c>
       <c r="C11">
-        <v>103.57</v>
+        <v>102.675</v>
       </c>
       <c r="D11" t="s">
         <v>607</v>
@@ -2402,7 +2402,7 @@
         <v>605</v>
       </c>
       <c r="C12">
-        <v>99.70699999999999</v>
+        <v>98.499</v>
       </c>
       <c r="D12" t="s">
         <v>607</v>
@@ -2416,10 +2416,10 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C13">
-        <v>98.791</v>
+        <v>108.922</v>
       </c>
       <c r="D13" t="s">
         <v>607</v>
@@ -2436,7 +2436,7 @@
         <v>606</v>
       </c>
       <c r="C14">
-        <v>102.96</v>
+        <v>101.594</v>
       </c>
       <c r="D14" t="s">
         <v>607</v>
@@ -2453,7 +2453,7 @@
         <v>605</v>
       </c>
       <c r="C15">
-        <v>95.58499999999999</v>
+        <v>98.59399999999999</v>
       </c>
       <c r="D15" t="s">
         <v>607</v>
@@ -2470,7 +2470,7 @@
         <v>606</v>
       </c>
       <c r="C16">
-        <v>101.474</v>
+        <v>101.071</v>
       </c>
       <c r="D16" t="s">
         <v>607</v>
@@ -2487,7 +2487,7 @@
         <v>605</v>
       </c>
       <c r="C17">
-        <v>95.021</v>
+        <v>97.73</v>
       </c>
       <c r="D17" t="s">
         <v>607</v>
@@ -2504,7 +2504,7 @@
         <v>606</v>
       </c>
       <c r="C18">
-        <v>100.309</v>
+        <v>102.512</v>
       </c>
       <c r="D18" t="s">
         <v>607</v>
@@ -2518,10 +2518,10 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C19">
-        <v>100.309</v>
+        <v>99.791</v>
       </c>
       <c r="D19" t="s">
         <v>607</v>
@@ -2538,7 +2538,7 @@
         <v>605</v>
       </c>
       <c r="C20">
-        <v>95.65300000000001</v>
+        <v>94.72799999999999</v>
       </c>
       <c r="D20" t="s">
         <v>607</v>
@@ -2555,7 +2555,7 @@
         <v>606</v>
       </c>
       <c r="C21">
-        <v>103.275</v>
+        <v>104.119</v>
       </c>
       <c r="D21" t="s">
         <v>607</v>
@@ -2572,7 +2572,7 @@
         <v>606</v>
       </c>
       <c r="C22">
-        <v>101.386</v>
+        <v>100.394</v>
       </c>
       <c r="D22" t="s">
         <v>607</v>
@@ -2589,7 +2589,7 @@
         <v>606</v>
       </c>
       <c r="C23">
-        <v>106.096</v>
+        <v>107.439</v>
       </c>
       <c r="D23" t="s">
         <v>607</v>
@@ -2606,7 +2606,7 @@
         <v>605</v>
       </c>
       <c r="C24">
-        <v>93.508</v>
+        <v>92.486</v>
       </c>
       <c r="D24" t="s">
         <v>607</v>
@@ -2620,10 +2620,10 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C25">
-        <v>98.863</v>
+        <v>101.802</v>
       </c>
       <c r="D25" t="s">
         <v>607</v>
@@ -2640,7 +2640,7 @@
         <v>606</v>
       </c>
       <c r="C26">
-        <v>101.265</v>
+        <v>101.428</v>
       </c>
       <c r="D26" t="s">
         <v>607</v>
@@ -2657,7 +2657,7 @@
         <v>605</v>
       </c>
       <c r="C27">
-        <v>99.535</v>
+        <v>98.26900000000001</v>
       </c>
       <c r="D27" t="s">
         <v>607</v>
@@ -2674,7 +2674,7 @@
         <v>606</v>
       </c>
       <c r="C28">
-        <v>102.493</v>
+        <v>102.039</v>
       </c>
       <c r="D28" t="s">
         <v>607</v>
@@ -2691,7 +2691,7 @@
         <v>606</v>
       </c>
       <c r="C29">
-        <v>100.761</v>
+        <v>102.678</v>
       </c>
       <c r="D29" t="s">
         <v>607</v>
@@ -2705,10 +2705,10 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C30">
-        <v>100.263</v>
+        <v>99.63500000000001</v>
       </c>
       <c r="D30" t="s">
         <v>607</v>
@@ -2725,7 +2725,7 @@
         <v>606</v>
       </c>
       <c r="C31">
-        <v>100.773</v>
+        <v>102.282</v>
       </c>
       <c r="D31" t="s">
         <v>607</v>
@@ -2742,7 +2742,7 @@
         <v>605</v>
       </c>
       <c r="C32">
-        <v>94.697</v>
+        <v>92.03400000000001</v>
       </c>
       <c r="D32" t="s">
         <v>607</v>
@@ -2756,10 +2756,10 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C33">
-        <v>102.175</v>
+        <v>98.69799999999999</v>
       </c>
       <c r="D33" t="s">
         <v>607</v>
@@ -2776,7 +2776,7 @@
         <v>605</v>
       </c>
       <c r="C34">
-        <v>85.833</v>
+        <v>84.646</v>
       </c>
       <c r="D34" t="s">
         <v>607</v>
@@ -2793,7 +2793,7 @@
         <v>606</v>
       </c>
       <c r="C35">
-        <v>104.198</v>
+        <v>101.19</v>
       </c>
       <c r="D35" t="s">
         <v>607</v>
@@ -2810,7 +2810,7 @@
         <v>606</v>
       </c>
       <c r="C36">
-        <v>109.63</v>
+        <v>111.001</v>
       </c>
       <c r="D36" t="s">
         <v>607</v>
@@ -2827,7 +2827,7 @@
         <v>606</v>
       </c>
       <c r="C37">
-        <v>101.342</v>
+        <v>102.85</v>
       </c>
       <c r="D37" t="s">
         <v>607</v>
@@ -2844,7 +2844,7 @@
         <v>605</v>
       </c>
       <c r="C38">
-        <v>90.444</v>
+        <v>90.03700000000001</v>
       </c>
       <c r="D38" t="s">
         <v>607</v>
@@ -2861,7 +2861,7 @@
         <v>606</v>
       </c>
       <c r="C39">
-        <v>102.93</v>
+        <v>104.586</v>
       </c>
       <c r="D39" t="s">
         <v>607</v>
@@ -2875,10 +2875,10 @@
         <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C40">
-        <v>99.947</v>
+        <v>102.946</v>
       </c>
       <c r="D40" t="s">
         <v>607</v>
@@ -2895,7 +2895,7 @@
         <v>606</v>
       </c>
       <c r="C41">
-        <v>102.897</v>
+        <v>102.541</v>
       </c>
       <c r="D41" t="s">
         <v>607</v>
@@ -2912,7 +2912,7 @@
         <v>606</v>
       </c>
       <c r="C42">
-        <v>102.344</v>
+        <v>101.072</v>
       </c>
       <c r="D42" t="s">
         <v>607</v>
@@ -2929,7 +2929,7 @@
         <v>606</v>
       </c>
       <c r="C43">
-        <v>105.778</v>
+        <v>103.9</v>
       </c>
       <c r="D43" t="s">
         <v>607</v>
@@ -2946,7 +2946,7 @@
         <v>606</v>
       </c>
       <c r="C44">
-        <v>101.629</v>
+        <v>102.349</v>
       </c>
       <c r="D44" t="s">
         <v>607</v>
@@ -2963,7 +2963,7 @@
         <v>606</v>
       </c>
       <c r="C45">
-        <v>100.745</v>
+        <v>101.767</v>
       </c>
       <c r="D45" t="s">
         <v>607</v>
@@ -2977,10 +2977,10 @@
         <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C46">
-        <v>103.529</v>
+        <v>99.86</v>
       </c>
       <c r="D46" t="s">
         <v>607</v>
@@ -2997,7 +2997,7 @@
         <v>606</v>
       </c>
       <c r="C47">
-        <v>104.161</v>
+        <v>103.771</v>
       </c>
       <c r="D47" t="s">
         <v>607</v>
@@ -3011,10 +3011,10 @@
         <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C48">
-        <v>99.964</v>
+        <v>105.216</v>
       </c>
       <c r="D48" t="s">
         <v>607</v>
@@ -3031,7 +3031,7 @@
         <v>605</v>
       </c>
       <c r="C49">
-        <v>97.657</v>
+        <v>96.581</v>
       </c>
       <c r="D49" t="s">
         <v>607</v>
@@ -3048,7 +3048,7 @@
         <v>606</v>
       </c>
       <c r="C50">
-        <v>102.946</v>
+        <v>101.222</v>
       </c>
       <c r="D50" t="s">
         <v>607</v>
@@ -3065,7 +3065,7 @@
         <v>606</v>
       </c>
       <c r="C51">
-        <v>104.283</v>
+        <v>106.499</v>
       </c>
       <c r="D51" t="s">
         <v>607</v>
@@ -3079,10 +3079,10 @@
         <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C52">
-        <v>100.369</v>
+        <v>99.929</v>
       </c>
       <c r="D52" t="s">
         <v>607</v>
@@ -3099,7 +3099,7 @@
         <v>605</v>
       </c>
       <c r="C53">
-        <v>95.932</v>
+        <v>97.818</v>
       </c>
       <c r="D53" t="s">
         <v>607</v>
@@ -3116,7 +3116,7 @@
         <v>606</v>
       </c>
       <c r="C54">
-        <v>104.406</v>
+        <v>102.619</v>
       </c>
       <c r="D54" t="s">
         <v>607</v>
@@ -3133,7 +3133,7 @@
         <v>606</v>
       </c>
       <c r="C55">
-        <v>101.986</v>
+        <v>101.976</v>
       </c>
       <c r="D55" t="s">
         <v>607</v>
@@ -3150,7 +3150,7 @@
         <v>605</v>
       </c>
       <c r="C56">
-        <v>97.36</v>
+        <v>98.821</v>
       </c>
       <c r="D56" t="s">
         <v>607</v>
@@ -3164,10 +3164,10 @@
         <v>60</v>
       </c>
       <c r="B57" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C57">
-        <v>97.941</v>
+        <v>106.257</v>
       </c>
       <c r="D57" t="s">
         <v>607</v>
@@ -3184,7 +3184,7 @@
         <v>606</v>
       </c>
       <c r="C58">
-        <v>107.842</v>
+        <v>106.877</v>
       </c>
       <c r="D58" t="s">
         <v>607</v>
@@ -3201,7 +3201,7 @@
         <v>606</v>
       </c>
       <c r="C59">
-        <v>104.125</v>
+        <v>103.165</v>
       </c>
       <c r="D59" t="s">
         <v>607</v>
@@ -3218,7 +3218,7 @@
         <v>605</v>
       </c>
       <c r="C60">
-        <v>96.559</v>
+        <v>96.205</v>
       </c>
       <c r="D60" t="s">
         <v>607</v>
@@ -3235,7 +3235,7 @@
         <v>605</v>
       </c>
       <c r="C61">
-        <v>97.833</v>
+        <v>97.774</v>
       </c>
       <c r="D61" t="s">
         <v>607</v>
@@ -3252,7 +3252,7 @@
         <v>606</v>
       </c>
       <c r="C62">
-        <v>104.04</v>
+        <v>100.886</v>
       </c>
       <c r="D62" t="s">
         <v>607</v>
@@ -3266,10 +3266,10 @@
         <v>66</v>
       </c>
       <c r="B63" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C63">
-        <v>100.155</v>
+        <v>99.86199999999999</v>
       </c>
       <c r="D63" t="s">
         <v>607</v>
@@ -3286,7 +3286,7 @@
         <v>606</v>
       </c>
       <c r="C64">
-        <v>101.984</v>
+        <v>101.125</v>
       </c>
       <c r="D64" t="s">
         <v>607</v>
@@ -3303,7 +3303,7 @@
         <v>605</v>
       </c>
       <c r="C65">
-        <v>98.06699999999999</v>
+        <v>98.363</v>
       </c>
       <c r="D65" t="s">
         <v>607</v>
@@ -3320,7 +3320,7 @@
         <v>606</v>
       </c>
       <c r="C66">
-        <v>105.736</v>
+        <v>104.707</v>
       </c>
       <c r="D66" t="s">
         <v>607</v>
@@ -3337,7 +3337,7 @@
         <v>606</v>
       </c>
       <c r="C67">
-        <v>100.411</v>
+        <v>102.146</v>
       </c>
       <c r="D67" t="s">
         <v>607</v>
@@ -3354,7 +3354,7 @@
         <v>606</v>
       </c>
       <c r="C68">
-        <v>104.924</v>
+        <v>102.811</v>
       </c>
       <c r="D68" t="s">
         <v>607</v>
@@ -3371,7 +3371,7 @@
         <v>605</v>
       </c>
       <c r="C69">
-        <v>97.90300000000001</v>
+        <v>96.55</v>
       </c>
       <c r="D69" t="s">
         <v>607</v>
@@ -3388,7 +3388,7 @@
         <v>606</v>
       </c>
       <c r="C70">
-        <v>132.766</v>
+        <v>128.099</v>
       </c>
       <c r="D70" t="s">
         <v>607</v>
@@ -3405,7 +3405,7 @@
         <v>606</v>
       </c>
       <c r="C71">
-        <v>105.984</v>
+        <v>102.101</v>
       </c>
       <c r="D71" t="s">
         <v>607</v>
@@ -3422,7 +3422,7 @@
         <v>606</v>
       </c>
       <c r="C72">
-        <v>102.267</v>
+        <v>101.282</v>
       </c>
       <c r="D72" t="s">
         <v>607</v>
@@ -3439,7 +3439,7 @@
         <v>606</v>
       </c>
       <c r="C73">
-        <v>104.891</v>
+        <v>104.077</v>
       </c>
       <c r="D73" t="s">
         <v>607</v>
@@ -3453,10 +3453,10 @@
         <v>77</v>
       </c>
       <c r="B74" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C74">
-        <v>100.453</v>
+        <v>97.152</v>
       </c>
       <c r="D74" t="s">
         <v>607</v>
@@ -3473,7 +3473,7 @@
         <v>605</v>
       </c>
       <c r="C75">
-        <v>98.318</v>
+        <v>98.074</v>
       </c>
       <c r="D75" t="s">
         <v>607</v>
@@ -3490,7 +3490,7 @@
         <v>605</v>
       </c>
       <c r="C76">
-        <v>95.828</v>
+        <v>99.712</v>
       </c>
       <c r="D76" t="s">
         <v>607</v>
@@ -3507,7 +3507,7 @@
         <v>606</v>
       </c>
       <c r="C77">
-        <v>104.896</v>
+        <v>104.906</v>
       </c>
       <c r="D77" t="s">
         <v>607</v>
@@ -3524,7 +3524,7 @@
         <v>605</v>
       </c>
       <c r="C78">
-        <v>93.633</v>
+        <v>97.89100000000001</v>
       </c>
       <c r="D78" t="s">
         <v>607</v>
@@ -3541,7 +3541,7 @@
         <v>605</v>
       </c>
       <c r="C79">
-        <v>98.279</v>
+        <v>89.29000000000001</v>
       </c>
       <c r="D79" t="s">
         <v>607</v>
@@ -3558,7 +3558,7 @@
         <v>606</v>
       </c>
       <c r="C80">
-        <v>102.184</v>
+        <v>101.336</v>
       </c>
       <c r="D80" t="s">
         <v>607</v>
@@ -3575,7 +3575,7 @@
         <v>606</v>
       </c>
       <c r="C81">
-        <v>111.843</v>
+        <v>106.598</v>
       </c>
       <c r="D81" t="s">
         <v>607</v>
@@ -3592,7 +3592,7 @@
         <v>606</v>
       </c>
       <c r="C82">
-        <v>114.251</v>
+        <v>112.838</v>
       </c>
       <c r="D82" t="s">
         <v>607</v>
@@ -3609,7 +3609,7 @@
         <v>606</v>
       </c>
       <c r="C83">
-        <v>113.415</v>
+        <v>101.207</v>
       </c>
       <c r="D83" t="s">
         <v>607</v>
@@ -3626,7 +3626,7 @@
         <v>605</v>
       </c>
       <c r="C84">
-        <v>95.905</v>
+        <v>97.325</v>
       </c>
       <c r="D84" t="s">
         <v>607</v>
@@ -3640,10 +3640,10 @@
         <v>88</v>
       </c>
       <c r="B85" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C85">
-        <v>95.761</v>
+        <v>100.626</v>
       </c>
       <c r="D85" t="s">
         <v>607</v>
@@ -3660,7 +3660,7 @@
         <v>605</v>
       </c>
       <c r="C86">
-        <v>93.691</v>
+        <v>95.58</v>
       </c>
       <c r="D86" t="s">
         <v>607</v>
@@ -3677,7 +3677,7 @@
         <v>606</v>
       </c>
       <c r="C87">
-        <v>104.475</v>
+        <v>103.187</v>
       </c>
       <c r="D87" t="s">
         <v>607</v>
@@ -3694,7 +3694,7 @@
         <v>605</v>
       </c>
       <c r="C88">
-        <v>89.517</v>
+        <v>86.68600000000001</v>
       </c>
       <c r="D88" t="s">
         <v>607</v>
@@ -3711,7 +3711,7 @@
         <v>606</v>
       </c>
       <c r="C89">
-        <v>105.828</v>
+        <v>102.241</v>
       </c>
       <c r="D89" t="s">
         <v>607</v>
@@ -3728,7 +3728,7 @@
         <v>606</v>
       </c>
       <c r="C90">
-        <v>100.936</v>
+        <v>100.964</v>
       </c>
       <c r="D90" t="s">
         <v>607</v>
@@ -3745,7 +3745,7 @@
         <v>606</v>
       </c>
       <c r="C91">
-        <v>113.537</v>
+        <v>110.934</v>
       </c>
       <c r="D91" t="s">
         <v>607</v>
@@ -3762,7 +3762,7 @@
         <v>605</v>
       </c>
       <c r="C92">
-        <v>98.236</v>
+        <v>95.379</v>
       </c>
       <c r="D92" t="s">
         <v>607</v>
@@ -3779,7 +3779,7 @@
         <v>605</v>
       </c>
       <c r="C93">
-        <v>92.09999999999999</v>
+        <v>92.083</v>
       </c>
       <c r="D93" t="s">
         <v>607</v>
@@ -3793,10 +3793,10 @@
         <v>97</v>
       </c>
       <c r="B94" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C94">
-        <v>100.171</v>
+        <v>95.72799999999999</v>
       </c>
       <c r="D94" t="s">
         <v>607</v>
@@ -3813,7 +3813,7 @@
         <v>606</v>
       </c>
       <c r="C95">
-        <v>108.544</v>
+        <v>110.447</v>
       </c>
       <c r="D95" t="s">
         <v>607</v>
@@ -3830,7 +3830,7 @@
         <v>605</v>
       </c>
       <c r="C96">
-        <v>99.881</v>
+        <v>97.627</v>
       </c>
       <c r="D96" t="s">
         <v>607</v>
@@ -3847,7 +3847,7 @@
         <v>605</v>
       </c>
       <c r="C97">
-        <v>90.488</v>
+        <v>93.123</v>
       </c>
       <c r="D97" t="s">
         <v>607</v>
@@ -3864,7 +3864,7 @@
         <v>605</v>
       </c>
       <c r="C98">
-        <v>98.574</v>
+        <v>96.01000000000001</v>
       </c>
       <c r="D98" t="s">
         <v>607</v>
@@ -3881,7 +3881,7 @@
         <v>606</v>
       </c>
       <c r="C99">
-        <v>101.241</v>
+        <v>101.16</v>
       </c>
       <c r="D99" t="s">
         <v>607</v>
@@ -3898,7 +3898,7 @@
         <v>606</v>
       </c>
       <c r="C100">
-        <v>103.376</v>
+        <v>101.475</v>
       </c>
       <c r="D100" t="s">
         <v>607</v>
@@ -3915,7 +3915,7 @@
         <v>605</v>
       </c>
       <c r="C101">
-        <v>96.39</v>
+        <v>94.76300000000001</v>
       </c>
       <c r="D101" t="s">
         <v>607</v>
@@ -3929,10 +3929,10 @@
         <v>105</v>
       </c>
       <c r="B102" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C102">
-        <v>100.044</v>
+        <v>99.459</v>
       </c>
       <c r="D102" t="s">
         <v>607</v>
@@ -3949,7 +3949,7 @@
         <v>606</v>
       </c>
       <c r="C103">
-        <v>104.744</v>
+        <v>103.441</v>
       </c>
       <c r="D103" t="s">
         <v>607</v>
@@ -3966,7 +3966,7 @@
         <v>606</v>
       </c>
       <c r="C104">
-        <v>103.451</v>
+        <v>100.762</v>
       </c>
       <c r="D104" t="s">
         <v>607</v>
@@ -3983,7 +3983,7 @@
         <v>606</v>
       </c>
       <c r="C105">
-        <v>103.731</v>
+        <v>102.191</v>
       </c>
       <c r="D105" t="s">
         <v>607</v>
@@ -4000,7 +4000,7 @@
         <v>606</v>
       </c>
       <c r="C106">
-        <v>102.84</v>
+        <v>101.229</v>
       </c>
       <c r="D106" t="s">
         <v>607</v>
@@ -4017,7 +4017,7 @@
         <v>606</v>
       </c>
       <c r="C107">
-        <v>105.41</v>
+        <v>105.409</v>
       </c>
       <c r="D107" t="s">
         <v>607</v>
@@ -4031,10 +4031,10 @@
         <v>111</v>
       </c>
       <c r="B108" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C108">
-        <v>102.053</v>
+        <v>99.694</v>
       </c>
       <c r="D108" t="s">
         <v>607</v>
@@ -4051,7 +4051,7 @@
         <v>606</v>
       </c>
       <c r="C109">
-        <v>101.884</v>
+        <v>100.482</v>
       </c>
       <c r="D109" t="s">
         <v>607</v>
@@ -4065,10 +4065,10 @@
         <v>113</v>
       </c>
       <c r="B110" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C110">
-        <v>100.881</v>
+        <v>98.414</v>
       </c>
       <c r="D110" t="s">
         <v>607</v>
@@ -4085,7 +4085,7 @@
         <v>606</v>
       </c>
       <c r="C111">
-        <v>103.673</v>
+        <v>105.782</v>
       </c>
       <c r="D111" t="s">
         <v>607</v>
@@ -4102,7 +4102,7 @@
         <v>606</v>
       </c>
       <c r="C112">
-        <v>101.872</v>
+        <v>101.044</v>
       </c>
       <c r="D112" t="s">
         <v>607</v>
@@ -4119,7 +4119,7 @@
         <v>606</v>
       </c>
       <c r="C113">
-        <v>106.085</v>
+        <v>103.863</v>
       </c>
       <c r="D113" t="s">
         <v>607</v>
@@ -4136,7 +4136,7 @@
         <v>606</v>
       </c>
       <c r="C114">
-        <v>103.562</v>
+        <v>101.321</v>
       </c>
       <c r="D114" t="s">
         <v>607</v>
@@ -4153,7 +4153,7 @@
         <v>606</v>
       </c>
       <c r="C115">
-        <v>101.9</v>
+        <v>100.88</v>
       </c>
       <c r="D115" t="s">
         <v>607</v>
@@ -4170,7 +4170,7 @@
         <v>606</v>
       </c>
       <c r="C116">
-        <v>102.436</v>
+        <v>101.542</v>
       </c>
       <c r="D116" t="s">
         <v>607</v>
@@ -4187,7 +4187,7 @@
         <v>606</v>
       </c>
       <c r="C117">
-        <v>107.839</v>
+        <v>104.696</v>
       </c>
       <c r="D117" t="s">
         <v>607</v>
@@ -4204,7 +4204,7 @@
         <v>606</v>
       </c>
       <c r="C118">
-        <v>104.334</v>
+        <v>103.939</v>
       </c>
       <c r="D118" t="s">
         <v>607</v>
@@ -4221,7 +4221,7 @@
         <v>606</v>
       </c>
       <c r="C119">
-        <v>107.13</v>
+        <v>104.4</v>
       </c>
       <c r="D119" t="s">
         <v>607</v>
@@ -4238,7 +4238,7 @@
         <v>605</v>
       </c>
       <c r="C120">
-        <v>97.742</v>
+        <v>99.02500000000001</v>
       </c>
       <c r="D120" t="s">
         <v>607</v>
@@ -4255,7 +4255,7 @@
         <v>605</v>
       </c>
       <c r="C121">
-        <v>99.319</v>
+        <v>99.226</v>
       </c>
       <c r="D121" t="s">
         <v>607</v>
@@ -4272,7 +4272,7 @@
         <v>606</v>
       </c>
       <c r="C122">
-        <v>112.755</v>
+        <v>106.822</v>
       </c>
       <c r="D122" t="s">
         <v>607</v>
@@ -4289,7 +4289,7 @@
         <v>605</v>
       </c>
       <c r="C123">
-        <v>99.742</v>
+        <v>96.547</v>
       </c>
       <c r="D123" t="s">
         <v>607</v>
@@ -4306,7 +4306,7 @@
         <v>605</v>
       </c>
       <c r="C124">
-        <v>99.875</v>
+        <v>98.596</v>
       </c>
       <c r="D124" t="s">
         <v>607</v>
@@ -4320,10 +4320,10 @@
         <v>128</v>
       </c>
       <c r="B125" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C125">
-        <v>100.942</v>
+        <v>99.015</v>
       </c>
       <c r="D125" t="s">
         <v>607</v>
@@ -4340,7 +4340,7 @@
         <v>606</v>
       </c>
       <c r="C126">
-        <v>103.113</v>
+        <v>101.679</v>
       </c>
       <c r="D126" t="s">
         <v>607</v>
@@ -4357,7 +4357,7 @@
         <v>605</v>
       </c>
       <c r="C127">
-        <v>95.93300000000001</v>
+        <v>98.89</v>
       </c>
       <c r="D127" t="s">
         <v>607</v>
@@ -4374,7 +4374,7 @@
         <v>605</v>
       </c>
       <c r="C128">
-        <v>98.13800000000001</v>
+        <v>98.001</v>
       </c>
       <c r="D128" t="s">
         <v>607</v>
@@ -4391,7 +4391,7 @@
         <v>606</v>
       </c>
       <c r="C129">
-        <v>101.345</v>
+        <v>101.101</v>
       </c>
       <c r="D129" t="s">
         <v>607</v>
@@ -4408,7 +4408,7 @@
         <v>606</v>
       </c>
       <c r="C130">
-        <v>102.55</v>
+        <v>101.253</v>
       </c>
       <c r="D130" t="s">
         <v>607</v>
@@ -4425,7 +4425,7 @@
         <v>606</v>
       </c>
       <c r="C131">
-        <v>101.942</v>
+        <v>100.916</v>
       </c>
       <c r="D131" t="s">
         <v>607</v>
@@ -4442,7 +4442,7 @@
         <v>606</v>
       </c>
       <c r="C132">
-        <v>101.744</v>
+        <v>101.387</v>
       </c>
       <c r="D132" t="s">
         <v>607</v>
@@ -4459,7 +4459,7 @@
         <v>606</v>
       </c>
       <c r="C133">
-        <v>104.057</v>
+        <v>103.371</v>
       </c>
       <c r="D133" t="s">
         <v>607</v>
@@ -4476,7 +4476,7 @@
         <v>606</v>
       </c>
       <c r="C134">
-        <v>105.231</v>
+        <v>105.404</v>
       </c>
       <c r="D134" t="s">
         <v>607</v>
@@ -4493,7 +4493,7 @@
         <v>605</v>
       </c>
       <c r="C135">
-        <v>99.31</v>
+        <v>96.36799999999999</v>
       </c>
       <c r="D135" t="s">
         <v>607</v>
@@ -4510,7 +4510,7 @@
         <v>606</v>
       </c>
       <c r="C136">
-        <v>104.005</v>
+        <v>100.942</v>
       </c>
       <c r="D136" t="s">
         <v>607</v>
@@ -4527,7 +4527,7 @@
         <v>606</v>
       </c>
       <c r="C137">
-        <v>102.462</v>
+        <v>100.871</v>
       </c>
       <c r="D137" t="s">
         <v>607</v>
@@ -4544,7 +4544,7 @@
         <v>605</v>
       </c>
       <c r="C138">
-        <v>99.407</v>
+        <v>98.51000000000001</v>
       </c>
       <c r="D138" t="s">
         <v>607</v>
@@ -4561,7 +4561,7 @@
         <v>606</v>
       </c>
       <c r="C139">
-        <v>102.674</v>
+        <v>100.128</v>
       </c>
       <c r="D139" t="s">
         <v>607</v>
@@ -4578,7 +4578,7 @@
         <v>605</v>
       </c>
       <c r="C140">
-        <v>99.61799999999999</v>
+        <v>98.395</v>
       </c>
       <c r="D140" t="s">
         <v>607</v>
@@ -4595,7 +4595,7 @@
         <v>606</v>
       </c>
       <c r="C141">
-        <v>104.152</v>
+        <v>102.65</v>
       </c>
       <c r="D141" t="s">
         <v>607</v>
@@ -4612,7 +4612,7 @@
         <v>606</v>
       </c>
       <c r="C142">
-        <v>103.089</v>
+        <v>101.665</v>
       </c>
       <c r="D142" t="s">
         <v>607</v>
@@ -4629,7 +4629,7 @@
         <v>606</v>
       </c>
       <c r="C143">
-        <v>104.044</v>
+        <v>101.225</v>
       </c>
       <c r="D143" t="s">
         <v>607</v>
@@ -4646,7 +4646,7 @@
         <v>606</v>
       </c>
       <c r="C144">
-        <v>103.417</v>
+        <v>102.145</v>
       </c>
       <c r="D144" t="s">
         <v>607</v>
@@ -4660,10 +4660,10 @@
         <v>148</v>
       </c>
       <c r="B145" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C145">
-        <v>94.81</v>
+        <v>100.107</v>
       </c>
       <c r="D145" t="s">
         <v>607</v>
@@ -4680,7 +4680,7 @@
         <v>606</v>
       </c>
       <c r="C146">
-        <v>103.381</v>
+        <v>103.242</v>
       </c>
       <c r="D146" t="s">
         <v>607</v>
@@ -4697,7 +4697,7 @@
         <v>606</v>
       </c>
       <c r="C147">
-        <v>100.681</v>
+        <v>100.08</v>
       </c>
       <c r="D147" t="s">
         <v>607</v>
@@ -4714,7 +4714,7 @@
         <v>606</v>
       </c>
       <c r="C148">
-        <v>104.228</v>
+        <v>100.637</v>
       </c>
       <c r="D148" t="s">
         <v>607</v>
@@ -4731,7 +4731,7 @@
         <v>605</v>
       </c>
       <c r="C149">
-        <v>98.40300000000001</v>
+        <v>97.089</v>
       </c>
       <c r="D149" t="s">
         <v>607</v>
@@ -4748,7 +4748,7 @@
         <v>606</v>
       </c>
       <c r="C150">
-        <v>102.796</v>
+        <v>104.961</v>
       </c>
       <c r="D150" t="s">
         <v>607</v>
@@ -4765,7 +4765,7 @@
         <v>606</v>
       </c>
       <c r="C151">
-        <v>104.157</v>
+        <v>103.327</v>
       </c>
       <c r="D151" t="s">
         <v>607</v>
@@ -4782,7 +4782,7 @@
         <v>606</v>
       </c>
       <c r="C152">
-        <v>102.171</v>
+        <v>100.169</v>
       </c>
       <c r="D152" t="s">
         <v>607</v>
@@ -4799,7 +4799,7 @@
         <v>606</v>
       </c>
       <c r="C153">
-        <v>104.114</v>
+        <v>104.79</v>
       </c>
       <c r="D153" t="s">
         <v>607</v>
@@ -4816,7 +4816,7 @@
         <v>606</v>
       </c>
       <c r="C154">
-        <v>102.201</v>
+        <v>100.243</v>
       </c>
       <c r="D154" t="s">
         <v>607</v>
@@ -4833,7 +4833,7 @@
         <v>606</v>
       </c>
       <c r="C155">
-        <v>108.616</v>
+        <v>104.577</v>
       </c>
       <c r="D155" t="s">
         <v>607</v>
@@ -4850,7 +4850,7 @@
         <v>606</v>
       </c>
       <c r="C156">
-        <v>102.049</v>
+        <v>100.851</v>
       </c>
       <c r="D156" t="s">
         <v>607</v>
@@ -4867,7 +4867,7 @@
         <v>606</v>
       </c>
       <c r="C157">
-        <v>101.577</v>
+        <v>100.182</v>
       </c>
       <c r="D157" t="s">
         <v>607</v>
@@ -4884,7 +4884,7 @@
         <v>605</v>
       </c>
       <c r="C158">
-        <v>98.726</v>
+        <v>98.134</v>
       </c>
       <c r="D158" t="s">
         <v>607</v>
@@ -4898,10 +4898,10 @@
         <v>162</v>
       </c>
       <c r="B159" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C159">
-        <v>98.52500000000001</v>
+        <v>100.628</v>
       </c>
       <c r="D159" t="s">
         <v>607</v>
@@ -4918,7 +4918,7 @@
         <v>606</v>
       </c>
       <c r="C160">
-        <v>102.63</v>
+        <v>104.421</v>
       </c>
       <c r="D160" t="s">
         <v>607</v>
@@ -4935,7 +4935,7 @@
         <v>606</v>
       </c>
       <c r="C161">
-        <v>107.092</v>
+        <v>101.583</v>
       </c>
       <c r="D161" t="s">
         <v>607</v>
@@ -4952,7 +4952,7 @@
         <v>606</v>
       </c>
       <c r="C162">
-        <v>101.46</v>
+        <v>101.842</v>
       </c>
       <c r="D162" t="s">
         <v>607</v>
@@ -4969,7 +4969,7 @@
         <v>605</v>
       </c>
       <c r="C163">
-        <v>99.343</v>
+        <v>99.426</v>
       </c>
       <c r="D163" t="s">
         <v>607</v>
@@ -4983,10 +4983,10 @@
         <v>167</v>
       </c>
       <c r="B164" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C164">
-        <v>100.859</v>
+        <v>99.485</v>
       </c>
       <c r="D164" t="s">
         <v>607</v>
@@ -5003,7 +5003,7 @@
         <v>606</v>
       </c>
       <c r="C165">
-        <v>102.847</v>
+        <v>100.184</v>
       </c>
       <c r="D165" t="s">
         <v>607</v>
@@ -5020,7 +5020,7 @@
         <v>606</v>
       </c>
       <c r="C166">
-        <v>103.365</v>
+        <v>102.071</v>
       </c>
       <c r="D166" t="s">
         <v>607</v>
@@ -5037,7 +5037,7 @@
         <v>606</v>
       </c>
       <c r="C167">
-        <v>105.996</v>
+        <v>106.246</v>
       </c>
       <c r="D167" t="s">
         <v>607</v>
@@ -5054,7 +5054,7 @@
         <v>606</v>
       </c>
       <c r="C168">
-        <v>102.818</v>
+        <v>102.449</v>
       </c>
       <c r="D168" t="s">
         <v>607</v>
@@ -5068,10 +5068,10 @@
         <v>172</v>
       </c>
       <c r="B169" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C169">
-        <v>100.226</v>
+        <v>98.16200000000001</v>
       </c>
       <c r="D169" t="s">
         <v>607</v>
@@ -5088,7 +5088,7 @@
         <v>606</v>
       </c>
       <c r="C170">
-        <v>102.979</v>
+        <v>100.515</v>
       </c>
       <c r="D170" t="s">
         <v>607</v>
@@ -5105,7 +5105,7 @@
         <v>606</v>
       </c>
       <c r="C171">
-        <v>101.595</v>
+        <v>101.118</v>
       </c>
       <c r="D171" t="s">
         <v>607</v>
@@ -5122,7 +5122,7 @@
         <v>606</v>
       </c>
       <c r="C172">
-        <v>103.703</v>
+        <v>103.53</v>
       </c>
       <c r="D172" t="s">
         <v>607</v>
@@ -5139,7 +5139,7 @@
         <v>606</v>
       </c>
       <c r="C173">
-        <v>104.067</v>
+        <v>103.285</v>
       </c>
       <c r="D173" t="s">
         <v>607</v>
@@ -5156,7 +5156,7 @@
         <v>606</v>
       </c>
       <c r="C174">
-        <v>103.184</v>
+        <v>105.264</v>
       </c>
       <c r="D174" t="s">
         <v>607</v>
@@ -5173,7 +5173,7 @@
         <v>606</v>
       </c>
       <c r="C175">
-        <v>101.778</v>
+        <v>100.987</v>
       </c>
       <c r="D175" t="s">
         <v>607</v>
@@ -5190,7 +5190,7 @@
         <v>606</v>
       </c>
       <c r="C176">
-        <v>104.42</v>
+        <v>104.504</v>
       </c>
       <c r="D176" t="s">
         <v>607</v>
@@ -5207,7 +5207,7 @@
         <v>606</v>
       </c>
       <c r="C177">
-        <v>101.967</v>
+        <v>102.703</v>
       </c>
       <c r="D177" t="s">
         <v>607</v>
@@ -5224,7 +5224,7 @@
         <v>606</v>
       </c>
       <c r="C178">
-        <v>104.485</v>
+        <v>103.664</v>
       </c>
       <c r="D178" t="s">
         <v>607</v>
@@ -5241,7 +5241,7 @@
         <v>605</v>
       </c>
       <c r="C179">
-        <v>96.928</v>
+        <v>96.247</v>
       </c>
       <c r="D179" t="s">
         <v>607</v>
@@ -5258,7 +5258,7 @@
         <v>606</v>
       </c>
       <c r="C180">
-        <v>103.651</v>
+        <v>101.656</v>
       </c>
       <c r="D180" t="s">
         <v>607</v>
@@ -5275,7 +5275,7 @@
         <v>606</v>
       </c>
       <c r="C181">
-        <v>107.096</v>
+        <v>103.124</v>
       </c>
       <c r="D181" t="s">
         <v>607</v>
@@ -5292,7 +5292,7 @@
         <v>605</v>
       </c>
       <c r="C182">
-        <v>98.399</v>
+        <v>98.786</v>
       </c>
       <c r="D182" t="s">
         <v>607</v>
@@ -5309,7 +5309,7 @@
         <v>605</v>
       </c>
       <c r="C183">
-        <v>98.961</v>
+        <v>99.71899999999999</v>
       </c>
       <c r="D183" t="s">
         <v>607</v>
@@ -5323,10 +5323,10 @@
         <v>187</v>
       </c>
       <c r="B184" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C184">
-        <v>100.321</v>
+        <v>99.407</v>
       </c>
       <c r="D184" t="s">
         <v>607</v>
@@ -5343,7 +5343,7 @@
         <v>606</v>
       </c>
       <c r="C185">
-        <v>101.936</v>
+        <v>101.204</v>
       </c>
       <c r="D185" t="s">
         <v>607</v>
@@ -5360,7 +5360,7 @@
         <v>606</v>
       </c>
       <c r="C186">
-        <v>102.823</v>
+        <v>104.143</v>
       </c>
       <c r="D186" t="s">
         <v>607</v>
@@ -5377,7 +5377,7 @@
         <v>605</v>
       </c>
       <c r="C187">
-        <v>98.526</v>
+        <v>98.376</v>
       </c>
       <c r="D187" t="s">
         <v>607</v>
@@ -5394,7 +5394,7 @@
         <v>605</v>
       </c>
       <c r="C188">
-        <v>97.26600000000001</v>
+        <v>97.363</v>
       </c>
       <c r="D188" t="s">
         <v>607</v>
@@ -5411,7 +5411,7 @@
         <v>606</v>
       </c>
       <c r="C189">
-        <v>104.073</v>
+        <v>103.378</v>
       </c>
       <c r="D189" t="s">
         <v>607</v>
@@ -5425,10 +5425,10 @@
         <v>193</v>
       </c>
       <c r="B190" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C190">
-        <v>100.565</v>
+        <v>98.84999999999999</v>
       </c>
       <c r="D190" t="s">
         <v>607</v>
@@ -5445,7 +5445,7 @@
         <v>606</v>
       </c>
       <c r="C191">
-        <v>102.168</v>
+        <v>101.723</v>
       </c>
       <c r="D191" t="s">
         <v>607</v>
@@ -5462,7 +5462,7 @@
         <v>606</v>
       </c>
       <c r="C192">
-        <v>103.713</v>
+        <v>102.004</v>
       </c>
       <c r="D192" t="s">
         <v>607</v>
@@ -5479,7 +5479,7 @@
         <v>606</v>
       </c>
       <c r="C193">
-        <v>104.198</v>
+        <v>101.572</v>
       </c>
       <c r="D193" t="s">
         <v>607</v>
@@ -5496,7 +5496,7 @@
         <v>606</v>
       </c>
       <c r="C194">
-        <v>102.171</v>
+        <v>101.313</v>
       </c>
       <c r="D194" t="s">
         <v>607</v>
@@ -5513,7 +5513,7 @@
         <v>606</v>
       </c>
       <c r="C195">
-        <v>102.845</v>
+        <v>101.405</v>
       </c>
       <c r="D195" t="s">
         <v>607</v>
@@ -5527,10 +5527,10 @@
         <v>199</v>
       </c>
       <c r="B196" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C196">
-        <v>99.36</v>
+        <v>101.078</v>
       </c>
       <c r="D196" t="s">
         <v>607</v>
@@ -5547,7 +5547,7 @@
         <v>606</v>
       </c>
       <c r="C197">
-        <v>102.618</v>
+        <v>101.806</v>
       </c>
       <c r="D197" t="s">
         <v>607</v>
@@ -5561,10 +5561,10 @@
         <v>201</v>
       </c>
       <c r="B198" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C198">
-        <v>100.511</v>
+        <v>99.623</v>
       </c>
       <c r="D198" t="s">
         <v>607</v>
@@ -5581,7 +5581,7 @@
         <v>606</v>
       </c>
       <c r="C199">
-        <v>103.706</v>
+        <v>103.867</v>
       </c>
       <c r="D199" t="s">
         <v>607</v>
@@ -5595,10 +5595,10 @@
         <v>203</v>
       </c>
       <c r="B200" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C200">
-        <v>102.489</v>
+        <v>98.31399999999999</v>
       </c>
       <c r="D200" t="s">
         <v>607</v>
@@ -5615,7 +5615,7 @@
         <v>606</v>
       </c>
       <c r="C201">
-        <v>110.442</v>
+        <v>110.318</v>
       </c>
       <c r="D201" t="s">
         <v>607</v>
@@ -5632,7 +5632,7 @@
         <v>606</v>
       </c>
       <c r="C202">
-        <v>104.713</v>
+        <v>103.684</v>
       </c>
       <c r="D202" t="s">
         <v>607</v>
@@ -5649,7 +5649,7 @@
         <v>606</v>
       </c>
       <c r="C203">
-        <v>105.89</v>
+        <v>105.104</v>
       </c>
       <c r="D203" t="s">
         <v>607</v>
@@ -5666,7 +5666,7 @@
         <v>605</v>
       </c>
       <c r="C204">
-        <v>99.56399999999999</v>
+        <v>99.161</v>
       </c>
       <c r="D204" t="s">
         <v>607</v>
@@ -5683,7 +5683,7 @@
         <v>605</v>
       </c>
       <c r="C205">
-        <v>98.306</v>
+        <v>96.28400000000001</v>
       </c>
       <c r="D205" t="s">
         <v>607</v>
@@ -5700,7 +5700,7 @@
         <v>606</v>
       </c>
       <c r="C206">
-        <v>101.742</v>
+        <v>100.142</v>
       </c>
       <c r="D206" t="s">
         <v>607</v>
@@ -5717,7 +5717,7 @@
         <v>606</v>
       </c>
       <c r="C207">
-        <v>101.858</v>
+        <v>100.917</v>
       </c>
       <c r="D207" t="s">
         <v>607</v>
@@ -5734,7 +5734,7 @@
         <v>605</v>
       </c>
       <c r="C208">
-        <v>92.995</v>
+        <v>94.468</v>
       </c>
       <c r="D208" t="s">
         <v>607</v>
@@ -5751,7 +5751,7 @@
         <v>606</v>
       </c>
       <c r="C209">
-        <v>106.919</v>
+        <v>104.16</v>
       </c>
       <c r="D209" t="s">
         <v>607</v>
@@ -5768,7 +5768,7 @@
         <v>606</v>
       </c>
       <c r="C210">
-        <v>102.078</v>
+        <v>100.711</v>
       </c>
       <c r="D210" t="s">
         <v>607</v>
@@ -5785,7 +5785,7 @@
         <v>606</v>
       </c>
       <c r="C211">
-        <v>104.9</v>
+        <v>100.095</v>
       </c>
       <c r="D211" t="s">
         <v>607</v>
@@ -5802,7 +5802,7 @@
         <v>605</v>
       </c>
       <c r="C212">
-        <v>98.702</v>
+        <v>99.627</v>
       </c>
       <c r="D212" t="s">
         <v>607</v>
@@ -5819,7 +5819,7 @@
         <v>605</v>
       </c>
       <c r="C213">
-        <v>99.932</v>
+        <v>99.16500000000001</v>
       </c>
       <c r="D213" t="s">
         <v>607</v>
@@ -5836,7 +5836,7 @@
         <v>606</v>
       </c>
       <c r="C214">
-        <v>106.687</v>
+        <v>105.118</v>
       </c>
       <c r="D214" t="s">
         <v>607</v>
@@ -5853,7 +5853,7 @@
         <v>606</v>
       </c>
       <c r="C215">
-        <v>100.33</v>
+        <v>102.793</v>
       </c>
       <c r="D215" t="s">
         <v>607</v>
@@ -5870,7 +5870,7 @@
         <v>605</v>
       </c>
       <c r="C216">
-        <v>99.95399999999999</v>
+        <v>98.64</v>
       </c>
       <c r="D216" t="s">
         <v>607</v>
@@ -5887,7 +5887,7 @@
         <v>606</v>
       </c>
       <c r="C217">
-        <v>100.21</v>
+        <v>100.272</v>
       </c>
       <c r="D217" t="s">
         <v>607</v>
@@ -5904,7 +5904,7 @@
         <v>606</v>
       </c>
       <c r="C218">
-        <v>101.754</v>
+        <v>100.886</v>
       </c>
       <c r="D218" t="s">
         <v>607</v>
@@ -5918,10 +5918,10 @@
         <v>222</v>
       </c>
       <c r="B219" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C219">
-        <v>100.352</v>
+        <v>98.789</v>
       </c>
       <c r="D219" t="s">
         <v>607</v>
@@ -5938,7 +5938,7 @@
         <v>606</v>
       </c>
       <c r="C220">
-        <v>102.39</v>
+        <v>102.004</v>
       </c>
       <c r="D220" t="s">
         <v>607</v>
@@ -5955,7 +5955,7 @@
         <v>606</v>
       </c>
       <c r="C221">
-        <v>106.147</v>
+        <v>103.187</v>
       </c>
       <c r="D221" t="s">
         <v>607</v>
@@ -5972,7 +5972,7 @@
         <v>605</v>
       </c>
       <c r="C222">
-        <v>99.146</v>
+        <v>97.438</v>
       </c>
       <c r="D222" t="s">
         <v>607</v>
@@ -5989,7 +5989,7 @@
         <v>606</v>
       </c>
       <c r="C223">
-        <v>101.161</v>
+        <v>100.166</v>
       </c>
       <c r="D223" t="s">
         <v>607</v>
@@ -6006,7 +6006,7 @@
         <v>606</v>
       </c>
       <c r="C224">
-        <v>107.611</v>
+        <v>105.713</v>
       </c>
       <c r="D224" t="s">
         <v>607</v>
@@ -6023,7 +6023,7 @@
         <v>605</v>
       </c>
       <c r="C225">
-        <v>99.512</v>
+        <v>97.79000000000001</v>
       </c>
       <c r="D225" t="s">
         <v>607</v>
@@ -6040,7 +6040,7 @@
         <v>606</v>
       </c>
       <c r="C226">
-        <v>102.809</v>
+        <v>102.356</v>
       </c>
       <c r="D226" t="s">
         <v>607</v>
@@ -6057,7 +6057,7 @@
         <v>606</v>
       </c>
       <c r="C227">
-        <v>103.094</v>
+        <v>101.406</v>
       </c>
       <c r="D227" t="s">
         <v>607</v>
@@ -6074,7 +6074,7 @@
         <v>606</v>
       </c>
       <c r="C228">
-        <v>104.275</v>
+        <v>103.258</v>
       </c>
       <c r="D228" t="s">
         <v>607</v>
@@ -6091,7 +6091,7 @@
         <v>606</v>
       </c>
       <c r="C229">
-        <v>101.576</v>
+        <v>101.478</v>
       </c>
       <c r="D229" t="s">
         <v>607</v>
@@ -6108,7 +6108,7 @@
         <v>606</v>
       </c>
       <c r="C230">
-        <v>105.166</v>
+        <v>100.832</v>
       </c>
       <c r="D230" t="s">
         <v>607</v>
@@ -6125,7 +6125,7 @@
         <v>606</v>
       </c>
       <c r="C231">
-        <v>102.114</v>
+        <v>102.003</v>
       </c>
       <c r="D231" t="s">
         <v>607</v>
@@ -6139,10 +6139,10 @@
         <v>235</v>
       </c>
       <c r="B232" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C232">
-        <v>101.871</v>
+        <v>98.486</v>
       </c>
       <c r="D232" t="s">
         <v>607</v>
@@ -6159,7 +6159,7 @@
         <v>606</v>
       </c>
       <c r="C233">
-        <v>101.432</v>
+        <v>100.18</v>
       </c>
       <c r="D233" t="s">
         <v>607</v>
@@ -6176,7 +6176,7 @@
         <v>606</v>
       </c>
       <c r="C234">
-        <v>101.468</v>
+        <v>100.968</v>
       </c>
       <c r="D234" t="s">
         <v>607</v>
@@ -6193,7 +6193,7 @@
         <v>606</v>
       </c>
       <c r="C235">
-        <v>104.926</v>
+        <v>102.395</v>
       </c>
       <c r="D235" t="s">
         <v>607</v>
@@ -6207,10 +6207,10 @@
         <v>239</v>
       </c>
       <c r="B236" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C236">
-        <v>101.513</v>
+        <v>99.726</v>
       </c>
       <c r="D236" t="s">
         <v>607</v>
@@ -6224,10 +6224,10 @@
         <v>240</v>
       </c>
       <c r="B237" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C237">
-        <v>101.019</v>
+        <v>98.536</v>
       </c>
       <c r="D237" t="s">
         <v>607</v>
@@ -6244,7 +6244,7 @@
         <v>606</v>
       </c>
       <c r="C238">
-        <v>103.062</v>
+        <v>103.707</v>
       </c>
       <c r="D238" t="s">
         <v>607</v>
@@ -6261,7 +6261,7 @@
         <v>606</v>
       </c>
       <c r="C239">
-        <v>104.503</v>
+        <v>103.34</v>
       </c>
       <c r="D239" t="s">
         <v>607</v>
@@ -6278,7 +6278,7 @@
         <v>606</v>
       </c>
       <c r="C240">
-        <v>103.344</v>
+        <v>101.287</v>
       </c>
       <c r="D240" t="s">
         <v>607</v>
@@ -6295,7 +6295,7 @@
         <v>606</v>
       </c>
       <c r="C241">
-        <v>103.208</v>
+        <v>103.155</v>
       </c>
       <c r="D241" t="s">
         <v>607</v>
@@ -6312,7 +6312,7 @@
         <v>606</v>
       </c>
       <c r="C242">
-        <v>103.519</v>
+        <v>102.589</v>
       </c>
       <c r="D242" t="s">
         <v>607</v>
@@ -6326,10 +6326,10 @@
         <v>246</v>
       </c>
       <c r="B243" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C243">
-        <v>100.262</v>
+        <v>99.738</v>
       </c>
       <c r="D243" t="s">
         <v>607</v>
@@ -6343,10 +6343,10 @@
         <v>247</v>
       </c>
       <c r="B244" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C244">
-        <v>99.955</v>
+        <v>102.795</v>
       </c>
       <c r="D244" t="s">
         <v>607</v>
@@ -6363,7 +6363,7 @@
         <v>606</v>
       </c>
       <c r="C245">
-        <v>106.753</v>
+        <v>108.704</v>
       </c>
       <c r="D245" t="s">
         <v>607</v>
@@ -6380,7 +6380,7 @@
         <v>606</v>
       </c>
       <c r="C246">
-        <v>103.425</v>
+        <v>102.23</v>
       </c>
       <c r="D246" t="s">
         <v>607</v>
@@ -6397,7 +6397,7 @@
         <v>606</v>
       </c>
       <c r="C247">
-        <v>103.5</v>
+        <v>102.475</v>
       </c>
       <c r="D247" t="s">
         <v>607</v>
@@ -6414,7 +6414,7 @@
         <v>606</v>
       </c>
       <c r="C248">
-        <v>104.916</v>
+        <v>104.888</v>
       </c>
       <c r="D248" t="s">
         <v>607</v>
@@ -6428,10 +6428,10 @@
         <v>252</v>
       </c>
       <c r="B249" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C249">
-        <v>100.271</v>
+        <v>99.42400000000001</v>
       </c>
       <c r="D249" t="s">
         <v>607</v>
@@ -6448,7 +6448,7 @@
         <v>606</v>
       </c>
       <c r="C250">
-        <v>101.965</v>
+        <v>101.081</v>
       </c>
       <c r="D250" t="s">
         <v>607</v>
@@ -6465,7 +6465,7 @@
         <v>606</v>
       </c>
       <c r="C251">
-        <v>104.034</v>
+        <v>102.079</v>
       </c>
       <c r="D251" t="s">
         <v>607</v>
@@ -6482,7 +6482,7 @@
         <v>606</v>
       </c>
       <c r="C252">
-        <v>103.797</v>
+        <v>101.057</v>
       </c>
       <c r="D252" t="s">
         <v>607</v>
@@ -6496,10 +6496,10 @@
         <v>256</v>
       </c>
       <c r="B253" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C253">
-        <v>100.851</v>
+        <v>98.084</v>
       </c>
       <c r="D253" t="s">
         <v>607</v>
@@ -6516,7 +6516,7 @@
         <v>606</v>
       </c>
       <c r="C254">
-        <v>102.315</v>
+        <v>101.315</v>
       </c>
       <c r="D254" t="s">
         <v>607</v>
@@ -6533,7 +6533,7 @@
         <v>605</v>
       </c>
       <c r="C255">
-        <v>99.78100000000001</v>
+        <v>98.855</v>
       </c>
       <c r="D255" t="s">
         <v>607</v>
@@ -6550,7 +6550,7 @@
         <v>606</v>
       </c>
       <c r="C256">
-        <v>102.193</v>
+        <v>101.374</v>
       </c>
       <c r="D256" t="s">
         <v>607</v>
@@ -6567,7 +6567,7 @@
         <v>606</v>
       </c>
       <c r="C257">
-        <v>106.568</v>
+        <v>104.698</v>
       </c>
       <c r="D257" t="s">
         <v>607</v>
@@ -6584,7 +6584,7 @@
         <v>605</v>
       </c>
       <c r="C258">
-        <v>93.58199999999999</v>
+        <v>94.108</v>
       </c>
       <c r="D258" t="s">
         <v>607</v>
@@ -6601,7 +6601,7 @@
         <v>606</v>
       </c>
       <c r="C259">
-        <v>101.233</v>
+        <v>101.492</v>
       </c>
       <c r="D259" t="s">
         <v>607</v>
@@ -6618,7 +6618,7 @@
         <v>606</v>
       </c>
       <c r="C260">
-        <v>104.018</v>
+        <v>100.217</v>
       </c>
       <c r="D260" t="s">
         <v>607</v>
@@ -6635,7 +6635,7 @@
         <v>605</v>
       </c>
       <c r="C261">
-        <v>99.062</v>
+        <v>99.43600000000001</v>
       </c>
       <c r="D261" t="s">
         <v>607</v>
@@ -6652,7 +6652,7 @@
         <v>606</v>
       </c>
       <c r="C262">
-        <v>104.938</v>
+        <v>107.854</v>
       </c>
       <c r="D262" t="s">
         <v>607</v>
@@ -6669,7 +6669,7 @@
         <v>606</v>
       </c>
       <c r="C263">
-        <v>112.223</v>
+        <v>112.824</v>
       </c>
       <c r="D263" t="s">
         <v>607</v>
@@ -6686,7 +6686,7 @@
         <v>606</v>
       </c>
       <c r="C264">
-        <v>108.793</v>
+        <v>109.647</v>
       </c>
       <c r="D264" t="s">
         <v>607</v>
@@ -6703,7 +6703,7 @@
         <v>606</v>
       </c>
       <c r="C265">
-        <v>102.267</v>
+        <v>101.425</v>
       </c>
       <c r="D265" t="s">
         <v>607</v>
@@ -6720,7 +6720,7 @@
         <v>606</v>
       </c>
       <c r="C266">
-        <v>104.681</v>
+        <v>104.702</v>
       </c>
       <c r="D266" t="s">
         <v>607</v>
@@ -6737,7 +6737,7 @@
         <v>606</v>
       </c>
       <c r="C267">
-        <v>105.234</v>
+        <v>102.014</v>
       </c>
       <c r="D267" t="s">
         <v>607</v>
@@ -6754,7 +6754,7 @@
         <v>605</v>
       </c>
       <c r="C268">
-        <v>98.515</v>
+        <v>97.483</v>
       </c>
       <c r="D268" t="s">
         <v>607</v>
@@ -6771,7 +6771,7 @@
         <v>606</v>
       </c>
       <c r="C269">
-        <v>106.779</v>
+        <v>105.017</v>
       </c>
       <c r="D269" t="s">
         <v>607</v>
@@ -6788,7 +6788,7 @@
         <v>606</v>
       </c>
       <c r="C270">
-        <v>108.538</v>
+        <v>107.605</v>
       </c>
       <c r="D270" t="s">
         <v>607</v>
@@ -6805,7 +6805,7 @@
         <v>605</v>
       </c>
       <c r="C271">
-        <v>97.36499999999999</v>
+        <v>97.58</v>
       </c>
       <c r="D271" t="s">
         <v>607</v>
@@ -6822,7 +6822,7 @@
         <v>605</v>
       </c>
       <c r="C272">
-        <v>95.355</v>
+        <v>98.05500000000001</v>
       </c>
       <c r="D272" t="s">
         <v>607</v>
@@ -6839,7 +6839,7 @@
         <v>606</v>
       </c>
       <c r="C273">
-        <v>107.832</v>
+        <v>106.709</v>
       </c>
       <c r="D273" t="s">
         <v>607</v>
@@ -6856,7 +6856,7 @@
         <v>606</v>
       </c>
       <c r="C274">
-        <v>100.718</v>
+        <v>100.628</v>
       </c>
       <c r="D274" t="s">
         <v>607</v>
@@ -6873,7 +6873,7 @@
         <v>605</v>
       </c>
       <c r="C275">
-        <v>98.13</v>
+        <v>98.70699999999999</v>
       </c>
       <c r="D275" t="s">
         <v>607</v>
@@ -6890,7 +6890,7 @@
         <v>606</v>
       </c>
       <c r="C276">
-        <v>102.865</v>
+        <v>103.098</v>
       </c>
       <c r="D276" t="s">
         <v>607</v>
@@ -6907,7 +6907,7 @@
         <v>606</v>
       </c>
       <c r="C277">
-        <v>112.959</v>
+        <v>109.014</v>
       </c>
       <c r="D277" t="s">
         <v>607</v>
@@ -6924,7 +6924,7 @@
         <v>606</v>
       </c>
       <c r="C278">
-        <v>104.336</v>
+        <v>102.347</v>
       </c>
       <c r="D278" t="s">
         <v>607</v>
@@ -6941,7 +6941,7 @@
         <v>605</v>
       </c>
       <c r="C279">
-        <v>99.264</v>
+        <v>99.767</v>
       </c>
       <c r="D279" t="s">
         <v>607</v>
@@ -6955,10 +6955,10 @@
         <v>283</v>
       </c>
       <c r="B280" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C280">
-        <v>104.96</v>
+        <v>97.444</v>
       </c>
       <c r="D280" t="s">
         <v>607</v>
@@ -6972,10 +6972,10 @@
         <v>284</v>
       </c>
       <c r="B281" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C281">
-        <v>100.49</v>
+        <v>97.589</v>
       </c>
       <c r="D281" t="s">
         <v>607</v>
@@ -6989,10 +6989,10 @@
         <v>285</v>
       </c>
       <c r="B282" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C282">
-        <v>100.007</v>
+        <v>98.259</v>
       </c>
       <c r="D282" t="s">
         <v>607</v>
@@ -7009,7 +7009,7 @@
         <v>605</v>
       </c>
       <c r="C283">
-        <v>97.867</v>
+        <v>95.39700000000001</v>
       </c>
       <c r="D283" t="s">
         <v>607</v>
@@ -7026,7 +7026,7 @@
         <v>606</v>
       </c>
       <c r="C284">
-        <v>101.184</v>
+        <v>102.114</v>
       </c>
       <c r="D284" t="s">
         <v>607</v>
@@ -7040,10 +7040,10 @@
         <v>288</v>
       </c>
       <c r="B285" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C285">
-        <v>87.535</v>
+        <v>102.184</v>
       </c>
       <c r="D285" t="s">
         <v>607</v>
@@ -7057,10 +7057,10 @@
         <v>289</v>
       </c>
       <c r="B286" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C286">
-        <v>101.824</v>
+        <v>99.56699999999999</v>
       </c>
       <c r="D286" t="s">
         <v>607</v>
@@ -7077,7 +7077,7 @@
         <v>605</v>
       </c>
       <c r="C287">
-        <v>94.708</v>
+        <v>93.61</v>
       </c>
       <c r="D287" t="s">
         <v>607</v>
@@ -7091,10 +7091,10 @@
         <v>291</v>
       </c>
       <c r="B288" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C288">
-        <v>101.88</v>
+        <v>99.968</v>
       </c>
       <c r="D288" t="s">
         <v>607</v>
@@ -7111,7 +7111,7 @@
         <v>606</v>
       </c>
       <c r="C289">
-        <v>103.242</v>
+        <v>100.615</v>
       </c>
       <c r="D289" t="s">
         <v>607</v>
@@ -7128,7 +7128,7 @@
         <v>606</v>
       </c>
       <c r="C290">
-        <v>106.185</v>
+        <v>103.525</v>
       </c>
       <c r="D290" t="s">
         <v>607</v>
@@ -7145,7 +7145,7 @@
         <v>606</v>
       </c>
       <c r="C291">
-        <v>104.538</v>
+        <v>102.965</v>
       </c>
       <c r="D291" t="s">
         <v>607</v>
@@ -7162,7 +7162,7 @@
         <v>605</v>
       </c>
       <c r="C292">
-        <v>96.34999999999999</v>
+        <v>95.13200000000001</v>
       </c>
       <c r="D292" t="s">
         <v>607</v>
@@ -7179,7 +7179,7 @@
         <v>606</v>
       </c>
       <c r="C293">
-        <v>105.282</v>
+        <v>104.571</v>
       </c>
       <c r="D293" t="s">
         <v>607</v>
@@ -7196,7 +7196,7 @@
         <v>606</v>
       </c>
       <c r="C294">
-        <v>102.615</v>
+        <v>100.959</v>
       </c>
       <c r="D294" t="s">
         <v>607</v>
@@ -7213,7 +7213,7 @@
         <v>606</v>
       </c>
       <c r="C295">
-        <v>104.385</v>
+        <v>102.883</v>
       </c>
       <c r="D295" t="s">
         <v>607</v>
@@ -7230,7 +7230,7 @@
         <v>606</v>
       </c>
       <c r="C296">
-        <v>107.266</v>
+        <v>107.01</v>
       </c>
       <c r="D296" t="s">
         <v>607</v>
@@ -7247,7 +7247,7 @@
         <v>606</v>
       </c>
       <c r="C297">
-        <v>103.216</v>
+        <v>102.803</v>
       </c>
       <c r="D297" t="s">
         <v>607</v>
@@ -7261,10 +7261,10 @@
         <v>301</v>
       </c>
       <c r="B298" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C298">
-        <v>99.532</v>
+        <v>100.101</v>
       </c>
       <c r="D298" t="s">
         <v>607</v>
@@ -7281,7 +7281,7 @@
         <v>606</v>
       </c>
       <c r="C299">
-        <v>103.633</v>
+        <v>102.873</v>
       </c>
       <c r="D299" t="s">
         <v>607</v>
@@ -7298,7 +7298,7 @@
         <v>606</v>
       </c>
       <c r="C300">
-        <v>102.535</v>
+        <v>102.663</v>
       </c>
       <c r="D300" t="s">
         <v>607</v>
@@ -7315,7 +7315,7 @@
         <v>606</v>
       </c>
       <c r="C301">
-        <v>102.63</v>
+        <v>100.538</v>
       </c>
       <c r="D301" t="s">
         <v>607</v>
@@ -7332,7 +7332,7 @@
         <v>606</v>
       </c>
       <c r="C302">
-        <v>101.273</v>
+        <v>100.656</v>
       </c>
       <c r="D302" t="s">
         <v>607</v>
@@ -7349,7 +7349,7 @@
         <v>606</v>
       </c>
       <c r="C303">
-        <v>105.632</v>
+        <v>104.702</v>
       </c>
       <c r="D303" t="s">
         <v>607</v>
@@ -7366,7 +7366,7 @@
         <v>606</v>
       </c>
       <c r="C304">
-        <v>101.447</v>
+        <v>101.474</v>
       </c>
       <c r="D304" t="s">
         <v>607</v>
@@ -7383,7 +7383,7 @@
         <v>606</v>
       </c>
       <c r="C305">
-        <v>102.539</v>
+        <v>101.57</v>
       </c>
       <c r="D305" t="s">
         <v>607</v>
@@ -7400,7 +7400,7 @@
         <v>606</v>
       </c>
       <c r="C306">
-        <v>101.11</v>
+        <v>101.206</v>
       </c>
       <c r="D306" t="s">
         <v>607</v>
@@ -7414,10 +7414,10 @@
         <v>310</v>
       </c>
       <c r="B307" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C307">
-        <v>100.455</v>
+        <v>98.938</v>
       </c>
       <c r="D307" t="s">
         <v>607</v>
@@ -7434,7 +7434,7 @@
         <v>606</v>
       </c>
       <c r="C308">
-        <v>100.209</v>
+        <v>101.298</v>
       </c>
       <c r="D308" t="s">
         <v>607</v>
@@ -7451,7 +7451,7 @@
         <v>606</v>
       </c>
       <c r="C309">
-        <v>103.257</v>
+        <v>105.472</v>
       </c>
       <c r="D309" t="s">
         <v>607</v>
@@ -7468,7 +7468,7 @@
         <v>606</v>
       </c>
       <c r="C310">
-        <v>102.514</v>
+        <v>103.733</v>
       </c>
       <c r="D310" t="s">
         <v>607</v>
@@ -7485,7 +7485,7 @@
         <v>605</v>
       </c>
       <c r="C311">
-        <v>97.571</v>
+        <v>99.803</v>
       </c>
       <c r="D311" t="s">
         <v>607</v>
@@ -7502,7 +7502,7 @@
         <v>606</v>
       </c>
       <c r="C312">
-        <v>105.333</v>
+        <v>105.184</v>
       </c>
       <c r="D312" t="s">
         <v>607</v>
@@ -7519,7 +7519,7 @@
         <v>606</v>
       </c>
       <c r="C313">
-        <v>102.716</v>
+        <v>100.136</v>
       </c>
       <c r="D313" t="s">
         <v>607</v>
@@ -7536,7 +7536,7 @@
         <v>606</v>
       </c>
       <c r="C314">
-        <v>104.198</v>
+        <v>102.373</v>
       </c>
       <c r="D314" t="s">
         <v>607</v>
@@ -7553,7 +7553,7 @@
         <v>606</v>
       </c>
       <c r="C315">
-        <v>103.205</v>
+        <v>101.587</v>
       </c>
       <c r="D315" t="s">
         <v>607</v>
@@ -7567,10 +7567,10 @@
         <v>319</v>
       </c>
       <c r="B316" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C316">
-        <v>101.824</v>
+        <v>99.768</v>
       </c>
       <c r="D316" t="s">
         <v>607</v>
@@ -7587,7 +7587,7 @@
         <v>606</v>
       </c>
       <c r="C317">
-        <v>102.569</v>
+        <v>101.685</v>
       </c>
       <c r="D317" t="s">
         <v>607</v>
@@ -7601,10 +7601,10 @@
         <v>321</v>
       </c>
       <c r="B318" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C318">
-        <v>100.527</v>
+        <v>98.76600000000001</v>
       </c>
       <c r="D318" t="s">
         <v>607</v>
@@ -7621,7 +7621,7 @@
         <v>606</v>
       </c>
       <c r="C319">
-        <v>101.959</v>
+        <v>100.56</v>
       </c>
       <c r="D319" t="s">
         <v>607</v>
@@ -7635,10 +7635,10 @@
         <v>323</v>
       </c>
       <c r="B320" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C320">
-        <v>101.639</v>
+        <v>99.94</v>
       </c>
       <c r="D320" t="s">
         <v>607</v>
@@ -7655,7 +7655,7 @@
         <v>605</v>
       </c>
       <c r="C321">
-        <v>92.227</v>
+        <v>93.164</v>
       </c>
       <c r="D321" t="s">
         <v>607</v>
@@ -7672,7 +7672,7 @@
         <v>606</v>
       </c>
       <c r="C322">
-        <v>110.256</v>
+        <v>105.329</v>
       </c>
       <c r="D322" t="s">
         <v>607</v>
@@ -7689,7 +7689,7 @@
         <v>605</v>
       </c>
       <c r="C323">
-        <v>99.509</v>
+        <v>99.024</v>
       </c>
       <c r="D323" t="s">
         <v>607</v>
@@ -7706,7 +7706,7 @@
         <v>606</v>
       </c>
       <c r="C324">
-        <v>105.771</v>
+        <v>105.13</v>
       </c>
       <c r="D324" t="s">
         <v>607</v>
@@ -7723,7 +7723,7 @@
         <v>605</v>
       </c>
       <c r="C325">
-        <v>94.16500000000001</v>
+        <v>97.164</v>
       </c>
       <c r="D325" t="s">
         <v>607</v>
@@ -7740,7 +7740,7 @@
         <v>605</v>
       </c>
       <c r="C326">
-        <v>99.756</v>
+        <v>98.15000000000001</v>
       </c>
       <c r="D326" t="s">
         <v>607</v>
@@ -7754,10 +7754,10 @@
         <v>330</v>
       </c>
       <c r="B327" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C327">
-        <v>100.729</v>
+        <v>99.66</v>
       </c>
       <c r="D327" t="s">
         <v>607</v>
@@ -7774,7 +7774,7 @@
         <v>605</v>
       </c>
       <c r="C328">
-        <v>99.529</v>
+        <v>98.721</v>
       </c>
       <c r="D328" t="s">
         <v>607</v>
@@ -7791,7 +7791,7 @@
         <v>606</v>
       </c>
       <c r="C329">
-        <v>111.562</v>
+        <v>113.74</v>
       </c>
       <c r="D329" t="s">
         <v>607</v>
@@ -7808,7 +7808,7 @@
         <v>606</v>
       </c>
       <c r="C330">
-        <v>111.781</v>
+        <v>110.802</v>
       </c>
       <c r="D330" t="s">
         <v>607</v>
@@ -7825,7 +7825,7 @@
         <v>606</v>
       </c>
       <c r="C331">
-        <v>104.083</v>
+        <v>103.682</v>
       </c>
       <c r="D331" t="s">
         <v>607</v>
@@ -7842,7 +7842,7 @@
         <v>606</v>
       </c>
       <c r="C332">
-        <v>101.204</v>
+        <v>101.413</v>
       </c>
       <c r="D332" t="s">
         <v>607</v>
@@ -7859,7 +7859,7 @@
         <v>606</v>
       </c>
       <c r="C333">
-        <v>100.308</v>
+        <v>102.12</v>
       </c>
       <c r="D333" t="s">
         <v>607</v>
@@ -7876,7 +7876,7 @@
         <v>606</v>
       </c>
       <c r="C334">
-        <v>105.591</v>
+        <v>103.193</v>
       </c>
       <c r="D334" t="s">
         <v>607</v>
@@ -7893,7 +7893,7 @@
         <v>605</v>
       </c>
       <c r="C335">
-        <v>93.137</v>
+        <v>95.657</v>
       </c>
       <c r="D335" t="s">
         <v>607</v>
@@ -7910,7 +7910,7 @@
         <v>606</v>
       </c>
       <c r="C336">
-        <v>106.817</v>
+        <v>104.542</v>
       </c>
       <c r="D336" t="s">
         <v>607</v>
@@ -7927,7 +7927,7 @@
         <v>606</v>
       </c>
       <c r="C337">
-        <v>105.353</v>
+        <v>103.862</v>
       </c>
       <c r="D337" t="s">
         <v>607</v>
@@ -7944,7 +7944,7 @@
         <v>606</v>
       </c>
       <c r="C338">
-        <v>107.111</v>
+        <v>104.481</v>
       </c>
       <c r="D338" t="s">
         <v>607</v>
@@ -7958,10 +7958,10 @@
         <v>342</v>
       </c>
       <c r="B339" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C339">
-        <v>104.844</v>
+        <v>99.95099999999999</v>
       </c>
       <c r="D339" t="s">
         <v>607</v>
@@ -7978,7 +7978,7 @@
         <v>606</v>
       </c>
       <c r="C340">
-        <v>100.914</v>
+        <v>101.28</v>
       </c>
       <c r="D340" t="s">
         <v>607</v>
@@ -7995,7 +7995,7 @@
         <v>606</v>
       </c>
       <c r="C341">
-        <v>101.31</v>
+        <v>104.205</v>
       </c>
       <c r="D341" t="s">
         <v>607</v>
@@ -8009,10 +8009,10 @@
         <v>345</v>
       </c>
       <c r="B342" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C342">
-        <v>100.475</v>
+        <v>98.672</v>
       </c>
       <c r="D342" t="s">
         <v>607</v>
@@ -8029,7 +8029,7 @@
         <v>606</v>
       </c>
       <c r="C343">
-        <v>101.323</v>
+        <v>102.209</v>
       </c>
       <c r="D343" t="s">
         <v>607</v>
@@ -8046,7 +8046,7 @@
         <v>605</v>
       </c>
       <c r="C344">
-        <v>94.45699999999999</v>
+        <v>94.98099999999999</v>
       </c>
       <c r="D344" t="s">
         <v>607</v>
@@ -8063,7 +8063,7 @@
         <v>606</v>
       </c>
       <c r="C345">
-        <v>110.648</v>
+        <v>107.824</v>
       </c>
       <c r="D345" t="s">
         <v>607</v>
@@ -8080,7 +8080,7 @@
         <v>606</v>
       </c>
       <c r="C346">
-        <v>100.834</v>
+        <v>100.327</v>
       </c>
       <c r="D346" t="s">
         <v>607</v>
@@ -8097,7 +8097,7 @@
         <v>606</v>
       </c>
       <c r="C347">
-        <v>103.139</v>
+        <v>101.789</v>
       </c>
       <c r="D347" t="s">
         <v>607</v>
@@ -8114,7 +8114,7 @@
         <v>605</v>
       </c>
       <c r="C348">
-        <v>94.199</v>
+        <v>99.417</v>
       </c>
       <c r="D348" t="s">
         <v>607</v>
@@ -8131,7 +8131,7 @@
         <v>606</v>
       </c>
       <c r="C349">
-        <v>102.133</v>
+        <v>100.175</v>
       </c>
       <c r="D349" t="s">
         <v>607</v>
@@ -8148,7 +8148,7 @@
         <v>606</v>
       </c>
       <c r="C350">
-        <v>106.349</v>
+        <v>104.506</v>
       </c>
       <c r="D350" t="s">
         <v>607</v>
@@ -8165,7 +8165,7 @@
         <v>606</v>
       </c>
       <c r="C351">
-        <v>101.415</v>
+        <v>101.558</v>
       </c>
       <c r="D351" t="s">
         <v>607</v>
@@ -8182,7 +8182,7 @@
         <v>605</v>
       </c>
       <c r="C352">
-        <v>98.42100000000001</v>
+        <v>99.181</v>
       </c>
       <c r="D352" t="s">
         <v>607</v>
@@ -8199,7 +8199,7 @@
         <v>606</v>
       </c>
       <c r="C353">
-        <v>101.063</v>
+        <v>100.262</v>
       </c>
       <c r="D353" t="s">
         <v>607</v>
@@ -8213,10 +8213,10 @@
         <v>357</v>
       </c>
       <c r="B354" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C354">
-        <v>100.783</v>
+        <v>99.69</v>
       </c>
       <c r="D354" t="s">
         <v>607</v>
@@ -8233,7 +8233,7 @@
         <v>605</v>
       </c>
       <c r="C355">
-        <v>99.54000000000001</v>
+        <v>98.81</v>
       </c>
       <c r="D355" t="s">
         <v>607</v>
@@ -8250,7 +8250,7 @@
         <v>606</v>
       </c>
       <c r="C356">
-        <v>104.216</v>
+        <v>105.05</v>
       </c>
       <c r="D356" t="s">
         <v>607</v>
@@ -8267,7 +8267,7 @@
         <v>605</v>
       </c>
       <c r="C357">
-        <v>99.67700000000001</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="D357" t="s">
         <v>607</v>
@@ -8284,7 +8284,7 @@
         <v>606</v>
       </c>
       <c r="C358">
-        <v>101.326</v>
+        <v>100</v>
       </c>
       <c r="D358" t="s">
         <v>607</v>
@@ -8298,10 +8298,10 @@
         <v>362</v>
       </c>
       <c r="B359" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C359">
-        <v>102.376</v>
+        <v>99.901</v>
       </c>
       <c r="D359" t="s">
         <v>607</v>
@@ -8318,7 +8318,7 @@
         <v>606</v>
       </c>
       <c r="C360">
-        <v>114.171</v>
+        <v>112.676</v>
       </c>
       <c r="D360" t="s">
         <v>607</v>
@@ -8335,7 +8335,7 @@
         <v>606</v>
       </c>
       <c r="C361">
-        <v>103.036</v>
+        <v>101.646</v>
       </c>
       <c r="D361" t="s">
         <v>607</v>
@@ -8352,7 +8352,7 @@
         <v>605</v>
       </c>
       <c r="C362">
-        <v>97.339</v>
+        <v>99.384</v>
       </c>
       <c r="D362" t="s">
         <v>607</v>
@@ -8366,10 +8366,10 @@
         <v>366</v>
       </c>
       <c r="B363" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C363">
-        <v>101.493</v>
+        <v>99.95699999999999</v>
       </c>
       <c r="D363" t="s">
         <v>607</v>
@@ -8383,10 +8383,10 @@
         <v>367</v>
       </c>
       <c r="B364" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C364">
-        <v>103.978</v>
+        <v>99.804</v>
       </c>
       <c r="D364" t="s">
         <v>607</v>
@@ -8403,7 +8403,7 @@
         <v>606</v>
       </c>
       <c r="C365">
-        <v>103.338</v>
+        <v>106.128</v>
       </c>
       <c r="D365" t="s">
         <v>607</v>
@@ -8420,7 +8420,7 @@
         <v>606</v>
       </c>
       <c r="C366">
-        <v>101.531</v>
+        <v>100.431</v>
       </c>
       <c r="D366" t="s">
         <v>607</v>
@@ -8437,7 +8437,7 @@
         <v>606</v>
       </c>
       <c r="C367">
-        <v>102.693</v>
+        <v>101.563</v>
       </c>
       <c r="D367" t="s">
         <v>607</v>
@@ -8454,7 +8454,7 @@
         <v>606</v>
       </c>
       <c r="C368">
-        <v>102.488</v>
+        <v>101.414</v>
       </c>
       <c r="D368" t="s">
         <v>607</v>
@@ -8471,7 +8471,7 @@
         <v>606</v>
       </c>
       <c r="C369">
-        <v>104.714</v>
+        <v>104.092</v>
       </c>
       <c r="D369" t="s">
         <v>607</v>
@@ -8488,7 +8488,7 @@
         <v>606</v>
       </c>
       <c r="C370">
-        <v>105.529</v>
+        <v>105.547</v>
       </c>
       <c r="D370" t="s">
         <v>607</v>
@@ -8505,7 +8505,7 @@
         <v>605</v>
       </c>
       <c r="C371">
-        <v>94.319</v>
+        <v>96.31399999999999</v>
       </c>
       <c r="D371" t="s">
         <v>607</v>
@@ -8522,7 +8522,7 @@
         <v>606</v>
       </c>
       <c r="C372">
-        <v>103.765</v>
+        <v>103.614</v>
       </c>
       <c r="D372" t="s">
         <v>607</v>
@@ -8539,7 +8539,7 @@
         <v>606</v>
       </c>
       <c r="C373">
-        <v>104.255</v>
+        <v>103.61</v>
       </c>
       <c r="D373" t="s">
         <v>607</v>
@@ -8556,7 +8556,7 @@
         <v>606</v>
       </c>
       <c r="C374">
-        <v>109.84</v>
+        <v>101.062</v>
       </c>
       <c r="D374" t="s">
         <v>607</v>
@@ -8573,7 +8573,7 @@
         <v>606</v>
       </c>
       <c r="C375">
-        <v>102.461</v>
+        <v>106.177</v>
       </c>
       <c r="D375" t="s">
         <v>607</v>
@@ -8590,7 +8590,7 @@
         <v>605</v>
       </c>
       <c r="C376">
-        <v>94.319</v>
+        <v>94.3</v>
       </c>
       <c r="D376" t="s">
         <v>607</v>
@@ -8607,7 +8607,7 @@
         <v>605</v>
       </c>
       <c r="C377">
-        <v>98.387</v>
+        <v>99.33199999999999</v>
       </c>
       <c r="D377" t="s">
         <v>607</v>
@@ -8624,7 +8624,7 @@
         <v>606</v>
       </c>
       <c r="C378">
-        <v>101.483</v>
+        <v>103.317</v>
       </c>
       <c r="D378" t="s">
         <v>607</v>
@@ -8641,7 +8641,7 @@
         <v>606</v>
       </c>
       <c r="C379">
-        <v>115.447</v>
+        <v>117.319</v>
       </c>
       <c r="D379" t="s">
         <v>607</v>
@@ -8658,7 +8658,7 @@
         <v>606</v>
       </c>
       <c r="C380">
-        <v>102.99</v>
+        <v>105.104</v>
       </c>
       <c r="D380" t="s">
         <v>607</v>
@@ -8675,7 +8675,7 @@
         <v>606</v>
       </c>
       <c r="C381">
-        <v>106.626</v>
+        <v>108.562</v>
       </c>
       <c r="D381" t="s">
         <v>607</v>
@@ -8692,7 +8692,7 @@
         <v>606</v>
       </c>
       <c r="C382">
-        <v>104.165</v>
+        <v>104.64</v>
       </c>
       <c r="D382" t="s">
         <v>607</v>
@@ -8709,7 +8709,7 @@
         <v>606</v>
       </c>
       <c r="C383">
-        <v>103.916</v>
+        <v>103.639</v>
       </c>
       <c r="D383" t="s">
         <v>607</v>
@@ -8723,10 +8723,10 @@
         <v>387</v>
       </c>
       <c r="B384" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C384">
-        <v>100.592</v>
+        <v>97.04300000000001</v>
       </c>
       <c r="D384" t="s">
         <v>607</v>
@@ -8743,7 +8743,7 @@
         <v>606</v>
       </c>
       <c r="C385">
-        <v>104.579</v>
+        <v>102.476</v>
       </c>
       <c r="D385" t="s">
         <v>607</v>
@@ -8760,7 +8760,7 @@
         <v>606</v>
       </c>
       <c r="C386">
-        <v>103.674</v>
+        <v>103.057</v>
       </c>
       <c r="D386" t="s">
         <v>607</v>
@@ -8777,7 +8777,7 @@
         <v>606</v>
       </c>
       <c r="C387">
-        <v>107.727</v>
+        <v>104.346</v>
       </c>
       <c r="D387" t="s">
         <v>607</v>
@@ -8794,7 +8794,7 @@
         <v>606</v>
       </c>
       <c r="C388">
-        <v>103.223</v>
+        <v>101.617</v>
       </c>
       <c r="D388" t="s">
         <v>607</v>
@@ -8808,10 +8808,10 @@
         <v>392</v>
       </c>
       <c r="B389" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C389">
-        <v>101.043</v>
+        <v>98.628</v>
       </c>
       <c r="D389" t="s">
         <v>607</v>
@@ -8828,7 +8828,7 @@
         <v>605</v>
       </c>
       <c r="C390">
-        <v>98.182</v>
+        <v>98.735</v>
       </c>
       <c r="D390" t="s">
         <v>607</v>
@@ -8845,7 +8845,7 @@
         <v>606</v>
       </c>
       <c r="C391">
-        <v>104.396</v>
+        <v>104.464</v>
       </c>
       <c r="D391" t="s">
         <v>607</v>
@@ -8862,7 +8862,7 @@
         <v>605</v>
       </c>
       <c r="C392">
-        <v>99.233</v>
+        <v>99.621</v>
       </c>
       <c r="D392" t="s">
         <v>607</v>
@@ -8876,10 +8876,10 @@
         <v>396</v>
       </c>
       <c r="B393" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C393">
-        <v>98.79900000000001</v>
+        <v>101.004</v>
       </c>
       <c r="D393" t="s">
         <v>607</v>
@@ -8893,10 +8893,10 @@
         <v>397</v>
       </c>
       <c r="B394" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C394">
-        <v>99.10599999999999</v>
+        <v>100.448</v>
       </c>
       <c r="D394" t="s">
         <v>607</v>
@@ -8913,7 +8913,7 @@
         <v>606</v>
       </c>
       <c r="C395">
-        <v>106.81</v>
+        <v>108.346</v>
       </c>
       <c r="D395" t="s">
         <v>607</v>
@@ -8930,7 +8930,7 @@
         <v>606</v>
       </c>
       <c r="C396">
-        <v>105.238</v>
+        <v>103.349</v>
       </c>
       <c r="D396" t="s">
         <v>607</v>
@@ -8947,7 +8947,7 @@
         <v>605</v>
       </c>
       <c r="C397">
-        <v>98.179</v>
+        <v>98.89700000000001</v>
       </c>
       <c r="D397" t="s">
         <v>607</v>
@@ -8964,7 +8964,7 @@
         <v>606</v>
       </c>
       <c r="C398">
-        <v>105.157</v>
+        <v>105.564</v>
       </c>
       <c r="D398" t="s">
         <v>607</v>
@@ -8981,7 +8981,7 @@
         <v>606</v>
       </c>
       <c r="C399">
-        <v>102.693</v>
+        <v>102.31</v>
       </c>
       <c r="D399" t="s">
         <v>607</v>
@@ -8998,7 +8998,7 @@
         <v>605</v>
       </c>
       <c r="C400">
-        <v>86.657</v>
+        <v>86.07599999999999</v>
       </c>
       <c r="D400" t="s">
         <v>607</v>
@@ -9015,7 +9015,7 @@
         <v>606</v>
       </c>
       <c r="C401">
-        <v>110.983</v>
+        <v>107.712</v>
       </c>
       <c r="D401" t="s">
         <v>607</v>
@@ -9032,7 +9032,7 @@
         <v>606</v>
       </c>
       <c r="C402">
-        <v>104.506</v>
+        <v>106.211</v>
       </c>
       <c r="D402" t="s">
         <v>607</v>
@@ -9049,7 +9049,7 @@
         <v>605</v>
       </c>
       <c r="C403">
-        <v>99.85299999999999</v>
+        <v>98.657</v>
       </c>
       <c r="D403" t="s">
         <v>607</v>
@@ -9063,10 +9063,10 @@
         <v>407</v>
       </c>
       <c r="B404" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C404">
-        <v>101.229</v>
+        <v>99.974</v>
       </c>
       <c r="D404" t="s">
         <v>607</v>
@@ -9083,7 +9083,7 @@
         <v>606</v>
       </c>
       <c r="C405">
-        <v>106.231</v>
+        <v>104.221</v>
       </c>
       <c r="D405" t="s">
         <v>607</v>
@@ -9100,7 +9100,7 @@
         <v>606</v>
       </c>
       <c r="C406">
-        <v>100.261</v>
+        <v>100.827</v>
       </c>
       <c r="D406" t="s">
         <v>607</v>
@@ -9117,7 +9117,7 @@
         <v>606</v>
       </c>
       <c r="C407">
-        <v>102.887</v>
+        <v>100.493</v>
       </c>
       <c r="D407" t="s">
         <v>607</v>
@@ -9131,10 +9131,10 @@
         <v>411</v>
       </c>
       <c r="B408" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C408">
-        <v>100.822</v>
+        <v>99.949</v>
       </c>
       <c r="D408" t="s">
         <v>607</v>
@@ -9151,7 +9151,7 @@
         <v>605</v>
       </c>
       <c r="C409">
-        <v>97.26900000000001</v>
+        <v>96.592</v>
       </c>
       <c r="D409" t="s">
         <v>607</v>
@@ -9168,7 +9168,7 @@
         <v>605</v>
       </c>
       <c r="C410">
-        <v>93.309</v>
+        <v>90.584</v>
       </c>
       <c r="D410" t="s">
         <v>607</v>
@@ -9185,7 +9185,7 @@
         <v>606</v>
       </c>
       <c r="C411">
-        <v>108.025</v>
+        <v>106.345</v>
       </c>
       <c r="D411" t="s">
         <v>607</v>
@@ -9199,10 +9199,10 @@
         <v>415</v>
       </c>
       <c r="B412" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C412">
-        <v>107.843</v>
+        <v>98.495</v>
       </c>
       <c r="D412" t="s">
         <v>607</v>
@@ -9219,7 +9219,7 @@
         <v>606</v>
       </c>
       <c r="C413">
-        <v>105.459</v>
+        <v>103.357</v>
       </c>
       <c r="D413" t="s">
         <v>607</v>
@@ -9233,10 +9233,10 @@
         <v>417</v>
       </c>
       <c r="B414" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C414">
-        <v>100.063</v>
+        <v>97.771</v>
       </c>
       <c r="D414" t="s">
         <v>607</v>
@@ -9253,7 +9253,7 @@
         <v>605</v>
       </c>
       <c r="C415">
-        <v>98.899</v>
+        <v>99.822</v>
       </c>
       <c r="D415" t="s">
         <v>607</v>
@@ -9267,10 +9267,10 @@
         <v>419</v>
       </c>
       <c r="B416" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C416">
-        <v>101.22</v>
+        <v>99.199</v>
       </c>
       <c r="D416" t="s">
         <v>607</v>
@@ -9287,7 +9287,7 @@
         <v>606</v>
       </c>
       <c r="C417">
-        <v>104.535</v>
+        <v>103.384</v>
       </c>
       <c r="D417" t="s">
         <v>607</v>
@@ -9301,10 +9301,10 @@
         <v>421</v>
       </c>
       <c r="B418" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C418">
-        <v>101.823</v>
+        <v>96.48999999999999</v>
       </c>
       <c r="D418" t="s">
         <v>607</v>
@@ -9321,7 +9321,7 @@
         <v>606</v>
       </c>
       <c r="C419">
-        <v>104.638</v>
+        <v>101.729</v>
       </c>
       <c r="D419" t="s">
         <v>607</v>
@@ -9335,10 +9335,10 @@
         <v>423</v>
       </c>
       <c r="B420" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C420">
-        <v>98.575</v>
+        <v>100.418</v>
       </c>
       <c r="D420" t="s">
         <v>607</v>
@@ -9352,10 +9352,10 @@
         <v>424</v>
       </c>
       <c r="B421" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C421">
-        <v>98.23699999999999</v>
+        <v>105.633</v>
       </c>
       <c r="D421" t="s">
         <v>607</v>
@@ -9372,7 +9372,7 @@
         <v>606</v>
       </c>
       <c r="C422">
-        <v>102.36</v>
+        <v>100.564</v>
       </c>
       <c r="D422" t="s">
         <v>607</v>
@@ -9389,7 +9389,7 @@
         <v>606</v>
       </c>
       <c r="C423">
-        <v>103.66</v>
+        <v>105.304</v>
       </c>
       <c r="D423" t="s">
         <v>607</v>
@@ -9406,7 +9406,7 @@
         <v>606</v>
       </c>
       <c r="C424">
-        <v>102.254</v>
+        <v>103.129</v>
       </c>
       <c r="D424" t="s">
         <v>607</v>
@@ -9423,7 +9423,7 @@
         <v>606</v>
       </c>
       <c r="C425">
-        <v>105.071</v>
+        <v>106.344</v>
       </c>
       <c r="D425" t="s">
         <v>607</v>
@@ -9440,7 +9440,7 @@
         <v>605</v>
       </c>
       <c r="C426">
-        <v>90.252</v>
+        <v>87.351</v>
       </c>
       <c r="D426" t="s">
         <v>607</v>
@@ -9457,7 +9457,7 @@
         <v>606</v>
       </c>
       <c r="C427">
-        <v>106.09</v>
+        <v>103.242</v>
       </c>
       <c r="D427" t="s">
         <v>607</v>
@@ -9471,10 +9471,10 @@
         <v>431</v>
       </c>
       <c r="B428" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C428">
-        <v>101.549</v>
+        <v>98.474</v>
       </c>
       <c r="D428" t="s">
         <v>607</v>
@@ -9491,7 +9491,7 @@
         <v>606</v>
       </c>
       <c r="C429">
-        <v>105.429</v>
+        <v>106.283</v>
       </c>
       <c r="D429" t="s">
         <v>607</v>
@@ -9508,7 +9508,7 @@
         <v>606</v>
       </c>
       <c r="C430">
-        <v>101.852</v>
+        <v>100.347</v>
       </c>
       <c r="D430" t="s">
         <v>607</v>
@@ -9522,10 +9522,10 @@
         <v>434</v>
       </c>
       <c r="B431" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C431">
-        <v>100.503</v>
+        <v>95.328</v>
       </c>
       <c r="D431" t="s">
         <v>607</v>
@@ -9542,7 +9542,7 @@
         <v>606</v>
       </c>
       <c r="C432">
-        <v>105.655</v>
+        <v>104.572</v>
       </c>
       <c r="D432" t="s">
         <v>607</v>
@@ -9559,7 +9559,7 @@
         <v>606</v>
       </c>
       <c r="C433">
-        <v>104.736</v>
+        <v>103.582</v>
       </c>
       <c r="D433" t="s">
         <v>607</v>
@@ -9576,7 +9576,7 @@
         <v>605</v>
       </c>
       <c r="C434">
-        <v>98.161</v>
+        <v>95.934</v>
       </c>
       <c r="D434" t="s">
         <v>607</v>
@@ -9590,10 +9590,10 @@
         <v>438</v>
       </c>
       <c r="B435" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C435">
-        <v>102.421</v>
+        <v>94.667</v>
       </c>
       <c r="D435" t="s">
         <v>607</v>
@@ -9607,10 +9607,10 @@
         <v>439</v>
       </c>
       <c r="B436" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C436">
-        <v>98.64400000000001</v>
+        <v>100.588</v>
       </c>
       <c r="D436" t="s">
         <v>607</v>
@@ -9624,10 +9624,10 @@
         <v>440</v>
       </c>
       <c r="B437" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C437">
-        <v>103.61</v>
+        <v>98.96599999999999</v>
       </c>
       <c r="D437" t="s">
         <v>607</v>
@@ -9644,7 +9644,7 @@
         <v>606</v>
       </c>
       <c r="C438">
-        <v>100.792</v>
+        <v>102.005</v>
       </c>
       <c r="D438" t="s">
         <v>607</v>
@@ -9661,7 +9661,7 @@
         <v>606</v>
       </c>
       <c r="C439">
-        <v>105.321</v>
+        <v>102.921</v>
       </c>
       <c r="D439" t="s">
         <v>607</v>
@@ -9678,7 +9678,7 @@
         <v>605</v>
       </c>
       <c r="C440">
-        <v>99.925</v>
+        <v>97.032</v>
       </c>
       <c r="D440" t="s">
         <v>607</v>
@@ -9695,7 +9695,7 @@
         <v>606</v>
       </c>
       <c r="C441">
-        <v>101.988</v>
+        <v>103.827</v>
       </c>
       <c r="D441" t="s">
         <v>607</v>
@@ -9712,7 +9712,7 @@
         <v>605</v>
       </c>
       <c r="C442">
-        <v>93.188</v>
+        <v>92.194</v>
       </c>
       <c r="D442" t="s">
         <v>607</v>
@@ -9729,7 +9729,7 @@
         <v>606</v>
       </c>
       <c r="C443">
-        <v>100.745</v>
+        <v>100.516</v>
       </c>
       <c r="D443" t="s">
         <v>607</v>
@@ -9746,7 +9746,7 @@
         <v>605</v>
       </c>
       <c r="C444">
-        <v>98.32599999999999</v>
+        <v>96.785</v>
       </c>
       <c r="D444" t="s">
         <v>607</v>
@@ -9763,7 +9763,7 @@
         <v>606</v>
       </c>
       <c r="C445">
-        <v>104.117</v>
+        <v>102.326</v>
       </c>
       <c r="D445" t="s">
         <v>607</v>
@@ -9780,7 +9780,7 @@
         <v>606</v>
       </c>
       <c r="C446">
-        <v>102.119</v>
+        <v>102.346</v>
       </c>
       <c r="D446" t="s">
         <v>607</v>
@@ -9797,7 +9797,7 @@
         <v>605</v>
       </c>
       <c r="C447">
-        <v>97.69799999999999</v>
+        <v>95.919</v>
       </c>
       <c r="D447" t="s">
         <v>607</v>
@@ -9814,7 +9814,7 @@
         <v>606</v>
       </c>
       <c r="C448">
-        <v>103.814</v>
+        <v>101.285</v>
       </c>
       <c r="D448" t="s">
         <v>607</v>
@@ -9828,10 +9828,10 @@
         <v>452</v>
       </c>
       <c r="B449" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C449">
-        <v>96.98099999999999</v>
+        <v>100.718</v>
       </c>
       <c r="D449" t="s">
         <v>607</v>
@@ -9845,10 +9845,10 @@
         <v>453</v>
       </c>
       <c r="B450" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C450">
-        <v>100.054</v>
+        <v>99.459</v>
       </c>
       <c r="D450" t="s">
         <v>607</v>
@@ -9865,7 +9865,7 @@
         <v>605</v>
       </c>
       <c r="C451">
-        <v>97.015</v>
+        <v>93.83199999999999</v>
       </c>
       <c r="D451" t="s">
         <v>607</v>
@@ -9882,7 +9882,7 @@
         <v>606</v>
       </c>
       <c r="C452">
-        <v>107.049</v>
+        <v>121.333</v>
       </c>
       <c r="D452" t="s">
         <v>607</v>
@@ -9896,10 +9896,10 @@
         <v>456</v>
       </c>
       <c r="B453" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C453">
-        <v>100.949</v>
+        <v>97.017</v>
       </c>
       <c r="D453" t="s">
         <v>607</v>
@@ -9916,7 +9916,7 @@
         <v>605</v>
       </c>
       <c r="C454">
-        <v>98.79000000000001</v>
+        <v>95.724</v>
       </c>
       <c r="D454" t="s">
         <v>607</v>
@@ -9933,7 +9933,7 @@
         <v>606</v>
       </c>
       <c r="C455">
-        <v>104.038</v>
+        <v>105.235</v>
       </c>
       <c r="D455" t="s">
         <v>607</v>
@@ -9950,7 +9950,7 @@
         <v>606</v>
       </c>
       <c r="C456">
-        <v>106.095</v>
+        <v>105.182</v>
       </c>
       <c r="D456" t="s">
         <v>607</v>
@@ -9967,7 +9967,7 @@
         <v>605</v>
       </c>
       <c r="C457">
-        <v>99.467</v>
+        <v>97.751</v>
       </c>
       <c r="D457" t="s">
         <v>607</v>
@@ -9984,7 +9984,7 @@
         <v>606</v>
       </c>
       <c r="C458">
-        <v>110.141</v>
+        <v>100.44</v>
       </c>
       <c r="D458" t="s">
         <v>607</v>
@@ -9998,10 +9998,10 @@
         <v>462</v>
       </c>
       <c r="B459" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C459">
-        <v>100.012</v>
+        <v>99.926</v>
       </c>
       <c r="D459" t="s">
         <v>607</v>
@@ -10018,7 +10018,7 @@
         <v>606</v>
       </c>
       <c r="C460">
-        <v>103.006</v>
+        <v>103.295</v>
       </c>
       <c r="D460" t="s">
         <v>607</v>
@@ -10035,7 +10035,7 @@
         <v>606</v>
       </c>
       <c r="C461">
-        <v>100.075</v>
+        <v>100.633</v>
       </c>
       <c r="D461" t="s">
         <v>607</v>
@@ -10052,7 +10052,7 @@
         <v>606</v>
       </c>
       <c r="C462">
-        <v>101.23</v>
+        <v>101.434</v>
       </c>
       <c r="D462" t="s">
         <v>607</v>
@@ -10069,7 +10069,7 @@
         <v>605</v>
       </c>
       <c r="C463">
-        <v>97.76600000000001</v>
+        <v>99.499</v>
       </c>
       <c r="D463" t="s">
         <v>607</v>
@@ -10086,7 +10086,7 @@
         <v>605</v>
       </c>
       <c r="C464">
-        <v>83.851</v>
+        <v>87.68899999999999</v>
       </c>
       <c r="D464" t="s">
         <v>607</v>
@@ -10103,7 +10103,7 @@
         <v>606</v>
       </c>
       <c r="C465">
-        <v>107.842</v>
+        <v>104.553</v>
       </c>
       <c r="D465" t="s">
         <v>607</v>
@@ -10120,7 +10120,7 @@
         <v>606</v>
       </c>
       <c r="C466">
-        <v>112.991</v>
+        <v>117.444</v>
       </c>
       <c r="D466" t="s">
         <v>607</v>
@@ -10137,7 +10137,7 @@
         <v>605</v>
       </c>
       <c r="C467">
-        <v>98.84399999999999</v>
+        <v>98.622</v>
       </c>
       <c r="D467" t="s">
         <v>607</v>
@@ -10154,7 +10154,7 @@
         <v>605</v>
       </c>
       <c r="C468">
-        <v>97.322</v>
+        <v>97.751</v>
       </c>
       <c r="D468" t="s">
         <v>607</v>
@@ -10171,7 +10171,7 @@
         <v>605</v>
       </c>
       <c r="C469">
-        <v>89.971</v>
+        <v>93.23</v>
       </c>
       <c r="D469" t="s">
         <v>607</v>
@@ -10188,7 +10188,7 @@
         <v>606</v>
       </c>
       <c r="C470">
-        <v>100.897</v>
+        <v>100.292</v>
       </c>
       <c r="D470" t="s">
         <v>607</v>
@@ -10205,7 +10205,7 @@
         <v>605</v>
       </c>
       <c r="C471">
-        <v>97.8</v>
+        <v>98.669</v>
       </c>
       <c r="D471" t="s">
         <v>607</v>
@@ -10222,7 +10222,7 @@
         <v>606</v>
       </c>
       <c r="C472">
-        <v>100.313</v>
+        <v>108.987</v>
       </c>
       <c r="D472" t="s">
         <v>607</v>
@@ -10239,7 +10239,7 @@
         <v>605</v>
       </c>
       <c r="C473">
-        <v>98.90000000000001</v>
+        <v>98.215</v>
       </c>
       <c r="D473" t="s">
         <v>607</v>
@@ -10253,10 +10253,10 @@
         <v>477</v>
       </c>
       <c r="B474" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C474">
-        <v>101.928</v>
+        <v>96.515</v>
       </c>
       <c r="D474" t="s">
         <v>607</v>
@@ -10270,10 +10270,10 @@
         <v>478</v>
       </c>
       <c r="B475" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C475">
-        <v>101.756</v>
+        <v>99.82599999999999</v>
       </c>
       <c r="D475" t="s">
         <v>607</v>
@@ -10290,7 +10290,7 @@
         <v>605</v>
       </c>
       <c r="C476">
-        <v>96.232</v>
+        <v>96.089</v>
       </c>
       <c r="D476" t="s">
         <v>607</v>
@@ -10304,10 +10304,10 @@
         <v>480</v>
       </c>
       <c r="B477" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C477">
-        <v>100.744</v>
+        <v>99.133</v>
       </c>
       <c r="D477" t="s">
         <v>607</v>
@@ -10324,7 +10324,7 @@
         <v>605</v>
       </c>
       <c r="C478">
-        <v>95.69199999999999</v>
+        <v>98.511</v>
       </c>
       <c r="D478" t="s">
         <v>607</v>
@@ -10341,7 +10341,7 @@
         <v>605</v>
       </c>
       <c r="C479">
-        <v>98.916</v>
+        <v>97.80500000000001</v>
       </c>
       <c r="D479" t="s">
         <v>607</v>
@@ -10358,7 +10358,7 @@
         <v>605</v>
       </c>
       <c r="C480">
-        <v>94.012</v>
+        <v>95.836</v>
       </c>
       <c r="D480" t="s">
         <v>607</v>
@@ -10375,7 +10375,7 @@
         <v>606</v>
       </c>
       <c r="C481">
-        <v>102.885</v>
+        <v>105.923</v>
       </c>
       <c r="D481" t="s">
         <v>607</v>
@@ -10392,7 +10392,7 @@
         <v>605</v>
       </c>
       <c r="C482">
-        <v>94.211</v>
+        <v>94.96599999999999</v>
       </c>
       <c r="D482" t="s">
         <v>607</v>
@@ -10409,7 +10409,7 @@
         <v>605</v>
       </c>
       <c r="C483">
-        <v>94.904</v>
+        <v>95.377</v>
       </c>
       <c r="D483" t="s">
         <v>607</v>
@@ -10423,10 +10423,10 @@
         <v>487</v>
       </c>
       <c r="B484" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C484">
-        <v>99.503</v>
+        <v>101.863</v>
       </c>
       <c r="D484" t="s">
         <v>607</v>
@@ -10440,10 +10440,10 @@
         <v>488</v>
       </c>
       <c r="B485" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C485">
-        <v>102.091</v>
+        <v>99.04600000000001</v>
       </c>
       <c r="D485" t="s">
         <v>607</v>
@@ -10460,7 +10460,7 @@
         <v>605</v>
       </c>
       <c r="C486">
-        <v>79.361</v>
+        <v>77.26000000000001</v>
       </c>
       <c r="D486" t="s">
         <v>607</v>
@@ -10477,7 +10477,7 @@
         <v>605</v>
       </c>
       <c r="C487">
-        <v>97.188</v>
+        <v>97.477</v>
       </c>
       <c r="D487" t="s">
         <v>607</v>
@@ -10494,7 +10494,7 @@
         <v>606</v>
       </c>
       <c r="C488">
-        <v>100.992</v>
+        <v>101.156</v>
       </c>
       <c r="D488" t="s">
         <v>607</v>
@@ -10508,10 +10508,10 @@
         <v>492</v>
       </c>
       <c r="B489" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C489">
-        <v>99.658</v>
+        <v>119.969</v>
       </c>
       <c r="D489" t="s">
         <v>607</v>
@@ -10528,7 +10528,7 @@
         <v>606</v>
       </c>
       <c r="C490">
-        <v>101.074</v>
+        <v>100.521</v>
       </c>
       <c r="D490" t="s">
         <v>607</v>
@@ -10545,7 +10545,7 @@
         <v>606</v>
       </c>
       <c r="C491">
-        <v>101.502</v>
+        <v>101.61</v>
       </c>
       <c r="D491" t="s">
         <v>607</v>
@@ -10562,7 +10562,7 @@
         <v>605</v>
       </c>
       <c r="C492">
-        <v>98.06999999999999</v>
+        <v>97.67400000000001</v>
       </c>
       <c r="D492" t="s">
         <v>607</v>
@@ -10579,7 +10579,7 @@
         <v>605</v>
       </c>
       <c r="C493">
-        <v>98.55500000000001</v>
+        <v>99.807</v>
       </c>
       <c r="D493" t="s">
         <v>607</v>
@@ -10593,10 +10593,10 @@
         <v>497</v>
       </c>
       <c r="B494" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C494">
-        <v>98.095</v>
+        <v>101.142</v>
       </c>
       <c r="D494" t="s">
         <v>607</v>
@@ -10613,7 +10613,7 @@
         <v>606</v>
       </c>
       <c r="C495">
-        <v>103.416</v>
+        <v>103.39</v>
       </c>
       <c r="D495" t="s">
         <v>607</v>
@@ -10630,7 +10630,7 @@
         <v>606</v>
       </c>
       <c r="C496">
-        <v>105.326</v>
+        <v>104.23</v>
       </c>
       <c r="D496" t="s">
         <v>607</v>
@@ -10647,7 +10647,7 @@
         <v>606</v>
       </c>
       <c r="C497">
-        <v>112.098</v>
+        <v>108.39</v>
       </c>
       <c r="D497" t="s">
         <v>607</v>
@@ -10664,7 +10664,7 @@
         <v>605</v>
       </c>
       <c r="C498">
-        <v>93.006</v>
+        <v>93.605</v>
       </c>
       <c r="D498" t="s">
         <v>607</v>
@@ -10681,7 +10681,7 @@
         <v>606</v>
       </c>
       <c r="C499">
-        <v>100.861</v>
+        <v>101.722</v>
       </c>
       <c r="D499" t="s">
         <v>607</v>
@@ -10698,7 +10698,7 @@
         <v>605</v>
       </c>
       <c r="C500">
-        <v>93.89400000000001</v>
+        <v>97.11499999999999</v>
       </c>
       <c r="D500" t="s">
         <v>607</v>
@@ -10715,7 +10715,7 @@
         <v>606</v>
       </c>
       <c r="C501">
-        <v>100.847</v>
+        <v>101.131</v>
       </c>
       <c r="D501" t="s">
         <v>607</v>
@@ -10732,7 +10732,7 @@
         <v>605</v>
       </c>
       <c r="C502">
-        <v>95.09</v>
+        <v>94.592</v>
       </c>
       <c r="D502" t="s">
         <v>607</v>
@@ -10746,10 +10746,10 @@
         <v>506</v>
       </c>
       <c r="B503" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C503">
-        <v>102.995</v>
+        <v>98.09699999999999</v>
       </c>
       <c r="D503" t="s">
         <v>607</v>
@@ -10766,7 +10766,7 @@
         <v>606</v>
       </c>
       <c r="C504">
-        <v>101.614</v>
+        <v>101.526</v>
       </c>
       <c r="D504" t="s">
         <v>607</v>
@@ -10783,7 +10783,7 @@
         <v>606</v>
       </c>
       <c r="C505">
-        <v>100.177</v>
+        <v>100.142</v>
       </c>
       <c r="D505" t="s">
         <v>607</v>
@@ -10800,7 +10800,7 @@
         <v>605</v>
       </c>
       <c r="C506">
-        <v>96.354</v>
+        <v>99.77800000000001</v>
       </c>
       <c r="D506" t="s">
         <v>607</v>
@@ -10817,7 +10817,7 @@
         <v>605</v>
       </c>
       <c r="C507">
-        <v>95.29000000000001</v>
+        <v>97.155</v>
       </c>
       <c r="D507" t="s">
         <v>607</v>
@@ -10834,7 +10834,7 @@
         <v>605</v>
       </c>
       <c r="C508">
-        <v>91.46599999999999</v>
+        <v>91.63500000000001</v>
       </c>
       <c r="D508" t="s">
         <v>607</v>
@@ -10851,7 +10851,7 @@
         <v>605</v>
       </c>
       <c r="C509">
-        <v>98.133</v>
+        <v>96.867</v>
       </c>
       <c r="D509" t="s">
         <v>607</v>
@@ -10868,7 +10868,7 @@
         <v>605</v>
       </c>
       <c r="C510">
-        <v>94.795</v>
+        <v>91.786</v>
       </c>
       <c r="D510" t="s">
         <v>607</v>
@@ -10885,7 +10885,7 @@
         <v>605</v>
       </c>
       <c r="C511">
-        <v>90.34699999999999</v>
+        <v>91.294</v>
       </c>
       <c r="D511" t="s">
         <v>607</v>
@@ -10899,10 +10899,10 @@
         <v>515</v>
       </c>
       <c r="B512" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C512">
-        <v>104.217</v>
+        <v>96.06999999999999</v>
       </c>
       <c r="D512" t="s">
         <v>607</v>
@@ -10919,7 +10919,7 @@
         <v>606</v>
       </c>
       <c r="C513">
-        <v>116.667</v>
+        <v>118.333</v>
       </c>
       <c r="D513" t="s">
         <v>607</v>
@@ -10933,10 +10933,10 @@
         <v>517</v>
       </c>
       <c r="B514" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C514">
-        <v>100</v>
+        <v>99.107</v>
       </c>
       <c r="D514" t="s">
         <v>607</v>
@@ -10953,7 +10953,7 @@
         <v>605</v>
       </c>
       <c r="C515">
-        <v>96.943</v>
+        <v>98.70099999999999</v>
       </c>
       <c r="D515" t="s">
         <v>607</v>
@@ -10970,7 +10970,7 @@
         <v>605</v>
       </c>
       <c r="C516">
-        <v>96.23</v>
+        <v>94.307</v>
       </c>
       <c r="D516" t="s">
         <v>607</v>
@@ -10984,10 +10984,10 @@
         <v>520</v>
       </c>
       <c r="B517" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C517">
-        <v>105.508</v>
+        <v>95.855</v>
       </c>
       <c r="D517" t="s">
         <v>607</v>
@@ -11004,7 +11004,7 @@
         <v>605</v>
       </c>
       <c r="C518">
-        <v>85.337</v>
+        <v>85.155</v>
       </c>
       <c r="D518" t="s">
         <v>607</v>
@@ -11021,7 +11021,7 @@
         <v>606</v>
       </c>
       <c r="C519">
-        <v>125.203</v>
+        <v>122.871</v>
       </c>
       <c r="D519" t="s">
         <v>607</v>
@@ -11038,7 +11038,7 @@
         <v>605</v>
       </c>
       <c r="C520">
-        <v>96.468</v>
+        <v>97.43600000000001</v>
       </c>
       <c r="D520" t="s">
         <v>607</v>
@@ -11055,7 +11055,7 @@
         <v>605</v>
       </c>
       <c r="C521">
-        <v>90.983</v>
+        <v>89.78400000000001</v>
       </c>
       <c r="D521" t="s">
         <v>607</v>
@@ -11072,7 +11072,7 @@
         <v>606</v>
       </c>
       <c r="C522">
-        <v>105.166</v>
+        <v>100.832</v>
       </c>
       <c r="D522" t="s">
         <v>607</v>
@@ -11086,10 +11086,10 @@
         <v>525</v>
       </c>
       <c r="B523" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C523">
-        <v>97.15000000000001</v>
+        <v>102.314</v>
       </c>
       <c r="D523" t="s">
         <v>607</v>
@@ -11106,7 +11106,7 @@
         <v>605</v>
       </c>
       <c r="C524">
-        <v>88.81999999999999</v>
+        <v>85.42</v>
       </c>
       <c r="D524" t="s">
         <v>607</v>
@@ -11120,10 +11120,10 @@
         <v>527</v>
       </c>
       <c r="B525" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C525">
-        <v>103.32</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="D525" t="s">
         <v>607</v>
@@ -11137,10 +11137,10 @@
         <v>528</v>
       </c>
       <c r="B526" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C526">
-        <v>100.815</v>
+        <v>95.38200000000001</v>
       </c>
       <c r="D526" t="s">
         <v>607</v>
@@ -11157,7 +11157,7 @@
         <v>605</v>
       </c>
       <c r="C527">
-        <v>95.527</v>
+        <v>92.947</v>
       </c>
       <c r="D527" t="s">
         <v>607</v>
@@ -11174,7 +11174,7 @@
         <v>605</v>
       </c>
       <c r="C528">
-        <v>99.831</v>
+        <v>99.66200000000001</v>
       </c>
       <c r="D528" t="s">
         <v>607</v>
@@ -11191,7 +11191,7 @@
         <v>606</v>
       </c>
       <c r="C529">
-        <v>109.181</v>
+        <v>104.071</v>
       </c>
       <c r="D529" t="s">
         <v>607</v>
@@ -11208,7 +11208,7 @@
         <v>605</v>
       </c>
       <c r="C530">
-        <v>93.623</v>
+        <v>90.90900000000001</v>
       </c>
       <c r="D530" t="s">
         <v>607</v>
@@ -11225,7 +11225,7 @@
         <v>605</v>
       </c>
       <c r="C531">
-        <v>95.455</v>
+        <v>91.643</v>
       </c>
       <c r="D531" t="s">
         <v>607</v>
@@ -11242,7 +11242,7 @@
         <v>605</v>
       </c>
       <c r="C532">
-        <v>95.10899999999999</v>
+        <v>93.514</v>
       </c>
       <c r="D532" t="s">
         <v>607</v>
@@ -11259,7 +11259,7 @@
         <v>606</v>
       </c>
       <c r="C533">
-        <v>102.621</v>
+        <v>102.536</v>
       </c>
       <c r="D533" t="s">
         <v>607</v>
@@ -11276,7 +11276,7 @@
         <v>605</v>
       </c>
       <c r="C534">
-        <v>99.95699999999999</v>
+        <v>98.56999999999999</v>
       </c>
       <c r="D534" t="s">
         <v>607</v>
@@ -11293,7 +11293,7 @@
         <v>605</v>
       </c>
       <c r="C535">
-        <v>95.69499999999999</v>
+        <v>98.253</v>
       </c>
       <c r="D535" t="s">
         <v>607</v>
@@ -11307,10 +11307,10 @@
         <v>538</v>
       </c>
       <c r="B536" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C536">
-        <v>101.549</v>
+        <v>98.783</v>
       </c>
       <c r="D536" t="s">
         <v>607</v>
@@ -11327,7 +11327,7 @@
         <v>605</v>
       </c>
       <c r="C537">
-        <v>88.08799999999999</v>
+        <v>88.116</v>
       </c>
       <c r="D537" t="s">
         <v>607</v>
@@ -11344,7 +11344,7 @@
         <v>606</v>
       </c>
       <c r="C538">
-        <v>102.99</v>
+        <v>105.104</v>
       </c>
       <c r="D538" t="s">
         <v>607</v>
@@ -11361,7 +11361,7 @@
         <v>606</v>
       </c>
       <c r="C539">
-        <v>103.544</v>
+        <v>101.283</v>
       </c>
       <c r="D539" t="s">
         <v>607</v>
@@ -11378,7 +11378,7 @@
         <v>606</v>
       </c>
       <c r="C540">
-        <v>108.004</v>
+        <v>103.651</v>
       </c>
       <c r="D540" t="s">
         <v>607</v>
@@ -11395,7 +11395,7 @@
         <v>606</v>
       </c>
       <c r="C541">
-        <v>103.936</v>
+        <v>102.519</v>
       </c>
       <c r="D541" t="s">
         <v>607</v>
@@ -11412,7 +11412,7 @@
         <v>606</v>
       </c>
       <c r="C542">
-        <v>100.999</v>
+        <v>102.478</v>
       </c>
       <c r="D542" t="s">
         <v>607</v>
@@ -11429,7 +11429,7 @@
         <v>606</v>
       </c>
       <c r="C543">
-        <v>105.873</v>
+        <v>104.746</v>
       </c>
       <c r="D543" t="s">
         <v>607</v>
@@ -11446,7 +11446,7 @@
         <v>606</v>
       </c>
       <c r="C544">
-        <v>109.028</v>
+        <v>104.641</v>
       </c>
       <c r="D544" t="s">
         <v>607</v>
@@ -11460,10 +11460,10 @@
         <v>546</v>
       </c>
       <c r="B545" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C545">
-        <v>100.626</v>
+        <v>99.29900000000001</v>
       </c>
       <c r="D545" t="s">
         <v>607</v>
@@ -11480,7 +11480,7 @@
         <v>605</v>
       </c>
       <c r="C546">
-        <v>98.565</v>
+        <v>97.953</v>
       </c>
       <c r="D546" t="s">
         <v>607</v>
@@ -11497,7 +11497,7 @@
         <v>606</v>
       </c>
       <c r="C547">
-        <v>100.746</v>
+        <v>100</v>
       </c>
       <c r="D547" t="s">
         <v>607</v>
@@ -11514,7 +11514,7 @@
         <v>606</v>
       </c>
       <c r="C548">
-        <v>104.113</v>
+        <v>103.806</v>
       </c>
       <c r="D548" t="s">
         <v>607</v>
@@ -11531,7 +11531,7 @@
         <v>606</v>
       </c>
       <c r="C549">
-        <v>102.01</v>
+        <v>100.487</v>
       </c>
       <c r="D549" t="s">
         <v>607</v>
@@ -11548,7 +11548,7 @@
         <v>606</v>
       </c>
       <c r="C550">
-        <v>102.692</v>
+        <v>101.912</v>
       </c>
       <c r="D550" t="s">
         <v>607</v>
@@ -11565,7 +11565,7 @@
         <v>606</v>
       </c>
       <c r="C551">
-        <v>101.639</v>
+        <v>102.348</v>
       </c>
       <c r="D551" t="s">
         <v>607</v>
@@ -11582,7 +11582,7 @@
         <v>606</v>
       </c>
       <c r="C552">
-        <v>102.557</v>
+        <v>103.911</v>
       </c>
       <c r="D552" t="s">
         <v>607</v>
@@ -11599,7 +11599,7 @@
         <v>606</v>
       </c>
       <c r="C553">
-        <v>103.854</v>
+        <v>100.344</v>
       </c>
       <c r="D553" t="s">
         <v>607</v>
@@ -11616,7 +11616,7 @@
         <v>606</v>
       </c>
       <c r="C554">
-        <v>107.692</v>
+        <v>100</v>
       </c>
       <c r="D554" t="s">
         <v>607</v>
@@ -11633,7 +11633,7 @@
         <v>606</v>
       </c>
       <c r="C555">
-        <v>104.709</v>
+        <v>106.259</v>
       </c>
       <c r="D555" t="s">
         <v>607</v>
@@ -11650,7 +11650,7 @@
         <v>606</v>
       </c>
       <c r="C556">
-        <v>101.037</v>
+        <v>102.353</v>
       </c>
       <c r="D556" t="s">
         <v>607</v>
@@ -11667,7 +11667,7 @@
         <v>606</v>
       </c>
       <c r="C557">
-        <v>102.758</v>
+        <v>106.186</v>
       </c>
       <c r="D557" t="s">
         <v>607</v>
@@ -11684,7 +11684,7 @@
         <v>606</v>
       </c>
       <c r="C558">
-        <v>105.492</v>
+        <v>102.908</v>
       </c>
       <c r="D558" t="s">
         <v>607</v>
@@ -11701,7 +11701,7 @@
         <v>605</v>
       </c>
       <c r="C559">
-        <v>99.524</v>
+        <v>98.476</v>
       </c>
       <c r="D559" t="s">
         <v>607</v>
@@ -11718,7 +11718,7 @@
         <v>606</v>
       </c>
       <c r="C560">
-        <v>101.931</v>
+        <v>103.473</v>
       </c>
       <c r="D560" t="s">
         <v>607</v>
@@ -11735,7 +11735,7 @@
         <v>606</v>
       </c>
       <c r="C561">
-        <v>111.523</v>
+        <v>109.483</v>
       </c>
       <c r="D561" t="s">
         <v>607</v>
@@ -11752,7 +11752,7 @@
         <v>606</v>
       </c>
       <c r="C562">
-        <v>103.712</v>
+        <v>101.578</v>
       </c>
       <c r="D562" t="s">
         <v>607</v>
@@ -11769,7 +11769,7 @@
         <v>606</v>
       </c>
       <c r="C563">
-        <v>103.841</v>
+        <v>101.5</v>
       </c>
       <c r="D563" t="s">
         <v>607</v>
@@ -11786,7 +11786,7 @@
         <v>606</v>
       </c>
       <c r="C564">
-        <v>107.913</v>
+        <v>107.939</v>
       </c>
       <c r="D564" t="s">
         <v>607</v>
@@ -11800,10 +11800,10 @@
         <v>566</v>
       </c>
       <c r="B565" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C565">
-        <v>98.932</v>
+        <v>101.078</v>
       </c>
       <c r="D565" t="s">
         <v>607</v>
@@ -11820,7 +11820,7 @@
         <v>605</v>
       </c>
       <c r="C566">
-        <v>96.569</v>
+        <v>97.083</v>
       </c>
       <c r="D566" t="s">
         <v>607</v>
@@ -11837,7 +11837,7 @@
         <v>605</v>
       </c>
       <c r="C567">
-        <v>93.401</v>
+        <v>97.11</v>
       </c>
       <c r="D567" t="s">
         <v>607</v>
@@ -11854,7 +11854,7 @@
         <v>606</v>
       </c>
       <c r="C568">
-        <v>102.907</v>
+        <v>100.591</v>
       </c>
       <c r="D568" t="s">
         <v>607</v>
@@ -11871,7 +11871,7 @@
         <v>606</v>
       </c>
       <c r="C569">
-        <v>102.936</v>
+        <v>100.738</v>
       </c>
       <c r="D569" t="s">
         <v>607</v>
@@ -11888,7 +11888,7 @@
         <v>606</v>
       </c>
       <c r="C570">
-        <v>106.218</v>
+        <v>105.742</v>
       </c>
       <c r="D570" t="s">
         <v>607</v>
@@ -11905,7 +11905,7 @@
         <v>605</v>
       </c>
       <c r="C571">
-        <v>98.206</v>
+        <v>97.678</v>
       </c>
       <c r="D571" t="s">
         <v>607</v>
@@ -11922,7 +11922,7 @@
         <v>605</v>
       </c>
       <c r="C572">
-        <v>98.392</v>
+        <v>97.69</v>
       </c>
       <c r="D572" t="s">
         <v>607</v>
@@ -11936,10 +11936,10 @@
         <v>574</v>
       </c>
       <c r="B573" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C573">
-        <v>100.296</v>
+        <v>99.06399999999999</v>
       </c>
       <c r="D573" t="s">
         <v>607</v>
@@ -11953,10 +11953,10 @@
         <v>575</v>
       </c>
       <c r="B574" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C574">
-        <v>101.78</v>
+        <v>99.21599999999999</v>
       </c>
       <c r="D574" t="s">
         <v>607</v>
@@ -11973,7 +11973,7 @@
         <v>606</v>
       </c>
       <c r="C575">
-        <v>102.44</v>
+        <v>100.432</v>
       </c>
       <c r="D575" t="s">
         <v>607</v>
@@ -11990,7 +11990,7 @@
         <v>606</v>
       </c>
       <c r="C576">
-        <v>101.982</v>
+        <v>100.507</v>
       </c>
       <c r="D576" t="s">
         <v>607</v>
@@ -12007,7 +12007,7 @@
         <v>605</v>
       </c>
       <c r="C577">
-        <v>98.97199999999999</v>
+        <v>99.098</v>
       </c>
       <c r="D577" t="s">
         <v>607</v>
@@ -12024,7 +12024,7 @@
         <v>606</v>
       </c>
       <c r="C578">
-        <v>101.761</v>
+        <v>102.602</v>
       </c>
       <c r="D578" t="s">
         <v>607</v>
@@ -12041,7 +12041,7 @@
         <v>606</v>
       </c>
       <c r="C579">
-        <v>103.97</v>
+        <v>103.301</v>
       </c>
       <c r="D579" t="s">
         <v>607</v>
@@ -12058,7 +12058,7 @@
         <v>606</v>
       </c>
       <c r="C580">
-        <v>101.226</v>
+        <v>100.329</v>
       </c>
       <c r="D580" t="s">
         <v>607</v>
@@ -12075,7 +12075,7 @@
         <v>605</v>
       </c>
       <c r="C581">
-        <v>97.93000000000001</v>
+        <v>99.361</v>
       </c>
       <c r="D581" t="s">
         <v>607</v>
@@ -12092,7 +12092,7 @@
         <v>606</v>
       </c>
       <c r="C582">
-        <v>102.129</v>
+        <v>101.447</v>
       </c>
       <c r="D582" t="s">
         <v>607</v>
@@ -12109,7 +12109,7 @@
         <v>606</v>
       </c>
       <c r="C583">
-        <v>101.448</v>
+        <v>100.288</v>
       </c>
       <c r="D583" t="s">
         <v>607</v>
@@ -12126,7 +12126,7 @@
         <v>606</v>
       </c>
       <c r="C584">
-        <v>103.885</v>
+        <v>103.756</v>
       </c>
       <c r="D584" t="s">
         <v>607</v>
@@ -12143,7 +12143,7 @@
         <v>606</v>
       </c>
       <c r="C585">
-        <v>103.607</v>
+        <v>101.937</v>
       </c>
       <c r="D585" t="s">
         <v>607</v>
@@ -12160,7 +12160,7 @@
         <v>606</v>
       </c>
       <c r="C586">
-        <v>107.78</v>
+        <v>105.144</v>
       </c>
       <c r="D586" t="s">
         <v>607</v>
@@ -12177,7 +12177,7 @@
         <v>606</v>
       </c>
       <c r="C587">
-        <v>106.216</v>
+        <v>105.846</v>
       </c>
       <c r="D587" t="s">
         <v>607</v>
@@ -12194,7 +12194,7 @@
         <v>606</v>
       </c>
       <c r="C588">
-        <v>102.703</v>
+        <v>102.243</v>
       </c>
       <c r="D588" t="s">
         <v>607</v>
@@ -12211,7 +12211,7 @@
         <v>606</v>
       </c>
       <c r="C589">
-        <v>103.228</v>
+        <v>101.081</v>
       </c>
       <c r="D589" t="s">
         <v>607</v>
@@ -12228,7 +12228,7 @@
         <v>606</v>
       </c>
       <c r="C590">
-        <v>103.502</v>
+        <v>104.419</v>
       </c>
       <c r="D590" t="s">
         <v>607</v>
@@ -12242,10 +12242,10 @@
         <v>592</v>
       </c>
       <c r="B591" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C591">
-        <v>101.968</v>
+        <v>99.559</v>
       </c>
       <c r="D591" t="s">
         <v>607</v>
@@ -12262,7 +12262,7 @@
         <v>605</v>
       </c>
       <c r="C592">
-        <v>99.81399999999999</v>
+        <v>98.53100000000001</v>
       </c>
       <c r="D592" t="s">
         <v>607</v>
@@ -12279,7 +12279,7 @@
         <v>606</v>
       </c>
       <c r="C593">
-        <v>100.545</v>
+        <v>102.163</v>
       </c>
       <c r="D593" t="s">
         <v>607</v>
@@ -12293,10 +12293,10 @@
         <v>595</v>
       </c>
       <c r="B594" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C594">
-        <v>100.857</v>
+        <v>99.91500000000001</v>
       </c>
       <c r="D594" t="s">
         <v>607</v>
@@ -12313,7 +12313,7 @@
         <v>606</v>
       </c>
       <c r="C595">
-        <v>103.927</v>
+        <v>101.604</v>
       </c>
       <c r="D595" t="s">
         <v>607</v>
@@ -12327,10 +12327,10 @@
         <v>597</v>
       </c>
       <c r="B596" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C596">
-        <v>102.095</v>
+        <v>99.88</v>
       </c>
       <c r="D596" t="s">
         <v>607</v>
@@ -12347,7 +12347,7 @@
         <v>606</v>
       </c>
       <c r="C597">
-        <v>100.375</v>
+        <v>100.468</v>
       </c>
       <c r="D597" t="s">
         <v>607</v>
@@ -12364,7 +12364,7 @@
         <v>606</v>
       </c>
       <c r="C598">
-        <v>102.433</v>
+        <v>100.89</v>
       </c>
       <c r="D598" t="s">
         <v>607</v>
@@ -12381,7 +12381,7 @@
         <v>606</v>
       </c>
       <c r="C599">
-        <v>101.296</v>
+        <v>101.159</v>
       </c>
       <c r="D599" t="s">
         <v>607</v>
@@ -12398,7 +12398,7 @@
         <v>606</v>
       </c>
       <c r="C600">
-        <v>103.376</v>
+        <v>102.628</v>
       </c>
       <c r="D600" t="s">
         <v>607</v>
@@ -12412,10 +12412,10 @@
         <v>602</v>
       </c>
       <c r="B601" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C601">
-        <v>102.025</v>
+        <v>98.654</v>
       </c>
       <c r="D601" t="s">
         <v>607</v>
@@ -12432,7 +12432,7 @@
         <v>606</v>
       </c>
       <c r="C602">
-        <v>105.184</v>
+        <v>102.098</v>
       </c>
       <c r="D602" t="s">
         <v>607</v>
@@ -12449,7 +12449,7 @@
         <v>605</v>
       </c>
       <c r="C603">
-        <v>91.149</v>
+        <v>94.384</v>
       </c>
       <c r="D603" t="s">
         <v>607</v>

--- a/generated_reports/tradfi_momentum.xlsx
+++ b/generated_reports/tradfi_momentum.xlsx
@@ -2232,7 +2232,7 @@
         <v>605</v>
       </c>
       <c r="C2">
-        <v>98.30800000000001</v>
+        <v>98.54600000000001</v>
       </c>
       <c r="D2" t="s">
         <v>607</v>
@@ -2249,7 +2249,7 @@
         <v>606</v>
       </c>
       <c r="C3">
-        <v>101.741</v>
+        <v>102.831</v>
       </c>
       <c r="D3" t="s">
         <v>607</v>
@@ -2266,7 +2266,7 @@
         <v>606</v>
       </c>
       <c r="C4">
-        <v>104.099</v>
+        <v>105.138</v>
       </c>
       <c r="D4" t="s">
         <v>607</v>
@@ -2283,7 +2283,7 @@
         <v>606</v>
       </c>
       <c r="C5">
-        <v>108.883</v>
+        <v>113.312</v>
       </c>
       <c r="D5" t="s">
         <v>607</v>
@@ -2300,7 +2300,7 @@
         <v>606</v>
       </c>
       <c r="C6">
-        <v>101.26</v>
+        <v>106.123</v>
       </c>
       <c r="D6" t="s">
         <v>607</v>
@@ -2317,7 +2317,7 @@
         <v>606</v>
       </c>
       <c r="C7">
-        <v>102.8</v>
+        <v>112.34</v>
       </c>
       <c r="D7" t="s">
         <v>607</v>
@@ -2334,7 +2334,7 @@
         <v>605</v>
       </c>
       <c r="C8">
-        <v>96.98099999999999</v>
+        <v>97.595</v>
       </c>
       <c r="D8" t="s">
         <v>607</v>
@@ -2351,7 +2351,7 @@
         <v>606</v>
       </c>
       <c r="C9">
-        <v>100.713</v>
+        <v>101.345</v>
       </c>
       <c r="D9" t="s">
         <v>607</v>
@@ -2365,10 +2365,10 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C10">
-        <v>94.892</v>
+        <v>104.44</v>
       </c>
       <c r="D10" t="s">
         <v>607</v>
@@ -2385,7 +2385,7 @@
         <v>606</v>
       </c>
       <c r="C11">
-        <v>102.675</v>
+        <v>103.515</v>
       </c>
       <c r="D11" t="s">
         <v>607</v>
@@ -2402,7 +2402,7 @@
         <v>605</v>
       </c>
       <c r="C12">
-        <v>98.499</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D12" t="s">
         <v>607</v>
@@ -2419,7 +2419,7 @@
         <v>606</v>
       </c>
       <c r="C13">
-        <v>108.922</v>
+        <v>116.547</v>
       </c>
       <c r="D13" t="s">
         <v>607</v>
@@ -2436,7 +2436,7 @@
         <v>606</v>
       </c>
       <c r="C14">
-        <v>101.594</v>
+        <v>106.06</v>
       </c>
       <c r="D14" t="s">
         <v>607</v>
@@ -2453,7 +2453,7 @@
         <v>605</v>
       </c>
       <c r="C15">
-        <v>98.59399999999999</v>
+        <v>99.917</v>
       </c>
       <c r="D15" t="s">
         <v>607</v>
@@ -2470,7 +2470,7 @@
         <v>606</v>
       </c>
       <c r="C16">
-        <v>101.071</v>
+        <v>101.845</v>
       </c>
       <c r="D16" t="s">
         <v>607</v>
@@ -2484,10 +2484,10 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C17">
-        <v>97.73</v>
+        <v>100.712</v>
       </c>
       <c r="D17" t="s">
         <v>607</v>
@@ -2504,7 +2504,7 @@
         <v>606</v>
       </c>
       <c r="C18">
-        <v>102.512</v>
+        <v>103.783</v>
       </c>
       <c r="D18" t="s">
         <v>607</v>
@@ -2518,10 +2518,10 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C19">
-        <v>99.791</v>
+        <v>101.644</v>
       </c>
       <c r="D19" t="s">
         <v>607</v>
@@ -2538,7 +2538,7 @@
         <v>605</v>
       </c>
       <c r="C20">
-        <v>94.72799999999999</v>
+        <v>98.812</v>
       </c>
       <c r="D20" t="s">
         <v>607</v>
@@ -2555,7 +2555,7 @@
         <v>606</v>
       </c>
       <c r="C21">
-        <v>104.119</v>
+        <v>106.653</v>
       </c>
       <c r="D21" t="s">
         <v>607</v>
@@ -2572,7 +2572,7 @@
         <v>606</v>
       </c>
       <c r="C22">
-        <v>100.394</v>
+        <v>100.761</v>
       </c>
       <c r="D22" t="s">
         <v>607</v>
@@ -2589,7 +2589,7 @@
         <v>606</v>
       </c>
       <c r="C23">
-        <v>107.439</v>
+        <v>105.352</v>
       </c>
       <c r="D23" t="s">
         <v>607</v>
@@ -2606,7 +2606,7 @@
         <v>605</v>
       </c>
       <c r="C24">
-        <v>92.486</v>
+        <v>94.15900000000001</v>
       </c>
       <c r="D24" t="s">
         <v>607</v>
@@ -2620,10 +2620,10 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C25">
-        <v>101.802</v>
+        <v>99.93600000000001</v>
       </c>
       <c r="D25" t="s">
         <v>607</v>
@@ -2640,7 +2640,7 @@
         <v>606</v>
       </c>
       <c r="C26">
-        <v>101.428</v>
+        <v>105.089</v>
       </c>
       <c r="D26" t="s">
         <v>607</v>
@@ -2654,10 +2654,10 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C27">
-        <v>98.26900000000001</v>
+        <v>101.02</v>
       </c>
       <c r="D27" t="s">
         <v>607</v>
@@ -2674,7 +2674,7 @@
         <v>606</v>
       </c>
       <c r="C28">
-        <v>102.039</v>
+        <v>100.542</v>
       </c>
       <c r="D28" t="s">
         <v>607</v>
@@ -2691,7 +2691,7 @@
         <v>606</v>
       </c>
       <c r="C29">
-        <v>102.678</v>
+        <v>105.993</v>
       </c>
       <c r="D29" t="s">
         <v>607</v>
@@ -2708,7 +2708,7 @@
         <v>605</v>
       </c>
       <c r="C30">
-        <v>99.63500000000001</v>
+        <v>98.703</v>
       </c>
       <c r="D30" t="s">
         <v>607</v>
@@ -2725,7 +2725,7 @@
         <v>606</v>
       </c>
       <c r="C31">
-        <v>102.282</v>
+        <v>104.207</v>
       </c>
       <c r="D31" t="s">
         <v>607</v>
@@ -2742,7 +2742,7 @@
         <v>605</v>
       </c>
       <c r="C32">
-        <v>92.03400000000001</v>
+        <v>93.782</v>
       </c>
       <c r="D32" t="s">
         <v>607</v>
@@ -2756,10 +2756,10 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C33">
-        <v>98.69799999999999</v>
+        <v>102.501</v>
       </c>
       <c r="D33" t="s">
         <v>607</v>
@@ -2776,7 +2776,7 @@
         <v>605</v>
       </c>
       <c r="C34">
-        <v>84.646</v>
+        <v>82.53</v>
       </c>
       <c r="D34" t="s">
         <v>607</v>
@@ -2793,7 +2793,7 @@
         <v>606</v>
       </c>
       <c r="C35">
-        <v>101.19</v>
+        <v>103.668</v>
       </c>
       <c r="D35" t="s">
         <v>607</v>
@@ -2810,7 +2810,7 @@
         <v>606</v>
       </c>
       <c r="C36">
-        <v>111.001</v>
+        <v>119.686</v>
       </c>
       <c r="D36" t="s">
         <v>607</v>
@@ -2827,7 +2827,7 @@
         <v>606</v>
       </c>
       <c r="C37">
-        <v>102.85</v>
+        <v>106.952</v>
       </c>
       <c r="D37" t="s">
         <v>607</v>
@@ -2844,7 +2844,7 @@
         <v>605</v>
       </c>
       <c r="C38">
-        <v>90.03700000000001</v>
+        <v>91.179</v>
       </c>
       <c r="D38" t="s">
         <v>607</v>
@@ -2861,7 +2861,7 @@
         <v>606</v>
       </c>
       <c r="C39">
-        <v>104.586</v>
+        <v>108.501</v>
       </c>
       <c r="D39" t="s">
         <v>607</v>
@@ -2878,7 +2878,7 @@
         <v>606</v>
       </c>
       <c r="C40">
-        <v>102.946</v>
+        <v>108.591</v>
       </c>
       <c r="D40" t="s">
         <v>607</v>
@@ -2895,7 +2895,7 @@
         <v>606</v>
       </c>
       <c r="C41">
-        <v>102.541</v>
+        <v>104.112</v>
       </c>
       <c r="D41" t="s">
         <v>607</v>
@@ -2912,7 +2912,7 @@
         <v>606</v>
       </c>
       <c r="C42">
-        <v>101.072</v>
+        <v>102.367</v>
       </c>
       <c r="D42" t="s">
         <v>607</v>
@@ -2929,7 +2929,7 @@
         <v>606</v>
       </c>
       <c r="C43">
-        <v>103.9</v>
+        <v>103.464</v>
       </c>
       <c r="D43" t="s">
         <v>607</v>
@@ -2946,7 +2946,7 @@
         <v>606</v>
       </c>
       <c r="C44">
-        <v>102.349</v>
+        <v>106.674</v>
       </c>
       <c r="D44" t="s">
         <v>607</v>
@@ -2963,7 +2963,7 @@
         <v>606</v>
       </c>
       <c r="C45">
-        <v>101.767</v>
+        <v>101.98</v>
       </c>
       <c r="D45" t="s">
         <v>607</v>
@@ -2977,10 +2977,10 @@
         <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C46">
-        <v>99.86</v>
+        <v>104.728</v>
       </c>
       <c r="D46" t="s">
         <v>607</v>
@@ -2997,7 +2997,7 @@
         <v>606</v>
       </c>
       <c r="C47">
-        <v>103.771</v>
+        <v>103.273</v>
       </c>
       <c r="D47" t="s">
         <v>607</v>
@@ -3014,7 +3014,7 @@
         <v>606</v>
       </c>
       <c r="C48">
-        <v>105.216</v>
+        <v>106.852</v>
       </c>
       <c r="D48" t="s">
         <v>607</v>
@@ -3031,7 +3031,7 @@
         <v>605</v>
       </c>
       <c r="C49">
-        <v>96.581</v>
+        <v>96.44799999999999</v>
       </c>
       <c r="D49" t="s">
         <v>607</v>
@@ -3048,7 +3048,7 @@
         <v>606</v>
       </c>
       <c r="C50">
-        <v>101.222</v>
+        <v>102.229</v>
       </c>
       <c r="D50" t="s">
         <v>607</v>
@@ -3065,7 +3065,7 @@
         <v>606</v>
       </c>
       <c r="C51">
-        <v>106.499</v>
+        <v>110.919</v>
       </c>
       <c r="D51" t="s">
         <v>607</v>
@@ -3079,10 +3079,10 @@
         <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C52">
-        <v>99.929</v>
+        <v>100.055</v>
       </c>
       <c r="D52" t="s">
         <v>607</v>
@@ -3099,7 +3099,7 @@
         <v>605</v>
       </c>
       <c r="C53">
-        <v>97.818</v>
+        <v>95.553</v>
       </c>
       <c r="D53" t="s">
         <v>607</v>
@@ -3116,7 +3116,7 @@
         <v>606</v>
       </c>
       <c r="C54">
-        <v>102.619</v>
+        <v>105.029</v>
       </c>
       <c r="D54" t="s">
         <v>607</v>
@@ -3133,7 +3133,7 @@
         <v>606</v>
       </c>
       <c r="C55">
-        <v>101.976</v>
+        <v>106.605</v>
       </c>
       <c r="D55" t="s">
         <v>607</v>
@@ -3147,10 +3147,10 @@
         <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C56">
-        <v>98.821</v>
+        <v>102.493</v>
       </c>
       <c r="D56" t="s">
         <v>607</v>
@@ -3167,7 +3167,7 @@
         <v>606</v>
       </c>
       <c r="C57">
-        <v>106.257</v>
+        <v>117.076</v>
       </c>
       <c r="D57" t="s">
         <v>607</v>
@@ -3184,7 +3184,7 @@
         <v>606</v>
       </c>
       <c r="C58">
-        <v>106.877</v>
+        <v>109.436</v>
       </c>
       <c r="D58" t="s">
         <v>607</v>
@@ -3201,7 +3201,7 @@
         <v>606</v>
       </c>
       <c r="C59">
-        <v>103.165</v>
+        <v>103.852</v>
       </c>
       <c r="D59" t="s">
         <v>607</v>
@@ -3218,7 +3218,7 @@
         <v>605</v>
       </c>
       <c r="C60">
-        <v>96.205</v>
+        <v>94.54300000000001</v>
       </c>
       <c r="D60" t="s">
         <v>607</v>
@@ -3232,10 +3232,10 @@
         <v>64</v>
       </c>
       <c r="B61" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C61">
-        <v>97.774</v>
+        <v>104.007</v>
       </c>
       <c r="D61" t="s">
         <v>607</v>
@@ -3252,7 +3252,7 @@
         <v>606</v>
       </c>
       <c r="C62">
-        <v>100.886</v>
+        <v>100.919</v>
       </c>
       <c r="D62" t="s">
         <v>607</v>
@@ -3269,7 +3269,7 @@
         <v>605</v>
       </c>
       <c r="C63">
-        <v>99.86199999999999</v>
+        <v>99.068</v>
       </c>
       <c r="D63" t="s">
         <v>607</v>
@@ -3286,7 +3286,7 @@
         <v>606</v>
       </c>
       <c r="C64">
-        <v>101.125</v>
+        <v>103.84</v>
       </c>
       <c r="D64" t="s">
         <v>607</v>
@@ -3300,10 +3300,10 @@
         <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C65">
-        <v>98.363</v>
+        <v>102.862</v>
       </c>
       <c r="D65" t="s">
         <v>607</v>
@@ -3320,7 +3320,7 @@
         <v>606</v>
       </c>
       <c r="C66">
-        <v>104.707</v>
+        <v>104.474</v>
       </c>
       <c r="D66" t="s">
         <v>607</v>
@@ -3337,7 +3337,7 @@
         <v>606</v>
       </c>
       <c r="C67">
-        <v>102.146</v>
+        <v>104.919</v>
       </c>
       <c r="D67" t="s">
         <v>607</v>
@@ -3354,7 +3354,7 @@
         <v>606</v>
       </c>
       <c r="C68">
-        <v>102.811</v>
+        <v>101.661</v>
       </c>
       <c r="D68" t="s">
         <v>607</v>
@@ -3371,7 +3371,7 @@
         <v>605</v>
       </c>
       <c r="C69">
-        <v>96.55</v>
+        <v>98.953</v>
       </c>
       <c r="D69" t="s">
         <v>607</v>
@@ -3388,7 +3388,7 @@
         <v>606</v>
       </c>
       <c r="C70">
-        <v>128.099</v>
+        <v>129.605</v>
       </c>
       <c r="D70" t="s">
         <v>607</v>
@@ -3405,7 +3405,7 @@
         <v>606</v>
       </c>
       <c r="C71">
-        <v>102.101</v>
+        <v>100.513</v>
       </c>
       <c r="D71" t="s">
         <v>607</v>
@@ -3422,7 +3422,7 @@
         <v>606</v>
       </c>
       <c r="C72">
-        <v>101.282</v>
+        <v>102.091</v>
       </c>
       <c r="D72" t="s">
         <v>607</v>
@@ -3439,7 +3439,7 @@
         <v>606</v>
       </c>
       <c r="C73">
-        <v>104.077</v>
+        <v>103.702</v>
       </c>
       <c r="D73" t="s">
         <v>607</v>
@@ -3453,10 +3453,10 @@
         <v>77</v>
       </c>
       <c r="B74" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C74">
-        <v>97.152</v>
+        <v>100.854</v>
       </c>
       <c r="D74" t="s">
         <v>607</v>
@@ -3473,7 +3473,7 @@
         <v>605</v>
       </c>
       <c r="C75">
-        <v>98.074</v>
+        <v>98.754</v>
       </c>
       <c r="D75" t="s">
         <v>607</v>
@@ -3487,10 +3487,10 @@
         <v>79</v>
       </c>
       <c r="B76" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C76">
-        <v>99.712</v>
+        <v>100.37</v>
       </c>
       <c r="D76" t="s">
         <v>607</v>
@@ -3507,7 +3507,7 @@
         <v>606</v>
       </c>
       <c r="C77">
-        <v>104.906</v>
+        <v>108.44</v>
       </c>
       <c r="D77" t="s">
         <v>607</v>
@@ -3521,10 +3521,10 @@
         <v>81</v>
       </c>
       <c r="B78" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C78">
-        <v>97.89100000000001</v>
+        <v>103.179</v>
       </c>
       <c r="D78" t="s">
         <v>607</v>
@@ -3541,7 +3541,7 @@
         <v>605</v>
       </c>
       <c r="C79">
-        <v>89.29000000000001</v>
+        <v>83.917</v>
       </c>
       <c r="D79" t="s">
         <v>607</v>
@@ -3558,7 +3558,7 @@
         <v>606</v>
       </c>
       <c r="C80">
-        <v>101.336</v>
+        <v>102.779</v>
       </c>
       <c r="D80" t="s">
         <v>607</v>
@@ -3575,7 +3575,7 @@
         <v>606</v>
       </c>
       <c r="C81">
-        <v>106.598</v>
+        <v>107.789</v>
       </c>
       <c r="D81" t="s">
         <v>607</v>
@@ -3589,10 +3589,10 @@
         <v>85</v>
       </c>
       <c r="B82" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C82">
-        <v>112.838</v>
+        <v>94.333</v>
       </c>
       <c r="D82" t="s">
         <v>607</v>
@@ -3609,7 +3609,7 @@
         <v>606</v>
       </c>
       <c r="C83">
-        <v>101.207</v>
+        <v>107.57</v>
       </c>
       <c r="D83" t="s">
         <v>607</v>
@@ -3623,10 +3623,10 @@
         <v>87</v>
       </c>
       <c r="B84" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C84">
-        <v>97.325</v>
+        <v>100.654</v>
       </c>
       <c r="D84" t="s">
         <v>607</v>
@@ -3643,7 +3643,7 @@
         <v>606</v>
       </c>
       <c r="C85">
-        <v>100.626</v>
+        <v>104.271</v>
       </c>
       <c r="D85" t="s">
         <v>607</v>
@@ -3660,7 +3660,7 @@
         <v>605</v>
       </c>
       <c r="C86">
-        <v>95.58</v>
+        <v>86.738</v>
       </c>
       <c r="D86" t="s">
         <v>607</v>
@@ -3677,7 +3677,7 @@
         <v>606</v>
       </c>
       <c r="C87">
-        <v>103.187</v>
+        <v>103.536</v>
       </c>
       <c r="D87" t="s">
         <v>607</v>
@@ -3694,7 +3694,7 @@
         <v>605</v>
       </c>
       <c r="C88">
-        <v>86.68600000000001</v>
+        <v>88.199</v>
       </c>
       <c r="D88" t="s">
         <v>607</v>
@@ -3711,7 +3711,7 @@
         <v>606</v>
       </c>
       <c r="C89">
-        <v>102.241</v>
+        <v>103.205</v>
       </c>
       <c r="D89" t="s">
         <v>607</v>
@@ -3728,7 +3728,7 @@
         <v>606</v>
       </c>
       <c r="C90">
-        <v>100.964</v>
+        <v>102.962</v>
       </c>
       <c r="D90" t="s">
         <v>607</v>
@@ -3745,7 +3745,7 @@
         <v>606</v>
       </c>
       <c r="C91">
-        <v>110.934</v>
+        <v>110.587</v>
       </c>
       <c r="D91" t="s">
         <v>607</v>
@@ -3762,7 +3762,7 @@
         <v>605</v>
       </c>
       <c r="C92">
-        <v>95.379</v>
+        <v>97.771</v>
       </c>
       <c r="D92" t="s">
         <v>607</v>
@@ -3779,7 +3779,7 @@
         <v>605</v>
       </c>
       <c r="C93">
-        <v>92.083</v>
+        <v>88.958</v>
       </c>
       <c r="D93" t="s">
         <v>607</v>
@@ -3796,7 +3796,7 @@
         <v>605</v>
       </c>
       <c r="C94">
-        <v>95.72799999999999</v>
+        <v>97.971</v>
       </c>
       <c r="D94" t="s">
         <v>607</v>
@@ -3813,7 +3813,7 @@
         <v>606</v>
       </c>
       <c r="C95">
-        <v>110.447</v>
+        <v>114.15</v>
       </c>
       <c r="D95" t="s">
         <v>607</v>
@@ -3830,7 +3830,7 @@
         <v>605</v>
       </c>
       <c r="C96">
-        <v>97.627</v>
+        <v>97.163</v>
       </c>
       <c r="D96" t="s">
         <v>607</v>
@@ -3847,7 +3847,7 @@
         <v>605</v>
       </c>
       <c r="C97">
-        <v>93.123</v>
+        <v>98.324</v>
       </c>
       <c r="D97" t="s">
         <v>607</v>
@@ -3864,7 +3864,7 @@
         <v>605</v>
       </c>
       <c r="C98">
-        <v>96.01000000000001</v>
+        <v>94.96299999999999</v>
       </c>
       <c r="D98" t="s">
         <v>607</v>
@@ -3881,7 +3881,7 @@
         <v>606</v>
       </c>
       <c r="C99">
-        <v>101.16</v>
+        <v>103.585</v>
       </c>
       <c r="D99" t="s">
         <v>607</v>
@@ -3898,7 +3898,7 @@
         <v>606</v>
       </c>
       <c r="C100">
-        <v>101.475</v>
+        <v>100.276</v>
       </c>
       <c r="D100" t="s">
         <v>607</v>
@@ -3915,7 +3915,7 @@
         <v>605</v>
       </c>
       <c r="C101">
-        <v>94.76300000000001</v>
+        <v>93.861</v>
       </c>
       <c r="D101" t="s">
         <v>607</v>
@@ -3929,10 +3929,10 @@
         <v>105</v>
       </c>
       <c r="B102" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C102">
-        <v>99.459</v>
+        <v>100.008</v>
       </c>
       <c r="D102" t="s">
         <v>607</v>
@@ -3949,7 +3949,7 @@
         <v>606</v>
       </c>
       <c r="C103">
-        <v>103.441</v>
+        <v>103.497</v>
       </c>
       <c r="D103" t="s">
         <v>607</v>
@@ -3966,7 +3966,7 @@
         <v>606</v>
       </c>
       <c r="C104">
-        <v>100.762</v>
+        <v>102.034</v>
       </c>
       <c r="D104" t="s">
         <v>607</v>
@@ -3983,7 +3983,7 @@
         <v>606</v>
       </c>
       <c r="C105">
-        <v>102.191</v>
+        <v>103.558</v>
       </c>
       <c r="D105" t="s">
         <v>607</v>
@@ -4000,7 +4000,7 @@
         <v>606</v>
       </c>
       <c r="C106">
-        <v>101.229</v>
+        <v>100.851</v>
       </c>
       <c r="D106" t="s">
         <v>607</v>
@@ -4017,7 +4017,7 @@
         <v>606</v>
       </c>
       <c r="C107">
-        <v>105.409</v>
+        <v>106.099</v>
       </c>
       <c r="D107" t="s">
         <v>607</v>
@@ -4031,10 +4031,10 @@
         <v>111</v>
       </c>
       <c r="B108" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C108">
-        <v>99.694</v>
+        <v>100.8</v>
       </c>
       <c r="D108" t="s">
         <v>607</v>
@@ -4048,10 +4048,10 @@
         <v>112</v>
       </c>
       <c r="B109" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C109">
-        <v>100.482</v>
+        <v>99.34999999999999</v>
       </c>
       <c r="D109" t="s">
         <v>607</v>
@@ -4068,7 +4068,7 @@
         <v>605</v>
       </c>
       <c r="C110">
-        <v>98.414</v>
+        <v>98.82299999999999</v>
       </c>
       <c r="D110" t="s">
         <v>607</v>
@@ -4085,7 +4085,7 @@
         <v>606</v>
       </c>
       <c r="C111">
-        <v>105.782</v>
+        <v>109.375</v>
       </c>
       <c r="D111" t="s">
         <v>607</v>
@@ -4102,7 +4102,7 @@
         <v>606</v>
       </c>
       <c r="C112">
-        <v>101.044</v>
+        <v>100.236</v>
       </c>
       <c r="D112" t="s">
         <v>607</v>
@@ -4119,7 +4119,7 @@
         <v>606</v>
       </c>
       <c r="C113">
-        <v>103.863</v>
+        <v>103.469</v>
       </c>
       <c r="D113" t="s">
         <v>607</v>
@@ -4136,7 +4136,7 @@
         <v>606</v>
       </c>
       <c r="C114">
-        <v>101.321</v>
+        <v>100.763</v>
       </c>
       <c r="D114" t="s">
         <v>607</v>
@@ -4153,7 +4153,7 @@
         <v>606</v>
       </c>
       <c r="C115">
-        <v>100.88</v>
+        <v>103.115</v>
       </c>
       <c r="D115" t="s">
         <v>607</v>
@@ -4167,10 +4167,10 @@
         <v>119</v>
       </c>
       <c r="B116" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C116">
-        <v>101.542</v>
+        <v>99.55800000000001</v>
       </c>
       <c r="D116" t="s">
         <v>607</v>
@@ -4187,7 +4187,7 @@
         <v>606</v>
       </c>
       <c r="C117">
-        <v>104.696</v>
+        <v>104.073</v>
       </c>
       <c r="D117" t="s">
         <v>607</v>
@@ -4204,7 +4204,7 @@
         <v>606</v>
       </c>
       <c r="C118">
-        <v>103.939</v>
+        <v>105.2</v>
       </c>
       <c r="D118" t="s">
         <v>607</v>
@@ -4221,7 +4221,7 @@
         <v>606</v>
       </c>
       <c r="C119">
-        <v>104.4</v>
+        <v>104.044</v>
       </c>
       <c r="D119" t="s">
         <v>607</v>
@@ -4235,10 +4235,10 @@
         <v>123</v>
       </c>
       <c r="B120" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C120">
-        <v>99.02500000000001</v>
+        <v>102.219</v>
       </c>
       <c r="D120" t="s">
         <v>607</v>
@@ -4252,10 +4252,10 @@
         <v>124</v>
       </c>
       <c r="B121" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C121">
-        <v>99.226</v>
+        <v>100.314</v>
       </c>
       <c r="D121" t="s">
         <v>607</v>
@@ -4272,7 +4272,7 @@
         <v>606</v>
       </c>
       <c r="C122">
-        <v>106.822</v>
+        <v>106.068</v>
       </c>
       <c r="D122" t="s">
         <v>607</v>
@@ -4289,7 +4289,7 @@
         <v>605</v>
       </c>
       <c r="C123">
-        <v>96.547</v>
+        <v>96.271</v>
       </c>
       <c r="D123" t="s">
         <v>607</v>
@@ -4306,7 +4306,7 @@
         <v>605</v>
       </c>
       <c r="C124">
-        <v>98.596</v>
+        <v>99.28400000000001</v>
       </c>
       <c r="D124" t="s">
         <v>607</v>
@@ -4320,10 +4320,10 @@
         <v>128</v>
       </c>
       <c r="B125" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C125">
-        <v>99.015</v>
+        <v>100.298</v>
       </c>
       <c r="D125" t="s">
         <v>607</v>
@@ -4340,7 +4340,7 @@
         <v>606</v>
       </c>
       <c r="C126">
-        <v>101.679</v>
+        <v>102.348</v>
       </c>
       <c r="D126" t="s">
         <v>607</v>
@@ -4354,10 +4354,10 @@
         <v>130</v>
       </c>
       <c r="B127" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C127">
-        <v>98.89</v>
+        <v>101.128</v>
       </c>
       <c r="D127" t="s">
         <v>607</v>
@@ -4374,7 +4374,7 @@
         <v>605</v>
       </c>
       <c r="C128">
-        <v>98.001</v>
+        <v>98.425</v>
       </c>
       <c r="D128" t="s">
         <v>607</v>
@@ -4391,7 +4391,7 @@
         <v>606</v>
       </c>
       <c r="C129">
-        <v>101.101</v>
+        <v>100.201</v>
       </c>
       <c r="D129" t="s">
         <v>607</v>
@@ -4408,7 +4408,7 @@
         <v>606</v>
       </c>
       <c r="C130">
-        <v>101.253</v>
+        <v>102.591</v>
       </c>
       <c r="D130" t="s">
         <v>607</v>
@@ -4425,7 +4425,7 @@
         <v>606</v>
       </c>
       <c r="C131">
-        <v>100.916</v>
+        <v>101.284</v>
       </c>
       <c r="D131" t="s">
         <v>607</v>
@@ -4442,7 +4442,7 @@
         <v>606</v>
       </c>
       <c r="C132">
-        <v>101.387</v>
+        <v>103.319</v>
       </c>
       <c r="D132" t="s">
         <v>607</v>
@@ -4459,7 +4459,7 @@
         <v>606</v>
       </c>
       <c r="C133">
-        <v>103.371</v>
+        <v>104.594</v>
       </c>
       <c r="D133" t="s">
         <v>607</v>
@@ -4476,7 +4476,7 @@
         <v>606</v>
       </c>
       <c r="C134">
-        <v>105.404</v>
+        <v>107.864</v>
       </c>
       <c r="D134" t="s">
         <v>607</v>
@@ -4493,7 +4493,7 @@
         <v>605</v>
       </c>
       <c r="C135">
-        <v>96.36799999999999</v>
+        <v>96.809</v>
       </c>
       <c r="D135" t="s">
         <v>607</v>
@@ -4510,7 +4510,7 @@
         <v>606</v>
       </c>
       <c r="C136">
-        <v>100.942</v>
+        <v>101.129</v>
       </c>
       <c r="D136" t="s">
         <v>607</v>
@@ -4524,10 +4524,10 @@
         <v>140</v>
       </c>
       <c r="B137" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C137">
-        <v>100.871</v>
+        <v>99.764</v>
       </c>
       <c r="D137" t="s">
         <v>607</v>
@@ -4544,7 +4544,7 @@
         <v>605</v>
       </c>
       <c r="C138">
-        <v>98.51000000000001</v>
+        <v>97.363</v>
       </c>
       <c r="D138" t="s">
         <v>607</v>
@@ -4561,7 +4561,7 @@
         <v>606</v>
       </c>
       <c r="C139">
-        <v>100.128</v>
+        <v>100.907</v>
       </c>
       <c r="D139" t="s">
         <v>607</v>
@@ -4578,7 +4578,7 @@
         <v>605</v>
       </c>
       <c r="C140">
-        <v>98.395</v>
+        <v>99.029</v>
       </c>
       <c r="D140" t="s">
         <v>607</v>
@@ -4595,7 +4595,7 @@
         <v>606</v>
       </c>
       <c r="C141">
-        <v>102.65</v>
+        <v>102.066</v>
       </c>
       <c r="D141" t="s">
         <v>607</v>
@@ -4612,7 +4612,7 @@
         <v>606</v>
       </c>
       <c r="C142">
-        <v>101.665</v>
+        <v>102.623</v>
       </c>
       <c r="D142" t="s">
         <v>607</v>
@@ -4629,7 +4629,7 @@
         <v>606</v>
       </c>
       <c r="C143">
-        <v>101.225</v>
+        <v>100.479</v>
       </c>
       <c r="D143" t="s">
         <v>607</v>
@@ -4646,7 +4646,7 @@
         <v>606</v>
       </c>
       <c r="C144">
-        <v>102.145</v>
+        <v>100.564</v>
       </c>
       <c r="D144" t="s">
         <v>607</v>
@@ -4663,7 +4663,7 @@
         <v>606</v>
       </c>
       <c r="C145">
-        <v>100.107</v>
+        <v>101.988</v>
       </c>
       <c r="D145" t="s">
         <v>607</v>
@@ -4680,7 +4680,7 @@
         <v>606</v>
       </c>
       <c r="C146">
-        <v>103.242</v>
+        <v>103.34</v>
       </c>
       <c r="D146" t="s">
         <v>607</v>
@@ -4697,7 +4697,7 @@
         <v>606</v>
       </c>
       <c r="C147">
-        <v>100.08</v>
+        <v>101.122</v>
       </c>
       <c r="D147" t="s">
         <v>607</v>
@@ -4714,7 +4714,7 @@
         <v>606</v>
       </c>
       <c r="C148">
-        <v>100.637</v>
+        <v>100.849</v>
       </c>
       <c r="D148" t="s">
         <v>607</v>
@@ -4731,7 +4731,7 @@
         <v>605</v>
       </c>
       <c r="C149">
-        <v>97.089</v>
+        <v>95.77200000000001</v>
       </c>
       <c r="D149" t="s">
         <v>607</v>
@@ -4748,7 +4748,7 @@
         <v>606</v>
       </c>
       <c r="C150">
-        <v>104.961</v>
+        <v>107.818</v>
       </c>
       <c r="D150" t="s">
         <v>607</v>
@@ -4765,7 +4765,7 @@
         <v>606</v>
       </c>
       <c r="C151">
-        <v>103.327</v>
+        <v>103.214</v>
       </c>
       <c r="D151" t="s">
         <v>607</v>
@@ -4779,10 +4779,10 @@
         <v>155</v>
       </c>
       <c r="B152" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C152">
-        <v>100.169</v>
+        <v>99.334</v>
       </c>
       <c r="D152" t="s">
         <v>607</v>
@@ -4799,7 +4799,7 @@
         <v>606</v>
       </c>
       <c r="C153">
-        <v>104.79</v>
+        <v>105.83</v>
       </c>
       <c r="D153" t="s">
         <v>607</v>
@@ -4813,10 +4813,10 @@
         <v>157</v>
       </c>
       <c r="B154" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C154">
-        <v>100.243</v>
+        <v>99.88800000000001</v>
       </c>
       <c r="D154" t="s">
         <v>607</v>
@@ -4833,7 +4833,7 @@
         <v>606</v>
       </c>
       <c r="C155">
-        <v>104.577</v>
+        <v>101.29</v>
       </c>
       <c r="D155" t="s">
         <v>607</v>
@@ -4850,7 +4850,7 @@
         <v>606</v>
       </c>
       <c r="C156">
-        <v>100.851</v>
+        <v>101.56</v>
       </c>
       <c r="D156" t="s">
         <v>607</v>
@@ -4867,7 +4867,7 @@
         <v>606</v>
       </c>
       <c r="C157">
-        <v>100.182</v>
+        <v>101.99</v>
       </c>
       <c r="D157" t="s">
         <v>607</v>
@@ -4881,10 +4881,10 @@
         <v>161</v>
       </c>
       <c r="B158" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C158">
-        <v>98.134</v>
+        <v>100.156</v>
       </c>
       <c r="D158" t="s">
         <v>607</v>
@@ -4901,7 +4901,7 @@
         <v>606</v>
       </c>
       <c r="C159">
-        <v>100.628</v>
+        <v>100.572</v>
       </c>
       <c r="D159" t="s">
         <v>607</v>
@@ -4918,7 +4918,7 @@
         <v>606</v>
       </c>
       <c r="C160">
-        <v>104.421</v>
+        <v>103.274</v>
       </c>
       <c r="D160" t="s">
         <v>607</v>
@@ -4935,7 +4935,7 @@
         <v>606</v>
       </c>
       <c r="C161">
-        <v>101.583</v>
+        <v>105.174</v>
       </c>
       <c r="D161" t="s">
         <v>607</v>
@@ -4952,7 +4952,7 @@
         <v>606</v>
       </c>
       <c r="C162">
-        <v>101.842</v>
+        <v>101.692</v>
       </c>
       <c r="D162" t="s">
         <v>607</v>
@@ -4969,7 +4969,7 @@
         <v>605</v>
       </c>
       <c r="C163">
-        <v>99.426</v>
+        <v>98.89</v>
       </c>
       <c r="D163" t="s">
         <v>607</v>
@@ -4983,10 +4983,10 @@
         <v>167</v>
       </c>
       <c r="B164" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C164">
-        <v>99.485</v>
+        <v>101.606</v>
       </c>
       <c r="D164" t="s">
         <v>607</v>
@@ -5003,7 +5003,7 @@
         <v>606</v>
       </c>
       <c r="C165">
-        <v>100.184</v>
+        <v>102.237</v>
       </c>
       <c r="D165" t="s">
         <v>607</v>
@@ -5020,7 +5020,7 @@
         <v>606</v>
       </c>
       <c r="C166">
-        <v>102.071</v>
+        <v>102.469</v>
       </c>
       <c r="D166" t="s">
         <v>607</v>
@@ -5037,7 +5037,7 @@
         <v>606</v>
       </c>
       <c r="C167">
-        <v>106.246</v>
+        <v>108.461</v>
       </c>
       <c r="D167" t="s">
         <v>607</v>
@@ -5054,7 +5054,7 @@
         <v>606</v>
       </c>
       <c r="C168">
-        <v>102.449</v>
+        <v>100.874</v>
       </c>
       <c r="D168" t="s">
         <v>607</v>
@@ -5071,7 +5071,7 @@
         <v>605</v>
       </c>
       <c r="C169">
-        <v>98.16200000000001</v>
+        <v>97.736</v>
       </c>
       <c r="D169" t="s">
         <v>607</v>
@@ -5088,7 +5088,7 @@
         <v>606</v>
       </c>
       <c r="C170">
-        <v>100.515</v>
+        <v>100.961</v>
       </c>
       <c r="D170" t="s">
         <v>607</v>
@@ -5105,7 +5105,7 @@
         <v>606</v>
       </c>
       <c r="C171">
-        <v>101.118</v>
+        <v>101.057</v>
       </c>
       <c r="D171" t="s">
         <v>607</v>
@@ -5122,7 +5122,7 @@
         <v>606</v>
       </c>
       <c r="C172">
-        <v>103.53</v>
+        <v>103.606</v>
       </c>
       <c r="D172" t="s">
         <v>607</v>
@@ -5139,7 +5139,7 @@
         <v>606</v>
       </c>
       <c r="C173">
-        <v>103.285</v>
+        <v>102.109</v>
       </c>
       <c r="D173" t="s">
         <v>607</v>
@@ -5156,7 +5156,7 @@
         <v>606</v>
       </c>
       <c r="C174">
-        <v>105.264</v>
+        <v>103.792</v>
       </c>
       <c r="D174" t="s">
         <v>607</v>
@@ -5170,10 +5170,10 @@
         <v>178</v>
       </c>
       <c r="B175" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C175">
-        <v>100.987</v>
+        <v>99.831</v>
       </c>
       <c r="D175" t="s">
         <v>607</v>
@@ -5190,7 +5190,7 @@
         <v>606</v>
       </c>
       <c r="C176">
-        <v>104.504</v>
+        <v>103.797</v>
       </c>
       <c r="D176" t="s">
         <v>607</v>
@@ -5207,7 +5207,7 @@
         <v>606</v>
       </c>
       <c r="C177">
-        <v>102.703</v>
+        <v>103.477</v>
       </c>
       <c r="D177" t="s">
         <v>607</v>
@@ -5224,7 +5224,7 @@
         <v>606</v>
       </c>
       <c r="C178">
-        <v>103.664</v>
+        <v>102.9</v>
       </c>
       <c r="D178" t="s">
         <v>607</v>
@@ -5241,7 +5241,7 @@
         <v>605</v>
       </c>
       <c r="C179">
-        <v>96.247</v>
+        <v>95.94199999999999</v>
       </c>
       <c r="D179" t="s">
         <v>607</v>
@@ -5258,7 +5258,7 @@
         <v>606</v>
       </c>
       <c r="C180">
-        <v>101.656</v>
+        <v>103.042</v>
       </c>
       <c r="D180" t="s">
         <v>607</v>
@@ -5275,7 +5275,7 @@
         <v>606</v>
       </c>
       <c r="C181">
-        <v>103.124</v>
+        <v>104.034</v>
       </c>
       <c r="D181" t="s">
         <v>607</v>
@@ -5289,10 +5289,10 @@
         <v>185</v>
       </c>
       <c r="B182" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C182">
-        <v>98.786</v>
+        <v>101.882</v>
       </c>
       <c r="D182" t="s">
         <v>607</v>
@@ -5306,10 +5306,10 @@
         <v>186</v>
       </c>
       <c r="B183" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C183">
-        <v>99.71899999999999</v>
+        <v>100.668</v>
       </c>
       <c r="D183" t="s">
         <v>607</v>
@@ -5323,10 +5323,10 @@
         <v>187</v>
       </c>
       <c r="B184" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C184">
-        <v>99.407</v>
+        <v>100.438</v>
       </c>
       <c r="D184" t="s">
         <v>607</v>
@@ -5343,7 +5343,7 @@
         <v>606</v>
       </c>
       <c r="C185">
-        <v>101.204</v>
+        <v>100.932</v>
       </c>
       <c r="D185" t="s">
         <v>607</v>
@@ -5360,7 +5360,7 @@
         <v>606</v>
       </c>
       <c r="C186">
-        <v>104.143</v>
+        <v>109.929</v>
       </c>
       <c r="D186" t="s">
         <v>607</v>
@@ -5377,7 +5377,7 @@
         <v>605</v>
       </c>
       <c r="C187">
-        <v>98.376</v>
+        <v>99.301</v>
       </c>
       <c r="D187" t="s">
         <v>607</v>
@@ -5391,10 +5391,10 @@
         <v>191</v>
       </c>
       <c r="B188" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C188">
-        <v>97.363</v>
+        <v>100.271</v>
       </c>
       <c r="D188" t="s">
         <v>607</v>
@@ -5411,7 +5411,7 @@
         <v>606</v>
       </c>
       <c r="C189">
-        <v>103.378</v>
+        <v>105.013</v>
       </c>
       <c r="D189" t="s">
         <v>607</v>
@@ -5428,7 +5428,7 @@
         <v>605</v>
       </c>
       <c r="C190">
-        <v>98.84999999999999</v>
+        <v>97.682</v>
       </c>
       <c r="D190" t="s">
         <v>607</v>
@@ -5445,7 +5445,7 @@
         <v>606</v>
       </c>
       <c r="C191">
-        <v>101.723</v>
+        <v>103.217</v>
       </c>
       <c r="D191" t="s">
         <v>607</v>
@@ -5462,7 +5462,7 @@
         <v>606</v>
       </c>
       <c r="C192">
-        <v>102.004</v>
+        <v>104.702</v>
       </c>
       <c r="D192" t="s">
         <v>607</v>
@@ -5479,7 +5479,7 @@
         <v>606</v>
       </c>
       <c r="C193">
-        <v>101.572</v>
+        <v>102.461</v>
       </c>
       <c r="D193" t="s">
         <v>607</v>
@@ -5496,7 +5496,7 @@
         <v>606</v>
       </c>
       <c r="C194">
-        <v>101.313</v>
+        <v>101.112</v>
       </c>
       <c r="D194" t="s">
         <v>607</v>
@@ -5513,7 +5513,7 @@
         <v>606</v>
       </c>
       <c r="C195">
-        <v>101.405</v>
+        <v>101.806</v>
       </c>
       <c r="D195" t="s">
         <v>607</v>
@@ -5530,7 +5530,7 @@
         <v>606</v>
       </c>
       <c r="C196">
-        <v>101.078</v>
+        <v>101.875</v>
       </c>
       <c r="D196" t="s">
         <v>607</v>
@@ -5547,7 +5547,7 @@
         <v>606</v>
       </c>
       <c r="C197">
-        <v>101.806</v>
+        <v>102.624</v>
       </c>
       <c r="D197" t="s">
         <v>607</v>
@@ -5561,10 +5561,10 @@
         <v>201</v>
       </c>
       <c r="B198" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C198">
-        <v>99.623</v>
+        <v>102.162</v>
       </c>
       <c r="D198" t="s">
         <v>607</v>
@@ -5581,7 +5581,7 @@
         <v>606</v>
       </c>
       <c r="C199">
-        <v>103.867</v>
+        <v>104.703</v>
       </c>
       <c r="D199" t="s">
         <v>607</v>
@@ -5598,7 +5598,7 @@
         <v>605</v>
       </c>
       <c r="C200">
-        <v>98.31399999999999</v>
+        <v>99.56</v>
       </c>
       <c r="D200" t="s">
         <v>607</v>
@@ -5615,7 +5615,7 @@
         <v>606</v>
       </c>
       <c r="C201">
-        <v>110.318</v>
+        <v>111.297</v>
       </c>
       <c r="D201" t="s">
         <v>607</v>
@@ -5632,7 +5632,7 @@
         <v>606</v>
       </c>
       <c r="C202">
-        <v>103.684</v>
+        <v>103.998</v>
       </c>
       <c r="D202" t="s">
         <v>607</v>
@@ -5649,7 +5649,7 @@
         <v>606</v>
       </c>
       <c r="C203">
-        <v>105.104</v>
+        <v>105.917</v>
       </c>
       <c r="D203" t="s">
         <v>607</v>
@@ -5663,10 +5663,10 @@
         <v>207</v>
       </c>
       <c r="B204" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C204">
-        <v>99.161</v>
+        <v>104.556</v>
       </c>
       <c r="D204" t="s">
         <v>607</v>
@@ -5683,7 +5683,7 @@
         <v>605</v>
       </c>
       <c r="C205">
-        <v>96.28400000000001</v>
+        <v>97.673</v>
       </c>
       <c r="D205" t="s">
         <v>607</v>
@@ -5697,10 +5697,10 @@
         <v>209</v>
       </c>
       <c r="B206" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C206">
-        <v>100.142</v>
+        <v>99.12</v>
       </c>
       <c r="D206" t="s">
         <v>607</v>
@@ -5714,10 +5714,10 @@
         <v>210</v>
       </c>
       <c r="B207" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C207">
-        <v>100.917</v>
+        <v>99.66500000000001</v>
       </c>
       <c r="D207" t="s">
         <v>607</v>
@@ -5734,7 +5734,7 @@
         <v>605</v>
       </c>
       <c r="C208">
-        <v>94.468</v>
+        <v>95.54300000000001</v>
       </c>
       <c r="D208" t="s">
         <v>607</v>
@@ -5751,7 +5751,7 @@
         <v>606</v>
       </c>
       <c r="C209">
-        <v>104.16</v>
+        <v>103.7</v>
       </c>
       <c r="D209" t="s">
         <v>607</v>
@@ -5768,7 +5768,7 @@
         <v>606</v>
       </c>
       <c r="C210">
-        <v>100.711</v>
+        <v>101.323</v>
       </c>
       <c r="D210" t="s">
         <v>607</v>
@@ -5785,7 +5785,7 @@
         <v>606</v>
       </c>
       <c r="C211">
-        <v>100.095</v>
+        <v>100.32</v>
       </c>
       <c r="D211" t="s">
         <v>607</v>
@@ -5799,10 +5799,10 @@
         <v>215</v>
       </c>
       <c r="B212" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C212">
-        <v>99.627</v>
+        <v>102.68</v>
       </c>
       <c r="D212" t="s">
         <v>607</v>
@@ -5816,10 +5816,10 @@
         <v>216</v>
       </c>
       <c r="B213" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C213">
-        <v>99.16500000000001</v>
+        <v>100.611</v>
       </c>
       <c r="D213" t="s">
         <v>607</v>
@@ -5836,7 +5836,7 @@
         <v>606</v>
       </c>
       <c r="C214">
-        <v>105.118</v>
+        <v>106.092</v>
       </c>
       <c r="D214" t="s">
         <v>607</v>
@@ -5853,7 +5853,7 @@
         <v>606</v>
       </c>
       <c r="C215">
-        <v>102.793</v>
+        <v>108.282</v>
       </c>
       <c r="D215" t="s">
         <v>607</v>
@@ -5870,7 +5870,7 @@
         <v>605</v>
       </c>
       <c r="C216">
-        <v>98.64</v>
+        <v>98.97799999999999</v>
       </c>
       <c r="D216" t="s">
         <v>607</v>
@@ -5887,7 +5887,7 @@
         <v>606</v>
       </c>
       <c r="C217">
-        <v>100.272</v>
+        <v>100.941</v>
       </c>
       <c r="D217" t="s">
         <v>607</v>
@@ -5904,7 +5904,7 @@
         <v>606</v>
       </c>
       <c r="C218">
-        <v>100.886</v>
+        <v>100.593</v>
       </c>
       <c r="D218" t="s">
         <v>607</v>
@@ -5918,10 +5918,10 @@
         <v>222</v>
       </c>
       <c r="B219" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C219">
-        <v>98.789</v>
+        <v>110.556</v>
       </c>
       <c r="D219" t="s">
         <v>607</v>
@@ -5938,7 +5938,7 @@
         <v>606</v>
       </c>
       <c r="C220">
-        <v>102.004</v>
+        <v>103.897</v>
       </c>
       <c r="D220" t="s">
         <v>607</v>
@@ -5955,7 +5955,7 @@
         <v>606</v>
       </c>
       <c r="C221">
-        <v>103.187</v>
+        <v>102.759</v>
       </c>
       <c r="D221" t="s">
         <v>607</v>
@@ -5972,7 +5972,7 @@
         <v>605</v>
       </c>
       <c r="C222">
-        <v>97.438</v>
+        <v>99.425</v>
       </c>
       <c r="D222" t="s">
         <v>607</v>
@@ -5986,10 +5986,10 @@
         <v>226</v>
       </c>
       <c r="B223" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C223">
-        <v>100.166</v>
+        <v>99.035</v>
       </c>
       <c r="D223" t="s">
         <v>607</v>
@@ -6006,7 +6006,7 @@
         <v>606</v>
       </c>
       <c r="C224">
-        <v>105.713</v>
+        <v>104.362</v>
       </c>
       <c r="D224" t="s">
         <v>607</v>
@@ -6020,10 +6020,10 @@
         <v>228</v>
       </c>
       <c r="B225" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C225">
-        <v>97.79000000000001</v>
+        <v>101.1</v>
       </c>
       <c r="D225" t="s">
         <v>607</v>
@@ -6040,7 +6040,7 @@
         <v>606</v>
       </c>
       <c r="C226">
-        <v>102.356</v>
+        <v>105.805</v>
       </c>
       <c r="D226" t="s">
         <v>607</v>
@@ -6054,10 +6054,10 @@
         <v>230</v>
       </c>
       <c r="B227" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C227">
-        <v>101.406</v>
+        <v>99.75</v>
       </c>
       <c r="D227" t="s">
         <v>607</v>
@@ -6074,7 +6074,7 @@
         <v>606</v>
       </c>
       <c r="C228">
-        <v>103.258</v>
+        <v>105.733</v>
       </c>
       <c r="D228" t="s">
         <v>607</v>
@@ -6091,7 +6091,7 @@
         <v>606</v>
       </c>
       <c r="C229">
-        <v>101.478</v>
+        <v>102.526</v>
       </c>
       <c r="D229" t="s">
         <v>607</v>
@@ -6108,7 +6108,7 @@
         <v>606</v>
       </c>
       <c r="C230">
-        <v>100.832</v>
+        <v>101.388</v>
       </c>
       <c r="D230" t="s">
         <v>607</v>
@@ -6125,7 +6125,7 @@
         <v>606</v>
       </c>
       <c r="C231">
-        <v>102.003</v>
+        <v>100.579</v>
       </c>
       <c r="D231" t="s">
         <v>607</v>
@@ -6142,7 +6142,7 @@
         <v>605</v>
       </c>
       <c r="C232">
-        <v>98.486</v>
+        <v>99.83799999999999</v>
       </c>
       <c r="D232" t="s">
         <v>607</v>
@@ -6156,10 +6156,10 @@
         <v>236</v>
       </c>
       <c r="B233" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C233">
-        <v>100.18</v>
+        <v>98.976</v>
       </c>
       <c r="D233" t="s">
         <v>607</v>
@@ -6176,7 +6176,7 @@
         <v>606</v>
       </c>
       <c r="C234">
-        <v>100.968</v>
+        <v>101.035</v>
       </c>
       <c r="D234" t="s">
         <v>607</v>
@@ -6193,7 +6193,7 @@
         <v>606</v>
       </c>
       <c r="C235">
-        <v>102.395</v>
+        <v>103.215</v>
       </c>
       <c r="D235" t="s">
         <v>607</v>
@@ -6207,10 +6207,10 @@
         <v>239</v>
       </c>
       <c r="B236" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C236">
-        <v>99.726</v>
+        <v>100.68</v>
       </c>
       <c r="D236" t="s">
         <v>607</v>
@@ -6227,7 +6227,7 @@
         <v>605</v>
       </c>
       <c r="C237">
-        <v>98.536</v>
+        <v>95.902</v>
       </c>
       <c r="D237" t="s">
         <v>607</v>
@@ -6244,7 +6244,7 @@
         <v>606</v>
       </c>
       <c r="C238">
-        <v>103.707</v>
+        <v>103.905</v>
       </c>
       <c r="D238" t="s">
         <v>607</v>
@@ -6261,7 +6261,7 @@
         <v>606</v>
       </c>
       <c r="C239">
-        <v>103.34</v>
+        <v>104.866</v>
       </c>
       <c r="D239" t="s">
         <v>607</v>
@@ -6278,7 +6278,7 @@
         <v>606</v>
       </c>
       <c r="C240">
-        <v>101.287</v>
+        <v>100.523</v>
       </c>
       <c r="D240" t="s">
         <v>607</v>
@@ -6295,7 +6295,7 @@
         <v>606</v>
       </c>
       <c r="C241">
-        <v>103.155</v>
+        <v>104.819</v>
       </c>
       <c r="D241" t="s">
         <v>607</v>
@@ -6312,7 +6312,7 @@
         <v>606</v>
       </c>
       <c r="C242">
-        <v>102.589</v>
+        <v>105.098</v>
       </c>
       <c r="D242" t="s">
         <v>607</v>
@@ -6329,7 +6329,7 @@
         <v>605</v>
       </c>
       <c r="C243">
-        <v>99.738</v>
+        <v>98.79300000000001</v>
       </c>
       <c r="D243" t="s">
         <v>607</v>
@@ -6346,7 +6346,7 @@
         <v>606</v>
       </c>
       <c r="C244">
-        <v>102.795</v>
+        <v>107.496</v>
       </c>
       <c r="D244" t="s">
         <v>607</v>
@@ -6363,7 +6363,7 @@
         <v>606</v>
       </c>
       <c r="C245">
-        <v>108.704</v>
+        <v>108.735</v>
       </c>
       <c r="D245" t="s">
         <v>607</v>
@@ -6380,7 +6380,7 @@
         <v>606</v>
       </c>
       <c r="C246">
-        <v>102.23</v>
+        <v>102.133</v>
       </c>
       <c r="D246" t="s">
         <v>607</v>
@@ -6397,7 +6397,7 @@
         <v>606</v>
       </c>
       <c r="C247">
-        <v>102.475</v>
+        <v>102.046</v>
       </c>
       <c r="D247" t="s">
         <v>607</v>
@@ -6414,7 +6414,7 @@
         <v>606</v>
       </c>
       <c r="C248">
-        <v>104.888</v>
+        <v>107.732</v>
       </c>
       <c r="D248" t="s">
         <v>607</v>
@@ -6431,7 +6431,7 @@
         <v>605</v>
       </c>
       <c r="C249">
-        <v>99.42400000000001</v>
+        <v>98.316</v>
       </c>
       <c r="D249" t="s">
         <v>607</v>
@@ -6448,7 +6448,7 @@
         <v>606</v>
       </c>
       <c r="C250">
-        <v>101.081</v>
+        <v>102.292</v>
       </c>
       <c r="D250" t="s">
         <v>607</v>
@@ -6465,7 +6465,7 @@
         <v>606</v>
       </c>
       <c r="C251">
-        <v>102.079</v>
+        <v>101.779</v>
       </c>
       <c r="D251" t="s">
         <v>607</v>
@@ -6482,7 +6482,7 @@
         <v>606</v>
       </c>
       <c r="C252">
-        <v>101.057</v>
+        <v>101.418</v>
       </c>
       <c r="D252" t="s">
         <v>607</v>
@@ -6499,7 +6499,7 @@
         <v>605</v>
       </c>
       <c r="C253">
-        <v>98.084</v>
+        <v>97.92</v>
       </c>
       <c r="D253" t="s">
         <v>607</v>
@@ -6516,7 +6516,7 @@
         <v>606</v>
       </c>
       <c r="C254">
-        <v>101.315</v>
+        <v>103.335</v>
       </c>
       <c r="D254" t="s">
         <v>607</v>
@@ -6533,7 +6533,7 @@
         <v>605</v>
       </c>
       <c r="C255">
-        <v>98.855</v>
+        <v>99.645</v>
       </c>
       <c r="D255" t="s">
         <v>607</v>
@@ -6550,7 +6550,7 @@
         <v>606</v>
       </c>
       <c r="C256">
-        <v>101.374</v>
+        <v>100.935</v>
       </c>
       <c r="D256" t="s">
         <v>607</v>
@@ -6567,7 +6567,7 @@
         <v>606</v>
       </c>
       <c r="C257">
-        <v>104.698</v>
+        <v>104.098</v>
       </c>
       <c r="D257" t="s">
         <v>607</v>
@@ -6584,7 +6584,7 @@
         <v>605</v>
       </c>
       <c r="C258">
-        <v>94.108</v>
+        <v>96.94499999999999</v>
       </c>
       <c r="D258" t="s">
         <v>607</v>
@@ -6601,7 +6601,7 @@
         <v>606</v>
       </c>
       <c r="C259">
-        <v>101.492</v>
+        <v>100.169</v>
       </c>
       <c r="D259" t="s">
         <v>607</v>
@@ -6618,7 +6618,7 @@
         <v>606</v>
       </c>
       <c r="C260">
-        <v>100.217</v>
+        <v>101.231</v>
       </c>
       <c r="D260" t="s">
         <v>607</v>
@@ -6632,10 +6632,10 @@
         <v>264</v>
       </c>
       <c r="B261" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C261">
-        <v>99.43600000000001</v>
+        <v>101.264</v>
       </c>
       <c r="D261" t="s">
         <v>607</v>
@@ -6652,7 +6652,7 @@
         <v>606</v>
       </c>
       <c r="C262">
-        <v>107.854</v>
+        <v>109.276</v>
       </c>
       <c r="D262" t="s">
         <v>607</v>
@@ -6669,7 +6669,7 @@
         <v>606</v>
       </c>
       <c r="C263">
-        <v>112.824</v>
+        <v>113.928</v>
       </c>
       <c r="D263" t="s">
         <v>607</v>
@@ -6686,7 +6686,7 @@
         <v>606</v>
       </c>
       <c r="C264">
-        <v>109.647</v>
+        <v>104.813</v>
       </c>
       <c r="D264" t="s">
         <v>607</v>
@@ -6703,7 +6703,7 @@
         <v>606</v>
       </c>
       <c r="C265">
-        <v>101.425</v>
+        <v>102.465</v>
       </c>
       <c r="D265" t="s">
         <v>607</v>
@@ -6720,7 +6720,7 @@
         <v>606</v>
       </c>
       <c r="C266">
-        <v>104.702</v>
+        <v>107.038</v>
       </c>
       <c r="D266" t="s">
         <v>607</v>
@@ -6737,7 +6737,7 @@
         <v>606</v>
       </c>
       <c r="C267">
-        <v>102.014</v>
+        <v>102.14</v>
       </c>
       <c r="D267" t="s">
         <v>607</v>
@@ -6751,10 +6751,10 @@
         <v>271</v>
       </c>
       <c r="B268" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C268">
-        <v>97.483</v>
+        <v>101.025</v>
       </c>
       <c r="D268" t="s">
         <v>607</v>
@@ -6771,7 +6771,7 @@
         <v>606</v>
       </c>
       <c r="C269">
-        <v>105.017</v>
+        <v>104.998</v>
       </c>
       <c r="D269" t="s">
         <v>607</v>
@@ -6788,7 +6788,7 @@
         <v>606</v>
       </c>
       <c r="C270">
-        <v>107.605</v>
+        <v>105.484</v>
       </c>
       <c r="D270" t="s">
         <v>607</v>
@@ -6805,7 +6805,7 @@
         <v>605</v>
       </c>
       <c r="C271">
-        <v>97.58</v>
+        <v>98.373</v>
       </c>
       <c r="D271" t="s">
         <v>607</v>
@@ -6819,10 +6819,10 @@
         <v>275</v>
       </c>
       <c r="B272" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C272">
-        <v>98.05500000000001</v>
+        <v>101.814</v>
       </c>
       <c r="D272" t="s">
         <v>607</v>
@@ -6839,7 +6839,7 @@
         <v>606</v>
       </c>
       <c r="C273">
-        <v>106.709</v>
+        <v>108.54</v>
       </c>
       <c r="D273" t="s">
         <v>607</v>
@@ -6856,7 +6856,7 @@
         <v>606</v>
       </c>
       <c r="C274">
-        <v>100.628</v>
+        <v>100.41</v>
       </c>
       <c r="D274" t="s">
         <v>607</v>
@@ -6870,10 +6870,10 @@
         <v>278</v>
       </c>
       <c r="B275" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C275">
-        <v>98.70699999999999</v>
+        <v>100.721</v>
       </c>
       <c r="D275" t="s">
         <v>607</v>
@@ -6890,7 +6890,7 @@
         <v>606</v>
       </c>
       <c r="C276">
-        <v>103.098</v>
+        <v>105.085</v>
       </c>
       <c r="D276" t="s">
         <v>607</v>
@@ -6907,7 +6907,7 @@
         <v>606</v>
       </c>
       <c r="C277">
-        <v>109.014</v>
+        <v>109.34</v>
       </c>
       <c r="D277" t="s">
         <v>607</v>
@@ -6924,7 +6924,7 @@
         <v>606</v>
       </c>
       <c r="C278">
-        <v>102.347</v>
+        <v>100.362</v>
       </c>
       <c r="D278" t="s">
         <v>607</v>
@@ -6938,10 +6938,10 @@
         <v>282</v>
       </c>
       <c r="B279" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C279">
-        <v>99.767</v>
+        <v>101.192</v>
       </c>
       <c r="D279" t="s">
         <v>607</v>
@@ -6958,7 +6958,7 @@
         <v>605</v>
       </c>
       <c r="C280">
-        <v>97.444</v>
+        <v>99.839</v>
       </c>
       <c r="D280" t="s">
         <v>607</v>
@@ -6972,10 +6972,10 @@
         <v>284</v>
       </c>
       <c r="B281" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C281">
-        <v>97.589</v>
+        <v>102.904</v>
       </c>
       <c r="D281" t="s">
         <v>607</v>
@@ -6992,7 +6992,7 @@
         <v>605</v>
       </c>
       <c r="C282">
-        <v>98.259</v>
+        <v>97.789</v>
       </c>
       <c r="D282" t="s">
         <v>607</v>
@@ -7009,7 +7009,7 @@
         <v>605</v>
       </c>
       <c r="C283">
-        <v>95.39700000000001</v>
+        <v>97.443</v>
       </c>
       <c r="D283" t="s">
         <v>607</v>
@@ -7026,7 +7026,7 @@
         <v>606</v>
       </c>
       <c r="C284">
-        <v>102.114</v>
+        <v>103.352</v>
       </c>
       <c r="D284" t="s">
         <v>607</v>
@@ -7040,10 +7040,10 @@
         <v>288</v>
       </c>
       <c r="B285" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C285">
-        <v>102.184</v>
+        <v>99.08</v>
       </c>
       <c r="D285" t="s">
         <v>607</v>
@@ -7057,10 +7057,10 @@
         <v>289</v>
       </c>
       <c r="B286" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C286">
-        <v>99.56699999999999</v>
+        <v>100.576</v>
       </c>
       <c r="D286" t="s">
         <v>607</v>
@@ -7077,7 +7077,7 @@
         <v>605</v>
       </c>
       <c r="C287">
-        <v>93.61</v>
+        <v>98.018</v>
       </c>
       <c r="D287" t="s">
         <v>607</v>
@@ -7094,7 +7094,7 @@
         <v>605</v>
       </c>
       <c r="C288">
-        <v>99.968</v>
+        <v>99.43899999999999</v>
       </c>
       <c r="D288" t="s">
         <v>607</v>
@@ -7111,7 +7111,7 @@
         <v>606</v>
       </c>
       <c r="C289">
-        <v>100.615</v>
+        <v>101.565</v>
       </c>
       <c r="D289" t="s">
         <v>607</v>
@@ -7128,7 +7128,7 @@
         <v>606</v>
       </c>
       <c r="C290">
-        <v>103.525</v>
+        <v>103.362</v>
       </c>
       <c r="D290" t="s">
         <v>607</v>
@@ -7145,7 +7145,7 @@
         <v>606</v>
       </c>
       <c r="C291">
-        <v>102.965</v>
+        <v>101.494</v>
       </c>
       <c r="D291" t="s">
         <v>607</v>
@@ -7162,7 +7162,7 @@
         <v>605</v>
       </c>
       <c r="C292">
-        <v>95.13200000000001</v>
+        <v>96.758</v>
       </c>
       <c r="D292" t="s">
         <v>607</v>
@@ -7179,7 +7179,7 @@
         <v>606</v>
       </c>
       <c r="C293">
-        <v>104.571</v>
+        <v>106.783</v>
       </c>
       <c r="D293" t="s">
         <v>607</v>
@@ -7196,7 +7196,7 @@
         <v>606</v>
       </c>
       <c r="C294">
-        <v>100.959</v>
+        <v>101.876</v>
       </c>
       <c r="D294" t="s">
         <v>607</v>
@@ -7213,7 +7213,7 @@
         <v>606</v>
       </c>
       <c r="C295">
-        <v>102.883</v>
+        <v>101.791</v>
       </c>
       <c r="D295" t="s">
         <v>607</v>
@@ -7230,7 +7230,7 @@
         <v>606</v>
       </c>
       <c r="C296">
-        <v>107.01</v>
+        <v>106.736</v>
       </c>
       <c r="D296" t="s">
         <v>607</v>
@@ -7247,7 +7247,7 @@
         <v>606</v>
       </c>
       <c r="C297">
-        <v>102.803</v>
+        <v>102.557</v>
       </c>
       <c r="D297" t="s">
         <v>607</v>
@@ -7264,7 +7264,7 @@
         <v>606</v>
       </c>
       <c r="C298">
-        <v>100.101</v>
+        <v>100.114</v>
       </c>
       <c r="D298" t="s">
         <v>607</v>
@@ -7281,7 +7281,7 @@
         <v>606</v>
       </c>
       <c r="C299">
-        <v>102.873</v>
+        <v>105.82</v>
       </c>
       <c r="D299" t="s">
         <v>607</v>
@@ -7298,7 +7298,7 @@
         <v>606</v>
       </c>
       <c r="C300">
-        <v>102.663</v>
+        <v>102.941</v>
       </c>
       <c r="D300" t="s">
         <v>607</v>
@@ -7315,7 +7315,7 @@
         <v>606</v>
       </c>
       <c r="C301">
-        <v>100.538</v>
+        <v>100.288</v>
       </c>
       <c r="D301" t="s">
         <v>607</v>
@@ -7332,7 +7332,7 @@
         <v>606</v>
       </c>
       <c r="C302">
-        <v>100.656</v>
+        <v>101.692</v>
       </c>
       <c r="D302" t="s">
         <v>607</v>
@@ -7349,7 +7349,7 @@
         <v>606</v>
       </c>
       <c r="C303">
-        <v>104.702</v>
+        <v>104.244</v>
       </c>
       <c r="D303" t="s">
         <v>607</v>
@@ -7363,10 +7363,10 @@
         <v>307</v>
       </c>
       <c r="B304" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C304">
-        <v>101.474</v>
+        <v>98.988</v>
       </c>
       <c r="D304" t="s">
         <v>607</v>
@@ -7383,7 +7383,7 @@
         <v>606</v>
       </c>
       <c r="C305">
-        <v>101.57</v>
+        <v>100.32</v>
       </c>
       <c r="D305" t="s">
         <v>607</v>
@@ -7400,7 +7400,7 @@
         <v>606</v>
       </c>
       <c r="C306">
-        <v>101.206</v>
+        <v>104.011</v>
       </c>
       <c r="D306" t="s">
         <v>607</v>
@@ -7417,7 +7417,7 @@
         <v>605</v>
       </c>
       <c r="C307">
-        <v>98.938</v>
+        <v>96.38800000000001</v>
       </c>
       <c r="D307" t="s">
         <v>607</v>
@@ -7434,7 +7434,7 @@
         <v>606</v>
       </c>
       <c r="C308">
-        <v>101.298</v>
+        <v>101.297</v>
       </c>
       <c r="D308" t="s">
         <v>607</v>
@@ -7451,7 +7451,7 @@
         <v>606</v>
       </c>
       <c r="C309">
-        <v>105.472</v>
+        <v>105.809</v>
       </c>
       <c r="D309" t="s">
         <v>607</v>
@@ -7468,7 +7468,7 @@
         <v>606</v>
       </c>
       <c r="C310">
-        <v>103.733</v>
+        <v>109.621</v>
       </c>
       <c r="D310" t="s">
         <v>607</v>
@@ -7482,10 +7482,10 @@
         <v>314</v>
       </c>
       <c r="B311" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C311">
-        <v>99.803</v>
+        <v>104.22</v>
       </c>
       <c r="D311" t="s">
         <v>607</v>
@@ -7502,7 +7502,7 @@
         <v>606</v>
       </c>
       <c r="C312">
-        <v>105.184</v>
+        <v>106.654</v>
       </c>
       <c r="D312" t="s">
         <v>607</v>
@@ -7516,10 +7516,10 @@
         <v>316</v>
       </c>
       <c r="B313" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C313">
-        <v>100.136</v>
+        <v>99.878</v>
       </c>
       <c r="D313" t="s">
         <v>607</v>
@@ -7536,7 +7536,7 @@
         <v>606</v>
       </c>
       <c r="C314">
-        <v>102.373</v>
+        <v>102.604</v>
       </c>
       <c r="D314" t="s">
         <v>607</v>
@@ -7553,7 +7553,7 @@
         <v>606</v>
       </c>
       <c r="C315">
-        <v>101.587</v>
+        <v>101.333</v>
       </c>
       <c r="D315" t="s">
         <v>607</v>
@@ -7567,10 +7567,10 @@
         <v>319</v>
       </c>
       <c r="B316" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C316">
-        <v>99.768</v>
+        <v>101.183</v>
       </c>
       <c r="D316" t="s">
         <v>607</v>
@@ -7587,7 +7587,7 @@
         <v>606</v>
       </c>
       <c r="C317">
-        <v>101.685</v>
+        <v>103.617</v>
       </c>
       <c r="D317" t="s">
         <v>607</v>
@@ -7601,10 +7601,10 @@
         <v>321</v>
       </c>
       <c r="B318" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C318">
-        <v>98.76600000000001</v>
+        <v>101.176</v>
       </c>
       <c r="D318" t="s">
         <v>607</v>
@@ -7621,7 +7621,7 @@
         <v>606</v>
       </c>
       <c r="C319">
-        <v>100.56</v>
+        <v>105.371</v>
       </c>
       <c r="D319" t="s">
         <v>607</v>
@@ -7635,10 +7635,10 @@
         <v>323</v>
       </c>
       <c r="B320" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C320">
-        <v>99.94</v>
+        <v>100.666</v>
       </c>
       <c r="D320" t="s">
         <v>607</v>
@@ -7655,7 +7655,7 @@
         <v>605</v>
       </c>
       <c r="C321">
-        <v>93.164</v>
+        <v>93.45999999999999</v>
       </c>
       <c r="D321" t="s">
         <v>607</v>
@@ -7672,7 +7672,7 @@
         <v>606</v>
       </c>
       <c r="C322">
-        <v>105.329</v>
+        <v>102.476</v>
       </c>
       <c r="D322" t="s">
         <v>607</v>
@@ -7689,7 +7689,7 @@
         <v>605</v>
       </c>
       <c r="C323">
-        <v>99.024</v>
+        <v>98.31999999999999</v>
       </c>
       <c r="D323" t="s">
         <v>607</v>
@@ -7706,7 +7706,7 @@
         <v>606</v>
       </c>
       <c r="C324">
-        <v>105.13</v>
+        <v>105.435</v>
       </c>
       <c r="D324" t="s">
         <v>607</v>
@@ -7720,10 +7720,10 @@
         <v>328</v>
       </c>
       <c r="B325" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C325">
-        <v>97.164</v>
+        <v>100.628</v>
       </c>
       <c r="D325" t="s">
         <v>607</v>
@@ -7740,7 +7740,7 @@
         <v>605</v>
       </c>
       <c r="C326">
-        <v>98.15000000000001</v>
+        <v>97.62</v>
       </c>
       <c r="D326" t="s">
         <v>607</v>
@@ -7757,7 +7757,7 @@
         <v>605</v>
       </c>
       <c r="C327">
-        <v>99.66</v>
+        <v>98.123</v>
       </c>
       <c r="D327" t="s">
         <v>607</v>
@@ -7771,10 +7771,10 @@
         <v>331</v>
       </c>
       <c r="B328" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C328">
-        <v>98.721</v>
+        <v>100.51</v>
       </c>
       <c r="D328" t="s">
         <v>607</v>
@@ -7791,7 +7791,7 @@
         <v>606</v>
       </c>
       <c r="C329">
-        <v>113.74</v>
+        <v>119.197</v>
       </c>
       <c r="D329" t="s">
         <v>607</v>
@@ -7808,7 +7808,7 @@
         <v>606</v>
       </c>
       <c r="C330">
-        <v>110.802</v>
+        <v>112.463</v>
       </c>
       <c r="D330" t="s">
         <v>607</v>
@@ -7825,7 +7825,7 @@
         <v>606</v>
       </c>
       <c r="C331">
-        <v>103.682</v>
+        <v>105.627</v>
       </c>
       <c r="D331" t="s">
         <v>607</v>
@@ -7842,7 +7842,7 @@
         <v>606</v>
       </c>
       <c r="C332">
-        <v>101.413</v>
+        <v>101.833</v>
       </c>
       <c r="D332" t="s">
         <v>607</v>
@@ -7859,7 +7859,7 @@
         <v>606</v>
       </c>
       <c r="C333">
-        <v>102.12</v>
+        <v>122.868</v>
       </c>
       <c r="D333" t="s">
         <v>607</v>
@@ -7876,7 +7876,7 @@
         <v>606</v>
       </c>
       <c r="C334">
-        <v>103.193</v>
+        <v>100.177</v>
       </c>
       <c r="D334" t="s">
         <v>607</v>
@@ -7890,10 +7890,10 @@
         <v>338</v>
       </c>
       <c r="B335" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C335">
-        <v>95.657</v>
+        <v>100.548</v>
       </c>
       <c r="D335" t="s">
         <v>607</v>
@@ -7910,7 +7910,7 @@
         <v>606</v>
       </c>
       <c r="C336">
-        <v>104.542</v>
+        <v>105.186</v>
       </c>
       <c r="D336" t="s">
         <v>607</v>
@@ -7927,7 +7927,7 @@
         <v>606</v>
       </c>
       <c r="C337">
-        <v>103.862</v>
+        <v>104.394</v>
       </c>
       <c r="D337" t="s">
         <v>607</v>
@@ -7944,7 +7944,7 @@
         <v>606</v>
       </c>
       <c r="C338">
-        <v>104.481</v>
+        <v>104.183</v>
       </c>
       <c r="D338" t="s">
         <v>607</v>
@@ -7961,7 +7961,7 @@
         <v>605</v>
       </c>
       <c r="C339">
-        <v>99.95099999999999</v>
+        <v>99.491</v>
       </c>
       <c r="D339" t="s">
         <v>607</v>
@@ -7978,7 +7978,7 @@
         <v>606</v>
       </c>
       <c r="C340">
-        <v>101.28</v>
+        <v>102.003</v>
       </c>
       <c r="D340" t="s">
         <v>607</v>
@@ -7995,7 +7995,7 @@
         <v>606</v>
       </c>
       <c r="C341">
-        <v>104.205</v>
+        <v>108.108</v>
       </c>
       <c r="D341" t="s">
         <v>607</v>
@@ -8012,7 +8012,7 @@
         <v>605</v>
       </c>
       <c r="C342">
-        <v>98.672</v>
+        <v>98.422</v>
       </c>
       <c r="D342" t="s">
         <v>607</v>
@@ -8029,7 +8029,7 @@
         <v>606</v>
       </c>
       <c r="C343">
-        <v>102.209</v>
+        <v>103.527</v>
       </c>
       <c r="D343" t="s">
         <v>607</v>
@@ -8046,7 +8046,7 @@
         <v>605</v>
       </c>
       <c r="C344">
-        <v>94.98099999999999</v>
+        <v>97.16500000000001</v>
       </c>
       <c r="D344" t="s">
         <v>607</v>
@@ -8063,7 +8063,7 @@
         <v>606</v>
       </c>
       <c r="C345">
-        <v>107.824</v>
+        <v>108.408</v>
       </c>
       <c r="D345" t="s">
         <v>607</v>
@@ -8080,7 +8080,7 @@
         <v>606</v>
       </c>
       <c r="C346">
-        <v>100.327</v>
+        <v>100.682</v>
       </c>
       <c r="D346" t="s">
         <v>607</v>
@@ -8097,7 +8097,7 @@
         <v>606</v>
       </c>
       <c r="C347">
-        <v>101.789</v>
+        <v>101.27</v>
       </c>
       <c r="D347" t="s">
         <v>607</v>
@@ -8111,10 +8111,10 @@
         <v>351</v>
       </c>
       <c r="B348" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C348">
-        <v>99.417</v>
+        <v>100.962</v>
       </c>
       <c r="D348" t="s">
         <v>607</v>
@@ -8131,7 +8131,7 @@
         <v>606</v>
       </c>
       <c r="C349">
-        <v>100.175</v>
+        <v>100.088</v>
       </c>
       <c r="D349" t="s">
         <v>607</v>
@@ -8148,7 +8148,7 @@
         <v>606</v>
       </c>
       <c r="C350">
-        <v>104.506</v>
+        <v>106.405</v>
       </c>
       <c r="D350" t="s">
         <v>607</v>
@@ -8165,7 +8165,7 @@
         <v>606</v>
       </c>
       <c r="C351">
-        <v>101.558</v>
+        <v>100.622</v>
       </c>
       <c r="D351" t="s">
         <v>607</v>
@@ -8182,7 +8182,7 @@
         <v>605</v>
       </c>
       <c r="C352">
-        <v>99.181</v>
+        <v>92.81399999999999</v>
       </c>
       <c r="D352" t="s">
         <v>607</v>
@@ -8199,7 +8199,7 @@
         <v>606</v>
       </c>
       <c r="C353">
-        <v>100.262</v>
+        <v>101.519</v>
       </c>
       <c r="D353" t="s">
         <v>607</v>
@@ -8213,10 +8213,10 @@
         <v>357</v>
       </c>
       <c r="B354" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C354">
-        <v>99.69</v>
+        <v>100.633</v>
       </c>
       <c r="D354" t="s">
         <v>607</v>
@@ -8233,7 +8233,7 @@
         <v>605</v>
       </c>
       <c r="C355">
-        <v>98.81</v>
+        <v>98.929</v>
       </c>
       <c r="D355" t="s">
         <v>607</v>
@@ -8250,7 +8250,7 @@
         <v>606</v>
       </c>
       <c r="C356">
-        <v>105.05</v>
+        <v>102.509</v>
       </c>
       <c r="D356" t="s">
         <v>607</v>
@@ -8267,7 +8267,7 @@
         <v>605</v>
       </c>
       <c r="C357">
-        <v>99.09999999999999</v>
+        <v>99.982</v>
       </c>
       <c r="D357" t="s">
         <v>607</v>
@@ -8281,10 +8281,10 @@
         <v>361</v>
       </c>
       <c r="B358" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C358">
-        <v>100</v>
+        <v>99.81</v>
       </c>
       <c r="D358" t="s">
         <v>607</v>
@@ -8298,10 +8298,10 @@
         <v>362</v>
       </c>
       <c r="B359" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C359">
-        <v>99.901</v>
+        <v>100.012</v>
       </c>
       <c r="D359" t="s">
         <v>607</v>
@@ -8318,7 +8318,7 @@
         <v>606</v>
       </c>
       <c r="C360">
-        <v>112.676</v>
+        <v>116.475</v>
       </c>
       <c r="D360" t="s">
         <v>607</v>
@@ -8335,7 +8335,7 @@
         <v>606</v>
       </c>
       <c r="C361">
-        <v>101.646</v>
+        <v>103.39</v>
       </c>
       <c r="D361" t="s">
         <v>607</v>
@@ -8349,10 +8349,10 @@
         <v>365</v>
       </c>
       <c r="B362" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C362">
-        <v>99.384</v>
+        <v>102.593</v>
       </c>
       <c r="D362" t="s">
         <v>607</v>
@@ -8366,10 +8366,10 @@
         <v>366</v>
       </c>
       <c r="B363" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C363">
-        <v>99.95699999999999</v>
+        <v>109.882</v>
       </c>
       <c r="D363" t="s">
         <v>607</v>
@@ -8383,10 +8383,10 @@
         <v>367</v>
       </c>
       <c r="B364" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C364">
-        <v>99.804</v>
+        <v>100.778</v>
       </c>
       <c r="D364" t="s">
         <v>607</v>
@@ -8403,7 +8403,7 @@
         <v>606</v>
       </c>
       <c r="C365">
-        <v>106.128</v>
+        <v>107.214</v>
       </c>
       <c r="D365" t="s">
         <v>607</v>
@@ -8420,7 +8420,7 @@
         <v>606</v>
       </c>
       <c r="C366">
-        <v>100.431</v>
+        <v>100.595</v>
       </c>
       <c r="D366" t="s">
         <v>607</v>
@@ -8437,7 +8437,7 @@
         <v>606</v>
       </c>
       <c r="C367">
-        <v>101.563</v>
+        <v>101.063</v>
       </c>
       <c r="D367" t="s">
         <v>607</v>
@@ -8454,7 +8454,7 @@
         <v>606</v>
       </c>
       <c r="C368">
-        <v>101.414</v>
+        <v>101.502</v>
       </c>
       <c r="D368" t="s">
         <v>607</v>
@@ -8471,7 +8471,7 @@
         <v>606</v>
       </c>
       <c r="C369">
-        <v>104.092</v>
+        <v>101.56</v>
       </c>
       <c r="D369" t="s">
         <v>607</v>
@@ -8488,7 +8488,7 @@
         <v>606</v>
       </c>
       <c r="C370">
-        <v>105.547</v>
+        <v>111.015</v>
       </c>
       <c r="D370" t="s">
         <v>607</v>
@@ -8502,10 +8502,10 @@
         <v>374</v>
       </c>
       <c r="B371" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C371">
-        <v>96.31399999999999</v>
+        <v>100.682</v>
       </c>
       <c r="D371" t="s">
         <v>607</v>
@@ -8522,7 +8522,7 @@
         <v>606</v>
       </c>
       <c r="C372">
-        <v>103.614</v>
+        <v>103.778</v>
       </c>
       <c r="D372" t="s">
         <v>607</v>
@@ -8539,7 +8539,7 @@
         <v>606</v>
       </c>
       <c r="C373">
-        <v>103.61</v>
+        <v>105.275</v>
       </c>
       <c r="D373" t="s">
         <v>607</v>
@@ -8553,10 +8553,10 @@
         <v>377</v>
       </c>
       <c r="B374" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C374">
-        <v>101.062</v>
+        <v>98.349</v>
       </c>
       <c r="D374" t="s">
         <v>607</v>
@@ -8573,7 +8573,7 @@
         <v>606</v>
       </c>
       <c r="C375">
-        <v>106.177</v>
+        <v>119.074</v>
       </c>
       <c r="D375" t="s">
         <v>607</v>
@@ -8590,7 +8590,7 @@
         <v>605</v>
       </c>
       <c r="C376">
-        <v>94.3</v>
+        <v>96.04600000000001</v>
       </c>
       <c r="D376" t="s">
         <v>607</v>
@@ -8604,10 +8604,10 @@
         <v>380</v>
       </c>
       <c r="B377" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C377">
-        <v>99.33199999999999</v>
+        <v>100.548</v>
       </c>
       <c r="D377" t="s">
         <v>607</v>
@@ -8624,7 +8624,7 @@
         <v>606</v>
       </c>
       <c r="C378">
-        <v>103.317</v>
+        <v>103.489</v>
       </c>
       <c r="D378" t="s">
         <v>607</v>
@@ -8641,7 +8641,7 @@
         <v>606</v>
       </c>
       <c r="C379">
-        <v>117.319</v>
+        <v>116.486</v>
       </c>
       <c r="D379" t="s">
         <v>607</v>
@@ -8658,7 +8658,7 @@
         <v>606</v>
       </c>
       <c r="C380">
-        <v>105.104</v>
+        <v>106.178</v>
       </c>
       <c r="D380" t="s">
         <v>607</v>
@@ -8675,7 +8675,7 @@
         <v>606</v>
       </c>
       <c r="C381">
-        <v>108.562</v>
+        <v>107.269</v>
       </c>
       <c r="D381" t="s">
         <v>607</v>
@@ -8692,7 +8692,7 @@
         <v>606</v>
       </c>
       <c r="C382">
-        <v>104.64</v>
+        <v>102.915</v>
       </c>
       <c r="D382" t="s">
         <v>607</v>
@@ -8709,7 +8709,7 @@
         <v>606</v>
       </c>
       <c r="C383">
-        <v>103.639</v>
+        <v>103.766</v>
       </c>
       <c r="D383" t="s">
         <v>607</v>
@@ -8726,7 +8726,7 @@
         <v>605</v>
       </c>
       <c r="C384">
-        <v>97.04300000000001</v>
+        <v>98.80800000000001</v>
       </c>
       <c r="D384" t="s">
         <v>607</v>
@@ -8743,7 +8743,7 @@
         <v>606</v>
       </c>
       <c r="C385">
-        <v>102.476</v>
+        <v>103.764</v>
       </c>
       <c r="D385" t="s">
         <v>607</v>
@@ -8760,7 +8760,7 @@
         <v>606</v>
       </c>
       <c r="C386">
-        <v>103.057</v>
+        <v>100.151</v>
       </c>
       <c r="D386" t="s">
         <v>607</v>
@@ -8777,7 +8777,7 @@
         <v>606</v>
       </c>
       <c r="C387">
-        <v>104.346</v>
+        <v>105.218</v>
       </c>
       <c r="D387" t="s">
         <v>607</v>
@@ -8794,7 +8794,7 @@
         <v>606</v>
       </c>
       <c r="C388">
-        <v>101.617</v>
+        <v>100.097</v>
       </c>
       <c r="D388" t="s">
         <v>607</v>
@@ -8811,7 +8811,7 @@
         <v>605</v>
       </c>
       <c r="C389">
-        <v>98.628</v>
+        <v>99.575</v>
       </c>
       <c r="D389" t="s">
         <v>607</v>
@@ -8825,10 +8825,10 @@
         <v>393</v>
       </c>
       <c r="B390" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C390">
-        <v>98.735</v>
+        <v>100.81</v>
       </c>
       <c r="D390" t="s">
         <v>607</v>
@@ -8845,7 +8845,7 @@
         <v>606</v>
       </c>
       <c r="C391">
-        <v>104.464</v>
+        <v>106.069</v>
       </c>
       <c r="D391" t="s">
         <v>607</v>
@@ -8859,10 +8859,10 @@
         <v>395</v>
       </c>
       <c r="B392" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C392">
-        <v>99.621</v>
+        <v>101.381</v>
       </c>
       <c r="D392" t="s">
         <v>607</v>
@@ -8879,7 +8879,7 @@
         <v>606</v>
       </c>
       <c r="C393">
-        <v>101.004</v>
+        <v>103.56</v>
       </c>
       <c r="D393" t="s">
         <v>607</v>
@@ -8896,7 +8896,7 @@
         <v>606</v>
       </c>
       <c r="C394">
-        <v>100.448</v>
+        <v>100.553</v>
       </c>
       <c r="D394" t="s">
         <v>607</v>
@@ -8913,7 +8913,7 @@
         <v>606</v>
       </c>
       <c r="C395">
-        <v>108.346</v>
+        <v>105.654</v>
       </c>
       <c r="D395" t="s">
         <v>607</v>
@@ -8930,7 +8930,7 @@
         <v>606</v>
       </c>
       <c r="C396">
-        <v>103.349</v>
+        <v>102.095</v>
       </c>
       <c r="D396" t="s">
         <v>607</v>
@@ -8944,10 +8944,10 @@
         <v>400</v>
       </c>
       <c r="B397" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C397">
-        <v>98.89700000000001</v>
+        <v>100.222</v>
       </c>
       <c r="D397" t="s">
         <v>607</v>
@@ -8964,7 +8964,7 @@
         <v>606</v>
       </c>
       <c r="C398">
-        <v>105.564</v>
+        <v>106.016</v>
       </c>
       <c r="D398" t="s">
         <v>607</v>
@@ -8981,7 +8981,7 @@
         <v>606</v>
       </c>
       <c r="C399">
-        <v>102.31</v>
+        <v>104.16</v>
       </c>
       <c r="D399" t="s">
         <v>607</v>
@@ -8998,7 +8998,7 @@
         <v>605</v>
       </c>
       <c r="C400">
-        <v>86.07599999999999</v>
+        <v>88.608</v>
       </c>
       <c r="D400" t="s">
         <v>607</v>
@@ -9015,7 +9015,7 @@
         <v>606</v>
       </c>
       <c r="C401">
-        <v>107.712</v>
+        <v>106.657</v>
       </c>
       <c r="D401" t="s">
         <v>607</v>
@@ -9032,7 +9032,7 @@
         <v>606</v>
       </c>
       <c r="C402">
-        <v>106.211</v>
+        <v>106.787</v>
       </c>
       <c r="D402" t="s">
         <v>607</v>
@@ -9049,7 +9049,7 @@
         <v>605</v>
       </c>
       <c r="C403">
-        <v>98.657</v>
+        <v>98.718</v>
       </c>
       <c r="D403" t="s">
         <v>607</v>
@@ -9063,10 +9063,10 @@
         <v>407</v>
       </c>
       <c r="B404" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C404">
-        <v>99.974</v>
+        <v>100.765</v>
       </c>
       <c r="D404" t="s">
         <v>607</v>
@@ -9083,7 +9083,7 @@
         <v>606</v>
       </c>
       <c r="C405">
-        <v>104.221</v>
+        <v>106.237</v>
       </c>
       <c r="D405" t="s">
         <v>607</v>
@@ -9097,10 +9097,10 @@
         <v>409</v>
       </c>
       <c r="B406" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C406">
-        <v>100.827</v>
+        <v>97.905</v>
       </c>
       <c r="D406" t="s">
         <v>607</v>
@@ -9117,7 +9117,7 @@
         <v>606</v>
       </c>
       <c r="C407">
-        <v>100.493</v>
+        <v>100.853</v>
       </c>
       <c r="D407" t="s">
         <v>607</v>
@@ -9131,10 +9131,10 @@
         <v>411</v>
       </c>
       <c r="B408" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C408">
-        <v>99.949</v>
+        <v>100.509</v>
       </c>
       <c r="D408" t="s">
         <v>607</v>
@@ -9151,7 +9151,7 @@
         <v>605</v>
       </c>
       <c r="C409">
-        <v>96.592</v>
+        <v>98.751</v>
       </c>
       <c r="D409" t="s">
         <v>607</v>
@@ -9168,7 +9168,7 @@
         <v>605</v>
       </c>
       <c r="C410">
-        <v>90.584</v>
+        <v>92.248</v>
       </c>
       <c r="D410" t="s">
         <v>607</v>
@@ -9185,7 +9185,7 @@
         <v>606</v>
       </c>
       <c r="C411">
-        <v>106.345</v>
+        <v>103.877</v>
       </c>
       <c r="D411" t="s">
         <v>607</v>
@@ -9199,10 +9199,10 @@
         <v>415</v>
       </c>
       <c r="B412" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C412">
-        <v>98.495</v>
+        <v>105.148</v>
       </c>
       <c r="D412" t="s">
         <v>607</v>
@@ -9219,7 +9219,7 @@
         <v>606</v>
       </c>
       <c r="C413">
-        <v>103.357</v>
+        <v>104.182</v>
       </c>
       <c r="D413" t="s">
         <v>607</v>
@@ -9236,7 +9236,7 @@
         <v>605</v>
       </c>
       <c r="C414">
-        <v>97.771</v>
+        <v>96.148</v>
       </c>
       <c r="D414" t="s">
         <v>607</v>
@@ -9253,7 +9253,7 @@
         <v>605</v>
       </c>
       <c r="C415">
-        <v>99.822</v>
+        <v>99.699</v>
       </c>
       <c r="D415" t="s">
         <v>607</v>
@@ -9270,7 +9270,7 @@
         <v>605</v>
       </c>
       <c r="C416">
-        <v>99.199</v>
+        <v>98.181</v>
       </c>
       <c r="D416" t="s">
         <v>607</v>
@@ -9287,7 +9287,7 @@
         <v>606</v>
       </c>
       <c r="C417">
-        <v>103.384</v>
+        <v>105.33</v>
       </c>
       <c r="D417" t="s">
         <v>607</v>
@@ -9304,7 +9304,7 @@
         <v>605</v>
       </c>
       <c r="C418">
-        <v>96.48999999999999</v>
+        <v>96.401</v>
       </c>
       <c r="D418" t="s">
         <v>607</v>
@@ -9321,7 +9321,7 @@
         <v>606</v>
       </c>
       <c r="C419">
-        <v>101.729</v>
+        <v>103.417</v>
       </c>
       <c r="D419" t="s">
         <v>607</v>
@@ -9338,7 +9338,7 @@
         <v>606</v>
       </c>
       <c r="C420">
-        <v>100.418</v>
+        <v>100.987</v>
       </c>
       <c r="D420" t="s">
         <v>607</v>
@@ -9355,7 +9355,7 @@
         <v>606</v>
       </c>
       <c r="C421">
-        <v>105.633</v>
+        <v>107.186</v>
       </c>
       <c r="D421" t="s">
         <v>607</v>
@@ -9369,10 +9369,10 @@
         <v>425</v>
       </c>
       <c r="B422" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C422">
-        <v>100.564</v>
+        <v>99.968</v>
       </c>
       <c r="D422" t="s">
         <v>607</v>
@@ -9389,7 +9389,7 @@
         <v>606</v>
       </c>
       <c r="C423">
-        <v>105.304</v>
+        <v>104.548</v>
       </c>
       <c r="D423" t="s">
         <v>607</v>
@@ -9406,7 +9406,7 @@
         <v>606</v>
       </c>
       <c r="C424">
-        <v>103.129</v>
+        <v>104.552</v>
       </c>
       <c r="D424" t="s">
         <v>607</v>
@@ -9423,7 +9423,7 @@
         <v>606</v>
       </c>
       <c r="C425">
-        <v>106.344</v>
+        <v>109.268</v>
       </c>
       <c r="D425" t="s">
         <v>607</v>
@@ -9440,7 +9440,7 @@
         <v>605</v>
       </c>
       <c r="C426">
-        <v>87.351</v>
+        <v>88.81999999999999</v>
       </c>
       <c r="D426" t="s">
         <v>607</v>
@@ -9457,7 +9457,7 @@
         <v>606</v>
       </c>
       <c r="C427">
-        <v>103.242</v>
+        <v>103.868</v>
       </c>
       <c r="D427" t="s">
         <v>607</v>
@@ -9474,7 +9474,7 @@
         <v>605</v>
       </c>
       <c r="C428">
-        <v>98.474</v>
+        <v>99.61199999999999</v>
       </c>
       <c r="D428" t="s">
         <v>607</v>
@@ -9491,7 +9491,7 @@
         <v>606</v>
       </c>
       <c r="C429">
-        <v>106.283</v>
+        <v>110.323</v>
       </c>
       <c r="D429" t="s">
         <v>607</v>
@@ -9508,7 +9508,7 @@
         <v>606</v>
       </c>
       <c r="C430">
-        <v>100.347</v>
+        <v>100.888</v>
       </c>
       <c r="D430" t="s">
         <v>607</v>
@@ -9525,7 +9525,7 @@
         <v>605</v>
       </c>
       <c r="C431">
-        <v>95.328</v>
+        <v>96.32599999999999</v>
       </c>
       <c r="D431" t="s">
         <v>607</v>
@@ -9542,7 +9542,7 @@
         <v>606</v>
       </c>
       <c r="C432">
-        <v>104.572</v>
+        <v>102.997</v>
       </c>
       <c r="D432" t="s">
         <v>607</v>
@@ -9559,7 +9559,7 @@
         <v>606</v>
       </c>
       <c r="C433">
-        <v>103.582</v>
+        <v>107.928</v>
       </c>
       <c r="D433" t="s">
         <v>607</v>
@@ -9576,7 +9576,7 @@
         <v>605</v>
       </c>
       <c r="C434">
-        <v>95.934</v>
+        <v>99.65000000000001</v>
       </c>
       <c r="D434" t="s">
         <v>607</v>
@@ -9593,7 +9593,7 @@
         <v>605</v>
       </c>
       <c r="C435">
-        <v>94.667</v>
+        <v>93.161</v>
       </c>
       <c r="D435" t="s">
         <v>607</v>
@@ -9610,7 +9610,7 @@
         <v>606</v>
       </c>
       <c r="C436">
-        <v>100.588</v>
+        <v>106.642</v>
       </c>
       <c r="D436" t="s">
         <v>607</v>
@@ -9624,10 +9624,10 @@
         <v>440</v>
       </c>
       <c r="B437" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C437">
-        <v>98.96599999999999</v>
+        <v>101.881</v>
       </c>
       <c r="D437" t="s">
         <v>607</v>
@@ -9644,7 +9644,7 @@
         <v>606</v>
       </c>
       <c r="C438">
-        <v>102.005</v>
+        <v>104.179</v>
       </c>
       <c r="D438" t="s">
         <v>607</v>
@@ -9661,7 +9661,7 @@
         <v>606</v>
       </c>
       <c r="C439">
-        <v>102.921</v>
+        <v>102.23</v>
       </c>
       <c r="D439" t="s">
         <v>607</v>
@@ -9678,7 +9678,7 @@
         <v>605</v>
       </c>
       <c r="C440">
-        <v>97.032</v>
+        <v>99.626</v>
       </c>
       <c r="D440" t="s">
         <v>607</v>
@@ -9695,7 +9695,7 @@
         <v>606</v>
       </c>
       <c r="C441">
-        <v>103.827</v>
+        <v>104.32</v>
       </c>
       <c r="D441" t="s">
         <v>607</v>
@@ -9712,7 +9712,7 @@
         <v>605</v>
       </c>
       <c r="C442">
-        <v>92.194</v>
+        <v>91.17100000000001</v>
       </c>
       <c r="D442" t="s">
         <v>607</v>
@@ -9729,7 +9729,7 @@
         <v>606</v>
       </c>
       <c r="C443">
-        <v>100.516</v>
+        <v>102.256</v>
       </c>
       <c r="D443" t="s">
         <v>607</v>
@@ -9746,7 +9746,7 @@
         <v>605</v>
       </c>
       <c r="C444">
-        <v>96.785</v>
+        <v>99.589</v>
       </c>
       <c r="D444" t="s">
         <v>607</v>
@@ -9763,7 +9763,7 @@
         <v>606</v>
       </c>
       <c r="C445">
-        <v>102.326</v>
+        <v>102.585</v>
       </c>
       <c r="D445" t="s">
         <v>607</v>
@@ -9780,7 +9780,7 @@
         <v>606</v>
       </c>
       <c r="C446">
-        <v>102.346</v>
+        <v>104.807</v>
       </c>
       <c r="D446" t="s">
         <v>607</v>
@@ -9797,7 +9797,7 @@
         <v>605</v>
       </c>
       <c r="C447">
-        <v>95.919</v>
+        <v>95.756</v>
       </c>
       <c r="D447" t="s">
         <v>607</v>
@@ -9814,7 +9814,7 @@
         <v>606</v>
       </c>
       <c r="C448">
-        <v>101.285</v>
+        <v>101.626</v>
       </c>
       <c r="D448" t="s">
         <v>607</v>
@@ -9831,7 +9831,7 @@
         <v>606</v>
       </c>
       <c r="C449">
-        <v>100.718</v>
+        <v>101.059</v>
       </c>
       <c r="D449" t="s">
         <v>607</v>
@@ -9845,10 +9845,10 @@
         <v>453</v>
       </c>
       <c r="B450" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C450">
-        <v>99.459</v>
+        <v>101.219</v>
       </c>
       <c r="D450" t="s">
         <v>607</v>
@@ -9865,7 +9865,7 @@
         <v>605</v>
       </c>
       <c r="C451">
-        <v>93.83199999999999</v>
+        <v>96.819</v>
       </c>
       <c r="D451" t="s">
         <v>607</v>
@@ -9882,7 +9882,7 @@
         <v>606</v>
       </c>
       <c r="C452">
-        <v>121.333</v>
+        <v>115.109</v>
       </c>
       <c r="D452" t="s">
         <v>607</v>
@@ -9899,7 +9899,7 @@
         <v>605</v>
       </c>
       <c r="C453">
-        <v>97.017</v>
+        <v>98.352</v>
       </c>
       <c r="D453" t="s">
         <v>607</v>
@@ -9916,7 +9916,7 @@
         <v>605</v>
       </c>
       <c r="C454">
-        <v>95.724</v>
+        <v>95.53100000000001</v>
       </c>
       <c r="D454" t="s">
         <v>607</v>
@@ -9933,7 +9933,7 @@
         <v>606</v>
       </c>
       <c r="C455">
-        <v>105.235</v>
+        <v>106.967</v>
       </c>
       <c r="D455" t="s">
         <v>607</v>
@@ -9950,7 +9950,7 @@
         <v>606</v>
       </c>
       <c r="C456">
-        <v>105.182</v>
+        <v>103.88</v>
       </c>
       <c r="D456" t="s">
         <v>607</v>
@@ -9967,7 +9967,7 @@
         <v>605</v>
       </c>
       <c r="C457">
-        <v>97.751</v>
+        <v>99.901</v>
       </c>
       <c r="D457" t="s">
         <v>607</v>
@@ -9984,7 +9984,7 @@
         <v>606</v>
       </c>
       <c r="C458">
-        <v>100.44</v>
+        <v>100.617</v>
       </c>
       <c r="D458" t="s">
         <v>607</v>
@@ -9998,10 +9998,10 @@
         <v>462</v>
       </c>
       <c r="B459" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C459">
-        <v>99.926</v>
+        <v>105.525</v>
       </c>
       <c r="D459" t="s">
         <v>607</v>
@@ -10018,7 +10018,7 @@
         <v>606</v>
       </c>
       <c r="C460">
-        <v>103.295</v>
+        <v>103.426</v>
       </c>
       <c r="D460" t="s">
         <v>607</v>
@@ -10035,7 +10035,7 @@
         <v>606</v>
       </c>
       <c r="C461">
-        <v>100.633</v>
+        <v>100.191</v>
       </c>
       <c r="D461" t="s">
         <v>607</v>
@@ -10052,7 +10052,7 @@
         <v>606</v>
       </c>
       <c r="C462">
-        <v>101.434</v>
+        <v>100.343</v>
       </c>
       <c r="D462" t="s">
         <v>607</v>
@@ -10069,7 +10069,7 @@
         <v>605</v>
       </c>
       <c r="C463">
-        <v>99.499</v>
+        <v>96.271</v>
       </c>
       <c r="D463" t="s">
         <v>607</v>
@@ -10086,7 +10086,7 @@
         <v>605</v>
       </c>
       <c r="C464">
-        <v>87.68899999999999</v>
+        <v>91.25</v>
       </c>
       <c r="D464" t="s">
         <v>607</v>
@@ -10103,7 +10103,7 @@
         <v>606</v>
       </c>
       <c r="C465">
-        <v>104.553</v>
+        <v>102.853</v>
       </c>
       <c r="D465" t="s">
         <v>607</v>
@@ -10120,7 +10120,7 @@
         <v>606</v>
       </c>
       <c r="C466">
-        <v>117.444</v>
+        <v>118.635</v>
       </c>
       <c r="D466" t="s">
         <v>607</v>
@@ -10134,10 +10134,10 @@
         <v>470</v>
       </c>
       <c r="B467" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C467">
-        <v>98.622</v>
+        <v>101.764</v>
       </c>
       <c r="D467" t="s">
         <v>607</v>
@@ -10154,7 +10154,7 @@
         <v>605</v>
       </c>
       <c r="C468">
-        <v>97.751</v>
+        <v>96.649</v>
       </c>
       <c r="D468" t="s">
         <v>607</v>
@@ -10171,7 +10171,7 @@
         <v>605</v>
       </c>
       <c r="C469">
-        <v>93.23</v>
+        <v>97.357</v>
       </c>
       <c r="D469" t="s">
         <v>607</v>
@@ -10188,7 +10188,7 @@
         <v>606</v>
       </c>
       <c r="C470">
-        <v>100.292</v>
+        <v>100.55</v>
       </c>
       <c r="D470" t="s">
         <v>607</v>
@@ -10205,7 +10205,7 @@
         <v>605</v>
       </c>
       <c r="C471">
-        <v>98.669</v>
+        <v>99.502</v>
       </c>
       <c r="D471" t="s">
         <v>607</v>
@@ -10222,7 +10222,7 @@
         <v>606</v>
       </c>
       <c r="C472">
-        <v>108.987</v>
+        <v>109.496</v>
       </c>
       <c r="D472" t="s">
         <v>607</v>
@@ -10236,10 +10236,10 @@
         <v>476</v>
       </c>
       <c r="B473" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C473">
-        <v>98.215</v>
+        <v>100.583</v>
       </c>
       <c r="D473" t="s">
         <v>607</v>
@@ -10256,7 +10256,7 @@
         <v>605</v>
       </c>
       <c r="C474">
-        <v>96.515</v>
+        <v>99.077</v>
       </c>
       <c r="D474" t="s">
         <v>607</v>
@@ -10273,7 +10273,7 @@
         <v>605</v>
       </c>
       <c r="C475">
-        <v>99.82599999999999</v>
+        <v>98.366</v>
       </c>
       <c r="D475" t="s">
         <v>607</v>
@@ -10290,7 +10290,7 @@
         <v>605</v>
       </c>
       <c r="C476">
-        <v>96.089</v>
+        <v>98.51000000000001</v>
       </c>
       <c r="D476" t="s">
         <v>607</v>
@@ -10307,7 +10307,7 @@
         <v>605</v>
       </c>
       <c r="C477">
-        <v>99.133</v>
+        <v>97.586</v>
       </c>
       <c r="D477" t="s">
         <v>607</v>
@@ -10324,7 +10324,7 @@
         <v>605</v>
       </c>
       <c r="C478">
-        <v>98.511</v>
+        <v>98.956</v>
       </c>
       <c r="D478" t="s">
         <v>607</v>
@@ -10341,7 +10341,7 @@
         <v>605</v>
       </c>
       <c r="C479">
-        <v>97.80500000000001</v>
+        <v>98.752</v>
       </c>
       <c r="D479" t="s">
         <v>607</v>
@@ -10358,7 +10358,7 @@
         <v>605</v>
       </c>
       <c r="C480">
-        <v>95.836</v>
+        <v>97.538</v>
       </c>
       <c r="D480" t="s">
         <v>607</v>
@@ -10375,7 +10375,7 @@
         <v>606</v>
       </c>
       <c r="C481">
-        <v>105.923</v>
+        <v>103.846</v>
       </c>
       <c r="D481" t="s">
         <v>607</v>
@@ -10392,7 +10392,7 @@
         <v>605</v>
       </c>
       <c r="C482">
-        <v>94.96599999999999</v>
+        <v>95.399</v>
       </c>
       <c r="D482" t="s">
         <v>607</v>
@@ -10409,7 +10409,7 @@
         <v>605</v>
       </c>
       <c r="C483">
-        <v>95.377</v>
+        <v>96.34099999999999</v>
       </c>
       <c r="D483" t="s">
         <v>607</v>
@@ -10426,7 +10426,7 @@
         <v>606</v>
       </c>
       <c r="C484">
-        <v>101.863</v>
+        <v>105.19</v>
       </c>
       <c r="D484" t="s">
         <v>607</v>
@@ -10443,7 +10443,7 @@
         <v>605</v>
       </c>
       <c r="C485">
-        <v>99.04600000000001</v>
+        <v>98.614</v>
       </c>
       <c r="D485" t="s">
         <v>607</v>
@@ -10460,7 +10460,7 @@
         <v>605</v>
       </c>
       <c r="C486">
-        <v>77.26000000000001</v>
+        <v>79.80200000000001</v>
       </c>
       <c r="D486" t="s">
         <v>607</v>
@@ -10477,7 +10477,7 @@
         <v>605</v>
       </c>
       <c r="C487">
-        <v>97.477</v>
+        <v>96.565</v>
       </c>
       <c r="D487" t="s">
         <v>607</v>
@@ -10491,10 +10491,10 @@
         <v>491</v>
       </c>
       <c r="B488" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C488">
-        <v>101.156</v>
+        <v>99.964</v>
       </c>
       <c r="D488" t="s">
         <v>607</v>
@@ -10511,7 +10511,7 @@
         <v>606</v>
       </c>
       <c r="C489">
-        <v>119.969</v>
+        <v>122.091</v>
       </c>
       <c r="D489" t="s">
         <v>607</v>
@@ -10528,7 +10528,7 @@
         <v>606</v>
       </c>
       <c r="C490">
-        <v>100.521</v>
+        <v>100.508</v>
       </c>
       <c r="D490" t="s">
         <v>607</v>
@@ -10545,7 +10545,7 @@
         <v>606</v>
       </c>
       <c r="C491">
-        <v>101.61</v>
+        <v>101.779</v>
       </c>
       <c r="D491" t="s">
         <v>607</v>
@@ -10562,7 +10562,7 @@
         <v>605</v>
       </c>
       <c r="C492">
-        <v>97.67400000000001</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="D492" t="s">
         <v>607</v>
@@ -10576,10 +10576,10 @@
         <v>496</v>
       </c>
       <c r="B493" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C493">
-        <v>99.807</v>
+        <v>102.093</v>
       </c>
       <c r="D493" t="s">
         <v>607</v>
@@ -10596,7 +10596,7 @@
         <v>606</v>
       </c>
       <c r="C494">
-        <v>101.142</v>
+        <v>102.042</v>
       </c>
       <c r="D494" t="s">
         <v>607</v>
@@ -10613,7 +10613,7 @@
         <v>606</v>
       </c>
       <c r="C495">
-        <v>103.39</v>
+        <v>100.958</v>
       </c>
       <c r="D495" t="s">
         <v>607</v>
@@ -10630,7 +10630,7 @@
         <v>606</v>
       </c>
       <c r="C496">
-        <v>104.23</v>
+        <v>104.057</v>
       </c>
       <c r="D496" t="s">
         <v>607</v>
@@ -10647,7 +10647,7 @@
         <v>606</v>
       </c>
       <c r="C497">
-        <v>108.39</v>
+        <v>107.904</v>
       </c>
       <c r="D497" t="s">
         <v>607</v>
@@ -10664,7 +10664,7 @@
         <v>605</v>
       </c>
       <c r="C498">
-        <v>93.605</v>
+        <v>94.221</v>
       </c>
       <c r="D498" t="s">
         <v>607</v>
@@ -10681,7 +10681,7 @@
         <v>606</v>
       </c>
       <c r="C499">
-        <v>101.722</v>
+        <v>103.273</v>
       </c>
       <c r="D499" t="s">
         <v>607</v>
@@ -10698,7 +10698,7 @@
         <v>605</v>
       </c>
       <c r="C500">
-        <v>97.11499999999999</v>
+        <v>98.026</v>
       </c>
       <c r="D500" t="s">
         <v>607</v>
@@ -10715,7 +10715,7 @@
         <v>606</v>
       </c>
       <c r="C501">
-        <v>101.131</v>
+        <v>104.052</v>
       </c>
       <c r="D501" t="s">
         <v>607</v>
@@ -10732,7 +10732,7 @@
         <v>605</v>
       </c>
       <c r="C502">
-        <v>94.592</v>
+        <v>93.702</v>
       </c>
       <c r="D502" t="s">
         <v>607</v>
@@ -10749,7 +10749,7 @@
         <v>605</v>
       </c>
       <c r="C503">
-        <v>98.09699999999999</v>
+        <v>96.765</v>
       </c>
       <c r="D503" t="s">
         <v>607</v>
@@ -10766,7 +10766,7 @@
         <v>606</v>
       </c>
       <c r="C504">
-        <v>101.526</v>
+        <v>105.081</v>
       </c>
       <c r="D504" t="s">
         <v>607</v>
@@ -10783,7 +10783,7 @@
         <v>606</v>
       </c>
       <c r="C505">
-        <v>100.142</v>
+        <v>126.09</v>
       </c>
       <c r="D505" t="s">
         <v>607</v>
@@ -10797,10 +10797,10 @@
         <v>509</v>
       </c>
       <c r="B506" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C506">
-        <v>99.77800000000001</v>
+        <v>100</v>
       </c>
       <c r="D506" t="s">
         <v>607</v>
@@ -10817,7 +10817,7 @@
         <v>605</v>
       </c>
       <c r="C507">
-        <v>97.155</v>
+        <v>99.005</v>
       </c>
       <c r="D507" t="s">
         <v>607</v>
@@ -10834,7 +10834,7 @@
         <v>605</v>
       </c>
       <c r="C508">
-        <v>91.63500000000001</v>
+        <v>95.694</v>
       </c>
       <c r="D508" t="s">
         <v>607</v>
@@ -10848,10 +10848,10 @@
         <v>512</v>
       </c>
       <c r="B509" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C509">
-        <v>96.867</v>
+        <v>101.068</v>
       </c>
       <c r="D509" t="s">
         <v>607</v>
@@ -10868,7 +10868,7 @@
         <v>605</v>
       </c>
       <c r="C510">
-        <v>91.786</v>
+        <v>99.002</v>
       </c>
       <c r="D510" t="s">
         <v>607</v>
@@ -10885,7 +10885,7 @@
         <v>605</v>
       </c>
       <c r="C511">
-        <v>91.294</v>
+        <v>92.68300000000001</v>
       </c>
       <c r="D511" t="s">
         <v>607</v>
@@ -10902,7 +10902,7 @@
         <v>605</v>
       </c>
       <c r="C512">
-        <v>96.06999999999999</v>
+        <v>98.253</v>
       </c>
       <c r="D512" t="s">
         <v>607</v>
@@ -10919,7 +10919,7 @@
         <v>606</v>
       </c>
       <c r="C513">
-        <v>118.333</v>
+        <v>123.729</v>
       </c>
       <c r="D513" t="s">
         <v>607</v>
@@ -10950,10 +10950,10 @@
         <v>518</v>
       </c>
       <c r="B515" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C515">
-        <v>98.70099999999999</v>
+        <v>102.005</v>
       </c>
       <c r="D515" t="s">
         <v>607</v>
@@ -10970,7 +10970,7 @@
         <v>605</v>
       </c>
       <c r="C516">
-        <v>94.307</v>
+        <v>95.895</v>
       </c>
       <c r="D516" t="s">
         <v>607</v>
@@ -10984,10 +10984,10 @@
         <v>520</v>
       </c>
       <c r="B517" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C517">
-        <v>95.855</v>
+        <v>100.223</v>
       </c>
       <c r="D517" t="s">
         <v>607</v>
@@ -11004,7 +11004,7 @@
         <v>605</v>
       </c>
       <c r="C518">
-        <v>85.155</v>
+        <v>88.492</v>
       </c>
       <c r="D518" t="s">
         <v>607</v>
@@ -11021,7 +11021,7 @@
         <v>606</v>
       </c>
       <c r="C519">
-        <v>122.871</v>
+        <v>114.12</v>
       </c>
       <c r="D519" t="s">
         <v>607</v>
@@ -11038,7 +11038,7 @@
         <v>605</v>
       </c>
       <c r="C520">
-        <v>97.43600000000001</v>
+        <v>97.667</v>
       </c>
       <c r="D520" t="s">
         <v>607</v>
@@ -11055,7 +11055,7 @@
         <v>605</v>
       </c>
       <c r="C521">
-        <v>89.78400000000001</v>
+        <v>96.295</v>
       </c>
       <c r="D521" t="s">
         <v>607</v>
@@ -11072,7 +11072,7 @@
         <v>606</v>
       </c>
       <c r="C522">
-        <v>100.832</v>
+        <v>101.388</v>
       </c>
       <c r="D522" t="s">
         <v>607</v>
@@ -11089,7 +11089,7 @@
         <v>606</v>
       </c>
       <c r="C523">
-        <v>102.314</v>
+        <v>105.04</v>
       </c>
       <c r="D523" t="s">
         <v>607</v>
@@ -11106,7 +11106,7 @@
         <v>605</v>
       </c>
       <c r="C524">
-        <v>85.42</v>
+        <v>87.78100000000001</v>
       </c>
       <c r="D524" t="s">
         <v>607</v>
@@ -11123,7 +11123,7 @@
         <v>605</v>
       </c>
       <c r="C525">
-        <v>94.90000000000001</v>
+        <v>95.242</v>
       </c>
       <c r="D525" t="s">
         <v>607</v>
@@ -11140,7 +11140,7 @@
         <v>605</v>
       </c>
       <c r="C526">
-        <v>95.38200000000001</v>
+        <v>96.51900000000001</v>
       </c>
       <c r="D526" t="s">
         <v>607</v>
@@ -11157,7 +11157,7 @@
         <v>605</v>
       </c>
       <c r="C527">
-        <v>92.947</v>
+        <v>94.023</v>
       </c>
       <c r="D527" t="s">
         <v>607</v>
@@ -11174,7 +11174,7 @@
         <v>605</v>
       </c>
       <c r="C528">
-        <v>99.66200000000001</v>
+        <v>99.43600000000001</v>
       </c>
       <c r="D528" t="s">
         <v>607</v>
@@ -11188,10 +11188,10 @@
         <v>531</v>
       </c>
       <c r="B529" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C529">
-        <v>104.071</v>
+        <v>98.855</v>
       </c>
       <c r="D529" t="s">
         <v>607</v>
@@ -11208,7 +11208,7 @@
         <v>605</v>
       </c>
       <c r="C530">
-        <v>90.90900000000001</v>
+        <v>89.75700000000001</v>
       </c>
       <c r="D530" t="s">
         <v>607</v>
@@ -11225,7 +11225,7 @@
         <v>605</v>
       </c>
       <c r="C531">
-        <v>91.643</v>
+        <v>84.03100000000001</v>
       </c>
       <c r="D531" t="s">
         <v>607</v>
@@ -11242,7 +11242,7 @@
         <v>605</v>
       </c>
       <c r="C532">
-        <v>93.514</v>
+        <v>90.104</v>
       </c>
       <c r="D532" t="s">
         <v>607</v>
@@ -11259,7 +11259,7 @@
         <v>606</v>
       </c>
       <c r="C533">
-        <v>102.536</v>
+        <v>101.197</v>
       </c>
       <c r="D533" t="s">
         <v>607</v>
@@ -11273,10 +11273,10 @@
         <v>536</v>
       </c>
       <c r="B534" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C534">
-        <v>98.56999999999999</v>
+        <v>100.021</v>
       </c>
       <c r="D534" t="s">
         <v>607</v>
@@ -11293,7 +11293,7 @@
         <v>605</v>
       </c>
       <c r="C535">
-        <v>98.253</v>
+        <v>97.77500000000001</v>
       </c>
       <c r="D535" t="s">
         <v>607</v>
@@ -11307,10 +11307,10 @@
         <v>538</v>
       </c>
       <c r="B536" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C536">
-        <v>98.783</v>
+        <v>102.385</v>
       </c>
       <c r="D536" t="s">
         <v>607</v>
@@ -11327,7 +11327,7 @@
         <v>605</v>
       </c>
       <c r="C537">
-        <v>88.116</v>
+        <v>86.80800000000001</v>
       </c>
       <c r="D537" t="s">
         <v>607</v>
@@ -11344,7 +11344,7 @@
         <v>606</v>
       </c>
       <c r="C538">
-        <v>105.104</v>
+        <v>106.178</v>
       </c>
       <c r="D538" t="s">
         <v>607</v>
@@ -11361,7 +11361,7 @@
         <v>606</v>
       </c>
       <c r="C539">
-        <v>101.283</v>
+        <v>102.268</v>
       </c>
       <c r="D539" t="s">
         <v>607</v>
@@ -11378,7 +11378,7 @@
         <v>606</v>
       </c>
       <c r="C540">
-        <v>103.651</v>
+        <v>102.191</v>
       </c>
       <c r="D540" t="s">
         <v>607</v>
@@ -11395,7 +11395,7 @@
         <v>606</v>
       </c>
       <c r="C541">
-        <v>102.519</v>
+        <v>102.981</v>
       </c>
       <c r="D541" t="s">
         <v>607</v>
@@ -11412,7 +11412,7 @@
         <v>606</v>
       </c>
       <c r="C542">
-        <v>102.478</v>
+        <v>104.014</v>
       </c>
       <c r="D542" t="s">
         <v>607</v>
@@ -11429,7 +11429,7 @@
         <v>606</v>
       </c>
       <c r="C543">
-        <v>104.746</v>
+        <v>104.316</v>
       </c>
       <c r="D543" t="s">
         <v>607</v>
@@ -11446,7 +11446,7 @@
         <v>606</v>
       </c>
       <c r="C544">
-        <v>104.641</v>
+        <v>104.051</v>
       </c>
       <c r="D544" t="s">
         <v>607</v>
@@ -11463,7 +11463,7 @@
         <v>605</v>
       </c>
       <c r="C545">
-        <v>99.29900000000001</v>
+        <v>99.054</v>
       </c>
       <c r="D545" t="s">
         <v>607</v>
@@ -11480,7 +11480,7 @@
         <v>605</v>
       </c>
       <c r="C546">
-        <v>97.953</v>
+        <v>98.34099999999999</v>
       </c>
       <c r="D546" t="s">
         <v>607</v>
@@ -11494,10 +11494,10 @@
         <v>548</v>
       </c>
       <c r="B547" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C547">
-        <v>100</v>
+        <v>98.209</v>
       </c>
       <c r="D547" t="s">
         <v>607</v>
@@ -11514,7 +11514,7 @@
         <v>606</v>
       </c>
       <c r="C548">
-        <v>103.806</v>
+        <v>103.605</v>
       </c>
       <c r="D548" t="s">
         <v>607</v>
@@ -11531,7 +11531,7 @@
         <v>606</v>
       </c>
       <c r="C549">
-        <v>100.487</v>
+        <v>100.147</v>
       </c>
       <c r="D549" t="s">
         <v>607</v>
@@ -11548,7 +11548,7 @@
         <v>606</v>
       </c>
       <c r="C550">
-        <v>101.912</v>
+        <v>102.613</v>
       </c>
       <c r="D550" t="s">
         <v>607</v>
@@ -11565,7 +11565,7 @@
         <v>606</v>
       </c>
       <c r="C551">
-        <v>102.348</v>
+        <v>101.58</v>
       </c>
       <c r="D551" t="s">
         <v>607</v>
@@ -11582,7 +11582,7 @@
         <v>606</v>
       </c>
       <c r="C552">
-        <v>103.911</v>
+        <v>102.654</v>
       </c>
       <c r="D552" t="s">
         <v>607</v>
@@ -11599,7 +11599,7 @@
         <v>606</v>
       </c>
       <c r="C553">
-        <v>100.344</v>
+        <v>102.342</v>
       </c>
       <c r="D553" t="s">
         <v>607</v>
@@ -11633,7 +11633,7 @@
         <v>606</v>
       </c>
       <c r="C555">
-        <v>106.259</v>
+        <v>105.541</v>
       </c>
       <c r="D555" t="s">
         <v>607</v>
@@ -11650,7 +11650,7 @@
         <v>606</v>
       </c>
       <c r="C556">
-        <v>102.353</v>
+        <v>101.267</v>
       </c>
       <c r="D556" t="s">
         <v>607</v>
@@ -11667,7 +11667,7 @@
         <v>606</v>
       </c>
       <c r="C557">
-        <v>106.186</v>
+        <v>104.271</v>
       </c>
       <c r="D557" t="s">
         <v>607</v>
@@ -11684,7 +11684,7 @@
         <v>606</v>
       </c>
       <c r="C558">
-        <v>102.908</v>
+        <v>102.284</v>
       </c>
       <c r="D558" t="s">
         <v>607</v>
@@ -11701,7 +11701,7 @@
         <v>605</v>
       </c>
       <c r="C559">
-        <v>98.476</v>
+        <v>99.111</v>
       </c>
       <c r="D559" t="s">
         <v>607</v>
@@ -11718,7 +11718,7 @@
         <v>606</v>
       </c>
       <c r="C560">
-        <v>103.473</v>
+        <v>104.827</v>
       </c>
       <c r="D560" t="s">
         <v>607</v>
@@ -11735,7 +11735,7 @@
         <v>606</v>
       </c>
       <c r="C561">
-        <v>109.483</v>
+        <v>108.889</v>
       </c>
       <c r="D561" t="s">
         <v>607</v>
@@ -11752,7 +11752,7 @@
         <v>606</v>
       </c>
       <c r="C562">
-        <v>101.578</v>
+        <v>101.871</v>
       </c>
       <c r="D562" t="s">
         <v>607</v>
@@ -11769,7 +11769,7 @@
         <v>606</v>
       </c>
       <c r="C563">
-        <v>101.5</v>
+        <v>100.13</v>
       </c>
       <c r="D563" t="s">
         <v>607</v>
@@ -11786,7 +11786,7 @@
         <v>606</v>
       </c>
       <c r="C564">
-        <v>107.939</v>
+        <v>107.113</v>
       </c>
       <c r="D564" t="s">
         <v>607</v>
@@ -11803,7 +11803,7 @@
         <v>606</v>
       </c>
       <c r="C565">
-        <v>101.078</v>
+        <v>103.664</v>
       </c>
       <c r="D565" t="s">
         <v>607</v>
@@ -11820,7 +11820,7 @@
         <v>605</v>
       </c>
       <c r="C566">
-        <v>97.083</v>
+        <v>99.96299999999999</v>
       </c>
       <c r="D566" t="s">
         <v>607</v>
@@ -11837,7 +11837,7 @@
         <v>605</v>
       </c>
       <c r="C567">
-        <v>97.11</v>
+        <v>97.404</v>
       </c>
       <c r="D567" t="s">
         <v>607</v>
@@ -11854,7 +11854,7 @@
         <v>606</v>
       </c>
       <c r="C568">
-        <v>100.591</v>
+        <v>101.651</v>
       </c>
       <c r="D568" t="s">
         <v>607</v>
@@ -11871,7 +11871,7 @@
         <v>606</v>
       </c>
       <c r="C569">
-        <v>100.738</v>
+        <v>101.816</v>
       </c>
       <c r="D569" t="s">
         <v>607</v>
@@ -11888,7 +11888,7 @@
         <v>606</v>
       </c>
       <c r="C570">
-        <v>105.742</v>
+        <v>106.362</v>
       </c>
       <c r="D570" t="s">
         <v>607</v>
@@ -11902,10 +11902,10 @@
         <v>572</v>
       </c>
       <c r="B571" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C571">
-        <v>97.678</v>
+        <v>103.341</v>
       </c>
       <c r="D571" t="s">
         <v>607</v>
@@ -11922,7 +11922,7 @@
         <v>605</v>
       </c>
       <c r="C572">
-        <v>97.69</v>
+        <v>98.67</v>
       </c>
       <c r="D572" t="s">
         <v>607</v>
@@ -11936,10 +11936,10 @@
         <v>574</v>
       </c>
       <c r="B573" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C573">
-        <v>99.06399999999999</v>
+        <v>100.059</v>
       </c>
       <c r="D573" t="s">
         <v>607</v>
@@ -11956,7 +11956,7 @@
         <v>605</v>
       </c>
       <c r="C574">
-        <v>99.21599999999999</v>
+        <v>98.092</v>
       </c>
       <c r="D574" t="s">
         <v>607</v>
@@ -11970,10 +11970,10 @@
         <v>576</v>
       </c>
       <c r="B575" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C575">
-        <v>100.432</v>
+        <v>99.977</v>
       </c>
       <c r="D575" t="s">
         <v>607</v>
@@ -11990,7 +11990,7 @@
         <v>606</v>
       </c>
       <c r="C576">
-        <v>100.507</v>
+        <v>101.367</v>
       </c>
       <c r="D576" t="s">
         <v>607</v>
@@ -12007,7 +12007,7 @@
         <v>605</v>
       </c>
       <c r="C577">
-        <v>99.098</v>
+        <v>97.616</v>
       </c>
       <c r="D577" t="s">
         <v>607</v>
@@ -12024,7 +12024,7 @@
         <v>606</v>
       </c>
       <c r="C578">
-        <v>102.602</v>
+        <v>103.411</v>
       </c>
       <c r="D578" t="s">
         <v>607</v>
@@ -12041,7 +12041,7 @@
         <v>606</v>
       </c>
       <c r="C579">
-        <v>103.301</v>
+        <v>105.074</v>
       </c>
       <c r="D579" t="s">
         <v>607</v>
@@ -12055,10 +12055,10 @@
         <v>581</v>
       </c>
       <c r="B580" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C580">
-        <v>100.329</v>
+        <v>99.828</v>
       </c>
       <c r="D580" t="s">
         <v>607</v>
@@ -12072,10 +12072,10 @@
         <v>582</v>
       </c>
       <c r="B581" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C581">
-        <v>99.361</v>
+        <v>101.22</v>
       </c>
       <c r="D581" t="s">
         <v>607</v>
@@ -12092,7 +12092,7 @@
         <v>606</v>
       </c>
       <c r="C582">
-        <v>101.447</v>
+        <v>100.617</v>
       </c>
       <c r="D582" t="s">
         <v>607</v>
@@ -12109,7 +12109,7 @@
         <v>606</v>
       </c>
       <c r="C583">
-        <v>100.288</v>
+        <v>101.396</v>
       </c>
       <c r="D583" t="s">
         <v>607</v>
@@ -12126,7 +12126,7 @@
         <v>606</v>
       </c>
       <c r="C584">
-        <v>103.756</v>
+        <v>102.414</v>
       </c>
       <c r="D584" t="s">
         <v>607</v>
@@ -12143,7 +12143,7 @@
         <v>606</v>
       </c>
       <c r="C585">
-        <v>101.937</v>
+        <v>103.13</v>
       </c>
       <c r="D585" t="s">
         <v>607</v>
@@ -12157,10 +12157,10 @@
         <v>587</v>
       </c>
       <c r="B586" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C586">
-        <v>105.144</v>
+        <v>97.667</v>
       </c>
       <c r="D586" t="s">
         <v>607</v>
@@ -12177,7 +12177,7 @@
         <v>606</v>
       </c>
       <c r="C587">
-        <v>105.846</v>
+        <v>103.191</v>
       </c>
       <c r="D587" t="s">
         <v>607</v>
@@ -12194,7 +12194,7 @@
         <v>606</v>
       </c>
       <c r="C588">
-        <v>102.243</v>
+        <v>101.681</v>
       </c>
       <c r="D588" t="s">
         <v>607</v>
@@ -12211,7 +12211,7 @@
         <v>606</v>
       </c>
       <c r="C589">
-        <v>101.081</v>
+        <v>101.622</v>
       </c>
       <c r="D589" t="s">
         <v>607</v>
@@ -12228,7 +12228,7 @@
         <v>606</v>
       </c>
       <c r="C590">
-        <v>104.419</v>
+        <v>108.809</v>
       </c>
       <c r="D590" t="s">
         <v>607</v>
@@ -12245,7 +12245,7 @@
         <v>605</v>
       </c>
       <c r="C591">
-        <v>99.559</v>
+        <v>99.376</v>
       </c>
       <c r="D591" t="s">
         <v>607</v>
@@ -12259,10 +12259,10 @@
         <v>593</v>
       </c>
       <c r="B592" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C592">
-        <v>98.53100000000001</v>
+        <v>100.557</v>
       </c>
       <c r="D592" t="s">
         <v>607</v>
@@ -12279,7 +12279,7 @@
         <v>606</v>
       </c>
       <c r="C593">
-        <v>102.163</v>
+        <v>106.267</v>
       </c>
       <c r="D593" t="s">
         <v>607</v>
@@ -12293,10 +12293,10 @@
         <v>595</v>
       </c>
       <c r="B594" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C594">
-        <v>99.91500000000001</v>
+        <v>101.589</v>
       </c>
       <c r="D594" t="s">
         <v>607</v>
@@ -12310,10 +12310,10 @@
         <v>596</v>
       </c>
       <c r="B595" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C595">
-        <v>101.604</v>
+        <v>98.846</v>
       </c>
       <c r="D595" t="s">
         <v>607</v>
@@ -12327,10 +12327,10 @@
         <v>597</v>
       </c>
       <c r="B596" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C596">
-        <v>99.88</v>
+        <v>100.121</v>
       </c>
       <c r="D596" t="s">
         <v>607</v>
@@ -12347,7 +12347,7 @@
         <v>606</v>
       </c>
       <c r="C597">
-        <v>100.468</v>
+        <v>102.2</v>
       </c>
       <c r="D597" t="s">
         <v>607</v>
@@ -12364,7 +12364,7 @@
         <v>606</v>
       </c>
       <c r="C598">
-        <v>100.89</v>
+        <v>100.51</v>
       </c>
       <c r="D598" t="s">
         <v>607</v>
@@ -12381,7 +12381,7 @@
         <v>606</v>
       </c>
       <c r="C599">
-        <v>101.159</v>
+        <v>101.546</v>
       </c>
       <c r="D599" t="s">
         <v>607</v>
@@ -12398,7 +12398,7 @@
         <v>606</v>
       </c>
       <c r="C600">
-        <v>102.628</v>
+        <v>102.289</v>
       </c>
       <c r="D600" t="s">
         <v>607</v>
@@ -12412,10 +12412,10 @@
         <v>602</v>
       </c>
       <c r="B601" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C601">
-        <v>98.654</v>
+        <v>109.844</v>
       </c>
       <c r="D601" t="s">
         <v>607</v>
@@ -12432,7 +12432,7 @@
         <v>606</v>
       </c>
       <c r="C602">
-        <v>102.098</v>
+        <v>102.663</v>
       </c>
       <c r="D602" t="s">
         <v>607</v>
@@ -12449,7 +12449,7 @@
         <v>605</v>
       </c>
       <c r="C603">
-        <v>94.384</v>
+        <v>93.932</v>
       </c>
       <c r="D603" t="s">
         <v>607</v>

--- a/generated_reports/tradfi_momentum.xlsx
+++ b/generated_reports/tradfi_momentum.xlsx
@@ -2232,7 +2232,7 @@
         <v>605</v>
       </c>
       <c r="C2">
-        <v>98.54600000000001</v>
+        <v>93.30800000000001</v>
       </c>
       <c r="D2" t="s">
         <v>607</v>
@@ -2249,7 +2249,7 @@
         <v>606</v>
       </c>
       <c r="C3">
-        <v>102.831</v>
+        <v>100.117</v>
       </c>
       <c r="D3" t="s">
         <v>607</v>
@@ -2266,7 +2266,7 @@
         <v>606</v>
       </c>
       <c r="C4">
-        <v>105.138</v>
+        <v>103.28</v>
       </c>
       <c r="D4" t="s">
         <v>607</v>
@@ -2283,7 +2283,7 @@
         <v>606</v>
       </c>
       <c r="C5">
-        <v>113.312</v>
+        <v>127.407</v>
       </c>
       <c r="D5" t="s">
         <v>607</v>
@@ -2300,7 +2300,7 @@
         <v>606</v>
       </c>
       <c r="C6">
-        <v>106.123</v>
+        <v>104.741</v>
       </c>
       <c r="D6" t="s">
         <v>607</v>
@@ -2317,7 +2317,7 @@
         <v>606</v>
       </c>
       <c r="C7">
-        <v>112.34</v>
+        <v>109.393</v>
       </c>
       <c r="D7" t="s">
         <v>607</v>
@@ -2334,7 +2334,7 @@
         <v>605</v>
       </c>
       <c r="C8">
-        <v>97.595</v>
+        <v>93.069</v>
       </c>
       <c r="D8" t="s">
         <v>607</v>
@@ -2348,10 +2348,10 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C9">
-        <v>101.345</v>
+        <v>92.797</v>
       </c>
       <c r="D9" t="s">
         <v>607</v>
@@ -2368,7 +2368,7 @@
         <v>606</v>
       </c>
       <c r="C10">
-        <v>104.44</v>
+        <v>101.174</v>
       </c>
       <c r="D10" t="s">
         <v>607</v>
@@ -2385,7 +2385,7 @@
         <v>606</v>
       </c>
       <c r="C11">
-        <v>103.515</v>
+        <v>105.108</v>
       </c>
       <c r="D11" t="s">
         <v>607</v>
@@ -2402,7 +2402,7 @@
         <v>605</v>
       </c>
       <c r="C12">
-        <v>98.95999999999999</v>
+        <v>95.97799999999999</v>
       </c>
       <c r="D12" t="s">
         <v>607</v>
@@ -2419,7 +2419,7 @@
         <v>606</v>
       </c>
       <c r="C13">
-        <v>116.547</v>
+        <v>124.858</v>
       </c>
       <c r="D13" t="s">
         <v>607</v>
@@ -2436,7 +2436,7 @@
         <v>606</v>
       </c>
       <c r="C14">
-        <v>106.06</v>
+        <v>104.387</v>
       </c>
       <c r="D14" t="s">
         <v>607</v>
@@ -2450,10 +2450,10 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C15">
-        <v>99.917</v>
+        <v>100.969</v>
       </c>
       <c r="D15" t="s">
         <v>607</v>
@@ -2470,7 +2470,7 @@
         <v>606</v>
       </c>
       <c r="C16">
-        <v>101.845</v>
+        <v>101.128</v>
       </c>
       <c r="D16" t="s">
         <v>607</v>
@@ -2484,10 +2484,10 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C17">
-        <v>100.712</v>
+        <v>99.28700000000001</v>
       </c>
       <c r="D17" t="s">
         <v>607</v>
@@ -2504,7 +2504,7 @@
         <v>606</v>
       </c>
       <c r="C18">
-        <v>103.783</v>
+        <v>100.502</v>
       </c>
       <c r="D18" t="s">
         <v>607</v>
@@ -2521,7 +2521,7 @@
         <v>606</v>
       </c>
       <c r="C19">
-        <v>101.644</v>
+        <v>100.229</v>
       </c>
       <c r="D19" t="s">
         <v>607</v>
@@ -2538,7 +2538,7 @@
         <v>605</v>
       </c>
       <c r="C20">
-        <v>98.812</v>
+        <v>97.598</v>
       </c>
       <c r="D20" t="s">
         <v>607</v>
@@ -2555,7 +2555,7 @@
         <v>606</v>
       </c>
       <c r="C21">
-        <v>106.653</v>
+        <v>103.998</v>
       </c>
       <c r="D21" t="s">
         <v>607</v>
@@ -2569,10 +2569,10 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C22">
-        <v>100.761</v>
+        <v>98.907</v>
       </c>
       <c r="D22" t="s">
         <v>607</v>
@@ -2589,7 +2589,7 @@
         <v>606</v>
       </c>
       <c r="C23">
-        <v>105.352</v>
+        <v>108.963</v>
       </c>
       <c r="D23" t="s">
         <v>607</v>
@@ -2606,7 +2606,7 @@
         <v>605</v>
       </c>
       <c r="C24">
-        <v>94.15900000000001</v>
+        <v>91.69</v>
       </c>
       <c r="D24" t="s">
         <v>607</v>
@@ -2623,7 +2623,7 @@
         <v>605</v>
       </c>
       <c r="C25">
-        <v>99.93600000000001</v>
+        <v>96.001</v>
       </c>
       <c r="D25" t="s">
         <v>607</v>
@@ -2640,7 +2640,7 @@
         <v>606</v>
       </c>
       <c r="C26">
-        <v>105.089</v>
+        <v>101.865</v>
       </c>
       <c r="D26" t="s">
         <v>607</v>
@@ -2654,10 +2654,10 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C27">
-        <v>101.02</v>
+        <v>99.71299999999999</v>
       </c>
       <c r="D27" t="s">
         <v>607</v>
@@ -2671,10 +2671,10 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C28">
-        <v>100.542</v>
+        <v>95.989</v>
       </c>
       <c r="D28" t="s">
         <v>607</v>
@@ -2691,7 +2691,7 @@
         <v>606</v>
       </c>
       <c r="C29">
-        <v>105.993</v>
+        <v>106.782</v>
       </c>
       <c r="D29" t="s">
         <v>607</v>
@@ -2708,7 +2708,7 @@
         <v>605</v>
       </c>
       <c r="C30">
-        <v>98.703</v>
+        <v>96.093</v>
       </c>
       <c r="D30" t="s">
         <v>607</v>
@@ -2722,10 +2722,10 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C31">
-        <v>104.207</v>
+        <v>97.976</v>
       </c>
       <c r="D31" t="s">
         <v>607</v>
@@ -2742,7 +2742,7 @@
         <v>605</v>
       </c>
       <c r="C32">
-        <v>93.782</v>
+        <v>93.503</v>
       </c>
       <c r="D32" t="s">
         <v>607</v>
@@ -2756,10 +2756,10 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C33">
-        <v>102.501</v>
+        <v>99.002</v>
       </c>
       <c r="D33" t="s">
         <v>607</v>
@@ -2773,10 +2773,10 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C34">
-        <v>82.53</v>
+        <v>111.131</v>
       </c>
       <c r="D34" t="s">
         <v>607</v>
@@ -2793,7 +2793,7 @@
         <v>606</v>
       </c>
       <c r="C35">
-        <v>103.668</v>
+        <v>101.298</v>
       </c>
       <c r="D35" t="s">
         <v>607</v>
@@ -2810,7 +2810,7 @@
         <v>606</v>
       </c>
       <c r="C36">
-        <v>119.686</v>
+        <v>115.928</v>
       </c>
       <c r="D36" t="s">
         <v>607</v>
@@ -2827,7 +2827,7 @@
         <v>606</v>
       </c>
       <c r="C37">
-        <v>106.952</v>
+        <v>103.99</v>
       </c>
       <c r="D37" t="s">
         <v>607</v>
@@ -2844,7 +2844,7 @@
         <v>605</v>
       </c>
       <c r="C38">
-        <v>91.179</v>
+        <v>87.88800000000001</v>
       </c>
       <c r="D38" t="s">
         <v>607</v>
@@ -2861,7 +2861,7 @@
         <v>606</v>
       </c>
       <c r="C39">
-        <v>108.501</v>
+        <v>108.276</v>
       </c>
       <c r="D39" t="s">
         <v>607</v>
@@ -2878,7 +2878,7 @@
         <v>606</v>
       </c>
       <c r="C40">
-        <v>108.591</v>
+        <v>105.826</v>
       </c>
       <c r="D40" t="s">
         <v>607</v>
@@ -2895,7 +2895,7 @@
         <v>606</v>
       </c>
       <c r="C41">
-        <v>104.112</v>
+        <v>103.1</v>
       </c>
       <c r="D41" t="s">
         <v>607</v>
@@ -2912,7 +2912,7 @@
         <v>606</v>
       </c>
       <c r="C42">
-        <v>102.367</v>
+        <v>101.374</v>
       </c>
       <c r="D42" t="s">
         <v>607</v>
@@ -2929,7 +2929,7 @@
         <v>606</v>
       </c>
       <c r="C43">
-        <v>103.464</v>
+        <v>101.862</v>
       </c>
       <c r="D43" t="s">
         <v>607</v>
@@ -2946,7 +2946,7 @@
         <v>606</v>
       </c>
       <c r="C44">
-        <v>106.674</v>
+        <v>106.676</v>
       </c>
       <c r="D44" t="s">
         <v>607</v>
@@ -2963,7 +2963,7 @@
         <v>606</v>
       </c>
       <c r="C45">
-        <v>101.98</v>
+        <v>100.586</v>
       </c>
       <c r="D45" t="s">
         <v>607</v>
@@ -2980,7 +2980,7 @@
         <v>606</v>
       </c>
       <c r="C46">
-        <v>104.728</v>
+        <v>106.761</v>
       </c>
       <c r="D46" t="s">
         <v>607</v>
@@ -2997,7 +2997,7 @@
         <v>606</v>
       </c>
       <c r="C47">
-        <v>103.273</v>
+        <v>103.837</v>
       </c>
       <c r="D47" t="s">
         <v>607</v>
@@ -3014,7 +3014,7 @@
         <v>606</v>
       </c>
       <c r="C48">
-        <v>106.852</v>
+        <v>104.987</v>
       </c>
       <c r="D48" t="s">
         <v>607</v>
@@ -3031,7 +3031,7 @@
         <v>605</v>
       </c>
       <c r="C49">
-        <v>96.44799999999999</v>
+        <v>89.223</v>
       </c>
       <c r="D49" t="s">
         <v>607</v>
@@ -3048,7 +3048,7 @@
         <v>606</v>
       </c>
       <c r="C50">
-        <v>102.229</v>
+        <v>101.088</v>
       </c>
       <c r="D50" t="s">
         <v>607</v>
@@ -3065,7 +3065,7 @@
         <v>606</v>
       </c>
       <c r="C51">
-        <v>110.919</v>
+        <v>105.584</v>
       </c>
       <c r="D51" t="s">
         <v>607</v>
@@ -3079,10 +3079,10 @@
         <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C52">
-        <v>100.055</v>
+        <v>97.755</v>
       </c>
       <c r="D52" t="s">
         <v>607</v>
@@ -3096,10 +3096,10 @@
         <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C53">
-        <v>95.553</v>
+        <v>101.779</v>
       </c>
       <c r="D53" t="s">
         <v>607</v>
@@ -3116,7 +3116,7 @@
         <v>606</v>
       </c>
       <c r="C54">
-        <v>105.029</v>
+        <v>104.978</v>
       </c>
       <c r="D54" t="s">
         <v>607</v>
@@ -3133,7 +3133,7 @@
         <v>606</v>
       </c>
       <c r="C55">
-        <v>106.605</v>
+        <v>102.587</v>
       </c>
       <c r="D55" t="s">
         <v>607</v>
@@ -3147,10 +3147,10 @@
         <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C56">
-        <v>102.493</v>
+        <v>97.929</v>
       </c>
       <c r="D56" t="s">
         <v>607</v>
@@ -3167,7 +3167,7 @@
         <v>606</v>
       </c>
       <c r="C57">
-        <v>117.076</v>
+        <v>120.162</v>
       </c>
       <c r="D57" t="s">
         <v>607</v>
@@ -3184,7 +3184,7 @@
         <v>606</v>
       </c>
       <c r="C58">
-        <v>109.436</v>
+        <v>110.166</v>
       </c>
       <c r="D58" t="s">
         <v>607</v>
@@ -3201,7 +3201,7 @@
         <v>606</v>
       </c>
       <c r="C59">
-        <v>103.852</v>
+        <v>103.004</v>
       </c>
       <c r="D59" t="s">
         <v>607</v>
@@ -3218,7 +3218,7 @@
         <v>605</v>
       </c>
       <c r="C60">
-        <v>94.54300000000001</v>
+        <v>92.057</v>
       </c>
       <c r="D60" t="s">
         <v>607</v>
@@ -3235,7 +3235,7 @@
         <v>606</v>
       </c>
       <c r="C61">
-        <v>104.007</v>
+        <v>104.631</v>
       </c>
       <c r="D61" t="s">
         <v>607</v>
@@ -3249,10 +3249,10 @@
         <v>65</v>
       </c>
       <c r="B62" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C62">
-        <v>100.919</v>
+        <v>96.538</v>
       </c>
       <c r="D62" t="s">
         <v>607</v>
@@ -3269,7 +3269,7 @@
         <v>605</v>
       </c>
       <c r="C63">
-        <v>99.068</v>
+        <v>97.407</v>
       </c>
       <c r="D63" t="s">
         <v>607</v>
@@ -3286,7 +3286,7 @@
         <v>606</v>
       </c>
       <c r="C64">
-        <v>103.84</v>
+        <v>100.64</v>
       </c>
       <c r="D64" t="s">
         <v>607</v>
@@ -3303,7 +3303,7 @@
         <v>606</v>
       </c>
       <c r="C65">
-        <v>102.862</v>
+        <v>105.663</v>
       </c>
       <c r="D65" t="s">
         <v>607</v>
@@ -3320,7 +3320,7 @@
         <v>606</v>
       </c>
       <c r="C66">
-        <v>104.474</v>
+        <v>101.805</v>
       </c>
       <c r="D66" t="s">
         <v>607</v>
@@ -3337,7 +3337,7 @@
         <v>606</v>
       </c>
       <c r="C67">
-        <v>104.919</v>
+        <v>101.334</v>
       </c>
       <c r="D67" t="s">
         <v>607</v>
@@ -3354,7 +3354,7 @@
         <v>606</v>
       </c>
       <c r="C68">
-        <v>101.661</v>
+        <v>100.166</v>
       </c>
       <c r="D68" t="s">
         <v>607</v>
@@ -3371,7 +3371,7 @@
         <v>605</v>
       </c>
       <c r="C69">
-        <v>98.953</v>
+        <v>96.536</v>
       </c>
       <c r="D69" t="s">
         <v>607</v>
@@ -3388,7 +3388,7 @@
         <v>606</v>
       </c>
       <c r="C70">
-        <v>129.605</v>
+        <v>134.528</v>
       </c>
       <c r="D70" t="s">
         <v>607</v>
@@ -3402,10 +3402,10 @@
         <v>74</v>
       </c>
       <c r="B71" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C71">
-        <v>100.513</v>
+        <v>99.56999999999999</v>
       </c>
       <c r="D71" t="s">
         <v>607</v>
@@ -3422,7 +3422,7 @@
         <v>606</v>
       </c>
       <c r="C72">
-        <v>102.091</v>
+        <v>100.4</v>
       </c>
       <c r="D72" t="s">
         <v>607</v>
@@ -3439,7 +3439,7 @@
         <v>606</v>
       </c>
       <c r="C73">
-        <v>103.702</v>
+        <v>105.702</v>
       </c>
       <c r="D73" t="s">
         <v>607</v>
@@ -3453,10 +3453,10 @@
         <v>77</v>
       </c>
       <c r="B74" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C74">
-        <v>100.854</v>
+        <v>98.245</v>
       </c>
       <c r="D74" t="s">
         <v>607</v>
@@ -3470,10 +3470,10 @@
         <v>78</v>
       </c>
       <c r="B75" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C75">
-        <v>98.754</v>
+        <v>100.029</v>
       </c>
       <c r="D75" t="s">
         <v>607</v>
@@ -3487,10 +3487,10 @@
         <v>79</v>
       </c>
       <c r="B76" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C76">
-        <v>100.37</v>
+        <v>98.164</v>
       </c>
       <c r="D76" t="s">
         <v>607</v>
@@ -3507,7 +3507,7 @@
         <v>606</v>
       </c>
       <c r="C77">
-        <v>108.44</v>
+        <v>104.013</v>
       </c>
       <c r="D77" t="s">
         <v>607</v>
@@ -3521,10 +3521,10 @@
         <v>81</v>
       </c>
       <c r="B78" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C78">
-        <v>103.179</v>
+        <v>99.188</v>
       </c>
       <c r="D78" t="s">
         <v>607</v>
@@ -3541,7 +3541,7 @@
         <v>605</v>
       </c>
       <c r="C79">
-        <v>83.917</v>
+        <v>81.34099999999999</v>
       </c>
       <c r="D79" t="s">
         <v>607</v>
@@ -3558,7 +3558,7 @@
         <v>606</v>
       </c>
       <c r="C80">
-        <v>102.779</v>
+        <v>102.829</v>
       </c>
       <c r="D80" t="s">
         <v>607</v>
@@ -3575,7 +3575,7 @@
         <v>606</v>
       </c>
       <c r="C81">
-        <v>107.789</v>
+        <v>108.037</v>
       </c>
       <c r="D81" t="s">
         <v>607</v>
@@ -3592,7 +3592,7 @@
         <v>605</v>
       </c>
       <c r="C82">
-        <v>94.333</v>
+        <v>99.232</v>
       </c>
       <c r="D82" t="s">
         <v>607</v>
@@ -3609,7 +3609,7 @@
         <v>606</v>
       </c>
       <c r="C83">
-        <v>107.57</v>
+        <v>109.099</v>
       </c>
       <c r="D83" t="s">
         <v>607</v>
@@ -3623,10 +3623,10 @@
         <v>87</v>
       </c>
       <c r="B84" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C84">
-        <v>100.654</v>
+        <v>96.188</v>
       </c>
       <c r="D84" t="s">
         <v>607</v>
@@ -3640,10 +3640,10 @@
         <v>88</v>
       </c>
       <c r="B85" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C85">
-        <v>104.271</v>
+        <v>98.389</v>
       </c>
       <c r="D85" t="s">
         <v>607</v>
@@ -3660,7 +3660,7 @@
         <v>605</v>
       </c>
       <c r="C86">
-        <v>86.738</v>
+        <v>96.46599999999999</v>
       </c>
       <c r="D86" t="s">
         <v>607</v>
@@ -3677,7 +3677,7 @@
         <v>606</v>
       </c>
       <c r="C87">
-        <v>103.536</v>
+        <v>102.51</v>
       </c>
       <c r="D87" t="s">
         <v>607</v>
@@ -3694,7 +3694,7 @@
         <v>605</v>
       </c>
       <c r="C88">
-        <v>88.199</v>
+        <v>85.057</v>
       </c>
       <c r="D88" t="s">
         <v>607</v>
@@ -3711,7 +3711,7 @@
         <v>606</v>
       </c>
       <c r="C89">
-        <v>103.205</v>
+        <v>100.172</v>
       </c>
       <c r="D89" t="s">
         <v>607</v>
@@ -3728,7 +3728,7 @@
         <v>606</v>
       </c>
       <c r="C90">
-        <v>102.962</v>
+        <v>100.049</v>
       </c>
       <c r="D90" t="s">
         <v>607</v>
@@ -3745,7 +3745,7 @@
         <v>606</v>
       </c>
       <c r="C91">
-        <v>110.587</v>
+        <v>114.361</v>
       </c>
       <c r="D91" t="s">
         <v>607</v>
@@ -3762,7 +3762,7 @@
         <v>605</v>
       </c>
       <c r="C92">
-        <v>97.771</v>
+        <v>96.598</v>
       </c>
       <c r="D92" t="s">
         <v>607</v>
@@ -3779,7 +3779,7 @@
         <v>605</v>
       </c>
       <c r="C93">
-        <v>88.958</v>
+        <v>89.10299999999999</v>
       </c>
       <c r="D93" t="s">
         <v>607</v>
@@ -3796,7 +3796,7 @@
         <v>605</v>
       </c>
       <c r="C94">
-        <v>97.971</v>
+        <v>98.732</v>
       </c>
       <c r="D94" t="s">
         <v>607</v>
@@ -3813,7 +3813,7 @@
         <v>606</v>
       </c>
       <c r="C95">
-        <v>114.15</v>
+        <v>108.378</v>
       </c>
       <c r="D95" t="s">
         <v>607</v>
@@ -3830,7 +3830,7 @@
         <v>605</v>
       </c>
       <c r="C96">
-        <v>97.163</v>
+        <v>98.306</v>
       </c>
       <c r="D96" t="s">
         <v>607</v>
@@ -3847,7 +3847,7 @@
         <v>605</v>
       </c>
       <c r="C97">
-        <v>98.324</v>
+        <v>99.089</v>
       </c>
       <c r="D97" t="s">
         <v>607</v>
@@ -3864,7 +3864,7 @@
         <v>605</v>
       </c>
       <c r="C98">
-        <v>94.96299999999999</v>
+        <v>90.122</v>
       </c>
       <c r="D98" t="s">
         <v>607</v>
@@ -3881,7 +3881,7 @@
         <v>606</v>
       </c>
       <c r="C99">
-        <v>103.585</v>
+        <v>106.21</v>
       </c>
       <c r="D99" t="s">
         <v>607</v>
@@ -3895,10 +3895,10 @@
         <v>103</v>
       </c>
       <c r="B100" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C100">
-        <v>100.276</v>
+        <v>97.92100000000001</v>
       </c>
       <c r="D100" t="s">
         <v>607</v>
@@ -3915,7 +3915,7 @@
         <v>605</v>
       </c>
       <c r="C101">
-        <v>93.861</v>
+        <v>90.64700000000001</v>
       </c>
       <c r="D101" t="s">
         <v>607</v>
@@ -3932,7 +3932,7 @@
         <v>606</v>
       </c>
       <c r="C102">
-        <v>100.008</v>
+        <v>104.247</v>
       </c>
       <c r="D102" t="s">
         <v>607</v>
@@ -3949,7 +3949,7 @@
         <v>606</v>
       </c>
       <c r="C103">
-        <v>103.497</v>
+        <v>104.229</v>
       </c>
       <c r="D103" t="s">
         <v>607</v>
@@ -3966,7 +3966,7 @@
         <v>606</v>
       </c>
       <c r="C104">
-        <v>102.034</v>
+        <v>100.753</v>
       </c>
       <c r="D104" t="s">
         <v>607</v>
@@ -3983,7 +3983,7 @@
         <v>606</v>
       </c>
       <c r="C105">
-        <v>103.558</v>
+        <v>100.813</v>
       </c>
       <c r="D105" t="s">
         <v>607</v>
@@ -3997,10 +3997,10 @@
         <v>109</v>
       </c>
       <c r="B106" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C106">
-        <v>100.851</v>
+        <v>99.327</v>
       </c>
       <c r="D106" t="s">
         <v>607</v>
@@ -4017,7 +4017,7 @@
         <v>606</v>
       </c>
       <c r="C107">
-        <v>106.099</v>
+        <v>103.933</v>
       </c>
       <c r="D107" t="s">
         <v>607</v>
@@ -4034,7 +4034,7 @@
         <v>606</v>
       </c>
       <c r="C108">
-        <v>100.8</v>
+        <v>102.295</v>
       </c>
       <c r="D108" t="s">
         <v>607</v>
@@ -4051,7 +4051,7 @@
         <v>605</v>
       </c>
       <c r="C109">
-        <v>99.34999999999999</v>
+        <v>95.871</v>
       </c>
       <c r="D109" t="s">
         <v>607</v>
@@ -4068,7 +4068,7 @@
         <v>605</v>
       </c>
       <c r="C110">
-        <v>98.82299999999999</v>
+        <v>96.236</v>
       </c>
       <c r="D110" t="s">
         <v>607</v>
@@ -4085,7 +4085,7 @@
         <v>606</v>
       </c>
       <c r="C111">
-        <v>109.375</v>
+        <v>105.361</v>
       </c>
       <c r="D111" t="s">
         <v>607</v>
@@ -4099,10 +4099,10 @@
         <v>115</v>
       </c>
       <c r="B112" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C112">
-        <v>100.236</v>
+        <v>97.191</v>
       </c>
       <c r="D112" t="s">
         <v>607</v>
@@ -4119,7 +4119,7 @@
         <v>606</v>
       </c>
       <c r="C113">
-        <v>103.469</v>
+        <v>103.696</v>
       </c>
       <c r="D113" t="s">
         <v>607</v>
@@ -4136,7 +4136,7 @@
         <v>606</v>
       </c>
       <c r="C114">
-        <v>100.763</v>
+        <v>105.015</v>
       </c>
       <c r="D114" t="s">
         <v>607</v>
@@ -4153,7 +4153,7 @@
         <v>606</v>
       </c>
       <c r="C115">
-        <v>103.115</v>
+        <v>104.425</v>
       </c>
       <c r="D115" t="s">
         <v>607</v>
@@ -4170,7 +4170,7 @@
         <v>605</v>
       </c>
       <c r="C116">
-        <v>99.55800000000001</v>
+        <v>99.53400000000001</v>
       </c>
       <c r="D116" t="s">
         <v>607</v>
@@ -4187,7 +4187,7 @@
         <v>606</v>
       </c>
       <c r="C117">
-        <v>104.073</v>
+        <v>104.892</v>
       </c>
       <c r="D117" t="s">
         <v>607</v>
@@ -4204,7 +4204,7 @@
         <v>606</v>
       </c>
       <c r="C118">
-        <v>105.2</v>
+        <v>105.745</v>
       </c>
       <c r="D118" t="s">
         <v>607</v>
@@ -4221,7 +4221,7 @@
         <v>606</v>
       </c>
       <c r="C119">
-        <v>104.044</v>
+        <v>100.518</v>
       </c>
       <c r="D119" t="s">
         <v>607</v>
@@ -4238,7 +4238,7 @@
         <v>606</v>
       </c>
       <c r="C120">
-        <v>102.219</v>
+        <v>102.57</v>
       </c>
       <c r="D120" t="s">
         <v>607</v>
@@ -4255,7 +4255,7 @@
         <v>606</v>
       </c>
       <c r="C121">
-        <v>100.314</v>
+        <v>104.83</v>
       </c>
       <c r="D121" t="s">
         <v>607</v>
@@ -4272,7 +4272,7 @@
         <v>606</v>
       </c>
       <c r="C122">
-        <v>106.068</v>
+        <v>107.482</v>
       </c>
       <c r="D122" t="s">
         <v>607</v>
@@ -4289,7 +4289,7 @@
         <v>605</v>
       </c>
       <c r="C123">
-        <v>96.271</v>
+        <v>94.254</v>
       </c>
       <c r="D123" t="s">
         <v>607</v>
@@ -4306,7 +4306,7 @@
         <v>605</v>
       </c>
       <c r="C124">
-        <v>99.28400000000001</v>
+        <v>98.175</v>
       </c>
       <c r="D124" t="s">
         <v>607</v>
@@ -4323,7 +4323,7 @@
         <v>606</v>
       </c>
       <c r="C125">
-        <v>100.298</v>
+        <v>106.817</v>
       </c>
       <c r="D125" t="s">
         <v>607</v>
@@ -4340,7 +4340,7 @@
         <v>606</v>
       </c>
       <c r="C126">
-        <v>102.348</v>
+        <v>101.492</v>
       </c>
       <c r="D126" t="s">
         <v>607</v>
@@ -4354,10 +4354,10 @@
         <v>130</v>
       </c>
       <c r="B127" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C127">
-        <v>101.128</v>
+        <v>98.958</v>
       </c>
       <c r="D127" t="s">
         <v>607</v>
@@ -4374,7 +4374,7 @@
         <v>605</v>
       </c>
       <c r="C128">
-        <v>98.425</v>
+        <v>93.38800000000001</v>
       </c>
       <c r="D128" t="s">
         <v>607</v>
@@ -4391,7 +4391,7 @@
         <v>606</v>
       </c>
       <c r="C129">
-        <v>100.201</v>
+        <v>100</v>
       </c>
       <c r="D129" t="s">
         <v>607</v>
@@ -4408,7 +4408,7 @@
         <v>606</v>
       </c>
       <c r="C130">
-        <v>102.591</v>
+        <v>100.947</v>
       </c>
       <c r="D130" t="s">
         <v>607</v>
@@ -4422,10 +4422,10 @@
         <v>134</v>
       </c>
       <c r="B131" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C131">
-        <v>101.284</v>
+        <v>99.524</v>
       </c>
       <c r="D131" t="s">
         <v>607</v>
@@ -4439,10 +4439,10 @@
         <v>135</v>
       </c>
       <c r="B132" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C132">
-        <v>103.319</v>
+        <v>98.538</v>
       </c>
       <c r="D132" t="s">
         <v>607</v>
@@ -4459,7 +4459,7 @@
         <v>606</v>
       </c>
       <c r="C133">
-        <v>104.594</v>
+        <v>105.168</v>
       </c>
       <c r="D133" t="s">
         <v>607</v>
@@ -4476,7 +4476,7 @@
         <v>606</v>
       </c>
       <c r="C134">
-        <v>107.864</v>
+        <v>105.72</v>
       </c>
       <c r="D134" t="s">
         <v>607</v>
@@ -4493,7 +4493,7 @@
         <v>605</v>
       </c>
       <c r="C135">
-        <v>96.809</v>
+        <v>97.023</v>
       </c>
       <c r="D135" t="s">
         <v>607</v>
@@ -4510,7 +4510,7 @@
         <v>606</v>
       </c>
       <c r="C136">
-        <v>101.129</v>
+        <v>100.68</v>
       </c>
       <c r="D136" t="s">
         <v>607</v>
@@ -4524,10 +4524,10 @@
         <v>140</v>
       </c>
       <c r="B137" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C137">
-        <v>99.764</v>
+        <v>100.937</v>
       </c>
       <c r="D137" t="s">
         <v>607</v>
@@ -4544,7 +4544,7 @@
         <v>605</v>
       </c>
       <c r="C138">
-        <v>97.363</v>
+        <v>97.83499999999999</v>
       </c>
       <c r="D138" t="s">
         <v>607</v>
@@ -4558,10 +4558,10 @@
         <v>142</v>
       </c>
       <c r="B139" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C139">
-        <v>100.907</v>
+        <v>99.265</v>
       </c>
       <c r="D139" t="s">
         <v>607</v>
@@ -4578,7 +4578,7 @@
         <v>605</v>
       </c>
       <c r="C140">
-        <v>99.029</v>
+        <v>98.48699999999999</v>
       </c>
       <c r="D140" t="s">
         <v>607</v>
@@ -4595,7 +4595,7 @@
         <v>606</v>
       </c>
       <c r="C141">
-        <v>102.066</v>
+        <v>101.787</v>
       </c>
       <c r="D141" t="s">
         <v>607</v>
@@ -4612,7 +4612,7 @@
         <v>606</v>
       </c>
       <c r="C142">
-        <v>102.623</v>
+        <v>102.668</v>
       </c>
       <c r="D142" t="s">
         <v>607</v>
@@ -4626,10 +4626,10 @@
         <v>146</v>
       </c>
       <c r="B143" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C143">
-        <v>100.479</v>
+        <v>99.205</v>
       </c>
       <c r="D143" t="s">
         <v>607</v>
@@ -4646,7 +4646,7 @@
         <v>606</v>
       </c>
       <c r="C144">
-        <v>100.564</v>
+        <v>101.036</v>
       </c>
       <c r="D144" t="s">
         <v>607</v>
@@ -4663,7 +4663,7 @@
         <v>606</v>
       </c>
       <c r="C145">
-        <v>101.988</v>
+        <v>102.642</v>
       </c>
       <c r="D145" t="s">
         <v>607</v>
@@ -4680,7 +4680,7 @@
         <v>606</v>
       </c>
       <c r="C146">
-        <v>103.34</v>
+        <v>102.992</v>
       </c>
       <c r="D146" t="s">
         <v>607</v>
@@ -4697,7 +4697,7 @@
         <v>606</v>
       </c>
       <c r="C147">
-        <v>101.122</v>
+        <v>101.39</v>
       </c>
       <c r="D147" t="s">
         <v>607</v>
@@ -4714,7 +4714,7 @@
         <v>606</v>
       </c>
       <c r="C148">
-        <v>100.849</v>
+        <v>101.036</v>
       </c>
       <c r="D148" t="s">
         <v>607</v>
@@ -4731,7 +4731,7 @@
         <v>605</v>
       </c>
       <c r="C149">
-        <v>95.77200000000001</v>
+        <v>95.541</v>
       </c>
       <c r="D149" t="s">
         <v>607</v>
@@ -4748,7 +4748,7 @@
         <v>606</v>
       </c>
       <c r="C150">
-        <v>107.818</v>
+        <v>109.138</v>
       </c>
       <c r="D150" t="s">
         <v>607</v>
@@ -4765,7 +4765,7 @@
         <v>606</v>
       </c>
       <c r="C151">
-        <v>103.214</v>
+        <v>106.191</v>
       </c>
       <c r="D151" t="s">
         <v>607</v>
@@ -4782,7 +4782,7 @@
         <v>605</v>
       </c>
       <c r="C152">
-        <v>99.334</v>
+        <v>99.76900000000001</v>
       </c>
       <c r="D152" t="s">
         <v>607</v>
@@ -4799,7 +4799,7 @@
         <v>606</v>
       </c>
       <c r="C153">
-        <v>105.83</v>
+        <v>105.329</v>
       </c>
       <c r="D153" t="s">
         <v>607</v>
@@ -4816,7 +4816,7 @@
         <v>605</v>
       </c>
       <c r="C154">
-        <v>99.88800000000001</v>
+        <v>98.968</v>
       </c>
       <c r="D154" t="s">
         <v>607</v>
@@ -4830,10 +4830,10 @@
         <v>158</v>
       </c>
       <c r="B155" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C155">
-        <v>101.29</v>
+        <v>98.328</v>
       </c>
       <c r="D155" t="s">
         <v>607</v>
@@ -4850,7 +4850,7 @@
         <v>606</v>
       </c>
       <c r="C156">
-        <v>101.56</v>
+        <v>101.565</v>
       </c>
       <c r="D156" t="s">
         <v>607</v>
@@ -4867,7 +4867,7 @@
         <v>606</v>
       </c>
       <c r="C157">
-        <v>101.99</v>
+        <v>101.932</v>
       </c>
       <c r="D157" t="s">
         <v>607</v>
@@ -4881,10 +4881,10 @@
         <v>161</v>
       </c>
       <c r="B158" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C158">
-        <v>100.156</v>
+        <v>98.914</v>
       </c>
       <c r="D158" t="s">
         <v>607</v>
@@ -4901,7 +4901,7 @@
         <v>606</v>
       </c>
       <c r="C159">
-        <v>100.572</v>
+        <v>100.369</v>
       </c>
       <c r="D159" t="s">
         <v>607</v>
@@ -4918,7 +4918,7 @@
         <v>606</v>
       </c>
       <c r="C160">
-        <v>103.274</v>
+        <v>102.279</v>
       </c>
       <c r="D160" t="s">
         <v>607</v>
@@ -4935,7 +4935,7 @@
         <v>606</v>
       </c>
       <c r="C161">
-        <v>105.174</v>
+        <v>103.564</v>
       </c>
       <c r="D161" t="s">
         <v>607</v>
@@ -4949,10 +4949,10 @@
         <v>165</v>
       </c>
       <c r="B162" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C162">
-        <v>101.692</v>
+        <v>98.69</v>
       </c>
       <c r="D162" t="s">
         <v>607</v>
@@ -4969,7 +4969,7 @@
         <v>605</v>
       </c>
       <c r="C163">
-        <v>98.89</v>
+        <v>99.67700000000001</v>
       </c>
       <c r="D163" t="s">
         <v>607</v>
@@ -4986,7 +4986,7 @@
         <v>606</v>
       </c>
       <c r="C164">
-        <v>101.606</v>
+        <v>100.914</v>
       </c>
       <c r="D164" t="s">
         <v>607</v>
@@ -5000,10 +5000,10 @@
         <v>168</v>
       </c>
       <c r="B165" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C165">
-        <v>102.237</v>
+        <v>99.86199999999999</v>
       </c>
       <c r="D165" t="s">
         <v>607</v>
@@ -5017,10 +5017,10 @@
         <v>169</v>
       </c>
       <c r="B166" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C166">
-        <v>102.469</v>
+        <v>99.934</v>
       </c>
       <c r="D166" t="s">
         <v>607</v>
@@ -5037,7 +5037,7 @@
         <v>606</v>
       </c>
       <c r="C167">
-        <v>108.461</v>
+        <v>106.042</v>
       </c>
       <c r="D167" t="s">
         <v>607</v>
@@ -5051,10 +5051,10 @@
         <v>171</v>
       </c>
       <c r="B168" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C168">
-        <v>100.874</v>
+        <v>99.622</v>
       </c>
       <c r="D168" t="s">
         <v>607</v>
@@ -5071,7 +5071,7 @@
         <v>605</v>
       </c>
       <c r="C169">
-        <v>97.736</v>
+        <v>95.161</v>
       </c>
       <c r="D169" t="s">
         <v>607</v>
@@ -5088,7 +5088,7 @@
         <v>606</v>
       </c>
       <c r="C170">
-        <v>100.961</v>
+        <v>101.259</v>
       </c>
       <c r="D170" t="s">
         <v>607</v>
@@ -5105,7 +5105,7 @@
         <v>606</v>
       </c>
       <c r="C171">
-        <v>101.057</v>
+        <v>101.997</v>
       </c>
       <c r="D171" t="s">
         <v>607</v>
@@ -5122,7 +5122,7 @@
         <v>606</v>
       </c>
       <c r="C172">
-        <v>103.606</v>
+        <v>101.665</v>
       </c>
       <c r="D172" t="s">
         <v>607</v>
@@ -5139,7 +5139,7 @@
         <v>606</v>
       </c>
       <c r="C173">
-        <v>102.109</v>
+        <v>101.293</v>
       </c>
       <c r="D173" t="s">
         <v>607</v>
@@ -5156,7 +5156,7 @@
         <v>606</v>
       </c>
       <c r="C174">
-        <v>103.792</v>
+        <v>103.028</v>
       </c>
       <c r="D174" t="s">
         <v>607</v>
@@ -5170,10 +5170,10 @@
         <v>178</v>
       </c>
       <c r="B175" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C175">
-        <v>99.831</v>
+        <v>105.953</v>
       </c>
       <c r="D175" t="s">
         <v>607</v>
@@ -5190,7 +5190,7 @@
         <v>606</v>
       </c>
       <c r="C176">
-        <v>103.797</v>
+        <v>113.301</v>
       </c>
       <c r="D176" t="s">
         <v>607</v>
@@ -5207,7 +5207,7 @@
         <v>606</v>
       </c>
       <c r="C177">
-        <v>103.477</v>
+        <v>105.521</v>
       </c>
       <c r="D177" t="s">
         <v>607</v>
@@ -5224,7 +5224,7 @@
         <v>606</v>
       </c>
       <c r="C178">
-        <v>102.9</v>
+        <v>104.219</v>
       </c>
       <c r="D178" t="s">
         <v>607</v>
@@ -5241,7 +5241,7 @@
         <v>605</v>
       </c>
       <c r="C179">
-        <v>95.94199999999999</v>
+        <v>91.926</v>
       </c>
       <c r="D179" t="s">
         <v>607</v>
@@ -5258,7 +5258,7 @@
         <v>606</v>
       </c>
       <c r="C180">
-        <v>103.042</v>
+        <v>101.767</v>
       </c>
       <c r="D180" t="s">
         <v>607</v>
@@ -5275,7 +5275,7 @@
         <v>606</v>
       </c>
       <c r="C181">
-        <v>104.034</v>
+        <v>105.033</v>
       </c>
       <c r="D181" t="s">
         <v>607</v>
@@ -5292,7 +5292,7 @@
         <v>606</v>
       </c>
       <c r="C182">
-        <v>101.882</v>
+        <v>105.492</v>
       </c>
       <c r="D182" t="s">
         <v>607</v>
@@ -5309,7 +5309,7 @@
         <v>606</v>
       </c>
       <c r="C183">
-        <v>100.668</v>
+        <v>101.069</v>
       </c>
       <c r="D183" t="s">
         <v>607</v>
@@ -5323,10 +5323,10 @@
         <v>187</v>
       </c>
       <c r="B184" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C184">
-        <v>100.438</v>
+        <v>97.812</v>
       </c>
       <c r="D184" t="s">
         <v>607</v>
@@ -5343,7 +5343,7 @@
         <v>606</v>
       </c>
       <c r="C185">
-        <v>100.932</v>
+        <v>100.625</v>
       </c>
       <c r="D185" t="s">
         <v>607</v>
@@ -5360,7 +5360,7 @@
         <v>606</v>
       </c>
       <c r="C186">
-        <v>109.929</v>
+        <v>110.209</v>
       </c>
       <c r="D186" t="s">
         <v>607</v>
@@ -5374,10 +5374,10 @@
         <v>190</v>
       </c>
       <c r="B187" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C187">
-        <v>99.301</v>
+        <v>105.833</v>
       </c>
       <c r="D187" t="s">
         <v>607</v>
@@ -5394,7 +5394,7 @@
         <v>606</v>
       </c>
       <c r="C188">
-        <v>100.271</v>
+        <v>101.776</v>
       </c>
       <c r="D188" t="s">
         <v>607</v>
@@ -5411,7 +5411,7 @@
         <v>606</v>
       </c>
       <c r="C189">
-        <v>105.013</v>
+        <v>104.419</v>
       </c>
       <c r="D189" t="s">
         <v>607</v>
@@ -5428,7 +5428,7 @@
         <v>605</v>
       </c>
       <c r="C190">
-        <v>97.682</v>
+        <v>95.52200000000001</v>
       </c>
       <c r="D190" t="s">
         <v>607</v>
@@ -5442,10 +5442,10 @@
         <v>194</v>
       </c>
       <c r="B191" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C191">
-        <v>103.217</v>
+        <v>99.626</v>
       </c>
       <c r="D191" t="s">
         <v>607</v>
@@ -5462,7 +5462,7 @@
         <v>606</v>
       </c>
       <c r="C192">
-        <v>104.702</v>
+        <v>102.152</v>
       </c>
       <c r="D192" t="s">
         <v>607</v>
@@ -5479,7 +5479,7 @@
         <v>606</v>
       </c>
       <c r="C193">
-        <v>102.461</v>
+        <v>101.502</v>
       </c>
       <c r="D193" t="s">
         <v>607</v>
@@ -5496,7 +5496,7 @@
         <v>606</v>
       </c>
       <c r="C194">
-        <v>101.112</v>
+        <v>101.258</v>
       </c>
       <c r="D194" t="s">
         <v>607</v>
@@ -5513,7 +5513,7 @@
         <v>606</v>
       </c>
       <c r="C195">
-        <v>101.806</v>
+        <v>102.187</v>
       </c>
       <c r="D195" t="s">
         <v>607</v>
@@ -5530,7 +5530,7 @@
         <v>606</v>
       </c>
       <c r="C196">
-        <v>101.875</v>
+        <v>103.868</v>
       </c>
       <c r="D196" t="s">
         <v>607</v>
@@ -5547,7 +5547,7 @@
         <v>606</v>
       </c>
       <c r="C197">
-        <v>102.624</v>
+        <v>103.603</v>
       </c>
       <c r="D197" t="s">
         <v>607</v>
@@ -5561,10 +5561,10 @@
         <v>201</v>
       </c>
       <c r="B198" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C198">
-        <v>102.162</v>
+        <v>99.895</v>
       </c>
       <c r="D198" t="s">
         <v>607</v>
@@ -5581,7 +5581,7 @@
         <v>606</v>
       </c>
       <c r="C199">
-        <v>104.703</v>
+        <v>102.987</v>
       </c>
       <c r="D199" t="s">
         <v>607</v>
@@ -5598,7 +5598,7 @@
         <v>605</v>
       </c>
       <c r="C200">
-        <v>99.56</v>
+        <v>97.13500000000001</v>
       </c>
       <c r="D200" t="s">
         <v>607</v>
@@ -5615,7 +5615,7 @@
         <v>606</v>
       </c>
       <c r="C201">
-        <v>111.297</v>
+        <v>113.671</v>
       </c>
       <c r="D201" t="s">
         <v>607</v>
@@ -5632,7 +5632,7 @@
         <v>606</v>
       </c>
       <c r="C202">
-        <v>103.998</v>
+        <v>107.63</v>
       </c>
       <c r="D202" t="s">
         <v>607</v>
@@ -5649,7 +5649,7 @@
         <v>606</v>
       </c>
       <c r="C203">
-        <v>105.917</v>
+        <v>102.937</v>
       </c>
       <c r="D203" t="s">
         <v>607</v>
@@ -5666,7 +5666,7 @@
         <v>606</v>
       </c>
       <c r="C204">
-        <v>104.556</v>
+        <v>105.245</v>
       </c>
       <c r="D204" t="s">
         <v>607</v>
@@ -5680,10 +5680,10 @@
         <v>208</v>
       </c>
       <c r="B205" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C205">
-        <v>97.673</v>
+        <v>103.634</v>
       </c>
       <c r="D205" t="s">
         <v>607</v>
@@ -5700,7 +5700,7 @@
         <v>605</v>
       </c>
       <c r="C206">
-        <v>99.12</v>
+        <v>97.568</v>
       </c>
       <c r="D206" t="s">
         <v>607</v>
@@ -5714,10 +5714,10 @@
         <v>210</v>
       </c>
       <c r="B207" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C207">
-        <v>99.66500000000001</v>
+        <v>101.889</v>
       </c>
       <c r="D207" t="s">
         <v>607</v>
@@ -5734,7 +5734,7 @@
         <v>605</v>
       </c>
       <c r="C208">
-        <v>95.54300000000001</v>
+        <v>99.73099999999999</v>
       </c>
       <c r="D208" t="s">
         <v>607</v>
@@ -5751,7 +5751,7 @@
         <v>606</v>
       </c>
       <c r="C209">
-        <v>103.7</v>
+        <v>102.397</v>
       </c>
       <c r="D209" t="s">
         <v>607</v>
@@ -5768,7 +5768,7 @@
         <v>606</v>
       </c>
       <c r="C210">
-        <v>101.323</v>
+        <v>101.981</v>
       </c>
       <c r="D210" t="s">
         <v>607</v>
@@ -5782,10 +5782,10 @@
         <v>214</v>
       </c>
       <c r="B211" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C211">
-        <v>100.32</v>
+        <v>99.721</v>
       </c>
       <c r="D211" t="s">
         <v>607</v>
@@ -5802,7 +5802,7 @@
         <v>606</v>
       </c>
       <c r="C212">
-        <v>102.68</v>
+        <v>105.221</v>
       </c>
       <c r="D212" t="s">
         <v>607</v>
@@ -5816,10 +5816,10 @@
         <v>216</v>
       </c>
       <c r="B213" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C213">
-        <v>100.611</v>
+        <v>96.84399999999999</v>
       </c>
       <c r="D213" t="s">
         <v>607</v>
@@ -5836,7 +5836,7 @@
         <v>606</v>
       </c>
       <c r="C214">
-        <v>106.092</v>
+        <v>105.796</v>
       </c>
       <c r="D214" t="s">
         <v>607</v>
@@ -5853,7 +5853,7 @@
         <v>606</v>
       </c>
       <c r="C215">
-        <v>108.282</v>
+        <v>104.952</v>
       </c>
       <c r="D215" t="s">
         <v>607</v>
@@ -5870,7 +5870,7 @@
         <v>605</v>
       </c>
       <c r="C216">
-        <v>98.97799999999999</v>
+        <v>99.36499999999999</v>
       </c>
       <c r="D216" t="s">
         <v>607</v>
@@ -5884,10 +5884,10 @@
         <v>220</v>
       </c>
       <c r="B217" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C217">
-        <v>100.941</v>
+        <v>99.645</v>
       </c>
       <c r="D217" t="s">
         <v>607</v>
@@ -5901,10 +5901,10 @@
         <v>221</v>
       </c>
       <c r="B218" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C218">
-        <v>100.593</v>
+        <v>99.84099999999999</v>
       </c>
       <c r="D218" t="s">
         <v>607</v>
@@ -5921,7 +5921,7 @@
         <v>606</v>
       </c>
       <c r="C219">
-        <v>110.556</v>
+        <v>110.861</v>
       </c>
       <c r="D219" t="s">
         <v>607</v>
@@ -5938,7 +5938,7 @@
         <v>606</v>
       </c>
       <c r="C220">
-        <v>103.897</v>
+        <v>102.632</v>
       </c>
       <c r="D220" t="s">
         <v>607</v>
@@ -5955,7 +5955,7 @@
         <v>606</v>
       </c>
       <c r="C221">
-        <v>102.759</v>
+        <v>100.239</v>
       </c>
       <c r="D221" t="s">
         <v>607</v>
@@ -5972,7 +5972,7 @@
         <v>605</v>
       </c>
       <c r="C222">
-        <v>99.425</v>
+        <v>99.04600000000001</v>
       </c>
       <c r="D222" t="s">
         <v>607</v>
@@ -5989,7 +5989,7 @@
         <v>605</v>
       </c>
       <c r="C223">
-        <v>99.035</v>
+        <v>97.764</v>
       </c>
       <c r="D223" t="s">
         <v>607</v>
@@ -6006,7 +6006,7 @@
         <v>606</v>
       </c>
       <c r="C224">
-        <v>104.362</v>
+        <v>105.714</v>
       </c>
       <c r="D224" t="s">
         <v>607</v>
@@ -6020,10 +6020,10 @@
         <v>228</v>
       </c>
       <c r="B225" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C225">
-        <v>101.1</v>
+        <v>99.184</v>
       </c>
       <c r="D225" t="s">
         <v>607</v>
@@ -6040,7 +6040,7 @@
         <v>606</v>
       </c>
       <c r="C226">
-        <v>105.805</v>
+        <v>105.445</v>
       </c>
       <c r="D226" t="s">
         <v>607</v>
@@ -6057,7 +6057,7 @@
         <v>605</v>
       </c>
       <c r="C227">
-        <v>99.75</v>
+        <v>98.262</v>
       </c>
       <c r="D227" t="s">
         <v>607</v>
@@ -6074,7 +6074,7 @@
         <v>606</v>
       </c>
       <c r="C228">
-        <v>105.733</v>
+        <v>104.412</v>
       </c>
       <c r="D228" t="s">
         <v>607</v>
@@ -6091,7 +6091,7 @@
         <v>606</v>
       </c>
       <c r="C229">
-        <v>102.526</v>
+        <v>101.03</v>
       </c>
       <c r="D229" t="s">
         <v>607</v>
@@ -6108,7 +6108,7 @@
         <v>606</v>
       </c>
       <c r="C230">
-        <v>101.388</v>
+        <v>100.182</v>
       </c>
       <c r="D230" t="s">
         <v>607</v>
@@ -6122,10 +6122,10 @@
         <v>234</v>
       </c>
       <c r="B231" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C231">
-        <v>100.579</v>
+        <v>99.874</v>
       </c>
       <c r="D231" t="s">
         <v>607</v>
@@ -6142,7 +6142,7 @@
         <v>605</v>
       </c>
       <c r="C232">
-        <v>99.83799999999999</v>
+        <v>98.559</v>
       </c>
       <c r="D232" t="s">
         <v>607</v>
@@ -6156,10 +6156,10 @@
         <v>236</v>
       </c>
       <c r="B233" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C233">
-        <v>98.976</v>
+        <v>100.014</v>
       </c>
       <c r="D233" t="s">
         <v>607</v>
@@ -6173,10 +6173,10 @@
         <v>237</v>
       </c>
       <c r="B234" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C234">
-        <v>101.035</v>
+        <v>97.914</v>
       </c>
       <c r="D234" t="s">
         <v>607</v>
@@ -6193,7 +6193,7 @@
         <v>606</v>
       </c>
       <c r="C235">
-        <v>103.215</v>
+        <v>104.358</v>
       </c>
       <c r="D235" t="s">
         <v>607</v>
@@ -6210,7 +6210,7 @@
         <v>606</v>
       </c>
       <c r="C236">
-        <v>100.68</v>
+        <v>101.18</v>
       </c>
       <c r="D236" t="s">
         <v>607</v>
@@ -6227,7 +6227,7 @@
         <v>605</v>
       </c>
       <c r="C237">
-        <v>95.902</v>
+        <v>98.492</v>
       </c>
       <c r="D237" t="s">
         <v>607</v>
@@ -6244,7 +6244,7 @@
         <v>606</v>
       </c>
       <c r="C238">
-        <v>103.905</v>
+        <v>102.66</v>
       </c>
       <c r="D238" t="s">
         <v>607</v>
@@ -6261,7 +6261,7 @@
         <v>606</v>
       </c>
       <c r="C239">
-        <v>104.866</v>
+        <v>103.12</v>
       </c>
       <c r="D239" t="s">
         <v>607</v>
@@ -6278,7 +6278,7 @@
         <v>606</v>
       </c>
       <c r="C240">
-        <v>100.523</v>
+        <v>102.206</v>
       </c>
       <c r="D240" t="s">
         <v>607</v>
@@ -6295,7 +6295,7 @@
         <v>606</v>
       </c>
       <c r="C241">
-        <v>104.819</v>
+        <v>104.752</v>
       </c>
       <c r="D241" t="s">
         <v>607</v>
@@ -6312,7 +6312,7 @@
         <v>606</v>
       </c>
       <c r="C242">
-        <v>105.098</v>
+        <v>104.417</v>
       </c>
       <c r="D242" t="s">
         <v>607</v>
@@ -6329,7 +6329,7 @@
         <v>605</v>
       </c>
       <c r="C243">
-        <v>98.79300000000001</v>
+        <v>98.497</v>
       </c>
       <c r="D243" t="s">
         <v>607</v>
@@ -6346,7 +6346,7 @@
         <v>606</v>
       </c>
       <c r="C244">
-        <v>107.496</v>
+        <v>104.987</v>
       </c>
       <c r="D244" t="s">
         <v>607</v>
@@ -6363,7 +6363,7 @@
         <v>606</v>
       </c>
       <c r="C245">
-        <v>108.735</v>
+        <v>109.929</v>
       </c>
       <c r="D245" t="s">
         <v>607</v>
@@ -6380,7 +6380,7 @@
         <v>606</v>
       </c>
       <c r="C246">
-        <v>102.133</v>
+        <v>102.566</v>
       </c>
       <c r="D246" t="s">
         <v>607</v>
@@ -6397,7 +6397,7 @@
         <v>606</v>
       </c>
       <c r="C247">
-        <v>102.046</v>
+        <v>101.722</v>
       </c>
       <c r="D247" t="s">
         <v>607</v>
@@ -6414,7 +6414,7 @@
         <v>606</v>
       </c>
       <c r="C248">
-        <v>107.732</v>
+        <v>105.347</v>
       </c>
       <c r="D248" t="s">
         <v>607</v>
@@ -6431,7 +6431,7 @@
         <v>605</v>
       </c>
       <c r="C249">
-        <v>98.316</v>
+        <v>97.294</v>
       </c>
       <c r="D249" t="s">
         <v>607</v>
@@ -6448,7 +6448,7 @@
         <v>606</v>
       </c>
       <c r="C250">
-        <v>102.292</v>
+        <v>100.788</v>
       </c>
       <c r="D250" t="s">
         <v>607</v>
@@ -6465,7 +6465,7 @@
         <v>606</v>
       </c>
       <c r="C251">
-        <v>101.779</v>
+        <v>101.323</v>
       </c>
       <c r="D251" t="s">
         <v>607</v>
@@ -6482,7 +6482,7 @@
         <v>606</v>
       </c>
       <c r="C252">
-        <v>101.418</v>
+        <v>103.1</v>
       </c>
       <c r="D252" t="s">
         <v>607</v>
@@ -6499,7 +6499,7 @@
         <v>605</v>
       </c>
       <c r="C253">
-        <v>97.92</v>
+        <v>99.48399999999999</v>
       </c>
       <c r="D253" t="s">
         <v>607</v>
@@ -6516,7 +6516,7 @@
         <v>606</v>
       </c>
       <c r="C254">
-        <v>103.335</v>
+        <v>104.752</v>
       </c>
       <c r="D254" t="s">
         <v>607</v>
@@ -6530,10 +6530,10 @@
         <v>258</v>
       </c>
       <c r="B255" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C255">
-        <v>99.645</v>
+        <v>100.429</v>
       </c>
       <c r="D255" t="s">
         <v>607</v>
@@ -6550,7 +6550,7 @@
         <v>606</v>
       </c>
       <c r="C256">
-        <v>100.935</v>
+        <v>100.142</v>
       </c>
       <c r="D256" t="s">
         <v>607</v>
@@ -6567,7 +6567,7 @@
         <v>606</v>
       </c>
       <c r="C257">
-        <v>104.098</v>
+        <v>105.021</v>
       </c>
       <c r="D257" t="s">
         <v>607</v>
@@ -6584,7 +6584,7 @@
         <v>605</v>
       </c>
       <c r="C258">
-        <v>96.94499999999999</v>
+        <v>97.26000000000001</v>
       </c>
       <c r="D258" t="s">
         <v>607</v>
@@ -6598,10 +6598,10 @@
         <v>262</v>
       </c>
       <c r="B259" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C259">
-        <v>100.169</v>
+        <v>97.505</v>
       </c>
       <c r="D259" t="s">
         <v>607</v>
@@ -6618,7 +6618,7 @@
         <v>606</v>
       </c>
       <c r="C260">
-        <v>101.231</v>
+        <v>103.164</v>
       </c>
       <c r="D260" t="s">
         <v>607</v>
@@ -6632,10 +6632,10 @@
         <v>264</v>
       </c>
       <c r="B261" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C261">
-        <v>101.264</v>
+        <v>99.63</v>
       </c>
       <c r="D261" t="s">
         <v>607</v>
@@ -6652,7 +6652,7 @@
         <v>606</v>
       </c>
       <c r="C262">
-        <v>109.276</v>
+        <v>112.418</v>
       </c>
       <c r="D262" t="s">
         <v>607</v>
@@ -6669,7 +6669,7 @@
         <v>606</v>
       </c>
       <c r="C263">
-        <v>113.928</v>
+        <v>113.488</v>
       </c>
       <c r="D263" t="s">
         <v>607</v>
@@ -6686,7 +6686,7 @@
         <v>606</v>
       </c>
       <c r="C264">
-        <v>104.813</v>
+        <v>104.557</v>
       </c>
       <c r="D264" t="s">
         <v>607</v>
@@ -6703,7 +6703,7 @@
         <v>606</v>
       </c>
       <c r="C265">
-        <v>102.465</v>
+        <v>101.504</v>
       </c>
       <c r="D265" t="s">
         <v>607</v>
@@ -6720,7 +6720,7 @@
         <v>606</v>
       </c>
       <c r="C266">
-        <v>107.038</v>
+        <v>109.748</v>
       </c>
       <c r="D266" t="s">
         <v>607</v>
@@ -6737,7 +6737,7 @@
         <v>606</v>
       </c>
       <c r="C267">
-        <v>102.14</v>
+        <v>102.199</v>
       </c>
       <c r="D267" t="s">
         <v>607</v>
@@ -6754,7 +6754,7 @@
         <v>606</v>
       </c>
       <c r="C268">
-        <v>101.025</v>
+        <v>101.371</v>
       </c>
       <c r="D268" t="s">
         <v>607</v>
@@ -6771,7 +6771,7 @@
         <v>606</v>
       </c>
       <c r="C269">
-        <v>104.998</v>
+        <v>101.424</v>
       </c>
       <c r="D269" t="s">
         <v>607</v>
@@ -6788,7 +6788,7 @@
         <v>606</v>
       </c>
       <c r="C270">
-        <v>105.484</v>
+        <v>109.265</v>
       </c>
       <c r="D270" t="s">
         <v>607</v>
@@ -6805,7 +6805,7 @@
         <v>605</v>
       </c>
       <c r="C271">
-        <v>98.373</v>
+        <v>97.43899999999999</v>
       </c>
       <c r="D271" t="s">
         <v>607</v>
@@ -6822,7 +6822,7 @@
         <v>606</v>
       </c>
       <c r="C272">
-        <v>101.814</v>
+        <v>100.521</v>
       </c>
       <c r="D272" t="s">
         <v>607</v>
@@ -6839,7 +6839,7 @@
         <v>606</v>
       </c>
       <c r="C273">
-        <v>108.54</v>
+        <v>106.952</v>
       </c>
       <c r="D273" t="s">
         <v>607</v>
@@ -6856,7 +6856,7 @@
         <v>606</v>
       </c>
       <c r="C274">
-        <v>100.41</v>
+        <v>100.555</v>
       </c>
       <c r="D274" t="s">
         <v>607</v>
@@ -6873,7 +6873,7 @@
         <v>606</v>
       </c>
       <c r="C275">
-        <v>100.721</v>
+        <v>104.347</v>
       </c>
       <c r="D275" t="s">
         <v>607</v>
@@ -6890,7 +6890,7 @@
         <v>606</v>
       </c>
       <c r="C276">
-        <v>105.085</v>
+        <v>102.552</v>
       </c>
       <c r="D276" t="s">
         <v>607</v>
@@ -6907,7 +6907,7 @@
         <v>606</v>
       </c>
       <c r="C277">
-        <v>109.34</v>
+        <v>100.464</v>
       </c>
       <c r="D277" t="s">
         <v>607</v>
@@ -6921,10 +6921,10 @@
         <v>281</v>
       </c>
       <c r="B278" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C278">
-        <v>100.362</v>
+        <v>98.764</v>
       </c>
       <c r="D278" t="s">
         <v>607</v>
@@ -6941,7 +6941,7 @@
         <v>606</v>
       </c>
       <c r="C279">
-        <v>101.192</v>
+        <v>108.144</v>
       </c>
       <c r="D279" t="s">
         <v>607</v>
@@ -6955,10 +6955,10 @@
         <v>283</v>
       </c>
       <c r="B280" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C280">
-        <v>99.839</v>
+        <v>101.57</v>
       </c>
       <c r="D280" t="s">
         <v>607</v>
@@ -6975,7 +6975,7 @@
         <v>606</v>
       </c>
       <c r="C281">
-        <v>102.904</v>
+        <v>102.462</v>
       </c>
       <c r="D281" t="s">
         <v>607</v>
@@ -6992,7 +6992,7 @@
         <v>605</v>
       </c>
       <c r="C282">
-        <v>97.789</v>
+        <v>98.81100000000001</v>
       </c>
       <c r="D282" t="s">
         <v>607</v>
@@ -7009,7 +7009,7 @@
         <v>605</v>
       </c>
       <c r="C283">
-        <v>97.443</v>
+        <v>97.971</v>
       </c>
       <c r="D283" t="s">
         <v>607</v>
@@ -7026,7 +7026,7 @@
         <v>606</v>
       </c>
       <c r="C284">
-        <v>103.352</v>
+        <v>102.186</v>
       </c>
       <c r="D284" t="s">
         <v>607</v>
@@ -7043,7 +7043,7 @@
         <v>605</v>
       </c>
       <c r="C285">
-        <v>99.08</v>
+        <v>98.807</v>
       </c>
       <c r="D285" t="s">
         <v>607</v>
@@ -7060,7 +7060,7 @@
         <v>606</v>
       </c>
       <c r="C286">
-        <v>100.576</v>
+        <v>103.068</v>
       </c>
       <c r="D286" t="s">
         <v>607</v>
@@ -7077,7 +7077,7 @@
         <v>605</v>
       </c>
       <c r="C287">
-        <v>98.018</v>
+        <v>95.255</v>
       </c>
       <c r="D287" t="s">
         <v>607</v>
@@ -7094,7 +7094,7 @@
         <v>605</v>
       </c>
       <c r="C288">
-        <v>99.43899999999999</v>
+        <v>97.21899999999999</v>
       </c>
       <c r="D288" t="s">
         <v>607</v>
@@ -7108,10 +7108,10 @@
         <v>292</v>
       </c>
       <c r="B289" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C289">
-        <v>101.565</v>
+        <v>99.68000000000001</v>
       </c>
       <c r="D289" t="s">
         <v>607</v>
@@ -7128,7 +7128,7 @@
         <v>606</v>
       </c>
       <c r="C290">
-        <v>103.362</v>
+        <v>101.98</v>
       </c>
       <c r="D290" t="s">
         <v>607</v>
@@ -7145,7 +7145,7 @@
         <v>606</v>
       </c>
       <c r="C291">
-        <v>101.494</v>
+        <v>102.044</v>
       </c>
       <c r="D291" t="s">
         <v>607</v>
@@ -7162,7 +7162,7 @@
         <v>605</v>
       </c>
       <c r="C292">
-        <v>96.758</v>
+        <v>98.52500000000001</v>
       </c>
       <c r="D292" t="s">
         <v>607</v>
@@ -7179,7 +7179,7 @@
         <v>606</v>
       </c>
       <c r="C293">
-        <v>106.783</v>
+        <v>107.79</v>
       </c>
       <c r="D293" t="s">
         <v>607</v>
@@ -7196,7 +7196,7 @@
         <v>606</v>
       </c>
       <c r="C294">
-        <v>101.876</v>
+        <v>101.608</v>
       </c>
       <c r="D294" t="s">
         <v>607</v>
@@ -7213,7 +7213,7 @@
         <v>606</v>
       </c>
       <c r="C295">
-        <v>101.791</v>
+        <v>104.21</v>
       </c>
       <c r="D295" t="s">
         <v>607</v>
@@ -7230,7 +7230,7 @@
         <v>606</v>
       </c>
       <c r="C296">
-        <v>106.736</v>
+        <v>105.302</v>
       </c>
       <c r="D296" t="s">
         <v>607</v>
@@ -7247,7 +7247,7 @@
         <v>606</v>
       </c>
       <c r="C297">
-        <v>102.557</v>
+        <v>103.347</v>
       </c>
       <c r="D297" t="s">
         <v>607</v>
@@ -7264,7 +7264,7 @@
         <v>606</v>
       </c>
       <c r="C298">
-        <v>100.114</v>
+        <v>102.319</v>
       </c>
       <c r="D298" t="s">
         <v>607</v>
@@ -7281,7 +7281,7 @@
         <v>606</v>
       </c>
       <c r="C299">
-        <v>105.82</v>
+        <v>103.86</v>
       </c>
       <c r="D299" t="s">
         <v>607</v>
@@ -7298,7 +7298,7 @@
         <v>606</v>
       </c>
       <c r="C300">
-        <v>102.941</v>
+        <v>102.35</v>
       </c>
       <c r="D300" t="s">
         <v>607</v>
@@ -7315,7 +7315,7 @@
         <v>606</v>
       </c>
       <c r="C301">
-        <v>100.288</v>
+        <v>100.76</v>
       </c>
       <c r="D301" t="s">
         <v>607</v>
@@ -7332,7 +7332,7 @@
         <v>606</v>
       </c>
       <c r="C302">
-        <v>101.692</v>
+        <v>100.775</v>
       </c>
       <c r="D302" t="s">
         <v>607</v>
@@ -7349,7 +7349,7 @@
         <v>606</v>
       </c>
       <c r="C303">
-        <v>104.244</v>
+        <v>106.339</v>
       </c>
       <c r="D303" t="s">
         <v>607</v>
@@ -7363,10 +7363,10 @@
         <v>307</v>
       </c>
       <c r="B304" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C304">
-        <v>98.988</v>
+        <v>104.915</v>
       </c>
       <c r="D304" t="s">
         <v>607</v>
@@ -7383,7 +7383,7 @@
         <v>606</v>
       </c>
       <c r="C305">
-        <v>100.32</v>
+        <v>100.77</v>
       </c>
       <c r="D305" t="s">
         <v>607</v>
@@ -7400,7 +7400,7 @@
         <v>606</v>
       </c>
       <c r="C306">
-        <v>104.011</v>
+        <v>102.671</v>
       </c>
       <c r="D306" t="s">
         <v>607</v>
@@ -7417,7 +7417,7 @@
         <v>605</v>
       </c>
       <c r="C307">
-        <v>96.38800000000001</v>
+        <v>96.629</v>
       </c>
       <c r="D307" t="s">
         <v>607</v>
@@ -7434,7 +7434,7 @@
         <v>606</v>
       </c>
       <c r="C308">
-        <v>101.297</v>
+        <v>108.54</v>
       </c>
       <c r="D308" t="s">
         <v>607</v>
@@ -7451,7 +7451,7 @@
         <v>606</v>
       </c>
       <c r="C309">
-        <v>105.809</v>
+        <v>103.851</v>
       </c>
       <c r="D309" t="s">
         <v>607</v>
@@ -7468,7 +7468,7 @@
         <v>606</v>
       </c>
       <c r="C310">
-        <v>109.621</v>
+        <v>106.591</v>
       </c>
       <c r="D310" t="s">
         <v>607</v>
@@ -7485,7 +7485,7 @@
         <v>606</v>
       </c>
       <c r="C311">
-        <v>104.22</v>
+        <v>121.395</v>
       </c>
       <c r="D311" t="s">
         <v>607</v>
@@ -7502,7 +7502,7 @@
         <v>606</v>
       </c>
       <c r="C312">
-        <v>106.654</v>
+        <v>106.99</v>
       </c>
       <c r="D312" t="s">
         <v>607</v>
@@ -7519,7 +7519,7 @@
         <v>605</v>
       </c>
       <c r="C313">
-        <v>99.878</v>
+        <v>99.521</v>
       </c>
       <c r="D313" t="s">
         <v>607</v>
@@ -7536,7 +7536,7 @@
         <v>606</v>
       </c>
       <c r="C314">
-        <v>102.604</v>
+        <v>101.008</v>
       </c>
       <c r="D314" t="s">
         <v>607</v>
@@ -7553,7 +7553,7 @@
         <v>606</v>
       </c>
       <c r="C315">
-        <v>101.333</v>
+        <v>103.989</v>
       </c>
       <c r="D315" t="s">
         <v>607</v>
@@ -7570,7 +7570,7 @@
         <v>606</v>
       </c>
       <c r="C316">
-        <v>101.183</v>
+        <v>101.715</v>
       </c>
       <c r="D316" t="s">
         <v>607</v>
@@ -7587,7 +7587,7 @@
         <v>606</v>
       </c>
       <c r="C317">
-        <v>103.617</v>
+        <v>104.29</v>
       </c>
       <c r="D317" t="s">
         <v>607</v>
@@ -7601,10 +7601,10 @@
         <v>321</v>
       </c>
       <c r="B318" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C318">
-        <v>101.176</v>
+        <v>99.547</v>
       </c>
       <c r="D318" t="s">
         <v>607</v>
@@ -7621,7 +7621,7 @@
         <v>606</v>
       </c>
       <c r="C319">
-        <v>105.371</v>
+        <v>101.455</v>
       </c>
       <c r="D319" t="s">
         <v>607</v>
@@ -7635,10 +7635,10 @@
         <v>323</v>
       </c>
       <c r="B320" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C320">
-        <v>100.666</v>
+        <v>98.08</v>
       </c>
       <c r="D320" t="s">
         <v>607</v>
@@ -7655,7 +7655,7 @@
         <v>605</v>
       </c>
       <c r="C321">
-        <v>93.45999999999999</v>
+        <v>99.922</v>
       </c>
       <c r="D321" t="s">
         <v>607</v>
@@ -7672,7 +7672,7 @@
         <v>606</v>
       </c>
       <c r="C322">
-        <v>102.476</v>
+        <v>105.181</v>
       </c>
       <c r="D322" t="s">
         <v>607</v>
@@ -7689,7 +7689,7 @@
         <v>605</v>
       </c>
       <c r="C323">
-        <v>98.31999999999999</v>
+        <v>99.233</v>
       </c>
       <c r="D323" t="s">
         <v>607</v>
@@ -7706,7 +7706,7 @@
         <v>606</v>
       </c>
       <c r="C324">
-        <v>105.435</v>
+        <v>104.789</v>
       </c>
       <c r="D324" t="s">
         <v>607</v>
@@ -7720,10 +7720,10 @@
         <v>328</v>
       </c>
       <c r="B325" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C325">
-        <v>100.628</v>
+        <v>99.18300000000001</v>
       </c>
       <c r="D325" t="s">
         <v>607</v>
@@ -7740,7 +7740,7 @@
         <v>605</v>
       </c>
       <c r="C326">
-        <v>97.62</v>
+        <v>97.858</v>
       </c>
       <c r="D326" t="s">
         <v>607</v>
@@ -7757,7 +7757,7 @@
         <v>605</v>
       </c>
       <c r="C327">
-        <v>98.123</v>
+        <v>99.517</v>
       </c>
       <c r="D327" t="s">
         <v>607</v>
@@ -7771,10 +7771,10 @@
         <v>331</v>
       </c>
       <c r="B328" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C328">
-        <v>100.51</v>
+        <v>99.26900000000001</v>
       </c>
       <c r="D328" t="s">
         <v>607</v>
@@ -7791,7 +7791,7 @@
         <v>606</v>
       </c>
       <c r="C329">
-        <v>119.197</v>
+        <v>114.651</v>
       </c>
       <c r="D329" t="s">
         <v>607</v>
@@ -7808,7 +7808,7 @@
         <v>606</v>
       </c>
       <c r="C330">
-        <v>112.463</v>
+        <v>104.873</v>
       </c>
       <c r="D330" t="s">
         <v>607</v>
@@ -7825,7 +7825,7 @@
         <v>606</v>
       </c>
       <c r="C331">
-        <v>105.627</v>
+        <v>105.03</v>
       </c>
       <c r="D331" t="s">
         <v>607</v>
@@ -7842,7 +7842,7 @@
         <v>606</v>
       </c>
       <c r="C332">
-        <v>101.833</v>
+        <v>102.3</v>
       </c>
       <c r="D332" t="s">
         <v>607</v>
@@ -7859,7 +7859,7 @@
         <v>606</v>
       </c>
       <c r="C333">
-        <v>122.868</v>
+        <v>121.371</v>
       </c>
       <c r="D333" t="s">
         <v>607</v>
@@ -7876,7 +7876,7 @@
         <v>606</v>
       </c>
       <c r="C334">
-        <v>100.177</v>
+        <v>100.179</v>
       </c>
       <c r="D334" t="s">
         <v>607</v>
@@ -7890,10 +7890,10 @@
         <v>338</v>
       </c>
       <c r="B335" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C335">
-        <v>100.548</v>
+        <v>97.482</v>
       </c>
       <c r="D335" t="s">
         <v>607</v>
@@ -7910,7 +7910,7 @@
         <v>606</v>
       </c>
       <c r="C336">
-        <v>105.186</v>
+        <v>102.026</v>
       </c>
       <c r="D336" t="s">
         <v>607</v>
@@ -7927,7 +7927,7 @@
         <v>606</v>
       </c>
       <c r="C337">
-        <v>104.394</v>
+        <v>103.793</v>
       </c>
       <c r="D337" t="s">
         <v>607</v>
@@ -7944,7 +7944,7 @@
         <v>606</v>
       </c>
       <c r="C338">
-        <v>104.183</v>
+        <v>102.224</v>
       </c>
       <c r="D338" t="s">
         <v>607</v>
@@ -7958,10 +7958,10 @@
         <v>342</v>
       </c>
       <c r="B339" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C339">
-        <v>99.491</v>
+        <v>100.426</v>
       </c>
       <c r="D339" t="s">
         <v>607</v>
@@ -7978,7 +7978,7 @@
         <v>606</v>
       </c>
       <c r="C340">
-        <v>102.003</v>
+        <v>101.588</v>
       </c>
       <c r="D340" t="s">
         <v>607</v>
@@ -7995,7 +7995,7 @@
         <v>606</v>
       </c>
       <c r="C341">
-        <v>108.108</v>
+        <v>108.022</v>
       </c>
       <c r="D341" t="s">
         <v>607</v>
@@ -8012,7 +8012,7 @@
         <v>605</v>
       </c>
       <c r="C342">
-        <v>98.422</v>
+        <v>98.621</v>
       </c>
       <c r="D342" t="s">
         <v>607</v>
@@ -8029,7 +8029,7 @@
         <v>606</v>
       </c>
       <c r="C343">
-        <v>103.527</v>
+        <v>103.519</v>
       </c>
       <c r="D343" t="s">
         <v>607</v>
@@ -8043,10 +8043,10 @@
         <v>347</v>
       </c>
       <c r="B344" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C344">
-        <v>97.16500000000001</v>
+        <v>101.052</v>
       </c>
       <c r="D344" t="s">
         <v>607</v>
@@ -8063,7 +8063,7 @@
         <v>606</v>
       </c>
       <c r="C345">
-        <v>108.408</v>
+        <v>105.285</v>
       </c>
       <c r="D345" t="s">
         <v>607</v>
@@ -8077,10 +8077,10 @@
         <v>349</v>
       </c>
       <c r="B346" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C346">
-        <v>100.682</v>
+        <v>98.18600000000001</v>
       </c>
       <c r="D346" t="s">
         <v>607</v>
@@ -8097,7 +8097,7 @@
         <v>606</v>
       </c>
       <c r="C347">
-        <v>101.27</v>
+        <v>101.521</v>
       </c>
       <c r="D347" t="s">
         <v>607</v>
@@ -8114,7 +8114,7 @@
         <v>606</v>
       </c>
       <c r="C348">
-        <v>100.962</v>
+        <v>102.072</v>
       </c>
       <c r="D348" t="s">
         <v>607</v>
@@ -8128,10 +8128,10 @@
         <v>352</v>
       </c>
       <c r="B349" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C349">
-        <v>100.088</v>
+        <v>99.624</v>
       </c>
       <c r="D349" t="s">
         <v>607</v>
@@ -8148,7 +8148,7 @@
         <v>606</v>
       </c>
       <c r="C350">
-        <v>106.405</v>
+        <v>104.215</v>
       </c>
       <c r="D350" t="s">
         <v>607</v>
@@ -8165,7 +8165,7 @@
         <v>606</v>
       </c>
       <c r="C351">
-        <v>100.622</v>
+        <v>106.138</v>
       </c>
       <c r="D351" t="s">
         <v>607</v>
@@ -8182,7 +8182,7 @@
         <v>605</v>
       </c>
       <c r="C352">
-        <v>92.81399999999999</v>
+        <v>95.17700000000001</v>
       </c>
       <c r="D352" t="s">
         <v>607</v>
@@ -8199,7 +8199,7 @@
         <v>606</v>
       </c>
       <c r="C353">
-        <v>101.519</v>
+        <v>102.72</v>
       </c>
       <c r="D353" t="s">
         <v>607</v>
@@ -8216,7 +8216,7 @@
         <v>606</v>
       </c>
       <c r="C354">
-        <v>100.633</v>
+        <v>102.422</v>
       </c>
       <c r="D354" t="s">
         <v>607</v>
@@ -8233,7 +8233,7 @@
         <v>605</v>
       </c>
       <c r="C355">
-        <v>98.929</v>
+        <v>99.79900000000001</v>
       </c>
       <c r="D355" t="s">
         <v>607</v>
@@ -8250,7 +8250,7 @@
         <v>606</v>
       </c>
       <c r="C356">
-        <v>102.509</v>
+        <v>102.029</v>
       </c>
       <c r="D356" t="s">
         <v>607</v>
@@ -8267,7 +8267,7 @@
         <v>605</v>
       </c>
       <c r="C357">
-        <v>99.982</v>
+        <v>96.411</v>
       </c>
       <c r="D357" t="s">
         <v>607</v>
@@ -8284,7 +8284,7 @@
         <v>605</v>
       </c>
       <c r="C358">
-        <v>99.81</v>
+        <v>97.283</v>
       </c>
       <c r="D358" t="s">
         <v>607</v>
@@ -8301,7 +8301,7 @@
         <v>606</v>
       </c>
       <c r="C359">
-        <v>100.012</v>
+        <v>101.682</v>
       </c>
       <c r="D359" t="s">
         <v>607</v>
@@ -8318,7 +8318,7 @@
         <v>606</v>
       </c>
       <c r="C360">
-        <v>116.475</v>
+        <v>119.478</v>
       </c>
       <c r="D360" t="s">
         <v>607</v>
@@ -8335,7 +8335,7 @@
         <v>606</v>
       </c>
       <c r="C361">
-        <v>103.39</v>
+        <v>106.597</v>
       </c>
       <c r="D361" t="s">
         <v>607</v>
@@ -8349,10 +8349,10 @@
         <v>365</v>
       </c>
       <c r="B362" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C362">
-        <v>102.593</v>
+        <v>96.91800000000001</v>
       </c>
       <c r="D362" t="s">
         <v>607</v>
@@ -8369,7 +8369,7 @@
         <v>606</v>
       </c>
       <c r="C363">
-        <v>109.882</v>
+        <v>103.405</v>
       </c>
       <c r="D363" t="s">
         <v>607</v>
@@ -8386,7 +8386,7 @@
         <v>606</v>
       </c>
       <c r="C364">
-        <v>100.778</v>
+        <v>103.679</v>
       </c>
       <c r="D364" t="s">
         <v>607</v>
@@ -8403,7 +8403,7 @@
         <v>606</v>
       </c>
       <c r="C365">
-        <v>107.214</v>
+        <v>107.483</v>
       </c>
       <c r="D365" t="s">
         <v>607</v>
@@ -8420,7 +8420,7 @@
         <v>606</v>
       </c>
       <c r="C366">
-        <v>100.595</v>
+        <v>106.328</v>
       </c>
       <c r="D366" t="s">
         <v>607</v>
@@ -8437,7 +8437,7 @@
         <v>606</v>
       </c>
       <c r="C367">
-        <v>101.063</v>
+        <v>100.497</v>
       </c>
       <c r="D367" t="s">
         <v>607</v>
@@ -8454,7 +8454,7 @@
         <v>606</v>
       </c>
       <c r="C368">
-        <v>101.502</v>
+        <v>100.638</v>
       </c>
       <c r="D368" t="s">
         <v>607</v>
@@ -8468,10 +8468,10 @@
         <v>372</v>
       </c>
       <c r="B369" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C369">
-        <v>101.56</v>
+        <v>98.259</v>
       </c>
       <c r="D369" t="s">
         <v>607</v>
@@ -8488,7 +8488,7 @@
         <v>606</v>
       </c>
       <c r="C370">
-        <v>111.015</v>
+        <v>116.172</v>
       </c>
       <c r="D370" t="s">
         <v>607</v>
@@ -8505,7 +8505,7 @@
         <v>606</v>
       </c>
       <c r="C371">
-        <v>100.682</v>
+        <v>106.019</v>
       </c>
       <c r="D371" t="s">
         <v>607</v>
@@ -8522,7 +8522,7 @@
         <v>606</v>
       </c>
       <c r="C372">
-        <v>103.778</v>
+        <v>102.484</v>
       </c>
       <c r="D372" t="s">
         <v>607</v>
@@ -8539,7 +8539,7 @@
         <v>606</v>
       </c>
       <c r="C373">
-        <v>105.275</v>
+        <v>100.818</v>
       </c>
       <c r="D373" t="s">
         <v>607</v>
@@ -8553,10 +8553,10 @@
         <v>377</v>
       </c>
       <c r="B374" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C374">
-        <v>98.349</v>
+        <v>102.567</v>
       </c>
       <c r="D374" t="s">
         <v>607</v>
@@ -8573,7 +8573,7 @@
         <v>606</v>
       </c>
       <c r="C375">
-        <v>119.074</v>
+        <v>118.917</v>
       </c>
       <c r="D375" t="s">
         <v>607</v>
@@ -8590,7 +8590,7 @@
         <v>605</v>
       </c>
       <c r="C376">
-        <v>96.04600000000001</v>
+        <v>98.479</v>
       </c>
       <c r="D376" t="s">
         <v>607</v>
@@ -8604,10 +8604,10 @@
         <v>380</v>
       </c>
       <c r="B377" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C377">
-        <v>100.548</v>
+        <v>98.248</v>
       </c>
       <c r="D377" t="s">
         <v>607</v>
@@ -8624,7 +8624,7 @@
         <v>606</v>
       </c>
       <c r="C378">
-        <v>103.489</v>
+        <v>104.835</v>
       </c>
       <c r="D378" t="s">
         <v>607</v>
@@ -8638,10 +8638,10 @@
         <v>382</v>
       </c>
       <c r="B379" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C379">
-        <v>116.486</v>
+        <v>92.282</v>
       </c>
       <c r="D379" t="s">
         <v>607</v>
@@ -8658,7 +8658,7 @@
         <v>606</v>
       </c>
       <c r="C380">
-        <v>106.178</v>
+        <v>102.25</v>
       </c>
       <c r="D380" t="s">
         <v>607</v>
@@ -8675,7 +8675,7 @@
         <v>606</v>
       </c>
       <c r="C381">
-        <v>107.269</v>
+        <v>107.543</v>
       </c>
       <c r="D381" t="s">
         <v>607</v>
@@ -8692,7 +8692,7 @@
         <v>606</v>
       </c>
       <c r="C382">
-        <v>102.915</v>
+        <v>104.316</v>
       </c>
       <c r="D382" t="s">
         <v>607</v>
@@ -8709,7 +8709,7 @@
         <v>606</v>
       </c>
       <c r="C383">
-        <v>103.766</v>
+        <v>103.001</v>
       </c>
       <c r="D383" t="s">
         <v>607</v>
@@ -8723,10 +8723,10 @@
         <v>387</v>
       </c>
       <c r="B384" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C384">
-        <v>98.80800000000001</v>
+        <v>100.971</v>
       </c>
       <c r="D384" t="s">
         <v>607</v>
@@ -8743,7 +8743,7 @@
         <v>606</v>
       </c>
       <c r="C385">
-        <v>103.764</v>
+        <v>105.172</v>
       </c>
       <c r="D385" t="s">
         <v>607</v>
@@ -8760,7 +8760,7 @@
         <v>606</v>
       </c>
       <c r="C386">
-        <v>100.151</v>
+        <v>100.075</v>
       </c>
       <c r="D386" t="s">
         <v>607</v>
@@ -8777,7 +8777,7 @@
         <v>606</v>
       </c>
       <c r="C387">
-        <v>105.218</v>
+        <v>102.495</v>
       </c>
       <c r="D387" t="s">
         <v>607</v>
@@ -8794,7 +8794,7 @@
         <v>606</v>
       </c>
       <c r="C388">
-        <v>100.097</v>
+        <v>100.683</v>
       </c>
       <c r="D388" t="s">
         <v>607</v>
@@ -8808,10 +8808,10 @@
         <v>392</v>
       </c>
       <c r="B389" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C389">
-        <v>99.575</v>
+        <v>103.218</v>
       </c>
       <c r="D389" t="s">
         <v>607</v>
@@ -8828,7 +8828,7 @@
         <v>606</v>
       </c>
       <c r="C390">
-        <v>100.81</v>
+        <v>101.286</v>
       </c>
       <c r="D390" t="s">
         <v>607</v>
@@ -8845,7 +8845,7 @@
         <v>606</v>
       </c>
       <c r="C391">
-        <v>106.069</v>
+        <v>104.09</v>
       </c>
       <c r="D391" t="s">
         <v>607</v>
@@ -8862,7 +8862,7 @@
         <v>606</v>
       </c>
       <c r="C392">
-        <v>101.381</v>
+        <v>100.327</v>
       </c>
       <c r="D392" t="s">
         <v>607</v>
@@ -8879,7 +8879,7 @@
         <v>606</v>
       </c>
       <c r="C393">
-        <v>103.56</v>
+        <v>104.198</v>
       </c>
       <c r="D393" t="s">
         <v>607</v>
@@ -8893,10 +8893,10 @@
         <v>397</v>
       </c>
       <c r="B394" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C394">
-        <v>100.553</v>
+        <v>99.566</v>
       </c>
       <c r="D394" t="s">
         <v>607</v>
@@ -8913,7 +8913,7 @@
         <v>606</v>
       </c>
       <c r="C395">
-        <v>105.654</v>
+        <v>102.482</v>
       </c>
       <c r="D395" t="s">
         <v>607</v>
@@ -8927,10 +8927,10 @@
         <v>399</v>
       </c>
       <c r="B396" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C396">
-        <v>102.095</v>
+        <v>97.501</v>
       </c>
       <c r="D396" t="s">
         <v>607</v>
@@ -8947,7 +8947,7 @@
         <v>606</v>
       </c>
       <c r="C397">
-        <v>100.222</v>
+        <v>107.727</v>
       </c>
       <c r="D397" t="s">
         <v>607</v>
@@ -8964,7 +8964,7 @@
         <v>606</v>
       </c>
       <c r="C398">
-        <v>106.016</v>
+        <v>106.852</v>
       </c>
       <c r="D398" t="s">
         <v>607</v>
@@ -8981,7 +8981,7 @@
         <v>606</v>
       </c>
       <c r="C399">
-        <v>104.16</v>
+        <v>105.114</v>
       </c>
       <c r="D399" t="s">
         <v>607</v>
@@ -8998,7 +8998,7 @@
         <v>605</v>
       </c>
       <c r="C400">
-        <v>88.608</v>
+        <v>85.163</v>
       </c>
       <c r="D400" t="s">
         <v>607</v>
@@ -9015,7 +9015,7 @@
         <v>606</v>
       </c>
       <c r="C401">
-        <v>106.657</v>
+        <v>101.85</v>
       </c>
       <c r="D401" t="s">
         <v>607</v>
@@ -9029,10 +9029,10 @@
         <v>405</v>
       </c>
       <c r="B402" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C402">
-        <v>106.787</v>
+        <v>99.29600000000001</v>
       </c>
       <c r="D402" t="s">
         <v>607</v>
@@ -9049,7 +9049,7 @@
         <v>605</v>
       </c>
       <c r="C403">
-        <v>98.718</v>
+        <v>98.818</v>
       </c>
       <c r="D403" t="s">
         <v>607</v>
@@ -9066,7 +9066,7 @@
         <v>606</v>
       </c>
       <c r="C404">
-        <v>100.765</v>
+        <v>100.038</v>
       </c>
       <c r="D404" t="s">
         <v>607</v>
@@ -9083,7 +9083,7 @@
         <v>606</v>
       </c>
       <c r="C405">
-        <v>106.237</v>
+        <v>102.87</v>
       </c>
       <c r="D405" t="s">
         <v>607</v>
@@ -9097,10 +9097,10 @@
         <v>409</v>
       </c>
       <c r="B406" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C406">
-        <v>97.905</v>
+        <v>103.225</v>
       </c>
       <c r="D406" t="s">
         <v>607</v>
@@ -9117,7 +9117,7 @@
         <v>606</v>
       </c>
       <c r="C407">
-        <v>100.853</v>
+        <v>105.33</v>
       </c>
       <c r="D407" t="s">
         <v>607</v>
@@ -9131,10 +9131,10 @@
         <v>411</v>
       </c>
       <c r="B408" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C408">
-        <v>100.509</v>
+        <v>99.494</v>
       </c>
       <c r="D408" t="s">
         <v>607</v>
@@ -9151,7 +9151,7 @@
         <v>605</v>
       </c>
       <c r="C409">
-        <v>98.751</v>
+        <v>95.971</v>
       </c>
       <c r="D409" t="s">
         <v>607</v>
@@ -9168,7 +9168,7 @@
         <v>605</v>
       </c>
       <c r="C410">
-        <v>92.248</v>
+        <v>97.583</v>
       </c>
       <c r="D410" t="s">
         <v>607</v>
@@ -9185,7 +9185,7 @@
         <v>606</v>
       </c>
       <c r="C411">
-        <v>103.877</v>
+        <v>102.981</v>
       </c>
       <c r="D411" t="s">
         <v>607</v>
@@ -9202,7 +9202,7 @@
         <v>606</v>
       </c>
       <c r="C412">
-        <v>105.148</v>
+        <v>103.684</v>
       </c>
       <c r="D412" t="s">
         <v>607</v>
@@ -9219,7 +9219,7 @@
         <v>606</v>
       </c>
       <c r="C413">
-        <v>104.182</v>
+        <v>107.675</v>
       </c>
       <c r="D413" t="s">
         <v>607</v>
@@ -9236,7 +9236,7 @@
         <v>605</v>
       </c>
       <c r="C414">
-        <v>96.148</v>
+        <v>98.057</v>
       </c>
       <c r="D414" t="s">
         <v>607</v>
@@ -9250,10 +9250,10 @@
         <v>418</v>
       </c>
       <c r="B415" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C415">
-        <v>99.699</v>
+        <v>100.227</v>
       </c>
       <c r="D415" t="s">
         <v>607</v>
@@ -9270,7 +9270,7 @@
         <v>605</v>
       </c>
       <c r="C416">
-        <v>98.181</v>
+        <v>99.486</v>
       </c>
       <c r="D416" t="s">
         <v>607</v>
@@ -9287,7 +9287,7 @@
         <v>606</v>
       </c>
       <c r="C417">
-        <v>105.33</v>
+        <v>103.341</v>
       </c>
       <c r="D417" t="s">
         <v>607</v>
@@ -9304,7 +9304,7 @@
         <v>605</v>
       </c>
       <c r="C418">
-        <v>96.401</v>
+        <v>92.60899999999999</v>
       </c>
       <c r="D418" t="s">
         <v>607</v>
@@ -9321,7 +9321,7 @@
         <v>606</v>
       </c>
       <c r="C419">
-        <v>103.417</v>
+        <v>102.454</v>
       </c>
       <c r="D419" t="s">
         <v>607</v>
@@ -9335,10 +9335,10 @@
         <v>423</v>
       </c>
       <c r="B420" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C420">
-        <v>100.987</v>
+        <v>99.267</v>
       </c>
       <c r="D420" t="s">
         <v>607</v>
@@ -9355,7 +9355,7 @@
         <v>606</v>
       </c>
       <c r="C421">
-        <v>107.186</v>
+        <v>107.034</v>
       </c>
       <c r="D421" t="s">
         <v>607</v>
@@ -9369,10 +9369,10 @@
         <v>425</v>
       </c>
       <c r="B422" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C422">
-        <v>99.968</v>
+        <v>100.864</v>
       </c>
       <c r="D422" t="s">
         <v>607</v>
@@ -9389,7 +9389,7 @@
         <v>606</v>
       </c>
       <c r="C423">
-        <v>104.548</v>
+        <v>103.122</v>
       </c>
       <c r="D423" t="s">
         <v>607</v>
@@ -9406,7 +9406,7 @@
         <v>606</v>
       </c>
       <c r="C424">
-        <v>104.552</v>
+        <v>103.779</v>
       </c>
       <c r="D424" t="s">
         <v>607</v>
@@ -9423,7 +9423,7 @@
         <v>606</v>
       </c>
       <c r="C425">
-        <v>109.268</v>
+        <v>115.693</v>
       </c>
       <c r="D425" t="s">
         <v>607</v>
@@ -9440,7 +9440,7 @@
         <v>605</v>
       </c>
       <c r="C426">
-        <v>88.81999999999999</v>
+        <v>88.974</v>
       </c>
       <c r="D426" t="s">
         <v>607</v>
@@ -9457,7 +9457,7 @@
         <v>606</v>
       </c>
       <c r="C427">
-        <v>103.868</v>
+        <v>102.342</v>
       </c>
       <c r="D427" t="s">
         <v>607</v>
@@ -9471,10 +9471,10 @@
         <v>431</v>
       </c>
       <c r="B428" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C428">
-        <v>99.61199999999999</v>
+        <v>102.369</v>
       </c>
       <c r="D428" t="s">
         <v>607</v>
@@ -9491,7 +9491,7 @@
         <v>606</v>
       </c>
       <c r="C429">
-        <v>110.323</v>
+        <v>113.452</v>
       </c>
       <c r="D429" t="s">
         <v>607</v>
@@ -9508,7 +9508,7 @@
         <v>606</v>
       </c>
       <c r="C430">
-        <v>100.888</v>
+        <v>101.295</v>
       </c>
       <c r="D430" t="s">
         <v>607</v>
@@ -9525,7 +9525,7 @@
         <v>605</v>
       </c>
       <c r="C431">
-        <v>96.32599999999999</v>
+        <v>96.883</v>
       </c>
       <c r="D431" t="s">
         <v>607</v>
@@ -9542,7 +9542,7 @@
         <v>606</v>
       </c>
       <c r="C432">
-        <v>102.997</v>
+        <v>103.04</v>
       </c>
       <c r="D432" t="s">
         <v>607</v>
@@ -9559,7 +9559,7 @@
         <v>606</v>
       </c>
       <c r="C433">
-        <v>107.928</v>
+        <v>108.366</v>
       </c>
       <c r="D433" t="s">
         <v>607</v>
@@ -9573,10 +9573,10 @@
         <v>437</v>
       </c>
       <c r="B434" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C434">
-        <v>99.65000000000001</v>
+        <v>101.308</v>
       </c>
       <c r="D434" t="s">
         <v>607</v>
@@ -9593,7 +9593,7 @@
         <v>605</v>
       </c>
       <c r="C435">
-        <v>93.161</v>
+        <v>92.018</v>
       </c>
       <c r="D435" t="s">
         <v>607</v>
@@ -9610,7 +9610,7 @@
         <v>606</v>
       </c>
       <c r="C436">
-        <v>106.642</v>
+        <v>101.251</v>
       </c>
       <c r="D436" t="s">
         <v>607</v>
@@ -9624,10 +9624,10 @@
         <v>440</v>
       </c>
       <c r="B437" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C437">
-        <v>101.881</v>
+        <v>97.63</v>
       </c>
       <c r="D437" t="s">
         <v>607</v>
@@ -9644,7 +9644,7 @@
         <v>606</v>
       </c>
       <c r="C438">
-        <v>104.179</v>
+        <v>103.518</v>
       </c>
       <c r="D438" t="s">
         <v>607</v>
@@ -9661,7 +9661,7 @@
         <v>606</v>
       </c>
       <c r="C439">
-        <v>102.23</v>
+        <v>101.855</v>
       </c>
       <c r="D439" t="s">
         <v>607</v>
@@ -9675,10 +9675,10 @@
         <v>443</v>
       </c>
       <c r="B440" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C440">
-        <v>99.626</v>
+        <v>101.342</v>
       </c>
       <c r="D440" t="s">
         <v>607</v>
@@ -9695,7 +9695,7 @@
         <v>606</v>
       </c>
       <c r="C441">
-        <v>104.32</v>
+        <v>103.773</v>
       </c>
       <c r="D441" t="s">
         <v>607</v>
@@ -9712,7 +9712,7 @@
         <v>605</v>
       </c>
       <c r="C442">
-        <v>91.17100000000001</v>
+        <v>88.876</v>
       </c>
       <c r="D442" t="s">
         <v>607</v>
@@ -9726,10 +9726,10 @@
         <v>446</v>
       </c>
       <c r="B443" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C443">
-        <v>102.256</v>
+        <v>96.069</v>
       </c>
       <c r="D443" t="s">
         <v>607</v>
@@ -9746,7 +9746,7 @@
         <v>605</v>
       </c>
       <c r="C444">
-        <v>99.589</v>
+        <v>98.274</v>
       </c>
       <c r="D444" t="s">
         <v>607</v>
@@ -9763,7 +9763,7 @@
         <v>606</v>
       </c>
       <c r="C445">
-        <v>102.585</v>
+        <v>101.111</v>
       </c>
       <c r="D445" t="s">
         <v>607</v>
@@ -9780,7 +9780,7 @@
         <v>606</v>
       </c>
       <c r="C446">
-        <v>104.807</v>
+        <v>104.313</v>
       </c>
       <c r="D446" t="s">
         <v>607</v>
@@ -9797,7 +9797,7 @@
         <v>605</v>
       </c>
       <c r="C447">
-        <v>95.756</v>
+        <v>97.26900000000001</v>
       </c>
       <c r="D447" t="s">
         <v>607</v>
@@ -9814,7 +9814,7 @@
         <v>606</v>
       </c>
       <c r="C448">
-        <v>101.626</v>
+        <v>100.426</v>
       </c>
       <c r="D448" t="s">
         <v>607</v>
@@ -9828,10 +9828,10 @@
         <v>452</v>
       </c>
       <c r="B449" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C449">
-        <v>101.059</v>
+        <v>97.254</v>
       </c>
       <c r="D449" t="s">
         <v>607</v>
@@ -9848,7 +9848,7 @@
         <v>606</v>
       </c>
       <c r="C450">
-        <v>101.219</v>
+        <v>101.244</v>
       </c>
       <c r="D450" t="s">
         <v>607</v>
@@ -9865,7 +9865,7 @@
         <v>605</v>
       </c>
       <c r="C451">
-        <v>96.819</v>
+        <v>95.533</v>
       </c>
       <c r="D451" t="s">
         <v>607</v>
@@ -9882,7 +9882,7 @@
         <v>606</v>
       </c>
       <c r="C452">
-        <v>115.109</v>
+        <v>114.391</v>
       </c>
       <c r="D452" t="s">
         <v>607</v>
@@ -9899,7 +9899,7 @@
         <v>605</v>
       </c>
       <c r="C453">
-        <v>98.352</v>
+        <v>98.29600000000001</v>
       </c>
       <c r="D453" t="s">
         <v>607</v>
@@ -9916,7 +9916,7 @@
         <v>605</v>
       </c>
       <c r="C454">
-        <v>95.53100000000001</v>
+        <v>95.498</v>
       </c>
       <c r="D454" t="s">
         <v>607</v>
@@ -9930,10 +9930,10 @@
         <v>458</v>
       </c>
       <c r="B455" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C455">
-        <v>106.967</v>
+        <v>99.18899999999999</v>
       </c>
       <c r="D455" t="s">
         <v>607</v>
@@ -9950,7 +9950,7 @@
         <v>606</v>
       </c>
       <c r="C456">
-        <v>103.88</v>
+        <v>102.532</v>
       </c>
       <c r="D456" t="s">
         <v>607</v>
@@ -9967,7 +9967,7 @@
         <v>605</v>
       </c>
       <c r="C457">
-        <v>99.901</v>
+        <v>98.11199999999999</v>
       </c>
       <c r="D457" t="s">
         <v>607</v>
@@ -9981,10 +9981,10 @@
         <v>461</v>
       </c>
       <c r="B458" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C458">
-        <v>100.617</v>
+        <v>97.15600000000001</v>
       </c>
       <c r="D458" t="s">
         <v>607</v>
@@ -10001,7 +10001,7 @@
         <v>606</v>
       </c>
       <c r="C459">
-        <v>105.525</v>
+        <v>107.471</v>
       </c>
       <c r="D459" t="s">
         <v>607</v>
@@ -10018,7 +10018,7 @@
         <v>606</v>
       </c>
       <c r="C460">
-        <v>103.426</v>
+        <v>100.822</v>
       </c>
       <c r="D460" t="s">
         <v>607</v>
@@ -10032,10 +10032,10 @@
         <v>464</v>
       </c>
       <c r="B461" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C461">
-        <v>100.191</v>
+        <v>97.777</v>
       </c>
       <c r="D461" t="s">
         <v>607</v>
@@ -10049,10 +10049,10 @@
         <v>465</v>
       </c>
       <c r="B462" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C462">
-        <v>100.343</v>
+        <v>99.19499999999999</v>
       </c>
       <c r="D462" t="s">
         <v>607</v>
@@ -10069,7 +10069,7 @@
         <v>605</v>
       </c>
       <c r="C463">
-        <v>96.271</v>
+        <v>97.45099999999999</v>
       </c>
       <c r="D463" t="s">
         <v>607</v>
@@ -10086,7 +10086,7 @@
         <v>605</v>
       </c>
       <c r="C464">
-        <v>91.25</v>
+        <v>86.52500000000001</v>
       </c>
       <c r="D464" t="s">
         <v>607</v>
@@ -10103,7 +10103,7 @@
         <v>606</v>
       </c>
       <c r="C465">
-        <v>102.853</v>
+        <v>101.746</v>
       </c>
       <c r="D465" t="s">
         <v>607</v>
@@ -10120,7 +10120,7 @@
         <v>606</v>
       </c>
       <c r="C466">
-        <v>118.635</v>
+        <v>122.112</v>
       </c>
       <c r="D466" t="s">
         <v>607</v>
@@ -10137,7 +10137,7 @@
         <v>606</v>
       </c>
       <c r="C467">
-        <v>101.764</v>
+        <v>103.469</v>
       </c>
       <c r="D467" t="s">
         <v>607</v>
@@ -10154,7 +10154,7 @@
         <v>605</v>
       </c>
       <c r="C468">
-        <v>96.649</v>
+        <v>96.227</v>
       </c>
       <c r="D468" t="s">
         <v>607</v>
@@ -10171,7 +10171,7 @@
         <v>605</v>
       </c>
       <c r="C469">
-        <v>97.357</v>
+        <v>96.893</v>
       </c>
       <c r="D469" t="s">
         <v>607</v>
@@ -10188,7 +10188,7 @@
         <v>606</v>
       </c>
       <c r="C470">
-        <v>100.55</v>
+        <v>102.18</v>
       </c>
       <c r="D470" t="s">
         <v>607</v>
@@ -10202,10 +10202,10 @@
         <v>474</v>
       </c>
       <c r="B471" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C471">
-        <v>99.502</v>
+        <v>102.294</v>
       </c>
       <c r="D471" t="s">
         <v>607</v>
@@ -10222,7 +10222,7 @@
         <v>606</v>
       </c>
       <c r="C472">
-        <v>109.496</v>
+        <v>116.826</v>
       </c>
       <c r="D472" t="s">
         <v>607</v>
@@ -10239,7 +10239,7 @@
         <v>606</v>
       </c>
       <c r="C473">
-        <v>100.583</v>
+        <v>100.642</v>
       </c>
       <c r="D473" t="s">
         <v>607</v>
@@ -10253,10 +10253,10 @@
         <v>477</v>
       </c>
       <c r="B474" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C474">
-        <v>99.077</v>
+        <v>100.574</v>
       </c>
       <c r="D474" t="s">
         <v>607</v>
@@ -10273,7 +10273,7 @@
         <v>605</v>
       </c>
       <c r="C475">
-        <v>98.366</v>
+        <v>97.80200000000001</v>
       </c>
       <c r="D475" t="s">
         <v>607</v>
@@ -10287,10 +10287,10 @@
         <v>479</v>
       </c>
       <c r="B476" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C476">
-        <v>98.51000000000001</v>
+        <v>103.833</v>
       </c>
       <c r="D476" t="s">
         <v>607</v>
@@ -10307,7 +10307,7 @@
         <v>605</v>
       </c>
       <c r="C477">
-        <v>97.586</v>
+        <v>97.726</v>
       </c>
       <c r="D477" t="s">
         <v>607</v>
@@ -10321,10 +10321,10 @@
         <v>481</v>
       </c>
       <c r="B478" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C478">
-        <v>98.956</v>
+        <v>101.278</v>
       </c>
       <c r="D478" t="s">
         <v>607</v>
@@ -10341,7 +10341,7 @@
         <v>605</v>
       </c>
       <c r="C479">
-        <v>98.752</v>
+        <v>93.746</v>
       </c>
       <c r="D479" t="s">
         <v>607</v>
@@ -10358,7 +10358,7 @@
         <v>605</v>
       </c>
       <c r="C480">
-        <v>97.538</v>
+        <v>99.06100000000001</v>
       </c>
       <c r="D480" t="s">
         <v>607</v>
@@ -10375,7 +10375,7 @@
         <v>606</v>
       </c>
       <c r="C481">
-        <v>103.846</v>
+        <v>111.382</v>
       </c>
       <c r="D481" t="s">
         <v>607</v>
@@ -10389,10 +10389,10 @@
         <v>485</v>
       </c>
       <c r="B482" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C482">
-        <v>95.399</v>
+        <v>103.409</v>
       </c>
       <c r="D482" t="s">
         <v>607</v>
@@ -10409,7 +10409,7 @@
         <v>605</v>
       </c>
       <c r="C483">
-        <v>96.34099999999999</v>
+        <v>98.083</v>
       </c>
       <c r="D483" t="s">
         <v>607</v>
@@ -10426,7 +10426,7 @@
         <v>606</v>
       </c>
       <c r="C484">
-        <v>105.19</v>
+        <v>104.545</v>
       </c>
       <c r="D484" t="s">
         <v>607</v>
@@ -10443,7 +10443,7 @@
         <v>605</v>
       </c>
       <c r="C485">
-        <v>98.614</v>
+        <v>94.97199999999999</v>
       </c>
       <c r="D485" t="s">
         <v>607</v>
@@ -10460,7 +10460,7 @@
         <v>605</v>
       </c>
       <c r="C486">
-        <v>79.80200000000001</v>
+        <v>91.19199999999999</v>
       </c>
       <c r="D486" t="s">
         <v>607</v>
@@ -10477,7 +10477,7 @@
         <v>605</v>
       </c>
       <c r="C487">
-        <v>96.565</v>
+        <v>95.88500000000001</v>
       </c>
       <c r="D487" t="s">
         <v>607</v>
@@ -10494,7 +10494,7 @@
         <v>605</v>
       </c>
       <c r="C488">
-        <v>99.964</v>
+        <v>98.86199999999999</v>
       </c>
       <c r="D488" t="s">
         <v>607</v>
@@ -10511,7 +10511,7 @@
         <v>606</v>
       </c>
       <c r="C489">
-        <v>122.091</v>
+        <v>131.794</v>
       </c>
       <c r="D489" t="s">
         <v>607</v>
@@ -10528,7 +10528,7 @@
         <v>606</v>
       </c>
       <c r="C490">
-        <v>100.508</v>
+        <v>100.617</v>
       </c>
       <c r="D490" t="s">
         <v>607</v>
@@ -10545,7 +10545,7 @@
         <v>606</v>
       </c>
       <c r="C491">
-        <v>101.779</v>
+        <v>102.968</v>
       </c>
       <c r="D491" t="s">
         <v>607</v>
@@ -10559,10 +10559,10 @@
         <v>495</v>
       </c>
       <c r="B492" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C492">
-        <v>97.09999999999999</v>
+        <v>101.918</v>
       </c>
       <c r="D492" t="s">
         <v>607</v>
@@ -10579,7 +10579,7 @@
         <v>606</v>
       </c>
       <c r="C493">
-        <v>102.093</v>
+        <v>103.7</v>
       </c>
       <c r="D493" t="s">
         <v>607</v>
@@ -10596,7 +10596,7 @@
         <v>606</v>
       </c>
       <c r="C494">
-        <v>102.042</v>
+        <v>103.788</v>
       </c>
       <c r="D494" t="s">
         <v>607</v>
@@ -10613,7 +10613,7 @@
         <v>606</v>
       </c>
       <c r="C495">
-        <v>100.958</v>
+        <v>102.885</v>
       </c>
       <c r="D495" t="s">
         <v>607</v>
@@ -10630,7 +10630,7 @@
         <v>606</v>
       </c>
       <c r="C496">
-        <v>104.057</v>
+        <v>105.172</v>
       </c>
       <c r="D496" t="s">
         <v>607</v>
@@ -10647,7 +10647,7 @@
         <v>606</v>
       </c>
       <c r="C497">
-        <v>107.904</v>
+        <v>110.387</v>
       </c>
       <c r="D497" t="s">
         <v>607</v>
@@ -10664,7 +10664,7 @@
         <v>605</v>
       </c>
       <c r="C498">
-        <v>94.221</v>
+        <v>97.642</v>
       </c>
       <c r="D498" t="s">
         <v>607</v>
@@ -10681,7 +10681,7 @@
         <v>606</v>
       </c>
       <c r="C499">
-        <v>103.273</v>
+        <v>103.504</v>
       </c>
       <c r="D499" t="s">
         <v>607</v>
@@ -10695,10 +10695,10 @@
         <v>503</v>
       </c>
       <c r="B500" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C500">
-        <v>98.026</v>
+        <v>102.93</v>
       </c>
       <c r="D500" t="s">
         <v>607</v>
@@ -10715,7 +10715,7 @@
         <v>606</v>
       </c>
       <c r="C501">
-        <v>104.052</v>
+        <v>104.34</v>
       </c>
       <c r="D501" t="s">
         <v>607</v>
@@ -10732,7 +10732,7 @@
         <v>605</v>
       </c>
       <c r="C502">
-        <v>93.702</v>
+        <v>93.25</v>
       </c>
       <c r="D502" t="s">
         <v>607</v>
@@ -10746,10 +10746,10 @@
         <v>506</v>
       </c>
       <c r="B503" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C503">
-        <v>96.765</v>
+        <v>100.47</v>
       </c>
       <c r="D503" t="s">
         <v>607</v>
@@ -10766,7 +10766,7 @@
         <v>606</v>
       </c>
       <c r="C504">
-        <v>105.081</v>
+        <v>103.103</v>
       </c>
       <c r="D504" t="s">
         <v>607</v>
@@ -10783,7 +10783,7 @@
         <v>606</v>
       </c>
       <c r="C505">
-        <v>126.09</v>
+        <v>124.348</v>
       </c>
       <c r="D505" t="s">
         <v>607</v>
@@ -10800,7 +10800,7 @@
         <v>606</v>
       </c>
       <c r="C506">
-        <v>100</v>
+        <v>101.249</v>
       </c>
       <c r="D506" t="s">
         <v>607</v>
@@ -10814,10 +10814,10 @@
         <v>510</v>
       </c>
       <c r="B507" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C507">
-        <v>99.005</v>
+        <v>103.013</v>
       </c>
       <c r="D507" t="s">
         <v>607</v>
@@ -10831,10 +10831,10 @@
         <v>511</v>
       </c>
       <c r="B508" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C508">
-        <v>95.694</v>
+        <v>100</v>
       </c>
       <c r="D508" t="s">
         <v>607</v>
@@ -10851,7 +10851,7 @@
         <v>606</v>
       </c>
       <c r="C509">
-        <v>101.068</v>
+        <v>102.083</v>
       </c>
       <c r="D509" t="s">
         <v>607</v>
@@ -10868,7 +10868,7 @@
         <v>605</v>
       </c>
       <c r="C510">
-        <v>99.002</v>
+        <v>99.47499999999999</v>
       </c>
       <c r="D510" t="s">
         <v>607</v>
@@ -10885,7 +10885,7 @@
         <v>605</v>
       </c>
       <c r="C511">
-        <v>92.68300000000001</v>
+        <v>98.361</v>
       </c>
       <c r="D511" t="s">
         <v>607</v>
@@ -10902,7 +10902,7 @@
         <v>605</v>
       </c>
       <c r="C512">
-        <v>98.253</v>
+        <v>94.209</v>
       </c>
       <c r="D512" t="s">
         <v>607</v>
@@ -10919,7 +10919,7 @@
         <v>606</v>
       </c>
       <c r="C513">
-        <v>123.729</v>
+        <v>150</v>
       </c>
       <c r="D513" t="s">
         <v>607</v>
@@ -10933,10 +10933,10 @@
         <v>517</v>
       </c>
       <c r="B514" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C514">
-        <v>99.107</v>
+        <v>100.901</v>
       </c>
       <c r="D514" t="s">
         <v>607</v>
@@ -10953,7 +10953,7 @@
         <v>606</v>
       </c>
       <c r="C515">
-        <v>102.005</v>
+        <v>104.705</v>
       </c>
       <c r="D515" t="s">
         <v>607</v>
@@ -10970,7 +10970,7 @@
         <v>605</v>
       </c>
       <c r="C516">
-        <v>95.895</v>
+        <v>94.77800000000001</v>
       </c>
       <c r="D516" t="s">
         <v>607</v>
@@ -10984,10 +10984,10 @@
         <v>520</v>
       </c>
       <c r="B517" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C517">
-        <v>100.223</v>
+        <v>97.205</v>
       </c>
       <c r="D517" t="s">
         <v>607</v>
@@ -11004,7 +11004,7 @@
         <v>605</v>
       </c>
       <c r="C518">
-        <v>88.492</v>
+        <v>86.041</v>
       </c>
       <c r="D518" t="s">
         <v>607</v>
@@ -11021,7 +11021,7 @@
         <v>606</v>
       </c>
       <c r="C519">
-        <v>114.12</v>
+        <v>133.471</v>
       </c>
       <c r="D519" t="s">
         <v>607</v>
@@ -11035,10 +11035,10 @@
         <v>523</v>
       </c>
       <c r="B520" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C520">
-        <v>97.667</v>
+        <v>104.589</v>
       </c>
       <c r="D520" t="s">
         <v>607</v>
@@ -11055,7 +11055,7 @@
         <v>605</v>
       </c>
       <c r="C521">
-        <v>96.295</v>
+        <v>95.41</v>
       </c>
       <c r="D521" t="s">
         <v>607</v>
@@ -11072,7 +11072,7 @@
         <v>606</v>
       </c>
       <c r="C522">
-        <v>101.388</v>
+        <v>100.182</v>
       </c>
       <c r="D522" t="s">
         <v>607</v>
@@ -11086,10 +11086,10 @@
         <v>525</v>
       </c>
       <c r="B523" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C523">
-        <v>105.04</v>
+        <v>98.705</v>
       </c>
       <c r="D523" t="s">
         <v>607</v>
@@ -11106,7 +11106,7 @@
         <v>605</v>
       </c>
       <c r="C524">
-        <v>87.78100000000001</v>
+        <v>81.126</v>
       </c>
       <c r="D524" t="s">
         <v>607</v>
@@ -11123,7 +11123,7 @@
         <v>605</v>
       </c>
       <c r="C525">
-        <v>95.242</v>
+        <v>86.67700000000001</v>
       </c>
       <c r="D525" t="s">
         <v>607</v>
@@ -11137,10 +11137,10 @@
         <v>528</v>
       </c>
       <c r="B526" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C526">
-        <v>96.51900000000001</v>
+        <v>100.375</v>
       </c>
       <c r="D526" t="s">
         <v>607</v>
@@ -11157,7 +11157,7 @@
         <v>605</v>
       </c>
       <c r="C527">
-        <v>94.023</v>
+        <v>93.666</v>
       </c>
       <c r="D527" t="s">
         <v>607</v>
@@ -11174,7 +11174,7 @@
         <v>605</v>
       </c>
       <c r="C528">
-        <v>99.43600000000001</v>
+        <v>99.887</v>
       </c>
       <c r="D528" t="s">
         <v>607</v>
@@ -11191,7 +11191,7 @@
         <v>605</v>
       </c>
       <c r="C529">
-        <v>98.855</v>
+        <v>98.238</v>
       </c>
       <c r="D529" t="s">
         <v>607</v>
@@ -11208,7 +11208,7 @@
         <v>605</v>
       </c>
       <c r="C530">
-        <v>89.75700000000001</v>
+        <v>85.946</v>
       </c>
       <c r="D530" t="s">
         <v>607</v>
@@ -11225,7 +11225,7 @@
         <v>605</v>
       </c>
       <c r="C531">
-        <v>84.03100000000001</v>
+        <v>84.012</v>
       </c>
       <c r="D531" t="s">
         <v>607</v>
@@ -11242,7 +11242,7 @@
         <v>605</v>
       </c>
       <c r="C532">
-        <v>90.104</v>
+        <v>92.697</v>
       </c>
       <c r="D532" t="s">
         <v>607</v>
@@ -11259,7 +11259,7 @@
         <v>606</v>
       </c>
       <c r="C533">
-        <v>101.197</v>
+        <v>102.883</v>
       </c>
       <c r="D533" t="s">
         <v>607</v>
@@ -11276,7 +11276,7 @@
         <v>606</v>
       </c>
       <c r="C534">
-        <v>100.021</v>
+        <v>101.968</v>
       </c>
       <c r="D534" t="s">
         <v>607</v>
@@ -11290,10 +11290,10 @@
         <v>537</v>
       </c>
       <c r="B535" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C535">
-        <v>97.77500000000001</v>
+        <v>103.19</v>
       </c>
       <c r="D535" t="s">
         <v>607</v>
@@ -11310,7 +11310,7 @@
         <v>606</v>
       </c>
       <c r="C536">
-        <v>102.385</v>
+        <v>103.241</v>
       </c>
       <c r="D536" t="s">
         <v>607</v>
@@ -11327,7 +11327,7 @@
         <v>605</v>
       </c>
       <c r="C537">
-        <v>86.80800000000001</v>
+        <v>88.30500000000001</v>
       </c>
       <c r="D537" t="s">
         <v>607</v>
@@ -11344,7 +11344,7 @@
         <v>606</v>
       </c>
       <c r="C538">
-        <v>106.178</v>
+        <v>102.25</v>
       </c>
       <c r="D538" t="s">
         <v>607</v>
@@ -11358,10 +11358,10 @@
         <v>540</v>
       </c>
       <c r="B539" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C539">
-        <v>102.268</v>
+        <v>94.86199999999999</v>
       </c>
       <c r="D539" t="s">
         <v>607</v>
@@ -11378,7 +11378,7 @@
         <v>606</v>
       </c>
       <c r="C540">
-        <v>102.191</v>
+        <v>100.892</v>
       </c>
       <c r="D540" t="s">
         <v>607</v>
@@ -11392,10 +11392,10 @@
         <v>542</v>
       </c>
       <c r="B541" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C541">
-        <v>102.981</v>
+        <v>98.56</v>
       </c>
       <c r="D541" t="s">
         <v>607</v>
@@ -11412,7 +11412,7 @@
         <v>606</v>
       </c>
       <c r="C542">
-        <v>104.014</v>
+        <v>103.228</v>
       </c>
       <c r="D542" t="s">
         <v>607</v>
@@ -11426,10 +11426,10 @@
         <v>544</v>
       </c>
       <c r="B543" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C543">
-        <v>104.316</v>
+        <v>99.736</v>
       </c>
       <c r="D543" t="s">
         <v>607</v>
@@ -11443,10 +11443,10 @@
         <v>545</v>
       </c>
       <c r="B544" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C544">
-        <v>104.051</v>
+        <v>98.77500000000001</v>
       </c>
       <c r="D544" t="s">
         <v>607</v>
@@ -11463,7 +11463,7 @@
         <v>605</v>
       </c>
       <c r="C545">
-        <v>99.054</v>
+        <v>95.155</v>
       </c>
       <c r="D545" t="s">
         <v>607</v>
@@ -11480,7 +11480,7 @@
         <v>605</v>
       </c>
       <c r="C546">
-        <v>98.34099999999999</v>
+        <v>97.968</v>
       </c>
       <c r="D546" t="s">
         <v>607</v>
@@ -11497,7 +11497,7 @@
         <v>605</v>
       </c>
       <c r="C547">
-        <v>98.209</v>
+        <v>95.75</v>
       </c>
       <c r="D547" t="s">
         <v>607</v>
@@ -11511,10 +11511,10 @@
         <v>549</v>
       </c>
       <c r="B548" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C548">
-        <v>103.605</v>
+        <v>99.22</v>
       </c>
       <c r="D548" t="s">
         <v>607</v>
@@ -11528,10 +11528,10 @@
         <v>550</v>
       </c>
       <c r="B549" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C549">
-        <v>100.147</v>
+        <v>96.71899999999999</v>
       </c>
       <c r="D549" t="s">
         <v>607</v>
@@ -11545,10 +11545,10 @@
         <v>551</v>
       </c>
       <c r="B550" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C550">
-        <v>102.613</v>
+        <v>99.051</v>
       </c>
       <c r="D550" t="s">
         <v>607</v>
@@ -11562,10 +11562,10 @@
         <v>552</v>
       </c>
       <c r="B551" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C551">
-        <v>101.58</v>
+        <v>99.729</v>
       </c>
       <c r="D551" t="s">
         <v>607</v>
@@ -11582,7 +11582,7 @@
         <v>606</v>
       </c>
       <c r="C552">
-        <v>102.654</v>
+        <v>102.373</v>
       </c>
       <c r="D552" t="s">
         <v>607</v>
@@ -11599,7 +11599,7 @@
         <v>606</v>
       </c>
       <c r="C553">
-        <v>102.342</v>
+        <v>102.07</v>
       </c>
       <c r="D553" t="s">
         <v>607</v>
@@ -11613,10 +11613,10 @@
         <v>555</v>
       </c>
       <c r="B554" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C554">
-        <v>100</v>
+        <v>92.857</v>
       </c>
       <c r="D554" t="s">
         <v>607</v>
@@ -11633,7 +11633,7 @@
         <v>606</v>
       </c>
       <c r="C555">
-        <v>105.541</v>
+        <v>104.007</v>
       </c>
       <c r="D555" t="s">
         <v>607</v>
@@ -11647,10 +11647,10 @@
         <v>557</v>
       </c>
       <c r="B556" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C556">
-        <v>101.267</v>
+        <v>99.824</v>
       </c>
       <c r="D556" t="s">
         <v>607</v>
@@ -11667,7 +11667,7 @@
         <v>606</v>
       </c>
       <c r="C557">
-        <v>104.271</v>
+        <v>102.862</v>
       </c>
       <c r="D557" t="s">
         <v>607</v>
@@ -11684,7 +11684,7 @@
         <v>606</v>
       </c>
       <c r="C558">
-        <v>102.284</v>
+        <v>103.824</v>
       </c>
       <c r="D558" t="s">
         <v>607</v>
@@ -11701,7 +11701,7 @@
         <v>605</v>
       </c>
       <c r="C559">
-        <v>99.111</v>
+        <v>95.464</v>
       </c>
       <c r="D559" t="s">
         <v>607</v>
@@ -11718,7 +11718,7 @@
         <v>606</v>
       </c>
       <c r="C560">
-        <v>104.827</v>
+        <v>102.796</v>
       </c>
       <c r="D560" t="s">
         <v>607</v>
@@ -11735,7 +11735,7 @@
         <v>606</v>
       </c>
       <c r="C561">
-        <v>108.889</v>
+        <v>102.384</v>
       </c>
       <c r="D561" t="s">
         <v>607</v>
@@ -11749,10 +11749,10 @@
         <v>563</v>
       </c>
       <c r="B562" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C562">
-        <v>101.871</v>
+        <v>98.221</v>
       </c>
       <c r="D562" t="s">
         <v>607</v>
@@ -11766,10 +11766,10 @@
         <v>564</v>
       </c>
       <c r="B563" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C563">
-        <v>100.13</v>
+        <v>97.238</v>
       </c>
       <c r="D563" t="s">
         <v>607</v>
@@ -11786,7 +11786,7 @@
         <v>606</v>
       </c>
       <c r="C564">
-        <v>107.113</v>
+        <v>105.917</v>
       </c>
       <c r="D564" t="s">
         <v>607</v>
@@ -11803,7 +11803,7 @@
         <v>606</v>
       </c>
       <c r="C565">
-        <v>103.664</v>
+        <v>100.19</v>
       </c>
       <c r="D565" t="s">
         <v>607</v>
@@ -11817,10 +11817,10 @@
         <v>567</v>
       </c>
       <c r="B566" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C566">
-        <v>99.96299999999999</v>
+        <v>100.377</v>
       </c>
       <c r="D566" t="s">
         <v>607</v>
@@ -11837,7 +11837,7 @@
         <v>605</v>
       </c>
       <c r="C567">
-        <v>97.404</v>
+        <v>93.006</v>
       </c>
       <c r="D567" t="s">
         <v>607</v>
@@ -11854,7 +11854,7 @@
         <v>606</v>
       </c>
       <c r="C568">
-        <v>101.651</v>
+        <v>100.947</v>
       </c>
       <c r="D568" t="s">
         <v>607</v>
@@ -11871,7 +11871,7 @@
         <v>606</v>
       </c>
       <c r="C569">
-        <v>101.816</v>
+        <v>101.845</v>
       </c>
       <c r="D569" t="s">
         <v>607</v>
@@ -11888,7 +11888,7 @@
         <v>606</v>
       </c>
       <c r="C570">
-        <v>106.362</v>
+        <v>105.897</v>
       </c>
       <c r="D570" t="s">
         <v>607</v>
@@ -11905,7 +11905,7 @@
         <v>606</v>
       </c>
       <c r="C571">
-        <v>103.341</v>
+        <v>103.467</v>
       </c>
       <c r="D571" t="s">
         <v>607</v>
@@ -11922,7 +11922,7 @@
         <v>605</v>
       </c>
       <c r="C572">
-        <v>98.67</v>
+        <v>99.834</v>
       </c>
       <c r="D572" t="s">
         <v>607</v>
@@ -11939,7 +11939,7 @@
         <v>606</v>
       </c>
       <c r="C573">
-        <v>100.059</v>
+        <v>101</v>
       </c>
       <c r="D573" t="s">
         <v>607</v>
@@ -11956,7 +11956,7 @@
         <v>605</v>
       </c>
       <c r="C574">
-        <v>98.092</v>
+        <v>99.78700000000001</v>
       </c>
       <c r="D574" t="s">
         <v>607</v>
@@ -11970,10 +11970,10 @@
         <v>576</v>
       </c>
       <c r="B575" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C575">
-        <v>99.977</v>
+        <v>104.294</v>
       </c>
       <c r="D575" t="s">
         <v>607</v>
@@ -11990,7 +11990,7 @@
         <v>606</v>
       </c>
       <c r="C576">
-        <v>101.367</v>
+        <v>101.681</v>
       </c>
       <c r="D576" t="s">
         <v>607</v>
@@ -12007,7 +12007,7 @@
         <v>605</v>
       </c>
       <c r="C577">
-        <v>97.616</v>
+        <v>96.898</v>
       </c>
       <c r="D577" t="s">
         <v>607</v>
@@ -12024,7 +12024,7 @@
         <v>606</v>
       </c>
       <c r="C578">
-        <v>103.411</v>
+        <v>100.819</v>
       </c>
       <c r="D578" t="s">
         <v>607</v>
@@ -12041,7 +12041,7 @@
         <v>606</v>
       </c>
       <c r="C579">
-        <v>105.074</v>
+        <v>102.708</v>
       </c>
       <c r="D579" t="s">
         <v>607</v>
@@ -12058,7 +12058,7 @@
         <v>605</v>
       </c>
       <c r="C580">
-        <v>99.828</v>
+        <v>99.16500000000001</v>
       </c>
       <c r="D580" t="s">
         <v>607</v>
@@ -12075,7 +12075,7 @@
         <v>606</v>
       </c>
       <c r="C581">
-        <v>101.22</v>
+        <v>103.624</v>
       </c>
       <c r="D581" t="s">
         <v>607</v>
@@ -12092,7 +12092,7 @@
         <v>606</v>
       </c>
       <c r="C582">
-        <v>100.617</v>
+        <v>101.397</v>
       </c>
       <c r="D582" t="s">
         <v>607</v>
@@ -12109,7 +12109,7 @@
         <v>606</v>
       </c>
       <c r="C583">
-        <v>101.396</v>
+        <v>102.219</v>
       </c>
       <c r="D583" t="s">
         <v>607</v>
@@ -12126,7 +12126,7 @@
         <v>606</v>
       </c>
       <c r="C584">
-        <v>102.414</v>
+        <v>101.158</v>
       </c>
       <c r="D584" t="s">
         <v>607</v>
@@ -12143,7 +12143,7 @@
         <v>606</v>
       </c>
       <c r="C585">
-        <v>103.13</v>
+        <v>106.665</v>
       </c>
       <c r="D585" t="s">
         <v>607</v>
@@ -12160,7 +12160,7 @@
         <v>605</v>
       </c>
       <c r="C586">
-        <v>97.667</v>
+        <v>99.59</v>
       </c>
       <c r="D586" t="s">
         <v>607</v>
@@ -12177,7 +12177,7 @@
         <v>606</v>
       </c>
       <c r="C587">
-        <v>103.191</v>
+        <v>103.493</v>
       </c>
       <c r="D587" t="s">
         <v>607</v>
@@ -12191,10 +12191,10 @@
         <v>589</v>
       </c>
       <c r="B588" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C588">
-        <v>101.681</v>
+        <v>99.892</v>
       </c>
       <c r="D588" t="s">
         <v>607</v>
@@ -12208,10 +12208,10 @@
         <v>590</v>
       </c>
       <c r="B589" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C589">
-        <v>101.622</v>
+        <v>99.913</v>
       </c>
       <c r="D589" t="s">
         <v>607</v>
@@ -12228,7 +12228,7 @@
         <v>606</v>
       </c>
       <c r="C590">
-        <v>108.809</v>
+        <v>107.971</v>
       </c>
       <c r="D590" t="s">
         <v>607</v>
@@ -12242,10 +12242,10 @@
         <v>592</v>
       </c>
       <c r="B591" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C591">
-        <v>99.376</v>
+        <v>101.771</v>
       </c>
       <c r="D591" t="s">
         <v>607</v>
@@ -12262,7 +12262,7 @@
         <v>606</v>
       </c>
       <c r="C592">
-        <v>100.557</v>
+        <v>101.39</v>
       </c>
       <c r="D592" t="s">
         <v>607</v>
@@ -12279,7 +12279,7 @@
         <v>606</v>
       </c>
       <c r="C593">
-        <v>106.267</v>
+        <v>110.228</v>
       </c>
       <c r="D593" t="s">
         <v>607</v>
@@ -12296,7 +12296,7 @@
         <v>606</v>
       </c>
       <c r="C594">
-        <v>101.589</v>
+        <v>100.818</v>
       </c>
       <c r="D594" t="s">
         <v>607</v>
@@ -12313,7 +12313,7 @@
         <v>605</v>
       </c>
       <c r="C595">
-        <v>98.846</v>
+        <v>94.63200000000001</v>
       </c>
       <c r="D595" t="s">
         <v>607</v>
@@ -12330,7 +12330,7 @@
         <v>606</v>
       </c>
       <c r="C596">
-        <v>100.121</v>
+        <v>100.35</v>
       </c>
       <c r="D596" t="s">
         <v>607</v>
@@ -12344,10 +12344,10 @@
         <v>598</v>
       </c>
       <c r="B597" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C597">
-        <v>102.2</v>
+        <v>98.283</v>
       </c>
       <c r="D597" t="s">
         <v>607</v>
@@ -12361,10 +12361,10 @@
         <v>599</v>
       </c>
       <c r="B598" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C598">
-        <v>100.51</v>
+        <v>99.779</v>
       </c>
       <c r="D598" t="s">
         <v>607</v>
@@ -12381,7 +12381,7 @@
         <v>606</v>
       </c>
       <c r="C599">
-        <v>101.546</v>
+        <v>101.176</v>
       </c>
       <c r="D599" t="s">
         <v>607</v>
@@ -12395,10 +12395,10 @@
         <v>601</v>
       </c>
       <c r="B600" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C600">
-        <v>102.289</v>
+        <v>97.95699999999999</v>
       </c>
       <c r="D600" t="s">
         <v>607</v>
@@ -12415,7 +12415,7 @@
         <v>606</v>
       </c>
       <c r="C601">
-        <v>109.844</v>
+        <v>114.134</v>
       </c>
       <c r="D601" t="s">
         <v>607</v>
@@ -12432,7 +12432,7 @@
         <v>606</v>
       </c>
       <c r="C602">
-        <v>102.663</v>
+        <v>101.224</v>
       </c>
       <c r="D602" t="s">
         <v>607</v>
@@ -12449,7 +12449,7 @@
         <v>605</v>
       </c>
       <c r="C603">
-        <v>93.932</v>
+        <v>94.739</v>
       </c>
       <c r="D603" t="s">
         <v>607</v>

--- a/generated_reports/tradfi_momentum.xlsx
+++ b/generated_reports/tradfi_momentum.xlsx
@@ -2232,7 +2232,7 @@
         <v>605</v>
       </c>
       <c r="C2">
-        <v>93.30800000000001</v>
+        <v>98.584</v>
       </c>
       <c r="D2" t="s">
         <v>607</v>
@@ -2249,7 +2249,7 @@
         <v>606</v>
       </c>
       <c r="C3">
-        <v>100.117</v>
+        <v>100.362</v>
       </c>
       <c r="D3" t="s">
         <v>607</v>
@@ -2263,10 +2263,10 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C4">
-        <v>103.28</v>
+        <v>98.221</v>
       </c>
       <c r="D4" t="s">
         <v>607</v>
@@ -2283,7 +2283,7 @@
         <v>606</v>
       </c>
       <c r="C5">
-        <v>127.407</v>
+        <v>103.05</v>
       </c>
       <c r="D5" t="s">
         <v>607</v>
@@ -2297,10 +2297,10 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C6">
-        <v>104.741</v>
+        <v>97.172</v>
       </c>
       <c r="D6" t="s">
         <v>607</v>
@@ -2314,10 +2314,10 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C7">
-        <v>109.393</v>
+        <v>88.108</v>
       </c>
       <c r="D7" t="s">
         <v>607</v>
@@ -2331,10 +2331,10 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C8">
-        <v>93.069</v>
+        <v>105.872</v>
       </c>
       <c r="D8" t="s">
         <v>607</v>
@@ -2351,7 +2351,7 @@
         <v>605</v>
       </c>
       <c r="C9">
-        <v>92.797</v>
+        <v>86.941</v>
       </c>
       <c r="D9" t="s">
         <v>607</v>
@@ -2365,10 +2365,10 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C10">
-        <v>101.174</v>
+        <v>86.70999999999999</v>
       </c>
       <c r="D10" t="s">
         <v>607</v>
@@ -2382,10 +2382,10 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C11">
-        <v>105.108</v>
+        <v>95.581</v>
       </c>
       <c r="D11" t="s">
         <v>607</v>
@@ -2402,7 +2402,7 @@
         <v>605</v>
       </c>
       <c r="C12">
-        <v>95.97799999999999</v>
+        <v>99.571</v>
       </c>
       <c r="D12" t="s">
         <v>607</v>
@@ -2416,10 +2416,10 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C13">
-        <v>124.858</v>
+        <v>93.03700000000001</v>
       </c>
       <c r="D13" t="s">
         <v>607</v>
@@ -2433,10 +2433,10 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C14">
-        <v>104.387</v>
+        <v>98.384</v>
       </c>
       <c r="D14" t="s">
         <v>607</v>
@@ -2450,10 +2450,10 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C15">
-        <v>100.969</v>
+        <v>99.593</v>
       </c>
       <c r="D15" t="s">
         <v>607</v>
@@ -2467,10 +2467,10 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C16">
-        <v>101.128</v>
+        <v>99.063</v>
       </c>
       <c r="D16" t="s">
         <v>607</v>
@@ -2487,7 +2487,7 @@
         <v>605</v>
       </c>
       <c r="C17">
-        <v>99.28700000000001</v>
+        <v>93.488</v>
       </c>
       <c r="D17" t="s">
         <v>607</v>
@@ -2504,7 +2504,7 @@
         <v>606</v>
       </c>
       <c r="C18">
-        <v>100.502</v>
+        <v>102.198</v>
       </c>
       <c r="D18" t="s">
         <v>607</v>
@@ -2518,10 +2518,10 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C19">
-        <v>100.229</v>
+        <v>93.583</v>
       </c>
       <c r="D19" t="s">
         <v>607</v>
@@ -2538,7 +2538,7 @@
         <v>605</v>
       </c>
       <c r="C20">
-        <v>97.598</v>
+        <v>96.235</v>
       </c>
       <c r="D20" t="s">
         <v>607</v>
@@ -2555,7 +2555,7 @@
         <v>606</v>
       </c>
       <c r="C21">
-        <v>103.998</v>
+        <v>100.046</v>
       </c>
       <c r="D21" t="s">
         <v>607</v>
@@ -2572,7 +2572,7 @@
         <v>605</v>
       </c>
       <c r="C22">
-        <v>98.907</v>
+        <v>99.22199999999999</v>
       </c>
       <c r="D22" t="s">
         <v>607</v>
@@ -2586,10 +2586,10 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C23">
-        <v>108.963</v>
+        <v>94.82599999999999</v>
       </c>
       <c r="D23" t="s">
         <v>607</v>
@@ -2606,7 +2606,7 @@
         <v>605</v>
       </c>
       <c r="C24">
-        <v>91.69</v>
+        <v>98.63</v>
       </c>
       <c r="D24" t="s">
         <v>607</v>
@@ -2623,7 +2623,7 @@
         <v>605</v>
       </c>
       <c r="C25">
-        <v>96.001</v>
+        <v>97.46899999999999</v>
       </c>
       <c r="D25" t="s">
         <v>607</v>
@@ -2637,10 +2637,10 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C26">
-        <v>101.865</v>
+        <v>98.92400000000001</v>
       </c>
       <c r="D26" t="s">
         <v>607</v>
@@ -2654,10 +2654,10 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C27">
-        <v>99.71299999999999</v>
+        <v>101.993</v>
       </c>
       <c r="D27" t="s">
         <v>607</v>
@@ -2674,7 +2674,7 @@
         <v>605</v>
       </c>
       <c r="C28">
-        <v>95.989</v>
+        <v>98.937</v>
       </c>
       <c r="D28" t="s">
         <v>607</v>
@@ -2688,10 +2688,10 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C29">
-        <v>106.782</v>
+        <v>93.102</v>
       </c>
       <c r="D29" t="s">
         <v>607</v>
@@ -2708,7 +2708,7 @@
         <v>605</v>
       </c>
       <c r="C30">
-        <v>96.093</v>
+        <v>98.331</v>
       </c>
       <c r="D30" t="s">
         <v>607</v>
@@ -2722,10 +2722,10 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C31">
-        <v>97.976</v>
+        <v>100.277</v>
       </c>
       <c r="D31" t="s">
         <v>607</v>
@@ -2739,10 +2739,10 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C32">
-        <v>93.503</v>
+        <v>101.327</v>
       </c>
       <c r="D32" t="s">
         <v>607</v>
@@ -2759,7 +2759,7 @@
         <v>605</v>
       </c>
       <c r="C33">
-        <v>99.002</v>
+        <v>96.146</v>
       </c>
       <c r="D33" t="s">
         <v>607</v>
@@ -2773,10 +2773,10 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C34">
-        <v>111.131</v>
+        <v>94.229</v>
       </c>
       <c r="D34" t="s">
         <v>607</v>
@@ -2790,10 +2790,10 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C35">
-        <v>101.298</v>
+        <v>99.30800000000001</v>
       </c>
       <c r="D35" t="s">
         <v>607</v>
@@ -2807,10 +2807,10 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C36">
-        <v>115.928</v>
+        <v>97.369</v>
       </c>
       <c r="D36" t="s">
         <v>607</v>
@@ -2824,10 +2824,10 @@
         <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C37">
-        <v>103.99</v>
+        <v>92.548</v>
       </c>
       <c r="D37" t="s">
         <v>607</v>
@@ -2844,7 +2844,7 @@
         <v>605</v>
       </c>
       <c r="C38">
-        <v>87.88800000000001</v>
+        <v>96.11799999999999</v>
       </c>
       <c r="D38" t="s">
         <v>607</v>
@@ -2858,10 +2858,10 @@
         <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C39">
-        <v>108.276</v>
+        <v>95.276</v>
       </c>
       <c r="D39" t="s">
         <v>607</v>
@@ -2875,10 +2875,10 @@
         <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C40">
-        <v>105.826</v>
+        <v>94.053</v>
       </c>
       <c r="D40" t="s">
         <v>607</v>
@@ -2892,10 +2892,10 @@
         <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C41">
-        <v>103.1</v>
+        <v>96.32599999999999</v>
       </c>
       <c r="D41" t="s">
         <v>607</v>
@@ -2912,7 +2912,7 @@
         <v>606</v>
       </c>
       <c r="C42">
-        <v>101.374</v>
+        <v>104.785</v>
       </c>
       <c r="D42" t="s">
         <v>607</v>
@@ -2926,10 +2926,10 @@
         <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C43">
-        <v>101.862</v>
+        <v>98.646</v>
       </c>
       <c r="D43" t="s">
         <v>607</v>
@@ -2943,10 +2943,10 @@
         <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C44">
-        <v>106.676</v>
+        <v>94.206</v>
       </c>
       <c r="D44" t="s">
         <v>607</v>
@@ -2963,7 +2963,7 @@
         <v>606</v>
       </c>
       <c r="C45">
-        <v>100.586</v>
+        <v>103.139</v>
       </c>
       <c r="D45" t="s">
         <v>607</v>
@@ -2980,7 +2980,7 @@
         <v>606</v>
       </c>
       <c r="C46">
-        <v>106.761</v>
+        <v>101.613</v>
       </c>
       <c r="D46" t="s">
         <v>607</v>
@@ -2997,7 +2997,7 @@
         <v>606</v>
       </c>
       <c r="C47">
-        <v>103.837</v>
+        <v>103.265</v>
       </c>
       <c r="D47" t="s">
         <v>607</v>
@@ -3014,7 +3014,7 @@
         <v>606</v>
       </c>
       <c r="C48">
-        <v>104.987</v>
+        <v>103.333</v>
       </c>
       <c r="D48" t="s">
         <v>607</v>
@@ -3031,7 +3031,7 @@
         <v>605</v>
       </c>
       <c r="C49">
-        <v>89.223</v>
+        <v>98.26000000000001</v>
       </c>
       <c r="D49" t="s">
         <v>607</v>
@@ -3045,10 +3045,10 @@
         <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C50">
-        <v>101.088</v>
+        <v>99.70399999999999</v>
       </c>
       <c r="D50" t="s">
         <v>607</v>
@@ -3062,10 +3062,10 @@
         <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C51">
-        <v>105.584</v>
+        <v>93.40900000000001</v>
       </c>
       <c r="D51" t="s">
         <v>607</v>
@@ -3079,10 +3079,10 @@
         <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C52">
-        <v>97.755</v>
+        <v>104.153</v>
       </c>
       <c r="D52" t="s">
         <v>607</v>
@@ -3099,7 +3099,7 @@
         <v>606</v>
       </c>
       <c r="C53">
-        <v>101.779</v>
+        <v>100.586</v>
       </c>
       <c r="D53" t="s">
         <v>607</v>
@@ -3116,7 +3116,7 @@
         <v>606</v>
       </c>
       <c r="C54">
-        <v>104.978</v>
+        <v>105.379</v>
       </c>
       <c r="D54" t="s">
         <v>607</v>
@@ -3133,7 +3133,7 @@
         <v>606</v>
       </c>
       <c r="C55">
-        <v>102.587</v>
+        <v>101.979</v>
       </c>
       <c r="D55" t="s">
         <v>607</v>
@@ -3150,7 +3150,7 @@
         <v>605</v>
       </c>
       <c r="C56">
-        <v>97.929</v>
+        <v>97.52200000000001</v>
       </c>
       <c r="D56" t="s">
         <v>607</v>
@@ -3164,10 +3164,10 @@
         <v>60</v>
       </c>
       <c r="B57" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C57">
-        <v>120.162</v>
+        <v>84.27200000000001</v>
       </c>
       <c r="D57" t="s">
         <v>607</v>
@@ -3184,7 +3184,7 @@
         <v>606</v>
       </c>
       <c r="C58">
-        <v>110.166</v>
+        <v>103.752</v>
       </c>
       <c r="D58" t="s">
         <v>607</v>
@@ -3198,10 +3198,10 @@
         <v>62</v>
       </c>
       <c r="B59" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C59">
-        <v>103.004</v>
+        <v>96.77200000000001</v>
       </c>
       <c r="D59" t="s">
         <v>607</v>
@@ -3218,7 +3218,7 @@
         <v>605</v>
       </c>
       <c r="C60">
-        <v>92.057</v>
+        <v>99.244</v>
       </c>
       <c r="D60" t="s">
         <v>607</v>
@@ -3235,7 +3235,7 @@
         <v>606</v>
       </c>
       <c r="C61">
-        <v>104.631</v>
+        <v>106.672</v>
       </c>
       <c r="D61" t="s">
         <v>607</v>
@@ -3252,7 +3252,7 @@
         <v>605</v>
       </c>
       <c r="C62">
-        <v>96.538</v>
+        <v>98.08799999999999</v>
       </c>
       <c r="D62" t="s">
         <v>607</v>
@@ -3269,7 +3269,7 @@
         <v>605</v>
       </c>
       <c r="C63">
-        <v>97.407</v>
+        <v>98.316</v>
       </c>
       <c r="D63" t="s">
         <v>607</v>
@@ -3283,10 +3283,10 @@
         <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C64">
-        <v>100.64</v>
+        <v>92.73399999999999</v>
       </c>
       <c r="D64" t="s">
         <v>607</v>
@@ -3300,10 +3300,10 @@
         <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C65">
-        <v>105.663</v>
+        <v>93.458</v>
       </c>
       <c r="D65" t="s">
         <v>607</v>
@@ -3317,10 +3317,10 @@
         <v>69</v>
       </c>
       <c r="B66" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C66">
-        <v>101.805</v>
+        <v>96.657</v>
       </c>
       <c r="D66" t="s">
         <v>607</v>
@@ -3334,10 +3334,10 @@
         <v>70</v>
       </c>
       <c r="B67" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C67">
-        <v>101.334</v>
+        <v>94.371</v>
       </c>
       <c r="D67" t="s">
         <v>607</v>
@@ -3354,7 +3354,7 @@
         <v>606</v>
       </c>
       <c r="C68">
-        <v>100.166</v>
+        <v>100.773</v>
       </c>
       <c r="D68" t="s">
         <v>607</v>
@@ -3371,7 +3371,7 @@
         <v>605</v>
       </c>
       <c r="C69">
-        <v>96.536</v>
+        <v>96.729</v>
       </c>
       <c r="D69" t="s">
         <v>607</v>
@@ -3385,10 +3385,10 @@
         <v>73</v>
       </c>
       <c r="B70" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C70">
-        <v>134.528</v>
+        <v>94.051</v>
       </c>
       <c r="D70" t="s">
         <v>607</v>
@@ -3402,10 +3402,10 @@
         <v>74</v>
       </c>
       <c r="B71" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C71">
-        <v>99.56999999999999</v>
+        <v>102.346</v>
       </c>
       <c r="D71" t="s">
         <v>607</v>
@@ -3419,10 +3419,10 @@
         <v>75</v>
       </c>
       <c r="B72" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C72">
-        <v>100.4</v>
+        <v>95.258</v>
       </c>
       <c r="D72" t="s">
         <v>607</v>
@@ -3439,7 +3439,7 @@
         <v>606</v>
       </c>
       <c r="C73">
-        <v>105.702</v>
+        <v>100.321</v>
       </c>
       <c r="D73" t="s">
         <v>607</v>
@@ -3456,7 +3456,7 @@
         <v>605</v>
       </c>
       <c r="C74">
-        <v>98.245</v>
+        <v>99.226</v>
       </c>
       <c r="D74" t="s">
         <v>607</v>
@@ -3470,10 +3470,10 @@
         <v>78</v>
       </c>
       <c r="B75" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C75">
-        <v>100.029</v>
+        <v>97.745</v>
       </c>
       <c r="D75" t="s">
         <v>607</v>
@@ -3490,7 +3490,7 @@
         <v>605</v>
       </c>
       <c r="C76">
-        <v>98.164</v>
+        <v>92.15600000000001</v>
       </c>
       <c r="D76" t="s">
         <v>607</v>
@@ -3507,7 +3507,7 @@
         <v>606</v>
       </c>
       <c r="C77">
-        <v>104.013</v>
+        <v>107.439</v>
       </c>
       <c r="D77" t="s">
         <v>607</v>
@@ -3524,7 +3524,7 @@
         <v>605</v>
       </c>
       <c r="C78">
-        <v>99.188</v>
+        <v>93.72799999999999</v>
       </c>
       <c r="D78" t="s">
         <v>607</v>
@@ -3538,10 +3538,10 @@
         <v>82</v>
       </c>
       <c r="B79" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C79">
-        <v>81.34099999999999</v>
+        <v>101.821</v>
       </c>
       <c r="D79" t="s">
         <v>607</v>
@@ -3558,7 +3558,7 @@
         <v>606</v>
       </c>
       <c r="C80">
-        <v>102.829</v>
+        <v>109.82</v>
       </c>
       <c r="D80" t="s">
         <v>607</v>
@@ -3572,10 +3572,10 @@
         <v>84</v>
       </c>
       <c r="B81" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C81">
-        <v>108.037</v>
+        <v>96.42</v>
       </c>
       <c r="D81" t="s">
         <v>607</v>
@@ -3592,7 +3592,7 @@
         <v>605</v>
       </c>
       <c r="C82">
-        <v>99.232</v>
+        <v>91.935</v>
       </c>
       <c r="D82" t="s">
         <v>607</v>
@@ -3609,7 +3609,7 @@
         <v>606</v>
       </c>
       <c r="C83">
-        <v>109.099</v>
+        <v>108.177</v>
       </c>
       <c r="D83" t="s">
         <v>607</v>
@@ -3626,7 +3626,7 @@
         <v>605</v>
       </c>
       <c r="C84">
-        <v>96.188</v>
+        <v>93.65600000000001</v>
       </c>
       <c r="D84" t="s">
         <v>607</v>
@@ -3643,7 +3643,7 @@
         <v>605</v>
       </c>
       <c r="C85">
-        <v>98.389</v>
+        <v>94.98399999999999</v>
       </c>
       <c r="D85" t="s">
         <v>607</v>
@@ -3660,7 +3660,7 @@
         <v>605</v>
       </c>
       <c r="C86">
-        <v>96.46599999999999</v>
+        <v>90.575</v>
       </c>
       <c r="D86" t="s">
         <v>607</v>
@@ -3674,10 +3674,10 @@
         <v>90</v>
       </c>
       <c r="B87" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C87">
-        <v>102.51</v>
+        <v>87.024</v>
       </c>
       <c r="D87" t="s">
         <v>607</v>
@@ -3691,10 +3691,10 @@
         <v>91</v>
       </c>
       <c r="B88" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C88">
-        <v>85.057</v>
+        <v>105.302</v>
       </c>
       <c r="D88" t="s">
         <v>607</v>
@@ -3711,7 +3711,7 @@
         <v>606</v>
       </c>
       <c r="C89">
-        <v>100.172</v>
+        <v>106.177</v>
       </c>
       <c r="D89" t="s">
         <v>607</v>
@@ -3725,10 +3725,10 @@
         <v>93</v>
       </c>
       <c r="B90" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C90">
-        <v>100.049</v>
+        <v>96.29900000000001</v>
       </c>
       <c r="D90" t="s">
         <v>607</v>
@@ -3745,7 +3745,7 @@
         <v>606</v>
       </c>
       <c r="C91">
-        <v>114.361</v>
+        <v>106.727</v>
       </c>
       <c r="D91" t="s">
         <v>607</v>
@@ -3759,10 +3759,10 @@
         <v>95</v>
       </c>
       <c r="B92" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C92">
-        <v>96.598</v>
+        <v>101.166</v>
       </c>
       <c r="D92" t="s">
         <v>607</v>
@@ -3779,7 +3779,7 @@
         <v>605</v>
       </c>
       <c r="C93">
-        <v>89.10299999999999</v>
+        <v>97.122</v>
       </c>
       <c r="D93" t="s">
         <v>607</v>
@@ -3796,7 +3796,7 @@
         <v>605</v>
       </c>
       <c r="C94">
-        <v>98.732</v>
+        <v>92.76000000000001</v>
       </c>
       <c r="D94" t="s">
         <v>607</v>
@@ -3810,10 +3810,10 @@
         <v>98</v>
       </c>
       <c r="B95" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C95">
-        <v>108.378</v>
+        <v>94.621</v>
       </c>
       <c r="D95" t="s">
         <v>607</v>
@@ -3827,10 +3827,10 @@
         <v>99</v>
       </c>
       <c r="B96" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C96">
-        <v>98.306</v>
+        <v>102.048</v>
       </c>
       <c r="D96" t="s">
         <v>607</v>
@@ -3847,7 +3847,7 @@
         <v>605</v>
       </c>
       <c r="C97">
-        <v>99.089</v>
+        <v>86.90000000000001</v>
       </c>
       <c r="D97" t="s">
         <v>607</v>
@@ -3861,10 +3861,10 @@
         <v>101</v>
       </c>
       <c r="B98" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C98">
-        <v>90.122</v>
+        <v>125.457</v>
       </c>
       <c r="D98" t="s">
         <v>607</v>
@@ -3881,7 +3881,7 @@
         <v>606</v>
       </c>
       <c r="C99">
-        <v>106.21</v>
+        <v>100.384</v>
       </c>
       <c r="D99" t="s">
         <v>607</v>
@@ -3895,10 +3895,10 @@
         <v>103</v>
       </c>
       <c r="B100" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C100">
-        <v>97.92100000000001</v>
+        <v>101.175</v>
       </c>
       <c r="D100" t="s">
         <v>607</v>
@@ -3912,10 +3912,10 @@
         <v>104</v>
       </c>
       <c r="B101" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C101">
-        <v>90.64700000000001</v>
+        <v>101.857</v>
       </c>
       <c r="D101" t="s">
         <v>607</v>
@@ -3929,10 +3929,10 @@
         <v>105</v>
       </c>
       <c r="B102" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C102">
-        <v>104.247</v>
+        <v>95.19</v>
       </c>
       <c r="D102" t="s">
         <v>607</v>
@@ -3949,7 +3949,7 @@
         <v>606</v>
       </c>
       <c r="C103">
-        <v>104.229</v>
+        <v>101.939</v>
       </c>
       <c r="D103" t="s">
         <v>607</v>
@@ -3966,7 +3966,7 @@
         <v>606</v>
       </c>
       <c r="C104">
-        <v>100.753</v>
+        <v>106.621</v>
       </c>
       <c r="D104" t="s">
         <v>607</v>
@@ -3980,10 +3980,10 @@
         <v>108</v>
       </c>
       <c r="B105" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C105">
-        <v>100.813</v>
+        <v>98.961</v>
       </c>
       <c r="D105" t="s">
         <v>607</v>
@@ -3997,10 +3997,10 @@
         <v>109</v>
       </c>
       <c r="B106" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C106">
-        <v>99.327</v>
+        <v>101.141</v>
       </c>
       <c r="D106" t="s">
         <v>607</v>
@@ -4014,10 +4014,10 @@
         <v>110</v>
       </c>
       <c r="B107" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C107">
-        <v>103.933</v>
+        <v>98.123</v>
       </c>
       <c r="D107" t="s">
         <v>607</v>
@@ -4034,7 +4034,7 @@
         <v>606</v>
       </c>
       <c r="C108">
-        <v>102.295</v>
+        <v>100.469</v>
       </c>
       <c r="D108" t="s">
         <v>607</v>
@@ -4051,7 +4051,7 @@
         <v>605</v>
       </c>
       <c r="C109">
-        <v>95.871</v>
+        <v>97.95999999999999</v>
       </c>
       <c r="D109" t="s">
         <v>607</v>
@@ -4065,10 +4065,10 @@
         <v>113</v>
       </c>
       <c r="B110" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C110">
-        <v>96.236</v>
+        <v>104.48</v>
       </c>
       <c r="D110" t="s">
         <v>607</v>
@@ -4082,10 +4082,10 @@
         <v>114</v>
       </c>
       <c r="B111" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C111">
-        <v>105.361</v>
+        <v>93.545</v>
       </c>
       <c r="D111" t="s">
         <v>607</v>
@@ -4099,10 +4099,10 @@
         <v>115</v>
       </c>
       <c r="B112" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C112">
-        <v>97.191</v>
+        <v>100.117</v>
       </c>
       <c r="D112" t="s">
         <v>607</v>
@@ -4119,7 +4119,7 @@
         <v>606</v>
       </c>
       <c r="C113">
-        <v>103.696</v>
+        <v>102.327</v>
       </c>
       <c r="D113" t="s">
         <v>607</v>
@@ -4136,7 +4136,7 @@
         <v>606</v>
       </c>
       <c r="C114">
-        <v>105.015</v>
+        <v>100.74</v>
       </c>
       <c r="D114" t="s">
         <v>607</v>
@@ -4150,10 +4150,10 @@
         <v>118</v>
       </c>
       <c r="B115" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C115">
-        <v>104.425</v>
+        <v>97.626</v>
       </c>
       <c r="D115" t="s">
         <v>607</v>
@@ -4170,7 +4170,7 @@
         <v>605</v>
       </c>
       <c r="C116">
-        <v>99.53400000000001</v>
+        <v>95.944</v>
       </c>
       <c r="D116" t="s">
         <v>607</v>
@@ -4187,7 +4187,7 @@
         <v>606</v>
       </c>
       <c r="C117">
-        <v>104.892</v>
+        <v>102.772</v>
       </c>
       <c r="D117" t="s">
         <v>607</v>
@@ -4204,7 +4204,7 @@
         <v>606</v>
       </c>
       <c r="C118">
-        <v>105.745</v>
+        <v>100.432</v>
       </c>
       <c r="D118" t="s">
         <v>607</v>
@@ -4218,10 +4218,10 @@
         <v>122</v>
       </c>
       <c r="B119" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C119">
-        <v>100.518</v>
+        <v>96.20999999999999</v>
       </c>
       <c r="D119" t="s">
         <v>607</v>
@@ -4238,7 +4238,7 @@
         <v>606</v>
       </c>
       <c r="C120">
-        <v>102.57</v>
+        <v>110.065</v>
       </c>
       <c r="D120" t="s">
         <v>607</v>
@@ -4252,10 +4252,10 @@
         <v>124</v>
       </c>
       <c r="B121" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C121">
-        <v>104.83</v>
+        <v>98.47</v>
       </c>
       <c r="D121" t="s">
         <v>607</v>
@@ -4272,7 +4272,7 @@
         <v>606</v>
       </c>
       <c r="C122">
-        <v>107.482</v>
+        <v>103.046</v>
       </c>
       <c r="D122" t="s">
         <v>607</v>
@@ -4286,10 +4286,10 @@
         <v>126</v>
       </c>
       <c r="B123" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C123">
-        <v>94.254</v>
+        <v>107.918</v>
       </c>
       <c r="D123" t="s">
         <v>607</v>
@@ -4306,7 +4306,7 @@
         <v>605</v>
       </c>
       <c r="C124">
-        <v>98.175</v>
+        <v>97.96599999999999</v>
       </c>
       <c r="D124" t="s">
         <v>607</v>
@@ -4320,10 +4320,10 @@
         <v>128</v>
       </c>
       <c r="B125" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C125">
-        <v>106.817</v>
+        <v>98.96899999999999</v>
       </c>
       <c r="D125" t="s">
         <v>607</v>
@@ -4337,10 +4337,10 @@
         <v>129</v>
       </c>
       <c r="B126" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C126">
-        <v>101.492</v>
+        <v>97.34999999999999</v>
       </c>
       <c r="D126" t="s">
         <v>607</v>
@@ -4357,7 +4357,7 @@
         <v>605</v>
       </c>
       <c r="C127">
-        <v>98.958</v>
+        <v>95.854</v>
       </c>
       <c r="D127" t="s">
         <v>607</v>
@@ -4371,10 +4371,10 @@
         <v>131</v>
       </c>
       <c r="B128" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C128">
-        <v>93.38800000000001</v>
+        <v>100.1</v>
       </c>
       <c r="D128" t="s">
         <v>607</v>
@@ -4391,7 +4391,7 @@
         <v>606</v>
       </c>
       <c r="C129">
-        <v>100</v>
+        <v>104.385</v>
       </c>
       <c r="D129" t="s">
         <v>607</v>
@@ -4405,10 +4405,10 @@
         <v>133</v>
       </c>
       <c r="B130" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C130">
-        <v>100.947</v>
+        <v>96.315</v>
       </c>
       <c r="D130" t="s">
         <v>607</v>
@@ -4425,7 +4425,7 @@
         <v>605</v>
       </c>
       <c r="C131">
-        <v>99.524</v>
+        <v>99.38200000000001</v>
       </c>
       <c r="D131" t="s">
         <v>607</v>
@@ -4439,10 +4439,10 @@
         <v>135</v>
       </c>
       <c r="B132" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C132">
-        <v>98.538</v>
+        <v>107.524</v>
       </c>
       <c r="D132" t="s">
         <v>607</v>
@@ -4459,7 +4459,7 @@
         <v>606</v>
       </c>
       <c r="C133">
-        <v>105.168</v>
+        <v>102.457</v>
       </c>
       <c r="D133" t="s">
         <v>607</v>
@@ -4476,7 +4476,7 @@
         <v>606</v>
       </c>
       <c r="C134">
-        <v>105.72</v>
+        <v>101.086</v>
       </c>
       <c r="D134" t="s">
         <v>607</v>
@@ -4490,10 +4490,10 @@
         <v>138</v>
       </c>
       <c r="B135" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C135">
-        <v>97.023</v>
+        <v>109.296</v>
       </c>
       <c r="D135" t="s">
         <v>607</v>
@@ -4507,10 +4507,10 @@
         <v>139</v>
       </c>
       <c r="B136" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C136">
-        <v>100.68</v>
+        <v>98.715</v>
       </c>
       <c r="D136" t="s">
         <v>607</v>
@@ -4527,7 +4527,7 @@
         <v>606</v>
       </c>
       <c r="C137">
-        <v>100.937</v>
+        <v>101.833</v>
       </c>
       <c r="D137" t="s">
         <v>607</v>
@@ -4541,10 +4541,10 @@
         <v>141</v>
       </c>
       <c r="B138" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C138">
-        <v>97.83499999999999</v>
+        <v>101.729</v>
       </c>
       <c r="D138" t="s">
         <v>607</v>
@@ -4561,7 +4561,7 @@
         <v>605</v>
       </c>
       <c r="C139">
-        <v>99.265</v>
+        <v>96.565</v>
       </c>
       <c r="D139" t="s">
         <v>607</v>
@@ -4578,7 +4578,7 @@
         <v>605</v>
       </c>
       <c r="C140">
-        <v>98.48699999999999</v>
+        <v>98.248</v>
       </c>
       <c r="D140" t="s">
         <v>607</v>
@@ -4595,7 +4595,7 @@
         <v>606</v>
       </c>
       <c r="C141">
-        <v>101.787</v>
+        <v>102.789</v>
       </c>
       <c r="D141" t="s">
         <v>607</v>
@@ -4609,10 +4609,10 @@
         <v>145</v>
       </c>
       <c r="B142" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C142">
-        <v>102.668</v>
+        <v>96.17100000000001</v>
       </c>
       <c r="D142" t="s">
         <v>607</v>
@@ -4629,7 +4629,7 @@
         <v>605</v>
       </c>
       <c r="C143">
-        <v>99.205</v>
+        <v>99.602</v>
       </c>
       <c r="D143" t="s">
         <v>607</v>
@@ -4646,7 +4646,7 @@
         <v>606</v>
       </c>
       <c r="C144">
-        <v>101.036</v>
+        <v>100.898</v>
       </c>
       <c r="D144" t="s">
         <v>607</v>
@@ -4663,7 +4663,7 @@
         <v>606</v>
       </c>
       <c r="C145">
-        <v>102.642</v>
+        <v>105.206</v>
       </c>
       <c r="D145" t="s">
         <v>607</v>
@@ -4677,10 +4677,10 @@
         <v>149</v>
       </c>
       <c r="B146" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C146">
-        <v>102.992</v>
+        <v>99.794</v>
       </c>
       <c r="D146" t="s">
         <v>607</v>
@@ -4694,10 +4694,10 @@
         <v>150</v>
       </c>
       <c r="B147" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C147">
-        <v>101.39</v>
+        <v>98.983</v>
       </c>
       <c r="D147" t="s">
         <v>607</v>
@@ -4714,7 +4714,7 @@
         <v>606</v>
       </c>
       <c r="C148">
-        <v>101.036</v>
+        <v>102.209</v>
       </c>
       <c r="D148" t="s">
         <v>607</v>
@@ -4728,10 +4728,10 @@
         <v>152</v>
       </c>
       <c r="B149" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C149">
-        <v>95.541</v>
+        <v>104.75</v>
       </c>
       <c r="D149" t="s">
         <v>607</v>
@@ -4745,10 +4745,10 @@
         <v>153</v>
       </c>
       <c r="B150" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C150">
-        <v>109.138</v>
+        <v>95.726</v>
       </c>
       <c r="D150" t="s">
         <v>607</v>
@@ -4762,10 +4762,10 @@
         <v>154</v>
       </c>
       <c r="B151" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C151">
-        <v>106.191</v>
+        <v>99.113</v>
       </c>
       <c r="D151" t="s">
         <v>607</v>
@@ -4779,10 +4779,10 @@
         <v>155</v>
       </c>
       <c r="B152" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C152">
-        <v>99.76900000000001</v>
+        <v>108.265</v>
       </c>
       <c r="D152" t="s">
         <v>607</v>
@@ -4799,7 +4799,7 @@
         <v>606</v>
       </c>
       <c r="C153">
-        <v>105.329</v>
+        <v>100.445</v>
       </c>
       <c r="D153" t="s">
         <v>607</v>
@@ -4813,10 +4813,10 @@
         <v>157</v>
       </c>
       <c r="B154" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C154">
-        <v>98.968</v>
+        <v>103.235</v>
       </c>
       <c r="D154" t="s">
         <v>607</v>
@@ -4833,7 +4833,7 @@
         <v>605</v>
       </c>
       <c r="C155">
-        <v>98.328</v>
+        <v>91.861</v>
       </c>
       <c r="D155" t="s">
         <v>607</v>
@@ -4847,10 +4847,10 @@
         <v>159</v>
       </c>
       <c r="B156" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C156">
-        <v>101.565</v>
+        <v>99.76000000000001</v>
       </c>
       <c r="D156" t="s">
         <v>607</v>
@@ -4864,10 +4864,10 @@
         <v>160</v>
       </c>
       <c r="B157" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C157">
-        <v>101.932</v>
+        <v>98.22</v>
       </c>
       <c r="D157" t="s">
         <v>607</v>
@@ -4884,7 +4884,7 @@
         <v>605</v>
       </c>
       <c r="C158">
-        <v>98.914</v>
+        <v>98.712</v>
       </c>
       <c r="D158" t="s">
         <v>607</v>
@@ -4901,7 +4901,7 @@
         <v>606</v>
       </c>
       <c r="C159">
-        <v>100.369</v>
+        <v>101.305</v>
       </c>
       <c r="D159" t="s">
         <v>607</v>
@@ -4915,10 +4915,10 @@
         <v>163</v>
       </c>
       <c r="B160" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C160">
-        <v>102.279</v>
+        <v>98.261</v>
       </c>
       <c r="D160" t="s">
         <v>607</v>
@@ -4932,10 +4932,10 @@
         <v>164</v>
       </c>
       <c r="B161" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C161">
-        <v>103.564</v>
+        <v>93.075</v>
       </c>
       <c r="D161" t="s">
         <v>607</v>
@@ -4949,10 +4949,10 @@
         <v>165</v>
       </c>
       <c r="B162" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C162">
-        <v>98.69</v>
+        <v>110.42</v>
       </c>
       <c r="D162" t="s">
         <v>607</v>
@@ -4966,10 +4966,10 @@
         <v>166</v>
       </c>
       <c r="B163" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C163">
-        <v>99.67700000000001</v>
+        <v>102.478</v>
       </c>
       <c r="D163" t="s">
         <v>607</v>
@@ -4986,7 +4986,7 @@
         <v>606</v>
       </c>
       <c r="C164">
-        <v>100.914</v>
+        <v>106.981</v>
       </c>
       <c r="D164" t="s">
         <v>607</v>
@@ -5000,10 +5000,10 @@
         <v>168</v>
       </c>
       <c r="B165" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C165">
-        <v>99.86199999999999</v>
+        <v>106.048</v>
       </c>
       <c r="D165" t="s">
         <v>607</v>
@@ -5017,10 +5017,10 @@
         <v>169</v>
       </c>
       <c r="B166" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C166">
-        <v>99.934</v>
+        <v>103.03</v>
       </c>
       <c r="D166" t="s">
         <v>607</v>
@@ -5034,10 +5034,10 @@
         <v>170</v>
       </c>
       <c r="B167" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C167">
-        <v>106.042</v>
+        <v>99.276</v>
       </c>
       <c r="D167" t="s">
         <v>607</v>
@@ -5051,10 +5051,10 @@
         <v>171</v>
       </c>
       <c r="B168" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C168">
-        <v>99.622</v>
+        <v>100.363</v>
       </c>
       <c r="D168" t="s">
         <v>607</v>
@@ -5068,10 +5068,10 @@
         <v>172</v>
       </c>
       <c r="B169" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C169">
-        <v>95.161</v>
+        <v>100.45</v>
       </c>
       <c r="D169" t="s">
         <v>607</v>
@@ -5088,7 +5088,7 @@
         <v>606</v>
       </c>
       <c r="C170">
-        <v>101.259</v>
+        <v>100.943</v>
       </c>
       <c r="D170" t="s">
         <v>607</v>
@@ -5102,10 +5102,10 @@
         <v>174</v>
       </c>
       <c r="B171" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C171">
-        <v>101.997</v>
+        <v>97.51600000000001</v>
       </c>
       <c r="D171" t="s">
         <v>607</v>
@@ -5122,7 +5122,7 @@
         <v>606</v>
       </c>
       <c r="C172">
-        <v>101.665</v>
+        <v>101.866</v>
       </c>
       <c r="D172" t="s">
         <v>607</v>
@@ -5139,7 +5139,7 @@
         <v>606</v>
       </c>
       <c r="C173">
-        <v>101.293</v>
+        <v>101.804</v>
       </c>
       <c r="D173" t="s">
         <v>607</v>
@@ -5156,7 +5156,7 @@
         <v>606</v>
       </c>
       <c r="C174">
-        <v>103.028</v>
+        <v>102.642</v>
       </c>
       <c r="D174" t="s">
         <v>607</v>
@@ -5170,10 +5170,10 @@
         <v>178</v>
       </c>
       <c r="B175" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C175">
-        <v>105.953</v>
+        <v>98.548</v>
       </c>
       <c r="D175" t="s">
         <v>607</v>
@@ -5190,7 +5190,7 @@
         <v>606</v>
       </c>
       <c r="C176">
-        <v>113.301</v>
+        <v>109.124</v>
       </c>
       <c r="D176" t="s">
         <v>607</v>
@@ -5207,7 +5207,7 @@
         <v>606</v>
       </c>
       <c r="C177">
-        <v>105.521</v>
+        <v>101.327</v>
       </c>
       <c r="D177" t="s">
         <v>607</v>
@@ -5221,10 +5221,10 @@
         <v>181</v>
       </c>
       <c r="B178" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C178">
-        <v>104.219</v>
+        <v>99.899</v>
       </c>
       <c r="D178" t="s">
         <v>607</v>
@@ -5238,10 +5238,10 @@
         <v>182</v>
       </c>
       <c r="B179" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C179">
-        <v>91.926</v>
+        <v>100.381</v>
       </c>
       <c r="D179" t="s">
         <v>607</v>
@@ -5258,7 +5258,7 @@
         <v>606</v>
       </c>
       <c r="C180">
-        <v>101.767</v>
+        <v>100.434</v>
       </c>
       <c r="D180" t="s">
         <v>607</v>
@@ -5275,7 +5275,7 @@
         <v>606</v>
       </c>
       <c r="C181">
-        <v>105.033</v>
+        <v>102.609</v>
       </c>
       <c r="D181" t="s">
         <v>607</v>
@@ -5292,7 +5292,7 @@
         <v>606</v>
       </c>
       <c r="C182">
-        <v>105.492</v>
+        <v>111.563</v>
       </c>
       <c r="D182" t="s">
         <v>607</v>
@@ -5309,7 +5309,7 @@
         <v>606</v>
       </c>
       <c r="C183">
-        <v>101.069</v>
+        <v>114.829</v>
       </c>
       <c r="D183" t="s">
         <v>607</v>
@@ -5323,10 +5323,10 @@
         <v>187</v>
       </c>
       <c r="B184" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C184">
-        <v>97.812</v>
+        <v>100.024</v>
       </c>
       <c r="D184" t="s">
         <v>607</v>
@@ -5343,7 +5343,7 @@
         <v>606</v>
       </c>
       <c r="C185">
-        <v>100.625</v>
+        <v>100.182</v>
       </c>
       <c r="D185" t="s">
         <v>607</v>
@@ -5357,10 +5357,10 @@
         <v>189</v>
       </c>
       <c r="B186" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C186">
-        <v>110.209</v>
+        <v>96.45399999999999</v>
       </c>
       <c r="D186" t="s">
         <v>607</v>
@@ -5374,10 +5374,10 @@
         <v>190</v>
       </c>
       <c r="B187" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C187">
-        <v>105.833</v>
+        <v>96.774</v>
       </c>
       <c r="D187" t="s">
         <v>607</v>
@@ -5394,7 +5394,7 @@
         <v>606</v>
       </c>
       <c r="C188">
-        <v>101.776</v>
+        <v>110.238</v>
       </c>
       <c r="D188" t="s">
         <v>607</v>
@@ -5408,10 +5408,10 @@
         <v>192</v>
       </c>
       <c r="B189" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C189">
-        <v>104.419</v>
+        <v>97.65900000000001</v>
       </c>
       <c r="D189" t="s">
         <v>607</v>
@@ -5425,10 +5425,10 @@
         <v>193</v>
       </c>
       <c r="B190" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C190">
-        <v>95.52200000000001</v>
+        <v>116.414</v>
       </c>
       <c r="D190" t="s">
         <v>607</v>
@@ -5445,7 +5445,7 @@
         <v>605</v>
       </c>
       <c r="C191">
-        <v>99.626</v>
+        <v>99.89700000000001</v>
       </c>
       <c r="D191" t="s">
         <v>607</v>
@@ -5462,7 +5462,7 @@
         <v>606</v>
       </c>
       <c r="C192">
-        <v>102.152</v>
+        <v>102.508</v>
       </c>
       <c r="D192" t="s">
         <v>607</v>
@@ -5479,7 +5479,7 @@
         <v>606</v>
       </c>
       <c r="C193">
-        <v>101.502</v>
+        <v>106.502</v>
       </c>
       <c r="D193" t="s">
         <v>607</v>
@@ -5496,7 +5496,7 @@
         <v>606</v>
       </c>
       <c r="C194">
-        <v>101.258</v>
+        <v>102.512</v>
       </c>
       <c r="D194" t="s">
         <v>607</v>
@@ -5513,7 +5513,7 @@
         <v>606</v>
       </c>
       <c r="C195">
-        <v>102.187</v>
+        <v>104.391</v>
       </c>
       <c r="D195" t="s">
         <v>607</v>
@@ -5530,7 +5530,7 @@
         <v>606</v>
       </c>
       <c r="C196">
-        <v>103.868</v>
+        <v>100.986</v>
       </c>
       <c r="D196" t="s">
         <v>607</v>
@@ -5544,10 +5544,10 @@
         <v>200</v>
       </c>
       <c r="B197" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C197">
-        <v>103.603</v>
+        <v>93.768</v>
       </c>
       <c r="D197" t="s">
         <v>607</v>
@@ -5564,7 +5564,7 @@
         <v>605</v>
       </c>
       <c r="C198">
-        <v>99.895</v>
+        <v>98.711</v>
       </c>
       <c r="D198" t="s">
         <v>607</v>
@@ -5581,7 +5581,7 @@
         <v>606</v>
       </c>
       <c r="C199">
-        <v>102.987</v>
+        <v>100.354</v>
       </c>
       <c r="D199" t="s">
         <v>607</v>
@@ -5598,7 +5598,7 @@
         <v>605</v>
       </c>
       <c r="C200">
-        <v>97.13500000000001</v>
+        <v>97.80500000000001</v>
       </c>
       <c r="D200" t="s">
         <v>607</v>
@@ -5615,7 +5615,7 @@
         <v>606</v>
       </c>
       <c r="C201">
-        <v>113.671</v>
+        <v>101.441</v>
       </c>
       <c r="D201" t="s">
         <v>607</v>
@@ -5632,7 +5632,7 @@
         <v>606</v>
       </c>
       <c r="C202">
-        <v>107.63</v>
+        <v>104.237</v>
       </c>
       <c r="D202" t="s">
         <v>607</v>
@@ -5646,10 +5646,10 @@
         <v>206</v>
       </c>
       <c r="B203" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C203">
-        <v>102.937</v>
+        <v>99.414</v>
       </c>
       <c r="D203" t="s">
         <v>607</v>
@@ -5663,10 +5663,10 @@
         <v>207</v>
       </c>
       <c r="B204" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C204">
-        <v>105.245</v>
+        <v>99.825</v>
       </c>
       <c r="D204" t="s">
         <v>607</v>
@@ -5680,10 +5680,10 @@
         <v>208</v>
       </c>
       <c r="B205" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C205">
-        <v>103.634</v>
+        <v>96.378</v>
       </c>
       <c r="D205" t="s">
         <v>607</v>
@@ -5700,7 +5700,7 @@
         <v>605</v>
       </c>
       <c r="C206">
-        <v>97.568</v>
+        <v>98.968</v>
       </c>
       <c r="D206" t="s">
         <v>607</v>
@@ -5714,10 +5714,10 @@
         <v>210</v>
       </c>
       <c r="B207" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C207">
-        <v>101.889</v>
+        <v>99.676</v>
       </c>
       <c r="D207" t="s">
         <v>607</v>
@@ -5731,10 +5731,10 @@
         <v>211</v>
       </c>
       <c r="B208" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C208">
-        <v>99.73099999999999</v>
+        <v>101.195</v>
       </c>
       <c r="D208" t="s">
         <v>607</v>
@@ -5751,7 +5751,7 @@
         <v>606</v>
       </c>
       <c r="C209">
-        <v>102.397</v>
+        <v>101.112</v>
       </c>
       <c r="D209" t="s">
         <v>607</v>
@@ -5768,7 +5768,7 @@
         <v>606</v>
       </c>
       <c r="C210">
-        <v>101.981</v>
+        <v>105.806</v>
       </c>
       <c r="D210" t="s">
         <v>607</v>
@@ -5785,7 +5785,7 @@
         <v>605</v>
       </c>
       <c r="C211">
-        <v>99.721</v>
+        <v>98.92400000000001</v>
       </c>
       <c r="D211" t="s">
         <v>607</v>
@@ -5802,7 +5802,7 @@
         <v>606</v>
       </c>
       <c r="C212">
-        <v>105.221</v>
+        <v>113.131</v>
       </c>
       <c r="D212" t="s">
         <v>607</v>
@@ -5819,7 +5819,7 @@
         <v>605</v>
       </c>
       <c r="C213">
-        <v>96.84399999999999</v>
+        <v>97.18000000000001</v>
       </c>
       <c r="D213" t="s">
         <v>607</v>
@@ -5836,7 +5836,7 @@
         <v>606</v>
       </c>
       <c r="C214">
-        <v>105.796</v>
+        <v>101.732</v>
       </c>
       <c r="D214" t="s">
         <v>607</v>
@@ -5850,10 +5850,10 @@
         <v>218</v>
       </c>
       <c r="B215" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C215">
-        <v>104.952</v>
+        <v>99.488</v>
       </c>
       <c r="D215" t="s">
         <v>607</v>
@@ -5867,10 +5867,10 @@
         <v>219</v>
       </c>
       <c r="B216" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C216">
-        <v>99.36499999999999</v>
+        <v>106.079</v>
       </c>
       <c r="D216" t="s">
         <v>607</v>
@@ -5887,7 +5887,7 @@
         <v>605</v>
       </c>
       <c r="C217">
-        <v>99.645</v>
+        <v>97.274</v>
       </c>
       <c r="D217" t="s">
         <v>607</v>
@@ -5901,10 +5901,10 @@
         <v>221</v>
       </c>
       <c r="B218" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C218">
-        <v>99.84099999999999</v>
+        <v>100.849</v>
       </c>
       <c r="D218" t="s">
         <v>607</v>
@@ -5918,10 +5918,10 @@
         <v>222</v>
       </c>
       <c r="B219" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C219">
-        <v>110.861</v>
+        <v>91.64</v>
       </c>
       <c r="D219" t="s">
         <v>607</v>
@@ -5938,7 +5938,7 @@
         <v>606</v>
       </c>
       <c r="C220">
-        <v>102.632</v>
+        <v>100.794</v>
       </c>
       <c r="D220" t="s">
         <v>607</v>
@@ -5955,7 +5955,7 @@
         <v>606</v>
       </c>
       <c r="C221">
-        <v>100.239</v>
+        <v>100.705</v>
       </c>
       <c r="D221" t="s">
         <v>607</v>
@@ -5972,7 +5972,7 @@
         <v>605</v>
       </c>
       <c r="C222">
-        <v>99.04600000000001</v>
+        <v>97.559</v>
       </c>
       <c r="D222" t="s">
         <v>607</v>
@@ -5989,7 +5989,7 @@
         <v>605</v>
       </c>
       <c r="C223">
-        <v>97.764</v>
+        <v>96.361</v>
       </c>
       <c r="D223" t="s">
         <v>607</v>
@@ -6006,7 +6006,7 @@
         <v>606</v>
       </c>
       <c r="C224">
-        <v>105.714</v>
+        <v>100.575</v>
       </c>
       <c r="D224" t="s">
         <v>607</v>
@@ -6020,10 +6020,10 @@
         <v>228</v>
       </c>
       <c r="B225" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C225">
-        <v>99.184</v>
+        <v>111.443</v>
       </c>
       <c r="D225" t="s">
         <v>607</v>
@@ -6040,7 +6040,7 @@
         <v>606</v>
       </c>
       <c r="C226">
-        <v>105.445</v>
+        <v>100.457</v>
       </c>
       <c r="D226" t="s">
         <v>607</v>
@@ -6054,10 +6054,10 @@
         <v>230</v>
       </c>
       <c r="B227" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C227">
-        <v>98.262</v>
+        <v>103.713</v>
       </c>
       <c r="D227" t="s">
         <v>607</v>
@@ -6074,7 +6074,7 @@
         <v>606</v>
       </c>
       <c r="C228">
-        <v>104.412</v>
+        <v>104.689</v>
       </c>
       <c r="D228" t="s">
         <v>607</v>
@@ -6091,7 +6091,7 @@
         <v>606</v>
       </c>
       <c r="C229">
-        <v>101.03</v>
+        <v>107.906</v>
       </c>
       <c r="D229" t="s">
         <v>607</v>
@@ -6108,7 +6108,7 @@
         <v>606</v>
       </c>
       <c r="C230">
-        <v>100.182</v>
+        <v>103.247</v>
       </c>
       <c r="D230" t="s">
         <v>607</v>
@@ -6122,10 +6122,10 @@
         <v>234</v>
       </c>
       <c r="B231" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C231">
-        <v>99.874</v>
+        <v>101.773</v>
       </c>
       <c r="D231" t="s">
         <v>607</v>
@@ -6139,10 +6139,10 @@
         <v>235</v>
       </c>
       <c r="B232" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C232">
-        <v>98.559</v>
+        <v>103.606</v>
       </c>
       <c r="D232" t="s">
         <v>607</v>
@@ -6156,10 +6156,10 @@
         <v>236</v>
       </c>
       <c r="B233" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C233">
-        <v>100.014</v>
+        <v>98.565</v>
       </c>
       <c r="D233" t="s">
         <v>607</v>
@@ -6176,7 +6176,7 @@
         <v>605</v>
       </c>
       <c r="C234">
-        <v>97.914</v>
+        <v>96.496</v>
       </c>
       <c r="D234" t="s">
         <v>607</v>
@@ -6193,7 +6193,7 @@
         <v>606</v>
       </c>
       <c r="C235">
-        <v>104.358</v>
+        <v>101.724</v>
       </c>
       <c r="D235" t="s">
         <v>607</v>
@@ -6210,7 +6210,7 @@
         <v>606</v>
       </c>
       <c r="C236">
-        <v>101.18</v>
+        <v>105.369</v>
       </c>
       <c r="D236" t="s">
         <v>607</v>
@@ -6224,10 +6224,10 @@
         <v>240</v>
       </c>
       <c r="B237" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C237">
-        <v>98.492</v>
+        <v>103.722</v>
       </c>
       <c r="D237" t="s">
         <v>607</v>
@@ -6244,7 +6244,7 @@
         <v>606</v>
       </c>
       <c r="C238">
-        <v>102.66</v>
+        <v>100.232</v>
       </c>
       <c r="D238" t="s">
         <v>607</v>
@@ -6261,7 +6261,7 @@
         <v>606</v>
       </c>
       <c r="C239">
-        <v>103.12</v>
+        <v>103.26</v>
       </c>
       <c r="D239" t="s">
         <v>607</v>
@@ -6278,7 +6278,7 @@
         <v>606</v>
       </c>
       <c r="C240">
-        <v>102.206</v>
+        <v>100.035</v>
       </c>
       <c r="D240" t="s">
         <v>607</v>
@@ -6295,7 +6295,7 @@
         <v>606</v>
       </c>
       <c r="C241">
-        <v>104.752</v>
+        <v>100.686</v>
       </c>
       <c r="D241" t="s">
         <v>607</v>
@@ -6312,7 +6312,7 @@
         <v>606</v>
       </c>
       <c r="C242">
-        <v>104.417</v>
+        <v>100.26</v>
       </c>
       <c r="D242" t="s">
         <v>607</v>
@@ -6326,10 +6326,10 @@
         <v>246</v>
       </c>
       <c r="B243" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C243">
-        <v>98.497</v>
+        <v>107.278</v>
       </c>
       <c r="D243" t="s">
         <v>607</v>
@@ -6343,10 +6343,10 @@
         <v>247</v>
       </c>
       <c r="B244" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C244">
-        <v>104.987</v>
+        <v>97.533</v>
       </c>
       <c r="D244" t="s">
         <v>607</v>
@@ -6360,10 +6360,10 @@
         <v>248</v>
       </c>
       <c r="B245" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C245">
-        <v>109.929</v>
+        <v>99.52500000000001</v>
       </c>
       <c r="D245" t="s">
         <v>607</v>
@@ -6377,10 +6377,10 @@
         <v>249</v>
       </c>
       <c r="B246" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C246">
-        <v>102.566</v>
+        <v>98.76600000000001</v>
       </c>
       <c r="D246" t="s">
         <v>607</v>
@@ -6397,7 +6397,7 @@
         <v>606</v>
       </c>
       <c r="C247">
-        <v>101.722</v>
+        <v>100.171</v>
       </c>
       <c r="D247" t="s">
         <v>607</v>
@@ -6411,10 +6411,10 @@
         <v>251</v>
       </c>
       <c r="B248" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C248">
-        <v>105.347</v>
+        <v>94.84399999999999</v>
       </c>
       <c r="D248" t="s">
         <v>607</v>
@@ -6431,7 +6431,7 @@
         <v>605</v>
       </c>
       <c r="C249">
-        <v>97.294</v>
+        <v>99.023</v>
       </c>
       <c r="D249" t="s">
         <v>607</v>
@@ -6448,7 +6448,7 @@
         <v>606</v>
       </c>
       <c r="C250">
-        <v>100.788</v>
+        <v>101.031</v>
       </c>
       <c r="D250" t="s">
         <v>607</v>
@@ -6465,7 +6465,7 @@
         <v>606</v>
       </c>
       <c r="C251">
-        <v>101.323</v>
+        <v>100.741</v>
       </c>
       <c r="D251" t="s">
         <v>607</v>
@@ -6482,7 +6482,7 @@
         <v>606</v>
       </c>
       <c r="C252">
-        <v>103.1</v>
+        <v>101.301</v>
       </c>
       <c r="D252" t="s">
         <v>607</v>
@@ -6496,10 +6496,10 @@
         <v>256</v>
       </c>
       <c r="B253" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C253">
-        <v>99.48399999999999</v>
+        <v>102.761</v>
       </c>
       <c r="D253" t="s">
         <v>607</v>
@@ -6513,10 +6513,10 @@
         <v>257</v>
       </c>
       <c r="B254" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C254">
-        <v>104.752</v>
+        <v>97.47</v>
       </c>
       <c r="D254" t="s">
         <v>607</v>
@@ -6530,10 +6530,10 @@
         <v>258</v>
       </c>
       <c r="B255" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C255">
-        <v>100.429</v>
+        <v>99.78700000000001</v>
       </c>
       <c r="D255" t="s">
         <v>607</v>
@@ -6550,7 +6550,7 @@
         <v>606</v>
       </c>
       <c r="C256">
-        <v>100.142</v>
+        <v>107.248</v>
       </c>
       <c r="D256" t="s">
         <v>607</v>
@@ -6567,7 +6567,7 @@
         <v>606</v>
       </c>
       <c r="C257">
-        <v>105.021</v>
+        <v>100.663</v>
       </c>
       <c r="D257" t="s">
         <v>607</v>
@@ -6581,10 +6581,10 @@
         <v>261</v>
       </c>
       <c r="B258" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C258">
-        <v>97.26000000000001</v>
+        <v>101.035</v>
       </c>
       <c r="D258" t="s">
         <v>607</v>
@@ -6601,7 +6601,7 @@
         <v>605</v>
       </c>
       <c r="C259">
-        <v>97.505</v>
+        <v>97.342</v>
       </c>
       <c r="D259" t="s">
         <v>607</v>
@@ -6618,7 +6618,7 @@
         <v>606</v>
       </c>
       <c r="C260">
-        <v>103.164</v>
+        <v>105.44</v>
       </c>
       <c r="D260" t="s">
         <v>607</v>
@@ -6635,7 +6635,7 @@
         <v>605</v>
       </c>
       <c r="C261">
-        <v>99.63</v>
+        <v>94.474</v>
       </c>
       <c r="D261" t="s">
         <v>607</v>
@@ -6649,10 +6649,10 @@
         <v>265</v>
       </c>
       <c r="B262" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C262">
-        <v>112.418</v>
+        <v>99.065</v>
       </c>
       <c r="D262" t="s">
         <v>607</v>
@@ -6666,10 +6666,10 @@
         <v>266</v>
       </c>
       <c r="B263" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C263">
-        <v>113.488</v>
+        <v>99.758</v>
       </c>
       <c r="D263" t="s">
         <v>607</v>
@@ -6683,10 +6683,10 @@
         <v>267</v>
       </c>
       <c r="B264" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C264">
-        <v>104.557</v>
+        <v>99.63</v>
       </c>
       <c r="D264" t="s">
         <v>607</v>
@@ -6700,10 +6700,10 @@
         <v>268</v>
       </c>
       <c r="B265" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C265">
-        <v>101.504</v>
+        <v>99.53</v>
       </c>
       <c r="D265" t="s">
         <v>607</v>
@@ -6720,7 +6720,7 @@
         <v>606</v>
       </c>
       <c r="C266">
-        <v>109.748</v>
+        <v>102.889</v>
       </c>
       <c r="D266" t="s">
         <v>607</v>
@@ -6737,7 +6737,7 @@
         <v>606</v>
       </c>
       <c r="C267">
-        <v>102.199</v>
+        <v>107.325</v>
       </c>
       <c r="D267" t="s">
         <v>607</v>
@@ -6751,10 +6751,10 @@
         <v>271</v>
       </c>
       <c r="B268" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C268">
-        <v>101.371</v>
+        <v>93.127</v>
       </c>
       <c r="D268" t="s">
         <v>607</v>
@@ -6768,10 +6768,10 @@
         <v>272</v>
       </c>
       <c r="B269" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C269">
-        <v>101.424</v>
+        <v>93.97</v>
       </c>
       <c r="D269" t="s">
         <v>607</v>
@@ -6788,7 +6788,7 @@
         <v>606</v>
       </c>
       <c r="C270">
-        <v>109.265</v>
+        <v>102.365</v>
       </c>
       <c r="D270" t="s">
         <v>607</v>
@@ -6802,10 +6802,10 @@
         <v>274</v>
       </c>
       <c r="B271" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C271">
-        <v>97.43899999999999</v>
+        <v>105.185</v>
       </c>
       <c r="D271" t="s">
         <v>607</v>
@@ -6819,10 +6819,10 @@
         <v>275</v>
       </c>
       <c r="B272" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C272">
-        <v>100.521</v>
+        <v>93.38200000000001</v>
       </c>
       <c r="D272" t="s">
         <v>607</v>
@@ -6836,10 +6836,10 @@
         <v>276</v>
       </c>
       <c r="B273" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C273">
-        <v>106.952</v>
+        <v>98.19799999999999</v>
       </c>
       <c r="D273" t="s">
         <v>607</v>
@@ -6856,7 +6856,7 @@
         <v>606</v>
       </c>
       <c r="C274">
-        <v>100.555</v>
+        <v>101.33</v>
       </c>
       <c r="D274" t="s">
         <v>607</v>
@@ -6873,7 +6873,7 @@
         <v>606</v>
       </c>
       <c r="C275">
-        <v>104.347</v>
+        <v>101.618</v>
       </c>
       <c r="D275" t="s">
         <v>607</v>
@@ -6890,7 +6890,7 @@
         <v>606</v>
       </c>
       <c r="C276">
-        <v>102.552</v>
+        <v>103.729</v>
       </c>
       <c r="D276" t="s">
         <v>607</v>
@@ -6907,7 +6907,7 @@
         <v>606</v>
       </c>
       <c r="C277">
-        <v>100.464</v>
+        <v>100.142</v>
       </c>
       <c r="D277" t="s">
         <v>607</v>
@@ -6921,10 +6921,10 @@
         <v>281</v>
       </c>
       <c r="B278" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C278">
-        <v>98.764</v>
+        <v>101.986</v>
       </c>
       <c r="D278" t="s">
         <v>607</v>
@@ -6938,10 +6938,10 @@
         <v>282</v>
       </c>
       <c r="B279" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C279">
-        <v>108.144</v>
+        <v>95.111</v>
       </c>
       <c r="D279" t="s">
         <v>607</v>
@@ -6958,7 +6958,7 @@
         <v>606</v>
       </c>
       <c r="C280">
-        <v>101.57</v>
+        <v>101.139</v>
       </c>
       <c r="D280" t="s">
         <v>607</v>
@@ -6975,7 +6975,7 @@
         <v>606</v>
       </c>
       <c r="C281">
-        <v>102.462</v>
+        <v>104.68</v>
       </c>
       <c r="D281" t="s">
         <v>607</v>
@@ -6992,7 +6992,7 @@
         <v>605</v>
       </c>
       <c r="C282">
-        <v>98.81100000000001</v>
+        <v>99.949</v>
       </c>
       <c r="D282" t="s">
         <v>607</v>
@@ -7009,7 +7009,7 @@
         <v>605</v>
       </c>
       <c r="C283">
-        <v>97.971</v>
+        <v>96.253</v>
       </c>
       <c r="D283" t="s">
         <v>607</v>
@@ -7023,10 +7023,10 @@
         <v>287</v>
       </c>
       <c r="B284" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C284">
-        <v>102.186</v>
+        <v>99.54600000000001</v>
       </c>
       <c r="D284" t="s">
         <v>607</v>
@@ -7040,10 +7040,10 @@
         <v>288</v>
       </c>
       <c r="B285" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C285">
-        <v>98.807</v>
+        <v>108.035</v>
       </c>
       <c r="D285" t="s">
         <v>607</v>
@@ -7057,10 +7057,10 @@
         <v>289</v>
       </c>
       <c r="B286" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C286">
-        <v>103.068</v>
+        <v>99.271</v>
       </c>
       <c r="D286" t="s">
         <v>607</v>
@@ -7077,7 +7077,7 @@
         <v>605</v>
       </c>
       <c r="C287">
-        <v>95.255</v>
+        <v>98.346</v>
       </c>
       <c r="D287" t="s">
         <v>607</v>
@@ -7094,7 +7094,7 @@
         <v>605</v>
       </c>
       <c r="C288">
-        <v>97.21899999999999</v>
+        <v>99.729</v>
       </c>
       <c r="D288" t="s">
         <v>607</v>
@@ -7108,10 +7108,10 @@
         <v>292</v>
       </c>
       <c r="B289" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C289">
-        <v>99.68000000000001</v>
+        <v>100.66</v>
       </c>
       <c r="D289" t="s">
         <v>607</v>
@@ -7125,10 +7125,10 @@
         <v>293</v>
       </c>
       <c r="B290" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C290">
-        <v>101.98</v>
+        <v>98.068</v>
       </c>
       <c r="D290" t="s">
         <v>607</v>
@@ -7145,7 +7145,7 @@
         <v>606</v>
       </c>
       <c r="C291">
-        <v>102.044</v>
+        <v>104.493</v>
       </c>
       <c r="D291" t="s">
         <v>607</v>
@@ -7159,10 +7159,10 @@
         <v>295</v>
       </c>
       <c r="B292" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C292">
-        <v>98.52500000000001</v>
+        <v>105.163</v>
       </c>
       <c r="D292" t="s">
         <v>607</v>
@@ -7179,7 +7179,7 @@
         <v>606</v>
       </c>
       <c r="C293">
-        <v>107.79</v>
+        <v>102.947</v>
       </c>
       <c r="D293" t="s">
         <v>607</v>
@@ -7193,10 +7193,10 @@
         <v>297</v>
       </c>
       <c r="B294" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C294">
-        <v>101.608</v>
+        <v>97.973</v>
       </c>
       <c r="D294" t="s">
         <v>607</v>
@@ -7210,10 +7210,10 @@
         <v>298</v>
       </c>
       <c r="B295" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C295">
-        <v>104.21</v>
+        <v>98.279</v>
       </c>
       <c r="D295" t="s">
         <v>607</v>
@@ -7230,7 +7230,7 @@
         <v>606</v>
       </c>
       <c r="C296">
-        <v>105.302</v>
+        <v>101.536</v>
       </c>
       <c r="D296" t="s">
         <v>607</v>
@@ -7247,7 +7247,7 @@
         <v>606</v>
       </c>
       <c r="C297">
-        <v>103.347</v>
+        <v>103.368</v>
       </c>
       <c r="D297" t="s">
         <v>607</v>
@@ -7261,10 +7261,10 @@
         <v>301</v>
       </c>
       <c r="B298" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C298">
-        <v>102.319</v>
+        <v>98.407</v>
       </c>
       <c r="D298" t="s">
         <v>607</v>
@@ -7278,10 +7278,10 @@
         <v>302</v>
       </c>
       <c r="B299" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C299">
-        <v>103.86</v>
+        <v>97.087</v>
       </c>
       <c r="D299" t="s">
         <v>607</v>
@@ -7295,10 +7295,10 @@
         <v>303</v>
       </c>
       <c r="B300" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C300">
-        <v>102.35</v>
+        <v>97.392</v>
       </c>
       <c r="D300" t="s">
         <v>607</v>
@@ -7312,10 +7312,10 @@
         <v>304</v>
       </c>
       <c r="B301" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C301">
-        <v>100.76</v>
+        <v>98.798</v>
       </c>
       <c r="D301" t="s">
         <v>607</v>
@@ -7329,10 +7329,10 @@
         <v>305</v>
       </c>
       <c r="B302" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C302">
-        <v>100.775</v>
+        <v>97.39400000000001</v>
       </c>
       <c r="D302" t="s">
         <v>607</v>
@@ -7346,10 +7346,10 @@
         <v>306</v>
       </c>
       <c r="B303" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C303">
-        <v>106.339</v>
+        <v>98.55</v>
       </c>
       <c r="D303" t="s">
         <v>607</v>
@@ -7366,7 +7366,7 @@
         <v>606</v>
       </c>
       <c r="C304">
-        <v>104.915</v>
+        <v>100.414</v>
       </c>
       <c r="D304" t="s">
         <v>607</v>
@@ -7380,10 +7380,10 @@
         <v>308</v>
       </c>
       <c r="B305" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C305">
-        <v>100.77</v>
+        <v>99.941</v>
       </c>
       <c r="D305" t="s">
         <v>607</v>
@@ -7397,10 +7397,10 @@
         <v>309</v>
       </c>
       <c r="B306" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C306">
-        <v>102.671</v>
+        <v>98.877</v>
       </c>
       <c r="D306" t="s">
         <v>607</v>
@@ -7414,10 +7414,10 @@
         <v>310</v>
       </c>
       <c r="B307" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C307">
-        <v>96.629</v>
+        <v>104.631</v>
       </c>
       <c r="D307" t="s">
         <v>607</v>
@@ -7431,10 +7431,10 @@
         <v>311</v>
       </c>
       <c r="B308" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C308">
-        <v>108.54</v>
+        <v>99.324</v>
       </c>
       <c r="D308" t="s">
         <v>607</v>
@@ -7448,10 +7448,10 @@
         <v>312</v>
       </c>
       <c r="B309" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C309">
-        <v>103.851</v>
+        <v>98.416</v>
       </c>
       <c r="D309" t="s">
         <v>607</v>
@@ -7465,10 +7465,10 @@
         <v>313</v>
       </c>
       <c r="B310" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C310">
-        <v>106.591</v>
+        <v>99.883</v>
       </c>
       <c r="D310" t="s">
         <v>607</v>
@@ -7482,10 +7482,10 @@
         <v>314</v>
       </c>
       <c r="B311" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C311">
-        <v>121.395</v>
+        <v>97.551</v>
       </c>
       <c r="D311" t="s">
         <v>607</v>
@@ -7499,10 +7499,10 @@
         <v>315</v>
       </c>
       <c r="B312" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C312">
-        <v>106.99</v>
+        <v>97.714</v>
       </c>
       <c r="D312" t="s">
         <v>607</v>
@@ -7516,10 +7516,10 @@
         <v>316</v>
       </c>
       <c r="B313" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C313">
-        <v>99.521</v>
+        <v>100.017</v>
       </c>
       <c r="D313" t="s">
         <v>607</v>
@@ -7533,10 +7533,10 @@
         <v>317</v>
       </c>
       <c r="B314" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C314">
-        <v>101.008</v>
+        <v>98.5</v>
       </c>
       <c r="D314" t="s">
         <v>607</v>
@@ -7550,10 +7550,10 @@
         <v>318</v>
       </c>
       <c r="B315" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C315">
-        <v>103.989</v>
+        <v>99.90900000000001</v>
       </c>
       <c r="D315" t="s">
         <v>607</v>
@@ -7570,7 +7570,7 @@
         <v>606</v>
       </c>
       <c r="C316">
-        <v>101.715</v>
+        <v>100.27</v>
       </c>
       <c r="D316" t="s">
         <v>607</v>
@@ -7587,7 +7587,7 @@
         <v>606</v>
       </c>
       <c r="C317">
-        <v>104.29</v>
+        <v>104.569</v>
       </c>
       <c r="D317" t="s">
         <v>607</v>
@@ -7604,7 +7604,7 @@
         <v>605</v>
       </c>
       <c r="C318">
-        <v>99.547</v>
+        <v>98.48699999999999</v>
       </c>
       <c r="D318" t="s">
         <v>607</v>
@@ -7618,10 +7618,10 @@
         <v>322</v>
       </c>
       <c r="B319" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C319">
-        <v>101.455</v>
+        <v>97.11</v>
       </c>
       <c r="D319" t="s">
         <v>607</v>
@@ -7638,7 +7638,7 @@
         <v>605</v>
       </c>
       <c r="C320">
-        <v>98.08</v>
+        <v>98.62</v>
       </c>
       <c r="D320" t="s">
         <v>607</v>
@@ -7652,10 +7652,10 @@
         <v>324</v>
       </c>
       <c r="B321" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C321">
-        <v>99.922</v>
+        <v>108.956</v>
       </c>
       <c r="D321" t="s">
         <v>607</v>
@@ -7672,7 +7672,7 @@
         <v>606</v>
       </c>
       <c r="C322">
-        <v>105.181</v>
+        <v>104.931</v>
       </c>
       <c r="D322" t="s">
         <v>607</v>
@@ -7689,7 +7689,7 @@
         <v>605</v>
       </c>
       <c r="C323">
-        <v>99.233</v>
+        <v>96.889</v>
       </c>
       <c r="D323" t="s">
         <v>607</v>
@@ -7703,10 +7703,10 @@
         <v>327</v>
       </c>
       <c r="B324" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C324">
-        <v>104.789</v>
+        <v>98.79900000000001</v>
       </c>
       <c r="D324" t="s">
         <v>607</v>
@@ -7723,7 +7723,7 @@
         <v>605</v>
       </c>
       <c r="C325">
-        <v>99.18300000000001</v>
+        <v>95.486</v>
       </c>
       <c r="D325" t="s">
         <v>607</v>
@@ -7737,10 +7737,10 @@
         <v>329</v>
       </c>
       <c r="B326" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C326">
-        <v>97.858</v>
+        <v>101.825</v>
       </c>
       <c r="D326" t="s">
         <v>607</v>
@@ -7757,7 +7757,7 @@
         <v>605</v>
       </c>
       <c r="C327">
-        <v>99.517</v>
+        <v>99.626</v>
       </c>
       <c r="D327" t="s">
         <v>607</v>
@@ -7774,7 +7774,7 @@
         <v>605</v>
       </c>
       <c r="C328">
-        <v>99.26900000000001</v>
+        <v>98.996</v>
       </c>
       <c r="D328" t="s">
         <v>607</v>
@@ -7788,10 +7788,10 @@
         <v>332</v>
       </c>
       <c r="B329" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C329">
-        <v>114.651</v>
+        <v>99.595</v>
       </c>
       <c r="D329" t="s">
         <v>607</v>
@@ -7808,7 +7808,7 @@
         <v>606</v>
       </c>
       <c r="C330">
-        <v>104.873</v>
+        <v>104.353</v>
       </c>
       <c r="D330" t="s">
         <v>607</v>
@@ -7822,10 +7822,10 @@
         <v>334</v>
       </c>
       <c r="B331" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C331">
-        <v>105.03</v>
+        <v>98.729</v>
       </c>
       <c r="D331" t="s">
         <v>607</v>
@@ -7842,7 +7842,7 @@
         <v>606</v>
       </c>
       <c r="C332">
-        <v>102.3</v>
+        <v>104.96</v>
       </c>
       <c r="D332" t="s">
         <v>607</v>
@@ -7856,10 +7856,10 @@
         <v>336</v>
       </c>
       <c r="B333" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C333">
-        <v>121.371</v>
+        <v>99.05200000000001</v>
       </c>
       <c r="D333" t="s">
         <v>607</v>
@@ -7873,10 +7873,10 @@
         <v>337</v>
       </c>
       <c r="B334" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C334">
-        <v>100.179</v>
+        <v>96.916</v>
       </c>
       <c r="D334" t="s">
         <v>607</v>
@@ -7893,7 +7893,7 @@
         <v>605</v>
       </c>
       <c r="C335">
-        <v>97.482</v>
+        <v>96.327</v>
       </c>
       <c r="D335" t="s">
         <v>607</v>
@@ -7910,7 +7910,7 @@
         <v>606</v>
       </c>
       <c r="C336">
-        <v>102.026</v>
+        <v>100.419</v>
       </c>
       <c r="D336" t="s">
         <v>607</v>
@@ -7927,7 +7927,7 @@
         <v>606</v>
       </c>
       <c r="C337">
-        <v>103.793</v>
+        <v>102.46</v>
       </c>
       <c r="D337" t="s">
         <v>607</v>
@@ -7941,10 +7941,10 @@
         <v>341</v>
       </c>
       <c r="B338" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C338">
-        <v>102.224</v>
+        <v>98.206</v>
       </c>
       <c r="D338" t="s">
         <v>607</v>
@@ -7958,10 +7958,10 @@
         <v>342</v>
       </c>
       <c r="B339" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C339">
-        <v>100.426</v>
+        <v>97.90600000000001</v>
       </c>
       <c r="D339" t="s">
         <v>607</v>
@@ -7978,7 +7978,7 @@
         <v>606</v>
       </c>
       <c r="C340">
-        <v>101.588</v>
+        <v>104.757</v>
       </c>
       <c r="D340" t="s">
         <v>607</v>
@@ -7995,7 +7995,7 @@
         <v>606</v>
       </c>
       <c r="C341">
-        <v>108.022</v>
+        <v>101.182</v>
       </c>
       <c r="D341" t="s">
         <v>607</v>
@@ -8012,7 +8012,7 @@
         <v>605</v>
       </c>
       <c r="C342">
-        <v>98.621</v>
+        <v>99.749</v>
       </c>
       <c r="D342" t="s">
         <v>607</v>
@@ -8026,10 +8026,10 @@
         <v>346</v>
       </c>
       <c r="B343" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C343">
-        <v>103.519</v>
+        <v>99.318</v>
       </c>
       <c r="D343" t="s">
         <v>607</v>
@@ -8043,10 +8043,10 @@
         <v>347</v>
       </c>
       <c r="B344" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C344">
-        <v>101.052</v>
+        <v>99.917</v>
       </c>
       <c r="D344" t="s">
         <v>607</v>
@@ -8063,7 +8063,7 @@
         <v>606</v>
       </c>
       <c r="C345">
-        <v>105.285</v>
+        <v>105.881</v>
       </c>
       <c r="D345" t="s">
         <v>607</v>
@@ -8080,7 +8080,7 @@
         <v>605</v>
       </c>
       <c r="C346">
-        <v>98.18600000000001</v>
+        <v>99.483</v>
       </c>
       <c r="D346" t="s">
         <v>607</v>
@@ -8097,7 +8097,7 @@
         <v>606</v>
       </c>
       <c r="C347">
-        <v>101.521</v>
+        <v>101.179</v>
       </c>
       <c r="D347" t="s">
         <v>607</v>
@@ -8111,10 +8111,10 @@
         <v>351</v>
       </c>
       <c r="B348" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C348">
-        <v>102.072</v>
+        <v>96.831</v>
       </c>
       <c r="D348" t="s">
         <v>607</v>
@@ -8131,7 +8131,7 @@
         <v>605</v>
       </c>
       <c r="C349">
-        <v>99.624</v>
+        <v>83.113</v>
       </c>
       <c r="D349" t="s">
         <v>607</v>
@@ -8148,7 +8148,7 @@
         <v>606</v>
       </c>
       <c r="C350">
-        <v>104.215</v>
+        <v>101.771</v>
       </c>
       <c r="D350" t="s">
         <v>607</v>
@@ -8162,10 +8162,10 @@
         <v>354</v>
       </c>
       <c r="B351" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C351">
-        <v>106.138</v>
+        <v>97.68000000000001</v>
       </c>
       <c r="D351" t="s">
         <v>607</v>
@@ -8179,10 +8179,10 @@
         <v>355</v>
       </c>
       <c r="B352" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C352">
-        <v>95.17700000000001</v>
+        <v>100.651</v>
       </c>
       <c r="D352" t="s">
         <v>607</v>
@@ -8196,10 +8196,10 @@
         <v>356</v>
       </c>
       <c r="B353" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C353">
-        <v>102.72</v>
+        <v>98.05</v>
       </c>
       <c r="D353" t="s">
         <v>607</v>
@@ -8216,7 +8216,7 @@
         <v>606</v>
       </c>
       <c r="C354">
-        <v>102.422</v>
+        <v>102.361</v>
       </c>
       <c r="D354" t="s">
         <v>607</v>
@@ -8233,7 +8233,7 @@
         <v>605</v>
       </c>
       <c r="C355">
-        <v>99.79900000000001</v>
+        <v>99.887</v>
       </c>
       <c r="D355" t="s">
         <v>607</v>
@@ -8247,10 +8247,10 @@
         <v>359</v>
       </c>
       <c r="B356" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C356">
-        <v>102.029</v>
+        <v>99.547</v>
       </c>
       <c r="D356" t="s">
         <v>607</v>
@@ -8267,7 +8267,7 @@
         <v>605</v>
       </c>
       <c r="C357">
-        <v>96.411</v>
+        <v>95.018</v>
       </c>
       <c r="D357" t="s">
         <v>607</v>
@@ -8281,10 +8281,10 @@
         <v>361</v>
       </c>
       <c r="B358" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C358">
-        <v>97.283</v>
+        <v>101.756</v>
       </c>
       <c r="D358" t="s">
         <v>607</v>
@@ -8301,7 +8301,7 @@
         <v>606</v>
       </c>
       <c r="C359">
-        <v>101.682</v>
+        <v>102.318</v>
       </c>
       <c r="D359" t="s">
         <v>607</v>
@@ -8315,10 +8315,10 @@
         <v>363</v>
       </c>
       <c r="B360" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C360">
-        <v>119.478</v>
+        <v>96.17700000000001</v>
       </c>
       <c r="D360" t="s">
         <v>607</v>
@@ -8332,10 +8332,10 @@
         <v>364</v>
       </c>
       <c r="B361" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C361">
-        <v>106.597</v>
+        <v>96.345</v>
       </c>
       <c r="D361" t="s">
         <v>607</v>
@@ -8352,7 +8352,7 @@
         <v>605</v>
       </c>
       <c r="C362">
-        <v>96.91800000000001</v>
+        <v>99.209</v>
       </c>
       <c r="D362" t="s">
         <v>607</v>
@@ -8366,10 +8366,10 @@
         <v>366</v>
       </c>
       <c r="B363" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C363">
-        <v>103.405</v>
+        <v>97.996</v>
       </c>
       <c r="D363" t="s">
         <v>607</v>
@@ -8383,10 +8383,10 @@
         <v>367</v>
       </c>
       <c r="B364" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C364">
-        <v>103.679</v>
+        <v>98.587</v>
       </c>
       <c r="D364" t="s">
         <v>607</v>
@@ -8403,7 +8403,7 @@
         <v>606</v>
       </c>
       <c r="C365">
-        <v>107.483</v>
+        <v>101.911</v>
       </c>
       <c r="D365" t="s">
         <v>607</v>
@@ -8420,7 +8420,7 @@
         <v>606</v>
       </c>
       <c r="C366">
-        <v>106.328</v>
+        <v>100.158</v>
       </c>
       <c r="D366" t="s">
         <v>607</v>
@@ -8437,7 +8437,7 @@
         <v>606</v>
       </c>
       <c r="C367">
-        <v>100.497</v>
+        <v>103.43</v>
       </c>
       <c r="D367" t="s">
         <v>607</v>
@@ -8454,7 +8454,7 @@
         <v>606</v>
       </c>
       <c r="C368">
-        <v>100.638</v>
+        <v>106.654</v>
       </c>
       <c r="D368" t="s">
         <v>607</v>
@@ -8468,10 +8468,10 @@
         <v>372</v>
       </c>
       <c r="B369" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C369">
-        <v>98.259</v>
+        <v>106.072</v>
       </c>
       <c r="D369" t="s">
         <v>607</v>
@@ -8485,10 +8485,10 @@
         <v>373</v>
       </c>
       <c r="B370" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C370">
-        <v>116.172</v>
+        <v>87.426</v>
       </c>
       <c r="D370" t="s">
         <v>607</v>
@@ -8502,10 +8502,10 @@
         <v>374</v>
       </c>
       <c r="B371" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C371">
-        <v>106.019</v>
+        <v>94.078</v>
       </c>
       <c r="D371" t="s">
         <v>607</v>
@@ -8519,10 +8519,10 @@
         <v>375</v>
       </c>
       <c r="B372" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C372">
-        <v>102.484</v>
+        <v>99.792</v>
       </c>
       <c r="D372" t="s">
         <v>607</v>
@@ -8539,7 +8539,7 @@
         <v>606</v>
       </c>
       <c r="C373">
-        <v>100.818</v>
+        <v>100.989</v>
       </c>
       <c r="D373" t="s">
         <v>607</v>
@@ -8553,10 +8553,10 @@
         <v>377</v>
       </c>
       <c r="B374" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C374">
-        <v>102.567</v>
+        <v>97.06699999999999</v>
       </c>
       <c r="D374" t="s">
         <v>607</v>
@@ -8570,10 +8570,10 @@
         <v>378</v>
       </c>
       <c r="B375" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C375">
-        <v>118.917</v>
+        <v>92.95699999999999</v>
       </c>
       <c r="D375" t="s">
         <v>607</v>
@@ -8590,7 +8590,7 @@
         <v>605</v>
       </c>
       <c r="C376">
-        <v>98.479</v>
+        <v>96.30500000000001</v>
       </c>
       <c r="D376" t="s">
         <v>607</v>
@@ -8604,10 +8604,10 @@
         <v>380</v>
       </c>
       <c r="B377" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C377">
-        <v>98.248</v>
+        <v>102.37</v>
       </c>
       <c r="D377" t="s">
         <v>607</v>
@@ -8624,7 +8624,7 @@
         <v>606</v>
       </c>
       <c r="C378">
-        <v>104.835</v>
+        <v>103.938</v>
       </c>
       <c r="D378" t="s">
         <v>607</v>
@@ -8641,7 +8641,7 @@
         <v>605</v>
       </c>
       <c r="C379">
-        <v>92.282</v>
+        <v>91.697</v>
       </c>
       <c r="D379" t="s">
         <v>607</v>
@@ -8658,7 +8658,7 @@
         <v>606</v>
       </c>
       <c r="C380">
-        <v>102.25</v>
+        <v>104.458</v>
       </c>
       <c r="D380" t="s">
         <v>607</v>
@@ -8672,10 +8672,10 @@
         <v>384</v>
       </c>
       <c r="B381" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C381">
-        <v>107.543</v>
+        <v>98.64100000000001</v>
       </c>
       <c r="D381" t="s">
         <v>607</v>
@@ -8689,10 +8689,10 @@
         <v>385</v>
       </c>
       <c r="B382" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C382">
-        <v>104.316</v>
+        <v>98.765</v>
       </c>
       <c r="D382" t="s">
         <v>607</v>
@@ -8709,7 +8709,7 @@
         <v>606</v>
       </c>
       <c r="C383">
-        <v>103.001</v>
+        <v>102.83</v>
       </c>
       <c r="D383" t="s">
         <v>607</v>
@@ -8726,7 +8726,7 @@
         <v>606</v>
       </c>
       <c r="C384">
-        <v>100.971</v>
+        <v>100.804</v>
       </c>
       <c r="D384" t="s">
         <v>607</v>
@@ -8743,7 +8743,7 @@
         <v>606</v>
       </c>
       <c r="C385">
-        <v>105.172</v>
+        <v>101.648</v>
       </c>
       <c r="D385" t="s">
         <v>607</v>
@@ -8760,7 +8760,7 @@
         <v>606</v>
       </c>
       <c r="C386">
-        <v>100.075</v>
+        <v>105.189</v>
       </c>
       <c r="D386" t="s">
         <v>607</v>
@@ -8777,7 +8777,7 @@
         <v>606</v>
       </c>
       <c r="C387">
-        <v>102.495</v>
+        <v>109.275</v>
       </c>
       <c r="D387" t="s">
         <v>607</v>
@@ -8794,7 +8794,7 @@
         <v>606</v>
       </c>
       <c r="C388">
-        <v>100.683</v>
+        <v>102.272</v>
       </c>
       <c r="D388" t="s">
         <v>607</v>
@@ -8808,10 +8808,10 @@
         <v>392</v>
       </c>
       <c r="B389" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C389">
-        <v>103.218</v>
+        <v>98.148</v>
       </c>
       <c r="D389" t="s">
         <v>607</v>
@@ -8825,10 +8825,10 @@
         <v>393</v>
       </c>
       <c r="B390" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C390">
-        <v>101.286</v>
+        <v>99.824</v>
       </c>
       <c r="D390" t="s">
         <v>607</v>
@@ -8842,10 +8842,10 @@
         <v>394</v>
       </c>
       <c r="B391" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C391">
-        <v>104.09</v>
+        <v>95.223</v>
       </c>
       <c r="D391" t="s">
         <v>607</v>
@@ -8859,10 +8859,10 @@
         <v>395</v>
       </c>
       <c r="B392" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C392">
-        <v>100.327</v>
+        <v>98.371</v>
       </c>
       <c r="D392" t="s">
         <v>607</v>
@@ -8876,10 +8876,10 @@
         <v>396</v>
       </c>
       <c r="B393" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C393">
-        <v>104.198</v>
+        <v>97.383</v>
       </c>
       <c r="D393" t="s">
         <v>607</v>
@@ -8893,10 +8893,10 @@
         <v>397</v>
       </c>
       <c r="B394" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C394">
-        <v>99.566</v>
+        <v>103.381</v>
       </c>
       <c r="D394" t="s">
         <v>607</v>
@@ -8913,7 +8913,7 @@
         <v>606</v>
       </c>
       <c r="C395">
-        <v>102.482</v>
+        <v>100.619</v>
       </c>
       <c r="D395" t="s">
         <v>607</v>
@@ -8927,10 +8927,10 @@
         <v>399</v>
       </c>
       <c r="B396" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C396">
-        <v>97.501</v>
+        <v>101.336</v>
       </c>
       <c r="D396" t="s">
         <v>607</v>
@@ -8947,7 +8947,7 @@
         <v>606</v>
       </c>
       <c r="C397">
-        <v>107.727</v>
+        <v>104.886</v>
       </c>
       <c r="D397" t="s">
         <v>607</v>
@@ -8961,10 +8961,10 @@
         <v>401</v>
       </c>
       <c r="B398" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C398">
-        <v>106.852</v>
+        <v>98.051</v>
       </c>
       <c r="D398" t="s">
         <v>607</v>
@@ -8978,10 +8978,10 @@
         <v>402</v>
       </c>
       <c r="B399" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C399">
-        <v>105.114</v>
+        <v>99.29600000000001</v>
       </c>
       <c r="D399" t="s">
         <v>607</v>
@@ -8998,7 +8998,7 @@
         <v>605</v>
       </c>
       <c r="C400">
-        <v>85.163</v>
+        <v>98.83199999999999</v>
       </c>
       <c r="D400" t="s">
         <v>607</v>
@@ -9012,10 +9012,10 @@
         <v>404</v>
       </c>
       <c r="B401" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C401">
-        <v>101.85</v>
+        <v>89.05200000000001</v>
       </c>
       <c r="D401" t="s">
         <v>607</v>
@@ -9032,7 +9032,7 @@
         <v>605</v>
       </c>
       <c r="C402">
-        <v>99.29600000000001</v>
+        <v>98.822</v>
       </c>
       <c r="D402" t="s">
         <v>607</v>
@@ -9049,7 +9049,7 @@
         <v>605</v>
       </c>
       <c r="C403">
-        <v>98.818</v>
+        <v>99.691</v>
       </c>
       <c r="D403" t="s">
         <v>607</v>
@@ -9063,10 +9063,10 @@
         <v>407</v>
       </c>
       <c r="B404" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C404">
-        <v>100.038</v>
+        <v>99.20099999999999</v>
       </c>
       <c r="D404" t="s">
         <v>607</v>
@@ -9080,10 +9080,10 @@
         <v>408</v>
       </c>
       <c r="B405" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C405">
-        <v>102.87</v>
+        <v>97.342</v>
       </c>
       <c r="D405" t="s">
         <v>607</v>
@@ -9100,7 +9100,7 @@
         <v>606</v>
       </c>
       <c r="C406">
-        <v>103.225</v>
+        <v>101.282</v>
       </c>
       <c r="D406" t="s">
         <v>607</v>
@@ -9114,10 +9114,10 @@
         <v>410</v>
       </c>
       <c r="B407" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C407">
-        <v>105.33</v>
+        <v>99.31399999999999</v>
       </c>
       <c r="D407" t="s">
         <v>607</v>
@@ -9134,7 +9134,7 @@
         <v>605</v>
       </c>
       <c r="C408">
-        <v>99.494</v>
+        <v>96.22799999999999</v>
       </c>
       <c r="D408" t="s">
         <v>607</v>
@@ -9148,10 +9148,10 @@
         <v>412</v>
       </c>
       <c r="B409" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C409">
-        <v>95.971</v>
+        <v>100.09</v>
       </c>
       <c r="D409" t="s">
         <v>607</v>
@@ -9168,7 +9168,7 @@
         <v>605</v>
       </c>
       <c r="C410">
-        <v>97.583</v>
+        <v>93.404</v>
       </c>
       <c r="D410" t="s">
         <v>607</v>
@@ -9182,10 +9182,10 @@
         <v>414</v>
       </c>
       <c r="B411" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C411">
-        <v>102.981</v>
+        <v>99.05200000000001</v>
       </c>
       <c r="D411" t="s">
         <v>607</v>
@@ -9199,10 +9199,10 @@
         <v>415</v>
       </c>
       <c r="B412" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C412">
-        <v>103.684</v>
+        <v>98.015</v>
       </c>
       <c r="D412" t="s">
         <v>607</v>
@@ -9219,7 +9219,7 @@
         <v>606</v>
       </c>
       <c r="C413">
-        <v>107.675</v>
+        <v>105.137</v>
       </c>
       <c r="D413" t="s">
         <v>607</v>
@@ -9233,10 +9233,10 @@
         <v>417</v>
       </c>
       <c r="B414" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C414">
-        <v>98.057</v>
+        <v>101.409</v>
       </c>
       <c r="D414" t="s">
         <v>607</v>
@@ -9250,10 +9250,10 @@
         <v>418</v>
       </c>
       <c r="B415" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C415">
-        <v>100.227</v>
+        <v>98.502</v>
       </c>
       <c r="D415" t="s">
         <v>607</v>
@@ -9267,10 +9267,10 @@
         <v>419</v>
       </c>
       <c r="B416" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C416">
-        <v>99.486</v>
+        <v>103.221</v>
       </c>
       <c r="D416" t="s">
         <v>607</v>
@@ -9287,7 +9287,7 @@
         <v>606</v>
       </c>
       <c r="C417">
-        <v>103.341</v>
+        <v>102.589</v>
       </c>
       <c r="D417" t="s">
         <v>607</v>
@@ -9304,7 +9304,7 @@
         <v>605</v>
       </c>
       <c r="C418">
-        <v>92.60899999999999</v>
+        <v>96.602</v>
       </c>
       <c r="D418" t="s">
         <v>607</v>
@@ -9318,10 +9318,10 @@
         <v>422</v>
       </c>
       <c r="B419" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C419">
-        <v>102.454</v>
+        <v>99.233</v>
       </c>
       <c r="D419" t="s">
         <v>607</v>
@@ -9335,10 +9335,10 @@
         <v>423</v>
       </c>
       <c r="B420" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C420">
-        <v>99.267</v>
+        <v>102.071</v>
       </c>
       <c r="D420" t="s">
         <v>607</v>
@@ -9355,7 +9355,7 @@
         <v>606</v>
       </c>
       <c r="C421">
-        <v>107.034</v>
+        <v>102.817</v>
       </c>
       <c r="D421" t="s">
         <v>607</v>
@@ -9372,7 +9372,7 @@
         <v>606</v>
       </c>
       <c r="C422">
-        <v>100.864</v>
+        <v>108.229</v>
       </c>
       <c r="D422" t="s">
         <v>607</v>
@@ -9386,10 +9386,10 @@
         <v>426</v>
       </c>
       <c r="B423" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C423">
-        <v>103.122</v>
+        <v>96.673</v>
       </c>
       <c r="D423" t="s">
         <v>607</v>
@@ -9406,7 +9406,7 @@
         <v>606</v>
       </c>
       <c r="C424">
-        <v>103.779</v>
+        <v>102.753</v>
       </c>
       <c r="D424" t="s">
         <v>607</v>
@@ -9423,7 +9423,7 @@
         <v>606</v>
       </c>
       <c r="C425">
-        <v>115.693</v>
+        <v>110.816</v>
       </c>
       <c r="D425" t="s">
         <v>607</v>
@@ -9440,7 +9440,7 @@
         <v>605</v>
       </c>
       <c r="C426">
-        <v>88.974</v>
+        <v>95.729</v>
       </c>
       <c r="D426" t="s">
         <v>607</v>
@@ -9454,10 +9454,10 @@
         <v>430</v>
       </c>
       <c r="B427" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C427">
-        <v>102.342</v>
+        <v>96.848</v>
       </c>
       <c r="D427" t="s">
         <v>607</v>
@@ -9471,10 +9471,10 @@
         <v>431</v>
       </c>
       <c r="B428" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C428">
-        <v>102.369</v>
+        <v>99.705</v>
       </c>
       <c r="D428" t="s">
         <v>607</v>
@@ -9491,7 +9491,7 @@
         <v>606</v>
       </c>
       <c r="C429">
-        <v>113.452</v>
+        <v>101.458</v>
       </c>
       <c r="D429" t="s">
         <v>607</v>
@@ -9505,10 +9505,10 @@
         <v>433</v>
       </c>
       <c r="B430" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C430">
-        <v>101.295</v>
+        <v>99.587</v>
       </c>
       <c r="D430" t="s">
         <v>607</v>
@@ -9522,10 +9522,10 @@
         <v>434</v>
       </c>
       <c r="B431" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C431">
-        <v>96.883</v>
+        <v>106.56</v>
       </c>
       <c r="D431" t="s">
         <v>607</v>
@@ -9542,7 +9542,7 @@
         <v>606</v>
       </c>
       <c r="C432">
-        <v>103.04</v>
+        <v>108.072</v>
       </c>
       <c r="D432" t="s">
         <v>607</v>
@@ -9559,7 +9559,7 @@
         <v>606</v>
       </c>
       <c r="C433">
-        <v>108.366</v>
+        <v>100.019</v>
       </c>
       <c r="D433" t="s">
         <v>607</v>
@@ -9576,7 +9576,7 @@
         <v>606</v>
       </c>
       <c r="C434">
-        <v>101.308</v>
+        <v>102.315</v>
       </c>
       <c r="D434" t="s">
         <v>607</v>
@@ -9593,7 +9593,7 @@
         <v>605</v>
       </c>
       <c r="C435">
-        <v>92.018</v>
+        <v>99.21899999999999</v>
       </c>
       <c r="D435" t="s">
         <v>607</v>
@@ -9607,10 +9607,10 @@
         <v>439</v>
       </c>
       <c r="B436" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C436">
-        <v>101.251</v>
+        <v>93.038</v>
       </c>
       <c r="D436" t="s">
         <v>607</v>
@@ -9627,7 +9627,7 @@
         <v>605</v>
       </c>
       <c r="C437">
-        <v>97.63</v>
+        <v>97.739</v>
       </c>
       <c r="D437" t="s">
         <v>607</v>
@@ -9641,10 +9641,10 @@
         <v>441</v>
       </c>
       <c r="B438" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C438">
-        <v>103.518</v>
+        <v>97.206</v>
       </c>
       <c r="D438" t="s">
         <v>607</v>
@@ -9661,7 +9661,7 @@
         <v>606</v>
       </c>
       <c r="C439">
-        <v>101.855</v>
+        <v>104.637</v>
       </c>
       <c r="D439" t="s">
         <v>607</v>
@@ -9678,7 +9678,7 @@
         <v>606</v>
       </c>
       <c r="C440">
-        <v>101.342</v>
+        <v>101.809</v>
       </c>
       <c r="D440" t="s">
         <v>607</v>
@@ -9692,10 +9692,10 @@
         <v>444</v>
       </c>
       <c r="B441" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C441">
-        <v>103.773</v>
+        <v>89.14700000000001</v>
       </c>
       <c r="D441" t="s">
         <v>607</v>
@@ -9712,7 +9712,7 @@
         <v>605</v>
       </c>
       <c r="C442">
-        <v>88.876</v>
+        <v>97.85899999999999</v>
       </c>
       <c r="D442" t="s">
         <v>607</v>
@@ -9726,10 +9726,10 @@
         <v>446</v>
       </c>
       <c r="B443" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C443">
-        <v>96.069</v>
+        <v>104.954</v>
       </c>
       <c r="D443" t="s">
         <v>607</v>
@@ -9743,10 +9743,10 @@
         <v>447</v>
       </c>
       <c r="B444" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C444">
-        <v>98.274</v>
+        <v>101.713</v>
       </c>
       <c r="D444" t="s">
         <v>607</v>
@@ -9760,10 +9760,10 @@
         <v>448</v>
       </c>
       <c r="B445" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C445">
-        <v>101.111</v>
+        <v>97.5</v>
       </c>
       <c r="D445" t="s">
         <v>607</v>
@@ -9780,7 +9780,7 @@
         <v>606</v>
       </c>
       <c r="C446">
-        <v>104.313</v>
+        <v>102.338</v>
       </c>
       <c r="D446" t="s">
         <v>607</v>
@@ -9794,10 +9794,10 @@
         <v>450</v>
       </c>
       <c r="B447" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C447">
-        <v>97.26900000000001</v>
+        <v>101.242</v>
       </c>
       <c r="D447" t="s">
         <v>607</v>
@@ -9811,10 +9811,10 @@
         <v>451</v>
       </c>
       <c r="B448" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C448">
-        <v>100.426</v>
+        <v>97.122</v>
       </c>
       <c r="D448" t="s">
         <v>607</v>
@@ -9831,7 +9831,7 @@
         <v>605</v>
       </c>
       <c r="C449">
-        <v>97.254</v>
+        <v>94.227</v>
       </c>
       <c r="D449" t="s">
         <v>607</v>
@@ -9845,10 +9845,10 @@
         <v>453</v>
       </c>
       <c r="B450" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C450">
-        <v>101.244</v>
+        <v>96.227</v>
       </c>
       <c r="D450" t="s">
         <v>607</v>
@@ -9862,10 +9862,10 @@
         <v>454</v>
       </c>
       <c r="B451" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C451">
-        <v>95.533</v>
+        <v>106.543</v>
       </c>
       <c r="D451" t="s">
         <v>607</v>
@@ -9882,7 +9882,7 @@
         <v>606</v>
       </c>
       <c r="C452">
-        <v>114.391</v>
+        <v>101.096</v>
       </c>
       <c r="D452" t="s">
         <v>607</v>
@@ -9899,7 +9899,7 @@
         <v>605</v>
       </c>
       <c r="C453">
-        <v>98.29600000000001</v>
+        <v>95.122</v>
       </c>
       <c r="D453" t="s">
         <v>607</v>
@@ -9916,7 +9916,7 @@
         <v>605</v>
       </c>
       <c r="C454">
-        <v>95.498</v>
+        <v>95.693</v>
       </c>
       <c r="D454" t="s">
         <v>607</v>
@@ -9933,7 +9933,7 @@
         <v>605</v>
       </c>
       <c r="C455">
-        <v>99.18899999999999</v>
+        <v>94.261</v>
       </c>
       <c r="D455" t="s">
         <v>607</v>
@@ -9950,7 +9950,7 @@
         <v>606</v>
       </c>
       <c r="C456">
-        <v>102.532</v>
+        <v>101.758</v>
       </c>
       <c r="D456" t="s">
         <v>607</v>
@@ -9967,7 +9967,7 @@
         <v>605</v>
       </c>
       <c r="C457">
-        <v>98.11199999999999</v>
+        <v>96.464</v>
       </c>
       <c r="D457" t="s">
         <v>607</v>
@@ -9984,7 +9984,7 @@
         <v>605</v>
       </c>
       <c r="C458">
-        <v>97.15600000000001</v>
+        <v>99.956</v>
       </c>
       <c r="D458" t="s">
         <v>607</v>
@@ -9998,10 +9998,10 @@
         <v>462</v>
       </c>
       <c r="B459" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C459">
-        <v>107.471</v>
+        <v>99.599</v>
       </c>
       <c r="D459" t="s">
         <v>607</v>
@@ -10015,10 +10015,10 @@
         <v>463</v>
       </c>
       <c r="B460" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C460">
-        <v>100.822</v>
+        <v>98.68300000000001</v>
       </c>
       <c r="D460" t="s">
         <v>607</v>
@@ -10032,10 +10032,10 @@
         <v>464</v>
       </c>
       <c r="B461" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C461">
-        <v>97.777</v>
+        <v>103.034</v>
       </c>
       <c r="D461" t="s">
         <v>607</v>
@@ -10052,7 +10052,7 @@
         <v>605</v>
       </c>
       <c r="C462">
-        <v>99.19499999999999</v>
+        <v>98.38</v>
       </c>
       <c r="D462" t="s">
         <v>607</v>
@@ -10069,7 +10069,7 @@
         <v>605</v>
       </c>
       <c r="C463">
-        <v>97.45099999999999</v>
+        <v>99.358</v>
       </c>
       <c r="D463" t="s">
         <v>607</v>
@@ -10083,10 +10083,10 @@
         <v>467</v>
       </c>
       <c r="B464" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C464">
-        <v>86.52500000000001</v>
+        <v>108.835</v>
       </c>
       <c r="D464" t="s">
         <v>607</v>
@@ -10100,10 +10100,10 @@
         <v>468</v>
       </c>
       <c r="B465" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C465">
-        <v>101.746</v>
+        <v>99.069</v>
       </c>
       <c r="D465" t="s">
         <v>607</v>
@@ -10117,10 +10117,10 @@
         <v>469</v>
       </c>
       <c r="B466" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C466">
-        <v>122.112</v>
+        <v>99.89700000000001</v>
       </c>
       <c r="D466" t="s">
         <v>607</v>
@@ -10137,7 +10137,7 @@
         <v>606</v>
       </c>
       <c r="C467">
-        <v>103.469</v>
+        <v>104.184</v>
       </c>
       <c r="D467" t="s">
         <v>607</v>
@@ -10151,10 +10151,10 @@
         <v>471</v>
       </c>
       <c r="B468" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C468">
-        <v>96.227</v>
+        <v>101.756</v>
       </c>
       <c r="D468" t="s">
         <v>607</v>
@@ -10171,7 +10171,7 @@
         <v>605</v>
       </c>
       <c r="C469">
-        <v>96.893</v>
+        <v>98.816</v>
       </c>
       <c r="D469" t="s">
         <v>607</v>
@@ -10185,10 +10185,10 @@
         <v>473</v>
       </c>
       <c r="B470" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C470">
-        <v>102.18</v>
+        <v>97.00700000000001</v>
       </c>
       <c r="D470" t="s">
         <v>607</v>
@@ -10202,10 +10202,10 @@
         <v>474</v>
       </c>
       <c r="B471" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C471">
-        <v>102.294</v>
+        <v>97.46299999999999</v>
       </c>
       <c r="D471" t="s">
         <v>607</v>
@@ -10222,7 +10222,7 @@
         <v>606</v>
       </c>
       <c r="C472">
-        <v>116.826</v>
+        <v>110.629</v>
       </c>
       <c r="D472" t="s">
         <v>607</v>
@@ -10236,10 +10236,10 @@
         <v>476</v>
       </c>
       <c r="B473" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C473">
-        <v>100.642</v>
+        <v>98.72</v>
       </c>
       <c r="D473" t="s">
         <v>607</v>
@@ -10253,10 +10253,10 @@
         <v>477</v>
       </c>
       <c r="B474" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C474">
-        <v>100.574</v>
+        <v>98.678</v>
       </c>
       <c r="D474" t="s">
         <v>607</v>
@@ -10273,7 +10273,7 @@
         <v>605</v>
       </c>
       <c r="C475">
-        <v>97.80200000000001</v>
+        <v>98.718</v>
       </c>
       <c r="D475" t="s">
         <v>607</v>
@@ -10287,10 +10287,10 @@
         <v>479</v>
       </c>
       <c r="B476" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C476">
-        <v>103.833</v>
+        <v>99.258</v>
       </c>
       <c r="D476" t="s">
         <v>607</v>
@@ -10307,7 +10307,7 @@
         <v>605</v>
       </c>
       <c r="C477">
-        <v>97.726</v>
+        <v>99.65300000000001</v>
       </c>
       <c r="D477" t="s">
         <v>607</v>
@@ -10324,7 +10324,7 @@
         <v>606</v>
       </c>
       <c r="C478">
-        <v>101.278</v>
+        <v>105.837</v>
       </c>
       <c r="D478" t="s">
         <v>607</v>
@@ -10341,7 +10341,7 @@
         <v>605</v>
       </c>
       <c r="C479">
-        <v>93.746</v>
+        <v>98.658</v>
       </c>
       <c r="D479" t="s">
         <v>607</v>
@@ -10358,7 +10358,7 @@
         <v>605</v>
       </c>
       <c r="C480">
-        <v>99.06100000000001</v>
+        <v>93.961</v>
       </c>
       <c r="D480" t="s">
         <v>607</v>
@@ -10375,7 +10375,7 @@
         <v>606</v>
       </c>
       <c r="C481">
-        <v>111.382</v>
+        <v>108.685</v>
       </c>
       <c r="D481" t="s">
         <v>607</v>
@@ -10392,7 +10392,7 @@
         <v>606</v>
       </c>
       <c r="C482">
-        <v>103.409</v>
+        <v>101.583</v>
       </c>
       <c r="D482" t="s">
         <v>607</v>
@@ -10406,10 +10406,10 @@
         <v>486</v>
       </c>
       <c r="B483" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C483">
-        <v>98.083</v>
+        <v>104.484</v>
       </c>
       <c r="D483" t="s">
         <v>607</v>
@@ -10423,10 +10423,10 @@
         <v>487</v>
       </c>
       <c r="B484" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C484">
-        <v>104.545</v>
+        <v>97.517</v>
       </c>
       <c r="D484" t="s">
         <v>607</v>
@@ -10440,10 +10440,10 @@
         <v>488</v>
       </c>
       <c r="B485" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C485">
-        <v>94.97199999999999</v>
+        <v>103.553</v>
       </c>
       <c r="D485" t="s">
         <v>607</v>
@@ -10460,7 +10460,7 @@
         <v>605</v>
       </c>
       <c r="C486">
-        <v>91.19199999999999</v>
+        <v>91.798</v>
       </c>
       <c r="D486" t="s">
         <v>607</v>
@@ -10474,10 +10474,10 @@
         <v>490</v>
       </c>
       <c r="B487" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C487">
-        <v>95.88500000000001</v>
+        <v>101.204</v>
       </c>
       <c r="D487" t="s">
         <v>607</v>
@@ -10494,7 +10494,7 @@
         <v>605</v>
       </c>
       <c r="C488">
-        <v>98.86199999999999</v>
+        <v>97.78100000000001</v>
       </c>
       <c r="D488" t="s">
         <v>607</v>
@@ -10508,10 +10508,10 @@
         <v>492</v>
       </c>
       <c r="B489" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C489">
-        <v>131.794</v>
+        <v>97.108</v>
       </c>
       <c r="D489" t="s">
         <v>607</v>
@@ -10528,7 +10528,7 @@
         <v>606</v>
       </c>
       <c r="C490">
-        <v>100.617</v>
+        <v>100.435</v>
       </c>
       <c r="D490" t="s">
         <v>607</v>
@@ -10542,10 +10542,10 @@
         <v>494</v>
       </c>
       <c r="B491" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C491">
-        <v>102.968</v>
+        <v>97.142</v>
       </c>
       <c r="D491" t="s">
         <v>607</v>
@@ -10562,7 +10562,7 @@
         <v>606</v>
       </c>
       <c r="C492">
-        <v>101.918</v>
+        <v>103.516</v>
       </c>
       <c r="D492" t="s">
         <v>607</v>
@@ -10576,10 +10576,10 @@
         <v>496</v>
       </c>
       <c r="B493" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C493">
-        <v>103.7</v>
+        <v>97.754</v>
       </c>
       <c r="D493" t="s">
         <v>607</v>
@@ -10593,10 +10593,10 @@
         <v>497</v>
       </c>
       <c r="B494" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C494">
-        <v>103.788</v>
+        <v>98.572</v>
       </c>
       <c r="D494" t="s">
         <v>607</v>
@@ -10610,10 +10610,10 @@
         <v>498</v>
       </c>
       <c r="B495" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C495">
-        <v>102.885</v>
+        <v>98.40300000000001</v>
       </c>
       <c r="D495" t="s">
         <v>607</v>
@@ -10627,10 +10627,10 @@
         <v>499</v>
       </c>
       <c r="B496" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C496">
-        <v>105.172</v>
+        <v>99.76900000000001</v>
       </c>
       <c r="D496" t="s">
         <v>607</v>
@@ -10644,10 +10644,10 @@
         <v>500</v>
       </c>
       <c r="B497" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C497">
-        <v>110.387</v>
+        <v>98.467</v>
       </c>
       <c r="D497" t="s">
         <v>607</v>
@@ -10664,7 +10664,7 @@
         <v>605</v>
       </c>
       <c r="C498">
-        <v>97.642</v>
+        <v>96.20999999999999</v>
       </c>
       <c r="D498" t="s">
         <v>607</v>
@@ -10678,10 +10678,10 @@
         <v>502</v>
       </c>
       <c r="B499" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C499">
-        <v>103.504</v>
+        <v>96.871</v>
       </c>
       <c r="D499" t="s">
         <v>607</v>
@@ -10695,10 +10695,10 @@
         <v>503</v>
       </c>
       <c r="B500" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C500">
-        <v>102.93</v>
+        <v>85.547</v>
       </c>
       <c r="D500" t="s">
         <v>607</v>
@@ -10712,10 +10712,10 @@
         <v>504</v>
       </c>
       <c r="B501" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C501">
-        <v>104.34</v>
+        <v>99.98999999999999</v>
       </c>
       <c r="D501" t="s">
         <v>607</v>
@@ -10732,7 +10732,7 @@
         <v>605</v>
       </c>
       <c r="C502">
-        <v>93.25</v>
+        <v>96.502</v>
       </c>
       <c r="D502" t="s">
         <v>607</v>
@@ -10749,7 +10749,7 @@
         <v>606</v>
       </c>
       <c r="C503">
-        <v>100.47</v>
+        <v>104.279</v>
       </c>
       <c r="D503" t="s">
         <v>607</v>
@@ -10766,7 +10766,7 @@
         <v>606</v>
       </c>
       <c r="C504">
-        <v>103.103</v>
+        <v>100.294</v>
       </c>
       <c r="D504" t="s">
         <v>607</v>
@@ -10780,10 +10780,10 @@
         <v>508</v>
       </c>
       <c r="B505" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C505">
-        <v>124.348</v>
+        <v>97.584</v>
       </c>
       <c r="D505" t="s">
         <v>607</v>
@@ -10797,10 +10797,10 @@
         <v>509</v>
       </c>
       <c r="B506" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C506">
-        <v>101.249</v>
+        <v>99.849</v>
       </c>
       <c r="D506" t="s">
         <v>607</v>
@@ -10817,7 +10817,7 @@
         <v>606</v>
       </c>
       <c r="C507">
-        <v>103.013</v>
+        <v>106.772</v>
       </c>
       <c r="D507" t="s">
         <v>607</v>
@@ -10834,7 +10834,7 @@
         <v>606</v>
       </c>
       <c r="C508">
-        <v>100</v>
+        <v>102.481</v>
       </c>
       <c r="D508" t="s">
         <v>607</v>
@@ -10851,7 +10851,7 @@
         <v>606</v>
       </c>
       <c r="C509">
-        <v>102.083</v>
+        <v>102.557</v>
       </c>
       <c r="D509" t="s">
         <v>607</v>
@@ -10865,10 +10865,10 @@
         <v>513</v>
       </c>
       <c r="B510" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C510">
-        <v>99.47499999999999</v>
+        <v>105.955</v>
       </c>
       <c r="D510" t="s">
         <v>607</v>
@@ -10882,10 +10882,10 @@
         <v>514</v>
       </c>
       <c r="B511" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C511">
-        <v>98.361</v>
+        <v>107.027</v>
       </c>
       <c r="D511" t="s">
         <v>607</v>
@@ -10902,7 +10902,7 @@
         <v>605</v>
       </c>
       <c r="C512">
-        <v>94.209</v>
+        <v>94.256</v>
       </c>
       <c r="D512" t="s">
         <v>607</v>
@@ -10919,7 +10919,7 @@
         <v>606</v>
       </c>
       <c r="C513">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="D513" t="s">
         <v>607</v>
@@ -10936,7 +10936,7 @@
         <v>606</v>
       </c>
       <c r="C514">
-        <v>100.901</v>
+        <v>101.802</v>
       </c>
       <c r="D514" t="s">
         <v>607</v>
@@ -10950,10 +10950,10 @@
         <v>518</v>
       </c>
       <c r="B515" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C515">
-        <v>104.705</v>
+        <v>97.712</v>
       </c>
       <c r="D515" t="s">
         <v>607</v>
@@ -10967,10 +10967,10 @@
         <v>519</v>
       </c>
       <c r="B516" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C516">
-        <v>94.77800000000001</v>
+        <v>100.673</v>
       </c>
       <c r="D516" t="s">
         <v>607</v>
@@ -10987,7 +10987,7 @@
         <v>605</v>
       </c>
       <c r="C517">
-        <v>97.205</v>
+        <v>75.146</v>
       </c>
       <c r="D517" t="s">
         <v>607</v>
@@ -11004,7 +11004,7 @@
         <v>605</v>
       </c>
       <c r="C518">
-        <v>86.041</v>
+        <v>90.191</v>
       </c>
       <c r="D518" t="s">
         <v>607</v>
@@ -11021,7 +11021,7 @@
         <v>606</v>
       </c>
       <c r="C519">
-        <v>133.471</v>
+        <v>105.765</v>
       </c>
       <c r="D519" t="s">
         <v>607</v>
@@ -11035,10 +11035,10 @@
         <v>523</v>
       </c>
       <c r="B520" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C520">
-        <v>104.589</v>
+        <v>93.113</v>
       </c>
       <c r="D520" t="s">
         <v>607</v>
@@ -11055,7 +11055,7 @@
         <v>605</v>
       </c>
       <c r="C521">
-        <v>95.41</v>
+        <v>98.941</v>
       </c>
       <c r="D521" t="s">
         <v>607</v>
@@ -11072,7 +11072,7 @@
         <v>606</v>
       </c>
       <c r="C522">
-        <v>100.182</v>
+        <v>103.247</v>
       </c>
       <c r="D522" t="s">
         <v>607</v>
@@ -11089,7 +11089,7 @@
         <v>605</v>
       </c>
       <c r="C523">
-        <v>98.705</v>
+        <v>88.482</v>
       </c>
       <c r="D523" t="s">
         <v>607</v>
@@ -11106,7 +11106,7 @@
         <v>605</v>
       </c>
       <c r="C524">
-        <v>81.126</v>
+        <v>86.053</v>
       </c>
       <c r="D524" t="s">
         <v>607</v>
@@ -11123,7 +11123,7 @@
         <v>605</v>
       </c>
       <c r="C525">
-        <v>86.67700000000001</v>
+        <v>86.301</v>
       </c>
       <c r="D525" t="s">
         <v>607</v>
@@ -11140,7 +11140,7 @@
         <v>606</v>
       </c>
       <c r="C526">
-        <v>100.375</v>
+        <v>110.294</v>
       </c>
       <c r="D526" t="s">
         <v>607</v>
@@ -11154,10 +11154,10 @@
         <v>529</v>
       </c>
       <c r="B527" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C527">
-        <v>93.666</v>
+        <v>104.597</v>
       </c>
       <c r="D527" t="s">
         <v>607</v>
@@ -11174,7 +11174,7 @@
         <v>605</v>
       </c>
       <c r="C528">
-        <v>99.887</v>
+        <v>92.611</v>
       </c>
       <c r="D528" t="s">
         <v>607</v>
@@ -11188,10 +11188,10 @@
         <v>531</v>
       </c>
       <c r="B529" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C529">
-        <v>98.238</v>
+        <v>111.915</v>
       </c>
       <c r="D529" t="s">
         <v>607</v>
@@ -11208,7 +11208,7 @@
         <v>605</v>
       </c>
       <c r="C530">
-        <v>85.946</v>
+        <v>84.11199999999999</v>
       </c>
       <c r="D530" t="s">
         <v>607</v>
@@ -11222,10 +11222,10 @@
         <v>533</v>
       </c>
       <c r="B531" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C531">
-        <v>84.012</v>
+        <v>101.987</v>
       </c>
       <c r="D531" t="s">
         <v>607</v>
@@ -11239,10 +11239,10 @@
         <v>534</v>
       </c>
       <c r="B532" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C532">
-        <v>92.697</v>
+        <v>101.765</v>
       </c>
       <c r="D532" t="s">
         <v>607</v>
@@ -11256,10 +11256,10 @@
         <v>535</v>
       </c>
       <c r="B533" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C533">
-        <v>102.883</v>
+        <v>98.371</v>
       </c>
       <c r="D533" t="s">
         <v>607</v>
@@ -11276,7 +11276,7 @@
         <v>606</v>
       </c>
       <c r="C534">
-        <v>101.968</v>
+        <v>101.497</v>
       </c>
       <c r="D534" t="s">
         <v>607</v>
@@ -11293,7 +11293,7 @@
         <v>606</v>
       </c>
       <c r="C535">
-        <v>103.19</v>
+        <v>100.219</v>
       </c>
       <c r="D535" t="s">
         <v>607</v>
@@ -11310,7 +11310,7 @@
         <v>606</v>
       </c>
       <c r="C536">
-        <v>103.241</v>
+        <v>110.632</v>
       </c>
       <c r="D536" t="s">
         <v>607</v>
@@ -11327,7 +11327,7 @@
         <v>605</v>
       </c>
       <c r="C537">
-        <v>88.30500000000001</v>
+        <v>95</v>
       </c>
       <c r="D537" t="s">
         <v>607</v>
@@ -11344,7 +11344,7 @@
         <v>606</v>
       </c>
       <c r="C538">
-        <v>102.25</v>
+        <v>104.458</v>
       </c>
       <c r="D538" t="s">
         <v>607</v>
@@ -11361,7 +11361,7 @@
         <v>605</v>
       </c>
       <c r="C539">
-        <v>94.86199999999999</v>
+        <v>97.712</v>
       </c>
       <c r="D539" t="s">
         <v>607</v>
@@ -11378,7 +11378,7 @@
         <v>606</v>
       </c>
       <c r="C540">
-        <v>100.892</v>
+        <v>105.495</v>
       </c>
       <c r="D540" t="s">
         <v>607</v>
@@ -11392,10 +11392,10 @@
         <v>542</v>
       </c>
       <c r="B541" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C541">
-        <v>98.56</v>
+        <v>102.679</v>
       </c>
       <c r="D541" t="s">
         <v>607</v>
@@ -11409,10 +11409,10 @@
         <v>543</v>
       </c>
       <c r="B542" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C542">
-        <v>103.228</v>
+        <v>93.922</v>
       </c>
       <c r="D542" t="s">
         <v>607</v>
@@ -11426,10 +11426,10 @@
         <v>544</v>
       </c>
       <c r="B543" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C543">
-        <v>99.736</v>
+        <v>103.913</v>
       </c>
       <c r="D543" t="s">
         <v>607</v>
@@ -11443,10 +11443,10 @@
         <v>545</v>
       </c>
       <c r="B544" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C544">
-        <v>98.77500000000001</v>
+        <v>111.111</v>
       </c>
       <c r="D544" t="s">
         <v>607</v>
@@ -11460,10 +11460,10 @@
         <v>546</v>
       </c>
       <c r="B545" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C545">
-        <v>95.155</v>
+        <v>102.502</v>
       </c>
       <c r="D545" t="s">
         <v>607</v>
@@ -11477,10 +11477,10 @@
         <v>547</v>
       </c>
       <c r="B546" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C546">
-        <v>97.968</v>
+        <v>100.096</v>
       </c>
       <c r="D546" t="s">
         <v>607</v>
@@ -11497,7 +11497,7 @@
         <v>605</v>
       </c>
       <c r="C547">
-        <v>95.75</v>
+        <v>96.834</v>
       </c>
       <c r="D547" t="s">
         <v>607</v>
@@ -11511,10 +11511,10 @@
         <v>549</v>
       </c>
       <c r="B548" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C548">
-        <v>99.22</v>
+        <v>109.684</v>
       </c>
       <c r="D548" t="s">
         <v>607</v>
@@ -11528,10 +11528,10 @@
         <v>550</v>
       </c>
       <c r="B549" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C549">
-        <v>96.71899999999999</v>
+        <v>100.575</v>
       </c>
       <c r="D549" t="s">
         <v>607</v>
@@ -11545,10 +11545,10 @@
         <v>551</v>
       </c>
       <c r="B550" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C550">
-        <v>99.051</v>
+        <v>102.267</v>
       </c>
       <c r="D550" t="s">
         <v>607</v>
@@ -11565,7 +11565,7 @@
         <v>605</v>
       </c>
       <c r="C551">
-        <v>99.729</v>
+        <v>98.848</v>
       </c>
       <c r="D551" t="s">
         <v>607</v>
@@ -11582,7 +11582,7 @@
         <v>606</v>
       </c>
       <c r="C552">
-        <v>102.373</v>
+        <v>104.84</v>
       </c>
       <c r="D552" t="s">
         <v>607</v>
@@ -11599,7 +11599,7 @@
         <v>606</v>
       </c>
       <c r="C553">
-        <v>102.07</v>
+        <v>102.015</v>
       </c>
       <c r="D553" t="s">
         <v>607</v>
@@ -11613,10 +11613,10 @@
         <v>555</v>
       </c>
       <c r="B554" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C554">
-        <v>92.857</v>
+        <v>107.692</v>
       </c>
       <c r="D554" t="s">
         <v>607</v>
@@ -11630,10 +11630,10 @@
         <v>556</v>
       </c>
       <c r="B555" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C555">
-        <v>104.007</v>
+        <v>98.117</v>
       </c>
       <c r="D555" t="s">
         <v>607</v>
@@ -11647,10 +11647,10 @@
         <v>557</v>
       </c>
       <c r="B556" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C556">
-        <v>99.824</v>
+        <v>105.813</v>
       </c>
       <c r="D556" t="s">
         <v>607</v>
@@ -11667,7 +11667,7 @@
         <v>606</v>
       </c>
       <c r="C557">
-        <v>102.862</v>
+        <v>103.747</v>
       </c>
       <c r="D557" t="s">
         <v>607</v>
@@ -11684,7 +11684,7 @@
         <v>606</v>
       </c>
       <c r="C558">
-        <v>103.824</v>
+        <v>102.988</v>
       </c>
       <c r="D558" t="s">
         <v>607</v>
@@ -11701,7 +11701,7 @@
         <v>605</v>
       </c>
       <c r="C559">
-        <v>95.464</v>
+        <v>97.867</v>
       </c>
       <c r="D559" t="s">
         <v>607</v>
@@ -11718,7 +11718,7 @@
         <v>606</v>
       </c>
       <c r="C560">
-        <v>102.796</v>
+        <v>104.692</v>
       </c>
       <c r="D560" t="s">
         <v>607</v>
@@ -11735,7 +11735,7 @@
         <v>606</v>
       </c>
       <c r="C561">
-        <v>102.384</v>
+        <v>102.662</v>
       </c>
       <c r="D561" t="s">
         <v>607</v>
@@ -11752,7 +11752,7 @@
         <v>605</v>
       </c>
       <c r="C562">
-        <v>98.221</v>
+        <v>99.071</v>
       </c>
       <c r="D562" t="s">
         <v>607</v>
@@ -11766,10 +11766,10 @@
         <v>564</v>
       </c>
       <c r="B563" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C563">
-        <v>97.238</v>
+        <v>101.75</v>
       </c>
       <c r="D563" t="s">
         <v>607</v>
@@ -11786,7 +11786,7 @@
         <v>606</v>
       </c>
       <c r="C564">
-        <v>105.917</v>
+        <v>102.375</v>
       </c>
       <c r="D564" t="s">
         <v>607</v>
@@ -11800,10 +11800,10 @@
         <v>566</v>
       </c>
       <c r="B565" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C565">
-        <v>100.19</v>
+        <v>96.503</v>
       </c>
       <c r="D565" t="s">
         <v>607</v>
@@ -11817,10 +11817,10 @@
         <v>567</v>
       </c>
       <c r="B566" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C566">
-        <v>100.377</v>
+        <v>91.63500000000001</v>
       </c>
       <c r="D566" t="s">
         <v>607</v>
@@ -11834,10 +11834,10 @@
         <v>568</v>
       </c>
       <c r="B567" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C567">
-        <v>93.006</v>
+        <v>105.939</v>
       </c>
       <c r="D567" t="s">
         <v>607</v>
@@ -11854,7 +11854,7 @@
         <v>606</v>
       </c>
       <c r="C568">
-        <v>100.947</v>
+        <v>100.895</v>
       </c>
       <c r="D568" t="s">
         <v>607</v>
@@ -11871,7 +11871,7 @@
         <v>606</v>
       </c>
       <c r="C569">
-        <v>101.845</v>
+        <v>101.567</v>
       </c>
       <c r="D569" t="s">
         <v>607</v>
@@ -11888,7 +11888,7 @@
         <v>606</v>
       </c>
       <c r="C570">
-        <v>105.897</v>
+        <v>104.894</v>
       </c>
       <c r="D570" t="s">
         <v>607</v>
@@ -11902,10 +11902,10 @@
         <v>572</v>
       </c>
       <c r="B571" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C571">
-        <v>103.467</v>
+        <v>93.56699999999999</v>
       </c>
       <c r="D571" t="s">
         <v>607</v>
@@ -11919,10 +11919,10 @@
         <v>573</v>
       </c>
       <c r="B572" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C572">
-        <v>99.834</v>
+        <v>103.359</v>
       </c>
       <c r="D572" t="s">
         <v>607</v>
@@ -11939,7 +11939,7 @@
         <v>606</v>
       </c>
       <c r="C573">
-        <v>101</v>
+        <v>101.488</v>
       </c>
       <c r="D573" t="s">
         <v>607</v>
@@ -11956,7 +11956,7 @@
         <v>605</v>
       </c>
       <c r="C574">
-        <v>99.78700000000001</v>
+        <v>91.01900000000001</v>
       </c>
       <c r="D574" t="s">
         <v>607</v>
@@ -11970,10 +11970,10 @@
         <v>576</v>
       </c>
       <c r="B575" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C575">
-        <v>104.294</v>
+        <v>98.15600000000001</v>
       </c>
       <c r="D575" t="s">
         <v>607</v>
@@ -11990,7 +11990,7 @@
         <v>606</v>
       </c>
       <c r="C576">
-        <v>101.681</v>
+        <v>102.618</v>
       </c>
       <c r="D576" t="s">
         <v>607</v>
@@ -12004,10 +12004,10 @@
         <v>578</v>
       </c>
       <c r="B577" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C577">
-        <v>96.898</v>
+        <v>104.528</v>
       </c>
       <c r="D577" t="s">
         <v>607</v>
@@ -12021,10 +12021,10 @@
         <v>579</v>
       </c>
       <c r="B578" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C578">
-        <v>100.819</v>
+        <v>99.983</v>
       </c>
       <c r="D578" t="s">
         <v>607</v>
@@ -12041,7 +12041,7 @@
         <v>606</v>
       </c>
       <c r="C579">
-        <v>102.708</v>
+        <v>101.138</v>
       </c>
       <c r="D579" t="s">
         <v>607</v>
@@ -12058,7 +12058,7 @@
         <v>605</v>
       </c>
       <c r="C580">
-        <v>99.16500000000001</v>
+        <v>99.01300000000001</v>
       </c>
       <c r="D580" t="s">
         <v>607</v>
@@ -12072,10 +12072,10 @@
         <v>582</v>
       </c>
       <c r="B581" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C581">
-        <v>103.624</v>
+        <v>94.66200000000001</v>
       </c>
       <c r="D581" t="s">
         <v>607</v>
@@ -12089,10 +12089,10 @@
         <v>583</v>
       </c>
       <c r="B582" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C582">
-        <v>101.397</v>
+        <v>98.054</v>
       </c>
       <c r="D582" t="s">
         <v>607</v>
@@ -12109,7 +12109,7 @@
         <v>606</v>
       </c>
       <c r="C583">
-        <v>102.219</v>
+        <v>103.547</v>
       </c>
       <c r="D583" t="s">
         <v>607</v>
@@ -12123,10 +12123,10 @@
         <v>585</v>
       </c>
       <c r="B584" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C584">
-        <v>101.158</v>
+        <v>98.831</v>
       </c>
       <c r="D584" t="s">
         <v>607</v>
@@ -12143,7 +12143,7 @@
         <v>606</v>
       </c>
       <c r="C585">
-        <v>106.665</v>
+        <v>103.234</v>
       </c>
       <c r="D585" t="s">
         <v>607</v>
@@ -12157,10 +12157,10 @@
         <v>587</v>
       </c>
       <c r="B586" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C586">
-        <v>99.59</v>
+        <v>102.441</v>
       </c>
       <c r="D586" t="s">
         <v>607</v>
@@ -12177,7 +12177,7 @@
         <v>606</v>
       </c>
       <c r="C587">
-        <v>103.493</v>
+        <v>113.551</v>
       </c>
       <c r="D587" t="s">
         <v>607</v>
@@ -12191,10 +12191,10 @@
         <v>589</v>
       </c>
       <c r="B588" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C588">
-        <v>99.892</v>
+        <v>101.333</v>
       </c>
       <c r="D588" t="s">
         <v>607</v>
@@ -12208,10 +12208,10 @@
         <v>590</v>
       </c>
       <c r="B589" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C589">
-        <v>99.913</v>
+        <v>105.442</v>
       </c>
       <c r="D589" t="s">
         <v>607</v>
@@ -12225,10 +12225,10 @@
         <v>591</v>
       </c>
       <c r="B590" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C590">
-        <v>107.971</v>
+        <v>97.336</v>
       </c>
       <c r="D590" t="s">
         <v>607</v>
@@ -12245,7 +12245,7 @@
         <v>606</v>
       </c>
       <c r="C591">
-        <v>101.771</v>
+        <v>101.244</v>
       </c>
       <c r="D591" t="s">
         <v>607</v>
@@ -12262,7 +12262,7 @@
         <v>606</v>
       </c>
       <c r="C592">
-        <v>101.39</v>
+        <v>105.773</v>
       </c>
       <c r="D592" t="s">
         <v>607</v>
@@ -12276,10 +12276,10 @@
         <v>594</v>
       </c>
       <c r="B593" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C593">
-        <v>110.228</v>
+        <v>82.86199999999999</v>
       </c>
       <c r="D593" t="s">
         <v>607</v>
@@ -12296,7 +12296,7 @@
         <v>606</v>
       </c>
       <c r="C594">
-        <v>100.818</v>
+        <v>103.331</v>
       </c>
       <c r="D594" t="s">
         <v>607</v>
@@ -12313,7 +12313,7 @@
         <v>605</v>
       </c>
       <c r="C595">
-        <v>94.63200000000001</v>
+        <v>99.702</v>
       </c>
       <c r="D595" t="s">
         <v>607</v>
@@ -12330,7 +12330,7 @@
         <v>606</v>
       </c>
       <c r="C596">
-        <v>100.35</v>
+        <v>103.524</v>
       </c>
       <c r="D596" t="s">
         <v>607</v>
@@ -12347,7 +12347,7 @@
         <v>605</v>
       </c>
       <c r="C597">
-        <v>98.283</v>
+        <v>97.97199999999999</v>
       </c>
       <c r="D597" t="s">
         <v>607</v>
@@ -12364,7 +12364,7 @@
         <v>605</v>
       </c>
       <c r="C598">
-        <v>99.779</v>
+        <v>91.869</v>
       </c>
       <c r="D598" t="s">
         <v>607</v>
@@ -12378,10 +12378,10 @@
         <v>600</v>
       </c>
       <c r="B599" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C599">
-        <v>101.176</v>
+        <v>93.92700000000001</v>
       </c>
       <c r="D599" t="s">
         <v>607</v>
@@ -12395,10 +12395,10 @@
         <v>601</v>
       </c>
       <c r="B600" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C600">
-        <v>97.95699999999999</v>
+        <v>101.919</v>
       </c>
       <c r="D600" t="s">
         <v>607</v>
@@ -12412,10 +12412,10 @@
         <v>602</v>
       </c>
       <c r="B601" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C601">
-        <v>114.134</v>
+        <v>98.60299999999999</v>
       </c>
       <c r="D601" t="s">
         <v>607</v>
@@ -12432,7 +12432,7 @@
         <v>606</v>
       </c>
       <c r="C602">
-        <v>101.224</v>
+        <v>101.984</v>
       </c>
       <c r="D602" t="s">
         <v>607</v>
@@ -12449,7 +12449,7 @@
         <v>605</v>
       </c>
       <c r="C603">
-        <v>94.739</v>
+        <v>80.96599999999999</v>
       </c>
       <c r="D603" t="s">
         <v>607</v>

--- a/generated_reports/tradfi_momentum.xlsx
+++ b/generated_reports/tradfi_momentum.xlsx
@@ -1831,10 +1831,10 @@
     <t>MDB</t>
   </si>
   <si>
+    <t>Up</t>
+  </si>
+  <si>
     <t>Down</t>
-  </si>
-  <si>
-    <t>Up</t>
   </si>
   <si>
     <t>10 days</t>
@@ -2232,7 +2232,7 @@
         <v>605</v>
       </c>
       <c r="C2">
-        <v>98.584</v>
+        <v>100.375</v>
       </c>
       <c r="D2" t="s">
         <v>607</v>
@@ -2246,10 +2246,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C3">
-        <v>100.362</v>
+        <v>105.699</v>
       </c>
       <c r="D3" t="s">
         <v>607</v>
@@ -2266,7 +2266,7 @@
         <v>605</v>
       </c>
       <c r="C4">
-        <v>98.221</v>
+        <v>101.597</v>
       </c>
       <c r="D4" t="s">
         <v>607</v>
@@ -2280,10 +2280,10 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C5">
-        <v>103.05</v>
+        <v>104.464</v>
       </c>
       <c r="D5" t="s">
         <v>607</v>
@@ -2300,7 +2300,7 @@
         <v>605</v>
       </c>
       <c r="C6">
-        <v>97.172</v>
+        <v>100.358</v>
       </c>
       <c r="D6" t="s">
         <v>607</v>
@@ -2317,7 +2317,7 @@
         <v>605</v>
       </c>
       <c r="C7">
-        <v>88.108</v>
+        <v>101.108</v>
       </c>
       <c r="D7" t="s">
         <v>607</v>
@@ -2331,10 +2331,10 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C8">
-        <v>105.872</v>
+        <v>109.002</v>
       </c>
       <c r="D8" t="s">
         <v>607</v>
@@ -2348,10 +2348,10 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C9">
-        <v>86.941</v>
+        <v>98.563</v>
       </c>
       <c r="D9" t="s">
         <v>607</v>
@@ -2365,10 +2365,10 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C10">
-        <v>86.70999999999999</v>
+        <v>92.67</v>
       </c>
       <c r="D10" t="s">
         <v>607</v>
@@ -2385,7 +2385,7 @@
         <v>605</v>
       </c>
       <c r="C11">
-        <v>95.581</v>
+        <v>102.343</v>
       </c>
       <c r="D11" t="s">
         <v>607</v>
@@ -2402,7 +2402,7 @@
         <v>605</v>
       </c>
       <c r="C12">
-        <v>99.571</v>
+        <v>105.765</v>
       </c>
       <c r="D12" t="s">
         <v>607</v>
@@ -2416,10 +2416,10 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C13">
-        <v>93.03700000000001</v>
+        <v>86.157</v>
       </c>
       <c r="D13" t="s">
         <v>607</v>
@@ -2436,7 +2436,7 @@
         <v>605</v>
       </c>
       <c r="C14">
-        <v>98.384</v>
+        <v>102.958</v>
       </c>
       <c r="D14" t="s">
         <v>607</v>
@@ -2453,7 +2453,7 @@
         <v>605</v>
       </c>
       <c r="C15">
-        <v>99.593</v>
+        <v>100.768</v>
       </c>
       <c r="D15" t="s">
         <v>607</v>
@@ -2467,10 +2467,10 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C16">
-        <v>99.063</v>
+        <v>98.134</v>
       </c>
       <c r="D16" t="s">
         <v>607</v>
@@ -2484,10 +2484,10 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C17">
-        <v>93.488</v>
+        <v>96.40900000000001</v>
       </c>
       <c r="D17" t="s">
         <v>607</v>
@@ -2501,10 +2501,10 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C18">
-        <v>102.198</v>
+        <v>100.728</v>
       </c>
       <c r="D18" t="s">
         <v>607</v>
@@ -2518,10 +2518,10 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C19">
-        <v>93.583</v>
+        <v>99.932</v>
       </c>
       <c r="D19" t="s">
         <v>607</v>
@@ -2538,7 +2538,7 @@
         <v>605</v>
       </c>
       <c r="C20">
-        <v>96.235</v>
+        <v>101.169</v>
       </c>
       <c r="D20" t="s">
         <v>607</v>
@@ -2552,10 +2552,10 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C21">
-        <v>100.046</v>
+        <v>100.168</v>
       </c>
       <c r="D21" t="s">
         <v>607</v>
@@ -2572,7 +2572,7 @@
         <v>605</v>
       </c>
       <c r="C22">
-        <v>99.22199999999999</v>
+        <v>100.314</v>
       </c>
       <c r="D22" t="s">
         <v>607</v>
@@ -2589,7 +2589,7 @@
         <v>605</v>
       </c>
       <c r="C23">
-        <v>94.82599999999999</v>
+        <v>102.549</v>
       </c>
       <c r="D23" t="s">
         <v>607</v>
@@ -2606,7 +2606,7 @@
         <v>605</v>
       </c>
       <c r="C24">
-        <v>98.63</v>
+        <v>104.651</v>
       </c>
       <c r="D24" t="s">
         <v>607</v>
@@ -2623,7 +2623,7 @@
         <v>605</v>
       </c>
       <c r="C25">
-        <v>97.46899999999999</v>
+        <v>100.659</v>
       </c>
       <c r="D25" t="s">
         <v>607</v>
@@ -2640,7 +2640,7 @@
         <v>605</v>
       </c>
       <c r="C26">
-        <v>98.92400000000001</v>
+        <v>100.028</v>
       </c>
       <c r="D26" t="s">
         <v>607</v>
@@ -2657,7 +2657,7 @@
         <v>606</v>
       </c>
       <c r="C27">
-        <v>101.993</v>
+        <v>97.298</v>
       </c>
       <c r="D27" t="s">
         <v>607</v>
@@ -2674,7 +2674,7 @@
         <v>605</v>
       </c>
       <c r="C28">
-        <v>98.937</v>
+        <v>100.501</v>
       </c>
       <c r="D28" t="s">
         <v>607</v>
@@ -2691,7 +2691,7 @@
         <v>605</v>
       </c>
       <c r="C29">
-        <v>93.102</v>
+        <v>102.709</v>
       </c>
       <c r="D29" t="s">
         <v>607</v>
@@ -2708,7 +2708,7 @@
         <v>605</v>
       </c>
       <c r="C30">
-        <v>98.331</v>
+        <v>102.702</v>
       </c>
       <c r="D30" t="s">
         <v>607</v>
@@ -2725,7 +2725,7 @@
         <v>606</v>
       </c>
       <c r="C31">
-        <v>100.277</v>
+        <v>99.59699999999999</v>
       </c>
       <c r="D31" t="s">
         <v>607</v>
@@ -2739,10 +2739,10 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C32">
-        <v>101.327</v>
+        <v>110.839</v>
       </c>
       <c r="D32" t="s">
         <v>607</v>
@@ -2759,7 +2759,7 @@
         <v>605</v>
       </c>
       <c r="C33">
-        <v>96.146</v>
+        <v>100.513</v>
       </c>
       <c r="D33" t="s">
         <v>607</v>
@@ -2776,7 +2776,7 @@
         <v>605</v>
       </c>
       <c r="C34">
-        <v>94.229</v>
+        <v>102.652</v>
       </c>
       <c r="D34" t="s">
         <v>607</v>
@@ -2790,10 +2790,10 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C35">
-        <v>99.30800000000001</v>
+        <v>99.91500000000001</v>
       </c>
       <c r="D35" t="s">
         <v>607</v>
@@ -2810,7 +2810,7 @@
         <v>605</v>
       </c>
       <c r="C36">
-        <v>97.369</v>
+        <v>112.528</v>
       </c>
       <c r="D36" t="s">
         <v>607</v>
@@ -2827,7 +2827,7 @@
         <v>605</v>
       </c>
       <c r="C37">
-        <v>92.548</v>
+        <v>105.377</v>
       </c>
       <c r="D37" t="s">
         <v>607</v>
@@ -2844,7 +2844,7 @@
         <v>605</v>
       </c>
       <c r="C38">
-        <v>96.11799999999999</v>
+        <v>102.856</v>
       </c>
       <c r="D38" t="s">
         <v>607</v>
@@ -2861,7 +2861,7 @@
         <v>605</v>
       </c>
       <c r="C39">
-        <v>95.276</v>
+        <v>101.991</v>
       </c>
       <c r="D39" t="s">
         <v>607</v>
@@ -2878,7 +2878,7 @@
         <v>605</v>
       </c>
       <c r="C40">
-        <v>94.053</v>
+        <v>104.601</v>
       </c>
       <c r="D40" t="s">
         <v>607</v>
@@ -2892,10 +2892,10 @@
         <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C41">
-        <v>96.32599999999999</v>
+        <v>99.16200000000001</v>
       </c>
       <c r="D41" t="s">
         <v>607</v>
@@ -2909,10 +2909,10 @@
         <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C42">
-        <v>104.785</v>
+        <v>112.083</v>
       </c>
       <c r="D42" t="s">
         <v>607</v>
@@ -2929,7 +2929,7 @@
         <v>605</v>
       </c>
       <c r="C43">
-        <v>98.646</v>
+        <v>101.994</v>
       </c>
       <c r="D43" t="s">
         <v>607</v>
@@ -2943,10 +2943,10 @@
         <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C44">
-        <v>94.206</v>
+        <v>99.64400000000001</v>
       </c>
       <c r="D44" t="s">
         <v>607</v>
@@ -2960,10 +2960,10 @@
         <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C45">
-        <v>103.139</v>
+        <v>104.007</v>
       </c>
       <c r="D45" t="s">
         <v>607</v>
@@ -2977,10 +2977,10 @@
         <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C46">
-        <v>101.613</v>
+        <v>101.983</v>
       </c>
       <c r="D46" t="s">
         <v>607</v>
@@ -2994,10 +2994,10 @@
         <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C47">
-        <v>103.265</v>
+        <v>107.262</v>
       </c>
       <c r="D47" t="s">
         <v>607</v>
@@ -3011,10 +3011,10 @@
         <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C48">
-        <v>103.333</v>
+        <v>101.183</v>
       </c>
       <c r="D48" t="s">
         <v>607</v>
@@ -3031,7 +3031,7 @@
         <v>605</v>
       </c>
       <c r="C49">
-        <v>98.26000000000001</v>
+        <v>104.604</v>
       </c>
       <c r="D49" t="s">
         <v>607</v>
@@ -3048,7 +3048,7 @@
         <v>605</v>
       </c>
       <c r="C50">
-        <v>99.70399999999999</v>
+        <v>102.685</v>
       </c>
       <c r="D50" t="s">
         <v>607</v>
@@ -3062,10 +3062,10 @@
         <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C51">
-        <v>93.40900000000001</v>
+        <v>97.651</v>
       </c>
       <c r="D51" t="s">
         <v>607</v>
@@ -3079,10 +3079,10 @@
         <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C52">
-        <v>104.153</v>
+        <v>103.816</v>
       </c>
       <c r="D52" t="s">
         <v>607</v>
@@ -3096,10 +3096,10 @@
         <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C53">
-        <v>100.586</v>
+        <v>102.047</v>
       </c>
       <c r="D53" t="s">
         <v>607</v>
@@ -3113,10 +3113,10 @@
         <v>57</v>
       </c>
       <c r="B54" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C54">
-        <v>105.379</v>
+        <v>108.522</v>
       </c>
       <c r="D54" t="s">
         <v>607</v>
@@ -3130,10 +3130,10 @@
         <v>58</v>
       </c>
       <c r="B55" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C55">
-        <v>101.979</v>
+        <v>100.034</v>
       </c>
       <c r="D55" t="s">
         <v>607</v>
@@ -3150,7 +3150,7 @@
         <v>605</v>
       </c>
       <c r="C56">
-        <v>97.52200000000001</v>
+        <v>105.515</v>
       </c>
       <c r="D56" t="s">
         <v>607</v>
@@ -3164,10 +3164,10 @@
         <v>60</v>
       </c>
       <c r="B57" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C57">
-        <v>84.27200000000001</v>
+        <v>88.292</v>
       </c>
       <c r="D57" t="s">
         <v>607</v>
@@ -3181,10 +3181,10 @@
         <v>61</v>
       </c>
       <c r="B58" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C58">
-        <v>103.752</v>
+        <v>104.094</v>
       </c>
       <c r="D58" t="s">
         <v>607</v>
@@ -3201,7 +3201,7 @@
         <v>605</v>
       </c>
       <c r="C59">
-        <v>96.77200000000001</v>
+        <v>100.995</v>
       </c>
       <c r="D59" t="s">
         <v>607</v>
@@ -3218,7 +3218,7 @@
         <v>605</v>
       </c>
       <c r="C60">
-        <v>99.244</v>
+        <v>101.51</v>
       </c>
       <c r="D60" t="s">
         <v>607</v>
@@ -3235,7 +3235,7 @@
         <v>606</v>
       </c>
       <c r="C61">
-        <v>106.672</v>
+        <v>98.64</v>
       </c>
       <c r="D61" t="s">
         <v>607</v>
@@ -3252,7 +3252,7 @@
         <v>605</v>
       </c>
       <c r="C62">
-        <v>98.08799999999999</v>
+        <v>102.181</v>
       </c>
       <c r="D62" t="s">
         <v>607</v>
@@ -3269,7 +3269,7 @@
         <v>605</v>
       </c>
       <c r="C63">
-        <v>98.316</v>
+        <v>101.25</v>
       </c>
       <c r="D63" t="s">
         <v>607</v>
@@ -3283,10 +3283,10 @@
         <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C64">
-        <v>92.73399999999999</v>
+        <v>94.777</v>
       </c>
       <c r="D64" t="s">
         <v>607</v>
@@ -3300,10 +3300,10 @@
         <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C65">
-        <v>93.458</v>
+        <v>96.104</v>
       </c>
       <c r="D65" t="s">
         <v>607</v>
@@ -3317,10 +3317,10 @@
         <v>69</v>
       </c>
       <c r="B66" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C66">
-        <v>96.657</v>
+        <v>99.117</v>
       </c>
       <c r="D66" t="s">
         <v>607</v>
@@ -3337,7 +3337,7 @@
         <v>605</v>
       </c>
       <c r="C67">
-        <v>94.371</v>
+        <v>103.86</v>
       </c>
       <c r="D67" t="s">
         <v>607</v>
@@ -3351,10 +3351,10 @@
         <v>71</v>
       </c>
       <c r="B68" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C68">
-        <v>100.773</v>
+        <v>100.189</v>
       </c>
       <c r="D68" t="s">
         <v>607</v>
@@ -3368,10 +3368,10 @@
         <v>72</v>
       </c>
       <c r="B69" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C69">
-        <v>96.729</v>
+        <v>98.024</v>
       </c>
       <c r="D69" t="s">
         <v>607</v>
@@ -3388,7 +3388,7 @@
         <v>605</v>
       </c>
       <c r="C70">
-        <v>94.051</v>
+        <v>102.087</v>
       </c>
       <c r="D70" t="s">
         <v>607</v>
@@ -3405,7 +3405,7 @@
         <v>606</v>
       </c>
       <c r="C71">
-        <v>102.346</v>
+        <v>99.53400000000001</v>
       </c>
       <c r="D71" t="s">
         <v>607</v>
@@ -3419,10 +3419,10 @@
         <v>75</v>
       </c>
       <c r="B72" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C72">
-        <v>95.258</v>
+        <v>94.542</v>
       </c>
       <c r="D72" t="s">
         <v>607</v>
@@ -3436,10 +3436,10 @@
         <v>76</v>
       </c>
       <c r="B73" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C73">
-        <v>100.321</v>
+        <v>103.689</v>
       </c>
       <c r="D73" t="s">
         <v>607</v>
@@ -3453,10 +3453,10 @@
         <v>77</v>
       </c>
       <c r="B74" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C74">
-        <v>99.226</v>
+        <v>98.88500000000001</v>
       </c>
       <c r="D74" t="s">
         <v>607</v>
@@ -3470,10 +3470,10 @@
         <v>78</v>
       </c>
       <c r="B75" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C75">
-        <v>97.745</v>
+        <v>99.738</v>
       </c>
       <c r="D75" t="s">
         <v>607</v>
@@ -3490,7 +3490,7 @@
         <v>605</v>
       </c>
       <c r="C76">
-        <v>92.15600000000001</v>
+        <v>101.278</v>
       </c>
       <c r="D76" t="s">
         <v>607</v>
@@ -3504,10 +3504,10 @@
         <v>80</v>
       </c>
       <c r="B77" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C77">
-        <v>107.439</v>
+        <v>113.494</v>
       </c>
       <c r="D77" t="s">
         <v>607</v>
@@ -3521,10 +3521,10 @@
         <v>81</v>
       </c>
       <c r="B78" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C78">
-        <v>93.72799999999999</v>
+        <v>95.985</v>
       </c>
       <c r="D78" t="s">
         <v>607</v>
@@ -3538,10 +3538,10 @@
         <v>82</v>
       </c>
       <c r="B79" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C79">
-        <v>101.821</v>
+        <v>102.509</v>
       </c>
       <c r="D79" t="s">
         <v>607</v>
@@ -3555,10 +3555,10 @@
         <v>83</v>
       </c>
       <c r="B80" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C80">
-        <v>109.82</v>
+        <v>110.327</v>
       </c>
       <c r="D80" t="s">
         <v>607</v>
@@ -3572,10 +3572,10 @@
         <v>84</v>
       </c>
       <c r="B81" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C81">
-        <v>96.42</v>
+        <v>97.15600000000001</v>
       </c>
       <c r="D81" t="s">
         <v>607</v>
@@ -3592,7 +3592,7 @@
         <v>605</v>
       </c>
       <c r="C82">
-        <v>91.935</v>
+        <v>104.253</v>
       </c>
       <c r="D82" t="s">
         <v>607</v>
@@ -3606,10 +3606,10 @@
         <v>86</v>
       </c>
       <c r="B83" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C83">
-        <v>108.177</v>
+        <v>101.029</v>
       </c>
       <c r="D83" t="s">
         <v>607</v>
@@ -3623,10 +3623,10 @@
         <v>87</v>
       </c>
       <c r="B84" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C84">
-        <v>93.65600000000001</v>
+        <v>94.473</v>
       </c>
       <c r="D84" t="s">
         <v>607</v>
@@ -3643,7 +3643,7 @@
         <v>605</v>
       </c>
       <c r="C85">
-        <v>94.98399999999999</v>
+        <v>100.134</v>
       </c>
       <c r="D85" t="s">
         <v>607</v>
@@ -3657,10 +3657,10 @@
         <v>89</v>
       </c>
       <c r="B86" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C86">
-        <v>90.575</v>
+        <v>99.688</v>
       </c>
       <c r="D86" t="s">
         <v>607</v>
@@ -3674,10 +3674,10 @@
         <v>90</v>
       </c>
       <c r="B87" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C87">
-        <v>87.024</v>
+        <v>86.005</v>
       </c>
       <c r="D87" t="s">
         <v>607</v>
@@ -3694,7 +3694,7 @@
         <v>606</v>
       </c>
       <c r="C88">
-        <v>105.302</v>
+        <v>99.88500000000001</v>
       </c>
       <c r="D88" t="s">
         <v>607</v>
@@ -3708,10 +3708,10 @@
         <v>92</v>
       </c>
       <c r="B89" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C89">
-        <v>106.177</v>
+        <v>106.061</v>
       </c>
       <c r="D89" t="s">
         <v>607</v>
@@ -3728,7 +3728,7 @@
         <v>605</v>
       </c>
       <c r="C90">
-        <v>96.29900000000001</v>
+        <v>103.906</v>
       </c>
       <c r="D90" t="s">
         <v>607</v>
@@ -3742,10 +3742,10 @@
         <v>94</v>
       </c>
       <c r="B91" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C91">
-        <v>106.727</v>
+        <v>103.236</v>
       </c>
       <c r="D91" t="s">
         <v>607</v>
@@ -3762,7 +3762,7 @@
         <v>606</v>
       </c>
       <c r="C92">
-        <v>101.166</v>
+        <v>98.29900000000001</v>
       </c>
       <c r="D92" t="s">
         <v>607</v>
@@ -3776,10 +3776,10 @@
         <v>96</v>
       </c>
       <c r="B93" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C93">
-        <v>97.122</v>
+        <v>93.26900000000001</v>
       </c>
       <c r="D93" t="s">
         <v>607</v>
@@ -3796,7 +3796,7 @@
         <v>605</v>
       </c>
       <c r="C94">
-        <v>92.76000000000001</v>
+        <v>101.492</v>
       </c>
       <c r="D94" t="s">
         <v>607</v>
@@ -3810,10 +3810,10 @@
         <v>98</v>
       </c>
       <c r="B95" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C95">
-        <v>94.621</v>
+        <v>99.077</v>
       </c>
       <c r="D95" t="s">
         <v>607</v>
@@ -3827,10 +3827,10 @@
         <v>99</v>
       </c>
       <c r="B96" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C96">
-        <v>102.048</v>
+        <v>102.81</v>
       </c>
       <c r="D96" t="s">
         <v>607</v>
@@ -3844,10 +3844,10 @@
         <v>100</v>
       </c>
       <c r="B97" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C97">
-        <v>86.90000000000001</v>
+        <v>88.563</v>
       </c>
       <c r="D97" t="s">
         <v>607</v>
@@ -3861,10 +3861,10 @@
         <v>101</v>
       </c>
       <c r="B98" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C98">
-        <v>125.457</v>
+        <v>109.293</v>
       </c>
       <c r="D98" t="s">
         <v>607</v>
@@ -3878,10 +3878,10 @@
         <v>102</v>
       </c>
       <c r="B99" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C99">
-        <v>100.384</v>
+        <v>100.164</v>
       </c>
       <c r="D99" t="s">
         <v>607</v>
@@ -3895,10 +3895,10 @@
         <v>103</v>
       </c>
       <c r="B100" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C100">
-        <v>101.175</v>
+        <v>102.637</v>
       </c>
       <c r="D100" t="s">
         <v>607</v>
@@ -3912,10 +3912,10 @@
         <v>104</v>
       </c>
       <c r="B101" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C101">
-        <v>101.857</v>
+        <v>103.173</v>
       </c>
       <c r="D101" t="s">
         <v>607</v>
@@ -3932,7 +3932,7 @@
         <v>605</v>
       </c>
       <c r="C102">
-        <v>95.19</v>
+        <v>101.065</v>
       </c>
       <c r="D102" t="s">
         <v>607</v>
@@ -3946,10 +3946,10 @@
         <v>106</v>
       </c>
       <c r="B103" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C103">
-        <v>101.939</v>
+        <v>105.759</v>
       </c>
       <c r="D103" t="s">
         <v>607</v>
@@ -3963,10 +3963,10 @@
         <v>107</v>
       </c>
       <c r="B104" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C104">
-        <v>106.621</v>
+        <v>104.715</v>
       </c>
       <c r="D104" t="s">
         <v>607</v>
@@ -3980,10 +3980,10 @@
         <v>108</v>
       </c>
       <c r="B105" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C105">
-        <v>98.961</v>
+        <v>97.637</v>
       </c>
       <c r="D105" t="s">
         <v>607</v>
@@ -3997,10 +3997,10 @@
         <v>109</v>
       </c>
       <c r="B106" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C106">
-        <v>101.141</v>
+        <v>100.942</v>
       </c>
       <c r="D106" t="s">
         <v>607</v>
@@ -4017,7 +4017,7 @@
         <v>605</v>
       </c>
       <c r="C107">
-        <v>98.123</v>
+        <v>105.852</v>
       </c>
       <c r="D107" t="s">
         <v>607</v>
@@ -4034,7 +4034,7 @@
         <v>606</v>
       </c>
       <c r="C108">
-        <v>100.469</v>
+        <v>99.245</v>
       </c>
       <c r="D108" t="s">
         <v>607</v>
@@ -4051,7 +4051,7 @@
         <v>605</v>
       </c>
       <c r="C109">
-        <v>97.95999999999999</v>
+        <v>100.097</v>
       </c>
       <c r="D109" t="s">
         <v>607</v>
@@ -4065,10 +4065,10 @@
         <v>113</v>
       </c>
       <c r="B110" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C110">
-        <v>104.48</v>
+        <v>103.323</v>
       </c>
       <c r="D110" t="s">
         <v>607</v>
@@ -4085,7 +4085,7 @@
         <v>605</v>
       </c>
       <c r="C111">
-        <v>93.545</v>
+        <v>101.019</v>
       </c>
       <c r="D111" t="s">
         <v>607</v>
@@ -4099,10 +4099,10 @@
         <v>115</v>
       </c>
       <c r="B112" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C112">
-        <v>100.117</v>
+        <v>101.596</v>
       </c>
       <c r="D112" t="s">
         <v>607</v>
@@ -4116,10 +4116,10 @@
         <v>116</v>
       </c>
       <c r="B113" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C113">
-        <v>102.327</v>
+        <v>102.212</v>
       </c>
       <c r="D113" t="s">
         <v>607</v>
@@ -4133,10 +4133,10 @@
         <v>117</v>
       </c>
       <c r="B114" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C114">
-        <v>100.74</v>
+        <v>105.365</v>
       </c>
       <c r="D114" t="s">
         <v>607</v>
@@ -4150,10 +4150,10 @@
         <v>118</v>
       </c>
       <c r="B115" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C115">
-        <v>97.626</v>
+        <v>91.23699999999999</v>
       </c>
       <c r="D115" t="s">
         <v>607</v>
@@ -4167,10 +4167,10 @@
         <v>119</v>
       </c>
       <c r="B116" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C116">
-        <v>95.944</v>
+        <v>96.917</v>
       </c>
       <c r="D116" t="s">
         <v>607</v>
@@ -4184,10 +4184,10 @@
         <v>120</v>
       </c>
       <c r="B117" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C117">
-        <v>102.772</v>
+        <v>100.811</v>
       </c>
       <c r="D117" t="s">
         <v>607</v>
@@ -4204,7 +4204,7 @@
         <v>606</v>
       </c>
       <c r="C118">
-        <v>100.432</v>
+        <v>97.744</v>
       </c>
       <c r="D118" t="s">
         <v>607</v>
@@ -4218,10 +4218,10 @@
         <v>122</v>
       </c>
       <c r="B119" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C119">
-        <v>96.20999999999999</v>
+        <v>92.188</v>
       </c>
       <c r="D119" t="s">
         <v>607</v>
@@ -4235,10 +4235,10 @@
         <v>123</v>
       </c>
       <c r="B120" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C120">
-        <v>110.065</v>
+        <v>114.757</v>
       </c>
       <c r="D120" t="s">
         <v>607</v>
@@ -4255,7 +4255,7 @@
         <v>605</v>
       </c>
       <c r="C121">
-        <v>98.47</v>
+        <v>105.783</v>
       </c>
       <c r="D121" t="s">
         <v>607</v>
@@ -4269,10 +4269,10 @@
         <v>125</v>
       </c>
       <c r="B122" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C122">
-        <v>103.046</v>
+        <v>101.367</v>
       </c>
       <c r="D122" t="s">
         <v>607</v>
@@ -4286,10 +4286,10 @@
         <v>126</v>
       </c>
       <c r="B123" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C123">
-        <v>107.918</v>
+        <v>101.616</v>
       </c>
       <c r="D123" t="s">
         <v>607</v>
@@ -4306,7 +4306,7 @@
         <v>605</v>
       </c>
       <c r="C124">
-        <v>97.96599999999999</v>
+        <v>102.607</v>
       </c>
       <c r="D124" t="s">
         <v>607</v>
@@ -4320,10 +4320,10 @@
         <v>128</v>
       </c>
       <c r="B125" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C125">
-        <v>98.96899999999999</v>
+        <v>97.93300000000001</v>
       </c>
       <c r="D125" t="s">
         <v>607</v>
@@ -4340,7 +4340,7 @@
         <v>605</v>
       </c>
       <c r="C126">
-        <v>97.34999999999999</v>
+        <v>100.166</v>
       </c>
       <c r="D126" t="s">
         <v>607</v>
@@ -4357,7 +4357,7 @@
         <v>605</v>
       </c>
       <c r="C127">
-        <v>95.854</v>
+        <v>102.046</v>
       </c>
       <c r="D127" t="s">
         <v>607</v>
@@ -4371,10 +4371,10 @@
         <v>131</v>
       </c>
       <c r="B128" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C128">
-        <v>100.1</v>
+        <v>101.674</v>
       </c>
       <c r="D128" t="s">
         <v>607</v>
@@ -4391,7 +4391,7 @@
         <v>606</v>
       </c>
       <c r="C129">
-        <v>104.385</v>
+        <v>99.482</v>
       </c>
       <c r="D129" t="s">
         <v>607</v>
@@ -4405,10 +4405,10 @@
         <v>133</v>
       </c>
       <c r="B130" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C130">
-        <v>96.315</v>
+        <v>98.864</v>
       </c>
       <c r="D130" t="s">
         <v>607</v>
@@ -4425,7 +4425,7 @@
         <v>605</v>
       </c>
       <c r="C131">
-        <v>99.38200000000001</v>
+        <v>100.075</v>
       </c>
       <c r="D131" t="s">
         <v>607</v>
@@ -4439,10 +4439,10 @@
         <v>135</v>
       </c>
       <c r="B132" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C132">
-        <v>107.524</v>
+        <v>109.301</v>
       </c>
       <c r="D132" t="s">
         <v>607</v>
@@ -4456,10 +4456,10 @@
         <v>136</v>
       </c>
       <c r="B133" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C133">
-        <v>102.457</v>
+        <v>107.48</v>
       </c>
       <c r="D133" t="s">
         <v>607</v>
@@ -4473,10 +4473,10 @@
         <v>137</v>
       </c>
       <c r="B134" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C134">
-        <v>101.086</v>
+        <v>107.874</v>
       </c>
       <c r="D134" t="s">
         <v>607</v>
@@ -4490,10 +4490,10 @@
         <v>138</v>
       </c>
       <c r="B135" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C135">
-        <v>109.296</v>
+        <v>106.141</v>
       </c>
       <c r="D135" t="s">
         <v>607</v>
@@ -4510,7 +4510,7 @@
         <v>605</v>
       </c>
       <c r="C136">
-        <v>98.715</v>
+        <v>106.905</v>
       </c>
       <c r="D136" t="s">
         <v>607</v>
@@ -4524,10 +4524,10 @@
         <v>140</v>
       </c>
       <c r="B137" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C137">
-        <v>101.833</v>
+        <v>100.883</v>
       </c>
       <c r="D137" t="s">
         <v>607</v>
@@ -4541,10 +4541,10 @@
         <v>141</v>
       </c>
       <c r="B138" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C138">
-        <v>101.729</v>
+        <v>102.326</v>
       </c>
       <c r="D138" t="s">
         <v>607</v>
@@ -4558,10 +4558,10 @@
         <v>142</v>
       </c>
       <c r="B139" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C139">
-        <v>96.565</v>
+        <v>96.16500000000001</v>
       </c>
       <c r="D139" t="s">
         <v>607</v>
@@ -4575,10 +4575,10 @@
         <v>143</v>
       </c>
       <c r="B140" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C140">
-        <v>98.248</v>
+        <v>97.98</v>
       </c>
       <c r="D140" t="s">
         <v>607</v>
@@ -4595,7 +4595,7 @@
         <v>606</v>
       </c>
       <c r="C141">
-        <v>102.789</v>
+        <v>95.91</v>
       </c>
       <c r="D141" t="s">
         <v>607</v>
@@ -4612,7 +4612,7 @@
         <v>605</v>
       </c>
       <c r="C142">
-        <v>96.17100000000001</v>
+        <v>100.71</v>
       </c>
       <c r="D142" t="s">
         <v>607</v>
@@ -4629,7 +4629,7 @@
         <v>605</v>
       </c>
       <c r="C143">
-        <v>99.602</v>
+        <v>103.409</v>
       </c>
       <c r="D143" t="s">
         <v>607</v>
@@ -4643,10 +4643,10 @@
         <v>147</v>
       </c>
       <c r="B144" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C144">
-        <v>100.898</v>
+        <v>102.37</v>
       </c>
       <c r="D144" t="s">
         <v>607</v>
@@ -4660,10 +4660,10 @@
         <v>148</v>
       </c>
       <c r="B145" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C145">
-        <v>105.206</v>
+        <v>106.292</v>
       </c>
       <c r="D145" t="s">
         <v>607</v>
@@ -4680,7 +4680,7 @@
         <v>605</v>
       </c>
       <c r="C146">
-        <v>99.794</v>
+        <v>102.574</v>
       </c>
       <c r="D146" t="s">
         <v>607</v>
@@ -4694,10 +4694,10 @@
         <v>150</v>
       </c>
       <c r="B147" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C147">
-        <v>98.983</v>
+        <v>98.782</v>
       </c>
       <c r="D147" t="s">
         <v>607</v>
@@ -4711,10 +4711,10 @@
         <v>151</v>
       </c>
       <c r="B148" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C148">
-        <v>102.209</v>
+        <v>100.136</v>
       </c>
       <c r="D148" t="s">
         <v>607</v>
@@ -4728,10 +4728,10 @@
         <v>152</v>
       </c>
       <c r="B149" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C149">
-        <v>104.75</v>
+        <v>104.263</v>
       </c>
       <c r="D149" t="s">
         <v>607</v>
@@ -4745,10 +4745,10 @@
         <v>153</v>
       </c>
       <c r="B150" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C150">
-        <v>95.726</v>
+        <v>93.551</v>
       </c>
       <c r="D150" t="s">
         <v>607</v>
@@ -4765,7 +4765,7 @@
         <v>605</v>
       </c>
       <c r="C151">
-        <v>99.113</v>
+        <v>106.967</v>
       </c>
       <c r="D151" t="s">
         <v>607</v>
@@ -4779,10 +4779,10 @@
         <v>155</v>
       </c>
       <c r="B152" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C152">
-        <v>108.265</v>
+        <v>103.609</v>
       </c>
       <c r="D152" t="s">
         <v>607</v>
@@ -4796,10 +4796,10 @@
         <v>156</v>
       </c>
       <c r="B153" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C153">
-        <v>100.445</v>
+        <v>106.061</v>
       </c>
       <c r="D153" t="s">
         <v>607</v>
@@ -4813,10 +4813,10 @@
         <v>157</v>
       </c>
       <c r="B154" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C154">
-        <v>103.235</v>
+        <v>103.014</v>
       </c>
       <c r="D154" t="s">
         <v>607</v>
@@ -4830,10 +4830,10 @@
         <v>158</v>
       </c>
       <c r="B155" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C155">
-        <v>91.861</v>
+        <v>92.402</v>
       </c>
       <c r="D155" t="s">
         <v>607</v>
@@ -4850,7 +4850,7 @@
         <v>605</v>
       </c>
       <c r="C156">
-        <v>99.76000000000001</v>
+        <v>103.385</v>
       </c>
       <c r="D156" t="s">
         <v>607</v>
@@ -4864,10 +4864,10 @@
         <v>160</v>
       </c>
       <c r="B157" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C157">
-        <v>98.22</v>
+        <v>99.852</v>
       </c>
       <c r="D157" t="s">
         <v>607</v>
@@ -4884,7 +4884,7 @@
         <v>605</v>
       </c>
       <c r="C158">
-        <v>98.712</v>
+        <v>104.5</v>
       </c>
       <c r="D158" t="s">
         <v>607</v>
@@ -4898,10 +4898,10 @@
         <v>162</v>
       </c>
       <c r="B159" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C159">
-        <v>101.305</v>
+        <v>101.29</v>
       </c>
       <c r="D159" t="s">
         <v>607</v>
@@ -4918,7 +4918,7 @@
         <v>605</v>
       </c>
       <c r="C160">
-        <v>98.261</v>
+        <v>101.46</v>
       </c>
       <c r="D160" t="s">
         <v>607</v>
@@ -4932,10 +4932,10 @@
         <v>164</v>
       </c>
       <c r="B161" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C161">
-        <v>93.075</v>
+        <v>89.181</v>
       </c>
       <c r="D161" t="s">
         <v>607</v>
@@ -4949,10 +4949,10 @@
         <v>165</v>
       </c>
       <c r="B162" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C162">
-        <v>110.42</v>
+        <v>107.356</v>
       </c>
       <c r="D162" t="s">
         <v>607</v>
@@ -4966,10 +4966,10 @@
         <v>166</v>
       </c>
       <c r="B163" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C163">
-        <v>102.478</v>
+        <v>100.021</v>
       </c>
       <c r="D163" t="s">
         <v>607</v>
@@ -4983,10 +4983,10 @@
         <v>167</v>
       </c>
       <c r="B164" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C164">
-        <v>106.981</v>
+        <v>108.016</v>
       </c>
       <c r="D164" t="s">
         <v>607</v>
@@ -5000,10 +5000,10 @@
         <v>168</v>
       </c>
       <c r="B165" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C165">
-        <v>106.048</v>
+        <v>106.199</v>
       </c>
       <c r="D165" t="s">
         <v>607</v>
@@ -5017,10 +5017,10 @@
         <v>169</v>
       </c>
       <c r="B166" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C166">
-        <v>103.03</v>
+        <v>103.503</v>
       </c>
       <c r="D166" t="s">
         <v>607</v>
@@ -5037,7 +5037,7 @@
         <v>605</v>
       </c>
       <c r="C167">
-        <v>99.276</v>
+        <v>101.92</v>
       </c>
       <c r="D167" t="s">
         <v>607</v>
@@ -5051,10 +5051,10 @@
         <v>171</v>
       </c>
       <c r="B168" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C168">
-        <v>100.363</v>
+        <v>101.739</v>
       </c>
       <c r="D168" t="s">
         <v>607</v>
@@ -5068,10 +5068,10 @@
         <v>172</v>
       </c>
       <c r="B169" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C169">
-        <v>100.45</v>
+        <v>100.717</v>
       </c>
       <c r="D169" t="s">
         <v>607</v>
@@ -5085,10 +5085,10 @@
         <v>173</v>
       </c>
       <c r="B170" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C170">
-        <v>100.943</v>
+        <v>103.084</v>
       </c>
       <c r="D170" t="s">
         <v>607</v>
@@ -5102,10 +5102,10 @@
         <v>174</v>
       </c>
       <c r="B171" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C171">
-        <v>97.51600000000001</v>
+        <v>99.596</v>
       </c>
       <c r="D171" t="s">
         <v>607</v>
@@ -5119,10 +5119,10 @@
         <v>175</v>
       </c>
       <c r="B172" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C172">
-        <v>101.866</v>
+        <v>100.795</v>
       </c>
       <c r="D172" t="s">
         <v>607</v>
@@ -5136,10 +5136,10 @@
         <v>176</v>
       </c>
       <c r="B173" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C173">
-        <v>101.804</v>
+        <v>102.253</v>
       </c>
       <c r="D173" t="s">
         <v>607</v>
@@ -5153,10 +5153,10 @@
         <v>177</v>
       </c>
       <c r="B174" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C174">
-        <v>102.642</v>
+        <v>106.932</v>
       </c>
       <c r="D174" t="s">
         <v>607</v>
@@ -5173,7 +5173,7 @@
         <v>605</v>
       </c>
       <c r="C175">
-        <v>98.548</v>
+        <v>102.751</v>
       </c>
       <c r="D175" t="s">
         <v>607</v>
@@ -5187,10 +5187,10 @@
         <v>179</v>
       </c>
       <c r="B176" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C176">
-        <v>109.124</v>
+        <v>100.265</v>
       </c>
       <c r="D176" t="s">
         <v>607</v>
@@ -5204,10 +5204,10 @@
         <v>180</v>
       </c>
       <c r="B177" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C177">
-        <v>101.327</v>
+        <v>108.148</v>
       </c>
       <c r="D177" t="s">
         <v>607</v>
@@ -5224,7 +5224,7 @@
         <v>605</v>
       </c>
       <c r="C178">
-        <v>99.899</v>
+        <v>101.284</v>
       </c>
       <c r="D178" t="s">
         <v>607</v>
@@ -5238,10 +5238,10 @@
         <v>182</v>
       </c>
       <c r="B179" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C179">
-        <v>100.381</v>
+        <v>102.369</v>
       </c>
       <c r="D179" t="s">
         <v>607</v>
@@ -5255,10 +5255,10 @@
         <v>183</v>
       </c>
       <c r="B180" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C180">
-        <v>100.434</v>
+        <v>102.225</v>
       </c>
       <c r="D180" t="s">
         <v>607</v>
@@ -5275,7 +5275,7 @@
         <v>606</v>
       </c>
       <c r="C181">
-        <v>102.609</v>
+        <v>97.467</v>
       </c>
       <c r="D181" t="s">
         <v>607</v>
@@ -5289,10 +5289,10 @@
         <v>185</v>
       </c>
       <c r="B182" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C182">
-        <v>111.563</v>
+        <v>110.95</v>
       </c>
       <c r="D182" t="s">
         <v>607</v>
@@ -5306,10 +5306,10 @@
         <v>186</v>
       </c>
       <c r="B183" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C183">
-        <v>114.829</v>
+        <v>114.878</v>
       </c>
       <c r="D183" t="s">
         <v>607</v>
@@ -5323,10 +5323,10 @@
         <v>187</v>
       </c>
       <c r="B184" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C184">
-        <v>100.024</v>
+        <v>101.892</v>
       </c>
       <c r="D184" t="s">
         <v>607</v>
@@ -5340,10 +5340,10 @@
         <v>188</v>
       </c>
       <c r="B185" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C185">
-        <v>100.182</v>
+        <v>103.316</v>
       </c>
       <c r="D185" t="s">
         <v>607</v>
@@ -5360,7 +5360,7 @@
         <v>605</v>
       </c>
       <c r="C186">
-        <v>96.45399999999999</v>
+        <v>111.53</v>
       </c>
       <c r="D186" t="s">
         <v>607</v>
@@ -5377,7 +5377,7 @@
         <v>605</v>
       </c>
       <c r="C187">
-        <v>96.774</v>
+        <v>104.976</v>
       </c>
       <c r="D187" t="s">
         <v>607</v>
@@ -5391,10 +5391,10 @@
         <v>191</v>
       </c>
       <c r="B188" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C188">
-        <v>110.238</v>
+        <v>106.522</v>
       </c>
       <c r="D188" t="s">
         <v>607</v>
@@ -5411,7 +5411,7 @@
         <v>605</v>
       </c>
       <c r="C189">
-        <v>97.65900000000001</v>
+        <v>103.623</v>
       </c>
       <c r="D189" t="s">
         <v>607</v>
@@ -5425,10 +5425,10 @@
         <v>193</v>
       </c>
       <c r="B190" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C190">
-        <v>116.414</v>
+        <v>116.035</v>
       </c>
       <c r="D190" t="s">
         <v>607</v>
@@ -5445,7 +5445,7 @@
         <v>605</v>
       </c>
       <c r="C191">
-        <v>99.89700000000001</v>
+        <v>105.785</v>
       </c>
       <c r="D191" t="s">
         <v>607</v>
@@ -5459,10 +5459,10 @@
         <v>195</v>
       </c>
       <c r="B192" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C192">
-        <v>102.508</v>
+        <v>104.102</v>
       </c>
       <c r="D192" t="s">
         <v>607</v>
@@ -5476,10 +5476,10 @@
         <v>196</v>
       </c>
       <c r="B193" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C193">
-        <v>106.502</v>
+        <v>104.891</v>
       </c>
       <c r="D193" t="s">
         <v>607</v>
@@ -5493,10 +5493,10 @@
         <v>197</v>
       </c>
       <c r="B194" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C194">
-        <v>102.512</v>
+        <v>101.07</v>
       </c>
       <c r="D194" t="s">
         <v>607</v>
@@ -5513,7 +5513,7 @@
         <v>606</v>
       </c>
       <c r="C195">
-        <v>104.391</v>
+        <v>99.44799999999999</v>
       </c>
       <c r="D195" t="s">
         <v>607</v>
@@ -5527,10 +5527,10 @@
         <v>199</v>
       </c>
       <c r="B196" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C196">
-        <v>100.986</v>
+        <v>102.224</v>
       </c>
       <c r="D196" t="s">
         <v>607</v>
@@ -5544,10 +5544,10 @@
         <v>200</v>
       </c>
       <c r="B197" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C197">
-        <v>93.768</v>
+        <v>91.8</v>
       </c>
       <c r="D197" t="s">
         <v>607</v>
@@ -5561,10 +5561,10 @@
         <v>201</v>
       </c>
       <c r="B198" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C198">
-        <v>98.711</v>
+        <v>99.32599999999999</v>
       </c>
       <c r="D198" t="s">
         <v>607</v>
@@ -5578,10 +5578,10 @@
         <v>202</v>
       </c>
       <c r="B199" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C199">
-        <v>100.354</v>
+        <v>102.399</v>
       </c>
       <c r="D199" t="s">
         <v>607</v>
@@ -5598,7 +5598,7 @@
         <v>605</v>
       </c>
       <c r="C200">
-        <v>97.80500000000001</v>
+        <v>101.196</v>
       </c>
       <c r="D200" t="s">
         <v>607</v>
@@ -5612,10 +5612,10 @@
         <v>204</v>
       </c>
       <c r="B201" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C201">
-        <v>101.441</v>
+        <v>104.251</v>
       </c>
       <c r="D201" t="s">
         <v>607</v>
@@ -5629,10 +5629,10 @@
         <v>205</v>
       </c>
       <c r="B202" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C202">
-        <v>104.237</v>
+        <v>104.032</v>
       </c>
       <c r="D202" t="s">
         <v>607</v>
@@ -5649,7 +5649,7 @@
         <v>605</v>
       </c>
       <c r="C203">
-        <v>99.414</v>
+        <v>109.924</v>
       </c>
       <c r="D203" t="s">
         <v>607</v>
@@ -5666,7 +5666,7 @@
         <v>605</v>
       </c>
       <c r="C204">
-        <v>99.825</v>
+        <v>103.049</v>
       </c>
       <c r="D204" t="s">
         <v>607</v>
@@ -5683,7 +5683,7 @@
         <v>605</v>
       </c>
       <c r="C205">
-        <v>96.378</v>
+        <v>101.629</v>
       </c>
       <c r="D205" t="s">
         <v>607</v>
@@ -5697,10 +5697,10 @@
         <v>209</v>
       </c>
       <c r="B206" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C206">
-        <v>98.968</v>
+        <v>99.259</v>
       </c>
       <c r="D206" t="s">
         <v>607</v>
@@ -5717,7 +5717,7 @@
         <v>605</v>
       </c>
       <c r="C207">
-        <v>99.676</v>
+        <v>104.336</v>
       </c>
       <c r="D207" t="s">
         <v>607</v>
@@ -5731,10 +5731,10 @@
         <v>211</v>
       </c>
       <c r="B208" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C208">
-        <v>101.195</v>
+        <v>101.828</v>
       </c>
       <c r="D208" t="s">
         <v>607</v>
@@ -5748,10 +5748,10 @@
         <v>212</v>
       </c>
       <c r="B209" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C209">
-        <v>101.112</v>
+        <v>102.353</v>
       </c>
       <c r="D209" t="s">
         <v>607</v>
@@ -5765,10 +5765,10 @@
         <v>213</v>
       </c>
       <c r="B210" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C210">
-        <v>105.806</v>
+        <v>103.544</v>
       </c>
       <c r="D210" t="s">
         <v>607</v>
@@ -5785,7 +5785,7 @@
         <v>605</v>
       </c>
       <c r="C211">
-        <v>98.92400000000001</v>
+        <v>103.213</v>
       </c>
       <c r="D211" t="s">
         <v>607</v>
@@ -5799,10 +5799,10 @@
         <v>215</v>
       </c>
       <c r="B212" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C212">
-        <v>113.131</v>
+        <v>114.345</v>
       </c>
       <c r="D212" t="s">
         <v>607</v>
@@ -5816,10 +5816,10 @@
         <v>216</v>
       </c>
       <c r="B213" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C213">
-        <v>97.18000000000001</v>
+        <v>96.155</v>
       </c>
       <c r="D213" t="s">
         <v>607</v>
@@ -5833,10 +5833,10 @@
         <v>217</v>
       </c>
       <c r="B214" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C214">
-        <v>101.732</v>
+        <v>106.602</v>
       </c>
       <c r="D214" t="s">
         <v>607</v>
@@ -5853,7 +5853,7 @@
         <v>605</v>
       </c>
       <c r="C215">
-        <v>99.488</v>
+        <v>105.092</v>
       </c>
       <c r="D215" t="s">
         <v>607</v>
@@ -5867,10 +5867,10 @@
         <v>219</v>
       </c>
       <c r="B216" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C216">
-        <v>106.079</v>
+        <v>102.757</v>
       </c>
       <c r="D216" t="s">
         <v>607</v>
@@ -5887,7 +5887,7 @@
         <v>605</v>
       </c>
       <c r="C217">
-        <v>97.274</v>
+        <v>102.462</v>
       </c>
       <c r="D217" t="s">
         <v>607</v>
@@ -5901,10 +5901,10 @@
         <v>221</v>
       </c>
       <c r="B218" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C218">
-        <v>100.849</v>
+        <v>103.516</v>
       </c>
       <c r="D218" t="s">
         <v>607</v>
@@ -5918,10 +5918,10 @@
         <v>222</v>
       </c>
       <c r="B219" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C219">
-        <v>91.64</v>
+        <v>93.66500000000001</v>
       </c>
       <c r="D219" t="s">
         <v>607</v>
@@ -5938,7 +5938,7 @@
         <v>606</v>
       </c>
       <c r="C220">
-        <v>100.794</v>
+        <v>99.331</v>
       </c>
       <c r="D220" t="s">
         <v>607</v>
@@ -5952,10 +5952,10 @@
         <v>224</v>
       </c>
       <c r="B221" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C221">
-        <v>100.705</v>
+        <v>105.683</v>
       </c>
       <c r="D221" t="s">
         <v>607</v>
@@ -5972,7 +5972,7 @@
         <v>605</v>
       </c>
       <c r="C222">
-        <v>97.559</v>
+        <v>102.227</v>
       </c>
       <c r="D222" t="s">
         <v>607</v>
@@ -5986,10 +5986,10 @@
         <v>226</v>
       </c>
       <c r="B223" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C223">
-        <v>96.361</v>
+        <v>98.771</v>
       </c>
       <c r="D223" t="s">
         <v>607</v>
@@ -6003,10 +6003,10 @@
         <v>227</v>
       </c>
       <c r="B224" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C224">
-        <v>100.575</v>
+        <v>102.994</v>
       </c>
       <c r="D224" t="s">
         <v>607</v>
@@ -6020,10 +6020,10 @@
         <v>228</v>
       </c>
       <c r="B225" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C225">
-        <v>111.443</v>
+        <v>113.976</v>
       </c>
       <c r="D225" t="s">
         <v>607</v>
@@ -6040,7 +6040,7 @@
         <v>606</v>
       </c>
       <c r="C226">
-        <v>100.457</v>
+        <v>98.98099999999999</v>
       </c>
       <c r="D226" t="s">
         <v>607</v>
@@ -6054,10 +6054,10 @@
         <v>230</v>
       </c>
       <c r="B227" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C227">
-        <v>103.713</v>
+        <v>105.363</v>
       </c>
       <c r="D227" t="s">
         <v>607</v>
@@ -6071,10 +6071,10 @@
         <v>231</v>
       </c>
       <c r="B228" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C228">
-        <v>104.689</v>
+        <v>104.941</v>
       </c>
       <c r="D228" t="s">
         <v>607</v>
@@ -6088,10 +6088,10 @@
         <v>232</v>
       </c>
       <c r="B229" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C229">
-        <v>107.906</v>
+        <v>104.525</v>
       </c>
       <c r="D229" t="s">
         <v>607</v>
@@ -6105,10 +6105,10 @@
         <v>233</v>
       </c>
       <c r="B230" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C230">
-        <v>103.247</v>
+        <v>105.148</v>
       </c>
       <c r="D230" t="s">
         <v>607</v>
@@ -6122,10 +6122,10 @@
         <v>234</v>
       </c>
       <c r="B231" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C231">
-        <v>101.773</v>
+        <v>101.341</v>
       </c>
       <c r="D231" t="s">
         <v>607</v>
@@ -6139,10 +6139,10 @@
         <v>235</v>
       </c>
       <c r="B232" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C232">
-        <v>103.606</v>
+        <v>103.078</v>
       </c>
       <c r="D232" t="s">
         <v>607</v>
@@ -6156,10 +6156,10 @@
         <v>236</v>
       </c>
       <c r="B233" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C233">
-        <v>98.565</v>
+        <v>99.324</v>
       </c>
       <c r="D233" t="s">
         <v>607</v>
@@ -6173,10 +6173,10 @@
         <v>237</v>
       </c>
       <c r="B234" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C234">
-        <v>96.496</v>
+        <v>99.215</v>
       </c>
       <c r="D234" t="s">
         <v>607</v>
@@ -6190,10 +6190,10 @@
         <v>238</v>
       </c>
       <c r="B235" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C235">
-        <v>101.724</v>
+        <v>105.757</v>
       </c>
       <c r="D235" t="s">
         <v>607</v>
@@ -6207,10 +6207,10 @@
         <v>239</v>
       </c>
       <c r="B236" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C236">
-        <v>105.369</v>
+        <v>104.131</v>
       </c>
       <c r="D236" t="s">
         <v>607</v>
@@ -6224,10 +6224,10 @@
         <v>240</v>
       </c>
       <c r="B237" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C237">
-        <v>103.722</v>
+        <v>103.346</v>
       </c>
       <c r="D237" t="s">
         <v>607</v>
@@ -6241,10 +6241,10 @@
         <v>241</v>
       </c>
       <c r="B238" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C238">
-        <v>100.232</v>
+        <v>101.912</v>
       </c>
       <c r="D238" t="s">
         <v>607</v>
@@ -6258,10 +6258,10 @@
         <v>242</v>
       </c>
       <c r="B239" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C239">
-        <v>103.26</v>
+        <v>102.653</v>
       </c>
       <c r="D239" t="s">
         <v>607</v>
@@ -6275,10 +6275,10 @@
         <v>243</v>
       </c>
       <c r="B240" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C240">
-        <v>100.035</v>
+        <v>102.332</v>
       </c>
       <c r="D240" t="s">
         <v>607</v>
@@ -6292,10 +6292,10 @@
         <v>244</v>
       </c>
       <c r="B241" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C241">
-        <v>100.686</v>
+        <v>106.104</v>
       </c>
       <c r="D241" t="s">
         <v>607</v>
@@ -6309,10 +6309,10 @@
         <v>245</v>
       </c>
       <c r="B242" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C242">
-        <v>100.26</v>
+        <v>104.217</v>
       </c>
       <c r="D242" t="s">
         <v>607</v>
@@ -6326,10 +6326,10 @@
         <v>246</v>
       </c>
       <c r="B243" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C243">
-        <v>107.278</v>
+        <v>103.447</v>
       </c>
       <c r="D243" t="s">
         <v>607</v>
@@ -6346,7 +6346,7 @@
         <v>605</v>
       </c>
       <c r="C244">
-        <v>97.533</v>
+        <v>100.7</v>
       </c>
       <c r="D244" t="s">
         <v>607</v>
@@ -6363,7 +6363,7 @@
         <v>605</v>
       </c>
       <c r="C245">
-        <v>99.52500000000001</v>
+        <v>103.747</v>
       </c>
       <c r="D245" t="s">
         <v>607</v>
@@ -6377,10 +6377,10 @@
         <v>249</v>
       </c>
       <c r="B246" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C246">
-        <v>98.76600000000001</v>
+        <v>97.858</v>
       </c>
       <c r="D246" t="s">
         <v>607</v>
@@ -6394,10 +6394,10 @@
         <v>250</v>
       </c>
       <c r="B247" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C247">
-        <v>100.171</v>
+        <v>101.57</v>
       </c>
       <c r="D247" t="s">
         <v>607</v>
@@ -6414,7 +6414,7 @@
         <v>605</v>
       </c>
       <c r="C248">
-        <v>94.84399999999999</v>
+        <v>106.346</v>
       </c>
       <c r="D248" t="s">
         <v>607</v>
@@ -6431,7 +6431,7 @@
         <v>605</v>
       </c>
       <c r="C249">
-        <v>99.023</v>
+        <v>102.046</v>
       </c>
       <c r="D249" t="s">
         <v>607</v>
@@ -6445,10 +6445,10 @@
         <v>253</v>
       </c>
       <c r="B250" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C250">
-        <v>101.031</v>
+        <v>102.047</v>
       </c>
       <c r="D250" t="s">
         <v>607</v>
@@ -6462,10 +6462,10 @@
         <v>254</v>
       </c>
       <c r="B251" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C251">
-        <v>100.741</v>
+        <v>102.677</v>
       </c>
       <c r="D251" t="s">
         <v>607</v>
@@ -6479,10 +6479,10 @@
         <v>255</v>
       </c>
       <c r="B252" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C252">
-        <v>101.301</v>
+        <v>108.488</v>
       </c>
       <c r="D252" t="s">
         <v>607</v>
@@ -6496,10 +6496,10 @@
         <v>256</v>
       </c>
       <c r="B253" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C253">
-        <v>102.761</v>
+        <v>102.012</v>
       </c>
       <c r="D253" t="s">
         <v>607</v>
@@ -6513,10 +6513,10 @@
         <v>257</v>
       </c>
       <c r="B254" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C254">
-        <v>97.47</v>
+        <v>98.47199999999999</v>
       </c>
       <c r="D254" t="s">
         <v>607</v>
@@ -6530,10 +6530,10 @@
         <v>258</v>
       </c>
       <c r="B255" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C255">
-        <v>99.78700000000001</v>
+        <v>98.369</v>
       </c>
       <c r="D255" t="s">
         <v>607</v>
@@ -6547,10 +6547,10 @@
         <v>259</v>
       </c>
       <c r="B256" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C256">
-        <v>107.248</v>
+        <v>106.214</v>
       </c>
       <c r="D256" t="s">
         <v>607</v>
@@ -6567,7 +6567,7 @@
         <v>606</v>
       </c>
       <c r="C257">
-        <v>100.663</v>
+        <v>99.346</v>
       </c>
       <c r="D257" t="s">
         <v>607</v>
@@ -6581,10 +6581,10 @@
         <v>261</v>
       </c>
       <c r="B258" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C258">
-        <v>101.035</v>
+        <v>103.826</v>
       </c>
       <c r="D258" t="s">
         <v>607</v>
@@ -6601,7 +6601,7 @@
         <v>605</v>
       </c>
       <c r="C259">
-        <v>97.342</v>
+        <v>100.24</v>
       </c>
       <c r="D259" t="s">
         <v>607</v>
@@ -6615,10 +6615,10 @@
         <v>263</v>
       </c>
       <c r="B260" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C260">
-        <v>105.44</v>
+        <v>103.516</v>
       </c>
       <c r="D260" t="s">
         <v>607</v>
@@ -6632,10 +6632,10 @@
         <v>264</v>
       </c>
       <c r="B261" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C261">
-        <v>94.474</v>
+        <v>94.52200000000001</v>
       </c>
       <c r="D261" t="s">
         <v>607</v>
@@ -6652,7 +6652,7 @@
         <v>605</v>
       </c>
       <c r="C262">
-        <v>99.065</v>
+        <v>102.697</v>
       </c>
       <c r="D262" t="s">
         <v>607</v>
@@ -6669,7 +6669,7 @@
         <v>605</v>
       </c>
       <c r="C263">
-        <v>99.758</v>
+        <v>105.883</v>
       </c>
       <c r="D263" t="s">
         <v>607</v>
@@ -6686,7 +6686,7 @@
         <v>605</v>
       </c>
       <c r="C264">
-        <v>99.63</v>
+        <v>103.333</v>
       </c>
       <c r="D264" t="s">
         <v>607</v>
@@ -6703,7 +6703,7 @@
         <v>605</v>
       </c>
       <c r="C265">
-        <v>99.53</v>
+        <v>102.767</v>
       </c>
       <c r="D265" t="s">
         <v>607</v>
@@ -6717,10 +6717,10 @@
         <v>269</v>
       </c>
       <c r="B266" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C266">
-        <v>102.889</v>
+        <v>106.527</v>
       </c>
       <c r="D266" t="s">
         <v>607</v>
@@ -6734,10 +6734,10 @@
         <v>270</v>
       </c>
       <c r="B267" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C267">
-        <v>107.325</v>
+        <v>105.134</v>
       </c>
       <c r="D267" t="s">
         <v>607</v>
@@ -6751,10 +6751,10 @@
         <v>271</v>
       </c>
       <c r="B268" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C268">
-        <v>93.127</v>
+        <v>98.429</v>
       </c>
       <c r="D268" t="s">
         <v>607</v>
@@ -6768,10 +6768,10 @@
         <v>272</v>
       </c>
       <c r="B269" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C269">
-        <v>93.97</v>
+        <v>98.511</v>
       </c>
       <c r="D269" t="s">
         <v>607</v>
@@ -6788,7 +6788,7 @@
         <v>606</v>
       </c>
       <c r="C270">
-        <v>102.365</v>
+        <v>98.06100000000001</v>
       </c>
       <c r="D270" t="s">
         <v>607</v>
@@ -6802,10 +6802,10 @@
         <v>274</v>
       </c>
       <c r="B271" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C271">
-        <v>105.185</v>
+        <v>102.441</v>
       </c>
       <c r="D271" t="s">
         <v>607</v>
@@ -6819,10 +6819,10 @@
         <v>275</v>
       </c>
       <c r="B272" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C272">
-        <v>93.38200000000001</v>
+        <v>92.21899999999999</v>
       </c>
       <c r="D272" t="s">
         <v>607</v>
@@ -6836,10 +6836,10 @@
         <v>276</v>
       </c>
       <c r="B273" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C273">
-        <v>98.19799999999999</v>
+        <v>97.708</v>
       </c>
       <c r="D273" t="s">
         <v>607</v>
@@ -6856,7 +6856,7 @@
         <v>606</v>
       </c>
       <c r="C274">
-        <v>101.33</v>
+        <v>97.992</v>
       </c>
       <c r="D274" t="s">
         <v>607</v>
@@ -6873,7 +6873,7 @@
         <v>606</v>
       </c>
       <c r="C275">
-        <v>101.618</v>
+        <v>96.12</v>
       </c>
       <c r="D275" t="s">
         <v>607</v>
@@ -6887,10 +6887,10 @@
         <v>279</v>
       </c>
       <c r="B276" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C276">
-        <v>103.729</v>
+        <v>108.902</v>
       </c>
       <c r="D276" t="s">
         <v>607</v>
@@ -6904,10 +6904,10 @@
         <v>280</v>
       </c>
       <c r="B277" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C277">
-        <v>100.142</v>
+        <v>104.882</v>
       </c>
       <c r="D277" t="s">
         <v>607</v>
@@ -6921,10 +6921,10 @@
         <v>281</v>
       </c>
       <c r="B278" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C278">
-        <v>101.986</v>
+        <v>101.299</v>
       </c>
       <c r="D278" t="s">
         <v>607</v>
@@ -6938,10 +6938,10 @@
         <v>282</v>
       </c>
       <c r="B279" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C279">
-        <v>95.111</v>
+        <v>99.94199999999999</v>
       </c>
       <c r="D279" t="s">
         <v>607</v>
@@ -6955,10 +6955,10 @@
         <v>283</v>
       </c>
       <c r="B280" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C280">
-        <v>101.139</v>
+        <v>103.974</v>
       </c>
       <c r="D280" t="s">
         <v>607</v>
@@ -6975,7 +6975,7 @@
         <v>606</v>
       </c>
       <c r="C281">
-        <v>104.68</v>
+        <v>97.85299999999999</v>
       </c>
       <c r="D281" t="s">
         <v>607</v>
@@ -6992,7 +6992,7 @@
         <v>605</v>
       </c>
       <c r="C282">
-        <v>99.949</v>
+        <v>100.292</v>
       </c>
       <c r="D282" t="s">
         <v>607</v>
@@ -7006,10 +7006,10 @@
         <v>286</v>
       </c>
       <c r="B283" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C283">
-        <v>96.253</v>
+        <v>99.806</v>
       </c>
       <c r="D283" t="s">
         <v>607</v>
@@ -7026,7 +7026,7 @@
         <v>605</v>
       </c>
       <c r="C284">
-        <v>99.54600000000001</v>
+        <v>102.29</v>
       </c>
       <c r="D284" t="s">
         <v>607</v>
@@ -7040,10 +7040,10 @@
         <v>288</v>
       </c>
       <c r="B285" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C285">
-        <v>108.035</v>
+        <v>110.291</v>
       </c>
       <c r="D285" t="s">
         <v>607</v>
@@ -7057,10 +7057,10 @@
         <v>289</v>
       </c>
       <c r="B286" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C286">
-        <v>99.271</v>
+        <v>98.845</v>
       </c>
       <c r="D286" t="s">
         <v>607</v>
@@ -7077,7 +7077,7 @@
         <v>605</v>
       </c>
       <c r="C287">
-        <v>98.346</v>
+        <v>105.872</v>
       </c>
       <c r="D287" t="s">
         <v>607</v>
@@ -7094,7 +7094,7 @@
         <v>605</v>
       </c>
       <c r="C288">
-        <v>99.729</v>
+        <v>100.26</v>
       </c>
       <c r="D288" t="s">
         <v>607</v>
@@ -7108,10 +7108,10 @@
         <v>292</v>
       </c>
       <c r="B289" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C289">
-        <v>100.66</v>
+        <v>101.352</v>
       </c>
       <c r="D289" t="s">
         <v>607</v>
@@ -7125,10 +7125,10 @@
         <v>293</v>
       </c>
       <c r="B290" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C290">
-        <v>98.068</v>
+        <v>96.914</v>
       </c>
       <c r="D290" t="s">
         <v>607</v>
@@ -7142,10 +7142,10 @@
         <v>294</v>
       </c>
       <c r="B291" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C291">
-        <v>104.493</v>
+        <v>103.81</v>
       </c>
       <c r="D291" t="s">
         <v>607</v>
@@ -7159,10 +7159,10 @@
         <v>295</v>
       </c>
       <c r="B292" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C292">
-        <v>105.163</v>
+        <v>102.807</v>
       </c>
       <c r="D292" t="s">
         <v>607</v>
@@ -7176,10 +7176,10 @@
         <v>296</v>
       </c>
       <c r="B293" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C293">
-        <v>102.947</v>
+        <v>101.887</v>
       </c>
       <c r="D293" t="s">
         <v>607</v>
@@ -7196,7 +7196,7 @@
         <v>605</v>
       </c>
       <c r="C294">
-        <v>97.973</v>
+        <v>104.832</v>
       </c>
       <c r="D294" t="s">
         <v>607</v>
@@ -7213,7 +7213,7 @@
         <v>605</v>
       </c>
       <c r="C295">
-        <v>98.279</v>
+        <v>102.335</v>
       </c>
       <c r="D295" t="s">
         <v>607</v>
@@ -7227,10 +7227,10 @@
         <v>299</v>
       </c>
       <c r="B296" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C296">
-        <v>101.536</v>
+        <v>106.26</v>
       </c>
       <c r="D296" t="s">
         <v>607</v>
@@ -7247,7 +7247,7 @@
         <v>606</v>
       </c>
       <c r="C297">
-        <v>103.368</v>
+        <v>99.76900000000001</v>
       </c>
       <c r="D297" t="s">
         <v>607</v>
@@ -7264,7 +7264,7 @@
         <v>605</v>
       </c>
       <c r="C298">
-        <v>98.407</v>
+        <v>103.031</v>
       </c>
       <c r="D298" t="s">
         <v>607</v>
@@ -7281,7 +7281,7 @@
         <v>605</v>
       </c>
       <c r="C299">
-        <v>97.087</v>
+        <v>101.98</v>
       </c>
       <c r="D299" t="s">
         <v>607</v>
@@ -7298,7 +7298,7 @@
         <v>605</v>
       </c>
       <c r="C300">
-        <v>97.392</v>
+        <v>101.228</v>
       </c>
       <c r="D300" t="s">
         <v>607</v>
@@ -7312,10 +7312,10 @@
         <v>304</v>
       </c>
       <c r="B301" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C301">
-        <v>98.798</v>
+        <v>96.747</v>
       </c>
       <c r="D301" t="s">
         <v>607</v>
@@ -7332,7 +7332,7 @@
         <v>605</v>
       </c>
       <c r="C302">
-        <v>97.39400000000001</v>
+        <v>101.284</v>
       </c>
       <c r="D302" t="s">
         <v>607</v>
@@ -7349,7 +7349,7 @@
         <v>605</v>
       </c>
       <c r="C303">
-        <v>98.55</v>
+        <v>102.196</v>
       </c>
       <c r="D303" t="s">
         <v>607</v>
@@ -7363,10 +7363,10 @@
         <v>307</v>
       </c>
       <c r="B304" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C304">
-        <v>100.414</v>
+        <v>102.179</v>
       </c>
       <c r="D304" t="s">
         <v>607</v>
@@ -7383,7 +7383,7 @@
         <v>605</v>
       </c>
       <c r="C305">
-        <v>99.941</v>
+        <v>100.019</v>
       </c>
       <c r="D305" t="s">
         <v>607</v>
@@ -7400,7 +7400,7 @@
         <v>605</v>
       </c>
       <c r="C306">
-        <v>98.877</v>
+        <v>104.533</v>
       </c>
       <c r="D306" t="s">
         <v>607</v>
@@ -7414,10 +7414,10 @@
         <v>310</v>
       </c>
       <c r="B307" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C307">
-        <v>104.631</v>
+        <v>106.398</v>
       </c>
       <c r="D307" t="s">
         <v>607</v>
@@ -7434,7 +7434,7 @@
         <v>605</v>
       </c>
       <c r="C308">
-        <v>99.324</v>
+        <v>101.76</v>
       </c>
       <c r="D308" t="s">
         <v>607</v>
@@ -7451,7 +7451,7 @@
         <v>605</v>
       </c>
       <c r="C309">
-        <v>98.416</v>
+        <v>101.642</v>
       </c>
       <c r="D309" t="s">
         <v>607</v>
@@ -7468,7 +7468,7 @@
         <v>605</v>
       </c>
       <c r="C310">
-        <v>99.883</v>
+        <v>103</v>
       </c>
       <c r="D310" t="s">
         <v>607</v>
@@ -7482,10 +7482,10 @@
         <v>314</v>
       </c>
       <c r="B311" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C311">
-        <v>97.551</v>
+        <v>95.664</v>
       </c>
       <c r="D311" t="s">
         <v>607</v>
@@ -7499,10 +7499,10 @@
         <v>315</v>
       </c>
       <c r="B312" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C312">
-        <v>97.714</v>
+        <v>99.911</v>
       </c>
       <c r="D312" t="s">
         <v>607</v>
@@ -7519,7 +7519,7 @@
         <v>606</v>
       </c>
       <c r="C313">
-        <v>100.017</v>
+        <v>96.355</v>
       </c>
       <c r="D313" t="s">
         <v>607</v>
@@ -7533,10 +7533,10 @@
         <v>317</v>
       </c>
       <c r="B314" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C314">
-        <v>98.5</v>
+        <v>98.343</v>
       </c>
       <c r="D314" t="s">
         <v>607</v>
@@ -7553,7 +7553,7 @@
         <v>605</v>
       </c>
       <c r="C315">
-        <v>99.90900000000001</v>
+        <v>104.908</v>
       </c>
       <c r="D315" t="s">
         <v>607</v>
@@ -7567,10 +7567,10 @@
         <v>319</v>
       </c>
       <c r="B316" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C316">
-        <v>100.27</v>
+        <v>100.063</v>
       </c>
       <c r="D316" t="s">
         <v>607</v>
@@ -7584,10 +7584,10 @@
         <v>320</v>
       </c>
       <c r="B317" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C317">
-        <v>104.569</v>
+        <v>104.017</v>
       </c>
       <c r="D317" t="s">
         <v>607</v>
@@ -7604,7 +7604,7 @@
         <v>605</v>
       </c>
       <c r="C318">
-        <v>98.48699999999999</v>
+        <v>100.449</v>
       </c>
       <c r="D318" t="s">
         <v>607</v>
@@ -7621,7 +7621,7 @@
         <v>605</v>
       </c>
       <c r="C319">
-        <v>97.11</v>
+        <v>102.297</v>
       </c>
       <c r="D319" t="s">
         <v>607</v>
@@ -7635,10 +7635,10 @@
         <v>323</v>
       </c>
       <c r="B320" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C320">
-        <v>98.62</v>
+        <v>97.172</v>
       </c>
       <c r="D320" t="s">
         <v>607</v>
@@ -7652,10 +7652,10 @@
         <v>324</v>
       </c>
       <c r="B321" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C321">
-        <v>108.956</v>
+        <v>105.803</v>
       </c>
       <c r="D321" t="s">
         <v>607</v>
@@ -7669,10 +7669,10 @@
         <v>325</v>
       </c>
       <c r="B322" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C322">
-        <v>104.931</v>
+        <v>106.915</v>
       </c>
       <c r="D322" t="s">
         <v>607</v>
@@ -7686,10 +7686,10 @@
         <v>326</v>
       </c>
       <c r="B323" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C323">
-        <v>96.889</v>
+        <v>99.42700000000001</v>
       </c>
       <c r="D323" t="s">
         <v>607</v>
@@ -7703,10 +7703,10 @@
         <v>327</v>
       </c>
       <c r="B324" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C324">
-        <v>98.79900000000001</v>
+        <v>95.145</v>
       </c>
       <c r="D324" t="s">
         <v>607</v>
@@ -7720,10 +7720,10 @@
         <v>328</v>
       </c>
       <c r="B325" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C325">
-        <v>95.486</v>
+        <v>97.145</v>
       </c>
       <c r="D325" t="s">
         <v>607</v>
@@ -7737,10 +7737,10 @@
         <v>329</v>
       </c>
       <c r="B326" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C326">
-        <v>101.825</v>
+        <v>100.473</v>
       </c>
       <c r="D326" t="s">
         <v>607</v>
@@ -7754,10 +7754,10 @@
         <v>330</v>
       </c>
       <c r="B327" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C327">
-        <v>99.626</v>
+        <v>99.33799999999999</v>
       </c>
       <c r="D327" t="s">
         <v>607</v>
@@ -7771,10 +7771,10 @@
         <v>331</v>
       </c>
       <c r="B328" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C328">
-        <v>98.996</v>
+        <v>99.895</v>
       </c>
       <c r="D328" t="s">
         <v>607</v>
@@ -7788,10 +7788,10 @@
         <v>332</v>
       </c>
       <c r="B329" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C329">
-        <v>99.595</v>
+        <v>99.459</v>
       </c>
       <c r="D329" t="s">
         <v>607</v>
@@ -7805,10 +7805,10 @@
         <v>333</v>
       </c>
       <c r="B330" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C330">
-        <v>104.353</v>
+        <v>104.368</v>
       </c>
       <c r="D330" t="s">
         <v>607</v>
@@ -7822,10 +7822,10 @@
         <v>334</v>
       </c>
       <c r="B331" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C331">
-        <v>98.729</v>
+        <v>99.943</v>
       </c>
       <c r="D331" t="s">
         <v>607</v>
@@ -7839,10 +7839,10 @@
         <v>335</v>
       </c>
       <c r="B332" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C332">
-        <v>104.96</v>
+        <v>104.003</v>
       </c>
       <c r="D332" t="s">
         <v>607</v>
@@ -7859,7 +7859,7 @@
         <v>605</v>
       </c>
       <c r="C333">
-        <v>99.05200000000001</v>
+        <v>101.753</v>
       </c>
       <c r="D333" t="s">
         <v>607</v>
@@ -7873,10 +7873,10 @@
         <v>337</v>
       </c>
       <c r="B334" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C334">
-        <v>96.916</v>
+        <v>98.666</v>
       </c>
       <c r="D334" t="s">
         <v>607</v>
@@ -7890,10 +7890,10 @@
         <v>338</v>
       </c>
       <c r="B335" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C335">
-        <v>96.327</v>
+        <v>98.852</v>
       </c>
       <c r="D335" t="s">
         <v>607</v>
@@ -7907,10 +7907,10 @@
         <v>339</v>
       </c>
       <c r="B336" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C336">
-        <v>100.419</v>
+        <v>103.945</v>
       </c>
       <c r="D336" t="s">
         <v>607</v>
@@ -7924,10 +7924,10 @@
         <v>340</v>
       </c>
       <c r="B337" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C337">
-        <v>102.46</v>
+        <v>104.253</v>
       </c>
       <c r="D337" t="s">
         <v>607</v>
@@ -7944,7 +7944,7 @@
         <v>605</v>
       </c>
       <c r="C338">
-        <v>98.206</v>
+        <v>101.117</v>
       </c>
       <c r="D338" t="s">
         <v>607</v>
@@ -7958,10 +7958,10 @@
         <v>342</v>
       </c>
       <c r="B339" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C339">
-        <v>97.90600000000001</v>
+        <v>95.979</v>
       </c>
       <c r="D339" t="s">
         <v>607</v>
@@ -7975,10 +7975,10 @@
         <v>343</v>
       </c>
       <c r="B340" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C340">
-        <v>104.757</v>
+        <v>103.049</v>
       </c>
       <c r="D340" t="s">
         <v>607</v>
@@ -7992,10 +7992,10 @@
         <v>344</v>
       </c>
       <c r="B341" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C341">
-        <v>101.182</v>
+        <v>103.971</v>
       </c>
       <c r="D341" t="s">
         <v>607</v>
@@ -8009,10 +8009,10 @@
         <v>345</v>
       </c>
       <c r="B342" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C342">
-        <v>99.749</v>
+        <v>98.8</v>
       </c>
       <c r="D342" t="s">
         <v>607</v>
@@ -8029,7 +8029,7 @@
         <v>605</v>
       </c>
       <c r="C343">
-        <v>99.318</v>
+        <v>100.398</v>
       </c>
       <c r="D343" t="s">
         <v>607</v>
@@ -8046,7 +8046,7 @@
         <v>605</v>
       </c>
       <c r="C344">
-        <v>99.917</v>
+        <v>100.231</v>
       </c>
       <c r="D344" t="s">
         <v>607</v>
@@ -8060,10 +8060,10 @@
         <v>348</v>
       </c>
       <c r="B345" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C345">
-        <v>105.881</v>
+        <v>109.416</v>
       </c>
       <c r="D345" t="s">
         <v>607</v>
@@ -8077,10 +8077,10 @@
         <v>349</v>
       </c>
       <c r="B346" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C346">
-        <v>99.483</v>
+        <v>94.861</v>
       </c>
       <c r="D346" t="s">
         <v>607</v>
@@ -8094,10 +8094,10 @@
         <v>350</v>
       </c>
       <c r="B347" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C347">
-        <v>101.179</v>
+        <v>100.998</v>
       </c>
       <c r="D347" t="s">
         <v>607</v>
@@ -8111,10 +8111,10 @@
         <v>351</v>
       </c>
       <c r="B348" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C348">
-        <v>96.831</v>
+        <v>98.333</v>
       </c>
       <c r="D348" t="s">
         <v>607</v>
@@ -8128,10 +8128,10 @@
         <v>352</v>
       </c>
       <c r="B349" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C349">
-        <v>83.113</v>
+        <v>83.71299999999999</v>
       </c>
       <c r="D349" t="s">
         <v>607</v>
@@ -8148,7 +8148,7 @@
         <v>606</v>
       </c>
       <c r="C350">
-        <v>101.771</v>
+        <v>99.01900000000001</v>
       </c>
       <c r="D350" t="s">
         <v>607</v>
@@ -8165,7 +8165,7 @@
         <v>605</v>
       </c>
       <c r="C351">
-        <v>97.68000000000001</v>
+        <v>100.815</v>
       </c>
       <c r="D351" t="s">
         <v>607</v>
@@ -8182,7 +8182,7 @@
         <v>606</v>
       </c>
       <c r="C352">
-        <v>100.651</v>
+        <v>97.748</v>
       </c>
       <c r="D352" t="s">
         <v>607</v>
@@ -8196,10 +8196,10 @@
         <v>356</v>
       </c>
       <c r="B353" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C353">
-        <v>98.05</v>
+        <v>97.727</v>
       </c>
       <c r="D353" t="s">
         <v>607</v>
@@ -8216,7 +8216,7 @@
         <v>606</v>
       </c>
       <c r="C354">
-        <v>102.361</v>
+        <v>96.68300000000001</v>
       </c>
       <c r="D354" t="s">
         <v>607</v>
@@ -8233,7 +8233,7 @@
         <v>605</v>
       </c>
       <c r="C355">
-        <v>99.887</v>
+        <v>100.872</v>
       </c>
       <c r="D355" t="s">
         <v>607</v>
@@ -8250,7 +8250,7 @@
         <v>605</v>
       </c>
       <c r="C356">
-        <v>99.547</v>
+        <v>101.312</v>
       </c>
       <c r="D356" t="s">
         <v>607</v>
@@ -8267,7 +8267,7 @@
         <v>605</v>
       </c>
       <c r="C357">
-        <v>95.018</v>
+        <v>100.143</v>
       </c>
       <c r="D357" t="s">
         <v>607</v>
@@ -8284,7 +8284,7 @@
         <v>606</v>
       </c>
       <c r="C358">
-        <v>101.756</v>
+        <v>98.014</v>
       </c>
       <c r="D358" t="s">
         <v>607</v>
@@ -8298,10 +8298,10 @@
         <v>362</v>
       </c>
       <c r="B359" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C359">
-        <v>102.318</v>
+        <v>105.652</v>
       </c>
       <c r="D359" t="s">
         <v>607</v>
@@ -8318,7 +8318,7 @@
         <v>605</v>
       </c>
       <c r="C360">
-        <v>96.17700000000001</v>
+        <v>101.055</v>
       </c>
       <c r="D360" t="s">
         <v>607</v>
@@ -8335,7 +8335,7 @@
         <v>605</v>
       </c>
       <c r="C361">
-        <v>96.345</v>
+        <v>105.733</v>
       </c>
       <c r="D361" t="s">
         <v>607</v>
@@ -8349,10 +8349,10 @@
         <v>365</v>
       </c>
       <c r="B362" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C362">
-        <v>99.209</v>
+        <v>99.85899999999999</v>
       </c>
       <c r="D362" t="s">
         <v>607</v>
@@ -8366,10 +8366,10 @@
         <v>366</v>
       </c>
       <c r="B363" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C363">
-        <v>97.996</v>
+        <v>99.86199999999999</v>
       </c>
       <c r="D363" t="s">
         <v>607</v>
@@ -8386,7 +8386,7 @@
         <v>605</v>
       </c>
       <c r="C364">
-        <v>98.587</v>
+        <v>100.717</v>
       </c>
       <c r="D364" t="s">
         <v>607</v>
@@ -8400,10 +8400,10 @@
         <v>368</v>
       </c>
       <c r="B365" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C365">
-        <v>101.911</v>
+        <v>105.56</v>
       </c>
       <c r="D365" t="s">
         <v>607</v>
@@ -8417,10 +8417,10 @@
         <v>369</v>
       </c>
       <c r="B366" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C366">
-        <v>100.158</v>
+        <v>102.336</v>
       </c>
       <c r="D366" t="s">
         <v>607</v>
@@ -8434,10 +8434,10 @@
         <v>370</v>
       </c>
       <c r="B367" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C367">
-        <v>103.43</v>
+        <v>102.857</v>
       </c>
       <c r="D367" t="s">
         <v>607</v>
@@ -8451,10 +8451,10 @@
         <v>371</v>
       </c>
       <c r="B368" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C368">
-        <v>106.654</v>
+        <v>101.322</v>
       </c>
       <c r="D368" t="s">
         <v>607</v>
@@ -8468,10 +8468,10 @@
         <v>372</v>
       </c>
       <c r="B369" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C369">
-        <v>106.072</v>
+        <v>108.579</v>
       </c>
       <c r="D369" t="s">
         <v>607</v>
@@ -8485,10 +8485,10 @@
         <v>373</v>
       </c>
       <c r="B370" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C370">
-        <v>87.426</v>
+        <v>95.306</v>
       </c>
       <c r="D370" t="s">
         <v>607</v>
@@ -8502,10 +8502,10 @@
         <v>374</v>
       </c>
       <c r="B371" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C371">
-        <v>94.078</v>
+        <v>94.627</v>
       </c>
       <c r="D371" t="s">
         <v>607</v>
@@ -8522,7 +8522,7 @@
         <v>605</v>
       </c>
       <c r="C372">
-        <v>99.792</v>
+        <v>101.344</v>
       </c>
       <c r="D372" t="s">
         <v>607</v>
@@ -8536,10 +8536,10 @@
         <v>376</v>
       </c>
       <c r="B373" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C373">
-        <v>100.989</v>
+        <v>103.051</v>
       </c>
       <c r="D373" t="s">
         <v>607</v>
@@ -8553,10 +8553,10 @@
         <v>377</v>
       </c>
       <c r="B374" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C374">
-        <v>97.06699999999999</v>
+        <v>91.697</v>
       </c>
       <c r="D374" t="s">
         <v>607</v>
@@ -8573,7 +8573,7 @@
         <v>605</v>
       </c>
       <c r="C375">
-        <v>92.95699999999999</v>
+        <v>101.175</v>
       </c>
       <c r="D375" t="s">
         <v>607</v>
@@ -8587,10 +8587,10 @@
         <v>379</v>
       </c>
       <c r="B376" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C376">
-        <v>96.30500000000001</v>
+        <v>98.629</v>
       </c>
       <c r="D376" t="s">
         <v>607</v>
@@ -8604,10 +8604,10 @@
         <v>380</v>
       </c>
       <c r="B377" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C377">
-        <v>102.37</v>
+        <v>101.25</v>
       </c>
       <c r="D377" t="s">
         <v>607</v>
@@ -8621,10 +8621,10 @@
         <v>381</v>
       </c>
       <c r="B378" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C378">
-        <v>103.938</v>
+        <v>103.56</v>
       </c>
       <c r="D378" t="s">
         <v>607</v>
@@ -8641,7 +8641,7 @@
         <v>605</v>
       </c>
       <c r="C379">
-        <v>91.697</v>
+        <v>105.518</v>
       </c>
       <c r="D379" t="s">
         <v>607</v>
@@ -8655,10 +8655,10 @@
         <v>383</v>
       </c>
       <c r="B380" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C380">
-        <v>104.458</v>
+        <v>101.553</v>
       </c>
       <c r="D380" t="s">
         <v>607</v>
@@ -8672,10 +8672,10 @@
         <v>384</v>
       </c>
       <c r="B381" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C381">
-        <v>98.64100000000001</v>
+        <v>99.425</v>
       </c>
       <c r="D381" t="s">
         <v>607</v>
@@ -8692,7 +8692,7 @@
         <v>605</v>
       </c>
       <c r="C382">
-        <v>98.765</v>
+        <v>100.303</v>
       </c>
       <c r="D382" t="s">
         <v>607</v>
@@ -8706,10 +8706,10 @@
         <v>386</v>
       </c>
       <c r="B383" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C383">
-        <v>102.83</v>
+        <v>101.21</v>
       </c>
       <c r="D383" t="s">
         <v>607</v>
@@ -8726,7 +8726,7 @@
         <v>606</v>
       </c>
       <c r="C384">
-        <v>100.804</v>
+        <v>98.54000000000001</v>
       </c>
       <c r="D384" t="s">
         <v>607</v>
@@ -8743,7 +8743,7 @@
         <v>606</v>
       </c>
       <c r="C385">
-        <v>101.648</v>
+        <v>99.30200000000001</v>
       </c>
       <c r="D385" t="s">
         <v>607</v>
@@ -8757,10 +8757,10 @@
         <v>389</v>
       </c>
       <c r="B386" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C386">
-        <v>105.189</v>
+        <v>107.318</v>
       </c>
       <c r="D386" t="s">
         <v>607</v>
@@ -8774,10 +8774,10 @@
         <v>390</v>
       </c>
       <c r="B387" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C387">
-        <v>109.275</v>
+        <v>109.943</v>
       </c>
       <c r="D387" t="s">
         <v>607</v>
@@ -8791,10 +8791,10 @@
         <v>391</v>
       </c>
       <c r="B388" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C388">
-        <v>102.272</v>
+        <v>101.682</v>
       </c>
       <c r="D388" t="s">
         <v>607</v>
@@ -8808,10 +8808,10 @@
         <v>392</v>
       </c>
       <c r="B389" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C389">
-        <v>98.148</v>
+        <v>99.417</v>
       </c>
       <c r="D389" t="s">
         <v>607</v>
@@ -8828,7 +8828,7 @@
         <v>605</v>
       </c>
       <c r="C390">
-        <v>99.824</v>
+        <v>101.532</v>
       </c>
       <c r="D390" t="s">
         <v>607</v>
@@ -8845,7 +8845,7 @@
         <v>605</v>
       </c>
       <c r="C391">
-        <v>95.223</v>
+        <v>101.691</v>
       </c>
       <c r="D391" t="s">
         <v>607</v>
@@ -8862,7 +8862,7 @@
         <v>605</v>
       </c>
       <c r="C392">
-        <v>98.371</v>
+        <v>104.733</v>
       </c>
       <c r="D392" t="s">
         <v>607</v>
@@ -8879,7 +8879,7 @@
         <v>605</v>
       </c>
       <c r="C393">
-        <v>97.383</v>
+        <v>105.023</v>
       </c>
       <c r="D393" t="s">
         <v>607</v>
@@ -8896,7 +8896,7 @@
         <v>606</v>
       </c>
       <c r="C394">
-        <v>103.381</v>
+        <v>99.145</v>
       </c>
       <c r="D394" t="s">
         <v>607</v>
@@ -8910,10 +8910,10 @@
         <v>398</v>
       </c>
       <c r="B395" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C395">
-        <v>100.619</v>
+        <v>102.367</v>
       </c>
       <c r="D395" t="s">
         <v>607</v>
@@ -8927,10 +8927,10 @@
         <v>399</v>
       </c>
       <c r="B396" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C396">
-        <v>101.336</v>
+        <v>102.915</v>
       </c>
       <c r="D396" t="s">
         <v>607</v>
@@ -8944,10 +8944,10 @@
         <v>400</v>
       </c>
       <c r="B397" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C397">
-        <v>104.886</v>
+        <v>104.05</v>
       </c>
       <c r="D397" t="s">
         <v>607</v>
@@ -8964,7 +8964,7 @@
         <v>605</v>
       </c>
       <c r="C398">
-        <v>98.051</v>
+        <v>102.44</v>
       </c>
       <c r="D398" t="s">
         <v>607</v>
@@ -8981,7 +8981,7 @@
         <v>605</v>
       </c>
       <c r="C399">
-        <v>99.29600000000001</v>
+        <v>100.942</v>
       </c>
       <c r="D399" t="s">
         <v>607</v>
@@ -8995,10 +8995,10 @@
         <v>403</v>
       </c>
       <c r="B400" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C400">
-        <v>98.83199999999999</v>
+        <v>92.789</v>
       </c>
       <c r="D400" t="s">
         <v>607</v>
@@ -9012,10 +9012,10 @@
         <v>404</v>
       </c>
       <c r="B401" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C401">
-        <v>89.05200000000001</v>
+        <v>91.578</v>
       </c>
       <c r="D401" t="s">
         <v>607</v>
@@ -9032,7 +9032,7 @@
         <v>605</v>
       </c>
       <c r="C402">
-        <v>98.822</v>
+        <v>107.691</v>
       </c>
       <c r="D402" t="s">
         <v>607</v>
@@ -9046,10 +9046,10 @@
         <v>406</v>
       </c>
       <c r="B403" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C403">
-        <v>99.691</v>
+        <v>99.108</v>
       </c>
       <c r="D403" t="s">
         <v>607</v>
@@ -9066,7 +9066,7 @@
         <v>605</v>
       </c>
       <c r="C404">
-        <v>99.20099999999999</v>
+        <v>102.032</v>
       </c>
       <c r="D404" t="s">
         <v>607</v>
@@ -9083,7 +9083,7 @@
         <v>605</v>
       </c>
       <c r="C405">
-        <v>97.342</v>
+        <v>101.293</v>
       </c>
       <c r="D405" t="s">
         <v>607</v>
@@ -9097,10 +9097,10 @@
         <v>409</v>
       </c>
       <c r="B406" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C406">
-        <v>101.282</v>
+        <v>110.044</v>
       </c>
       <c r="D406" t="s">
         <v>607</v>
@@ -9117,7 +9117,7 @@
         <v>605</v>
       </c>
       <c r="C407">
-        <v>99.31399999999999</v>
+        <v>102.949</v>
       </c>
       <c r="D407" t="s">
         <v>607</v>
@@ -9134,7 +9134,7 @@
         <v>605</v>
       </c>
       <c r="C408">
-        <v>96.22799999999999</v>
+        <v>101.231</v>
       </c>
       <c r="D408" t="s">
         <v>607</v>
@@ -9148,10 +9148,10 @@
         <v>412</v>
       </c>
       <c r="B409" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C409">
-        <v>100.09</v>
+        <v>103.663</v>
       </c>
       <c r="D409" t="s">
         <v>607</v>
@@ -9165,10 +9165,10 @@
         <v>413</v>
       </c>
       <c r="B410" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C410">
-        <v>93.404</v>
+        <v>96.985</v>
       </c>
       <c r="D410" t="s">
         <v>607</v>
@@ -9185,7 +9185,7 @@
         <v>605</v>
       </c>
       <c r="C411">
-        <v>99.05200000000001</v>
+        <v>102.956</v>
       </c>
       <c r="D411" t="s">
         <v>607</v>
@@ -9202,7 +9202,7 @@
         <v>605</v>
       </c>
       <c r="C412">
-        <v>98.015</v>
+        <v>104.413</v>
       </c>
       <c r="D412" t="s">
         <v>607</v>
@@ -9216,10 +9216,10 @@
         <v>416</v>
       </c>
       <c r="B413" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C413">
-        <v>105.137</v>
+        <v>106.938</v>
       </c>
       <c r="D413" t="s">
         <v>607</v>
@@ -9233,10 +9233,10 @@
         <v>417</v>
       </c>
       <c r="B414" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C414">
-        <v>101.409</v>
+        <v>102.573</v>
       </c>
       <c r="D414" t="s">
         <v>607</v>
@@ -9250,10 +9250,10 @@
         <v>418</v>
       </c>
       <c r="B415" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C415">
-        <v>98.502</v>
+        <v>98.40300000000001</v>
       </c>
       <c r="D415" t="s">
         <v>607</v>
@@ -9267,10 +9267,10 @@
         <v>419</v>
       </c>
       <c r="B416" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C416">
-        <v>103.221</v>
+        <v>100.446</v>
       </c>
       <c r="D416" t="s">
         <v>607</v>
@@ -9284,10 +9284,10 @@
         <v>420</v>
       </c>
       <c r="B417" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C417">
-        <v>102.589</v>
+        <v>101.425</v>
       </c>
       <c r="D417" t="s">
         <v>607</v>
@@ -9301,10 +9301,10 @@
         <v>421</v>
       </c>
       <c r="B418" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C418">
-        <v>96.602</v>
+        <v>97.961</v>
       </c>
       <c r="D418" t="s">
         <v>607</v>
@@ -9321,7 +9321,7 @@
         <v>605</v>
       </c>
       <c r="C419">
-        <v>99.233</v>
+        <v>102.536</v>
       </c>
       <c r="D419" t="s">
         <v>607</v>
@@ -9335,10 +9335,10 @@
         <v>423</v>
       </c>
       <c r="B420" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C420">
-        <v>102.071</v>
+        <v>105.368</v>
       </c>
       <c r="D420" t="s">
         <v>607</v>
@@ -9352,10 +9352,10 @@
         <v>424</v>
       </c>
       <c r="B421" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C421">
-        <v>102.817</v>
+        <v>102.354</v>
       </c>
       <c r="D421" t="s">
         <v>607</v>
@@ -9369,10 +9369,10 @@
         <v>425</v>
       </c>
       <c r="B422" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C422">
-        <v>108.229</v>
+        <v>103.888</v>
       </c>
       <c r="D422" t="s">
         <v>607</v>
@@ -9386,10 +9386,10 @@
         <v>426</v>
       </c>
       <c r="B423" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C423">
-        <v>96.673</v>
+        <v>96.104</v>
       </c>
       <c r="D423" t="s">
         <v>607</v>
@@ -9403,10 +9403,10 @@
         <v>427</v>
       </c>
       <c r="B424" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C424">
-        <v>102.753</v>
+        <v>104.309</v>
       </c>
       <c r="D424" t="s">
         <v>607</v>
@@ -9420,10 +9420,10 @@
         <v>428</v>
       </c>
       <c r="B425" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C425">
-        <v>110.816</v>
+        <v>110.39</v>
       </c>
       <c r="D425" t="s">
         <v>607</v>
@@ -9437,10 +9437,10 @@
         <v>429</v>
       </c>
       <c r="B426" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C426">
-        <v>95.729</v>
+        <v>99.996</v>
       </c>
       <c r="D426" t="s">
         <v>607</v>
@@ -9454,10 +9454,10 @@
         <v>430</v>
       </c>
       <c r="B427" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C427">
-        <v>96.848</v>
+        <v>93.825</v>
       </c>
       <c r="D427" t="s">
         <v>607</v>
@@ -9471,10 +9471,10 @@
         <v>431</v>
       </c>
       <c r="B428" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C428">
-        <v>99.705</v>
+        <v>98.714</v>
       </c>
       <c r="D428" t="s">
         <v>607</v>
@@ -9488,10 +9488,10 @@
         <v>432</v>
       </c>
       <c r="B429" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C429">
-        <v>101.458</v>
+        <v>105.711</v>
       </c>
       <c r="D429" t="s">
         <v>607</v>
@@ -9508,7 +9508,7 @@
         <v>605</v>
       </c>
       <c r="C430">
-        <v>99.587</v>
+        <v>100.333</v>
       </c>
       <c r="D430" t="s">
         <v>607</v>
@@ -9522,10 +9522,10 @@
         <v>434</v>
       </c>
       <c r="B431" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C431">
-        <v>106.56</v>
+        <v>110.062</v>
       </c>
       <c r="D431" t="s">
         <v>607</v>
@@ -9539,10 +9539,10 @@
         <v>435</v>
       </c>
       <c r="B432" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C432">
-        <v>108.072</v>
+        <v>107.177</v>
       </c>
       <c r="D432" t="s">
         <v>607</v>
@@ -9556,10 +9556,10 @@
         <v>436</v>
       </c>
       <c r="B433" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C433">
-        <v>100.019</v>
+        <v>102.42</v>
       </c>
       <c r="D433" t="s">
         <v>607</v>
@@ -9573,10 +9573,10 @@
         <v>437</v>
       </c>
       <c r="B434" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C434">
-        <v>102.315</v>
+        <v>100.451</v>
       </c>
       <c r="D434" t="s">
         <v>607</v>
@@ -9593,7 +9593,7 @@
         <v>605</v>
       </c>
       <c r="C435">
-        <v>99.21899999999999</v>
+        <v>105.932</v>
       </c>
       <c r="D435" t="s">
         <v>607</v>
@@ -9607,10 +9607,10 @@
         <v>439</v>
       </c>
       <c r="B436" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C436">
-        <v>93.038</v>
+        <v>99.40600000000001</v>
       </c>
       <c r="D436" t="s">
         <v>607</v>
@@ -9624,10 +9624,10 @@
         <v>440</v>
       </c>
       <c r="B437" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C437">
-        <v>97.739</v>
+        <v>96.16800000000001</v>
       </c>
       <c r="D437" t="s">
         <v>607</v>
@@ -9641,10 +9641,10 @@
         <v>441</v>
       </c>
       <c r="B438" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C438">
-        <v>97.206</v>
+        <v>99.036</v>
       </c>
       <c r="D438" t="s">
         <v>607</v>
@@ -9658,10 +9658,10 @@
         <v>442</v>
       </c>
       <c r="B439" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C439">
-        <v>104.637</v>
+        <v>106.29</v>
       </c>
       <c r="D439" t="s">
         <v>607</v>
@@ -9678,7 +9678,7 @@
         <v>606</v>
       </c>
       <c r="C440">
-        <v>101.809</v>
+        <v>98.547</v>
       </c>
       <c r="D440" t="s">
         <v>607</v>
@@ -9692,10 +9692,10 @@
         <v>444</v>
       </c>
       <c r="B441" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C441">
-        <v>89.14700000000001</v>
+        <v>94.892</v>
       </c>
       <c r="D441" t="s">
         <v>607</v>
@@ -9709,10 +9709,10 @@
         <v>445</v>
       </c>
       <c r="B442" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C442">
-        <v>97.85899999999999</v>
+        <v>94.19199999999999</v>
       </c>
       <c r="D442" t="s">
         <v>607</v>
@@ -9726,10 +9726,10 @@
         <v>446</v>
       </c>
       <c r="B443" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C443">
-        <v>104.954</v>
+        <v>102.622</v>
       </c>
       <c r="D443" t="s">
         <v>607</v>
@@ -9743,10 +9743,10 @@
         <v>447</v>
       </c>
       <c r="B444" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C444">
-        <v>101.713</v>
+        <v>104.04</v>
       </c>
       <c r="D444" t="s">
         <v>607</v>
@@ -9763,7 +9763,7 @@
         <v>605</v>
       </c>
       <c r="C445">
-        <v>97.5</v>
+        <v>100.208</v>
       </c>
       <c r="D445" t="s">
         <v>607</v>
@@ -9777,10 +9777,10 @@
         <v>449</v>
       </c>
       <c r="B446" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C446">
-        <v>102.338</v>
+        <v>104.731</v>
       </c>
       <c r="D446" t="s">
         <v>607</v>
@@ -9794,10 +9794,10 @@
         <v>450</v>
       </c>
       <c r="B447" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C447">
-        <v>101.242</v>
+        <v>103.393</v>
       </c>
       <c r="D447" t="s">
         <v>607</v>
@@ -9811,10 +9811,10 @@
         <v>451</v>
       </c>
       <c r="B448" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C448">
-        <v>97.122</v>
+        <v>99.09</v>
       </c>
       <c r="D448" t="s">
         <v>607</v>
@@ -9828,10 +9828,10 @@
         <v>452</v>
       </c>
       <c r="B449" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C449">
-        <v>94.227</v>
+        <v>98.813</v>
       </c>
       <c r="D449" t="s">
         <v>607</v>
@@ -9845,10 +9845,10 @@
         <v>453</v>
       </c>
       <c r="B450" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C450">
-        <v>96.227</v>
+        <v>98.876</v>
       </c>
       <c r="D450" t="s">
         <v>607</v>
@@ -9862,10 +9862,10 @@
         <v>454</v>
       </c>
       <c r="B451" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C451">
-        <v>106.543</v>
+        <v>106.793</v>
       </c>
       <c r="D451" t="s">
         <v>607</v>
@@ -9879,10 +9879,10 @@
         <v>455</v>
       </c>
       <c r="B452" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C452">
-        <v>101.096</v>
+        <v>100.44</v>
       </c>
       <c r="D452" t="s">
         <v>607</v>
@@ -9899,7 +9899,7 @@
         <v>605</v>
       </c>
       <c r="C453">
-        <v>95.122</v>
+        <v>103.394</v>
       </c>
       <c r="D453" t="s">
         <v>607</v>
@@ -9916,7 +9916,7 @@
         <v>605</v>
       </c>
       <c r="C454">
-        <v>95.693</v>
+        <v>105.28</v>
       </c>
       <c r="D454" t="s">
         <v>607</v>
@@ -9933,7 +9933,7 @@
         <v>605</v>
       </c>
       <c r="C455">
-        <v>94.261</v>
+        <v>100.681</v>
       </c>
       <c r="D455" t="s">
         <v>607</v>
@@ -9947,10 +9947,10 @@
         <v>459</v>
       </c>
       <c r="B456" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C456">
-        <v>101.758</v>
+        <v>100.577</v>
       </c>
       <c r="D456" t="s">
         <v>607</v>
@@ -9964,10 +9964,10 @@
         <v>460</v>
       </c>
       <c r="B457" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C457">
-        <v>96.464</v>
+        <v>99.68000000000001</v>
       </c>
       <c r="D457" t="s">
         <v>607</v>
@@ -9984,7 +9984,7 @@
         <v>605</v>
       </c>
       <c r="C458">
-        <v>99.956</v>
+        <v>107.842</v>
       </c>
       <c r="D458" t="s">
         <v>607</v>
@@ -10001,7 +10001,7 @@
         <v>605</v>
       </c>
       <c r="C459">
-        <v>99.599</v>
+        <v>102.891</v>
       </c>
       <c r="D459" t="s">
         <v>607</v>
@@ -10018,7 +10018,7 @@
         <v>605</v>
       </c>
       <c r="C460">
-        <v>98.68300000000001</v>
+        <v>102.367</v>
       </c>
       <c r="D460" t="s">
         <v>607</v>
@@ -10032,10 +10032,10 @@
         <v>464</v>
       </c>
       <c r="B461" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C461">
-        <v>103.034</v>
+        <v>101.646</v>
       </c>
       <c r="D461" t="s">
         <v>607</v>
@@ -10049,10 +10049,10 @@
         <v>465</v>
       </c>
       <c r="B462" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C462">
-        <v>98.38</v>
+        <v>99.506</v>
       </c>
       <c r="D462" t="s">
         <v>607</v>
@@ -10066,10 +10066,10 @@
         <v>466</v>
       </c>
       <c r="B463" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C463">
-        <v>99.358</v>
+        <v>99.532</v>
       </c>
       <c r="D463" t="s">
         <v>607</v>
@@ -10083,10 +10083,10 @@
         <v>467</v>
       </c>
       <c r="B464" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C464">
-        <v>108.835</v>
+        <v>108.143</v>
       </c>
       <c r="D464" t="s">
         <v>607</v>
@@ -10103,7 +10103,7 @@
         <v>605</v>
       </c>
       <c r="C465">
-        <v>99.069</v>
+        <v>102.145</v>
       </c>
       <c r="D465" t="s">
         <v>607</v>
@@ -10120,7 +10120,7 @@
         <v>605</v>
       </c>
       <c r="C466">
-        <v>99.89700000000001</v>
+        <v>102.751</v>
       </c>
       <c r="D466" t="s">
         <v>607</v>
@@ -10134,10 +10134,10 @@
         <v>470</v>
       </c>
       <c r="B467" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C467">
-        <v>104.184</v>
+        <v>104.245</v>
       </c>
       <c r="D467" t="s">
         <v>607</v>
@@ -10151,10 +10151,10 @@
         <v>471</v>
       </c>
       <c r="B468" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C468">
-        <v>101.756</v>
+        <v>105.717</v>
       </c>
       <c r="D468" t="s">
         <v>607</v>
@@ -10171,7 +10171,7 @@
         <v>605</v>
       </c>
       <c r="C469">
-        <v>98.816</v>
+        <v>102.417</v>
       </c>
       <c r="D469" t="s">
         <v>607</v>
@@ -10185,10 +10185,10 @@
         <v>473</v>
       </c>
       <c r="B470" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C470">
-        <v>97.00700000000001</v>
+        <v>99.28700000000001</v>
       </c>
       <c r="D470" t="s">
         <v>607</v>
@@ -10205,7 +10205,7 @@
         <v>605</v>
       </c>
       <c r="C471">
-        <v>97.46299999999999</v>
+        <v>100.049</v>
       </c>
       <c r="D471" t="s">
         <v>607</v>
@@ -10219,10 +10219,10 @@
         <v>475</v>
       </c>
       <c r="B472" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C472">
-        <v>110.629</v>
+        <v>103.541</v>
       </c>
       <c r="D472" t="s">
         <v>607</v>
@@ -10239,7 +10239,7 @@
         <v>605</v>
       </c>
       <c r="C473">
-        <v>98.72</v>
+        <v>100.756</v>
       </c>
       <c r="D473" t="s">
         <v>607</v>
@@ -10253,10 +10253,10 @@
         <v>477</v>
       </c>
       <c r="B474" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C474">
-        <v>98.678</v>
+        <v>99.111</v>
       </c>
       <c r="D474" t="s">
         <v>607</v>
@@ -10270,10 +10270,10 @@
         <v>478</v>
       </c>
       <c r="B475" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C475">
-        <v>98.718</v>
+        <v>98.83199999999999</v>
       </c>
       <c r="D475" t="s">
         <v>607</v>
@@ -10290,7 +10290,7 @@
         <v>605</v>
       </c>
       <c r="C476">
-        <v>99.258</v>
+        <v>100.399</v>
       </c>
       <c r="D476" t="s">
         <v>607</v>
@@ -10307,7 +10307,7 @@
         <v>605</v>
       </c>
       <c r="C477">
-        <v>99.65300000000001</v>
+        <v>102.394</v>
       </c>
       <c r="D477" t="s">
         <v>607</v>
@@ -10321,10 +10321,10 @@
         <v>481</v>
       </c>
       <c r="B478" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C478">
-        <v>105.837</v>
+        <v>108.329</v>
       </c>
       <c r="D478" t="s">
         <v>607</v>
@@ -10341,7 +10341,7 @@
         <v>605</v>
       </c>
       <c r="C479">
-        <v>98.658</v>
+        <v>102.177</v>
       </c>
       <c r="D479" t="s">
         <v>607</v>
@@ -10355,10 +10355,10 @@
         <v>483</v>
       </c>
       <c r="B480" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C480">
-        <v>93.961</v>
+        <v>90.31100000000001</v>
       </c>
       <c r="D480" t="s">
         <v>607</v>
@@ -10372,10 +10372,10 @@
         <v>484</v>
       </c>
       <c r="B481" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C481">
-        <v>108.685</v>
+        <v>100.792</v>
       </c>
       <c r="D481" t="s">
         <v>607</v>
@@ -10392,7 +10392,7 @@
         <v>606</v>
       </c>
       <c r="C482">
-        <v>101.583</v>
+        <v>98.509</v>
       </c>
       <c r="D482" t="s">
         <v>607</v>
@@ -10409,7 +10409,7 @@
         <v>606</v>
       </c>
       <c r="C483">
-        <v>104.484</v>
+        <v>98.738</v>
       </c>
       <c r="D483" t="s">
         <v>607</v>
@@ -10426,7 +10426,7 @@
         <v>605</v>
       </c>
       <c r="C484">
-        <v>97.517</v>
+        <v>103.715</v>
       </c>
       <c r="D484" t="s">
         <v>607</v>
@@ -10440,10 +10440,10 @@
         <v>488</v>
       </c>
       <c r="B485" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C485">
-        <v>103.553</v>
+        <v>108.664</v>
       </c>
       <c r="D485" t="s">
         <v>607</v>
@@ -10457,10 +10457,10 @@
         <v>489</v>
       </c>
       <c r="B486" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C486">
-        <v>91.798</v>
+        <v>88.127</v>
       </c>
       <c r="D486" t="s">
         <v>607</v>
@@ -10474,10 +10474,10 @@
         <v>490</v>
       </c>
       <c r="B487" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C487">
-        <v>101.204</v>
+        <v>105.585</v>
       </c>
       <c r="D487" t="s">
         <v>607</v>
@@ -10491,10 +10491,10 @@
         <v>491</v>
       </c>
       <c r="B488" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C488">
-        <v>97.78100000000001</v>
+        <v>99.52500000000001</v>
       </c>
       <c r="D488" t="s">
         <v>607</v>
@@ -10508,10 +10508,10 @@
         <v>492</v>
       </c>
       <c r="B489" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C489">
-        <v>97.108</v>
+        <v>94.977</v>
       </c>
       <c r="D489" t="s">
         <v>607</v>
@@ -10525,10 +10525,10 @@
         <v>493</v>
       </c>
       <c r="B490" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C490">
-        <v>100.435</v>
+        <v>100.294</v>
       </c>
       <c r="D490" t="s">
         <v>607</v>
@@ -10545,7 +10545,7 @@
         <v>605</v>
       </c>
       <c r="C491">
-        <v>97.142</v>
+        <v>100.754</v>
       </c>
       <c r="D491" t="s">
         <v>607</v>
@@ -10559,10 +10559,10 @@
         <v>495</v>
       </c>
       <c r="B492" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C492">
-        <v>103.516</v>
+        <v>103.531</v>
       </c>
       <c r="D492" t="s">
         <v>607</v>
@@ -10579,7 +10579,7 @@
         <v>605</v>
       </c>
       <c r="C493">
-        <v>97.754</v>
+        <v>102.404</v>
       </c>
       <c r="D493" t="s">
         <v>607</v>
@@ -10593,10 +10593,10 @@
         <v>497</v>
       </c>
       <c r="B494" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C494">
-        <v>98.572</v>
+        <v>98.773</v>
       </c>
       <c r="D494" t="s">
         <v>607</v>
@@ -10610,10 +10610,10 @@
         <v>498</v>
       </c>
       <c r="B495" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C495">
-        <v>98.40300000000001</v>
+        <v>99.578</v>
       </c>
       <c r="D495" t="s">
         <v>607</v>
@@ -10627,10 +10627,10 @@
         <v>499</v>
       </c>
       <c r="B496" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C496">
-        <v>99.76900000000001</v>
+        <v>90.26600000000001</v>
       </c>
       <c r="D496" t="s">
         <v>607</v>
@@ -10647,7 +10647,7 @@
         <v>605</v>
       </c>
       <c r="C497">
-        <v>98.467</v>
+        <v>102.272</v>
       </c>
       <c r="D497" t="s">
         <v>607</v>
@@ -10664,7 +10664,7 @@
         <v>605</v>
       </c>
       <c r="C498">
-        <v>96.20999999999999</v>
+        <v>104.831</v>
       </c>
       <c r="D498" t="s">
         <v>607</v>
@@ -10678,10 +10678,10 @@
         <v>502</v>
       </c>
       <c r="B499" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C499">
-        <v>96.871</v>
+        <v>98.494</v>
       </c>
       <c r="D499" t="s">
         <v>607</v>
@@ -10695,10 +10695,10 @@
         <v>503</v>
       </c>
       <c r="B500" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C500">
-        <v>85.547</v>
+        <v>93.599</v>
       </c>
       <c r="D500" t="s">
         <v>607</v>
@@ -10715,7 +10715,7 @@
         <v>605</v>
       </c>
       <c r="C501">
-        <v>99.98999999999999</v>
+        <v>101.529</v>
       </c>
       <c r="D501" t="s">
         <v>607</v>
@@ -10729,10 +10729,10 @@
         <v>505</v>
       </c>
       <c r="B502" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C502">
-        <v>96.502</v>
+        <v>98.596</v>
       </c>
       <c r="D502" t="s">
         <v>607</v>
@@ -10749,7 +10749,7 @@
         <v>606</v>
       </c>
       <c r="C503">
-        <v>104.279</v>
+        <v>99.40300000000001</v>
       </c>
       <c r="D503" t="s">
         <v>607</v>
@@ -10763,10 +10763,10 @@
         <v>507</v>
       </c>
       <c r="B504" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C504">
-        <v>100.294</v>
+        <v>102.071</v>
       </c>
       <c r="D504" t="s">
         <v>607</v>
@@ -10780,10 +10780,10 @@
         <v>508</v>
       </c>
       <c r="B505" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C505">
-        <v>97.584</v>
+        <v>99.372</v>
       </c>
       <c r="D505" t="s">
         <v>607</v>
@@ -10800,7 +10800,7 @@
         <v>605</v>
       </c>
       <c r="C506">
-        <v>99.849</v>
+        <v>100.152</v>
       </c>
       <c r="D506" t="s">
         <v>607</v>
@@ -10814,10 +10814,10 @@
         <v>510</v>
       </c>
       <c r="B507" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C507">
-        <v>106.772</v>
+        <v>105.77</v>
       </c>
       <c r="D507" t="s">
         <v>607</v>
@@ -10831,10 +10831,10 @@
         <v>511</v>
       </c>
       <c r="B508" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C508">
-        <v>102.481</v>
+        <v>104.248</v>
       </c>
       <c r="D508" t="s">
         <v>607</v>
@@ -10848,10 +10848,10 @@
         <v>512</v>
       </c>
       <c r="B509" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C509">
-        <v>102.557</v>
+        <v>106.575</v>
       </c>
       <c r="D509" t="s">
         <v>607</v>
@@ -10865,10 +10865,10 @@
         <v>513</v>
       </c>
       <c r="B510" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C510">
-        <v>105.955</v>
+        <v>100.636</v>
       </c>
       <c r="D510" t="s">
         <v>607</v>
@@ -10882,10 +10882,10 @@
         <v>514</v>
       </c>
       <c r="B511" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C511">
-        <v>107.027</v>
+        <v>121.798</v>
       </c>
       <c r="D511" t="s">
         <v>607</v>
@@ -10899,10 +10899,10 @@
         <v>515</v>
       </c>
       <c r="B512" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C512">
-        <v>94.256</v>
+        <v>97.327</v>
       </c>
       <c r="D512" t="s">
         <v>607</v>
@@ -10919,7 +10919,7 @@
         <v>606</v>
       </c>
       <c r="C513">
-        <v>100</v>
+        <v>88.235</v>
       </c>
       <c r="D513" t="s">
         <v>607</v>
@@ -10933,10 +10933,10 @@
         <v>517</v>
       </c>
       <c r="B514" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C514">
-        <v>101.802</v>
+        <v>100</v>
       </c>
       <c r="D514" t="s">
         <v>607</v>
@@ -10950,10 +10950,10 @@
         <v>518</v>
       </c>
       <c r="B515" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C515">
-        <v>97.712</v>
+        <v>94.048</v>
       </c>
       <c r="D515" t="s">
         <v>607</v>
@@ -10967,10 +10967,10 @@
         <v>519</v>
       </c>
       <c r="B516" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C516">
-        <v>100.673</v>
+        <v>101.99</v>
       </c>
       <c r="D516" t="s">
         <v>607</v>
@@ -10984,10 +10984,10 @@
         <v>520</v>
       </c>
       <c r="B517" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C517">
-        <v>75.146</v>
+        <v>92.76000000000001</v>
       </c>
       <c r="D517" t="s">
         <v>607</v>
@@ -11004,7 +11004,7 @@
         <v>605</v>
       </c>
       <c r="C518">
-        <v>90.191</v>
+        <v>111.98</v>
       </c>
       <c r="D518" t="s">
         <v>607</v>
@@ -11018,10 +11018,10 @@
         <v>522</v>
       </c>
       <c r="B519" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C519">
-        <v>105.765</v>
+        <v>102.096</v>
       </c>
       <c r="D519" t="s">
         <v>607</v>
@@ -11038,7 +11038,7 @@
         <v>605</v>
       </c>
       <c r="C520">
-        <v>93.113</v>
+        <v>114.878</v>
       </c>
       <c r="D520" t="s">
         <v>607</v>
@@ -11052,10 +11052,10 @@
         <v>524</v>
       </c>
       <c r="B521" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C521">
-        <v>98.941</v>
+        <v>94.367</v>
       </c>
       <c r="D521" t="s">
         <v>607</v>
@@ -11069,10 +11069,10 @@
         <v>233</v>
       </c>
       <c r="B522" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C522">
-        <v>103.247</v>
+        <v>105.148</v>
       </c>
       <c r="D522" t="s">
         <v>607</v>
@@ -11086,10 +11086,10 @@
         <v>525</v>
       </c>
       <c r="B523" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C523">
-        <v>88.482</v>
+        <v>74.92700000000001</v>
       </c>
       <c r="D523" t="s">
         <v>607</v>
@@ -11103,10 +11103,10 @@
         <v>526</v>
       </c>
       <c r="B524" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C524">
-        <v>86.053</v>
+        <v>97.004</v>
       </c>
       <c r="D524" t="s">
         <v>607</v>
@@ -11120,10 +11120,10 @@
         <v>527</v>
       </c>
       <c r="B525" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C525">
-        <v>86.301</v>
+        <v>88.98999999999999</v>
       </c>
       <c r="D525" t="s">
         <v>607</v>
@@ -11137,10 +11137,10 @@
         <v>528</v>
       </c>
       <c r="B526" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C526">
-        <v>110.294</v>
+        <v>106.923</v>
       </c>
       <c r="D526" t="s">
         <v>607</v>
@@ -11154,10 +11154,10 @@
         <v>529</v>
       </c>
       <c r="B527" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C527">
-        <v>104.597</v>
+        <v>106.675</v>
       </c>
       <c r="D527" t="s">
         <v>607</v>
@@ -11171,10 +11171,10 @@
         <v>530</v>
       </c>
       <c r="B528" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C528">
-        <v>92.611</v>
+        <v>90.056</v>
       </c>
       <c r="D528" t="s">
         <v>607</v>
@@ -11188,10 +11188,10 @@
         <v>531</v>
       </c>
       <c r="B529" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C529">
-        <v>111.915</v>
+        <v>123.554</v>
       </c>
       <c r="D529" t="s">
         <v>607</v>
@@ -11205,10 +11205,10 @@
         <v>532</v>
       </c>
       <c r="B530" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C530">
-        <v>84.11199999999999</v>
+        <v>92.258</v>
       </c>
       <c r="D530" t="s">
         <v>607</v>
@@ -11222,10 +11222,10 @@
         <v>533</v>
       </c>
       <c r="B531" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C531">
-        <v>101.987</v>
+        <v>149.508</v>
       </c>
       <c r="D531" t="s">
         <v>607</v>
@@ -11239,10 +11239,10 @@
         <v>534</v>
       </c>
       <c r="B532" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C532">
-        <v>101.765</v>
+        <v>114.706</v>
       </c>
       <c r="D532" t="s">
         <v>607</v>
@@ -11256,10 +11256,10 @@
         <v>535</v>
       </c>
       <c r="B533" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C533">
-        <v>98.371</v>
+        <v>97.697</v>
       </c>
       <c r="D533" t="s">
         <v>607</v>
@@ -11273,10 +11273,10 @@
         <v>536</v>
       </c>
       <c r="B534" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C534">
-        <v>101.497</v>
+        <v>100.141</v>
       </c>
       <c r="D534" t="s">
         <v>607</v>
@@ -11290,10 +11290,10 @@
         <v>537</v>
       </c>
       <c r="B535" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C535">
-        <v>100.219</v>
+        <v>103.474</v>
       </c>
       <c r="D535" t="s">
         <v>607</v>
@@ -11307,10 +11307,10 @@
         <v>538</v>
       </c>
       <c r="B536" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C536">
-        <v>110.632</v>
+        <v>107.72</v>
       </c>
       <c r="D536" t="s">
         <v>607</v>
@@ -11324,10 +11324,10 @@
         <v>539</v>
       </c>
       <c r="B537" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C537">
-        <v>95</v>
+        <v>96.10599999999999</v>
       </c>
       <c r="D537" t="s">
         <v>607</v>
@@ -11341,10 +11341,10 @@
         <v>383</v>
       </c>
       <c r="B538" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C538">
-        <v>104.458</v>
+        <v>101.553</v>
       </c>
       <c r="D538" t="s">
         <v>607</v>
@@ -11361,7 +11361,7 @@
         <v>605</v>
       </c>
       <c r="C539">
-        <v>97.712</v>
+        <v>102.807</v>
       </c>
       <c r="D539" t="s">
         <v>607</v>
@@ -11375,10 +11375,10 @@
         <v>541</v>
       </c>
       <c r="B540" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C540">
-        <v>105.495</v>
+        <v>101.361</v>
       </c>
       <c r="D540" t="s">
         <v>607</v>
@@ -11395,7 +11395,7 @@
         <v>606</v>
       </c>
       <c r="C541">
-        <v>102.679</v>
+        <v>97.45999999999999</v>
       </c>
       <c r="D541" t="s">
         <v>607</v>
@@ -11412,7 +11412,7 @@
         <v>605</v>
       </c>
       <c r="C542">
-        <v>93.922</v>
+        <v>102.759</v>
       </c>
       <c r="D542" t="s">
         <v>607</v>
@@ -11426,10 +11426,10 @@
         <v>544</v>
       </c>
       <c r="B543" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C543">
-        <v>103.913</v>
+        <v>102.3</v>
       </c>
       <c r="D543" t="s">
         <v>607</v>
@@ -11443,10 +11443,10 @@
         <v>545</v>
       </c>
       <c r="B544" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C544">
-        <v>111.111</v>
+        <v>104.691</v>
       </c>
       <c r="D544" t="s">
         <v>607</v>
@@ -11463,7 +11463,7 @@
         <v>606</v>
       </c>
       <c r="C545">
-        <v>102.502</v>
+        <v>88.08799999999999</v>
       </c>
       <c r="D545" t="s">
         <v>607</v>
@@ -11477,10 +11477,10 @@
         <v>547</v>
       </c>
       <c r="B546" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C546">
-        <v>100.096</v>
+        <v>101.013</v>
       </c>
       <c r="D546" t="s">
         <v>607</v>
@@ -11494,10 +11494,10 @@
         <v>548</v>
       </c>
       <c r="B547" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C547">
-        <v>96.834</v>
+        <v>96.246</v>
       </c>
       <c r="D547" t="s">
         <v>607</v>
@@ -11511,10 +11511,10 @@
         <v>549</v>
       </c>
       <c r="B548" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C548">
-        <v>109.684</v>
+        <v>113.797</v>
       </c>
       <c r="D548" t="s">
         <v>607</v>
@@ -11531,7 +11531,7 @@
         <v>606</v>
       </c>
       <c r="C549">
-        <v>100.575</v>
+        <v>96.74299999999999</v>
       </c>
       <c r="D549" t="s">
         <v>607</v>
@@ -11548,7 +11548,7 @@
         <v>606</v>
       </c>
       <c r="C550">
-        <v>102.267</v>
+        <v>96.509</v>
       </c>
       <c r="D550" t="s">
         <v>607</v>
@@ -11562,10 +11562,10 @@
         <v>552</v>
       </c>
       <c r="B551" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C551">
-        <v>98.848</v>
+        <v>95.809</v>
       </c>
       <c r="D551" t="s">
         <v>607</v>
@@ -11579,10 +11579,10 @@
         <v>553</v>
       </c>
       <c r="B552" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C552">
-        <v>104.84</v>
+        <v>101.116</v>
       </c>
       <c r="D552" t="s">
         <v>607</v>
@@ -11596,10 +11596,10 @@
         <v>554</v>
       </c>
       <c r="B553" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C553">
-        <v>102.015</v>
+        <v>104.627</v>
       </c>
       <c r="D553" t="s">
         <v>607</v>
@@ -11613,10 +11613,10 @@
         <v>555</v>
       </c>
       <c r="B554" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C554">
-        <v>107.692</v>
+        <v>111.111</v>
       </c>
       <c r="D554" t="s">
         <v>607</v>
@@ -11633,7 +11633,7 @@
         <v>605</v>
       </c>
       <c r="C555">
-        <v>98.117</v>
+        <v>103.366</v>
       </c>
       <c r="D555" t="s">
         <v>607</v>
@@ -11647,10 +11647,10 @@
         <v>557</v>
       </c>
       <c r="B556" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C556">
-        <v>105.813</v>
+        <v>105.168</v>
       </c>
       <c r="D556" t="s">
         <v>607</v>
@@ -11664,10 +11664,10 @@
         <v>558</v>
       </c>
       <c r="B557" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C557">
-        <v>103.747</v>
+        <v>101.117</v>
       </c>
       <c r="D557" t="s">
         <v>607</v>
@@ -11681,10 +11681,10 @@
         <v>559</v>
       </c>
       <c r="B558" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C558">
-        <v>102.988</v>
+        <v>106.519</v>
       </c>
       <c r="D558" t="s">
         <v>607</v>
@@ -11698,10 +11698,10 @@
         <v>560</v>
       </c>
       <c r="B559" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C559">
-        <v>97.867</v>
+        <v>98.246</v>
       </c>
       <c r="D559" t="s">
         <v>607</v>
@@ -11715,10 +11715,10 @@
         <v>561</v>
       </c>
       <c r="B560" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C560">
-        <v>104.692</v>
+        <v>107.379</v>
       </c>
       <c r="D560" t="s">
         <v>607</v>
@@ -11735,7 +11735,7 @@
         <v>606</v>
       </c>
       <c r="C561">
-        <v>102.662</v>
+        <v>99.45</v>
       </c>
       <c r="D561" t="s">
         <v>607</v>
@@ -11749,10 +11749,10 @@
         <v>563</v>
       </c>
       <c r="B562" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C562">
-        <v>99.071</v>
+        <v>99.59099999999999</v>
       </c>
       <c r="D562" t="s">
         <v>607</v>
@@ -11766,10 +11766,10 @@
         <v>564</v>
       </c>
       <c r="B563" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C563">
-        <v>101.75</v>
+        <v>103.876</v>
       </c>
       <c r="D563" t="s">
         <v>607</v>
@@ -11786,7 +11786,7 @@
         <v>606</v>
       </c>
       <c r="C564">
-        <v>102.375</v>
+        <v>95.47799999999999</v>
       </c>
       <c r="D564" t="s">
         <v>607</v>
@@ -11800,10 +11800,10 @@
         <v>566</v>
       </c>
       <c r="B565" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C565">
-        <v>96.503</v>
+        <v>91.84999999999999</v>
       </c>
       <c r="D565" t="s">
         <v>607</v>
@@ -11817,10 +11817,10 @@
         <v>567</v>
       </c>
       <c r="B566" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C566">
-        <v>91.63500000000001</v>
+        <v>96.056</v>
       </c>
       <c r="D566" t="s">
         <v>607</v>
@@ -11834,10 +11834,10 @@
         <v>568</v>
       </c>
       <c r="B567" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C567">
-        <v>105.939</v>
+        <v>109.135</v>
       </c>
       <c r="D567" t="s">
         <v>607</v>
@@ -11851,10 +11851,10 @@
         <v>569</v>
       </c>
       <c r="B568" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C568">
-        <v>100.895</v>
+        <v>103.689</v>
       </c>
       <c r="D568" t="s">
         <v>607</v>
@@ -11868,10 +11868,10 @@
         <v>570</v>
       </c>
       <c r="B569" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C569">
-        <v>101.567</v>
+        <v>104.13</v>
       </c>
       <c r="D569" t="s">
         <v>607</v>
@@ -11885,10 +11885,10 @@
         <v>571</v>
       </c>
       <c r="B570" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C570">
-        <v>104.894</v>
+        <v>105.168</v>
       </c>
       <c r="D570" t="s">
         <v>607</v>
@@ -11905,7 +11905,7 @@
         <v>605</v>
       </c>
       <c r="C571">
-        <v>93.56699999999999</v>
+        <v>101.97</v>
       </c>
       <c r="D571" t="s">
         <v>607</v>
@@ -11919,10 +11919,10 @@
         <v>573</v>
       </c>
       <c r="B572" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C572">
-        <v>103.359</v>
+        <v>103.719</v>
       </c>
       <c r="D572" t="s">
         <v>607</v>
@@ -11939,7 +11939,7 @@
         <v>606</v>
       </c>
       <c r="C573">
-        <v>101.488</v>
+        <v>99.767</v>
       </c>
       <c r="D573" t="s">
         <v>607</v>
@@ -11953,10 +11953,10 @@
         <v>575</v>
       </c>
       <c r="B574" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C574">
-        <v>91.01900000000001</v>
+        <v>94.56399999999999</v>
       </c>
       <c r="D574" t="s">
         <v>607</v>
@@ -11973,7 +11973,7 @@
         <v>605</v>
       </c>
       <c r="C575">
-        <v>98.15600000000001</v>
+        <v>107.307</v>
       </c>
       <c r="D575" t="s">
         <v>607</v>
@@ -11987,10 +11987,10 @@
         <v>577</v>
       </c>
       <c r="B576" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C576">
-        <v>102.618</v>
+        <v>106.642</v>
       </c>
       <c r="D576" t="s">
         <v>607</v>
@@ -12004,10 +12004,10 @@
         <v>578</v>
       </c>
       <c r="B577" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C577">
-        <v>104.528</v>
+        <v>103.49</v>
       </c>
       <c r="D577" t="s">
         <v>607</v>
@@ -12024,7 +12024,7 @@
         <v>605</v>
       </c>
       <c r="C578">
-        <v>99.983</v>
+        <v>104.334</v>
       </c>
       <c r="D578" t="s">
         <v>607</v>
@@ -12038,10 +12038,10 @@
         <v>580</v>
       </c>
       <c r="B579" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C579">
-        <v>101.138</v>
+        <v>106.684</v>
       </c>
       <c r="D579" t="s">
         <v>607</v>
@@ -12055,10 +12055,10 @@
         <v>581</v>
       </c>
       <c r="B580" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C580">
-        <v>99.01300000000001</v>
+        <v>99.206</v>
       </c>
       <c r="D580" t="s">
         <v>607</v>
@@ -12075,7 +12075,7 @@
         <v>605</v>
       </c>
       <c r="C581">
-        <v>94.66200000000001</v>
+        <v>106.076</v>
       </c>
       <c r="D581" t="s">
         <v>607</v>
@@ -12092,7 +12092,7 @@
         <v>605</v>
       </c>
       <c r="C582">
-        <v>98.054</v>
+        <v>103.263</v>
       </c>
       <c r="D582" t="s">
         <v>607</v>
@@ -12106,10 +12106,10 @@
         <v>584</v>
       </c>
       <c r="B583" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C583">
-        <v>103.547</v>
+        <v>103.314</v>
       </c>
       <c r="D583" t="s">
         <v>607</v>
@@ -12126,7 +12126,7 @@
         <v>605</v>
       </c>
       <c r="C584">
-        <v>98.831</v>
+        <v>105.234</v>
       </c>
       <c r="D584" t="s">
         <v>607</v>
@@ -12140,10 +12140,10 @@
         <v>586</v>
       </c>
       <c r="B585" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C585">
-        <v>103.234</v>
+        <v>100.588</v>
       </c>
       <c r="D585" t="s">
         <v>607</v>
@@ -12157,10 +12157,10 @@
         <v>587</v>
       </c>
       <c r="B586" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C586">
-        <v>102.441</v>
+        <v>101.042</v>
       </c>
       <c r="D586" t="s">
         <v>607</v>
@@ -12174,10 +12174,10 @@
         <v>588</v>
       </c>
       <c r="B587" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C587">
-        <v>113.551</v>
+        <v>101.876</v>
       </c>
       <c r="D587" t="s">
         <v>607</v>
@@ -12194,7 +12194,7 @@
         <v>606</v>
       </c>
       <c r="C588">
-        <v>101.333</v>
+        <v>97.82599999999999</v>
       </c>
       <c r="D588" t="s">
         <v>607</v>
@@ -12208,10 +12208,10 @@
         <v>590</v>
       </c>
       <c r="B589" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C589">
-        <v>105.442</v>
+        <v>105.126</v>
       </c>
       <c r="D589" t="s">
         <v>607</v>
@@ -12228,7 +12228,7 @@
         <v>605</v>
       </c>
       <c r="C590">
-        <v>97.336</v>
+        <v>105.645</v>
       </c>
       <c r="D590" t="s">
         <v>607</v>
@@ -12242,10 +12242,10 @@
         <v>592</v>
       </c>
       <c r="B591" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C591">
-        <v>101.244</v>
+        <v>103.056</v>
       </c>
       <c r="D591" t="s">
         <v>607</v>
@@ -12259,10 +12259,10 @@
         <v>593</v>
       </c>
       <c r="B592" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C592">
-        <v>105.773</v>
+        <v>104.55</v>
       </c>
       <c r="D592" t="s">
         <v>607</v>
@@ -12276,10 +12276,10 @@
         <v>594</v>
       </c>
       <c r="B593" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C593">
-        <v>82.86199999999999</v>
+        <v>85.434</v>
       </c>
       <c r="D593" t="s">
         <v>607</v>
@@ -12293,10 +12293,10 @@
         <v>595</v>
       </c>
       <c r="B594" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C594">
-        <v>103.331</v>
+        <v>108.264</v>
       </c>
       <c r="D594" t="s">
         <v>607</v>
@@ -12313,7 +12313,7 @@
         <v>605</v>
       </c>
       <c r="C595">
-        <v>99.702</v>
+        <v>103.505</v>
       </c>
       <c r="D595" t="s">
         <v>607</v>
@@ -12327,10 +12327,10 @@
         <v>597</v>
       </c>
       <c r="B596" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C596">
-        <v>103.524</v>
+        <v>103.434</v>
       </c>
       <c r="D596" t="s">
         <v>607</v>
@@ -12347,7 +12347,7 @@
         <v>605</v>
       </c>
       <c r="C597">
-        <v>97.97199999999999</v>
+        <v>100.317</v>
       </c>
       <c r="D597" t="s">
         <v>607</v>
@@ -12361,10 +12361,10 @@
         <v>599</v>
       </c>
       <c r="B598" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C598">
-        <v>91.869</v>
+        <v>93.70699999999999</v>
       </c>
       <c r="D598" t="s">
         <v>607</v>
@@ -12378,10 +12378,10 @@
         <v>600</v>
       </c>
       <c r="B599" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C599">
-        <v>93.92700000000001</v>
+        <v>98.157</v>
       </c>
       <c r="D599" t="s">
         <v>607</v>
@@ -12395,10 +12395,10 @@
         <v>601</v>
       </c>
       <c r="B600" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C600">
-        <v>101.919</v>
+        <v>108.175</v>
       </c>
       <c r="D600" t="s">
         <v>607</v>
@@ -12415,7 +12415,7 @@
         <v>605</v>
       </c>
       <c r="C601">
-        <v>98.60299999999999</v>
+        <v>103.763</v>
       </c>
       <c r="D601" t="s">
         <v>607</v>
@@ -12429,10 +12429,10 @@
         <v>603</v>
       </c>
       <c r="B602" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C602">
-        <v>101.984</v>
+        <v>101.119</v>
       </c>
       <c r="D602" t="s">
         <v>607</v>
@@ -12446,10 +12446,10 @@
         <v>604</v>
       </c>
       <c r="B603" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C603">
-        <v>80.96599999999999</v>
+        <v>93.931</v>
       </c>
       <c r="D603" t="s">
         <v>607</v>

--- a/generated_reports/tradfi_momentum.xlsx
+++ b/generated_reports/tradfi_momentum.xlsx
@@ -1831,10 +1831,10 @@
     <t>MDB</t>
   </si>
   <si>
+    <t>Down</t>
+  </si>
+  <si>
     <t>Up</t>
-  </si>
-  <si>
-    <t>Down</t>
   </si>
   <si>
     <t>10 days</t>
@@ -2232,7 +2232,7 @@
         <v>605</v>
       </c>
       <c r="C2">
-        <v>100.375</v>
+        <v>99.72799999999999</v>
       </c>
       <c r="D2" t="s">
         <v>607</v>
@@ -2246,10 +2246,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C3">
-        <v>105.699</v>
+        <v>105.987</v>
       </c>
       <c r="D3" t="s">
         <v>607</v>
@@ -2263,10 +2263,10 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C4">
-        <v>101.597</v>
+        <v>104.018</v>
       </c>
       <c r="D4" t="s">
         <v>607</v>
@@ -2280,10 +2280,10 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C5">
-        <v>104.464</v>
+        <v>109.927</v>
       </c>
       <c r="D5" t="s">
         <v>607</v>
@@ -2297,10 +2297,10 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C6">
-        <v>100.358</v>
+        <v>105.374</v>
       </c>
       <c r="D6" t="s">
         <v>607</v>
@@ -2314,10 +2314,10 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C7">
-        <v>101.108</v>
+        <v>104.667</v>
       </c>
       <c r="D7" t="s">
         <v>607</v>
@@ -2331,10 +2331,10 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C8">
-        <v>109.002</v>
+        <v>109.516</v>
       </c>
       <c r="D8" t="s">
         <v>607</v>
@@ -2348,10 +2348,10 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C9">
-        <v>98.563</v>
+        <v>96.096</v>
       </c>
       <c r="D9" t="s">
         <v>607</v>
@@ -2365,10 +2365,10 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C10">
-        <v>92.67</v>
+        <v>89.133</v>
       </c>
       <c r="D10" t="s">
         <v>607</v>
@@ -2382,10 +2382,10 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C11">
-        <v>102.343</v>
+        <v>102.902</v>
       </c>
       <c r="D11" t="s">
         <v>607</v>
@@ -2399,10 +2399,10 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C12">
-        <v>105.765</v>
+        <v>104.425</v>
       </c>
       <c r="D12" t="s">
         <v>607</v>
@@ -2416,10 +2416,10 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C13">
-        <v>86.157</v>
+        <v>90.554</v>
       </c>
       <c r="D13" t="s">
         <v>607</v>
@@ -2433,10 +2433,10 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C14">
-        <v>102.958</v>
+        <v>104.506</v>
       </c>
       <c r="D14" t="s">
         <v>607</v>
@@ -2453,7 +2453,7 @@
         <v>605</v>
       </c>
       <c r="C15">
-        <v>100.768</v>
+        <v>99.124</v>
       </c>
       <c r="D15" t="s">
         <v>607</v>
@@ -2467,10 +2467,10 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C16">
-        <v>98.134</v>
+        <v>97.48099999999999</v>
       </c>
       <c r="D16" t="s">
         <v>607</v>
@@ -2484,10 +2484,10 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C17">
-        <v>96.40900000000001</v>
+        <v>94.895</v>
       </c>
       <c r="D17" t="s">
         <v>607</v>
@@ -2504,7 +2504,7 @@
         <v>605</v>
       </c>
       <c r="C18">
-        <v>100.728</v>
+        <v>98.163</v>
       </c>
       <c r="D18" t="s">
         <v>607</v>
@@ -2518,10 +2518,10 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C19">
-        <v>99.932</v>
+        <v>98.905</v>
       </c>
       <c r="D19" t="s">
         <v>607</v>
@@ -2535,10 +2535,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C20">
-        <v>101.169</v>
+        <v>100.294</v>
       </c>
       <c r="D20" t="s">
         <v>607</v>
@@ -2555,7 +2555,7 @@
         <v>605</v>
       </c>
       <c r="C21">
-        <v>100.168</v>
+        <v>99.018</v>
       </c>
       <c r="D21" t="s">
         <v>607</v>
@@ -2569,10 +2569,10 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C22">
-        <v>100.314</v>
+        <v>100.22</v>
       </c>
       <c r="D22" t="s">
         <v>607</v>
@@ -2586,10 +2586,10 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C23">
-        <v>102.549</v>
+        <v>104.41</v>
       </c>
       <c r="D23" t="s">
         <v>607</v>
@@ -2603,10 +2603,10 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C24">
-        <v>104.651</v>
+        <v>103.483</v>
       </c>
       <c r="D24" t="s">
         <v>607</v>
@@ -2623,7 +2623,7 @@
         <v>605</v>
       </c>
       <c r="C25">
-        <v>100.659</v>
+        <v>98.523</v>
       </c>
       <c r="D25" t="s">
         <v>607</v>
@@ -2637,10 +2637,10 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C26">
-        <v>100.028</v>
+        <v>104.004</v>
       </c>
       <c r="D26" t="s">
         <v>607</v>
@@ -2654,10 +2654,10 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C27">
-        <v>97.298</v>
+        <v>96.402</v>
       </c>
       <c r="D27" t="s">
         <v>607</v>
@@ -2671,10 +2671,10 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C28">
-        <v>100.501</v>
+        <v>100</v>
       </c>
       <c r="D28" t="s">
         <v>607</v>
@@ -2688,10 +2688,10 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C29">
-        <v>102.709</v>
+        <v>105.015</v>
       </c>
       <c r="D29" t="s">
         <v>607</v>
@@ -2705,10 +2705,10 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C30">
-        <v>102.702</v>
+        <v>101.442</v>
       </c>
       <c r="D30" t="s">
         <v>607</v>
@@ -2722,10 +2722,10 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C31">
-        <v>99.59699999999999</v>
+        <v>97.629</v>
       </c>
       <c r="D31" t="s">
         <v>607</v>
@@ -2739,10 +2739,10 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C32">
-        <v>110.839</v>
+        <v>109.92</v>
       </c>
       <c r="D32" t="s">
         <v>607</v>
@@ -2756,10 +2756,10 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C33">
-        <v>100.513</v>
+        <v>100.287</v>
       </c>
       <c r="D33" t="s">
         <v>607</v>
@@ -2773,10 +2773,10 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C34">
-        <v>102.652</v>
+        <v>101.218</v>
       </c>
       <c r="D34" t="s">
         <v>607</v>
@@ -2793,7 +2793,7 @@
         <v>606</v>
       </c>
       <c r="C35">
-        <v>99.91500000000001</v>
+        <v>100.29</v>
       </c>
       <c r="D35" t="s">
         <v>607</v>
@@ -2807,10 +2807,10 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C36">
-        <v>112.528</v>
+        <v>116.612</v>
       </c>
       <c r="D36" t="s">
         <v>607</v>
@@ -2824,10 +2824,10 @@
         <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C37">
-        <v>105.377</v>
+        <v>105.109</v>
       </c>
       <c r="D37" t="s">
         <v>607</v>
@@ -2841,10 +2841,10 @@
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C38">
-        <v>102.856</v>
+        <v>101.594</v>
       </c>
       <c r="D38" t="s">
         <v>607</v>
@@ -2858,10 +2858,10 @@
         <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C39">
-        <v>101.991</v>
+        <v>103.674</v>
       </c>
       <c r="D39" t="s">
         <v>607</v>
@@ -2875,10 +2875,10 @@
         <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C40">
-        <v>104.601</v>
+        <v>105.56</v>
       </c>
       <c r="D40" t="s">
         <v>607</v>
@@ -2892,10 +2892,10 @@
         <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C41">
-        <v>99.16200000000001</v>
+        <v>98.18600000000001</v>
       </c>
       <c r="D41" t="s">
         <v>607</v>
@@ -2909,10 +2909,10 @@
         <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C42">
-        <v>112.083</v>
+        <v>107.806</v>
       </c>
       <c r="D42" t="s">
         <v>607</v>
@@ -2926,10 +2926,10 @@
         <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C43">
-        <v>101.994</v>
+        <v>102.692</v>
       </c>
       <c r="D43" t="s">
         <v>607</v>
@@ -2946,7 +2946,7 @@
         <v>606</v>
       </c>
       <c r="C44">
-        <v>99.64400000000001</v>
+        <v>101.796</v>
       </c>
       <c r="D44" t="s">
         <v>607</v>
@@ -2963,7 +2963,7 @@
         <v>605</v>
       </c>
       <c r="C45">
-        <v>104.007</v>
+        <v>88.07899999999999</v>
       </c>
       <c r="D45" t="s">
         <v>607</v>
@@ -2977,10 +2977,10 @@
         <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C46">
-        <v>101.983</v>
+        <v>102.988</v>
       </c>
       <c r="D46" t="s">
         <v>607</v>
@@ -2994,10 +2994,10 @@
         <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C47">
-        <v>107.262</v>
+        <v>107.494</v>
       </c>
       <c r="D47" t="s">
         <v>607</v>
@@ -3011,10 +3011,10 @@
         <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C48">
-        <v>101.183</v>
+        <v>100.575</v>
       </c>
       <c r="D48" t="s">
         <v>607</v>
@@ -3028,10 +3028,10 @@
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C49">
-        <v>104.604</v>
+        <v>104.042</v>
       </c>
       <c r="D49" t="s">
         <v>607</v>
@@ -3045,10 +3045,10 @@
         <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C50">
-        <v>102.685</v>
+        <v>102.393</v>
       </c>
       <c r="D50" t="s">
         <v>607</v>
@@ -3062,10 +3062,10 @@
         <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C51">
-        <v>97.651</v>
+        <v>96.46299999999999</v>
       </c>
       <c r="D51" t="s">
         <v>607</v>
@@ -3082,7 +3082,7 @@
         <v>605</v>
       </c>
       <c r="C52">
-        <v>103.816</v>
+        <v>97.435</v>
       </c>
       <c r="D52" t="s">
         <v>607</v>
@@ -3096,10 +3096,10 @@
         <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C53">
-        <v>102.047</v>
+        <v>103.217</v>
       </c>
       <c r="D53" t="s">
         <v>607</v>
@@ -3113,10 +3113,10 @@
         <v>57</v>
       </c>
       <c r="B54" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C54">
-        <v>108.522</v>
+        <v>108.524</v>
       </c>
       <c r="D54" t="s">
         <v>607</v>
@@ -3133,7 +3133,7 @@
         <v>605</v>
       </c>
       <c r="C55">
-        <v>100.034</v>
+        <v>97.20699999999999</v>
       </c>
       <c r="D55" t="s">
         <v>607</v>
@@ -3147,10 +3147,10 @@
         <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C56">
-        <v>105.515</v>
+        <v>101.781</v>
       </c>
       <c r="D56" t="s">
         <v>607</v>
@@ -3164,10 +3164,10 @@
         <v>60</v>
       </c>
       <c r="B57" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C57">
-        <v>88.292</v>
+        <v>91.95699999999999</v>
       </c>
       <c r="D57" t="s">
         <v>607</v>
@@ -3181,10 +3181,10 @@
         <v>61</v>
       </c>
       <c r="B58" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C58">
-        <v>104.094</v>
+        <v>105.281</v>
       </c>
       <c r="D58" t="s">
         <v>607</v>
@@ -3201,7 +3201,7 @@
         <v>605</v>
       </c>
       <c r="C59">
-        <v>100.995</v>
+        <v>99.657</v>
       </c>
       <c r="D59" t="s">
         <v>607</v>
@@ -3215,10 +3215,10 @@
         <v>63</v>
       </c>
       <c r="B60" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C60">
-        <v>101.51</v>
+        <v>101.706</v>
       </c>
       <c r="D60" t="s">
         <v>607</v>
@@ -3235,7 +3235,7 @@
         <v>606</v>
       </c>
       <c r="C61">
-        <v>98.64</v>
+        <v>100.105</v>
       </c>
       <c r="D61" t="s">
         <v>607</v>
@@ -3249,10 +3249,10 @@
         <v>65</v>
       </c>
       <c r="B62" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C62">
-        <v>102.181</v>
+        <v>102.487</v>
       </c>
       <c r="D62" t="s">
         <v>607</v>
@@ -3269,7 +3269,7 @@
         <v>605</v>
       </c>
       <c r="C63">
-        <v>101.25</v>
+        <v>99.342</v>
       </c>
       <c r="D63" t="s">
         <v>607</v>
@@ -3283,10 +3283,10 @@
         <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C64">
-        <v>94.777</v>
+        <v>96.792</v>
       </c>
       <c r="D64" t="s">
         <v>607</v>
@@ -3300,10 +3300,10 @@
         <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C65">
-        <v>96.104</v>
+        <v>95.578</v>
       </c>
       <c r="D65" t="s">
         <v>607</v>
@@ -3317,10 +3317,10 @@
         <v>69</v>
       </c>
       <c r="B66" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C66">
-        <v>99.117</v>
+        <v>99.068</v>
       </c>
       <c r="D66" t="s">
         <v>607</v>
@@ -3334,10 +3334,10 @@
         <v>70</v>
       </c>
       <c r="B67" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C67">
-        <v>103.86</v>
+        <v>101.892</v>
       </c>
       <c r="D67" t="s">
         <v>607</v>
@@ -3354,7 +3354,7 @@
         <v>605</v>
       </c>
       <c r="C68">
-        <v>100.189</v>
+        <v>98.682</v>
       </c>
       <c r="D68" t="s">
         <v>607</v>
@@ -3368,10 +3368,10 @@
         <v>72</v>
       </c>
       <c r="B69" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C69">
-        <v>98.024</v>
+        <v>96.321</v>
       </c>
       <c r="D69" t="s">
         <v>607</v>
@@ -3385,10 +3385,10 @@
         <v>73</v>
       </c>
       <c r="B70" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C70">
-        <v>102.087</v>
+        <v>106.152</v>
       </c>
       <c r="D70" t="s">
         <v>607</v>
@@ -3402,10 +3402,10 @@
         <v>74</v>
       </c>
       <c r="B71" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C71">
-        <v>99.53400000000001</v>
+        <v>97.916</v>
       </c>
       <c r="D71" t="s">
         <v>607</v>
@@ -3419,10 +3419,10 @@
         <v>75</v>
       </c>
       <c r="B72" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C72">
-        <v>94.542</v>
+        <v>93.425</v>
       </c>
       <c r="D72" t="s">
         <v>607</v>
@@ -3436,10 +3436,10 @@
         <v>76</v>
       </c>
       <c r="B73" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C73">
-        <v>103.689</v>
+        <v>105.086</v>
       </c>
       <c r="D73" t="s">
         <v>607</v>
@@ -3453,10 +3453,10 @@
         <v>77</v>
       </c>
       <c r="B74" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C74">
-        <v>98.88500000000001</v>
+        <v>94.797</v>
       </c>
       <c r="D74" t="s">
         <v>607</v>
@@ -3470,10 +3470,10 @@
         <v>78</v>
       </c>
       <c r="B75" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C75">
-        <v>99.738</v>
+        <v>98.89700000000001</v>
       </c>
       <c r="D75" t="s">
         <v>607</v>
@@ -3487,10 +3487,10 @@
         <v>79</v>
       </c>
       <c r="B76" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C76">
-        <v>101.278</v>
+        <v>101.293</v>
       </c>
       <c r="D76" t="s">
         <v>607</v>
@@ -3504,10 +3504,10 @@
         <v>80</v>
       </c>
       <c r="B77" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C77">
-        <v>113.494</v>
+        <v>110.264</v>
       </c>
       <c r="D77" t="s">
         <v>607</v>
@@ -3521,10 +3521,10 @@
         <v>81</v>
       </c>
       <c r="B78" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C78">
-        <v>95.985</v>
+        <v>91.52</v>
       </c>
       <c r="D78" t="s">
         <v>607</v>
@@ -3541,7 +3541,7 @@
         <v>605</v>
       </c>
       <c r="C79">
-        <v>102.509</v>
+        <v>98.79000000000001</v>
       </c>
       <c r="D79" t="s">
         <v>607</v>
@@ -3555,10 +3555,10 @@
         <v>83</v>
       </c>
       <c r="B80" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C80">
-        <v>110.327</v>
+        <v>106.837</v>
       </c>
       <c r="D80" t="s">
         <v>607</v>
@@ -3572,10 +3572,10 @@
         <v>84</v>
       </c>
       <c r="B81" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C81">
-        <v>97.15600000000001</v>
+        <v>96.48399999999999</v>
       </c>
       <c r="D81" t="s">
         <v>607</v>
@@ -3589,10 +3589,10 @@
         <v>85</v>
       </c>
       <c r="B82" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C82">
-        <v>104.253</v>
+        <v>104.432</v>
       </c>
       <c r="D82" t="s">
         <v>607</v>
@@ -3609,7 +3609,7 @@
         <v>605</v>
       </c>
       <c r="C83">
-        <v>101.029</v>
+        <v>94.151</v>
       </c>
       <c r="D83" t="s">
         <v>607</v>
@@ -3623,10 +3623,10 @@
         <v>87</v>
       </c>
       <c r="B84" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C84">
-        <v>94.473</v>
+        <v>89.28700000000001</v>
       </c>
       <c r="D84" t="s">
         <v>607</v>
@@ -3643,7 +3643,7 @@
         <v>605</v>
       </c>
       <c r="C85">
-        <v>100.134</v>
+        <v>97.66200000000001</v>
       </c>
       <c r="D85" t="s">
         <v>607</v>
@@ -3657,10 +3657,10 @@
         <v>89</v>
       </c>
       <c r="B86" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C86">
-        <v>99.688</v>
+        <v>97.116</v>
       </c>
       <c r="D86" t="s">
         <v>607</v>
@@ -3674,10 +3674,10 @@
         <v>90</v>
       </c>
       <c r="B87" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C87">
-        <v>86.005</v>
+        <v>84.369</v>
       </c>
       <c r="D87" t="s">
         <v>607</v>
@@ -3691,10 +3691,10 @@
         <v>91</v>
       </c>
       <c r="B88" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C88">
-        <v>99.88500000000001</v>
+        <v>93.054</v>
       </c>
       <c r="D88" t="s">
         <v>607</v>
@@ -3708,10 +3708,10 @@
         <v>92</v>
       </c>
       <c r="B89" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C89">
-        <v>106.061</v>
+        <v>105.528</v>
       </c>
       <c r="D89" t="s">
         <v>607</v>
@@ -3725,10 +3725,10 @@
         <v>93</v>
       </c>
       <c r="B90" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C90">
-        <v>103.906</v>
+        <v>104.698</v>
       </c>
       <c r="D90" t="s">
         <v>607</v>
@@ -3745,7 +3745,7 @@
         <v>605</v>
       </c>
       <c r="C91">
-        <v>103.236</v>
+        <v>99.748</v>
       </c>
       <c r="D91" t="s">
         <v>607</v>
@@ -3759,10 +3759,10 @@
         <v>95</v>
       </c>
       <c r="B92" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C92">
-        <v>98.29900000000001</v>
+        <v>95.54300000000001</v>
       </c>
       <c r="D92" t="s">
         <v>607</v>
@@ -3776,10 +3776,10 @@
         <v>96</v>
       </c>
       <c r="B93" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C93">
-        <v>93.26900000000001</v>
+        <v>93.04600000000001</v>
       </c>
       <c r="D93" t="s">
         <v>607</v>
@@ -3796,7 +3796,7 @@
         <v>605</v>
       </c>
       <c r="C94">
-        <v>101.492</v>
+        <v>98.691</v>
       </c>
       <c r="D94" t="s">
         <v>607</v>
@@ -3810,10 +3810,10 @@
         <v>98</v>
       </c>
       <c r="B95" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C95">
-        <v>99.077</v>
+        <v>94.661</v>
       </c>
       <c r="D95" t="s">
         <v>607</v>
@@ -3827,10 +3827,10 @@
         <v>99</v>
       </c>
       <c r="B96" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C96">
-        <v>102.81</v>
+        <v>103.677</v>
       </c>
       <c r="D96" t="s">
         <v>607</v>
@@ -3844,10 +3844,10 @@
         <v>100</v>
       </c>
       <c r="B97" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C97">
-        <v>88.563</v>
+        <v>89.059</v>
       </c>
       <c r="D97" t="s">
         <v>607</v>
@@ -3861,10 +3861,10 @@
         <v>101</v>
       </c>
       <c r="B98" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C98">
-        <v>109.293</v>
+        <v>101.649</v>
       </c>
       <c r="D98" t="s">
         <v>607</v>
@@ -3881,7 +3881,7 @@
         <v>605</v>
       </c>
       <c r="C99">
-        <v>100.164</v>
+        <v>99.404</v>
       </c>
       <c r="D99" t="s">
         <v>607</v>
@@ -3895,10 +3895,10 @@
         <v>103</v>
       </c>
       <c r="B100" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C100">
-        <v>102.637</v>
+        <v>101.69</v>
       </c>
       <c r="D100" t="s">
         <v>607</v>
@@ -3912,10 +3912,10 @@
         <v>104</v>
       </c>
       <c r="B101" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C101">
-        <v>103.173</v>
+        <v>100.188</v>
       </c>
       <c r="D101" t="s">
         <v>607</v>
@@ -3929,10 +3929,10 @@
         <v>105</v>
       </c>
       <c r="B102" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C102">
-        <v>101.065</v>
+        <v>104.935</v>
       </c>
       <c r="D102" t="s">
         <v>607</v>
@@ -3946,10 +3946,10 @@
         <v>106</v>
       </c>
       <c r="B103" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C103">
-        <v>105.759</v>
+        <v>104.424</v>
       </c>
       <c r="D103" t="s">
         <v>607</v>
@@ -3963,10 +3963,10 @@
         <v>107</v>
       </c>
       <c r="B104" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C104">
-        <v>104.715</v>
+        <v>104.1</v>
       </c>
       <c r="D104" t="s">
         <v>607</v>
@@ -3980,10 +3980,10 @@
         <v>108</v>
       </c>
       <c r="B105" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C105">
-        <v>97.637</v>
+        <v>96.279</v>
       </c>
       <c r="D105" t="s">
         <v>607</v>
@@ -3997,10 +3997,10 @@
         <v>109</v>
       </c>
       <c r="B106" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C106">
-        <v>100.942</v>
+        <v>100.068</v>
       </c>
       <c r="D106" t="s">
         <v>607</v>
@@ -4014,10 +4014,10 @@
         <v>110</v>
       </c>
       <c r="B107" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C107">
-        <v>105.852</v>
+        <v>105.05</v>
       </c>
       <c r="D107" t="s">
         <v>607</v>
@@ -4031,10 +4031,10 @@
         <v>111</v>
       </c>
       <c r="B108" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C108">
-        <v>99.245</v>
+        <v>99.343</v>
       </c>
       <c r="D108" t="s">
         <v>607</v>
@@ -4048,10 +4048,10 @@
         <v>112</v>
       </c>
       <c r="B109" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C109">
-        <v>100.097</v>
+        <v>100.88</v>
       </c>
       <c r="D109" t="s">
         <v>607</v>
@@ -4065,10 +4065,10 @@
         <v>113</v>
       </c>
       <c r="B110" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C110">
-        <v>103.323</v>
+        <v>101.75</v>
       </c>
       <c r="D110" t="s">
         <v>607</v>
@@ -4082,10 +4082,10 @@
         <v>114</v>
       </c>
       <c r="B111" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C111">
-        <v>101.019</v>
+        <v>100.578</v>
       </c>
       <c r="D111" t="s">
         <v>607</v>
@@ -4099,10 +4099,10 @@
         <v>115</v>
       </c>
       <c r="B112" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C112">
-        <v>101.596</v>
+        <v>100.415</v>
       </c>
       <c r="D112" t="s">
         <v>607</v>
@@ -4116,10 +4116,10 @@
         <v>116</v>
       </c>
       <c r="B113" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C113">
-        <v>102.212</v>
+        <v>100.346</v>
       </c>
       <c r="D113" t="s">
         <v>607</v>
@@ -4133,10 +4133,10 @@
         <v>117</v>
       </c>
       <c r="B114" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C114">
-        <v>105.365</v>
+        <v>103.232</v>
       </c>
       <c r="D114" t="s">
         <v>607</v>
@@ -4150,10 +4150,10 @@
         <v>118</v>
       </c>
       <c r="B115" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C115">
-        <v>91.23699999999999</v>
+        <v>90.429</v>
       </c>
       <c r="D115" t="s">
         <v>607</v>
@@ -4167,10 +4167,10 @@
         <v>119</v>
       </c>
       <c r="B116" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C116">
-        <v>96.917</v>
+        <v>95.86499999999999</v>
       </c>
       <c r="D116" t="s">
         <v>607</v>
@@ -4187,7 +4187,7 @@
         <v>605</v>
       </c>
       <c r="C117">
-        <v>100.811</v>
+        <v>99.736</v>
       </c>
       <c r="D117" t="s">
         <v>607</v>
@@ -4201,10 +4201,10 @@
         <v>121</v>
       </c>
       <c r="B118" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C118">
-        <v>97.744</v>
+        <v>97.274</v>
       </c>
       <c r="D118" t="s">
         <v>607</v>
@@ -4218,10 +4218,10 @@
         <v>122</v>
       </c>
       <c r="B119" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C119">
-        <v>92.188</v>
+        <v>91.996</v>
       </c>
       <c r="D119" t="s">
         <v>607</v>
@@ -4235,10 +4235,10 @@
         <v>123</v>
       </c>
       <c r="B120" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C120">
-        <v>114.757</v>
+        <v>111.969</v>
       </c>
       <c r="D120" t="s">
         <v>607</v>
@@ -4252,10 +4252,10 @@
         <v>124</v>
       </c>
       <c r="B121" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C121">
-        <v>105.783</v>
+        <v>103.17</v>
       </c>
       <c r="D121" t="s">
         <v>607</v>
@@ -4269,10 +4269,10 @@
         <v>125</v>
       </c>
       <c r="B122" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C122">
-        <v>101.367</v>
+        <v>100.07</v>
       </c>
       <c r="D122" t="s">
         <v>607</v>
@@ -4289,7 +4289,7 @@
         <v>605</v>
       </c>
       <c r="C123">
-        <v>101.616</v>
+        <v>96.44</v>
       </c>
       <c r="D123" t="s">
         <v>607</v>
@@ -4303,10 +4303,10 @@
         <v>127</v>
       </c>
       <c r="B124" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C124">
-        <v>102.607</v>
+        <v>100.598</v>
       </c>
       <c r="D124" t="s">
         <v>607</v>
@@ -4320,10 +4320,10 @@
         <v>128</v>
       </c>
       <c r="B125" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C125">
-        <v>97.93300000000001</v>
+        <v>99.536</v>
       </c>
       <c r="D125" t="s">
         <v>607</v>
@@ -4337,10 +4337,10 @@
         <v>129</v>
       </c>
       <c r="B126" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C126">
-        <v>100.166</v>
+        <v>100.791</v>
       </c>
       <c r="D126" t="s">
         <v>607</v>
@@ -4354,10 +4354,10 @@
         <v>130</v>
       </c>
       <c r="B127" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C127">
-        <v>102.046</v>
+        <v>102.301</v>
       </c>
       <c r="D127" t="s">
         <v>607</v>
@@ -4374,7 +4374,7 @@
         <v>605</v>
       </c>
       <c r="C128">
-        <v>101.674</v>
+        <v>92.857</v>
       </c>
       <c r="D128" t="s">
         <v>607</v>
@@ -4388,10 +4388,10 @@
         <v>132</v>
       </c>
       <c r="B129" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C129">
-        <v>99.482</v>
+        <v>97.83499999999999</v>
       </c>
       <c r="D129" t="s">
         <v>607</v>
@@ -4405,10 +4405,10 @@
         <v>133</v>
       </c>
       <c r="B130" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C130">
-        <v>98.864</v>
+        <v>98.039</v>
       </c>
       <c r="D130" t="s">
         <v>607</v>
@@ -4425,7 +4425,7 @@
         <v>605</v>
       </c>
       <c r="C131">
-        <v>100.075</v>
+        <v>98.23099999999999</v>
       </c>
       <c r="D131" t="s">
         <v>607</v>
@@ -4439,10 +4439,10 @@
         <v>135</v>
       </c>
       <c r="B132" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C132">
-        <v>109.301</v>
+        <v>106.751</v>
       </c>
       <c r="D132" t="s">
         <v>607</v>
@@ -4456,10 +4456,10 @@
         <v>136</v>
       </c>
       <c r="B133" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C133">
-        <v>107.48</v>
+        <v>106.908</v>
       </c>
       <c r="D133" t="s">
         <v>607</v>
@@ -4473,10 +4473,10 @@
         <v>137</v>
       </c>
       <c r="B134" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C134">
-        <v>107.874</v>
+        <v>107.279</v>
       </c>
       <c r="D134" t="s">
         <v>607</v>
@@ -4490,10 +4490,10 @@
         <v>138</v>
       </c>
       <c r="B135" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C135">
-        <v>106.141</v>
+        <v>106.757</v>
       </c>
       <c r="D135" t="s">
         <v>607</v>
@@ -4507,10 +4507,10 @@
         <v>139</v>
       </c>
       <c r="B136" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C136">
-        <v>106.905</v>
+        <v>105.35</v>
       </c>
       <c r="D136" t="s">
         <v>607</v>
@@ -4524,10 +4524,10 @@
         <v>140</v>
       </c>
       <c r="B137" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C137">
-        <v>100.883</v>
+        <v>100.982</v>
       </c>
       <c r="D137" t="s">
         <v>607</v>
@@ -4541,10 +4541,10 @@
         <v>141</v>
       </c>
       <c r="B138" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C138">
-        <v>102.326</v>
+        <v>101.393</v>
       </c>
       <c r="D138" t="s">
         <v>607</v>
@@ -4558,10 +4558,10 @@
         <v>142</v>
       </c>
       <c r="B139" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C139">
-        <v>96.16500000000001</v>
+        <v>95.899</v>
       </c>
       <c r="D139" t="s">
         <v>607</v>
@@ -4575,10 +4575,10 @@
         <v>143</v>
       </c>
       <c r="B140" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C140">
-        <v>97.98</v>
+        <v>97.17</v>
       </c>
       <c r="D140" t="s">
         <v>607</v>
@@ -4592,10 +4592,10 @@
         <v>144</v>
       </c>
       <c r="B141" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C141">
-        <v>95.91</v>
+        <v>95.53</v>
       </c>
       <c r="D141" t="s">
         <v>607</v>
@@ -4612,7 +4612,7 @@
         <v>605</v>
       </c>
       <c r="C142">
-        <v>100.71</v>
+        <v>99.95999999999999</v>
       </c>
       <c r="D142" t="s">
         <v>607</v>
@@ -4626,10 +4626,10 @@
         <v>146</v>
       </c>
       <c r="B143" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C143">
-        <v>103.409</v>
+        <v>103.12</v>
       </c>
       <c r="D143" t="s">
         <v>607</v>
@@ -4643,10 +4643,10 @@
         <v>147</v>
       </c>
       <c r="B144" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C144">
-        <v>102.37</v>
+        <v>102.56</v>
       </c>
       <c r="D144" t="s">
         <v>607</v>
@@ -4660,10 +4660,10 @@
         <v>148</v>
       </c>
       <c r="B145" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C145">
-        <v>106.292</v>
+        <v>106.348</v>
       </c>
       <c r="D145" t="s">
         <v>607</v>
@@ -4677,10 +4677,10 @@
         <v>149</v>
       </c>
       <c r="B146" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C146">
-        <v>102.574</v>
+        <v>102.62</v>
       </c>
       <c r="D146" t="s">
         <v>607</v>
@@ -4694,10 +4694,10 @@
         <v>150</v>
       </c>
       <c r="B147" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C147">
-        <v>98.782</v>
+        <v>99.16500000000001</v>
       </c>
       <c r="D147" t="s">
         <v>607</v>
@@ -4714,7 +4714,7 @@
         <v>605</v>
       </c>
       <c r="C148">
-        <v>100.136</v>
+        <v>99.252</v>
       </c>
       <c r="D148" t="s">
         <v>607</v>
@@ -4728,10 +4728,10 @@
         <v>152</v>
       </c>
       <c r="B149" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C149">
-        <v>104.263</v>
+        <v>103.345</v>
       </c>
       <c r="D149" t="s">
         <v>607</v>
@@ -4745,10 +4745,10 @@
         <v>153</v>
       </c>
       <c r="B150" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C150">
-        <v>93.551</v>
+        <v>93.248</v>
       </c>
       <c r="D150" t="s">
         <v>607</v>
@@ -4762,10 +4762,10 @@
         <v>154</v>
       </c>
       <c r="B151" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C151">
-        <v>106.967</v>
+        <v>106.945</v>
       </c>
       <c r="D151" t="s">
         <v>607</v>
@@ -4779,10 +4779,10 @@
         <v>155</v>
       </c>
       <c r="B152" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C152">
-        <v>103.609</v>
+        <v>104.554</v>
       </c>
       <c r="D152" t="s">
         <v>607</v>
@@ -4796,10 +4796,10 @@
         <v>156</v>
       </c>
       <c r="B153" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C153">
-        <v>106.061</v>
+        <v>108.159</v>
       </c>
       <c r="D153" t="s">
         <v>607</v>
@@ -4813,10 +4813,10 @@
         <v>157</v>
       </c>
       <c r="B154" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C154">
-        <v>103.014</v>
+        <v>100.2</v>
       </c>
       <c r="D154" t="s">
         <v>607</v>
@@ -4830,10 +4830,10 @@
         <v>158</v>
       </c>
       <c r="B155" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C155">
-        <v>92.402</v>
+        <v>92.04900000000001</v>
       </c>
       <c r="D155" t="s">
         <v>607</v>
@@ -4847,10 +4847,10 @@
         <v>159</v>
       </c>
       <c r="B156" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C156">
-        <v>103.385</v>
+        <v>104.374</v>
       </c>
       <c r="D156" t="s">
         <v>607</v>
@@ -4867,7 +4867,7 @@
         <v>606</v>
       </c>
       <c r="C157">
-        <v>99.852</v>
+        <v>102.269</v>
       </c>
       <c r="D157" t="s">
         <v>607</v>
@@ -4881,10 +4881,10 @@
         <v>161</v>
       </c>
       <c r="B158" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C158">
-        <v>104.5</v>
+        <v>102.641</v>
       </c>
       <c r="D158" t="s">
         <v>607</v>
@@ -4898,10 +4898,10 @@
         <v>162</v>
       </c>
       <c r="B159" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C159">
-        <v>101.29</v>
+        <v>100.029</v>
       </c>
       <c r="D159" t="s">
         <v>607</v>
@@ -4918,7 +4918,7 @@
         <v>605</v>
       </c>
       <c r="C160">
-        <v>101.46</v>
+        <v>98.953</v>
       </c>
       <c r="D160" t="s">
         <v>607</v>
@@ -4932,10 +4932,10 @@
         <v>164</v>
       </c>
       <c r="B161" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C161">
-        <v>89.181</v>
+        <v>89.63800000000001</v>
       </c>
       <c r="D161" t="s">
         <v>607</v>
@@ -4949,10 +4949,10 @@
         <v>165</v>
       </c>
       <c r="B162" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C162">
-        <v>107.356</v>
+        <v>100.703</v>
       </c>
       <c r="D162" t="s">
         <v>607</v>
@@ -4969,7 +4969,7 @@
         <v>605</v>
       </c>
       <c r="C163">
-        <v>100.021</v>
+        <v>98.717</v>
       </c>
       <c r="D163" t="s">
         <v>607</v>
@@ -4983,10 +4983,10 @@
         <v>167</v>
       </c>
       <c r="B164" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C164">
-        <v>108.016</v>
+        <v>104.774</v>
       </c>
       <c r="D164" t="s">
         <v>607</v>
@@ -5000,10 +5000,10 @@
         <v>168</v>
       </c>
       <c r="B165" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C165">
-        <v>106.199</v>
+        <v>103.327</v>
       </c>
       <c r="D165" t="s">
         <v>607</v>
@@ -5017,10 +5017,10 @@
         <v>169</v>
       </c>
       <c r="B166" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C166">
-        <v>103.503</v>
+        <v>102.628</v>
       </c>
       <c r="D166" t="s">
         <v>607</v>
@@ -5034,10 +5034,10 @@
         <v>170</v>
       </c>
       <c r="B167" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C167">
-        <v>101.92</v>
+        <v>100.729</v>
       </c>
       <c r="D167" t="s">
         <v>607</v>
@@ -5051,10 +5051,10 @@
         <v>171</v>
       </c>
       <c r="B168" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C168">
-        <v>101.739</v>
+        <v>102.069</v>
       </c>
       <c r="D168" t="s">
         <v>607</v>
@@ -5068,10 +5068,10 @@
         <v>172</v>
       </c>
       <c r="B169" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C169">
-        <v>100.717</v>
+        <v>102.818</v>
       </c>
       <c r="D169" t="s">
         <v>607</v>
@@ -5085,10 +5085,10 @@
         <v>173</v>
       </c>
       <c r="B170" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C170">
-        <v>103.084</v>
+        <v>102.774</v>
       </c>
       <c r="D170" t="s">
         <v>607</v>
@@ -5102,10 +5102,10 @@
         <v>174</v>
       </c>
       <c r="B171" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C171">
-        <v>99.596</v>
+        <v>99.45999999999999</v>
       </c>
       <c r="D171" t="s">
         <v>607</v>
@@ -5119,10 +5119,10 @@
         <v>175</v>
       </c>
       <c r="B172" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C172">
-        <v>100.795</v>
+        <v>101.214</v>
       </c>
       <c r="D172" t="s">
         <v>607</v>
@@ -5136,10 +5136,10 @@
         <v>176</v>
       </c>
       <c r="B173" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C173">
-        <v>102.253</v>
+        <v>101.195</v>
       </c>
       <c r="D173" t="s">
         <v>607</v>
@@ -5153,10 +5153,10 @@
         <v>177</v>
       </c>
       <c r="B174" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C174">
-        <v>106.932</v>
+        <v>112.513</v>
       </c>
       <c r="D174" t="s">
         <v>607</v>
@@ -5170,10 +5170,10 @@
         <v>178</v>
       </c>
       <c r="B175" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C175">
-        <v>102.751</v>
+        <v>100.161</v>
       </c>
       <c r="D175" t="s">
         <v>607</v>
@@ -5187,10 +5187,10 @@
         <v>179</v>
       </c>
       <c r="B176" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C176">
-        <v>100.265</v>
+        <v>100.333</v>
       </c>
       <c r="D176" t="s">
         <v>607</v>
@@ -5204,10 +5204,10 @@
         <v>180</v>
       </c>
       <c r="B177" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C177">
-        <v>108.148</v>
+        <v>108.242</v>
       </c>
       <c r="D177" t="s">
         <v>607</v>
@@ -5221,10 +5221,10 @@
         <v>181</v>
       </c>
       <c r="B178" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C178">
-        <v>101.284</v>
+        <v>101.122</v>
       </c>
       <c r="D178" t="s">
         <v>607</v>
@@ -5238,10 +5238,10 @@
         <v>182</v>
       </c>
       <c r="B179" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C179">
-        <v>102.369</v>
+        <v>100.444</v>
       </c>
       <c r="D179" t="s">
         <v>607</v>
@@ -5255,10 +5255,10 @@
         <v>183</v>
       </c>
       <c r="B180" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C180">
-        <v>102.225</v>
+        <v>100.725</v>
       </c>
       <c r="D180" t="s">
         <v>607</v>
@@ -5272,10 +5272,10 @@
         <v>184</v>
       </c>
       <c r="B181" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C181">
-        <v>97.467</v>
+        <v>95.471</v>
       </c>
       <c r="D181" t="s">
         <v>607</v>
@@ -5289,10 +5289,10 @@
         <v>185</v>
       </c>
       <c r="B182" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C182">
-        <v>110.95</v>
+        <v>110.341</v>
       </c>
       <c r="D182" t="s">
         <v>607</v>
@@ -5306,10 +5306,10 @@
         <v>186</v>
       </c>
       <c r="B183" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C183">
-        <v>114.878</v>
+        <v>113.535</v>
       </c>
       <c r="D183" t="s">
         <v>607</v>
@@ -5323,10 +5323,10 @@
         <v>187</v>
       </c>
       <c r="B184" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C184">
-        <v>101.892</v>
+        <v>100.451</v>
       </c>
       <c r="D184" t="s">
         <v>607</v>
@@ -5340,10 +5340,10 @@
         <v>188</v>
       </c>
       <c r="B185" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C185">
-        <v>103.316</v>
+        <v>102.887</v>
       </c>
       <c r="D185" t="s">
         <v>607</v>
@@ -5357,10 +5357,10 @@
         <v>189</v>
       </c>
       <c r="B186" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C186">
-        <v>111.53</v>
+        <v>113.062</v>
       </c>
       <c r="D186" t="s">
         <v>607</v>
@@ -5374,10 +5374,10 @@
         <v>190</v>
       </c>
       <c r="B187" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C187">
-        <v>104.976</v>
+        <v>101.747</v>
       </c>
       <c r="D187" t="s">
         <v>607</v>
@@ -5391,10 +5391,10 @@
         <v>191</v>
       </c>
       <c r="B188" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C188">
-        <v>106.522</v>
+        <v>106.663</v>
       </c>
       <c r="D188" t="s">
         <v>607</v>
@@ -5408,10 +5408,10 @@
         <v>192</v>
       </c>
       <c r="B189" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C189">
-        <v>103.623</v>
+        <v>104.132</v>
       </c>
       <c r="D189" t="s">
         <v>607</v>
@@ -5425,10 +5425,10 @@
         <v>193</v>
       </c>
       <c r="B190" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C190">
-        <v>116.035</v>
+        <v>111.578</v>
       </c>
       <c r="D190" t="s">
         <v>607</v>
@@ -5442,10 +5442,10 @@
         <v>194</v>
       </c>
       <c r="B191" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C191">
-        <v>105.785</v>
+        <v>106.899</v>
       </c>
       <c r="D191" t="s">
         <v>607</v>
@@ -5459,10 +5459,10 @@
         <v>195</v>
       </c>
       <c r="B192" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C192">
-        <v>104.102</v>
+        <v>103.115</v>
       </c>
       <c r="D192" t="s">
         <v>607</v>
@@ -5476,10 +5476,10 @@
         <v>196</v>
       </c>
       <c r="B193" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C193">
-        <v>104.891</v>
+        <v>104.451</v>
       </c>
       <c r="D193" t="s">
         <v>607</v>
@@ -5493,10 +5493,10 @@
         <v>197</v>
       </c>
       <c r="B194" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C194">
-        <v>101.07</v>
+        <v>102.705</v>
       </c>
       <c r="D194" t="s">
         <v>607</v>
@@ -5510,10 +5510,10 @@
         <v>198</v>
       </c>
       <c r="B195" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C195">
-        <v>99.44799999999999</v>
+        <v>97.55500000000001</v>
       </c>
       <c r="D195" t="s">
         <v>607</v>
@@ -5527,10 +5527,10 @@
         <v>199</v>
       </c>
       <c r="B196" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C196">
-        <v>102.224</v>
+        <v>102.554</v>
       </c>
       <c r="D196" t="s">
         <v>607</v>
@@ -5544,10 +5544,10 @@
         <v>200</v>
       </c>
       <c r="B197" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C197">
-        <v>91.8</v>
+        <v>91.57299999999999</v>
       </c>
       <c r="D197" t="s">
         <v>607</v>
@@ -5561,10 +5561,10 @@
         <v>201</v>
       </c>
       <c r="B198" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C198">
-        <v>99.32599999999999</v>
+        <v>98.39700000000001</v>
       </c>
       <c r="D198" t="s">
         <v>607</v>
@@ -5578,10 +5578,10 @@
         <v>202</v>
       </c>
       <c r="B199" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C199">
-        <v>102.399</v>
+        <v>102.398</v>
       </c>
       <c r="D199" t="s">
         <v>607</v>
@@ -5598,7 +5598,7 @@
         <v>605</v>
       </c>
       <c r="C200">
-        <v>101.196</v>
+        <v>99.331</v>
       </c>
       <c r="D200" t="s">
         <v>607</v>
@@ -5612,10 +5612,10 @@
         <v>204</v>
       </c>
       <c r="B201" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C201">
-        <v>104.251</v>
+        <v>105.85</v>
       </c>
       <c r="D201" t="s">
         <v>607</v>
@@ -5629,10 +5629,10 @@
         <v>205</v>
       </c>
       <c r="B202" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C202">
-        <v>104.032</v>
+        <v>101.962</v>
       </c>
       <c r="D202" t="s">
         <v>607</v>
@@ -5646,10 +5646,10 @@
         <v>206</v>
       </c>
       <c r="B203" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C203">
-        <v>109.924</v>
+        <v>108.93</v>
       </c>
       <c r="D203" t="s">
         <v>607</v>
@@ -5663,10 +5663,10 @@
         <v>207</v>
       </c>
       <c r="B204" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C204">
-        <v>103.049</v>
+        <v>101.26</v>
       </c>
       <c r="D204" t="s">
         <v>607</v>
@@ -5680,10 +5680,10 @@
         <v>208</v>
       </c>
       <c r="B205" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C205">
-        <v>101.629</v>
+        <v>101.236</v>
       </c>
       <c r="D205" t="s">
         <v>607</v>
@@ -5697,10 +5697,10 @@
         <v>209</v>
       </c>
       <c r="B206" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C206">
-        <v>99.259</v>
+        <v>96.16800000000001</v>
       </c>
       <c r="D206" t="s">
         <v>607</v>
@@ -5714,10 +5714,10 @@
         <v>210</v>
       </c>
       <c r="B207" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C207">
-        <v>104.336</v>
+        <v>101.95</v>
       </c>
       <c r="D207" t="s">
         <v>607</v>
@@ -5734,7 +5734,7 @@
         <v>605</v>
       </c>
       <c r="C208">
-        <v>101.828</v>
+        <v>95.82899999999999</v>
       </c>
       <c r="D208" t="s">
         <v>607</v>
@@ -5748,10 +5748,10 @@
         <v>212</v>
       </c>
       <c r="B209" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C209">
-        <v>102.353</v>
+        <v>103.482</v>
       </c>
       <c r="D209" t="s">
         <v>607</v>
@@ -5765,10 +5765,10 @@
         <v>213</v>
       </c>
       <c r="B210" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C210">
-        <v>103.544</v>
+        <v>101.19</v>
       </c>
       <c r="D210" t="s">
         <v>607</v>
@@ -5782,10 +5782,10 @@
         <v>214</v>
       </c>
       <c r="B211" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C211">
-        <v>103.213</v>
+        <v>101.375</v>
       </c>
       <c r="D211" t="s">
         <v>607</v>
@@ -5799,10 +5799,10 @@
         <v>215</v>
       </c>
       <c r="B212" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C212">
-        <v>114.345</v>
+        <v>112.688</v>
       </c>
       <c r="D212" t="s">
         <v>607</v>
@@ -5816,10 +5816,10 @@
         <v>216</v>
       </c>
       <c r="B213" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C213">
-        <v>96.155</v>
+        <v>95.78</v>
       </c>
       <c r="D213" t="s">
         <v>607</v>
@@ -5833,10 +5833,10 @@
         <v>217</v>
       </c>
       <c r="B214" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C214">
-        <v>106.602</v>
+        <v>104.394</v>
       </c>
       <c r="D214" t="s">
         <v>607</v>
@@ -5850,10 +5850,10 @@
         <v>218</v>
       </c>
       <c r="B215" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C215">
-        <v>105.092</v>
+        <v>105.966</v>
       </c>
       <c r="D215" t="s">
         <v>607</v>
@@ -5867,10 +5867,10 @@
         <v>219</v>
       </c>
       <c r="B216" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C216">
-        <v>102.757</v>
+        <v>103.259</v>
       </c>
       <c r="D216" t="s">
         <v>607</v>
@@ -5884,10 +5884,10 @@
         <v>220</v>
       </c>
       <c r="B217" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C217">
-        <v>102.462</v>
+        <v>101.617</v>
       </c>
       <c r="D217" t="s">
         <v>607</v>
@@ -5901,10 +5901,10 @@
         <v>221</v>
       </c>
       <c r="B218" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C218">
-        <v>103.516</v>
+        <v>102.479</v>
       </c>
       <c r="D218" t="s">
         <v>607</v>
@@ -5918,10 +5918,10 @@
         <v>222</v>
       </c>
       <c r="B219" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C219">
-        <v>93.66500000000001</v>
+        <v>95.196</v>
       </c>
       <c r="D219" t="s">
         <v>607</v>
@@ -5935,10 +5935,10 @@
         <v>223</v>
       </c>
       <c r="B220" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C220">
-        <v>99.331</v>
+        <v>98.541</v>
       </c>
       <c r="D220" t="s">
         <v>607</v>
@@ -5952,10 +5952,10 @@
         <v>224</v>
       </c>
       <c r="B221" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C221">
-        <v>105.683</v>
+        <v>105.205</v>
       </c>
       <c r="D221" t="s">
         <v>607</v>
@@ -5972,7 +5972,7 @@
         <v>605</v>
       </c>
       <c r="C222">
-        <v>102.227</v>
+        <v>98.017</v>
       </c>
       <c r="D222" t="s">
         <v>607</v>
@@ -5986,10 +5986,10 @@
         <v>226</v>
       </c>
       <c r="B223" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C223">
-        <v>98.771</v>
+        <v>98.59</v>
       </c>
       <c r="D223" t="s">
         <v>607</v>
@@ -6003,10 +6003,10 @@
         <v>227</v>
       </c>
       <c r="B224" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C224">
-        <v>102.994</v>
+        <v>102.251</v>
       </c>
       <c r="D224" t="s">
         <v>607</v>
@@ -6020,10 +6020,10 @@
         <v>228</v>
       </c>
       <c r="B225" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C225">
-        <v>113.976</v>
+        <v>112.912</v>
       </c>
       <c r="D225" t="s">
         <v>607</v>
@@ -6037,10 +6037,10 @@
         <v>229</v>
       </c>
       <c r="B226" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C226">
-        <v>98.98099999999999</v>
+        <v>97.614</v>
       </c>
       <c r="D226" t="s">
         <v>607</v>
@@ -6054,10 +6054,10 @@
         <v>230</v>
       </c>
       <c r="B227" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C227">
-        <v>105.363</v>
+        <v>105.239</v>
       </c>
       <c r="D227" t="s">
         <v>607</v>
@@ -6071,10 +6071,10 @@
         <v>231</v>
       </c>
       <c r="B228" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C228">
-        <v>104.941</v>
+        <v>104.15</v>
       </c>
       <c r="D228" t="s">
         <v>607</v>
@@ -6088,10 +6088,10 @@
         <v>232</v>
       </c>
       <c r="B229" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C229">
-        <v>104.525</v>
+        <v>102.389</v>
       </c>
       <c r="D229" t="s">
         <v>607</v>
@@ -6105,10 +6105,10 @@
         <v>233</v>
       </c>
       <c r="B230" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C230">
-        <v>105.148</v>
+        <v>103.722</v>
       </c>
       <c r="D230" t="s">
         <v>607</v>
@@ -6122,10 +6122,10 @@
         <v>234</v>
       </c>
       <c r="B231" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C231">
-        <v>101.341</v>
+        <v>101.962</v>
       </c>
       <c r="D231" t="s">
         <v>607</v>
@@ -6139,10 +6139,10 @@
         <v>235</v>
       </c>
       <c r="B232" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C232">
-        <v>103.078</v>
+        <v>101.817</v>
       </c>
       <c r="D232" t="s">
         <v>607</v>
@@ -6156,10 +6156,10 @@
         <v>236</v>
       </c>
       <c r="B233" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C233">
-        <v>99.324</v>
+        <v>98.756</v>
       </c>
       <c r="D233" t="s">
         <v>607</v>
@@ -6173,10 +6173,10 @@
         <v>237</v>
       </c>
       <c r="B234" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C234">
-        <v>99.215</v>
+        <v>99.75700000000001</v>
       </c>
       <c r="D234" t="s">
         <v>607</v>
@@ -6190,10 +6190,10 @@
         <v>238</v>
       </c>
       <c r="B235" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C235">
-        <v>105.757</v>
+        <v>104.486</v>
       </c>
       <c r="D235" t="s">
         <v>607</v>
@@ -6207,10 +6207,10 @@
         <v>239</v>
       </c>
       <c r="B236" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C236">
-        <v>104.131</v>
+        <v>102.762</v>
       </c>
       <c r="D236" t="s">
         <v>607</v>
@@ -6224,10 +6224,10 @@
         <v>240</v>
       </c>
       <c r="B237" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C237">
-        <v>103.346</v>
+        <v>103.32</v>
       </c>
       <c r="D237" t="s">
         <v>607</v>
@@ -6241,10 +6241,10 @@
         <v>241</v>
       </c>
       <c r="B238" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C238">
-        <v>101.912</v>
+        <v>101.266</v>
       </c>
       <c r="D238" t="s">
         <v>607</v>
@@ -6258,10 +6258,10 @@
         <v>242</v>
       </c>
       <c r="B239" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C239">
-        <v>102.653</v>
+        <v>103.146</v>
       </c>
       <c r="D239" t="s">
         <v>607</v>
@@ -6275,10 +6275,10 @@
         <v>243</v>
       </c>
       <c r="B240" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C240">
-        <v>102.332</v>
+        <v>100.435</v>
       </c>
       <c r="D240" t="s">
         <v>607</v>
@@ -6292,10 +6292,10 @@
         <v>244</v>
       </c>
       <c r="B241" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C241">
-        <v>106.104</v>
+        <v>106.547</v>
       </c>
       <c r="D241" t="s">
         <v>607</v>
@@ -6309,10 +6309,10 @@
         <v>245</v>
       </c>
       <c r="B242" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C242">
-        <v>104.217</v>
+        <v>103.084</v>
       </c>
       <c r="D242" t="s">
         <v>607</v>
@@ -6326,10 +6326,10 @@
         <v>246</v>
       </c>
       <c r="B243" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C243">
-        <v>103.447</v>
+        <v>102.233</v>
       </c>
       <c r="D243" t="s">
         <v>607</v>
@@ -6343,10 +6343,10 @@
         <v>247</v>
       </c>
       <c r="B244" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C244">
-        <v>100.7</v>
+        <v>101.499</v>
       </c>
       <c r="D244" t="s">
         <v>607</v>
@@ -6360,10 +6360,10 @@
         <v>248</v>
       </c>
       <c r="B245" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C245">
-        <v>103.747</v>
+        <v>101.104</v>
       </c>
       <c r="D245" t="s">
         <v>607</v>
@@ -6377,10 +6377,10 @@
         <v>249</v>
       </c>
       <c r="B246" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C246">
-        <v>97.858</v>
+        <v>97.252</v>
       </c>
       <c r="D246" t="s">
         <v>607</v>
@@ -6394,10 +6394,10 @@
         <v>250</v>
       </c>
       <c r="B247" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C247">
-        <v>101.57</v>
+        <v>100.501</v>
       </c>
       <c r="D247" t="s">
         <v>607</v>
@@ -6411,10 +6411,10 @@
         <v>251</v>
       </c>
       <c r="B248" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C248">
-        <v>106.346</v>
+        <v>107.522</v>
       </c>
       <c r="D248" t="s">
         <v>607</v>
@@ -6428,10 +6428,10 @@
         <v>252</v>
       </c>
       <c r="B249" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C249">
-        <v>102.046</v>
+        <v>100.042</v>
       </c>
       <c r="D249" t="s">
         <v>607</v>
@@ -6445,10 +6445,10 @@
         <v>253</v>
       </c>
       <c r="B250" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C250">
-        <v>102.047</v>
+        <v>102.028</v>
       </c>
       <c r="D250" t="s">
         <v>607</v>
@@ -6462,10 +6462,10 @@
         <v>254</v>
       </c>
       <c r="B251" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C251">
-        <v>102.677</v>
+        <v>103.386</v>
       </c>
       <c r="D251" t="s">
         <v>607</v>
@@ -6479,10 +6479,10 @@
         <v>255</v>
       </c>
       <c r="B252" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C252">
-        <v>108.488</v>
+        <v>107.474</v>
       </c>
       <c r="D252" t="s">
         <v>607</v>
@@ -6499,7 +6499,7 @@
         <v>605</v>
       </c>
       <c r="C253">
-        <v>102.012</v>
+        <v>99.964</v>
       </c>
       <c r="D253" t="s">
         <v>607</v>
@@ -6516,7 +6516,7 @@
         <v>606</v>
       </c>
       <c r="C254">
-        <v>98.47199999999999</v>
+        <v>100.558</v>
       </c>
       <c r="D254" t="s">
         <v>607</v>
@@ -6530,10 +6530,10 @@
         <v>258</v>
       </c>
       <c r="B255" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C255">
-        <v>98.369</v>
+        <v>97.577</v>
       </c>
       <c r="D255" t="s">
         <v>607</v>
@@ -6547,10 +6547,10 @@
         <v>259</v>
       </c>
       <c r="B256" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C256">
-        <v>106.214</v>
+        <v>104.719</v>
       </c>
       <c r="D256" t="s">
         <v>607</v>
@@ -6567,7 +6567,7 @@
         <v>606</v>
       </c>
       <c r="C257">
-        <v>99.346</v>
+        <v>100.123</v>
       </c>
       <c r="D257" t="s">
         <v>607</v>
@@ -6581,10 +6581,10 @@
         <v>261</v>
       </c>
       <c r="B258" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C258">
-        <v>103.826</v>
+        <v>101.436</v>
       </c>
       <c r="D258" t="s">
         <v>607</v>
@@ -6601,7 +6601,7 @@
         <v>605</v>
       </c>
       <c r="C259">
-        <v>100.24</v>
+        <v>99.06999999999999</v>
       </c>
       <c r="D259" t="s">
         <v>607</v>
@@ -6615,10 +6615,10 @@
         <v>263</v>
       </c>
       <c r="B260" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C260">
-        <v>103.516</v>
+        <v>100.41</v>
       </c>
       <c r="D260" t="s">
         <v>607</v>
@@ -6632,10 +6632,10 @@
         <v>264</v>
       </c>
       <c r="B261" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C261">
-        <v>94.52200000000001</v>
+        <v>94.61199999999999</v>
       </c>
       <c r="D261" t="s">
         <v>607</v>
@@ -6649,10 +6649,10 @@
         <v>265</v>
       </c>
       <c r="B262" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C262">
-        <v>102.697</v>
+        <v>101.915</v>
       </c>
       <c r="D262" t="s">
         <v>607</v>
@@ -6666,10 +6666,10 @@
         <v>266</v>
       </c>
       <c r="B263" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C263">
-        <v>105.883</v>
+        <v>107.017</v>
       </c>
       <c r="D263" t="s">
         <v>607</v>
@@ -6683,10 +6683,10 @@
         <v>267</v>
       </c>
       <c r="B264" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C264">
-        <v>103.333</v>
+        <v>103.552</v>
       </c>
       <c r="D264" t="s">
         <v>607</v>
@@ -6700,10 +6700,10 @@
         <v>268</v>
       </c>
       <c r="B265" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C265">
-        <v>102.767</v>
+        <v>103.118</v>
       </c>
       <c r="D265" t="s">
         <v>607</v>
@@ -6717,10 +6717,10 @@
         <v>269</v>
       </c>
       <c r="B266" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C266">
-        <v>106.527</v>
+        <v>106.432</v>
       </c>
       <c r="D266" t="s">
         <v>607</v>
@@ -6734,10 +6734,10 @@
         <v>270</v>
       </c>
       <c r="B267" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C267">
-        <v>105.134</v>
+        <v>103.643</v>
       </c>
       <c r="D267" t="s">
         <v>607</v>
@@ -6751,10 +6751,10 @@
         <v>271</v>
       </c>
       <c r="B268" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C268">
-        <v>98.429</v>
+        <v>99.53700000000001</v>
       </c>
       <c r="D268" t="s">
         <v>607</v>
@@ -6771,7 +6771,7 @@
         <v>606</v>
       </c>
       <c r="C269">
-        <v>98.511</v>
+        <v>100.384</v>
       </c>
       <c r="D269" t="s">
         <v>607</v>
@@ -6785,10 +6785,10 @@
         <v>273</v>
       </c>
       <c r="B270" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C270">
-        <v>98.06100000000001</v>
+        <v>94.584</v>
       </c>
       <c r="D270" t="s">
         <v>607</v>
@@ -6805,7 +6805,7 @@
         <v>605</v>
       </c>
       <c r="C271">
-        <v>102.441</v>
+        <v>99.482</v>
       </c>
       <c r="D271" t="s">
         <v>607</v>
@@ -6819,10 +6819,10 @@
         <v>275</v>
       </c>
       <c r="B272" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C272">
-        <v>92.21899999999999</v>
+        <v>93.48399999999999</v>
       </c>
       <c r="D272" t="s">
         <v>607</v>
@@ -6836,10 +6836,10 @@
         <v>276</v>
       </c>
       <c r="B273" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C273">
-        <v>97.708</v>
+        <v>96.129</v>
       </c>
       <c r="D273" t="s">
         <v>607</v>
@@ -6853,10 +6853,10 @@
         <v>277</v>
       </c>
       <c r="B274" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C274">
-        <v>97.992</v>
+        <v>97.45399999999999</v>
       </c>
       <c r="D274" t="s">
         <v>607</v>
@@ -6870,10 +6870,10 @@
         <v>278</v>
       </c>
       <c r="B275" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C275">
-        <v>96.12</v>
+        <v>96.29900000000001</v>
       </c>
       <c r="D275" t="s">
         <v>607</v>
@@ -6887,10 +6887,10 @@
         <v>279</v>
       </c>
       <c r="B276" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C276">
-        <v>108.902</v>
+        <v>106.818</v>
       </c>
       <c r="D276" t="s">
         <v>607</v>
@@ -6904,10 +6904,10 @@
         <v>280</v>
       </c>
       <c r="B277" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C277">
-        <v>104.882</v>
+        <v>103.15</v>
       </c>
       <c r="D277" t="s">
         <v>607</v>
@@ -6921,10 +6921,10 @@
         <v>281</v>
       </c>
       <c r="B278" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C278">
-        <v>101.299</v>
+        <v>100.245</v>
       </c>
       <c r="D278" t="s">
         <v>607</v>
@@ -6941,7 +6941,7 @@
         <v>606</v>
       </c>
       <c r="C279">
-        <v>99.94199999999999</v>
+        <v>101.479</v>
       </c>
       <c r="D279" t="s">
         <v>607</v>
@@ -6955,10 +6955,10 @@
         <v>283</v>
       </c>
       <c r="B280" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C280">
-        <v>103.974</v>
+        <v>103.36</v>
       </c>
       <c r="D280" t="s">
         <v>607</v>
@@ -6972,10 +6972,10 @@
         <v>284</v>
       </c>
       <c r="B281" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C281">
-        <v>97.85299999999999</v>
+        <v>97.375</v>
       </c>
       <c r="D281" t="s">
         <v>607</v>
@@ -6989,10 +6989,10 @@
         <v>285</v>
       </c>
       <c r="B282" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C282">
-        <v>100.292</v>
+        <v>100.456</v>
       </c>
       <c r="D282" t="s">
         <v>607</v>
@@ -7006,10 +7006,10 @@
         <v>286</v>
       </c>
       <c r="B283" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C283">
-        <v>99.806</v>
+        <v>97.85599999999999</v>
       </c>
       <c r="D283" t="s">
         <v>607</v>
@@ -7023,10 +7023,10 @@
         <v>287</v>
       </c>
       <c r="B284" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C284">
-        <v>102.29</v>
+        <v>102.401</v>
       </c>
       <c r="D284" t="s">
         <v>607</v>
@@ -7040,10 +7040,10 @@
         <v>288</v>
       </c>
       <c r="B285" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C285">
-        <v>110.291</v>
+        <v>110.181</v>
       </c>
       <c r="D285" t="s">
         <v>607</v>
@@ -7057,10 +